--- a/0.36/compatibility.xlsx
+++ b/0.36/compatibility.xlsx
@@ -16,8 +16,8 @@
     <sheet name="ALL" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ALL!$A$1:$M$2031</definedName>
-    <definedName name="LIST" localSheetId="1">ALL!$B$1:$M$2031</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ALL!$A$1:$M$2028</definedName>
+    <definedName name="LIST" localSheetId="1">ALL!$B$1:$M$2028</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -14068,10 +14068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14480,6 +14480,75 @@
         <v>689</v>
       </c>
     </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3770</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3771</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>172</v>
+      </c>
+      <c r="M19" t="s">
+        <v>3772</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3773</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3771</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>172</v>
+      </c>
+      <c r="M20" t="s">
+        <v>3774</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3775</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3771</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s">
+        <v>172</v>
+      </c>
+      <c r="M21" t="s">
+        <v>3776</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14487,10 +14556,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2031"/>
+  <dimension ref="A1:M2028"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A320" workbookViewId="0">
-      <selection activeCell="F331" sqref="F331"/>
+    <sheetView tabSelected="1" topLeftCell="A2001" workbookViewId="0">
+      <selection activeCell="D2029" sqref="D2029"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -60100,22 +60169,22 @@
         <v>1870</v>
       </c>
       <c r="B1864" t="s">
-        <v>3770</v>
+        <v>3777</v>
       </c>
       <c r="C1864" t="s">
-        <v>3771</v>
+        <v>3778</v>
       </c>
       <c r="D1864" t="s">
         <v>14</v>
       </c>
       <c r="E1864" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="H1864" t="s">
         <v>172</v>
       </c>
       <c r="M1864" t="s">
-        <v>3772</v>
+        <v>3779</v>
       </c>
     </row>
     <row r="1865" spans="1:13" x14ac:dyDescent="0.3">
@@ -60123,22 +60192,19 @@
         <v>1871</v>
       </c>
       <c r="B1865" t="s">
-        <v>3773</v>
+        <v>3780</v>
       </c>
       <c r="C1865" t="s">
-        <v>3771</v>
+        <v>3781</v>
       </c>
       <c r="D1865" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1865" t="s">
         <v>14</v>
       </c>
       <c r="H1865" t="s">
         <v>172</v>
       </c>
       <c r="M1865" t="s">
-        <v>3774</v>
+        <v>3782</v>
       </c>
     </row>
     <row r="1866" spans="1:13" x14ac:dyDescent="0.3">
@@ -60146,22 +60212,19 @@
         <v>1872</v>
       </c>
       <c r="B1866" t="s">
-        <v>3775</v>
+        <v>3783</v>
       </c>
       <c r="C1866" t="s">
-        <v>3771</v>
+        <v>3781</v>
       </c>
       <c r="D1866" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1866" t="s">
         <v>14</v>
       </c>
       <c r="H1866" t="s">
         <v>172</v>
       </c>
       <c r="M1866" t="s">
-        <v>3776</v>
+        <v>3784</v>
       </c>
     </row>
     <row r="1867" spans="1:13" x14ac:dyDescent="0.3">
@@ -60169,22 +60232,19 @@
         <v>1873</v>
       </c>
       <c r="B1867" t="s">
-        <v>3777</v>
+        <v>3785</v>
       </c>
       <c r="C1867" t="s">
-        <v>3778</v>
+        <v>3786</v>
       </c>
       <c r="D1867" t="s">
         <v>14</v>
       </c>
-      <c r="E1867" t="s">
-        <v>154</v>
-      </c>
       <c r="H1867" t="s">
-        <v>172</v>
+        <v>336</v>
       </c>
       <c r="M1867" t="s">
-        <v>3779</v>
+        <v>3787</v>
       </c>
     </row>
     <row r="1868" spans="1:13" x14ac:dyDescent="0.3">
@@ -60192,19 +60252,19 @@
         <v>1874</v>
       </c>
       <c r="B1868" t="s">
-        <v>3780</v>
+        <v>3788</v>
       </c>
       <c r="C1868" t="s">
-        <v>3781</v>
+        <v>3786</v>
       </c>
       <c r="D1868" t="s">
         <v>14</v>
       </c>
       <c r="H1868" t="s">
-        <v>172</v>
+        <v>336</v>
       </c>
       <c r="M1868" t="s">
-        <v>3782</v>
+        <v>3789</v>
       </c>
     </row>
     <row r="1869" spans="1:13" x14ac:dyDescent="0.3">
@@ -60212,19 +60272,19 @@
         <v>1875</v>
       </c>
       <c r="B1869" t="s">
-        <v>3783</v>
+        <v>3790</v>
       </c>
       <c r="C1869" t="s">
-        <v>3781</v>
+        <v>3786</v>
       </c>
       <c r="D1869" t="s">
         <v>14</v>
       </c>
       <c r="H1869" t="s">
-        <v>172</v>
+        <v>336</v>
       </c>
       <c r="M1869" t="s">
-        <v>3784</v>
+        <v>3791</v>
       </c>
     </row>
     <row r="1870" spans="1:13" x14ac:dyDescent="0.3">
@@ -60232,7 +60292,7 @@
         <v>1876</v>
       </c>
       <c r="B1870" t="s">
-        <v>3785</v>
+        <v>3792</v>
       </c>
       <c r="C1870" t="s">
         <v>3786</v>
@@ -60244,7 +60304,7 @@
         <v>336</v>
       </c>
       <c r="M1870" t="s">
-        <v>3787</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="1871" spans="1:13" x14ac:dyDescent="0.3">
@@ -60252,19 +60312,22 @@
         <v>1877</v>
       </c>
       <c r="B1871" t="s">
-        <v>3788</v>
+        <v>3794</v>
       </c>
       <c r="C1871" t="s">
-        <v>3786</v>
+        <v>3795</v>
       </c>
       <c r="D1871" t="s">
-        <v>14</v>
+        <v>405</v>
+      </c>
+      <c r="E1871" t="s">
+        <v>1187</v>
       </c>
       <c r="H1871" t="s">
-        <v>336</v>
+        <v>71</v>
       </c>
       <c r="M1871" t="s">
-        <v>3789</v>
+        <v>3796</v>
       </c>
     </row>
     <row r="1872" spans="1:13" x14ac:dyDescent="0.3">
@@ -60272,19 +60335,22 @@
         <v>1878</v>
       </c>
       <c r="B1872" t="s">
-        <v>3790</v>
+        <v>3797</v>
       </c>
       <c r="C1872" t="s">
-        <v>3786</v>
+        <v>3795</v>
       </c>
       <c r="D1872" t="s">
-        <v>14</v>
+        <v>405</v>
+      </c>
+      <c r="E1872" t="s">
+        <v>1187</v>
       </c>
       <c r="H1872" t="s">
-        <v>336</v>
+        <v>71</v>
       </c>
       <c r="M1872" t="s">
-        <v>3791</v>
+        <v>3798</v>
       </c>
     </row>
     <row r="1873" spans="1:13" x14ac:dyDescent="0.3">
@@ -60292,19 +60358,19 @@
         <v>1879</v>
       </c>
       <c r="B1873" t="s">
-        <v>3792</v>
+        <v>3799</v>
       </c>
       <c r="C1873" t="s">
-        <v>3786</v>
+        <v>3800</v>
       </c>
       <c r="D1873" t="s">
         <v>14</v>
       </c>
       <c r="H1873" t="s">
-        <v>336</v>
+        <v>71</v>
       </c>
       <c r="M1873" t="s">
-        <v>3793</v>
+        <v>3801</v>
       </c>
     </row>
     <row r="1874" spans="1:13" x14ac:dyDescent="0.3">
@@ -60312,10 +60378,10 @@
         <v>1880</v>
       </c>
       <c r="B1874" t="s">
-        <v>3794</v>
+        <v>3802</v>
       </c>
       <c r="C1874" t="s">
-        <v>3795</v>
+        <v>3803</v>
       </c>
       <c r="D1874" t="s">
         <v>405</v>
@@ -60323,11 +60389,14 @@
       <c r="E1874" t="s">
         <v>1187</v>
       </c>
+      <c r="F1874" t="s">
+        <v>3804</v>
+      </c>
       <c r="H1874" t="s">
         <v>71</v>
       </c>
       <c r="M1874" t="s">
-        <v>3796</v>
+        <v>3805</v>
       </c>
     </row>
     <row r="1875" spans="1:13" x14ac:dyDescent="0.3">
@@ -60335,22 +60404,19 @@
         <v>1881</v>
       </c>
       <c r="B1875" t="s">
-        <v>3797</v>
+        <v>3806</v>
       </c>
       <c r="C1875" t="s">
-        <v>3795</v>
+        <v>3807</v>
       </c>
       <c r="D1875" t="s">
-        <v>405</v>
-      </c>
-      <c r="E1875" t="s">
-        <v>1187</v>
+        <v>473</v>
       </c>
       <c r="H1875" t="s">
-        <v>71</v>
+        <v>2939</v>
       </c>
       <c r="M1875" t="s">
-        <v>3798</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="1876" spans="1:13" x14ac:dyDescent="0.3">
@@ -60358,19 +60424,16 @@
         <v>1882</v>
       </c>
       <c r="B1876" t="s">
-        <v>3799</v>
+        <v>3809</v>
       </c>
       <c r="C1876" t="s">
-        <v>3800</v>
+        <v>3810</v>
       </c>
       <c r="D1876" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1876" t="s">
-        <v>71</v>
+        <v>473</v>
       </c>
       <c r="M1876" t="s">
-        <v>3801</v>
+        <v>3811</v>
       </c>
     </row>
     <row r="1877" spans="1:13" x14ac:dyDescent="0.3">
@@ -60378,25 +60441,16 @@
         <v>1883</v>
       </c>
       <c r="B1877" t="s">
-        <v>3802</v>
+        <v>3812</v>
       </c>
       <c r="C1877" t="s">
-        <v>3803</v>
+        <v>3810</v>
       </c>
       <c r="D1877" t="s">
-        <v>405</v>
-      </c>
-      <c r="E1877" t="s">
-        <v>1187</v>
-      </c>
-      <c r="F1877" t="s">
-        <v>3804</v>
-      </c>
-      <c r="H1877" t="s">
-        <v>71</v>
+        <v>473</v>
       </c>
       <c r="M1877" t="s">
-        <v>3805</v>
+        <v>3813</v>
       </c>
     </row>
     <row r="1878" spans="1:13" x14ac:dyDescent="0.3">
@@ -60404,19 +60458,16 @@
         <v>1884</v>
       </c>
       <c r="B1878" t="s">
-        <v>3806</v>
+        <v>3814</v>
       </c>
       <c r="C1878" t="s">
-        <v>3807</v>
-      </c>
-      <c r="D1878" t="s">
-        <v>473</v>
-      </c>
-      <c r="H1878" t="s">
-        <v>2939</v>
+        <v>3815</v>
+      </c>
+      <c r="D1878">
+        <v>8080</v>
       </c>
       <c r="M1878" t="s">
-        <v>3808</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="1879" spans="1:13" x14ac:dyDescent="0.3">
@@ -60424,16 +60475,31 @@
         <v>1885</v>
       </c>
       <c r="B1879" t="s">
-        <v>3809</v>
+        <v>3817</v>
       </c>
       <c r="C1879" t="s">
-        <v>3810</v>
+        <v>3818</v>
       </c>
       <c r="D1879" t="s">
-        <v>473</v>
+        <v>3439</v>
+      </c>
+      <c r="E1879" t="s">
+        <v>3439</v>
+      </c>
+      <c r="F1879" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G1879" t="s">
+        <v>1187</v>
+      </c>
+      <c r="H1879" t="s">
+        <v>333</v>
+      </c>
+      <c r="I1879" t="s">
+        <v>551</v>
       </c>
       <c r="M1879" t="s">
-        <v>3811</v>
+        <v>3819</v>
       </c>
     </row>
     <row r="1880" spans="1:13" x14ac:dyDescent="0.3">
@@ -60441,16 +60507,19 @@
         <v>1886</v>
       </c>
       <c r="B1880" t="s">
-        <v>3812</v>
+        <v>3820</v>
       </c>
       <c r="C1880" t="s">
-        <v>3810</v>
+        <v>3821</v>
       </c>
       <c r="D1880" t="s">
-        <v>473</v>
+        <v>14</v>
+      </c>
+      <c r="H1880" t="s">
+        <v>172</v>
       </c>
       <c r="M1880" t="s">
-        <v>3813</v>
+        <v>3822</v>
       </c>
     </row>
     <row r="1881" spans="1:13" x14ac:dyDescent="0.3">
@@ -60458,16 +60527,31 @@
         <v>1887</v>
       </c>
       <c r="B1881" t="s">
-        <v>3814</v>
+        <v>3823</v>
       </c>
       <c r="C1881" t="s">
-        <v>3815</v>
-      </c>
-      <c r="D1881">
-        <v>8080</v>
+        <v>3824</v>
+      </c>
+      <c r="D1881" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1881" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1881" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1881" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1881" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1881" t="s">
+        <v>166</v>
       </c>
       <c r="M1881" t="s">
-        <v>3816</v>
+        <v>3825</v>
       </c>
     </row>
     <row r="1882" spans="1:13" x14ac:dyDescent="0.3">
@@ -60475,31 +60559,31 @@
         <v>1888</v>
       </c>
       <c r="B1882" t="s">
-        <v>3817</v>
+        <v>3826</v>
       </c>
       <c r="C1882" t="s">
-        <v>3818</v>
+        <v>3824</v>
       </c>
       <c r="D1882" t="s">
-        <v>3439</v>
+        <v>14</v>
       </c>
       <c r="E1882" t="s">
-        <v>3439</v>
+        <v>14</v>
       </c>
       <c r="F1882" t="s">
-        <v>1187</v>
+        <v>14</v>
       </c>
       <c r="G1882" t="s">
-        <v>1187</v>
+        <v>154</v>
       </c>
       <c r="H1882" t="s">
-        <v>333</v>
+        <v>71</v>
       </c>
       <c r="I1882" t="s">
-        <v>551</v>
+        <v>166</v>
       </c>
       <c r="M1882" t="s">
-        <v>3819</v>
+        <v>3827</v>
       </c>
     </row>
     <row r="1883" spans="1:13" x14ac:dyDescent="0.3">
@@ -60507,19 +60591,31 @@
         <v>1889</v>
       </c>
       <c r="B1883" t="s">
-        <v>3820</v>
+        <v>3828</v>
       </c>
       <c r="C1883" t="s">
-        <v>3821</v>
+        <v>3824</v>
       </c>
       <c r="D1883" t="s">
         <v>14</v>
       </c>
+      <c r="E1883" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1883" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1883" t="s">
+        <v>154</v>
+      </c>
       <c r="H1883" t="s">
-        <v>172</v>
+        <v>71</v>
+      </c>
+      <c r="I1883" t="s">
+        <v>166</v>
       </c>
       <c r="M1883" t="s">
-        <v>3822</v>
+        <v>3829</v>
       </c>
     </row>
     <row r="1884" spans="1:13" x14ac:dyDescent="0.3">
@@ -60527,7 +60623,7 @@
         <v>1890</v>
       </c>
       <c r="B1884" t="s">
-        <v>3823</v>
+        <v>3830</v>
       </c>
       <c r="C1884" t="s">
         <v>3824</v>
@@ -60551,7 +60647,7 @@
         <v>166</v>
       </c>
       <c r="M1884" t="s">
-        <v>3825</v>
+        <v>3831</v>
       </c>
     </row>
     <row r="1885" spans="1:13" x14ac:dyDescent="0.3">
@@ -60559,31 +60655,22 @@
         <v>1891</v>
       </c>
       <c r="B1885" t="s">
-        <v>3826</v>
+        <v>3832</v>
       </c>
       <c r="C1885" t="s">
-        <v>3824</v>
-      </c>
-      <c r="D1885" t="s">
-        <v>14</v>
+        <v>3833</v>
+      </c>
+      <c r="D1885">
+        <v>68000</v>
       </c>
       <c r="E1885" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1885" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1885" t="s">
         <v>154</v>
       </c>
       <c r="H1885" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1885" t="s">
-        <v>166</v>
+        <v>1495</v>
       </c>
       <c r="M1885" t="s">
-        <v>3827</v>
+        <v>3834</v>
       </c>
     </row>
     <row r="1886" spans="1:13" x14ac:dyDescent="0.3">
@@ -60591,10 +60678,10 @@
         <v>1892</v>
       </c>
       <c r="B1886" t="s">
-        <v>3828</v>
+        <v>3835</v>
       </c>
       <c r="C1886" t="s">
-        <v>3824</v>
+        <v>3836</v>
       </c>
       <c r="D1886" t="s">
         <v>14</v>
@@ -60602,20 +60689,14 @@
       <c r="E1886" t="s">
         <v>14</v>
       </c>
-      <c r="F1886" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1886" t="s">
-        <v>154</v>
-      </c>
       <c r="H1886" t="s">
-        <v>71</v>
+        <v>1239</v>
       </c>
       <c r="I1886" t="s">
-        <v>166</v>
+        <v>333</v>
       </c>
       <c r="M1886" t="s">
-        <v>3829</v>
+        <v>3837</v>
       </c>
     </row>
     <row r="1887" spans="1:13" x14ac:dyDescent="0.3">
@@ -60623,10 +60704,10 @@
         <v>1893</v>
       </c>
       <c r="B1887" t="s">
-        <v>3830</v>
+        <v>3838</v>
       </c>
       <c r="C1887" t="s">
-        <v>3824</v>
+        <v>3836</v>
       </c>
       <c r="D1887" t="s">
         <v>14</v>
@@ -60634,20 +60715,14 @@
       <c r="E1887" t="s">
         <v>14</v>
       </c>
-      <c r="F1887" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1887" t="s">
-        <v>154</v>
-      </c>
       <c r="H1887" t="s">
-        <v>71</v>
+        <v>1239</v>
       </c>
       <c r="I1887" t="s">
-        <v>166</v>
+        <v>333</v>
       </c>
       <c r="M1887" t="s">
-        <v>3831</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="1888" spans="1:13" x14ac:dyDescent="0.3">
@@ -60655,22 +60730,25 @@
         <v>1894</v>
       </c>
       <c r="B1888" t="s">
-        <v>3832</v>
+        <v>3839</v>
       </c>
       <c r="C1888" t="s">
-        <v>3833</v>
-      </c>
-      <c r="D1888">
-        <v>68000</v>
+        <v>3836</v>
+      </c>
+      <c r="D1888" t="s">
+        <v>14</v>
       </c>
       <c r="E1888" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="H1888" t="s">
-        <v>1495</v>
+        <v>71</v>
+      </c>
+      <c r="I1888" t="s">
+        <v>166</v>
       </c>
       <c r="M1888" t="s">
-        <v>3834</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="1889" spans="1:13" x14ac:dyDescent="0.3">
@@ -60678,7 +60756,7 @@
         <v>1895</v>
       </c>
       <c r="B1889" t="s">
-        <v>3835</v>
+        <v>3840</v>
       </c>
       <c r="C1889" t="s">
         <v>3836</v>
@@ -60696,7 +60774,7 @@
         <v>333</v>
       </c>
       <c r="M1889" t="s">
-        <v>3837</v>
+        <v>3841</v>
       </c>
     </row>
     <row r="1890" spans="1:13" x14ac:dyDescent="0.3">
@@ -60704,10 +60782,10 @@
         <v>1896</v>
       </c>
       <c r="B1890" t="s">
-        <v>3838</v>
+        <v>3842</v>
       </c>
       <c r="C1890" t="s">
-        <v>3836</v>
+        <v>3843</v>
       </c>
       <c r="D1890" t="s">
         <v>14</v>
@@ -60716,13 +60794,10 @@
         <v>14</v>
       </c>
       <c r="H1890" t="s">
-        <v>1239</v>
-      </c>
-      <c r="I1890" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="M1890" t="s">
-        <v>4494</v>
+        <v>3844</v>
       </c>
     </row>
     <row r="1891" spans="1:13" x14ac:dyDescent="0.3">
@@ -60730,25 +60805,22 @@
         <v>1897</v>
       </c>
       <c r="B1891" t="s">
-        <v>3839</v>
+        <v>3845</v>
       </c>
       <c r="C1891" t="s">
-        <v>3836</v>
+        <v>3846</v>
       </c>
       <c r="D1891" t="s">
         <v>14</v>
       </c>
       <c r="E1891" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="H1891" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1891" t="s">
-        <v>166</v>
+        <v>349</v>
       </c>
       <c r="M1891" t="s">
-        <v>4495</v>
+        <v>3847</v>
       </c>
     </row>
     <row r="1892" spans="1:13" x14ac:dyDescent="0.3">
@@ -60756,25 +60828,19 @@
         <v>1898</v>
       </c>
       <c r="B1892" t="s">
-        <v>3840</v>
+        <v>3848</v>
       </c>
       <c r="C1892" t="s">
-        <v>3836</v>
+        <v>3849</v>
       </c>
       <c r="D1892" t="s">
         <v>14</v>
       </c>
-      <c r="E1892" t="s">
-        <v>14</v>
-      </c>
       <c r="H1892" t="s">
-        <v>1239</v>
-      </c>
-      <c r="I1892" t="s">
-        <v>333</v>
+        <v>172</v>
       </c>
       <c r="M1892" t="s">
-        <v>3841</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="1893" spans="1:13" x14ac:dyDescent="0.3">
@@ -60782,22 +60848,19 @@
         <v>1899</v>
       </c>
       <c r="B1893" t="s">
-        <v>3842</v>
+        <v>3851</v>
       </c>
       <c r="C1893" t="s">
-        <v>3843</v>
-      </c>
-      <c r="D1893" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1893" t="s">
-        <v>14</v>
+        <v>3852</v>
+      </c>
+      <c r="D1893">
+        <v>8080</v>
       </c>
       <c r="H1893" t="s">
-        <v>349</v>
+        <v>406</v>
       </c>
       <c r="M1893" t="s">
-        <v>3844</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="1894" spans="1:13" x14ac:dyDescent="0.3">
@@ -60805,22 +60868,19 @@
         <v>1900</v>
       </c>
       <c r="B1894" t="s">
-        <v>3845</v>
+        <v>3854</v>
       </c>
       <c r="C1894" t="s">
-        <v>3846</v>
+        <v>3855</v>
       </c>
       <c r="D1894" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1894" t="s">
-        <v>154</v>
+        <v>1108</v>
       </c>
       <c r="H1894" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="M1894" t="s">
-        <v>3847</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="1895" spans="1:13" x14ac:dyDescent="0.3">
@@ -60828,19 +60888,22 @@
         <v>1901</v>
       </c>
       <c r="B1895" t="s">
-        <v>3848</v>
+        <v>3857</v>
       </c>
       <c r="C1895" t="s">
-        <v>3849</v>
+        <v>3858</v>
       </c>
       <c r="D1895" t="s">
         <v>14</v>
       </c>
+      <c r="E1895" t="s">
+        <v>154</v>
+      </c>
       <c r="H1895" t="s">
-        <v>172</v>
+        <v>336</v>
       </c>
       <c r="M1895" t="s">
-        <v>3850</v>
+        <v>3859</v>
       </c>
     </row>
     <row r="1896" spans="1:13" x14ac:dyDescent="0.3">
@@ -60848,19 +60911,22 @@
         <v>1902</v>
       </c>
       <c r="B1896" t="s">
-        <v>3851</v>
+        <v>3860</v>
       </c>
       <c r="C1896" t="s">
-        <v>3852</v>
-      </c>
-      <c r="D1896">
-        <v>8080</v>
+        <v>3858</v>
+      </c>
+      <c r="D1896" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1896" t="s">
+        <v>154</v>
       </c>
       <c r="H1896" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
       <c r="M1896" t="s">
-        <v>3853</v>
+        <v>3861</v>
       </c>
     </row>
     <row r="1897" spans="1:13" x14ac:dyDescent="0.3">
@@ -60868,19 +60934,22 @@
         <v>1903</v>
       </c>
       <c r="B1897" t="s">
-        <v>3854</v>
+        <v>3862</v>
       </c>
       <c r="C1897" t="s">
-        <v>3855</v>
+        <v>3863</v>
       </c>
       <c r="D1897" t="s">
-        <v>1108</v>
+        <v>3864</v>
+      </c>
+      <c r="E1897" t="s">
+        <v>728</v>
       </c>
       <c r="H1897" t="s">
-        <v>336</v>
+        <v>2073</v>
       </c>
       <c r="M1897" t="s">
-        <v>3856</v>
+        <v>3865</v>
       </c>
     </row>
     <row r="1898" spans="1:13" x14ac:dyDescent="0.3">
@@ -60888,22 +60957,19 @@
         <v>1904</v>
       </c>
       <c r="B1898" t="s">
-        <v>3857</v>
+        <v>3866</v>
       </c>
       <c r="C1898" t="s">
-        <v>3858</v>
-      </c>
-      <c r="D1898" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1898" t="s">
-        <v>154</v>
+        <v>3867</v>
+      </c>
+      <c r="D1898">
+        <v>68000</v>
       </c>
       <c r="H1898" t="s">
-        <v>336</v>
+        <v>2378</v>
       </c>
       <c r="M1898" t="s">
-        <v>3859</v>
+        <v>3868</v>
       </c>
     </row>
     <row r="1899" spans="1:13" x14ac:dyDescent="0.3">
@@ -60911,22 +60977,22 @@
         <v>1905</v>
       </c>
       <c r="B1899" t="s">
-        <v>3860</v>
+        <v>3869</v>
       </c>
       <c r="C1899" t="s">
-        <v>3858</v>
-      </c>
-      <c r="D1899" t="s">
-        <v>14</v>
+        <v>3870</v>
+      </c>
+      <c r="D1899">
+        <v>68000</v>
       </c>
       <c r="E1899" t="s">
         <v>154</v>
       </c>
       <c r="H1899" t="s">
-        <v>336</v>
+        <v>1239</v>
       </c>
       <c r="M1899" t="s">
-        <v>3861</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="1900" spans="1:13" x14ac:dyDescent="0.3">
@@ -60934,22 +61000,19 @@
         <v>1906</v>
       </c>
       <c r="B1900" t="s">
-        <v>3862</v>
+        <v>3872</v>
       </c>
       <c r="C1900" t="s">
-        <v>3863</v>
+        <v>3873</v>
       </c>
       <c r="D1900" t="s">
-        <v>3864</v>
-      </c>
-      <c r="E1900" t="s">
-        <v>728</v>
+        <v>405</v>
       </c>
       <c r="H1900" t="s">
-        <v>2073</v>
+        <v>71</v>
       </c>
       <c r="M1900" t="s">
-        <v>3865</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="1901" spans="1:13" x14ac:dyDescent="0.3">
@@ -60957,19 +61020,16 @@
         <v>1907</v>
       </c>
       <c r="B1901" t="s">
-        <v>3866</v>
+        <v>3875</v>
       </c>
       <c r="C1901" t="s">
-        <v>3867</v>
-      </c>
-      <c r="D1901">
-        <v>68000</v>
-      </c>
-      <c r="H1901" t="s">
-        <v>2378</v>
+        <v>3876</v>
+      </c>
+      <c r="D1901" t="s">
+        <v>14</v>
       </c>
       <c r="M1901" t="s">
-        <v>3868</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="1902" spans="1:13" x14ac:dyDescent="0.3">
@@ -60977,10 +61037,10 @@
         <v>1908</v>
       </c>
       <c r="B1902" t="s">
-        <v>3869</v>
+        <v>3877</v>
       </c>
       <c r="C1902" t="s">
-        <v>3870</v>
+        <v>3878</v>
       </c>
       <c r="D1902">
         <v>68000</v>
@@ -60989,10 +61049,10 @@
         <v>154</v>
       </c>
       <c r="H1902" t="s">
-        <v>1239</v>
+        <v>1356</v>
       </c>
       <c r="M1902" t="s">
-        <v>3871</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="1903" spans="1:13" x14ac:dyDescent="0.3">
@@ -61000,19 +61060,22 @@
         <v>1909</v>
       </c>
       <c r="B1903" t="s">
-        <v>3872</v>
+        <v>3880</v>
       </c>
       <c r="C1903" t="s">
-        <v>3873</v>
-      </c>
-      <c r="D1903" t="s">
-        <v>405</v>
+        <v>3878</v>
+      </c>
+      <c r="D1903">
+        <v>68000</v>
+      </c>
+      <c r="E1903" t="s">
+        <v>154</v>
       </c>
       <c r="H1903" t="s">
-        <v>71</v>
+        <v>1356</v>
       </c>
       <c r="M1903" t="s">
-        <v>3874</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="1904" spans="1:13" x14ac:dyDescent="0.3">
@@ -61020,16 +61083,22 @@
         <v>1910</v>
       </c>
       <c r="B1904" t="s">
-        <v>3875</v>
+        <v>3881</v>
       </c>
       <c r="C1904" t="s">
-        <v>3876</v>
-      </c>
-      <c r="D1904" t="s">
-        <v>14</v>
+        <v>3878</v>
+      </c>
+      <c r="D1904">
+        <v>68000</v>
+      </c>
+      <c r="E1904" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1904" t="s">
+        <v>1356</v>
       </c>
       <c r="M1904" t="s">
-        <v>4496</v>
+        <v>3882</v>
       </c>
     </row>
     <row r="1905" spans="1:13" x14ac:dyDescent="0.3">
@@ -61037,7 +61106,7 @@
         <v>1911</v>
       </c>
       <c r="B1905" t="s">
-        <v>3877</v>
+        <v>3883</v>
       </c>
       <c r="C1905" t="s">
         <v>3878</v>
@@ -61052,7 +61121,7 @@
         <v>1356</v>
       </c>
       <c r="M1905" t="s">
-        <v>3879</v>
+        <v>3884</v>
       </c>
     </row>
     <row r="1906" spans="1:13" x14ac:dyDescent="0.3">
@@ -61060,7 +61129,7 @@
         <v>1912</v>
       </c>
       <c r="B1906" t="s">
-        <v>3880</v>
+        <v>3885</v>
       </c>
       <c r="C1906" t="s">
         <v>3878</v>
@@ -61075,7 +61144,7 @@
         <v>1356</v>
       </c>
       <c r="M1906" t="s">
-        <v>4497</v>
+        <v>3886</v>
       </c>
     </row>
     <row r="1907" spans="1:13" x14ac:dyDescent="0.3">
@@ -61083,7 +61152,7 @@
         <v>1913</v>
       </c>
       <c r="B1907" t="s">
-        <v>3881</v>
+        <v>3887</v>
       </c>
       <c r="C1907" t="s">
         <v>3878</v>
@@ -61098,7 +61167,7 @@
         <v>1356</v>
       </c>
       <c r="M1907" t="s">
-        <v>3882</v>
+        <v>3888</v>
       </c>
     </row>
     <row r="1908" spans="1:13" x14ac:dyDescent="0.3">
@@ -61106,7 +61175,7 @@
         <v>1914</v>
       </c>
       <c r="B1908" t="s">
-        <v>3883</v>
+        <v>3889</v>
       </c>
       <c r="C1908" t="s">
         <v>3878</v>
@@ -61121,7 +61190,7 @@
         <v>1356</v>
       </c>
       <c r="M1908" t="s">
-        <v>3884</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="1909" spans="1:13" x14ac:dyDescent="0.3">
@@ -61129,7 +61198,7 @@
         <v>1915</v>
       </c>
       <c r="B1909" t="s">
-        <v>3885</v>
+        <v>3891</v>
       </c>
       <c r="C1909" t="s">
         <v>3878</v>
@@ -61144,7 +61213,7 @@
         <v>1356</v>
       </c>
       <c r="M1909" t="s">
-        <v>3886</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="1910" spans="1:13" x14ac:dyDescent="0.3">
@@ -61152,7 +61221,7 @@
         <v>1916</v>
       </c>
       <c r="B1910" t="s">
-        <v>3887</v>
+        <v>3892</v>
       </c>
       <c r="C1910" t="s">
         <v>3878</v>
@@ -61167,7 +61236,7 @@
         <v>1356</v>
       </c>
       <c r="M1910" t="s">
-        <v>3888</v>
+        <v>3893</v>
       </c>
     </row>
     <row r="1911" spans="1:13" x14ac:dyDescent="0.3">
@@ -61175,7 +61244,7 @@
         <v>1917</v>
       </c>
       <c r="B1911" t="s">
-        <v>3889</v>
+        <v>3894</v>
       </c>
       <c r="C1911" t="s">
         <v>3878</v>
@@ -61190,7 +61259,7 @@
         <v>1356</v>
       </c>
       <c r="M1911" t="s">
-        <v>3890</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="1912" spans="1:13" x14ac:dyDescent="0.3">
@@ -61198,7 +61267,7 @@
         <v>1918</v>
       </c>
       <c r="B1912" t="s">
-        <v>3891</v>
+        <v>3896</v>
       </c>
       <c r="C1912" t="s">
         <v>3878</v>
@@ -61213,7 +61282,7 @@
         <v>1356</v>
       </c>
       <c r="M1912" t="s">
-        <v>4498</v>
+        <v>3897</v>
       </c>
     </row>
     <row r="1913" spans="1:13" x14ac:dyDescent="0.3">
@@ -61221,7 +61290,7 @@
         <v>1919</v>
       </c>
       <c r="B1913" t="s">
-        <v>3892</v>
+        <v>3898</v>
       </c>
       <c r="C1913" t="s">
         <v>3878</v>
@@ -61236,7 +61305,7 @@
         <v>1356</v>
       </c>
       <c r="M1913" t="s">
-        <v>3893</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="1914" spans="1:13" x14ac:dyDescent="0.3">
@@ -61244,7 +61313,7 @@
         <v>1920</v>
       </c>
       <c r="B1914" t="s">
-        <v>3894</v>
+        <v>3900</v>
       </c>
       <c r="C1914" t="s">
         <v>3878</v>
@@ -61259,7 +61328,7 @@
         <v>1356</v>
       </c>
       <c r="M1914" t="s">
-        <v>3895</v>
+        <v>3901</v>
       </c>
     </row>
     <row r="1915" spans="1:13" x14ac:dyDescent="0.3">
@@ -61267,7 +61336,7 @@
         <v>1921</v>
       </c>
       <c r="B1915" t="s">
-        <v>3896</v>
+        <v>3902</v>
       </c>
       <c r="C1915" t="s">
         <v>3878</v>
@@ -61282,7 +61351,7 @@
         <v>1356</v>
       </c>
       <c r="M1915" t="s">
-        <v>3897</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="1916" spans="1:13" x14ac:dyDescent="0.3">
@@ -61290,7 +61359,7 @@
         <v>1922</v>
       </c>
       <c r="B1916" t="s">
-        <v>3898</v>
+        <v>3903</v>
       </c>
       <c r="C1916" t="s">
         <v>3878</v>
@@ -61305,7 +61374,7 @@
         <v>1356</v>
       </c>
       <c r="M1916" t="s">
-        <v>3899</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="1917" spans="1:13" x14ac:dyDescent="0.3">
@@ -61313,7 +61382,7 @@
         <v>1923</v>
       </c>
       <c r="B1917" t="s">
-        <v>3900</v>
+        <v>3904</v>
       </c>
       <c r="C1917" t="s">
         <v>3878</v>
@@ -61328,7 +61397,7 @@
         <v>1356</v>
       </c>
       <c r="M1917" t="s">
-        <v>3901</v>
+        <v>3905</v>
       </c>
     </row>
     <row r="1918" spans="1:13" x14ac:dyDescent="0.3">
@@ -61336,7 +61405,7 @@
         <v>1924</v>
       </c>
       <c r="B1918" t="s">
-        <v>3902</v>
+        <v>3906</v>
       </c>
       <c r="C1918" t="s">
         <v>3878</v>
@@ -61351,7 +61420,7 @@
         <v>1356</v>
       </c>
       <c r="M1918" t="s">
-        <v>4499</v>
+        <v>3907</v>
       </c>
     </row>
     <row r="1919" spans="1:13" x14ac:dyDescent="0.3">
@@ -61359,7 +61428,7 @@
         <v>1925</v>
       </c>
       <c r="B1919" t="s">
-        <v>3903</v>
+        <v>3908</v>
       </c>
       <c r="C1919" t="s">
         <v>3878</v>
@@ -61374,7 +61443,7 @@
         <v>1356</v>
       </c>
       <c r="M1919" t="s">
-        <v>4500</v>
+        <v>3909</v>
       </c>
     </row>
     <row r="1920" spans="1:13" x14ac:dyDescent="0.3">
@@ -61382,7 +61451,7 @@
         <v>1926</v>
       </c>
       <c r="B1920" t="s">
-        <v>3904</v>
+        <v>3910</v>
       </c>
       <c r="C1920" t="s">
         <v>3878</v>
@@ -61397,7 +61466,7 @@
         <v>1356</v>
       </c>
       <c r="M1920" t="s">
-        <v>3905</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="1921" spans="1:13" x14ac:dyDescent="0.3">
@@ -61405,7 +61474,7 @@
         <v>1927</v>
       </c>
       <c r="B1921" t="s">
-        <v>3906</v>
+        <v>3912</v>
       </c>
       <c r="C1921" t="s">
         <v>3878</v>
@@ -61420,7 +61489,7 @@
         <v>1356</v>
       </c>
       <c r="M1921" t="s">
-        <v>3907</v>
+        <v>3913</v>
       </c>
     </row>
     <row r="1922" spans="1:13" x14ac:dyDescent="0.3">
@@ -61428,7 +61497,7 @@
         <v>1928</v>
       </c>
       <c r="B1922" t="s">
-        <v>3908</v>
+        <v>3914</v>
       </c>
       <c r="C1922" t="s">
         <v>3878</v>
@@ -61443,7 +61512,7 @@
         <v>1356</v>
       </c>
       <c r="M1922" t="s">
-        <v>3909</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="1923" spans="1:13" x14ac:dyDescent="0.3">
@@ -61451,7 +61520,7 @@
         <v>1929</v>
       </c>
       <c r="B1923" t="s">
-        <v>3910</v>
+        <v>3916</v>
       </c>
       <c r="C1923" t="s">
         <v>3878</v>
@@ -61466,7 +61535,7 @@
         <v>1356</v>
       </c>
       <c r="M1923" t="s">
-        <v>3911</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="1924" spans="1:13" x14ac:dyDescent="0.3">
@@ -61474,7 +61543,7 @@
         <v>1930</v>
       </c>
       <c r="B1924" t="s">
-        <v>3912</v>
+        <v>3917</v>
       </c>
       <c r="C1924" t="s">
         <v>3878</v>
@@ -61489,7 +61558,7 @@
         <v>1356</v>
       </c>
       <c r="M1924" t="s">
-        <v>3913</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="1925" spans="1:13" x14ac:dyDescent="0.3">
@@ -61497,7 +61566,7 @@
         <v>1931</v>
       </c>
       <c r="B1925" t="s">
-        <v>3914</v>
+        <v>3919</v>
       </c>
       <c r="C1925" t="s">
         <v>3878</v>
@@ -61512,7 +61581,7 @@
         <v>1356</v>
       </c>
       <c r="M1925" t="s">
-        <v>3915</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="1926" spans="1:13" x14ac:dyDescent="0.3">
@@ -61520,7 +61589,7 @@
         <v>1932</v>
       </c>
       <c r="B1926" t="s">
-        <v>3916</v>
+        <v>3921</v>
       </c>
       <c r="C1926" t="s">
         <v>3878</v>
@@ -61535,7 +61604,7 @@
         <v>1356</v>
       </c>
       <c r="M1926" t="s">
-        <v>4501</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="1927" spans="1:13" x14ac:dyDescent="0.3">
@@ -61543,7 +61612,7 @@
         <v>1933</v>
       </c>
       <c r="B1927" t="s">
-        <v>3917</v>
+        <v>3923</v>
       </c>
       <c r="C1927" t="s">
         <v>3878</v>
@@ -61558,7 +61627,7 @@
         <v>1356</v>
       </c>
       <c r="M1927" t="s">
-        <v>3918</v>
+        <v>4502</v>
       </c>
     </row>
     <row r="1928" spans="1:13" x14ac:dyDescent="0.3">
@@ -61566,7 +61635,7 @@
         <v>1934</v>
       </c>
       <c r="B1928" t="s">
-        <v>3919</v>
+        <v>3924</v>
       </c>
       <c r="C1928" t="s">
         <v>3878</v>
@@ -61581,7 +61650,7 @@
         <v>1356</v>
       </c>
       <c r="M1928" t="s">
-        <v>3920</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="1929" spans="1:13" x14ac:dyDescent="0.3">
@@ -61589,7 +61658,7 @@
         <v>1935</v>
       </c>
       <c r="B1929" t="s">
-        <v>3921</v>
+        <v>3925</v>
       </c>
       <c r="C1929" t="s">
         <v>3878</v>
@@ -61604,7 +61673,7 @@
         <v>1356</v>
       </c>
       <c r="M1929" t="s">
-        <v>3922</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="1930" spans="1:13" x14ac:dyDescent="0.3">
@@ -61612,7 +61681,7 @@
         <v>1936</v>
       </c>
       <c r="B1930" t="s">
-        <v>3923</v>
+        <v>3926</v>
       </c>
       <c r="C1930" t="s">
         <v>3878</v>
@@ -61627,7 +61696,7 @@
         <v>1356</v>
       </c>
       <c r="M1930" t="s">
-        <v>4502</v>
+        <v>3927</v>
       </c>
     </row>
     <row r="1931" spans="1:13" x14ac:dyDescent="0.3">
@@ -61635,7 +61704,7 @@
         <v>1937</v>
       </c>
       <c r="B1931" t="s">
-        <v>3924</v>
+        <v>3928</v>
       </c>
       <c r="C1931" t="s">
         <v>3878</v>
@@ -61650,7 +61719,7 @@
         <v>1356</v>
       </c>
       <c r="M1931" t="s">
-        <v>4503</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="1932" spans="1:13" x14ac:dyDescent="0.3">
@@ -61658,7 +61727,7 @@
         <v>1938</v>
       </c>
       <c r="B1932" t="s">
-        <v>3925</v>
+        <v>3930</v>
       </c>
       <c r="C1932" t="s">
         <v>3878</v>
@@ -61673,7 +61742,7 @@
         <v>1356</v>
       </c>
       <c r="M1932" t="s">
-        <v>4504</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="1933" spans="1:13" x14ac:dyDescent="0.3">
@@ -61681,7 +61750,7 @@
         <v>1939</v>
       </c>
       <c r="B1933" t="s">
-        <v>3926</v>
+        <v>3931</v>
       </c>
       <c r="C1933" t="s">
         <v>3878</v>
@@ -61696,7 +61765,7 @@
         <v>1356</v>
       </c>
       <c r="M1933" t="s">
-        <v>3927</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="1934" spans="1:13" x14ac:dyDescent="0.3">
@@ -61704,7 +61773,7 @@
         <v>1940</v>
       </c>
       <c r="B1934" t="s">
-        <v>3928</v>
+        <v>3933</v>
       </c>
       <c r="C1934" t="s">
         <v>3878</v>
@@ -61719,7 +61788,7 @@
         <v>1356</v>
       </c>
       <c r="M1934" t="s">
-        <v>3929</v>
+        <v>4506</v>
       </c>
     </row>
     <row r="1935" spans="1:13" x14ac:dyDescent="0.3">
@@ -61727,7 +61796,7 @@
         <v>1941</v>
       </c>
       <c r="B1935" t="s">
-        <v>3930</v>
+        <v>3934</v>
       </c>
       <c r="C1935" t="s">
         <v>3878</v>
@@ -61742,7 +61811,7 @@
         <v>1356</v>
       </c>
       <c r="M1935" t="s">
-        <v>4505</v>
+        <v>3935</v>
       </c>
     </row>
     <row r="1936" spans="1:13" x14ac:dyDescent="0.3">
@@ -61750,7 +61819,7 @@
         <v>1942</v>
       </c>
       <c r="B1936" t="s">
-        <v>3931</v>
+        <v>3936</v>
       </c>
       <c r="C1936" t="s">
         <v>3878</v>
@@ -61765,7 +61834,7 @@
         <v>1356</v>
       </c>
       <c r="M1936" t="s">
-        <v>3932</v>
+        <v>3937</v>
       </c>
     </row>
     <row r="1937" spans="1:13" x14ac:dyDescent="0.3">
@@ -61773,7 +61842,7 @@
         <v>1943</v>
       </c>
       <c r="B1937" t="s">
-        <v>3933</v>
+        <v>3938</v>
       </c>
       <c r="C1937" t="s">
         <v>3878</v>
@@ -61788,7 +61857,7 @@
         <v>1356</v>
       </c>
       <c r="M1937" t="s">
-        <v>4506</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="1938" spans="1:13" x14ac:dyDescent="0.3">
@@ -61796,7 +61865,7 @@
         <v>1944</v>
       </c>
       <c r="B1938" t="s">
-        <v>3934</v>
+        <v>3939</v>
       </c>
       <c r="C1938" t="s">
         <v>3878</v>
@@ -61811,7 +61880,7 @@
         <v>1356</v>
       </c>
       <c r="M1938" t="s">
-        <v>3935</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="1939" spans="1:13" x14ac:dyDescent="0.3">
@@ -61819,7 +61888,7 @@
         <v>1945</v>
       </c>
       <c r="B1939" t="s">
-        <v>3936</v>
+        <v>3940</v>
       </c>
       <c r="C1939" t="s">
         <v>3878</v>
@@ -61834,7 +61903,7 @@
         <v>1356</v>
       </c>
       <c r="M1939" t="s">
-        <v>3937</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="1940" spans="1:13" x14ac:dyDescent="0.3">
@@ -61842,7 +61911,7 @@
         <v>1946</v>
       </c>
       <c r="B1940" t="s">
-        <v>3938</v>
+        <v>3942</v>
       </c>
       <c r="C1940" t="s">
         <v>3878</v>
@@ -61857,7 +61926,7 @@
         <v>1356</v>
       </c>
       <c r="M1940" t="s">
-        <v>4507</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="1941" spans="1:13" x14ac:dyDescent="0.3">
@@ -61865,7 +61934,7 @@
         <v>1947</v>
       </c>
       <c r="B1941" t="s">
-        <v>3939</v>
+        <v>3943</v>
       </c>
       <c r="C1941" t="s">
         <v>3878</v>
@@ -61880,7 +61949,7 @@
         <v>1356</v>
       </c>
       <c r="M1941" t="s">
-        <v>4508</v>
+        <v>4510</v>
       </c>
     </row>
     <row r="1942" spans="1:13" x14ac:dyDescent="0.3">
@@ -61888,7 +61957,7 @@
         <v>1948</v>
       </c>
       <c r="B1942" t="s">
-        <v>3940</v>
+        <v>3944</v>
       </c>
       <c r="C1942" t="s">
         <v>3878</v>
@@ -61903,7 +61972,7 @@
         <v>1356</v>
       </c>
       <c r="M1942" t="s">
-        <v>3941</v>
+        <v>4511</v>
       </c>
     </row>
     <row r="1943" spans="1:13" x14ac:dyDescent="0.3">
@@ -61911,7 +61980,7 @@
         <v>1949</v>
       </c>
       <c r="B1943" t="s">
-        <v>3942</v>
+        <v>3945</v>
       </c>
       <c r="C1943" t="s">
         <v>3878</v>
@@ -61926,7 +61995,7 @@
         <v>1356</v>
       </c>
       <c r="M1943" t="s">
-        <v>4509</v>
+        <v>4512</v>
       </c>
     </row>
     <row r="1944" spans="1:13" x14ac:dyDescent="0.3">
@@ -61934,7 +62003,7 @@
         <v>1950</v>
       </c>
       <c r="B1944" t="s">
-        <v>3943</v>
+        <v>3946</v>
       </c>
       <c r="C1944" t="s">
         <v>3878</v>
@@ -61949,7 +62018,7 @@
         <v>1356</v>
       </c>
       <c r="M1944" t="s">
-        <v>4510</v>
+        <v>4513</v>
       </c>
     </row>
     <row r="1945" spans="1:13" x14ac:dyDescent="0.3">
@@ -61957,7 +62026,7 @@
         <v>1951</v>
       </c>
       <c r="B1945" t="s">
-        <v>3944</v>
+        <v>3947</v>
       </c>
       <c r="C1945" t="s">
         <v>3878</v>
@@ -61972,7 +62041,7 @@
         <v>1356</v>
       </c>
       <c r="M1945" t="s">
-        <v>4511</v>
+        <v>4514</v>
       </c>
     </row>
     <row r="1946" spans="1:13" x14ac:dyDescent="0.3">
@@ -61980,7 +62049,7 @@
         <v>1952</v>
       </c>
       <c r="B1946" t="s">
-        <v>3945</v>
+        <v>3948</v>
       </c>
       <c r="C1946" t="s">
         <v>3878</v>
@@ -61995,7 +62064,7 @@
         <v>1356</v>
       </c>
       <c r="M1946" t="s">
-        <v>4512</v>
+        <v>4515</v>
       </c>
     </row>
     <row r="1947" spans="1:13" x14ac:dyDescent="0.3">
@@ -62003,7 +62072,7 @@
         <v>1953</v>
       </c>
       <c r="B1947" t="s">
-        <v>3946</v>
+        <v>3949</v>
       </c>
       <c r="C1947" t="s">
         <v>3878</v>
@@ -62018,7 +62087,7 @@
         <v>1356</v>
       </c>
       <c r="M1947" t="s">
-        <v>4513</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="1948" spans="1:13" x14ac:dyDescent="0.3">
@@ -62026,7 +62095,7 @@
         <v>1954</v>
       </c>
       <c r="B1948" t="s">
-        <v>3947</v>
+        <v>3951</v>
       </c>
       <c r="C1948" t="s">
         <v>3878</v>
@@ -62041,7 +62110,7 @@
         <v>1356</v>
       </c>
       <c r="M1948" t="s">
-        <v>4514</v>
+        <v>3952</v>
       </c>
     </row>
     <row r="1949" spans="1:13" x14ac:dyDescent="0.3">
@@ -62049,7 +62118,7 @@
         <v>1955</v>
       </c>
       <c r="B1949" t="s">
-        <v>3948</v>
+        <v>3953</v>
       </c>
       <c r="C1949" t="s">
         <v>3878</v>
@@ -62064,7 +62133,7 @@
         <v>1356</v>
       </c>
       <c r="M1949" t="s">
-        <v>4515</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="1950" spans="1:13" x14ac:dyDescent="0.3">
@@ -62072,7 +62141,7 @@
         <v>1956</v>
       </c>
       <c r="B1950" t="s">
-        <v>3949</v>
+        <v>3955</v>
       </c>
       <c r="C1950" t="s">
         <v>3878</v>
@@ -62087,7 +62156,7 @@
         <v>1356</v>
       </c>
       <c r="M1950" t="s">
-        <v>3950</v>
+        <v>4516</v>
       </c>
     </row>
     <row r="1951" spans="1:13" x14ac:dyDescent="0.3">
@@ -62095,7 +62164,7 @@
         <v>1957</v>
       </c>
       <c r="B1951" t="s">
-        <v>3951</v>
+        <v>3956</v>
       </c>
       <c r="C1951" t="s">
         <v>3878</v>
@@ -62110,7 +62179,7 @@
         <v>1356</v>
       </c>
       <c r="M1951" t="s">
-        <v>3952</v>
+        <v>3957</v>
       </c>
     </row>
     <row r="1952" spans="1:13" x14ac:dyDescent="0.3">
@@ -62118,7 +62187,7 @@
         <v>1958</v>
       </c>
       <c r="B1952" t="s">
-        <v>3953</v>
+        <v>3958</v>
       </c>
       <c r="C1952" t="s">
         <v>3878</v>
@@ -62133,7 +62202,7 @@
         <v>1356</v>
       </c>
       <c r="M1952" t="s">
-        <v>3954</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="1953" spans="1:13" x14ac:dyDescent="0.3">
@@ -62141,7 +62210,7 @@
         <v>1959</v>
       </c>
       <c r="B1953" t="s">
-        <v>3955</v>
+        <v>3960</v>
       </c>
       <c r="C1953" t="s">
         <v>3878</v>
@@ -62156,7 +62225,7 @@
         <v>1356</v>
       </c>
       <c r="M1953" t="s">
-        <v>4516</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="1954" spans="1:13" x14ac:dyDescent="0.3">
@@ -62164,7 +62233,7 @@
         <v>1960</v>
       </c>
       <c r="B1954" t="s">
-        <v>3956</v>
+        <v>3961</v>
       </c>
       <c r="C1954" t="s">
         <v>3878</v>
@@ -62179,7 +62248,7 @@
         <v>1356</v>
       </c>
       <c r="M1954" t="s">
-        <v>3957</v>
+        <v>3962</v>
       </c>
     </row>
     <row r="1955" spans="1:13" x14ac:dyDescent="0.3">
@@ -62187,7 +62256,7 @@
         <v>1961</v>
       </c>
       <c r="B1955" t="s">
-        <v>3958</v>
+        <v>3963</v>
       </c>
       <c r="C1955" t="s">
         <v>3878</v>
@@ -62202,7 +62271,7 @@
         <v>1356</v>
       </c>
       <c r="M1955" t="s">
-        <v>3959</v>
+        <v>4518</v>
       </c>
     </row>
     <row r="1956" spans="1:13" x14ac:dyDescent="0.3">
@@ -62210,7 +62279,7 @@
         <v>1962</v>
       </c>
       <c r="B1956" t="s">
-        <v>3960</v>
+        <v>3964</v>
       </c>
       <c r="C1956" t="s">
         <v>3878</v>
@@ -62225,7 +62294,7 @@
         <v>1356</v>
       </c>
       <c r="M1956" t="s">
-        <v>4517</v>
+        <v>4519</v>
       </c>
     </row>
     <row r="1957" spans="1:13" x14ac:dyDescent="0.3">
@@ -62233,7 +62302,7 @@
         <v>1963</v>
       </c>
       <c r="B1957" t="s">
-        <v>3961</v>
+        <v>3965</v>
       </c>
       <c r="C1957" t="s">
         <v>3878</v>
@@ -62248,7 +62317,7 @@
         <v>1356</v>
       </c>
       <c r="M1957" t="s">
-        <v>3962</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="1958" spans="1:13" x14ac:dyDescent="0.3">
@@ -62256,7 +62325,7 @@
         <v>1964</v>
       </c>
       <c r="B1958" t="s">
-        <v>3963</v>
+        <v>3966</v>
       </c>
       <c r="C1958" t="s">
         <v>3878</v>
@@ -62271,7 +62340,7 @@
         <v>1356</v>
       </c>
       <c r="M1958" t="s">
-        <v>4518</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="1959" spans="1:13" x14ac:dyDescent="0.3">
@@ -62279,7 +62348,7 @@
         <v>1965</v>
       </c>
       <c r="B1959" t="s">
-        <v>3964</v>
+        <v>3967</v>
       </c>
       <c r="C1959" t="s">
         <v>3878</v>
@@ -62294,7 +62363,7 @@
         <v>1356</v>
       </c>
       <c r="M1959" t="s">
-        <v>4519</v>
+        <v>4522</v>
       </c>
     </row>
     <row r="1960" spans="1:13" x14ac:dyDescent="0.3">
@@ -62302,7 +62371,7 @@
         <v>1966</v>
       </c>
       <c r="B1960" t="s">
-        <v>3965</v>
+        <v>3968</v>
       </c>
       <c r="C1960" t="s">
         <v>3878</v>
@@ -62317,7 +62386,7 @@
         <v>1356</v>
       </c>
       <c r="M1960" t="s">
-        <v>4520</v>
+        <v>4523</v>
       </c>
     </row>
     <row r="1961" spans="1:13" x14ac:dyDescent="0.3">
@@ -62325,7 +62394,7 @@
         <v>1967</v>
       </c>
       <c r="B1961" t="s">
-        <v>3966</v>
+        <v>3969</v>
       </c>
       <c r="C1961" t="s">
         <v>3878</v>
@@ -62340,7 +62409,7 @@
         <v>1356</v>
       </c>
       <c r="M1961" t="s">
-        <v>4521</v>
+        <v>3970</v>
       </c>
     </row>
     <row r="1962" spans="1:13" x14ac:dyDescent="0.3">
@@ -62348,7 +62417,7 @@
         <v>1968</v>
       </c>
       <c r="B1962" t="s">
-        <v>3967</v>
+        <v>3971</v>
       </c>
       <c r="C1962" t="s">
         <v>3878</v>
@@ -62363,7 +62432,7 @@
         <v>1356</v>
       </c>
       <c r="M1962" t="s">
-        <v>4522</v>
+        <v>4524</v>
       </c>
     </row>
     <row r="1963" spans="1:13" x14ac:dyDescent="0.3">
@@ -62371,7 +62440,7 @@
         <v>1969</v>
       </c>
       <c r="B1963" t="s">
-        <v>3968</v>
+        <v>3972</v>
       </c>
       <c r="C1963" t="s">
         <v>3878</v>
@@ -62386,7 +62455,7 @@
         <v>1356</v>
       </c>
       <c r="M1963" t="s">
-        <v>4523</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="1964" spans="1:13" x14ac:dyDescent="0.3">
@@ -62394,7 +62463,7 @@
         <v>1970</v>
       </c>
       <c r="B1964" t="s">
-        <v>3969</v>
+        <v>3973</v>
       </c>
       <c r="C1964" t="s">
         <v>3878</v>
@@ -62409,7 +62478,7 @@
         <v>1356</v>
       </c>
       <c r="M1964" t="s">
-        <v>3970</v>
+        <v>3974</v>
       </c>
     </row>
     <row r="1965" spans="1:13" x14ac:dyDescent="0.3">
@@ -62417,7 +62486,7 @@
         <v>1971</v>
       </c>
       <c r="B1965" t="s">
-        <v>3971</v>
+        <v>3975</v>
       </c>
       <c r="C1965" t="s">
         <v>3878</v>
@@ -62432,7 +62501,7 @@
         <v>1356</v>
       </c>
       <c r="M1965" t="s">
-        <v>4524</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="1966" spans="1:13" x14ac:dyDescent="0.3">
@@ -62440,7 +62509,7 @@
         <v>1972</v>
       </c>
       <c r="B1966" t="s">
-        <v>3972</v>
+        <v>3977</v>
       </c>
       <c r="C1966" t="s">
         <v>3878</v>
@@ -62455,7 +62524,7 @@
         <v>1356</v>
       </c>
       <c r="M1966" t="s">
-        <v>4525</v>
+        <v>4526</v>
       </c>
     </row>
     <row r="1967" spans="1:13" x14ac:dyDescent="0.3">
@@ -62463,7 +62532,7 @@
         <v>1973</v>
       </c>
       <c r="B1967" t="s">
-        <v>3973</v>
+        <v>3978</v>
       </c>
       <c r="C1967" t="s">
         <v>3878</v>
@@ -62478,7 +62547,7 @@
         <v>1356</v>
       </c>
       <c r="M1967" t="s">
-        <v>3974</v>
+        <v>3979</v>
       </c>
     </row>
     <row r="1968" spans="1:13" x14ac:dyDescent="0.3">
@@ -62486,7 +62555,7 @@
         <v>1974</v>
       </c>
       <c r="B1968" t="s">
-        <v>3975</v>
+        <v>3980</v>
       </c>
       <c r="C1968" t="s">
         <v>3878</v>
@@ -62501,7 +62570,7 @@
         <v>1356</v>
       </c>
       <c r="M1968" t="s">
-        <v>3976</v>
+        <v>4527</v>
       </c>
     </row>
     <row r="1969" spans="1:13" x14ac:dyDescent="0.3">
@@ -62509,7 +62578,7 @@
         <v>1975</v>
       </c>
       <c r="B1969" t="s">
-        <v>3977</v>
+        <v>3981</v>
       </c>
       <c r="C1969" t="s">
         <v>3878</v>
@@ -62524,7 +62593,7 @@
         <v>1356</v>
       </c>
       <c r="M1969" t="s">
-        <v>4526</v>
+        <v>4528</v>
       </c>
     </row>
     <row r="1970" spans="1:13" x14ac:dyDescent="0.3">
@@ -62532,7 +62601,7 @@
         <v>1976</v>
       </c>
       <c r="B1970" t="s">
-        <v>3978</v>
+        <v>3982</v>
       </c>
       <c r="C1970" t="s">
         <v>3878</v>
@@ -62547,7 +62616,7 @@
         <v>1356</v>
       </c>
       <c r="M1970" t="s">
-        <v>3979</v>
+        <v>4529</v>
       </c>
     </row>
     <row r="1971" spans="1:13" x14ac:dyDescent="0.3">
@@ -62555,7 +62624,7 @@
         <v>1977</v>
       </c>
       <c r="B1971" t="s">
-        <v>3980</v>
+        <v>3983</v>
       </c>
       <c r="C1971" t="s">
         <v>3878</v>
@@ -62570,7 +62639,7 @@
         <v>1356</v>
       </c>
       <c r="M1971" t="s">
-        <v>4527</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="1972" spans="1:13" x14ac:dyDescent="0.3">
@@ -62578,7 +62647,7 @@
         <v>1978</v>
       </c>
       <c r="B1972" t="s">
-        <v>3981</v>
+        <v>3984</v>
       </c>
       <c r="C1972" t="s">
         <v>3878</v>
@@ -62593,7 +62662,7 @@
         <v>1356</v>
       </c>
       <c r="M1972" t="s">
-        <v>4528</v>
+        <v>4531</v>
       </c>
     </row>
     <row r="1973" spans="1:13" x14ac:dyDescent="0.3">
@@ -62601,7 +62670,7 @@
         <v>1979</v>
       </c>
       <c r="B1973" t="s">
-        <v>3982</v>
+        <v>3985</v>
       </c>
       <c r="C1973" t="s">
         <v>3878</v>
@@ -62616,7 +62685,7 @@
         <v>1356</v>
       </c>
       <c r="M1973" t="s">
-        <v>4529</v>
+        <v>3986</v>
       </c>
     </row>
     <row r="1974" spans="1:13" x14ac:dyDescent="0.3">
@@ -62624,7 +62693,7 @@
         <v>1980</v>
       </c>
       <c r="B1974" t="s">
-        <v>3983</v>
+        <v>3987</v>
       </c>
       <c r="C1974" t="s">
         <v>3878</v>
@@ -62639,7 +62708,7 @@
         <v>1356</v>
       </c>
       <c r="M1974" t="s">
-        <v>4530</v>
+        <v>4532</v>
       </c>
     </row>
     <row r="1975" spans="1:13" x14ac:dyDescent="0.3">
@@ -62647,7 +62716,7 @@
         <v>1981</v>
       </c>
       <c r="B1975" t="s">
-        <v>3984</v>
+        <v>3988</v>
       </c>
       <c r="C1975" t="s">
         <v>3878</v>
@@ -62662,7 +62731,7 @@
         <v>1356</v>
       </c>
       <c r="M1975" t="s">
-        <v>4531</v>
+        <v>3989</v>
       </c>
     </row>
     <row r="1976" spans="1:13" x14ac:dyDescent="0.3">
@@ -62670,7 +62739,7 @@
         <v>1982</v>
       </c>
       <c r="B1976" t="s">
-        <v>3985</v>
+        <v>3990</v>
       </c>
       <c r="C1976" t="s">
         <v>3878</v>
@@ -62685,7 +62754,7 @@
         <v>1356</v>
       </c>
       <c r="M1976" t="s">
-        <v>3986</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="1977" spans="1:13" x14ac:dyDescent="0.3">
@@ -62693,7 +62762,7 @@
         <v>1983</v>
       </c>
       <c r="B1977" t="s">
-        <v>3987</v>
+        <v>3991</v>
       </c>
       <c r="C1977" t="s">
         <v>3878</v>
@@ -62708,7 +62777,7 @@
         <v>1356</v>
       </c>
       <c r="M1977" t="s">
-        <v>4532</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="1978" spans="1:13" x14ac:dyDescent="0.3">
@@ -62716,7 +62785,7 @@
         <v>1984</v>
       </c>
       <c r="B1978" t="s">
-        <v>3988</v>
+        <v>3993</v>
       </c>
       <c r="C1978" t="s">
         <v>3878</v>
@@ -62731,7 +62800,7 @@
         <v>1356</v>
       </c>
       <c r="M1978" t="s">
-        <v>3989</v>
+        <v>3994</v>
       </c>
     </row>
     <row r="1979" spans="1:13" x14ac:dyDescent="0.3">
@@ -62739,7 +62808,7 @@
         <v>1985</v>
       </c>
       <c r="B1979" t="s">
-        <v>3990</v>
+        <v>3995</v>
       </c>
       <c r="C1979" t="s">
         <v>3878</v>
@@ -62754,7 +62823,7 @@
         <v>1356</v>
       </c>
       <c r="M1979" t="s">
-        <v>4533</v>
+        <v>4534</v>
       </c>
     </row>
     <row r="1980" spans="1:13" x14ac:dyDescent="0.3">
@@ -62762,7 +62831,7 @@
         <v>1986</v>
       </c>
       <c r="B1980" t="s">
-        <v>3991</v>
+        <v>3996</v>
       </c>
       <c r="C1980" t="s">
         <v>3878</v>
@@ -62777,7 +62846,7 @@
         <v>1356</v>
       </c>
       <c r="M1980" t="s">
-        <v>3992</v>
+        <v>4535</v>
       </c>
     </row>
     <row r="1981" spans="1:13" x14ac:dyDescent="0.3">
@@ -62785,7 +62854,7 @@
         <v>1987</v>
       </c>
       <c r="B1981" t="s">
-        <v>3993</v>
+        <v>3997</v>
       </c>
       <c r="C1981" t="s">
         <v>3878</v>
@@ -62800,7 +62869,7 @@
         <v>1356</v>
       </c>
       <c r="M1981" t="s">
-        <v>3994</v>
+        <v>3998</v>
       </c>
     </row>
     <row r="1982" spans="1:13" x14ac:dyDescent="0.3">
@@ -62808,7 +62877,7 @@
         <v>1988</v>
       </c>
       <c r="B1982" t="s">
-        <v>3995</v>
+        <v>3999</v>
       </c>
       <c r="C1982" t="s">
         <v>3878</v>
@@ -62823,7 +62892,7 @@
         <v>1356</v>
       </c>
       <c r="M1982" t="s">
-        <v>4534</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="1983" spans="1:13" x14ac:dyDescent="0.3">
@@ -62831,7 +62900,7 @@
         <v>1989</v>
       </c>
       <c r="B1983" t="s">
-        <v>3996</v>
+        <v>4001</v>
       </c>
       <c r="C1983" t="s">
         <v>3878</v>
@@ -62846,7 +62915,7 @@
         <v>1356</v>
       </c>
       <c r="M1983" t="s">
-        <v>4535</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="1984" spans="1:13" x14ac:dyDescent="0.3">
@@ -62854,7 +62923,7 @@
         <v>1990</v>
       </c>
       <c r="B1984" t="s">
-        <v>3997</v>
+        <v>4002</v>
       </c>
       <c r="C1984" t="s">
         <v>3878</v>
@@ -62869,7 +62938,7 @@
         <v>1356</v>
       </c>
       <c r="M1984" t="s">
-        <v>3998</v>
+        <v>4003</v>
       </c>
     </row>
     <row r="1985" spans="1:13" x14ac:dyDescent="0.3">
@@ -62877,7 +62946,7 @@
         <v>1991</v>
       </c>
       <c r="B1985" t="s">
-        <v>3999</v>
+        <v>4004</v>
       </c>
       <c r="C1985" t="s">
         <v>3878</v>
@@ -62892,7 +62961,7 @@
         <v>1356</v>
       </c>
       <c r="M1985" t="s">
-        <v>4000</v>
+        <v>4537</v>
       </c>
     </row>
     <row r="1986" spans="1:13" x14ac:dyDescent="0.3">
@@ -62900,7 +62969,7 @@
         <v>1992</v>
       </c>
       <c r="B1986" t="s">
-        <v>4001</v>
+        <v>4005</v>
       </c>
       <c r="C1986" t="s">
         <v>3878</v>
@@ -62915,7 +62984,7 @@
         <v>1356</v>
       </c>
       <c r="M1986" t="s">
-        <v>4536</v>
+        <v>4538</v>
       </c>
     </row>
     <row r="1987" spans="1:13" x14ac:dyDescent="0.3">
@@ -62923,7 +62992,7 @@
         <v>1993</v>
       </c>
       <c r="B1987" t="s">
-        <v>4002</v>
+        <v>4006</v>
       </c>
       <c r="C1987" t="s">
         <v>3878</v>
@@ -62938,7 +63007,7 @@
         <v>1356</v>
       </c>
       <c r="M1987" t="s">
-        <v>4003</v>
+        <v>4539</v>
       </c>
     </row>
     <row r="1988" spans="1:13" x14ac:dyDescent="0.3">
@@ -62946,7 +63015,7 @@
         <v>1994</v>
       </c>
       <c r="B1988" t="s">
-        <v>4004</v>
+        <v>4007</v>
       </c>
       <c r="C1988" t="s">
         <v>3878</v>
@@ -62961,7 +63030,7 @@
         <v>1356</v>
       </c>
       <c r="M1988" t="s">
-        <v>4537</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="1989" spans="1:13" x14ac:dyDescent="0.3">
@@ -62969,7 +63038,7 @@
         <v>1995</v>
       </c>
       <c r="B1989" t="s">
-        <v>4005</v>
+        <v>4008</v>
       </c>
       <c r="C1989" t="s">
         <v>3878</v>
@@ -62984,7 +63053,7 @@
         <v>1356</v>
       </c>
       <c r="M1989" t="s">
-        <v>4538</v>
+        <v>4541</v>
       </c>
     </row>
     <row r="1990" spans="1:13" x14ac:dyDescent="0.3">
@@ -62992,7 +63061,7 @@
         <v>1996</v>
       </c>
       <c r="B1990" t="s">
-        <v>4006</v>
+        <v>4009</v>
       </c>
       <c r="C1990" t="s">
         <v>3878</v>
@@ -63007,7 +63076,7 @@
         <v>1356</v>
       </c>
       <c r="M1990" t="s">
-        <v>4539</v>
+        <v>4542</v>
       </c>
     </row>
     <row r="1991" spans="1:13" x14ac:dyDescent="0.3">
@@ -63015,7 +63084,7 @@
         <v>1997</v>
       </c>
       <c r="B1991" t="s">
-        <v>4007</v>
+        <v>4010</v>
       </c>
       <c r="C1991" t="s">
         <v>3878</v>
@@ -63030,7 +63099,7 @@
         <v>1356</v>
       </c>
       <c r="M1991" t="s">
-        <v>4540</v>
+        <v>4011</v>
       </c>
     </row>
     <row r="1992" spans="1:13" x14ac:dyDescent="0.3">
@@ -63038,7 +63107,7 @@
         <v>1998</v>
       </c>
       <c r="B1992" t="s">
-        <v>4008</v>
+        <v>4012</v>
       </c>
       <c r="C1992" t="s">
         <v>3878</v>
@@ -63053,7 +63122,7 @@
         <v>1356</v>
       </c>
       <c r="M1992" t="s">
-        <v>4541</v>
+        <v>4543</v>
       </c>
     </row>
     <row r="1993" spans="1:13" x14ac:dyDescent="0.3">
@@ -63061,7 +63130,7 @@
         <v>1999</v>
       </c>
       <c r="B1993" t="s">
-        <v>4009</v>
+        <v>4013</v>
       </c>
       <c r="C1993" t="s">
         <v>3878</v>
@@ -63076,7 +63145,7 @@
         <v>1356</v>
       </c>
       <c r="M1993" t="s">
-        <v>4542</v>
+        <v>4544</v>
       </c>
     </row>
     <row r="1994" spans="1:13" x14ac:dyDescent="0.3">
@@ -63084,7 +63153,7 @@
         <v>2000</v>
       </c>
       <c r="B1994" t="s">
-        <v>4010</v>
+        <v>4014</v>
       </c>
       <c r="C1994" t="s">
         <v>3878</v>
@@ -63099,7 +63168,7 @@
         <v>1356</v>
       </c>
       <c r="M1994" t="s">
-        <v>4011</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="1995" spans="1:13" x14ac:dyDescent="0.3">
@@ -63107,7 +63176,7 @@
         <v>2001</v>
       </c>
       <c r="B1995" t="s">
-        <v>4012</v>
+        <v>4016</v>
       </c>
       <c r="C1995" t="s">
         <v>3878</v>
@@ -63122,7 +63191,7 @@
         <v>1356</v>
       </c>
       <c r="M1995" t="s">
-        <v>4543</v>
+        <v>4545</v>
       </c>
     </row>
     <row r="1996" spans="1:13" x14ac:dyDescent="0.3">
@@ -63130,7 +63199,7 @@
         <v>2002</v>
       </c>
       <c r="B1996" t="s">
-        <v>4013</v>
+        <v>4017</v>
       </c>
       <c r="C1996" t="s">
         <v>3878</v>
@@ -63145,7 +63214,7 @@
         <v>1356</v>
       </c>
       <c r="M1996" t="s">
-        <v>4544</v>
+        <v>4018</v>
       </c>
     </row>
     <row r="1997" spans="1:13" x14ac:dyDescent="0.3">
@@ -63153,7 +63222,7 @@
         <v>2003</v>
       </c>
       <c r="B1997" t="s">
-        <v>4014</v>
+        <v>4019</v>
       </c>
       <c r="C1997" t="s">
         <v>3878</v>
@@ -63168,7 +63237,7 @@
         <v>1356</v>
       </c>
       <c r="M1997" t="s">
-        <v>4015</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="1998" spans="1:13" x14ac:dyDescent="0.3">
@@ -63176,7 +63245,7 @@
         <v>2004</v>
       </c>
       <c r="B1998" t="s">
-        <v>4016</v>
+        <v>4021</v>
       </c>
       <c r="C1998" t="s">
         <v>3878</v>
@@ -63191,7 +63260,7 @@
         <v>1356</v>
       </c>
       <c r="M1998" t="s">
-        <v>4545</v>
+        <v>4546</v>
       </c>
     </row>
     <row r="1999" spans="1:13" x14ac:dyDescent="0.3">
@@ -63199,7 +63268,7 @@
         <v>2005</v>
       </c>
       <c r="B1999" t="s">
-        <v>4017</v>
+        <v>4022</v>
       </c>
       <c r="C1999" t="s">
         <v>3878</v>
@@ -63214,7 +63283,7 @@
         <v>1356</v>
       </c>
       <c r="M1999" t="s">
-        <v>4018</v>
+        <v>4023</v>
       </c>
     </row>
     <row r="2000" spans="1:13" x14ac:dyDescent="0.3">
@@ -63222,7 +63291,7 @@
         <v>2006</v>
       </c>
       <c r="B2000" t="s">
-        <v>4019</v>
+        <v>4024</v>
       </c>
       <c r="C2000" t="s">
         <v>3878</v>
@@ -63237,7 +63306,7 @@
         <v>1356</v>
       </c>
       <c r="M2000" t="s">
-        <v>4020</v>
+        <v>4547</v>
       </c>
     </row>
     <row r="2001" spans="1:13" x14ac:dyDescent="0.3">
@@ -63245,7 +63314,7 @@
         <v>2007</v>
       </c>
       <c r="B2001" t="s">
-        <v>4021</v>
+        <v>4025</v>
       </c>
       <c r="C2001" t="s">
         <v>3878</v>
@@ -63260,7 +63329,7 @@
         <v>1356</v>
       </c>
       <c r="M2001" t="s">
-        <v>4546</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="2002" spans="1:13" x14ac:dyDescent="0.3">
@@ -63268,7 +63337,7 @@
         <v>2008</v>
       </c>
       <c r="B2002" t="s">
-        <v>4022</v>
+        <v>4026</v>
       </c>
       <c r="C2002" t="s">
         <v>3878</v>
@@ -63283,7 +63352,7 @@
         <v>1356</v>
       </c>
       <c r="M2002" t="s">
-        <v>4023</v>
+        <v>4549</v>
       </c>
     </row>
     <row r="2003" spans="1:13" x14ac:dyDescent="0.3">
@@ -63291,7 +63360,7 @@
         <v>2009</v>
       </c>
       <c r="B2003" t="s">
-        <v>4024</v>
+        <v>4027</v>
       </c>
       <c r="C2003" t="s">
         <v>3878</v>
@@ -63306,7 +63375,7 @@
         <v>1356</v>
       </c>
       <c r="M2003" t="s">
-        <v>4547</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="2004" spans="1:13" x14ac:dyDescent="0.3">
@@ -63314,7 +63383,7 @@
         <v>2010</v>
       </c>
       <c r="B2004" t="s">
-        <v>4025</v>
+        <v>4028</v>
       </c>
       <c r="C2004" t="s">
         <v>3878</v>
@@ -63329,7 +63398,7 @@
         <v>1356</v>
       </c>
       <c r="M2004" t="s">
-        <v>4548</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="2005" spans="1:13" x14ac:dyDescent="0.3">
@@ -63337,7 +63406,7 @@
         <v>2011</v>
       </c>
       <c r="B2005" t="s">
-        <v>4026</v>
+        <v>4029</v>
       </c>
       <c r="C2005" t="s">
         <v>3878</v>
@@ -63352,7 +63421,7 @@
         <v>1356</v>
       </c>
       <c r="M2005" t="s">
-        <v>4549</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="2006" spans="1:13" x14ac:dyDescent="0.3">
@@ -63360,7 +63429,7 @@
         <v>2012</v>
       </c>
       <c r="B2006" t="s">
-        <v>4027</v>
+        <v>4031</v>
       </c>
       <c r="C2006" t="s">
         <v>3878</v>
@@ -63375,7 +63444,7 @@
         <v>1356</v>
       </c>
       <c r="M2006" t="s">
-        <v>4550</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="2007" spans="1:13" x14ac:dyDescent="0.3">
@@ -63383,7 +63452,7 @@
         <v>2013</v>
       </c>
       <c r="B2007" t="s">
-        <v>4028</v>
+        <v>4032</v>
       </c>
       <c r="C2007" t="s">
         <v>3878</v>
@@ -63398,7 +63467,7 @@
         <v>1356</v>
       </c>
       <c r="M2007" t="s">
-        <v>4551</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="2008" spans="1:13" x14ac:dyDescent="0.3">
@@ -63406,7 +63475,7 @@
         <v>2014</v>
       </c>
       <c r="B2008" t="s">
-        <v>4029</v>
+        <v>4033</v>
       </c>
       <c r="C2008" t="s">
         <v>3878</v>
@@ -63421,7 +63490,7 @@
         <v>1356</v>
       </c>
       <c r="M2008" t="s">
-        <v>4030</v>
+        <v>4034</v>
       </c>
     </row>
     <row r="2009" spans="1:13" x14ac:dyDescent="0.3">
@@ -63429,7 +63498,7 @@
         <v>2015</v>
       </c>
       <c r="B2009" t="s">
-        <v>4031</v>
+        <v>4035</v>
       </c>
       <c r="C2009" t="s">
         <v>3878</v>
@@ -63444,7 +63513,7 @@
         <v>1356</v>
       </c>
       <c r="M2009" t="s">
-        <v>4552</v>
+        <v>4036</v>
       </c>
     </row>
     <row r="2010" spans="1:13" x14ac:dyDescent="0.3">
@@ -63452,7 +63521,7 @@
         <v>2016</v>
       </c>
       <c r="B2010" t="s">
-        <v>4032</v>
+        <v>4037</v>
       </c>
       <c r="C2010" t="s">
         <v>3878</v>
@@ -63467,7 +63536,7 @@
         <v>1356</v>
       </c>
       <c r="M2010" t="s">
-        <v>4553</v>
+        <v>4038</v>
       </c>
     </row>
     <row r="2011" spans="1:13" x14ac:dyDescent="0.3">
@@ -63475,7 +63544,7 @@
         <v>2017</v>
       </c>
       <c r="B2011" t="s">
-        <v>4033</v>
+        <v>4039</v>
       </c>
       <c r="C2011" t="s">
         <v>3878</v>
@@ -63490,7 +63559,7 @@
         <v>1356</v>
       </c>
       <c r="M2011" t="s">
-        <v>4034</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="2012" spans="1:13" x14ac:dyDescent="0.3">
@@ -63498,7 +63567,7 @@
         <v>2018</v>
       </c>
       <c r="B2012" t="s">
-        <v>4035</v>
+        <v>4041</v>
       </c>
       <c r="C2012" t="s">
         <v>3878</v>
@@ -63513,7 +63582,7 @@
         <v>1356</v>
       </c>
       <c r="M2012" t="s">
-        <v>4036</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="2013" spans="1:13" x14ac:dyDescent="0.3">
@@ -63521,7 +63590,7 @@
         <v>2019</v>
       </c>
       <c r="B2013" t="s">
-        <v>4037</v>
+        <v>4042</v>
       </c>
       <c r="C2013" t="s">
         <v>3878</v>
@@ -63536,7 +63605,7 @@
         <v>1356</v>
       </c>
       <c r="M2013" t="s">
-        <v>4038</v>
+        <v>4043</v>
       </c>
     </row>
     <row r="2014" spans="1:13" x14ac:dyDescent="0.3">
@@ -63544,7 +63613,7 @@
         <v>2020</v>
       </c>
       <c r="B2014" t="s">
-        <v>4039</v>
+        <v>4044</v>
       </c>
       <c r="C2014" t="s">
         <v>3878</v>
@@ -63559,7 +63628,7 @@
         <v>1356</v>
       </c>
       <c r="M2014" t="s">
-        <v>4040</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="2015" spans="1:13" x14ac:dyDescent="0.3">
@@ -63567,7 +63636,7 @@
         <v>2021</v>
       </c>
       <c r="B2015" t="s">
-        <v>4041</v>
+        <v>4046</v>
       </c>
       <c r="C2015" t="s">
         <v>3878</v>
@@ -63582,7 +63651,7 @@
         <v>1356</v>
       </c>
       <c r="M2015" t="s">
-        <v>4554</v>
+        <v>4555</v>
       </c>
     </row>
     <row r="2016" spans="1:13" x14ac:dyDescent="0.3">
@@ -63590,7 +63659,7 @@
         <v>2022</v>
       </c>
       <c r="B2016" t="s">
-        <v>4042</v>
+        <v>4047</v>
       </c>
       <c r="C2016" t="s">
         <v>3878</v>
@@ -63605,7 +63674,7 @@
         <v>1356</v>
       </c>
       <c r="M2016" t="s">
-        <v>4043</v>
+        <v>4048</v>
       </c>
     </row>
     <row r="2017" spans="1:13" x14ac:dyDescent="0.3">
@@ -63613,7 +63682,7 @@
         <v>2023</v>
       </c>
       <c r="B2017" t="s">
-        <v>4044</v>
+        <v>4049</v>
       </c>
       <c r="C2017" t="s">
         <v>3878</v>
@@ -63628,7 +63697,7 @@
         <v>1356</v>
       </c>
       <c r="M2017" t="s">
-        <v>4045</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="2018" spans="1:13" x14ac:dyDescent="0.3">
@@ -63636,7 +63705,7 @@
         <v>2024</v>
       </c>
       <c r="B2018" t="s">
-        <v>4046</v>
+        <v>4050</v>
       </c>
       <c r="C2018" t="s">
         <v>3878</v>
@@ -63651,7 +63720,7 @@
         <v>1356</v>
       </c>
       <c r="M2018" t="s">
-        <v>4555</v>
+        <v>4051</v>
       </c>
     </row>
     <row r="2019" spans="1:13" x14ac:dyDescent="0.3">
@@ -63659,7 +63728,7 @@
         <v>2025</v>
       </c>
       <c r="B2019" t="s">
-        <v>4047</v>
+        <v>4052</v>
       </c>
       <c r="C2019" t="s">
         <v>3878</v>
@@ -63674,7 +63743,7 @@
         <v>1356</v>
       </c>
       <c r="M2019" t="s">
-        <v>4048</v>
+        <v>4053</v>
       </c>
     </row>
     <row r="2020" spans="1:13" x14ac:dyDescent="0.3">
@@ -63682,7 +63751,7 @@
         <v>2026</v>
       </c>
       <c r="B2020" t="s">
-        <v>4049</v>
+        <v>4054</v>
       </c>
       <c r="C2020" t="s">
         <v>3878</v>
@@ -63697,7 +63766,7 @@
         <v>1356</v>
       </c>
       <c r="M2020" t="s">
-        <v>4556</v>
+        <v>4055</v>
       </c>
     </row>
     <row r="2021" spans="1:13" x14ac:dyDescent="0.3">
@@ -63705,7 +63774,7 @@
         <v>2027</v>
       </c>
       <c r="B2021" t="s">
-        <v>4050</v>
+        <v>4056</v>
       </c>
       <c r="C2021" t="s">
         <v>3878</v>
@@ -63720,7 +63789,7 @@
         <v>1356</v>
       </c>
       <c r="M2021" t="s">
-        <v>4051</v>
+        <v>4557</v>
       </c>
     </row>
     <row r="2022" spans="1:13" x14ac:dyDescent="0.3">
@@ -63728,7 +63797,7 @@
         <v>2028</v>
       </c>
       <c r="B2022" t="s">
-        <v>4052</v>
+        <v>4057</v>
       </c>
       <c r="C2022" t="s">
         <v>3878</v>
@@ -63743,7 +63812,7 @@
         <v>1356</v>
       </c>
       <c r="M2022" t="s">
-        <v>4053</v>
+        <v>4558</v>
       </c>
     </row>
     <row r="2023" spans="1:13" x14ac:dyDescent="0.3">
@@ -63751,7 +63820,7 @@
         <v>2029</v>
       </c>
       <c r="B2023" t="s">
-        <v>4054</v>
+        <v>4058</v>
       </c>
       <c r="C2023" t="s">
         <v>3878</v>
@@ -63766,7 +63835,7 @@
         <v>1356</v>
       </c>
       <c r="M2023" t="s">
-        <v>4055</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="2024" spans="1:13" x14ac:dyDescent="0.3">
@@ -63774,7 +63843,7 @@
         <v>2030</v>
       </c>
       <c r="B2024" t="s">
-        <v>4056</v>
+        <v>4059</v>
       </c>
       <c r="C2024" t="s">
         <v>3878</v>
@@ -63789,7 +63858,7 @@
         <v>1356</v>
       </c>
       <c r="M2024" t="s">
-        <v>4557</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="2025" spans="1:13" x14ac:dyDescent="0.3">
@@ -63797,7 +63866,7 @@
         <v>2031</v>
       </c>
       <c r="B2025" t="s">
-        <v>4057</v>
+        <v>4060</v>
       </c>
       <c r="C2025" t="s">
         <v>3878</v>
@@ -63812,7 +63881,7 @@
         <v>1356</v>
       </c>
       <c r="M2025" t="s">
-        <v>4558</v>
+        <v>4561</v>
       </c>
     </row>
     <row r="2026" spans="1:13" x14ac:dyDescent="0.3">
@@ -63820,7 +63889,7 @@
         <v>2032</v>
       </c>
       <c r="B2026" t="s">
-        <v>4058</v>
+        <v>4061</v>
       </c>
       <c r="C2026" t="s">
         <v>3878</v>
@@ -63835,7 +63904,7 @@
         <v>1356</v>
       </c>
       <c r="M2026" t="s">
-        <v>4559</v>
+        <v>4062</v>
       </c>
     </row>
     <row r="2027" spans="1:13" x14ac:dyDescent="0.3">
@@ -63843,7 +63912,7 @@
         <v>2033</v>
       </c>
       <c r="B2027" t="s">
-        <v>4059</v>
+        <v>4063</v>
       </c>
       <c r="C2027" t="s">
         <v>3878</v>
@@ -63858,7 +63927,7 @@
         <v>1356</v>
       </c>
       <c r="M2027" t="s">
-        <v>4560</v>
+        <v>4562</v>
       </c>
     </row>
     <row r="2028" spans="1:13" x14ac:dyDescent="0.3">
@@ -63866,7 +63935,7 @@
         <v>2034</v>
       </c>
       <c r="B2028" t="s">
-        <v>4060</v>
+        <v>4064</v>
       </c>
       <c r="C2028" t="s">
         <v>3878</v>
@@ -63881,80 +63950,11 @@
         <v>1356</v>
       </c>
       <c r="M2028" t="s">
-        <v>4561</v>
-      </c>
-    </row>
-    <row r="2029" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2029">
-        <v>2035</v>
-      </c>
-      <c r="B2029" t="s">
-        <v>4061</v>
-      </c>
-      <c r="C2029" t="s">
-        <v>3878</v>
-      </c>
-      <c r="D2029">
-        <v>68000</v>
-      </c>
-      <c r="E2029" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2029" t="s">
-        <v>1356</v>
-      </c>
-      <c r="M2029" t="s">
-        <v>4062</v>
-      </c>
-    </row>
-    <row r="2030" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2030">
-        <v>2036</v>
-      </c>
-      <c r="B2030" t="s">
-        <v>4063</v>
-      </c>
-      <c r="C2030" t="s">
-        <v>3878</v>
-      </c>
-      <c r="D2030">
-        <v>68000</v>
-      </c>
-      <c r="E2030" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2030" t="s">
-        <v>1356</v>
-      </c>
-      <c r="M2030" t="s">
-        <v>4562</v>
-      </c>
-    </row>
-    <row r="2031" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2031">
-        <v>2037</v>
-      </c>
-      <c r="B2031" t="s">
-        <v>4064</v>
-      </c>
-      <c r="C2031" t="s">
-        <v>3878</v>
-      </c>
-      <c r="D2031">
-        <v>68000</v>
-      </c>
-      <c r="E2031" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2031" t="s">
-        <v>1356</v>
-      </c>
-      <c r="M2031" t="s">
         <v>4065</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M2031"/>
+  <autoFilter ref="A1:M2028"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/0.36/compatibility.xlsx
+++ b/0.36/compatibility.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="Playable" sheetId="4" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12399" uniqueCount="4566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12402" uniqueCount="4566">
   <si>
     <t>romname</t>
   </si>
@@ -14077,10 +14077,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P55"/>
+  <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="M55" sqref="M55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M62" sqref="M62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15347,6 +15347,84 @@
         <v>4565</v>
       </c>
     </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" t="s">
+        <v>154</v>
+      </c>
+      <c r="H56" t="s">
+        <v>172</v>
+      </c>
+      <c r="M56" t="s">
+        <v>1576</v>
+      </c>
+      <c r="O56" t="s">
+        <v>4563</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" t="s">
+        <v>154</v>
+      </c>
+      <c r="H57" t="s">
+        <v>172</v>
+      </c>
+      <c r="M57" t="s">
+        <v>1578</v>
+      </c>
+      <c r="O57" t="s">
+        <v>4563</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" t="s">
+        <v>154</v>
+      </c>
+      <c r="H58" t="s">
+        <v>172</v>
+      </c>
+      <c r="M58" t="s">
+        <v>1580</v>
+      </c>
+      <c r="O58" t="s">
+        <v>4563</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15356,8 +15434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="M129" sqref="M129"/>
+    <sheetView topLeftCell="A735" workbookViewId="0">
+      <selection activeCell="A750" sqref="A750:XFD752"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33429,75 +33507,6 @@
         <v>4225</v>
       </c>
     </row>
-    <row r="750" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A750">
-        <v>768</v>
-      </c>
-      <c r="B750" t="s">
-        <v>1574</v>
-      </c>
-      <c r="C750" t="s">
-        <v>1575</v>
-      </c>
-      <c r="D750" t="s">
-        <v>14</v>
-      </c>
-      <c r="E750" t="s">
-        <v>154</v>
-      </c>
-      <c r="H750" t="s">
-        <v>172</v>
-      </c>
-      <c r="M750" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="751" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A751">
-        <v>769</v>
-      </c>
-      <c r="B751" t="s">
-        <v>1577</v>
-      </c>
-      <c r="C751" t="s">
-        <v>1575</v>
-      </c>
-      <c r="D751" t="s">
-        <v>14</v>
-      </c>
-      <c r="E751" t="s">
-        <v>154</v>
-      </c>
-      <c r="H751" t="s">
-        <v>172</v>
-      </c>
-      <c r="M751" t="s">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="752" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A752">
-        <v>770</v>
-      </c>
-      <c r="B752" t="s">
-        <v>1579</v>
-      </c>
-      <c r="C752" t="s">
-        <v>1575</v>
-      </c>
-      <c r="D752" t="s">
-        <v>14</v>
-      </c>
-      <c r="E752" t="s">
-        <v>154</v>
-      </c>
-      <c r="H752" t="s">
-        <v>172</v>
-      </c>
-      <c r="M752" t="s">
-        <v>1580</v>
-      </c>
-    </row>
     <row r="753" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A753">
         <v>771</v>

--- a/0.36/compatibility.xlsx
+++ b/0.36/compatibility.xlsx
@@ -16,8 +16,8 @@
     <sheet name="ALL" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ALL!$A$1:$M$1989</definedName>
-    <definedName name="LIST" localSheetId="1">ALL!$B$1:$M$1989</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ALL!$A$1:$M$1981</definedName>
+    <definedName name="LIST" localSheetId="1">ALL!$B$1:$M$1981</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12402" uniqueCount="4566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12410" uniqueCount="4567">
   <si>
     <t>romname</t>
   </si>
@@ -13754,6 +13754,9 @@
   </si>
   <si>
     <t>segacrpt machine</t>
+  </si>
+  <si>
+    <t>uses espial machine,vidhrdw</t>
   </si>
 </sst>
 </file>
@@ -14077,10 +14080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P60"/>
+  <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="O68" sqref="O68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15472,6 +15475,190 @@
         <v>3737</v>
       </c>
     </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3702</v>
+      </c>
+      <c r="C61" t="s">
+        <v>3703</v>
+      </c>
+      <c r="D61" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" t="s">
+        <v>71</v>
+      </c>
+      <c r="M61" t="s">
+        <v>3704</v>
+      </c>
+      <c r="O61" t="s">
+        <v>4566</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3705</v>
+      </c>
+      <c r="C62" t="s">
+        <v>3703</v>
+      </c>
+      <c r="D62" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" t="s">
+        <v>71</v>
+      </c>
+      <c r="M62" t="s">
+        <v>3706</v>
+      </c>
+      <c r="O62" t="s">
+        <v>4566</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3707</v>
+      </c>
+      <c r="C63" t="s">
+        <v>3703</v>
+      </c>
+      <c r="D63" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" t="s">
+        <v>71</v>
+      </c>
+      <c r="M63" t="s">
+        <v>3708</v>
+      </c>
+      <c r="O63" t="s">
+        <v>4566</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3709</v>
+      </c>
+      <c r="C64" t="s">
+        <v>3703</v>
+      </c>
+      <c r="D64" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" t="s">
+        <v>71</v>
+      </c>
+      <c r="M64" t="s">
+        <v>3710</v>
+      </c>
+      <c r="O64" t="s">
+        <v>4566</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3711</v>
+      </c>
+      <c r="C65" t="s">
+        <v>3703</v>
+      </c>
+      <c r="D65" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" t="s">
+        <v>71</v>
+      </c>
+      <c r="M65" t="s">
+        <v>3712</v>
+      </c>
+      <c r="O65" t="s">
+        <v>4566</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3713</v>
+      </c>
+      <c r="C66" t="s">
+        <v>3703</v>
+      </c>
+      <c r="D66" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" t="s">
+        <v>71</v>
+      </c>
+      <c r="M66" t="s">
+        <v>3714</v>
+      </c>
+      <c r="O66" t="s">
+        <v>4566</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3715</v>
+      </c>
+      <c r="C67" t="s">
+        <v>3703</v>
+      </c>
+      <c r="D67" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" t="s">
+        <v>71</v>
+      </c>
+      <c r="M67" t="s">
+        <v>3716</v>
+      </c>
+      <c r="O67" t="s">
+        <v>4566</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3717</v>
+      </c>
+      <c r="C68" t="s">
+        <v>3703</v>
+      </c>
+      <c r="D68" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" t="s">
+        <v>172</v>
+      </c>
+      <c r="M68" t="s">
+        <v>3718</v>
+      </c>
+      <c r="O68" t="s">
+        <v>4566</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15479,10 +15666,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1989"/>
+  <dimension ref="A1:M1981"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q1810" sqref="Q1810"/>
+    <sheetView topLeftCell="A1956" workbookViewId="0">
+      <selection activeCell="A1797" sqref="A1797:XFD1804"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -59596,13 +59783,13 @@
     </row>
     <row r="1797" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1797">
-        <v>1826</v>
+        <v>1834</v>
       </c>
       <c r="B1797" t="s">
-        <v>3702</v>
+        <v>3719</v>
       </c>
       <c r="C1797" t="s">
-        <v>3703</v>
+        <v>3720</v>
       </c>
       <c r="D1797" t="s">
         <v>14</v>
@@ -59611,18 +59798,18 @@
         <v>71</v>
       </c>
       <c r="M1797" t="s">
-        <v>3704</v>
+        <v>3721</v>
       </c>
     </row>
     <row r="1798" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1798">
-        <v>1827</v>
+        <v>1835</v>
       </c>
       <c r="B1798" t="s">
-        <v>3705</v>
+        <v>3722</v>
       </c>
       <c r="C1798" t="s">
-        <v>3703</v>
+        <v>3720</v>
       </c>
       <c r="D1798" t="s">
         <v>14</v>
@@ -59631,270 +59818,285 @@
         <v>71</v>
       </c>
       <c r="M1798" t="s">
-        <v>3706</v>
+        <v>3723</v>
       </c>
     </row>
     <row r="1799" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1799">
-        <v>1828</v>
+        <v>1836</v>
       </c>
       <c r="B1799" t="s">
-        <v>3707</v>
+        <v>3724</v>
       </c>
       <c r="C1799" t="s">
-        <v>3703</v>
+        <v>3725</v>
       </c>
       <c r="D1799" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1799" t="s">
         <v>14</v>
       </c>
       <c r="H1799" t="s">
         <v>71</v>
       </c>
       <c r="M1799" t="s">
-        <v>3708</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="1800" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1800">
-        <v>1829</v>
+        <v>1837</v>
       </c>
       <c r="B1800" t="s">
-        <v>3709</v>
+        <v>3727</v>
       </c>
       <c r="C1800" t="s">
-        <v>3703</v>
+        <v>3725</v>
       </c>
       <c r="D1800" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1800" t="s">
         <v>14</v>
       </c>
       <c r="H1800" t="s">
         <v>71</v>
       </c>
       <c r="M1800" t="s">
-        <v>3710</v>
+        <v>3728</v>
       </c>
     </row>
     <row r="1801" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1801">
-        <v>1830</v>
+        <v>1838</v>
       </c>
       <c r="B1801" t="s">
-        <v>3711</v>
+        <v>3729</v>
       </c>
       <c r="C1801" t="s">
-        <v>3703</v>
+        <v>3725</v>
       </c>
       <c r="D1801" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1801" t="s">
         <v>14</v>
       </c>
       <c r="H1801" t="s">
         <v>71</v>
       </c>
       <c r="M1801" t="s">
-        <v>3712</v>
+        <v>3730</v>
       </c>
     </row>
     <row r="1802" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1802">
-        <v>1831</v>
+        <v>1839</v>
       </c>
       <c r="B1802" t="s">
-        <v>3713</v>
+        <v>3731</v>
       </c>
       <c r="C1802" t="s">
-        <v>3703</v>
+        <v>3725</v>
       </c>
       <c r="D1802" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1802" t="s">
         <v>14</v>
       </c>
       <c r="H1802" t="s">
         <v>71</v>
       </c>
       <c r="M1802" t="s">
-        <v>3714</v>
+        <v>3732</v>
       </c>
     </row>
     <row r="1803" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1803">
-        <v>1832</v>
+        <v>1842</v>
       </c>
       <c r="B1803" t="s">
-        <v>3715</v>
+        <v>3738</v>
       </c>
       <c r="C1803" t="s">
-        <v>3703</v>
+        <v>3739</v>
       </c>
       <c r="D1803" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1803" t="s">
         <v>14</v>
       </c>
       <c r="H1803" t="s">
         <v>71</v>
       </c>
       <c r="M1803" t="s">
-        <v>3716</v>
+        <v>3740</v>
       </c>
     </row>
     <row r="1804" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1804">
-        <v>1833</v>
+        <v>1843</v>
       </c>
       <c r="B1804" t="s">
-        <v>3717</v>
+        <v>3741</v>
       </c>
       <c r="C1804" t="s">
-        <v>3703</v>
+        <v>3739</v>
       </c>
       <c r="D1804" t="s">
         <v>14</v>
       </c>
+      <c r="E1804" t="s">
+        <v>14</v>
+      </c>
       <c r="H1804" t="s">
-        <v>172</v>
+        <v>71</v>
       </c>
       <c r="M1804" t="s">
-        <v>3718</v>
+        <v>3742</v>
       </c>
     </row>
     <row r="1805" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1805">
-        <v>1834</v>
+        <v>1844</v>
       </c>
       <c r="B1805" t="s">
-        <v>3719</v>
+        <v>3743</v>
       </c>
       <c r="C1805" t="s">
-        <v>3720</v>
-      </c>
-      <c r="D1805" t="s">
+        <v>3744</v>
+      </c>
+      <c r="D1805">
+        <v>68000</v>
+      </c>
+      <c r="E1805" t="s">
         <v>14</v>
       </c>
       <c r="H1805" t="s">
-        <v>71</v>
+        <v>349</v>
       </c>
       <c r="M1805" t="s">
-        <v>3721</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="1806" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1806">
-        <v>1835</v>
+        <v>1845</v>
       </c>
       <c r="B1806" t="s">
-        <v>3722</v>
+        <v>3746</v>
       </c>
       <c r="C1806" t="s">
-        <v>3720</v>
-      </c>
-      <c r="D1806" t="s">
-        <v>14</v>
+        <v>3747</v>
+      </c>
+      <c r="D1806">
+        <v>68000</v>
       </c>
       <c r="H1806" t="s">
-        <v>71</v>
+        <v>172</v>
+      </c>
+      <c r="I1806" t="s">
+        <v>1495</v>
       </c>
       <c r="M1806" t="s">
-        <v>3723</v>
+        <v>3748</v>
       </c>
     </row>
     <row r="1807" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1807">
-        <v>1836</v>
+        <v>1846</v>
       </c>
       <c r="B1807" t="s">
-        <v>3724</v>
+        <v>3749</v>
       </c>
       <c r="C1807" t="s">
-        <v>3725</v>
-      </c>
-      <c r="D1807" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1807" t="s">
-        <v>14</v>
+        <v>3747</v>
+      </c>
+      <c r="D1807">
+        <v>68000</v>
       </c>
       <c r="H1807" t="s">
-        <v>71</v>
+        <v>172</v>
+      </c>
+      <c r="I1807" t="s">
+        <v>1495</v>
       </c>
       <c r="M1807" t="s">
-        <v>3726</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="1808" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1808">
-        <v>1837</v>
+        <v>1847</v>
       </c>
       <c r="B1808" t="s">
-        <v>3727</v>
+        <v>3751</v>
       </c>
       <c r="C1808" t="s">
-        <v>3725</v>
-      </c>
-      <c r="D1808" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1808" t="s">
-        <v>14</v>
+        <v>3747</v>
+      </c>
+      <c r="D1808">
+        <v>68000</v>
       </c>
       <c r="H1808" t="s">
-        <v>71</v>
+        <v>2378</v>
       </c>
       <c r="M1808" t="s">
-        <v>3728</v>
+        <v>3752</v>
       </c>
     </row>
     <row r="1809" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1809">
-        <v>1838</v>
+        <v>1848</v>
       </c>
       <c r="B1809" t="s">
-        <v>3729</v>
+        <v>3753</v>
       </c>
       <c r="C1809" t="s">
-        <v>3725</v>
-      </c>
-      <c r="D1809" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1809" t="s">
-        <v>14</v>
+        <v>3747</v>
+      </c>
+      <c r="D1809">
+        <v>68000</v>
       </c>
       <c r="H1809" t="s">
-        <v>71</v>
+        <v>2378</v>
       </c>
       <c r="M1809" t="s">
-        <v>3730</v>
+        <v>4492</v>
       </c>
     </row>
     <row r="1810" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1810">
-        <v>1839</v>
+        <v>1849</v>
       </c>
       <c r="B1810" t="s">
-        <v>3731</v>
+        <v>3754</v>
       </c>
       <c r="C1810" t="s">
-        <v>3725</v>
-      </c>
-      <c r="D1810" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1810" t="s">
-        <v>14</v>
+        <v>3755</v>
+      </c>
+      <c r="D1810">
+        <v>68000</v>
       </c>
       <c r="H1810" t="s">
-        <v>71</v>
+        <v>1495</v>
       </c>
       <c r="M1810" t="s">
-        <v>3732</v>
+        <v>3756</v>
       </c>
     </row>
     <row r="1811" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1811">
-        <v>1842</v>
+        <v>1850</v>
       </c>
       <c r="B1811" t="s">
-        <v>3738</v>
+        <v>3757</v>
       </c>
       <c r="C1811" t="s">
-        <v>3739</v>
+        <v>3758</v>
       </c>
       <c r="D1811" t="s">
         <v>14</v>
@@ -59902,676 +60104,730 @@
       <c r="E1811" t="s">
         <v>14</v>
       </c>
+      <c r="F1811" t="s">
+        <v>14</v>
+      </c>
       <c r="H1811" t="s">
-        <v>71</v>
+        <v>336</v>
+      </c>
+      <c r="I1811" t="s">
+        <v>1495</v>
       </c>
       <c r="M1811" t="s">
-        <v>3740</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="1812" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1812">
-        <v>1843</v>
+        <v>1851</v>
       </c>
       <c r="B1812" t="s">
-        <v>3741</v>
+        <v>3760</v>
       </c>
       <c r="C1812" t="s">
-        <v>3739</v>
+        <v>3761</v>
       </c>
       <c r="D1812" t="s">
         <v>14</v>
       </c>
       <c r="E1812" t="s">
-        <v>14</v>
+        <v>728</v>
       </c>
       <c r="H1812" t="s">
-        <v>71</v>
+        <v>166</v>
       </c>
       <c r="M1812" t="s">
-        <v>3742</v>
+        <v>4493</v>
       </c>
     </row>
     <row r="1813" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1813">
-        <v>1844</v>
+        <v>1852</v>
       </c>
       <c r="B1813" t="s">
-        <v>3743</v>
+        <v>3762</v>
       </c>
       <c r="C1813" t="s">
-        <v>3744</v>
-      </c>
-      <c r="D1813">
-        <v>68000</v>
+        <v>3761</v>
+      </c>
+      <c r="D1813" t="s">
+        <v>14</v>
       </c>
       <c r="E1813" t="s">
-        <v>14</v>
+        <v>728</v>
       </c>
       <c r="H1813" t="s">
-        <v>349</v>
+        <v>166</v>
       </c>
       <c r="M1813" t="s">
-        <v>3745</v>
+        <v>3763</v>
       </c>
     </row>
     <row r="1814" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1814">
-        <v>1845</v>
+        <v>1853</v>
       </c>
       <c r="B1814" t="s">
-        <v>3746</v>
+        <v>3764</v>
       </c>
       <c r="C1814" t="s">
-        <v>3747</v>
-      </c>
-      <c r="D1814">
-        <v>68000</v>
+        <v>3761</v>
+      </c>
+      <c r="D1814" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1814" t="s">
+        <v>728</v>
       </c>
       <c r="H1814" t="s">
-        <v>172</v>
-      </c>
-      <c r="I1814" t="s">
-        <v>1495</v>
+        <v>166</v>
       </c>
       <c r="M1814" t="s">
-        <v>3748</v>
+        <v>3765</v>
       </c>
     </row>
     <row r="1815" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1815">
-        <v>1846</v>
+        <v>1854</v>
       </c>
       <c r="B1815" t="s">
-        <v>3749</v>
+        <v>3766</v>
       </c>
       <c r="C1815" t="s">
-        <v>3747</v>
-      </c>
-      <c r="D1815">
-        <v>68000</v>
+        <v>3761</v>
+      </c>
+      <c r="D1815" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1815" t="s">
+        <v>728</v>
       </c>
       <c r="H1815" t="s">
-        <v>172</v>
-      </c>
-      <c r="I1815" t="s">
-        <v>1495</v>
+        <v>166</v>
       </c>
       <c r="M1815" t="s">
-        <v>3750</v>
+        <v>3767</v>
       </c>
     </row>
     <row r="1816" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1816">
-        <v>1847</v>
+        <v>1855</v>
       </c>
       <c r="B1816" t="s">
-        <v>3751</v>
+        <v>3768</v>
       </c>
       <c r="C1816" t="s">
-        <v>3747</v>
-      </c>
-      <c r="D1816">
-        <v>68000</v>
+        <v>3761</v>
+      </c>
+      <c r="D1816" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1816" t="s">
+        <v>728</v>
       </c>
       <c r="H1816" t="s">
-        <v>2378</v>
+        <v>166</v>
       </c>
       <c r="M1816" t="s">
-        <v>3752</v>
+        <v>3769</v>
       </c>
     </row>
     <row r="1817" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1817">
-        <v>1848</v>
+        <v>1856</v>
       </c>
       <c r="B1817" t="s">
-        <v>3753</v>
+        <v>3777</v>
       </c>
       <c r="C1817" t="s">
-        <v>3747</v>
-      </c>
-      <c r="D1817">
-        <v>68000</v>
+        <v>3778</v>
+      </c>
+      <c r="D1817" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1817" t="s">
+        <v>154</v>
       </c>
       <c r="H1817" t="s">
-        <v>2378</v>
+        <v>172</v>
       </c>
       <c r="M1817" t="s">
-        <v>4492</v>
+        <v>3779</v>
       </c>
     </row>
     <row r="1818" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1818">
-        <v>1849</v>
+        <v>1857</v>
       </c>
       <c r="B1818" t="s">
-        <v>3754</v>
+        <v>3780</v>
       </c>
       <c r="C1818" t="s">
-        <v>3755</v>
-      </c>
-      <c r="D1818">
-        <v>68000</v>
+        <v>3781</v>
+      </c>
+      <c r="D1818" t="s">
+        <v>14</v>
       </c>
       <c r="H1818" t="s">
-        <v>1495</v>
+        <v>172</v>
       </c>
       <c r="M1818" t="s">
-        <v>3756</v>
+        <v>3782</v>
       </c>
     </row>
     <row r="1819" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1819">
-        <v>1850</v>
+        <v>1858</v>
       </c>
       <c r="B1819" t="s">
-        <v>3757</v>
+        <v>3783</v>
       </c>
       <c r="C1819" t="s">
-        <v>3758</v>
+        <v>3781</v>
       </c>
       <c r="D1819" t="s">
         <v>14</v>
       </c>
-      <c r="E1819" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1819" t="s">
-        <v>14</v>
-      </c>
       <c r="H1819" t="s">
-        <v>336</v>
-      </c>
-      <c r="I1819" t="s">
-        <v>1495</v>
+        <v>172</v>
       </c>
       <c r="M1819" t="s">
-        <v>3759</v>
+        <v>3784</v>
       </c>
     </row>
     <row r="1820" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1820">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="B1820" t="s">
-        <v>3760</v>
+        <v>3785</v>
       </c>
       <c r="C1820" t="s">
-        <v>3761</v>
+        <v>3786</v>
       </c>
       <c r="D1820" t="s">
         <v>14</v>
       </c>
-      <c r="E1820" t="s">
-        <v>728</v>
-      </c>
       <c r="H1820" t="s">
-        <v>166</v>
+        <v>336</v>
       </c>
       <c r="M1820" t="s">
-        <v>4493</v>
+        <v>3787</v>
       </c>
     </row>
     <row r="1821" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1821">
-        <v>1852</v>
+        <v>1860</v>
       </c>
       <c r="B1821" t="s">
-        <v>3762</v>
+        <v>3788</v>
       </c>
       <c r="C1821" t="s">
-        <v>3761</v>
+        <v>3786</v>
       </c>
       <c r="D1821" t="s">
         <v>14</v>
       </c>
-      <c r="E1821" t="s">
-        <v>728</v>
-      </c>
       <c r="H1821" t="s">
-        <v>166</v>
+        <v>336</v>
       </c>
       <c r="M1821" t="s">
-        <v>3763</v>
+        <v>3789</v>
       </c>
     </row>
     <row r="1822" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1822">
-        <v>1853</v>
+        <v>1861</v>
       </c>
       <c r="B1822" t="s">
-        <v>3764</v>
+        <v>3790</v>
       </c>
       <c r="C1822" t="s">
-        <v>3761</v>
+        <v>3786</v>
       </c>
       <c r="D1822" t="s">
         <v>14</v>
       </c>
-      <c r="E1822" t="s">
-        <v>728</v>
-      </c>
       <c r="H1822" t="s">
-        <v>166</v>
+        <v>336</v>
       </c>
       <c r="M1822" t="s">
-        <v>3765</v>
+        <v>3791</v>
       </c>
     </row>
     <row r="1823" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1823">
-        <v>1854</v>
+        <v>1862</v>
       </c>
       <c r="B1823" t="s">
-        <v>3766</v>
+        <v>3792</v>
       </c>
       <c r="C1823" t="s">
-        <v>3761</v>
+        <v>3786</v>
       </c>
       <c r="D1823" t="s">
         <v>14</v>
       </c>
-      <c r="E1823" t="s">
-        <v>728</v>
-      </c>
       <c r="H1823" t="s">
-        <v>166</v>
+        <v>336</v>
       </c>
       <c r="M1823" t="s">
-        <v>3767</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="1824" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1824">
-        <v>1855</v>
+        <v>1863</v>
       </c>
       <c r="B1824" t="s">
-        <v>3768</v>
+        <v>3794</v>
       </c>
       <c r="C1824" t="s">
-        <v>3761</v>
+        <v>3795</v>
       </c>
       <c r="D1824" t="s">
-        <v>14</v>
+        <v>405</v>
       </c>
       <c r="E1824" t="s">
-        <v>728</v>
+        <v>1187</v>
       </c>
       <c r="H1824" t="s">
-        <v>166</v>
+        <v>71</v>
       </c>
       <c r="M1824" t="s">
-        <v>3769</v>
+        <v>3796</v>
       </c>
     </row>
     <row r="1825" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1825">
-        <v>1856</v>
+        <v>1864</v>
       </c>
       <c r="B1825" t="s">
-        <v>3777</v>
+        <v>3797</v>
       </c>
       <c r="C1825" t="s">
-        <v>3778</v>
+        <v>3795</v>
       </c>
       <c r="D1825" t="s">
-        <v>14</v>
+        <v>405</v>
       </c>
       <c r="E1825" t="s">
-        <v>154</v>
+        <v>1187</v>
       </c>
       <c r="H1825" t="s">
-        <v>172</v>
+        <v>71</v>
       </c>
       <c r="M1825" t="s">
-        <v>3779</v>
+        <v>3798</v>
       </c>
     </row>
     <row r="1826" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1826">
-        <v>1857</v>
+        <v>1865</v>
       </c>
       <c r="B1826" t="s">
-        <v>3780</v>
+        <v>3799</v>
       </c>
       <c r="C1826" t="s">
-        <v>3781</v>
+        <v>3800</v>
       </c>
       <c r="D1826" t="s">
         <v>14</v>
       </c>
       <c r="H1826" t="s">
-        <v>172</v>
+        <v>71</v>
       </c>
       <c r="M1826" t="s">
-        <v>3782</v>
+        <v>3801</v>
       </c>
     </row>
     <row r="1827" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1827">
-        <v>1858</v>
+        <v>1866</v>
       </c>
       <c r="B1827" t="s">
-        <v>3783</v>
+        <v>3802</v>
       </c>
       <c r="C1827" t="s">
-        <v>3781</v>
+        <v>3803</v>
       </c>
       <c r="D1827" t="s">
-        <v>14</v>
+        <v>405</v>
+      </c>
+      <c r="E1827" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F1827" t="s">
+        <v>3804</v>
       </c>
       <c r="H1827" t="s">
-        <v>172</v>
+        <v>71</v>
       </c>
       <c r="M1827" t="s">
-        <v>3784</v>
+        <v>3805</v>
       </c>
     </row>
     <row r="1828" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1828">
-        <v>1859</v>
+        <v>1867</v>
       </c>
       <c r="B1828" t="s">
-        <v>3785</v>
+        <v>3806</v>
       </c>
       <c r="C1828" t="s">
-        <v>3786</v>
+        <v>3807</v>
       </c>
       <c r="D1828" t="s">
-        <v>14</v>
+        <v>473</v>
       </c>
       <c r="H1828" t="s">
-        <v>336</v>
+        <v>2939</v>
       </c>
       <c r="M1828" t="s">
-        <v>3787</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="1829" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1829">
-        <v>1860</v>
+        <v>1868</v>
       </c>
       <c r="B1829" t="s">
-        <v>3788</v>
+        <v>3809</v>
       </c>
       <c r="C1829" t="s">
-        <v>3786</v>
+        <v>3810</v>
       </c>
       <c r="D1829" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1829" t="s">
-        <v>336</v>
+        <v>473</v>
       </c>
       <c r="M1829" t="s">
-        <v>3789</v>
+        <v>3811</v>
       </c>
     </row>
     <row r="1830" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1830">
-        <v>1861</v>
+        <v>1869</v>
       </c>
       <c r="B1830" t="s">
-        <v>3790</v>
+        <v>3812</v>
       </c>
       <c r="C1830" t="s">
-        <v>3786</v>
+        <v>3810</v>
       </c>
       <c r="D1830" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1830" t="s">
-        <v>336</v>
+        <v>473</v>
       </c>
       <c r="M1830" t="s">
-        <v>3791</v>
+        <v>3813</v>
       </c>
     </row>
     <row r="1831" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1831">
-        <v>1862</v>
+        <v>1870</v>
       </c>
       <c r="B1831" t="s">
-        <v>3792</v>
+        <v>3814</v>
       </c>
       <c r="C1831" t="s">
-        <v>3786</v>
-      </c>
-      <c r="D1831" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1831" t="s">
-        <v>336</v>
+        <v>3815</v>
+      </c>
+      <c r="D1831">
+        <v>8080</v>
       </c>
       <c r="M1831" t="s">
-        <v>3793</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="1832" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1832">
-        <v>1863</v>
+        <v>1871</v>
       </c>
       <c r="B1832" t="s">
-        <v>3794</v>
+        <v>3817</v>
       </c>
       <c r="C1832" t="s">
-        <v>3795</v>
+        <v>3818</v>
       </c>
       <c r="D1832" t="s">
-        <v>405</v>
+        <v>3439</v>
       </c>
       <c r="E1832" t="s">
+        <v>3439</v>
+      </c>
+      <c r="F1832" t="s">
         <v>1187</v>
       </c>
+      <c r="G1832" t="s">
+        <v>1187</v>
+      </c>
       <c r="H1832" t="s">
-        <v>71</v>
+        <v>333</v>
+      </c>
+      <c r="I1832" t="s">
+        <v>551</v>
       </c>
       <c r="M1832" t="s">
-        <v>3796</v>
+        <v>3819</v>
       </c>
     </row>
     <row r="1833" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1833">
-        <v>1864</v>
+        <v>1872</v>
       </c>
       <c r="B1833" t="s">
-        <v>3797</v>
+        <v>3820</v>
       </c>
       <c r="C1833" t="s">
-        <v>3795</v>
+        <v>3821</v>
       </c>
       <c r="D1833" t="s">
-        <v>405</v>
-      </c>
-      <c r="E1833" t="s">
-        <v>1187</v>
+        <v>14</v>
       </c>
       <c r="H1833" t="s">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c r="M1833" t="s">
-        <v>3798</v>
+        <v>3822</v>
       </c>
     </row>
     <row r="1834" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1834">
-        <v>1865</v>
+        <v>1873</v>
       </c>
       <c r="B1834" t="s">
-        <v>3799</v>
+        <v>3823</v>
       </c>
       <c r="C1834" t="s">
-        <v>3800</v>
+        <v>3824</v>
       </c>
       <c r="D1834" t="s">
         <v>14</v>
+      </c>
+      <c r="E1834" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1834" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1834" t="s">
+        <v>154</v>
       </c>
       <c r="H1834" t="s">
         <v>71</v>
       </c>
+      <c r="I1834" t="s">
+        <v>166</v>
+      </c>
       <c r="M1834" t="s">
-        <v>3801</v>
+        <v>3825</v>
       </c>
     </row>
     <row r="1835" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1835">
-        <v>1866</v>
+        <v>1874</v>
       </c>
       <c r="B1835" t="s">
-        <v>3802</v>
+        <v>3826</v>
       </c>
       <c r="C1835" t="s">
-        <v>3803</v>
+        <v>3824</v>
       </c>
       <c r="D1835" t="s">
-        <v>405</v>
+        <v>14</v>
       </c>
       <c r="E1835" t="s">
-        <v>1187</v>
+        <v>14</v>
       </c>
       <c r="F1835" t="s">
-        <v>3804</v>
+        <v>14</v>
+      </c>
+      <c r="G1835" t="s">
+        <v>154</v>
       </c>
       <c r="H1835" t="s">
         <v>71</v>
       </c>
+      <c r="I1835" t="s">
+        <v>166</v>
+      </c>
       <c r="M1835" t="s">
-        <v>3805</v>
+        <v>3827</v>
       </c>
     </row>
     <row r="1836" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1836">
-        <v>1867</v>
+        <v>1875</v>
       </c>
       <c r="B1836" t="s">
-        <v>3806</v>
+        <v>3828</v>
       </c>
       <c r="C1836" t="s">
-        <v>3807</v>
+        <v>3824</v>
       </c>
       <c r="D1836" t="s">
-        <v>473</v>
+        <v>14</v>
+      </c>
+      <c r="E1836" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1836" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1836" t="s">
+        <v>154</v>
       </c>
       <c r="H1836" t="s">
-        <v>2939</v>
+        <v>71</v>
+      </c>
+      <c r="I1836" t="s">
+        <v>166</v>
       </c>
       <c r="M1836" t="s">
-        <v>3808</v>
+        <v>3829</v>
       </c>
     </row>
     <row r="1837" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1837">
-        <v>1868</v>
+        <v>1876</v>
       </c>
       <c r="B1837" t="s">
-        <v>3809</v>
+        <v>3830</v>
       </c>
       <c r="C1837" t="s">
-        <v>3810</v>
+        <v>3824</v>
       </c>
       <c r="D1837" t="s">
-        <v>473</v>
+        <v>14</v>
+      </c>
+      <c r="E1837" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1837" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1837" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1837" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1837" t="s">
+        <v>166</v>
       </c>
       <c r="M1837" t="s">
-        <v>3811</v>
+        <v>3831</v>
       </c>
     </row>
     <row r="1838" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1838">
-        <v>1869</v>
+        <v>1877</v>
       </c>
       <c r="B1838" t="s">
-        <v>3812</v>
+        <v>3832</v>
       </c>
       <c r="C1838" t="s">
-        <v>3810</v>
-      </c>
-      <c r="D1838" t="s">
-        <v>473</v>
+        <v>3833</v>
+      </c>
+      <c r="D1838">
+        <v>68000</v>
+      </c>
+      <c r="E1838" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1838" t="s">
+        <v>1495</v>
       </c>
       <c r="M1838" t="s">
-        <v>3813</v>
+        <v>3834</v>
       </c>
     </row>
     <row r="1839" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1839">
-        <v>1870</v>
+        <v>1878</v>
       </c>
       <c r="B1839" t="s">
-        <v>3814</v>
+        <v>3835</v>
       </c>
       <c r="C1839" t="s">
-        <v>3815</v>
-      </c>
-      <c r="D1839">
-        <v>8080</v>
+        <v>3836</v>
+      </c>
+      <c r="D1839" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1839" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1839" t="s">
+        <v>1239</v>
+      </c>
+      <c r="I1839" t="s">
+        <v>333</v>
       </c>
       <c r="M1839" t="s">
-        <v>3816</v>
+        <v>3837</v>
       </c>
     </row>
     <row r="1840" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1840">
-        <v>1871</v>
+        <v>1879</v>
       </c>
       <c r="B1840" t="s">
-        <v>3817</v>
+        <v>3838</v>
       </c>
       <c r="C1840" t="s">
-        <v>3818</v>
+        <v>3836</v>
       </c>
       <c r="D1840" t="s">
-        <v>3439</v>
+        <v>14</v>
       </c>
       <c r="E1840" t="s">
-        <v>3439</v>
-      </c>
-      <c r="F1840" t="s">
-        <v>1187</v>
-      </c>
-      <c r="G1840" t="s">
-        <v>1187</v>
+        <v>14</v>
       </c>
       <c r="H1840" t="s">
+        <v>1239</v>
+      </c>
+      <c r="I1840" t="s">
         <v>333</v>
       </c>
-      <c r="I1840" t="s">
-        <v>551</v>
-      </c>
       <c r="M1840" t="s">
-        <v>3819</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="1841" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1841">
-        <v>1872</v>
+        <v>1880</v>
       </c>
       <c r="B1841" t="s">
-        <v>3820</v>
+        <v>3839</v>
       </c>
       <c r="C1841" t="s">
-        <v>3821</v>
+        <v>3836</v>
       </c>
       <c r="D1841" t="s">
         <v>14</v>
       </c>
+      <c r="E1841" t="s">
+        <v>14</v>
+      </c>
       <c r="H1841" t="s">
-        <v>172</v>
+        <v>71</v>
+      </c>
+      <c r="I1841" t="s">
+        <v>166</v>
       </c>
       <c r="M1841" t="s">
-        <v>3822</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="1842" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1842">
-        <v>1873</v>
+        <v>1881</v>
       </c>
       <c r="B1842" t="s">
-        <v>3823</v>
+        <v>3840</v>
       </c>
       <c r="C1842" t="s">
-        <v>3824</v>
+        <v>3836</v>
       </c>
       <c r="D1842" t="s">
         <v>14</v>
@@ -60579,31 +60835,25 @@
       <c r="E1842" t="s">
         <v>14</v>
       </c>
-      <c r="F1842" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1842" t="s">
-        <v>154</v>
-      </c>
       <c r="H1842" t="s">
-        <v>71</v>
+        <v>1239</v>
       </c>
       <c r="I1842" t="s">
-        <v>166</v>
+        <v>333</v>
       </c>
       <c r="M1842" t="s">
-        <v>3825</v>
+        <v>3841</v>
       </c>
     </row>
     <row r="1843" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1843">
-        <v>1874</v>
+        <v>1882</v>
       </c>
       <c r="B1843" t="s">
-        <v>3826</v>
+        <v>3842</v>
       </c>
       <c r="C1843" t="s">
-        <v>3824</v>
+        <v>3843</v>
       </c>
       <c r="D1843" t="s">
         <v>14</v>
@@ -60611,417 +60861,369 @@
       <c r="E1843" t="s">
         <v>14</v>
       </c>
-      <c r="F1843" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1843" t="s">
-        <v>154</v>
-      </c>
       <c r="H1843" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1843" t="s">
-        <v>166</v>
+        <v>349</v>
       </c>
       <c r="M1843" t="s">
-        <v>3827</v>
+        <v>3844</v>
       </c>
     </row>
     <row r="1844" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1844">
-        <v>1875</v>
+        <v>1883</v>
       </c>
       <c r="B1844" t="s">
-        <v>3828</v>
+        <v>3845</v>
       </c>
       <c r="C1844" t="s">
-        <v>3824</v>
+        <v>3846</v>
       </c>
       <c r="D1844" t="s">
         <v>14</v>
       </c>
       <c r="E1844" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1844" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1844" t="s">
         <v>154</v>
       </c>
       <c r="H1844" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1844" t="s">
-        <v>166</v>
+        <v>349</v>
       </c>
       <c r="M1844" t="s">
-        <v>3829</v>
+        <v>3847</v>
       </c>
     </row>
     <row r="1845" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1845">
-        <v>1876</v>
+        <v>1884</v>
       </c>
       <c r="B1845" t="s">
-        <v>3830</v>
+        <v>3848</v>
       </c>
       <c r="C1845" t="s">
-        <v>3824</v>
+        <v>3849</v>
       </c>
       <c r="D1845" t="s">
         <v>14</v>
       </c>
-      <c r="E1845" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1845" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1845" t="s">
-        <v>154</v>
-      </c>
       <c r="H1845" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1845" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M1845" t="s">
-        <v>3831</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="1846" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1846">
-        <v>1877</v>
+        <v>1885</v>
       </c>
       <c r="B1846" t="s">
-        <v>3832</v>
+        <v>3851</v>
       </c>
       <c r="C1846" t="s">
-        <v>3833</v>
+        <v>3852</v>
       </c>
       <c r="D1846">
-        <v>68000</v>
-      </c>
-      <c r="E1846" t="s">
-        <v>154</v>
+        <v>8080</v>
       </c>
       <c r="H1846" t="s">
-        <v>1495</v>
+        <v>406</v>
       </c>
       <c r="M1846" t="s">
-        <v>3834</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="1847" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1847">
-        <v>1878</v>
+        <v>1886</v>
       </c>
       <c r="B1847" t="s">
-        <v>3835</v>
+        <v>3854</v>
       </c>
       <c r="C1847" t="s">
-        <v>3836</v>
+        <v>3855</v>
       </c>
       <c r="D1847" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1847" t="s">
-        <v>14</v>
+        <v>1108</v>
       </c>
       <c r="H1847" t="s">
-        <v>1239</v>
-      </c>
-      <c r="I1847" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M1847" t="s">
-        <v>3837</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="1848" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1848">
-        <v>1879</v>
+        <v>1887</v>
       </c>
       <c r="B1848" t="s">
-        <v>3838</v>
+        <v>3857</v>
       </c>
       <c r="C1848" t="s">
-        <v>3836</v>
+        <v>3858</v>
       </c>
       <c r="D1848" t="s">
         <v>14</v>
       </c>
       <c r="E1848" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="H1848" t="s">
-        <v>1239</v>
-      </c>
-      <c r="I1848" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M1848" t="s">
-        <v>4494</v>
+        <v>3859</v>
       </c>
     </row>
     <row r="1849" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1849">
-        <v>1880</v>
+        <v>1888</v>
       </c>
       <c r="B1849" t="s">
-        <v>3839</v>
+        <v>3860</v>
       </c>
       <c r="C1849" t="s">
-        <v>3836</v>
+        <v>3858</v>
       </c>
       <c r="D1849" t="s">
         <v>14</v>
       </c>
       <c r="E1849" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="H1849" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1849" t="s">
-        <v>166</v>
+        <v>336</v>
       </c>
       <c r="M1849" t="s">
-        <v>4495</v>
+        <v>3861</v>
       </c>
     </row>
     <row r="1850" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1850">
-        <v>1881</v>
+        <v>1889</v>
       </c>
       <c r="B1850" t="s">
-        <v>3840</v>
+        <v>3862</v>
       </c>
       <c r="C1850" t="s">
-        <v>3836</v>
+        <v>3863</v>
       </c>
       <c r="D1850" t="s">
-        <v>14</v>
+        <v>3864</v>
       </c>
       <c r="E1850" t="s">
-        <v>14</v>
+        <v>728</v>
       </c>
       <c r="H1850" t="s">
-        <v>1239</v>
-      </c>
-      <c r="I1850" t="s">
-        <v>333</v>
+        <v>2073</v>
       </c>
       <c r="M1850" t="s">
-        <v>3841</v>
+        <v>3865</v>
       </c>
     </row>
     <row r="1851" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1851">
-        <v>1882</v>
+        <v>1890</v>
       </c>
       <c r="B1851" t="s">
-        <v>3842</v>
+        <v>3866</v>
       </c>
       <c r="C1851" t="s">
-        <v>3843</v>
-      </c>
-      <c r="D1851" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1851" t="s">
-        <v>14</v>
+        <v>3867</v>
+      </c>
+      <c r="D1851">
+        <v>68000</v>
       </c>
       <c r="H1851" t="s">
-        <v>349</v>
+        <v>2378</v>
       </c>
       <c r="M1851" t="s">
-        <v>3844</v>
+        <v>3868</v>
       </c>
     </row>
     <row r="1852" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1852">
-        <v>1883</v>
+        <v>1891</v>
       </c>
       <c r="B1852" t="s">
-        <v>3845</v>
+        <v>3869</v>
       </c>
       <c r="C1852" t="s">
-        <v>3846</v>
-      </c>
-      <c r="D1852" t="s">
-        <v>14</v>
+        <v>3870</v>
+      </c>
+      <c r="D1852">
+        <v>68000</v>
       </c>
       <c r="E1852" t="s">
         <v>154</v>
       </c>
       <c r="H1852" t="s">
-        <v>349</v>
+        <v>1239</v>
       </c>
       <c r="M1852" t="s">
-        <v>3847</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="1853" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1853">
-        <v>1884</v>
+        <v>1892</v>
       </c>
       <c r="B1853" t="s">
-        <v>3848</v>
+        <v>3872</v>
       </c>
       <c r="C1853" t="s">
-        <v>3849</v>
+        <v>3873</v>
       </c>
       <c r="D1853" t="s">
-        <v>14</v>
+        <v>405</v>
       </c>
       <c r="H1853" t="s">
-        <v>172</v>
+        <v>71</v>
       </c>
       <c r="M1853" t="s">
-        <v>3850</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="1854" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1854">
-        <v>1885</v>
+        <v>1893</v>
       </c>
       <c r="B1854" t="s">
-        <v>3851</v>
+        <v>3875</v>
       </c>
       <c r="C1854" t="s">
-        <v>3852</v>
-      </c>
-      <c r="D1854">
-        <v>8080</v>
-      </c>
-      <c r="H1854" t="s">
-        <v>406</v>
+        <v>3876</v>
+      </c>
+      <c r="D1854" t="s">
+        <v>14</v>
       </c>
       <c r="M1854" t="s">
-        <v>3853</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="1855" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1855">
-        <v>1886</v>
+        <v>1894</v>
       </c>
       <c r="B1855" t="s">
-        <v>3854</v>
+        <v>3877</v>
       </c>
       <c r="C1855" t="s">
-        <v>3855</v>
-      </c>
-      <c r="D1855" t="s">
-        <v>1108</v>
+        <v>3878</v>
+      </c>
+      <c r="D1855">
+        <v>68000</v>
+      </c>
+      <c r="E1855" t="s">
+        <v>154</v>
       </c>
       <c r="H1855" t="s">
-        <v>336</v>
+        <v>1356</v>
       </c>
       <c r="M1855" t="s">
-        <v>3856</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="1856" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1856">
-        <v>1887</v>
+        <v>1895</v>
       </c>
       <c r="B1856" t="s">
-        <v>3857</v>
+        <v>3880</v>
       </c>
       <c r="C1856" t="s">
-        <v>3858</v>
-      </c>
-      <c r="D1856" t="s">
-        <v>14</v>
+        <v>3878</v>
+      </c>
+      <c r="D1856">
+        <v>68000</v>
       </c>
       <c r="E1856" t="s">
         <v>154</v>
       </c>
       <c r="H1856" t="s">
-        <v>336</v>
+        <v>1356</v>
       </c>
       <c r="M1856" t="s">
-        <v>3859</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="1857" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1857">
-        <v>1888</v>
+        <v>1896</v>
       </c>
       <c r="B1857" t="s">
-        <v>3860</v>
+        <v>3881</v>
       </c>
       <c r="C1857" t="s">
-        <v>3858</v>
-      </c>
-      <c r="D1857" t="s">
-        <v>14</v>
+        <v>3878</v>
+      </c>
+      <c r="D1857">
+        <v>68000</v>
       </c>
       <c r="E1857" t="s">
         <v>154</v>
       </c>
       <c r="H1857" t="s">
-        <v>336</v>
+        <v>1356</v>
       </c>
       <c r="M1857" t="s">
-        <v>3861</v>
+        <v>3882</v>
       </c>
     </row>
     <row r="1858" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1858">
-        <v>1889</v>
+        <v>1897</v>
       </c>
       <c r="B1858" t="s">
-        <v>3862</v>
+        <v>3883</v>
       </c>
       <c r="C1858" t="s">
-        <v>3863</v>
-      </c>
-      <c r="D1858" t="s">
-        <v>3864</v>
+        <v>3878</v>
+      </c>
+      <c r="D1858">
+        <v>68000</v>
       </c>
       <c r="E1858" t="s">
-        <v>728</v>
+        <v>154</v>
       </c>
       <c r="H1858" t="s">
-        <v>2073</v>
+        <v>1356</v>
       </c>
       <c r="M1858" t="s">
-        <v>3865</v>
+        <v>3884</v>
       </c>
     </row>
     <row r="1859" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1859">
-        <v>1890</v>
+        <v>1898</v>
       </c>
       <c r="B1859" t="s">
-        <v>3866</v>
+        <v>3885</v>
       </c>
       <c r="C1859" t="s">
-        <v>3867</v>
+        <v>3878</v>
       </c>
       <c r="D1859">
         <v>68000</v>
       </c>
+      <c r="E1859" t="s">
+        <v>154</v>
+      </c>
       <c r="H1859" t="s">
-        <v>2378</v>
+        <v>1356</v>
       </c>
       <c r="M1859" t="s">
-        <v>3868</v>
+        <v>3886</v>
       </c>
     </row>
     <row r="1860" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1860">
-        <v>1891</v>
+        <v>1899</v>
       </c>
       <c r="B1860" t="s">
-        <v>3869</v>
+        <v>3887</v>
       </c>
       <c r="C1860" t="s">
-        <v>3870</v>
+        <v>3878</v>
       </c>
       <c r="D1860">
         <v>68000</v>
@@ -61030,55 +61232,64 @@
         <v>154</v>
       </c>
       <c r="H1860" t="s">
-        <v>1239</v>
+        <v>1356</v>
       </c>
       <c r="M1860" t="s">
-        <v>3871</v>
+        <v>3888</v>
       </c>
     </row>
     <row r="1861" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1861">
-        <v>1892</v>
+        <v>1900</v>
       </c>
       <c r="B1861" t="s">
-        <v>3872</v>
+        <v>3889</v>
       </c>
       <c r="C1861" t="s">
-        <v>3873</v>
-      </c>
-      <c r="D1861" t="s">
-        <v>405</v>
+        <v>3878</v>
+      </c>
+      <c r="D1861">
+        <v>68000</v>
+      </c>
+      <c r="E1861" t="s">
+        <v>154</v>
       </c>
       <c r="H1861" t="s">
-        <v>71</v>
+        <v>1356</v>
       </c>
       <c r="M1861" t="s">
-        <v>3874</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="1862" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1862">
-        <v>1893</v>
+        <v>1901</v>
       </c>
       <c r="B1862" t="s">
-        <v>3875</v>
+        <v>3891</v>
       </c>
       <c r="C1862" t="s">
-        <v>3876</v>
-      </c>
-      <c r="D1862" t="s">
-        <v>14</v>
+        <v>3878</v>
+      </c>
+      <c r="D1862">
+        <v>68000</v>
+      </c>
+      <c r="E1862" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1862" t="s">
+        <v>1356</v>
       </c>
       <c r="M1862" t="s">
-        <v>4496</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="1863" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1863">
-        <v>1894</v>
+        <v>1902</v>
       </c>
       <c r="B1863" t="s">
-        <v>3877</v>
+        <v>3892</v>
       </c>
       <c r="C1863" t="s">
         <v>3878</v>
@@ -61093,15 +61304,15 @@
         <v>1356</v>
       </c>
       <c r="M1863" t="s">
-        <v>3879</v>
+        <v>3893</v>
       </c>
     </row>
     <row r="1864" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1864">
-        <v>1895</v>
+        <v>1903</v>
       </c>
       <c r="B1864" t="s">
-        <v>3880</v>
+        <v>3894</v>
       </c>
       <c r="C1864" t="s">
         <v>3878</v>
@@ -61116,15 +61327,15 @@
         <v>1356</v>
       </c>
       <c r="M1864" t="s">
-        <v>4497</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="1865" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1865">
-        <v>1896</v>
+        <v>1904</v>
       </c>
       <c r="B1865" t="s">
-        <v>3881</v>
+        <v>3896</v>
       </c>
       <c r="C1865" t="s">
         <v>3878</v>
@@ -61139,15 +61350,15 @@
         <v>1356</v>
       </c>
       <c r="M1865" t="s">
-        <v>3882</v>
+        <v>3897</v>
       </c>
     </row>
     <row r="1866" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1866">
-        <v>1897</v>
+        <v>1905</v>
       </c>
       <c r="B1866" t="s">
-        <v>3883</v>
+        <v>3898</v>
       </c>
       <c r="C1866" t="s">
         <v>3878</v>
@@ -61162,15 +61373,15 @@
         <v>1356</v>
       </c>
       <c r="M1866" t="s">
-        <v>3884</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="1867" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1867">
-        <v>1898</v>
+        <v>1906</v>
       </c>
       <c r="B1867" t="s">
-        <v>3885</v>
+        <v>3900</v>
       </c>
       <c r="C1867" t="s">
         <v>3878</v>
@@ -61185,15 +61396,15 @@
         <v>1356</v>
       </c>
       <c r="M1867" t="s">
-        <v>3886</v>
+        <v>3901</v>
       </c>
     </row>
     <row r="1868" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1868">
-        <v>1899</v>
+        <v>1907</v>
       </c>
       <c r="B1868" t="s">
-        <v>3887</v>
+        <v>3902</v>
       </c>
       <c r="C1868" t="s">
         <v>3878</v>
@@ -61208,15 +61419,15 @@
         <v>1356</v>
       </c>
       <c r="M1868" t="s">
-        <v>3888</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="1869" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1869">
-        <v>1900</v>
+        <v>1908</v>
       </c>
       <c r="B1869" t="s">
-        <v>3889</v>
+        <v>3903</v>
       </c>
       <c r="C1869" t="s">
         <v>3878</v>
@@ -61231,15 +61442,15 @@
         <v>1356</v>
       </c>
       <c r="M1869" t="s">
-        <v>3890</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="1870" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1870">
-        <v>1901</v>
+        <v>1909</v>
       </c>
       <c r="B1870" t="s">
-        <v>3891</v>
+        <v>3904</v>
       </c>
       <c r="C1870" t="s">
         <v>3878</v>
@@ -61254,15 +61465,15 @@
         <v>1356</v>
       </c>
       <c r="M1870" t="s">
-        <v>4498</v>
+        <v>3905</v>
       </c>
     </row>
     <row r="1871" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1871">
-        <v>1902</v>
+        <v>1910</v>
       </c>
       <c r="B1871" t="s">
-        <v>3892</v>
+        <v>3906</v>
       </c>
       <c r="C1871" t="s">
         <v>3878</v>
@@ -61277,15 +61488,15 @@
         <v>1356</v>
       </c>
       <c r="M1871" t="s">
-        <v>3893</v>
+        <v>3907</v>
       </c>
     </row>
     <row r="1872" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1872">
-        <v>1903</v>
+        <v>1911</v>
       </c>
       <c r="B1872" t="s">
-        <v>3894</v>
+        <v>3908</v>
       </c>
       <c r="C1872" t="s">
         <v>3878</v>
@@ -61300,15 +61511,15 @@
         <v>1356</v>
       </c>
       <c r="M1872" t="s">
-        <v>3895</v>
+        <v>3909</v>
       </c>
     </row>
     <row r="1873" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1873">
-        <v>1904</v>
+        <v>1912</v>
       </c>
       <c r="B1873" t="s">
-        <v>3896</v>
+        <v>3910</v>
       </c>
       <c r="C1873" t="s">
         <v>3878</v>
@@ -61323,15 +61534,15 @@
         <v>1356</v>
       </c>
       <c r="M1873" t="s">
-        <v>3897</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="1874" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1874">
-        <v>1905</v>
+        <v>1913</v>
       </c>
       <c r="B1874" t="s">
-        <v>3898</v>
+        <v>3912</v>
       </c>
       <c r="C1874" t="s">
         <v>3878</v>
@@ -61346,15 +61557,15 @@
         <v>1356</v>
       </c>
       <c r="M1874" t="s">
-        <v>3899</v>
+        <v>3913</v>
       </c>
     </row>
     <row r="1875" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1875">
-        <v>1906</v>
+        <v>1914</v>
       </c>
       <c r="B1875" t="s">
-        <v>3900</v>
+        <v>3914</v>
       </c>
       <c r="C1875" t="s">
         <v>3878</v>
@@ -61369,15 +61580,15 @@
         <v>1356</v>
       </c>
       <c r="M1875" t="s">
-        <v>3901</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="1876" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1876">
-        <v>1907</v>
+        <v>1915</v>
       </c>
       <c r="B1876" t="s">
-        <v>3902</v>
+        <v>3916</v>
       </c>
       <c r="C1876" t="s">
         <v>3878</v>
@@ -61392,15 +61603,15 @@
         <v>1356</v>
       </c>
       <c r="M1876" t="s">
-        <v>4499</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="1877" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1877">
-        <v>1908</v>
+        <v>1916</v>
       </c>
       <c r="B1877" t="s">
-        <v>3903</v>
+        <v>3917</v>
       </c>
       <c r="C1877" t="s">
         <v>3878</v>
@@ -61415,15 +61626,15 @@
         <v>1356</v>
       </c>
       <c r="M1877" t="s">
-        <v>4500</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="1878" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1878">
-        <v>1909</v>
+        <v>1917</v>
       </c>
       <c r="B1878" t="s">
-        <v>3904</v>
+        <v>3919</v>
       </c>
       <c r="C1878" t="s">
         <v>3878</v>
@@ -61438,15 +61649,15 @@
         <v>1356</v>
       </c>
       <c r="M1878" t="s">
-        <v>3905</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="1879" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1879">
-        <v>1910</v>
+        <v>1918</v>
       </c>
       <c r="B1879" t="s">
-        <v>3906</v>
+        <v>3921</v>
       </c>
       <c r="C1879" t="s">
         <v>3878</v>
@@ -61461,15 +61672,15 @@
         <v>1356</v>
       </c>
       <c r="M1879" t="s">
-        <v>3907</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="1880" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1880">
-        <v>1911</v>
+        <v>1919</v>
       </c>
       <c r="B1880" t="s">
-        <v>3908</v>
+        <v>3923</v>
       </c>
       <c r="C1880" t="s">
         <v>3878</v>
@@ -61484,15 +61695,15 @@
         <v>1356</v>
       </c>
       <c r="M1880" t="s">
-        <v>3909</v>
+        <v>4502</v>
       </c>
     </row>
     <row r="1881" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1881">
-        <v>1912</v>
+        <v>1920</v>
       </c>
       <c r="B1881" t="s">
-        <v>3910</v>
+        <v>3924</v>
       </c>
       <c r="C1881" t="s">
         <v>3878</v>
@@ -61507,15 +61718,15 @@
         <v>1356</v>
       </c>
       <c r="M1881" t="s">
-        <v>3911</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="1882" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1882">
-        <v>1913</v>
+        <v>1921</v>
       </c>
       <c r="B1882" t="s">
-        <v>3912</v>
+        <v>3925</v>
       </c>
       <c r="C1882" t="s">
         <v>3878</v>
@@ -61530,15 +61741,15 @@
         <v>1356</v>
       </c>
       <c r="M1882" t="s">
-        <v>3913</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="1883" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1883">
-        <v>1914</v>
+        <v>1922</v>
       </c>
       <c r="B1883" t="s">
-        <v>3914</v>
+        <v>3926</v>
       </c>
       <c r="C1883" t="s">
         <v>3878</v>
@@ -61553,15 +61764,15 @@
         <v>1356</v>
       </c>
       <c r="M1883" t="s">
-        <v>3915</v>
+        <v>3927</v>
       </c>
     </row>
     <row r="1884" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1884">
-        <v>1915</v>
+        <v>1923</v>
       </c>
       <c r="B1884" t="s">
-        <v>3916</v>
+        <v>3928</v>
       </c>
       <c r="C1884" t="s">
         <v>3878</v>
@@ -61576,15 +61787,15 @@
         <v>1356</v>
       </c>
       <c r="M1884" t="s">
-        <v>4501</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="1885" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1885">
-        <v>1916</v>
+        <v>1924</v>
       </c>
       <c r="B1885" t="s">
-        <v>3917</v>
+        <v>3930</v>
       </c>
       <c r="C1885" t="s">
         <v>3878</v>
@@ -61599,15 +61810,15 @@
         <v>1356</v>
       </c>
       <c r="M1885" t="s">
-        <v>3918</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="1886" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1886">
-        <v>1917</v>
+        <v>1925</v>
       </c>
       <c r="B1886" t="s">
-        <v>3919</v>
+        <v>3931</v>
       </c>
       <c r="C1886" t="s">
         <v>3878</v>
@@ -61622,15 +61833,15 @@
         <v>1356</v>
       </c>
       <c r="M1886" t="s">
-        <v>3920</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="1887" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1887">
-        <v>1918</v>
+        <v>1926</v>
       </c>
       <c r="B1887" t="s">
-        <v>3921</v>
+        <v>3933</v>
       </c>
       <c r="C1887" t="s">
         <v>3878</v>
@@ -61645,15 +61856,15 @@
         <v>1356</v>
       </c>
       <c r="M1887" t="s">
-        <v>3922</v>
+        <v>4506</v>
       </c>
     </row>
     <row r="1888" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1888">
-        <v>1919</v>
+        <v>1927</v>
       </c>
       <c r="B1888" t="s">
-        <v>3923</v>
+        <v>3934</v>
       </c>
       <c r="C1888" t="s">
         <v>3878</v>
@@ -61668,15 +61879,15 @@
         <v>1356</v>
       </c>
       <c r="M1888" t="s">
-        <v>4502</v>
+        <v>3935</v>
       </c>
     </row>
     <row r="1889" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1889">
-        <v>1920</v>
+        <v>1928</v>
       </c>
       <c r="B1889" t="s">
-        <v>3924</v>
+        <v>3936</v>
       </c>
       <c r="C1889" t="s">
         <v>3878</v>
@@ -61691,15 +61902,15 @@
         <v>1356</v>
       </c>
       <c r="M1889" t="s">
-        <v>4503</v>
+        <v>3937</v>
       </c>
     </row>
     <row r="1890" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1890">
-        <v>1921</v>
+        <v>1929</v>
       </c>
       <c r="B1890" t="s">
-        <v>3925</v>
+        <v>3938</v>
       </c>
       <c r="C1890" t="s">
         <v>3878</v>
@@ -61714,15 +61925,15 @@
         <v>1356</v>
       </c>
       <c r="M1890" t="s">
-        <v>4504</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="1891" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1891">
-        <v>1922</v>
+        <v>1930</v>
       </c>
       <c r="B1891" t="s">
-        <v>3926</v>
+        <v>3939</v>
       </c>
       <c r="C1891" t="s">
         <v>3878</v>
@@ -61737,15 +61948,15 @@
         <v>1356</v>
       </c>
       <c r="M1891" t="s">
-        <v>3927</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="1892" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1892">
-        <v>1923</v>
+        <v>1931</v>
       </c>
       <c r="B1892" t="s">
-        <v>3928</v>
+        <v>3940</v>
       </c>
       <c r="C1892" t="s">
         <v>3878</v>
@@ -61760,15 +61971,15 @@
         <v>1356</v>
       </c>
       <c r="M1892" t="s">
-        <v>3929</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="1893" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1893">
-        <v>1924</v>
+        <v>1932</v>
       </c>
       <c r="B1893" t="s">
-        <v>3930</v>
+        <v>3942</v>
       </c>
       <c r="C1893" t="s">
         <v>3878</v>
@@ -61783,15 +61994,15 @@
         <v>1356</v>
       </c>
       <c r="M1893" t="s">
-        <v>4505</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="1894" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1894">
-        <v>1925</v>
+        <v>1933</v>
       </c>
       <c r="B1894" t="s">
-        <v>3931</v>
+        <v>3943</v>
       </c>
       <c r="C1894" t="s">
         <v>3878</v>
@@ -61806,15 +62017,15 @@
         <v>1356</v>
       </c>
       <c r="M1894" t="s">
-        <v>3932</v>
+        <v>4510</v>
       </c>
     </row>
     <row r="1895" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1895">
-        <v>1926</v>
+        <v>1934</v>
       </c>
       <c r="B1895" t="s">
-        <v>3933</v>
+        <v>3944</v>
       </c>
       <c r="C1895" t="s">
         <v>3878</v>
@@ -61829,15 +62040,15 @@
         <v>1356</v>
       </c>
       <c r="M1895" t="s">
-        <v>4506</v>
+        <v>4511</v>
       </c>
     </row>
     <row r="1896" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1896">
-        <v>1927</v>
+        <v>1935</v>
       </c>
       <c r="B1896" t="s">
-        <v>3934</v>
+        <v>3945</v>
       </c>
       <c r="C1896" t="s">
         <v>3878</v>
@@ -61852,15 +62063,15 @@
         <v>1356</v>
       </c>
       <c r="M1896" t="s">
-        <v>3935</v>
+        <v>4512</v>
       </c>
     </row>
     <row r="1897" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1897">
-        <v>1928</v>
+        <v>1936</v>
       </c>
       <c r="B1897" t="s">
-        <v>3936</v>
+        <v>3946</v>
       </c>
       <c r="C1897" t="s">
         <v>3878</v>
@@ -61875,15 +62086,15 @@
         <v>1356</v>
       </c>
       <c r="M1897" t="s">
-        <v>3937</v>
+        <v>4513</v>
       </c>
     </row>
     <row r="1898" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1898">
-        <v>1929</v>
+        <v>1937</v>
       </c>
       <c r="B1898" t="s">
-        <v>3938</v>
+        <v>3947</v>
       </c>
       <c r="C1898" t="s">
         <v>3878</v>
@@ -61898,15 +62109,15 @@
         <v>1356</v>
       </c>
       <c r="M1898" t="s">
-        <v>4507</v>
+        <v>4514</v>
       </c>
     </row>
     <row r="1899" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1899">
-        <v>1930</v>
+        <v>1938</v>
       </c>
       <c r="B1899" t="s">
-        <v>3939</v>
+        <v>3948</v>
       </c>
       <c r="C1899" t="s">
         <v>3878</v>
@@ -61921,15 +62132,15 @@
         <v>1356</v>
       </c>
       <c r="M1899" t="s">
-        <v>4508</v>
+        <v>4515</v>
       </c>
     </row>
     <row r="1900" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1900">
-        <v>1931</v>
+        <v>1939</v>
       </c>
       <c r="B1900" t="s">
-        <v>3940</v>
+        <v>3949</v>
       </c>
       <c r="C1900" t="s">
         <v>3878</v>
@@ -61944,15 +62155,15 @@
         <v>1356</v>
       </c>
       <c r="M1900" t="s">
-        <v>3941</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="1901" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1901">
-        <v>1932</v>
+        <v>1940</v>
       </c>
       <c r="B1901" t="s">
-        <v>3942</v>
+        <v>3951</v>
       </c>
       <c r="C1901" t="s">
         <v>3878</v>
@@ -61967,15 +62178,15 @@
         <v>1356</v>
       </c>
       <c r="M1901" t="s">
-        <v>4509</v>
+        <v>3952</v>
       </c>
     </row>
     <row r="1902" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1902">
-        <v>1933</v>
+        <v>1941</v>
       </c>
       <c r="B1902" t="s">
-        <v>3943</v>
+        <v>3953</v>
       </c>
       <c r="C1902" t="s">
         <v>3878</v>
@@ -61990,15 +62201,15 @@
         <v>1356</v>
       </c>
       <c r="M1902" t="s">
-        <v>4510</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="1903" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1903">
-        <v>1934</v>
+        <v>1942</v>
       </c>
       <c r="B1903" t="s">
-        <v>3944</v>
+        <v>3955</v>
       </c>
       <c r="C1903" t="s">
         <v>3878</v>
@@ -62013,15 +62224,15 @@
         <v>1356</v>
       </c>
       <c r="M1903" t="s">
-        <v>4511</v>
+        <v>4516</v>
       </c>
     </row>
     <row r="1904" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1904">
-        <v>1935</v>
+        <v>1943</v>
       </c>
       <c r="B1904" t="s">
-        <v>3945</v>
+        <v>3956</v>
       </c>
       <c r="C1904" t="s">
         <v>3878</v>
@@ -62036,15 +62247,15 @@
         <v>1356</v>
       </c>
       <c r="M1904" t="s">
-        <v>4512</v>
+        <v>3957</v>
       </c>
     </row>
     <row r="1905" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1905">
-        <v>1936</v>
+        <v>1944</v>
       </c>
       <c r="B1905" t="s">
-        <v>3946</v>
+        <v>3958</v>
       </c>
       <c r="C1905" t="s">
         <v>3878</v>
@@ -62059,15 +62270,15 @@
         <v>1356</v>
       </c>
       <c r="M1905" t="s">
-        <v>4513</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="1906" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1906">
-        <v>1937</v>
+        <v>1945</v>
       </c>
       <c r="B1906" t="s">
-        <v>3947</v>
+        <v>3960</v>
       </c>
       <c r="C1906" t="s">
         <v>3878</v>
@@ -62082,15 +62293,15 @@
         <v>1356</v>
       </c>
       <c r="M1906" t="s">
-        <v>4514</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="1907" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1907">
-        <v>1938</v>
+        <v>1946</v>
       </c>
       <c r="B1907" t="s">
-        <v>3948</v>
+        <v>3961</v>
       </c>
       <c r="C1907" t="s">
         <v>3878</v>
@@ -62105,15 +62316,15 @@
         <v>1356</v>
       </c>
       <c r="M1907" t="s">
-        <v>4515</v>
+        <v>3962</v>
       </c>
     </row>
     <row r="1908" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1908">
-        <v>1939</v>
+        <v>1947</v>
       </c>
       <c r="B1908" t="s">
-        <v>3949</v>
+        <v>3963</v>
       </c>
       <c r="C1908" t="s">
         <v>3878</v>
@@ -62128,15 +62339,15 @@
         <v>1356</v>
       </c>
       <c r="M1908" t="s">
-        <v>3950</v>
+        <v>4518</v>
       </c>
     </row>
     <row r="1909" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1909">
-        <v>1940</v>
+        <v>1948</v>
       </c>
       <c r="B1909" t="s">
-        <v>3951</v>
+        <v>3964</v>
       </c>
       <c r="C1909" t="s">
         <v>3878</v>
@@ -62151,15 +62362,15 @@
         <v>1356</v>
       </c>
       <c r="M1909" t="s">
-        <v>3952</v>
+        <v>4519</v>
       </c>
     </row>
     <row r="1910" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1910">
-        <v>1941</v>
+        <v>1949</v>
       </c>
       <c r="B1910" t="s">
-        <v>3953</v>
+        <v>3965</v>
       </c>
       <c r="C1910" t="s">
         <v>3878</v>
@@ -62174,15 +62385,15 @@
         <v>1356</v>
       </c>
       <c r="M1910" t="s">
-        <v>3954</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="1911" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1911">
-        <v>1942</v>
+        <v>1950</v>
       </c>
       <c r="B1911" t="s">
-        <v>3955</v>
+        <v>3966</v>
       </c>
       <c r="C1911" t="s">
         <v>3878</v>
@@ -62197,15 +62408,15 @@
         <v>1356</v>
       </c>
       <c r="M1911" t="s">
-        <v>4516</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="1912" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1912">
-        <v>1943</v>
+        <v>1951</v>
       </c>
       <c r="B1912" t="s">
-        <v>3956</v>
+        <v>3967</v>
       </c>
       <c r="C1912" t="s">
         <v>3878</v>
@@ -62220,15 +62431,15 @@
         <v>1356</v>
       </c>
       <c r="M1912" t="s">
-        <v>3957</v>
+        <v>4522</v>
       </c>
     </row>
     <row r="1913" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1913">
-        <v>1944</v>
+        <v>1952</v>
       </c>
       <c r="B1913" t="s">
-        <v>3958</v>
+        <v>3968</v>
       </c>
       <c r="C1913" t="s">
         <v>3878</v>
@@ -62243,15 +62454,15 @@
         <v>1356</v>
       </c>
       <c r="M1913" t="s">
-        <v>3959</v>
+        <v>4523</v>
       </c>
     </row>
     <row r="1914" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1914">
-        <v>1945</v>
+        <v>1953</v>
       </c>
       <c r="B1914" t="s">
-        <v>3960</v>
+        <v>3969</v>
       </c>
       <c r="C1914" t="s">
         <v>3878</v>
@@ -62266,15 +62477,15 @@
         <v>1356</v>
       </c>
       <c r="M1914" t="s">
-        <v>4517</v>
+        <v>3970</v>
       </c>
     </row>
     <row r="1915" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1915">
-        <v>1946</v>
+        <v>1954</v>
       </c>
       <c r="B1915" t="s">
-        <v>3961</v>
+        <v>3971</v>
       </c>
       <c r="C1915" t="s">
         <v>3878</v>
@@ -62289,15 +62500,15 @@
         <v>1356</v>
       </c>
       <c r="M1915" t="s">
-        <v>3962</v>
+        <v>4524</v>
       </c>
     </row>
     <row r="1916" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1916">
-        <v>1947</v>
+        <v>1955</v>
       </c>
       <c r="B1916" t="s">
-        <v>3963</v>
+        <v>3972</v>
       </c>
       <c r="C1916" t="s">
         <v>3878</v>
@@ -62312,15 +62523,15 @@
         <v>1356</v>
       </c>
       <c r="M1916" t="s">
-        <v>4518</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="1917" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1917">
-        <v>1948</v>
+        <v>1956</v>
       </c>
       <c r="B1917" t="s">
-        <v>3964</v>
+        <v>3973</v>
       </c>
       <c r="C1917" t="s">
         <v>3878</v>
@@ -62335,15 +62546,15 @@
         <v>1356</v>
       </c>
       <c r="M1917" t="s">
-        <v>4519</v>
+        <v>3974</v>
       </c>
     </row>
     <row r="1918" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1918">
-        <v>1949</v>
+        <v>1957</v>
       </c>
       <c r="B1918" t="s">
-        <v>3965</v>
+        <v>3975</v>
       </c>
       <c r="C1918" t="s">
         <v>3878</v>
@@ -62358,15 +62569,15 @@
         <v>1356</v>
       </c>
       <c r="M1918" t="s">
-        <v>4520</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="1919" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1919">
-        <v>1950</v>
+        <v>1958</v>
       </c>
       <c r="B1919" t="s">
-        <v>3966</v>
+        <v>3977</v>
       </c>
       <c r="C1919" t="s">
         <v>3878</v>
@@ -62381,15 +62592,15 @@
         <v>1356</v>
       </c>
       <c r="M1919" t="s">
-        <v>4521</v>
+        <v>4526</v>
       </c>
     </row>
     <row r="1920" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1920">
-        <v>1951</v>
+        <v>1959</v>
       </c>
       <c r="B1920" t="s">
-        <v>3967</v>
+        <v>3978</v>
       </c>
       <c r="C1920" t="s">
         <v>3878</v>
@@ -62404,15 +62615,15 @@
         <v>1356</v>
       </c>
       <c r="M1920" t="s">
-        <v>4522</v>
+        <v>3979</v>
       </c>
     </row>
     <row r="1921" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1921">
-        <v>1952</v>
+        <v>1960</v>
       </c>
       <c r="B1921" t="s">
-        <v>3968</v>
+        <v>3980</v>
       </c>
       <c r="C1921" t="s">
         <v>3878</v>
@@ -62427,15 +62638,15 @@
         <v>1356</v>
       </c>
       <c r="M1921" t="s">
-        <v>4523</v>
+        <v>4527</v>
       </c>
     </row>
     <row r="1922" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1922">
-        <v>1953</v>
+        <v>1961</v>
       </c>
       <c r="B1922" t="s">
-        <v>3969</v>
+        <v>3981</v>
       </c>
       <c r="C1922" t="s">
         <v>3878</v>
@@ -62450,15 +62661,15 @@
         <v>1356</v>
       </c>
       <c r="M1922" t="s">
-        <v>3970</v>
+        <v>4528</v>
       </c>
     </row>
     <row r="1923" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1923">
-        <v>1954</v>
+        <v>1962</v>
       </c>
       <c r="B1923" t="s">
-        <v>3971</v>
+        <v>3982</v>
       </c>
       <c r="C1923" t="s">
         <v>3878</v>
@@ -62473,15 +62684,15 @@
         <v>1356</v>
       </c>
       <c r="M1923" t="s">
-        <v>4524</v>
+        <v>4529</v>
       </c>
     </row>
     <row r="1924" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1924">
-        <v>1955</v>
+        <v>1963</v>
       </c>
       <c r="B1924" t="s">
-        <v>3972</v>
+        <v>3983</v>
       </c>
       <c r="C1924" t="s">
         <v>3878</v>
@@ -62496,15 +62707,15 @@
         <v>1356</v>
       </c>
       <c r="M1924" t="s">
-        <v>4525</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="1925" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1925">
-        <v>1956</v>
+        <v>1964</v>
       </c>
       <c r="B1925" t="s">
-        <v>3973</v>
+        <v>3984</v>
       </c>
       <c r="C1925" t="s">
         <v>3878</v>
@@ -62519,15 +62730,15 @@
         <v>1356</v>
       </c>
       <c r="M1925" t="s">
-        <v>3974</v>
+        <v>4531</v>
       </c>
     </row>
     <row r="1926" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1926">
-        <v>1957</v>
+        <v>1965</v>
       </c>
       <c r="B1926" t="s">
-        <v>3975</v>
+        <v>3985</v>
       </c>
       <c r="C1926" t="s">
         <v>3878</v>
@@ -62542,15 +62753,15 @@
         <v>1356</v>
       </c>
       <c r="M1926" t="s">
-        <v>3976</v>
+        <v>3986</v>
       </c>
     </row>
     <row r="1927" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1927">
-        <v>1958</v>
+        <v>1966</v>
       </c>
       <c r="B1927" t="s">
-        <v>3977</v>
+        <v>3987</v>
       </c>
       <c r="C1927" t="s">
         <v>3878</v>
@@ -62565,15 +62776,15 @@
         <v>1356</v>
       </c>
       <c r="M1927" t="s">
-        <v>4526</v>
+        <v>4532</v>
       </c>
     </row>
     <row r="1928" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1928">
-        <v>1959</v>
+        <v>1967</v>
       </c>
       <c r="B1928" t="s">
-        <v>3978</v>
+        <v>3988</v>
       </c>
       <c r="C1928" t="s">
         <v>3878</v>
@@ -62588,15 +62799,15 @@
         <v>1356</v>
       </c>
       <c r="M1928" t="s">
-        <v>3979</v>
+        <v>3989</v>
       </c>
     </row>
     <row r="1929" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1929">
-        <v>1960</v>
+        <v>1968</v>
       </c>
       <c r="B1929" t="s">
-        <v>3980</v>
+        <v>3990</v>
       </c>
       <c r="C1929" t="s">
         <v>3878</v>
@@ -62611,15 +62822,15 @@
         <v>1356</v>
       </c>
       <c r="M1929" t="s">
-        <v>4527</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="1930" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1930">
-        <v>1961</v>
+        <v>1969</v>
       </c>
       <c r="B1930" t="s">
-        <v>3981</v>
+        <v>3991</v>
       </c>
       <c r="C1930" t="s">
         <v>3878</v>
@@ -62634,15 +62845,15 @@
         <v>1356</v>
       </c>
       <c r="M1930" t="s">
-        <v>4528</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="1931" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1931">
-        <v>1962</v>
+        <v>1970</v>
       </c>
       <c r="B1931" t="s">
-        <v>3982</v>
+        <v>3993</v>
       </c>
       <c r="C1931" t="s">
         <v>3878</v>
@@ -62657,15 +62868,15 @@
         <v>1356</v>
       </c>
       <c r="M1931" t="s">
-        <v>4529</v>
+        <v>3994</v>
       </c>
     </row>
     <row r="1932" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1932">
-        <v>1963</v>
+        <v>1971</v>
       </c>
       <c r="B1932" t="s">
-        <v>3983</v>
+        <v>3995</v>
       </c>
       <c r="C1932" t="s">
         <v>3878</v>
@@ -62680,15 +62891,15 @@
         <v>1356</v>
       </c>
       <c r="M1932" t="s">
-        <v>4530</v>
+        <v>4534</v>
       </c>
     </row>
     <row r="1933" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1933">
-        <v>1964</v>
+        <v>1972</v>
       </c>
       <c r="B1933" t="s">
-        <v>3984</v>
+        <v>3996</v>
       </c>
       <c r="C1933" t="s">
         <v>3878</v>
@@ -62703,15 +62914,15 @@
         <v>1356</v>
       </c>
       <c r="M1933" t="s">
-        <v>4531</v>
+        <v>4535</v>
       </c>
     </row>
     <row r="1934" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1934">
-        <v>1965</v>
+        <v>1973</v>
       </c>
       <c r="B1934" t="s">
-        <v>3985</v>
+        <v>3997</v>
       </c>
       <c r="C1934" t="s">
         <v>3878</v>
@@ -62726,15 +62937,15 @@
         <v>1356</v>
       </c>
       <c r="M1934" t="s">
-        <v>3986</v>
+        <v>3998</v>
       </c>
     </row>
     <row r="1935" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1935">
-        <v>1966</v>
+        <v>1974</v>
       </c>
       <c r="B1935" t="s">
-        <v>3987</v>
+        <v>3999</v>
       </c>
       <c r="C1935" t="s">
         <v>3878</v>
@@ -62749,15 +62960,15 @@
         <v>1356</v>
       </c>
       <c r="M1935" t="s">
-        <v>4532</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="1936" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1936">
-        <v>1967</v>
+        <v>1975</v>
       </c>
       <c r="B1936" t="s">
-        <v>3988</v>
+        <v>4001</v>
       </c>
       <c r="C1936" t="s">
         <v>3878</v>
@@ -62772,15 +62983,15 @@
         <v>1356</v>
       </c>
       <c r="M1936" t="s">
-        <v>3989</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="1937" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1937">
-        <v>1968</v>
+        <v>1976</v>
       </c>
       <c r="B1937" t="s">
-        <v>3990</v>
+        <v>4002</v>
       </c>
       <c r="C1937" t="s">
         <v>3878</v>
@@ -62795,15 +63006,15 @@
         <v>1356</v>
       </c>
       <c r="M1937" t="s">
-        <v>4533</v>
+        <v>4003</v>
       </c>
     </row>
     <row r="1938" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1938">
-        <v>1969</v>
+        <v>1977</v>
       </c>
       <c r="B1938" t="s">
-        <v>3991</v>
+        <v>4004</v>
       </c>
       <c r="C1938" t="s">
         <v>3878</v>
@@ -62818,15 +63029,15 @@
         <v>1356</v>
       </c>
       <c r="M1938" t="s">
-        <v>3992</v>
+        <v>4537</v>
       </c>
     </row>
     <row r="1939" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1939">
-        <v>1970</v>
+        <v>1978</v>
       </c>
       <c r="B1939" t="s">
-        <v>3993</v>
+        <v>4005</v>
       </c>
       <c r="C1939" t="s">
         <v>3878</v>
@@ -62841,15 +63052,15 @@
         <v>1356</v>
       </c>
       <c r="M1939" t="s">
-        <v>3994</v>
+        <v>4538</v>
       </c>
     </row>
     <row r="1940" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1940">
-        <v>1971</v>
+        <v>1979</v>
       </c>
       <c r="B1940" t="s">
-        <v>3995</v>
+        <v>4006</v>
       </c>
       <c r="C1940" t="s">
         <v>3878</v>
@@ -62864,15 +63075,15 @@
         <v>1356</v>
       </c>
       <c r="M1940" t="s">
-        <v>4534</v>
+        <v>4539</v>
       </c>
     </row>
     <row r="1941" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1941">
-        <v>1972</v>
+        <v>1980</v>
       </c>
       <c r="B1941" t="s">
-        <v>3996</v>
+        <v>4007</v>
       </c>
       <c r="C1941" t="s">
         <v>3878</v>
@@ -62887,15 +63098,15 @@
         <v>1356</v>
       </c>
       <c r="M1941" t="s">
-        <v>4535</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="1942" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1942">
-        <v>1973</v>
+        <v>1981</v>
       </c>
       <c r="B1942" t="s">
-        <v>3997</v>
+        <v>4008</v>
       </c>
       <c r="C1942" t="s">
         <v>3878</v>
@@ -62910,15 +63121,15 @@
         <v>1356</v>
       </c>
       <c r="M1942" t="s">
-        <v>3998</v>
+        <v>4541</v>
       </c>
     </row>
     <row r="1943" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1943">
-        <v>1974</v>
+        <v>1982</v>
       </c>
       <c r="B1943" t="s">
-        <v>3999</v>
+        <v>4009</v>
       </c>
       <c r="C1943" t="s">
         <v>3878</v>
@@ -62933,15 +63144,15 @@
         <v>1356</v>
       </c>
       <c r="M1943" t="s">
-        <v>4000</v>
+        <v>4542</v>
       </c>
     </row>
     <row r="1944" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1944">
-        <v>1975</v>
+        <v>1983</v>
       </c>
       <c r="B1944" t="s">
-        <v>4001</v>
+        <v>4010</v>
       </c>
       <c r="C1944" t="s">
         <v>3878</v>
@@ -62956,15 +63167,15 @@
         <v>1356</v>
       </c>
       <c r="M1944" t="s">
-        <v>4536</v>
+        <v>4011</v>
       </c>
     </row>
     <row r="1945" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1945">
-        <v>1976</v>
+        <v>1984</v>
       </c>
       <c r="B1945" t="s">
-        <v>4002</v>
+        <v>4012</v>
       </c>
       <c r="C1945" t="s">
         <v>3878</v>
@@ -62979,15 +63190,15 @@
         <v>1356</v>
       </c>
       <c r="M1945" t="s">
-        <v>4003</v>
+        <v>4543</v>
       </c>
     </row>
     <row r="1946" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1946">
-        <v>1977</v>
+        <v>1985</v>
       </c>
       <c r="B1946" t="s">
-        <v>4004</v>
+        <v>4013</v>
       </c>
       <c r="C1946" t="s">
         <v>3878</v>
@@ -63002,15 +63213,15 @@
         <v>1356</v>
       </c>
       <c r="M1946" t="s">
-        <v>4537</v>
+        <v>4544</v>
       </c>
     </row>
     <row r="1947" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1947">
-        <v>1978</v>
+        <v>1986</v>
       </c>
       <c r="B1947" t="s">
-        <v>4005</v>
+        <v>4014</v>
       </c>
       <c r="C1947" t="s">
         <v>3878</v>
@@ -63025,15 +63236,15 @@
         <v>1356</v>
       </c>
       <c r="M1947" t="s">
-        <v>4538</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="1948" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1948">
-        <v>1979</v>
+        <v>1987</v>
       </c>
       <c r="B1948" t="s">
-        <v>4006</v>
+        <v>4016</v>
       </c>
       <c r="C1948" t="s">
         <v>3878</v>
@@ -63048,15 +63259,15 @@
         <v>1356</v>
       </c>
       <c r="M1948" t="s">
-        <v>4539</v>
+        <v>4545</v>
       </c>
     </row>
     <row r="1949" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1949">
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="B1949" t="s">
-        <v>4007</v>
+        <v>4017</v>
       </c>
       <c r="C1949" t="s">
         <v>3878</v>
@@ -63071,15 +63282,15 @@
         <v>1356</v>
       </c>
       <c r="M1949" t="s">
-        <v>4540</v>
+        <v>4018</v>
       </c>
     </row>
     <row r="1950" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1950">
-        <v>1981</v>
+        <v>1989</v>
       </c>
       <c r="B1950" t="s">
-        <v>4008</v>
+        <v>4019</v>
       </c>
       <c r="C1950" t="s">
         <v>3878</v>
@@ -63094,15 +63305,15 @@
         <v>1356</v>
       </c>
       <c r="M1950" t="s">
-        <v>4541</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="1951" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1951">
-        <v>1982</v>
+        <v>1990</v>
       </c>
       <c r="B1951" t="s">
-        <v>4009</v>
+        <v>4021</v>
       </c>
       <c r="C1951" t="s">
         <v>3878</v>
@@ -63117,15 +63328,15 @@
         <v>1356</v>
       </c>
       <c r="M1951" t="s">
-        <v>4542</v>
+        <v>4546</v>
       </c>
     </row>
     <row r="1952" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1952">
-        <v>1983</v>
+        <v>1991</v>
       </c>
       <c r="B1952" t="s">
-        <v>4010</v>
+        <v>4022</v>
       </c>
       <c r="C1952" t="s">
         <v>3878</v>
@@ -63140,15 +63351,15 @@
         <v>1356</v>
       </c>
       <c r="M1952" t="s">
-        <v>4011</v>
+        <v>4023</v>
       </c>
     </row>
     <row r="1953" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1953">
-        <v>1984</v>
+        <v>1992</v>
       </c>
       <c r="B1953" t="s">
-        <v>4012</v>
+        <v>4024</v>
       </c>
       <c r="C1953" t="s">
         <v>3878</v>
@@ -63163,15 +63374,15 @@
         <v>1356</v>
       </c>
       <c r="M1953" t="s">
-        <v>4543</v>
+        <v>4547</v>
       </c>
     </row>
     <row r="1954" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1954">
-        <v>1985</v>
+        <v>1993</v>
       </c>
       <c r="B1954" t="s">
-        <v>4013</v>
+        <v>4025</v>
       </c>
       <c r="C1954" t="s">
         <v>3878</v>
@@ -63186,15 +63397,15 @@
         <v>1356</v>
       </c>
       <c r="M1954" t="s">
-        <v>4544</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="1955" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1955">
-        <v>1986</v>
+        <v>1994</v>
       </c>
       <c r="B1955" t="s">
-        <v>4014</v>
+        <v>4026</v>
       </c>
       <c r="C1955" t="s">
         <v>3878</v>
@@ -63209,15 +63420,15 @@
         <v>1356</v>
       </c>
       <c r="M1955" t="s">
-        <v>4015</v>
+        <v>4549</v>
       </c>
     </row>
     <row r="1956" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1956">
-        <v>1987</v>
+        <v>1995</v>
       </c>
       <c r="B1956" t="s">
-        <v>4016</v>
+        <v>4027</v>
       </c>
       <c r="C1956" t="s">
         <v>3878</v>
@@ -63232,15 +63443,15 @@
         <v>1356</v>
       </c>
       <c r="M1956" t="s">
-        <v>4545</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="1957" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1957">
-        <v>1988</v>
+        <v>1996</v>
       </c>
       <c r="B1957" t="s">
-        <v>4017</v>
+        <v>4028</v>
       </c>
       <c r="C1957" t="s">
         <v>3878</v>
@@ -63255,15 +63466,15 @@
         <v>1356</v>
       </c>
       <c r="M1957" t="s">
-        <v>4018</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="1958" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1958">
-        <v>1989</v>
+        <v>1997</v>
       </c>
       <c r="B1958" t="s">
-        <v>4019</v>
+        <v>4029</v>
       </c>
       <c r="C1958" t="s">
         <v>3878</v>
@@ -63278,15 +63489,15 @@
         <v>1356</v>
       </c>
       <c r="M1958" t="s">
-        <v>4020</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="1959" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1959">
-        <v>1990</v>
+        <v>1998</v>
       </c>
       <c r="B1959" t="s">
-        <v>4021</v>
+        <v>4031</v>
       </c>
       <c r="C1959" t="s">
         <v>3878</v>
@@ -63301,15 +63512,15 @@
         <v>1356</v>
       </c>
       <c r="M1959" t="s">
-        <v>4546</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="1960" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1960">
-        <v>1991</v>
+        <v>1999</v>
       </c>
       <c r="B1960" t="s">
-        <v>4022</v>
+        <v>4032</v>
       </c>
       <c r="C1960" t="s">
         <v>3878</v>
@@ -63324,15 +63535,15 @@
         <v>1356</v>
       </c>
       <c r="M1960" t="s">
-        <v>4023</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="1961" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1961">
-        <v>1992</v>
+        <v>2000</v>
       </c>
       <c r="B1961" t="s">
-        <v>4024</v>
+        <v>4033</v>
       </c>
       <c r="C1961" t="s">
         <v>3878</v>
@@ -63347,15 +63558,15 @@
         <v>1356</v>
       </c>
       <c r="M1961" t="s">
-        <v>4547</v>
+        <v>4034</v>
       </c>
     </row>
     <row r="1962" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1962">
-        <v>1993</v>
+        <v>2001</v>
       </c>
       <c r="B1962" t="s">
-        <v>4025</v>
+        <v>4035</v>
       </c>
       <c r="C1962" t="s">
         <v>3878</v>
@@ -63370,15 +63581,15 @@
         <v>1356</v>
       </c>
       <c r="M1962" t="s">
-        <v>4548</v>
+        <v>4036</v>
       </c>
     </row>
     <row r="1963" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1963">
-        <v>1994</v>
+        <v>2002</v>
       </c>
       <c r="B1963" t="s">
-        <v>4026</v>
+        <v>4037</v>
       </c>
       <c r="C1963" t="s">
         <v>3878</v>
@@ -63393,15 +63604,15 @@
         <v>1356</v>
       </c>
       <c r="M1963" t="s">
-        <v>4549</v>
+        <v>4038</v>
       </c>
     </row>
     <row r="1964" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1964">
-        <v>1995</v>
+        <v>2003</v>
       </c>
       <c r="B1964" t="s">
-        <v>4027</v>
+        <v>4039</v>
       </c>
       <c r="C1964" t="s">
         <v>3878</v>
@@ -63416,15 +63627,15 @@
         <v>1356</v>
       </c>
       <c r="M1964" t="s">
-        <v>4550</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="1965" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1965">
-        <v>1996</v>
+        <v>2004</v>
       </c>
       <c r="B1965" t="s">
-        <v>4028</v>
+        <v>4041</v>
       </c>
       <c r="C1965" t="s">
         <v>3878</v>
@@ -63439,15 +63650,15 @@
         <v>1356</v>
       </c>
       <c r="M1965" t="s">
-        <v>4551</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="1966" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1966">
-        <v>1997</v>
+        <v>2005</v>
       </c>
       <c r="B1966" t="s">
-        <v>4029</v>
+        <v>4042</v>
       </c>
       <c r="C1966" t="s">
         <v>3878</v>
@@ -63462,15 +63673,15 @@
         <v>1356</v>
       </c>
       <c r="M1966" t="s">
-        <v>4030</v>
+        <v>4043</v>
       </c>
     </row>
     <row r="1967" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1967">
-        <v>1998</v>
+        <v>2006</v>
       </c>
       <c r="B1967" t="s">
-        <v>4031</v>
+        <v>4044</v>
       </c>
       <c r="C1967" t="s">
         <v>3878</v>
@@ -63485,15 +63696,15 @@
         <v>1356</v>
       </c>
       <c r="M1967" t="s">
-        <v>4552</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="1968" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1968">
-        <v>1999</v>
+        <v>2007</v>
       </c>
       <c r="B1968" t="s">
-        <v>4032</v>
+        <v>4046</v>
       </c>
       <c r="C1968" t="s">
         <v>3878</v>
@@ -63508,15 +63719,15 @@
         <v>1356</v>
       </c>
       <c r="M1968" t="s">
-        <v>4553</v>
+        <v>4555</v>
       </c>
     </row>
     <row r="1969" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1969">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="B1969" t="s">
-        <v>4033</v>
+        <v>4047</v>
       </c>
       <c r="C1969" t="s">
         <v>3878</v>
@@ -63531,15 +63742,15 @@
         <v>1356</v>
       </c>
       <c r="M1969" t="s">
-        <v>4034</v>
+        <v>4048</v>
       </c>
     </row>
     <row r="1970" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1970">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="B1970" t="s">
-        <v>4035</v>
+        <v>4049</v>
       </c>
       <c r="C1970" t="s">
         <v>3878</v>
@@ -63554,15 +63765,15 @@
         <v>1356</v>
       </c>
       <c r="M1970" t="s">
-        <v>4036</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="1971" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1971">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="B1971" t="s">
-        <v>4037</v>
+        <v>4050</v>
       </c>
       <c r="C1971" t="s">
         <v>3878</v>
@@ -63577,15 +63788,15 @@
         <v>1356</v>
       </c>
       <c r="M1971" t="s">
-        <v>4038</v>
+        <v>4051</v>
       </c>
     </row>
     <row r="1972" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1972">
-        <v>2003</v>
+        <v>2011</v>
       </c>
       <c r="B1972" t="s">
-        <v>4039</v>
+        <v>4052</v>
       </c>
       <c r="C1972" t="s">
         <v>3878</v>
@@ -63600,15 +63811,15 @@
         <v>1356</v>
       </c>
       <c r="M1972" t="s">
-        <v>4040</v>
+        <v>4053</v>
       </c>
     </row>
     <row r="1973" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1973">
-        <v>2004</v>
+        <v>2012</v>
       </c>
       <c r="B1973" t="s">
-        <v>4041</v>
+        <v>4054</v>
       </c>
       <c r="C1973" t="s">
         <v>3878</v>
@@ -63623,15 +63834,15 @@
         <v>1356</v>
       </c>
       <c r="M1973" t="s">
-        <v>4554</v>
+        <v>4055</v>
       </c>
     </row>
     <row r="1974" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1974">
-        <v>2005</v>
+        <v>2013</v>
       </c>
       <c r="B1974" t="s">
-        <v>4042</v>
+        <v>4056</v>
       </c>
       <c r="C1974" t="s">
         <v>3878</v>
@@ -63646,15 +63857,15 @@
         <v>1356</v>
       </c>
       <c r="M1974" t="s">
-        <v>4043</v>
+        <v>4557</v>
       </c>
     </row>
     <row r="1975" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1975">
-        <v>2006</v>
+        <v>2014</v>
       </c>
       <c r="B1975" t="s">
-        <v>4044</v>
+        <v>4057</v>
       </c>
       <c r="C1975" t="s">
         <v>3878</v>
@@ -63669,15 +63880,15 @@
         <v>1356</v>
       </c>
       <c r="M1975" t="s">
-        <v>4045</v>
+        <v>4558</v>
       </c>
     </row>
     <row r="1976" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1976">
-        <v>2007</v>
+        <v>2015</v>
       </c>
       <c r="B1976" t="s">
-        <v>4046</v>
+        <v>4058</v>
       </c>
       <c r="C1976" t="s">
         <v>3878</v>
@@ -63692,15 +63903,15 @@
         <v>1356</v>
       </c>
       <c r="M1976" t="s">
-        <v>4555</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="1977" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1977">
-        <v>2008</v>
+        <v>2016</v>
       </c>
       <c r="B1977" t="s">
-        <v>4047</v>
+        <v>4059</v>
       </c>
       <c r="C1977" t="s">
         <v>3878</v>
@@ -63715,15 +63926,15 @@
         <v>1356</v>
       </c>
       <c r="M1977" t="s">
-        <v>4048</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="1978" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1978">
-        <v>2009</v>
+        <v>2017</v>
       </c>
       <c r="B1978" t="s">
-        <v>4049</v>
+        <v>4060</v>
       </c>
       <c r="C1978" t="s">
         <v>3878</v>
@@ -63738,15 +63949,15 @@
         <v>1356</v>
       </c>
       <c r="M1978" t="s">
-        <v>4556</v>
+        <v>4561</v>
       </c>
     </row>
     <row r="1979" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1979">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="B1979" t="s">
-        <v>4050</v>
+        <v>4061</v>
       </c>
       <c r="C1979" t="s">
         <v>3878</v>
@@ -63761,15 +63972,15 @@
         <v>1356</v>
       </c>
       <c r="M1979" t="s">
-        <v>4051</v>
+        <v>4062</v>
       </c>
     </row>
     <row r="1980" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1980">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="B1980" t="s">
-        <v>4052</v>
+        <v>4063</v>
       </c>
       <c r="C1980" t="s">
         <v>3878</v>
@@ -63784,15 +63995,15 @@
         <v>1356</v>
       </c>
       <c r="M1980" t="s">
-        <v>4053</v>
+        <v>4562</v>
       </c>
     </row>
     <row r="1981" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1981">
-        <v>2012</v>
+        <v>2020</v>
       </c>
       <c r="B1981" t="s">
-        <v>4054</v>
+        <v>4064</v>
       </c>
       <c r="C1981" t="s">
         <v>3878</v>
@@ -63807,195 +64018,11 @@
         <v>1356</v>
       </c>
       <c r="M1981" t="s">
-        <v>4055</v>
-      </c>
-    </row>
-    <row r="1982" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1982">
-        <v>2013</v>
-      </c>
-      <c r="B1982" t="s">
-        <v>4056</v>
-      </c>
-      <c r="C1982" t="s">
-        <v>3878</v>
-      </c>
-      <c r="D1982">
-        <v>68000</v>
-      </c>
-      <c r="E1982" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1982" t="s">
-        <v>1356</v>
-      </c>
-      <c r="M1982" t="s">
-        <v>4557</v>
-      </c>
-    </row>
-    <row r="1983" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1983">
-        <v>2014</v>
-      </c>
-      <c r="B1983" t="s">
-        <v>4057</v>
-      </c>
-      <c r="C1983" t="s">
-        <v>3878</v>
-      </c>
-      <c r="D1983">
-        <v>68000</v>
-      </c>
-      <c r="E1983" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1983" t="s">
-        <v>1356</v>
-      </c>
-      <c r="M1983" t="s">
-        <v>4558</v>
-      </c>
-    </row>
-    <row r="1984" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1984">
-        <v>2015</v>
-      </c>
-      <c r="B1984" t="s">
-        <v>4058</v>
-      </c>
-      <c r="C1984" t="s">
-        <v>3878</v>
-      </c>
-      <c r="D1984">
-        <v>68000</v>
-      </c>
-      <c r="E1984" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1984" t="s">
-        <v>1356</v>
-      </c>
-      <c r="M1984" t="s">
-        <v>4559</v>
-      </c>
-    </row>
-    <row r="1985" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1985">
-        <v>2016</v>
-      </c>
-      <c r="B1985" t="s">
-        <v>4059</v>
-      </c>
-      <c r="C1985" t="s">
-        <v>3878</v>
-      </c>
-      <c r="D1985">
-        <v>68000</v>
-      </c>
-      <c r="E1985" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1985" t="s">
-        <v>1356</v>
-      </c>
-      <c r="M1985" t="s">
-        <v>4560</v>
-      </c>
-    </row>
-    <row r="1986" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1986">
-        <v>2017</v>
-      </c>
-      <c r="B1986" t="s">
-        <v>4060</v>
-      </c>
-      <c r="C1986" t="s">
-        <v>3878</v>
-      </c>
-      <c r="D1986">
-        <v>68000</v>
-      </c>
-      <c r="E1986" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1986" t="s">
-        <v>1356</v>
-      </c>
-      <c r="M1986" t="s">
-        <v>4561</v>
-      </c>
-    </row>
-    <row r="1987" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1987">
-        <v>2018</v>
-      </c>
-      <c r="B1987" t="s">
-        <v>4061</v>
-      </c>
-      <c r="C1987" t="s">
-        <v>3878</v>
-      </c>
-      <c r="D1987">
-        <v>68000</v>
-      </c>
-      <c r="E1987" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1987" t="s">
-        <v>1356</v>
-      </c>
-      <c r="M1987" t="s">
-        <v>4062</v>
-      </c>
-    </row>
-    <row r="1988" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1988">
-        <v>2019</v>
-      </c>
-      <c r="B1988" t="s">
-        <v>4063</v>
-      </c>
-      <c r="C1988" t="s">
-        <v>3878</v>
-      </c>
-      <c r="D1988">
-        <v>68000</v>
-      </c>
-      <c r="E1988" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1988" t="s">
-        <v>1356</v>
-      </c>
-      <c r="M1988" t="s">
-        <v>4562</v>
-      </c>
-    </row>
-    <row r="1989" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1989">
-        <v>2020</v>
-      </c>
-      <c r="B1989" t="s">
-        <v>4064</v>
-      </c>
-      <c r="C1989" t="s">
-        <v>3878</v>
-      </c>
-      <c r="D1989">
-        <v>68000</v>
-      </c>
-      <c r="E1989" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1989" t="s">
-        <v>1356</v>
-      </c>
-      <c r="M1989" t="s">
         <v>4065</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1989"/>
+  <autoFilter ref="A1:M1981"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/0.36/compatibility.xlsx
+++ b/0.36/compatibility.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="Playable" sheetId="4" r:id="rId1"/>
@@ -14086,10 +14086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P77"/>
+  <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="O74" sqref="O74"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15869,6 +15869,236 @@
         <v>4567</v>
       </c>
     </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D78" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" t="s">
+        <v>172</v>
+      </c>
+      <c r="M78" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D79" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" t="s">
+        <v>172</v>
+      </c>
+      <c r="M79" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>80</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D80" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" t="s">
+        <v>172</v>
+      </c>
+      <c r="M80" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>81</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D81" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" t="s">
+        <v>172</v>
+      </c>
+      <c r="M81" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>82</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D82" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" t="s">
+        <v>172</v>
+      </c>
+      <c r="M82" t="s">
+        <v>4219</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>83</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D83" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" t="s">
+        <v>172</v>
+      </c>
+      <c r="M83" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D84" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84" t="s">
+        <v>14</v>
+      </c>
+      <c r="H84" t="s">
+        <v>172</v>
+      </c>
+      <c r="M84" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>85</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D85" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85" t="s">
+        <v>172</v>
+      </c>
+      <c r="M85" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>86</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D86" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86" t="s">
+        <v>172</v>
+      </c>
+      <c r="M86" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>87</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D87" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" t="s">
+        <v>172</v>
+      </c>
+      <c r="M87" t="s">
+        <v>1525</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15878,8 +16108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1972"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A490" workbookViewId="0">
-      <selection activeCell="H490" sqref="H490"/>
+    <sheetView topLeftCell="A706" workbookViewId="0">
+      <selection activeCell="A714" sqref="A714:XFD723"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33102,236 +33332,6 @@
         <v>4218</v>
       </c>
     </row>
-    <row r="714" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A714">
-        <v>732</v>
-      </c>
-      <c r="B714" t="s">
-        <v>1506</v>
-      </c>
-      <c r="C714" t="s">
-        <v>1507</v>
-      </c>
-      <c r="D714" t="s">
-        <v>14</v>
-      </c>
-      <c r="E714" t="s">
-        <v>14</v>
-      </c>
-      <c r="H714" t="s">
-        <v>172</v>
-      </c>
-      <c r="M714" t="s">
-        <v>1508</v>
-      </c>
-    </row>
-    <row r="715" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A715">
-        <v>733</v>
-      </c>
-      <c r="B715" t="s">
-        <v>1509</v>
-      </c>
-      <c r="C715" t="s">
-        <v>1507</v>
-      </c>
-      <c r="D715" t="s">
-        <v>14</v>
-      </c>
-      <c r="E715" t="s">
-        <v>14</v>
-      </c>
-      <c r="H715" t="s">
-        <v>172</v>
-      </c>
-      <c r="M715" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="716" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A716">
-        <v>734</v>
-      </c>
-      <c r="B716" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C716" t="s">
-        <v>1507</v>
-      </c>
-      <c r="D716" t="s">
-        <v>14</v>
-      </c>
-      <c r="E716" t="s">
-        <v>14</v>
-      </c>
-      <c r="H716" t="s">
-        <v>172</v>
-      </c>
-      <c r="M716" t="s">
-        <v>1512</v>
-      </c>
-    </row>
-    <row r="717" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A717">
-        <v>735</v>
-      </c>
-      <c r="B717" t="s">
-        <v>1513</v>
-      </c>
-      <c r="C717" t="s">
-        <v>1507</v>
-      </c>
-      <c r="D717" t="s">
-        <v>14</v>
-      </c>
-      <c r="E717" t="s">
-        <v>14</v>
-      </c>
-      <c r="H717" t="s">
-        <v>172</v>
-      </c>
-      <c r="M717" t="s">
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="718" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A718">
-        <v>736</v>
-      </c>
-      <c r="B718" t="s">
-        <v>1515</v>
-      </c>
-      <c r="C718" t="s">
-        <v>1507</v>
-      </c>
-      <c r="D718" t="s">
-        <v>14</v>
-      </c>
-      <c r="E718" t="s">
-        <v>14</v>
-      </c>
-      <c r="H718" t="s">
-        <v>172</v>
-      </c>
-      <c r="M718" t="s">
-        <v>4219</v>
-      </c>
-    </row>
-    <row r="719" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A719">
-        <v>737</v>
-      </c>
-      <c r="B719" t="s">
-        <v>1516</v>
-      </c>
-      <c r="C719" t="s">
-        <v>1507</v>
-      </c>
-      <c r="D719" t="s">
-        <v>14</v>
-      </c>
-      <c r="E719" t="s">
-        <v>14</v>
-      </c>
-      <c r="H719" t="s">
-        <v>172</v>
-      </c>
-      <c r="M719" t="s">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="720" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A720">
-        <v>738</v>
-      </c>
-      <c r="B720" t="s">
-        <v>1518</v>
-      </c>
-      <c r="C720" t="s">
-        <v>1507</v>
-      </c>
-      <c r="D720" t="s">
-        <v>14</v>
-      </c>
-      <c r="E720" t="s">
-        <v>14</v>
-      </c>
-      <c r="H720" t="s">
-        <v>172</v>
-      </c>
-      <c r="M720" t="s">
-        <v>1519</v>
-      </c>
-    </row>
-    <row r="721" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A721">
-        <v>739</v>
-      </c>
-      <c r="B721" t="s">
-        <v>1520</v>
-      </c>
-      <c r="C721" t="s">
-        <v>1507</v>
-      </c>
-      <c r="D721" t="s">
-        <v>14</v>
-      </c>
-      <c r="E721" t="s">
-        <v>14</v>
-      </c>
-      <c r="H721" t="s">
-        <v>172</v>
-      </c>
-      <c r="M721" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="722" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A722">
-        <v>740</v>
-      </c>
-      <c r="B722" t="s">
-        <v>1522</v>
-      </c>
-      <c r="C722" t="s">
-        <v>1507</v>
-      </c>
-      <c r="D722" t="s">
-        <v>14</v>
-      </c>
-      <c r="E722" t="s">
-        <v>14</v>
-      </c>
-      <c r="H722" t="s">
-        <v>172</v>
-      </c>
-      <c r="M722" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="723" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A723">
-        <v>741</v>
-      </c>
-      <c r="B723" t="s">
-        <v>1524</v>
-      </c>
-      <c r="C723" t="s">
-        <v>1507</v>
-      </c>
-      <c r="D723" t="s">
-        <v>14</v>
-      </c>
-      <c r="E723" t="s">
-        <v>14</v>
-      </c>
-      <c r="H723" t="s">
-        <v>172</v>
-      </c>
-      <c r="M723" t="s">
-        <v>1525</v>
-      </c>
-    </row>
     <row r="724" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A724">
         <v>742</v>

--- a/0.36/compatibility.xlsx
+++ b/0.36/compatibility.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Playable (untested)" sheetId="4" r:id="rId1"/>
@@ -17,8 +17,8 @@
     <sheet name="GAME_NOT_WORKING FLAG" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ALL!$A$1:$M$1864</definedName>
-    <definedName name="LIST" localSheetId="1">ALL!$B$1:$M$1864</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ALL!$A$1:$M$1855</definedName>
+    <definedName name="LIST" localSheetId="1">ALL!$B$1:$M$1855</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -14087,10 +14087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P184"/>
+  <dimension ref="A1:P193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="A180" sqref="A180:A184"/>
+    <sheetView topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="F195" sqref="F195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18208,6 +18208,213 @@
         <v>1586</v>
       </c>
     </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>185</v>
+      </c>
+      <c r="B185" t="s">
+        <v>3471</v>
+      </c>
+      <c r="C185" t="s">
+        <v>3472</v>
+      </c>
+      <c r="D185" t="s">
+        <v>14</v>
+      </c>
+      <c r="E185" t="s">
+        <v>154</v>
+      </c>
+      <c r="H185" t="s">
+        <v>71</v>
+      </c>
+      <c r="M185" t="s">
+        <v>4480</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>186</v>
+      </c>
+      <c r="B186" t="s">
+        <v>3473</v>
+      </c>
+      <c r="C186" t="s">
+        <v>3472</v>
+      </c>
+      <c r="D186" t="s">
+        <v>14</v>
+      </c>
+      <c r="E186" t="s">
+        <v>154</v>
+      </c>
+      <c r="H186" t="s">
+        <v>71</v>
+      </c>
+      <c r="M186" t="s">
+        <v>4481</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>187</v>
+      </c>
+      <c r="B187" t="s">
+        <v>3474</v>
+      </c>
+      <c r="C187" t="s">
+        <v>3472</v>
+      </c>
+      <c r="D187" t="s">
+        <v>14</v>
+      </c>
+      <c r="E187" t="s">
+        <v>154</v>
+      </c>
+      <c r="H187" t="s">
+        <v>71</v>
+      </c>
+      <c r="M187" t="s">
+        <v>4482</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>188</v>
+      </c>
+      <c r="B188" t="s">
+        <v>3475</v>
+      </c>
+      <c r="C188" t="s">
+        <v>3472</v>
+      </c>
+      <c r="D188" t="s">
+        <v>14</v>
+      </c>
+      <c r="E188" t="s">
+        <v>154</v>
+      </c>
+      <c r="H188" t="s">
+        <v>71</v>
+      </c>
+      <c r="M188" t="s">
+        <v>3476</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>189</v>
+      </c>
+      <c r="B189" t="s">
+        <v>3477</v>
+      </c>
+      <c r="C189" t="s">
+        <v>3472</v>
+      </c>
+      <c r="D189" t="s">
+        <v>14</v>
+      </c>
+      <c r="E189" t="s">
+        <v>154</v>
+      </c>
+      <c r="H189" t="s">
+        <v>71</v>
+      </c>
+      <c r="M189" t="s">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>190</v>
+      </c>
+      <c r="B190" t="s">
+        <v>3479</v>
+      </c>
+      <c r="C190" t="s">
+        <v>3472</v>
+      </c>
+      <c r="D190" t="s">
+        <v>14</v>
+      </c>
+      <c r="E190" t="s">
+        <v>154</v>
+      </c>
+      <c r="H190" t="s">
+        <v>71</v>
+      </c>
+      <c r="M190" t="s">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>191</v>
+      </c>
+      <c r="B191" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C191" t="s">
+        <v>3472</v>
+      </c>
+      <c r="D191" t="s">
+        <v>14</v>
+      </c>
+      <c r="E191" t="s">
+        <v>154</v>
+      </c>
+      <c r="H191" t="s">
+        <v>71</v>
+      </c>
+      <c r="M191" t="s">
+        <v>3482</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>192</v>
+      </c>
+      <c r="B192" t="s">
+        <v>3483</v>
+      </c>
+      <c r="C192" t="s">
+        <v>3472</v>
+      </c>
+      <c r="D192" t="s">
+        <v>14</v>
+      </c>
+      <c r="E192" t="s">
+        <v>154</v>
+      </c>
+      <c r="H192" t="s">
+        <v>71</v>
+      </c>
+      <c r="M192" t="s">
+        <v>3484</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>193</v>
+      </c>
+      <c r="B193" t="s">
+        <v>3485</v>
+      </c>
+      <c r="C193" t="s">
+        <v>3472</v>
+      </c>
+      <c r="D193" t="s">
+        <v>14</v>
+      </c>
+      <c r="E193" t="s">
+        <v>154</v>
+      </c>
+      <c r="H193" t="s">
+        <v>71</v>
+      </c>
+      <c r="M193" t="s">
+        <v>3486</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18215,10 +18422,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1864"/>
+  <dimension ref="A1:M1855"/>
   <sheetViews>
-    <sheetView topLeftCell="A630" workbookViewId="0">
-      <selection activeCell="A645" sqref="A645:XFD645"/>
+    <sheetView tabSelected="1" topLeftCell="A1836" workbookViewId="0">
+      <selection activeCell="O1587" sqref="O1587"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -57386,217 +57593,190 @@
     </row>
     <row r="1580" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1580">
-        <v>1723</v>
+        <v>1732</v>
       </c>
       <c r="B1580" t="s">
-        <v>3471</v>
+        <v>3487</v>
       </c>
       <c r="C1580" t="s">
-        <v>3472</v>
+        <v>3488</v>
       </c>
       <c r="D1580" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1580" t="s">
-        <v>154</v>
+        <v>3489</v>
       </c>
       <c r="H1580" t="s">
-        <v>71</v>
+        <v>406</v>
       </c>
       <c r="M1580" t="s">
-        <v>4480</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="1581" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1581">
-        <v>1724</v>
+        <v>1733</v>
       </c>
       <c r="B1581" t="s">
-        <v>3473</v>
+        <v>3491</v>
       </c>
       <c r="C1581" t="s">
-        <v>3472</v>
+        <v>3488</v>
       </c>
       <c r="D1581" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1581" t="s">
-        <v>154</v>
+        <v>3489</v>
       </c>
       <c r="H1581" t="s">
-        <v>71</v>
+        <v>406</v>
       </c>
       <c r="M1581" t="s">
-        <v>4481</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="1582" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1582">
-        <v>1725</v>
+        <v>1734</v>
       </c>
       <c r="B1582" t="s">
-        <v>3474</v>
+        <v>3493</v>
       </c>
       <c r="C1582" t="s">
-        <v>3472</v>
+        <v>3488</v>
       </c>
       <c r="D1582" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1582" t="s">
-        <v>154</v>
+        <v>3489</v>
       </c>
       <c r="H1582" t="s">
-        <v>71</v>
+        <v>406</v>
       </c>
       <c r="M1582" t="s">
-        <v>4482</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="1583" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1583">
-        <v>1726</v>
+        <v>1735</v>
       </c>
       <c r="B1583" t="s">
-        <v>3475</v>
+        <v>3495</v>
       </c>
       <c r="C1583" t="s">
-        <v>3472</v>
+        <v>3488</v>
       </c>
       <c r="D1583" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1583" t="s">
-        <v>154</v>
+        <v>3489</v>
       </c>
       <c r="H1583" t="s">
-        <v>71</v>
+        <v>406</v>
       </c>
       <c r="M1583" t="s">
-        <v>3476</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="1584" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1584">
-        <v>1727</v>
+        <v>1736</v>
       </c>
       <c r="B1584" t="s">
-        <v>3477</v>
+        <v>3497</v>
       </c>
       <c r="C1584" t="s">
-        <v>3472</v>
+        <v>3488</v>
       </c>
       <c r="D1584" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1584" t="s">
-        <v>154</v>
+        <v>3489</v>
       </c>
       <c r="H1584" t="s">
-        <v>71</v>
+        <v>406</v>
       </c>
       <c r="M1584" t="s">
-        <v>3478</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="1585" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1585">
-        <v>1728</v>
+        <v>1737</v>
       </c>
       <c r="B1585" t="s">
-        <v>3479</v>
+        <v>3499</v>
       </c>
       <c r="C1585" t="s">
-        <v>3472</v>
+        <v>3488</v>
       </c>
       <c r="D1585" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1585" t="s">
-        <v>154</v>
+        <v>3489</v>
       </c>
       <c r="H1585" t="s">
-        <v>71</v>
+        <v>406</v>
       </c>
       <c r="M1585" t="s">
-        <v>3480</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="1586" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1586">
-        <v>1729</v>
+        <v>1738</v>
       </c>
       <c r="B1586" t="s">
-        <v>3481</v>
+        <v>3501</v>
       </c>
       <c r="C1586" t="s">
-        <v>3472</v>
+        <v>3488</v>
       </c>
       <c r="D1586" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1586" t="s">
-        <v>154</v>
+        <v>3489</v>
       </c>
       <c r="H1586" t="s">
-        <v>71</v>
+        <v>406</v>
       </c>
       <c r="M1586" t="s">
-        <v>3482</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="1587" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1587">
-        <v>1730</v>
+        <v>1739</v>
       </c>
       <c r="B1587" t="s">
-        <v>3483</v>
+        <v>3503</v>
       </c>
       <c r="C1587" t="s">
-        <v>3472</v>
+        <v>3488</v>
       </c>
       <c r="D1587" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1587" t="s">
-        <v>154</v>
+        <v>3489</v>
       </c>
       <c r="H1587" t="s">
-        <v>71</v>
+        <v>406</v>
       </c>
       <c r="M1587" t="s">
-        <v>3484</v>
+        <v>3504</v>
       </c>
     </row>
     <row r="1588" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1588">
-        <v>1731</v>
+        <v>1740</v>
       </c>
       <c r="B1588" t="s">
-        <v>3485</v>
+        <v>3505</v>
       </c>
       <c r="C1588" t="s">
-        <v>3472</v>
+        <v>3488</v>
       </c>
       <c r="D1588" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1588" t="s">
-        <v>154</v>
+        <v>3489</v>
       </c>
       <c r="H1588" t="s">
-        <v>71</v>
+        <v>406</v>
       </c>
       <c r="M1588" t="s">
-        <v>3486</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="1589" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1589">
-        <v>1732</v>
+        <v>1741</v>
       </c>
       <c r="B1589" t="s">
-        <v>3487</v>
+        <v>3507</v>
       </c>
       <c r="C1589" t="s">
         <v>3488</v>
@@ -57608,15 +57788,15 @@
         <v>406</v>
       </c>
       <c r="M1589" t="s">
-        <v>3490</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="1590" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1590">
-        <v>1733</v>
+        <v>1742</v>
       </c>
       <c r="B1590" t="s">
-        <v>3491</v>
+        <v>3509</v>
       </c>
       <c r="C1590" t="s">
         <v>3488</v>
@@ -57628,15 +57808,15 @@
         <v>406</v>
       </c>
       <c r="M1590" t="s">
-        <v>3492</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="1591" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1591">
-        <v>1734</v>
+        <v>1743</v>
       </c>
       <c r="B1591" t="s">
-        <v>3493</v>
+        <v>3511</v>
       </c>
       <c r="C1591" t="s">
         <v>3488</v>
@@ -57648,15 +57828,15 @@
         <v>406</v>
       </c>
       <c r="M1591" t="s">
-        <v>3494</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="1592" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1592">
-        <v>1735</v>
+        <v>1744</v>
       </c>
       <c r="B1592" t="s">
-        <v>3495</v>
+        <v>3513</v>
       </c>
       <c r="C1592" t="s">
         <v>3488</v>
@@ -57668,15 +57848,15 @@
         <v>406</v>
       </c>
       <c r="M1592" t="s">
-        <v>3496</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="1593" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1593">
-        <v>1736</v>
+        <v>1745</v>
       </c>
       <c r="B1593" t="s">
-        <v>3497</v>
+        <v>3515</v>
       </c>
       <c r="C1593" t="s">
         <v>3488</v>
@@ -57688,15 +57868,15 @@
         <v>406</v>
       </c>
       <c r="M1593" t="s">
-        <v>3498</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="1594" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1594">
-        <v>1737</v>
+        <v>1746</v>
       </c>
       <c r="B1594" t="s">
-        <v>3499</v>
+        <v>3517</v>
       </c>
       <c r="C1594" t="s">
         <v>3488</v>
@@ -57708,250 +57888,277 @@
         <v>406</v>
       </c>
       <c r="M1594" t="s">
-        <v>3500</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="1595" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1595">
-        <v>1738</v>
+        <v>1747</v>
       </c>
       <c r="B1595" t="s">
-        <v>3501</v>
+        <v>3519</v>
       </c>
       <c r="C1595" t="s">
-        <v>3488</v>
-      </c>
-      <c r="D1595" t="s">
-        <v>3489</v>
+        <v>3520</v>
+      </c>
+      <c r="D1595">
+        <v>68000</v>
+      </c>
+      <c r="E1595" t="s">
+        <v>14</v>
       </c>
       <c r="H1595" t="s">
-        <v>406</v>
+        <v>172</v>
+      </c>
+      <c r="I1595" t="s">
+        <v>93</v>
       </c>
       <c r="M1595" t="s">
-        <v>3502</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="1596" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1596">
-        <v>1739</v>
+        <v>1748</v>
       </c>
       <c r="B1596" t="s">
-        <v>3503</v>
+        <v>3522</v>
       </c>
       <c r="C1596" t="s">
-        <v>3488</v>
-      </c>
-      <c r="D1596" t="s">
-        <v>3489</v>
+        <v>3520</v>
+      </c>
+      <c r="D1596">
+        <v>68000</v>
+      </c>
+      <c r="E1596" t="s">
+        <v>14</v>
       </c>
       <c r="H1596" t="s">
-        <v>406</v>
+        <v>172</v>
+      </c>
+      <c r="I1596" t="s">
+        <v>93</v>
       </c>
       <c r="M1596" t="s">
-        <v>3504</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="1597" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1597">
-        <v>1740</v>
+        <v>1749</v>
       </c>
       <c r="B1597" t="s">
-        <v>3505</v>
+        <v>3524</v>
       </c>
       <c r="C1597" t="s">
-        <v>3488</v>
+        <v>3525</v>
       </c>
       <c r="D1597" t="s">
-        <v>3489</v>
+        <v>14</v>
+      </c>
+      <c r="E1597" t="s">
+        <v>154</v>
       </c>
       <c r="H1597" t="s">
-        <v>406</v>
+        <v>172</v>
       </c>
       <c r="M1597" t="s">
-        <v>3506</v>
+        <v>3526</v>
       </c>
     </row>
     <row r="1598" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1598">
-        <v>1741</v>
+        <v>1750</v>
       </c>
       <c r="B1598" t="s">
-        <v>3507</v>
+        <v>3527</v>
       </c>
       <c r="C1598" t="s">
-        <v>3488</v>
+        <v>3525</v>
       </c>
       <c r="D1598" t="s">
-        <v>3489</v>
+        <v>14</v>
+      </c>
+      <c r="E1598" t="s">
+        <v>154</v>
       </c>
       <c r="H1598" t="s">
-        <v>406</v>
+        <v>172</v>
       </c>
       <c r="M1598" t="s">
-        <v>3508</v>
+        <v>3528</v>
       </c>
     </row>
     <row r="1599" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1599">
-        <v>1742</v>
+        <v>1751</v>
       </c>
       <c r="B1599" t="s">
-        <v>3509</v>
+        <v>3529</v>
       </c>
       <c r="C1599" t="s">
-        <v>3488</v>
+        <v>3525</v>
       </c>
       <c r="D1599" t="s">
-        <v>3489</v>
+        <v>14</v>
+      </c>
+      <c r="E1599" t="s">
+        <v>154</v>
       </c>
       <c r="H1599" t="s">
-        <v>406</v>
+        <v>172</v>
       </c>
       <c r="M1599" t="s">
-        <v>3510</v>
+        <v>3530</v>
       </c>
     </row>
     <row r="1600" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1600">
-        <v>1743</v>
+        <v>1752</v>
       </c>
       <c r="B1600" t="s">
-        <v>3511</v>
+        <v>3531</v>
       </c>
       <c r="C1600" t="s">
-        <v>3488</v>
+        <v>3525</v>
       </c>
       <c r="D1600" t="s">
-        <v>3489</v>
+        <v>14</v>
+      </c>
+      <c r="E1600" t="s">
+        <v>154</v>
       </c>
       <c r="H1600" t="s">
-        <v>406</v>
+        <v>172</v>
       </c>
       <c r="M1600" t="s">
-        <v>3512</v>
+        <v>3532</v>
       </c>
     </row>
     <row r="1601" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1601">
-        <v>1744</v>
+        <v>1753</v>
       </c>
       <c r="B1601" t="s">
-        <v>3513</v>
+        <v>3533</v>
       </c>
       <c r="C1601" t="s">
-        <v>3488</v>
+        <v>3525</v>
       </c>
       <c r="D1601" t="s">
-        <v>3489</v>
+        <v>14</v>
+      </c>
+      <c r="E1601" t="s">
+        <v>154</v>
       </c>
       <c r="H1601" t="s">
-        <v>406</v>
+        <v>172</v>
       </c>
       <c r="M1601" t="s">
-        <v>3514</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="1602" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1602">
-        <v>1745</v>
+        <v>1754</v>
       </c>
       <c r="B1602" t="s">
-        <v>3515</v>
+        <v>3535</v>
       </c>
       <c r="C1602" t="s">
-        <v>3488</v>
+        <v>3525</v>
       </c>
       <c r="D1602" t="s">
-        <v>3489</v>
+        <v>14</v>
+      </c>
+      <c r="E1602" t="s">
+        <v>154</v>
       </c>
       <c r="H1602" t="s">
-        <v>406</v>
+        <v>172</v>
       </c>
       <c r="M1602" t="s">
-        <v>3516</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="1603" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1603">
-        <v>1746</v>
+        <v>1755</v>
       </c>
       <c r="B1603" t="s">
-        <v>3517</v>
+        <v>3537</v>
       </c>
       <c r="C1603" t="s">
-        <v>3488</v>
+        <v>3525</v>
       </c>
       <c r="D1603" t="s">
-        <v>3489</v>
+        <v>14</v>
+      </c>
+      <c r="E1603" t="s">
+        <v>154</v>
       </c>
       <c r="H1603" t="s">
-        <v>406</v>
+        <v>172</v>
       </c>
       <c r="M1603" t="s">
-        <v>3518</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="1604" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1604">
-        <v>1747</v>
+        <v>1756</v>
       </c>
       <c r="B1604" t="s">
-        <v>3519</v>
+        <v>3539</v>
       </c>
       <c r="C1604" t="s">
-        <v>3520</v>
-      </c>
-      <c r="D1604">
-        <v>68000</v>
+        <v>3525</v>
+      </c>
+      <c r="D1604" t="s">
+        <v>14</v>
       </c>
       <c r="E1604" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="H1604" t="s">
         <v>172</v>
       </c>
-      <c r="I1604" t="s">
-        <v>93</v>
-      </c>
       <c r="M1604" t="s">
-        <v>3521</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="1605" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1605">
-        <v>1748</v>
+        <v>1757</v>
       </c>
       <c r="B1605" t="s">
-        <v>3522</v>
+        <v>3541</v>
       </c>
       <c r="C1605" t="s">
-        <v>3520</v>
-      </c>
-      <c r="D1605">
-        <v>68000</v>
+        <v>3525</v>
+      </c>
+      <c r="D1605" t="s">
+        <v>14</v>
       </c>
       <c r="E1605" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="H1605" t="s">
         <v>172</v>
       </c>
-      <c r="I1605" t="s">
-        <v>93</v>
-      </c>
       <c r="M1605" t="s">
-        <v>3523</v>
+        <v>3542</v>
       </c>
     </row>
     <row r="1606" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1606">
-        <v>1749</v>
+        <v>1758</v>
       </c>
       <c r="B1606" t="s">
-        <v>3524</v>
+        <v>3558</v>
       </c>
       <c r="C1606" t="s">
-        <v>3525</v>
+        <v>3559</v>
       </c>
       <c r="D1606" t="s">
         <v>14</v>
@@ -57963,18 +58170,18 @@
         <v>172</v>
       </c>
       <c r="M1606" t="s">
-        <v>3526</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="1607" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1607">
-        <v>1750</v>
+        <v>1759</v>
       </c>
       <c r="B1607" t="s">
-        <v>3527</v>
+        <v>3561</v>
       </c>
       <c r="C1607" t="s">
-        <v>3525</v>
+        <v>3559</v>
       </c>
       <c r="D1607" t="s">
         <v>14</v>
@@ -57986,18 +58193,18 @@
         <v>172</v>
       </c>
       <c r="M1607" t="s">
-        <v>3528</v>
+        <v>3562</v>
       </c>
     </row>
     <row r="1608" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1608">
-        <v>1751</v>
+        <v>1760</v>
       </c>
       <c r="B1608" t="s">
-        <v>3529</v>
+        <v>3563</v>
       </c>
       <c r="C1608" t="s">
-        <v>3525</v>
+        <v>3559</v>
       </c>
       <c r="D1608" t="s">
         <v>14</v>
@@ -58009,18 +58216,18 @@
         <v>172</v>
       </c>
       <c r="M1608" t="s">
-        <v>3530</v>
+        <v>3564</v>
       </c>
     </row>
     <row r="1609" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1609">
-        <v>1752</v>
+        <v>1761</v>
       </c>
       <c r="B1609" t="s">
-        <v>3531</v>
+        <v>3565</v>
       </c>
       <c r="C1609" t="s">
-        <v>3525</v>
+        <v>3559</v>
       </c>
       <c r="D1609" t="s">
         <v>14</v>
@@ -58029,21 +58236,21 @@
         <v>154</v>
       </c>
       <c r="H1609" t="s">
-        <v>172</v>
+        <v>326</v>
       </c>
       <c r="M1609" t="s">
-        <v>3532</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="1610" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1610">
-        <v>1753</v>
+        <v>1762</v>
       </c>
       <c r="B1610" t="s">
-        <v>3533</v>
+        <v>3567</v>
       </c>
       <c r="C1610" t="s">
-        <v>3525</v>
+        <v>3559</v>
       </c>
       <c r="D1610" t="s">
         <v>14</v>
@@ -58052,21 +58259,21 @@
         <v>154</v>
       </c>
       <c r="H1610" t="s">
-        <v>172</v>
+        <v>326</v>
       </c>
       <c r="M1610" t="s">
-        <v>3534</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="1611" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1611">
-        <v>1754</v>
+        <v>1763</v>
       </c>
       <c r="B1611" t="s">
-        <v>3535</v>
+        <v>3569</v>
       </c>
       <c r="C1611" t="s">
-        <v>3525</v>
+        <v>3570</v>
       </c>
       <c r="D1611" t="s">
         <v>14</v>
@@ -58075,21 +58282,24 @@
         <v>154</v>
       </c>
       <c r="H1611" t="s">
-        <v>172</v>
+        <v>1282</v>
+      </c>
+      <c r="I1611" t="s">
+        <v>1278</v>
       </c>
       <c r="M1611" t="s">
-        <v>3536</v>
+        <v>4483</v>
       </c>
     </row>
     <row r="1612" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1612">
-        <v>1755</v>
+        <v>1764</v>
       </c>
       <c r="B1612" t="s">
-        <v>3537</v>
+        <v>3571</v>
       </c>
       <c r="C1612" t="s">
-        <v>3525</v>
+        <v>3570</v>
       </c>
       <c r="D1612" t="s">
         <v>14</v>
@@ -58098,21 +58308,24 @@
         <v>154</v>
       </c>
       <c r="H1612" t="s">
-        <v>172</v>
+        <v>1282</v>
+      </c>
+      <c r="I1612" t="s">
+        <v>1278</v>
       </c>
       <c r="M1612" t="s">
-        <v>3538</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="1613" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1613">
-        <v>1756</v>
+        <v>1765</v>
       </c>
       <c r="B1613" t="s">
-        <v>3539</v>
+        <v>3572</v>
       </c>
       <c r="C1613" t="s">
-        <v>3525</v>
+        <v>3570</v>
       </c>
       <c r="D1613" t="s">
         <v>14</v>
@@ -58121,376 +58334,385 @@
         <v>154</v>
       </c>
       <c r="H1613" t="s">
-        <v>172</v>
+        <v>1282</v>
+      </c>
+      <c r="I1613" t="s">
+        <v>1278</v>
       </c>
       <c r="M1613" t="s">
-        <v>3540</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="1614" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1614">
-        <v>1757</v>
+        <v>1766</v>
       </c>
       <c r="B1614" t="s">
-        <v>3541</v>
+        <v>3574</v>
       </c>
       <c r="C1614" t="s">
-        <v>3525</v>
+        <v>3575</v>
       </c>
       <c r="D1614" t="s">
-        <v>14</v>
+        <v>1108</v>
       </c>
       <c r="E1614" t="s">
-        <v>154</v>
+        <v>1108</v>
       </c>
       <c r="H1614" t="s">
-        <v>172</v>
+        <v>349</v>
+      </c>
+      <c r="I1614" t="s">
+        <v>1495</v>
       </c>
       <c r="M1614" t="s">
-        <v>3542</v>
+        <v>3576</v>
       </c>
     </row>
     <row r="1615" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1615">
-        <v>1758</v>
+        <v>1767</v>
       </c>
       <c r="B1615" t="s">
-        <v>3558</v>
+        <v>3577</v>
       </c>
       <c r="C1615" t="s">
-        <v>3559</v>
+        <v>3575</v>
       </c>
       <c r="D1615" t="s">
-        <v>14</v>
+        <v>1108</v>
       </c>
       <c r="E1615" t="s">
-        <v>154</v>
+        <v>1108</v>
       </c>
       <c r="H1615" t="s">
-        <v>172</v>
+        <v>349</v>
+      </c>
+      <c r="I1615" t="s">
+        <v>1495</v>
       </c>
       <c r="M1615" t="s">
-        <v>3560</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="1616" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1616">
-        <v>1759</v>
+        <v>1768</v>
       </c>
       <c r="B1616" t="s">
-        <v>3561</v>
+        <v>3579</v>
       </c>
       <c r="C1616" t="s">
-        <v>3559</v>
+        <v>3580</v>
       </c>
       <c r="D1616" t="s">
-        <v>14</v>
+        <v>1108</v>
       </c>
       <c r="E1616" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F1616" t="s">
         <v>154</v>
       </c>
       <c r="H1616" t="s">
-        <v>172</v>
+        <v>349</v>
+      </c>
+      <c r="I1616" t="s">
+        <v>1495</v>
       </c>
       <c r="M1616" t="s">
-        <v>3562</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="1617" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1617">
-        <v>1760</v>
+        <v>1769</v>
       </c>
       <c r="B1617" t="s">
-        <v>3563</v>
+        <v>3582</v>
       </c>
       <c r="C1617" t="s">
-        <v>3559</v>
+        <v>3580</v>
       </c>
       <c r="D1617" t="s">
-        <v>14</v>
+        <v>1108</v>
       </c>
       <c r="E1617" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F1617" t="s">
         <v>154</v>
       </c>
       <c r="H1617" t="s">
-        <v>172</v>
+        <v>349</v>
+      </c>
+      <c r="I1617" t="s">
+        <v>1495</v>
       </c>
       <c r="M1617" t="s">
-        <v>3564</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="1618" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1618">
-        <v>1761</v>
+        <v>1770</v>
       </c>
       <c r="B1618" t="s">
-        <v>3565</v>
+        <v>3583</v>
       </c>
       <c r="C1618" t="s">
-        <v>3559</v>
+        <v>3580</v>
       </c>
       <c r="D1618" t="s">
-        <v>14</v>
+        <v>1108</v>
       </c>
       <c r="E1618" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F1618" t="s">
         <v>154</v>
       </c>
       <c r="H1618" t="s">
-        <v>326</v>
+        <v>349</v>
+      </c>
+      <c r="I1618" t="s">
+        <v>1495</v>
       </c>
       <c r="M1618" t="s">
-        <v>3566</v>
+        <v>3584</v>
       </c>
     </row>
     <row r="1619" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1619">
-        <v>1762</v>
+        <v>1771</v>
       </c>
       <c r="B1619" t="s">
-        <v>3567</v>
+        <v>3585</v>
       </c>
       <c r="C1619" t="s">
-        <v>3559</v>
-      </c>
-      <c r="D1619" t="s">
-        <v>14</v>
+        <v>3586</v>
+      </c>
+      <c r="D1619">
+        <v>68000</v>
       </c>
       <c r="E1619" t="s">
         <v>154</v>
       </c>
       <c r="H1619" t="s">
-        <v>326</v>
+        <v>349</v>
+      </c>
+      <c r="I1619" t="s">
+        <v>1495</v>
       </c>
       <c r="M1619" t="s">
-        <v>3568</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="1620" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1620">
-        <v>1763</v>
+        <v>1772</v>
       </c>
       <c r="B1620" t="s">
-        <v>3569</v>
+        <v>3588</v>
       </c>
       <c r="C1620" t="s">
-        <v>3570</v>
-      </c>
-      <c r="D1620" t="s">
-        <v>14</v>
+        <v>3589</v>
+      </c>
+      <c r="D1620">
+        <v>68000</v>
       </c>
       <c r="E1620" t="s">
         <v>154</v>
       </c>
-      <c r="H1620" t="s">
-        <v>1282</v>
-      </c>
-      <c r="I1620" t="s">
-        <v>1278</v>
-      </c>
       <c r="M1620" t="s">
-        <v>4483</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="1621" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1621">
-        <v>1764</v>
+        <v>1773</v>
       </c>
       <c r="B1621" t="s">
-        <v>3571</v>
+        <v>3591</v>
       </c>
       <c r="C1621" t="s">
-        <v>3570</v>
-      </c>
-      <c r="D1621" t="s">
-        <v>14</v>
+        <v>3589</v>
+      </c>
+      <c r="D1621">
+        <v>68000</v>
       </c>
       <c r="E1621" t="s">
         <v>154</v>
       </c>
-      <c r="H1621" t="s">
-        <v>1282</v>
-      </c>
-      <c r="I1621" t="s">
-        <v>1278</v>
-      </c>
       <c r="M1621" t="s">
-        <v>4484</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="1622" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1622">
-        <v>1765</v>
+        <v>1774</v>
       </c>
       <c r="B1622" t="s">
-        <v>3572</v>
+        <v>3593</v>
       </c>
       <c r="C1622" t="s">
-        <v>3570</v>
-      </c>
-      <c r="D1622" t="s">
-        <v>14</v>
+        <v>3589</v>
+      </c>
+      <c r="D1622">
+        <v>68000</v>
       </c>
       <c r="E1622" t="s">
         <v>154</v>
       </c>
       <c r="H1622" t="s">
-        <v>1282</v>
+        <v>551</v>
       </c>
       <c r="I1622" t="s">
-        <v>1278</v>
+        <v>3361</v>
       </c>
       <c r="M1622" t="s">
-        <v>3573</v>
+        <v>3594</v>
       </c>
     </row>
     <row r="1623" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1623">
-        <v>1766</v>
+        <v>1775</v>
       </c>
       <c r="B1623" t="s">
-        <v>3574</v>
+        <v>3595</v>
       </c>
       <c r="C1623" t="s">
-        <v>3575</v>
-      </c>
-      <c r="D1623" t="s">
-        <v>1108</v>
+        <v>3596</v>
+      </c>
+      <c r="D1623">
+        <v>68000</v>
       </c>
       <c r="E1623" t="s">
-        <v>1108</v>
+        <v>154</v>
       </c>
       <c r="H1623" t="s">
         <v>349</v>
       </c>
       <c r="I1623" t="s">
-        <v>1495</v>
+        <v>1278</v>
       </c>
       <c r="M1623" t="s">
-        <v>3576</v>
+        <v>3597</v>
       </c>
     </row>
     <row r="1624" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1624">
-        <v>1767</v>
+        <v>1776</v>
       </c>
       <c r="B1624" t="s">
-        <v>3577</v>
+        <v>3598</v>
       </c>
       <c r="C1624" t="s">
-        <v>3575</v>
-      </c>
-      <c r="D1624" t="s">
-        <v>1108</v>
+        <v>3596</v>
+      </c>
+      <c r="D1624">
+        <v>68000</v>
       </c>
       <c r="E1624" t="s">
-        <v>1108</v>
+        <v>154</v>
       </c>
       <c r="H1624" t="s">
         <v>349</v>
       </c>
       <c r="I1624" t="s">
-        <v>1495</v>
+        <v>1278</v>
       </c>
       <c r="M1624" t="s">
-        <v>3578</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="1625" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1625">
-        <v>1768</v>
+        <v>1777</v>
       </c>
       <c r="B1625" t="s">
-        <v>3579</v>
+        <v>3600</v>
       </c>
       <c r="C1625" t="s">
-        <v>3580</v>
-      </c>
-      <c r="D1625" t="s">
-        <v>1108</v>
+        <v>3596</v>
+      </c>
+      <c r="D1625">
+        <v>68000</v>
       </c>
       <c r="E1625" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F1625" t="s">
         <v>154</v>
       </c>
       <c r="H1625" t="s">
         <v>349</v>
       </c>
       <c r="I1625" t="s">
-        <v>1495</v>
+        <v>1278</v>
       </c>
       <c r="M1625" t="s">
-        <v>3581</v>
+        <v>3601</v>
       </c>
     </row>
     <row r="1626" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1626">
-        <v>1769</v>
+        <v>1778</v>
       </c>
       <c r="B1626" t="s">
-        <v>3582</v>
+        <v>3602</v>
       </c>
       <c r="C1626" t="s">
-        <v>3580</v>
-      </c>
-      <c r="D1626" t="s">
-        <v>1108</v>
+        <v>3596</v>
+      </c>
+      <c r="D1626">
+        <v>68000</v>
       </c>
       <c r="E1626" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F1626" t="s">
         <v>154</v>
       </c>
       <c r="H1626" t="s">
         <v>349</v>
       </c>
       <c r="I1626" t="s">
-        <v>1495</v>
+        <v>1278</v>
       </c>
       <c r="M1626" t="s">
-        <v>4485</v>
+        <v>3603</v>
       </c>
     </row>
     <row r="1627" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1627">
-        <v>1770</v>
+        <v>1779</v>
       </c>
       <c r="B1627" t="s">
-        <v>3583</v>
+        <v>3604</v>
       </c>
       <c r="C1627" t="s">
-        <v>3580</v>
-      </c>
-      <c r="D1627" t="s">
-        <v>1108</v>
+        <v>3596</v>
+      </c>
+      <c r="D1627">
+        <v>68000</v>
       </c>
       <c r="E1627" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F1627" t="s">
         <v>154</v>
       </c>
       <c r="H1627" t="s">
         <v>349</v>
       </c>
       <c r="I1627" t="s">
-        <v>1495</v>
+        <v>1278</v>
       </c>
       <c r="M1627" t="s">
-        <v>3584</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1628" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1628">
-        <v>1771</v>
+        <v>1780</v>
       </c>
       <c r="B1628" t="s">
-        <v>3585</v>
+        <v>3606</v>
       </c>
       <c r="C1628" t="s">
-        <v>3586</v>
+        <v>3607</v>
       </c>
       <c r="D1628">
         <v>68000</v>
@@ -58505,18 +58727,18 @@
         <v>1495</v>
       </c>
       <c r="M1628" t="s">
-        <v>3587</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="1629" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1629">
-        <v>1772</v>
+        <v>1781</v>
       </c>
       <c r="B1629" t="s">
-        <v>3588</v>
+        <v>3609</v>
       </c>
       <c r="C1629" t="s">
-        <v>3589</v>
+        <v>3607</v>
       </c>
       <c r="D1629">
         <v>68000</v>
@@ -58524,528 +58746,540 @@
       <c r="E1629" t="s">
         <v>154</v>
       </c>
+      <c r="H1629" t="s">
+        <v>349</v>
+      </c>
+      <c r="I1629" t="s">
+        <v>1495</v>
+      </c>
       <c r="M1629" t="s">
-        <v>3590</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="1630" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1630">
-        <v>1773</v>
+        <v>1782</v>
       </c>
       <c r="B1630" t="s">
-        <v>3591</v>
+        <v>3611</v>
       </c>
       <c r="C1630" t="s">
-        <v>3589</v>
-      </c>
-      <c r="D1630">
-        <v>68000</v>
-      </c>
-      <c r="E1630" t="s">
-        <v>154</v>
+        <v>3612</v>
+      </c>
+      <c r="D1630" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1630" t="s">
+        <v>172</v>
       </c>
       <c r="M1630" t="s">
-        <v>3592</v>
+        <v>3613</v>
       </c>
     </row>
     <row r="1631" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1631">
-        <v>1774</v>
+        <v>1783</v>
       </c>
       <c r="B1631" t="s">
-        <v>3593</v>
+        <v>3614</v>
       </c>
       <c r="C1631" t="s">
-        <v>3589</v>
-      </c>
-      <c r="D1631">
-        <v>68000</v>
-      </c>
-      <c r="E1631" t="s">
-        <v>154</v>
+        <v>3612</v>
+      </c>
+      <c r="D1631" t="s">
+        <v>14</v>
       </c>
       <c r="H1631" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1631" t="s">
-        <v>3361</v>
+        <v>172</v>
       </c>
       <c r="M1631" t="s">
-        <v>3594</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="1632" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1632">
-        <v>1775</v>
+        <v>1784</v>
       </c>
       <c r="B1632" t="s">
-        <v>3595</v>
+        <v>3616</v>
       </c>
       <c r="C1632" t="s">
-        <v>3596</v>
-      </c>
-      <c r="D1632">
-        <v>68000</v>
-      </c>
-      <c r="E1632" t="s">
-        <v>154</v>
+        <v>3612</v>
+      </c>
+      <c r="D1632" t="s">
+        <v>14</v>
       </c>
       <c r="H1632" t="s">
-        <v>349</v>
-      </c>
-      <c r="I1632" t="s">
-        <v>1278</v>
+        <v>172</v>
       </c>
       <c r="M1632" t="s">
-        <v>3597</v>
+        <v>3617</v>
       </c>
     </row>
     <row r="1633" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1633">
-        <v>1776</v>
+        <v>1785</v>
       </c>
       <c r="B1633" t="s">
-        <v>3598</v>
+        <v>3618</v>
       </c>
       <c r="C1633" t="s">
-        <v>3596</v>
-      </c>
-      <c r="D1633">
-        <v>68000</v>
+        <v>3619</v>
+      </c>
+      <c r="D1633" t="s">
+        <v>473</v>
       </c>
       <c r="E1633" t="s">
-        <v>154</v>
+        <v>970</v>
       </c>
       <c r="H1633" t="s">
-        <v>349</v>
-      </c>
-      <c r="I1633" t="s">
-        <v>1278</v>
+        <v>172</v>
       </c>
       <c r="M1633" t="s">
-        <v>3599</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="1634" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1634">
-        <v>1777</v>
+        <v>1786</v>
       </c>
       <c r="B1634" t="s">
-        <v>3600</v>
+        <v>3621</v>
       </c>
       <c r="C1634" t="s">
-        <v>3596</v>
-      </c>
-      <c r="D1634">
-        <v>68000</v>
+        <v>3619</v>
+      </c>
+      <c r="D1634" t="s">
+        <v>473</v>
       </c>
       <c r="E1634" t="s">
-        <v>154</v>
+        <v>970</v>
       </c>
       <c r="H1634" t="s">
-        <v>349</v>
-      </c>
-      <c r="I1634" t="s">
-        <v>1278</v>
+        <v>172</v>
       </c>
       <c r="M1634" t="s">
-        <v>3601</v>
+        <v>3622</v>
       </c>
     </row>
     <row r="1635" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1635">
-        <v>1778</v>
+        <v>1787</v>
       </c>
       <c r="B1635" t="s">
-        <v>3602</v>
+        <v>3623</v>
       </c>
       <c r="C1635" t="s">
-        <v>3596</v>
-      </c>
-      <c r="D1635">
-        <v>68000</v>
+        <v>3624</v>
+      </c>
+      <c r="D1635" t="s">
+        <v>473</v>
       </c>
       <c r="E1635" t="s">
-        <v>154</v>
+        <v>970</v>
       </c>
       <c r="H1635" t="s">
-        <v>349</v>
-      </c>
-      <c r="I1635" t="s">
-        <v>1278</v>
+        <v>1282</v>
       </c>
       <c r="M1635" t="s">
-        <v>3603</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="1636" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1636">
-        <v>1779</v>
+        <v>1788</v>
       </c>
       <c r="B1636" t="s">
-        <v>3604</v>
+        <v>3626</v>
       </c>
       <c r="C1636" t="s">
-        <v>3596</v>
-      </c>
-      <c r="D1636">
-        <v>68000</v>
+        <v>3624</v>
+      </c>
+      <c r="D1636" t="s">
+        <v>473</v>
       </c>
       <c r="E1636" t="s">
-        <v>154</v>
+        <v>970</v>
       </c>
       <c r="H1636" t="s">
-        <v>349</v>
-      </c>
-      <c r="I1636" t="s">
-        <v>1278</v>
+        <v>1282</v>
       </c>
       <c r="M1636" t="s">
-        <v>3605</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="1637" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1637">
-        <v>1780</v>
+        <v>1789</v>
       </c>
       <c r="B1637" t="s">
-        <v>3606</v>
+        <v>3628</v>
       </c>
       <c r="C1637" t="s">
-        <v>3607</v>
-      </c>
-      <c r="D1637">
-        <v>68000</v>
+        <v>3624</v>
+      </c>
+      <c r="D1637" t="s">
+        <v>473</v>
       </c>
       <c r="E1637" t="s">
-        <v>154</v>
+        <v>970</v>
       </c>
       <c r="H1637" t="s">
-        <v>349</v>
-      </c>
-      <c r="I1637" t="s">
-        <v>1495</v>
+        <v>1282</v>
       </c>
       <c r="M1637" t="s">
-        <v>3608</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="1638" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1638">
-        <v>1781</v>
+        <v>1790</v>
       </c>
       <c r="B1638" t="s">
-        <v>3609</v>
+        <v>3630</v>
       </c>
       <c r="C1638" t="s">
-        <v>3607</v>
-      </c>
-      <c r="D1638">
-        <v>68000</v>
+        <v>3631</v>
+      </c>
+      <c r="D1638" t="s">
+        <v>405</v>
       </c>
       <c r="E1638" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="H1638" t="s">
-        <v>349</v>
-      </c>
-      <c r="I1638" t="s">
-        <v>1495</v>
+        <v>172</v>
       </c>
       <c r="M1638" t="s">
-        <v>3610</v>
+        <v>3632</v>
       </c>
     </row>
     <row r="1639" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1639">
-        <v>1782</v>
+        <v>1791</v>
       </c>
       <c r="B1639" t="s">
-        <v>3611</v>
+        <v>3633</v>
       </c>
       <c r="C1639" t="s">
-        <v>3612</v>
+        <v>3631</v>
       </c>
       <c r="D1639" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1639" t="s">
         <v>14</v>
       </c>
       <c r="H1639" t="s">
         <v>172</v>
       </c>
       <c r="M1639" t="s">
-        <v>3613</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="1640" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1640">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="B1640" t="s">
-        <v>3614</v>
+        <v>3635</v>
       </c>
       <c r="C1640" t="s">
-        <v>3612</v>
+        <v>3636</v>
       </c>
       <c r="D1640" t="s">
         <v>14</v>
       </c>
+      <c r="E1640" t="s">
+        <v>154</v>
+      </c>
       <c r="H1640" t="s">
-        <v>172</v>
+        <v>1282</v>
       </c>
       <c r="M1640" t="s">
-        <v>3615</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="1641" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1641">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="B1641" t="s">
-        <v>3616</v>
+        <v>3638</v>
       </c>
       <c r="C1641" t="s">
-        <v>3612</v>
-      </c>
-      <c r="D1641" t="s">
-        <v>14</v>
+        <v>3639</v>
+      </c>
+      <c r="D1641">
+        <v>68000</v>
+      </c>
+      <c r="E1641" t="s">
+        <v>970</v>
       </c>
       <c r="H1641" t="s">
-        <v>172</v>
+        <v>71</v>
+      </c>
+      <c r="I1641" t="s">
+        <v>3271</v>
       </c>
       <c r="M1641" t="s">
-        <v>3617</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="1642" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1642">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="B1642" t="s">
-        <v>3618</v>
+        <v>3641</v>
       </c>
       <c r="C1642" t="s">
-        <v>3619</v>
-      </c>
-      <c r="D1642" t="s">
-        <v>473</v>
-      </c>
-      <c r="E1642" t="s">
-        <v>970</v>
+        <v>3642</v>
+      </c>
+      <c r="D1642">
+        <v>68000</v>
+      </c>
+      <c r="E1642">
+        <v>68000</v>
+      </c>
+      <c r="F1642">
+        <v>68000</v>
+      </c>
+      <c r="G1642" t="s">
+        <v>976</v>
       </c>
       <c r="H1642" t="s">
-        <v>172</v>
+        <v>551</v>
+      </c>
+      <c r="I1642" t="s">
+        <v>2378</v>
       </c>
       <c r="M1642" t="s">
-        <v>3620</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="1643" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1643">
-        <v>1786</v>
+        <v>1795</v>
       </c>
       <c r="B1643" t="s">
-        <v>3621</v>
+        <v>3644</v>
       </c>
       <c r="C1643" t="s">
-        <v>3619</v>
-      </c>
-      <c r="D1643" t="s">
-        <v>473</v>
-      </c>
-      <c r="E1643" t="s">
-        <v>970</v>
+        <v>3642</v>
+      </c>
+      <c r="D1643">
+        <v>68000</v>
+      </c>
+      <c r="E1643">
+        <v>68000</v>
+      </c>
+      <c r="F1643">
+        <v>68000</v>
+      </c>
+      <c r="G1643" t="s">
+        <v>976</v>
       </c>
       <c r="H1643" t="s">
-        <v>172</v>
+        <v>551</v>
+      </c>
+      <c r="I1643" t="s">
+        <v>2378</v>
       </c>
       <c r="M1643" t="s">
-        <v>3622</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="1644" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1644">
-        <v>1787</v>
+        <v>1796</v>
       </c>
       <c r="B1644" t="s">
-        <v>3623</v>
+        <v>3646</v>
       </c>
       <c r="C1644" t="s">
-        <v>3624</v>
-      </c>
-      <c r="D1644" t="s">
-        <v>473</v>
+        <v>3647</v>
+      </c>
+      <c r="D1644">
+        <v>68000</v>
       </c>
       <c r="E1644" t="s">
-        <v>970</v>
+        <v>154</v>
       </c>
       <c r="H1644" t="s">
-        <v>1282</v>
+        <v>336</v>
       </c>
       <c r="M1644" t="s">
-        <v>3625</v>
+        <v>3648</v>
       </c>
     </row>
     <row r="1645" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1645">
-        <v>1788</v>
+        <v>1797</v>
       </c>
       <c r="B1645" t="s">
-        <v>3626</v>
+        <v>3649</v>
       </c>
       <c r="C1645" t="s">
-        <v>3624</v>
-      </c>
-      <c r="D1645" t="s">
-        <v>473</v>
+        <v>3647</v>
+      </c>
+      <c r="D1645">
+        <v>68000</v>
       </c>
       <c r="E1645" t="s">
-        <v>970</v>
+        <v>154</v>
       </c>
       <c r="H1645" t="s">
-        <v>1282</v>
+        <v>336</v>
       </c>
       <c r="M1645" t="s">
-        <v>3627</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="1646" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1646">
-        <v>1789</v>
+        <v>1798</v>
       </c>
       <c r="B1646" t="s">
-        <v>3628</v>
+        <v>3651</v>
       </c>
       <c r="C1646" t="s">
-        <v>3624</v>
-      </c>
-      <c r="D1646" t="s">
-        <v>473</v>
+        <v>3647</v>
+      </c>
+      <c r="D1646">
+        <v>68000</v>
       </c>
       <c r="E1646" t="s">
-        <v>970</v>
+        <v>976</v>
       </c>
       <c r="H1646" t="s">
-        <v>1282</v>
+        <v>551</v>
+      </c>
+      <c r="I1646" t="s">
+        <v>2378</v>
       </c>
       <c r="M1646" t="s">
-        <v>3629</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="1647" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1647">
-        <v>1790</v>
+        <v>1799</v>
       </c>
       <c r="B1647" t="s">
-        <v>3630</v>
+        <v>3652</v>
       </c>
       <c r="C1647" t="s">
-        <v>3631</v>
-      </c>
-      <c r="D1647" t="s">
-        <v>405</v>
+        <v>3647</v>
+      </c>
+      <c r="D1647">
+        <v>68000</v>
       </c>
       <c r="E1647" t="s">
-        <v>14</v>
+        <v>976</v>
       </c>
       <c r="H1647" t="s">
-        <v>172</v>
+        <v>551</v>
+      </c>
+      <c r="I1647" t="s">
+        <v>2378</v>
       </c>
       <c r="M1647" t="s">
-        <v>3632</v>
+        <v>4487</v>
       </c>
     </row>
     <row r="1648" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1648">
-        <v>1791</v>
+        <v>1800</v>
       </c>
       <c r="B1648" t="s">
-        <v>3633</v>
+        <v>3653</v>
       </c>
       <c r="C1648" t="s">
-        <v>3631</v>
-      </c>
-      <c r="D1648" t="s">
-        <v>405</v>
+        <v>3647</v>
+      </c>
+      <c r="D1648">
+        <v>68000</v>
       </c>
       <c r="E1648" t="s">
-        <v>14</v>
+        <v>976</v>
       </c>
       <c r="H1648" t="s">
-        <v>172</v>
+        <v>551</v>
+      </c>
+      <c r="I1648" t="s">
+        <v>2378</v>
       </c>
       <c r="M1648" t="s">
-        <v>3634</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="1649" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1649">
-        <v>1792</v>
+        <v>1801</v>
       </c>
       <c r="B1649" t="s">
-        <v>3635</v>
+        <v>3655</v>
       </c>
       <c r="C1649" t="s">
-        <v>3636</v>
-      </c>
-      <c r="D1649" t="s">
-        <v>14</v>
+        <v>3647</v>
+      </c>
+      <c r="D1649">
+        <v>68000</v>
       </c>
       <c r="E1649" t="s">
-        <v>154</v>
+        <v>976</v>
       </c>
       <c r="H1649" t="s">
-        <v>1282</v>
+        <v>551</v>
+      </c>
+      <c r="I1649" t="s">
+        <v>2378</v>
       </c>
       <c r="M1649" t="s">
-        <v>3637</v>
+        <v>3656</v>
       </c>
     </row>
     <row r="1650" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1650">
-        <v>1793</v>
+        <v>1802</v>
       </c>
       <c r="B1650" t="s">
-        <v>3638</v>
+        <v>3657</v>
       </c>
       <c r="C1650" t="s">
-        <v>3639</v>
+        <v>3647</v>
       </c>
       <c r="D1650">
         <v>68000</v>
       </c>
       <c r="E1650" t="s">
-        <v>970</v>
+        <v>976</v>
       </c>
       <c r="H1650" t="s">
-        <v>71</v>
+        <v>551</v>
       </c>
       <c r="I1650" t="s">
-        <v>3271</v>
+        <v>2378</v>
       </c>
       <c r="M1650" t="s">
-        <v>3640</v>
+        <v>3658</v>
       </c>
     </row>
     <row r="1651" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1651">
-        <v>1794</v>
+        <v>1803</v>
       </c>
       <c r="B1651" t="s">
-        <v>3641</v>
+        <v>3659</v>
       </c>
       <c r="C1651" t="s">
-        <v>3642</v>
+        <v>3647</v>
       </c>
       <c r="D1651">
         <v>68000</v>
       </c>
-      <c r="E1651">
-        <v>68000</v>
-      </c>
-      <c r="F1651">
-        <v>68000</v>
-      </c>
-      <c r="G1651" t="s">
+      <c r="E1651" t="s">
         <v>976</v>
       </c>
       <c r="H1651" t="s">
@@ -59055,29 +59289,23 @@
         <v>2378</v>
       </c>
       <c r="M1651" t="s">
-        <v>3643</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="1652" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1652">
-        <v>1795</v>
+        <v>1804</v>
       </c>
       <c r="B1652" t="s">
-        <v>3644</v>
+        <v>3661</v>
       </c>
       <c r="C1652" t="s">
-        <v>3642</v>
+        <v>3647</v>
       </c>
       <c r="D1652">
         <v>68000</v>
       </c>
-      <c r="E1652">
-        <v>68000</v>
-      </c>
-      <c r="F1652">
-        <v>68000</v>
-      </c>
-      <c r="G1652" t="s">
+      <c r="E1652" t="s">
         <v>976</v>
       </c>
       <c r="H1652" t="s">
@@ -59087,15 +59315,15 @@
         <v>2378</v>
       </c>
       <c r="M1652" t="s">
-        <v>3645</v>
+        <v>3662</v>
       </c>
     </row>
     <row r="1653" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1653">
-        <v>1796</v>
+        <v>1805</v>
       </c>
       <c r="B1653" t="s">
-        <v>3646</v>
+        <v>3663</v>
       </c>
       <c r="C1653" t="s">
         <v>3647</v>
@@ -59104,21 +59332,24 @@
         <v>68000</v>
       </c>
       <c r="E1653" t="s">
-        <v>154</v>
+        <v>976</v>
       </c>
       <c r="H1653" t="s">
-        <v>336</v>
+        <v>551</v>
+      </c>
+      <c r="I1653" t="s">
+        <v>2378</v>
       </c>
       <c r="M1653" t="s">
-        <v>3648</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="1654" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1654">
-        <v>1797</v>
+        <v>1806</v>
       </c>
       <c r="B1654" t="s">
-        <v>3649</v>
+        <v>3665</v>
       </c>
       <c r="C1654" t="s">
         <v>3647</v>
@@ -59127,21 +59358,24 @@
         <v>68000</v>
       </c>
       <c r="E1654" t="s">
-        <v>154</v>
+        <v>976</v>
       </c>
       <c r="H1654" t="s">
-        <v>336</v>
+        <v>551</v>
+      </c>
+      <c r="I1654" t="s">
+        <v>2378</v>
       </c>
       <c r="M1654" t="s">
-        <v>3650</v>
+        <v>3666</v>
       </c>
     </row>
     <row r="1655" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1655">
-        <v>1798</v>
+        <v>1807</v>
       </c>
       <c r="B1655" t="s">
-        <v>3651</v>
+        <v>3667</v>
       </c>
       <c r="C1655" t="s">
         <v>3647</v>
@@ -59159,15 +59393,15 @@
         <v>2378</v>
       </c>
       <c r="M1655" t="s">
-        <v>4486</v>
+        <v>3668</v>
       </c>
     </row>
     <row r="1656" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1656">
-        <v>1799</v>
+        <v>1808</v>
       </c>
       <c r="B1656" t="s">
-        <v>3652</v>
+        <v>3669</v>
       </c>
       <c r="C1656" t="s">
         <v>3647</v>
@@ -59185,15 +59419,15 @@
         <v>2378</v>
       </c>
       <c r="M1656" t="s">
-        <v>4487</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="1657" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1657">
-        <v>1800</v>
+        <v>1809</v>
       </c>
       <c r="B1657" t="s">
-        <v>3653</v>
+        <v>3671</v>
       </c>
       <c r="C1657" t="s">
         <v>3647</v>
@@ -59211,15 +59445,15 @@
         <v>2378</v>
       </c>
       <c r="M1657" t="s">
-        <v>3654</v>
+        <v>3672</v>
       </c>
     </row>
     <row r="1658" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1658">
-        <v>1801</v>
+        <v>1810</v>
       </c>
       <c r="B1658" t="s">
-        <v>3655</v>
+        <v>3673</v>
       </c>
       <c r="C1658" t="s">
         <v>3647</v>
@@ -59237,15 +59471,15 @@
         <v>2378</v>
       </c>
       <c r="M1658" t="s">
-        <v>3656</v>
+        <v>4488</v>
       </c>
     </row>
     <row r="1659" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1659">
-        <v>1802</v>
+        <v>1811</v>
       </c>
       <c r="B1659" t="s">
-        <v>3657</v>
+        <v>3674</v>
       </c>
       <c r="C1659" t="s">
         <v>3647</v>
@@ -59263,15 +59497,15 @@
         <v>2378</v>
       </c>
       <c r="M1659" t="s">
-        <v>3658</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="1660" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1660">
-        <v>1803</v>
+        <v>1812</v>
       </c>
       <c r="B1660" t="s">
-        <v>3659</v>
+        <v>3675</v>
       </c>
       <c r="C1660" t="s">
         <v>3647</v>
@@ -59289,15 +59523,15 @@
         <v>2378</v>
       </c>
       <c r="M1660" t="s">
-        <v>3660</v>
+        <v>3676</v>
       </c>
     </row>
     <row r="1661" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1661">
-        <v>1804</v>
+        <v>1813</v>
       </c>
       <c r="B1661" t="s">
-        <v>3661</v>
+        <v>3677</v>
       </c>
       <c r="C1661" t="s">
         <v>3647</v>
@@ -59315,15 +59549,15 @@
         <v>2378</v>
       </c>
       <c r="M1661" t="s">
-        <v>3662</v>
+        <v>3678</v>
       </c>
     </row>
     <row r="1662" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1662">
-        <v>1805</v>
+        <v>1814</v>
       </c>
       <c r="B1662" t="s">
-        <v>3663</v>
+        <v>3679</v>
       </c>
       <c r="C1662" t="s">
         <v>3647</v>
@@ -59341,15 +59575,15 @@
         <v>2378</v>
       </c>
       <c r="M1662" t="s">
-        <v>3664</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="1663" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1663">
-        <v>1806</v>
+        <v>1815</v>
       </c>
       <c r="B1663" t="s">
-        <v>3665</v>
+        <v>3681</v>
       </c>
       <c r="C1663" t="s">
         <v>3647</v>
@@ -59367,15 +59601,15 @@
         <v>2378</v>
       </c>
       <c r="M1663" t="s">
-        <v>3666</v>
+        <v>3682</v>
       </c>
     </row>
     <row r="1664" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1664">
-        <v>1807</v>
+        <v>1816</v>
       </c>
       <c r="B1664" t="s">
-        <v>3667</v>
+        <v>3683</v>
       </c>
       <c r="C1664" t="s">
         <v>3647</v>
@@ -59393,15 +59627,15 @@
         <v>2378</v>
       </c>
       <c r="M1664" t="s">
-        <v>3668</v>
+        <v>3684</v>
       </c>
     </row>
     <row r="1665" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1665">
-        <v>1808</v>
+        <v>1817</v>
       </c>
       <c r="B1665" t="s">
-        <v>3669</v>
+        <v>3685</v>
       </c>
       <c r="C1665" t="s">
         <v>3647</v>
@@ -59419,15 +59653,15 @@
         <v>2378</v>
       </c>
       <c r="M1665" t="s">
-        <v>3670</v>
+        <v>3686</v>
       </c>
     </row>
     <row r="1666" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1666">
-        <v>1809</v>
+        <v>1818</v>
       </c>
       <c r="B1666" t="s">
-        <v>3671</v>
+        <v>3687</v>
       </c>
       <c r="C1666" t="s">
         <v>3647</v>
@@ -59435,25 +59669,19 @@
       <c r="D1666">
         <v>68000</v>
       </c>
-      <c r="E1666" t="s">
-        <v>976</v>
-      </c>
       <c r="H1666" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1666" t="s">
-        <v>2378</v>
+        <v>1495</v>
       </c>
       <c r="M1666" t="s">
-        <v>3672</v>
+        <v>3688</v>
       </c>
     </row>
     <row r="1667" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1667">
-        <v>1810</v>
+        <v>1819</v>
       </c>
       <c r="B1667" t="s">
-        <v>3673</v>
+        <v>3689</v>
       </c>
       <c r="C1667" t="s">
         <v>3647</v>
@@ -59471,453 +59699,423 @@
         <v>2378</v>
       </c>
       <c r="M1667" t="s">
-        <v>4488</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="1668" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1668">
-        <v>1811</v>
+        <v>1820</v>
       </c>
       <c r="B1668" t="s">
-        <v>3674</v>
+        <v>3691</v>
       </c>
       <c r="C1668" t="s">
-        <v>3647</v>
+        <v>3692</v>
       </c>
       <c r="D1668">
         <v>68000</v>
       </c>
       <c r="E1668" t="s">
-        <v>976</v>
+        <v>154</v>
       </c>
       <c r="H1668" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1668" t="s">
-        <v>2378</v>
+        <v>1356</v>
       </c>
       <c r="M1668" t="s">
-        <v>4489</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="1669" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1669">
-        <v>1812</v>
+        <v>1821</v>
       </c>
       <c r="B1669" t="s">
-        <v>3675</v>
+        <v>3694</v>
       </c>
       <c r="C1669" t="s">
-        <v>3647</v>
+        <v>3692</v>
       </c>
       <c r="D1669">
         <v>68000</v>
       </c>
       <c r="E1669" t="s">
-        <v>976</v>
+        <v>154</v>
       </c>
       <c r="H1669" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1669" t="s">
-        <v>2378</v>
+        <v>1356</v>
       </c>
       <c r="M1669" t="s">
-        <v>3676</v>
+        <v>3695</v>
       </c>
     </row>
     <row r="1670" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1670">
-        <v>1813</v>
+        <v>1822</v>
       </c>
       <c r="B1670" t="s">
-        <v>3677</v>
+        <v>3696</v>
       </c>
       <c r="C1670" t="s">
-        <v>3647</v>
+        <v>3692</v>
       </c>
       <c r="D1670">
         <v>68000</v>
       </c>
       <c r="E1670" t="s">
-        <v>976</v>
+        <v>154</v>
       </c>
       <c r="H1670" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1670" t="s">
-        <v>2378</v>
+        <v>1356</v>
       </c>
       <c r="M1670" t="s">
-        <v>3678</v>
+        <v>3697</v>
       </c>
     </row>
     <row r="1671" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1671">
-        <v>1814</v>
+        <v>1823</v>
       </c>
       <c r="B1671" t="s">
-        <v>3679</v>
+        <v>3698</v>
       </c>
       <c r="C1671" t="s">
-        <v>3647</v>
+        <v>3692</v>
       </c>
       <c r="D1671">
         <v>68000</v>
       </c>
       <c r="E1671" t="s">
-        <v>976</v>
+        <v>154</v>
       </c>
       <c r="H1671" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1671" t="s">
-        <v>2378</v>
+        <v>1356</v>
       </c>
       <c r="M1671" t="s">
-        <v>3680</v>
+        <v>3699</v>
       </c>
     </row>
     <row r="1672" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1672">
-        <v>1815</v>
+        <v>1824</v>
       </c>
       <c r="B1672" t="s">
-        <v>3681</v>
+        <v>3700</v>
       </c>
       <c r="C1672" t="s">
-        <v>3647</v>
+        <v>3692</v>
       </c>
       <c r="D1672">
         <v>68000</v>
       </c>
       <c r="E1672" t="s">
-        <v>976</v>
+        <v>154</v>
       </c>
       <c r="H1672" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1672" t="s">
-        <v>2378</v>
+        <v>1356</v>
       </c>
       <c r="M1672" t="s">
-        <v>3682</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="1673" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1673">
-        <v>1816</v>
+        <v>1825</v>
       </c>
       <c r="B1673" t="s">
-        <v>3683</v>
+        <v>3701</v>
       </c>
       <c r="C1673" t="s">
-        <v>3647</v>
+        <v>3692</v>
       </c>
       <c r="D1673">
         <v>68000</v>
       </c>
       <c r="E1673" t="s">
-        <v>976</v>
+        <v>154</v>
       </c>
       <c r="H1673" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1673" t="s">
-        <v>2378</v>
+        <v>1356</v>
       </c>
       <c r="M1673" t="s">
-        <v>3684</v>
+        <v>4491</v>
       </c>
     </row>
     <row r="1674" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1674">
-        <v>1817</v>
+        <v>1836</v>
       </c>
       <c r="B1674" t="s">
-        <v>3685</v>
+        <v>3724</v>
       </c>
       <c r="C1674" t="s">
-        <v>3647</v>
-      </c>
-      <c r="D1674">
-        <v>68000</v>
+        <v>3725</v>
+      </c>
+      <c r="D1674" t="s">
+        <v>14</v>
       </c>
       <c r="E1674" t="s">
-        <v>976</v>
+        <v>14</v>
       </c>
       <c r="H1674" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1674" t="s">
-        <v>2378</v>
+        <v>71</v>
       </c>
       <c r="M1674" t="s">
-        <v>3686</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="1675" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1675">
-        <v>1818</v>
+        <v>1837</v>
       </c>
       <c r="B1675" t="s">
-        <v>3687</v>
+        <v>3727</v>
       </c>
       <c r="C1675" t="s">
-        <v>3647</v>
-      </c>
-      <c r="D1675">
-        <v>68000</v>
+        <v>3725</v>
+      </c>
+      <c r="D1675" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1675" t="s">
+        <v>14</v>
       </c>
       <c r="H1675" t="s">
-        <v>1495</v>
+        <v>71</v>
       </c>
       <c r="M1675" t="s">
-        <v>3688</v>
+        <v>3728</v>
       </c>
     </row>
     <row r="1676" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1676">
-        <v>1819</v>
+        <v>1838</v>
       </c>
       <c r="B1676" t="s">
-        <v>3689</v>
+        <v>3729</v>
       </c>
       <c r="C1676" t="s">
-        <v>3647</v>
-      </c>
-      <c r="D1676">
-        <v>68000</v>
+        <v>3725</v>
+      </c>
+      <c r="D1676" t="s">
+        <v>14</v>
       </c>
       <c r="E1676" t="s">
-        <v>976</v>
+        <v>14</v>
       </c>
       <c r="H1676" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1676" t="s">
-        <v>2378</v>
+        <v>71</v>
       </c>
       <c r="M1676" t="s">
-        <v>3690</v>
+        <v>3730</v>
       </c>
     </row>
     <row r="1677" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1677">
-        <v>1820</v>
+        <v>1839</v>
       </c>
       <c r="B1677" t="s">
-        <v>3691</v>
+        <v>3731</v>
       </c>
       <c r="C1677" t="s">
-        <v>3692</v>
-      </c>
-      <c r="D1677">
-        <v>68000</v>
+        <v>3725</v>
+      </c>
+      <c r="D1677" t="s">
+        <v>14</v>
       </c>
       <c r="E1677" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="H1677" t="s">
-        <v>1356</v>
+        <v>71</v>
       </c>
       <c r="M1677" t="s">
-        <v>3693</v>
+        <v>3732</v>
       </c>
     </row>
     <row r="1678" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1678">
-        <v>1821</v>
+        <v>1842</v>
       </c>
       <c r="B1678" t="s">
-        <v>3694</v>
+        <v>3738</v>
       </c>
       <c r="C1678" t="s">
-        <v>3692</v>
-      </c>
-      <c r="D1678">
-        <v>68000</v>
+        <v>3739</v>
+      </c>
+      <c r="D1678" t="s">
+        <v>14</v>
       </c>
       <c r="E1678" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="H1678" t="s">
-        <v>1356</v>
+        <v>71</v>
       </c>
       <c r="M1678" t="s">
-        <v>3695</v>
+        <v>3740</v>
       </c>
     </row>
     <row r="1679" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1679">
-        <v>1822</v>
+        <v>1843</v>
       </c>
       <c r="B1679" t="s">
-        <v>3696</v>
+        <v>3741</v>
       </c>
       <c r="C1679" t="s">
-        <v>3692</v>
-      </c>
-      <c r="D1679">
-        <v>68000</v>
+        <v>3739</v>
+      </c>
+      <c r="D1679" t="s">
+        <v>14</v>
       </c>
       <c r="E1679" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="H1679" t="s">
-        <v>1356</v>
+        <v>71</v>
       </c>
       <c r="M1679" t="s">
-        <v>3697</v>
+        <v>3742</v>
       </c>
     </row>
     <row r="1680" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1680">
-        <v>1823</v>
+        <v>1844</v>
       </c>
       <c r="B1680" t="s">
-        <v>3698</v>
+        <v>3743</v>
       </c>
       <c r="C1680" t="s">
-        <v>3692</v>
+        <v>3744</v>
       </c>
       <c r="D1680">
         <v>68000</v>
       </c>
       <c r="E1680" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="H1680" t="s">
-        <v>1356</v>
+        <v>349</v>
       </c>
       <c r="M1680" t="s">
-        <v>3699</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="1681" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1681">
-        <v>1824</v>
+        <v>1845</v>
       </c>
       <c r="B1681" t="s">
-        <v>3700</v>
+        <v>3746</v>
       </c>
       <c r="C1681" t="s">
-        <v>3692</v>
+        <v>3747</v>
       </c>
       <c r="D1681">
         <v>68000</v>
       </c>
-      <c r="E1681" t="s">
-        <v>154</v>
-      </c>
       <c r="H1681" t="s">
-        <v>1356</v>
+        <v>172</v>
+      </c>
+      <c r="I1681" t="s">
+        <v>1495</v>
       </c>
       <c r="M1681" t="s">
-        <v>4490</v>
+        <v>3748</v>
       </c>
     </row>
     <row r="1682" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1682">
-        <v>1825</v>
+        <v>1846</v>
       </c>
       <c r="B1682" t="s">
-        <v>3701</v>
+        <v>3749</v>
       </c>
       <c r="C1682" t="s">
-        <v>3692</v>
+        <v>3747</v>
       </c>
       <c r="D1682">
         <v>68000</v>
       </c>
-      <c r="E1682" t="s">
-        <v>154</v>
-      </c>
       <c r="H1682" t="s">
-        <v>1356</v>
+        <v>172</v>
+      </c>
+      <c r="I1682" t="s">
+        <v>1495</v>
       </c>
       <c r="M1682" t="s">
-        <v>4491</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="1683" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1683">
-        <v>1836</v>
+        <v>1847</v>
       </c>
       <c r="B1683" t="s">
-        <v>3724</v>
+        <v>3751</v>
       </c>
       <c r="C1683" t="s">
-        <v>3725</v>
-      </c>
-      <c r="D1683" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1683" t="s">
-        <v>14</v>
+        <v>3747</v>
+      </c>
+      <c r="D1683">
+        <v>68000</v>
       </c>
       <c r="H1683" t="s">
-        <v>71</v>
+        <v>2378</v>
       </c>
       <c r="M1683" t="s">
-        <v>3726</v>
+        <v>3752</v>
       </c>
     </row>
     <row r="1684" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1684">
-        <v>1837</v>
+        <v>1848</v>
       </c>
       <c r="B1684" t="s">
-        <v>3727</v>
+        <v>3753</v>
       </c>
       <c r="C1684" t="s">
-        <v>3725</v>
-      </c>
-      <c r="D1684" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1684" t="s">
-        <v>14</v>
+        <v>3747</v>
+      </c>
+      <c r="D1684">
+        <v>68000</v>
       </c>
       <c r="H1684" t="s">
-        <v>71</v>
+        <v>2378</v>
       </c>
       <c r="M1684" t="s">
-        <v>3728</v>
+        <v>4492</v>
       </c>
     </row>
     <row r="1685" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1685">
-        <v>1838</v>
+        <v>1849</v>
       </c>
       <c r="B1685" t="s">
-        <v>3729</v>
+        <v>3754</v>
       </c>
       <c r="C1685" t="s">
-        <v>3725</v>
-      </c>
-      <c r="D1685" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1685" t="s">
-        <v>14</v>
+        <v>3755</v>
+      </c>
+      <c r="D1685">
+        <v>68000</v>
       </c>
       <c r="H1685" t="s">
-        <v>71</v>
+        <v>1495</v>
       </c>
       <c r="M1685" t="s">
-        <v>3730</v>
+        <v>3756</v>
       </c>
     </row>
     <row r="1686" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1686">
-        <v>1839</v>
+        <v>1850</v>
       </c>
       <c r="B1686" t="s">
-        <v>3731</v>
+        <v>3757</v>
       </c>
       <c r="C1686" t="s">
-        <v>3725</v>
+        <v>3758</v>
       </c>
       <c r="D1686" t="s">
         <v>14</v>
@@ -59925,679 +60123,736 @@
       <c r="E1686" t="s">
         <v>14</v>
       </c>
+      <c r="F1686" t="s">
+        <v>14</v>
+      </c>
       <c r="H1686" t="s">
-        <v>71</v>
+        <v>336</v>
+      </c>
+      <c r="I1686" t="s">
+        <v>1495</v>
       </c>
       <c r="M1686" t="s">
-        <v>3732</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="1687" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1687">
-        <v>1842</v>
+        <v>1851</v>
       </c>
       <c r="B1687" t="s">
-        <v>3738</v>
+        <v>3760</v>
       </c>
       <c r="C1687" t="s">
-        <v>3739</v>
+        <v>3761</v>
       </c>
       <c r="D1687" t="s">
         <v>14</v>
       </c>
       <c r="E1687" t="s">
-        <v>14</v>
+        <v>728</v>
       </c>
       <c r="H1687" t="s">
-        <v>71</v>
+        <v>166</v>
       </c>
       <c r="M1687" t="s">
-        <v>3740</v>
+        <v>4493</v>
       </c>
     </row>
     <row r="1688" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1688">
-        <v>1843</v>
+        <v>1852</v>
       </c>
       <c r="B1688" t="s">
-        <v>3741</v>
+        <v>3762</v>
       </c>
       <c r="C1688" t="s">
-        <v>3739</v>
+        <v>3761</v>
       </c>
       <c r="D1688" t="s">
         <v>14</v>
       </c>
       <c r="E1688" t="s">
-        <v>14</v>
+        <v>728</v>
       </c>
       <c r="H1688" t="s">
-        <v>71</v>
+        <v>166</v>
       </c>
       <c r="M1688" t="s">
-        <v>3742</v>
+        <v>3763</v>
       </c>
     </row>
     <row r="1689" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1689">
-        <v>1844</v>
+        <v>1853</v>
       </c>
       <c r="B1689" t="s">
-        <v>3743</v>
+        <v>3764</v>
       </c>
       <c r="C1689" t="s">
-        <v>3744</v>
-      </c>
-      <c r="D1689">
-        <v>68000</v>
+        <v>3761</v>
+      </c>
+      <c r="D1689" t="s">
+        <v>14</v>
       </c>
       <c r="E1689" t="s">
-        <v>14</v>
+        <v>728</v>
       </c>
       <c r="H1689" t="s">
-        <v>349</v>
+        <v>166</v>
       </c>
       <c r="M1689" t="s">
-        <v>3745</v>
+        <v>3765</v>
       </c>
     </row>
     <row r="1690" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1690">
-        <v>1845</v>
+        <v>1854</v>
       </c>
       <c r="B1690" t="s">
-        <v>3746</v>
+        <v>3766</v>
       </c>
       <c r="C1690" t="s">
-        <v>3747</v>
-      </c>
-      <c r="D1690">
-        <v>68000</v>
+        <v>3761</v>
+      </c>
+      <c r="D1690" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1690" t="s">
+        <v>728</v>
       </c>
       <c r="H1690" t="s">
-        <v>172</v>
-      </c>
-      <c r="I1690" t="s">
-        <v>1495</v>
+        <v>166</v>
       </c>
       <c r="M1690" t="s">
-        <v>3748</v>
+        <v>3767</v>
       </c>
     </row>
     <row r="1691" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1691">
-        <v>1846</v>
+        <v>1855</v>
       </c>
       <c r="B1691" t="s">
-        <v>3749</v>
+        <v>3768</v>
       </c>
       <c r="C1691" t="s">
-        <v>3747</v>
-      </c>
-      <c r="D1691">
-        <v>68000</v>
+        <v>3761</v>
+      </c>
+      <c r="D1691" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1691" t="s">
+        <v>728</v>
       </c>
       <c r="H1691" t="s">
-        <v>172</v>
-      </c>
-      <c r="I1691" t="s">
-        <v>1495</v>
+        <v>166</v>
       </c>
       <c r="M1691" t="s">
-        <v>3750</v>
+        <v>3769</v>
       </c>
     </row>
     <row r="1692" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1692">
-        <v>1847</v>
+        <v>1856</v>
       </c>
       <c r="B1692" t="s">
-        <v>3751</v>
+        <v>3777</v>
       </c>
       <c r="C1692" t="s">
-        <v>3747</v>
-      </c>
-      <c r="D1692">
-        <v>68000</v>
+        <v>3778</v>
+      </c>
+      <c r="D1692" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1692" t="s">
+        <v>154</v>
       </c>
       <c r="H1692" t="s">
-        <v>2378</v>
+        <v>172</v>
       </c>
       <c r="M1692" t="s">
-        <v>3752</v>
+        <v>3779</v>
       </c>
     </row>
     <row r="1693" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1693">
-        <v>1848</v>
+        <v>1857</v>
       </c>
       <c r="B1693" t="s">
-        <v>3753</v>
+        <v>3780</v>
       </c>
       <c r="C1693" t="s">
-        <v>3747</v>
-      </c>
-      <c r="D1693">
-        <v>68000</v>
+        <v>3781</v>
+      </c>
+      <c r="D1693" t="s">
+        <v>14</v>
       </c>
       <c r="H1693" t="s">
-        <v>2378</v>
+        <v>172</v>
       </c>
       <c r="M1693" t="s">
-        <v>4492</v>
+        <v>3782</v>
       </c>
     </row>
     <row r="1694" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1694">
-        <v>1849</v>
+        <v>1858</v>
       </c>
       <c r="B1694" t="s">
-        <v>3754</v>
+        <v>3783</v>
       </c>
       <c r="C1694" t="s">
-        <v>3755</v>
-      </c>
-      <c r="D1694">
-        <v>68000</v>
+        <v>3781</v>
+      </c>
+      <c r="D1694" t="s">
+        <v>14</v>
       </c>
       <c r="H1694" t="s">
-        <v>1495</v>
+        <v>172</v>
       </c>
       <c r="M1694" t="s">
-        <v>3756</v>
+        <v>3784</v>
       </c>
     </row>
     <row r="1695" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1695">
-        <v>1850</v>
+        <v>1859</v>
       </c>
       <c r="B1695" t="s">
-        <v>3757</v>
+        <v>3785</v>
       </c>
       <c r="C1695" t="s">
-        <v>3758</v>
+        <v>3786</v>
       </c>
       <c r="D1695" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1695" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1695" t="s">
         <v>14</v>
       </c>
       <c r="H1695" t="s">
         <v>336</v>
       </c>
-      <c r="I1695" t="s">
-        <v>1495</v>
-      </c>
       <c r="M1695" t="s">
-        <v>3759</v>
+        <v>3787</v>
       </c>
     </row>
     <row r="1696" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1696">
-        <v>1851</v>
+        <v>1860</v>
       </c>
       <c r="B1696" t="s">
-        <v>3760</v>
+        <v>3788</v>
       </c>
       <c r="C1696" t="s">
-        <v>3761</v>
+        <v>3786</v>
       </c>
       <c r="D1696" t="s">
         <v>14</v>
       </c>
-      <c r="E1696" t="s">
-        <v>728</v>
-      </c>
       <c r="H1696" t="s">
-        <v>166</v>
+        <v>336</v>
       </c>
       <c r="M1696" t="s">
-        <v>4493</v>
+        <v>3789</v>
       </c>
     </row>
     <row r="1697" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1697">
-        <v>1852</v>
+        <v>1861</v>
       </c>
       <c r="B1697" t="s">
-        <v>3762</v>
+        <v>3790</v>
       </c>
       <c r="C1697" t="s">
-        <v>3761</v>
+        <v>3786</v>
       </c>
       <c r="D1697" t="s">
         <v>14</v>
       </c>
-      <c r="E1697" t="s">
-        <v>728</v>
-      </c>
       <c r="H1697" t="s">
-        <v>166</v>
+        <v>336</v>
       </c>
       <c r="M1697" t="s">
-        <v>3763</v>
+        <v>3791</v>
       </c>
     </row>
     <row r="1698" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1698">
-        <v>1853</v>
+        <v>1862</v>
       </c>
       <c r="B1698" t="s">
-        <v>3764</v>
+        <v>3792</v>
       </c>
       <c r="C1698" t="s">
-        <v>3761</v>
+        <v>3786</v>
       </c>
       <c r="D1698" t="s">
         <v>14</v>
       </c>
-      <c r="E1698" t="s">
-        <v>728</v>
-      </c>
       <c r="H1698" t="s">
-        <v>166</v>
+        <v>336</v>
       </c>
       <c r="M1698" t="s">
-        <v>3765</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="1699" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1699">
-        <v>1854</v>
+        <v>1863</v>
       </c>
       <c r="B1699" t="s">
-        <v>3766</v>
+        <v>3794</v>
       </c>
       <c r="C1699" t="s">
-        <v>3761</v>
+        <v>3795</v>
       </c>
       <c r="D1699" t="s">
-        <v>14</v>
+        <v>405</v>
       </c>
       <c r="E1699" t="s">
-        <v>728</v>
+        <v>1187</v>
       </c>
       <c r="H1699" t="s">
-        <v>166</v>
+        <v>71</v>
       </c>
       <c r="M1699" t="s">
-        <v>3767</v>
+        <v>3796</v>
       </c>
     </row>
     <row r="1700" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1700">
-        <v>1855</v>
+        <v>1864</v>
       </c>
       <c r="B1700" t="s">
-        <v>3768</v>
+        <v>3797</v>
       </c>
       <c r="C1700" t="s">
-        <v>3761</v>
+        <v>3795</v>
       </c>
       <c r="D1700" t="s">
-        <v>14</v>
+        <v>405</v>
       </c>
       <c r="E1700" t="s">
-        <v>728</v>
+        <v>1187</v>
       </c>
       <c r="H1700" t="s">
-        <v>166</v>
+        <v>71</v>
       </c>
       <c r="M1700" t="s">
-        <v>3769</v>
+        <v>3798</v>
       </c>
     </row>
     <row r="1701" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1701">
-        <v>1856</v>
+        <v>1866</v>
       </c>
       <c r="B1701" t="s">
-        <v>3777</v>
+        <v>3802</v>
       </c>
       <c r="C1701" t="s">
-        <v>3778</v>
+        <v>3803</v>
       </c>
       <c r="D1701" t="s">
-        <v>14</v>
+        <v>405</v>
       </c>
       <c r="E1701" t="s">
-        <v>154</v>
+        <v>1187</v>
+      </c>
+      <c r="F1701" t="s">
+        <v>3804</v>
       </c>
       <c r="H1701" t="s">
-        <v>172</v>
+        <v>71</v>
       </c>
       <c r="M1701" t="s">
-        <v>3779</v>
+        <v>3805</v>
       </c>
     </row>
     <row r="1702" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1702">
-        <v>1857</v>
+        <v>1867</v>
       </c>
       <c r="B1702" t="s">
-        <v>3780</v>
+        <v>3806</v>
       </c>
       <c r="C1702" t="s">
-        <v>3781</v>
+        <v>3807</v>
       </c>
       <c r="D1702" t="s">
-        <v>14</v>
+        <v>473</v>
       </c>
       <c r="H1702" t="s">
-        <v>172</v>
+        <v>2939</v>
       </c>
       <c r="M1702" t="s">
-        <v>3782</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="1703" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1703">
-        <v>1858</v>
+        <v>1868</v>
       </c>
       <c r="B1703" t="s">
-        <v>3783</v>
+        <v>3809</v>
       </c>
       <c r="C1703" t="s">
-        <v>3781</v>
+        <v>3810</v>
       </c>
       <c r="D1703" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1703" t="s">
-        <v>172</v>
+        <v>473</v>
       </c>
       <c r="M1703" t="s">
-        <v>3784</v>
+        <v>3811</v>
       </c>
     </row>
     <row r="1704" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1704">
-        <v>1859</v>
+        <v>1869</v>
       </c>
       <c r="B1704" t="s">
-        <v>3785</v>
+        <v>3812</v>
       </c>
       <c r="C1704" t="s">
-        <v>3786</v>
+        <v>3810</v>
       </c>
       <c r="D1704" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1704" t="s">
-        <v>336</v>
+        <v>473</v>
       </c>
       <c r="M1704" t="s">
-        <v>3787</v>
+        <v>3813</v>
       </c>
     </row>
     <row r="1705" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1705">
-        <v>1860</v>
+        <v>1870</v>
       </c>
       <c r="B1705" t="s">
-        <v>3788</v>
+        <v>3814</v>
       </c>
       <c r="C1705" t="s">
-        <v>3786</v>
-      </c>
-      <c r="D1705" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1705" t="s">
-        <v>336</v>
+        <v>3815</v>
+      </c>
+      <c r="D1705">
+        <v>8080</v>
       </c>
       <c r="M1705" t="s">
-        <v>3789</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="1706" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1706">
-        <v>1861</v>
+        <v>1871</v>
       </c>
       <c r="B1706" t="s">
-        <v>3790</v>
+        <v>3817</v>
       </c>
       <c r="C1706" t="s">
-        <v>3786</v>
+        <v>3818</v>
       </c>
       <c r="D1706" t="s">
-        <v>14</v>
+        <v>3439</v>
+      </c>
+      <c r="E1706" t="s">
+        <v>3439</v>
+      </c>
+      <c r="F1706" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G1706" t="s">
+        <v>1187</v>
       </c>
       <c r="H1706" t="s">
-        <v>336</v>
+        <v>333</v>
+      </c>
+      <c r="I1706" t="s">
+        <v>551</v>
       </c>
       <c r="M1706" t="s">
-        <v>3791</v>
+        <v>3819</v>
       </c>
     </row>
     <row r="1707" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1707">
-        <v>1862</v>
+        <v>1872</v>
       </c>
       <c r="B1707" t="s">
-        <v>3792</v>
+        <v>3820</v>
       </c>
       <c r="C1707" t="s">
-        <v>3786</v>
+        <v>3821</v>
       </c>
       <c r="D1707" t="s">
         <v>14</v>
       </c>
       <c r="H1707" t="s">
-        <v>336</v>
+        <v>172</v>
       </c>
       <c r="M1707" t="s">
-        <v>3793</v>
+        <v>3822</v>
       </c>
     </row>
     <row r="1708" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1708">
-        <v>1863</v>
+        <v>1873</v>
       </c>
       <c r="B1708" t="s">
-        <v>3794</v>
+        <v>3823</v>
       </c>
       <c r="C1708" t="s">
-        <v>3795</v>
+        <v>3824</v>
       </c>
       <c r="D1708" t="s">
-        <v>405</v>
+        <v>14</v>
       </c>
       <c r="E1708" t="s">
-        <v>1187</v>
+        <v>14</v>
+      </c>
+      <c r="F1708" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1708" t="s">
+        <v>154</v>
       </c>
       <c r="H1708" t="s">
         <v>71</v>
       </c>
+      <c r="I1708" t="s">
+        <v>166</v>
+      </c>
       <c r="M1708" t="s">
-        <v>3796</v>
+        <v>3825</v>
       </c>
     </row>
     <row r="1709" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1709">
-        <v>1864</v>
+        <v>1874</v>
       </c>
       <c r="B1709" t="s">
-        <v>3797</v>
+        <v>3826</v>
       </c>
       <c r="C1709" t="s">
-        <v>3795</v>
+        <v>3824</v>
       </c>
       <c r="D1709" t="s">
-        <v>405</v>
+        <v>14</v>
       </c>
       <c r="E1709" t="s">
-        <v>1187</v>
+        <v>14</v>
+      </c>
+      <c r="F1709" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1709" t="s">
+        <v>154</v>
       </c>
       <c r="H1709" t="s">
         <v>71</v>
       </c>
+      <c r="I1709" t="s">
+        <v>166</v>
+      </c>
       <c r="M1709" t="s">
-        <v>3798</v>
+        <v>3827</v>
       </c>
     </row>
     <row r="1710" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1710">
-        <v>1866</v>
+        <v>1875</v>
       </c>
       <c r="B1710" t="s">
-        <v>3802</v>
+        <v>3828</v>
       </c>
       <c r="C1710" t="s">
-        <v>3803</v>
+        <v>3824</v>
       </c>
       <c r="D1710" t="s">
-        <v>405</v>
+        <v>14</v>
       </c>
       <c r="E1710" t="s">
-        <v>1187</v>
+        <v>14</v>
       </c>
       <c r="F1710" t="s">
-        <v>3804</v>
+        <v>14</v>
+      </c>
+      <c r="G1710" t="s">
+        <v>154</v>
       </c>
       <c r="H1710" t="s">
         <v>71</v>
       </c>
+      <c r="I1710" t="s">
+        <v>166</v>
+      </c>
       <c r="M1710" t="s">
-        <v>3805</v>
+        <v>3829</v>
       </c>
     </row>
     <row r="1711" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1711">
-        <v>1867</v>
+        <v>1876</v>
       </c>
       <c r="B1711" t="s">
-        <v>3806</v>
+        <v>3830</v>
       </c>
       <c r="C1711" t="s">
-        <v>3807</v>
+        <v>3824</v>
       </c>
       <c r="D1711" t="s">
-        <v>473</v>
+        <v>14</v>
+      </c>
+      <c r="E1711" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1711" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1711" t="s">
+        <v>154</v>
       </c>
       <c r="H1711" t="s">
-        <v>2939</v>
+        <v>71</v>
+      </c>
+      <c r="I1711" t="s">
+        <v>166</v>
       </c>
       <c r="M1711" t="s">
-        <v>3808</v>
+        <v>3831</v>
       </c>
     </row>
     <row r="1712" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1712">
-        <v>1868</v>
+        <v>1877</v>
       </c>
       <c r="B1712" t="s">
-        <v>3809</v>
+        <v>3832</v>
       </c>
       <c r="C1712" t="s">
-        <v>3810</v>
-      </c>
-      <c r="D1712" t="s">
-        <v>473</v>
+        <v>3833</v>
+      </c>
+      <c r="D1712">
+        <v>68000</v>
+      </c>
+      <c r="E1712" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1712" t="s">
+        <v>1495</v>
       </c>
       <c r="M1712" t="s">
-        <v>3811</v>
+        <v>3834</v>
       </c>
     </row>
     <row r="1713" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1713">
-        <v>1869</v>
+        <v>1878</v>
       </c>
       <c r="B1713" t="s">
-        <v>3812</v>
+        <v>3835</v>
       </c>
       <c r="C1713" t="s">
-        <v>3810</v>
+        <v>3836</v>
       </c>
       <c r="D1713" t="s">
-        <v>473</v>
+        <v>14</v>
+      </c>
+      <c r="E1713" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1713" t="s">
+        <v>1239</v>
+      </c>
+      <c r="I1713" t="s">
+        <v>333</v>
       </c>
       <c r="M1713" t="s">
-        <v>3813</v>
+        <v>3837</v>
       </c>
     </row>
     <row r="1714" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1714">
-        <v>1870</v>
+        <v>1879</v>
       </c>
       <c r="B1714" t="s">
-        <v>3814</v>
+        <v>3838</v>
       </c>
       <c r="C1714" t="s">
-        <v>3815</v>
-      </c>
-      <c r="D1714">
-        <v>8080</v>
+        <v>3836</v>
+      </c>
+      <c r="D1714" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1714" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1714" t="s">
+        <v>1239</v>
+      </c>
+      <c r="I1714" t="s">
+        <v>333</v>
       </c>
       <c r="M1714" t="s">
-        <v>3816</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="1715" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1715">
-        <v>1871</v>
+        <v>1880</v>
       </c>
       <c r="B1715" t="s">
-        <v>3817</v>
+        <v>3839</v>
       </c>
       <c r="C1715" t="s">
-        <v>3818</v>
+        <v>3836</v>
       </c>
       <c r="D1715" t="s">
-        <v>3439</v>
+        <v>14</v>
       </c>
       <c r="E1715" t="s">
-        <v>3439</v>
-      </c>
-      <c r="F1715" t="s">
-        <v>1187</v>
-      </c>
-      <c r="G1715" t="s">
-        <v>1187</v>
+        <v>14</v>
       </c>
       <c r="H1715" t="s">
-        <v>333</v>
+        <v>71</v>
       </c>
       <c r="I1715" t="s">
-        <v>551</v>
+        <v>166</v>
       </c>
       <c r="M1715" t="s">
-        <v>3819</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="1716" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1716">
-        <v>1872</v>
+        <v>1881</v>
       </c>
       <c r="B1716" t="s">
-        <v>3820</v>
+        <v>3840</v>
       </c>
       <c r="C1716" t="s">
-        <v>3821</v>
+        <v>3836</v>
       </c>
       <c r="D1716" t="s">
         <v>14</v>
       </c>
+      <c r="E1716" t="s">
+        <v>14</v>
+      </c>
       <c r="H1716" t="s">
-        <v>172</v>
+        <v>1239</v>
+      </c>
+      <c r="I1716" t="s">
+        <v>333</v>
       </c>
       <c r="M1716" t="s">
-        <v>3822</v>
+        <v>3841</v>
       </c>
     </row>
     <row r="1717" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1717">
-        <v>1873</v>
+        <v>1882</v>
       </c>
       <c r="B1717" t="s">
-        <v>3823</v>
+        <v>3842</v>
       </c>
       <c r="C1717" t="s">
-        <v>3824</v>
+        <v>3843</v>
       </c>
       <c r="D1717" t="s">
         <v>14</v>
@@ -60605,449 +60860,392 @@
       <c r="E1717" t="s">
         <v>14</v>
       </c>
-      <c r="F1717" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1717" t="s">
-        <v>154</v>
-      </c>
       <c r="H1717" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1717" t="s">
-        <v>166</v>
+        <v>349</v>
       </c>
       <c r="M1717" t="s">
-        <v>3825</v>
+        <v>3844</v>
       </c>
     </row>
     <row r="1718" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1718">
-        <v>1874</v>
+        <v>1883</v>
       </c>
       <c r="B1718" t="s">
-        <v>3826</v>
+        <v>3845</v>
       </c>
       <c r="C1718" t="s">
-        <v>3824</v>
+        <v>3846</v>
       </c>
       <c r="D1718" t="s">
         <v>14</v>
       </c>
       <c r="E1718" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1718" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1718" t="s">
         <v>154</v>
       </c>
       <c r="H1718" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1718" t="s">
-        <v>166</v>
+        <v>349</v>
       </c>
       <c r="M1718" t="s">
-        <v>3827</v>
+        <v>3847</v>
       </c>
     </row>
     <row r="1719" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1719">
-        <v>1875</v>
+        <v>1884</v>
       </c>
       <c r="B1719" t="s">
-        <v>3828</v>
+        <v>3848</v>
       </c>
       <c r="C1719" t="s">
-        <v>3824</v>
+        <v>3849</v>
       </c>
       <c r="D1719" t="s">
         <v>14</v>
       </c>
-      <c r="E1719" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1719" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1719" t="s">
-        <v>154</v>
-      </c>
       <c r="H1719" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1719" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M1719" t="s">
-        <v>3829</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="1720" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1720">
-        <v>1876</v>
+        <v>1885</v>
       </c>
       <c r="B1720" t="s">
-        <v>3830</v>
+        <v>3851</v>
       </c>
       <c r="C1720" t="s">
-        <v>3824</v>
-      </c>
-      <c r="D1720" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1720" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1720" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1720" t="s">
-        <v>154</v>
+        <v>3852</v>
+      </c>
+      <c r="D1720">
+        <v>8080</v>
       </c>
       <c r="H1720" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1720" t="s">
-        <v>166</v>
+        <v>406</v>
       </c>
       <c r="M1720" t="s">
-        <v>3831</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="1721" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1721">
-        <v>1877</v>
+        <v>1886</v>
       </c>
       <c r="B1721" t="s">
-        <v>3832</v>
+        <v>3854</v>
       </c>
       <c r="C1721" t="s">
-        <v>3833</v>
-      </c>
-      <c r="D1721">
-        <v>68000</v>
-      </c>
-      <c r="E1721" t="s">
-        <v>154</v>
+        <v>3855</v>
+      </c>
+      <c r="D1721" t="s">
+        <v>1108</v>
       </c>
       <c r="H1721" t="s">
-        <v>1495</v>
+        <v>336</v>
       </c>
       <c r="M1721" t="s">
-        <v>3834</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="1722" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1722">
-        <v>1878</v>
+        <v>1887</v>
       </c>
       <c r="B1722" t="s">
-        <v>3835</v>
+        <v>3857</v>
       </c>
       <c r="C1722" t="s">
-        <v>3836</v>
+        <v>3858</v>
       </c>
       <c r="D1722" t="s">
         <v>14</v>
       </c>
       <c r="E1722" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="H1722" t="s">
-        <v>1239</v>
-      </c>
-      <c r="I1722" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M1722" t="s">
-        <v>3837</v>
+        <v>3859</v>
       </c>
     </row>
     <row r="1723" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1723">
-        <v>1879</v>
+        <v>1888</v>
       </c>
       <c r="B1723" t="s">
-        <v>3838</v>
+        <v>3860</v>
       </c>
       <c r="C1723" t="s">
-        <v>3836</v>
+        <v>3858</v>
       </c>
       <c r="D1723" t="s">
         <v>14</v>
       </c>
       <c r="E1723" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="H1723" t="s">
-        <v>1239</v>
-      </c>
-      <c r="I1723" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M1723" t="s">
-        <v>4494</v>
+        <v>3861</v>
       </c>
     </row>
     <row r="1724" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1724">
-        <v>1880</v>
+        <v>1889</v>
       </c>
       <c r="B1724" t="s">
-        <v>3839</v>
+        <v>3862</v>
       </c>
       <c r="C1724" t="s">
-        <v>3836</v>
+        <v>3863</v>
       </c>
       <c r="D1724" t="s">
-        <v>14</v>
+        <v>3864</v>
       </c>
       <c r="E1724" t="s">
-        <v>14</v>
+        <v>728</v>
       </c>
       <c r="H1724" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1724" t="s">
-        <v>166</v>
+        <v>2073</v>
       </c>
       <c r="M1724" t="s">
-        <v>4495</v>
+        <v>3865</v>
       </c>
     </row>
     <row r="1725" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1725">
-        <v>1881</v>
+        <v>1890</v>
       </c>
       <c r="B1725" t="s">
-        <v>3840</v>
+        <v>3866</v>
       </c>
       <c r="C1725" t="s">
-        <v>3836</v>
-      </c>
-      <c r="D1725" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1725" t="s">
-        <v>14</v>
+        <v>3867</v>
+      </c>
+      <c r="D1725">
+        <v>68000</v>
       </c>
       <c r="H1725" t="s">
-        <v>1239</v>
-      </c>
-      <c r="I1725" t="s">
-        <v>333</v>
+        <v>2378</v>
       </c>
       <c r="M1725" t="s">
-        <v>3841</v>
+        <v>3868</v>
       </c>
     </row>
     <row r="1726" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1726">
-        <v>1882</v>
+        <v>1891</v>
       </c>
       <c r="B1726" t="s">
-        <v>3842</v>
+        <v>3869</v>
       </c>
       <c r="C1726" t="s">
-        <v>3843</v>
-      </c>
-      <c r="D1726" t="s">
-        <v>14</v>
+        <v>3870</v>
+      </c>
+      <c r="D1726">
+        <v>68000</v>
       </c>
       <c r="E1726" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="H1726" t="s">
-        <v>349</v>
+        <v>1239</v>
       </c>
       <c r="M1726" t="s">
-        <v>3844</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="1727" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1727">
-        <v>1883</v>
+        <v>1892</v>
       </c>
       <c r="B1727" t="s">
-        <v>3845</v>
+        <v>3872</v>
       </c>
       <c r="C1727" t="s">
-        <v>3846</v>
+        <v>3873</v>
       </c>
       <c r="D1727" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1727" t="s">
-        <v>154</v>
+        <v>405</v>
       </c>
       <c r="H1727" t="s">
-        <v>349</v>
+        <v>71</v>
       </c>
       <c r="M1727" t="s">
-        <v>3847</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="1728" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1728">
-        <v>1884</v>
+        <v>1893</v>
       </c>
       <c r="B1728" t="s">
-        <v>3848</v>
+        <v>3875</v>
       </c>
       <c r="C1728" t="s">
-        <v>3849</v>
+        <v>3876</v>
       </c>
       <c r="D1728" t="s">
         <v>14</v>
       </c>
-      <c r="H1728" t="s">
-        <v>172</v>
-      </c>
       <c r="M1728" t="s">
-        <v>3850</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="1729" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1729">
-        <v>1885</v>
+        <v>1894</v>
       </c>
       <c r="B1729" t="s">
-        <v>3851</v>
+        <v>3877</v>
       </c>
       <c r="C1729" t="s">
-        <v>3852</v>
+        <v>3878</v>
       </c>
       <c r="D1729">
-        <v>8080</v>
+        <v>68000</v>
+      </c>
+      <c r="E1729" t="s">
+        <v>154</v>
       </c>
       <c r="H1729" t="s">
-        <v>406</v>
+        <v>1356</v>
       </c>
       <c r="M1729" t="s">
-        <v>3853</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="1730" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1730">
-        <v>1886</v>
+        <v>1895</v>
       </c>
       <c r="B1730" t="s">
-        <v>3854</v>
+        <v>3880</v>
       </c>
       <c r="C1730" t="s">
-        <v>3855</v>
-      </c>
-      <c r="D1730" t="s">
-        <v>1108</v>
+        <v>3878</v>
+      </c>
+      <c r="D1730">
+        <v>68000</v>
+      </c>
+      <c r="E1730" t="s">
+        <v>154</v>
       </c>
       <c r="H1730" t="s">
-        <v>336</v>
+        <v>1356</v>
       </c>
       <c r="M1730" t="s">
-        <v>3856</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="1731" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1731">
-        <v>1887</v>
+        <v>1896</v>
       </c>
       <c r="B1731" t="s">
-        <v>3857</v>
+        <v>3881</v>
       </c>
       <c r="C1731" t="s">
-        <v>3858</v>
-      </c>
-      <c r="D1731" t="s">
-        <v>14</v>
+        <v>3878</v>
+      </c>
+      <c r="D1731">
+        <v>68000</v>
       </c>
       <c r="E1731" t="s">
         <v>154</v>
       </c>
       <c r="H1731" t="s">
-        <v>336</v>
+        <v>1356</v>
       </c>
       <c r="M1731" t="s">
-        <v>3859</v>
+        <v>3882</v>
       </c>
     </row>
     <row r="1732" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1732">
-        <v>1888</v>
+        <v>1897</v>
       </c>
       <c r="B1732" t="s">
-        <v>3860</v>
+        <v>3883</v>
       </c>
       <c r="C1732" t="s">
-        <v>3858</v>
-      </c>
-      <c r="D1732" t="s">
-        <v>14</v>
+        <v>3878</v>
+      </c>
+      <c r="D1732">
+        <v>68000</v>
       </c>
       <c r="E1732" t="s">
         <v>154</v>
       </c>
       <c r="H1732" t="s">
-        <v>336</v>
+        <v>1356</v>
       </c>
       <c r="M1732" t="s">
-        <v>3861</v>
+        <v>3884</v>
       </c>
     </row>
     <row r="1733" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1733">
-        <v>1889</v>
+        <v>1898</v>
       </c>
       <c r="B1733" t="s">
-        <v>3862</v>
+        <v>3885</v>
       </c>
       <c r="C1733" t="s">
-        <v>3863</v>
-      </c>
-      <c r="D1733" t="s">
-        <v>3864</v>
+        <v>3878</v>
+      </c>
+      <c r="D1733">
+        <v>68000</v>
       </c>
       <c r="E1733" t="s">
-        <v>728</v>
+        <v>154</v>
       </c>
       <c r="H1733" t="s">
-        <v>2073</v>
+        <v>1356</v>
       </c>
       <c r="M1733" t="s">
-        <v>3865</v>
+        <v>3886</v>
       </c>
     </row>
     <row r="1734" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1734">
-        <v>1890</v>
+        <v>1899</v>
       </c>
       <c r="B1734" t="s">
-        <v>3866</v>
+        <v>3887</v>
       </c>
       <c r="C1734" t="s">
-        <v>3867</v>
+        <v>3878</v>
       </c>
       <c r="D1734">
         <v>68000</v>
       </c>
+      <c r="E1734" t="s">
+        <v>154</v>
+      </c>
       <c r="H1734" t="s">
-        <v>2378</v>
+        <v>1356</v>
       </c>
       <c r="M1734" t="s">
-        <v>3868</v>
+        <v>3888</v>
       </c>
     </row>
     <row r="1735" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1735">
-        <v>1891</v>
+        <v>1900</v>
       </c>
       <c r="B1735" t="s">
-        <v>3869</v>
+        <v>3889</v>
       </c>
       <c r="C1735" t="s">
-        <v>3870</v>
+        <v>3878</v>
       </c>
       <c r="D1735">
         <v>68000</v>
@@ -61056,55 +61254,64 @@
         <v>154</v>
       </c>
       <c r="H1735" t="s">
-        <v>1239</v>
+        <v>1356</v>
       </c>
       <c r="M1735" t="s">
-        <v>3871</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="1736" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1736">
-        <v>1892</v>
+        <v>1901</v>
       </c>
       <c r="B1736" t="s">
-        <v>3872</v>
+        <v>3891</v>
       </c>
       <c r="C1736" t="s">
-        <v>3873</v>
-      </c>
-      <c r="D1736" t="s">
-        <v>405</v>
+        <v>3878</v>
+      </c>
+      <c r="D1736">
+        <v>68000</v>
+      </c>
+      <c r="E1736" t="s">
+        <v>154</v>
       </c>
       <c r="H1736" t="s">
-        <v>71</v>
+        <v>1356</v>
       </c>
       <c r="M1736" t="s">
-        <v>3874</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="1737" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1737">
-        <v>1893</v>
+        <v>1902</v>
       </c>
       <c r="B1737" t="s">
-        <v>3875</v>
+        <v>3892</v>
       </c>
       <c r="C1737" t="s">
-        <v>3876</v>
-      </c>
-      <c r="D1737" t="s">
-        <v>14</v>
+        <v>3878</v>
+      </c>
+      <c r="D1737">
+        <v>68000</v>
+      </c>
+      <c r="E1737" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1737" t="s">
+        <v>1356</v>
       </c>
       <c r="M1737" t="s">
-        <v>4496</v>
+        <v>3893</v>
       </c>
     </row>
     <row r="1738" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1738">
-        <v>1894</v>
+        <v>1903</v>
       </c>
       <c r="B1738" t="s">
-        <v>3877</v>
+        <v>3894</v>
       </c>
       <c r="C1738" t="s">
         <v>3878</v>
@@ -61119,15 +61326,15 @@
         <v>1356</v>
       </c>
       <c r="M1738" t="s">
-        <v>3879</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="1739" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1739">
-        <v>1895</v>
+        <v>1904</v>
       </c>
       <c r="B1739" t="s">
-        <v>3880</v>
+        <v>3896</v>
       </c>
       <c r="C1739" t="s">
         <v>3878</v>
@@ -61142,15 +61349,15 @@
         <v>1356</v>
       </c>
       <c r="M1739" t="s">
-        <v>4497</v>
+        <v>3897</v>
       </c>
     </row>
     <row r="1740" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1740">
-        <v>1896</v>
+        <v>1905</v>
       </c>
       <c r="B1740" t="s">
-        <v>3881</v>
+        <v>3898</v>
       </c>
       <c r="C1740" t="s">
         <v>3878</v>
@@ -61165,15 +61372,15 @@
         <v>1356</v>
       </c>
       <c r="M1740" t="s">
-        <v>3882</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="1741" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1741">
-        <v>1897</v>
+        <v>1906</v>
       </c>
       <c r="B1741" t="s">
-        <v>3883</v>
+        <v>3900</v>
       </c>
       <c r="C1741" t="s">
         <v>3878</v>
@@ -61188,15 +61395,15 @@
         <v>1356</v>
       </c>
       <c r="M1741" t="s">
-        <v>3884</v>
+        <v>3901</v>
       </c>
     </row>
     <row r="1742" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1742">
-        <v>1898</v>
+        <v>1907</v>
       </c>
       <c r="B1742" t="s">
-        <v>3885</v>
+        <v>3902</v>
       </c>
       <c r="C1742" t="s">
         <v>3878</v>
@@ -61211,15 +61418,15 @@
         <v>1356</v>
       </c>
       <c r="M1742" t="s">
-        <v>3886</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="1743" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1743">
-        <v>1899</v>
+        <v>1908</v>
       </c>
       <c r="B1743" t="s">
-        <v>3887</v>
+        <v>3903</v>
       </c>
       <c r="C1743" t="s">
         <v>3878</v>
@@ -61234,15 +61441,15 @@
         <v>1356</v>
       </c>
       <c r="M1743" t="s">
-        <v>3888</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="1744" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1744">
-        <v>1900</v>
+        <v>1909</v>
       </c>
       <c r="B1744" t="s">
-        <v>3889</v>
+        <v>3904</v>
       </c>
       <c r="C1744" t="s">
         <v>3878</v>
@@ -61257,15 +61464,15 @@
         <v>1356</v>
       </c>
       <c r="M1744" t="s">
-        <v>3890</v>
+        <v>3905</v>
       </c>
     </row>
     <row r="1745" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1745">
-        <v>1901</v>
+        <v>1910</v>
       </c>
       <c r="B1745" t="s">
-        <v>3891</v>
+        <v>3906</v>
       </c>
       <c r="C1745" t="s">
         <v>3878</v>
@@ -61280,15 +61487,15 @@
         <v>1356</v>
       </c>
       <c r="M1745" t="s">
-        <v>4498</v>
+        <v>3907</v>
       </c>
     </row>
     <row r="1746" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1746">
-        <v>1902</v>
+        <v>1911</v>
       </c>
       <c r="B1746" t="s">
-        <v>3892</v>
+        <v>3908</v>
       </c>
       <c r="C1746" t="s">
         <v>3878</v>
@@ -61303,15 +61510,15 @@
         <v>1356</v>
       </c>
       <c r="M1746" t="s">
-        <v>3893</v>
+        <v>3909</v>
       </c>
     </row>
     <row r="1747" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1747">
-        <v>1903</v>
+        <v>1912</v>
       </c>
       <c r="B1747" t="s">
-        <v>3894</v>
+        <v>3910</v>
       </c>
       <c r="C1747" t="s">
         <v>3878</v>
@@ -61326,15 +61533,15 @@
         <v>1356</v>
       </c>
       <c r="M1747" t="s">
-        <v>3895</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="1748" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1748">
-        <v>1904</v>
+        <v>1913</v>
       </c>
       <c r="B1748" t="s">
-        <v>3896</v>
+        <v>3912</v>
       </c>
       <c r="C1748" t="s">
         <v>3878</v>
@@ -61349,15 +61556,15 @@
         <v>1356</v>
       </c>
       <c r="M1748" t="s">
-        <v>3897</v>
+        <v>3913</v>
       </c>
     </row>
     <row r="1749" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1749">
-        <v>1905</v>
+        <v>1914</v>
       </c>
       <c r="B1749" t="s">
-        <v>3898</v>
+        <v>3914</v>
       </c>
       <c r="C1749" t="s">
         <v>3878</v>
@@ -61372,15 +61579,15 @@
         <v>1356</v>
       </c>
       <c r="M1749" t="s">
-        <v>3899</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="1750" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1750">
-        <v>1906</v>
+        <v>1915</v>
       </c>
       <c r="B1750" t="s">
-        <v>3900</v>
+        <v>3916</v>
       </c>
       <c r="C1750" t="s">
         <v>3878</v>
@@ -61395,15 +61602,15 @@
         <v>1356</v>
       </c>
       <c r="M1750" t="s">
-        <v>3901</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="1751" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1751">
-        <v>1907</v>
+        <v>1916</v>
       </c>
       <c r="B1751" t="s">
-        <v>3902</v>
+        <v>3917</v>
       </c>
       <c r="C1751" t="s">
         <v>3878</v>
@@ -61418,15 +61625,15 @@
         <v>1356</v>
       </c>
       <c r="M1751" t="s">
-        <v>4499</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="1752" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1752">
-        <v>1908</v>
+        <v>1917</v>
       </c>
       <c r="B1752" t="s">
-        <v>3903</v>
+        <v>3919</v>
       </c>
       <c r="C1752" t="s">
         <v>3878</v>
@@ -61441,15 +61648,15 @@
         <v>1356</v>
       </c>
       <c r="M1752" t="s">
-        <v>4500</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="1753" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1753">
-        <v>1909</v>
+        <v>1918</v>
       </c>
       <c r="B1753" t="s">
-        <v>3904</v>
+        <v>3921</v>
       </c>
       <c r="C1753" t="s">
         <v>3878</v>
@@ -61464,15 +61671,15 @@
         <v>1356</v>
       </c>
       <c r="M1753" t="s">
-        <v>3905</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="1754" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1754">
-        <v>1910</v>
+        <v>1919</v>
       </c>
       <c r="B1754" t="s">
-        <v>3906</v>
+        <v>3923</v>
       </c>
       <c r="C1754" t="s">
         <v>3878</v>
@@ -61487,15 +61694,15 @@
         <v>1356</v>
       </c>
       <c r="M1754" t="s">
-        <v>3907</v>
+        <v>4502</v>
       </c>
     </row>
     <row r="1755" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1755">
-        <v>1911</v>
+        <v>1920</v>
       </c>
       <c r="B1755" t="s">
-        <v>3908</v>
+        <v>3924</v>
       </c>
       <c r="C1755" t="s">
         <v>3878</v>
@@ -61510,15 +61717,15 @@
         <v>1356</v>
       </c>
       <c r="M1755" t="s">
-        <v>3909</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="1756" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1756">
-        <v>1912</v>
+        <v>1921</v>
       </c>
       <c r="B1756" t="s">
-        <v>3910</v>
+        <v>3925</v>
       </c>
       <c r="C1756" t="s">
         <v>3878</v>
@@ -61533,15 +61740,15 @@
         <v>1356</v>
       </c>
       <c r="M1756" t="s">
-        <v>3911</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="1757" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1757">
-        <v>1913</v>
+        <v>1922</v>
       </c>
       <c r="B1757" t="s">
-        <v>3912</v>
+        <v>3926</v>
       </c>
       <c r="C1757" t="s">
         <v>3878</v>
@@ -61556,15 +61763,15 @@
         <v>1356</v>
       </c>
       <c r="M1757" t="s">
-        <v>3913</v>
+        <v>3927</v>
       </c>
     </row>
     <row r="1758" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1758">
-        <v>1914</v>
+        <v>1923</v>
       </c>
       <c r="B1758" t="s">
-        <v>3914</v>
+        <v>3928</v>
       </c>
       <c r="C1758" t="s">
         <v>3878</v>
@@ -61579,15 +61786,15 @@
         <v>1356</v>
       </c>
       <c r="M1758" t="s">
-        <v>3915</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="1759" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1759">
-        <v>1915</v>
+        <v>1924</v>
       </c>
       <c r="B1759" t="s">
-        <v>3916</v>
+        <v>3930</v>
       </c>
       <c r="C1759" t="s">
         <v>3878</v>
@@ -61602,15 +61809,15 @@
         <v>1356</v>
       </c>
       <c r="M1759" t="s">
-        <v>4501</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="1760" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1760">
-        <v>1916</v>
+        <v>1925</v>
       </c>
       <c r="B1760" t="s">
-        <v>3917</v>
+        <v>3931</v>
       </c>
       <c r="C1760" t="s">
         <v>3878</v>
@@ -61625,15 +61832,15 @@
         <v>1356</v>
       </c>
       <c r="M1760" t="s">
-        <v>3918</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="1761" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1761">
-        <v>1917</v>
+        <v>1926</v>
       </c>
       <c r="B1761" t="s">
-        <v>3919</v>
+        <v>3933</v>
       </c>
       <c r="C1761" t="s">
         <v>3878</v>
@@ -61648,15 +61855,15 @@
         <v>1356</v>
       </c>
       <c r="M1761" t="s">
-        <v>3920</v>
+        <v>4506</v>
       </c>
     </row>
     <row r="1762" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1762">
-        <v>1918</v>
+        <v>1927</v>
       </c>
       <c r="B1762" t="s">
-        <v>3921</v>
+        <v>3934</v>
       </c>
       <c r="C1762" t="s">
         <v>3878</v>
@@ -61671,15 +61878,15 @@
         <v>1356</v>
       </c>
       <c r="M1762" t="s">
-        <v>3922</v>
+        <v>3935</v>
       </c>
     </row>
     <row r="1763" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1763">
-        <v>1919</v>
+        <v>1928</v>
       </c>
       <c r="B1763" t="s">
-        <v>3923</v>
+        <v>3936</v>
       </c>
       <c r="C1763" t="s">
         <v>3878</v>
@@ -61694,15 +61901,15 @@
         <v>1356</v>
       </c>
       <c r="M1763" t="s">
-        <v>4502</v>
+        <v>3937</v>
       </c>
     </row>
     <row r="1764" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1764">
-        <v>1920</v>
+        <v>1929</v>
       </c>
       <c r="B1764" t="s">
-        <v>3924</v>
+        <v>3938</v>
       </c>
       <c r="C1764" t="s">
         <v>3878</v>
@@ -61717,15 +61924,15 @@
         <v>1356</v>
       </c>
       <c r="M1764" t="s">
-        <v>4503</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="1765" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1765">
-        <v>1921</v>
+        <v>1930</v>
       </c>
       <c r="B1765" t="s">
-        <v>3925</v>
+        <v>3939</v>
       </c>
       <c r="C1765" t="s">
         <v>3878</v>
@@ -61740,15 +61947,15 @@
         <v>1356</v>
       </c>
       <c r="M1765" t="s">
-        <v>4504</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="1766" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1766">
-        <v>1922</v>
+        <v>1931</v>
       </c>
       <c r="B1766" t="s">
-        <v>3926</v>
+        <v>3940</v>
       </c>
       <c r="C1766" t="s">
         <v>3878</v>
@@ -61763,15 +61970,15 @@
         <v>1356</v>
       </c>
       <c r="M1766" t="s">
-        <v>3927</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="1767" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1767">
-        <v>1923</v>
+        <v>1932</v>
       </c>
       <c r="B1767" t="s">
-        <v>3928</v>
+        <v>3942</v>
       </c>
       <c r="C1767" t="s">
         <v>3878</v>
@@ -61786,15 +61993,15 @@
         <v>1356</v>
       </c>
       <c r="M1767" t="s">
-        <v>3929</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="1768" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1768">
-        <v>1924</v>
+        <v>1933</v>
       </c>
       <c r="B1768" t="s">
-        <v>3930</v>
+        <v>3943</v>
       </c>
       <c r="C1768" t="s">
         <v>3878</v>
@@ -61809,15 +62016,15 @@
         <v>1356</v>
       </c>
       <c r="M1768" t="s">
-        <v>4505</v>
+        <v>4510</v>
       </c>
     </row>
     <row r="1769" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1769">
-        <v>1925</v>
+        <v>1934</v>
       </c>
       <c r="B1769" t="s">
-        <v>3931</v>
+        <v>3944</v>
       </c>
       <c r="C1769" t="s">
         <v>3878</v>
@@ -61832,15 +62039,15 @@
         <v>1356</v>
       </c>
       <c r="M1769" t="s">
-        <v>3932</v>
+        <v>4511</v>
       </c>
     </row>
     <row r="1770" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1770">
-        <v>1926</v>
+        <v>1935</v>
       </c>
       <c r="B1770" t="s">
-        <v>3933</v>
+        <v>3945</v>
       </c>
       <c r="C1770" t="s">
         <v>3878</v>
@@ -61855,15 +62062,15 @@
         <v>1356</v>
       </c>
       <c r="M1770" t="s">
-        <v>4506</v>
+        <v>4512</v>
       </c>
     </row>
     <row r="1771" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1771">
-        <v>1927</v>
+        <v>1936</v>
       </c>
       <c r="B1771" t="s">
-        <v>3934</v>
+        <v>3946</v>
       </c>
       <c r="C1771" t="s">
         <v>3878</v>
@@ -61878,15 +62085,15 @@
         <v>1356</v>
       </c>
       <c r="M1771" t="s">
-        <v>3935</v>
+        <v>4513</v>
       </c>
     </row>
     <row r="1772" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1772">
-        <v>1928</v>
+        <v>1937</v>
       </c>
       <c r="B1772" t="s">
-        <v>3936</v>
+        <v>3947</v>
       </c>
       <c r="C1772" t="s">
         <v>3878</v>
@@ -61901,15 +62108,15 @@
         <v>1356</v>
       </c>
       <c r="M1772" t="s">
-        <v>3937</v>
+        <v>4514</v>
       </c>
     </row>
     <row r="1773" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1773">
-        <v>1929</v>
+        <v>1938</v>
       </c>
       <c r="B1773" t="s">
-        <v>3938</v>
+        <v>3948</v>
       </c>
       <c r="C1773" t="s">
         <v>3878</v>
@@ -61924,15 +62131,15 @@
         <v>1356</v>
       </c>
       <c r="M1773" t="s">
-        <v>4507</v>
+        <v>4515</v>
       </c>
     </row>
     <row r="1774" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1774">
-        <v>1930</v>
+        <v>1939</v>
       </c>
       <c r="B1774" t="s">
-        <v>3939</v>
+        <v>3949</v>
       </c>
       <c r="C1774" t="s">
         <v>3878</v>
@@ -61947,15 +62154,15 @@
         <v>1356</v>
       </c>
       <c r="M1774" t="s">
-        <v>4508</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="1775" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1775">
-        <v>1931</v>
+        <v>1940</v>
       </c>
       <c r="B1775" t="s">
-        <v>3940</v>
+        <v>3951</v>
       </c>
       <c r="C1775" t="s">
         <v>3878</v>
@@ -61970,15 +62177,15 @@
         <v>1356</v>
       </c>
       <c r="M1775" t="s">
-        <v>3941</v>
+        <v>3952</v>
       </c>
     </row>
     <row r="1776" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1776">
-        <v>1932</v>
+        <v>1941</v>
       </c>
       <c r="B1776" t="s">
-        <v>3942</v>
+        <v>3953</v>
       </c>
       <c r="C1776" t="s">
         <v>3878</v>
@@ -61993,15 +62200,15 @@
         <v>1356</v>
       </c>
       <c r="M1776" t="s">
-        <v>4509</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="1777" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1777">
-        <v>1933</v>
+        <v>1942</v>
       </c>
       <c r="B1777" t="s">
-        <v>3943</v>
+        <v>3955</v>
       </c>
       <c r="C1777" t="s">
         <v>3878</v>
@@ -62016,15 +62223,15 @@
         <v>1356</v>
       </c>
       <c r="M1777" t="s">
-        <v>4510</v>
+        <v>4516</v>
       </c>
     </row>
     <row r="1778" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1778">
-        <v>1934</v>
+        <v>1943</v>
       </c>
       <c r="B1778" t="s">
-        <v>3944</v>
+        <v>3956</v>
       </c>
       <c r="C1778" t="s">
         <v>3878</v>
@@ -62039,15 +62246,15 @@
         <v>1356</v>
       </c>
       <c r="M1778" t="s">
-        <v>4511</v>
+        <v>3957</v>
       </c>
     </row>
     <row r="1779" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1779">
-        <v>1935</v>
+        <v>1944</v>
       </c>
       <c r="B1779" t="s">
-        <v>3945</v>
+        <v>3958</v>
       </c>
       <c r="C1779" t="s">
         <v>3878</v>
@@ -62062,15 +62269,15 @@
         <v>1356</v>
       </c>
       <c r="M1779" t="s">
-        <v>4512</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="1780" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1780">
-        <v>1936</v>
+        <v>1945</v>
       </c>
       <c r="B1780" t="s">
-        <v>3946</v>
+        <v>3960</v>
       </c>
       <c r="C1780" t="s">
         <v>3878</v>
@@ -62085,15 +62292,15 @@
         <v>1356</v>
       </c>
       <c r="M1780" t="s">
-        <v>4513</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="1781" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1781">
-        <v>1937</v>
+        <v>1946</v>
       </c>
       <c r="B1781" t="s">
-        <v>3947</v>
+        <v>3961</v>
       </c>
       <c r="C1781" t="s">
         <v>3878</v>
@@ -62108,15 +62315,15 @@
         <v>1356</v>
       </c>
       <c r="M1781" t="s">
-        <v>4514</v>
+        <v>3962</v>
       </c>
     </row>
     <row r="1782" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1782">
-        <v>1938</v>
+        <v>1947</v>
       </c>
       <c r="B1782" t="s">
-        <v>3948</v>
+        <v>3963</v>
       </c>
       <c r="C1782" t="s">
         <v>3878</v>
@@ -62131,15 +62338,15 @@
         <v>1356</v>
       </c>
       <c r="M1782" t="s">
-        <v>4515</v>
+        <v>4518</v>
       </c>
     </row>
     <row r="1783" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1783">
-        <v>1939</v>
+        <v>1948</v>
       </c>
       <c r="B1783" t="s">
-        <v>3949</v>
+        <v>3964</v>
       </c>
       <c r="C1783" t="s">
         <v>3878</v>
@@ -62154,15 +62361,15 @@
         <v>1356</v>
       </c>
       <c r="M1783" t="s">
-        <v>3950</v>
+        <v>4519</v>
       </c>
     </row>
     <row r="1784" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1784">
-        <v>1940</v>
+        <v>1949</v>
       </c>
       <c r="B1784" t="s">
-        <v>3951</v>
+        <v>3965</v>
       </c>
       <c r="C1784" t="s">
         <v>3878</v>
@@ -62177,15 +62384,15 @@
         <v>1356</v>
       </c>
       <c r="M1784" t="s">
-        <v>3952</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="1785" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1785">
-        <v>1941</v>
+        <v>1950</v>
       </c>
       <c r="B1785" t="s">
-        <v>3953</v>
+        <v>3966</v>
       </c>
       <c r="C1785" t="s">
         <v>3878</v>
@@ -62200,15 +62407,15 @@
         <v>1356</v>
       </c>
       <c r="M1785" t="s">
-        <v>3954</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="1786" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1786">
-        <v>1942</v>
+        <v>1951</v>
       </c>
       <c r="B1786" t="s">
-        <v>3955</v>
+        <v>3967</v>
       </c>
       <c r="C1786" t="s">
         <v>3878</v>
@@ -62223,15 +62430,15 @@
         <v>1356</v>
       </c>
       <c r="M1786" t="s">
-        <v>4516</v>
+        <v>4522</v>
       </c>
     </row>
     <row r="1787" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1787">
-        <v>1943</v>
+        <v>1952</v>
       </c>
       <c r="B1787" t="s">
-        <v>3956</v>
+        <v>3968</v>
       </c>
       <c r="C1787" t="s">
         <v>3878</v>
@@ -62246,15 +62453,15 @@
         <v>1356</v>
       </c>
       <c r="M1787" t="s">
-        <v>3957</v>
+        <v>4523</v>
       </c>
     </row>
     <row r="1788" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1788">
-        <v>1944</v>
+        <v>1953</v>
       </c>
       <c r="B1788" t="s">
-        <v>3958</v>
+        <v>3969</v>
       </c>
       <c r="C1788" t="s">
         <v>3878</v>
@@ -62269,15 +62476,15 @@
         <v>1356</v>
       </c>
       <c r="M1788" t="s">
-        <v>3959</v>
+        <v>3970</v>
       </c>
     </row>
     <row r="1789" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1789">
-        <v>1945</v>
+        <v>1954</v>
       </c>
       <c r="B1789" t="s">
-        <v>3960</v>
+        <v>3971</v>
       </c>
       <c r="C1789" t="s">
         <v>3878</v>
@@ -62292,15 +62499,15 @@
         <v>1356</v>
       </c>
       <c r="M1789" t="s">
-        <v>4517</v>
+        <v>4524</v>
       </c>
     </row>
     <row r="1790" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1790">
-        <v>1946</v>
+        <v>1955</v>
       </c>
       <c r="B1790" t="s">
-        <v>3961</v>
+        <v>3972</v>
       </c>
       <c r="C1790" t="s">
         <v>3878</v>
@@ -62315,15 +62522,15 @@
         <v>1356</v>
       </c>
       <c r="M1790" t="s">
-        <v>3962</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="1791" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1791">
-        <v>1947</v>
+        <v>1956</v>
       </c>
       <c r="B1791" t="s">
-        <v>3963</v>
+        <v>3973</v>
       </c>
       <c r="C1791" t="s">
         <v>3878</v>
@@ -62338,15 +62545,15 @@
         <v>1356</v>
       </c>
       <c r="M1791" t="s">
-        <v>4518</v>
+        <v>3974</v>
       </c>
     </row>
     <row r="1792" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1792">
-        <v>1948</v>
+        <v>1957</v>
       </c>
       <c r="B1792" t="s">
-        <v>3964</v>
+        <v>3975</v>
       </c>
       <c r="C1792" t="s">
         <v>3878</v>
@@ -62361,15 +62568,15 @@
         <v>1356</v>
       </c>
       <c r="M1792" t="s">
-        <v>4519</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="1793" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1793">
-        <v>1949</v>
+        <v>1958</v>
       </c>
       <c r="B1793" t="s">
-        <v>3965</v>
+        <v>3977</v>
       </c>
       <c r="C1793" t="s">
         <v>3878</v>
@@ -62384,15 +62591,15 @@
         <v>1356</v>
       </c>
       <c r="M1793" t="s">
-        <v>4520</v>
+        <v>4526</v>
       </c>
     </row>
     <row r="1794" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1794">
-        <v>1950</v>
+        <v>1959</v>
       </c>
       <c r="B1794" t="s">
-        <v>3966</v>
+        <v>3978</v>
       </c>
       <c r="C1794" t="s">
         <v>3878</v>
@@ -62407,15 +62614,15 @@
         <v>1356</v>
       </c>
       <c r="M1794" t="s">
-        <v>4521</v>
+        <v>3979</v>
       </c>
     </row>
     <row r="1795" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1795">
-        <v>1951</v>
+        <v>1960</v>
       </c>
       <c r="B1795" t="s">
-        <v>3967</v>
+        <v>3980</v>
       </c>
       <c r="C1795" t="s">
         <v>3878</v>
@@ -62430,15 +62637,15 @@
         <v>1356</v>
       </c>
       <c r="M1795" t="s">
-        <v>4522</v>
+        <v>4527</v>
       </c>
     </row>
     <row r="1796" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1796">
-        <v>1952</v>
+        <v>1961</v>
       </c>
       <c r="B1796" t="s">
-        <v>3968</v>
+        <v>3981</v>
       </c>
       <c r="C1796" t="s">
         <v>3878</v>
@@ -62453,15 +62660,15 @@
         <v>1356</v>
       </c>
       <c r="M1796" t="s">
-        <v>4523</v>
+        <v>4528</v>
       </c>
     </row>
     <row r="1797" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1797">
-        <v>1953</v>
+        <v>1962</v>
       </c>
       <c r="B1797" t="s">
-        <v>3969</v>
+        <v>3982</v>
       </c>
       <c r="C1797" t="s">
         <v>3878</v>
@@ -62476,15 +62683,15 @@
         <v>1356</v>
       </c>
       <c r="M1797" t="s">
-        <v>3970</v>
+        <v>4529</v>
       </c>
     </row>
     <row r="1798" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1798">
-        <v>1954</v>
+        <v>1963</v>
       </c>
       <c r="B1798" t="s">
-        <v>3971</v>
+        <v>3983</v>
       </c>
       <c r="C1798" t="s">
         <v>3878</v>
@@ -62499,15 +62706,15 @@
         <v>1356</v>
       </c>
       <c r="M1798" t="s">
-        <v>4524</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="1799" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1799">
-        <v>1955</v>
+        <v>1964</v>
       </c>
       <c r="B1799" t="s">
-        <v>3972</v>
+        <v>3984</v>
       </c>
       <c r="C1799" t="s">
         <v>3878</v>
@@ -62522,15 +62729,15 @@
         <v>1356</v>
       </c>
       <c r="M1799" t="s">
-        <v>4525</v>
+        <v>4531</v>
       </c>
     </row>
     <row r="1800" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1800">
-        <v>1956</v>
+        <v>1965</v>
       </c>
       <c r="B1800" t="s">
-        <v>3973</v>
+        <v>3985</v>
       </c>
       <c r="C1800" t="s">
         <v>3878</v>
@@ -62545,15 +62752,15 @@
         <v>1356</v>
       </c>
       <c r="M1800" t="s">
-        <v>3974</v>
+        <v>3986</v>
       </c>
     </row>
     <row r="1801" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1801">
-        <v>1957</v>
+        <v>1966</v>
       </c>
       <c r="B1801" t="s">
-        <v>3975</v>
+        <v>3987</v>
       </c>
       <c r="C1801" t="s">
         <v>3878</v>
@@ -62568,15 +62775,15 @@
         <v>1356</v>
       </c>
       <c r="M1801" t="s">
-        <v>3976</v>
+        <v>4532</v>
       </c>
     </row>
     <row r="1802" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1802">
-        <v>1958</v>
+        <v>1967</v>
       </c>
       <c r="B1802" t="s">
-        <v>3977</v>
+        <v>3988</v>
       </c>
       <c r="C1802" t="s">
         <v>3878</v>
@@ -62591,15 +62798,15 @@
         <v>1356</v>
       </c>
       <c r="M1802" t="s">
-        <v>4526</v>
+        <v>3989</v>
       </c>
     </row>
     <row r="1803" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1803">
-        <v>1959</v>
+        <v>1968</v>
       </c>
       <c r="B1803" t="s">
-        <v>3978</v>
+        <v>3990</v>
       </c>
       <c r="C1803" t="s">
         <v>3878</v>
@@ -62614,15 +62821,15 @@
         <v>1356</v>
       </c>
       <c r="M1803" t="s">
-        <v>3979</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="1804" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1804">
-        <v>1960</v>
+        <v>1969</v>
       </c>
       <c r="B1804" t="s">
-        <v>3980</v>
+        <v>3991</v>
       </c>
       <c r="C1804" t="s">
         <v>3878</v>
@@ -62637,15 +62844,15 @@
         <v>1356</v>
       </c>
       <c r="M1804" t="s">
-        <v>4527</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="1805" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1805">
-        <v>1961</v>
+        <v>1970</v>
       </c>
       <c r="B1805" t="s">
-        <v>3981</v>
+        <v>3993</v>
       </c>
       <c r="C1805" t="s">
         <v>3878</v>
@@ -62660,15 +62867,15 @@
         <v>1356</v>
       </c>
       <c r="M1805" t="s">
-        <v>4528</v>
+        <v>3994</v>
       </c>
     </row>
     <row r="1806" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1806">
-        <v>1962</v>
+        <v>1971</v>
       </c>
       <c r="B1806" t="s">
-        <v>3982</v>
+        <v>3995</v>
       </c>
       <c r="C1806" t="s">
         <v>3878</v>
@@ -62683,15 +62890,15 @@
         <v>1356</v>
       </c>
       <c r="M1806" t="s">
-        <v>4529</v>
+        <v>4534</v>
       </c>
     </row>
     <row r="1807" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1807">
-        <v>1963</v>
+        <v>1972</v>
       </c>
       <c r="B1807" t="s">
-        <v>3983</v>
+        <v>3996</v>
       </c>
       <c r="C1807" t="s">
         <v>3878</v>
@@ -62706,15 +62913,15 @@
         <v>1356</v>
       </c>
       <c r="M1807" t="s">
-        <v>4530</v>
+        <v>4535</v>
       </c>
     </row>
     <row r="1808" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1808">
-        <v>1964</v>
+        <v>1973</v>
       </c>
       <c r="B1808" t="s">
-        <v>3984</v>
+        <v>3997</v>
       </c>
       <c r="C1808" t="s">
         <v>3878</v>
@@ -62729,15 +62936,15 @@
         <v>1356</v>
       </c>
       <c r="M1808" t="s">
-        <v>4531</v>
+        <v>3998</v>
       </c>
     </row>
     <row r="1809" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1809">
-        <v>1965</v>
+        <v>1974</v>
       </c>
       <c r="B1809" t="s">
-        <v>3985</v>
+        <v>3999</v>
       </c>
       <c r="C1809" t="s">
         <v>3878</v>
@@ -62752,15 +62959,15 @@
         <v>1356</v>
       </c>
       <c r="M1809" t="s">
-        <v>3986</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="1810" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1810">
-        <v>1966</v>
+        <v>1975</v>
       </c>
       <c r="B1810" t="s">
-        <v>3987</v>
+        <v>4001</v>
       </c>
       <c r="C1810" t="s">
         <v>3878</v>
@@ -62775,15 +62982,15 @@
         <v>1356</v>
       </c>
       <c r="M1810" t="s">
-        <v>4532</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="1811" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1811">
-        <v>1967</v>
+        <v>1976</v>
       </c>
       <c r="B1811" t="s">
-        <v>3988</v>
+        <v>4002</v>
       </c>
       <c r="C1811" t="s">
         <v>3878</v>
@@ -62798,15 +63005,15 @@
         <v>1356</v>
       </c>
       <c r="M1811" t="s">
-        <v>3989</v>
+        <v>4003</v>
       </c>
     </row>
     <row r="1812" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1812">
-        <v>1968</v>
+        <v>1977</v>
       </c>
       <c r="B1812" t="s">
-        <v>3990</v>
+        <v>4004</v>
       </c>
       <c r="C1812" t="s">
         <v>3878</v>
@@ -62821,15 +63028,15 @@
         <v>1356</v>
       </c>
       <c r="M1812" t="s">
-        <v>4533</v>
+        <v>4537</v>
       </c>
     </row>
     <row r="1813" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1813">
-        <v>1969</v>
+        <v>1978</v>
       </c>
       <c r="B1813" t="s">
-        <v>3991</v>
+        <v>4005</v>
       </c>
       <c r="C1813" t="s">
         <v>3878</v>
@@ -62844,15 +63051,15 @@
         <v>1356</v>
       </c>
       <c r="M1813" t="s">
-        <v>3992</v>
+        <v>4538</v>
       </c>
     </row>
     <row r="1814" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1814">
-        <v>1970</v>
+        <v>1979</v>
       </c>
       <c r="B1814" t="s">
-        <v>3993</v>
+        <v>4006</v>
       </c>
       <c r="C1814" t="s">
         <v>3878</v>
@@ -62867,15 +63074,15 @@
         <v>1356</v>
       </c>
       <c r="M1814" t="s">
-        <v>3994</v>
+        <v>4539</v>
       </c>
     </row>
     <row r="1815" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1815">
-        <v>1971</v>
+        <v>1980</v>
       </c>
       <c r="B1815" t="s">
-        <v>3995</v>
+        <v>4007</v>
       </c>
       <c r="C1815" t="s">
         <v>3878</v>
@@ -62890,15 +63097,15 @@
         <v>1356</v>
       </c>
       <c r="M1815" t="s">
-        <v>4534</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="1816" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1816">
-        <v>1972</v>
+        <v>1981</v>
       </c>
       <c r="B1816" t="s">
-        <v>3996</v>
+        <v>4008</v>
       </c>
       <c r="C1816" t="s">
         <v>3878</v>
@@ -62913,15 +63120,15 @@
         <v>1356</v>
       </c>
       <c r="M1816" t="s">
-        <v>4535</v>
+        <v>4541</v>
       </c>
     </row>
     <row r="1817" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1817">
-        <v>1973</v>
+        <v>1982</v>
       </c>
       <c r="B1817" t="s">
-        <v>3997</v>
+        <v>4009</v>
       </c>
       <c r="C1817" t="s">
         <v>3878</v>
@@ -62936,15 +63143,15 @@
         <v>1356</v>
       </c>
       <c r="M1817" t="s">
-        <v>3998</v>
+        <v>4542</v>
       </c>
     </row>
     <row r="1818" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1818">
-        <v>1974</v>
+        <v>1983</v>
       </c>
       <c r="B1818" t="s">
-        <v>3999</v>
+        <v>4010</v>
       </c>
       <c r="C1818" t="s">
         <v>3878</v>
@@ -62959,15 +63166,15 @@
         <v>1356</v>
       </c>
       <c r="M1818" t="s">
-        <v>4000</v>
+        <v>4011</v>
       </c>
     </row>
     <row r="1819" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1819">
-        <v>1975</v>
+        <v>1984</v>
       </c>
       <c r="B1819" t="s">
-        <v>4001</v>
+        <v>4012</v>
       </c>
       <c r="C1819" t="s">
         <v>3878</v>
@@ -62982,15 +63189,15 @@
         <v>1356</v>
       </c>
       <c r="M1819" t="s">
-        <v>4536</v>
+        <v>4543</v>
       </c>
     </row>
     <row r="1820" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1820">
-        <v>1976</v>
+        <v>1985</v>
       </c>
       <c r="B1820" t="s">
-        <v>4002</v>
+        <v>4013</v>
       </c>
       <c r="C1820" t="s">
         <v>3878</v>
@@ -63005,15 +63212,15 @@
         <v>1356</v>
       </c>
       <c r="M1820" t="s">
-        <v>4003</v>
+        <v>4544</v>
       </c>
     </row>
     <row r="1821" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1821">
-        <v>1977</v>
+        <v>1986</v>
       </c>
       <c r="B1821" t="s">
-        <v>4004</v>
+        <v>4014</v>
       </c>
       <c r="C1821" t="s">
         <v>3878</v>
@@ -63028,15 +63235,15 @@
         <v>1356</v>
       </c>
       <c r="M1821" t="s">
-        <v>4537</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="1822" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1822">
-        <v>1978</v>
+        <v>1987</v>
       </c>
       <c r="B1822" t="s">
-        <v>4005</v>
+        <v>4016</v>
       </c>
       <c r="C1822" t="s">
         <v>3878</v>
@@ -63051,15 +63258,15 @@
         <v>1356</v>
       </c>
       <c r="M1822" t="s">
-        <v>4538</v>
+        <v>4545</v>
       </c>
     </row>
     <row r="1823" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1823">
-        <v>1979</v>
+        <v>1988</v>
       </c>
       <c r="B1823" t="s">
-        <v>4006</v>
+        <v>4017</v>
       </c>
       <c r="C1823" t="s">
         <v>3878</v>
@@ -63074,15 +63281,15 @@
         <v>1356</v>
       </c>
       <c r="M1823" t="s">
-        <v>4539</v>
+        <v>4018</v>
       </c>
     </row>
     <row r="1824" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1824">
-        <v>1980</v>
+        <v>1989</v>
       </c>
       <c r="B1824" t="s">
-        <v>4007</v>
+        <v>4019</v>
       </c>
       <c r="C1824" t="s">
         <v>3878</v>
@@ -63097,15 +63304,15 @@
         <v>1356</v>
       </c>
       <c r="M1824" t="s">
-        <v>4540</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="1825" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1825">
-        <v>1981</v>
+        <v>1990</v>
       </c>
       <c r="B1825" t="s">
-        <v>4008</v>
+        <v>4021</v>
       </c>
       <c r="C1825" t="s">
         <v>3878</v>
@@ -63120,15 +63327,15 @@
         <v>1356</v>
       </c>
       <c r="M1825" t="s">
-        <v>4541</v>
+        <v>4546</v>
       </c>
     </row>
     <row r="1826" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1826">
-        <v>1982</v>
+        <v>1991</v>
       </c>
       <c r="B1826" t="s">
-        <v>4009</v>
+        <v>4022</v>
       </c>
       <c r="C1826" t="s">
         <v>3878</v>
@@ -63143,15 +63350,15 @@
         <v>1356</v>
       </c>
       <c r="M1826" t="s">
-        <v>4542</v>
+        <v>4023</v>
       </c>
     </row>
     <row r="1827" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1827">
-        <v>1983</v>
+        <v>1992</v>
       </c>
       <c r="B1827" t="s">
-        <v>4010</v>
+        <v>4024</v>
       </c>
       <c r="C1827" t="s">
         <v>3878</v>
@@ -63166,15 +63373,15 @@
         <v>1356</v>
       </c>
       <c r="M1827" t="s">
-        <v>4011</v>
+        <v>4547</v>
       </c>
     </row>
     <row r="1828" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1828">
-        <v>1984</v>
+        <v>1993</v>
       </c>
       <c r="B1828" t="s">
-        <v>4012</v>
+        <v>4025</v>
       </c>
       <c r="C1828" t="s">
         <v>3878</v>
@@ -63189,15 +63396,15 @@
         <v>1356</v>
       </c>
       <c r="M1828" t="s">
-        <v>4543</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="1829" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1829">
-        <v>1985</v>
+        <v>1994</v>
       </c>
       <c r="B1829" t="s">
-        <v>4013</v>
+        <v>4026</v>
       </c>
       <c r="C1829" t="s">
         <v>3878</v>
@@ -63212,15 +63419,15 @@
         <v>1356</v>
       </c>
       <c r="M1829" t="s">
-        <v>4544</v>
+        <v>4549</v>
       </c>
     </row>
     <row r="1830" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1830">
-        <v>1986</v>
+        <v>1995</v>
       </c>
       <c r="B1830" t="s">
-        <v>4014</v>
+        <v>4027</v>
       </c>
       <c r="C1830" t="s">
         <v>3878</v>
@@ -63235,15 +63442,15 @@
         <v>1356</v>
       </c>
       <c r="M1830" t="s">
-        <v>4015</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="1831" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1831">
-        <v>1987</v>
+        <v>1996</v>
       </c>
       <c r="B1831" t="s">
-        <v>4016</v>
+        <v>4028</v>
       </c>
       <c r="C1831" t="s">
         <v>3878</v>
@@ -63258,15 +63465,15 @@
         <v>1356</v>
       </c>
       <c r="M1831" t="s">
-        <v>4545</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="1832" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1832">
-        <v>1988</v>
+        <v>1997</v>
       </c>
       <c r="B1832" t="s">
-        <v>4017</v>
+        <v>4029</v>
       </c>
       <c r="C1832" t="s">
         <v>3878</v>
@@ -63281,15 +63488,15 @@
         <v>1356</v>
       </c>
       <c r="M1832" t="s">
-        <v>4018</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="1833" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1833">
-        <v>1989</v>
+        <v>1998</v>
       </c>
       <c r="B1833" t="s">
-        <v>4019</v>
+        <v>4031</v>
       </c>
       <c r="C1833" t="s">
         <v>3878</v>
@@ -63304,15 +63511,15 @@
         <v>1356</v>
       </c>
       <c r="M1833" t="s">
-        <v>4020</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="1834" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1834">
-        <v>1990</v>
+        <v>1999</v>
       </c>
       <c r="B1834" t="s">
-        <v>4021</v>
+        <v>4032</v>
       </c>
       <c r="C1834" t="s">
         <v>3878</v>
@@ -63327,15 +63534,15 @@
         <v>1356</v>
       </c>
       <c r="M1834" t="s">
-        <v>4546</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="1835" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1835">
-        <v>1991</v>
+        <v>2000</v>
       </c>
       <c r="B1835" t="s">
-        <v>4022</v>
+        <v>4033</v>
       </c>
       <c r="C1835" t="s">
         <v>3878</v>
@@ -63350,15 +63557,15 @@
         <v>1356</v>
       </c>
       <c r="M1835" t="s">
-        <v>4023</v>
+        <v>4034</v>
       </c>
     </row>
     <row r="1836" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1836">
-        <v>1992</v>
+        <v>2001</v>
       </c>
       <c r="B1836" t="s">
-        <v>4024</v>
+        <v>4035</v>
       </c>
       <c r="C1836" t="s">
         <v>3878</v>
@@ -63373,15 +63580,15 @@
         <v>1356</v>
       </c>
       <c r="M1836" t="s">
-        <v>4547</v>
+        <v>4036</v>
       </c>
     </row>
     <row r="1837" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1837">
-        <v>1993</v>
+        <v>2002</v>
       </c>
       <c r="B1837" t="s">
-        <v>4025</v>
+        <v>4037</v>
       </c>
       <c r="C1837" t="s">
         <v>3878</v>
@@ -63396,15 +63603,15 @@
         <v>1356</v>
       </c>
       <c r="M1837" t="s">
-        <v>4548</v>
+        <v>4038</v>
       </c>
     </row>
     <row r="1838" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1838">
-        <v>1994</v>
+        <v>2003</v>
       </c>
       <c r="B1838" t="s">
-        <v>4026</v>
+        <v>4039</v>
       </c>
       <c r="C1838" t="s">
         <v>3878</v>
@@ -63419,15 +63626,15 @@
         <v>1356</v>
       </c>
       <c r="M1838" t="s">
-        <v>4549</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="1839" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1839">
-        <v>1995</v>
+        <v>2004</v>
       </c>
       <c r="B1839" t="s">
-        <v>4027</v>
+        <v>4041</v>
       </c>
       <c r="C1839" t="s">
         <v>3878</v>
@@ -63442,15 +63649,15 @@
         <v>1356</v>
       </c>
       <c r="M1839" t="s">
-        <v>4550</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="1840" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1840">
-        <v>1996</v>
+        <v>2005</v>
       </c>
       <c r="B1840" t="s">
-        <v>4028</v>
+        <v>4042</v>
       </c>
       <c r="C1840" t="s">
         <v>3878</v>
@@ -63465,15 +63672,15 @@
         <v>1356</v>
       </c>
       <c r="M1840" t="s">
-        <v>4551</v>
+        <v>4043</v>
       </c>
     </row>
     <row r="1841" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1841">
-        <v>1997</v>
+        <v>2006</v>
       </c>
       <c r="B1841" t="s">
-        <v>4029</v>
+        <v>4044</v>
       </c>
       <c r="C1841" t="s">
         <v>3878</v>
@@ -63488,15 +63695,15 @@
         <v>1356</v>
       </c>
       <c r="M1841" t="s">
-        <v>4030</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="1842" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1842">
-        <v>1998</v>
+        <v>2007</v>
       </c>
       <c r="B1842" t="s">
-        <v>4031</v>
+        <v>4046</v>
       </c>
       <c r="C1842" t="s">
         <v>3878</v>
@@ -63511,15 +63718,15 @@
         <v>1356</v>
       </c>
       <c r="M1842" t="s">
-        <v>4552</v>
+        <v>4555</v>
       </c>
     </row>
     <row r="1843" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1843">
-        <v>1999</v>
+        <v>2008</v>
       </c>
       <c r="B1843" t="s">
-        <v>4032</v>
+        <v>4047</v>
       </c>
       <c r="C1843" t="s">
         <v>3878</v>
@@ -63534,15 +63741,15 @@
         <v>1356</v>
       </c>
       <c r="M1843" t="s">
-        <v>4553</v>
+        <v>4048</v>
       </c>
     </row>
     <row r="1844" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1844">
-        <v>2000</v>
+        <v>2009</v>
       </c>
       <c r="B1844" t="s">
-        <v>4033</v>
+        <v>4049</v>
       </c>
       <c r="C1844" t="s">
         <v>3878</v>
@@ -63557,15 +63764,15 @@
         <v>1356</v>
       </c>
       <c r="M1844" t="s">
-        <v>4034</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="1845" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1845">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="B1845" t="s">
-        <v>4035</v>
+        <v>4050</v>
       </c>
       <c r="C1845" t="s">
         <v>3878</v>
@@ -63580,15 +63787,15 @@
         <v>1356</v>
       </c>
       <c r="M1845" t="s">
-        <v>4036</v>
+        <v>4051</v>
       </c>
     </row>
     <row r="1846" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1846">
-        <v>2002</v>
+        <v>2011</v>
       </c>
       <c r="B1846" t="s">
-        <v>4037</v>
+        <v>4052</v>
       </c>
       <c r="C1846" t="s">
         <v>3878</v>
@@ -63603,15 +63810,15 @@
         <v>1356</v>
       </c>
       <c r="M1846" t="s">
-        <v>4038</v>
+        <v>4053</v>
       </c>
     </row>
     <row r="1847" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1847">
-        <v>2003</v>
+        <v>2012</v>
       </c>
       <c r="B1847" t="s">
-        <v>4039</v>
+        <v>4054</v>
       </c>
       <c r="C1847" t="s">
         <v>3878</v>
@@ -63626,15 +63833,15 @@
         <v>1356</v>
       </c>
       <c r="M1847" t="s">
-        <v>4040</v>
+        <v>4055</v>
       </c>
     </row>
     <row r="1848" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1848">
-        <v>2004</v>
+        <v>2013</v>
       </c>
       <c r="B1848" t="s">
-        <v>4041</v>
+        <v>4056</v>
       </c>
       <c r="C1848" t="s">
         <v>3878</v>
@@ -63649,15 +63856,15 @@
         <v>1356</v>
       </c>
       <c r="M1848" t="s">
-        <v>4554</v>
+        <v>4557</v>
       </c>
     </row>
     <row r="1849" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1849">
-        <v>2005</v>
+        <v>2014</v>
       </c>
       <c r="B1849" t="s">
-        <v>4042</v>
+        <v>4057</v>
       </c>
       <c r="C1849" t="s">
         <v>3878</v>
@@ -63672,15 +63879,15 @@
         <v>1356</v>
       </c>
       <c r="M1849" t="s">
-        <v>4043</v>
+        <v>4558</v>
       </c>
     </row>
     <row r="1850" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1850">
-        <v>2006</v>
+        <v>2015</v>
       </c>
       <c r="B1850" t="s">
-        <v>4044</v>
+        <v>4058</v>
       </c>
       <c r="C1850" t="s">
         <v>3878</v>
@@ -63695,15 +63902,15 @@
         <v>1356</v>
       </c>
       <c r="M1850" t="s">
-        <v>4045</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="1851" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1851">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="B1851" t="s">
-        <v>4046</v>
+        <v>4059</v>
       </c>
       <c r="C1851" t="s">
         <v>3878</v>
@@ -63718,15 +63925,15 @@
         <v>1356</v>
       </c>
       <c r="M1851" t="s">
-        <v>4555</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="1852" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1852">
-        <v>2008</v>
+        <v>2017</v>
       </c>
       <c r="B1852" t="s">
-        <v>4047</v>
+        <v>4060</v>
       </c>
       <c r="C1852" t="s">
         <v>3878</v>
@@ -63741,15 +63948,15 @@
         <v>1356</v>
       </c>
       <c r="M1852" t="s">
-        <v>4048</v>
+        <v>4561</v>
       </c>
     </row>
     <row r="1853" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1853">
-        <v>2009</v>
+        <v>2018</v>
       </c>
       <c r="B1853" t="s">
-        <v>4049</v>
+        <v>4061</v>
       </c>
       <c r="C1853" t="s">
         <v>3878</v>
@@ -63764,15 +63971,15 @@
         <v>1356</v>
       </c>
       <c r="M1853" t="s">
-        <v>4556</v>
+        <v>4062</v>
       </c>
     </row>
     <row r="1854" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1854">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="B1854" t="s">
-        <v>4050</v>
+        <v>4063</v>
       </c>
       <c r="C1854" t="s">
         <v>3878</v>
@@ -63787,15 +63994,15 @@
         <v>1356</v>
       </c>
       <c r="M1854" t="s">
-        <v>4051</v>
+        <v>4562</v>
       </c>
     </row>
     <row r="1855" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1855">
-        <v>2011</v>
+        <v>2020</v>
       </c>
       <c r="B1855" t="s">
-        <v>4052</v>
+        <v>4064</v>
       </c>
       <c r="C1855" t="s">
         <v>3878</v>
@@ -63810,218 +64017,11 @@
         <v>1356</v>
       </c>
       <c r="M1855" t="s">
-        <v>4053</v>
-      </c>
-    </row>
-    <row r="1856" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1856">
-        <v>2012</v>
-      </c>
-      <c r="B1856" t="s">
-        <v>4054</v>
-      </c>
-      <c r="C1856" t="s">
-        <v>3878</v>
-      </c>
-      <c r="D1856">
-        <v>68000</v>
-      </c>
-      <c r="E1856" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1856" t="s">
-        <v>1356</v>
-      </c>
-      <c r="M1856" t="s">
-        <v>4055</v>
-      </c>
-    </row>
-    <row r="1857" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1857">
-        <v>2013</v>
-      </c>
-      <c r="B1857" t="s">
-        <v>4056</v>
-      </c>
-      <c r="C1857" t="s">
-        <v>3878</v>
-      </c>
-      <c r="D1857">
-        <v>68000</v>
-      </c>
-      <c r="E1857" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1857" t="s">
-        <v>1356</v>
-      </c>
-      <c r="M1857" t="s">
-        <v>4557</v>
-      </c>
-    </row>
-    <row r="1858" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1858">
-        <v>2014</v>
-      </c>
-      <c r="B1858" t="s">
-        <v>4057</v>
-      </c>
-      <c r="C1858" t="s">
-        <v>3878</v>
-      </c>
-      <c r="D1858">
-        <v>68000</v>
-      </c>
-      <c r="E1858" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1858" t="s">
-        <v>1356</v>
-      </c>
-      <c r="M1858" t="s">
-        <v>4558</v>
-      </c>
-    </row>
-    <row r="1859" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1859">
-        <v>2015</v>
-      </c>
-      <c r="B1859" t="s">
-        <v>4058</v>
-      </c>
-      <c r="C1859" t="s">
-        <v>3878</v>
-      </c>
-      <c r="D1859">
-        <v>68000</v>
-      </c>
-      <c r="E1859" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1859" t="s">
-        <v>1356</v>
-      </c>
-      <c r="M1859" t="s">
-        <v>4559</v>
-      </c>
-    </row>
-    <row r="1860" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1860">
-        <v>2016</v>
-      </c>
-      <c r="B1860" t="s">
-        <v>4059</v>
-      </c>
-      <c r="C1860" t="s">
-        <v>3878</v>
-      </c>
-      <c r="D1860">
-        <v>68000</v>
-      </c>
-      <c r="E1860" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1860" t="s">
-        <v>1356</v>
-      </c>
-      <c r="M1860" t="s">
-        <v>4560</v>
-      </c>
-    </row>
-    <row r="1861" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1861">
-        <v>2017</v>
-      </c>
-      <c r="B1861" t="s">
-        <v>4060</v>
-      </c>
-      <c r="C1861" t="s">
-        <v>3878</v>
-      </c>
-      <c r="D1861">
-        <v>68000</v>
-      </c>
-      <c r="E1861" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1861" t="s">
-        <v>1356</v>
-      </c>
-      <c r="M1861" t="s">
-        <v>4561</v>
-      </c>
-    </row>
-    <row r="1862" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1862">
-        <v>2018</v>
-      </c>
-      <c r="B1862" t="s">
-        <v>4061</v>
-      </c>
-      <c r="C1862" t="s">
-        <v>3878</v>
-      </c>
-      <c r="D1862">
-        <v>68000</v>
-      </c>
-      <c r="E1862" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1862" t="s">
-        <v>1356</v>
-      </c>
-      <c r="M1862" t="s">
-        <v>4062</v>
-      </c>
-    </row>
-    <row r="1863" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1863">
-        <v>2019</v>
-      </c>
-      <c r="B1863" t="s">
-        <v>4063</v>
-      </c>
-      <c r="C1863" t="s">
-        <v>3878</v>
-      </c>
-      <c r="D1863">
-        <v>68000</v>
-      </c>
-      <c r="E1863" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1863" t="s">
-        <v>1356</v>
-      </c>
-      <c r="M1863" t="s">
-        <v>4562</v>
-      </c>
-    </row>
-    <row r="1864" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1864">
-        <v>2020</v>
-      </c>
-      <c r="B1864" t="s">
-        <v>4064</v>
-      </c>
-      <c r="C1864" t="s">
-        <v>3878</v>
-      </c>
-      <c r="D1864">
-        <v>68000</v>
-      </c>
-      <c r="E1864" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1864" t="s">
-        <v>1356</v>
-      </c>
-      <c r="M1864" t="s">
         <v>4065</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1864"/>
+  <autoFilter ref="A1:M1855"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/0.36/compatibility.xlsx
+++ b/0.36/compatibility.xlsx
@@ -17,8 +17,8 @@
     <sheet name="GAME_NOT_WORKING FLAG" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ALL!$A$1:$M$1855</definedName>
-    <definedName name="LIST" localSheetId="1">ALL!$B$1:$M$1855</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ALL!$A$1:$M$1851</definedName>
+    <definedName name="LIST" localSheetId="1">ALL!$B$1:$M$1851</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -14087,10 +14087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P193"/>
+  <dimension ref="A1:P197"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="F195" sqref="F195"/>
+    <sheetView topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="A190" sqref="A190:A197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18415,6 +18415,98 @@
         <v>3486</v>
       </c>
     </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>194</v>
+      </c>
+      <c r="B194" t="s">
+        <v>3724</v>
+      </c>
+      <c r="C194" t="s">
+        <v>3725</v>
+      </c>
+      <c r="D194" t="s">
+        <v>14</v>
+      </c>
+      <c r="E194" t="s">
+        <v>14</v>
+      </c>
+      <c r="H194" t="s">
+        <v>71</v>
+      </c>
+      <c r="M194" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>195</v>
+      </c>
+      <c r="B195" t="s">
+        <v>3727</v>
+      </c>
+      <c r="C195" t="s">
+        <v>3725</v>
+      </c>
+      <c r="D195" t="s">
+        <v>14</v>
+      </c>
+      <c r="E195" t="s">
+        <v>14</v>
+      </c>
+      <c r="H195" t="s">
+        <v>71</v>
+      </c>
+      <c r="M195" t="s">
+        <v>3728</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>196</v>
+      </c>
+      <c r="B196" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C196" t="s">
+        <v>3725</v>
+      </c>
+      <c r="D196" t="s">
+        <v>14</v>
+      </c>
+      <c r="E196" t="s">
+        <v>14</v>
+      </c>
+      <c r="H196" t="s">
+        <v>71</v>
+      </c>
+      <c r="M196" t="s">
+        <v>3730</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>197</v>
+      </c>
+      <c r="B197" t="s">
+        <v>3731</v>
+      </c>
+      <c r="C197" t="s">
+        <v>3725</v>
+      </c>
+      <c r="D197" t="s">
+        <v>14</v>
+      </c>
+      <c r="E197" t="s">
+        <v>14</v>
+      </c>
+      <c r="H197" t="s">
+        <v>71</v>
+      </c>
+      <c r="M197" t="s">
+        <v>3732</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18422,10 +18514,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1855"/>
+  <dimension ref="A1:M1851"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1836" workbookViewId="0">
-      <selection activeCell="O1587" sqref="O1587"/>
+    <sheetView tabSelected="1" topLeftCell="A1659" workbookViewId="0">
+      <selection activeCell="I1669" sqref="I1669"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -59842,13 +59934,13 @@
     </row>
     <row r="1674" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1674">
-        <v>1836</v>
+        <v>1842</v>
       </c>
       <c r="B1674" t="s">
-        <v>3724</v>
+        <v>3738</v>
       </c>
       <c r="C1674" t="s">
-        <v>3725</v>
+        <v>3739</v>
       </c>
       <c r="D1674" t="s">
         <v>14</v>
@@ -59860,18 +59952,18 @@
         <v>71</v>
       </c>
       <c r="M1674" t="s">
-        <v>3726</v>
+        <v>3740</v>
       </c>
     </row>
     <row r="1675" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1675">
-        <v>1837</v>
+        <v>1843</v>
       </c>
       <c r="B1675" t="s">
-        <v>3727</v>
+        <v>3741</v>
       </c>
       <c r="C1675" t="s">
-        <v>3725</v>
+        <v>3739</v>
       </c>
       <c r="D1675" t="s">
         <v>14</v>
@@ -59883,265 +59975,265 @@
         <v>71</v>
       </c>
       <c r="M1675" t="s">
-        <v>3728</v>
+        <v>3742</v>
       </c>
     </row>
     <row r="1676" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1676">
-        <v>1838</v>
+        <v>1844</v>
       </c>
       <c r="B1676" t="s">
-        <v>3729</v>
+        <v>3743</v>
       </c>
       <c r="C1676" t="s">
-        <v>3725</v>
-      </c>
-      <c r="D1676" t="s">
-        <v>14</v>
+        <v>3744</v>
+      </c>
+      <c r="D1676">
+        <v>68000</v>
       </c>
       <c r="E1676" t="s">
         <v>14</v>
       </c>
       <c r="H1676" t="s">
-        <v>71</v>
+        <v>349</v>
       </c>
       <c r="M1676" t="s">
-        <v>3730</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="1677" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1677">
-        <v>1839</v>
+        <v>1845</v>
       </c>
       <c r="B1677" t="s">
-        <v>3731</v>
+        <v>3746</v>
       </c>
       <c r="C1677" t="s">
-        <v>3725</v>
-      </c>
-      <c r="D1677" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1677" t="s">
-        <v>14</v>
+        <v>3747</v>
+      </c>
+      <c r="D1677">
+        <v>68000</v>
       </c>
       <c r="H1677" t="s">
-        <v>71</v>
+        <v>172</v>
+      </c>
+      <c r="I1677" t="s">
+        <v>1495</v>
       </c>
       <c r="M1677" t="s">
-        <v>3732</v>
+        <v>3748</v>
       </c>
     </row>
     <row r="1678" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1678">
-        <v>1842</v>
+        <v>1846</v>
       </c>
       <c r="B1678" t="s">
-        <v>3738</v>
+        <v>3749</v>
       </c>
       <c r="C1678" t="s">
-        <v>3739</v>
-      </c>
-      <c r="D1678" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1678" t="s">
-        <v>14</v>
+        <v>3747</v>
+      </c>
+      <c r="D1678">
+        <v>68000</v>
       </c>
       <c r="H1678" t="s">
-        <v>71</v>
+        <v>172</v>
+      </c>
+      <c r="I1678" t="s">
+        <v>1495</v>
       </c>
       <c r="M1678" t="s">
-        <v>3740</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="1679" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1679">
-        <v>1843</v>
+        <v>1847</v>
       </c>
       <c r="B1679" t="s">
-        <v>3741</v>
+        <v>3751</v>
       </c>
       <c r="C1679" t="s">
-        <v>3739</v>
-      </c>
-      <c r="D1679" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1679" t="s">
-        <v>14</v>
+        <v>3747</v>
+      </c>
+      <c r="D1679">
+        <v>68000</v>
       </c>
       <c r="H1679" t="s">
-        <v>71</v>
+        <v>2378</v>
       </c>
       <c r="M1679" t="s">
-        <v>3742</v>
+        <v>3752</v>
       </c>
     </row>
     <row r="1680" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1680">
-        <v>1844</v>
+        <v>1848</v>
       </c>
       <c r="B1680" t="s">
-        <v>3743</v>
+        <v>3753</v>
       </c>
       <c r="C1680" t="s">
-        <v>3744</v>
+        <v>3747</v>
       </c>
       <c r="D1680">
         <v>68000</v>
       </c>
-      <c r="E1680" t="s">
-        <v>14</v>
-      </c>
       <c r="H1680" t="s">
-        <v>349</v>
+        <v>2378</v>
       </c>
       <c r="M1680" t="s">
-        <v>3745</v>
+        <v>4492</v>
       </c>
     </row>
     <row r="1681" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1681">
-        <v>1845</v>
+        <v>1849</v>
       </c>
       <c r="B1681" t="s">
-        <v>3746</v>
+        <v>3754</v>
       </c>
       <c r="C1681" t="s">
-        <v>3747</v>
+        <v>3755</v>
       </c>
       <c r="D1681">
         <v>68000</v>
       </c>
       <c r="H1681" t="s">
-        <v>172</v>
-      </c>
-      <c r="I1681" t="s">
         <v>1495</v>
       </c>
       <c r="M1681" t="s">
-        <v>3748</v>
+        <v>3756</v>
       </c>
     </row>
     <row r="1682" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1682">
-        <v>1846</v>
+        <v>1850</v>
       </c>
       <c r="B1682" t="s">
-        <v>3749</v>
+        <v>3757</v>
       </c>
       <c r="C1682" t="s">
-        <v>3747</v>
-      </c>
-      <c r="D1682">
-        <v>68000</v>
+        <v>3758</v>
+      </c>
+      <c r="D1682" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1682" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1682" t="s">
+        <v>14</v>
       </c>
       <c r="H1682" t="s">
-        <v>172</v>
+        <v>336</v>
       </c>
       <c r="I1682" t="s">
         <v>1495</v>
       </c>
       <c r="M1682" t="s">
-        <v>3750</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="1683" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1683">
-        <v>1847</v>
+        <v>1851</v>
       </c>
       <c r="B1683" t="s">
-        <v>3751</v>
+        <v>3760</v>
       </c>
       <c r="C1683" t="s">
-        <v>3747</v>
-      </c>
-      <c r="D1683">
-        <v>68000</v>
+        <v>3761</v>
+      </c>
+      <c r="D1683" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1683" t="s">
+        <v>728</v>
       </c>
       <c r="H1683" t="s">
-        <v>2378</v>
+        <v>166</v>
       </c>
       <c r="M1683" t="s">
-        <v>3752</v>
+        <v>4493</v>
       </c>
     </row>
     <row r="1684" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1684">
-        <v>1848</v>
+        <v>1852</v>
       </c>
       <c r="B1684" t="s">
-        <v>3753</v>
+        <v>3762</v>
       </c>
       <c r="C1684" t="s">
-        <v>3747</v>
-      </c>
-      <c r="D1684">
-        <v>68000</v>
+        <v>3761</v>
+      </c>
+      <c r="D1684" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1684" t="s">
+        <v>728</v>
       </c>
       <c r="H1684" t="s">
-        <v>2378</v>
+        <v>166</v>
       </c>
       <c r="M1684" t="s">
-        <v>4492</v>
+        <v>3763</v>
       </c>
     </row>
     <row r="1685" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1685">
-        <v>1849</v>
+        <v>1853</v>
       </c>
       <c r="B1685" t="s">
-        <v>3754</v>
+        <v>3764</v>
       </c>
       <c r="C1685" t="s">
-        <v>3755</v>
-      </c>
-      <c r="D1685">
-        <v>68000</v>
+        <v>3761</v>
+      </c>
+      <c r="D1685" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1685" t="s">
+        <v>728</v>
       </c>
       <c r="H1685" t="s">
-        <v>1495</v>
+        <v>166</v>
       </c>
       <c r="M1685" t="s">
-        <v>3756</v>
+        <v>3765</v>
       </c>
     </row>
     <row r="1686" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1686">
-        <v>1850</v>
+        <v>1854</v>
       </c>
       <c r="B1686" t="s">
-        <v>3757</v>
+        <v>3766</v>
       </c>
       <c r="C1686" t="s">
-        <v>3758</v>
+        <v>3761</v>
       </c>
       <c r="D1686" t="s">
         <v>14</v>
       </c>
       <c r="E1686" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1686" t="s">
-        <v>14</v>
+        <v>728</v>
       </c>
       <c r="H1686" t="s">
-        <v>336</v>
-      </c>
-      <c r="I1686" t="s">
-        <v>1495</v>
+        <v>166</v>
       </c>
       <c r="M1686" t="s">
-        <v>3759</v>
+        <v>3767</v>
       </c>
     </row>
     <row r="1687" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1687">
-        <v>1851</v>
+        <v>1855</v>
       </c>
       <c r="B1687" t="s">
-        <v>3760</v>
+        <v>3768</v>
       </c>
       <c r="C1687" t="s">
         <v>3761</v>
@@ -60156,480 +60248,507 @@
         <v>166</v>
       </c>
       <c r="M1687" t="s">
-        <v>4493</v>
+        <v>3769</v>
       </c>
     </row>
     <row r="1688" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1688">
-        <v>1852</v>
+        <v>1856</v>
       </c>
       <c r="B1688" t="s">
-        <v>3762</v>
+        <v>3777</v>
       </c>
       <c r="C1688" t="s">
-        <v>3761</v>
+        <v>3778</v>
       </c>
       <c r="D1688" t="s">
         <v>14</v>
       </c>
       <c r="E1688" t="s">
-        <v>728</v>
+        <v>154</v>
       </c>
       <c r="H1688" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M1688" t="s">
-        <v>3763</v>
+        <v>3779</v>
       </c>
     </row>
     <row r="1689" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1689">
-        <v>1853</v>
+        <v>1857</v>
       </c>
       <c r="B1689" t="s">
-        <v>3764</v>
+        <v>3780</v>
       </c>
       <c r="C1689" t="s">
-        <v>3761</v>
+        <v>3781</v>
       </c>
       <c r="D1689" t="s">
         <v>14</v>
       </c>
-      <c r="E1689" t="s">
-        <v>728</v>
-      </c>
       <c r="H1689" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M1689" t="s">
-        <v>3765</v>
+        <v>3782</v>
       </c>
     </row>
     <row r="1690" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1690">
-        <v>1854</v>
+        <v>1858</v>
       </c>
       <c r="B1690" t="s">
-        <v>3766</v>
+        <v>3783</v>
       </c>
       <c r="C1690" t="s">
-        <v>3761</v>
+        <v>3781</v>
       </c>
       <c r="D1690" t="s">
         <v>14</v>
       </c>
-      <c r="E1690" t="s">
-        <v>728</v>
-      </c>
       <c r="H1690" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M1690" t="s">
-        <v>3767</v>
+        <v>3784</v>
       </c>
     </row>
     <row r="1691" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1691">
-        <v>1855</v>
+        <v>1859</v>
       </c>
       <c r="B1691" t="s">
-        <v>3768</v>
+        <v>3785</v>
       </c>
       <c r="C1691" t="s">
-        <v>3761</v>
+        <v>3786</v>
       </c>
       <c r="D1691" t="s">
         <v>14</v>
       </c>
-      <c r="E1691" t="s">
-        <v>728</v>
-      </c>
       <c r="H1691" t="s">
-        <v>166</v>
+        <v>336</v>
       </c>
       <c r="M1691" t="s">
-        <v>3769</v>
+        <v>3787</v>
       </c>
     </row>
     <row r="1692" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1692">
-        <v>1856</v>
+        <v>1860</v>
       </c>
       <c r="B1692" t="s">
-        <v>3777</v>
+        <v>3788</v>
       </c>
       <c r="C1692" t="s">
-        <v>3778</v>
+        <v>3786</v>
       </c>
       <c r="D1692" t="s">
         <v>14</v>
       </c>
-      <c r="E1692" t="s">
-        <v>154</v>
-      </c>
       <c r="H1692" t="s">
-        <v>172</v>
+        <v>336</v>
       </c>
       <c r="M1692" t="s">
-        <v>3779</v>
+        <v>3789</v>
       </c>
     </row>
     <row r="1693" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1693">
-        <v>1857</v>
+        <v>1861</v>
       </c>
       <c r="B1693" t="s">
-        <v>3780</v>
+        <v>3790</v>
       </c>
       <c r="C1693" t="s">
-        <v>3781</v>
+        <v>3786</v>
       </c>
       <c r="D1693" t="s">
         <v>14</v>
       </c>
       <c r="H1693" t="s">
-        <v>172</v>
+        <v>336</v>
       </c>
       <c r="M1693" t="s">
-        <v>3782</v>
+        <v>3791</v>
       </c>
     </row>
     <row r="1694" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1694">
-        <v>1858</v>
+        <v>1862</v>
       </c>
       <c r="B1694" t="s">
-        <v>3783</v>
+        <v>3792</v>
       </c>
       <c r="C1694" t="s">
-        <v>3781</v>
+        <v>3786</v>
       </c>
       <c r="D1694" t="s">
         <v>14</v>
       </c>
       <c r="H1694" t="s">
-        <v>172</v>
+        <v>336</v>
       </c>
       <c r="M1694" t="s">
-        <v>3784</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="1695" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1695">
-        <v>1859</v>
+        <v>1863</v>
       </c>
       <c r="B1695" t="s">
-        <v>3785</v>
+        <v>3794</v>
       </c>
       <c r="C1695" t="s">
-        <v>3786</v>
+        <v>3795</v>
       </c>
       <c r="D1695" t="s">
-        <v>14</v>
+        <v>405</v>
+      </c>
+      <c r="E1695" t="s">
+        <v>1187</v>
       </c>
       <c r="H1695" t="s">
-        <v>336</v>
+        <v>71</v>
       </c>
       <c r="M1695" t="s">
-        <v>3787</v>
+        <v>3796</v>
       </c>
     </row>
     <row r="1696" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1696">
-        <v>1860</v>
+        <v>1864</v>
       </c>
       <c r="B1696" t="s">
-        <v>3788</v>
+        <v>3797</v>
       </c>
       <c r="C1696" t="s">
-        <v>3786</v>
+        <v>3795</v>
       </c>
       <c r="D1696" t="s">
-        <v>14</v>
+        <v>405</v>
+      </c>
+      <c r="E1696" t="s">
+        <v>1187</v>
       </c>
       <c r="H1696" t="s">
-        <v>336</v>
+        <v>71</v>
       </c>
       <c r="M1696" t="s">
-        <v>3789</v>
+        <v>3798</v>
       </c>
     </row>
     <row r="1697" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1697">
-        <v>1861</v>
+        <v>1866</v>
       </c>
       <c r="B1697" t="s">
-        <v>3790</v>
+        <v>3802</v>
       </c>
       <c r="C1697" t="s">
-        <v>3786</v>
+        <v>3803</v>
       </c>
       <c r="D1697" t="s">
-        <v>14</v>
+        <v>405</v>
+      </c>
+      <c r="E1697" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F1697" t="s">
+        <v>3804</v>
       </c>
       <c r="H1697" t="s">
-        <v>336</v>
+        <v>71</v>
       </c>
       <c r="M1697" t="s">
-        <v>3791</v>
+        <v>3805</v>
       </c>
     </row>
     <row r="1698" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1698">
-        <v>1862</v>
+        <v>1867</v>
       </c>
       <c r="B1698" t="s">
-        <v>3792</v>
+        <v>3806</v>
       </c>
       <c r="C1698" t="s">
-        <v>3786</v>
+        <v>3807</v>
       </c>
       <c r="D1698" t="s">
-        <v>14</v>
+        <v>473</v>
       </c>
       <c r="H1698" t="s">
-        <v>336</v>
+        <v>2939</v>
       </c>
       <c r="M1698" t="s">
-        <v>3793</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="1699" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1699">
-        <v>1863</v>
+        <v>1868</v>
       </c>
       <c r="B1699" t="s">
-        <v>3794</v>
+        <v>3809</v>
       </c>
       <c r="C1699" t="s">
-        <v>3795</v>
+        <v>3810</v>
       </c>
       <c r="D1699" t="s">
-        <v>405</v>
-      </c>
-      <c r="E1699" t="s">
-        <v>1187</v>
-      </c>
-      <c r="H1699" t="s">
-        <v>71</v>
+        <v>473</v>
       </c>
       <c r="M1699" t="s">
-        <v>3796</v>
+        <v>3811</v>
       </c>
     </row>
     <row r="1700" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1700">
-        <v>1864</v>
+        <v>1869</v>
       </c>
       <c r="B1700" t="s">
-        <v>3797</v>
+        <v>3812</v>
       </c>
       <c r="C1700" t="s">
-        <v>3795</v>
+        <v>3810</v>
       </c>
       <c r="D1700" t="s">
-        <v>405</v>
-      </c>
-      <c r="E1700" t="s">
-        <v>1187</v>
-      </c>
-      <c r="H1700" t="s">
-        <v>71</v>
+        <v>473</v>
       </c>
       <c r="M1700" t="s">
-        <v>3798</v>
+        <v>3813</v>
       </c>
     </row>
     <row r="1701" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1701">
-        <v>1866</v>
+        <v>1870</v>
       </c>
       <c r="B1701" t="s">
-        <v>3802</v>
+        <v>3814</v>
       </c>
       <c r="C1701" t="s">
-        <v>3803</v>
-      </c>
-      <c r="D1701" t="s">
-        <v>405</v>
-      </c>
-      <c r="E1701" t="s">
-        <v>1187</v>
-      </c>
-      <c r="F1701" t="s">
-        <v>3804</v>
-      </c>
-      <c r="H1701" t="s">
-        <v>71</v>
+        <v>3815</v>
+      </c>
+      <c r="D1701">
+        <v>8080</v>
       </c>
       <c r="M1701" t="s">
-        <v>3805</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="1702" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1702">
-        <v>1867</v>
+        <v>1871</v>
       </c>
       <c r="B1702" t="s">
-        <v>3806</v>
+        <v>3817</v>
       </c>
       <c r="C1702" t="s">
-        <v>3807</v>
+        <v>3818</v>
       </c>
       <c r="D1702" t="s">
-        <v>473</v>
+        <v>3439</v>
+      </c>
+      <c r="E1702" t="s">
+        <v>3439</v>
+      </c>
+      <c r="F1702" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G1702" t="s">
+        <v>1187</v>
       </c>
       <c r="H1702" t="s">
-        <v>2939</v>
+        <v>333</v>
+      </c>
+      <c r="I1702" t="s">
+        <v>551</v>
       </c>
       <c r="M1702" t="s">
-        <v>3808</v>
+        <v>3819</v>
       </c>
     </row>
     <row r="1703" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1703">
-        <v>1868</v>
+        <v>1872</v>
       </c>
       <c r="B1703" t="s">
-        <v>3809</v>
+        <v>3820</v>
       </c>
       <c r="C1703" t="s">
-        <v>3810</v>
+        <v>3821</v>
       </c>
       <c r="D1703" t="s">
-        <v>473</v>
+        <v>14</v>
+      </c>
+      <c r="H1703" t="s">
+        <v>172</v>
       </c>
       <c r="M1703" t="s">
-        <v>3811</v>
+        <v>3822</v>
       </c>
     </row>
     <row r="1704" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1704">
-        <v>1869</v>
+        <v>1873</v>
       </c>
       <c r="B1704" t="s">
-        <v>3812</v>
+        <v>3823</v>
       </c>
       <c r="C1704" t="s">
-        <v>3810</v>
+        <v>3824</v>
       </c>
       <c r="D1704" t="s">
-        <v>473</v>
+        <v>14</v>
+      </c>
+      <c r="E1704" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1704" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1704" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1704" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1704" t="s">
+        <v>166</v>
       </c>
       <c r="M1704" t="s">
-        <v>3813</v>
+        <v>3825</v>
       </c>
     </row>
     <row r="1705" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1705">
-        <v>1870</v>
+        <v>1874</v>
       </c>
       <c r="B1705" t="s">
-        <v>3814</v>
+        <v>3826</v>
       </c>
       <c r="C1705" t="s">
-        <v>3815</v>
-      </c>
-      <c r="D1705">
-        <v>8080</v>
+        <v>3824</v>
+      </c>
+      <c r="D1705" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1705" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1705" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1705" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1705" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1705" t="s">
+        <v>166</v>
       </c>
       <c r="M1705" t="s">
-        <v>3816</v>
+        <v>3827</v>
       </c>
     </row>
     <row r="1706" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1706">
-        <v>1871</v>
+        <v>1875</v>
       </c>
       <c r="B1706" t="s">
-        <v>3817</v>
+        <v>3828</v>
       </c>
       <c r="C1706" t="s">
-        <v>3818</v>
+        <v>3824</v>
       </c>
       <c r="D1706" t="s">
-        <v>3439</v>
+        <v>14</v>
       </c>
       <c r="E1706" t="s">
-        <v>3439</v>
+        <v>14</v>
       </c>
       <c r="F1706" t="s">
-        <v>1187</v>
+        <v>14</v>
       </c>
       <c r="G1706" t="s">
-        <v>1187</v>
+        <v>154</v>
       </c>
       <c r="H1706" t="s">
-        <v>333</v>
+        <v>71</v>
       </c>
       <c r="I1706" t="s">
-        <v>551</v>
+        <v>166</v>
       </c>
       <c r="M1706" t="s">
-        <v>3819</v>
+        <v>3829</v>
       </c>
     </row>
     <row r="1707" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1707">
-        <v>1872</v>
+        <v>1876</v>
       </c>
       <c r="B1707" t="s">
-        <v>3820</v>
+        <v>3830</v>
       </c>
       <c r="C1707" t="s">
-        <v>3821</v>
+        <v>3824</v>
       </c>
       <c r="D1707" t="s">
         <v>14</v>
       </c>
+      <c r="E1707" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1707" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1707" t="s">
+        <v>154</v>
+      </c>
       <c r="H1707" t="s">
-        <v>172</v>
+        <v>71</v>
+      </c>
+      <c r="I1707" t="s">
+        <v>166</v>
       </c>
       <c r="M1707" t="s">
-        <v>3822</v>
+        <v>3831</v>
       </c>
     </row>
     <row r="1708" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1708">
-        <v>1873</v>
+        <v>1877</v>
       </c>
       <c r="B1708" t="s">
-        <v>3823</v>
+        <v>3832</v>
       </c>
       <c r="C1708" t="s">
-        <v>3824</v>
-      </c>
-      <c r="D1708" t="s">
-        <v>14</v>
+        <v>3833</v>
+      </c>
+      <c r="D1708">
+        <v>68000</v>
       </c>
       <c r="E1708" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1708" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1708" t="s">
         <v>154</v>
       </c>
       <c r="H1708" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1708" t="s">
-        <v>166</v>
+        <v>1495</v>
       </c>
       <c r="M1708" t="s">
-        <v>3825</v>
+        <v>3834</v>
       </c>
     </row>
     <row r="1709" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1709">
-        <v>1874</v>
+        <v>1878</v>
       </c>
       <c r="B1709" t="s">
-        <v>3826</v>
+        <v>3835</v>
       </c>
       <c r="C1709" t="s">
-        <v>3824</v>
+        <v>3836</v>
       </c>
       <c r="D1709" t="s">
         <v>14</v>
@@ -60637,31 +60756,25 @@
       <c r="E1709" t="s">
         <v>14</v>
       </c>
-      <c r="F1709" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1709" t="s">
-        <v>154</v>
-      </c>
       <c r="H1709" t="s">
-        <v>71</v>
+        <v>1239</v>
       </c>
       <c r="I1709" t="s">
-        <v>166</v>
+        <v>333</v>
       </c>
       <c r="M1709" t="s">
-        <v>3827</v>
+        <v>3837</v>
       </c>
     </row>
     <row r="1710" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1710">
-        <v>1875</v>
+        <v>1879</v>
       </c>
       <c r="B1710" t="s">
-        <v>3828</v>
+        <v>3838</v>
       </c>
       <c r="C1710" t="s">
-        <v>3824</v>
+        <v>3836</v>
       </c>
       <c r="D1710" t="s">
         <v>14</v>
@@ -60669,43 +60782,31 @@
       <c r="E1710" t="s">
         <v>14</v>
       </c>
-      <c r="F1710" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1710" t="s">
-        <v>154</v>
-      </c>
       <c r="H1710" t="s">
-        <v>71</v>
+        <v>1239</v>
       </c>
       <c r="I1710" t="s">
-        <v>166</v>
+        <v>333</v>
       </c>
       <c r="M1710" t="s">
-        <v>3829</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="1711" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1711">
-        <v>1876</v>
+        <v>1880</v>
       </c>
       <c r="B1711" t="s">
-        <v>3830</v>
+        <v>3839</v>
       </c>
       <c r="C1711" t="s">
-        <v>3824</v>
+        <v>3836</v>
       </c>
       <c r="D1711" t="s">
         <v>14</v>
       </c>
       <c r="E1711" t="s">
         <v>14</v>
-      </c>
-      <c r="F1711" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1711" t="s">
-        <v>154</v>
       </c>
       <c r="H1711" t="s">
         <v>71</v>
@@ -60714,41 +60815,44 @@
         <v>166</v>
       </c>
       <c r="M1711" t="s">
-        <v>3831</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="1712" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1712">
-        <v>1877</v>
+        <v>1881</v>
       </c>
       <c r="B1712" t="s">
-        <v>3832</v>
+        <v>3840</v>
       </c>
       <c r="C1712" t="s">
-        <v>3833</v>
-      </c>
-      <c r="D1712">
-        <v>68000</v>
+        <v>3836</v>
+      </c>
+      <c r="D1712" t="s">
+        <v>14</v>
       </c>
       <c r="E1712" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="H1712" t="s">
-        <v>1495</v>
+        <v>1239</v>
+      </c>
+      <c r="I1712" t="s">
+        <v>333</v>
       </c>
       <c r="M1712" t="s">
-        <v>3834</v>
+        <v>3841</v>
       </c>
     </row>
     <row r="1713" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1713">
-        <v>1878</v>
+        <v>1882</v>
       </c>
       <c r="B1713" t="s">
-        <v>3835</v>
+        <v>3842</v>
       </c>
       <c r="C1713" t="s">
-        <v>3836</v>
+        <v>3843</v>
       </c>
       <c r="D1713" t="s">
         <v>14</v>
@@ -60757,125 +60861,104 @@
         <v>14</v>
       </c>
       <c r="H1713" t="s">
-        <v>1239</v>
-      </c>
-      <c r="I1713" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="M1713" t="s">
-        <v>3837</v>
+        <v>3844</v>
       </c>
     </row>
     <row r="1714" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1714">
-        <v>1879</v>
+        <v>1883</v>
       </c>
       <c r="B1714" t="s">
-        <v>3838</v>
+        <v>3845</v>
       </c>
       <c r="C1714" t="s">
-        <v>3836</v>
+        <v>3846</v>
       </c>
       <c r="D1714" t="s">
         <v>14</v>
       </c>
       <c r="E1714" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="H1714" t="s">
-        <v>1239</v>
-      </c>
-      <c r="I1714" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="M1714" t="s">
-        <v>4494</v>
+        <v>3847</v>
       </c>
     </row>
     <row r="1715" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1715">
-        <v>1880</v>
+        <v>1884</v>
       </c>
       <c r="B1715" t="s">
-        <v>3839</v>
+        <v>3848</v>
       </c>
       <c r="C1715" t="s">
-        <v>3836</v>
+        <v>3849</v>
       </c>
       <c r="D1715" t="s">
         <v>14</v>
       </c>
-      <c r="E1715" t="s">
-        <v>14</v>
-      </c>
       <c r="H1715" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1715" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M1715" t="s">
-        <v>4495</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="1716" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1716">
-        <v>1881</v>
+        <v>1885</v>
       </c>
       <c r="B1716" t="s">
-        <v>3840</v>
+        <v>3851</v>
       </c>
       <c r="C1716" t="s">
-        <v>3836</v>
-      </c>
-      <c r="D1716" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1716" t="s">
-        <v>14</v>
+        <v>3852</v>
+      </c>
+      <c r="D1716">
+        <v>8080</v>
       </c>
       <c r="H1716" t="s">
-        <v>1239</v>
-      </c>
-      <c r="I1716" t="s">
-        <v>333</v>
+        <v>406</v>
       </c>
       <c r="M1716" t="s">
-        <v>3841</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="1717" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1717">
-        <v>1882</v>
+        <v>1886</v>
       </c>
       <c r="B1717" t="s">
-        <v>3842</v>
+        <v>3854</v>
       </c>
       <c r="C1717" t="s">
-        <v>3843</v>
+        <v>3855</v>
       </c>
       <c r="D1717" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1717" t="s">
-        <v>14</v>
+        <v>1108</v>
       </c>
       <c r="H1717" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="M1717" t="s">
-        <v>3844</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="1718" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1718">
-        <v>1883</v>
+        <v>1887</v>
       </c>
       <c r="B1718" t="s">
-        <v>3845</v>
+        <v>3857</v>
       </c>
       <c r="C1718" t="s">
-        <v>3846</v>
+        <v>3858</v>
       </c>
       <c r="D1718" t="s">
         <v>14</v>
@@ -60884,170 +60967,170 @@
         <v>154</v>
       </c>
       <c r="H1718" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="M1718" t="s">
-        <v>3847</v>
+        <v>3859</v>
       </c>
     </row>
     <row r="1719" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1719">
-        <v>1884</v>
+        <v>1888</v>
       </c>
       <c r="B1719" t="s">
-        <v>3848</v>
+        <v>3860</v>
       </c>
       <c r="C1719" t="s">
-        <v>3849</v>
+        <v>3858</v>
       </c>
       <c r="D1719" t="s">
         <v>14</v>
       </c>
+      <c r="E1719" t="s">
+        <v>154</v>
+      </c>
       <c r="H1719" t="s">
-        <v>172</v>
+        <v>336</v>
       </c>
       <c r="M1719" t="s">
-        <v>3850</v>
+        <v>3861</v>
       </c>
     </row>
     <row r="1720" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1720">
-        <v>1885</v>
+        <v>1889</v>
       </c>
       <c r="B1720" t="s">
-        <v>3851</v>
+        <v>3862</v>
       </c>
       <c r="C1720" t="s">
-        <v>3852</v>
-      </c>
-      <c r="D1720">
-        <v>8080</v>
+        <v>3863</v>
+      </c>
+      <c r="D1720" t="s">
+        <v>3864</v>
+      </c>
+      <c r="E1720" t="s">
+        <v>728</v>
       </c>
       <c r="H1720" t="s">
-        <v>406</v>
+        <v>2073</v>
       </c>
       <c r="M1720" t="s">
-        <v>3853</v>
+        <v>3865</v>
       </c>
     </row>
     <row r="1721" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1721">
-        <v>1886</v>
+        <v>1890</v>
       </c>
       <c r="B1721" t="s">
-        <v>3854</v>
+        <v>3866</v>
       </c>
       <c r="C1721" t="s">
-        <v>3855</v>
-      </c>
-      <c r="D1721" t="s">
-        <v>1108</v>
+        <v>3867</v>
+      </c>
+      <c r="D1721">
+        <v>68000</v>
       </c>
       <c r="H1721" t="s">
-        <v>336</v>
+        <v>2378</v>
       </c>
       <c r="M1721" t="s">
-        <v>3856</v>
+        <v>3868</v>
       </c>
     </row>
     <row r="1722" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1722">
-        <v>1887</v>
+        <v>1891</v>
       </c>
       <c r="B1722" t="s">
-        <v>3857</v>
+        <v>3869</v>
       </c>
       <c r="C1722" t="s">
-        <v>3858</v>
-      </c>
-      <c r="D1722" t="s">
-        <v>14</v>
+        <v>3870</v>
+      </c>
+      <c r="D1722">
+        <v>68000</v>
       </c>
       <c r="E1722" t="s">
         <v>154</v>
       </c>
       <c r="H1722" t="s">
-        <v>336</v>
+        <v>1239</v>
       </c>
       <c r="M1722" t="s">
-        <v>3859</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="1723" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1723">
-        <v>1888</v>
+        <v>1892</v>
       </c>
       <c r="B1723" t="s">
-        <v>3860</v>
+        <v>3872</v>
       </c>
       <c r="C1723" t="s">
-        <v>3858</v>
+        <v>3873</v>
       </c>
       <c r="D1723" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1723" t="s">
-        <v>154</v>
+        <v>405</v>
       </c>
       <c r="H1723" t="s">
-        <v>336</v>
+        <v>71</v>
       </c>
       <c r="M1723" t="s">
-        <v>3861</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="1724" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1724">
-        <v>1889</v>
+        <v>1893</v>
       </c>
       <c r="B1724" t="s">
-        <v>3862</v>
+        <v>3875</v>
       </c>
       <c r="C1724" t="s">
-        <v>3863</v>
+        <v>3876</v>
       </c>
       <c r="D1724" t="s">
-        <v>3864</v>
-      </c>
-      <c r="E1724" t="s">
-        <v>728</v>
-      </c>
-      <c r="H1724" t="s">
-        <v>2073</v>
+        <v>14</v>
       </c>
       <c r="M1724" t="s">
-        <v>3865</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="1725" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1725">
-        <v>1890</v>
+        <v>1894</v>
       </c>
       <c r="B1725" t="s">
-        <v>3866</v>
+        <v>3877</v>
       </c>
       <c r="C1725" t="s">
-        <v>3867</v>
+        <v>3878</v>
       </c>
       <c r="D1725">
         <v>68000</v>
       </c>
+      <c r="E1725" t="s">
+        <v>154</v>
+      </c>
       <c r="H1725" t="s">
-        <v>2378</v>
+        <v>1356</v>
       </c>
       <c r="M1725" t="s">
-        <v>3868</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="1726" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1726">
-        <v>1891</v>
+        <v>1895</v>
       </c>
       <c r="B1726" t="s">
-        <v>3869</v>
+        <v>3880</v>
       </c>
       <c r="C1726" t="s">
-        <v>3870</v>
+        <v>3878</v>
       </c>
       <c r="D1726">
         <v>68000</v>
@@ -61056,55 +61139,64 @@
         <v>154</v>
       </c>
       <c r="H1726" t="s">
-        <v>1239</v>
+        <v>1356</v>
       </c>
       <c r="M1726" t="s">
-        <v>3871</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="1727" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1727">
-        <v>1892</v>
+        <v>1896</v>
       </c>
       <c r="B1727" t="s">
-        <v>3872</v>
+        <v>3881</v>
       </c>
       <c r="C1727" t="s">
-        <v>3873</v>
-      </c>
-      <c r="D1727" t="s">
-        <v>405</v>
+        <v>3878</v>
+      </c>
+      <c r="D1727">
+        <v>68000</v>
+      </c>
+      <c r="E1727" t="s">
+        <v>154</v>
       </c>
       <c r="H1727" t="s">
-        <v>71</v>
+        <v>1356</v>
       </c>
       <c r="M1727" t="s">
-        <v>3874</v>
+        <v>3882</v>
       </c>
     </row>
     <row r="1728" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1728">
-        <v>1893</v>
+        <v>1897</v>
       </c>
       <c r="B1728" t="s">
-        <v>3875</v>
+        <v>3883</v>
       </c>
       <c r="C1728" t="s">
-        <v>3876</v>
-      </c>
-      <c r="D1728" t="s">
-        <v>14</v>
+        <v>3878</v>
+      </c>
+      <c r="D1728">
+        <v>68000</v>
+      </c>
+      <c r="E1728" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1728" t="s">
+        <v>1356</v>
       </c>
       <c r="M1728" t="s">
-        <v>4496</v>
+        <v>3884</v>
       </c>
     </row>
     <row r="1729" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1729">
-        <v>1894</v>
+        <v>1898</v>
       </c>
       <c r="B1729" t="s">
-        <v>3877</v>
+        <v>3885</v>
       </c>
       <c r="C1729" t="s">
         <v>3878</v>
@@ -61119,15 +61211,15 @@
         <v>1356</v>
       </c>
       <c r="M1729" t="s">
-        <v>3879</v>
+        <v>3886</v>
       </c>
     </row>
     <row r="1730" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1730">
-        <v>1895</v>
+        <v>1899</v>
       </c>
       <c r="B1730" t="s">
-        <v>3880</v>
+        <v>3887</v>
       </c>
       <c r="C1730" t="s">
         <v>3878</v>
@@ -61142,15 +61234,15 @@
         <v>1356</v>
       </c>
       <c r="M1730" t="s">
-        <v>4497</v>
+        <v>3888</v>
       </c>
     </row>
     <row r="1731" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1731">
-        <v>1896</v>
+        <v>1900</v>
       </c>
       <c r="B1731" t="s">
-        <v>3881</v>
+        <v>3889</v>
       </c>
       <c r="C1731" t="s">
         <v>3878</v>
@@ -61165,15 +61257,15 @@
         <v>1356</v>
       </c>
       <c r="M1731" t="s">
-        <v>3882</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="1732" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1732">
-        <v>1897</v>
+        <v>1901</v>
       </c>
       <c r="B1732" t="s">
-        <v>3883</v>
+        <v>3891</v>
       </c>
       <c r="C1732" t="s">
         <v>3878</v>
@@ -61188,15 +61280,15 @@
         <v>1356</v>
       </c>
       <c r="M1732" t="s">
-        <v>3884</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="1733" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1733">
-        <v>1898</v>
+        <v>1902</v>
       </c>
       <c r="B1733" t="s">
-        <v>3885</v>
+        <v>3892</v>
       </c>
       <c r="C1733" t="s">
         <v>3878</v>
@@ -61211,15 +61303,15 @@
         <v>1356</v>
       </c>
       <c r="M1733" t="s">
-        <v>3886</v>
+        <v>3893</v>
       </c>
     </row>
     <row r="1734" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1734">
-        <v>1899</v>
+        <v>1903</v>
       </c>
       <c r="B1734" t="s">
-        <v>3887</v>
+        <v>3894</v>
       </c>
       <c r="C1734" t="s">
         <v>3878</v>
@@ -61234,15 +61326,15 @@
         <v>1356</v>
       </c>
       <c r="M1734" t="s">
-        <v>3888</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="1735" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1735">
-        <v>1900</v>
+        <v>1904</v>
       </c>
       <c r="B1735" t="s">
-        <v>3889</v>
+        <v>3896</v>
       </c>
       <c r="C1735" t="s">
         <v>3878</v>
@@ -61257,15 +61349,15 @@
         <v>1356</v>
       </c>
       <c r="M1735" t="s">
-        <v>3890</v>
+        <v>3897</v>
       </c>
     </row>
     <row r="1736" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1736">
-        <v>1901</v>
+        <v>1905</v>
       </c>
       <c r="B1736" t="s">
-        <v>3891</v>
+        <v>3898</v>
       </c>
       <c r="C1736" t="s">
         <v>3878</v>
@@ -61280,15 +61372,15 @@
         <v>1356</v>
       </c>
       <c r="M1736" t="s">
-        <v>4498</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="1737" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1737">
-        <v>1902</v>
+        <v>1906</v>
       </c>
       <c r="B1737" t="s">
-        <v>3892</v>
+        <v>3900</v>
       </c>
       <c r="C1737" t="s">
         <v>3878</v>
@@ -61303,15 +61395,15 @@
         <v>1356</v>
       </c>
       <c r="M1737" t="s">
-        <v>3893</v>
+        <v>3901</v>
       </c>
     </row>
     <row r="1738" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1738">
-        <v>1903</v>
+        <v>1907</v>
       </c>
       <c r="B1738" t="s">
-        <v>3894</v>
+        <v>3902</v>
       </c>
       <c r="C1738" t="s">
         <v>3878</v>
@@ -61326,15 +61418,15 @@
         <v>1356</v>
       </c>
       <c r="M1738" t="s">
-        <v>3895</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="1739" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1739">
-        <v>1904</v>
+        <v>1908</v>
       </c>
       <c r="B1739" t="s">
-        <v>3896</v>
+        <v>3903</v>
       </c>
       <c r="C1739" t="s">
         <v>3878</v>
@@ -61349,15 +61441,15 @@
         <v>1356</v>
       </c>
       <c r="M1739" t="s">
-        <v>3897</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="1740" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1740">
-        <v>1905</v>
+        <v>1909</v>
       </c>
       <c r="B1740" t="s">
-        <v>3898</v>
+        <v>3904</v>
       </c>
       <c r="C1740" t="s">
         <v>3878</v>
@@ -61372,15 +61464,15 @@
         <v>1356</v>
       </c>
       <c r="M1740" t="s">
-        <v>3899</v>
+        <v>3905</v>
       </c>
     </row>
     <row r="1741" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1741">
-        <v>1906</v>
+        <v>1910</v>
       </c>
       <c r="B1741" t="s">
-        <v>3900</v>
+        <v>3906</v>
       </c>
       <c r="C1741" t="s">
         <v>3878</v>
@@ -61395,15 +61487,15 @@
         <v>1356</v>
       </c>
       <c r="M1741" t="s">
-        <v>3901</v>
+        <v>3907</v>
       </c>
     </row>
     <row r="1742" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1742">
-        <v>1907</v>
+        <v>1911</v>
       </c>
       <c r="B1742" t="s">
-        <v>3902</v>
+        <v>3908</v>
       </c>
       <c r="C1742" t="s">
         <v>3878</v>
@@ -61418,15 +61510,15 @@
         <v>1356</v>
       </c>
       <c r="M1742" t="s">
-        <v>4499</v>
+        <v>3909</v>
       </c>
     </row>
     <row r="1743" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1743">
-        <v>1908</v>
+        <v>1912</v>
       </c>
       <c r="B1743" t="s">
-        <v>3903</v>
+        <v>3910</v>
       </c>
       <c r="C1743" t="s">
         <v>3878</v>
@@ -61441,15 +61533,15 @@
         <v>1356</v>
       </c>
       <c r="M1743" t="s">
-        <v>4500</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="1744" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1744">
-        <v>1909</v>
+        <v>1913</v>
       </c>
       <c r="B1744" t="s">
-        <v>3904</v>
+        <v>3912</v>
       </c>
       <c r="C1744" t="s">
         <v>3878</v>
@@ -61464,15 +61556,15 @@
         <v>1356</v>
       </c>
       <c r="M1744" t="s">
-        <v>3905</v>
+        <v>3913</v>
       </c>
     </row>
     <row r="1745" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1745">
-        <v>1910</v>
+        <v>1914</v>
       </c>
       <c r="B1745" t="s">
-        <v>3906</v>
+        <v>3914</v>
       </c>
       <c r="C1745" t="s">
         <v>3878</v>
@@ -61487,15 +61579,15 @@
         <v>1356</v>
       </c>
       <c r="M1745" t="s">
-        <v>3907</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="1746" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1746">
-        <v>1911</v>
+        <v>1915</v>
       </c>
       <c r="B1746" t="s">
-        <v>3908</v>
+        <v>3916</v>
       </c>
       <c r="C1746" t="s">
         <v>3878</v>
@@ -61510,15 +61602,15 @@
         <v>1356</v>
       </c>
       <c r="M1746" t="s">
-        <v>3909</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="1747" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1747">
-        <v>1912</v>
+        <v>1916</v>
       </c>
       <c r="B1747" t="s">
-        <v>3910</v>
+        <v>3917</v>
       </c>
       <c r="C1747" t="s">
         <v>3878</v>
@@ -61533,15 +61625,15 @@
         <v>1356</v>
       </c>
       <c r="M1747" t="s">
-        <v>3911</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="1748" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1748">
-        <v>1913</v>
+        <v>1917</v>
       </c>
       <c r="B1748" t="s">
-        <v>3912</v>
+        <v>3919</v>
       </c>
       <c r="C1748" t="s">
         <v>3878</v>
@@ -61556,15 +61648,15 @@
         <v>1356</v>
       </c>
       <c r="M1748" t="s">
-        <v>3913</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="1749" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1749">
-        <v>1914</v>
+        <v>1918</v>
       </c>
       <c r="B1749" t="s">
-        <v>3914</v>
+        <v>3921</v>
       </c>
       <c r="C1749" t="s">
         <v>3878</v>
@@ -61579,15 +61671,15 @@
         <v>1356</v>
       </c>
       <c r="M1749" t="s">
-        <v>3915</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="1750" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1750">
-        <v>1915</v>
+        <v>1919</v>
       </c>
       <c r="B1750" t="s">
-        <v>3916</v>
+        <v>3923</v>
       </c>
       <c r="C1750" t="s">
         <v>3878</v>
@@ -61602,15 +61694,15 @@
         <v>1356</v>
       </c>
       <c r="M1750" t="s">
-        <v>4501</v>
+        <v>4502</v>
       </c>
     </row>
     <row r="1751" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1751">
-        <v>1916</v>
+        <v>1920</v>
       </c>
       <c r="B1751" t="s">
-        <v>3917</v>
+        <v>3924</v>
       </c>
       <c r="C1751" t="s">
         <v>3878</v>
@@ -61625,15 +61717,15 @@
         <v>1356</v>
       </c>
       <c r="M1751" t="s">
-        <v>3918</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="1752" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1752">
-        <v>1917</v>
+        <v>1921</v>
       </c>
       <c r="B1752" t="s">
-        <v>3919</v>
+        <v>3925</v>
       </c>
       <c r="C1752" t="s">
         <v>3878</v>
@@ -61648,15 +61740,15 @@
         <v>1356</v>
       </c>
       <c r="M1752" t="s">
-        <v>3920</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="1753" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1753">
-        <v>1918</v>
+        <v>1922</v>
       </c>
       <c r="B1753" t="s">
-        <v>3921</v>
+        <v>3926</v>
       </c>
       <c r="C1753" t="s">
         <v>3878</v>
@@ -61671,15 +61763,15 @@
         <v>1356</v>
       </c>
       <c r="M1753" t="s">
-        <v>3922</v>
+        <v>3927</v>
       </c>
     </row>
     <row r="1754" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1754">
-        <v>1919</v>
+        <v>1923</v>
       </c>
       <c r="B1754" t="s">
-        <v>3923</v>
+        <v>3928</v>
       </c>
       <c r="C1754" t="s">
         <v>3878</v>
@@ -61694,15 +61786,15 @@
         <v>1356</v>
       </c>
       <c r="M1754" t="s">
-        <v>4502</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="1755" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1755">
-        <v>1920</v>
+        <v>1924</v>
       </c>
       <c r="B1755" t="s">
-        <v>3924</v>
+        <v>3930</v>
       </c>
       <c r="C1755" t="s">
         <v>3878</v>
@@ -61717,15 +61809,15 @@
         <v>1356</v>
       </c>
       <c r="M1755" t="s">
-        <v>4503</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="1756" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1756">
-        <v>1921</v>
+        <v>1925</v>
       </c>
       <c r="B1756" t="s">
-        <v>3925</v>
+        <v>3931</v>
       </c>
       <c r="C1756" t="s">
         <v>3878</v>
@@ -61740,15 +61832,15 @@
         <v>1356</v>
       </c>
       <c r="M1756" t="s">
-        <v>4504</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="1757" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1757">
-        <v>1922</v>
+        <v>1926</v>
       </c>
       <c r="B1757" t="s">
-        <v>3926</v>
+        <v>3933</v>
       </c>
       <c r="C1757" t="s">
         <v>3878</v>
@@ -61763,15 +61855,15 @@
         <v>1356</v>
       </c>
       <c r="M1757" t="s">
-        <v>3927</v>
+        <v>4506</v>
       </c>
     </row>
     <row r="1758" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1758">
-        <v>1923</v>
+        <v>1927</v>
       </c>
       <c r="B1758" t="s">
-        <v>3928</v>
+        <v>3934</v>
       </c>
       <c r="C1758" t="s">
         <v>3878</v>
@@ -61786,15 +61878,15 @@
         <v>1356</v>
       </c>
       <c r="M1758" t="s">
-        <v>3929</v>
+        <v>3935</v>
       </c>
     </row>
     <row r="1759" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1759">
-        <v>1924</v>
+        <v>1928</v>
       </c>
       <c r="B1759" t="s">
-        <v>3930</v>
+        <v>3936</v>
       </c>
       <c r="C1759" t="s">
         <v>3878</v>
@@ -61809,15 +61901,15 @@
         <v>1356</v>
       </c>
       <c r="M1759" t="s">
-        <v>4505</v>
+        <v>3937</v>
       </c>
     </row>
     <row r="1760" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1760">
-        <v>1925</v>
+        <v>1929</v>
       </c>
       <c r="B1760" t="s">
-        <v>3931</v>
+        <v>3938</v>
       </c>
       <c r="C1760" t="s">
         <v>3878</v>
@@ -61832,15 +61924,15 @@
         <v>1356</v>
       </c>
       <c r="M1760" t="s">
-        <v>3932</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="1761" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1761">
-        <v>1926</v>
+        <v>1930</v>
       </c>
       <c r="B1761" t="s">
-        <v>3933</v>
+        <v>3939</v>
       </c>
       <c r="C1761" t="s">
         <v>3878</v>
@@ -61855,15 +61947,15 @@
         <v>1356</v>
       </c>
       <c r="M1761" t="s">
-        <v>4506</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="1762" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1762">
-        <v>1927</v>
+        <v>1931</v>
       </c>
       <c r="B1762" t="s">
-        <v>3934</v>
+        <v>3940</v>
       </c>
       <c r="C1762" t="s">
         <v>3878</v>
@@ -61878,15 +61970,15 @@
         <v>1356</v>
       </c>
       <c r="M1762" t="s">
-        <v>3935</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="1763" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1763">
-        <v>1928</v>
+        <v>1932</v>
       </c>
       <c r="B1763" t="s">
-        <v>3936</v>
+        <v>3942</v>
       </c>
       <c r="C1763" t="s">
         <v>3878</v>
@@ -61901,15 +61993,15 @@
         <v>1356</v>
       </c>
       <c r="M1763" t="s">
-        <v>3937</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="1764" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1764">
-        <v>1929</v>
+        <v>1933</v>
       </c>
       <c r="B1764" t="s">
-        <v>3938</v>
+        <v>3943</v>
       </c>
       <c r="C1764" t="s">
         <v>3878</v>
@@ -61924,15 +62016,15 @@
         <v>1356</v>
       </c>
       <c r="M1764" t="s">
-        <v>4507</v>
+        <v>4510</v>
       </c>
     </row>
     <row r="1765" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1765">
-        <v>1930</v>
+        <v>1934</v>
       </c>
       <c r="B1765" t="s">
-        <v>3939</v>
+        <v>3944</v>
       </c>
       <c r="C1765" t="s">
         <v>3878</v>
@@ -61947,15 +62039,15 @@
         <v>1356</v>
       </c>
       <c r="M1765" t="s">
-        <v>4508</v>
+        <v>4511</v>
       </c>
     </row>
     <row r="1766" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1766">
-        <v>1931</v>
+        <v>1935</v>
       </c>
       <c r="B1766" t="s">
-        <v>3940</v>
+        <v>3945</v>
       </c>
       <c r="C1766" t="s">
         <v>3878</v>
@@ -61970,15 +62062,15 @@
         <v>1356</v>
       </c>
       <c r="M1766" t="s">
-        <v>3941</v>
+        <v>4512</v>
       </c>
     </row>
     <row r="1767" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1767">
-        <v>1932</v>
+        <v>1936</v>
       </c>
       <c r="B1767" t="s">
-        <v>3942</v>
+        <v>3946</v>
       </c>
       <c r="C1767" t="s">
         <v>3878</v>
@@ -61993,15 +62085,15 @@
         <v>1356</v>
       </c>
       <c r="M1767" t="s">
-        <v>4509</v>
+        <v>4513</v>
       </c>
     </row>
     <row r="1768" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1768">
-        <v>1933</v>
+        <v>1937</v>
       </c>
       <c r="B1768" t="s">
-        <v>3943</v>
+        <v>3947</v>
       </c>
       <c r="C1768" t="s">
         <v>3878</v>
@@ -62016,15 +62108,15 @@
         <v>1356</v>
       </c>
       <c r="M1768" t="s">
-        <v>4510</v>
+        <v>4514</v>
       </c>
     </row>
     <row r="1769" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1769">
-        <v>1934</v>
+        <v>1938</v>
       </c>
       <c r="B1769" t="s">
-        <v>3944</v>
+        <v>3948</v>
       </c>
       <c r="C1769" t="s">
         <v>3878</v>
@@ -62039,15 +62131,15 @@
         <v>1356</v>
       </c>
       <c r="M1769" t="s">
-        <v>4511</v>
+        <v>4515</v>
       </c>
     </row>
     <row r="1770" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1770">
-        <v>1935</v>
+        <v>1939</v>
       </c>
       <c r="B1770" t="s">
-        <v>3945</v>
+        <v>3949</v>
       </c>
       <c r="C1770" t="s">
         <v>3878</v>
@@ -62062,15 +62154,15 @@
         <v>1356</v>
       </c>
       <c r="M1770" t="s">
-        <v>4512</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="1771" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1771">
-        <v>1936</v>
+        <v>1940</v>
       </c>
       <c r="B1771" t="s">
-        <v>3946</v>
+        <v>3951</v>
       </c>
       <c r="C1771" t="s">
         <v>3878</v>
@@ -62085,15 +62177,15 @@
         <v>1356</v>
       </c>
       <c r="M1771" t="s">
-        <v>4513</v>
+        <v>3952</v>
       </c>
     </row>
     <row r="1772" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1772">
-        <v>1937</v>
+        <v>1941</v>
       </c>
       <c r="B1772" t="s">
-        <v>3947</v>
+        <v>3953</v>
       </c>
       <c r="C1772" t="s">
         <v>3878</v>
@@ -62108,15 +62200,15 @@
         <v>1356</v>
       </c>
       <c r="M1772" t="s">
-        <v>4514</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="1773" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1773">
-        <v>1938</v>
+        <v>1942</v>
       </c>
       <c r="B1773" t="s">
-        <v>3948</v>
+        <v>3955</v>
       </c>
       <c r="C1773" t="s">
         <v>3878</v>
@@ -62131,15 +62223,15 @@
         <v>1356</v>
       </c>
       <c r="M1773" t="s">
-        <v>4515</v>
+        <v>4516</v>
       </c>
     </row>
     <row r="1774" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1774">
-        <v>1939</v>
+        <v>1943</v>
       </c>
       <c r="B1774" t="s">
-        <v>3949</v>
+        <v>3956</v>
       </c>
       <c r="C1774" t="s">
         <v>3878</v>
@@ -62154,15 +62246,15 @@
         <v>1356</v>
       </c>
       <c r="M1774" t="s">
-        <v>3950</v>
+        <v>3957</v>
       </c>
     </row>
     <row r="1775" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1775">
-        <v>1940</v>
+        <v>1944</v>
       </c>
       <c r="B1775" t="s">
-        <v>3951</v>
+        <v>3958</v>
       </c>
       <c r="C1775" t="s">
         <v>3878</v>
@@ -62177,15 +62269,15 @@
         <v>1356</v>
       </c>
       <c r="M1775" t="s">
-        <v>3952</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="1776" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1776">
-        <v>1941</v>
+        <v>1945</v>
       </c>
       <c r="B1776" t="s">
-        <v>3953</v>
+        <v>3960</v>
       </c>
       <c r="C1776" t="s">
         <v>3878</v>
@@ -62200,15 +62292,15 @@
         <v>1356</v>
       </c>
       <c r="M1776" t="s">
-        <v>3954</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="1777" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1777">
-        <v>1942</v>
+        <v>1946</v>
       </c>
       <c r="B1777" t="s">
-        <v>3955</v>
+        <v>3961</v>
       </c>
       <c r="C1777" t="s">
         <v>3878</v>
@@ -62223,15 +62315,15 @@
         <v>1356</v>
       </c>
       <c r="M1777" t="s">
-        <v>4516</v>
+        <v>3962</v>
       </c>
     </row>
     <row r="1778" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1778">
-        <v>1943</v>
+        <v>1947</v>
       </c>
       <c r="B1778" t="s">
-        <v>3956</v>
+        <v>3963</v>
       </c>
       <c r="C1778" t="s">
         <v>3878</v>
@@ -62246,15 +62338,15 @@
         <v>1356</v>
       </c>
       <c r="M1778" t="s">
-        <v>3957</v>
+        <v>4518</v>
       </c>
     </row>
     <row r="1779" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1779">
-        <v>1944</v>
+        <v>1948</v>
       </c>
       <c r="B1779" t="s">
-        <v>3958</v>
+        <v>3964</v>
       </c>
       <c r="C1779" t="s">
         <v>3878</v>
@@ -62269,15 +62361,15 @@
         <v>1356</v>
       </c>
       <c r="M1779" t="s">
-        <v>3959</v>
+        <v>4519</v>
       </c>
     </row>
     <row r="1780" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1780">
-        <v>1945</v>
+        <v>1949</v>
       </c>
       <c r="B1780" t="s">
-        <v>3960</v>
+        <v>3965</v>
       </c>
       <c r="C1780" t="s">
         <v>3878</v>
@@ -62292,15 +62384,15 @@
         <v>1356</v>
       </c>
       <c r="M1780" t="s">
-        <v>4517</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="1781" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1781">
-        <v>1946</v>
+        <v>1950</v>
       </c>
       <c r="B1781" t="s">
-        <v>3961</v>
+        <v>3966</v>
       </c>
       <c r="C1781" t="s">
         <v>3878</v>
@@ -62315,15 +62407,15 @@
         <v>1356</v>
       </c>
       <c r="M1781" t="s">
-        <v>3962</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="1782" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1782">
-        <v>1947</v>
+        <v>1951</v>
       </c>
       <c r="B1782" t="s">
-        <v>3963</v>
+        <v>3967</v>
       </c>
       <c r="C1782" t="s">
         <v>3878</v>
@@ -62338,15 +62430,15 @@
         <v>1356</v>
       </c>
       <c r="M1782" t="s">
-        <v>4518</v>
+        <v>4522</v>
       </c>
     </row>
     <row r="1783" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1783">
-        <v>1948</v>
+        <v>1952</v>
       </c>
       <c r="B1783" t="s">
-        <v>3964</v>
+        <v>3968</v>
       </c>
       <c r="C1783" t="s">
         <v>3878</v>
@@ -62361,15 +62453,15 @@
         <v>1356</v>
       </c>
       <c r="M1783" t="s">
-        <v>4519</v>
+        <v>4523</v>
       </c>
     </row>
     <row r="1784" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1784">
-        <v>1949</v>
+        <v>1953</v>
       </c>
       <c r="B1784" t="s">
-        <v>3965</v>
+        <v>3969</v>
       </c>
       <c r="C1784" t="s">
         <v>3878</v>
@@ -62384,15 +62476,15 @@
         <v>1356</v>
       </c>
       <c r="M1784" t="s">
-        <v>4520</v>
+        <v>3970</v>
       </c>
     </row>
     <row r="1785" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1785">
-        <v>1950</v>
+        <v>1954</v>
       </c>
       <c r="B1785" t="s">
-        <v>3966</v>
+        <v>3971</v>
       </c>
       <c r="C1785" t="s">
         <v>3878</v>
@@ -62407,15 +62499,15 @@
         <v>1356</v>
       </c>
       <c r="M1785" t="s">
-        <v>4521</v>
+        <v>4524</v>
       </c>
     </row>
     <row r="1786" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1786">
-        <v>1951</v>
+        <v>1955</v>
       </c>
       <c r="B1786" t="s">
-        <v>3967</v>
+        <v>3972</v>
       </c>
       <c r="C1786" t="s">
         <v>3878</v>
@@ -62430,15 +62522,15 @@
         <v>1356</v>
       </c>
       <c r="M1786" t="s">
-        <v>4522</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="1787" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1787">
-        <v>1952</v>
+        <v>1956</v>
       </c>
       <c r="B1787" t="s">
-        <v>3968</v>
+        <v>3973</v>
       </c>
       <c r="C1787" t="s">
         <v>3878</v>
@@ -62453,15 +62545,15 @@
         <v>1356</v>
       </c>
       <c r="M1787" t="s">
-        <v>4523</v>
+        <v>3974</v>
       </c>
     </row>
     <row r="1788" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1788">
-        <v>1953</v>
+        <v>1957</v>
       </c>
       <c r="B1788" t="s">
-        <v>3969</v>
+        <v>3975</v>
       </c>
       <c r="C1788" t="s">
         <v>3878</v>
@@ -62476,15 +62568,15 @@
         <v>1356</v>
       </c>
       <c r="M1788" t="s">
-        <v>3970</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="1789" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1789">
-        <v>1954</v>
+        <v>1958</v>
       </c>
       <c r="B1789" t="s">
-        <v>3971</v>
+        <v>3977</v>
       </c>
       <c r="C1789" t="s">
         <v>3878</v>
@@ -62499,15 +62591,15 @@
         <v>1356</v>
       </c>
       <c r="M1789" t="s">
-        <v>4524</v>
+        <v>4526</v>
       </c>
     </row>
     <row r="1790" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1790">
-        <v>1955</v>
+        <v>1959</v>
       </c>
       <c r="B1790" t="s">
-        <v>3972</v>
+        <v>3978</v>
       </c>
       <c r="C1790" t="s">
         <v>3878</v>
@@ -62522,15 +62614,15 @@
         <v>1356</v>
       </c>
       <c r="M1790" t="s">
-        <v>4525</v>
+        <v>3979</v>
       </c>
     </row>
     <row r="1791" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1791">
-        <v>1956</v>
+        <v>1960</v>
       </c>
       <c r="B1791" t="s">
-        <v>3973</v>
+        <v>3980</v>
       </c>
       <c r="C1791" t="s">
         <v>3878</v>
@@ -62545,15 +62637,15 @@
         <v>1356</v>
       </c>
       <c r="M1791" t="s">
-        <v>3974</v>
+        <v>4527</v>
       </c>
     </row>
     <row r="1792" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1792">
-        <v>1957</v>
+        <v>1961</v>
       </c>
       <c r="B1792" t="s">
-        <v>3975</v>
+        <v>3981</v>
       </c>
       <c r="C1792" t="s">
         <v>3878</v>
@@ -62568,15 +62660,15 @@
         <v>1356</v>
       </c>
       <c r="M1792" t="s">
-        <v>3976</v>
+        <v>4528</v>
       </c>
     </row>
     <row r="1793" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1793">
-        <v>1958</v>
+        <v>1962</v>
       </c>
       <c r="B1793" t="s">
-        <v>3977</v>
+        <v>3982</v>
       </c>
       <c r="C1793" t="s">
         <v>3878</v>
@@ -62591,15 +62683,15 @@
         <v>1356</v>
       </c>
       <c r="M1793" t="s">
-        <v>4526</v>
+        <v>4529</v>
       </c>
     </row>
     <row r="1794" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1794">
-        <v>1959</v>
+        <v>1963</v>
       </c>
       <c r="B1794" t="s">
-        <v>3978</v>
+        <v>3983</v>
       </c>
       <c r="C1794" t="s">
         <v>3878</v>
@@ -62614,15 +62706,15 @@
         <v>1356</v>
       </c>
       <c r="M1794" t="s">
-        <v>3979</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="1795" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1795">
-        <v>1960</v>
+        <v>1964</v>
       </c>
       <c r="B1795" t="s">
-        <v>3980</v>
+        <v>3984</v>
       </c>
       <c r="C1795" t="s">
         <v>3878</v>
@@ -62637,15 +62729,15 @@
         <v>1356</v>
       </c>
       <c r="M1795" t="s">
-        <v>4527</v>
+        <v>4531</v>
       </c>
     </row>
     <row r="1796" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1796">
-        <v>1961</v>
+        <v>1965</v>
       </c>
       <c r="B1796" t="s">
-        <v>3981</v>
+        <v>3985</v>
       </c>
       <c r="C1796" t="s">
         <v>3878</v>
@@ -62660,15 +62752,15 @@
         <v>1356</v>
       </c>
       <c r="M1796" t="s">
-        <v>4528</v>
+        <v>3986</v>
       </c>
     </row>
     <row r="1797" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1797">
-        <v>1962</v>
+        <v>1966</v>
       </c>
       <c r="B1797" t="s">
-        <v>3982</v>
+        <v>3987</v>
       </c>
       <c r="C1797" t="s">
         <v>3878</v>
@@ -62683,15 +62775,15 @@
         <v>1356</v>
       </c>
       <c r="M1797" t="s">
-        <v>4529</v>
+        <v>4532</v>
       </c>
     </row>
     <row r="1798" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1798">
-        <v>1963</v>
+        <v>1967</v>
       </c>
       <c r="B1798" t="s">
-        <v>3983</v>
+        <v>3988</v>
       </c>
       <c r="C1798" t="s">
         <v>3878</v>
@@ -62706,15 +62798,15 @@
         <v>1356</v>
       </c>
       <c r="M1798" t="s">
-        <v>4530</v>
+        <v>3989</v>
       </c>
     </row>
     <row r="1799" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1799">
-        <v>1964</v>
+        <v>1968</v>
       </c>
       <c r="B1799" t="s">
-        <v>3984</v>
+        <v>3990</v>
       </c>
       <c r="C1799" t="s">
         <v>3878</v>
@@ -62729,15 +62821,15 @@
         <v>1356</v>
       </c>
       <c r="M1799" t="s">
-        <v>4531</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="1800" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1800">
-        <v>1965</v>
+        <v>1969</v>
       </c>
       <c r="B1800" t="s">
-        <v>3985</v>
+        <v>3991</v>
       </c>
       <c r="C1800" t="s">
         <v>3878</v>
@@ -62752,15 +62844,15 @@
         <v>1356</v>
       </c>
       <c r="M1800" t="s">
-        <v>3986</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="1801" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1801">
-        <v>1966</v>
+        <v>1970</v>
       </c>
       <c r="B1801" t="s">
-        <v>3987</v>
+        <v>3993</v>
       </c>
       <c r="C1801" t="s">
         <v>3878</v>
@@ -62775,15 +62867,15 @@
         <v>1356</v>
       </c>
       <c r="M1801" t="s">
-        <v>4532</v>
+        <v>3994</v>
       </c>
     </row>
     <row r="1802" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1802">
-        <v>1967</v>
+        <v>1971</v>
       </c>
       <c r="B1802" t="s">
-        <v>3988</v>
+        <v>3995</v>
       </c>
       <c r="C1802" t="s">
         <v>3878</v>
@@ -62798,15 +62890,15 @@
         <v>1356</v>
       </c>
       <c r="M1802" t="s">
-        <v>3989</v>
+        <v>4534</v>
       </c>
     </row>
     <row r="1803" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1803">
-        <v>1968</v>
+        <v>1972</v>
       </c>
       <c r="B1803" t="s">
-        <v>3990</v>
+        <v>3996</v>
       </c>
       <c r="C1803" t="s">
         <v>3878</v>
@@ -62821,15 +62913,15 @@
         <v>1356</v>
       </c>
       <c r="M1803" t="s">
-        <v>4533</v>
+        <v>4535</v>
       </c>
     </row>
     <row r="1804" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1804">
-        <v>1969</v>
+        <v>1973</v>
       </c>
       <c r="B1804" t="s">
-        <v>3991</v>
+        <v>3997</v>
       </c>
       <c r="C1804" t="s">
         <v>3878</v>
@@ -62844,15 +62936,15 @@
         <v>1356</v>
       </c>
       <c r="M1804" t="s">
-        <v>3992</v>
+        <v>3998</v>
       </c>
     </row>
     <row r="1805" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1805">
-        <v>1970</v>
+        <v>1974</v>
       </c>
       <c r="B1805" t="s">
-        <v>3993</v>
+        <v>3999</v>
       </c>
       <c r="C1805" t="s">
         <v>3878</v>
@@ -62867,15 +62959,15 @@
         <v>1356</v>
       </c>
       <c r="M1805" t="s">
-        <v>3994</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="1806" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1806">
-        <v>1971</v>
+        <v>1975</v>
       </c>
       <c r="B1806" t="s">
-        <v>3995</v>
+        <v>4001</v>
       </c>
       <c r="C1806" t="s">
         <v>3878</v>
@@ -62890,15 +62982,15 @@
         <v>1356</v>
       </c>
       <c r="M1806" t="s">
-        <v>4534</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="1807" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1807">
-        <v>1972</v>
+        <v>1976</v>
       </c>
       <c r="B1807" t="s">
-        <v>3996</v>
+        <v>4002</v>
       </c>
       <c r="C1807" t="s">
         <v>3878</v>
@@ -62913,15 +63005,15 @@
         <v>1356</v>
       </c>
       <c r="M1807" t="s">
-        <v>4535</v>
+        <v>4003</v>
       </c>
     </row>
     <row r="1808" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1808">
-        <v>1973</v>
+        <v>1977</v>
       </c>
       <c r="B1808" t="s">
-        <v>3997</v>
+        <v>4004</v>
       </c>
       <c r="C1808" t="s">
         <v>3878</v>
@@ -62936,15 +63028,15 @@
         <v>1356</v>
       </c>
       <c r="M1808" t="s">
-        <v>3998</v>
+        <v>4537</v>
       </c>
     </row>
     <row r="1809" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1809">
-        <v>1974</v>
+        <v>1978</v>
       </c>
       <c r="B1809" t="s">
-        <v>3999</v>
+        <v>4005</v>
       </c>
       <c r="C1809" t="s">
         <v>3878</v>
@@ -62959,15 +63051,15 @@
         <v>1356</v>
       </c>
       <c r="M1809" t="s">
-        <v>4000</v>
+        <v>4538</v>
       </c>
     </row>
     <row r="1810" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1810">
-        <v>1975</v>
+        <v>1979</v>
       </c>
       <c r="B1810" t="s">
-        <v>4001</v>
+        <v>4006</v>
       </c>
       <c r="C1810" t="s">
         <v>3878</v>
@@ -62982,15 +63074,15 @@
         <v>1356</v>
       </c>
       <c r="M1810" t="s">
-        <v>4536</v>
+        <v>4539</v>
       </c>
     </row>
     <row r="1811" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1811">
-        <v>1976</v>
+        <v>1980</v>
       </c>
       <c r="B1811" t="s">
-        <v>4002</v>
+        <v>4007</v>
       </c>
       <c r="C1811" t="s">
         <v>3878</v>
@@ -63005,15 +63097,15 @@
         <v>1356</v>
       </c>
       <c r="M1811" t="s">
-        <v>4003</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="1812" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1812">
-        <v>1977</v>
+        <v>1981</v>
       </c>
       <c r="B1812" t="s">
-        <v>4004</v>
+        <v>4008</v>
       </c>
       <c r="C1812" t="s">
         <v>3878</v>
@@ -63028,15 +63120,15 @@
         <v>1356</v>
       </c>
       <c r="M1812" t="s">
-        <v>4537</v>
+        <v>4541</v>
       </c>
     </row>
     <row r="1813" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1813">
-        <v>1978</v>
+        <v>1982</v>
       </c>
       <c r="B1813" t="s">
-        <v>4005</v>
+        <v>4009</v>
       </c>
       <c r="C1813" t="s">
         <v>3878</v>
@@ -63051,15 +63143,15 @@
         <v>1356</v>
       </c>
       <c r="M1813" t="s">
-        <v>4538</v>
+        <v>4542</v>
       </c>
     </row>
     <row r="1814" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1814">
-        <v>1979</v>
+        <v>1983</v>
       </c>
       <c r="B1814" t="s">
-        <v>4006</v>
+        <v>4010</v>
       </c>
       <c r="C1814" t="s">
         <v>3878</v>
@@ -63074,15 +63166,15 @@
         <v>1356</v>
       </c>
       <c r="M1814" t="s">
-        <v>4539</v>
+        <v>4011</v>
       </c>
     </row>
     <row r="1815" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1815">
-        <v>1980</v>
+        <v>1984</v>
       </c>
       <c r="B1815" t="s">
-        <v>4007</v>
+        <v>4012</v>
       </c>
       <c r="C1815" t="s">
         <v>3878</v>
@@ -63097,15 +63189,15 @@
         <v>1356</v>
       </c>
       <c r="M1815" t="s">
-        <v>4540</v>
+        <v>4543</v>
       </c>
     </row>
     <row r="1816" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1816">
-        <v>1981</v>
+        <v>1985</v>
       </c>
       <c r="B1816" t="s">
-        <v>4008</v>
+        <v>4013</v>
       </c>
       <c r="C1816" t="s">
         <v>3878</v>
@@ -63120,15 +63212,15 @@
         <v>1356</v>
       </c>
       <c r="M1816" t="s">
-        <v>4541</v>
+        <v>4544</v>
       </c>
     </row>
     <row r="1817" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1817">
-        <v>1982</v>
+        <v>1986</v>
       </c>
       <c r="B1817" t="s">
-        <v>4009</v>
+        <v>4014</v>
       </c>
       <c r="C1817" t="s">
         <v>3878</v>
@@ -63143,15 +63235,15 @@
         <v>1356</v>
       </c>
       <c r="M1817" t="s">
-        <v>4542</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="1818" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1818">
-        <v>1983</v>
+        <v>1987</v>
       </c>
       <c r="B1818" t="s">
-        <v>4010</v>
+        <v>4016</v>
       </c>
       <c r="C1818" t="s">
         <v>3878</v>
@@ -63166,15 +63258,15 @@
         <v>1356</v>
       </c>
       <c r="M1818" t="s">
-        <v>4011</v>
+        <v>4545</v>
       </c>
     </row>
     <row r="1819" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1819">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="B1819" t="s">
-        <v>4012</v>
+        <v>4017</v>
       </c>
       <c r="C1819" t="s">
         <v>3878</v>
@@ -63189,15 +63281,15 @@
         <v>1356</v>
       </c>
       <c r="M1819" t="s">
-        <v>4543</v>
+        <v>4018</v>
       </c>
     </row>
     <row r="1820" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1820">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="B1820" t="s">
-        <v>4013</v>
+        <v>4019</v>
       </c>
       <c r="C1820" t="s">
         <v>3878</v>
@@ -63212,15 +63304,15 @@
         <v>1356</v>
       </c>
       <c r="M1820" t="s">
-        <v>4544</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="1821" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1821">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="B1821" t="s">
-        <v>4014</v>
+        <v>4021</v>
       </c>
       <c r="C1821" t="s">
         <v>3878</v>
@@ -63235,15 +63327,15 @@
         <v>1356</v>
       </c>
       <c r="M1821" t="s">
-        <v>4015</v>
+        <v>4546</v>
       </c>
     </row>
     <row r="1822" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1822">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="B1822" t="s">
-        <v>4016</v>
+        <v>4022</v>
       </c>
       <c r="C1822" t="s">
         <v>3878</v>
@@ -63258,15 +63350,15 @@
         <v>1356</v>
       </c>
       <c r="M1822" t="s">
-        <v>4545</v>
+        <v>4023</v>
       </c>
     </row>
     <row r="1823" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1823">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="B1823" t="s">
-        <v>4017</v>
+        <v>4024</v>
       </c>
       <c r="C1823" t="s">
         <v>3878</v>
@@ -63281,15 +63373,15 @@
         <v>1356</v>
       </c>
       <c r="M1823" t="s">
-        <v>4018</v>
+        <v>4547</v>
       </c>
     </row>
     <row r="1824" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1824">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="B1824" t="s">
-        <v>4019</v>
+        <v>4025</v>
       </c>
       <c r="C1824" t="s">
         <v>3878</v>
@@ -63304,15 +63396,15 @@
         <v>1356</v>
       </c>
       <c r="M1824" t="s">
-        <v>4020</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="1825" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1825">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="B1825" t="s">
-        <v>4021</v>
+        <v>4026</v>
       </c>
       <c r="C1825" t="s">
         <v>3878</v>
@@ -63327,15 +63419,15 @@
         <v>1356</v>
       </c>
       <c r="M1825" t="s">
-        <v>4546</v>
+        <v>4549</v>
       </c>
     </row>
     <row r="1826" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1826">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="B1826" t="s">
-        <v>4022</v>
+        <v>4027</v>
       </c>
       <c r="C1826" t="s">
         <v>3878</v>
@@ -63350,15 +63442,15 @@
         <v>1356</v>
       </c>
       <c r="M1826" t="s">
-        <v>4023</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="1827" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1827">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="B1827" t="s">
-        <v>4024</v>
+        <v>4028</v>
       </c>
       <c r="C1827" t="s">
         <v>3878</v>
@@ -63373,15 +63465,15 @@
         <v>1356</v>
       </c>
       <c r="M1827" t="s">
-        <v>4547</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="1828" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1828">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="B1828" t="s">
-        <v>4025</v>
+        <v>4029</v>
       </c>
       <c r="C1828" t="s">
         <v>3878</v>
@@ -63396,15 +63488,15 @@
         <v>1356</v>
       </c>
       <c r="M1828" t="s">
-        <v>4548</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="1829" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1829">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="B1829" t="s">
-        <v>4026</v>
+        <v>4031</v>
       </c>
       <c r="C1829" t="s">
         <v>3878</v>
@@ -63419,15 +63511,15 @@
         <v>1356</v>
       </c>
       <c r="M1829" t="s">
-        <v>4549</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="1830" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1830">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="B1830" t="s">
-        <v>4027</v>
+        <v>4032</v>
       </c>
       <c r="C1830" t="s">
         <v>3878</v>
@@ -63442,15 +63534,15 @@
         <v>1356</v>
       </c>
       <c r="M1830" t="s">
-        <v>4550</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="1831" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1831">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="B1831" t="s">
-        <v>4028</v>
+        <v>4033</v>
       </c>
       <c r="C1831" t="s">
         <v>3878</v>
@@ -63465,15 +63557,15 @@
         <v>1356</v>
       </c>
       <c r="M1831" t="s">
-        <v>4551</v>
+        <v>4034</v>
       </c>
     </row>
     <row r="1832" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1832">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="B1832" t="s">
-        <v>4029</v>
+        <v>4035</v>
       </c>
       <c r="C1832" t="s">
         <v>3878</v>
@@ -63488,15 +63580,15 @@
         <v>1356</v>
       </c>
       <c r="M1832" t="s">
-        <v>4030</v>
+        <v>4036</v>
       </c>
     </row>
     <row r="1833" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1833">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="B1833" t="s">
-        <v>4031</v>
+        <v>4037</v>
       </c>
       <c r="C1833" t="s">
         <v>3878</v>
@@ -63511,15 +63603,15 @@
         <v>1356</v>
       </c>
       <c r="M1833" t="s">
-        <v>4552</v>
+        <v>4038</v>
       </c>
     </row>
     <row r="1834" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1834">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="B1834" t="s">
-        <v>4032</v>
+        <v>4039</v>
       </c>
       <c r="C1834" t="s">
         <v>3878</v>
@@ -63534,15 +63626,15 @@
         <v>1356</v>
       </c>
       <c r="M1834" t="s">
-        <v>4553</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="1835" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1835">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="B1835" t="s">
-        <v>4033</v>
+        <v>4041</v>
       </c>
       <c r="C1835" t="s">
         <v>3878</v>
@@ -63557,15 +63649,15 @@
         <v>1356</v>
       </c>
       <c r="M1835" t="s">
-        <v>4034</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="1836" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1836">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="B1836" t="s">
-        <v>4035</v>
+        <v>4042</v>
       </c>
       <c r="C1836" t="s">
         <v>3878</v>
@@ -63580,15 +63672,15 @@
         <v>1356</v>
       </c>
       <c r="M1836" t="s">
-        <v>4036</v>
+        <v>4043</v>
       </c>
     </row>
     <row r="1837" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1837">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="B1837" t="s">
-        <v>4037</v>
+        <v>4044</v>
       </c>
       <c r="C1837" t="s">
         <v>3878</v>
@@ -63603,15 +63695,15 @@
         <v>1356</v>
       </c>
       <c r="M1837" t="s">
-        <v>4038</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="1838" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1838">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="B1838" t="s">
-        <v>4039</v>
+        <v>4046</v>
       </c>
       <c r="C1838" t="s">
         <v>3878</v>
@@ -63626,15 +63718,15 @@
         <v>1356</v>
       </c>
       <c r="M1838" t="s">
-        <v>4040</v>
+        <v>4555</v>
       </c>
     </row>
     <row r="1839" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1839">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="B1839" t="s">
-        <v>4041</v>
+        <v>4047</v>
       </c>
       <c r="C1839" t="s">
         <v>3878</v>
@@ -63649,15 +63741,15 @@
         <v>1356</v>
       </c>
       <c r="M1839" t="s">
-        <v>4554</v>
+        <v>4048</v>
       </c>
     </row>
     <row r="1840" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1840">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="B1840" t="s">
-        <v>4042</v>
+        <v>4049</v>
       </c>
       <c r="C1840" t="s">
         <v>3878</v>
@@ -63672,15 +63764,15 @@
         <v>1356</v>
       </c>
       <c r="M1840" t="s">
-        <v>4043</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="1841" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1841">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="B1841" t="s">
-        <v>4044</v>
+        <v>4050</v>
       </c>
       <c r="C1841" t="s">
         <v>3878</v>
@@ -63695,15 +63787,15 @@
         <v>1356</v>
       </c>
       <c r="M1841" t="s">
-        <v>4045</v>
+        <v>4051</v>
       </c>
     </row>
     <row r="1842" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1842">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="B1842" t="s">
-        <v>4046</v>
+        <v>4052</v>
       </c>
       <c r="C1842" t="s">
         <v>3878</v>
@@ -63718,15 +63810,15 @@
         <v>1356</v>
       </c>
       <c r="M1842" t="s">
-        <v>4555</v>
+        <v>4053</v>
       </c>
     </row>
     <row r="1843" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1843">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="B1843" t="s">
-        <v>4047</v>
+        <v>4054</v>
       </c>
       <c r="C1843" t="s">
         <v>3878</v>
@@ -63741,15 +63833,15 @@
         <v>1356</v>
       </c>
       <c r="M1843" t="s">
-        <v>4048</v>
+        <v>4055</v>
       </c>
     </row>
     <row r="1844" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1844">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="B1844" t="s">
-        <v>4049</v>
+        <v>4056</v>
       </c>
       <c r="C1844" t="s">
         <v>3878</v>
@@ -63764,15 +63856,15 @@
         <v>1356</v>
       </c>
       <c r="M1844" t="s">
-        <v>4556</v>
+        <v>4557</v>
       </c>
     </row>
     <row r="1845" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1845">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="B1845" t="s">
-        <v>4050</v>
+        <v>4057</v>
       </c>
       <c r="C1845" t="s">
         <v>3878</v>
@@ -63787,15 +63879,15 @@
         <v>1356</v>
       </c>
       <c r="M1845" t="s">
-        <v>4051</v>
+        <v>4558</v>
       </c>
     </row>
     <row r="1846" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1846">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="B1846" t="s">
-        <v>4052</v>
+        <v>4058</v>
       </c>
       <c r="C1846" t="s">
         <v>3878</v>
@@ -63810,15 +63902,15 @@
         <v>1356</v>
       </c>
       <c r="M1846" t="s">
-        <v>4053</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="1847" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1847">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="B1847" t="s">
-        <v>4054</v>
+        <v>4059</v>
       </c>
       <c r="C1847" t="s">
         <v>3878</v>
@@ -63833,15 +63925,15 @@
         <v>1356</v>
       </c>
       <c r="M1847" t="s">
-        <v>4055</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="1848" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1848">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="B1848" t="s">
-        <v>4056</v>
+        <v>4060</v>
       </c>
       <c r="C1848" t="s">
         <v>3878</v>
@@ -63856,15 +63948,15 @@
         <v>1356</v>
       </c>
       <c r="M1848" t="s">
-        <v>4557</v>
+        <v>4561</v>
       </c>
     </row>
     <row r="1849" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1849">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="B1849" t="s">
-        <v>4057</v>
+        <v>4061</v>
       </c>
       <c r="C1849" t="s">
         <v>3878</v>
@@ -63879,15 +63971,15 @@
         <v>1356</v>
       </c>
       <c r="M1849" t="s">
-        <v>4558</v>
+        <v>4062</v>
       </c>
     </row>
     <row r="1850" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1850">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="B1850" t="s">
-        <v>4058</v>
+        <v>4063</v>
       </c>
       <c r="C1850" t="s">
         <v>3878</v>
@@ -63902,15 +63994,15 @@
         <v>1356</v>
       </c>
       <c r="M1850" t="s">
-        <v>4559</v>
+        <v>4562</v>
       </c>
     </row>
     <row r="1851" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1851">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="B1851" t="s">
-        <v>4059</v>
+        <v>4064</v>
       </c>
       <c r="C1851" t="s">
         <v>3878</v>
@@ -63925,103 +64017,11 @@
         <v>1356</v>
       </c>
       <c r="M1851" t="s">
-        <v>4560</v>
-      </c>
-    </row>
-    <row r="1852" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1852">
-        <v>2017</v>
-      </c>
-      <c r="B1852" t="s">
-        <v>4060</v>
-      </c>
-      <c r="C1852" t="s">
-        <v>3878</v>
-      </c>
-      <c r="D1852">
-        <v>68000</v>
-      </c>
-      <c r="E1852" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1852" t="s">
-        <v>1356</v>
-      </c>
-      <c r="M1852" t="s">
-        <v>4561</v>
-      </c>
-    </row>
-    <row r="1853" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1853">
-        <v>2018</v>
-      </c>
-      <c r="B1853" t="s">
-        <v>4061</v>
-      </c>
-      <c r="C1853" t="s">
-        <v>3878</v>
-      </c>
-      <c r="D1853">
-        <v>68000</v>
-      </c>
-      <c r="E1853" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1853" t="s">
-        <v>1356</v>
-      </c>
-      <c r="M1853" t="s">
-        <v>4062</v>
-      </c>
-    </row>
-    <row r="1854" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1854">
-        <v>2019</v>
-      </c>
-      <c r="B1854" t="s">
-        <v>4063</v>
-      </c>
-      <c r="C1854" t="s">
-        <v>3878</v>
-      </c>
-      <c r="D1854">
-        <v>68000</v>
-      </c>
-      <c r="E1854" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1854" t="s">
-        <v>1356</v>
-      </c>
-      <c r="M1854" t="s">
-        <v>4562</v>
-      </c>
-    </row>
-    <row r="1855" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1855">
-        <v>2020</v>
-      </c>
-      <c r="B1855" t="s">
-        <v>4064</v>
-      </c>
-      <c r="C1855" t="s">
-        <v>3878</v>
-      </c>
-      <c r="D1855">
-        <v>68000</v>
-      </c>
-      <c r="E1855" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1855" t="s">
-        <v>1356</v>
-      </c>
-      <c r="M1855" t="s">
         <v>4065</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1855"/>
+  <autoFilter ref="A1:M1851"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/0.36/compatibility.xlsx
+++ b/0.36/compatibility.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Playable (untested)" sheetId="4" r:id="rId1"/>
@@ -17,8 +17,8 @@
     <sheet name="GAME_NOT_WORKING FLAG" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ALL!$A$1:$M$1765</definedName>
-    <definedName name="LIST" localSheetId="1">ALL!$B$1:$M$1765</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ALL!$A$1:$M$1762</definedName>
+    <definedName name="LIST" localSheetId="1">ALL!$B$1:$M$1762</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -14078,10 +14078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P281"/>
+  <dimension ref="A1:P284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
-      <selection activeCell="E282" sqref="E282"/>
+    <sheetView topLeftCell="A255" workbookViewId="0">
+      <selection activeCell="A279" sqref="A279:A284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20406,6 +20406,75 @@
         <v>4104</v>
       </c>
     </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>282</v>
+      </c>
+      <c r="B282" t="s">
+        <v>3374</v>
+      </c>
+      <c r="C282" t="s">
+        <v>3375</v>
+      </c>
+      <c r="D282" t="s">
+        <v>14</v>
+      </c>
+      <c r="H282" t="s">
+        <v>406</v>
+      </c>
+      <c r="I282" t="s">
+        <v>93</v>
+      </c>
+      <c r="M282" t="s">
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>283</v>
+      </c>
+      <c r="B283" t="s">
+        <v>3377</v>
+      </c>
+      <c r="C283" t="s">
+        <v>3375</v>
+      </c>
+      <c r="D283" t="s">
+        <v>14</v>
+      </c>
+      <c r="H283" t="s">
+        <v>406</v>
+      </c>
+      <c r="I283" t="s">
+        <v>93</v>
+      </c>
+      <c r="M283" t="s">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>284</v>
+      </c>
+      <c r="B284" t="s">
+        <v>3379</v>
+      </c>
+      <c r="C284" t="s">
+        <v>3375</v>
+      </c>
+      <c r="D284" t="s">
+        <v>14</v>
+      </c>
+      <c r="H284" t="s">
+        <v>406</v>
+      </c>
+      <c r="I284" t="s">
+        <v>93</v>
+      </c>
+      <c r="M284" t="s">
+        <v>3380</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20413,10 +20482,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1765"/>
+  <dimension ref="A1:M1762"/>
   <sheetViews>
-    <sheetView topLeftCell="A1029" workbookViewId="0">
-      <selection activeCell="M58" sqref="M58"/>
+    <sheetView tabSelected="1" topLeftCell="A1437" workbookViewId="0">
+      <selection activeCell="A1452" sqref="A1452:XFD1454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -56442,79 +56511,79 @@
     </row>
     <row r="1452" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1452">
-        <v>1467</v>
+        <v>1470</v>
       </c>
       <c r="B1452" t="s">
-        <v>3374</v>
+        <v>3381</v>
       </c>
       <c r="C1452" t="s">
-        <v>3375</v>
+        <v>3382</v>
       </c>
       <c r="D1452" t="s">
-        <v>14</v>
+        <v>405</v>
+      </c>
+      <c r="E1452" t="s">
+        <v>1184</v>
       </c>
       <c r="H1452" t="s">
-        <v>406</v>
-      </c>
-      <c r="I1452" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="M1452" t="s">
-        <v>3376</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="1453" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1453">
-        <v>1468</v>
+        <v>1471</v>
       </c>
       <c r="B1453" t="s">
-        <v>3377</v>
+        <v>3384</v>
       </c>
       <c r="C1453" t="s">
-        <v>3375</v>
+        <v>3382</v>
       </c>
       <c r="D1453" t="s">
-        <v>14</v>
+        <v>405</v>
+      </c>
+      <c r="E1453" t="s">
+        <v>1184</v>
       </c>
       <c r="H1453" t="s">
-        <v>406</v>
-      </c>
-      <c r="I1453" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="M1453" t="s">
-        <v>3378</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="1454" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1454">
-        <v>1469</v>
+        <v>1472</v>
       </c>
       <c r="B1454" t="s">
-        <v>3379</v>
+        <v>3386</v>
       </c>
       <c r="C1454" t="s">
-        <v>3375</v>
+        <v>3382</v>
       </c>
       <c r="D1454" t="s">
-        <v>14</v>
+        <v>405</v>
+      </c>
+      <c r="E1454" t="s">
+        <v>1184</v>
       </c>
       <c r="H1454" t="s">
-        <v>406</v>
-      </c>
-      <c r="I1454" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="M1454" t="s">
-        <v>3380</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="1455" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1455">
-        <v>1470</v>
+        <v>1473</v>
       </c>
       <c r="B1455" t="s">
-        <v>3381</v>
+        <v>3388</v>
       </c>
       <c r="C1455" t="s">
         <v>3382</v>
@@ -56529,84 +56598,90 @@
         <v>71</v>
       </c>
       <c r="M1455" t="s">
-        <v>3383</v>
+        <v>3389</v>
       </c>
     </row>
     <row r="1456" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1456">
-        <v>1471</v>
+        <v>1474</v>
       </c>
       <c r="B1456" t="s">
-        <v>3384</v>
+        <v>3390</v>
       </c>
       <c r="C1456" t="s">
-        <v>3382</v>
+        <v>3391</v>
       </c>
       <c r="D1456" t="s">
-        <v>405</v>
+        <v>14</v>
       </c>
       <c r="E1456" t="s">
-        <v>1184</v>
+        <v>14</v>
       </c>
       <c r="H1456" t="s">
         <v>71</v>
       </c>
       <c r="M1456" t="s">
-        <v>3385</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="1457" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1457">
-        <v>1472</v>
+        <v>1475</v>
       </c>
       <c r="B1457" t="s">
-        <v>3386</v>
+        <v>3393</v>
       </c>
       <c r="C1457" t="s">
-        <v>3382</v>
+        <v>3391</v>
       </c>
       <c r="D1457" t="s">
-        <v>405</v>
+        <v>14</v>
       </c>
       <c r="E1457" t="s">
-        <v>1184</v>
+        <v>14</v>
       </c>
       <c r="H1457" t="s">
         <v>71</v>
       </c>
       <c r="M1457" t="s">
-        <v>3387</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="1458" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1458">
-        <v>1473</v>
+        <v>1476</v>
       </c>
       <c r="B1458" t="s">
-        <v>3388</v>
+        <v>3395</v>
       </c>
       <c r="C1458" t="s">
-        <v>3382</v>
+        <v>3391</v>
       </c>
       <c r="D1458" t="s">
-        <v>405</v>
+        <v>14</v>
       </c>
       <c r="E1458" t="s">
-        <v>1184</v>
+        <v>14</v>
       </c>
       <c r="H1458" t="s">
         <v>71</v>
       </c>
+      <c r="I1458" t="s">
+        <v>840</v>
+      </c>
+      <c r="J1458" t="s">
+        <v>166</v>
+      </c>
       <c r="M1458" t="s">
-        <v>3389</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="1459" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1459">
-        <v>1474</v>
+        <v>1477</v>
       </c>
       <c r="B1459" t="s">
-        <v>3390</v>
+        <v>3397</v>
       </c>
       <c r="C1459" t="s">
         <v>3391</v>
@@ -56620,16 +56695,22 @@
       <c r="H1459" t="s">
         <v>71</v>
       </c>
+      <c r="I1459" t="s">
+        <v>840</v>
+      </c>
+      <c r="J1459" t="s">
+        <v>166</v>
+      </c>
       <c r="M1459" t="s">
-        <v>3392</v>
+        <v>3398</v>
       </c>
     </row>
     <row r="1460" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1460">
-        <v>1475</v>
+        <v>1478</v>
       </c>
       <c r="B1460" t="s">
-        <v>3393</v>
+        <v>3399</v>
       </c>
       <c r="C1460" t="s">
         <v>3391</v>
@@ -56643,103 +56724,91 @@
       <c r="H1460" t="s">
         <v>71</v>
       </c>
+      <c r="I1460" t="s">
+        <v>840</v>
+      </c>
+      <c r="J1460" t="s">
+        <v>166</v>
+      </c>
       <c r="M1460" t="s">
-        <v>3394</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="1461" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1461">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="B1461" t="s">
-        <v>3395</v>
+        <v>3401</v>
       </c>
       <c r="C1461" t="s">
-        <v>3391</v>
+        <v>3402</v>
       </c>
       <c r="D1461" t="s">
         <v>14</v>
       </c>
       <c r="E1461" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1461" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1461" t="s">
-        <v>840</v>
-      </c>
-      <c r="J1461" t="s">
-        <v>166</v>
+        <v>962</v>
+      </c>
+      <c r="F1461" t="s">
+        <v>962</v>
       </c>
       <c r="M1461" t="s">
-        <v>3396</v>
+        <v>3403</v>
       </c>
     </row>
     <row r="1462" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1462">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="B1462" t="s">
-        <v>3397</v>
+        <v>3404</v>
       </c>
       <c r="C1462" t="s">
-        <v>3391</v>
+        <v>3402</v>
       </c>
       <c r="D1462" t="s">
         <v>14</v>
       </c>
       <c r="E1462" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1462" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1462" t="s">
-        <v>840</v>
-      </c>
-      <c r="J1462" t="s">
-        <v>166</v>
+        <v>962</v>
+      </c>
+      <c r="F1462" t="s">
+        <v>962</v>
       </c>
       <c r="M1462" t="s">
-        <v>3398</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="1463" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1463">
-        <v>1478</v>
+        <v>1481</v>
       </c>
       <c r="B1463" t="s">
-        <v>3399</v>
+        <v>3406</v>
       </c>
       <c r="C1463" t="s">
-        <v>3391</v>
+        <v>3402</v>
       </c>
       <c r="D1463" t="s">
         <v>14</v>
       </c>
       <c r="E1463" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1463" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1463" t="s">
-        <v>840</v>
-      </c>
-      <c r="J1463" t="s">
-        <v>166</v>
+        <v>962</v>
+      </c>
+      <c r="F1463" t="s">
+        <v>962</v>
       </c>
       <c r="M1463" t="s">
-        <v>3400</v>
+        <v>3407</v>
       </c>
     </row>
     <row r="1464" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1464">
-        <v>1479</v>
+        <v>1482</v>
       </c>
       <c r="B1464" t="s">
-        <v>3401</v>
+        <v>3408</v>
       </c>
       <c r="C1464" t="s">
         <v>3402</v>
@@ -56754,84 +56823,93 @@
         <v>962</v>
       </c>
       <c r="M1464" t="s">
-        <v>3403</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="1465" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1465">
-        <v>1480</v>
+        <v>1483</v>
       </c>
       <c r="B1465" t="s">
-        <v>3404</v>
+        <v>3420</v>
       </c>
       <c r="C1465" t="s">
-        <v>3402</v>
+        <v>3421</v>
       </c>
       <c r="D1465" t="s">
         <v>14</v>
       </c>
-      <c r="E1465" t="s">
-        <v>962</v>
-      </c>
-      <c r="F1465" t="s">
-        <v>962</v>
+      <c r="H1465" t="s">
+        <v>1279</v>
       </c>
       <c r="M1465" t="s">
-        <v>3405</v>
+        <v>3422</v>
       </c>
     </row>
     <row r="1466" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1466">
-        <v>1481</v>
+        <v>1484</v>
       </c>
       <c r="B1466" t="s">
-        <v>3406</v>
+        <v>3423</v>
       </c>
       <c r="C1466" t="s">
-        <v>3402</v>
+        <v>3421</v>
       </c>
       <c r="D1466" t="s">
         <v>14</v>
       </c>
       <c r="E1466" t="s">
-        <v>962</v>
-      </c>
-      <c r="F1466" t="s">
-        <v>962</v>
+        <v>154</v>
+      </c>
+      <c r="H1466" t="s">
+        <v>1279</v>
+      </c>
+      <c r="I1466" t="s">
+        <v>406</v>
+      </c>
+      <c r="J1466" t="s">
+        <v>93</v>
       </c>
       <c r="M1466" t="s">
-        <v>3407</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="1467" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1467">
-        <v>1482</v>
+        <v>1485</v>
       </c>
       <c r="B1467" t="s">
-        <v>3408</v>
+        <v>3425</v>
       </c>
       <c r="C1467" t="s">
-        <v>3402</v>
+        <v>3421</v>
       </c>
       <c r="D1467" t="s">
         <v>14</v>
       </c>
       <c r="E1467" t="s">
-        <v>962</v>
-      </c>
-      <c r="F1467" t="s">
-        <v>962</v>
+        <v>154</v>
+      </c>
+      <c r="H1467" t="s">
+        <v>1279</v>
+      </c>
+      <c r="I1467" t="s">
+        <v>406</v>
+      </c>
+      <c r="J1467" t="s">
+        <v>93</v>
       </c>
       <c r="M1467" t="s">
-        <v>3409</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="1468" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1468">
-        <v>1483</v>
+        <v>1486</v>
       </c>
       <c r="B1468" t="s">
-        <v>3420</v>
+        <v>3427</v>
       </c>
       <c r="C1468" t="s">
         <v>3421</v>
@@ -56839,22 +56917,31 @@
       <c r="D1468" t="s">
         <v>14</v>
       </c>
+      <c r="E1468" t="s">
+        <v>154</v>
+      </c>
       <c r="H1468" t="s">
         <v>1279</v>
       </c>
+      <c r="I1468" t="s">
+        <v>406</v>
+      </c>
+      <c r="J1468" t="s">
+        <v>93</v>
+      </c>
       <c r="M1468" t="s">
-        <v>3422</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="1469" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1469">
-        <v>1484</v>
+        <v>1487</v>
       </c>
       <c r="B1469" t="s">
-        <v>3423</v>
+        <v>3429</v>
       </c>
       <c r="C1469" t="s">
-        <v>3421</v>
+        <v>3430</v>
       </c>
       <c r="D1469" t="s">
         <v>14</v>
@@ -56865,25 +56952,19 @@
       <c r="H1469" t="s">
         <v>1279</v>
       </c>
-      <c r="I1469" t="s">
-        <v>406</v>
-      </c>
-      <c r="J1469" t="s">
-        <v>93</v>
-      </c>
       <c r="M1469" t="s">
-        <v>3424</v>
+        <v>3431</v>
       </c>
     </row>
     <row r="1470" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1470">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="B1470" t="s">
-        <v>3425</v>
+        <v>3432</v>
       </c>
       <c r="C1470" t="s">
-        <v>3421</v>
+        <v>3430</v>
       </c>
       <c r="D1470" t="s">
         <v>14</v>
@@ -56894,97 +56975,115 @@
       <c r="H1470" t="s">
         <v>1279</v>
       </c>
-      <c r="I1470" t="s">
-        <v>406</v>
-      </c>
-      <c r="J1470" t="s">
-        <v>93</v>
-      </c>
       <c r="M1470" t="s">
-        <v>3426</v>
+        <v>3433</v>
       </c>
     </row>
     <row r="1471" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1471">
-        <v>1486</v>
+        <v>1489</v>
       </c>
       <c r="B1471" t="s">
-        <v>3427</v>
+        <v>3434</v>
       </c>
       <c r="C1471" t="s">
-        <v>3421</v>
+        <v>3435</v>
       </c>
       <c r="D1471" t="s">
-        <v>14</v>
+        <v>3436</v>
       </c>
       <c r="E1471" t="s">
-        <v>154</v>
+        <v>967</v>
+      </c>
+      <c r="F1471" t="s">
+        <v>967</v>
       </c>
       <c r="H1471" t="s">
-        <v>1279</v>
+        <v>93</v>
       </c>
       <c r="I1471" t="s">
-        <v>406</v>
+        <v>551</v>
       </c>
       <c r="J1471" t="s">
-        <v>93</v>
+        <v>333</v>
+      </c>
+      <c r="K1471" t="s">
+        <v>997</v>
       </c>
       <c r="M1471" t="s">
-        <v>3428</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="1472" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1472">
-        <v>1487</v>
+        <v>1490</v>
       </c>
       <c r="B1472" t="s">
-        <v>3429</v>
+        <v>3438</v>
       </c>
       <c r="C1472" t="s">
-        <v>3430</v>
+        <v>3435</v>
       </c>
       <c r="D1472" t="s">
-        <v>14</v>
+        <v>3436</v>
       </c>
       <c r="E1472" t="s">
-        <v>154</v>
+        <v>967</v>
       </c>
       <c r="H1472" t="s">
-        <v>1279</v>
+        <v>93</v>
+      </c>
+      <c r="I1472" t="s">
+        <v>551</v>
+      </c>
+      <c r="J1472" t="s">
+        <v>166</v>
+      </c>
+      <c r="K1472" t="s">
+        <v>997</v>
       </c>
       <c r="M1472" t="s">
-        <v>3431</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="1473" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1473">
-        <v>1488</v>
+        <v>1491</v>
       </c>
       <c r="B1473" t="s">
-        <v>3432</v>
+        <v>3440</v>
       </c>
       <c r="C1473" t="s">
-        <v>3430</v>
+        <v>3435</v>
       </c>
       <c r="D1473" t="s">
-        <v>14</v>
+        <v>3436</v>
       </c>
       <c r="E1473" t="s">
-        <v>154</v>
+        <v>967</v>
       </c>
       <c r="H1473" t="s">
-        <v>1279</v>
+        <v>93</v>
+      </c>
+      <c r="I1473" t="s">
+        <v>551</v>
+      </c>
+      <c r="J1473" t="s">
+        <v>166</v>
+      </c>
+      <c r="K1473" t="s">
+        <v>997</v>
       </c>
       <c r="M1473" t="s">
-        <v>3433</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="1474" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1474">
-        <v>1489</v>
+        <v>1492</v>
       </c>
       <c r="B1474" t="s">
-        <v>3434</v>
+        <v>3442</v>
       </c>
       <c r="C1474" t="s">
         <v>3435</v>
@@ -56995,9 +57094,6 @@
       <c r="E1474" t="s">
         <v>967</v>
       </c>
-      <c r="F1474" t="s">
-        <v>967</v>
-      </c>
       <c r="H1474" t="s">
         <v>93</v>
       </c>
@@ -57005,21 +57101,21 @@
         <v>551</v>
       </c>
       <c r="J1474" t="s">
-        <v>333</v>
+        <v>166</v>
       </c>
       <c r="K1474" t="s">
         <v>997</v>
       </c>
       <c r="M1474" t="s">
-        <v>3437</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="1475" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1475">
-        <v>1490</v>
+        <v>1493</v>
       </c>
       <c r="B1475" t="s">
-        <v>3438</v>
+        <v>3443</v>
       </c>
       <c r="C1475" t="s">
         <v>3435</v>
@@ -57043,15 +57139,15 @@
         <v>997</v>
       </c>
       <c r="M1475" t="s">
-        <v>3439</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="1476" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1476">
-        <v>1491</v>
+        <v>1494</v>
       </c>
       <c r="B1476" t="s">
-        <v>3440</v>
+        <v>3445</v>
       </c>
       <c r="C1476" t="s">
         <v>3435</v>
@@ -57075,15 +57171,15 @@
         <v>997</v>
       </c>
       <c r="M1476" t="s">
-        <v>3441</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="1477" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1477">
-        <v>1492</v>
+        <v>1495</v>
       </c>
       <c r="B1477" t="s">
-        <v>3442</v>
+        <v>3447</v>
       </c>
       <c r="C1477" t="s">
         <v>3435</v>
@@ -57107,15 +57203,15 @@
         <v>997</v>
       </c>
       <c r="M1477" t="s">
-        <v>4459</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="1478" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1478">
-        <v>1493</v>
+        <v>1496</v>
       </c>
       <c r="B1478" t="s">
-        <v>3443</v>
+        <v>3449</v>
       </c>
       <c r="C1478" t="s">
         <v>3435</v>
@@ -57139,15 +57235,15 @@
         <v>997</v>
       </c>
       <c r="M1478" t="s">
-        <v>3444</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="1479" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1479">
-        <v>1494</v>
+        <v>1497</v>
       </c>
       <c r="B1479" t="s">
-        <v>3445</v>
+        <v>3451</v>
       </c>
       <c r="C1479" t="s">
         <v>3435</v>
@@ -57171,15 +57267,15 @@
         <v>997</v>
       </c>
       <c r="M1479" t="s">
-        <v>3446</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="1480" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1480">
-        <v>1495</v>
+        <v>1498</v>
       </c>
       <c r="B1480" t="s">
-        <v>3447</v>
+        <v>3452</v>
       </c>
       <c r="C1480" t="s">
         <v>3435</v>
@@ -57203,15 +57299,15 @@
         <v>997</v>
       </c>
       <c r="M1480" t="s">
-        <v>3448</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="1481" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1481">
-        <v>1496</v>
+        <v>1499</v>
       </c>
       <c r="B1481" t="s">
-        <v>3449</v>
+        <v>3453</v>
       </c>
       <c r="C1481" t="s">
         <v>3435</v>
@@ -57235,15 +57331,15 @@
         <v>997</v>
       </c>
       <c r="M1481" t="s">
-        <v>3450</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="1482" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1482">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="B1482" t="s">
-        <v>3451</v>
+        <v>3454</v>
       </c>
       <c r="C1482" t="s">
         <v>3435</v>
@@ -57264,18 +57360,18 @@
         <v>166</v>
       </c>
       <c r="K1482" t="s">
-        <v>997</v>
+        <v>1492</v>
       </c>
       <c r="M1482" t="s">
-        <v>4460</v>
+        <v>4463</v>
       </c>
     </row>
     <row r="1483" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1483">
-        <v>1498</v>
+        <v>1501</v>
       </c>
       <c r="B1483" t="s">
-        <v>3452</v>
+        <v>3455</v>
       </c>
       <c r="C1483" t="s">
         <v>3435</v>
@@ -57296,18 +57392,18 @@
         <v>166</v>
       </c>
       <c r="K1483" t="s">
-        <v>997</v>
+        <v>1492</v>
       </c>
       <c r="M1483" t="s">
-        <v>4461</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1484" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1484">
-        <v>1499</v>
+        <v>1502</v>
       </c>
       <c r="B1484" t="s">
-        <v>3453</v>
+        <v>3456</v>
       </c>
       <c r="C1484" t="s">
         <v>3435</v>
@@ -57328,18 +57424,18 @@
         <v>166</v>
       </c>
       <c r="K1484" t="s">
-        <v>997</v>
+        <v>1492</v>
       </c>
       <c r="M1484" t="s">
-        <v>4462</v>
+        <v>4465</v>
       </c>
     </row>
     <row r="1485" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1485">
-        <v>1500</v>
+        <v>1503</v>
       </c>
       <c r="B1485" t="s">
-        <v>3454</v>
+        <v>3457</v>
       </c>
       <c r="C1485" t="s">
         <v>3435</v>
@@ -57363,15 +57459,15 @@
         <v>1492</v>
       </c>
       <c r="M1485" t="s">
-        <v>4463</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="1486" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1486">
-        <v>1501</v>
+        <v>1504</v>
       </c>
       <c r="B1486" t="s">
-        <v>3455</v>
+        <v>3458</v>
       </c>
       <c r="C1486" t="s">
         <v>3435</v>
@@ -57395,15 +57491,15 @@
         <v>1492</v>
       </c>
       <c r="M1486" t="s">
-        <v>4464</v>
+        <v>4467</v>
       </c>
     </row>
     <row r="1487" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1487">
-        <v>1502</v>
+        <v>1505</v>
       </c>
       <c r="B1487" t="s">
-        <v>3456</v>
+        <v>3459</v>
       </c>
       <c r="C1487" t="s">
         <v>3435</v>
@@ -57427,15 +57523,15 @@
         <v>1492</v>
       </c>
       <c r="M1487" t="s">
-        <v>4465</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="1488" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1488">
-        <v>1503</v>
+        <v>1506</v>
       </c>
       <c r="B1488" t="s">
-        <v>3457</v>
+        <v>3460</v>
       </c>
       <c r="C1488" t="s">
         <v>3435</v>
@@ -57459,15 +57555,15 @@
         <v>1492</v>
       </c>
       <c r="M1488" t="s">
-        <v>4466</v>
+        <v>4469</v>
       </c>
     </row>
     <row r="1489" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1489">
-        <v>1504</v>
+        <v>1507</v>
       </c>
       <c r="B1489" t="s">
-        <v>3458</v>
+        <v>3461</v>
       </c>
       <c r="C1489" t="s">
         <v>3435</v>
@@ -57491,15 +57587,15 @@
         <v>1492</v>
       </c>
       <c r="M1489" t="s">
-        <v>4467</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="1490" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1490">
-        <v>1505</v>
+        <v>1508</v>
       </c>
       <c r="B1490" t="s">
-        <v>3459</v>
+        <v>3462</v>
       </c>
       <c r="C1490" t="s">
         <v>3435</v>
@@ -57507,31 +57603,16 @@
       <c r="D1490" t="s">
         <v>3436</v>
       </c>
-      <c r="E1490" t="s">
-        <v>967</v>
-      </c>
-      <c r="H1490" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1490" t="s">
-        <v>551</v>
-      </c>
-      <c r="J1490" t="s">
-        <v>166</v>
-      </c>
-      <c r="K1490" t="s">
-        <v>1492</v>
-      </c>
       <c r="M1490" t="s">
-        <v>4468</v>
+        <v>4471</v>
       </c>
     </row>
     <row r="1491" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1491">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="B1491" t="s">
-        <v>3460</v>
+        <v>3463</v>
       </c>
       <c r="C1491" t="s">
         <v>3435</v>
@@ -57539,31 +57620,16 @@
       <c r="D1491" t="s">
         <v>3436</v>
       </c>
-      <c r="E1491" t="s">
-        <v>967</v>
-      </c>
-      <c r="H1491" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1491" t="s">
-        <v>551</v>
-      </c>
-      <c r="J1491" t="s">
-        <v>166</v>
-      </c>
-      <c r="K1491" t="s">
-        <v>1492</v>
-      </c>
       <c r="M1491" t="s">
-        <v>4469</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="1492" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1492">
-        <v>1507</v>
+        <v>1510</v>
       </c>
       <c r="B1492" t="s">
-        <v>3461</v>
+        <v>3464</v>
       </c>
       <c r="C1492" t="s">
         <v>3435</v>
@@ -57571,31 +57637,16 @@
       <c r="D1492" t="s">
         <v>3436</v>
       </c>
-      <c r="E1492" t="s">
-        <v>967</v>
-      </c>
-      <c r="H1492" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1492" t="s">
-        <v>551</v>
-      </c>
-      <c r="J1492" t="s">
-        <v>166</v>
-      </c>
-      <c r="K1492" t="s">
-        <v>1492</v>
-      </c>
       <c r="M1492" t="s">
-        <v>4470</v>
+        <v>4473</v>
       </c>
     </row>
     <row r="1493" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1493">
-        <v>1508</v>
+        <v>1511</v>
       </c>
       <c r="B1493" t="s">
-        <v>3462</v>
+        <v>3465</v>
       </c>
       <c r="C1493" t="s">
         <v>3435</v>
@@ -57603,16 +57654,31 @@
       <c r="D1493" t="s">
         <v>3436</v>
       </c>
+      <c r="E1493" t="s">
+        <v>967</v>
+      </c>
+      <c r="H1493" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1493" t="s">
+        <v>551</v>
+      </c>
+      <c r="J1493" t="s">
+        <v>166</v>
+      </c>
+      <c r="K1493" t="s">
+        <v>1492</v>
+      </c>
       <c r="M1493" t="s">
-        <v>4471</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="1494" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1494">
-        <v>1509</v>
+        <v>1512</v>
       </c>
       <c r="B1494" t="s">
-        <v>3463</v>
+        <v>3466</v>
       </c>
       <c r="C1494" t="s">
         <v>3435</v>
@@ -57620,16 +57686,31 @@
       <c r="D1494" t="s">
         <v>3436</v>
       </c>
+      <c r="E1494" t="s">
+        <v>967</v>
+      </c>
+      <c r="H1494" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1494" t="s">
+        <v>551</v>
+      </c>
+      <c r="J1494" t="s">
+        <v>166</v>
+      </c>
+      <c r="K1494" t="s">
+        <v>1492</v>
+      </c>
       <c r="M1494" t="s">
-        <v>4472</v>
+        <v>4475</v>
       </c>
     </row>
     <row r="1495" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1495">
-        <v>1510</v>
+        <v>1513</v>
       </c>
       <c r="B1495" t="s">
-        <v>3464</v>
+        <v>3467</v>
       </c>
       <c r="C1495" t="s">
         <v>3435</v>
@@ -57637,112 +57718,91 @@
       <c r="D1495" t="s">
         <v>3436</v>
       </c>
+      <c r="E1495" t="s">
+        <v>967</v>
+      </c>
+      <c r="H1495" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1495" t="s">
+        <v>551</v>
+      </c>
+      <c r="J1495" t="s">
+        <v>166</v>
+      </c>
+      <c r="K1495" t="s">
+        <v>1492</v>
+      </c>
       <c r="M1495" t="s">
-        <v>4473</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="1496" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1496">
-        <v>1511</v>
+        <v>1514</v>
       </c>
       <c r="B1496" t="s">
-        <v>3465</v>
+        <v>3484</v>
       </c>
       <c r="C1496" t="s">
-        <v>3435</v>
+        <v>3485</v>
       </c>
       <c r="D1496" t="s">
-        <v>3436</v>
-      </c>
-      <c r="E1496" t="s">
-        <v>967</v>
+        <v>3486</v>
       </c>
       <c r="H1496" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1496" t="s">
-        <v>551</v>
-      </c>
-      <c r="J1496" t="s">
-        <v>166</v>
-      </c>
-      <c r="K1496" t="s">
-        <v>1492</v>
+        <v>406</v>
       </c>
       <c r="M1496" t="s">
-        <v>4474</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="1497" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1497">
-        <v>1512</v>
+        <v>1515</v>
       </c>
       <c r="B1497" t="s">
-        <v>3466</v>
+        <v>3488</v>
       </c>
       <c r="C1497" t="s">
-        <v>3435</v>
+        <v>3485</v>
       </c>
       <c r="D1497" t="s">
-        <v>3436</v>
-      </c>
-      <c r="E1497" t="s">
-        <v>967</v>
+        <v>3486</v>
       </c>
       <c r="H1497" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1497" t="s">
-        <v>551</v>
-      </c>
-      <c r="J1497" t="s">
-        <v>166</v>
-      </c>
-      <c r="K1497" t="s">
-        <v>1492</v>
+        <v>406</v>
       </c>
       <c r="M1497" t="s">
-        <v>4475</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="1498" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1498">
-        <v>1513</v>
+        <v>1516</v>
       </c>
       <c r="B1498" t="s">
-        <v>3467</v>
+        <v>3490</v>
       </c>
       <c r="C1498" t="s">
-        <v>3435</v>
+        <v>3485</v>
       </c>
       <c r="D1498" t="s">
-        <v>3436</v>
-      </c>
-      <c r="E1498" t="s">
-        <v>967</v>
+        <v>3486</v>
       </c>
       <c r="H1498" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1498" t="s">
-        <v>551</v>
-      </c>
-      <c r="J1498" t="s">
-        <v>166</v>
-      </c>
-      <c r="K1498" t="s">
-        <v>1492</v>
+        <v>406</v>
       </c>
       <c r="M1498" t="s">
-        <v>4476</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="1499" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1499">
-        <v>1514</v>
+        <v>1517</v>
       </c>
       <c r="B1499" t="s">
-        <v>3484</v>
+        <v>3492</v>
       </c>
       <c r="C1499" t="s">
         <v>3485</v>
@@ -57754,15 +57814,15 @@
         <v>406</v>
       </c>
       <c r="M1499" t="s">
-        <v>3487</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="1500" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1500">
-        <v>1515</v>
+        <v>1518</v>
       </c>
       <c r="B1500" t="s">
-        <v>3488</v>
+        <v>3494</v>
       </c>
       <c r="C1500" t="s">
         <v>3485</v>
@@ -57774,15 +57834,15 @@
         <v>406</v>
       </c>
       <c r="M1500" t="s">
-        <v>3489</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="1501" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1501">
-        <v>1516</v>
+        <v>1519</v>
       </c>
       <c r="B1501" t="s">
-        <v>3490</v>
+        <v>3496</v>
       </c>
       <c r="C1501" t="s">
         <v>3485</v>
@@ -57794,15 +57854,15 @@
         <v>406</v>
       </c>
       <c r="M1501" t="s">
-        <v>3491</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="1502" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1502">
-        <v>1517</v>
+        <v>1520</v>
       </c>
       <c r="B1502" t="s">
-        <v>3492</v>
+        <v>3498</v>
       </c>
       <c r="C1502" t="s">
         <v>3485</v>
@@ -57814,15 +57874,15 @@
         <v>406</v>
       </c>
       <c r="M1502" t="s">
-        <v>3493</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="1503" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1503">
-        <v>1518</v>
+        <v>1521</v>
       </c>
       <c r="B1503" t="s">
-        <v>3494</v>
+        <v>3500</v>
       </c>
       <c r="C1503" t="s">
         <v>3485</v>
@@ -57834,15 +57894,15 @@
         <v>406</v>
       </c>
       <c r="M1503" t="s">
-        <v>3495</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="1504" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1504">
-        <v>1519</v>
+        <v>1522</v>
       </c>
       <c r="B1504" t="s">
-        <v>3496</v>
+        <v>3502</v>
       </c>
       <c r="C1504" t="s">
         <v>3485</v>
@@ -57854,15 +57914,15 @@
         <v>406</v>
       </c>
       <c r="M1504" t="s">
-        <v>3497</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="1505" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1505">
-        <v>1520</v>
+        <v>1523</v>
       </c>
       <c r="B1505" t="s">
-        <v>3498</v>
+        <v>3504</v>
       </c>
       <c r="C1505" t="s">
         <v>3485</v>
@@ -57874,15 +57934,15 @@
         <v>406</v>
       </c>
       <c r="M1505" t="s">
-        <v>3499</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="1506" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1506">
-        <v>1521</v>
+        <v>1524</v>
       </c>
       <c r="B1506" t="s">
-        <v>3500</v>
+        <v>3506</v>
       </c>
       <c r="C1506" t="s">
         <v>3485</v>
@@ -57894,15 +57954,15 @@
         <v>406</v>
       </c>
       <c r="M1506" t="s">
-        <v>3501</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="1507" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1507">
-        <v>1522</v>
+        <v>1525</v>
       </c>
       <c r="B1507" t="s">
-        <v>3502</v>
+        <v>3508</v>
       </c>
       <c r="C1507" t="s">
         <v>3485</v>
@@ -57914,15 +57974,15 @@
         <v>406</v>
       </c>
       <c r="M1507" t="s">
-        <v>3503</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="1508" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1508">
-        <v>1523</v>
+        <v>1526</v>
       </c>
       <c r="B1508" t="s">
-        <v>3504</v>
+        <v>3510</v>
       </c>
       <c r="C1508" t="s">
         <v>3485</v>
@@ -57934,15 +57994,15 @@
         <v>406</v>
       </c>
       <c r="M1508" t="s">
-        <v>3505</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="1509" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1509">
-        <v>1524</v>
+        <v>1527</v>
       </c>
       <c r="B1509" t="s">
-        <v>3506</v>
+        <v>3512</v>
       </c>
       <c r="C1509" t="s">
         <v>3485</v>
@@ -57954,15 +58014,15 @@
         <v>406</v>
       </c>
       <c r="M1509" t="s">
-        <v>3507</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="1510" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1510">
-        <v>1525</v>
+        <v>1528</v>
       </c>
       <c r="B1510" t="s">
-        <v>3508</v>
+        <v>3514</v>
       </c>
       <c r="C1510" t="s">
         <v>3485</v>
@@ -57974,127 +58034,136 @@
         <v>406</v>
       </c>
       <c r="M1510" t="s">
-        <v>3509</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="1511" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1511">
-        <v>1526</v>
+        <v>1529</v>
       </c>
       <c r="B1511" t="s">
-        <v>3510</v>
+        <v>3516</v>
       </c>
       <c r="C1511" t="s">
-        <v>3485</v>
-      </c>
-      <c r="D1511" t="s">
-        <v>3486</v>
+        <v>3517</v>
+      </c>
+      <c r="D1511">
+        <v>68000</v>
+      </c>
+      <c r="E1511" t="s">
+        <v>14</v>
       </c>
       <c r="H1511" t="s">
-        <v>406</v>
+        <v>172</v>
+      </c>
+      <c r="I1511" t="s">
+        <v>93</v>
       </c>
       <c r="M1511" t="s">
-        <v>3511</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="1512" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1512">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="B1512" t="s">
-        <v>3512</v>
+        <v>3519</v>
       </c>
       <c r="C1512" t="s">
-        <v>3485</v>
-      </c>
-      <c r="D1512" t="s">
-        <v>3486</v>
+        <v>3517</v>
+      </c>
+      <c r="D1512">
+        <v>68000</v>
+      </c>
+      <c r="E1512" t="s">
+        <v>14</v>
       </c>
       <c r="H1512" t="s">
-        <v>406</v>
+        <v>172</v>
+      </c>
+      <c r="I1512" t="s">
+        <v>93</v>
       </c>
       <c r="M1512" t="s">
-        <v>3513</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="1513" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1513">
-        <v>1528</v>
+        <v>1531</v>
       </c>
       <c r="B1513" t="s">
-        <v>3514</v>
+        <v>3521</v>
       </c>
       <c r="C1513" t="s">
-        <v>3485</v>
+        <v>3522</v>
       </c>
       <c r="D1513" t="s">
-        <v>3486</v>
+        <v>14</v>
+      </c>
+      <c r="E1513" t="s">
+        <v>154</v>
       </c>
       <c r="H1513" t="s">
-        <v>406</v>
+        <v>172</v>
       </c>
       <c r="M1513" t="s">
-        <v>3515</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="1514" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1514">
-        <v>1529</v>
+        <v>1532</v>
       </c>
       <c r="B1514" t="s">
-        <v>3516</v>
+        <v>3524</v>
       </c>
       <c r="C1514" t="s">
-        <v>3517</v>
-      </c>
-      <c r="D1514">
-        <v>68000</v>
+        <v>3522</v>
+      </c>
+      <c r="D1514" t="s">
+        <v>14</v>
       </c>
       <c r="E1514" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="H1514" t="s">
         <v>172</v>
       </c>
-      <c r="I1514" t="s">
-        <v>93</v>
-      </c>
       <c r="M1514" t="s">
-        <v>3518</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="1515" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1515">
-        <v>1530</v>
+        <v>1533</v>
       </c>
       <c r="B1515" t="s">
-        <v>3519</v>
+        <v>3526</v>
       </c>
       <c r="C1515" t="s">
-        <v>3517</v>
-      </c>
-      <c r="D1515">
-        <v>68000</v>
+        <v>3522</v>
+      </c>
+      <c r="D1515" t="s">
+        <v>14</v>
       </c>
       <c r="E1515" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="H1515" t="s">
         <v>172</v>
       </c>
-      <c r="I1515" t="s">
-        <v>93</v>
-      </c>
       <c r="M1515" t="s">
-        <v>3520</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="1516" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1516">
-        <v>1531</v>
+        <v>1534</v>
       </c>
       <c r="B1516" t="s">
-        <v>3521</v>
+        <v>3528</v>
       </c>
       <c r="C1516" t="s">
         <v>3522</v>
@@ -58109,15 +58178,15 @@
         <v>172</v>
       </c>
       <c r="M1516" t="s">
-        <v>3523</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="1517" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1517">
-        <v>1532</v>
+        <v>1535</v>
       </c>
       <c r="B1517" t="s">
-        <v>3524</v>
+        <v>3530</v>
       </c>
       <c r="C1517" t="s">
         <v>3522</v>
@@ -58132,15 +58201,15 @@
         <v>172</v>
       </c>
       <c r="M1517" t="s">
-        <v>3525</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="1518" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1518">
-        <v>1533</v>
+        <v>1536</v>
       </c>
       <c r="B1518" t="s">
-        <v>3526</v>
+        <v>3532</v>
       </c>
       <c r="C1518" t="s">
         <v>3522</v>
@@ -58155,15 +58224,15 @@
         <v>172</v>
       </c>
       <c r="M1518" t="s">
-        <v>3527</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="1519" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1519">
-        <v>1534</v>
+        <v>1537</v>
       </c>
       <c r="B1519" t="s">
-        <v>3528</v>
+        <v>3534</v>
       </c>
       <c r="C1519" t="s">
         <v>3522</v>
@@ -58178,15 +58247,15 @@
         <v>172</v>
       </c>
       <c r="M1519" t="s">
-        <v>3529</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="1520" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1520">
-        <v>1535</v>
+        <v>1538</v>
       </c>
       <c r="B1520" t="s">
-        <v>3530</v>
+        <v>3536</v>
       </c>
       <c r="C1520" t="s">
         <v>3522</v>
@@ -58201,15 +58270,15 @@
         <v>172</v>
       </c>
       <c r="M1520" t="s">
-        <v>3531</v>
+        <v>3537</v>
       </c>
     </row>
     <row r="1521" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1521">
-        <v>1536</v>
+        <v>1539</v>
       </c>
       <c r="B1521" t="s">
-        <v>3532</v>
+        <v>3538</v>
       </c>
       <c r="C1521" t="s">
         <v>3522</v>
@@ -58224,18 +58293,18 @@
         <v>172</v>
       </c>
       <c r="M1521" t="s">
-        <v>3533</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="1522" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1522">
-        <v>1537</v>
+        <v>1540</v>
       </c>
       <c r="B1522" t="s">
-        <v>3534</v>
+        <v>3566</v>
       </c>
       <c r="C1522" t="s">
-        <v>3522</v>
+        <v>3567</v>
       </c>
       <c r="D1522" t="s">
         <v>14</v>
@@ -58244,21 +58313,24 @@
         <v>154</v>
       </c>
       <c r="H1522" t="s">
-        <v>172</v>
+        <v>1279</v>
+      </c>
+      <c r="I1522" t="s">
+        <v>1275</v>
       </c>
       <c r="M1522" t="s">
-        <v>3535</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="1523" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1523">
-        <v>1538</v>
+        <v>1541</v>
       </c>
       <c r="B1523" t="s">
-        <v>3536</v>
+        <v>3568</v>
       </c>
       <c r="C1523" t="s">
-        <v>3522</v>
+        <v>3567</v>
       </c>
       <c r="D1523" t="s">
         <v>14</v>
@@ -58267,21 +58339,24 @@
         <v>154</v>
       </c>
       <c r="H1523" t="s">
-        <v>172</v>
+        <v>1279</v>
+      </c>
+      <c r="I1523" t="s">
+        <v>1275</v>
       </c>
       <c r="M1523" t="s">
-        <v>3537</v>
+        <v>4481</v>
       </c>
     </row>
     <row r="1524" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1524">
-        <v>1539</v>
+        <v>1542</v>
       </c>
       <c r="B1524" t="s">
-        <v>3538</v>
+        <v>3569</v>
       </c>
       <c r="C1524" t="s">
-        <v>3522</v>
+        <v>3567</v>
       </c>
       <c r="D1524" t="s">
         <v>14</v>
@@ -58290,99 +58365,105 @@
         <v>154</v>
       </c>
       <c r="H1524" t="s">
-        <v>172</v>
+        <v>1279</v>
+      </c>
+      <c r="I1524" t="s">
+        <v>1275</v>
       </c>
       <c r="M1524" t="s">
-        <v>3539</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="1525" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1525">
-        <v>1540</v>
+        <v>1543</v>
       </c>
       <c r="B1525" t="s">
-        <v>3566</v>
+        <v>3571</v>
       </c>
       <c r="C1525" t="s">
-        <v>3567</v>
+        <v>3572</v>
       </c>
       <c r="D1525" t="s">
-        <v>14</v>
+        <v>1105</v>
       </c>
       <c r="E1525" t="s">
-        <v>154</v>
+        <v>1105</v>
       </c>
       <c r="H1525" t="s">
-        <v>1279</v>
+        <v>349</v>
       </c>
       <c r="I1525" t="s">
-        <v>1275</v>
+        <v>1492</v>
       </c>
       <c r="M1525" t="s">
-        <v>4480</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="1526" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1526">
-        <v>1541</v>
+        <v>1544</v>
       </c>
       <c r="B1526" t="s">
-        <v>3568</v>
+        <v>3574</v>
       </c>
       <c r="C1526" t="s">
-        <v>3567</v>
+        <v>3572</v>
       </c>
       <c r="D1526" t="s">
-        <v>14</v>
+        <v>1105</v>
       </c>
       <c r="E1526" t="s">
-        <v>154</v>
+        <v>1105</v>
       </c>
       <c r="H1526" t="s">
-        <v>1279</v>
+        <v>349</v>
       </c>
       <c r="I1526" t="s">
-        <v>1275</v>
+        <v>1492</v>
       </c>
       <c r="M1526" t="s">
-        <v>4481</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="1527" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1527">
-        <v>1542</v>
+        <v>1545</v>
       </c>
       <c r="B1527" t="s">
-        <v>3569</v>
+        <v>3576</v>
       </c>
       <c r="C1527" t="s">
-        <v>3567</v>
+        <v>3577</v>
       </c>
       <c r="D1527" t="s">
-        <v>14</v>
+        <v>1105</v>
       </c>
       <c r="E1527" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F1527" t="s">
         <v>154</v>
       </c>
       <c r="H1527" t="s">
-        <v>1279</v>
+        <v>349</v>
       </c>
       <c r="I1527" t="s">
-        <v>1275</v>
+        <v>1492</v>
       </c>
       <c r="M1527" t="s">
-        <v>3570</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="1528" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1528">
-        <v>1543</v>
+        <v>1546</v>
       </c>
       <c r="B1528" t="s">
-        <v>3571</v>
+        <v>3579</v>
       </c>
       <c r="C1528" t="s">
-        <v>3572</v>
+        <v>3577</v>
       </c>
       <c r="D1528" t="s">
         <v>1105</v>
@@ -58390,6 +58471,9 @@
       <c r="E1528" t="s">
         <v>1105</v>
       </c>
+      <c r="F1528" t="s">
+        <v>154</v>
+      </c>
       <c r="H1528" t="s">
         <v>349</v>
       </c>
@@ -58397,18 +58481,18 @@
         <v>1492</v>
       </c>
       <c r="M1528" t="s">
-        <v>3573</v>
+        <v>4482</v>
       </c>
     </row>
     <row r="1529" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1529">
-        <v>1544</v>
+        <v>1547</v>
       </c>
       <c r="B1529" t="s">
-        <v>3574</v>
+        <v>3580</v>
       </c>
       <c r="C1529" t="s">
-        <v>3572</v>
+        <v>3577</v>
       </c>
       <c r="D1529" t="s">
         <v>1105</v>
@@ -58416,6 +58500,9 @@
       <c r="E1529" t="s">
         <v>1105</v>
       </c>
+      <c r="F1529" t="s">
+        <v>154</v>
+      </c>
       <c r="H1529" t="s">
         <v>349</v>
       </c>
@@ -58423,26 +58510,23 @@
         <v>1492</v>
       </c>
       <c r="M1529" t="s">
-        <v>3575</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="1530" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1530">
-        <v>1545</v>
+        <v>1548</v>
       </c>
       <c r="B1530" t="s">
-        <v>3576</v>
+        <v>3582</v>
       </c>
       <c r="C1530" t="s">
-        <v>3577</v>
-      </c>
-      <c r="D1530" t="s">
-        <v>1105</v>
+        <v>3583</v>
+      </c>
+      <c r="D1530">
+        <v>68000</v>
       </c>
       <c r="E1530" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F1530" t="s">
         <v>154</v>
       </c>
       <c r="H1530" t="s">
@@ -58452,76 +58536,58 @@
         <v>1492</v>
       </c>
       <c r="M1530" t="s">
-        <v>3578</v>
+        <v>3584</v>
       </c>
     </row>
     <row r="1531" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1531">
-        <v>1546</v>
+        <v>1549</v>
       </c>
       <c r="B1531" t="s">
-        <v>3579</v>
+        <v>3585</v>
       </c>
       <c r="C1531" t="s">
-        <v>3577</v>
-      </c>
-      <c r="D1531" t="s">
-        <v>1105</v>
+        <v>3586</v>
+      </c>
+      <c r="D1531">
+        <v>68000</v>
       </c>
       <c r="E1531" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F1531" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1531" t="s">
-        <v>349</v>
-      </c>
-      <c r="I1531" t="s">
-        <v>1492</v>
+        <v>154</v>
       </c>
       <c r="M1531" t="s">
-        <v>4482</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="1532" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1532">
-        <v>1547</v>
+        <v>1550</v>
       </c>
       <c r="B1532" t="s">
-        <v>3580</v>
+        <v>3588</v>
       </c>
       <c r="C1532" t="s">
-        <v>3577</v>
-      </c>
-      <c r="D1532" t="s">
-        <v>1105</v>
+        <v>3586</v>
+      </c>
+      <c r="D1532">
+        <v>68000</v>
       </c>
       <c r="E1532" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F1532" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1532" t="s">
-        <v>349</v>
-      </c>
-      <c r="I1532" t="s">
-        <v>1492</v>
+        <v>154</v>
       </c>
       <c r="M1532" t="s">
-        <v>3581</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="1533" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1533">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="B1533" t="s">
-        <v>3582</v>
+        <v>3590</v>
       </c>
       <c r="C1533" t="s">
-        <v>3583</v>
+        <v>3586</v>
       </c>
       <c r="D1533">
         <v>68000</v>
@@ -58530,24 +58596,24 @@
         <v>154</v>
       </c>
       <c r="H1533" t="s">
-        <v>349</v>
+        <v>551</v>
       </c>
       <c r="I1533" t="s">
-        <v>1492</v>
+        <v>3358</v>
       </c>
       <c r="M1533" t="s">
-        <v>3584</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="1534" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1534">
-        <v>1549</v>
+        <v>1552</v>
       </c>
       <c r="B1534" t="s">
-        <v>3585</v>
+        <v>3592</v>
       </c>
       <c r="C1534" t="s">
-        <v>3586</v>
+        <v>3593</v>
       </c>
       <c r="D1534">
         <v>68000</v>
@@ -58555,19 +58621,25 @@
       <c r="E1534" t="s">
         <v>154</v>
       </c>
+      <c r="H1534" t="s">
+        <v>349</v>
+      </c>
+      <c r="I1534" t="s">
+        <v>1275</v>
+      </c>
       <c r="M1534" t="s">
-        <v>3587</v>
+        <v>3594</v>
       </c>
     </row>
     <row r="1535" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1535">
-        <v>1550</v>
+        <v>1553</v>
       </c>
       <c r="B1535" t="s">
-        <v>3588</v>
+        <v>3595</v>
       </c>
       <c r="C1535" t="s">
-        <v>3586</v>
+        <v>3593</v>
       </c>
       <c r="D1535">
         <v>68000</v>
@@ -58575,19 +58647,25 @@
       <c r="E1535" t="s">
         <v>154</v>
       </c>
+      <c r="H1535" t="s">
+        <v>349</v>
+      </c>
+      <c r="I1535" t="s">
+        <v>1275</v>
+      </c>
       <c r="M1535" t="s">
-        <v>3589</v>
+        <v>3596</v>
       </c>
     </row>
     <row r="1536" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1536">
-        <v>1551</v>
+        <v>1554</v>
       </c>
       <c r="B1536" t="s">
-        <v>3590</v>
+        <v>3597</v>
       </c>
       <c r="C1536" t="s">
-        <v>3586</v>
+        <v>3593</v>
       </c>
       <c r="D1536">
         <v>68000</v>
@@ -58596,21 +58674,21 @@
         <v>154</v>
       </c>
       <c r="H1536" t="s">
-        <v>551</v>
+        <v>349</v>
       </c>
       <c r="I1536" t="s">
-        <v>3358</v>
+        <v>1275</v>
       </c>
       <c r="M1536" t="s">
-        <v>3591</v>
+        <v>3598</v>
       </c>
     </row>
     <row r="1537" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1537">
-        <v>1552</v>
+        <v>1555</v>
       </c>
       <c r="B1537" t="s">
-        <v>3592</v>
+        <v>3599</v>
       </c>
       <c r="C1537" t="s">
         <v>3593</v>
@@ -58628,15 +58706,15 @@
         <v>1275</v>
       </c>
       <c r="M1537" t="s">
-        <v>3594</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="1538" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1538">
-        <v>1553</v>
+        <v>1556</v>
       </c>
       <c r="B1538" t="s">
-        <v>3595</v>
+        <v>3601</v>
       </c>
       <c r="C1538" t="s">
         <v>3593</v>
@@ -58654,18 +58732,18 @@
         <v>1275</v>
       </c>
       <c r="M1538" t="s">
-        <v>3596</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="1539" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1539">
-        <v>1554</v>
+        <v>1557</v>
       </c>
       <c r="B1539" t="s">
-        <v>3597</v>
+        <v>3603</v>
       </c>
       <c r="C1539" t="s">
-        <v>3593</v>
+        <v>3604</v>
       </c>
       <c r="D1539">
         <v>68000</v>
@@ -58677,21 +58755,21 @@
         <v>349</v>
       </c>
       <c r="I1539" t="s">
-        <v>1275</v>
+        <v>1492</v>
       </c>
       <c r="M1539" t="s">
-        <v>3598</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1540" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1540">
-        <v>1555</v>
+        <v>1558</v>
       </c>
       <c r="B1540" t="s">
-        <v>3599</v>
+        <v>3606</v>
       </c>
       <c r="C1540" t="s">
-        <v>3593</v>
+        <v>3604</v>
       </c>
       <c r="D1540">
         <v>68000</v>
@@ -58703,159 +58781,150 @@
         <v>349</v>
       </c>
       <c r="I1540" t="s">
-        <v>1275</v>
+        <v>1492</v>
       </c>
       <c r="M1540" t="s">
-        <v>3600</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="1541" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1541">
-        <v>1556</v>
+        <v>1559</v>
       </c>
       <c r="B1541" t="s">
-        <v>3601</v>
+        <v>3608</v>
       </c>
       <c r="C1541" t="s">
-        <v>3593</v>
-      </c>
-      <c r="D1541">
-        <v>68000</v>
-      </c>
-      <c r="E1541" t="s">
-        <v>154</v>
+        <v>3609</v>
+      </c>
+      <c r="D1541" t="s">
+        <v>14</v>
       </c>
       <c r="H1541" t="s">
-        <v>349</v>
-      </c>
-      <c r="I1541" t="s">
-        <v>1275</v>
+        <v>172</v>
       </c>
       <c r="M1541" t="s">
-        <v>3602</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="1542" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1542">
-        <v>1557</v>
+        <v>1560</v>
       </c>
       <c r="B1542" t="s">
-        <v>3603</v>
+        <v>3611</v>
       </c>
       <c r="C1542" t="s">
-        <v>3604</v>
-      </c>
-      <c r="D1542">
-        <v>68000</v>
-      </c>
-      <c r="E1542" t="s">
-        <v>154</v>
+        <v>3609</v>
+      </c>
+      <c r="D1542" t="s">
+        <v>14</v>
       </c>
       <c r="H1542" t="s">
-        <v>349</v>
-      </c>
-      <c r="I1542" t="s">
-        <v>1492</v>
+        <v>172</v>
       </c>
       <c r="M1542" t="s">
-        <v>3605</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="1543" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1543">
-        <v>1558</v>
+        <v>1561</v>
       </c>
       <c r="B1543" t="s">
-        <v>3606</v>
+        <v>3613</v>
       </c>
       <c r="C1543" t="s">
-        <v>3604</v>
-      </c>
-      <c r="D1543">
-        <v>68000</v>
-      </c>
-      <c r="E1543" t="s">
-        <v>154</v>
+        <v>3609</v>
+      </c>
+      <c r="D1543" t="s">
+        <v>14</v>
       </c>
       <c r="H1543" t="s">
-        <v>349</v>
-      </c>
-      <c r="I1543" t="s">
-        <v>1492</v>
+        <v>172</v>
       </c>
       <c r="M1543" t="s">
-        <v>3607</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="1544" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1544">
-        <v>1559</v>
+        <v>1562</v>
       </c>
       <c r="B1544" t="s">
-        <v>3608</v>
+        <v>3615</v>
       </c>
       <c r="C1544" t="s">
-        <v>3609</v>
+        <v>3616</v>
       </c>
       <c r="D1544" t="s">
-        <v>14</v>
+        <v>473</v>
+      </c>
+      <c r="E1544" t="s">
+        <v>967</v>
       </c>
       <c r="H1544" t="s">
         <v>172</v>
       </c>
       <c r="M1544" t="s">
-        <v>3610</v>
+        <v>3617</v>
       </c>
     </row>
     <row r="1545" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1545">
-        <v>1560</v>
+        <v>1563</v>
       </c>
       <c r="B1545" t="s">
-        <v>3611</v>
+        <v>3618</v>
       </c>
       <c r="C1545" t="s">
-        <v>3609</v>
+        <v>3616</v>
       </c>
       <c r="D1545" t="s">
-        <v>14</v>
+        <v>473</v>
+      </c>
+      <c r="E1545" t="s">
+        <v>967</v>
       </c>
       <c r="H1545" t="s">
         <v>172</v>
       </c>
       <c r="M1545" t="s">
-        <v>3612</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="1546" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1546">
-        <v>1561</v>
+        <v>1564</v>
       </c>
       <c r="B1546" t="s">
-        <v>3613</v>
+        <v>3620</v>
       </c>
       <c r="C1546" t="s">
-        <v>3609</v>
+        <v>3621</v>
       </c>
       <c r="D1546" t="s">
-        <v>14</v>
+        <v>473</v>
+      </c>
+      <c r="E1546" t="s">
+        <v>967</v>
       </c>
       <c r="H1546" t="s">
-        <v>172</v>
+        <v>1279</v>
       </c>
       <c r="M1546" t="s">
-        <v>3614</v>
+        <v>3622</v>
       </c>
     </row>
     <row r="1547" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1547">
-        <v>1562</v>
+        <v>1565</v>
       </c>
       <c r="B1547" t="s">
-        <v>3615</v>
+        <v>3623</v>
       </c>
       <c r="C1547" t="s">
-        <v>3616</v>
+        <v>3621</v>
       </c>
       <c r="D1547" t="s">
         <v>473</v>
@@ -58864,21 +58933,21 @@
         <v>967</v>
       </c>
       <c r="H1547" t="s">
-        <v>172</v>
+        <v>1279</v>
       </c>
       <c r="M1547" t="s">
-        <v>3617</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="1548" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1548">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="B1548" t="s">
-        <v>3618</v>
+        <v>3625</v>
       </c>
       <c r="C1548" t="s">
-        <v>3616</v>
+        <v>3621</v>
       </c>
       <c r="D1548" t="s">
         <v>473</v>
@@ -58887,228 +58956,231 @@
         <v>967</v>
       </c>
       <c r="H1548" t="s">
-        <v>172</v>
+        <v>1279</v>
       </c>
       <c r="M1548" t="s">
-        <v>3619</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="1549" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1549">
-        <v>1564</v>
+        <v>1567</v>
       </c>
       <c r="B1549" t="s">
-        <v>3620</v>
+        <v>3627</v>
       </c>
       <c r="C1549" t="s">
-        <v>3621</v>
+        <v>3628</v>
       </c>
       <c r="D1549" t="s">
-        <v>473</v>
+        <v>405</v>
       </c>
       <c r="E1549" t="s">
-        <v>967</v>
+        <v>14</v>
       </c>
       <c r="H1549" t="s">
-        <v>1279</v>
+        <v>172</v>
       </c>
       <c r="M1549" t="s">
-        <v>3622</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="1550" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1550">
-        <v>1565</v>
+        <v>1568</v>
       </c>
       <c r="B1550" t="s">
-        <v>3623</v>
+        <v>3630</v>
       </c>
       <c r="C1550" t="s">
-        <v>3621</v>
+        <v>3628</v>
       </c>
       <c r="D1550" t="s">
-        <v>473</v>
+        <v>405</v>
       </c>
       <c r="E1550" t="s">
-        <v>967</v>
+        <v>14</v>
       </c>
       <c r="H1550" t="s">
-        <v>1279</v>
+        <v>172</v>
       </c>
       <c r="M1550" t="s">
-        <v>3624</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="1551" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1551">
-        <v>1566</v>
+        <v>1569</v>
       </c>
       <c r="B1551" t="s">
-        <v>3625</v>
+        <v>3632</v>
       </c>
       <c r="C1551" t="s">
-        <v>3621</v>
+        <v>3633</v>
       </c>
       <c r="D1551" t="s">
-        <v>473</v>
+        <v>14</v>
       </c>
       <c r="E1551" t="s">
-        <v>967</v>
+        <v>154</v>
       </c>
       <c r="H1551" t="s">
         <v>1279</v>
       </c>
       <c r="M1551" t="s">
-        <v>3626</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="1552" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1552">
-        <v>1567</v>
+        <v>1570</v>
       </c>
       <c r="B1552" t="s">
-        <v>3627</v>
+        <v>3635</v>
       </c>
       <c r="C1552" t="s">
-        <v>3628</v>
-      </c>
-      <c r="D1552" t="s">
-        <v>405</v>
+        <v>3636</v>
+      </c>
+      <c r="D1552">
+        <v>68000</v>
       </c>
       <c r="E1552" t="s">
-        <v>14</v>
+        <v>967</v>
       </c>
       <c r="H1552" t="s">
-        <v>172</v>
+        <v>71</v>
+      </c>
+      <c r="I1552" t="s">
+        <v>3268</v>
       </c>
       <c r="M1552" t="s">
-        <v>3629</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="1553" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1553">
-        <v>1568</v>
+        <v>1571</v>
       </c>
       <c r="B1553" t="s">
-        <v>3630</v>
+        <v>3638</v>
       </c>
       <c r="C1553" t="s">
-        <v>3628</v>
-      </c>
-      <c r="D1553" t="s">
-        <v>405</v>
-      </c>
-      <c r="E1553" t="s">
-        <v>14</v>
+        <v>3639</v>
+      </c>
+      <c r="D1553">
+        <v>68000</v>
+      </c>
+      <c r="E1553">
+        <v>68000</v>
+      </c>
+      <c r="F1553">
+        <v>68000</v>
+      </c>
+      <c r="G1553" t="s">
+        <v>973</v>
       </c>
       <c r="H1553" t="s">
-        <v>172</v>
+        <v>551</v>
+      </c>
+      <c r="I1553" t="s">
+        <v>2375</v>
       </c>
       <c r="M1553" t="s">
-        <v>3631</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="1554" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1554">
-        <v>1569</v>
+        <v>1572</v>
       </c>
       <c r="B1554" t="s">
-        <v>3632</v>
+        <v>3641</v>
       </c>
       <c r="C1554" t="s">
-        <v>3633</v>
-      </c>
-      <c r="D1554" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1554" t="s">
-        <v>154</v>
+        <v>3639</v>
+      </c>
+      <c r="D1554">
+        <v>68000</v>
+      </c>
+      <c r="E1554">
+        <v>68000</v>
+      </c>
+      <c r="F1554">
+        <v>68000</v>
+      </c>
+      <c r="G1554" t="s">
+        <v>973</v>
       </c>
       <c r="H1554" t="s">
-        <v>1279</v>
+        <v>551</v>
+      </c>
+      <c r="I1554" t="s">
+        <v>2375</v>
       </c>
       <c r="M1554" t="s">
-        <v>3634</v>
+        <v>3642</v>
       </c>
     </row>
     <row r="1555" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1555">
-        <v>1570</v>
+        <v>1573</v>
       </c>
       <c r="B1555" t="s">
-        <v>3635</v>
+        <v>3643</v>
       </c>
       <c r="C1555" t="s">
-        <v>3636</v>
+        <v>3644</v>
       </c>
       <c r="D1555">
         <v>68000</v>
       </c>
       <c r="E1555" t="s">
-        <v>967</v>
+        <v>154</v>
       </c>
       <c r="H1555" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1555" t="s">
-        <v>3268</v>
+        <v>336</v>
       </c>
       <c r="M1555" t="s">
-        <v>3637</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="1556" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1556">
-        <v>1571</v>
+        <v>1574</v>
       </c>
       <c r="B1556" t="s">
-        <v>3638</v>
+        <v>3646</v>
       </c>
       <c r="C1556" t="s">
-        <v>3639</v>
+        <v>3644</v>
       </c>
       <c r="D1556">
         <v>68000</v>
       </c>
-      <c r="E1556">
-        <v>68000</v>
-      </c>
-      <c r="F1556">
-        <v>68000</v>
-      </c>
-      <c r="G1556" t="s">
-        <v>973</v>
+      <c r="E1556" t="s">
+        <v>154</v>
       </c>
       <c r="H1556" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1556" t="s">
-        <v>2375</v>
+        <v>336</v>
       </c>
       <c r="M1556" t="s">
-        <v>3640</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="1557" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1557">
-        <v>1572</v>
+        <v>1575</v>
       </c>
       <c r="B1557" t="s">
-        <v>3641</v>
+        <v>3648</v>
       </c>
       <c r="C1557" t="s">
-        <v>3639</v>
+        <v>3644</v>
       </c>
       <c r="D1557">
         <v>68000</v>
       </c>
-      <c r="E1557">
-        <v>68000</v>
-      </c>
-      <c r="F1557">
-        <v>68000</v>
-      </c>
-      <c r="G1557" t="s">
+      <c r="E1557" t="s">
         <v>973</v>
       </c>
       <c r="H1557" t="s">
@@ -59118,15 +59190,15 @@
         <v>2375</v>
       </c>
       <c r="M1557" t="s">
-        <v>3642</v>
+        <v>4483</v>
       </c>
     </row>
     <row r="1558" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1558">
-        <v>1573</v>
+        <v>1576</v>
       </c>
       <c r="B1558" t="s">
-        <v>3643</v>
+        <v>3649</v>
       </c>
       <c r="C1558" t="s">
         <v>3644</v>
@@ -59135,21 +59207,24 @@
         <v>68000</v>
       </c>
       <c r="E1558" t="s">
-        <v>154</v>
+        <v>973</v>
       </c>
       <c r="H1558" t="s">
-        <v>336</v>
+        <v>551</v>
+      </c>
+      <c r="I1558" t="s">
+        <v>2375</v>
       </c>
       <c r="M1558" t="s">
-        <v>3645</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="1559" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1559">
-        <v>1574</v>
+        <v>1577</v>
       </c>
       <c r="B1559" t="s">
-        <v>3646</v>
+        <v>3650</v>
       </c>
       <c r="C1559" t="s">
         <v>3644</v>
@@ -59158,21 +59233,24 @@
         <v>68000</v>
       </c>
       <c r="E1559" t="s">
-        <v>154</v>
+        <v>973</v>
       </c>
       <c r="H1559" t="s">
-        <v>336</v>
+        <v>551</v>
+      </c>
+      <c r="I1559" t="s">
+        <v>2375</v>
       </c>
       <c r="M1559" t="s">
-        <v>3647</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1560" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1560">
-        <v>1575</v>
+        <v>1578</v>
       </c>
       <c r="B1560" t="s">
-        <v>3648</v>
+        <v>3652</v>
       </c>
       <c r="C1560" t="s">
         <v>3644</v>
@@ -59190,15 +59268,15 @@
         <v>2375</v>
       </c>
       <c r="M1560" t="s">
-        <v>4483</v>
+        <v>3653</v>
       </c>
     </row>
     <row r="1561" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1561">
-        <v>1576</v>
+        <v>1579</v>
       </c>
       <c r="B1561" t="s">
-        <v>3649</v>
+        <v>3654</v>
       </c>
       <c r="C1561" t="s">
         <v>3644</v>
@@ -59216,15 +59294,15 @@
         <v>2375</v>
       </c>
       <c r="M1561" t="s">
-        <v>4484</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="1562" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1562">
-        <v>1577</v>
+        <v>1580</v>
       </c>
       <c r="B1562" t="s">
-        <v>3650</v>
+        <v>3656</v>
       </c>
       <c r="C1562" t="s">
         <v>3644</v>
@@ -59242,15 +59320,15 @@
         <v>2375</v>
       </c>
       <c r="M1562" t="s">
-        <v>3651</v>
+        <v>3657</v>
       </c>
     </row>
     <row r="1563" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1563">
-        <v>1578</v>
+        <v>1581</v>
       </c>
       <c r="B1563" t="s">
-        <v>3652</v>
+        <v>3658</v>
       </c>
       <c r="C1563" t="s">
         <v>3644</v>
@@ -59268,15 +59346,15 @@
         <v>2375</v>
       </c>
       <c r="M1563" t="s">
-        <v>3653</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="1564" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1564">
-        <v>1579</v>
+        <v>1582</v>
       </c>
       <c r="B1564" t="s">
-        <v>3654</v>
+        <v>3660</v>
       </c>
       <c r="C1564" t="s">
         <v>3644</v>
@@ -59294,15 +59372,15 @@
         <v>2375</v>
       </c>
       <c r="M1564" t="s">
-        <v>3655</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="1565" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1565">
-        <v>1580</v>
+        <v>1583</v>
       </c>
       <c r="B1565" t="s">
-        <v>3656</v>
+        <v>3662</v>
       </c>
       <c r="C1565" t="s">
         <v>3644</v>
@@ -59320,15 +59398,15 @@
         <v>2375</v>
       </c>
       <c r="M1565" t="s">
-        <v>3657</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="1566" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1566">
-        <v>1581</v>
+        <v>1584</v>
       </c>
       <c r="B1566" t="s">
-        <v>3658</v>
+        <v>3664</v>
       </c>
       <c r="C1566" t="s">
         <v>3644</v>
@@ -59346,15 +59424,15 @@
         <v>2375</v>
       </c>
       <c r="M1566" t="s">
-        <v>3659</v>
+        <v>3665</v>
       </c>
     </row>
     <row r="1567" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1567">
-        <v>1582</v>
+        <v>1585</v>
       </c>
       <c r="B1567" t="s">
-        <v>3660</v>
+        <v>3666</v>
       </c>
       <c r="C1567" t="s">
         <v>3644</v>
@@ -59372,15 +59450,15 @@
         <v>2375</v>
       </c>
       <c r="M1567" t="s">
-        <v>3661</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="1568" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1568">
-        <v>1583</v>
+        <v>1586</v>
       </c>
       <c r="B1568" t="s">
-        <v>3662</v>
+        <v>3668</v>
       </c>
       <c r="C1568" t="s">
         <v>3644</v>
@@ -59398,15 +59476,15 @@
         <v>2375</v>
       </c>
       <c r="M1568" t="s">
-        <v>3663</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="1569" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1569">
-        <v>1584</v>
+        <v>1587</v>
       </c>
       <c r="B1569" t="s">
-        <v>3664</v>
+        <v>3670</v>
       </c>
       <c r="C1569" t="s">
         <v>3644</v>
@@ -59424,15 +59502,15 @@
         <v>2375</v>
       </c>
       <c r="M1569" t="s">
-        <v>3665</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="1570" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1570">
-        <v>1585</v>
+        <v>1588</v>
       </c>
       <c r="B1570" t="s">
-        <v>3666</v>
+        <v>3671</v>
       </c>
       <c r="C1570" t="s">
         <v>3644</v>
@@ -59450,15 +59528,15 @@
         <v>2375</v>
       </c>
       <c r="M1570" t="s">
-        <v>3667</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="1571" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1571">
-        <v>1586</v>
+        <v>1589</v>
       </c>
       <c r="B1571" t="s">
-        <v>3668</v>
+        <v>3672</v>
       </c>
       <c r="C1571" t="s">
         <v>3644</v>
@@ -59476,15 +59554,15 @@
         <v>2375</v>
       </c>
       <c r="M1571" t="s">
-        <v>3669</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="1572" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1572">
-        <v>1587</v>
+        <v>1590</v>
       </c>
       <c r="B1572" t="s">
-        <v>3670</v>
+        <v>3674</v>
       </c>
       <c r="C1572" t="s">
         <v>3644</v>
@@ -59502,15 +59580,15 @@
         <v>2375</v>
       </c>
       <c r="M1572" t="s">
-        <v>4485</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="1573" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1573">
-        <v>1588</v>
+        <v>1591</v>
       </c>
       <c r="B1573" t="s">
-        <v>3671</v>
+        <v>3676</v>
       </c>
       <c r="C1573" t="s">
         <v>3644</v>
@@ -59528,15 +59606,15 @@
         <v>2375</v>
       </c>
       <c r="M1573" t="s">
-        <v>4486</v>
+        <v>3677</v>
       </c>
     </row>
     <row r="1574" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1574">
-        <v>1589</v>
+        <v>1592</v>
       </c>
       <c r="B1574" t="s">
-        <v>3672</v>
+        <v>3678</v>
       </c>
       <c r="C1574" t="s">
         <v>3644</v>
@@ -59554,15 +59632,15 @@
         <v>2375</v>
       </c>
       <c r="M1574" t="s">
-        <v>3673</v>
+        <v>3679</v>
       </c>
     </row>
     <row r="1575" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1575">
-        <v>1590</v>
+        <v>1593</v>
       </c>
       <c r="B1575" t="s">
-        <v>3674</v>
+        <v>3680</v>
       </c>
       <c r="C1575" t="s">
         <v>3644</v>
@@ -59580,15 +59658,15 @@
         <v>2375</v>
       </c>
       <c r="M1575" t="s">
-        <v>3675</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="1576" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1576">
-        <v>1591</v>
+        <v>1594</v>
       </c>
       <c r="B1576" t="s">
-        <v>3676</v>
+        <v>3682</v>
       </c>
       <c r="C1576" t="s">
         <v>3644</v>
@@ -59606,15 +59684,15 @@
         <v>2375</v>
       </c>
       <c r="M1576" t="s">
-        <v>3677</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="1577" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1577">
-        <v>1592</v>
+        <v>1595</v>
       </c>
       <c r="B1577" t="s">
-        <v>3678</v>
+        <v>3684</v>
       </c>
       <c r="C1577" t="s">
         <v>3644</v>
@@ -59622,25 +59700,19 @@
       <c r="D1577">
         <v>68000</v>
       </c>
-      <c r="E1577" t="s">
-        <v>973</v>
-      </c>
       <c r="H1577" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1577" t="s">
-        <v>2375</v>
+        <v>1492</v>
       </c>
       <c r="M1577" t="s">
-        <v>3679</v>
+        <v>3685</v>
       </c>
     </row>
     <row r="1578" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1578">
-        <v>1593</v>
+        <v>1596</v>
       </c>
       <c r="B1578" t="s">
-        <v>3680</v>
+        <v>3686</v>
       </c>
       <c r="C1578" t="s">
         <v>3644</v>
@@ -59658,87 +59730,84 @@
         <v>2375</v>
       </c>
       <c r="M1578" t="s">
-        <v>3681</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="1579" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1579">
-        <v>1594</v>
+        <v>1597</v>
       </c>
       <c r="B1579" t="s">
-        <v>3682</v>
+        <v>3688</v>
       </c>
       <c r="C1579" t="s">
-        <v>3644</v>
+        <v>3689</v>
       </c>
       <c r="D1579">
         <v>68000</v>
       </c>
       <c r="E1579" t="s">
-        <v>973</v>
+        <v>154</v>
       </c>
       <c r="H1579" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1579" t="s">
-        <v>2375</v>
+        <v>1353</v>
       </c>
       <c r="M1579" t="s">
-        <v>3683</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="1580" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1580">
-        <v>1595</v>
+        <v>1598</v>
       </c>
       <c r="B1580" t="s">
-        <v>3684</v>
+        <v>3691</v>
       </c>
       <c r="C1580" t="s">
-        <v>3644</v>
+        <v>3689</v>
       </c>
       <c r="D1580">
         <v>68000</v>
       </c>
+      <c r="E1580" t="s">
+        <v>154</v>
+      </c>
       <c r="H1580" t="s">
-        <v>1492</v>
+        <v>1353</v>
       </c>
       <c r="M1580" t="s">
-        <v>3685</v>
+        <v>3692</v>
       </c>
     </row>
     <row r="1581" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1581">
-        <v>1596</v>
+        <v>1599</v>
       </c>
       <c r="B1581" t="s">
-        <v>3686</v>
+        <v>3693</v>
       </c>
       <c r="C1581" t="s">
-        <v>3644</v>
+        <v>3689</v>
       </c>
       <c r="D1581">
         <v>68000</v>
       </c>
       <c r="E1581" t="s">
-        <v>973</v>
+        <v>154</v>
       </c>
       <c r="H1581" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1581" t="s">
-        <v>2375</v>
+        <v>1353</v>
       </c>
       <c r="M1581" t="s">
-        <v>3687</v>
+        <v>3694</v>
       </c>
     </row>
     <row r="1582" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1582">
-        <v>1597</v>
+        <v>1600</v>
       </c>
       <c r="B1582" t="s">
-        <v>3688</v>
+        <v>3695</v>
       </c>
       <c r="C1582" t="s">
         <v>3689</v>
@@ -59753,15 +59822,15 @@
         <v>1353</v>
       </c>
       <c r="M1582" t="s">
-        <v>3690</v>
+        <v>3696</v>
       </c>
     </row>
     <row r="1583" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1583">
-        <v>1598</v>
+        <v>1601</v>
       </c>
       <c r="B1583" t="s">
-        <v>3691</v>
+        <v>3697</v>
       </c>
       <c r="C1583" t="s">
         <v>3689</v>
@@ -59776,15 +59845,15 @@
         <v>1353</v>
       </c>
       <c r="M1583" t="s">
-        <v>3692</v>
+        <v>4487</v>
       </c>
     </row>
     <row r="1584" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1584">
-        <v>1599</v>
+        <v>1602</v>
       </c>
       <c r="B1584" t="s">
-        <v>3693</v>
+        <v>3698</v>
       </c>
       <c r="C1584" t="s">
         <v>3689</v>
@@ -59799,153 +59868,150 @@
         <v>1353</v>
       </c>
       <c r="M1584" t="s">
-        <v>3694</v>
+        <v>4488</v>
       </c>
     </row>
     <row r="1585" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1585">
-        <v>1600</v>
+        <v>1603</v>
       </c>
       <c r="B1585" t="s">
-        <v>3695</v>
+        <v>3735</v>
       </c>
       <c r="C1585" t="s">
-        <v>3689</v>
-      </c>
-      <c r="D1585">
-        <v>68000</v>
+        <v>3736</v>
+      </c>
+      <c r="D1585" t="s">
+        <v>14</v>
       </c>
       <c r="E1585" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="H1585" t="s">
-        <v>1353</v>
+        <v>71</v>
       </c>
       <c r="M1585" t="s">
-        <v>3696</v>
+        <v>3737</v>
       </c>
     </row>
     <row r="1586" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1586">
-        <v>1601</v>
+        <v>1604</v>
       </c>
       <c r="B1586" t="s">
-        <v>3697</v>
+        <v>3738</v>
       </c>
       <c r="C1586" t="s">
-        <v>3689</v>
-      </c>
-      <c r="D1586">
-        <v>68000</v>
+        <v>3736</v>
+      </c>
+      <c r="D1586" t="s">
+        <v>14</v>
       </c>
       <c r="E1586" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="H1586" t="s">
-        <v>1353</v>
+        <v>71</v>
       </c>
       <c r="M1586" t="s">
-        <v>4487</v>
+        <v>3739</v>
       </c>
     </row>
     <row r="1587" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1587">
-        <v>1602</v>
+        <v>1605</v>
       </c>
       <c r="B1587" t="s">
-        <v>3698</v>
+        <v>3740</v>
       </c>
       <c r="C1587" t="s">
-        <v>3689</v>
+        <v>3741</v>
       </c>
       <c r="D1587">
         <v>68000</v>
       </c>
       <c r="E1587" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="H1587" t="s">
-        <v>1353</v>
+        <v>349</v>
       </c>
       <c r="M1587" t="s">
-        <v>4488</v>
+        <v>3742</v>
       </c>
     </row>
     <row r="1588" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1588">
-        <v>1603</v>
+        <v>1606</v>
       </c>
       <c r="B1588" t="s">
-        <v>3735</v>
+        <v>3743</v>
       </c>
       <c r="C1588" t="s">
-        <v>3736</v>
-      </c>
-      <c r="D1588" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1588" t="s">
-        <v>14</v>
+        <v>3744</v>
+      </c>
+      <c r="D1588">
+        <v>68000</v>
       </c>
       <c r="H1588" t="s">
-        <v>71</v>
+        <v>172</v>
+      </c>
+      <c r="I1588" t="s">
+        <v>1492</v>
       </c>
       <c r="M1588" t="s">
-        <v>3737</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="1589" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1589">
-        <v>1604</v>
+        <v>1607</v>
       </c>
       <c r="B1589" t="s">
-        <v>3738</v>
+        <v>3746</v>
       </c>
       <c r="C1589" t="s">
-        <v>3736</v>
-      </c>
-      <c r="D1589" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1589" t="s">
-        <v>14</v>
+        <v>3744</v>
+      </c>
+      <c r="D1589">
+        <v>68000</v>
       </c>
       <c r="H1589" t="s">
-        <v>71</v>
+        <v>172</v>
+      </c>
+      <c r="I1589" t="s">
+        <v>1492</v>
       </c>
       <c r="M1589" t="s">
-        <v>3739</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="1590" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1590">
-        <v>1605</v>
+        <v>1608</v>
       </c>
       <c r="B1590" t="s">
-        <v>3740</v>
+        <v>3748</v>
       </c>
       <c r="C1590" t="s">
-        <v>3741</v>
+        <v>3744</v>
       </c>
       <c r="D1590">
         <v>68000</v>
       </c>
-      <c r="E1590" t="s">
-        <v>14</v>
-      </c>
       <c r="H1590" t="s">
-        <v>349</v>
+        <v>2375</v>
       </c>
       <c r="M1590" t="s">
-        <v>3742</v>
+        <v>3749</v>
       </c>
     </row>
     <row r="1591" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1591">
-        <v>1606</v>
+        <v>1609</v>
       </c>
       <c r="B1591" t="s">
-        <v>3743</v>
+        <v>3750</v>
       </c>
       <c r="C1591" t="s">
         <v>3744</v>
@@ -59954,133 +60020,136 @@
         <v>68000</v>
       </c>
       <c r="H1591" t="s">
-        <v>172</v>
-      </c>
-      <c r="I1591" t="s">
-        <v>1492</v>
+        <v>2375</v>
       </c>
       <c r="M1591" t="s">
-        <v>3745</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="1592" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1592">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="B1592" t="s">
-        <v>3746</v>
+        <v>3751</v>
       </c>
       <c r="C1592" t="s">
-        <v>3744</v>
+        <v>3752</v>
       </c>
       <c r="D1592">
         <v>68000</v>
       </c>
       <c r="H1592" t="s">
-        <v>172</v>
-      </c>
-      <c r="I1592" t="s">
         <v>1492</v>
       </c>
       <c r="M1592" t="s">
-        <v>3747</v>
+        <v>3753</v>
       </c>
     </row>
     <row r="1593" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1593">
-        <v>1608</v>
+        <v>1611</v>
       </c>
       <c r="B1593" t="s">
-        <v>3748</v>
+        <v>3754</v>
       </c>
       <c r="C1593" t="s">
-        <v>3744</v>
-      </c>
-      <c r="D1593">
-        <v>68000</v>
+        <v>3755</v>
+      </c>
+      <c r="D1593" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1593" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1593" t="s">
+        <v>14</v>
       </c>
       <c r="H1593" t="s">
-        <v>2375</v>
+        <v>336</v>
+      </c>
+      <c r="I1593" t="s">
+        <v>1492</v>
       </c>
       <c r="M1593" t="s">
-        <v>3749</v>
+        <v>3756</v>
       </c>
     </row>
     <row r="1594" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1594">
-        <v>1609</v>
+        <v>1612</v>
       </c>
       <c r="B1594" t="s">
-        <v>3750</v>
+        <v>3757</v>
       </c>
       <c r="C1594" t="s">
-        <v>3744</v>
-      </c>
-      <c r="D1594">
-        <v>68000</v>
+        <v>3758</v>
+      </c>
+      <c r="D1594" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1594" t="s">
+        <v>725</v>
       </c>
       <c r="H1594" t="s">
-        <v>2375</v>
+        <v>166</v>
       </c>
       <c r="M1594" t="s">
-        <v>4489</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="1595" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1595">
-        <v>1610</v>
+        <v>1613</v>
       </c>
       <c r="B1595" t="s">
-        <v>3751</v>
+        <v>3759</v>
       </c>
       <c r="C1595" t="s">
-        <v>3752</v>
-      </c>
-      <c r="D1595">
-        <v>68000</v>
+        <v>3758</v>
+      </c>
+      <c r="D1595" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1595" t="s">
+        <v>725</v>
       </c>
       <c r="H1595" t="s">
-        <v>1492</v>
+        <v>166</v>
       </c>
       <c r="M1595" t="s">
-        <v>3753</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="1596" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1596">
-        <v>1611</v>
+        <v>1614</v>
       </c>
       <c r="B1596" t="s">
-        <v>3754</v>
+        <v>3761</v>
       </c>
       <c r="C1596" t="s">
-        <v>3755</v>
+        <v>3758</v>
       </c>
       <c r="D1596" t="s">
         <v>14</v>
       </c>
       <c r="E1596" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1596" t="s">
-        <v>14</v>
+        <v>725</v>
       </c>
       <c r="H1596" t="s">
-        <v>336</v>
-      </c>
-      <c r="I1596" t="s">
-        <v>1492</v>
+        <v>166</v>
       </c>
       <c r="M1596" t="s">
-        <v>3756</v>
+        <v>3762</v>
       </c>
     </row>
     <row r="1597" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1597">
-        <v>1612</v>
+        <v>1615</v>
       </c>
       <c r="B1597" t="s">
-        <v>3757</v>
+        <v>3763</v>
       </c>
       <c r="C1597" t="s">
         <v>3758</v>
@@ -60095,15 +60164,15 @@
         <v>166</v>
       </c>
       <c r="M1597" t="s">
-        <v>4490</v>
+        <v>3764</v>
       </c>
     </row>
     <row r="1598" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1598">
-        <v>1613</v>
+        <v>1616</v>
       </c>
       <c r="B1598" t="s">
-        <v>3759</v>
+        <v>3765</v>
       </c>
       <c r="C1598" t="s">
         <v>3758</v>
@@ -60118,147 +60187,138 @@
         <v>166</v>
       </c>
       <c r="M1598" t="s">
-        <v>3760</v>
+        <v>3766</v>
       </c>
     </row>
     <row r="1599" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1599">
-        <v>1614</v>
+        <v>1617</v>
       </c>
       <c r="B1599" t="s">
-        <v>3761</v>
+        <v>3774</v>
       </c>
       <c r="C1599" t="s">
-        <v>3758</v>
+        <v>3775</v>
       </c>
       <c r="D1599" t="s">
         <v>14</v>
       </c>
       <c r="E1599" t="s">
-        <v>725</v>
+        <v>154</v>
       </c>
       <c r="H1599" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M1599" t="s">
-        <v>3762</v>
+        <v>3776</v>
       </c>
     </row>
     <row r="1600" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1600">
-        <v>1615</v>
+        <v>1618</v>
       </c>
       <c r="B1600" t="s">
-        <v>3763</v>
+        <v>3777</v>
       </c>
       <c r="C1600" t="s">
-        <v>3758</v>
+        <v>3778</v>
       </c>
       <c r="D1600" t="s">
         <v>14</v>
       </c>
-      <c r="E1600" t="s">
-        <v>725</v>
-      </c>
       <c r="H1600" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M1600" t="s">
-        <v>3764</v>
+        <v>3779</v>
       </c>
     </row>
     <row r="1601" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1601">
-        <v>1616</v>
+        <v>1619</v>
       </c>
       <c r="B1601" t="s">
-        <v>3765</v>
+        <v>3780</v>
       </c>
       <c r="C1601" t="s">
-        <v>3758</v>
+        <v>3778</v>
       </c>
       <c r="D1601" t="s">
         <v>14</v>
       </c>
-      <c r="E1601" t="s">
-        <v>725</v>
-      </c>
       <c r="H1601" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M1601" t="s">
-        <v>3766</v>
+        <v>3781</v>
       </c>
     </row>
     <row r="1602" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1602">
-        <v>1617</v>
+        <v>1620</v>
       </c>
       <c r="B1602" t="s">
-        <v>3774</v>
+        <v>3782</v>
       </c>
       <c r="C1602" t="s">
-        <v>3775</v>
+        <v>3783</v>
       </c>
       <c r="D1602" t="s">
         <v>14</v>
       </c>
-      <c r="E1602" t="s">
-        <v>154</v>
-      </c>
       <c r="H1602" t="s">
-        <v>172</v>
+        <v>336</v>
       </c>
       <c r="M1602" t="s">
-        <v>3776</v>
+        <v>3784</v>
       </c>
     </row>
     <row r="1603" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1603">
-        <v>1618</v>
+        <v>1621</v>
       </c>
       <c r="B1603" t="s">
-        <v>3777</v>
+        <v>3785</v>
       </c>
       <c r="C1603" t="s">
-        <v>3778</v>
+        <v>3783</v>
       </c>
       <c r="D1603" t="s">
         <v>14</v>
       </c>
       <c r="H1603" t="s">
-        <v>172</v>
+        <v>336</v>
       </c>
       <c r="M1603" t="s">
-        <v>3779</v>
+        <v>3786</v>
       </c>
     </row>
     <row r="1604" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1604">
-        <v>1619</v>
+        <v>1622</v>
       </c>
       <c r="B1604" t="s">
-        <v>3780</v>
+        <v>3787</v>
       </c>
       <c r="C1604" t="s">
-        <v>3778</v>
+        <v>3783</v>
       </c>
       <c r="D1604" t="s">
         <v>14</v>
       </c>
       <c r="H1604" t="s">
-        <v>172</v>
+        <v>336</v>
       </c>
       <c r="M1604" t="s">
-        <v>3781</v>
+        <v>3788</v>
       </c>
     </row>
     <row r="1605" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1605">
-        <v>1620</v>
+        <v>1623</v>
       </c>
       <c r="B1605" t="s">
-        <v>3782</v>
+        <v>3789</v>
       </c>
       <c r="C1605" t="s">
         <v>3783</v>
@@ -60270,270 +60330,306 @@
         <v>336</v>
       </c>
       <c r="M1605" t="s">
-        <v>3784</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="1606" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1606">
-        <v>1621</v>
+        <v>1624</v>
       </c>
       <c r="B1606" t="s">
-        <v>3785</v>
+        <v>3791</v>
       </c>
       <c r="C1606" t="s">
-        <v>3783</v>
+        <v>3792</v>
       </c>
       <c r="D1606" t="s">
-        <v>14</v>
+        <v>405</v>
+      </c>
+      <c r="E1606" t="s">
+        <v>1184</v>
       </c>
       <c r="H1606" t="s">
-        <v>336</v>
+        <v>71</v>
       </c>
       <c r="M1606" t="s">
-        <v>3786</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="1607" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1607">
-        <v>1622</v>
+        <v>1625</v>
       </c>
       <c r="B1607" t="s">
-        <v>3787</v>
+        <v>3794</v>
       </c>
       <c r="C1607" t="s">
-        <v>3783</v>
+        <v>3792</v>
       </c>
       <c r="D1607" t="s">
-        <v>14</v>
+        <v>405</v>
+      </c>
+      <c r="E1607" t="s">
+        <v>1184</v>
       </c>
       <c r="H1607" t="s">
-        <v>336</v>
+        <v>71</v>
       </c>
       <c r="M1607" t="s">
-        <v>3788</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="1608" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1608">
-        <v>1623</v>
+        <v>1626</v>
       </c>
       <c r="B1608" t="s">
-        <v>3789</v>
+        <v>3799</v>
       </c>
       <c r="C1608" t="s">
-        <v>3783</v>
+        <v>3800</v>
       </c>
       <c r="D1608" t="s">
-        <v>14</v>
+        <v>405</v>
+      </c>
+      <c r="E1608" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F1608" t="s">
+        <v>3801</v>
       </c>
       <c r="H1608" t="s">
-        <v>336</v>
+        <v>71</v>
       </c>
       <c r="M1608" t="s">
-        <v>3790</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="1609" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1609">
-        <v>1624</v>
+        <v>1627</v>
       </c>
       <c r="B1609" t="s">
-        <v>3791</v>
+        <v>3803</v>
       </c>
       <c r="C1609" t="s">
-        <v>3792</v>
+        <v>3804</v>
       </c>
       <c r="D1609" t="s">
-        <v>405</v>
-      </c>
-      <c r="E1609" t="s">
-        <v>1184</v>
+        <v>473</v>
       </c>
       <c r="H1609" t="s">
-        <v>71</v>
+        <v>2936</v>
       </c>
       <c r="M1609" t="s">
-        <v>3793</v>
+        <v>3805</v>
       </c>
     </row>
     <row r="1610" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1610">
-        <v>1625</v>
+        <v>1628</v>
       </c>
       <c r="B1610" t="s">
-        <v>3794</v>
+        <v>3806</v>
       </c>
       <c r="C1610" t="s">
-        <v>3792</v>
+        <v>3807</v>
       </c>
       <c r="D1610" t="s">
-        <v>405</v>
-      </c>
-      <c r="E1610" t="s">
-        <v>1184</v>
-      </c>
-      <c r="H1610" t="s">
-        <v>71</v>
+        <v>473</v>
       </c>
       <c r="M1610" t="s">
-        <v>3795</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="1611" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1611">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="B1611" t="s">
-        <v>3799</v>
+        <v>3809</v>
       </c>
       <c r="C1611" t="s">
-        <v>3800</v>
+        <v>3807</v>
       </c>
       <c r="D1611" t="s">
-        <v>405</v>
-      </c>
-      <c r="E1611" t="s">
-        <v>1184</v>
-      </c>
-      <c r="F1611" t="s">
-        <v>3801</v>
-      </c>
-      <c r="H1611" t="s">
-        <v>71</v>
+        <v>473</v>
       </c>
       <c r="M1611" t="s">
-        <v>3802</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="1612" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1612">
-        <v>1627</v>
+        <v>1630</v>
       </c>
       <c r="B1612" t="s">
-        <v>3803</v>
+        <v>3811</v>
       </c>
       <c r="C1612" t="s">
-        <v>3804</v>
-      </c>
-      <c r="D1612" t="s">
-        <v>473</v>
-      </c>
-      <c r="H1612" t="s">
-        <v>2936</v>
+        <v>3812</v>
+      </c>
+      <c r="D1612">
+        <v>8080</v>
       </c>
       <c r="M1612" t="s">
-        <v>3805</v>
+        <v>3813</v>
       </c>
     </row>
     <row r="1613" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1613">
-        <v>1628</v>
+        <v>1631</v>
       </c>
       <c r="B1613" t="s">
-        <v>3806</v>
+        <v>3814</v>
       </c>
       <c r="C1613" t="s">
-        <v>3807</v>
+        <v>3815</v>
       </c>
       <c r="D1613" t="s">
-        <v>473</v>
+        <v>3436</v>
+      </c>
+      <c r="E1613" t="s">
+        <v>3436</v>
+      </c>
+      <c r="F1613" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G1613" t="s">
+        <v>1184</v>
+      </c>
+      <c r="H1613" t="s">
+        <v>333</v>
+      </c>
+      <c r="I1613" t="s">
+        <v>551</v>
       </c>
       <c r="M1613" t="s">
-        <v>3808</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="1614" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1614">
-        <v>1629</v>
+        <v>1632</v>
       </c>
       <c r="B1614" t="s">
-        <v>3809</v>
+        <v>3817</v>
       </c>
       <c r="C1614" t="s">
-        <v>3807</v>
+        <v>3818</v>
       </c>
       <c r="D1614" t="s">
-        <v>473</v>
+        <v>14</v>
+      </c>
+      <c r="H1614" t="s">
+        <v>172</v>
       </c>
       <c r="M1614" t="s">
-        <v>3810</v>
+        <v>3819</v>
       </c>
     </row>
     <row r="1615" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1615">
-        <v>1630</v>
+        <v>1633</v>
       </c>
       <c r="B1615" t="s">
-        <v>3811</v>
+        <v>3820</v>
       </c>
       <c r="C1615" t="s">
-        <v>3812</v>
-      </c>
-      <c r="D1615">
-        <v>8080</v>
+        <v>3821</v>
+      </c>
+      <c r="D1615" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1615" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1615" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1615" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1615" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1615" t="s">
+        <v>166</v>
       </c>
       <c r="M1615" t="s">
-        <v>3813</v>
+        <v>3822</v>
       </c>
     </row>
     <row r="1616" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1616">
-        <v>1631</v>
+        <v>1634</v>
       </c>
       <c r="B1616" t="s">
-        <v>3814</v>
+        <v>3823</v>
       </c>
       <c r="C1616" t="s">
-        <v>3815</v>
+        <v>3821</v>
       </c>
       <c r="D1616" t="s">
-        <v>3436</v>
+        <v>14</v>
       </c>
       <c r="E1616" t="s">
-        <v>3436</v>
+        <v>14</v>
       </c>
       <c r="F1616" t="s">
-        <v>1184</v>
+        <v>14</v>
       </c>
       <c r="G1616" t="s">
-        <v>1184</v>
+        <v>154</v>
       </c>
       <c r="H1616" t="s">
-        <v>333</v>
+        <v>71</v>
       </c>
       <c r="I1616" t="s">
-        <v>551</v>
+        <v>166</v>
       </c>
       <c r="M1616" t="s">
-        <v>3816</v>
+        <v>3824</v>
       </c>
     </row>
     <row r="1617" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1617">
-        <v>1632</v>
+        <v>1635</v>
       </c>
       <c r="B1617" t="s">
-        <v>3817</v>
+        <v>3825</v>
       </c>
       <c r="C1617" t="s">
-        <v>3818</v>
+        <v>3821</v>
       </c>
       <c r="D1617" t="s">
         <v>14</v>
       </c>
+      <c r="E1617" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1617" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1617" t="s">
+        <v>154</v>
+      </c>
       <c r="H1617" t="s">
-        <v>172</v>
+        <v>71</v>
+      </c>
+      <c r="I1617" t="s">
+        <v>166</v>
       </c>
       <c r="M1617" t="s">
-        <v>3819</v>
+        <v>3826</v>
       </c>
     </row>
     <row r="1618" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1618">
-        <v>1633</v>
+        <v>1636</v>
       </c>
       <c r="B1618" t="s">
-        <v>3820</v>
+        <v>3827</v>
       </c>
       <c r="C1618" t="s">
         <v>3821</v>
@@ -60557,50 +60653,41 @@
         <v>166</v>
       </c>
       <c r="M1618" t="s">
-        <v>3822</v>
+        <v>3828</v>
       </c>
     </row>
     <row r="1619" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1619">
-        <v>1634</v>
+        <v>1637</v>
       </c>
       <c r="B1619" t="s">
-        <v>3823</v>
+        <v>3829</v>
       </c>
       <c r="C1619" t="s">
-        <v>3821</v>
-      </c>
-      <c r="D1619" t="s">
-        <v>14</v>
+        <v>3830</v>
+      </c>
+      <c r="D1619">
+        <v>68000</v>
       </c>
       <c r="E1619" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1619" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1619" t="s">
         <v>154</v>
       </c>
       <c r="H1619" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1619" t="s">
-        <v>166</v>
+        <v>1492</v>
       </c>
       <c r="M1619" t="s">
-        <v>3824</v>
+        <v>3831</v>
       </c>
     </row>
     <row r="1620" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1620">
-        <v>1635</v>
+        <v>1638</v>
       </c>
       <c r="B1620" t="s">
-        <v>3825</v>
+        <v>3832</v>
       </c>
       <c r="C1620" t="s">
-        <v>3821</v>
+        <v>3833</v>
       </c>
       <c r="D1620" t="s">
         <v>14</v>
@@ -60608,31 +60695,25 @@
       <c r="E1620" t="s">
         <v>14</v>
       </c>
-      <c r="F1620" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1620" t="s">
-        <v>154</v>
-      </c>
       <c r="H1620" t="s">
-        <v>71</v>
+        <v>1236</v>
       </c>
       <c r="I1620" t="s">
-        <v>166</v>
+        <v>333</v>
       </c>
       <c r="M1620" t="s">
-        <v>3826</v>
+        <v>3834</v>
       </c>
     </row>
     <row r="1621" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1621">
-        <v>1636</v>
+        <v>1639</v>
       </c>
       <c r="B1621" t="s">
-        <v>3827</v>
+        <v>3835</v>
       </c>
       <c r="C1621" t="s">
-        <v>3821</v>
+        <v>3833</v>
       </c>
       <c r="D1621" t="s">
         <v>14</v>
@@ -60640,51 +60721,48 @@
       <c r="E1621" t="s">
         <v>14</v>
       </c>
-      <c r="F1621" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1621" t="s">
-        <v>154</v>
-      </c>
       <c r="H1621" t="s">
-        <v>71</v>
+        <v>1236</v>
       </c>
       <c r="I1621" t="s">
-        <v>166</v>
+        <v>333</v>
       </c>
       <c r="M1621" t="s">
-        <v>3828</v>
+        <v>4491</v>
       </c>
     </row>
     <row r="1622" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1622">
-        <v>1637</v>
+        <v>1640</v>
       </c>
       <c r="B1622" t="s">
-        <v>3829</v>
+        <v>3836</v>
       </c>
       <c r="C1622" t="s">
-        <v>3830</v>
-      </c>
-      <c r="D1622">
-        <v>68000</v>
+        <v>3833</v>
+      </c>
+      <c r="D1622" t="s">
+        <v>14</v>
       </c>
       <c r="E1622" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="H1622" t="s">
-        <v>1492</v>
+        <v>71</v>
+      </c>
+      <c r="I1622" t="s">
+        <v>166</v>
       </c>
       <c r="M1622" t="s">
-        <v>3831</v>
+        <v>4492</v>
       </c>
     </row>
     <row r="1623" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1623">
-        <v>1638</v>
+        <v>1641</v>
       </c>
       <c r="B1623" t="s">
-        <v>3832</v>
+        <v>3837</v>
       </c>
       <c r="C1623" t="s">
         <v>3833</v>
@@ -60702,18 +60780,18 @@
         <v>333</v>
       </c>
       <c r="M1623" t="s">
-        <v>3834</v>
+        <v>3838</v>
       </c>
     </row>
     <row r="1624" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1624">
-        <v>1639</v>
+        <v>1642</v>
       </c>
       <c r="B1624" t="s">
-        <v>3835</v>
+        <v>3839</v>
       </c>
       <c r="C1624" t="s">
-        <v>3833</v>
+        <v>3840</v>
       </c>
       <c r="D1624" t="s">
         <v>14</v>
@@ -60722,271 +60800,253 @@
         <v>14</v>
       </c>
       <c r="H1624" t="s">
-        <v>1236</v>
-      </c>
-      <c r="I1624" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="M1624" t="s">
-        <v>4491</v>
+        <v>3841</v>
       </c>
     </row>
     <row r="1625" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1625">
-        <v>1640</v>
+        <v>1643</v>
       </c>
       <c r="B1625" t="s">
-        <v>3836</v>
+        <v>3842</v>
       </c>
       <c r="C1625" t="s">
-        <v>3833</v>
+        <v>3843</v>
       </c>
       <c r="D1625" t="s">
         <v>14</v>
       </c>
       <c r="E1625" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="H1625" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1625" t="s">
-        <v>166</v>
+        <v>349</v>
       </c>
       <c r="M1625" t="s">
-        <v>4492</v>
+        <v>3844</v>
       </c>
     </row>
     <row r="1626" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1626">
-        <v>1641</v>
+        <v>1644</v>
       </c>
       <c r="B1626" t="s">
-        <v>3837</v>
+        <v>3845</v>
       </c>
       <c r="C1626" t="s">
-        <v>3833</v>
+        <v>3846</v>
       </c>
       <c r="D1626" t="s">
         <v>14</v>
       </c>
-      <c r="E1626" t="s">
-        <v>14</v>
-      </c>
       <c r="H1626" t="s">
-        <v>1236</v>
-      </c>
-      <c r="I1626" t="s">
-        <v>333</v>
+        <v>172</v>
       </c>
       <c r="M1626" t="s">
-        <v>3838</v>
+        <v>3847</v>
       </c>
     </row>
     <row r="1627" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1627">
-        <v>1642</v>
+        <v>1645</v>
       </c>
       <c r="B1627" t="s">
-        <v>3839</v>
+        <v>3848</v>
       </c>
       <c r="C1627" t="s">
-        <v>3840</v>
-      </c>
-      <c r="D1627" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1627" t="s">
-        <v>14</v>
+        <v>3849</v>
+      </c>
+      <c r="D1627">
+        <v>8080</v>
       </c>
       <c r="H1627" t="s">
-        <v>349</v>
+        <v>406</v>
       </c>
       <c r="M1627" t="s">
-        <v>3841</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="1628" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1628">
-        <v>1643</v>
+        <v>1646</v>
       </c>
       <c r="B1628" t="s">
-        <v>3842</v>
+        <v>3851</v>
       </c>
       <c r="C1628" t="s">
-        <v>3843</v>
+        <v>3852</v>
       </c>
       <c r="D1628" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1628" t="s">
-        <v>154</v>
+        <v>1105</v>
       </c>
       <c r="H1628" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="M1628" t="s">
-        <v>3844</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="1629" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1629">
-        <v>1644</v>
+        <v>1647</v>
       </c>
       <c r="B1629" t="s">
-        <v>3845</v>
+        <v>3854</v>
       </c>
       <c r="C1629" t="s">
-        <v>3846</v>
+        <v>3855</v>
       </c>
       <c r="D1629" t="s">
         <v>14</v>
       </c>
+      <c r="E1629" t="s">
+        <v>154</v>
+      </c>
       <c r="H1629" t="s">
-        <v>172</v>
+        <v>336</v>
       </c>
       <c r="M1629" t="s">
-        <v>3847</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="1630" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1630">
-        <v>1645</v>
+        <v>1648</v>
       </c>
       <c r="B1630" t="s">
-        <v>3848</v>
+        <v>3857</v>
       </c>
       <c r="C1630" t="s">
-        <v>3849</v>
-      </c>
-      <c r="D1630">
-        <v>8080</v>
+        <v>3855</v>
+      </c>
+      <c r="D1630" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1630" t="s">
+        <v>154</v>
       </c>
       <c r="H1630" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
       <c r="M1630" t="s">
-        <v>3850</v>
+        <v>3858</v>
       </c>
     </row>
     <row r="1631" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1631">
-        <v>1646</v>
+        <v>1649</v>
       </c>
       <c r="B1631" t="s">
-        <v>3851</v>
+        <v>3859</v>
       </c>
       <c r="C1631" t="s">
-        <v>3852</v>
+        <v>3860</v>
       </c>
       <c r="D1631" t="s">
-        <v>1105</v>
+        <v>3861</v>
+      </c>
+      <c r="E1631" t="s">
+        <v>725</v>
       </c>
       <c r="H1631" t="s">
-        <v>336</v>
+        <v>2070</v>
       </c>
       <c r="M1631" t="s">
-        <v>3853</v>
+        <v>3862</v>
       </c>
     </row>
     <row r="1632" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1632">
-        <v>1647</v>
+        <v>1650</v>
       </c>
       <c r="B1632" t="s">
-        <v>3854</v>
+        <v>3863</v>
       </c>
       <c r="C1632" t="s">
-        <v>3855</v>
-      </c>
-      <c r="D1632" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1632" t="s">
-        <v>154</v>
+        <v>3864</v>
+      </c>
+      <c r="D1632">
+        <v>68000</v>
       </c>
       <c r="H1632" t="s">
-        <v>336</v>
+        <v>2375</v>
       </c>
       <c r="M1632" t="s">
-        <v>3856</v>
+        <v>3865</v>
       </c>
     </row>
     <row r="1633" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1633">
-        <v>1648</v>
+        <v>1651</v>
       </c>
       <c r="B1633" t="s">
-        <v>3857</v>
+        <v>3866</v>
       </c>
       <c r="C1633" t="s">
-        <v>3855</v>
-      </c>
-      <c r="D1633" t="s">
-        <v>14</v>
+        <v>3867</v>
+      </c>
+      <c r="D1633">
+        <v>68000</v>
       </c>
       <c r="E1633" t="s">
         <v>154</v>
       </c>
       <c r="H1633" t="s">
-        <v>336</v>
+        <v>1236</v>
       </c>
       <c r="M1633" t="s">
-        <v>3858</v>
+        <v>3868</v>
       </c>
     </row>
     <row r="1634" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1634">
-        <v>1649</v>
+        <v>1652</v>
       </c>
       <c r="B1634" t="s">
-        <v>3859</v>
+        <v>3869</v>
       </c>
       <c r="C1634" t="s">
-        <v>3860</v>
+        <v>3870</v>
       </c>
       <c r="D1634" t="s">
-        <v>3861</v>
-      </c>
-      <c r="E1634" t="s">
-        <v>725</v>
+        <v>405</v>
       </c>
       <c r="H1634" t="s">
-        <v>2070</v>
+        <v>71</v>
       </c>
       <c r="M1634" t="s">
-        <v>3862</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="1635" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1635">
-        <v>1650</v>
+        <v>1653</v>
       </c>
       <c r="B1635" t="s">
-        <v>3863</v>
+        <v>3872</v>
       </c>
       <c r="C1635" t="s">
-        <v>3864</v>
-      </c>
-      <c r="D1635">
-        <v>68000</v>
-      </c>
-      <c r="H1635" t="s">
-        <v>2375</v>
+        <v>3873</v>
+      </c>
+      <c r="D1635" t="s">
+        <v>14</v>
       </c>
       <c r="M1635" t="s">
-        <v>3865</v>
+        <v>4493</v>
       </c>
     </row>
     <row r="1636" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1636">
-        <v>1651</v>
+        <v>1654</v>
       </c>
       <c r="B1636" t="s">
-        <v>3866</v>
+        <v>3874</v>
       </c>
       <c r="C1636" t="s">
-        <v>3867</v>
+        <v>3875</v>
       </c>
       <c r="D1636">
         <v>68000</v>
@@ -60995,55 +61055,64 @@
         <v>154</v>
       </c>
       <c r="H1636" t="s">
-        <v>1236</v>
+        <v>1353</v>
       </c>
       <c r="M1636" t="s">
-        <v>3868</v>
+        <v>3876</v>
       </c>
     </row>
     <row r="1637" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1637">
-        <v>1652</v>
+        <v>1655</v>
       </c>
       <c r="B1637" t="s">
-        <v>3869</v>
+        <v>3877</v>
       </c>
       <c r="C1637" t="s">
-        <v>3870</v>
-      </c>
-      <c r="D1637" t="s">
-        <v>405</v>
+        <v>3875</v>
+      </c>
+      <c r="D1637">
+        <v>68000</v>
+      </c>
+      <c r="E1637" t="s">
+        <v>154</v>
       </c>
       <c r="H1637" t="s">
-        <v>71</v>
+        <v>1353</v>
       </c>
       <c r="M1637" t="s">
-        <v>3871</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="1638" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1638">
-        <v>1653</v>
+        <v>1656</v>
       </c>
       <c r="B1638" t="s">
-        <v>3872</v>
+        <v>3878</v>
       </c>
       <c r="C1638" t="s">
-        <v>3873</v>
-      </c>
-      <c r="D1638" t="s">
-        <v>14</v>
+        <v>3875</v>
+      </c>
+      <c r="D1638">
+        <v>68000</v>
+      </c>
+      <c r="E1638" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1638" t="s">
+        <v>1353</v>
       </c>
       <c r="M1638" t="s">
-        <v>4493</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="1639" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1639">
-        <v>1654</v>
+        <v>1657</v>
       </c>
       <c r="B1639" t="s">
-        <v>3874</v>
+        <v>3880</v>
       </c>
       <c r="C1639" t="s">
         <v>3875</v>
@@ -61058,15 +61127,15 @@
         <v>1353</v>
       </c>
       <c r="M1639" t="s">
-        <v>3876</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="1640" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1640">
-        <v>1655</v>
+        <v>1658</v>
       </c>
       <c r="B1640" t="s">
-        <v>3877</v>
+        <v>3882</v>
       </c>
       <c r="C1640" t="s">
         <v>3875</v>
@@ -61081,15 +61150,15 @@
         <v>1353</v>
       </c>
       <c r="M1640" t="s">
-        <v>4494</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="1641" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1641">
-        <v>1656</v>
+        <v>1659</v>
       </c>
       <c r="B1641" t="s">
-        <v>3878</v>
+        <v>3884</v>
       </c>
       <c r="C1641" t="s">
         <v>3875</v>
@@ -61104,15 +61173,15 @@
         <v>1353</v>
       </c>
       <c r="M1641" t="s">
-        <v>3879</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="1642" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1642">
-        <v>1657</v>
+        <v>1660</v>
       </c>
       <c r="B1642" t="s">
-        <v>3880</v>
+        <v>3886</v>
       </c>
       <c r="C1642" t="s">
         <v>3875</v>
@@ -61127,15 +61196,15 @@
         <v>1353</v>
       </c>
       <c r="M1642" t="s">
-        <v>3881</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="1643" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1643">
-        <v>1658</v>
+        <v>1661</v>
       </c>
       <c r="B1643" t="s">
-        <v>3882</v>
+        <v>3888</v>
       </c>
       <c r="C1643" t="s">
         <v>3875</v>
@@ -61150,15 +61219,15 @@
         <v>1353</v>
       </c>
       <c r="M1643" t="s">
-        <v>3883</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="1644" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1644">
-        <v>1659</v>
+        <v>1662</v>
       </c>
       <c r="B1644" t="s">
-        <v>3884</v>
+        <v>3889</v>
       </c>
       <c r="C1644" t="s">
         <v>3875</v>
@@ -61173,15 +61242,15 @@
         <v>1353</v>
       </c>
       <c r="M1644" t="s">
-        <v>3885</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="1645" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1645">
-        <v>1660</v>
+        <v>1663</v>
       </c>
       <c r="B1645" t="s">
-        <v>3886</v>
+        <v>3891</v>
       </c>
       <c r="C1645" t="s">
         <v>3875</v>
@@ -61196,15 +61265,15 @@
         <v>1353</v>
       </c>
       <c r="M1645" t="s">
-        <v>3887</v>
+        <v>3892</v>
       </c>
     </row>
     <row r="1646" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1646">
-        <v>1661</v>
+        <v>1664</v>
       </c>
       <c r="B1646" t="s">
-        <v>3888</v>
+        <v>3893</v>
       </c>
       <c r="C1646" t="s">
         <v>3875</v>
@@ -61219,15 +61288,15 @@
         <v>1353</v>
       </c>
       <c r="M1646" t="s">
-        <v>4495</v>
+        <v>3894</v>
       </c>
     </row>
     <row r="1647" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1647">
-        <v>1662</v>
+        <v>1665</v>
       </c>
       <c r="B1647" t="s">
-        <v>3889</v>
+        <v>3895</v>
       </c>
       <c r="C1647" t="s">
         <v>3875</v>
@@ -61242,15 +61311,15 @@
         <v>1353</v>
       </c>
       <c r="M1647" t="s">
-        <v>3890</v>
+        <v>3896</v>
       </c>
     </row>
     <row r="1648" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1648">
-        <v>1663</v>
+        <v>1666</v>
       </c>
       <c r="B1648" t="s">
-        <v>3891</v>
+        <v>3897</v>
       </c>
       <c r="C1648" t="s">
         <v>3875</v>
@@ -61265,15 +61334,15 @@
         <v>1353</v>
       </c>
       <c r="M1648" t="s">
-        <v>3892</v>
+        <v>3898</v>
       </c>
     </row>
     <row r="1649" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1649">
-        <v>1664</v>
+        <v>1667</v>
       </c>
       <c r="B1649" t="s">
-        <v>3893</v>
+        <v>3899</v>
       </c>
       <c r="C1649" t="s">
         <v>3875</v>
@@ -61288,15 +61357,15 @@
         <v>1353</v>
       </c>
       <c r="M1649" t="s">
-        <v>3894</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="1650" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1650">
-        <v>1665</v>
+        <v>1668</v>
       </c>
       <c r="B1650" t="s">
-        <v>3895</v>
+        <v>3900</v>
       </c>
       <c r="C1650" t="s">
         <v>3875</v>
@@ -61311,15 +61380,15 @@
         <v>1353</v>
       </c>
       <c r="M1650" t="s">
-        <v>3896</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="1651" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1651">
-        <v>1666</v>
+        <v>1669</v>
       </c>
       <c r="B1651" t="s">
-        <v>3897</v>
+        <v>3901</v>
       </c>
       <c r="C1651" t="s">
         <v>3875</v>
@@ -61334,15 +61403,15 @@
         <v>1353</v>
       </c>
       <c r="M1651" t="s">
-        <v>3898</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="1652" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1652">
-        <v>1667</v>
+        <v>1670</v>
       </c>
       <c r="B1652" t="s">
-        <v>3899</v>
+        <v>3903</v>
       </c>
       <c r="C1652" t="s">
         <v>3875</v>
@@ -61357,15 +61426,15 @@
         <v>1353</v>
       </c>
       <c r="M1652" t="s">
-        <v>4496</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="1653" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1653">
-        <v>1668</v>
+        <v>1671</v>
       </c>
       <c r="B1653" t="s">
-        <v>3900</v>
+        <v>3905</v>
       </c>
       <c r="C1653" t="s">
         <v>3875</v>
@@ -61380,15 +61449,15 @@
         <v>1353</v>
       </c>
       <c r="M1653" t="s">
-        <v>4497</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="1654" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1654">
-        <v>1669</v>
+        <v>1672</v>
       </c>
       <c r="B1654" t="s">
-        <v>3901</v>
+        <v>3907</v>
       </c>
       <c r="C1654" t="s">
         <v>3875</v>
@@ -61403,15 +61472,15 @@
         <v>1353</v>
       </c>
       <c r="M1654" t="s">
-        <v>3902</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="1655" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1655">
-        <v>1670</v>
+        <v>1673</v>
       </c>
       <c r="B1655" t="s">
-        <v>3903</v>
+        <v>3909</v>
       </c>
       <c r="C1655" t="s">
         <v>3875</v>
@@ -61426,15 +61495,15 @@
         <v>1353</v>
       </c>
       <c r="M1655" t="s">
-        <v>3904</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="1656" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1656">
-        <v>1671</v>
+        <v>1674</v>
       </c>
       <c r="B1656" t="s">
-        <v>3905</v>
+        <v>3911</v>
       </c>
       <c r="C1656" t="s">
         <v>3875</v>
@@ -61449,15 +61518,15 @@
         <v>1353</v>
       </c>
       <c r="M1656" t="s">
-        <v>3906</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="1657" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1657">
-        <v>1672</v>
+        <v>1675</v>
       </c>
       <c r="B1657" t="s">
-        <v>3907</v>
+        <v>3913</v>
       </c>
       <c r="C1657" t="s">
         <v>3875</v>
@@ -61472,15 +61541,15 @@
         <v>1353</v>
       </c>
       <c r="M1657" t="s">
-        <v>3908</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="1658" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1658">
-        <v>1673</v>
+        <v>1676</v>
       </c>
       <c r="B1658" t="s">
-        <v>3909</v>
+        <v>3914</v>
       </c>
       <c r="C1658" t="s">
         <v>3875</v>
@@ -61495,15 +61564,15 @@
         <v>1353</v>
       </c>
       <c r="M1658" t="s">
-        <v>3910</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="1659" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1659">
-        <v>1674</v>
+        <v>1677</v>
       </c>
       <c r="B1659" t="s">
-        <v>3911</v>
+        <v>3916</v>
       </c>
       <c r="C1659" t="s">
         <v>3875</v>
@@ -61518,15 +61587,15 @@
         <v>1353</v>
       </c>
       <c r="M1659" t="s">
-        <v>3912</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="1660" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1660">
-        <v>1675</v>
+        <v>1678</v>
       </c>
       <c r="B1660" t="s">
-        <v>3913</v>
+        <v>3918</v>
       </c>
       <c r="C1660" t="s">
         <v>3875</v>
@@ -61541,15 +61610,15 @@
         <v>1353</v>
       </c>
       <c r="M1660" t="s">
-        <v>4498</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="1661" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1661">
-        <v>1676</v>
+        <v>1679</v>
       </c>
       <c r="B1661" t="s">
-        <v>3914</v>
+        <v>3920</v>
       </c>
       <c r="C1661" t="s">
         <v>3875</v>
@@ -61564,15 +61633,15 @@
         <v>1353</v>
       </c>
       <c r="M1661" t="s">
-        <v>3915</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="1662" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1662">
-        <v>1677</v>
+        <v>1680</v>
       </c>
       <c r="B1662" t="s">
-        <v>3916</v>
+        <v>3921</v>
       </c>
       <c r="C1662" t="s">
         <v>3875</v>
@@ -61587,15 +61656,15 @@
         <v>1353</v>
       </c>
       <c r="M1662" t="s">
-        <v>3917</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="1663" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1663">
-        <v>1678</v>
+        <v>1681</v>
       </c>
       <c r="B1663" t="s">
-        <v>3918</v>
+        <v>3922</v>
       </c>
       <c r="C1663" t="s">
         <v>3875</v>
@@ -61610,15 +61679,15 @@
         <v>1353</v>
       </c>
       <c r="M1663" t="s">
-        <v>3919</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="1664" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1664">
-        <v>1679</v>
+        <v>1682</v>
       </c>
       <c r="B1664" t="s">
-        <v>3920</v>
+        <v>3923</v>
       </c>
       <c r="C1664" t="s">
         <v>3875</v>
@@ -61633,15 +61702,15 @@
         <v>1353</v>
       </c>
       <c r="M1664" t="s">
-        <v>4499</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="1665" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1665">
-        <v>1680</v>
+        <v>1683</v>
       </c>
       <c r="B1665" t="s">
-        <v>3921</v>
+        <v>3925</v>
       </c>
       <c r="C1665" t="s">
         <v>3875</v>
@@ -61656,15 +61725,15 @@
         <v>1353</v>
       </c>
       <c r="M1665" t="s">
-        <v>4500</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="1666" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1666">
-        <v>1681</v>
+        <v>1684</v>
       </c>
       <c r="B1666" t="s">
-        <v>3922</v>
+        <v>3927</v>
       </c>
       <c r="C1666" t="s">
         <v>3875</v>
@@ -61679,15 +61748,15 @@
         <v>1353</v>
       </c>
       <c r="M1666" t="s">
-        <v>4501</v>
+        <v>4502</v>
       </c>
     </row>
     <row r="1667" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1667">
-        <v>1682</v>
+        <v>1685</v>
       </c>
       <c r="B1667" t="s">
-        <v>3923</v>
+        <v>3928</v>
       </c>
       <c r="C1667" t="s">
         <v>3875</v>
@@ -61702,15 +61771,15 @@
         <v>1353</v>
       </c>
       <c r="M1667" t="s">
-        <v>3924</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="1668" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1668">
-        <v>1683</v>
+        <v>1686</v>
       </c>
       <c r="B1668" t="s">
-        <v>3925</v>
+        <v>3930</v>
       </c>
       <c r="C1668" t="s">
         <v>3875</v>
@@ -61725,15 +61794,15 @@
         <v>1353</v>
       </c>
       <c r="M1668" t="s">
-        <v>3926</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="1669" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1669">
-        <v>1684</v>
+        <v>1687</v>
       </c>
       <c r="B1669" t="s">
-        <v>3927</v>
+        <v>3931</v>
       </c>
       <c r="C1669" t="s">
         <v>3875</v>
@@ -61748,15 +61817,15 @@
         <v>1353</v>
       </c>
       <c r="M1669" t="s">
-        <v>4502</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="1670" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1670">
-        <v>1685</v>
+        <v>1688</v>
       </c>
       <c r="B1670" t="s">
-        <v>3928</v>
+        <v>3933</v>
       </c>
       <c r="C1670" t="s">
         <v>3875</v>
@@ -61771,15 +61840,15 @@
         <v>1353</v>
       </c>
       <c r="M1670" t="s">
-        <v>3929</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="1671" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1671">
-        <v>1686</v>
+        <v>1689</v>
       </c>
       <c r="B1671" t="s">
-        <v>3930</v>
+        <v>3935</v>
       </c>
       <c r="C1671" t="s">
         <v>3875</v>
@@ -61794,15 +61863,15 @@
         <v>1353</v>
       </c>
       <c r="M1671" t="s">
-        <v>4503</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="1672" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1672">
-        <v>1687</v>
+        <v>1690</v>
       </c>
       <c r="B1672" t="s">
-        <v>3931</v>
+        <v>3936</v>
       </c>
       <c r="C1672" t="s">
         <v>3875</v>
@@ -61817,15 +61886,15 @@
         <v>1353</v>
       </c>
       <c r="M1672" t="s">
-        <v>3932</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="1673" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1673">
-        <v>1688</v>
+        <v>1691</v>
       </c>
       <c r="B1673" t="s">
-        <v>3933</v>
+        <v>3937</v>
       </c>
       <c r="C1673" t="s">
         <v>3875</v>
@@ -61840,15 +61909,15 @@
         <v>1353</v>
       </c>
       <c r="M1673" t="s">
-        <v>3934</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="1674" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1674">
-        <v>1689</v>
+        <v>1692</v>
       </c>
       <c r="B1674" t="s">
-        <v>3935</v>
+        <v>3939</v>
       </c>
       <c r="C1674" t="s">
         <v>3875</v>
@@ -61863,15 +61932,15 @@
         <v>1353</v>
       </c>
       <c r="M1674" t="s">
-        <v>4504</v>
+        <v>4506</v>
       </c>
     </row>
     <row r="1675" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1675">
-        <v>1690</v>
+        <v>1693</v>
       </c>
       <c r="B1675" t="s">
-        <v>3936</v>
+        <v>3940</v>
       </c>
       <c r="C1675" t="s">
         <v>3875</v>
@@ -61886,15 +61955,15 @@
         <v>1353</v>
       </c>
       <c r="M1675" t="s">
-        <v>4505</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="1676" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1676">
-        <v>1691</v>
+        <v>1694</v>
       </c>
       <c r="B1676" t="s">
-        <v>3937</v>
+        <v>3941</v>
       </c>
       <c r="C1676" t="s">
         <v>3875</v>
@@ -61909,15 +61978,15 @@
         <v>1353</v>
       </c>
       <c r="M1676" t="s">
-        <v>3938</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="1677" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1677">
-        <v>1692</v>
+        <v>1695</v>
       </c>
       <c r="B1677" t="s">
-        <v>3939</v>
+        <v>3942</v>
       </c>
       <c r="C1677" t="s">
         <v>3875</v>
@@ -61932,15 +62001,15 @@
         <v>1353</v>
       </c>
       <c r="M1677" t="s">
-        <v>4506</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="1678" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1678">
-        <v>1693</v>
+        <v>1696</v>
       </c>
       <c r="B1678" t="s">
-        <v>3940</v>
+        <v>3943</v>
       </c>
       <c r="C1678" t="s">
         <v>3875</v>
@@ -61955,15 +62024,15 @@
         <v>1353</v>
       </c>
       <c r="M1678" t="s">
-        <v>4507</v>
+        <v>4510</v>
       </c>
     </row>
     <row r="1679" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1679">
-        <v>1694</v>
+        <v>1697</v>
       </c>
       <c r="B1679" t="s">
-        <v>3941</v>
+        <v>3944</v>
       </c>
       <c r="C1679" t="s">
         <v>3875</v>
@@ -61978,15 +62047,15 @@
         <v>1353</v>
       </c>
       <c r="M1679" t="s">
-        <v>4508</v>
+        <v>4511</v>
       </c>
     </row>
     <row r="1680" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1680">
-        <v>1695</v>
+        <v>1698</v>
       </c>
       <c r="B1680" t="s">
-        <v>3942</v>
+        <v>3945</v>
       </c>
       <c r="C1680" t="s">
         <v>3875</v>
@@ -62001,15 +62070,15 @@
         <v>1353</v>
       </c>
       <c r="M1680" t="s">
-        <v>4509</v>
+        <v>4512</v>
       </c>
     </row>
     <row r="1681" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1681">
-        <v>1696</v>
+        <v>1699</v>
       </c>
       <c r="B1681" t="s">
-        <v>3943</v>
+        <v>3946</v>
       </c>
       <c r="C1681" t="s">
         <v>3875</v>
@@ -62024,15 +62093,15 @@
         <v>1353</v>
       </c>
       <c r="M1681" t="s">
-        <v>4510</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="1682" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1682">
-        <v>1697</v>
+        <v>1700</v>
       </c>
       <c r="B1682" t="s">
-        <v>3944</v>
+        <v>3948</v>
       </c>
       <c r="C1682" t="s">
         <v>3875</v>
@@ -62047,15 +62116,15 @@
         <v>1353</v>
       </c>
       <c r="M1682" t="s">
-        <v>4511</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="1683" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1683">
-        <v>1698</v>
+        <v>1701</v>
       </c>
       <c r="B1683" t="s">
-        <v>3945</v>
+        <v>3950</v>
       </c>
       <c r="C1683" t="s">
         <v>3875</v>
@@ -62070,15 +62139,15 @@
         <v>1353</v>
       </c>
       <c r="M1683" t="s">
-        <v>4512</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="1684" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1684">
-        <v>1699</v>
+        <v>1702</v>
       </c>
       <c r="B1684" t="s">
-        <v>3946</v>
+        <v>3952</v>
       </c>
       <c r="C1684" t="s">
         <v>3875</v>
@@ -62093,15 +62162,15 @@
         <v>1353</v>
       </c>
       <c r="M1684" t="s">
-        <v>3947</v>
+        <v>4513</v>
       </c>
     </row>
     <row r="1685" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1685">
-        <v>1700</v>
+        <v>1703</v>
       </c>
       <c r="B1685" t="s">
-        <v>3948</v>
+        <v>3953</v>
       </c>
       <c r="C1685" t="s">
         <v>3875</v>
@@ -62116,15 +62185,15 @@
         <v>1353</v>
       </c>
       <c r="M1685" t="s">
-        <v>3949</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="1686" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1686">
-        <v>1701</v>
+        <v>1704</v>
       </c>
       <c r="B1686" t="s">
-        <v>3950</v>
+        <v>3955</v>
       </c>
       <c r="C1686" t="s">
         <v>3875</v>
@@ -62139,15 +62208,15 @@
         <v>1353</v>
       </c>
       <c r="M1686" t="s">
-        <v>3951</v>
+        <v>3956</v>
       </c>
     </row>
     <row r="1687" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1687">
-        <v>1702</v>
+        <v>1705</v>
       </c>
       <c r="B1687" t="s">
-        <v>3952</v>
+        <v>3957</v>
       </c>
       <c r="C1687" t="s">
         <v>3875</v>
@@ -62162,15 +62231,15 @@
         <v>1353</v>
       </c>
       <c r="M1687" t="s">
-        <v>4513</v>
+        <v>4514</v>
       </c>
     </row>
     <row r="1688" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1688">
-        <v>1703</v>
+        <v>1706</v>
       </c>
       <c r="B1688" t="s">
-        <v>3953</v>
+        <v>3958</v>
       </c>
       <c r="C1688" t="s">
         <v>3875</v>
@@ -62185,15 +62254,15 @@
         <v>1353</v>
       </c>
       <c r="M1688" t="s">
-        <v>3954</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="1689" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1689">
-        <v>1704</v>
+        <v>1707</v>
       </c>
       <c r="B1689" t="s">
-        <v>3955</v>
+        <v>3960</v>
       </c>
       <c r="C1689" t="s">
         <v>3875</v>
@@ -62208,15 +62277,15 @@
         <v>1353</v>
       </c>
       <c r="M1689" t="s">
-        <v>3956</v>
+        <v>4515</v>
       </c>
     </row>
     <row r="1690" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1690">
-        <v>1705</v>
+        <v>1708</v>
       </c>
       <c r="B1690" t="s">
-        <v>3957</v>
+        <v>3961</v>
       </c>
       <c r="C1690" t="s">
         <v>3875</v>
@@ -62231,15 +62300,15 @@
         <v>1353</v>
       </c>
       <c r="M1690" t="s">
-        <v>4514</v>
+        <v>4516</v>
       </c>
     </row>
     <row r="1691" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1691">
-        <v>1706</v>
+        <v>1709</v>
       </c>
       <c r="B1691" t="s">
-        <v>3958</v>
+        <v>3962</v>
       </c>
       <c r="C1691" t="s">
         <v>3875</v>
@@ -62254,15 +62323,15 @@
         <v>1353</v>
       </c>
       <c r="M1691" t="s">
-        <v>3959</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="1692" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1692">
-        <v>1707</v>
+        <v>1710</v>
       </c>
       <c r="B1692" t="s">
-        <v>3960</v>
+        <v>3963</v>
       </c>
       <c r="C1692" t="s">
         <v>3875</v>
@@ -62277,15 +62346,15 @@
         <v>1353</v>
       </c>
       <c r="M1692" t="s">
-        <v>4515</v>
+        <v>4518</v>
       </c>
     </row>
     <row r="1693" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1693">
-        <v>1708</v>
+        <v>1711</v>
       </c>
       <c r="B1693" t="s">
-        <v>3961</v>
+        <v>3964</v>
       </c>
       <c r="C1693" t="s">
         <v>3875</v>
@@ -62300,15 +62369,15 @@
         <v>1353</v>
       </c>
       <c r="M1693" t="s">
-        <v>4516</v>
+        <v>4519</v>
       </c>
     </row>
     <row r="1694" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1694">
-        <v>1709</v>
+        <v>1712</v>
       </c>
       <c r="B1694" t="s">
-        <v>3962</v>
+        <v>3965</v>
       </c>
       <c r="C1694" t="s">
         <v>3875</v>
@@ -62323,15 +62392,15 @@
         <v>1353</v>
       </c>
       <c r="M1694" t="s">
-        <v>4517</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="1695" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1695">
-        <v>1710</v>
+        <v>1713</v>
       </c>
       <c r="B1695" t="s">
-        <v>3963</v>
+        <v>3966</v>
       </c>
       <c r="C1695" t="s">
         <v>3875</v>
@@ -62346,15 +62415,15 @@
         <v>1353</v>
       </c>
       <c r="M1695" t="s">
-        <v>4518</v>
+        <v>3967</v>
       </c>
     </row>
     <row r="1696" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1696">
-        <v>1711</v>
+        <v>1714</v>
       </c>
       <c r="B1696" t="s">
-        <v>3964</v>
+        <v>3968</v>
       </c>
       <c r="C1696" t="s">
         <v>3875</v>
@@ -62369,15 +62438,15 @@
         <v>1353</v>
       </c>
       <c r="M1696" t="s">
-        <v>4519</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="1697" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1697">
-        <v>1712</v>
+        <v>1715</v>
       </c>
       <c r="B1697" t="s">
-        <v>3965</v>
+        <v>3969</v>
       </c>
       <c r="C1697" t="s">
         <v>3875</v>
@@ -62392,15 +62461,15 @@
         <v>1353</v>
       </c>
       <c r="M1697" t="s">
-        <v>4520</v>
+        <v>4522</v>
       </c>
     </row>
     <row r="1698" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1698">
-        <v>1713</v>
+        <v>1716</v>
       </c>
       <c r="B1698" t="s">
-        <v>3966</v>
+        <v>3970</v>
       </c>
       <c r="C1698" t="s">
         <v>3875</v>
@@ -62415,15 +62484,15 @@
         <v>1353</v>
       </c>
       <c r="M1698" t="s">
-        <v>3967</v>
+        <v>3971</v>
       </c>
     </row>
     <row r="1699" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1699">
-        <v>1714</v>
+        <v>1717</v>
       </c>
       <c r="B1699" t="s">
-        <v>3968</v>
+        <v>3972</v>
       </c>
       <c r="C1699" t="s">
         <v>3875</v>
@@ -62438,15 +62507,15 @@
         <v>1353</v>
       </c>
       <c r="M1699" t="s">
-        <v>4521</v>
+        <v>3973</v>
       </c>
     </row>
     <row r="1700" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1700">
-        <v>1715</v>
+        <v>1718</v>
       </c>
       <c r="B1700" t="s">
-        <v>3969</v>
+        <v>3974</v>
       </c>
       <c r="C1700" t="s">
         <v>3875</v>
@@ -62461,15 +62530,15 @@
         <v>1353</v>
       </c>
       <c r="M1700" t="s">
-        <v>4522</v>
+        <v>4523</v>
       </c>
     </row>
     <row r="1701" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1701">
-        <v>1716</v>
+        <v>1719</v>
       </c>
       <c r="B1701" t="s">
-        <v>3970</v>
+        <v>3975</v>
       </c>
       <c r="C1701" t="s">
         <v>3875</v>
@@ -62484,15 +62553,15 @@
         <v>1353</v>
       </c>
       <c r="M1701" t="s">
-        <v>3971</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="1702" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1702">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="B1702" t="s">
-        <v>3972</v>
+        <v>3977</v>
       </c>
       <c r="C1702" t="s">
         <v>3875</v>
@@ -62507,15 +62576,15 @@
         <v>1353</v>
       </c>
       <c r="M1702" t="s">
-        <v>3973</v>
+        <v>4524</v>
       </c>
     </row>
     <row r="1703" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1703">
-        <v>1718</v>
+        <v>1721</v>
       </c>
       <c r="B1703" t="s">
-        <v>3974</v>
+        <v>3978</v>
       </c>
       <c r="C1703" t="s">
         <v>3875</v>
@@ -62530,15 +62599,15 @@
         <v>1353</v>
       </c>
       <c r="M1703" t="s">
-        <v>4523</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="1704" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1704">
-        <v>1719</v>
+        <v>1722</v>
       </c>
       <c r="B1704" t="s">
-        <v>3975</v>
+        <v>3979</v>
       </c>
       <c r="C1704" t="s">
         <v>3875</v>
@@ -62553,15 +62622,15 @@
         <v>1353</v>
       </c>
       <c r="M1704" t="s">
-        <v>3976</v>
+        <v>4526</v>
       </c>
     </row>
     <row r="1705" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1705">
-        <v>1720</v>
+        <v>1723</v>
       </c>
       <c r="B1705" t="s">
-        <v>3977</v>
+        <v>3980</v>
       </c>
       <c r="C1705" t="s">
         <v>3875</v>
@@ -62576,15 +62645,15 @@
         <v>1353</v>
       </c>
       <c r="M1705" t="s">
-        <v>4524</v>
+        <v>4527</v>
       </c>
     </row>
     <row r="1706" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1706">
-        <v>1721</v>
+        <v>1724</v>
       </c>
       <c r="B1706" t="s">
-        <v>3978</v>
+        <v>3981</v>
       </c>
       <c r="C1706" t="s">
         <v>3875</v>
@@ -62599,15 +62668,15 @@
         <v>1353</v>
       </c>
       <c r="M1706" t="s">
-        <v>4525</v>
+        <v>4528</v>
       </c>
     </row>
     <row r="1707" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1707">
-        <v>1722</v>
+        <v>1725</v>
       </c>
       <c r="B1707" t="s">
-        <v>3979</v>
+        <v>3982</v>
       </c>
       <c r="C1707" t="s">
         <v>3875</v>
@@ -62622,15 +62691,15 @@
         <v>1353</v>
       </c>
       <c r="M1707" t="s">
-        <v>4526</v>
+        <v>3983</v>
       </c>
     </row>
     <row r="1708" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1708">
-        <v>1723</v>
+        <v>1726</v>
       </c>
       <c r="B1708" t="s">
-        <v>3980</v>
+        <v>3984</v>
       </c>
       <c r="C1708" t="s">
         <v>3875</v>
@@ -62645,15 +62714,15 @@
         <v>1353</v>
       </c>
       <c r="M1708" t="s">
-        <v>4527</v>
+        <v>4529</v>
       </c>
     </row>
     <row r="1709" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1709">
-        <v>1724</v>
+        <v>1727</v>
       </c>
       <c r="B1709" t="s">
-        <v>3981</v>
+        <v>3985</v>
       </c>
       <c r="C1709" t="s">
         <v>3875</v>
@@ -62668,15 +62737,15 @@
         <v>1353</v>
       </c>
       <c r="M1709" t="s">
-        <v>4528</v>
+        <v>3986</v>
       </c>
     </row>
     <row r="1710" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1710">
-        <v>1725</v>
+        <v>1728</v>
       </c>
       <c r="B1710" t="s">
-        <v>3982</v>
+        <v>3987</v>
       </c>
       <c r="C1710" t="s">
         <v>3875</v>
@@ -62691,15 +62760,15 @@
         <v>1353</v>
       </c>
       <c r="M1710" t="s">
-        <v>3983</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="1711" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1711">
-        <v>1726</v>
+        <v>1729</v>
       </c>
       <c r="B1711" t="s">
-        <v>3984</v>
+        <v>3988</v>
       </c>
       <c r="C1711" t="s">
         <v>3875</v>
@@ -62714,15 +62783,15 @@
         <v>1353</v>
       </c>
       <c r="M1711" t="s">
-        <v>4529</v>
+        <v>3989</v>
       </c>
     </row>
     <row r="1712" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1712">
-        <v>1727</v>
+        <v>1730</v>
       </c>
       <c r="B1712" t="s">
-        <v>3985</v>
+        <v>3990</v>
       </c>
       <c r="C1712" t="s">
         <v>3875</v>
@@ -62737,15 +62806,15 @@
         <v>1353</v>
       </c>
       <c r="M1712" t="s">
-        <v>3986</v>
+        <v>3991</v>
       </c>
     </row>
     <row r="1713" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1713">
-        <v>1728</v>
+        <v>1731</v>
       </c>
       <c r="B1713" t="s">
-        <v>3987</v>
+        <v>3992</v>
       </c>
       <c r="C1713" t="s">
         <v>3875</v>
@@ -62760,15 +62829,15 @@
         <v>1353</v>
       </c>
       <c r="M1713" t="s">
-        <v>4530</v>
+        <v>4531</v>
       </c>
     </row>
     <row r="1714" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1714">
-        <v>1729</v>
+        <v>1732</v>
       </c>
       <c r="B1714" t="s">
-        <v>3988</v>
+        <v>3993</v>
       </c>
       <c r="C1714" t="s">
         <v>3875</v>
@@ -62783,15 +62852,15 @@
         <v>1353</v>
       </c>
       <c r="M1714" t="s">
-        <v>3989</v>
+        <v>4532</v>
       </c>
     </row>
     <row r="1715" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1715">
-        <v>1730</v>
+        <v>1733</v>
       </c>
       <c r="B1715" t="s">
-        <v>3990</v>
+        <v>3994</v>
       </c>
       <c r="C1715" t="s">
         <v>3875</v>
@@ -62806,15 +62875,15 @@
         <v>1353</v>
       </c>
       <c r="M1715" t="s">
-        <v>3991</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="1716" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1716">
-        <v>1731</v>
+        <v>1734</v>
       </c>
       <c r="B1716" t="s">
-        <v>3992</v>
+        <v>3996</v>
       </c>
       <c r="C1716" t="s">
         <v>3875</v>
@@ -62829,15 +62898,15 @@
         <v>1353</v>
       </c>
       <c r="M1716" t="s">
-        <v>4531</v>
+        <v>3997</v>
       </c>
     </row>
     <row r="1717" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1717">
-        <v>1732</v>
+        <v>1735</v>
       </c>
       <c r="B1717" t="s">
-        <v>3993</v>
+        <v>3998</v>
       </c>
       <c r="C1717" t="s">
         <v>3875</v>
@@ -62852,15 +62921,15 @@
         <v>1353</v>
       </c>
       <c r="M1717" t="s">
-        <v>4532</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="1718" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1718">
-        <v>1733</v>
+        <v>1736</v>
       </c>
       <c r="B1718" t="s">
-        <v>3994</v>
+        <v>3999</v>
       </c>
       <c r="C1718" t="s">
         <v>3875</v>
@@ -62875,15 +62944,15 @@
         <v>1353</v>
       </c>
       <c r="M1718" t="s">
-        <v>3995</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="1719" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1719">
-        <v>1734</v>
+        <v>1737</v>
       </c>
       <c r="B1719" t="s">
-        <v>3996</v>
+        <v>4001</v>
       </c>
       <c r="C1719" t="s">
         <v>3875</v>
@@ -62898,15 +62967,15 @@
         <v>1353</v>
       </c>
       <c r="M1719" t="s">
-        <v>3997</v>
+        <v>4534</v>
       </c>
     </row>
     <row r="1720" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1720">
-        <v>1735</v>
+        <v>1738</v>
       </c>
       <c r="B1720" t="s">
-        <v>3998</v>
+        <v>4002</v>
       </c>
       <c r="C1720" t="s">
         <v>3875</v>
@@ -62921,15 +62990,15 @@
         <v>1353</v>
       </c>
       <c r="M1720" t="s">
-        <v>4533</v>
+        <v>4535</v>
       </c>
     </row>
     <row r="1721" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1721">
-        <v>1736</v>
+        <v>1739</v>
       </c>
       <c r="B1721" t="s">
-        <v>3999</v>
+        <v>4003</v>
       </c>
       <c r="C1721" t="s">
         <v>3875</v>
@@ -62944,15 +63013,15 @@
         <v>1353</v>
       </c>
       <c r="M1721" t="s">
-        <v>4000</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="1722" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1722">
-        <v>1737</v>
+        <v>1740</v>
       </c>
       <c r="B1722" t="s">
-        <v>4001</v>
+        <v>4004</v>
       </c>
       <c r="C1722" t="s">
         <v>3875</v>
@@ -62967,15 +63036,15 @@
         <v>1353</v>
       </c>
       <c r="M1722" t="s">
-        <v>4534</v>
+        <v>4537</v>
       </c>
     </row>
     <row r="1723" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1723">
-        <v>1738</v>
+        <v>1741</v>
       </c>
       <c r="B1723" t="s">
-        <v>4002</v>
+        <v>4005</v>
       </c>
       <c r="C1723" t="s">
         <v>3875</v>
@@ -62990,15 +63059,15 @@
         <v>1353</v>
       </c>
       <c r="M1723" t="s">
-        <v>4535</v>
+        <v>4538</v>
       </c>
     </row>
     <row r="1724" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1724">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="B1724" t="s">
-        <v>4003</v>
+        <v>4006</v>
       </c>
       <c r="C1724" t="s">
         <v>3875</v>
@@ -63013,15 +63082,15 @@
         <v>1353</v>
       </c>
       <c r="M1724" t="s">
-        <v>4536</v>
+        <v>4539</v>
       </c>
     </row>
     <row r="1725" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1725">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="B1725" t="s">
-        <v>4004</v>
+        <v>4007</v>
       </c>
       <c r="C1725" t="s">
         <v>3875</v>
@@ -63036,15 +63105,15 @@
         <v>1353</v>
       </c>
       <c r="M1725" t="s">
-        <v>4537</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="1726" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1726">
-        <v>1741</v>
+        <v>1744</v>
       </c>
       <c r="B1726" t="s">
-        <v>4005</v>
+        <v>4009</v>
       </c>
       <c r="C1726" t="s">
         <v>3875</v>
@@ -63059,15 +63128,15 @@
         <v>1353</v>
       </c>
       <c r="M1726" t="s">
-        <v>4538</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="1727" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1727">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="B1727" t="s">
-        <v>4006</v>
+        <v>4010</v>
       </c>
       <c r="C1727" t="s">
         <v>3875</v>
@@ -63082,15 +63151,15 @@
         <v>1353</v>
       </c>
       <c r="M1727" t="s">
-        <v>4539</v>
+        <v>4541</v>
       </c>
     </row>
     <row r="1728" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1728">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="B1728" t="s">
-        <v>4007</v>
+        <v>4011</v>
       </c>
       <c r="C1728" t="s">
         <v>3875</v>
@@ -63105,15 +63174,15 @@
         <v>1353</v>
       </c>
       <c r="M1728" t="s">
-        <v>4008</v>
+        <v>4012</v>
       </c>
     </row>
     <row r="1729" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1729">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="B1729" t="s">
-        <v>4009</v>
+        <v>4013</v>
       </c>
       <c r="C1729" t="s">
         <v>3875</v>
@@ -63128,15 +63197,15 @@
         <v>1353</v>
       </c>
       <c r="M1729" t="s">
-        <v>4540</v>
+        <v>4542</v>
       </c>
     </row>
     <row r="1730" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1730">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B1730" t="s">
-        <v>4010</v>
+        <v>4014</v>
       </c>
       <c r="C1730" t="s">
         <v>3875</v>
@@ -63151,15 +63220,15 @@
         <v>1353</v>
       </c>
       <c r="M1730" t="s">
-        <v>4541</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="1731" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1731">
-        <v>1746</v>
+        <v>1749</v>
       </c>
       <c r="B1731" t="s">
-        <v>4011</v>
+        <v>4016</v>
       </c>
       <c r="C1731" t="s">
         <v>3875</v>
@@ -63174,15 +63243,15 @@
         <v>1353</v>
       </c>
       <c r="M1731" t="s">
-        <v>4012</v>
+        <v>4017</v>
       </c>
     </row>
     <row r="1732" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1732">
-        <v>1747</v>
+        <v>1750</v>
       </c>
       <c r="B1732" t="s">
-        <v>4013</v>
+        <v>4018</v>
       </c>
       <c r="C1732" t="s">
         <v>3875</v>
@@ -63197,15 +63266,15 @@
         <v>1353</v>
       </c>
       <c r="M1732" t="s">
-        <v>4542</v>
+        <v>4543</v>
       </c>
     </row>
     <row r="1733" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1733">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="B1733" t="s">
-        <v>4014</v>
+        <v>4019</v>
       </c>
       <c r="C1733" t="s">
         <v>3875</v>
@@ -63220,15 +63289,15 @@
         <v>1353</v>
       </c>
       <c r="M1733" t="s">
-        <v>4015</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="1734" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1734">
-        <v>1749</v>
+        <v>1752</v>
       </c>
       <c r="B1734" t="s">
-        <v>4016</v>
+        <v>4021</v>
       </c>
       <c r="C1734" t="s">
         <v>3875</v>
@@ -63243,15 +63312,15 @@
         <v>1353</v>
       </c>
       <c r="M1734" t="s">
-        <v>4017</v>
+        <v>4544</v>
       </c>
     </row>
     <row r="1735" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1735">
-        <v>1750</v>
+        <v>1753</v>
       </c>
       <c r="B1735" t="s">
-        <v>4018</v>
+        <v>4022</v>
       </c>
       <c r="C1735" t="s">
         <v>3875</v>
@@ -63266,15 +63335,15 @@
         <v>1353</v>
       </c>
       <c r="M1735" t="s">
-        <v>4543</v>
+        <v>4545</v>
       </c>
     </row>
     <row r="1736" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1736">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="B1736" t="s">
-        <v>4019</v>
+        <v>4023</v>
       </c>
       <c r="C1736" t="s">
         <v>3875</v>
@@ -63289,15 +63358,15 @@
         <v>1353</v>
       </c>
       <c r="M1736" t="s">
-        <v>4020</v>
+        <v>4546</v>
       </c>
     </row>
     <row r="1737" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1737">
-        <v>1752</v>
+        <v>1755</v>
       </c>
       <c r="B1737" t="s">
-        <v>4021</v>
+        <v>4024</v>
       </c>
       <c r="C1737" t="s">
         <v>3875</v>
@@ -63312,15 +63381,15 @@
         <v>1353</v>
       </c>
       <c r="M1737" t="s">
-        <v>4544</v>
+        <v>4547</v>
       </c>
     </row>
     <row r="1738" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1738">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="B1738" t="s">
-        <v>4022</v>
+        <v>4025</v>
       </c>
       <c r="C1738" t="s">
         <v>3875</v>
@@ -63335,15 +63404,15 @@
         <v>1353</v>
       </c>
       <c r="M1738" t="s">
-        <v>4545</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="1739" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1739">
-        <v>1754</v>
+        <v>1757</v>
       </c>
       <c r="B1739" t="s">
-        <v>4023</v>
+        <v>4026</v>
       </c>
       <c r="C1739" t="s">
         <v>3875</v>
@@ -63358,15 +63427,15 @@
         <v>1353</v>
       </c>
       <c r="M1739" t="s">
-        <v>4546</v>
+        <v>4027</v>
       </c>
     </row>
     <row r="1740" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1740">
-        <v>1755</v>
+        <v>1758</v>
       </c>
       <c r="B1740" t="s">
-        <v>4024</v>
+        <v>4028</v>
       </c>
       <c r="C1740" t="s">
         <v>3875</v>
@@ -63381,15 +63450,15 @@
         <v>1353</v>
       </c>
       <c r="M1740" t="s">
-        <v>4547</v>
+        <v>4549</v>
       </c>
     </row>
     <row r="1741" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1741">
-        <v>1756</v>
+        <v>1759</v>
       </c>
       <c r="B1741" t="s">
-        <v>4025</v>
+        <v>4029</v>
       </c>
       <c r="C1741" t="s">
         <v>3875</v>
@@ -63404,15 +63473,15 @@
         <v>1353</v>
       </c>
       <c r="M1741" t="s">
-        <v>4548</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="1742" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1742">
-        <v>1757</v>
+        <v>1760</v>
       </c>
       <c r="B1742" t="s">
-        <v>4026</v>
+        <v>4030</v>
       </c>
       <c r="C1742" t="s">
         <v>3875</v>
@@ -63427,15 +63496,15 @@
         <v>1353</v>
       </c>
       <c r="M1742" t="s">
-        <v>4027</v>
+        <v>4031</v>
       </c>
     </row>
     <row r="1743" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1743">
-        <v>1758</v>
+        <v>1761</v>
       </c>
       <c r="B1743" t="s">
-        <v>4028</v>
+        <v>4032</v>
       </c>
       <c r="C1743" t="s">
         <v>3875</v>
@@ -63450,15 +63519,15 @@
         <v>1353</v>
       </c>
       <c r="M1743" t="s">
-        <v>4549</v>
+        <v>4033</v>
       </c>
     </row>
     <row r="1744" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1744">
-        <v>1759</v>
+        <v>1762</v>
       </c>
       <c r="B1744" t="s">
-        <v>4029</v>
+        <v>4034</v>
       </c>
       <c r="C1744" t="s">
         <v>3875</v>
@@ -63473,15 +63542,15 @@
         <v>1353</v>
       </c>
       <c r="M1744" t="s">
-        <v>4550</v>
+        <v>4035</v>
       </c>
     </row>
     <row r="1745" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1745">
-        <v>1760</v>
+        <v>1763</v>
       </c>
       <c r="B1745" t="s">
-        <v>4030</v>
+        <v>4036</v>
       </c>
       <c r="C1745" t="s">
         <v>3875</v>
@@ -63496,15 +63565,15 @@
         <v>1353</v>
       </c>
       <c r="M1745" t="s">
-        <v>4031</v>
+        <v>4037</v>
       </c>
     </row>
     <row r="1746" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1746">
-        <v>1761</v>
+        <v>1764</v>
       </c>
       <c r="B1746" t="s">
-        <v>4032</v>
+        <v>4038</v>
       </c>
       <c r="C1746" t="s">
         <v>3875</v>
@@ -63519,15 +63588,15 @@
         <v>1353</v>
       </c>
       <c r="M1746" t="s">
-        <v>4033</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="1747" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1747">
-        <v>1762</v>
+        <v>1765</v>
       </c>
       <c r="B1747" t="s">
-        <v>4034</v>
+        <v>4039</v>
       </c>
       <c r="C1747" t="s">
         <v>3875</v>
@@ -63542,15 +63611,15 @@
         <v>1353</v>
       </c>
       <c r="M1747" t="s">
-        <v>4035</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="1748" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1748">
-        <v>1763</v>
+        <v>1766</v>
       </c>
       <c r="B1748" t="s">
-        <v>4036</v>
+        <v>4041</v>
       </c>
       <c r="C1748" t="s">
         <v>3875</v>
@@ -63565,15 +63634,15 @@
         <v>1353</v>
       </c>
       <c r="M1748" t="s">
-        <v>4037</v>
+        <v>4042</v>
       </c>
     </row>
     <row r="1749" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1749">
-        <v>1764</v>
+        <v>1767</v>
       </c>
       <c r="B1749" t="s">
-        <v>4038</v>
+        <v>4043</v>
       </c>
       <c r="C1749" t="s">
         <v>3875</v>
@@ -63588,15 +63657,15 @@
         <v>1353</v>
       </c>
       <c r="M1749" t="s">
-        <v>4551</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="1750" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1750">
-        <v>1765</v>
+        <v>1768</v>
       </c>
       <c r="B1750" t="s">
-        <v>4039</v>
+        <v>4044</v>
       </c>
       <c r="C1750" t="s">
         <v>3875</v>
@@ -63611,15 +63680,15 @@
         <v>1353</v>
       </c>
       <c r="M1750" t="s">
-        <v>4040</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="1751" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1751">
-        <v>1766</v>
+        <v>1769</v>
       </c>
       <c r="B1751" t="s">
-        <v>4041</v>
+        <v>4046</v>
       </c>
       <c r="C1751" t="s">
         <v>3875</v>
@@ -63634,15 +63703,15 @@
         <v>1353</v>
       </c>
       <c r="M1751" t="s">
-        <v>4042</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="1752" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1752">
-        <v>1767</v>
+        <v>1770</v>
       </c>
       <c r="B1752" t="s">
-        <v>4043</v>
+        <v>4047</v>
       </c>
       <c r="C1752" t="s">
         <v>3875</v>
@@ -63657,15 +63726,15 @@
         <v>1353</v>
       </c>
       <c r="M1752" t="s">
-        <v>4552</v>
+        <v>4048</v>
       </c>
     </row>
     <row r="1753" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1753">
-        <v>1768</v>
+        <v>1771</v>
       </c>
       <c r="B1753" t="s">
-        <v>4044</v>
+        <v>4049</v>
       </c>
       <c r="C1753" t="s">
         <v>3875</v>
@@ -63680,15 +63749,15 @@
         <v>1353</v>
       </c>
       <c r="M1753" t="s">
-        <v>4045</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="1754" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1754">
-        <v>1769</v>
+        <v>1772</v>
       </c>
       <c r="B1754" t="s">
-        <v>4046</v>
+        <v>4051</v>
       </c>
       <c r="C1754" t="s">
         <v>3875</v>
@@ -63703,15 +63772,15 @@
         <v>1353</v>
       </c>
       <c r="M1754" t="s">
-        <v>4553</v>
+        <v>4052</v>
       </c>
     </row>
     <row r="1755" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1755">
-        <v>1770</v>
+        <v>1773</v>
       </c>
       <c r="B1755" t="s">
-        <v>4047</v>
+        <v>4053</v>
       </c>
       <c r="C1755" t="s">
         <v>3875</v>
@@ -63726,15 +63795,15 @@
         <v>1353</v>
       </c>
       <c r="M1755" t="s">
-        <v>4048</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="1756" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1756">
-        <v>1771</v>
+        <v>1774</v>
       </c>
       <c r="B1756" t="s">
-        <v>4049</v>
+        <v>4054</v>
       </c>
       <c r="C1756" t="s">
         <v>3875</v>
@@ -63749,15 +63818,15 @@
         <v>1353</v>
       </c>
       <c r="M1756" t="s">
-        <v>4050</v>
+        <v>4555</v>
       </c>
     </row>
     <row r="1757" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1757">
-        <v>1772</v>
+        <v>1775</v>
       </c>
       <c r="B1757" t="s">
-        <v>4051</v>
+        <v>4055</v>
       </c>
       <c r="C1757" t="s">
         <v>3875</v>
@@ -63772,15 +63841,15 @@
         <v>1353</v>
       </c>
       <c r="M1757" t="s">
-        <v>4052</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="1758" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1758">
-        <v>1773</v>
+        <v>1776</v>
       </c>
       <c r="B1758" t="s">
-        <v>4053</v>
+        <v>4056</v>
       </c>
       <c r="C1758" t="s">
         <v>3875</v>
@@ -63795,15 +63864,15 @@
         <v>1353</v>
       </c>
       <c r="M1758" t="s">
-        <v>4554</v>
+        <v>4557</v>
       </c>
     </row>
     <row r="1759" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1759">
-        <v>1774</v>
+        <v>1777</v>
       </c>
       <c r="B1759" t="s">
-        <v>4054</v>
+        <v>4057</v>
       </c>
       <c r="C1759" t="s">
         <v>3875</v>
@@ -63818,15 +63887,15 @@
         <v>1353</v>
       </c>
       <c r="M1759" t="s">
-        <v>4555</v>
+        <v>4558</v>
       </c>
     </row>
     <row r="1760" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1760">
-        <v>1775</v>
+        <v>1778</v>
       </c>
       <c r="B1760" t="s">
-        <v>4055</v>
+        <v>4058</v>
       </c>
       <c r="C1760" t="s">
         <v>3875</v>
@@ -63841,15 +63910,15 @@
         <v>1353</v>
       </c>
       <c r="M1760" t="s">
-        <v>4556</v>
+        <v>4059</v>
       </c>
     </row>
     <row r="1761" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1761">
-        <v>1776</v>
+        <v>1779</v>
       </c>
       <c r="B1761" t="s">
-        <v>4056</v>
+        <v>4060</v>
       </c>
       <c r="C1761" t="s">
         <v>3875</v>
@@ -63864,15 +63933,15 @@
         <v>1353</v>
       </c>
       <c r="M1761" t="s">
-        <v>4557</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="1762" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1762">
-        <v>1777</v>
+        <v>1780</v>
       </c>
       <c r="B1762" t="s">
-        <v>4057</v>
+        <v>4061</v>
       </c>
       <c r="C1762" t="s">
         <v>3875</v>
@@ -63887,80 +63956,11 @@
         <v>1353</v>
       </c>
       <c r="M1762" t="s">
-        <v>4558</v>
-      </c>
-    </row>
-    <row r="1763" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1763">
-        <v>1778</v>
-      </c>
-      <c r="B1763" t="s">
-        <v>4058</v>
-      </c>
-      <c r="C1763" t="s">
-        <v>3875</v>
-      </c>
-      <c r="D1763">
-        <v>68000</v>
-      </c>
-      <c r="E1763" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1763" t="s">
-        <v>1353</v>
-      </c>
-      <c r="M1763" t="s">
-        <v>4059</v>
-      </c>
-    </row>
-    <row r="1764" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1764">
-        <v>1779</v>
-      </c>
-      <c r="B1764" t="s">
-        <v>4060</v>
-      </c>
-      <c r="C1764" t="s">
-        <v>3875</v>
-      </c>
-      <c r="D1764">
-        <v>68000</v>
-      </c>
-      <c r="E1764" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1764" t="s">
-        <v>1353</v>
-      </c>
-      <c r="M1764" t="s">
-        <v>4559</v>
-      </c>
-    </row>
-    <row r="1765" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1765">
-        <v>1780</v>
-      </c>
-      <c r="B1765" t="s">
-        <v>4061</v>
-      </c>
-      <c r="C1765" t="s">
-        <v>3875</v>
-      </c>
-      <c r="D1765">
-        <v>68000</v>
-      </c>
-      <c r="E1765" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1765" t="s">
-        <v>1353</v>
-      </c>
-      <c r="M1765" t="s">
         <v>4062</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1765"/>
+  <autoFilter ref="A1:M1762"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/0.36/compatibility.xlsx
+++ b/0.36/compatibility.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Playable (untested)" sheetId="4" r:id="rId1"/>
@@ -17,8 +17,8 @@
     <sheet name="GAME_NOT_WORKING FLAG" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ALL!$A$1:$M$1752</definedName>
-    <definedName name="LIST" localSheetId="1">ALL!$B$1:$M$1752</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ALL!$A$1:$M$1751</definedName>
+    <definedName name="LIST" localSheetId="1">ALL!$B$1:$M$1751</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -14078,10 +14078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P293"/>
+  <dimension ref="A1:P294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
-      <selection activeCell="A295" sqref="A295"/>
+    <sheetView topLeftCell="A275" workbookViewId="0">
+      <selection activeCell="A291" sqref="A291:A294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20685,6 +20685,26 @@
         <v>2065</v>
       </c>
     </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>294</v>
+      </c>
+      <c r="B294" t="s">
+        <v>3845</v>
+      </c>
+      <c r="C294" t="s">
+        <v>3846</v>
+      </c>
+      <c r="D294" t="s">
+        <v>14</v>
+      </c>
+      <c r="H294" t="s">
+        <v>172</v>
+      </c>
+      <c r="M294" t="s">
+        <v>3847</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20693,10 +20713,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1752"/>
+  <dimension ref="A1:M1751"/>
   <sheetViews>
-    <sheetView topLeftCell="A810" workbookViewId="0">
-      <selection activeCell="G829" sqref="G829"/>
+    <sheetView tabSelected="1" topLeftCell="A1601" workbookViewId="0">
+      <selection activeCell="A1616" sqref="A1616:XFD1616"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -60806,70 +60826,73 @@
     </row>
     <row r="1616" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1616">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="B1616" t="s">
-        <v>3845</v>
+        <v>3848</v>
       </c>
       <c r="C1616" t="s">
-        <v>3846</v>
-      </c>
-      <c r="D1616" t="s">
-        <v>14</v>
+        <v>3849</v>
+      </c>
+      <c r="D1616">
+        <v>8080</v>
       </c>
       <c r="H1616" t="s">
-        <v>172</v>
+        <v>406</v>
       </c>
       <c r="M1616" t="s">
-        <v>3847</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="1617" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1617">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="B1617" t="s">
-        <v>3848</v>
+        <v>3851</v>
       </c>
       <c r="C1617" t="s">
-        <v>3849</v>
-      </c>
-      <c r="D1617">
-        <v>8080</v>
+        <v>3852</v>
+      </c>
+      <c r="D1617" t="s">
+        <v>1105</v>
       </c>
       <c r="H1617" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
       <c r="M1617" t="s">
-        <v>3850</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="1618" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1618">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="B1618" t="s">
-        <v>3851</v>
+        <v>3854</v>
       </c>
       <c r="C1618" t="s">
-        <v>3852</v>
+        <v>3855</v>
       </c>
       <c r="D1618" t="s">
-        <v>1105</v>
+        <v>14</v>
+      </c>
+      <c r="E1618" t="s">
+        <v>154</v>
       </c>
       <c r="H1618" t="s">
         <v>336</v>
       </c>
       <c r="M1618" t="s">
-        <v>3853</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="1619" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1619">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="B1619" t="s">
-        <v>3854</v>
+        <v>3857</v>
       </c>
       <c r="C1619" t="s">
         <v>3855</v>
@@ -60884,141 +60907,141 @@
         <v>336</v>
       </c>
       <c r="M1619" t="s">
-        <v>3856</v>
+        <v>3858</v>
       </c>
     </row>
     <row r="1620" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1620">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="B1620" t="s">
-        <v>3857</v>
+        <v>3859</v>
       </c>
       <c r="C1620" t="s">
-        <v>3855</v>
+        <v>3860</v>
       </c>
       <c r="D1620" t="s">
-        <v>14</v>
+        <v>3861</v>
       </c>
       <c r="E1620" t="s">
-        <v>154</v>
+        <v>725</v>
       </c>
       <c r="H1620" t="s">
-        <v>336</v>
+        <v>2070</v>
       </c>
       <c r="M1620" t="s">
-        <v>3858</v>
+        <v>3862</v>
       </c>
     </row>
     <row r="1621" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1621">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="B1621" t="s">
-        <v>3859</v>
+        <v>3863</v>
       </c>
       <c r="C1621" t="s">
-        <v>3860</v>
-      </c>
-      <c r="D1621" t="s">
-        <v>3861</v>
-      </c>
-      <c r="E1621" t="s">
-        <v>725</v>
+        <v>3864</v>
+      </c>
+      <c r="D1621">
+        <v>68000</v>
       </c>
       <c r="H1621" t="s">
-        <v>2070</v>
+        <v>2375</v>
       </c>
       <c r="M1621" t="s">
-        <v>3862</v>
+        <v>3865</v>
       </c>
     </row>
     <row r="1622" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1622">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="B1622" t="s">
-        <v>3863</v>
+        <v>3866</v>
       </c>
       <c r="C1622" t="s">
-        <v>3864</v>
+        <v>3867</v>
       </c>
       <c r="D1622">
         <v>68000</v>
       </c>
+      <c r="E1622" t="s">
+        <v>154</v>
+      </c>
       <c r="H1622" t="s">
-        <v>2375</v>
+        <v>1236</v>
       </c>
       <c r="M1622" t="s">
-        <v>3865</v>
+        <v>3868</v>
       </c>
     </row>
     <row r="1623" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1623">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="B1623" t="s">
-        <v>3866</v>
+        <v>3869</v>
       </c>
       <c r="C1623" t="s">
-        <v>3867</v>
-      </c>
-      <c r="D1623">
-        <v>68000</v>
-      </c>
-      <c r="E1623" t="s">
-        <v>154</v>
+        <v>3870</v>
+      </c>
+      <c r="D1623" t="s">
+        <v>405</v>
       </c>
       <c r="H1623" t="s">
-        <v>1236</v>
+        <v>71</v>
       </c>
       <c r="M1623" t="s">
-        <v>3868</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="1624" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1624">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="B1624" t="s">
-        <v>3869</v>
+        <v>3872</v>
       </c>
       <c r="C1624" t="s">
-        <v>3870</v>
+        <v>3873</v>
       </c>
       <c r="D1624" t="s">
-        <v>405</v>
-      </c>
-      <c r="H1624" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="M1624" t="s">
-        <v>3871</v>
+        <v>4493</v>
       </c>
     </row>
     <row r="1625" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1625">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="B1625" t="s">
-        <v>3872</v>
+        <v>3874</v>
       </c>
       <c r="C1625" t="s">
-        <v>3873</v>
-      </c>
-      <c r="D1625" t="s">
-        <v>14</v>
+        <v>3875</v>
+      </c>
+      <c r="D1625">
+        <v>68000</v>
+      </c>
+      <c r="E1625" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1625" t="s">
+        <v>1353</v>
       </c>
       <c r="M1625" t="s">
-        <v>4493</v>
+        <v>3876</v>
       </c>
     </row>
     <row r="1626" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1626">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="B1626" t="s">
-        <v>3874</v>
+        <v>3877</v>
       </c>
       <c r="C1626" t="s">
         <v>3875</v>
@@ -61033,15 +61056,15 @@
         <v>1353</v>
       </c>
       <c r="M1626" t="s">
-        <v>3876</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="1627" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1627">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="B1627" t="s">
-        <v>3877</v>
+        <v>3878</v>
       </c>
       <c r="C1627" t="s">
         <v>3875</v>
@@ -61056,15 +61079,15 @@
         <v>1353</v>
       </c>
       <c r="M1627" t="s">
-        <v>4494</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="1628" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1628">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="B1628" t="s">
-        <v>3878</v>
+        <v>3880</v>
       </c>
       <c r="C1628" t="s">
         <v>3875</v>
@@ -61079,15 +61102,15 @@
         <v>1353</v>
       </c>
       <c r="M1628" t="s">
-        <v>3879</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="1629" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1629">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="B1629" t="s">
-        <v>3880</v>
+        <v>3882</v>
       </c>
       <c r="C1629" t="s">
         <v>3875</v>
@@ -61102,15 +61125,15 @@
         <v>1353</v>
       </c>
       <c r="M1629" t="s">
-        <v>3881</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="1630" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1630">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="B1630" t="s">
-        <v>3882</v>
+        <v>3884</v>
       </c>
       <c r="C1630" t="s">
         <v>3875</v>
@@ -61125,15 +61148,15 @@
         <v>1353</v>
       </c>
       <c r="M1630" t="s">
-        <v>3883</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="1631" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1631">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="B1631" t="s">
-        <v>3884</v>
+        <v>3886</v>
       </c>
       <c r="C1631" t="s">
         <v>3875</v>
@@ -61148,15 +61171,15 @@
         <v>1353</v>
       </c>
       <c r="M1631" t="s">
-        <v>3885</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="1632" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1632">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="B1632" t="s">
-        <v>3886</v>
+        <v>3888</v>
       </c>
       <c r="C1632" t="s">
         <v>3875</v>
@@ -61171,15 +61194,15 @@
         <v>1353</v>
       </c>
       <c r="M1632" t="s">
-        <v>3887</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="1633" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1633">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="B1633" t="s">
-        <v>3888</v>
+        <v>3889</v>
       </c>
       <c r="C1633" t="s">
         <v>3875</v>
@@ -61194,15 +61217,15 @@
         <v>1353</v>
       </c>
       <c r="M1633" t="s">
-        <v>4495</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="1634" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1634">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="B1634" t="s">
-        <v>3889</v>
+        <v>3891</v>
       </c>
       <c r="C1634" t="s">
         <v>3875</v>
@@ -61217,15 +61240,15 @@
         <v>1353</v>
       </c>
       <c r="M1634" t="s">
-        <v>3890</v>
+        <v>3892</v>
       </c>
     </row>
     <row r="1635" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1635">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B1635" t="s">
-        <v>3891</v>
+        <v>3893</v>
       </c>
       <c r="C1635" t="s">
         <v>3875</v>
@@ -61240,15 +61263,15 @@
         <v>1353</v>
       </c>
       <c r="M1635" t="s">
-        <v>3892</v>
+        <v>3894</v>
       </c>
     </row>
     <row r="1636" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1636">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="B1636" t="s">
-        <v>3893</v>
+        <v>3895</v>
       </c>
       <c r="C1636" t="s">
         <v>3875</v>
@@ -61263,15 +61286,15 @@
         <v>1353</v>
       </c>
       <c r="M1636" t="s">
-        <v>3894</v>
+        <v>3896</v>
       </c>
     </row>
     <row r="1637" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1637">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="B1637" t="s">
-        <v>3895</v>
+        <v>3897</v>
       </c>
       <c r="C1637" t="s">
         <v>3875</v>
@@ -61286,15 +61309,15 @@
         <v>1353</v>
       </c>
       <c r="M1637" t="s">
-        <v>3896</v>
+        <v>3898</v>
       </c>
     </row>
     <row r="1638" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1638">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="B1638" t="s">
-        <v>3897</v>
+        <v>3899</v>
       </c>
       <c r="C1638" t="s">
         <v>3875</v>
@@ -61309,15 +61332,15 @@
         <v>1353</v>
       </c>
       <c r="M1638" t="s">
-        <v>3898</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="1639" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1639">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="B1639" t="s">
-        <v>3899</v>
+        <v>3900</v>
       </c>
       <c r="C1639" t="s">
         <v>3875</v>
@@ -61332,15 +61355,15 @@
         <v>1353</v>
       </c>
       <c r="M1639" t="s">
-        <v>4496</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="1640" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1640">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="B1640" t="s">
-        <v>3900</v>
+        <v>3901</v>
       </c>
       <c r="C1640" t="s">
         <v>3875</v>
@@ -61355,15 +61378,15 @@
         <v>1353</v>
       </c>
       <c r="M1640" t="s">
-        <v>4497</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="1641" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1641">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="B1641" t="s">
-        <v>3901</v>
+        <v>3903</v>
       </c>
       <c r="C1641" t="s">
         <v>3875</v>
@@ -61378,15 +61401,15 @@
         <v>1353</v>
       </c>
       <c r="M1641" t="s">
-        <v>3902</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="1642" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1642">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="B1642" t="s">
-        <v>3903</v>
+        <v>3905</v>
       </c>
       <c r="C1642" t="s">
         <v>3875</v>
@@ -61401,15 +61424,15 @@
         <v>1353</v>
       </c>
       <c r="M1642" t="s">
-        <v>3904</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="1643" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1643">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="B1643" t="s">
-        <v>3905</v>
+        <v>3907</v>
       </c>
       <c r="C1643" t="s">
         <v>3875</v>
@@ -61424,15 +61447,15 @@
         <v>1353</v>
       </c>
       <c r="M1643" t="s">
-        <v>3906</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="1644" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1644">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="B1644" t="s">
-        <v>3907</v>
+        <v>3909</v>
       </c>
       <c r="C1644" t="s">
         <v>3875</v>
@@ -61447,15 +61470,15 @@
         <v>1353</v>
       </c>
       <c r="M1644" t="s">
-        <v>3908</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="1645" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1645">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="B1645" t="s">
-        <v>3909</v>
+        <v>3911</v>
       </c>
       <c r="C1645" t="s">
         <v>3875</v>
@@ -61470,15 +61493,15 @@
         <v>1353</v>
       </c>
       <c r="M1645" t="s">
-        <v>3910</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="1646" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1646">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="B1646" t="s">
-        <v>3911</v>
+        <v>3913</v>
       </c>
       <c r="C1646" t="s">
         <v>3875</v>
@@ -61493,15 +61516,15 @@
         <v>1353</v>
       </c>
       <c r="M1646" t="s">
-        <v>3912</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="1647" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1647">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="B1647" t="s">
-        <v>3913</v>
+        <v>3914</v>
       </c>
       <c r="C1647" t="s">
         <v>3875</v>
@@ -61516,15 +61539,15 @@
         <v>1353</v>
       </c>
       <c r="M1647" t="s">
-        <v>4498</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="1648" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1648">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="B1648" t="s">
-        <v>3914</v>
+        <v>3916</v>
       </c>
       <c r="C1648" t="s">
         <v>3875</v>
@@ -61539,15 +61562,15 @@
         <v>1353</v>
       </c>
       <c r="M1648" t="s">
-        <v>3915</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="1649" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1649">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="B1649" t="s">
-        <v>3916</v>
+        <v>3918</v>
       </c>
       <c r="C1649" t="s">
         <v>3875</v>
@@ -61562,15 +61585,15 @@
         <v>1353</v>
       </c>
       <c r="M1649" t="s">
-        <v>3917</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="1650" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1650">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="B1650" t="s">
-        <v>3918</v>
+        <v>3920</v>
       </c>
       <c r="C1650" t="s">
         <v>3875</v>
@@ -61585,15 +61608,15 @@
         <v>1353</v>
       </c>
       <c r="M1650" t="s">
-        <v>3919</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="1651" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1651">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="B1651" t="s">
-        <v>3920</v>
+        <v>3921</v>
       </c>
       <c r="C1651" t="s">
         <v>3875</v>
@@ -61608,15 +61631,15 @@
         <v>1353</v>
       </c>
       <c r="M1651" t="s">
-        <v>4499</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="1652" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1652">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="B1652" t="s">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="C1652" t="s">
         <v>3875</v>
@@ -61631,15 +61654,15 @@
         <v>1353</v>
       </c>
       <c r="M1652" t="s">
-        <v>4500</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="1653" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1653">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="B1653" t="s">
-        <v>3922</v>
+        <v>3923</v>
       </c>
       <c r="C1653" t="s">
         <v>3875</v>
@@ -61654,15 +61677,15 @@
         <v>1353</v>
       </c>
       <c r="M1653" t="s">
-        <v>4501</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="1654" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1654">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="B1654" t="s">
-        <v>3923</v>
+        <v>3925</v>
       </c>
       <c r="C1654" t="s">
         <v>3875</v>
@@ -61677,15 +61700,15 @@
         <v>1353</v>
       </c>
       <c r="M1654" t="s">
-        <v>3924</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="1655" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1655">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="B1655" t="s">
-        <v>3925</v>
+        <v>3927</v>
       </c>
       <c r="C1655" t="s">
         <v>3875</v>
@@ -61700,15 +61723,15 @@
         <v>1353</v>
       </c>
       <c r="M1655" t="s">
-        <v>3926</v>
+        <v>4502</v>
       </c>
     </row>
     <row r="1656" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1656">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B1656" t="s">
-        <v>3927</v>
+        <v>3928</v>
       </c>
       <c r="C1656" t="s">
         <v>3875</v>
@@ -61723,15 +61746,15 @@
         <v>1353</v>
       </c>
       <c r="M1656" t="s">
-        <v>4502</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="1657" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1657">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="B1657" t="s">
-        <v>3928</v>
+        <v>3930</v>
       </c>
       <c r="C1657" t="s">
         <v>3875</v>
@@ -61746,15 +61769,15 @@
         <v>1353</v>
       </c>
       <c r="M1657" t="s">
-        <v>3929</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="1658" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1658">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="B1658" t="s">
-        <v>3930</v>
+        <v>3931</v>
       </c>
       <c r="C1658" t="s">
         <v>3875</v>
@@ -61769,15 +61792,15 @@
         <v>1353</v>
       </c>
       <c r="M1658" t="s">
-        <v>4503</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="1659" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1659">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B1659" t="s">
-        <v>3931</v>
+        <v>3933</v>
       </c>
       <c r="C1659" t="s">
         <v>3875</v>
@@ -61792,15 +61815,15 @@
         <v>1353</v>
       </c>
       <c r="M1659" t="s">
-        <v>3932</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="1660" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1660">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="B1660" t="s">
-        <v>3933</v>
+        <v>3935</v>
       </c>
       <c r="C1660" t="s">
         <v>3875</v>
@@ -61815,15 +61838,15 @@
         <v>1353</v>
       </c>
       <c r="M1660" t="s">
-        <v>3934</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="1661" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1661">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="B1661" t="s">
-        <v>3935</v>
+        <v>3936</v>
       </c>
       <c r="C1661" t="s">
         <v>3875</v>
@@ -61838,15 +61861,15 @@
         <v>1353</v>
       </c>
       <c r="M1661" t="s">
-        <v>4504</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="1662" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1662">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="B1662" t="s">
-        <v>3936</v>
+        <v>3937</v>
       </c>
       <c r="C1662" t="s">
         <v>3875</v>
@@ -61861,15 +61884,15 @@
         <v>1353</v>
       </c>
       <c r="M1662" t="s">
-        <v>4505</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="1663" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1663">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="B1663" t="s">
-        <v>3937</v>
+        <v>3939</v>
       </c>
       <c r="C1663" t="s">
         <v>3875</v>
@@ -61884,15 +61907,15 @@
         <v>1353</v>
       </c>
       <c r="M1663" t="s">
-        <v>3938</v>
+        <v>4506</v>
       </c>
     </row>
     <row r="1664" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1664">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="B1664" t="s">
-        <v>3939</v>
+        <v>3940</v>
       </c>
       <c r="C1664" t="s">
         <v>3875</v>
@@ -61907,15 +61930,15 @@
         <v>1353</v>
       </c>
       <c r="M1664" t="s">
-        <v>4506</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="1665" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1665">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="B1665" t="s">
-        <v>3940</v>
+        <v>3941</v>
       </c>
       <c r="C1665" t="s">
         <v>3875</v>
@@ -61930,15 +61953,15 @@
         <v>1353</v>
       </c>
       <c r="M1665" t="s">
-        <v>4507</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="1666" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1666">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="B1666" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="C1666" t="s">
         <v>3875</v>
@@ -61953,15 +61976,15 @@
         <v>1353</v>
       </c>
       <c r="M1666" t="s">
-        <v>4508</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="1667" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1667">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="B1667" t="s">
-        <v>3942</v>
+        <v>3943</v>
       </c>
       <c r="C1667" t="s">
         <v>3875</v>
@@ -61976,15 +61999,15 @@
         <v>1353</v>
       </c>
       <c r="M1667" t="s">
-        <v>4509</v>
+        <v>4510</v>
       </c>
     </row>
     <row r="1668" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1668">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="B1668" t="s">
-        <v>3943</v>
+        <v>3944</v>
       </c>
       <c r="C1668" t="s">
         <v>3875</v>
@@ -61999,15 +62022,15 @@
         <v>1353</v>
       </c>
       <c r="M1668" t="s">
-        <v>4510</v>
+        <v>4511</v>
       </c>
     </row>
     <row r="1669" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1669">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="B1669" t="s">
-        <v>3944</v>
+        <v>3945</v>
       </c>
       <c r="C1669" t="s">
         <v>3875</v>
@@ -62022,15 +62045,15 @@
         <v>1353</v>
       </c>
       <c r="M1669" t="s">
-        <v>4511</v>
+        <v>4512</v>
       </c>
     </row>
     <row r="1670" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1670">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="B1670" t="s">
-        <v>3945</v>
+        <v>3946</v>
       </c>
       <c r="C1670" t="s">
         <v>3875</v>
@@ -62045,15 +62068,15 @@
         <v>1353</v>
       </c>
       <c r="M1670" t="s">
-        <v>4512</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="1671" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1671">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="B1671" t="s">
-        <v>3946</v>
+        <v>3948</v>
       </c>
       <c r="C1671" t="s">
         <v>3875</v>
@@ -62068,15 +62091,15 @@
         <v>1353</v>
       </c>
       <c r="M1671" t="s">
-        <v>3947</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="1672" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1672">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="B1672" t="s">
-        <v>3948</v>
+        <v>3950</v>
       </c>
       <c r="C1672" t="s">
         <v>3875</v>
@@ -62091,15 +62114,15 @@
         <v>1353</v>
       </c>
       <c r="M1672" t="s">
-        <v>3949</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="1673" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1673">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="B1673" t="s">
-        <v>3950</v>
+        <v>3952</v>
       </c>
       <c r="C1673" t="s">
         <v>3875</v>
@@ -62114,15 +62137,15 @@
         <v>1353</v>
       </c>
       <c r="M1673" t="s">
-        <v>3951</v>
+        <v>4513</v>
       </c>
     </row>
     <row r="1674" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1674">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="B1674" t="s">
-        <v>3952</v>
+        <v>3953</v>
       </c>
       <c r="C1674" t="s">
         <v>3875</v>
@@ -62137,15 +62160,15 @@
         <v>1353</v>
       </c>
       <c r="M1674" t="s">
-        <v>4513</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="1675" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1675">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="B1675" t="s">
-        <v>3953</v>
+        <v>3955</v>
       </c>
       <c r="C1675" t="s">
         <v>3875</v>
@@ -62160,15 +62183,15 @@
         <v>1353</v>
       </c>
       <c r="M1675" t="s">
-        <v>3954</v>
+        <v>3956</v>
       </c>
     </row>
     <row r="1676" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1676">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="B1676" t="s">
-        <v>3955</v>
+        <v>3957</v>
       </c>
       <c r="C1676" t="s">
         <v>3875</v>
@@ -62183,15 +62206,15 @@
         <v>1353</v>
       </c>
       <c r="M1676" t="s">
-        <v>3956</v>
+        <v>4514</v>
       </c>
     </row>
     <row r="1677" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1677">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="B1677" t="s">
-        <v>3957</v>
+        <v>3958</v>
       </c>
       <c r="C1677" t="s">
         <v>3875</v>
@@ -62206,15 +62229,15 @@
         <v>1353</v>
       </c>
       <c r="M1677" t="s">
-        <v>4514</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="1678" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1678">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="B1678" t="s">
-        <v>3958</v>
+        <v>3960</v>
       </c>
       <c r="C1678" t="s">
         <v>3875</v>
@@ -62229,15 +62252,15 @@
         <v>1353</v>
       </c>
       <c r="M1678" t="s">
-        <v>3959</v>
+        <v>4515</v>
       </c>
     </row>
     <row r="1679" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1679">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="B1679" t="s">
-        <v>3960</v>
+        <v>3961</v>
       </c>
       <c r="C1679" t="s">
         <v>3875</v>
@@ -62252,15 +62275,15 @@
         <v>1353</v>
       </c>
       <c r="M1679" t="s">
-        <v>4515</v>
+        <v>4516</v>
       </c>
     </row>
     <row r="1680" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1680">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="B1680" t="s">
-        <v>3961</v>
+        <v>3962</v>
       </c>
       <c r="C1680" t="s">
         <v>3875</v>
@@ -62275,15 +62298,15 @@
         <v>1353</v>
       </c>
       <c r="M1680" t="s">
-        <v>4516</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="1681" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1681">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="B1681" t="s">
-        <v>3962</v>
+        <v>3963</v>
       </c>
       <c r="C1681" t="s">
         <v>3875</v>
@@ -62298,15 +62321,15 @@
         <v>1353</v>
       </c>
       <c r="M1681" t="s">
-        <v>4517</v>
+        <v>4518</v>
       </c>
     </row>
     <row r="1682" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1682">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="B1682" t="s">
-        <v>3963</v>
+        <v>3964</v>
       </c>
       <c r="C1682" t="s">
         <v>3875</v>
@@ -62321,15 +62344,15 @@
         <v>1353</v>
       </c>
       <c r="M1682" t="s">
-        <v>4518</v>
+        <v>4519</v>
       </c>
     </row>
     <row r="1683" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1683">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="B1683" t="s">
-        <v>3964</v>
+        <v>3965</v>
       </c>
       <c r="C1683" t="s">
         <v>3875</v>
@@ -62344,15 +62367,15 @@
         <v>1353</v>
       </c>
       <c r="M1683" t="s">
-        <v>4519</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="1684" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1684">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="B1684" t="s">
-        <v>3965</v>
+        <v>3966</v>
       </c>
       <c r="C1684" t="s">
         <v>3875</v>
@@ -62367,15 +62390,15 @@
         <v>1353</v>
       </c>
       <c r="M1684" t="s">
-        <v>4520</v>
+        <v>3967</v>
       </c>
     </row>
     <row r="1685" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1685">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="B1685" t="s">
-        <v>3966</v>
+        <v>3968</v>
       </c>
       <c r="C1685" t="s">
         <v>3875</v>
@@ -62390,15 +62413,15 @@
         <v>1353</v>
       </c>
       <c r="M1685" t="s">
-        <v>3967</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="1686" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1686">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="B1686" t="s">
-        <v>3968</v>
+        <v>3969</v>
       </c>
       <c r="C1686" t="s">
         <v>3875</v>
@@ -62413,15 +62436,15 @@
         <v>1353</v>
       </c>
       <c r="M1686" t="s">
-        <v>4521</v>
+        <v>4522</v>
       </c>
     </row>
     <row r="1687" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1687">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="B1687" t="s">
-        <v>3969</v>
+        <v>3970</v>
       </c>
       <c r="C1687" t="s">
         <v>3875</v>
@@ -62436,15 +62459,15 @@
         <v>1353</v>
       </c>
       <c r="M1687" t="s">
-        <v>4522</v>
+        <v>3971</v>
       </c>
     </row>
     <row r="1688" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1688">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="B1688" t="s">
-        <v>3970</v>
+        <v>3972</v>
       </c>
       <c r="C1688" t="s">
         <v>3875</v>
@@ -62459,15 +62482,15 @@
         <v>1353</v>
       </c>
       <c r="M1688" t="s">
-        <v>3971</v>
+        <v>3973</v>
       </c>
     </row>
     <row r="1689" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1689">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="B1689" t="s">
-        <v>3972</v>
+        <v>3974</v>
       </c>
       <c r="C1689" t="s">
         <v>3875</v>
@@ -62482,15 +62505,15 @@
         <v>1353</v>
       </c>
       <c r="M1689" t="s">
-        <v>3973</v>
+        <v>4523</v>
       </c>
     </row>
     <row r="1690" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1690">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="B1690" t="s">
-        <v>3974</v>
+        <v>3975</v>
       </c>
       <c r="C1690" t="s">
         <v>3875</v>
@@ -62505,15 +62528,15 @@
         <v>1353</v>
       </c>
       <c r="M1690" t="s">
-        <v>4523</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="1691" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1691">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="B1691" t="s">
-        <v>3975</v>
+        <v>3977</v>
       </c>
       <c r="C1691" t="s">
         <v>3875</v>
@@ -62528,15 +62551,15 @@
         <v>1353</v>
       </c>
       <c r="M1691" t="s">
-        <v>3976</v>
+        <v>4524</v>
       </c>
     </row>
     <row r="1692" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1692">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="B1692" t="s">
-        <v>3977</v>
+        <v>3978</v>
       </c>
       <c r="C1692" t="s">
         <v>3875</v>
@@ -62551,15 +62574,15 @@
         <v>1353</v>
       </c>
       <c r="M1692" t="s">
-        <v>4524</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="1693" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1693">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="B1693" t="s">
-        <v>3978</v>
+        <v>3979</v>
       </c>
       <c r="C1693" t="s">
         <v>3875</v>
@@ -62574,15 +62597,15 @@
         <v>1353</v>
       </c>
       <c r="M1693" t="s">
-        <v>4525</v>
+        <v>4526</v>
       </c>
     </row>
     <row r="1694" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1694">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="B1694" t="s">
-        <v>3979</v>
+        <v>3980</v>
       </c>
       <c r="C1694" t="s">
         <v>3875</v>
@@ -62597,15 +62620,15 @@
         <v>1353</v>
       </c>
       <c r="M1694" t="s">
-        <v>4526</v>
+        <v>4527</v>
       </c>
     </row>
     <row r="1695" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1695">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="B1695" t="s">
-        <v>3980</v>
+        <v>3981</v>
       </c>
       <c r="C1695" t="s">
         <v>3875</v>
@@ -62620,15 +62643,15 @@
         <v>1353</v>
       </c>
       <c r="M1695" t="s">
-        <v>4527</v>
+        <v>4528</v>
       </c>
     </row>
     <row r="1696" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1696">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="B1696" t="s">
-        <v>3981</v>
+        <v>3982</v>
       </c>
       <c r="C1696" t="s">
         <v>3875</v>
@@ -62643,15 +62666,15 @@
         <v>1353</v>
       </c>
       <c r="M1696" t="s">
-        <v>4528</v>
+        <v>3983</v>
       </c>
     </row>
     <row r="1697" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1697">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B1697" t="s">
-        <v>3982</v>
+        <v>3984</v>
       </c>
       <c r="C1697" t="s">
         <v>3875</v>
@@ -62666,15 +62689,15 @@
         <v>1353</v>
       </c>
       <c r="M1697" t="s">
-        <v>3983</v>
+        <v>4529</v>
       </c>
     </row>
     <row r="1698" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1698">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B1698" t="s">
-        <v>3984</v>
+        <v>3985</v>
       </c>
       <c r="C1698" t="s">
         <v>3875</v>
@@ -62689,15 +62712,15 @@
         <v>1353</v>
       </c>
       <c r="M1698" t="s">
-        <v>4529</v>
+        <v>3986</v>
       </c>
     </row>
     <row r="1699" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1699">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="B1699" t="s">
-        <v>3985</v>
+        <v>3987</v>
       </c>
       <c r="C1699" t="s">
         <v>3875</v>
@@ -62712,15 +62735,15 @@
         <v>1353</v>
       </c>
       <c r="M1699" t="s">
-        <v>3986</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="1700" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1700">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="B1700" t="s">
-        <v>3987</v>
+        <v>3988</v>
       </c>
       <c r="C1700" t="s">
         <v>3875</v>
@@ -62735,15 +62758,15 @@
         <v>1353</v>
       </c>
       <c r="M1700" t="s">
-        <v>4530</v>
+        <v>3989</v>
       </c>
     </row>
     <row r="1701" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1701">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="B1701" t="s">
-        <v>3988</v>
+        <v>3990</v>
       </c>
       <c r="C1701" t="s">
         <v>3875</v>
@@ -62758,15 +62781,15 @@
         <v>1353</v>
       </c>
       <c r="M1701" t="s">
-        <v>3989</v>
+        <v>3991</v>
       </c>
     </row>
     <row r="1702" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1702">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="B1702" t="s">
-        <v>3990</v>
+        <v>3992</v>
       </c>
       <c r="C1702" t="s">
         <v>3875</v>
@@ -62781,15 +62804,15 @@
         <v>1353</v>
       </c>
       <c r="M1702" t="s">
-        <v>3991</v>
+        <v>4531</v>
       </c>
     </row>
     <row r="1703" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1703">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="B1703" t="s">
-        <v>3992</v>
+        <v>3993</v>
       </c>
       <c r="C1703" t="s">
         <v>3875</v>
@@ -62804,15 +62827,15 @@
         <v>1353</v>
       </c>
       <c r="M1703" t="s">
-        <v>4531</v>
+        <v>4532</v>
       </c>
     </row>
     <row r="1704" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1704">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="B1704" t="s">
-        <v>3993</v>
+        <v>3994</v>
       </c>
       <c r="C1704" t="s">
         <v>3875</v>
@@ -62827,15 +62850,15 @@
         <v>1353</v>
       </c>
       <c r="M1704" t="s">
-        <v>4532</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="1705" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1705">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="B1705" t="s">
-        <v>3994</v>
+        <v>3996</v>
       </c>
       <c r="C1705" t="s">
         <v>3875</v>
@@ -62850,15 +62873,15 @@
         <v>1353</v>
       </c>
       <c r="M1705" t="s">
-        <v>3995</v>
+        <v>3997</v>
       </c>
     </row>
     <row r="1706" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1706">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="B1706" t="s">
-        <v>3996</v>
+        <v>3998</v>
       </c>
       <c r="C1706" t="s">
         <v>3875</v>
@@ -62873,15 +62896,15 @@
         <v>1353</v>
       </c>
       <c r="M1706" t="s">
-        <v>3997</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="1707" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1707">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="B1707" t="s">
-        <v>3998</v>
+        <v>3999</v>
       </c>
       <c r="C1707" t="s">
         <v>3875</v>
@@ -62896,15 +62919,15 @@
         <v>1353</v>
       </c>
       <c r="M1707" t="s">
-        <v>4533</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="1708" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1708">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="B1708" t="s">
-        <v>3999</v>
+        <v>4001</v>
       </c>
       <c r="C1708" t="s">
         <v>3875</v>
@@ -62919,15 +62942,15 @@
         <v>1353</v>
       </c>
       <c r="M1708" t="s">
-        <v>4000</v>
+        <v>4534</v>
       </c>
     </row>
     <row r="1709" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1709">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B1709" t="s">
-        <v>4001</v>
+        <v>4002</v>
       </c>
       <c r="C1709" t="s">
         <v>3875</v>
@@ -62942,15 +62965,15 @@
         <v>1353</v>
       </c>
       <c r="M1709" t="s">
-        <v>4534</v>
+        <v>4535</v>
       </c>
     </row>
     <row r="1710" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1710">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="B1710" t="s">
-        <v>4002</v>
+        <v>4003</v>
       </c>
       <c r="C1710" t="s">
         <v>3875</v>
@@ -62965,15 +62988,15 @@
         <v>1353</v>
       </c>
       <c r="M1710" t="s">
-        <v>4535</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="1711" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1711">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="B1711" t="s">
-        <v>4003</v>
+        <v>4004</v>
       </c>
       <c r="C1711" t="s">
         <v>3875</v>
@@ -62988,15 +63011,15 @@
         <v>1353</v>
       </c>
       <c r="M1711" t="s">
-        <v>4536</v>
+        <v>4537</v>
       </c>
     </row>
     <row r="1712" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1712">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="B1712" t="s">
-        <v>4004</v>
+        <v>4005</v>
       </c>
       <c r="C1712" t="s">
         <v>3875</v>
@@ -63011,15 +63034,15 @@
         <v>1353</v>
       </c>
       <c r="M1712" t="s">
-        <v>4537</v>
+        <v>4538</v>
       </c>
     </row>
     <row r="1713" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1713">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="B1713" t="s">
-        <v>4005</v>
+        <v>4006</v>
       </c>
       <c r="C1713" t="s">
         <v>3875</v>
@@ -63034,15 +63057,15 @@
         <v>1353</v>
       </c>
       <c r="M1713" t="s">
-        <v>4538</v>
+        <v>4539</v>
       </c>
     </row>
     <row r="1714" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1714">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="B1714" t="s">
-        <v>4006</v>
+        <v>4007</v>
       </c>
       <c r="C1714" t="s">
         <v>3875</v>
@@ -63057,15 +63080,15 @@
         <v>1353</v>
       </c>
       <c r="M1714" t="s">
-        <v>4539</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="1715" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1715">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="B1715" t="s">
-        <v>4007</v>
+        <v>4009</v>
       </c>
       <c r="C1715" t="s">
         <v>3875</v>
@@ -63080,15 +63103,15 @@
         <v>1353</v>
       </c>
       <c r="M1715" t="s">
-        <v>4008</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="1716" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1716">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="B1716" t="s">
-        <v>4009</v>
+        <v>4010</v>
       </c>
       <c r="C1716" t="s">
         <v>3875</v>
@@ -63103,15 +63126,15 @@
         <v>1353</v>
       </c>
       <c r="M1716" t="s">
-        <v>4540</v>
+        <v>4541</v>
       </c>
     </row>
     <row r="1717" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1717">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="B1717" t="s">
-        <v>4010</v>
+        <v>4011</v>
       </c>
       <c r="C1717" t="s">
         <v>3875</v>
@@ -63126,15 +63149,15 @@
         <v>1353</v>
       </c>
       <c r="M1717" t="s">
-        <v>4541</v>
+        <v>4012</v>
       </c>
     </row>
     <row r="1718" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1718">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="B1718" t="s">
-        <v>4011</v>
+        <v>4013</v>
       </c>
       <c r="C1718" t="s">
         <v>3875</v>
@@ -63149,15 +63172,15 @@
         <v>1353</v>
       </c>
       <c r="M1718" t="s">
-        <v>4012</v>
+        <v>4542</v>
       </c>
     </row>
     <row r="1719" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1719">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="B1719" t="s">
-        <v>4013</v>
+        <v>4014</v>
       </c>
       <c r="C1719" t="s">
         <v>3875</v>
@@ -63172,15 +63195,15 @@
         <v>1353</v>
       </c>
       <c r="M1719" t="s">
-        <v>4542</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="1720" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1720">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="B1720" t="s">
-        <v>4014</v>
+        <v>4016</v>
       </c>
       <c r="C1720" t="s">
         <v>3875</v>
@@ -63195,15 +63218,15 @@
         <v>1353</v>
       </c>
       <c r="M1720" t="s">
-        <v>4015</v>
+        <v>4017</v>
       </c>
     </row>
     <row r="1721" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1721">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="B1721" t="s">
-        <v>4016</v>
+        <v>4018</v>
       </c>
       <c r="C1721" t="s">
         <v>3875</v>
@@ -63218,15 +63241,15 @@
         <v>1353</v>
       </c>
       <c r="M1721" t="s">
-        <v>4017</v>
+        <v>4543</v>
       </c>
     </row>
     <row r="1722" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1722">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="B1722" t="s">
-        <v>4018</v>
+        <v>4019</v>
       </c>
       <c r="C1722" t="s">
         <v>3875</v>
@@ -63241,15 +63264,15 @@
         <v>1353</v>
       </c>
       <c r="M1722" t="s">
-        <v>4543</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="1723" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1723">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B1723" t="s">
-        <v>4019</v>
+        <v>4021</v>
       </c>
       <c r="C1723" t="s">
         <v>3875</v>
@@ -63264,15 +63287,15 @@
         <v>1353</v>
       </c>
       <c r="M1723" t="s">
-        <v>4020</v>
+        <v>4544</v>
       </c>
     </row>
     <row r="1724" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1724">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="B1724" t="s">
-        <v>4021</v>
+        <v>4022</v>
       </c>
       <c r="C1724" t="s">
         <v>3875</v>
@@ -63287,15 +63310,15 @@
         <v>1353</v>
       </c>
       <c r="M1724" t="s">
-        <v>4544</v>
+        <v>4545</v>
       </c>
     </row>
     <row r="1725" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1725">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="B1725" t="s">
-        <v>4022</v>
+        <v>4023</v>
       </c>
       <c r="C1725" t="s">
         <v>3875</v>
@@ -63310,15 +63333,15 @@
         <v>1353</v>
       </c>
       <c r="M1725" t="s">
-        <v>4545</v>
+        <v>4546</v>
       </c>
     </row>
     <row r="1726" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1726">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="B1726" t="s">
-        <v>4023</v>
+        <v>4024</v>
       </c>
       <c r="C1726" t="s">
         <v>3875</v>
@@ -63333,15 +63356,15 @@
         <v>1353</v>
       </c>
       <c r="M1726" t="s">
-        <v>4546</v>
+        <v>4547</v>
       </c>
     </row>
     <row r="1727" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1727">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B1727" t="s">
-        <v>4024</v>
+        <v>4025</v>
       </c>
       <c r="C1727" t="s">
         <v>3875</v>
@@ -63356,15 +63379,15 @@
         <v>1353</v>
       </c>
       <c r="M1727" t="s">
-        <v>4547</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="1728" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1728">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="B1728" t="s">
-        <v>4025</v>
+        <v>4026</v>
       </c>
       <c r="C1728" t="s">
         <v>3875</v>
@@ -63379,15 +63402,15 @@
         <v>1353</v>
       </c>
       <c r="M1728" t="s">
-        <v>4548</v>
+        <v>4027</v>
       </c>
     </row>
     <row r="1729" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1729">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="B1729" t="s">
-        <v>4026</v>
+        <v>4028</v>
       </c>
       <c r="C1729" t="s">
         <v>3875</v>
@@ -63402,15 +63425,15 @@
         <v>1353</v>
       </c>
       <c r="M1729" t="s">
-        <v>4027</v>
+        <v>4549</v>
       </c>
     </row>
     <row r="1730" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1730">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="B1730" t="s">
-        <v>4028</v>
+        <v>4029</v>
       </c>
       <c r="C1730" t="s">
         <v>3875</v>
@@ -63425,15 +63448,15 @@
         <v>1353</v>
       </c>
       <c r="M1730" t="s">
-        <v>4549</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="1731" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1731">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="B1731" t="s">
-        <v>4029</v>
+        <v>4030</v>
       </c>
       <c r="C1731" t="s">
         <v>3875</v>
@@ -63448,15 +63471,15 @@
         <v>1353</v>
       </c>
       <c r="M1731" t="s">
-        <v>4550</v>
+        <v>4031</v>
       </c>
     </row>
     <row r="1732" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1732">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="B1732" t="s">
-        <v>4030</v>
+        <v>4032</v>
       </c>
       <c r="C1732" t="s">
         <v>3875</v>
@@ -63471,15 +63494,15 @@
         <v>1353</v>
       </c>
       <c r="M1732" t="s">
-        <v>4031</v>
+        <v>4033</v>
       </c>
     </row>
     <row r="1733" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1733">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B1733" t="s">
-        <v>4032</v>
+        <v>4034</v>
       </c>
       <c r="C1733" t="s">
         <v>3875</v>
@@ -63494,15 +63517,15 @@
         <v>1353</v>
       </c>
       <c r="M1733" t="s">
-        <v>4033</v>
+        <v>4035</v>
       </c>
     </row>
     <row r="1734" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1734">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="B1734" t="s">
-        <v>4034</v>
+        <v>4036</v>
       </c>
       <c r="C1734" t="s">
         <v>3875</v>
@@ -63517,15 +63540,15 @@
         <v>1353</v>
       </c>
       <c r="M1734" t="s">
-        <v>4035</v>
+        <v>4037</v>
       </c>
     </row>
     <row r="1735" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1735">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="B1735" t="s">
-        <v>4036</v>
+        <v>4038</v>
       </c>
       <c r="C1735" t="s">
         <v>3875</v>
@@ -63540,15 +63563,15 @@
         <v>1353</v>
       </c>
       <c r="M1735" t="s">
-        <v>4037</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="1736" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1736">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="B1736" t="s">
-        <v>4038</v>
+        <v>4039</v>
       </c>
       <c r="C1736" t="s">
         <v>3875</v>
@@ -63563,15 +63586,15 @@
         <v>1353</v>
       </c>
       <c r="M1736" t="s">
-        <v>4551</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="1737" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1737">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="B1737" t="s">
-        <v>4039</v>
+        <v>4041</v>
       </c>
       <c r="C1737" t="s">
         <v>3875</v>
@@ -63586,15 +63609,15 @@
         <v>1353</v>
       </c>
       <c r="M1737" t="s">
-        <v>4040</v>
+        <v>4042</v>
       </c>
     </row>
     <row r="1738" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1738">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="B1738" t="s">
-        <v>4041</v>
+        <v>4043</v>
       </c>
       <c r="C1738" t="s">
         <v>3875</v>
@@ -63609,15 +63632,15 @@
         <v>1353</v>
       </c>
       <c r="M1738" t="s">
-        <v>4042</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="1739" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1739">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="B1739" t="s">
-        <v>4043</v>
+        <v>4044</v>
       </c>
       <c r="C1739" t="s">
         <v>3875</v>
@@ -63632,15 +63655,15 @@
         <v>1353</v>
       </c>
       <c r="M1739" t="s">
-        <v>4552</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="1740" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1740">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="B1740" t="s">
-        <v>4044</v>
+        <v>4046</v>
       </c>
       <c r="C1740" t="s">
         <v>3875</v>
@@ -63655,15 +63678,15 @@
         <v>1353</v>
       </c>
       <c r="M1740" t="s">
-        <v>4045</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="1741" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1741">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="B1741" t="s">
-        <v>4046</v>
+        <v>4047</v>
       </c>
       <c r="C1741" t="s">
         <v>3875</v>
@@ -63678,15 +63701,15 @@
         <v>1353</v>
       </c>
       <c r="M1741" t="s">
-        <v>4553</v>
+        <v>4048</v>
       </c>
     </row>
     <row r="1742" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1742">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="B1742" t="s">
-        <v>4047</v>
+        <v>4049</v>
       </c>
       <c r="C1742" t="s">
         <v>3875</v>
@@ -63701,15 +63724,15 @@
         <v>1353</v>
       </c>
       <c r="M1742" t="s">
-        <v>4048</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="1743" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1743">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="B1743" t="s">
-        <v>4049</v>
+        <v>4051</v>
       </c>
       <c r="C1743" t="s">
         <v>3875</v>
@@ -63724,15 +63747,15 @@
         <v>1353</v>
       </c>
       <c r="M1743" t="s">
-        <v>4050</v>
+        <v>4052</v>
       </c>
     </row>
     <row r="1744" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1744">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="B1744" t="s">
-        <v>4051</v>
+        <v>4053</v>
       </c>
       <c r="C1744" t="s">
         <v>3875</v>
@@ -63747,15 +63770,15 @@
         <v>1353</v>
       </c>
       <c r="M1744" t="s">
-        <v>4052</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="1745" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1745">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="B1745" t="s">
-        <v>4053</v>
+        <v>4054</v>
       </c>
       <c r="C1745" t="s">
         <v>3875</v>
@@ -63770,15 +63793,15 @@
         <v>1353</v>
       </c>
       <c r="M1745" t="s">
-        <v>4554</v>
+        <v>4555</v>
       </c>
     </row>
     <row r="1746" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1746">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="B1746" t="s">
-        <v>4054</v>
+        <v>4055</v>
       </c>
       <c r="C1746" t="s">
         <v>3875</v>
@@ -63793,15 +63816,15 @@
         <v>1353</v>
       </c>
       <c r="M1746" t="s">
-        <v>4555</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="1747" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1747">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="B1747" t="s">
-        <v>4055</v>
+        <v>4056</v>
       </c>
       <c r="C1747" t="s">
         <v>3875</v>
@@ -63816,15 +63839,15 @@
         <v>1353</v>
       </c>
       <c r="M1747" t="s">
-        <v>4556</v>
+        <v>4557</v>
       </c>
     </row>
     <row r="1748" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1748">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="B1748" t="s">
-        <v>4056</v>
+        <v>4057</v>
       </c>
       <c r="C1748" t="s">
         <v>3875</v>
@@ -63839,15 +63862,15 @@
         <v>1353</v>
       </c>
       <c r="M1748" t="s">
-        <v>4557</v>
+        <v>4558</v>
       </c>
     </row>
     <row r="1749" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1749">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="B1749" t="s">
-        <v>4057</v>
+        <v>4058</v>
       </c>
       <c r="C1749" t="s">
         <v>3875</v>
@@ -63862,15 +63885,15 @@
         <v>1353</v>
       </c>
       <c r="M1749" t="s">
-        <v>4558</v>
+        <v>4059</v>
       </c>
     </row>
     <row r="1750" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1750">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="B1750" t="s">
-        <v>4058</v>
+        <v>4060</v>
       </c>
       <c r="C1750" t="s">
         <v>3875</v>
@@ -63885,15 +63908,15 @@
         <v>1353</v>
       </c>
       <c r="M1750" t="s">
-        <v>4059</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="1751" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1751">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="B1751" t="s">
-        <v>4060</v>
+        <v>4061</v>
       </c>
       <c r="C1751" t="s">
         <v>3875</v>
@@ -63908,34 +63931,11 @@
         <v>1353</v>
       </c>
       <c r="M1751" t="s">
-        <v>4559</v>
-      </c>
-    </row>
-    <row r="1752" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1752">
-        <v>1780</v>
-      </c>
-      <c r="B1752" t="s">
-        <v>4061</v>
-      </c>
-      <c r="C1752" t="s">
-        <v>3875</v>
-      </c>
-      <c r="D1752">
-        <v>68000</v>
-      </c>
-      <c r="E1752" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1752" t="s">
-        <v>1353</v>
-      </c>
-      <c r="M1752" t="s">
         <v>4062</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1752"/>
+  <autoFilter ref="A1:M1751"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/0.36/compatibility.xlsx
+++ b/0.36/compatibility.xlsx
@@ -17,8 +17,8 @@
     <sheet name="GAME_NOT_WORKING FLAG" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ALL!$A$1:$M$1751</definedName>
-    <definedName name="LIST" localSheetId="1">ALL!$B$1:$M$1751</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ALL!$A$1:$M$1747</definedName>
+    <definedName name="LIST" localSheetId="1">ALL!$B$1:$M$1747</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -14078,10 +14078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P294"/>
+  <dimension ref="A1:P297"/>
   <sheetViews>
     <sheetView topLeftCell="A275" workbookViewId="0">
-      <selection activeCell="A291" sqref="A291:A294"/>
+      <selection activeCell="A292" sqref="A292:A297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20705,6 +20705,84 @@
         <v>3847</v>
       </c>
     </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>295</v>
+      </c>
+      <c r="B295" t="s">
+        <v>3832</v>
+      </c>
+      <c r="C295" t="s">
+        <v>3833</v>
+      </c>
+      <c r="D295" t="s">
+        <v>14</v>
+      </c>
+      <c r="E295" t="s">
+        <v>14</v>
+      </c>
+      <c r="H295" t="s">
+        <v>1236</v>
+      </c>
+      <c r="I295" t="s">
+        <v>333</v>
+      </c>
+      <c r="M295" t="s">
+        <v>3834</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>296</v>
+      </c>
+      <c r="B296" t="s">
+        <v>3835</v>
+      </c>
+      <c r="C296" t="s">
+        <v>3833</v>
+      </c>
+      <c r="D296" t="s">
+        <v>14</v>
+      </c>
+      <c r="E296" t="s">
+        <v>14</v>
+      </c>
+      <c r="H296" t="s">
+        <v>1236</v>
+      </c>
+      <c r="I296" t="s">
+        <v>333</v>
+      </c>
+      <c r="M296" t="s">
+        <v>4491</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>297</v>
+      </c>
+      <c r="B297" t="s">
+        <v>3836</v>
+      </c>
+      <c r="C297" t="s">
+        <v>3833</v>
+      </c>
+      <c r="D297" t="s">
+        <v>14</v>
+      </c>
+      <c r="E297" t="s">
+        <v>14</v>
+      </c>
+      <c r="H297" t="s">
+        <v>71</v>
+      </c>
+      <c r="I297" t="s">
+        <v>166</v>
+      </c>
+      <c r="M297" t="s">
+        <v>4492</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20713,10 +20791,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1751"/>
+  <dimension ref="A1:M1747"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1601" workbookViewId="0">
-      <selection activeCell="A1616" sqref="A1616:XFD1616"/>
+      <selection activeCell="F1621" sqref="F1621"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -60699,13 +60777,13 @@
     </row>
     <row r="1611" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1611">
-        <v>1638</v>
+        <v>1642</v>
       </c>
       <c r="B1611" t="s">
-        <v>3832</v>
+        <v>3839</v>
       </c>
       <c r="C1611" t="s">
-        <v>3833</v>
+        <v>3840</v>
       </c>
       <c r="D1611" t="s">
         <v>14</v>
@@ -60714,254 +60792,233 @@
         <v>14</v>
       </c>
       <c r="H1611" t="s">
-        <v>1236</v>
-      </c>
-      <c r="I1611" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="M1611" t="s">
-        <v>3834</v>
+        <v>3841</v>
       </c>
     </row>
     <row r="1612" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1612">
-        <v>1639</v>
+        <v>1645</v>
       </c>
       <c r="B1612" t="s">
-        <v>3835</v>
+        <v>3848</v>
       </c>
       <c r="C1612" t="s">
-        <v>3833</v>
-      </c>
-      <c r="D1612" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1612" t="s">
-        <v>14</v>
+        <v>3849</v>
+      </c>
+      <c r="D1612">
+        <v>8080</v>
       </c>
       <c r="H1612" t="s">
-        <v>1236</v>
-      </c>
-      <c r="I1612" t="s">
-        <v>333</v>
+        <v>406</v>
       </c>
       <c r="M1612" t="s">
-        <v>4491</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="1613" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1613">
-        <v>1640</v>
+        <v>1646</v>
       </c>
       <c r="B1613" t="s">
-        <v>3836</v>
+        <v>3851</v>
       </c>
       <c r="C1613" t="s">
-        <v>3833</v>
+        <v>3852</v>
       </c>
       <c r="D1613" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1613" t="s">
-        <v>14</v>
+        <v>1105</v>
       </c>
       <c r="H1613" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1613" t="s">
-        <v>166</v>
+        <v>336</v>
       </c>
       <c r="M1613" t="s">
-        <v>4492</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="1614" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1614">
-        <v>1641</v>
+        <v>1647</v>
       </c>
       <c r="B1614" t="s">
-        <v>3837</v>
+        <v>3854</v>
       </c>
       <c r="C1614" t="s">
-        <v>3833</v>
+        <v>3855</v>
       </c>
       <c r="D1614" t="s">
         <v>14</v>
       </c>
       <c r="E1614" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="H1614" t="s">
-        <v>1236</v>
-      </c>
-      <c r="I1614" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M1614" t="s">
-        <v>3838</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="1615" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1615">
-        <v>1642</v>
+        <v>1648</v>
       </c>
       <c r="B1615" t="s">
-        <v>3839</v>
+        <v>3857</v>
       </c>
       <c r="C1615" t="s">
-        <v>3840</v>
+        <v>3855</v>
       </c>
       <c r="D1615" t="s">
         <v>14</v>
       </c>
       <c r="E1615" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="H1615" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="M1615" t="s">
-        <v>3841</v>
+        <v>3858</v>
       </c>
     </row>
     <row r="1616" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1616">
-        <v>1645</v>
+        <v>1649</v>
       </c>
       <c r="B1616" t="s">
-        <v>3848</v>
+        <v>3859</v>
       </c>
       <c r="C1616" t="s">
-        <v>3849</v>
-      </c>
-      <c r="D1616">
-        <v>8080</v>
+        <v>3860</v>
+      </c>
+      <c r="D1616" t="s">
+        <v>3861</v>
+      </c>
+      <c r="E1616" t="s">
+        <v>725</v>
       </c>
       <c r="H1616" t="s">
-        <v>406</v>
+        <v>2070</v>
       </c>
       <c r="M1616" t="s">
-        <v>3850</v>
+        <v>3862</v>
       </c>
     </row>
     <row r="1617" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1617">
-        <v>1646</v>
+        <v>1650</v>
       </c>
       <c r="B1617" t="s">
-        <v>3851</v>
+        <v>3863</v>
       </c>
       <c r="C1617" t="s">
-        <v>3852</v>
-      </c>
-      <c r="D1617" t="s">
-        <v>1105</v>
+        <v>3864</v>
+      </c>
+      <c r="D1617">
+        <v>68000</v>
       </c>
       <c r="H1617" t="s">
-        <v>336</v>
+        <v>2375</v>
       </c>
       <c r="M1617" t="s">
-        <v>3853</v>
+        <v>3865</v>
       </c>
     </row>
     <row r="1618" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1618">
-        <v>1647</v>
+        <v>1651</v>
       </c>
       <c r="B1618" t="s">
-        <v>3854</v>
+        <v>3866</v>
       </c>
       <c r="C1618" t="s">
-        <v>3855</v>
-      </c>
-      <c r="D1618" t="s">
-        <v>14</v>
+        <v>3867</v>
+      </c>
+      <c r="D1618">
+        <v>68000</v>
       </c>
       <c r="E1618" t="s">
         <v>154</v>
       </c>
       <c r="H1618" t="s">
-        <v>336</v>
+        <v>1236</v>
       </c>
       <c r="M1618" t="s">
-        <v>3856</v>
+        <v>3868</v>
       </c>
     </row>
     <row r="1619" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1619">
-        <v>1648</v>
+        <v>1652</v>
       </c>
       <c r="B1619" t="s">
-        <v>3857</v>
+        <v>3869</v>
       </c>
       <c r="C1619" t="s">
-        <v>3855</v>
+        <v>3870</v>
       </c>
       <c r="D1619" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1619" t="s">
-        <v>154</v>
+        <v>405</v>
       </c>
       <c r="H1619" t="s">
-        <v>336</v>
+        <v>71</v>
       </c>
       <c r="M1619" t="s">
-        <v>3858</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="1620" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1620">
-        <v>1649</v>
+        <v>1653</v>
       </c>
       <c r="B1620" t="s">
-        <v>3859</v>
+        <v>3872</v>
       </c>
       <c r="C1620" t="s">
-        <v>3860</v>
+        <v>3873</v>
       </c>
       <c r="D1620" t="s">
-        <v>3861</v>
-      </c>
-      <c r="E1620" t="s">
-        <v>725</v>
-      </c>
-      <c r="H1620" t="s">
-        <v>2070</v>
+        <v>14</v>
       </c>
       <c r="M1620" t="s">
-        <v>3862</v>
+        <v>4493</v>
       </c>
     </row>
     <row r="1621" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1621">
-        <v>1650</v>
+        <v>1654</v>
       </c>
       <c r="B1621" t="s">
-        <v>3863</v>
+        <v>3874</v>
       </c>
       <c r="C1621" t="s">
-        <v>3864</v>
+        <v>3875</v>
       </c>
       <c r="D1621">
         <v>68000</v>
       </c>
+      <c r="E1621" t="s">
+        <v>154</v>
+      </c>
       <c r="H1621" t="s">
-        <v>2375</v>
+        <v>1353</v>
       </c>
       <c r="M1621" t="s">
-        <v>3865</v>
+        <v>3876</v>
       </c>
     </row>
     <row r="1622" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1622">
-        <v>1651</v>
+        <v>1655</v>
       </c>
       <c r="B1622" t="s">
-        <v>3866</v>
+        <v>3877</v>
       </c>
       <c r="C1622" t="s">
-        <v>3867</v>
+        <v>3875</v>
       </c>
       <c r="D1622">
         <v>68000</v>
@@ -60970,55 +61027,64 @@
         <v>154</v>
       </c>
       <c r="H1622" t="s">
-        <v>1236</v>
+        <v>1353</v>
       </c>
       <c r="M1622" t="s">
-        <v>3868</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="1623" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1623">
-        <v>1652</v>
+        <v>1656</v>
       </c>
       <c r="B1623" t="s">
-        <v>3869</v>
+        <v>3878</v>
       </c>
       <c r="C1623" t="s">
-        <v>3870</v>
-      </c>
-      <c r="D1623" t="s">
-        <v>405</v>
+        <v>3875</v>
+      </c>
+      <c r="D1623">
+        <v>68000</v>
+      </c>
+      <c r="E1623" t="s">
+        <v>154</v>
       </c>
       <c r="H1623" t="s">
-        <v>71</v>
+        <v>1353</v>
       </c>
       <c r="M1623" t="s">
-        <v>3871</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="1624" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1624">
-        <v>1653</v>
+        <v>1657</v>
       </c>
       <c r="B1624" t="s">
-        <v>3872</v>
+        <v>3880</v>
       </c>
       <c r="C1624" t="s">
-        <v>3873</v>
-      </c>
-      <c r="D1624" t="s">
-        <v>14</v>
+        <v>3875</v>
+      </c>
+      <c r="D1624">
+        <v>68000</v>
+      </c>
+      <c r="E1624" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1624" t="s">
+        <v>1353</v>
       </c>
       <c r="M1624" t="s">
-        <v>4493</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="1625" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1625">
-        <v>1654</v>
+        <v>1658</v>
       </c>
       <c r="B1625" t="s">
-        <v>3874</v>
+        <v>3882</v>
       </c>
       <c r="C1625" t="s">
         <v>3875</v>
@@ -61033,15 +61099,15 @@
         <v>1353</v>
       </c>
       <c r="M1625" t="s">
-        <v>3876</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="1626" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1626">
-        <v>1655</v>
+        <v>1659</v>
       </c>
       <c r="B1626" t="s">
-        <v>3877</v>
+        <v>3884</v>
       </c>
       <c r="C1626" t="s">
         <v>3875</v>
@@ -61056,15 +61122,15 @@
         <v>1353</v>
       </c>
       <c r="M1626" t="s">
-        <v>4494</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="1627" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1627">
-        <v>1656</v>
+        <v>1660</v>
       </c>
       <c r="B1627" t="s">
-        <v>3878</v>
+        <v>3886</v>
       </c>
       <c r="C1627" t="s">
         <v>3875</v>
@@ -61079,15 +61145,15 @@
         <v>1353</v>
       </c>
       <c r="M1627" t="s">
-        <v>3879</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="1628" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1628">
-        <v>1657</v>
+        <v>1661</v>
       </c>
       <c r="B1628" t="s">
-        <v>3880</v>
+        <v>3888</v>
       </c>
       <c r="C1628" t="s">
         <v>3875</v>
@@ -61102,15 +61168,15 @@
         <v>1353</v>
       </c>
       <c r="M1628" t="s">
-        <v>3881</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="1629" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1629">
-        <v>1658</v>
+        <v>1662</v>
       </c>
       <c r="B1629" t="s">
-        <v>3882</v>
+        <v>3889</v>
       </c>
       <c r="C1629" t="s">
         <v>3875</v>
@@ -61125,15 +61191,15 @@
         <v>1353</v>
       </c>
       <c r="M1629" t="s">
-        <v>3883</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="1630" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1630">
-        <v>1659</v>
+        <v>1663</v>
       </c>
       <c r="B1630" t="s">
-        <v>3884</v>
+        <v>3891</v>
       </c>
       <c r="C1630" t="s">
         <v>3875</v>
@@ -61148,15 +61214,15 @@
         <v>1353</v>
       </c>
       <c r="M1630" t="s">
-        <v>3885</v>
+        <v>3892</v>
       </c>
     </row>
     <row r="1631" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1631">
-        <v>1660</v>
+        <v>1664</v>
       </c>
       <c r="B1631" t="s">
-        <v>3886</v>
+        <v>3893</v>
       </c>
       <c r="C1631" t="s">
         <v>3875</v>
@@ -61171,15 +61237,15 @@
         <v>1353</v>
       </c>
       <c r="M1631" t="s">
-        <v>3887</v>
+        <v>3894</v>
       </c>
     </row>
     <row r="1632" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1632">
-        <v>1661</v>
+        <v>1665</v>
       </c>
       <c r="B1632" t="s">
-        <v>3888</v>
+        <v>3895</v>
       </c>
       <c r="C1632" t="s">
         <v>3875</v>
@@ -61194,15 +61260,15 @@
         <v>1353</v>
       </c>
       <c r="M1632" t="s">
-        <v>4495</v>
+        <v>3896</v>
       </c>
     </row>
     <row r="1633" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1633">
-        <v>1662</v>
+        <v>1666</v>
       </c>
       <c r="B1633" t="s">
-        <v>3889</v>
+        <v>3897</v>
       </c>
       <c r="C1633" t="s">
         <v>3875</v>
@@ -61217,15 +61283,15 @@
         <v>1353</v>
       </c>
       <c r="M1633" t="s">
-        <v>3890</v>
+        <v>3898</v>
       </c>
     </row>
     <row r="1634" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1634">
-        <v>1663</v>
+        <v>1667</v>
       </c>
       <c r="B1634" t="s">
-        <v>3891</v>
+        <v>3899</v>
       </c>
       <c r="C1634" t="s">
         <v>3875</v>
@@ -61240,15 +61306,15 @@
         <v>1353</v>
       </c>
       <c r="M1634" t="s">
-        <v>3892</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="1635" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1635">
-        <v>1664</v>
+        <v>1668</v>
       </c>
       <c r="B1635" t="s">
-        <v>3893</v>
+        <v>3900</v>
       </c>
       <c r="C1635" t="s">
         <v>3875</v>
@@ -61263,15 +61329,15 @@
         <v>1353</v>
       </c>
       <c r="M1635" t="s">
-        <v>3894</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="1636" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1636">
-        <v>1665</v>
+        <v>1669</v>
       </c>
       <c r="B1636" t="s">
-        <v>3895</v>
+        <v>3901</v>
       </c>
       <c r="C1636" t="s">
         <v>3875</v>
@@ -61286,15 +61352,15 @@
         <v>1353</v>
       </c>
       <c r="M1636" t="s">
-        <v>3896</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="1637" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1637">
-        <v>1666</v>
+        <v>1670</v>
       </c>
       <c r="B1637" t="s">
-        <v>3897</v>
+        <v>3903</v>
       </c>
       <c r="C1637" t="s">
         <v>3875</v>
@@ -61309,15 +61375,15 @@
         <v>1353</v>
       </c>
       <c r="M1637" t="s">
-        <v>3898</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="1638" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1638">
-        <v>1667</v>
+        <v>1671</v>
       </c>
       <c r="B1638" t="s">
-        <v>3899</v>
+        <v>3905</v>
       </c>
       <c r="C1638" t="s">
         <v>3875</v>
@@ -61332,15 +61398,15 @@
         <v>1353</v>
       </c>
       <c r="M1638" t="s">
-        <v>4496</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="1639" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1639">
-        <v>1668</v>
+        <v>1672</v>
       </c>
       <c r="B1639" t="s">
-        <v>3900</v>
+        <v>3907</v>
       </c>
       <c r="C1639" t="s">
         <v>3875</v>
@@ -61355,15 +61421,15 @@
         <v>1353</v>
       </c>
       <c r="M1639" t="s">
-        <v>4497</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="1640" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1640">
-        <v>1669</v>
+        <v>1673</v>
       </c>
       <c r="B1640" t="s">
-        <v>3901</v>
+        <v>3909</v>
       </c>
       <c r="C1640" t="s">
         <v>3875</v>
@@ -61378,15 +61444,15 @@
         <v>1353</v>
       </c>
       <c r="M1640" t="s">
-        <v>3902</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="1641" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1641">
-        <v>1670</v>
+        <v>1674</v>
       </c>
       <c r="B1641" t="s">
-        <v>3903</v>
+        <v>3911</v>
       </c>
       <c r="C1641" t="s">
         <v>3875</v>
@@ -61401,15 +61467,15 @@
         <v>1353</v>
       </c>
       <c r="M1641" t="s">
-        <v>3904</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="1642" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1642">
-        <v>1671</v>
+        <v>1675</v>
       </c>
       <c r="B1642" t="s">
-        <v>3905</v>
+        <v>3913</v>
       </c>
       <c r="C1642" t="s">
         <v>3875</v>
@@ -61424,15 +61490,15 @@
         <v>1353</v>
       </c>
       <c r="M1642" t="s">
-        <v>3906</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="1643" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1643">
-        <v>1672</v>
+        <v>1676</v>
       </c>
       <c r="B1643" t="s">
-        <v>3907</v>
+        <v>3914</v>
       </c>
       <c r="C1643" t="s">
         <v>3875</v>
@@ -61447,15 +61513,15 @@
         <v>1353</v>
       </c>
       <c r="M1643" t="s">
-        <v>3908</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="1644" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1644">
-        <v>1673</v>
+        <v>1677</v>
       </c>
       <c r="B1644" t="s">
-        <v>3909</v>
+        <v>3916</v>
       </c>
       <c r="C1644" t="s">
         <v>3875</v>
@@ -61470,15 +61536,15 @@
         <v>1353</v>
       </c>
       <c r="M1644" t="s">
-        <v>3910</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="1645" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1645">
-        <v>1674</v>
+        <v>1678</v>
       </c>
       <c r="B1645" t="s">
-        <v>3911</v>
+        <v>3918</v>
       </c>
       <c r="C1645" t="s">
         <v>3875</v>
@@ -61493,15 +61559,15 @@
         <v>1353</v>
       </c>
       <c r="M1645" t="s">
-        <v>3912</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="1646" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1646">
-        <v>1675</v>
+        <v>1679</v>
       </c>
       <c r="B1646" t="s">
-        <v>3913</v>
+        <v>3920</v>
       </c>
       <c r="C1646" t="s">
         <v>3875</v>
@@ -61516,15 +61582,15 @@
         <v>1353</v>
       </c>
       <c r="M1646" t="s">
-        <v>4498</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="1647" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1647">
-        <v>1676</v>
+        <v>1680</v>
       </c>
       <c r="B1647" t="s">
-        <v>3914</v>
+        <v>3921</v>
       </c>
       <c r="C1647" t="s">
         <v>3875</v>
@@ -61539,15 +61605,15 @@
         <v>1353</v>
       </c>
       <c r="M1647" t="s">
-        <v>3915</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="1648" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1648">
-        <v>1677</v>
+        <v>1681</v>
       </c>
       <c r="B1648" t="s">
-        <v>3916</v>
+        <v>3922</v>
       </c>
       <c r="C1648" t="s">
         <v>3875</v>
@@ -61562,15 +61628,15 @@
         <v>1353</v>
       </c>
       <c r="M1648" t="s">
-        <v>3917</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="1649" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1649">
-        <v>1678</v>
+        <v>1682</v>
       </c>
       <c r="B1649" t="s">
-        <v>3918</v>
+        <v>3923</v>
       </c>
       <c r="C1649" t="s">
         <v>3875</v>
@@ -61585,15 +61651,15 @@
         <v>1353</v>
       </c>
       <c r="M1649" t="s">
-        <v>3919</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="1650" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1650">
-        <v>1679</v>
+        <v>1683</v>
       </c>
       <c r="B1650" t="s">
-        <v>3920</v>
+        <v>3925</v>
       </c>
       <c r="C1650" t="s">
         <v>3875</v>
@@ -61608,15 +61674,15 @@
         <v>1353</v>
       </c>
       <c r="M1650" t="s">
-        <v>4499</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="1651" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1651">
-        <v>1680</v>
+        <v>1684</v>
       </c>
       <c r="B1651" t="s">
-        <v>3921</v>
+        <v>3927</v>
       </c>
       <c r="C1651" t="s">
         <v>3875</v>
@@ -61631,15 +61697,15 @@
         <v>1353</v>
       </c>
       <c r="M1651" t="s">
-        <v>4500</v>
+        <v>4502</v>
       </c>
     </row>
     <row r="1652" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1652">
-        <v>1681</v>
+        <v>1685</v>
       </c>
       <c r="B1652" t="s">
-        <v>3922</v>
+        <v>3928</v>
       </c>
       <c r="C1652" t="s">
         <v>3875</v>
@@ -61654,15 +61720,15 @@
         <v>1353</v>
       </c>
       <c r="M1652" t="s">
-        <v>4501</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="1653" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1653">
-        <v>1682</v>
+        <v>1686</v>
       </c>
       <c r="B1653" t="s">
-        <v>3923</v>
+        <v>3930</v>
       </c>
       <c r="C1653" t="s">
         <v>3875</v>
@@ -61677,15 +61743,15 @@
         <v>1353</v>
       </c>
       <c r="M1653" t="s">
-        <v>3924</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="1654" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1654">
-        <v>1683</v>
+        <v>1687</v>
       </c>
       <c r="B1654" t="s">
-        <v>3925</v>
+        <v>3931</v>
       </c>
       <c r="C1654" t="s">
         <v>3875</v>
@@ -61700,15 +61766,15 @@
         <v>1353</v>
       </c>
       <c r="M1654" t="s">
-        <v>3926</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="1655" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1655">
-        <v>1684</v>
+        <v>1688</v>
       </c>
       <c r="B1655" t="s">
-        <v>3927</v>
+        <v>3933</v>
       </c>
       <c r="C1655" t="s">
         <v>3875</v>
@@ -61723,15 +61789,15 @@
         <v>1353</v>
       </c>
       <c r="M1655" t="s">
-        <v>4502</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="1656" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1656">
-        <v>1685</v>
+        <v>1689</v>
       </c>
       <c r="B1656" t="s">
-        <v>3928</v>
+        <v>3935</v>
       </c>
       <c r="C1656" t="s">
         <v>3875</v>
@@ -61746,15 +61812,15 @@
         <v>1353</v>
       </c>
       <c r="M1656" t="s">
-        <v>3929</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="1657" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1657">
-        <v>1686</v>
+        <v>1690</v>
       </c>
       <c r="B1657" t="s">
-        <v>3930</v>
+        <v>3936</v>
       </c>
       <c r="C1657" t="s">
         <v>3875</v>
@@ -61769,15 +61835,15 @@
         <v>1353</v>
       </c>
       <c r="M1657" t="s">
-        <v>4503</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="1658" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1658">
-        <v>1687</v>
+        <v>1691</v>
       </c>
       <c r="B1658" t="s">
-        <v>3931</v>
+        <v>3937</v>
       </c>
       <c r="C1658" t="s">
         <v>3875</v>
@@ -61792,15 +61858,15 @@
         <v>1353</v>
       </c>
       <c r="M1658" t="s">
-        <v>3932</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="1659" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1659">
-        <v>1688</v>
+        <v>1692</v>
       </c>
       <c r="B1659" t="s">
-        <v>3933</v>
+        <v>3939</v>
       </c>
       <c r="C1659" t="s">
         <v>3875</v>
@@ -61815,15 +61881,15 @@
         <v>1353</v>
       </c>
       <c r="M1659" t="s">
-        <v>3934</v>
+        <v>4506</v>
       </c>
     </row>
     <row r="1660" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1660">
-        <v>1689</v>
+        <v>1693</v>
       </c>
       <c r="B1660" t="s">
-        <v>3935</v>
+        <v>3940</v>
       </c>
       <c r="C1660" t="s">
         <v>3875</v>
@@ -61838,15 +61904,15 @@
         <v>1353</v>
       </c>
       <c r="M1660" t="s">
-        <v>4504</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="1661" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1661">
-        <v>1690</v>
+        <v>1694</v>
       </c>
       <c r="B1661" t="s">
-        <v>3936</v>
+        <v>3941</v>
       </c>
       <c r="C1661" t="s">
         <v>3875</v>
@@ -61861,15 +61927,15 @@
         <v>1353</v>
       </c>
       <c r="M1661" t="s">
-        <v>4505</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="1662" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1662">
-        <v>1691</v>
+        <v>1695</v>
       </c>
       <c r="B1662" t="s">
-        <v>3937</v>
+        <v>3942</v>
       </c>
       <c r="C1662" t="s">
         <v>3875</v>
@@ -61884,15 +61950,15 @@
         <v>1353</v>
       </c>
       <c r="M1662" t="s">
-        <v>3938</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="1663" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1663">
-        <v>1692</v>
+        <v>1696</v>
       </c>
       <c r="B1663" t="s">
-        <v>3939</v>
+        <v>3943</v>
       </c>
       <c r="C1663" t="s">
         <v>3875</v>
@@ -61907,15 +61973,15 @@
         <v>1353</v>
       </c>
       <c r="M1663" t="s">
-        <v>4506</v>
+        <v>4510</v>
       </c>
     </row>
     <row r="1664" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1664">
-        <v>1693</v>
+        <v>1697</v>
       </c>
       <c r="B1664" t="s">
-        <v>3940</v>
+        <v>3944</v>
       </c>
       <c r="C1664" t="s">
         <v>3875</v>
@@ -61930,15 +61996,15 @@
         <v>1353</v>
       </c>
       <c r="M1664" t="s">
-        <v>4507</v>
+        <v>4511</v>
       </c>
     </row>
     <row r="1665" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1665">
-        <v>1694</v>
+        <v>1698</v>
       </c>
       <c r="B1665" t="s">
-        <v>3941</v>
+        <v>3945</v>
       </c>
       <c r="C1665" t="s">
         <v>3875</v>
@@ -61953,15 +62019,15 @@
         <v>1353</v>
       </c>
       <c r="M1665" t="s">
-        <v>4508</v>
+        <v>4512</v>
       </c>
     </row>
     <row r="1666" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1666">
-        <v>1695</v>
+        <v>1699</v>
       </c>
       <c r="B1666" t="s">
-        <v>3942</v>
+        <v>3946</v>
       </c>
       <c r="C1666" t="s">
         <v>3875</v>
@@ -61976,15 +62042,15 @@
         <v>1353</v>
       </c>
       <c r="M1666" t="s">
-        <v>4509</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="1667" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1667">
-        <v>1696</v>
+        <v>1700</v>
       </c>
       <c r="B1667" t="s">
-        <v>3943</v>
+        <v>3948</v>
       </c>
       <c r="C1667" t="s">
         <v>3875</v>
@@ -61999,15 +62065,15 @@
         <v>1353</v>
       </c>
       <c r="M1667" t="s">
-        <v>4510</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="1668" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1668">
-        <v>1697</v>
+        <v>1701</v>
       </c>
       <c r="B1668" t="s">
-        <v>3944</v>
+        <v>3950</v>
       </c>
       <c r="C1668" t="s">
         <v>3875</v>
@@ -62022,15 +62088,15 @@
         <v>1353</v>
       </c>
       <c r="M1668" t="s">
-        <v>4511</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="1669" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1669">
-        <v>1698</v>
+        <v>1702</v>
       </c>
       <c r="B1669" t="s">
-        <v>3945</v>
+        <v>3952</v>
       </c>
       <c r="C1669" t="s">
         <v>3875</v>
@@ -62045,15 +62111,15 @@
         <v>1353</v>
       </c>
       <c r="M1669" t="s">
-        <v>4512</v>
+        <v>4513</v>
       </c>
     </row>
     <row r="1670" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1670">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="B1670" t="s">
-        <v>3946</v>
+        <v>3953</v>
       </c>
       <c r="C1670" t="s">
         <v>3875</v>
@@ -62068,15 +62134,15 @@
         <v>1353</v>
       </c>
       <c r="M1670" t="s">
-        <v>3947</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="1671" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1671">
-        <v>1700</v>
+        <v>1704</v>
       </c>
       <c r="B1671" t="s">
-        <v>3948</v>
+        <v>3955</v>
       </c>
       <c r="C1671" t="s">
         <v>3875</v>
@@ -62091,15 +62157,15 @@
         <v>1353</v>
       </c>
       <c r="M1671" t="s">
-        <v>3949</v>
+        <v>3956</v>
       </c>
     </row>
     <row r="1672" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1672">
-        <v>1701</v>
+        <v>1705</v>
       </c>
       <c r="B1672" t="s">
-        <v>3950</v>
+        <v>3957</v>
       </c>
       <c r="C1672" t="s">
         <v>3875</v>
@@ -62114,15 +62180,15 @@
         <v>1353</v>
       </c>
       <c r="M1672" t="s">
-        <v>3951</v>
+        <v>4514</v>
       </c>
     </row>
     <row r="1673" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1673">
-        <v>1702</v>
+        <v>1706</v>
       </c>
       <c r="B1673" t="s">
-        <v>3952</v>
+        <v>3958</v>
       </c>
       <c r="C1673" t="s">
         <v>3875</v>
@@ -62137,15 +62203,15 @@
         <v>1353</v>
       </c>
       <c r="M1673" t="s">
-        <v>4513</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="1674" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1674">
-        <v>1703</v>
+        <v>1707</v>
       </c>
       <c r="B1674" t="s">
-        <v>3953</v>
+        <v>3960</v>
       </c>
       <c r="C1674" t="s">
         <v>3875</v>
@@ -62160,15 +62226,15 @@
         <v>1353</v>
       </c>
       <c r="M1674" t="s">
-        <v>3954</v>
+        <v>4515</v>
       </c>
     </row>
     <row r="1675" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1675">
-        <v>1704</v>
+        <v>1708</v>
       </c>
       <c r="B1675" t="s">
-        <v>3955</v>
+        <v>3961</v>
       </c>
       <c r="C1675" t="s">
         <v>3875</v>
@@ -62183,15 +62249,15 @@
         <v>1353</v>
       </c>
       <c r="M1675" t="s">
-        <v>3956</v>
+        <v>4516</v>
       </c>
     </row>
     <row r="1676" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1676">
-        <v>1705</v>
+        <v>1709</v>
       </c>
       <c r="B1676" t="s">
-        <v>3957</v>
+        <v>3962</v>
       </c>
       <c r="C1676" t="s">
         <v>3875</v>
@@ -62206,15 +62272,15 @@
         <v>1353</v>
       </c>
       <c r="M1676" t="s">
-        <v>4514</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="1677" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1677">
-        <v>1706</v>
+        <v>1710</v>
       </c>
       <c r="B1677" t="s">
-        <v>3958</v>
+        <v>3963</v>
       </c>
       <c r="C1677" t="s">
         <v>3875</v>
@@ -62229,15 +62295,15 @@
         <v>1353</v>
       </c>
       <c r="M1677" t="s">
-        <v>3959</v>
+        <v>4518</v>
       </c>
     </row>
     <row r="1678" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1678">
-        <v>1707</v>
+        <v>1711</v>
       </c>
       <c r="B1678" t="s">
-        <v>3960</v>
+        <v>3964</v>
       </c>
       <c r="C1678" t="s">
         <v>3875</v>
@@ -62252,15 +62318,15 @@
         <v>1353</v>
       </c>
       <c r="M1678" t="s">
-        <v>4515</v>
+        <v>4519</v>
       </c>
     </row>
     <row r="1679" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1679">
-        <v>1708</v>
+        <v>1712</v>
       </c>
       <c r="B1679" t="s">
-        <v>3961</v>
+        <v>3965</v>
       </c>
       <c r="C1679" t="s">
         <v>3875</v>
@@ -62275,15 +62341,15 @@
         <v>1353</v>
       </c>
       <c r="M1679" t="s">
-        <v>4516</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="1680" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1680">
-        <v>1709</v>
+        <v>1713</v>
       </c>
       <c r="B1680" t="s">
-        <v>3962</v>
+        <v>3966</v>
       </c>
       <c r="C1680" t="s">
         <v>3875</v>
@@ -62298,15 +62364,15 @@
         <v>1353</v>
       </c>
       <c r="M1680" t="s">
-        <v>4517</v>
+        <v>3967</v>
       </c>
     </row>
     <row r="1681" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1681">
-        <v>1710</v>
+        <v>1714</v>
       </c>
       <c r="B1681" t="s">
-        <v>3963</v>
+        <v>3968</v>
       </c>
       <c r="C1681" t="s">
         <v>3875</v>
@@ -62321,15 +62387,15 @@
         <v>1353</v>
       </c>
       <c r="M1681" t="s">
-        <v>4518</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="1682" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1682">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="B1682" t="s">
-        <v>3964</v>
+        <v>3969</v>
       </c>
       <c r="C1682" t="s">
         <v>3875</v>
@@ -62344,15 +62410,15 @@
         <v>1353</v>
       </c>
       <c r="M1682" t="s">
-        <v>4519</v>
+        <v>4522</v>
       </c>
     </row>
     <row r="1683" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1683">
-        <v>1712</v>
+        <v>1716</v>
       </c>
       <c r="B1683" t="s">
-        <v>3965</v>
+        <v>3970</v>
       </c>
       <c r="C1683" t="s">
         <v>3875</v>
@@ -62367,15 +62433,15 @@
         <v>1353</v>
       </c>
       <c r="M1683" t="s">
-        <v>4520</v>
+        <v>3971</v>
       </c>
     </row>
     <row r="1684" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1684">
-        <v>1713</v>
+        <v>1717</v>
       </c>
       <c r="B1684" t="s">
-        <v>3966</v>
+        <v>3972</v>
       </c>
       <c r="C1684" t="s">
         <v>3875</v>
@@ -62390,15 +62456,15 @@
         <v>1353</v>
       </c>
       <c r="M1684" t="s">
-        <v>3967</v>
+        <v>3973</v>
       </c>
     </row>
     <row r="1685" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1685">
-        <v>1714</v>
+        <v>1718</v>
       </c>
       <c r="B1685" t="s">
-        <v>3968</v>
+        <v>3974</v>
       </c>
       <c r="C1685" t="s">
         <v>3875</v>
@@ -62413,15 +62479,15 @@
         <v>1353</v>
       </c>
       <c r="M1685" t="s">
-        <v>4521</v>
+        <v>4523</v>
       </c>
     </row>
     <row r="1686" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1686">
-        <v>1715</v>
+        <v>1719</v>
       </c>
       <c r="B1686" t="s">
-        <v>3969</v>
+        <v>3975</v>
       </c>
       <c r="C1686" t="s">
         <v>3875</v>
@@ -62436,15 +62502,15 @@
         <v>1353</v>
       </c>
       <c r="M1686" t="s">
-        <v>4522</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="1687" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1687">
-        <v>1716</v>
+        <v>1720</v>
       </c>
       <c r="B1687" t="s">
-        <v>3970</v>
+        <v>3977</v>
       </c>
       <c r="C1687" t="s">
         <v>3875</v>
@@ -62459,15 +62525,15 @@
         <v>1353</v>
       </c>
       <c r="M1687" t="s">
-        <v>3971</v>
+        <v>4524</v>
       </c>
     </row>
     <row r="1688" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1688">
-        <v>1717</v>
+        <v>1721</v>
       </c>
       <c r="B1688" t="s">
-        <v>3972</v>
+        <v>3978</v>
       </c>
       <c r="C1688" t="s">
         <v>3875</v>
@@ -62482,15 +62548,15 @@
         <v>1353</v>
       </c>
       <c r="M1688" t="s">
-        <v>3973</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="1689" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1689">
-        <v>1718</v>
+        <v>1722</v>
       </c>
       <c r="B1689" t="s">
-        <v>3974</v>
+        <v>3979</v>
       </c>
       <c r="C1689" t="s">
         <v>3875</v>
@@ -62505,15 +62571,15 @@
         <v>1353</v>
       </c>
       <c r="M1689" t="s">
-        <v>4523</v>
+        <v>4526</v>
       </c>
     </row>
     <row r="1690" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1690">
-        <v>1719</v>
+        <v>1723</v>
       </c>
       <c r="B1690" t="s">
-        <v>3975</v>
+        <v>3980</v>
       </c>
       <c r="C1690" t="s">
         <v>3875</v>
@@ -62528,15 +62594,15 @@
         <v>1353</v>
       </c>
       <c r="M1690" t="s">
-        <v>3976</v>
+        <v>4527</v>
       </c>
     </row>
     <row r="1691" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1691">
-        <v>1720</v>
+        <v>1724</v>
       </c>
       <c r="B1691" t="s">
-        <v>3977</v>
+        <v>3981</v>
       </c>
       <c r="C1691" t="s">
         <v>3875</v>
@@ -62551,15 +62617,15 @@
         <v>1353</v>
       </c>
       <c r="M1691" t="s">
-        <v>4524</v>
+        <v>4528</v>
       </c>
     </row>
     <row r="1692" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1692">
-        <v>1721</v>
+        <v>1725</v>
       </c>
       <c r="B1692" t="s">
-        <v>3978</v>
+        <v>3982</v>
       </c>
       <c r="C1692" t="s">
         <v>3875</v>
@@ -62574,15 +62640,15 @@
         <v>1353</v>
       </c>
       <c r="M1692" t="s">
-        <v>4525</v>
+        <v>3983</v>
       </c>
     </row>
     <row r="1693" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1693">
-        <v>1722</v>
+        <v>1726</v>
       </c>
       <c r="B1693" t="s">
-        <v>3979</v>
+        <v>3984</v>
       </c>
       <c r="C1693" t="s">
         <v>3875</v>
@@ -62597,15 +62663,15 @@
         <v>1353</v>
       </c>
       <c r="M1693" t="s">
-        <v>4526</v>
+        <v>4529</v>
       </c>
     </row>
     <row r="1694" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1694">
-        <v>1723</v>
+        <v>1727</v>
       </c>
       <c r="B1694" t="s">
-        <v>3980</v>
+        <v>3985</v>
       </c>
       <c r="C1694" t="s">
         <v>3875</v>
@@ -62620,15 +62686,15 @@
         <v>1353</v>
       </c>
       <c r="M1694" t="s">
-        <v>4527</v>
+        <v>3986</v>
       </c>
     </row>
     <row r="1695" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1695">
-        <v>1724</v>
+        <v>1728</v>
       </c>
       <c r="B1695" t="s">
-        <v>3981</v>
+        <v>3987</v>
       </c>
       <c r="C1695" t="s">
         <v>3875</v>
@@ -62643,15 +62709,15 @@
         <v>1353</v>
       </c>
       <c r="M1695" t="s">
-        <v>4528</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="1696" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1696">
-        <v>1725</v>
+        <v>1729</v>
       </c>
       <c r="B1696" t="s">
-        <v>3982</v>
+        <v>3988</v>
       </c>
       <c r="C1696" t="s">
         <v>3875</v>
@@ -62666,15 +62732,15 @@
         <v>1353</v>
       </c>
       <c r="M1696" t="s">
-        <v>3983</v>
+        <v>3989</v>
       </c>
     </row>
     <row r="1697" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1697">
-        <v>1726</v>
+        <v>1730</v>
       </c>
       <c r="B1697" t="s">
-        <v>3984</v>
+        <v>3990</v>
       </c>
       <c r="C1697" t="s">
         <v>3875</v>
@@ -62689,15 +62755,15 @@
         <v>1353</v>
       </c>
       <c r="M1697" t="s">
-        <v>4529</v>
+        <v>3991</v>
       </c>
     </row>
     <row r="1698" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1698">
-        <v>1727</v>
+        <v>1731</v>
       </c>
       <c r="B1698" t="s">
-        <v>3985</v>
+        <v>3992</v>
       </c>
       <c r="C1698" t="s">
         <v>3875</v>
@@ -62712,15 +62778,15 @@
         <v>1353</v>
       </c>
       <c r="M1698" t="s">
-        <v>3986</v>
+        <v>4531</v>
       </c>
     </row>
     <row r="1699" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1699">
-        <v>1728</v>
+        <v>1732</v>
       </c>
       <c r="B1699" t="s">
-        <v>3987</v>
+        <v>3993</v>
       </c>
       <c r="C1699" t="s">
         <v>3875</v>
@@ -62735,15 +62801,15 @@
         <v>1353</v>
       </c>
       <c r="M1699" t="s">
-        <v>4530</v>
+        <v>4532</v>
       </c>
     </row>
     <row r="1700" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1700">
-        <v>1729</v>
+        <v>1733</v>
       </c>
       <c r="B1700" t="s">
-        <v>3988</v>
+        <v>3994</v>
       </c>
       <c r="C1700" t="s">
         <v>3875</v>
@@ -62758,15 +62824,15 @@
         <v>1353</v>
       </c>
       <c r="M1700" t="s">
-        <v>3989</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="1701" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1701">
-        <v>1730</v>
+        <v>1734</v>
       </c>
       <c r="B1701" t="s">
-        <v>3990</v>
+        <v>3996</v>
       </c>
       <c r="C1701" t="s">
         <v>3875</v>
@@ -62781,15 +62847,15 @@
         <v>1353</v>
       </c>
       <c r="M1701" t="s">
-        <v>3991</v>
+        <v>3997</v>
       </c>
     </row>
     <row r="1702" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1702">
-        <v>1731</v>
+        <v>1735</v>
       </c>
       <c r="B1702" t="s">
-        <v>3992</v>
+        <v>3998</v>
       </c>
       <c r="C1702" t="s">
         <v>3875</v>
@@ -62804,15 +62870,15 @@
         <v>1353</v>
       </c>
       <c r="M1702" t="s">
-        <v>4531</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="1703" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1703">
-        <v>1732</v>
+        <v>1736</v>
       </c>
       <c r="B1703" t="s">
-        <v>3993</v>
+        <v>3999</v>
       </c>
       <c r="C1703" t="s">
         <v>3875</v>
@@ -62827,15 +62893,15 @@
         <v>1353</v>
       </c>
       <c r="M1703" t="s">
-        <v>4532</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="1704" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1704">
-        <v>1733</v>
+        <v>1737</v>
       </c>
       <c r="B1704" t="s">
-        <v>3994</v>
+        <v>4001</v>
       </c>
       <c r="C1704" t="s">
         <v>3875</v>
@@ -62850,15 +62916,15 @@
         <v>1353</v>
       </c>
       <c r="M1704" t="s">
-        <v>3995</v>
+        <v>4534</v>
       </c>
     </row>
     <row r="1705" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1705">
-        <v>1734</v>
+        <v>1738</v>
       </c>
       <c r="B1705" t="s">
-        <v>3996</v>
+        <v>4002</v>
       </c>
       <c r="C1705" t="s">
         <v>3875</v>
@@ -62873,15 +62939,15 @@
         <v>1353</v>
       </c>
       <c r="M1705" t="s">
-        <v>3997</v>
+        <v>4535</v>
       </c>
     </row>
     <row r="1706" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1706">
-        <v>1735</v>
+        <v>1739</v>
       </c>
       <c r="B1706" t="s">
-        <v>3998</v>
+        <v>4003</v>
       </c>
       <c r="C1706" t="s">
         <v>3875</v>
@@ -62896,15 +62962,15 @@
         <v>1353</v>
       </c>
       <c r="M1706" t="s">
-        <v>4533</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="1707" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1707">
-        <v>1736</v>
+        <v>1740</v>
       </c>
       <c r="B1707" t="s">
-        <v>3999</v>
+        <v>4004</v>
       </c>
       <c r="C1707" t="s">
         <v>3875</v>
@@ -62919,15 +62985,15 @@
         <v>1353</v>
       </c>
       <c r="M1707" t="s">
-        <v>4000</v>
+        <v>4537</v>
       </c>
     </row>
     <row r="1708" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1708">
-        <v>1737</v>
+        <v>1741</v>
       </c>
       <c r="B1708" t="s">
-        <v>4001</v>
+        <v>4005</v>
       </c>
       <c r="C1708" t="s">
         <v>3875</v>
@@ -62942,15 +63008,15 @@
         <v>1353</v>
       </c>
       <c r="M1708" t="s">
-        <v>4534</v>
+        <v>4538</v>
       </c>
     </row>
     <row r="1709" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1709">
-        <v>1738</v>
+        <v>1742</v>
       </c>
       <c r="B1709" t="s">
-        <v>4002</v>
+        <v>4006</v>
       </c>
       <c r="C1709" t="s">
         <v>3875</v>
@@ -62965,15 +63031,15 @@
         <v>1353</v>
       </c>
       <c r="M1709" t="s">
-        <v>4535</v>
+        <v>4539</v>
       </c>
     </row>
     <row r="1710" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1710">
-        <v>1739</v>
+        <v>1743</v>
       </c>
       <c r="B1710" t="s">
-        <v>4003</v>
+        <v>4007</v>
       </c>
       <c r="C1710" t="s">
         <v>3875</v>
@@ -62988,15 +63054,15 @@
         <v>1353</v>
       </c>
       <c r="M1710" t="s">
-        <v>4536</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="1711" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1711">
-        <v>1740</v>
+        <v>1744</v>
       </c>
       <c r="B1711" t="s">
-        <v>4004</v>
+        <v>4009</v>
       </c>
       <c r="C1711" t="s">
         <v>3875</v>
@@ -63011,15 +63077,15 @@
         <v>1353</v>
       </c>
       <c r="M1711" t="s">
-        <v>4537</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="1712" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1712">
-        <v>1741</v>
+        <v>1745</v>
       </c>
       <c r="B1712" t="s">
-        <v>4005</v>
+        <v>4010</v>
       </c>
       <c r="C1712" t="s">
         <v>3875</v>
@@ -63034,15 +63100,15 @@
         <v>1353</v>
       </c>
       <c r="M1712" t="s">
-        <v>4538</v>
+        <v>4541</v>
       </c>
     </row>
     <row r="1713" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1713">
-        <v>1742</v>
+        <v>1746</v>
       </c>
       <c r="B1713" t="s">
-        <v>4006</v>
+        <v>4011</v>
       </c>
       <c r="C1713" t="s">
         <v>3875</v>
@@ -63057,15 +63123,15 @@
         <v>1353</v>
       </c>
       <c r="M1713" t="s">
-        <v>4539</v>
+        <v>4012</v>
       </c>
     </row>
     <row r="1714" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1714">
-        <v>1743</v>
+        <v>1747</v>
       </c>
       <c r="B1714" t="s">
-        <v>4007</v>
+        <v>4013</v>
       </c>
       <c r="C1714" t="s">
         <v>3875</v>
@@ -63080,15 +63146,15 @@
         <v>1353</v>
       </c>
       <c r="M1714" t="s">
-        <v>4008</v>
+        <v>4542</v>
       </c>
     </row>
     <row r="1715" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1715">
-        <v>1744</v>
+        <v>1748</v>
       </c>
       <c r="B1715" t="s">
-        <v>4009</v>
+        <v>4014</v>
       </c>
       <c r="C1715" t="s">
         <v>3875</v>
@@ -63103,15 +63169,15 @@
         <v>1353</v>
       </c>
       <c r="M1715" t="s">
-        <v>4540</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="1716" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1716">
-        <v>1745</v>
+        <v>1749</v>
       </c>
       <c r="B1716" t="s">
-        <v>4010</v>
+        <v>4016</v>
       </c>
       <c r="C1716" t="s">
         <v>3875</v>
@@ -63126,15 +63192,15 @@
         <v>1353</v>
       </c>
       <c r="M1716" t="s">
-        <v>4541</v>
+        <v>4017</v>
       </c>
     </row>
     <row r="1717" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1717">
-        <v>1746</v>
+        <v>1750</v>
       </c>
       <c r="B1717" t="s">
-        <v>4011</v>
+        <v>4018</v>
       </c>
       <c r="C1717" t="s">
         <v>3875</v>
@@ -63149,15 +63215,15 @@
         <v>1353</v>
       </c>
       <c r="M1717" t="s">
-        <v>4012</v>
+        <v>4543</v>
       </c>
     </row>
     <row r="1718" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1718">
-        <v>1747</v>
+        <v>1751</v>
       </c>
       <c r="B1718" t="s">
-        <v>4013</v>
+        <v>4019</v>
       </c>
       <c r="C1718" t="s">
         <v>3875</v>
@@ -63172,15 +63238,15 @@
         <v>1353</v>
       </c>
       <c r="M1718" t="s">
-        <v>4542</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="1719" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1719">
-        <v>1748</v>
+        <v>1752</v>
       </c>
       <c r="B1719" t="s">
-        <v>4014</v>
+        <v>4021</v>
       </c>
       <c r="C1719" t="s">
         <v>3875</v>
@@ -63195,15 +63261,15 @@
         <v>1353</v>
       </c>
       <c r="M1719" t="s">
-        <v>4015</v>
+        <v>4544</v>
       </c>
     </row>
     <row r="1720" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1720">
-        <v>1749</v>
+        <v>1753</v>
       </c>
       <c r="B1720" t="s">
-        <v>4016</v>
+        <v>4022</v>
       </c>
       <c r="C1720" t="s">
         <v>3875</v>
@@ -63218,15 +63284,15 @@
         <v>1353</v>
       </c>
       <c r="M1720" t="s">
-        <v>4017</v>
+        <v>4545</v>
       </c>
     </row>
     <row r="1721" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1721">
-        <v>1750</v>
+        <v>1754</v>
       </c>
       <c r="B1721" t="s">
-        <v>4018</v>
+        <v>4023</v>
       </c>
       <c r="C1721" t="s">
         <v>3875</v>
@@ -63241,15 +63307,15 @@
         <v>1353</v>
       </c>
       <c r="M1721" t="s">
-        <v>4543</v>
+        <v>4546</v>
       </c>
     </row>
     <row r="1722" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1722">
-        <v>1751</v>
+        <v>1755</v>
       </c>
       <c r="B1722" t="s">
-        <v>4019</v>
+        <v>4024</v>
       </c>
       <c r="C1722" t="s">
         <v>3875</v>
@@ -63264,15 +63330,15 @@
         <v>1353</v>
       </c>
       <c r="M1722" t="s">
-        <v>4020</v>
+        <v>4547</v>
       </c>
     </row>
     <row r="1723" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1723">
-        <v>1752</v>
+        <v>1756</v>
       </c>
       <c r="B1723" t="s">
-        <v>4021</v>
+        <v>4025</v>
       </c>
       <c r="C1723" t="s">
         <v>3875</v>
@@ -63287,15 +63353,15 @@
         <v>1353</v>
       </c>
       <c r="M1723" t="s">
-        <v>4544</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="1724" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1724">
-        <v>1753</v>
+        <v>1757</v>
       </c>
       <c r="B1724" t="s">
-        <v>4022</v>
+        <v>4026</v>
       </c>
       <c r="C1724" t="s">
         <v>3875</v>
@@ -63310,15 +63376,15 @@
         <v>1353</v>
       </c>
       <c r="M1724" t="s">
-        <v>4545</v>
+        <v>4027</v>
       </c>
     </row>
     <row r="1725" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1725">
-        <v>1754</v>
+        <v>1758</v>
       </c>
       <c r="B1725" t="s">
-        <v>4023</v>
+        <v>4028</v>
       </c>
       <c r="C1725" t="s">
         <v>3875</v>
@@ -63333,15 +63399,15 @@
         <v>1353</v>
       </c>
       <c r="M1725" t="s">
-        <v>4546</v>
+        <v>4549</v>
       </c>
     </row>
     <row r="1726" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1726">
-        <v>1755</v>
+        <v>1759</v>
       </c>
       <c r="B1726" t="s">
-        <v>4024</v>
+        <v>4029</v>
       </c>
       <c r="C1726" t="s">
         <v>3875</v>
@@ -63356,15 +63422,15 @@
         <v>1353</v>
       </c>
       <c r="M1726" t="s">
-        <v>4547</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="1727" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1727">
-        <v>1756</v>
+        <v>1760</v>
       </c>
       <c r="B1727" t="s">
-        <v>4025</v>
+        <v>4030</v>
       </c>
       <c r="C1727" t="s">
         <v>3875</v>
@@ -63379,15 +63445,15 @@
         <v>1353</v>
       </c>
       <c r="M1727" t="s">
-        <v>4548</v>
+        <v>4031</v>
       </c>
     </row>
     <row r="1728" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1728">
-        <v>1757</v>
+        <v>1761</v>
       </c>
       <c r="B1728" t="s">
-        <v>4026</v>
+        <v>4032</v>
       </c>
       <c r="C1728" t="s">
         <v>3875</v>
@@ -63402,15 +63468,15 @@
         <v>1353</v>
       </c>
       <c r="M1728" t="s">
-        <v>4027</v>
+        <v>4033</v>
       </c>
     </row>
     <row r="1729" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1729">
-        <v>1758</v>
+        <v>1762</v>
       </c>
       <c r="B1729" t="s">
-        <v>4028</v>
+        <v>4034</v>
       </c>
       <c r="C1729" t="s">
         <v>3875</v>
@@ -63425,15 +63491,15 @@
         <v>1353</v>
       </c>
       <c r="M1729" t="s">
-        <v>4549</v>
+        <v>4035</v>
       </c>
     </row>
     <row r="1730" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1730">
-        <v>1759</v>
+        <v>1763</v>
       </c>
       <c r="B1730" t="s">
-        <v>4029</v>
+        <v>4036</v>
       </c>
       <c r="C1730" t="s">
         <v>3875</v>
@@ -63448,15 +63514,15 @@
         <v>1353</v>
       </c>
       <c r="M1730" t="s">
-        <v>4550</v>
+        <v>4037</v>
       </c>
     </row>
     <row r="1731" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1731">
-        <v>1760</v>
+        <v>1764</v>
       </c>
       <c r="B1731" t="s">
-        <v>4030</v>
+        <v>4038</v>
       </c>
       <c r="C1731" t="s">
         <v>3875</v>
@@ -63471,15 +63537,15 @@
         <v>1353</v>
       </c>
       <c r="M1731" t="s">
-        <v>4031</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="1732" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1732">
-        <v>1761</v>
+        <v>1765</v>
       </c>
       <c r="B1732" t="s">
-        <v>4032</v>
+        <v>4039</v>
       </c>
       <c r="C1732" t="s">
         <v>3875</v>
@@ -63494,15 +63560,15 @@
         <v>1353</v>
       </c>
       <c r="M1732" t="s">
-        <v>4033</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="1733" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1733">
-        <v>1762</v>
+        <v>1766</v>
       </c>
       <c r="B1733" t="s">
-        <v>4034</v>
+        <v>4041</v>
       </c>
       <c r="C1733" t="s">
         <v>3875</v>
@@ -63517,15 +63583,15 @@
         <v>1353</v>
       </c>
       <c r="M1733" t="s">
-        <v>4035</v>
+        <v>4042</v>
       </c>
     </row>
     <row r="1734" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1734">
-        <v>1763</v>
+        <v>1767</v>
       </c>
       <c r="B1734" t="s">
-        <v>4036</v>
+        <v>4043</v>
       </c>
       <c r="C1734" t="s">
         <v>3875</v>
@@ -63540,15 +63606,15 @@
         <v>1353</v>
       </c>
       <c r="M1734" t="s">
-        <v>4037</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="1735" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1735">
-        <v>1764</v>
+        <v>1768</v>
       </c>
       <c r="B1735" t="s">
-        <v>4038</v>
+        <v>4044</v>
       </c>
       <c r="C1735" t="s">
         <v>3875</v>
@@ -63563,15 +63629,15 @@
         <v>1353</v>
       </c>
       <c r="M1735" t="s">
-        <v>4551</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="1736" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1736">
-        <v>1765</v>
+        <v>1769</v>
       </c>
       <c r="B1736" t="s">
-        <v>4039</v>
+        <v>4046</v>
       </c>
       <c r="C1736" t="s">
         <v>3875</v>
@@ -63586,15 +63652,15 @@
         <v>1353</v>
       </c>
       <c r="M1736" t="s">
-        <v>4040</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="1737" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1737">
-        <v>1766</v>
+        <v>1770</v>
       </c>
       <c r="B1737" t="s">
-        <v>4041</v>
+        <v>4047</v>
       </c>
       <c r="C1737" t="s">
         <v>3875</v>
@@ -63609,15 +63675,15 @@
         <v>1353</v>
       </c>
       <c r="M1737" t="s">
-        <v>4042</v>
+        <v>4048</v>
       </c>
     </row>
     <row r="1738" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1738">
-        <v>1767</v>
+        <v>1771</v>
       </c>
       <c r="B1738" t="s">
-        <v>4043</v>
+        <v>4049</v>
       </c>
       <c r="C1738" t="s">
         <v>3875</v>
@@ -63632,15 +63698,15 @@
         <v>1353</v>
       </c>
       <c r="M1738" t="s">
-        <v>4552</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="1739" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1739">
-        <v>1768</v>
+        <v>1772</v>
       </c>
       <c r="B1739" t="s">
-        <v>4044</v>
+        <v>4051</v>
       </c>
       <c r="C1739" t="s">
         <v>3875</v>
@@ -63655,15 +63721,15 @@
         <v>1353</v>
       </c>
       <c r="M1739" t="s">
-        <v>4045</v>
+        <v>4052</v>
       </c>
     </row>
     <row r="1740" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1740">
-        <v>1769</v>
+        <v>1773</v>
       </c>
       <c r="B1740" t="s">
-        <v>4046</v>
+        <v>4053</v>
       </c>
       <c r="C1740" t="s">
         <v>3875</v>
@@ -63678,15 +63744,15 @@
         <v>1353</v>
       </c>
       <c r="M1740" t="s">
-        <v>4553</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="1741" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1741">
-        <v>1770</v>
+        <v>1774</v>
       </c>
       <c r="B1741" t="s">
-        <v>4047</v>
+        <v>4054</v>
       </c>
       <c r="C1741" t="s">
         <v>3875</v>
@@ -63701,15 +63767,15 @@
         <v>1353</v>
       </c>
       <c r="M1741" t="s">
-        <v>4048</v>
+        <v>4555</v>
       </c>
     </row>
     <row r="1742" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1742">
-        <v>1771</v>
+        <v>1775</v>
       </c>
       <c r="B1742" t="s">
-        <v>4049</v>
+        <v>4055</v>
       </c>
       <c r="C1742" t="s">
         <v>3875</v>
@@ -63724,15 +63790,15 @@
         <v>1353</v>
       </c>
       <c r="M1742" t="s">
-        <v>4050</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="1743" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1743">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="B1743" t="s">
-        <v>4051</v>
+        <v>4056</v>
       </c>
       <c r="C1743" t="s">
         <v>3875</v>
@@ -63747,15 +63813,15 @@
         <v>1353</v>
       </c>
       <c r="M1743" t="s">
-        <v>4052</v>
+        <v>4557</v>
       </c>
     </row>
     <row r="1744" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1744">
-        <v>1773</v>
+        <v>1777</v>
       </c>
       <c r="B1744" t="s">
-        <v>4053</v>
+        <v>4057</v>
       </c>
       <c r="C1744" t="s">
         <v>3875</v>
@@ -63770,15 +63836,15 @@
         <v>1353</v>
       </c>
       <c r="M1744" t="s">
-        <v>4554</v>
+        <v>4558</v>
       </c>
     </row>
     <row r="1745" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1745">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="B1745" t="s">
-        <v>4054</v>
+        <v>4058</v>
       </c>
       <c r="C1745" t="s">
         <v>3875</v>
@@ -63793,15 +63859,15 @@
         <v>1353</v>
       </c>
       <c r="M1745" t="s">
-        <v>4555</v>
+        <v>4059</v>
       </c>
     </row>
     <row r="1746" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1746">
-        <v>1775</v>
+        <v>1779</v>
       </c>
       <c r="B1746" t="s">
-        <v>4055</v>
+        <v>4060</v>
       </c>
       <c r="C1746" t="s">
         <v>3875</v>
@@ -63816,15 +63882,15 @@
         <v>1353</v>
       </c>
       <c r="M1746" t="s">
-        <v>4556</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="1747" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1747">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="B1747" t="s">
-        <v>4056</v>
+        <v>4061</v>
       </c>
       <c r="C1747" t="s">
         <v>3875</v>
@@ -63839,103 +63905,11 @@
         <v>1353</v>
       </c>
       <c r="M1747" t="s">
-        <v>4557</v>
-      </c>
-    </row>
-    <row r="1748" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1748">
-        <v>1777</v>
-      </c>
-      <c r="B1748" t="s">
-        <v>4057</v>
-      </c>
-      <c r="C1748" t="s">
-        <v>3875</v>
-      </c>
-      <c r="D1748">
-        <v>68000</v>
-      </c>
-      <c r="E1748" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1748" t="s">
-        <v>1353</v>
-      </c>
-      <c r="M1748" t="s">
-        <v>4558</v>
-      </c>
-    </row>
-    <row r="1749" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1749">
-        <v>1778</v>
-      </c>
-      <c r="B1749" t="s">
-        <v>4058</v>
-      </c>
-      <c r="C1749" t="s">
-        <v>3875</v>
-      </c>
-      <c r="D1749">
-        <v>68000</v>
-      </c>
-      <c r="E1749" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1749" t="s">
-        <v>1353</v>
-      </c>
-      <c r="M1749" t="s">
-        <v>4059</v>
-      </c>
-    </row>
-    <row r="1750" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1750">
-        <v>1779</v>
-      </c>
-      <c r="B1750" t="s">
-        <v>4060</v>
-      </c>
-      <c r="C1750" t="s">
-        <v>3875</v>
-      </c>
-      <c r="D1750">
-        <v>68000</v>
-      </c>
-      <c r="E1750" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1750" t="s">
-        <v>1353</v>
-      </c>
-      <c r="M1750" t="s">
-        <v>4559</v>
-      </c>
-    </row>
-    <row r="1751" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1751">
-        <v>1780</v>
-      </c>
-      <c r="B1751" t="s">
-        <v>4061</v>
-      </c>
-      <c r="C1751" t="s">
-        <v>3875</v>
-      </c>
-      <c r="D1751">
-        <v>68000</v>
-      </c>
-      <c r="E1751" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1751" t="s">
-        <v>1353</v>
-      </c>
-      <c r="M1751" t="s">
         <v>4062</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1751"/>
+  <autoFilter ref="A1:M1747"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -63943,10 +63917,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -64056,6 +64030,32 @@
         <v>2067</v>
       </c>
     </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3837</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3833</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1236</v>
+      </c>
+      <c r="I5" t="s">
+        <v>333</v>
+      </c>
+      <c r="M5" t="s">
+        <v>3838</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/0.36/compatibility.xlsx
+++ b/0.36/compatibility.xlsx
@@ -17,8 +17,8 @@
     <sheet name="GAME_NOT_WORKING FLAG" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ALL!$A$1:$M$1737</definedName>
-    <definedName name="LIST" localSheetId="1">ALL!$B$1:$M$1737</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ALL!$A$1:$M$1736</definedName>
+    <definedName name="LIST" localSheetId="1">ALL!$B$1:$M$1736</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -14078,10 +14078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P307"/>
+  <dimension ref="A1:P308"/>
   <sheetViews>
     <sheetView topLeftCell="A288" workbookViewId="0">
-      <selection activeCell="A301" sqref="A301:A307"/>
+      <selection activeCell="A306" sqref="A306:A308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21025,6 +21025,29 @@
         <v>2470</v>
       </c>
     </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>308</v>
+      </c>
+      <c r="B308" t="s">
+        <v>3839</v>
+      </c>
+      <c r="C308" t="s">
+        <v>3840</v>
+      </c>
+      <c r="D308" t="s">
+        <v>14</v>
+      </c>
+      <c r="E308" t="s">
+        <v>14</v>
+      </c>
+      <c r="H308" t="s">
+        <v>349</v>
+      </c>
+      <c r="M308" t="s">
+        <v>3841</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -21033,10 +21056,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1737"/>
+  <dimension ref="A1:M1736"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1007" sqref="G1007"/>
+    <sheetView tabSelected="1" topLeftCell="A1346" workbookViewId="0">
+      <selection activeCell="F1609" sqref="F1609"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -60777,73 +60800,73 @@
     </row>
     <row r="1601" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1601">
-        <v>1642</v>
+        <v>1645</v>
       </c>
       <c r="B1601" t="s">
-        <v>3839</v>
+        <v>3848</v>
       </c>
       <c r="C1601" t="s">
-        <v>3840</v>
-      </c>
-      <c r="D1601" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1601" t="s">
-        <v>14</v>
+        <v>3849</v>
+      </c>
+      <c r="D1601">
+        <v>8080</v>
       </c>
       <c r="H1601" t="s">
-        <v>349</v>
+        <v>406</v>
       </c>
       <c r="M1601" t="s">
-        <v>3841</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="1602" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1602">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="B1602" t="s">
-        <v>3848</v>
+        <v>3851</v>
       </c>
       <c r="C1602" t="s">
-        <v>3849</v>
-      </c>
-      <c r="D1602">
-        <v>8080</v>
+        <v>3852</v>
+      </c>
+      <c r="D1602" t="s">
+        <v>1105</v>
       </c>
       <c r="H1602" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
       <c r="M1602" t="s">
-        <v>3850</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="1603" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1603">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="B1603" t="s">
-        <v>3851</v>
+        <v>3854</v>
       </c>
       <c r="C1603" t="s">
-        <v>3852</v>
+        <v>3855</v>
       </c>
       <c r="D1603" t="s">
-        <v>1105</v>
+        <v>14</v>
+      </c>
+      <c r="E1603" t="s">
+        <v>154</v>
       </c>
       <c r="H1603" t="s">
         <v>336</v>
       </c>
       <c r="M1603" t="s">
-        <v>3853</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="1604" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1604">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="B1604" t="s">
-        <v>3854</v>
+        <v>3857</v>
       </c>
       <c r="C1604" t="s">
         <v>3855</v>
@@ -60858,141 +60881,141 @@
         <v>336</v>
       </c>
       <c r="M1604" t="s">
-        <v>3856</v>
+        <v>3858</v>
       </c>
     </row>
     <row r="1605" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1605">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="B1605" t="s">
-        <v>3857</v>
+        <v>3859</v>
       </c>
       <c r="C1605" t="s">
-        <v>3855</v>
+        <v>3860</v>
       </c>
       <c r="D1605" t="s">
-        <v>14</v>
+        <v>3861</v>
       </c>
       <c r="E1605" t="s">
-        <v>154</v>
+        <v>725</v>
       </c>
       <c r="H1605" t="s">
-        <v>336</v>
+        <v>2070</v>
       </c>
       <c r="M1605" t="s">
-        <v>3858</v>
+        <v>3862</v>
       </c>
     </row>
     <row r="1606" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1606">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="B1606" t="s">
-        <v>3859</v>
+        <v>3863</v>
       </c>
       <c r="C1606" t="s">
-        <v>3860</v>
-      </c>
-      <c r="D1606" t="s">
-        <v>3861</v>
-      </c>
-      <c r="E1606" t="s">
-        <v>725</v>
+        <v>3864</v>
+      </c>
+      <c r="D1606">
+        <v>68000</v>
       </c>
       <c r="H1606" t="s">
-        <v>2070</v>
+        <v>2375</v>
       </c>
       <c r="M1606" t="s">
-        <v>3862</v>
+        <v>3865</v>
       </c>
     </row>
     <row r="1607" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1607">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="B1607" t="s">
-        <v>3863</v>
+        <v>3866</v>
       </c>
       <c r="C1607" t="s">
-        <v>3864</v>
+        <v>3867</v>
       </c>
       <c r="D1607">
         <v>68000</v>
       </c>
+      <c r="E1607" t="s">
+        <v>154</v>
+      </c>
       <c r="H1607" t="s">
-        <v>2375</v>
+        <v>1236</v>
       </c>
       <c r="M1607" t="s">
-        <v>3865</v>
+        <v>3868</v>
       </c>
     </row>
     <row r="1608" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1608">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="B1608" t="s">
-        <v>3866</v>
+        <v>3869</v>
       </c>
       <c r="C1608" t="s">
-        <v>3867</v>
-      </c>
-      <c r="D1608">
-        <v>68000</v>
-      </c>
-      <c r="E1608" t="s">
-        <v>154</v>
+        <v>3870</v>
+      </c>
+      <c r="D1608" t="s">
+        <v>405</v>
       </c>
       <c r="H1608" t="s">
-        <v>1236</v>
+        <v>71</v>
       </c>
       <c r="M1608" t="s">
-        <v>3868</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="1609" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1609">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="B1609" t="s">
-        <v>3869</v>
+        <v>3872</v>
       </c>
       <c r="C1609" t="s">
-        <v>3870</v>
+        <v>3873</v>
       </c>
       <c r="D1609" t="s">
-        <v>405</v>
-      </c>
-      <c r="H1609" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="M1609" t="s">
-        <v>3871</v>
+        <v>4493</v>
       </c>
     </row>
     <row r="1610" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1610">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="B1610" t="s">
-        <v>3872</v>
+        <v>3874</v>
       </c>
       <c r="C1610" t="s">
-        <v>3873</v>
-      </c>
-      <c r="D1610" t="s">
-        <v>14</v>
+        <v>3875</v>
+      </c>
+      <c r="D1610">
+        <v>68000</v>
+      </c>
+      <c r="E1610" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1610" t="s">
+        <v>1353</v>
       </c>
       <c r="M1610" t="s">
-        <v>4493</v>
+        <v>3876</v>
       </c>
     </row>
     <row r="1611" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1611">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="B1611" t="s">
-        <v>3874</v>
+        <v>3877</v>
       </c>
       <c r="C1611" t="s">
         <v>3875</v>
@@ -61007,15 +61030,15 @@
         <v>1353</v>
       </c>
       <c r="M1611" t="s">
-        <v>3876</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="1612" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1612">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="B1612" t="s">
-        <v>3877</v>
+        <v>3878</v>
       </c>
       <c r="C1612" t="s">
         <v>3875</v>
@@ -61030,15 +61053,15 @@
         <v>1353</v>
       </c>
       <c r="M1612" t="s">
-        <v>4494</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="1613" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1613">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="B1613" t="s">
-        <v>3878</v>
+        <v>3880</v>
       </c>
       <c r="C1613" t="s">
         <v>3875</v>
@@ -61053,15 +61076,15 @@
         <v>1353</v>
       </c>
       <c r="M1613" t="s">
-        <v>3879</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="1614" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1614">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="B1614" t="s">
-        <v>3880</v>
+        <v>3882</v>
       </c>
       <c r="C1614" t="s">
         <v>3875</v>
@@ -61076,15 +61099,15 @@
         <v>1353</v>
       </c>
       <c r="M1614" t="s">
-        <v>3881</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="1615" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1615">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="B1615" t="s">
-        <v>3882</v>
+        <v>3884</v>
       </c>
       <c r="C1615" t="s">
         <v>3875</v>
@@ -61099,15 +61122,15 @@
         <v>1353</v>
       </c>
       <c r="M1615" t="s">
-        <v>3883</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="1616" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1616">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="B1616" t="s">
-        <v>3884</v>
+        <v>3886</v>
       </c>
       <c r="C1616" t="s">
         <v>3875</v>
@@ -61122,15 +61145,15 @@
         <v>1353</v>
       </c>
       <c r="M1616" t="s">
-        <v>3885</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="1617" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1617">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="B1617" t="s">
-        <v>3886</v>
+        <v>3888</v>
       </c>
       <c r="C1617" t="s">
         <v>3875</v>
@@ -61145,15 +61168,15 @@
         <v>1353</v>
       </c>
       <c r="M1617" t="s">
-        <v>3887</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="1618" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1618">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="B1618" t="s">
-        <v>3888</v>
+        <v>3889</v>
       </c>
       <c r="C1618" t="s">
         <v>3875</v>
@@ -61168,15 +61191,15 @@
         <v>1353</v>
       </c>
       <c r="M1618" t="s">
-        <v>4495</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="1619" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1619">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="B1619" t="s">
-        <v>3889</v>
+        <v>3891</v>
       </c>
       <c r="C1619" t="s">
         <v>3875</v>
@@ -61191,15 +61214,15 @@
         <v>1353</v>
       </c>
       <c r="M1619" t="s">
-        <v>3890</v>
+        <v>3892</v>
       </c>
     </row>
     <row r="1620" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1620">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B1620" t="s">
-        <v>3891</v>
+        <v>3893</v>
       </c>
       <c r="C1620" t="s">
         <v>3875</v>
@@ -61214,15 +61237,15 @@
         <v>1353</v>
       </c>
       <c r="M1620" t="s">
-        <v>3892</v>
+        <v>3894</v>
       </c>
     </row>
     <row r="1621" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1621">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="B1621" t="s">
-        <v>3893</v>
+        <v>3895</v>
       </c>
       <c r="C1621" t="s">
         <v>3875</v>
@@ -61237,15 +61260,15 @@
         <v>1353</v>
       </c>
       <c r="M1621" t="s">
-        <v>3894</v>
+        <v>3896</v>
       </c>
     </row>
     <row r="1622" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1622">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="B1622" t="s">
-        <v>3895</v>
+        <v>3897</v>
       </c>
       <c r="C1622" t="s">
         <v>3875</v>
@@ -61260,15 +61283,15 @@
         <v>1353</v>
       </c>
       <c r="M1622" t="s">
-        <v>3896</v>
+        <v>3898</v>
       </c>
     </row>
     <row r="1623" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1623">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="B1623" t="s">
-        <v>3897</v>
+        <v>3899</v>
       </c>
       <c r="C1623" t="s">
         <v>3875</v>
@@ -61283,15 +61306,15 @@
         <v>1353</v>
       </c>
       <c r="M1623" t="s">
-        <v>3898</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="1624" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1624">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="B1624" t="s">
-        <v>3899</v>
+        <v>3900</v>
       </c>
       <c r="C1624" t="s">
         <v>3875</v>
@@ -61306,15 +61329,15 @@
         <v>1353</v>
       </c>
       <c r="M1624" t="s">
-        <v>4496</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="1625" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1625">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="B1625" t="s">
-        <v>3900</v>
+        <v>3901</v>
       </c>
       <c r="C1625" t="s">
         <v>3875</v>
@@ -61329,15 +61352,15 @@
         <v>1353</v>
       </c>
       <c r="M1625" t="s">
-        <v>4497</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="1626" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1626">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="B1626" t="s">
-        <v>3901</v>
+        <v>3903</v>
       </c>
       <c r="C1626" t="s">
         <v>3875</v>
@@ -61352,15 +61375,15 @@
         <v>1353</v>
       </c>
       <c r="M1626" t="s">
-        <v>3902</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="1627" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1627">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="B1627" t="s">
-        <v>3903</v>
+        <v>3905</v>
       </c>
       <c r="C1627" t="s">
         <v>3875</v>
@@ -61375,15 +61398,15 @@
         <v>1353</v>
       </c>
       <c r="M1627" t="s">
-        <v>3904</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="1628" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1628">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="B1628" t="s">
-        <v>3905</v>
+        <v>3907</v>
       </c>
       <c r="C1628" t="s">
         <v>3875</v>
@@ -61398,15 +61421,15 @@
         <v>1353</v>
       </c>
       <c r="M1628" t="s">
-        <v>3906</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="1629" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1629">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="B1629" t="s">
-        <v>3907</v>
+        <v>3909</v>
       </c>
       <c r="C1629" t="s">
         <v>3875</v>
@@ -61421,15 +61444,15 @@
         <v>1353</v>
       </c>
       <c r="M1629" t="s">
-        <v>3908</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="1630" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1630">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="B1630" t="s">
-        <v>3909</v>
+        <v>3911</v>
       </c>
       <c r="C1630" t="s">
         <v>3875</v>
@@ -61444,15 +61467,15 @@
         <v>1353</v>
       </c>
       <c r="M1630" t="s">
-        <v>3910</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="1631" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1631">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="B1631" t="s">
-        <v>3911</v>
+        <v>3913</v>
       </c>
       <c r="C1631" t="s">
         <v>3875</v>
@@ -61467,15 +61490,15 @@
         <v>1353</v>
       </c>
       <c r="M1631" t="s">
-        <v>3912</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="1632" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1632">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="B1632" t="s">
-        <v>3913</v>
+        <v>3914</v>
       </c>
       <c r="C1632" t="s">
         <v>3875</v>
@@ -61490,15 +61513,15 @@
         <v>1353</v>
       </c>
       <c r="M1632" t="s">
-        <v>4498</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="1633" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1633">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="B1633" t="s">
-        <v>3914</v>
+        <v>3916</v>
       </c>
       <c r="C1633" t="s">
         <v>3875</v>
@@ -61513,15 +61536,15 @@
         <v>1353</v>
       </c>
       <c r="M1633" t="s">
-        <v>3915</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="1634" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1634">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="B1634" t="s">
-        <v>3916</v>
+        <v>3918</v>
       </c>
       <c r="C1634" t="s">
         <v>3875</v>
@@ -61536,15 +61559,15 @@
         <v>1353</v>
       </c>
       <c r="M1634" t="s">
-        <v>3917</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="1635" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1635">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="B1635" t="s">
-        <v>3918</v>
+        <v>3920</v>
       </c>
       <c r="C1635" t="s">
         <v>3875</v>
@@ -61559,15 +61582,15 @@
         <v>1353</v>
       </c>
       <c r="M1635" t="s">
-        <v>3919</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="1636" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1636">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="B1636" t="s">
-        <v>3920</v>
+        <v>3921</v>
       </c>
       <c r="C1636" t="s">
         <v>3875</v>
@@ -61582,15 +61605,15 @@
         <v>1353</v>
       </c>
       <c r="M1636" t="s">
-        <v>4499</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="1637" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1637">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="B1637" t="s">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="C1637" t="s">
         <v>3875</v>
@@ -61605,15 +61628,15 @@
         <v>1353</v>
       </c>
       <c r="M1637" t="s">
-        <v>4500</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="1638" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1638">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="B1638" t="s">
-        <v>3922</v>
+        <v>3923</v>
       </c>
       <c r="C1638" t="s">
         <v>3875</v>
@@ -61628,15 +61651,15 @@
         <v>1353</v>
       </c>
       <c r="M1638" t="s">
-        <v>4501</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="1639" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1639">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="B1639" t="s">
-        <v>3923</v>
+        <v>3925</v>
       </c>
       <c r="C1639" t="s">
         <v>3875</v>
@@ -61651,15 +61674,15 @@
         <v>1353</v>
       </c>
       <c r="M1639" t="s">
-        <v>3924</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="1640" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1640">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="B1640" t="s">
-        <v>3925</v>
+        <v>3927</v>
       </c>
       <c r="C1640" t="s">
         <v>3875</v>
@@ -61674,15 +61697,15 @@
         <v>1353</v>
       </c>
       <c r="M1640" t="s">
-        <v>3926</v>
+        <v>4502</v>
       </c>
     </row>
     <row r="1641" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1641">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B1641" t="s">
-        <v>3927</v>
+        <v>3928</v>
       </c>
       <c r="C1641" t="s">
         <v>3875</v>
@@ -61697,15 +61720,15 @@
         <v>1353</v>
       </c>
       <c r="M1641" t="s">
-        <v>4502</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="1642" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1642">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="B1642" t="s">
-        <v>3928</v>
+        <v>3930</v>
       </c>
       <c r="C1642" t="s">
         <v>3875</v>
@@ -61720,15 +61743,15 @@
         <v>1353</v>
       </c>
       <c r="M1642" t="s">
-        <v>3929</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="1643" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1643">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="B1643" t="s">
-        <v>3930</v>
+        <v>3931</v>
       </c>
       <c r="C1643" t="s">
         <v>3875</v>
@@ -61743,15 +61766,15 @@
         <v>1353</v>
       </c>
       <c r="M1643" t="s">
-        <v>4503</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="1644" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1644">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B1644" t="s">
-        <v>3931</v>
+        <v>3933</v>
       </c>
       <c r="C1644" t="s">
         <v>3875</v>
@@ -61766,15 +61789,15 @@
         <v>1353</v>
       </c>
       <c r="M1644" t="s">
-        <v>3932</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="1645" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1645">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="B1645" t="s">
-        <v>3933</v>
+        <v>3935</v>
       </c>
       <c r="C1645" t="s">
         <v>3875</v>
@@ -61789,15 +61812,15 @@
         <v>1353</v>
       </c>
       <c r="M1645" t="s">
-        <v>3934</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="1646" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1646">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="B1646" t="s">
-        <v>3935</v>
+        <v>3936</v>
       </c>
       <c r="C1646" t="s">
         <v>3875</v>
@@ -61812,15 +61835,15 @@
         <v>1353</v>
       </c>
       <c r="M1646" t="s">
-        <v>4504</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="1647" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1647">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="B1647" t="s">
-        <v>3936</v>
+        <v>3937</v>
       </c>
       <c r="C1647" t="s">
         <v>3875</v>
@@ -61835,15 +61858,15 @@
         <v>1353</v>
       </c>
       <c r="M1647" t="s">
-        <v>4505</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="1648" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1648">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="B1648" t="s">
-        <v>3937</v>
+        <v>3939</v>
       </c>
       <c r="C1648" t="s">
         <v>3875</v>
@@ -61858,15 +61881,15 @@
         <v>1353</v>
       </c>
       <c r="M1648" t="s">
-        <v>3938</v>
+        <v>4506</v>
       </c>
     </row>
     <row r="1649" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1649">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="B1649" t="s">
-        <v>3939</v>
+        <v>3940</v>
       </c>
       <c r="C1649" t="s">
         <v>3875</v>
@@ -61881,15 +61904,15 @@
         <v>1353</v>
       </c>
       <c r="M1649" t="s">
-        <v>4506</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="1650" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1650">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="B1650" t="s">
-        <v>3940</v>
+        <v>3941</v>
       </c>
       <c r="C1650" t="s">
         <v>3875</v>
@@ -61904,15 +61927,15 @@
         <v>1353</v>
       </c>
       <c r="M1650" t="s">
-        <v>4507</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="1651" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1651">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="B1651" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="C1651" t="s">
         <v>3875</v>
@@ -61927,15 +61950,15 @@
         <v>1353</v>
       </c>
       <c r="M1651" t="s">
-        <v>4508</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="1652" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1652">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="B1652" t="s">
-        <v>3942</v>
+        <v>3943</v>
       </c>
       <c r="C1652" t="s">
         <v>3875</v>
@@ -61950,15 +61973,15 @@
         <v>1353</v>
       </c>
       <c r="M1652" t="s">
-        <v>4509</v>
+        <v>4510</v>
       </c>
     </row>
     <row r="1653" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1653">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="B1653" t="s">
-        <v>3943</v>
+        <v>3944</v>
       </c>
       <c r="C1653" t="s">
         <v>3875</v>
@@ -61973,15 +61996,15 @@
         <v>1353</v>
       </c>
       <c r="M1653" t="s">
-        <v>4510</v>
+        <v>4511</v>
       </c>
     </row>
     <row r="1654" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1654">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="B1654" t="s">
-        <v>3944</v>
+        <v>3945</v>
       </c>
       <c r="C1654" t="s">
         <v>3875</v>
@@ -61996,15 +62019,15 @@
         <v>1353</v>
       </c>
       <c r="M1654" t="s">
-        <v>4511</v>
+        <v>4512</v>
       </c>
     </row>
     <row r="1655" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1655">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="B1655" t="s">
-        <v>3945</v>
+        <v>3946</v>
       </c>
       <c r="C1655" t="s">
         <v>3875</v>
@@ -62019,15 +62042,15 @@
         <v>1353</v>
       </c>
       <c r="M1655" t="s">
-        <v>4512</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="1656" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1656">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="B1656" t="s">
-        <v>3946</v>
+        <v>3948</v>
       </c>
       <c r="C1656" t="s">
         <v>3875</v>
@@ -62042,15 +62065,15 @@
         <v>1353</v>
       </c>
       <c r="M1656" t="s">
-        <v>3947</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="1657" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1657">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="B1657" t="s">
-        <v>3948</v>
+        <v>3950</v>
       </c>
       <c r="C1657" t="s">
         <v>3875</v>
@@ -62065,15 +62088,15 @@
         <v>1353</v>
       </c>
       <c r="M1657" t="s">
-        <v>3949</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="1658" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1658">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="B1658" t="s">
-        <v>3950</v>
+        <v>3952</v>
       </c>
       <c r="C1658" t="s">
         <v>3875</v>
@@ -62088,15 +62111,15 @@
         <v>1353</v>
       </c>
       <c r="M1658" t="s">
-        <v>3951</v>
+        <v>4513</v>
       </c>
     </row>
     <row r="1659" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1659">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="B1659" t="s">
-        <v>3952</v>
+        <v>3953</v>
       </c>
       <c r="C1659" t="s">
         <v>3875</v>
@@ -62111,15 +62134,15 @@
         <v>1353</v>
       </c>
       <c r="M1659" t="s">
-        <v>4513</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="1660" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1660">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="B1660" t="s">
-        <v>3953</v>
+        <v>3955</v>
       </c>
       <c r="C1660" t="s">
         <v>3875</v>
@@ -62134,15 +62157,15 @@
         <v>1353</v>
       </c>
       <c r="M1660" t="s">
-        <v>3954</v>
+        <v>3956</v>
       </c>
     </row>
     <row r="1661" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1661">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="B1661" t="s">
-        <v>3955</v>
+        <v>3957</v>
       </c>
       <c r="C1661" t="s">
         <v>3875</v>
@@ -62157,15 +62180,15 @@
         <v>1353</v>
       </c>
       <c r="M1661" t="s">
-        <v>3956</v>
+        <v>4514</v>
       </c>
     </row>
     <row r="1662" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1662">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="B1662" t="s">
-        <v>3957</v>
+        <v>3958</v>
       </c>
       <c r="C1662" t="s">
         <v>3875</v>
@@ -62180,15 +62203,15 @@
         <v>1353</v>
       </c>
       <c r="M1662" t="s">
-        <v>4514</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="1663" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1663">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="B1663" t="s">
-        <v>3958</v>
+        <v>3960</v>
       </c>
       <c r="C1663" t="s">
         <v>3875</v>
@@ -62203,15 +62226,15 @@
         <v>1353</v>
       </c>
       <c r="M1663" t="s">
-        <v>3959</v>
+        <v>4515</v>
       </c>
     </row>
     <row r="1664" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1664">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="B1664" t="s">
-        <v>3960</v>
+        <v>3961</v>
       </c>
       <c r="C1664" t="s">
         <v>3875</v>
@@ -62226,15 +62249,15 @@
         <v>1353</v>
       </c>
       <c r="M1664" t="s">
-        <v>4515</v>
+        <v>4516</v>
       </c>
     </row>
     <row r="1665" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1665">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="B1665" t="s">
-        <v>3961</v>
+        <v>3962</v>
       </c>
       <c r="C1665" t="s">
         <v>3875</v>
@@ -62249,15 +62272,15 @@
         <v>1353</v>
       </c>
       <c r="M1665" t="s">
-        <v>4516</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="1666" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1666">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="B1666" t="s">
-        <v>3962</v>
+        <v>3963</v>
       </c>
       <c r="C1666" t="s">
         <v>3875</v>
@@ -62272,15 +62295,15 @@
         <v>1353</v>
       </c>
       <c r="M1666" t="s">
-        <v>4517</v>
+        <v>4518</v>
       </c>
     </row>
     <row r="1667" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1667">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="B1667" t="s">
-        <v>3963</v>
+        <v>3964</v>
       </c>
       <c r="C1667" t="s">
         <v>3875</v>
@@ -62295,15 +62318,15 @@
         <v>1353</v>
       </c>
       <c r="M1667" t="s">
-        <v>4518</v>
+        <v>4519</v>
       </c>
     </row>
     <row r="1668" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1668">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="B1668" t="s">
-        <v>3964</v>
+        <v>3965</v>
       </c>
       <c r="C1668" t="s">
         <v>3875</v>
@@ -62318,15 +62341,15 @@
         <v>1353</v>
       </c>
       <c r="M1668" t="s">
-        <v>4519</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="1669" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1669">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="B1669" t="s">
-        <v>3965</v>
+        <v>3966</v>
       </c>
       <c r="C1669" t="s">
         <v>3875</v>
@@ -62341,15 +62364,15 @@
         <v>1353</v>
       </c>
       <c r="M1669" t="s">
-        <v>4520</v>
+        <v>3967</v>
       </c>
     </row>
     <row r="1670" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1670">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="B1670" t="s">
-        <v>3966</v>
+        <v>3968</v>
       </c>
       <c r="C1670" t="s">
         <v>3875</v>
@@ -62364,15 +62387,15 @@
         <v>1353</v>
       </c>
       <c r="M1670" t="s">
-        <v>3967</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="1671" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1671">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="B1671" t="s">
-        <v>3968</v>
+        <v>3969</v>
       </c>
       <c r="C1671" t="s">
         <v>3875</v>
@@ -62387,15 +62410,15 @@
         <v>1353</v>
       </c>
       <c r="M1671" t="s">
-        <v>4521</v>
+        <v>4522</v>
       </c>
     </row>
     <row r="1672" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1672">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="B1672" t="s">
-        <v>3969</v>
+        <v>3970</v>
       </c>
       <c r="C1672" t="s">
         <v>3875</v>
@@ -62410,15 +62433,15 @@
         <v>1353</v>
       </c>
       <c r="M1672" t="s">
-        <v>4522</v>
+        <v>3971</v>
       </c>
     </row>
     <row r="1673" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1673">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="B1673" t="s">
-        <v>3970</v>
+        <v>3972</v>
       </c>
       <c r="C1673" t="s">
         <v>3875</v>
@@ -62433,15 +62456,15 @@
         <v>1353</v>
       </c>
       <c r="M1673" t="s">
-        <v>3971</v>
+        <v>3973</v>
       </c>
     </row>
     <row r="1674" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1674">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="B1674" t="s">
-        <v>3972</v>
+        <v>3974</v>
       </c>
       <c r="C1674" t="s">
         <v>3875</v>
@@ -62456,15 +62479,15 @@
         <v>1353</v>
       </c>
       <c r="M1674" t="s">
-        <v>3973</v>
+        <v>4523</v>
       </c>
     </row>
     <row r="1675" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1675">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="B1675" t="s">
-        <v>3974</v>
+        <v>3975</v>
       </c>
       <c r="C1675" t="s">
         <v>3875</v>
@@ -62479,15 +62502,15 @@
         <v>1353</v>
       </c>
       <c r="M1675" t="s">
-        <v>4523</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="1676" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1676">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="B1676" t="s">
-        <v>3975</v>
+        <v>3977</v>
       </c>
       <c r="C1676" t="s">
         <v>3875</v>
@@ -62502,15 +62525,15 @@
         <v>1353</v>
       </c>
       <c r="M1676" t="s">
-        <v>3976</v>
+        <v>4524</v>
       </c>
     </row>
     <row r="1677" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1677">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="B1677" t="s">
-        <v>3977</v>
+        <v>3978</v>
       </c>
       <c r="C1677" t="s">
         <v>3875</v>
@@ -62525,15 +62548,15 @@
         <v>1353</v>
       </c>
       <c r="M1677" t="s">
-        <v>4524</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="1678" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1678">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="B1678" t="s">
-        <v>3978</v>
+        <v>3979</v>
       </c>
       <c r="C1678" t="s">
         <v>3875</v>
@@ -62548,15 +62571,15 @@
         <v>1353</v>
       </c>
       <c r="M1678" t="s">
-        <v>4525</v>
+        <v>4526</v>
       </c>
     </row>
     <row r="1679" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1679">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="B1679" t="s">
-        <v>3979</v>
+        <v>3980</v>
       </c>
       <c r="C1679" t="s">
         <v>3875</v>
@@ -62571,15 +62594,15 @@
         <v>1353</v>
       </c>
       <c r="M1679" t="s">
-        <v>4526</v>
+        <v>4527</v>
       </c>
     </row>
     <row r="1680" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1680">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="B1680" t="s">
-        <v>3980</v>
+        <v>3981</v>
       </c>
       <c r="C1680" t="s">
         <v>3875</v>
@@ -62594,15 +62617,15 @@
         <v>1353</v>
       </c>
       <c r="M1680" t="s">
-        <v>4527</v>
+        <v>4528</v>
       </c>
     </row>
     <row r="1681" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1681">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="B1681" t="s">
-        <v>3981</v>
+        <v>3982</v>
       </c>
       <c r="C1681" t="s">
         <v>3875</v>
@@ -62617,15 +62640,15 @@
         <v>1353</v>
       </c>
       <c r="M1681" t="s">
-        <v>4528</v>
+        <v>3983</v>
       </c>
     </row>
     <row r="1682" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1682">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B1682" t="s">
-        <v>3982</v>
+        <v>3984</v>
       </c>
       <c r="C1682" t="s">
         <v>3875</v>
@@ -62640,15 +62663,15 @@
         <v>1353</v>
       </c>
       <c r="M1682" t="s">
-        <v>3983</v>
+        <v>4529</v>
       </c>
     </row>
     <row r="1683" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1683">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B1683" t="s">
-        <v>3984</v>
+        <v>3985</v>
       </c>
       <c r="C1683" t="s">
         <v>3875</v>
@@ -62663,15 +62686,15 @@
         <v>1353</v>
       </c>
       <c r="M1683" t="s">
-        <v>4529</v>
+        <v>3986</v>
       </c>
     </row>
     <row r="1684" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1684">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="B1684" t="s">
-        <v>3985</v>
+        <v>3987</v>
       </c>
       <c r="C1684" t="s">
         <v>3875</v>
@@ -62686,15 +62709,15 @@
         <v>1353</v>
       </c>
       <c r="M1684" t="s">
-        <v>3986</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="1685" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1685">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="B1685" t="s">
-        <v>3987</v>
+        <v>3988</v>
       </c>
       <c r="C1685" t="s">
         <v>3875</v>
@@ -62709,15 +62732,15 @@
         <v>1353</v>
       </c>
       <c r="M1685" t="s">
-        <v>4530</v>
+        <v>3989</v>
       </c>
     </row>
     <row r="1686" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1686">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="B1686" t="s">
-        <v>3988</v>
+        <v>3990</v>
       </c>
       <c r="C1686" t="s">
         <v>3875</v>
@@ -62732,15 +62755,15 @@
         <v>1353</v>
       </c>
       <c r="M1686" t="s">
-        <v>3989</v>
+        <v>3991</v>
       </c>
     </row>
     <row r="1687" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1687">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="B1687" t="s">
-        <v>3990</v>
+        <v>3992</v>
       </c>
       <c r="C1687" t="s">
         <v>3875</v>
@@ -62755,15 +62778,15 @@
         <v>1353</v>
       </c>
       <c r="M1687" t="s">
-        <v>3991</v>
+        <v>4531</v>
       </c>
     </row>
     <row r="1688" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1688">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="B1688" t="s">
-        <v>3992</v>
+        <v>3993</v>
       </c>
       <c r="C1688" t="s">
         <v>3875</v>
@@ -62778,15 +62801,15 @@
         <v>1353</v>
       </c>
       <c r="M1688" t="s">
-        <v>4531</v>
+        <v>4532</v>
       </c>
     </row>
     <row r="1689" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1689">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="B1689" t="s">
-        <v>3993</v>
+        <v>3994</v>
       </c>
       <c r="C1689" t="s">
         <v>3875</v>
@@ -62801,15 +62824,15 @@
         <v>1353</v>
       </c>
       <c r="M1689" t="s">
-        <v>4532</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="1690" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1690">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="B1690" t="s">
-        <v>3994</v>
+        <v>3996</v>
       </c>
       <c r="C1690" t="s">
         <v>3875</v>
@@ -62824,15 +62847,15 @@
         <v>1353</v>
       </c>
       <c r="M1690" t="s">
-        <v>3995</v>
+        <v>3997</v>
       </c>
     </row>
     <row r="1691" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1691">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="B1691" t="s">
-        <v>3996</v>
+        <v>3998</v>
       </c>
       <c r="C1691" t="s">
         <v>3875</v>
@@ -62847,15 +62870,15 @@
         <v>1353</v>
       </c>
       <c r="M1691" t="s">
-        <v>3997</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="1692" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1692">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="B1692" t="s">
-        <v>3998</v>
+        <v>3999</v>
       </c>
       <c r="C1692" t="s">
         <v>3875</v>
@@ -62870,15 +62893,15 @@
         <v>1353</v>
       </c>
       <c r="M1692" t="s">
-        <v>4533</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="1693" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1693">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="B1693" t="s">
-        <v>3999</v>
+        <v>4001</v>
       </c>
       <c r="C1693" t="s">
         <v>3875</v>
@@ -62893,15 +62916,15 @@
         <v>1353</v>
       </c>
       <c r="M1693" t="s">
-        <v>4000</v>
+        <v>4534</v>
       </c>
     </row>
     <row r="1694" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1694">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B1694" t="s">
-        <v>4001</v>
+        <v>4002</v>
       </c>
       <c r="C1694" t="s">
         <v>3875</v>
@@ -62916,15 +62939,15 @@
         <v>1353</v>
       </c>
       <c r="M1694" t="s">
-        <v>4534</v>
+        <v>4535</v>
       </c>
     </row>
     <row r="1695" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1695">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="B1695" t="s">
-        <v>4002</v>
+        <v>4003</v>
       </c>
       <c r="C1695" t="s">
         <v>3875</v>
@@ -62939,15 +62962,15 @@
         <v>1353</v>
       </c>
       <c r="M1695" t="s">
-        <v>4535</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="1696" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1696">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="B1696" t="s">
-        <v>4003</v>
+        <v>4004</v>
       </c>
       <c r="C1696" t="s">
         <v>3875</v>
@@ -62962,15 +62985,15 @@
         <v>1353</v>
       </c>
       <c r="M1696" t="s">
-        <v>4536</v>
+        <v>4537</v>
       </c>
     </row>
     <row r="1697" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1697">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="B1697" t="s">
-        <v>4004</v>
+        <v>4005</v>
       </c>
       <c r="C1697" t="s">
         <v>3875</v>
@@ -62985,15 +63008,15 @@
         <v>1353</v>
       </c>
       <c r="M1697" t="s">
-        <v>4537</v>
+        <v>4538</v>
       </c>
     </row>
     <row r="1698" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1698">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="B1698" t="s">
-        <v>4005</v>
+        <v>4006</v>
       </c>
       <c r="C1698" t="s">
         <v>3875</v>
@@ -63008,15 +63031,15 @@
         <v>1353</v>
       </c>
       <c r="M1698" t="s">
-        <v>4538</v>
+        <v>4539</v>
       </c>
     </row>
     <row r="1699" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1699">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="B1699" t="s">
-        <v>4006</v>
+        <v>4007</v>
       </c>
       <c r="C1699" t="s">
         <v>3875</v>
@@ -63031,15 +63054,15 @@
         <v>1353</v>
       </c>
       <c r="M1699" t="s">
-        <v>4539</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="1700" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1700">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="B1700" t="s">
-        <v>4007</v>
+        <v>4009</v>
       </c>
       <c r="C1700" t="s">
         <v>3875</v>
@@ -63054,15 +63077,15 @@
         <v>1353</v>
       </c>
       <c r="M1700" t="s">
-        <v>4008</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="1701" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1701">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="B1701" t="s">
-        <v>4009</v>
+        <v>4010</v>
       </c>
       <c r="C1701" t="s">
         <v>3875</v>
@@ -63077,15 +63100,15 @@
         <v>1353</v>
       </c>
       <c r="M1701" t="s">
-        <v>4540</v>
+        <v>4541</v>
       </c>
     </row>
     <row r="1702" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1702">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="B1702" t="s">
-        <v>4010</v>
+        <v>4011</v>
       </c>
       <c r="C1702" t="s">
         <v>3875</v>
@@ -63100,15 +63123,15 @@
         <v>1353</v>
       </c>
       <c r="M1702" t="s">
-        <v>4541</v>
+        <v>4012</v>
       </c>
     </row>
     <row r="1703" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1703">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="B1703" t="s">
-        <v>4011</v>
+        <v>4013</v>
       </c>
       <c r="C1703" t="s">
         <v>3875</v>
@@ -63123,15 +63146,15 @@
         <v>1353</v>
       </c>
       <c r="M1703" t="s">
-        <v>4012</v>
+        <v>4542</v>
       </c>
     </row>
     <row r="1704" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1704">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="B1704" t="s">
-        <v>4013</v>
+        <v>4014</v>
       </c>
       <c r="C1704" t="s">
         <v>3875</v>
@@ -63146,15 +63169,15 @@
         <v>1353</v>
       </c>
       <c r="M1704" t="s">
-        <v>4542</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="1705" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1705">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="B1705" t="s">
-        <v>4014</v>
+        <v>4016</v>
       </c>
       <c r="C1705" t="s">
         <v>3875</v>
@@ -63169,15 +63192,15 @@
         <v>1353</v>
       </c>
       <c r="M1705" t="s">
-        <v>4015</v>
+        <v>4017</v>
       </c>
     </row>
     <row r="1706" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1706">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="B1706" t="s">
-        <v>4016</v>
+        <v>4018</v>
       </c>
       <c r="C1706" t="s">
         <v>3875</v>
@@ -63192,15 +63215,15 @@
         <v>1353</v>
       </c>
       <c r="M1706" t="s">
-        <v>4017</v>
+        <v>4543</v>
       </c>
     </row>
     <row r="1707" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1707">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="B1707" t="s">
-        <v>4018</v>
+        <v>4019</v>
       </c>
       <c r="C1707" t="s">
         <v>3875</v>
@@ -63215,15 +63238,15 @@
         <v>1353</v>
       </c>
       <c r="M1707" t="s">
-        <v>4543</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="1708" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1708">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B1708" t="s">
-        <v>4019</v>
+        <v>4021</v>
       </c>
       <c r="C1708" t="s">
         <v>3875</v>
@@ -63238,15 +63261,15 @@
         <v>1353</v>
       </c>
       <c r="M1708" t="s">
-        <v>4020</v>
+        <v>4544</v>
       </c>
     </row>
     <row r="1709" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1709">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="B1709" t="s">
-        <v>4021</v>
+        <v>4022</v>
       </c>
       <c r="C1709" t="s">
         <v>3875</v>
@@ -63261,15 +63284,15 @@
         <v>1353</v>
       </c>
       <c r="M1709" t="s">
-        <v>4544</v>
+        <v>4545</v>
       </c>
     </row>
     <row r="1710" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1710">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="B1710" t="s">
-        <v>4022</v>
+        <v>4023</v>
       </c>
       <c r="C1710" t="s">
         <v>3875</v>
@@ -63284,15 +63307,15 @@
         <v>1353</v>
       </c>
       <c r="M1710" t="s">
-        <v>4545</v>
+        <v>4546</v>
       </c>
     </row>
     <row r="1711" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1711">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="B1711" t="s">
-        <v>4023</v>
+        <v>4024</v>
       </c>
       <c r="C1711" t="s">
         <v>3875</v>
@@ -63307,15 +63330,15 @@
         <v>1353</v>
       </c>
       <c r="M1711" t="s">
-        <v>4546</v>
+        <v>4547</v>
       </c>
     </row>
     <row r="1712" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1712">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B1712" t="s">
-        <v>4024</v>
+        <v>4025</v>
       </c>
       <c r="C1712" t="s">
         <v>3875</v>
@@ -63330,15 +63353,15 @@
         <v>1353</v>
       </c>
       <c r="M1712" t="s">
-        <v>4547</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="1713" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1713">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="B1713" t="s">
-        <v>4025</v>
+        <v>4026</v>
       </c>
       <c r="C1713" t="s">
         <v>3875</v>
@@ -63353,15 +63376,15 @@
         <v>1353</v>
       </c>
       <c r="M1713" t="s">
-        <v>4548</v>
+        <v>4027</v>
       </c>
     </row>
     <row r="1714" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1714">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="B1714" t="s">
-        <v>4026</v>
+        <v>4028</v>
       </c>
       <c r="C1714" t="s">
         <v>3875</v>
@@ -63376,15 +63399,15 @@
         <v>1353</v>
       </c>
       <c r="M1714" t="s">
-        <v>4027</v>
+        <v>4549</v>
       </c>
     </row>
     <row r="1715" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1715">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="B1715" t="s">
-        <v>4028</v>
+        <v>4029</v>
       </c>
       <c r="C1715" t="s">
         <v>3875</v>
@@ -63399,15 +63422,15 @@
         <v>1353</v>
       </c>
       <c r="M1715" t="s">
-        <v>4549</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="1716" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1716">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="B1716" t="s">
-        <v>4029</v>
+        <v>4030</v>
       </c>
       <c r="C1716" t="s">
         <v>3875</v>
@@ -63422,15 +63445,15 @@
         <v>1353</v>
       </c>
       <c r="M1716" t="s">
-        <v>4550</v>
+        <v>4031</v>
       </c>
     </row>
     <row r="1717" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1717">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="B1717" t="s">
-        <v>4030</v>
+        <v>4032</v>
       </c>
       <c r="C1717" t="s">
         <v>3875</v>
@@ -63445,15 +63468,15 @@
         <v>1353</v>
       </c>
       <c r="M1717" t="s">
-        <v>4031</v>
+        <v>4033</v>
       </c>
     </row>
     <row r="1718" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1718">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B1718" t="s">
-        <v>4032</v>
+        <v>4034</v>
       </c>
       <c r="C1718" t="s">
         <v>3875</v>
@@ -63468,15 +63491,15 @@
         <v>1353</v>
       </c>
       <c r="M1718" t="s">
-        <v>4033</v>
+        <v>4035</v>
       </c>
     </row>
     <row r="1719" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1719">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="B1719" t="s">
-        <v>4034</v>
+        <v>4036</v>
       </c>
       <c r="C1719" t="s">
         <v>3875</v>
@@ -63491,15 +63514,15 @@
         <v>1353</v>
       </c>
       <c r="M1719" t="s">
-        <v>4035</v>
+        <v>4037</v>
       </c>
     </row>
     <row r="1720" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1720">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="B1720" t="s">
-        <v>4036</v>
+        <v>4038</v>
       </c>
       <c r="C1720" t="s">
         <v>3875</v>
@@ -63514,15 +63537,15 @@
         <v>1353</v>
       </c>
       <c r="M1720" t="s">
-        <v>4037</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="1721" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1721">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="B1721" t="s">
-        <v>4038</v>
+        <v>4039</v>
       </c>
       <c r="C1721" t="s">
         <v>3875</v>
@@ -63537,15 +63560,15 @@
         <v>1353</v>
       </c>
       <c r="M1721" t="s">
-        <v>4551</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="1722" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1722">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="B1722" t="s">
-        <v>4039</v>
+        <v>4041</v>
       </c>
       <c r="C1722" t="s">
         <v>3875</v>
@@ -63560,15 +63583,15 @@
         <v>1353</v>
       </c>
       <c r="M1722" t="s">
-        <v>4040</v>
+        <v>4042</v>
       </c>
     </row>
     <row r="1723" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1723">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="B1723" t="s">
-        <v>4041</v>
+        <v>4043</v>
       </c>
       <c r="C1723" t="s">
         <v>3875</v>
@@ -63583,15 +63606,15 @@
         <v>1353</v>
       </c>
       <c r="M1723" t="s">
-        <v>4042</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="1724" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1724">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="B1724" t="s">
-        <v>4043</v>
+        <v>4044</v>
       </c>
       <c r="C1724" t="s">
         <v>3875</v>
@@ -63606,15 +63629,15 @@
         <v>1353</v>
       </c>
       <c r="M1724" t="s">
-        <v>4552</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="1725" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1725">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="B1725" t="s">
-        <v>4044</v>
+        <v>4046</v>
       </c>
       <c r="C1725" t="s">
         <v>3875</v>
@@ -63629,15 +63652,15 @@
         <v>1353</v>
       </c>
       <c r="M1725" t="s">
-        <v>4045</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="1726" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1726">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="B1726" t="s">
-        <v>4046</v>
+        <v>4047</v>
       </c>
       <c r="C1726" t="s">
         <v>3875</v>
@@ -63652,15 +63675,15 @@
         <v>1353</v>
       </c>
       <c r="M1726" t="s">
-        <v>4553</v>
+        <v>4048</v>
       </c>
     </row>
     <row r="1727" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1727">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="B1727" t="s">
-        <v>4047</v>
+        <v>4049</v>
       </c>
       <c r="C1727" t="s">
         <v>3875</v>
@@ -63675,15 +63698,15 @@
         <v>1353</v>
       </c>
       <c r="M1727" t="s">
-        <v>4048</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="1728" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1728">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="B1728" t="s">
-        <v>4049</v>
+        <v>4051</v>
       </c>
       <c r="C1728" t="s">
         <v>3875</v>
@@ -63698,15 +63721,15 @@
         <v>1353</v>
       </c>
       <c r="M1728" t="s">
-        <v>4050</v>
+        <v>4052</v>
       </c>
     </row>
     <row r="1729" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1729">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="B1729" t="s">
-        <v>4051</v>
+        <v>4053</v>
       </c>
       <c r="C1729" t="s">
         <v>3875</v>
@@ -63721,15 +63744,15 @@
         <v>1353</v>
       </c>
       <c r="M1729" t="s">
-        <v>4052</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="1730" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1730">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="B1730" t="s">
-        <v>4053</v>
+        <v>4054</v>
       </c>
       <c r="C1730" t="s">
         <v>3875</v>
@@ -63744,15 +63767,15 @@
         <v>1353</v>
       </c>
       <c r="M1730" t="s">
-        <v>4554</v>
+        <v>4555</v>
       </c>
     </row>
     <row r="1731" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1731">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="B1731" t="s">
-        <v>4054</v>
+        <v>4055</v>
       </c>
       <c r="C1731" t="s">
         <v>3875</v>
@@ -63767,15 +63790,15 @@
         <v>1353</v>
       </c>
       <c r="M1731" t="s">
-        <v>4555</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="1732" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1732">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="B1732" t="s">
-        <v>4055</v>
+        <v>4056</v>
       </c>
       <c r="C1732" t="s">
         <v>3875</v>
@@ -63790,15 +63813,15 @@
         <v>1353</v>
       </c>
       <c r="M1732" t="s">
-        <v>4556</v>
+        <v>4557</v>
       </c>
     </row>
     <row r="1733" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1733">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="B1733" t="s">
-        <v>4056</v>
+        <v>4057</v>
       </c>
       <c r="C1733" t="s">
         <v>3875</v>
@@ -63813,15 +63836,15 @@
         <v>1353</v>
       </c>
       <c r="M1733" t="s">
-        <v>4557</v>
+        <v>4558</v>
       </c>
     </row>
     <row r="1734" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1734">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="B1734" t="s">
-        <v>4057</v>
+        <v>4058</v>
       </c>
       <c r="C1734" t="s">
         <v>3875</v>
@@ -63836,15 +63859,15 @@
         <v>1353</v>
       </c>
       <c r="M1734" t="s">
-        <v>4558</v>
+        <v>4059</v>
       </c>
     </row>
     <row r="1735" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1735">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="B1735" t="s">
-        <v>4058</v>
+        <v>4060</v>
       </c>
       <c r="C1735" t="s">
         <v>3875</v>
@@ -63859,15 +63882,15 @@
         <v>1353</v>
       </c>
       <c r="M1735" t="s">
-        <v>4059</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="1736" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1736">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="B1736" t="s">
-        <v>4060</v>
+        <v>4061</v>
       </c>
       <c r="C1736" t="s">
         <v>3875</v>
@@ -63882,34 +63905,11 @@
         <v>1353</v>
       </c>
       <c r="M1736" t="s">
-        <v>4559</v>
-      </c>
-    </row>
-    <row r="1737" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1737">
-        <v>1780</v>
-      </c>
-      <c r="B1737" t="s">
-        <v>4061</v>
-      </c>
-      <c r="C1737" t="s">
-        <v>3875</v>
-      </c>
-      <c r="D1737">
-        <v>68000</v>
-      </c>
-      <c r="E1737" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1737" t="s">
-        <v>1353</v>
-      </c>
-      <c r="M1737" t="s">
         <v>4062</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1737"/>
+  <autoFilter ref="A1:M1736"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/0.36/compatibility.xlsx
+++ b/0.36/compatibility.xlsx
@@ -17,8 +17,8 @@
     <sheet name="GAME_NOT_WORKING FLAG" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ALL!$A$1:$M$1703</definedName>
-    <definedName name="LIST" localSheetId="1">ALL!$B$1:$M$1703</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ALL!$A$1:$M$1700</definedName>
+    <definedName name="LIST" localSheetId="1">ALL!$B$1:$M$1700</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -14081,10 +14081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P339"/>
+  <dimension ref="A1:P342"/>
   <sheetViews>
     <sheetView topLeftCell="A320" workbookViewId="0">
-      <selection activeCell="A341" sqref="A341"/>
+      <selection activeCell="A343" sqref="A343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21845,6 +21845,84 @@
         <v>1645</v>
       </c>
     </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>340</v>
+      </c>
+      <c r="B340" t="s">
+        <v>3566</v>
+      </c>
+      <c r="C340" t="s">
+        <v>3567</v>
+      </c>
+      <c r="D340" t="s">
+        <v>14</v>
+      </c>
+      <c r="E340" t="s">
+        <v>154</v>
+      </c>
+      <c r="H340" t="s">
+        <v>1279</v>
+      </c>
+      <c r="I340" t="s">
+        <v>1275</v>
+      </c>
+      <c r="M340" t="s">
+        <v>4480</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>341</v>
+      </c>
+      <c r="B341" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C341" t="s">
+        <v>3567</v>
+      </c>
+      <c r="D341" t="s">
+        <v>14</v>
+      </c>
+      <c r="E341" t="s">
+        <v>154</v>
+      </c>
+      <c r="H341" t="s">
+        <v>1279</v>
+      </c>
+      <c r="I341" t="s">
+        <v>1275</v>
+      </c>
+      <c r="M341" t="s">
+        <v>4481</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>342</v>
+      </c>
+      <c r="B342" t="s">
+        <v>3569</v>
+      </c>
+      <c r="C342" t="s">
+        <v>3567</v>
+      </c>
+      <c r="D342" t="s">
+        <v>14</v>
+      </c>
+      <c r="E342" t="s">
+        <v>154</v>
+      </c>
+      <c r="H342" t="s">
+        <v>1279</v>
+      </c>
+      <c r="I342" t="s">
+        <v>1275</v>
+      </c>
+      <c r="M342" t="s">
+        <v>3570</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -21853,10 +21931,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1703"/>
+  <dimension ref="A1:M1700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1322" workbookViewId="0">
-      <selection activeCell="A575" sqref="A575:XFD576"/>
+    <sheetView tabSelected="1" topLeftCell="A1245" workbookViewId="0">
+      <selection activeCell="A1470" sqref="A1470:XFD1472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -58437,91 +58515,94 @@
     </row>
     <row r="1470" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1470">
-        <v>1540</v>
+        <v>1543</v>
       </c>
       <c r="B1470" t="s">
-        <v>3566</v>
+        <v>3571</v>
       </c>
       <c r="C1470" t="s">
-        <v>3567</v>
+        <v>3572</v>
       </c>
       <c r="D1470" t="s">
-        <v>14</v>
+        <v>1105</v>
       </c>
       <c r="E1470" t="s">
-        <v>154</v>
+        <v>1105</v>
       </c>
       <c r="H1470" t="s">
-        <v>1279</v>
+        <v>349</v>
       </c>
       <c r="I1470" t="s">
-        <v>1275</v>
+        <v>1492</v>
       </c>
       <c r="M1470" t="s">
-        <v>4480</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="1471" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1471">
-        <v>1541</v>
+        <v>1544</v>
       </c>
       <c r="B1471" t="s">
-        <v>3568</v>
+        <v>3574</v>
       </c>
       <c r="C1471" t="s">
-        <v>3567</v>
+        <v>3572</v>
       </c>
       <c r="D1471" t="s">
-        <v>14</v>
+        <v>1105</v>
       </c>
       <c r="E1471" t="s">
-        <v>154</v>
+        <v>1105</v>
       </c>
       <c r="H1471" t="s">
-        <v>1279</v>
+        <v>349</v>
       </c>
       <c r="I1471" t="s">
-        <v>1275</v>
+        <v>1492</v>
       </c>
       <c r="M1471" t="s">
-        <v>4481</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="1472" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1472">
-        <v>1542</v>
+        <v>1545</v>
       </c>
       <c r="B1472" t="s">
-        <v>3569</v>
+        <v>3576</v>
       </c>
       <c r="C1472" t="s">
-        <v>3567</v>
+        <v>3577</v>
       </c>
       <c r="D1472" t="s">
-        <v>14</v>
+        <v>1105</v>
       </c>
       <c r="E1472" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F1472" t="s">
         <v>154</v>
       </c>
       <c r="H1472" t="s">
-        <v>1279</v>
+        <v>349</v>
       </c>
       <c r="I1472" t="s">
-        <v>1275</v>
+        <v>1492</v>
       </c>
       <c r="M1472" t="s">
-        <v>3570</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="1473" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1473">
-        <v>1543</v>
+        <v>1546</v>
       </c>
       <c r="B1473" t="s">
-        <v>3571</v>
+        <v>3579</v>
       </c>
       <c r="C1473" t="s">
-        <v>3572</v>
+        <v>3577</v>
       </c>
       <c r="D1473" t="s">
         <v>1105</v>
@@ -58529,6 +58610,9 @@
       <c r="E1473" t="s">
         <v>1105</v>
       </c>
+      <c r="F1473" t="s">
+        <v>154</v>
+      </c>
       <c r="H1473" t="s">
         <v>349</v>
       </c>
@@ -58536,18 +58620,18 @@
         <v>1492</v>
       </c>
       <c r="M1473" t="s">
-        <v>3573</v>
+        <v>4482</v>
       </c>
     </row>
     <row r="1474" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1474">
-        <v>1544</v>
+        <v>1547</v>
       </c>
       <c r="B1474" t="s">
-        <v>3574</v>
+        <v>3580</v>
       </c>
       <c r="C1474" t="s">
-        <v>3572</v>
+        <v>3577</v>
       </c>
       <c r="D1474" t="s">
         <v>1105</v>
@@ -58555,6 +58639,9 @@
       <c r="E1474" t="s">
         <v>1105</v>
       </c>
+      <c r="F1474" t="s">
+        <v>154</v>
+      </c>
       <c r="H1474" t="s">
         <v>349</v>
       </c>
@@ -58562,26 +58649,23 @@
         <v>1492</v>
       </c>
       <c r="M1474" t="s">
-        <v>3575</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="1475" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1475">
-        <v>1545</v>
+        <v>1548</v>
       </c>
       <c r="B1475" t="s">
-        <v>3576</v>
+        <v>3582</v>
       </c>
       <c r="C1475" t="s">
-        <v>3577</v>
-      </c>
-      <c r="D1475" t="s">
-        <v>1105</v>
+        <v>3583</v>
+      </c>
+      <c r="D1475">
+        <v>68000</v>
       </c>
       <c r="E1475" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F1475" t="s">
         <v>154</v>
       </c>
       <c r="H1475" t="s">
@@ -58591,76 +58675,58 @@
         <v>1492</v>
       </c>
       <c r="M1475" t="s">
-        <v>3578</v>
+        <v>3584</v>
       </c>
     </row>
     <row r="1476" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1476">
-        <v>1546</v>
+        <v>1549</v>
       </c>
       <c r="B1476" t="s">
-        <v>3579</v>
+        <v>3585</v>
       </c>
       <c r="C1476" t="s">
-        <v>3577</v>
-      </c>
-      <c r="D1476" t="s">
-        <v>1105</v>
+        <v>3586</v>
+      </c>
+      <c r="D1476">
+        <v>68000</v>
       </c>
       <c r="E1476" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F1476" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1476" t="s">
-        <v>349</v>
-      </c>
-      <c r="I1476" t="s">
-        <v>1492</v>
+        <v>154</v>
       </c>
       <c r="M1476" t="s">
-        <v>4482</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="1477" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1477">
-        <v>1547</v>
+        <v>1550</v>
       </c>
       <c r="B1477" t="s">
-        <v>3580</v>
+        <v>3588</v>
       </c>
       <c r="C1477" t="s">
-        <v>3577</v>
-      </c>
-      <c r="D1477" t="s">
-        <v>1105</v>
+        <v>3586</v>
+      </c>
+      <c r="D1477">
+        <v>68000</v>
       </c>
       <c r="E1477" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F1477" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1477" t="s">
-        <v>349</v>
-      </c>
-      <c r="I1477" t="s">
-        <v>1492</v>
+        <v>154</v>
       </c>
       <c r="M1477" t="s">
-        <v>3581</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="1478" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1478">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="B1478" t="s">
-        <v>3582</v>
+        <v>3590</v>
       </c>
       <c r="C1478" t="s">
-        <v>3583</v>
+        <v>3586</v>
       </c>
       <c r="D1478">
         <v>68000</v>
@@ -58669,24 +58735,24 @@
         <v>154</v>
       </c>
       <c r="H1478" t="s">
-        <v>349</v>
+        <v>551</v>
       </c>
       <c r="I1478" t="s">
-        <v>1492</v>
+        <v>3358</v>
       </c>
       <c r="M1478" t="s">
-        <v>3584</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="1479" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1479">
-        <v>1549</v>
+        <v>1552</v>
       </c>
       <c r="B1479" t="s">
-        <v>3585</v>
+        <v>3592</v>
       </c>
       <c r="C1479" t="s">
-        <v>3586</v>
+        <v>3593</v>
       </c>
       <c r="D1479">
         <v>68000</v>
@@ -58694,19 +58760,25 @@
       <c r="E1479" t="s">
         <v>154</v>
       </c>
+      <c r="H1479" t="s">
+        <v>349</v>
+      </c>
+      <c r="I1479" t="s">
+        <v>1275</v>
+      </c>
       <c r="M1479" t="s">
-        <v>3587</v>
+        <v>3594</v>
       </c>
     </row>
     <row r="1480" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1480">
-        <v>1550</v>
+        <v>1553</v>
       </c>
       <c r="B1480" t="s">
-        <v>3588</v>
+        <v>3595</v>
       </c>
       <c r="C1480" t="s">
-        <v>3586</v>
+        <v>3593</v>
       </c>
       <c r="D1480">
         <v>68000</v>
@@ -58714,19 +58786,25 @@
       <c r="E1480" t="s">
         <v>154</v>
       </c>
+      <c r="H1480" t="s">
+        <v>349</v>
+      </c>
+      <c r="I1480" t="s">
+        <v>1275</v>
+      </c>
       <c r="M1480" t="s">
-        <v>3589</v>
+        <v>3596</v>
       </c>
     </row>
     <row r="1481" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1481">
-        <v>1551</v>
+        <v>1554</v>
       </c>
       <c r="B1481" t="s">
-        <v>3590</v>
+        <v>3597</v>
       </c>
       <c r="C1481" t="s">
-        <v>3586</v>
+        <v>3593</v>
       </c>
       <c r="D1481">
         <v>68000</v>
@@ -58735,21 +58813,21 @@
         <v>154</v>
       </c>
       <c r="H1481" t="s">
-        <v>551</v>
+        <v>349</v>
       </c>
       <c r="I1481" t="s">
-        <v>3358</v>
+        <v>1275</v>
       </c>
       <c r="M1481" t="s">
-        <v>3591</v>
+        <v>3598</v>
       </c>
     </row>
     <row r="1482" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1482">
-        <v>1552</v>
+        <v>1555</v>
       </c>
       <c r="B1482" t="s">
-        <v>3592</v>
+        <v>3599</v>
       </c>
       <c r="C1482" t="s">
         <v>3593</v>
@@ -58767,15 +58845,15 @@
         <v>1275</v>
       </c>
       <c r="M1482" t="s">
-        <v>3594</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="1483" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1483">
-        <v>1553</v>
+        <v>1556</v>
       </c>
       <c r="B1483" t="s">
-        <v>3595</v>
+        <v>3601</v>
       </c>
       <c r="C1483" t="s">
         <v>3593</v>
@@ -58793,18 +58871,18 @@
         <v>1275</v>
       </c>
       <c r="M1483" t="s">
-        <v>3596</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="1484" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1484">
-        <v>1554</v>
+        <v>1557</v>
       </c>
       <c r="B1484" t="s">
-        <v>3597</v>
+        <v>3603</v>
       </c>
       <c r="C1484" t="s">
-        <v>3593</v>
+        <v>3604</v>
       </c>
       <c r="D1484">
         <v>68000</v>
@@ -58816,21 +58894,21 @@
         <v>349</v>
       </c>
       <c r="I1484" t="s">
-        <v>1275</v>
+        <v>1492</v>
       </c>
       <c r="M1484" t="s">
-        <v>3598</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1485" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1485">
-        <v>1555</v>
+        <v>1558</v>
       </c>
       <c r="B1485" t="s">
-        <v>3599</v>
+        <v>3606</v>
       </c>
       <c r="C1485" t="s">
-        <v>3593</v>
+        <v>3604</v>
       </c>
       <c r="D1485">
         <v>68000</v>
@@ -58842,159 +58920,150 @@
         <v>349</v>
       </c>
       <c r="I1485" t="s">
-        <v>1275</v>
+        <v>1492</v>
       </c>
       <c r="M1485" t="s">
-        <v>3600</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="1486" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1486">
-        <v>1556</v>
+        <v>1559</v>
       </c>
       <c r="B1486" t="s">
-        <v>3601</v>
+        <v>3608</v>
       </c>
       <c r="C1486" t="s">
-        <v>3593</v>
-      </c>
-      <c r="D1486">
-        <v>68000</v>
-      </c>
-      <c r="E1486" t="s">
-        <v>154</v>
+        <v>3609</v>
+      </c>
+      <c r="D1486" t="s">
+        <v>14</v>
       </c>
       <c r="H1486" t="s">
-        <v>349</v>
-      </c>
-      <c r="I1486" t="s">
-        <v>1275</v>
+        <v>172</v>
       </c>
       <c r="M1486" t="s">
-        <v>3602</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="1487" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1487">
-        <v>1557</v>
+        <v>1560</v>
       </c>
       <c r="B1487" t="s">
-        <v>3603</v>
+        <v>3611</v>
       </c>
       <c r="C1487" t="s">
-        <v>3604</v>
-      </c>
-      <c r="D1487">
-        <v>68000</v>
-      </c>
-      <c r="E1487" t="s">
-        <v>154</v>
+        <v>3609</v>
+      </c>
+      <c r="D1487" t="s">
+        <v>14</v>
       </c>
       <c r="H1487" t="s">
-        <v>349</v>
-      </c>
-      <c r="I1487" t="s">
-        <v>1492</v>
+        <v>172</v>
       </c>
       <c r="M1487" t="s">
-        <v>3605</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="1488" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1488">
-        <v>1558</v>
+        <v>1561</v>
       </c>
       <c r="B1488" t="s">
-        <v>3606</v>
+        <v>3613</v>
       </c>
       <c r="C1488" t="s">
-        <v>3604</v>
-      </c>
-      <c r="D1488">
-        <v>68000</v>
-      </c>
-      <c r="E1488" t="s">
-        <v>154</v>
+        <v>3609</v>
+      </c>
+      <c r="D1488" t="s">
+        <v>14</v>
       </c>
       <c r="H1488" t="s">
-        <v>349</v>
-      </c>
-      <c r="I1488" t="s">
-        <v>1492</v>
+        <v>172</v>
       </c>
       <c r="M1488" t="s">
-        <v>3607</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="1489" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1489">
-        <v>1559</v>
+        <v>1562</v>
       </c>
       <c r="B1489" t="s">
-        <v>3608</v>
+        <v>3615</v>
       </c>
       <c r="C1489" t="s">
-        <v>3609</v>
+        <v>3616</v>
       </c>
       <c r="D1489" t="s">
-        <v>14</v>
+        <v>473</v>
+      </c>
+      <c r="E1489" t="s">
+        <v>967</v>
       </c>
       <c r="H1489" t="s">
         <v>172</v>
       </c>
       <c r="M1489" t="s">
-        <v>3610</v>
+        <v>3617</v>
       </c>
     </row>
     <row r="1490" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1490">
-        <v>1560</v>
+        <v>1563</v>
       </c>
       <c r="B1490" t="s">
-        <v>3611</v>
+        <v>3618</v>
       </c>
       <c r="C1490" t="s">
-        <v>3609</v>
+        <v>3616</v>
       </c>
       <c r="D1490" t="s">
-        <v>14</v>
+        <v>473</v>
+      </c>
+      <c r="E1490" t="s">
+        <v>967</v>
       </c>
       <c r="H1490" t="s">
         <v>172</v>
       </c>
       <c r="M1490" t="s">
-        <v>3612</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="1491" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1491">
-        <v>1561</v>
+        <v>1564</v>
       </c>
       <c r="B1491" t="s">
-        <v>3613</v>
+        <v>3620</v>
       </c>
       <c r="C1491" t="s">
-        <v>3609</v>
+        <v>3621</v>
       </c>
       <c r="D1491" t="s">
-        <v>14</v>
+        <v>473</v>
+      </c>
+      <c r="E1491" t="s">
+        <v>967</v>
       </c>
       <c r="H1491" t="s">
-        <v>172</v>
+        <v>1279</v>
       </c>
       <c r="M1491" t="s">
-        <v>3614</v>
+        <v>3622</v>
       </c>
     </row>
     <row r="1492" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1492">
-        <v>1562</v>
+        <v>1565</v>
       </c>
       <c r="B1492" t="s">
-        <v>3615</v>
+        <v>3623</v>
       </c>
       <c r="C1492" t="s">
-        <v>3616</v>
+        <v>3621</v>
       </c>
       <c r="D1492" t="s">
         <v>473</v>
@@ -59003,21 +59072,21 @@
         <v>967</v>
       </c>
       <c r="H1492" t="s">
-        <v>172</v>
+        <v>1279</v>
       </c>
       <c r="M1492" t="s">
-        <v>3617</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="1493" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1493">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="B1493" t="s">
-        <v>3618</v>
+        <v>3625</v>
       </c>
       <c r="C1493" t="s">
-        <v>3616</v>
+        <v>3621</v>
       </c>
       <c r="D1493" t="s">
         <v>473</v>
@@ -59026,228 +59095,231 @@
         <v>967</v>
       </c>
       <c r="H1493" t="s">
-        <v>172</v>
+        <v>1279</v>
       </c>
       <c r="M1493" t="s">
-        <v>3619</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="1494" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1494">
-        <v>1564</v>
+        <v>1567</v>
       </c>
       <c r="B1494" t="s">
-        <v>3620</v>
+        <v>3627</v>
       </c>
       <c r="C1494" t="s">
-        <v>3621</v>
+        <v>3628</v>
       </c>
       <c r="D1494" t="s">
-        <v>473</v>
+        <v>405</v>
       </c>
       <c r="E1494" t="s">
-        <v>967</v>
+        <v>14</v>
       </c>
       <c r="H1494" t="s">
-        <v>1279</v>
+        <v>172</v>
       </c>
       <c r="M1494" t="s">
-        <v>3622</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="1495" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1495">
-        <v>1565</v>
+        <v>1568</v>
       </c>
       <c r="B1495" t="s">
-        <v>3623</v>
+        <v>3630</v>
       </c>
       <c r="C1495" t="s">
-        <v>3621</v>
+        <v>3628</v>
       </c>
       <c r="D1495" t="s">
-        <v>473</v>
+        <v>405</v>
       </c>
       <c r="E1495" t="s">
-        <v>967</v>
+        <v>14</v>
       </c>
       <c r="H1495" t="s">
-        <v>1279</v>
+        <v>172</v>
       </c>
       <c r="M1495" t="s">
-        <v>3624</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="1496" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1496">
-        <v>1566</v>
+        <v>1569</v>
       </c>
       <c r="B1496" t="s">
-        <v>3625</v>
+        <v>3632</v>
       </c>
       <c r="C1496" t="s">
-        <v>3621</v>
+        <v>3633</v>
       </c>
       <c r="D1496" t="s">
-        <v>473</v>
+        <v>14</v>
       </c>
       <c r="E1496" t="s">
-        <v>967</v>
+        <v>154</v>
       </c>
       <c r="H1496" t="s">
         <v>1279</v>
       </c>
       <c r="M1496" t="s">
-        <v>3626</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="1497" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1497">
-        <v>1567</v>
+        <v>1570</v>
       </c>
       <c r="B1497" t="s">
-        <v>3627</v>
+        <v>3635</v>
       </c>
       <c r="C1497" t="s">
-        <v>3628</v>
-      </c>
-      <c r="D1497" t="s">
-        <v>405</v>
+        <v>3636</v>
+      </c>
+      <c r="D1497">
+        <v>68000</v>
       </c>
       <c r="E1497" t="s">
-        <v>14</v>
+        <v>967</v>
       </c>
       <c r="H1497" t="s">
-        <v>172</v>
+        <v>71</v>
+      </c>
+      <c r="I1497" t="s">
+        <v>3268</v>
       </c>
       <c r="M1497" t="s">
-        <v>3629</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="1498" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1498">
-        <v>1568</v>
+        <v>1571</v>
       </c>
       <c r="B1498" t="s">
-        <v>3630</v>
+        <v>3638</v>
       </c>
       <c r="C1498" t="s">
-        <v>3628</v>
-      </c>
-      <c r="D1498" t="s">
-        <v>405</v>
-      </c>
-      <c r="E1498" t="s">
-        <v>14</v>
+        <v>3639</v>
+      </c>
+      <c r="D1498">
+        <v>68000</v>
+      </c>
+      <c r="E1498">
+        <v>68000</v>
+      </c>
+      <c r="F1498">
+        <v>68000</v>
+      </c>
+      <c r="G1498" t="s">
+        <v>973</v>
       </c>
       <c r="H1498" t="s">
-        <v>172</v>
+        <v>551</v>
+      </c>
+      <c r="I1498" t="s">
+        <v>2375</v>
       </c>
       <c r="M1498" t="s">
-        <v>3631</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="1499" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1499">
-        <v>1569</v>
+        <v>1572</v>
       </c>
       <c r="B1499" t="s">
-        <v>3632</v>
+        <v>3641</v>
       </c>
       <c r="C1499" t="s">
-        <v>3633</v>
-      </c>
-      <c r="D1499" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1499" t="s">
-        <v>154</v>
+        <v>3639</v>
+      </c>
+      <c r="D1499">
+        <v>68000</v>
+      </c>
+      <c r="E1499">
+        <v>68000</v>
+      </c>
+      <c r="F1499">
+        <v>68000</v>
+      </c>
+      <c r="G1499" t="s">
+        <v>973</v>
       </c>
       <c r="H1499" t="s">
-        <v>1279</v>
+        <v>551</v>
+      </c>
+      <c r="I1499" t="s">
+        <v>2375</v>
       </c>
       <c r="M1499" t="s">
-        <v>3634</v>
+        <v>3642</v>
       </c>
     </row>
     <row r="1500" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1500">
-        <v>1570</v>
+        <v>1573</v>
       </c>
       <c r="B1500" t="s">
-        <v>3635</v>
+        <v>3643</v>
       </c>
       <c r="C1500" t="s">
-        <v>3636</v>
+        <v>3644</v>
       </c>
       <c r="D1500">
         <v>68000</v>
       </c>
       <c r="E1500" t="s">
-        <v>967</v>
+        <v>154</v>
       </c>
       <c r="H1500" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1500" t="s">
-        <v>3268</v>
+        <v>336</v>
       </c>
       <c r="M1500" t="s">
-        <v>3637</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="1501" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1501">
-        <v>1571</v>
+        <v>1574</v>
       </c>
       <c r="B1501" t="s">
-        <v>3638</v>
+        <v>3646</v>
       </c>
       <c r="C1501" t="s">
-        <v>3639</v>
+        <v>3644</v>
       </c>
       <c r="D1501">
         <v>68000</v>
       </c>
-      <c r="E1501">
-        <v>68000</v>
-      </c>
-      <c r="F1501">
-        <v>68000</v>
-      </c>
-      <c r="G1501" t="s">
-        <v>973</v>
+      <c r="E1501" t="s">
+        <v>154</v>
       </c>
       <c r="H1501" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1501" t="s">
-        <v>2375</v>
+        <v>336</v>
       </c>
       <c r="M1501" t="s">
-        <v>3640</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="1502" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1502">
-        <v>1572</v>
+        <v>1575</v>
       </c>
       <c r="B1502" t="s">
-        <v>3641</v>
+        <v>3648</v>
       </c>
       <c r="C1502" t="s">
-        <v>3639</v>
+        <v>3644</v>
       </c>
       <c r="D1502">
         <v>68000</v>
       </c>
-      <c r="E1502">
-        <v>68000</v>
-      </c>
-      <c r="F1502">
-        <v>68000</v>
-      </c>
-      <c r="G1502" t="s">
+      <c r="E1502" t="s">
         <v>973</v>
       </c>
       <c r="H1502" t="s">
@@ -59257,15 +59329,15 @@
         <v>2375</v>
       </c>
       <c r="M1502" t="s">
-        <v>3642</v>
+        <v>4483</v>
       </c>
     </row>
     <row r="1503" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1503">
-        <v>1573</v>
+        <v>1576</v>
       </c>
       <c r="B1503" t="s">
-        <v>3643</v>
+        <v>3649</v>
       </c>
       <c r="C1503" t="s">
         <v>3644</v>
@@ -59274,21 +59346,24 @@
         <v>68000</v>
       </c>
       <c r="E1503" t="s">
-        <v>154</v>
+        <v>973</v>
       </c>
       <c r="H1503" t="s">
-        <v>336</v>
+        <v>551</v>
+      </c>
+      <c r="I1503" t="s">
+        <v>2375</v>
       </c>
       <c r="M1503" t="s">
-        <v>3645</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="1504" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1504">
-        <v>1574</v>
+        <v>1577</v>
       </c>
       <c r="B1504" t="s">
-        <v>3646</v>
+        <v>3650</v>
       </c>
       <c r="C1504" t="s">
         <v>3644</v>
@@ -59297,21 +59372,24 @@
         <v>68000</v>
       </c>
       <c r="E1504" t="s">
-        <v>154</v>
+        <v>973</v>
       </c>
       <c r="H1504" t="s">
-        <v>336</v>
+        <v>551</v>
+      </c>
+      <c r="I1504" t="s">
+        <v>2375</v>
       </c>
       <c r="M1504" t="s">
-        <v>3647</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1505" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1505">
-        <v>1575</v>
+        <v>1578</v>
       </c>
       <c r="B1505" t="s">
-        <v>3648</v>
+        <v>3652</v>
       </c>
       <c r="C1505" t="s">
         <v>3644</v>
@@ -59329,15 +59407,15 @@
         <v>2375</v>
       </c>
       <c r="M1505" t="s">
-        <v>4483</v>
+        <v>3653</v>
       </c>
     </row>
     <row r="1506" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1506">
-        <v>1576</v>
+        <v>1579</v>
       </c>
       <c r="B1506" t="s">
-        <v>3649</v>
+        <v>3654</v>
       </c>
       <c r="C1506" t="s">
         <v>3644</v>
@@ -59355,15 +59433,15 @@
         <v>2375</v>
       </c>
       <c r="M1506" t="s">
-        <v>4484</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="1507" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1507">
-        <v>1577</v>
+        <v>1580</v>
       </c>
       <c r="B1507" t="s">
-        <v>3650</v>
+        <v>3656</v>
       </c>
       <c r="C1507" t="s">
         <v>3644</v>
@@ -59381,15 +59459,15 @@
         <v>2375</v>
       </c>
       <c r="M1507" t="s">
-        <v>3651</v>
+        <v>3657</v>
       </c>
     </row>
     <row r="1508" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1508">
-        <v>1578</v>
+        <v>1581</v>
       </c>
       <c r="B1508" t="s">
-        <v>3652</v>
+        <v>3658</v>
       </c>
       <c r="C1508" t="s">
         <v>3644</v>
@@ -59407,15 +59485,15 @@
         <v>2375</v>
       </c>
       <c r="M1508" t="s">
-        <v>3653</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="1509" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1509">
-        <v>1579</v>
+        <v>1582</v>
       </c>
       <c r="B1509" t="s">
-        <v>3654</v>
+        <v>3660</v>
       </c>
       <c r="C1509" t="s">
         <v>3644</v>
@@ -59433,15 +59511,15 @@
         <v>2375</v>
       </c>
       <c r="M1509" t="s">
-        <v>3655</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="1510" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1510">
-        <v>1580</v>
+        <v>1583</v>
       </c>
       <c r="B1510" t="s">
-        <v>3656</v>
+        <v>3662</v>
       </c>
       <c r="C1510" t="s">
         <v>3644</v>
@@ -59459,15 +59537,15 @@
         <v>2375</v>
       </c>
       <c r="M1510" t="s">
-        <v>3657</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="1511" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1511">
-        <v>1581</v>
+        <v>1584</v>
       </c>
       <c r="B1511" t="s">
-        <v>3658</v>
+        <v>3664</v>
       </c>
       <c r="C1511" t="s">
         <v>3644</v>
@@ -59485,15 +59563,15 @@
         <v>2375</v>
       </c>
       <c r="M1511" t="s">
-        <v>3659</v>
+        <v>3665</v>
       </c>
     </row>
     <row r="1512" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1512">
-        <v>1582</v>
+        <v>1585</v>
       </c>
       <c r="B1512" t="s">
-        <v>3660</v>
+        <v>3666</v>
       </c>
       <c r="C1512" t="s">
         <v>3644</v>
@@ -59511,15 +59589,15 @@
         <v>2375</v>
       </c>
       <c r="M1512" t="s">
-        <v>3661</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="1513" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1513">
-        <v>1583</v>
+        <v>1586</v>
       </c>
       <c r="B1513" t="s">
-        <v>3662</v>
+        <v>3668</v>
       </c>
       <c r="C1513" t="s">
         <v>3644</v>
@@ -59537,15 +59615,15 @@
         <v>2375</v>
       </c>
       <c r="M1513" t="s">
-        <v>3663</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="1514" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1514">
-        <v>1584</v>
+        <v>1587</v>
       </c>
       <c r="B1514" t="s">
-        <v>3664</v>
+        <v>3670</v>
       </c>
       <c r="C1514" t="s">
         <v>3644</v>
@@ -59563,15 +59641,15 @@
         <v>2375</v>
       </c>
       <c r="M1514" t="s">
-        <v>3665</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="1515" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1515">
-        <v>1585</v>
+        <v>1588</v>
       </c>
       <c r="B1515" t="s">
-        <v>3666</v>
+        <v>3671</v>
       </c>
       <c r="C1515" t="s">
         <v>3644</v>
@@ -59589,15 +59667,15 @@
         <v>2375</v>
       </c>
       <c r="M1515" t="s">
-        <v>3667</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="1516" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1516">
-        <v>1586</v>
+        <v>1589</v>
       </c>
       <c r="B1516" t="s">
-        <v>3668</v>
+        <v>3672</v>
       </c>
       <c r="C1516" t="s">
         <v>3644</v>
@@ -59615,15 +59693,15 @@
         <v>2375</v>
       </c>
       <c r="M1516" t="s">
-        <v>3669</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="1517" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1517">
-        <v>1587</v>
+        <v>1590</v>
       </c>
       <c r="B1517" t="s">
-        <v>3670</v>
+        <v>3674</v>
       </c>
       <c r="C1517" t="s">
         <v>3644</v>
@@ -59641,15 +59719,15 @@
         <v>2375</v>
       </c>
       <c r="M1517" t="s">
-        <v>4485</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="1518" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1518">
-        <v>1588</v>
+        <v>1591</v>
       </c>
       <c r="B1518" t="s">
-        <v>3671</v>
+        <v>3676</v>
       </c>
       <c r="C1518" t="s">
         <v>3644</v>
@@ -59667,15 +59745,15 @@
         <v>2375</v>
       </c>
       <c r="M1518" t="s">
-        <v>4486</v>
+        <v>3677</v>
       </c>
     </row>
     <row r="1519" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1519">
-        <v>1589</v>
+        <v>1592</v>
       </c>
       <c r="B1519" t="s">
-        <v>3672</v>
+        <v>3678</v>
       </c>
       <c r="C1519" t="s">
         <v>3644</v>
@@ -59693,15 +59771,15 @@
         <v>2375</v>
       </c>
       <c r="M1519" t="s">
-        <v>3673</v>
+        <v>3679</v>
       </c>
     </row>
     <row r="1520" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1520">
-        <v>1590</v>
+        <v>1593</v>
       </c>
       <c r="B1520" t="s">
-        <v>3674</v>
+        <v>3680</v>
       </c>
       <c r="C1520" t="s">
         <v>3644</v>
@@ -59719,15 +59797,15 @@
         <v>2375</v>
       </c>
       <c r="M1520" t="s">
-        <v>3675</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="1521" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1521">
-        <v>1591</v>
+        <v>1594</v>
       </c>
       <c r="B1521" t="s">
-        <v>3676</v>
+        <v>3682</v>
       </c>
       <c r="C1521" t="s">
         <v>3644</v>
@@ -59745,15 +59823,15 @@
         <v>2375</v>
       </c>
       <c r="M1521" t="s">
-        <v>3677</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="1522" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1522">
-        <v>1592</v>
+        <v>1595</v>
       </c>
       <c r="B1522" t="s">
-        <v>3678</v>
+        <v>3684</v>
       </c>
       <c r="C1522" t="s">
         <v>3644</v>
@@ -59761,25 +59839,19 @@
       <c r="D1522">
         <v>68000</v>
       </c>
-      <c r="E1522" t="s">
-        <v>973</v>
-      </c>
       <c r="H1522" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1522" t="s">
-        <v>2375</v>
+        <v>1492</v>
       </c>
       <c r="M1522" t="s">
-        <v>3679</v>
+        <v>3685</v>
       </c>
     </row>
     <row r="1523" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1523">
-        <v>1593</v>
+        <v>1596</v>
       </c>
       <c r="B1523" t="s">
-        <v>3680</v>
+        <v>3686</v>
       </c>
       <c r="C1523" t="s">
         <v>3644</v>
@@ -59797,87 +59869,84 @@
         <v>2375</v>
       </c>
       <c r="M1523" t="s">
-        <v>3681</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="1524" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1524">
-        <v>1594</v>
+        <v>1597</v>
       </c>
       <c r="B1524" t="s">
-        <v>3682</v>
+        <v>3688</v>
       </c>
       <c r="C1524" t="s">
-        <v>3644</v>
+        <v>3689</v>
       </c>
       <c r="D1524">
         <v>68000</v>
       </c>
       <c r="E1524" t="s">
-        <v>973</v>
+        <v>154</v>
       </c>
       <c r="H1524" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1524" t="s">
-        <v>2375</v>
+        <v>1353</v>
       </c>
       <c r="M1524" t="s">
-        <v>3683</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="1525" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1525">
-        <v>1595</v>
+        <v>1598</v>
       </c>
       <c r="B1525" t="s">
-        <v>3684</v>
+        <v>3691</v>
       </c>
       <c r="C1525" t="s">
-        <v>3644</v>
+        <v>3689</v>
       </c>
       <c r="D1525">
         <v>68000</v>
       </c>
+      <c r="E1525" t="s">
+        <v>154</v>
+      </c>
       <c r="H1525" t="s">
-        <v>1492</v>
+        <v>1353</v>
       </c>
       <c r="M1525" t="s">
-        <v>3685</v>
+        <v>3692</v>
       </c>
     </row>
     <row r="1526" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1526">
-        <v>1596</v>
+        <v>1599</v>
       </c>
       <c r="B1526" t="s">
-        <v>3686</v>
+        <v>3693</v>
       </c>
       <c r="C1526" t="s">
-        <v>3644</v>
+        <v>3689</v>
       </c>
       <c r="D1526">
         <v>68000</v>
       </c>
       <c r="E1526" t="s">
-        <v>973</v>
+        <v>154</v>
       </c>
       <c r="H1526" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1526" t="s">
-        <v>2375</v>
+        <v>1353</v>
       </c>
       <c r="M1526" t="s">
-        <v>3687</v>
+        <v>3694</v>
       </c>
     </row>
     <row r="1527" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1527">
-        <v>1597</v>
+        <v>1600</v>
       </c>
       <c r="B1527" t="s">
-        <v>3688</v>
+        <v>3695</v>
       </c>
       <c r="C1527" t="s">
         <v>3689</v>
@@ -59892,15 +59961,15 @@
         <v>1353</v>
       </c>
       <c r="M1527" t="s">
-        <v>3690</v>
+        <v>3696</v>
       </c>
     </row>
     <row r="1528" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1528">
-        <v>1598</v>
+        <v>1601</v>
       </c>
       <c r="B1528" t="s">
-        <v>3691</v>
+        <v>3697</v>
       </c>
       <c r="C1528" t="s">
         <v>3689</v>
@@ -59915,15 +59984,15 @@
         <v>1353</v>
       </c>
       <c r="M1528" t="s">
-        <v>3692</v>
+        <v>4487</v>
       </c>
     </row>
     <row r="1529" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1529">
-        <v>1599</v>
+        <v>1602</v>
       </c>
       <c r="B1529" t="s">
-        <v>3693</v>
+        <v>3698</v>
       </c>
       <c r="C1529" t="s">
         <v>3689</v>
@@ -59938,153 +60007,150 @@
         <v>1353</v>
       </c>
       <c r="M1529" t="s">
-        <v>3694</v>
+        <v>4488</v>
       </c>
     </row>
     <row r="1530" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1530">
-        <v>1600</v>
+        <v>1603</v>
       </c>
       <c r="B1530" t="s">
-        <v>3695</v>
+        <v>3735</v>
       </c>
       <c r="C1530" t="s">
-        <v>3689</v>
-      </c>
-      <c r="D1530">
-        <v>68000</v>
+        <v>3736</v>
+      </c>
+      <c r="D1530" t="s">
+        <v>14</v>
       </c>
       <c r="E1530" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="H1530" t="s">
-        <v>1353</v>
+        <v>71</v>
       </c>
       <c r="M1530" t="s">
-        <v>3696</v>
+        <v>3737</v>
       </c>
     </row>
     <row r="1531" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1531">
-        <v>1601</v>
+        <v>1604</v>
       </c>
       <c r="B1531" t="s">
-        <v>3697</v>
+        <v>3738</v>
       </c>
       <c r="C1531" t="s">
-        <v>3689</v>
-      </c>
-      <c r="D1531">
-        <v>68000</v>
+        <v>3736</v>
+      </c>
+      <c r="D1531" t="s">
+        <v>14</v>
       </c>
       <c r="E1531" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="H1531" t="s">
-        <v>1353</v>
+        <v>71</v>
       </c>
       <c r="M1531" t="s">
-        <v>4487</v>
+        <v>3739</v>
       </c>
     </row>
     <row r="1532" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1532">
-        <v>1602</v>
+        <v>1605</v>
       </c>
       <c r="B1532" t="s">
-        <v>3698</v>
+        <v>3740</v>
       </c>
       <c r="C1532" t="s">
-        <v>3689</v>
+        <v>3741</v>
       </c>
       <c r="D1532">
         <v>68000</v>
       </c>
       <c r="E1532" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="H1532" t="s">
-        <v>1353</v>
+        <v>349</v>
       </c>
       <c r="M1532" t="s">
-        <v>4488</v>
+        <v>3742</v>
       </c>
     </row>
     <row r="1533" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1533">
-        <v>1603</v>
+        <v>1606</v>
       </c>
       <c r="B1533" t="s">
-        <v>3735</v>
+        <v>3743</v>
       </c>
       <c r="C1533" t="s">
-        <v>3736</v>
-      </c>
-      <c r="D1533" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1533" t="s">
-        <v>14</v>
+        <v>3744</v>
+      </c>
+      <c r="D1533">
+        <v>68000</v>
       </c>
       <c r="H1533" t="s">
-        <v>71</v>
+        <v>172</v>
+      </c>
+      <c r="I1533" t="s">
+        <v>1492</v>
       </c>
       <c r="M1533" t="s">
-        <v>3737</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="1534" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1534">
-        <v>1604</v>
+        <v>1607</v>
       </c>
       <c r="B1534" t="s">
-        <v>3738</v>
+        <v>3746</v>
       </c>
       <c r="C1534" t="s">
-        <v>3736</v>
-      </c>
-      <c r="D1534" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1534" t="s">
-        <v>14</v>
+        <v>3744</v>
+      </c>
+      <c r="D1534">
+        <v>68000</v>
       </c>
       <c r="H1534" t="s">
-        <v>71</v>
+        <v>172</v>
+      </c>
+      <c r="I1534" t="s">
+        <v>1492</v>
       </c>
       <c r="M1534" t="s">
-        <v>3739</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="1535" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1535">
-        <v>1605</v>
+        <v>1608</v>
       </c>
       <c r="B1535" t="s">
-        <v>3740</v>
+        <v>3748</v>
       </c>
       <c r="C1535" t="s">
-        <v>3741</v>
+        <v>3744</v>
       </c>
       <c r="D1535">
         <v>68000</v>
       </c>
-      <c r="E1535" t="s">
-        <v>14</v>
-      </c>
       <c r="H1535" t="s">
-        <v>349</v>
+        <v>2375</v>
       </c>
       <c r="M1535" t="s">
-        <v>3742</v>
+        <v>3749</v>
       </c>
     </row>
     <row r="1536" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1536">
-        <v>1606</v>
+        <v>1609</v>
       </c>
       <c r="B1536" t="s">
-        <v>3743</v>
+        <v>3750</v>
       </c>
       <c r="C1536" t="s">
         <v>3744</v>
@@ -60093,133 +60159,136 @@
         <v>68000</v>
       </c>
       <c r="H1536" t="s">
-        <v>172</v>
-      </c>
-      <c r="I1536" t="s">
-        <v>1492</v>
+        <v>2375</v>
       </c>
       <c r="M1536" t="s">
-        <v>3745</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="1537" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1537">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="B1537" t="s">
-        <v>3746</v>
+        <v>3751</v>
       </c>
       <c r="C1537" t="s">
-        <v>3744</v>
+        <v>3752</v>
       </c>
       <c r="D1537">
         <v>68000</v>
       </c>
       <c r="H1537" t="s">
-        <v>172</v>
-      </c>
-      <c r="I1537" t="s">
         <v>1492</v>
       </c>
       <c r="M1537" t="s">
-        <v>3747</v>
+        <v>3753</v>
       </c>
     </row>
     <row r="1538" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1538">
-        <v>1608</v>
+        <v>1611</v>
       </c>
       <c r="B1538" t="s">
-        <v>3748</v>
+        <v>3754</v>
       </c>
       <c r="C1538" t="s">
-        <v>3744</v>
-      </c>
-      <c r="D1538">
-        <v>68000</v>
+        <v>3755</v>
+      </c>
+      <c r="D1538" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1538" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1538" t="s">
+        <v>14</v>
       </c>
       <c r="H1538" t="s">
-        <v>2375</v>
+        <v>336</v>
+      </c>
+      <c r="I1538" t="s">
+        <v>1492</v>
       </c>
       <c r="M1538" t="s">
-        <v>3749</v>
+        <v>3756</v>
       </c>
     </row>
     <row r="1539" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1539">
-        <v>1609</v>
+        <v>1612</v>
       </c>
       <c r="B1539" t="s">
-        <v>3750</v>
+        <v>3757</v>
       </c>
       <c r="C1539" t="s">
-        <v>3744</v>
-      </c>
-      <c r="D1539">
-        <v>68000</v>
+        <v>3758</v>
+      </c>
+      <c r="D1539" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1539" t="s">
+        <v>725</v>
       </c>
       <c r="H1539" t="s">
-        <v>2375</v>
+        <v>166</v>
       </c>
       <c r="M1539" t="s">
-        <v>4489</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="1540" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1540">
-        <v>1610</v>
+        <v>1613</v>
       </c>
       <c r="B1540" t="s">
-        <v>3751</v>
+        <v>3759</v>
       </c>
       <c r="C1540" t="s">
-        <v>3752</v>
-      </c>
-      <c r="D1540">
-        <v>68000</v>
+        <v>3758</v>
+      </c>
+      <c r="D1540" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1540" t="s">
+        <v>725</v>
       </c>
       <c r="H1540" t="s">
-        <v>1492</v>
+        <v>166</v>
       </c>
       <c r="M1540" t="s">
-        <v>3753</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="1541" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1541">
-        <v>1611</v>
+        <v>1614</v>
       </c>
       <c r="B1541" t="s">
-        <v>3754</v>
+        <v>3761</v>
       </c>
       <c r="C1541" t="s">
-        <v>3755</v>
+        <v>3758</v>
       </c>
       <c r="D1541" t="s">
         <v>14</v>
       </c>
       <c r="E1541" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1541" t="s">
-        <v>14</v>
+        <v>725</v>
       </c>
       <c r="H1541" t="s">
-        <v>336</v>
-      </c>
-      <c r="I1541" t="s">
-        <v>1492</v>
+        <v>166</v>
       </c>
       <c r="M1541" t="s">
-        <v>3756</v>
+        <v>3762</v>
       </c>
     </row>
     <row r="1542" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1542">
-        <v>1612</v>
+        <v>1615</v>
       </c>
       <c r="B1542" t="s">
-        <v>3757</v>
+        <v>3763</v>
       </c>
       <c r="C1542" t="s">
         <v>3758</v>
@@ -60234,15 +60303,15 @@
         <v>166</v>
       </c>
       <c r="M1542" t="s">
-        <v>4490</v>
+        <v>3764</v>
       </c>
     </row>
     <row r="1543" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1543">
-        <v>1613</v>
+        <v>1616</v>
       </c>
       <c r="B1543" t="s">
-        <v>3759</v>
+        <v>3765</v>
       </c>
       <c r="C1543" t="s">
         <v>3758</v>
@@ -60257,147 +60326,138 @@
         <v>166</v>
       </c>
       <c r="M1543" t="s">
-        <v>3760</v>
+        <v>3766</v>
       </c>
     </row>
     <row r="1544" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1544">
-        <v>1614</v>
+        <v>1617</v>
       </c>
       <c r="B1544" t="s">
-        <v>3761</v>
+        <v>3774</v>
       </c>
       <c r="C1544" t="s">
-        <v>3758</v>
+        <v>3775</v>
       </c>
       <c r="D1544" t="s">
         <v>14</v>
       </c>
       <c r="E1544" t="s">
-        <v>725</v>
+        <v>154</v>
       </c>
       <c r="H1544" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M1544" t="s">
-        <v>3762</v>
+        <v>3776</v>
       </c>
     </row>
     <row r="1545" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1545">
-        <v>1615</v>
+        <v>1618</v>
       </c>
       <c r="B1545" t="s">
-        <v>3763</v>
+        <v>3777</v>
       </c>
       <c r="C1545" t="s">
-        <v>3758</v>
+        <v>3778</v>
       </c>
       <c r="D1545" t="s">
         <v>14</v>
       </c>
-      <c r="E1545" t="s">
-        <v>725</v>
-      </c>
       <c r="H1545" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M1545" t="s">
-        <v>3764</v>
+        <v>3779</v>
       </c>
     </row>
     <row r="1546" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1546">
-        <v>1616</v>
+        <v>1619</v>
       </c>
       <c r="B1546" t="s">
-        <v>3765</v>
+        <v>3780</v>
       </c>
       <c r="C1546" t="s">
-        <v>3758</v>
+        <v>3778</v>
       </c>
       <c r="D1546" t="s">
         <v>14</v>
       </c>
-      <c r="E1546" t="s">
-        <v>725</v>
-      </c>
       <c r="H1546" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M1546" t="s">
-        <v>3766</v>
+        <v>3781</v>
       </c>
     </row>
     <row r="1547" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1547">
-        <v>1617</v>
+        <v>1620</v>
       </c>
       <c r="B1547" t="s">
-        <v>3774</v>
+        <v>3782</v>
       </c>
       <c r="C1547" t="s">
-        <v>3775</v>
+        <v>3783</v>
       </c>
       <c r="D1547" t="s">
         <v>14</v>
       </c>
-      <c r="E1547" t="s">
-        <v>154</v>
-      </c>
       <c r="H1547" t="s">
-        <v>172</v>
+        <v>336</v>
       </c>
       <c r="M1547" t="s">
-        <v>3776</v>
+        <v>3784</v>
       </c>
     </row>
     <row r="1548" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1548">
-        <v>1618</v>
+        <v>1621</v>
       </c>
       <c r="B1548" t="s">
-        <v>3777</v>
+        <v>3785</v>
       </c>
       <c r="C1548" t="s">
-        <v>3778</v>
+        <v>3783</v>
       </c>
       <c r="D1548" t="s">
         <v>14</v>
       </c>
       <c r="H1548" t="s">
-        <v>172</v>
+        <v>336</v>
       </c>
       <c r="M1548" t="s">
-        <v>3779</v>
+        <v>3786</v>
       </c>
     </row>
     <row r="1549" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1549">
-        <v>1619</v>
+        <v>1622</v>
       </c>
       <c r="B1549" t="s">
-        <v>3780</v>
+        <v>3787</v>
       </c>
       <c r="C1549" t="s">
-        <v>3778</v>
+        <v>3783</v>
       </c>
       <c r="D1549" t="s">
         <v>14</v>
       </c>
       <c r="H1549" t="s">
-        <v>172</v>
+        <v>336</v>
       </c>
       <c r="M1549" t="s">
-        <v>3781</v>
+        <v>3788</v>
       </c>
     </row>
     <row r="1550" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1550">
-        <v>1620</v>
+        <v>1623</v>
       </c>
       <c r="B1550" t="s">
-        <v>3782</v>
+        <v>3789</v>
       </c>
       <c r="C1550" t="s">
         <v>3783</v>
@@ -60409,270 +60469,306 @@
         <v>336</v>
       </c>
       <c r="M1550" t="s">
-        <v>3784</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="1551" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1551">
-        <v>1621</v>
+        <v>1624</v>
       </c>
       <c r="B1551" t="s">
-        <v>3785</v>
+        <v>3791</v>
       </c>
       <c r="C1551" t="s">
-        <v>3783</v>
+        <v>3792</v>
       </c>
       <c r="D1551" t="s">
-        <v>14</v>
+        <v>405</v>
+      </c>
+      <c r="E1551" t="s">
+        <v>1184</v>
       </c>
       <c r="H1551" t="s">
-        <v>336</v>
+        <v>71</v>
       </c>
       <c r="M1551" t="s">
-        <v>3786</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="1552" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1552">
-        <v>1622</v>
+        <v>1625</v>
       </c>
       <c r="B1552" t="s">
-        <v>3787</v>
+        <v>3794</v>
       </c>
       <c r="C1552" t="s">
-        <v>3783</v>
+        <v>3792</v>
       </c>
       <c r="D1552" t="s">
-        <v>14</v>
+        <v>405</v>
+      </c>
+      <c r="E1552" t="s">
+        <v>1184</v>
       </c>
       <c r="H1552" t="s">
-        <v>336</v>
+        <v>71</v>
       </c>
       <c r="M1552" t="s">
-        <v>3788</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="1553" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1553">
-        <v>1623</v>
+        <v>1626</v>
       </c>
       <c r="B1553" t="s">
-        <v>3789</v>
+        <v>3799</v>
       </c>
       <c r="C1553" t="s">
-        <v>3783</v>
+        <v>3800</v>
       </c>
       <c r="D1553" t="s">
-        <v>14</v>
+        <v>405</v>
+      </c>
+      <c r="E1553" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F1553" t="s">
+        <v>3801</v>
       </c>
       <c r="H1553" t="s">
-        <v>336</v>
+        <v>71</v>
       </c>
       <c r="M1553" t="s">
-        <v>3790</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="1554" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1554">
-        <v>1624</v>
+        <v>1627</v>
       </c>
       <c r="B1554" t="s">
-        <v>3791</v>
+        <v>3803</v>
       </c>
       <c r="C1554" t="s">
-        <v>3792</v>
+        <v>3804</v>
       </c>
       <c r="D1554" t="s">
-        <v>405</v>
-      </c>
-      <c r="E1554" t="s">
-        <v>1184</v>
+        <v>473</v>
       </c>
       <c r="H1554" t="s">
-        <v>71</v>
+        <v>2936</v>
       </c>
       <c r="M1554" t="s">
-        <v>3793</v>
+        <v>3805</v>
       </c>
     </row>
     <row r="1555" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1555">
-        <v>1625</v>
+        <v>1628</v>
       </c>
       <c r="B1555" t="s">
-        <v>3794</v>
+        <v>3806</v>
       </c>
       <c r="C1555" t="s">
-        <v>3792</v>
+        <v>3807</v>
       </c>
       <c r="D1555" t="s">
-        <v>405</v>
-      </c>
-      <c r="E1555" t="s">
-        <v>1184</v>
-      </c>
-      <c r="H1555" t="s">
-        <v>71</v>
+        <v>473</v>
       </c>
       <c r="M1555" t="s">
-        <v>3795</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="1556" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1556">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="B1556" t="s">
-        <v>3799</v>
+        <v>3809</v>
       </c>
       <c r="C1556" t="s">
-        <v>3800</v>
+        <v>3807</v>
       </c>
       <c r="D1556" t="s">
-        <v>405</v>
-      </c>
-      <c r="E1556" t="s">
-        <v>1184</v>
-      </c>
-      <c r="F1556" t="s">
-        <v>3801</v>
-      </c>
-      <c r="H1556" t="s">
-        <v>71</v>
+        <v>473</v>
       </c>
       <c r="M1556" t="s">
-        <v>3802</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="1557" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1557">
-        <v>1627</v>
+        <v>1630</v>
       </c>
       <c r="B1557" t="s">
-        <v>3803</v>
+        <v>3811</v>
       </c>
       <c r="C1557" t="s">
-        <v>3804</v>
-      </c>
-      <c r="D1557" t="s">
-        <v>473</v>
-      </c>
-      <c r="H1557" t="s">
-        <v>2936</v>
+        <v>3812</v>
+      </c>
+      <c r="D1557">
+        <v>8080</v>
       </c>
       <c r="M1557" t="s">
-        <v>3805</v>
+        <v>3813</v>
       </c>
     </row>
     <row r="1558" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1558">
-        <v>1628</v>
+        <v>1631</v>
       </c>
       <c r="B1558" t="s">
-        <v>3806</v>
+        <v>3814</v>
       </c>
       <c r="C1558" t="s">
-        <v>3807</v>
+        <v>3815</v>
       </c>
       <c r="D1558" t="s">
-        <v>473</v>
+        <v>3436</v>
+      </c>
+      <c r="E1558" t="s">
+        <v>3436</v>
+      </c>
+      <c r="F1558" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G1558" t="s">
+        <v>1184</v>
+      </c>
+      <c r="H1558" t="s">
+        <v>333</v>
+      </c>
+      <c r="I1558" t="s">
+        <v>551</v>
       </c>
       <c r="M1558" t="s">
-        <v>3808</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="1559" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1559">
-        <v>1629</v>
+        <v>1632</v>
       </c>
       <c r="B1559" t="s">
-        <v>3809</v>
+        <v>3817</v>
       </c>
       <c r="C1559" t="s">
-        <v>3807</v>
+        <v>3818</v>
       </c>
       <c r="D1559" t="s">
-        <v>473</v>
+        <v>14</v>
+      </c>
+      <c r="H1559" t="s">
+        <v>172</v>
       </c>
       <c r="M1559" t="s">
-        <v>3810</v>
+        <v>3819</v>
       </c>
     </row>
     <row r="1560" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1560">
-        <v>1630</v>
+        <v>1633</v>
       </c>
       <c r="B1560" t="s">
-        <v>3811</v>
+        <v>3820</v>
       </c>
       <c r="C1560" t="s">
-        <v>3812</v>
-      </c>
-      <c r="D1560">
-        <v>8080</v>
+        <v>3821</v>
+      </c>
+      <c r="D1560" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1560" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1560" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1560" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1560" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1560" t="s">
+        <v>166</v>
       </c>
       <c r="M1560" t="s">
-        <v>3813</v>
+        <v>3822</v>
       </c>
     </row>
     <row r="1561" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1561">
-        <v>1631</v>
+        <v>1634</v>
       </c>
       <c r="B1561" t="s">
-        <v>3814</v>
+        <v>3823</v>
       </c>
       <c r="C1561" t="s">
-        <v>3815</v>
+        <v>3821</v>
       </c>
       <c r="D1561" t="s">
-        <v>3436</v>
+        <v>14</v>
       </c>
       <c r="E1561" t="s">
-        <v>3436</v>
+        <v>14</v>
       </c>
       <c r="F1561" t="s">
-        <v>1184</v>
+        <v>14</v>
       </c>
       <c r="G1561" t="s">
-        <v>1184</v>
+        <v>154</v>
       </c>
       <c r="H1561" t="s">
-        <v>333</v>
+        <v>71</v>
       </c>
       <c r="I1561" t="s">
-        <v>551</v>
+        <v>166</v>
       </c>
       <c r="M1561" t="s">
-        <v>3816</v>
+        <v>3824</v>
       </c>
     </row>
     <row r="1562" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1562">
-        <v>1632</v>
+        <v>1635</v>
       </c>
       <c r="B1562" t="s">
-        <v>3817</v>
+        <v>3825</v>
       </c>
       <c r="C1562" t="s">
-        <v>3818</v>
+        <v>3821</v>
       </c>
       <c r="D1562" t="s">
         <v>14</v>
       </c>
+      <c r="E1562" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1562" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1562" t="s">
+        <v>154</v>
+      </c>
       <c r="H1562" t="s">
-        <v>172</v>
+        <v>71</v>
+      </c>
+      <c r="I1562" t="s">
+        <v>166</v>
       </c>
       <c r="M1562" t="s">
-        <v>3819</v>
+        <v>3826</v>
       </c>
     </row>
     <row r="1563" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1563">
-        <v>1633</v>
+        <v>1636</v>
       </c>
       <c r="B1563" t="s">
-        <v>3820</v>
+        <v>3827</v>
       </c>
       <c r="C1563" t="s">
         <v>3821</v>
@@ -60696,266 +60792,230 @@
         <v>166</v>
       </c>
       <c r="M1563" t="s">
-        <v>3822</v>
+        <v>3828</v>
       </c>
     </row>
     <row r="1564" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1564">
-        <v>1634</v>
+        <v>1637</v>
       </c>
       <c r="B1564" t="s">
-        <v>3823</v>
+        <v>3829</v>
       </c>
       <c r="C1564" t="s">
-        <v>3821</v>
-      </c>
-      <c r="D1564" t="s">
-        <v>14</v>
+        <v>3830</v>
+      </c>
+      <c r="D1564">
+        <v>68000</v>
       </c>
       <c r="E1564" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1564" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1564" t="s">
         <v>154</v>
       </c>
       <c r="H1564" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1564" t="s">
-        <v>166</v>
+        <v>1492</v>
       </c>
       <c r="M1564" t="s">
-        <v>3824</v>
+        <v>3831</v>
       </c>
     </row>
     <row r="1565" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1565">
-        <v>1635</v>
+        <v>1645</v>
       </c>
       <c r="B1565" t="s">
-        <v>3825</v>
+        <v>3848</v>
       </c>
       <c r="C1565" t="s">
-        <v>3821</v>
-      </c>
-      <c r="D1565" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1565" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1565" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1565" t="s">
-        <v>154</v>
+        <v>3849</v>
+      </c>
+      <c r="D1565">
+        <v>8080</v>
       </c>
       <c r="H1565" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1565" t="s">
-        <v>166</v>
+        <v>406</v>
       </c>
       <c r="M1565" t="s">
-        <v>3826</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="1566" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1566">
-        <v>1636</v>
+        <v>1646</v>
       </c>
       <c r="B1566" t="s">
-        <v>3827</v>
+        <v>3851</v>
       </c>
       <c r="C1566" t="s">
-        <v>3821</v>
+        <v>3852</v>
       </c>
       <c r="D1566" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1566" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1566" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1566" t="s">
-        <v>154</v>
+        <v>1105</v>
       </c>
       <c r="H1566" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1566" t="s">
-        <v>166</v>
+        <v>336</v>
       </c>
       <c r="M1566" t="s">
-        <v>3828</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="1567" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1567">
-        <v>1637</v>
+        <v>1647</v>
       </c>
       <c r="B1567" t="s">
-        <v>3829</v>
+        <v>3854</v>
       </c>
       <c r="C1567" t="s">
-        <v>3830</v>
-      </c>
-      <c r="D1567">
-        <v>68000</v>
+        <v>3855</v>
+      </c>
+      <c r="D1567" t="s">
+        <v>14</v>
       </c>
       <c r="E1567" t="s">
         <v>154</v>
       </c>
       <c r="H1567" t="s">
-        <v>1492</v>
+        <v>336</v>
       </c>
       <c r="M1567" t="s">
-        <v>3831</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="1568" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1568">
-        <v>1645</v>
+        <v>1648</v>
       </c>
       <c r="B1568" t="s">
-        <v>3848</v>
+        <v>3857</v>
       </c>
       <c r="C1568" t="s">
-        <v>3849</v>
-      </c>
-      <c r="D1568">
-        <v>8080</v>
+        <v>3855</v>
+      </c>
+      <c r="D1568" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1568" t="s">
+        <v>154</v>
       </c>
       <c r="H1568" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
       <c r="M1568" t="s">
-        <v>3850</v>
+        <v>3858</v>
       </c>
     </row>
     <row r="1569" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1569">
-        <v>1646</v>
+        <v>1649</v>
       </c>
       <c r="B1569" t="s">
-        <v>3851</v>
+        <v>3859</v>
       </c>
       <c r="C1569" t="s">
-        <v>3852</v>
+        <v>3860</v>
       </c>
       <c r="D1569" t="s">
-        <v>1105</v>
+        <v>3861</v>
+      </c>
+      <c r="E1569" t="s">
+        <v>725</v>
       </c>
       <c r="H1569" t="s">
-        <v>336</v>
+        <v>2070</v>
       </c>
       <c r="M1569" t="s">
-        <v>3853</v>
+        <v>3862</v>
       </c>
     </row>
     <row r="1570" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1570">
-        <v>1647</v>
+        <v>1650</v>
       </c>
       <c r="B1570" t="s">
-        <v>3854</v>
+        <v>3863</v>
       </c>
       <c r="C1570" t="s">
-        <v>3855</v>
-      </c>
-      <c r="D1570" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1570" t="s">
-        <v>154</v>
+        <v>3864</v>
+      </c>
+      <c r="D1570">
+        <v>68000</v>
       </c>
       <c r="H1570" t="s">
-        <v>336</v>
+        <v>2375</v>
       </c>
       <c r="M1570" t="s">
-        <v>3856</v>
+        <v>3865</v>
       </c>
     </row>
     <row r="1571" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1571">
-        <v>1648</v>
+        <v>1651</v>
       </c>
       <c r="B1571" t="s">
-        <v>3857</v>
+        <v>3866</v>
       </c>
       <c r="C1571" t="s">
-        <v>3855</v>
-      </c>
-      <c r="D1571" t="s">
-        <v>14</v>
+        <v>3867</v>
+      </c>
+      <c r="D1571">
+        <v>68000</v>
       </c>
       <c r="E1571" t="s">
         <v>154</v>
       </c>
       <c r="H1571" t="s">
-        <v>336</v>
+        <v>1236</v>
       </c>
       <c r="M1571" t="s">
-        <v>3858</v>
+        <v>3868</v>
       </c>
     </row>
     <row r="1572" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1572">
-        <v>1649</v>
+        <v>1652</v>
       </c>
       <c r="B1572" t="s">
-        <v>3859</v>
+        <v>3869</v>
       </c>
       <c r="C1572" t="s">
-        <v>3860</v>
+        <v>3870</v>
       </c>
       <c r="D1572" t="s">
-        <v>3861</v>
-      </c>
-      <c r="E1572" t="s">
-        <v>725</v>
+        <v>405</v>
       </c>
       <c r="H1572" t="s">
-        <v>2070</v>
+        <v>71</v>
       </c>
       <c r="M1572" t="s">
-        <v>3862</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="1573" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1573">
-        <v>1650</v>
+        <v>1653</v>
       </c>
       <c r="B1573" t="s">
-        <v>3863</v>
+        <v>3872</v>
       </c>
       <c r="C1573" t="s">
-        <v>3864</v>
-      </c>
-      <c r="D1573">
-        <v>68000</v>
-      </c>
-      <c r="H1573" t="s">
-        <v>2375</v>
+        <v>3873</v>
+      </c>
+      <c r="D1573" t="s">
+        <v>14</v>
       </c>
       <c r="M1573" t="s">
-        <v>3865</v>
+        <v>4493</v>
       </c>
     </row>
     <row r="1574" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1574">
-        <v>1651</v>
+        <v>1654</v>
       </c>
       <c r="B1574" t="s">
-        <v>3866</v>
+        <v>3874</v>
       </c>
       <c r="C1574" t="s">
-        <v>3867</v>
+        <v>3875</v>
       </c>
       <c r="D1574">
         <v>68000</v>
@@ -60964,55 +61024,64 @@
         <v>154</v>
       </c>
       <c r="H1574" t="s">
-        <v>1236</v>
+        <v>1353</v>
       </c>
       <c r="M1574" t="s">
-        <v>3868</v>
+        <v>3876</v>
       </c>
     </row>
     <row r="1575" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1575">
-        <v>1652</v>
+        <v>1655</v>
       </c>
       <c r="B1575" t="s">
-        <v>3869</v>
+        <v>3877</v>
       </c>
       <c r="C1575" t="s">
-        <v>3870</v>
-      </c>
-      <c r="D1575" t="s">
-        <v>405</v>
+        <v>3875</v>
+      </c>
+      <c r="D1575">
+        <v>68000</v>
+      </c>
+      <c r="E1575" t="s">
+        <v>154</v>
       </c>
       <c r="H1575" t="s">
-        <v>71</v>
+        <v>1353</v>
       </c>
       <c r="M1575" t="s">
-        <v>3871</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="1576" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1576">
-        <v>1653</v>
+        <v>1656</v>
       </c>
       <c r="B1576" t="s">
-        <v>3872</v>
+        <v>3878</v>
       </c>
       <c r="C1576" t="s">
-        <v>3873</v>
-      </c>
-      <c r="D1576" t="s">
-        <v>14</v>
+        <v>3875</v>
+      </c>
+      <c r="D1576">
+        <v>68000</v>
+      </c>
+      <c r="E1576" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1576" t="s">
+        <v>1353</v>
       </c>
       <c r="M1576" t="s">
-        <v>4493</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="1577" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1577">
-        <v>1654</v>
+        <v>1657</v>
       </c>
       <c r="B1577" t="s">
-        <v>3874</v>
+        <v>3880</v>
       </c>
       <c r="C1577" t="s">
         <v>3875</v>
@@ -61027,15 +61096,15 @@
         <v>1353</v>
       </c>
       <c r="M1577" t="s">
-        <v>3876</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="1578" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1578">
-        <v>1655</v>
+        <v>1658</v>
       </c>
       <c r="B1578" t="s">
-        <v>3877</v>
+        <v>3882</v>
       </c>
       <c r="C1578" t="s">
         <v>3875</v>
@@ -61050,15 +61119,15 @@
         <v>1353</v>
       </c>
       <c r="M1578" t="s">
-        <v>4494</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="1579" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1579">
-        <v>1656</v>
+        <v>1659</v>
       </c>
       <c r="B1579" t="s">
-        <v>3878</v>
+        <v>3884</v>
       </c>
       <c r="C1579" t="s">
         <v>3875</v>
@@ -61073,15 +61142,15 @@
         <v>1353</v>
       </c>
       <c r="M1579" t="s">
-        <v>3879</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="1580" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1580">
-        <v>1657</v>
+        <v>1660</v>
       </c>
       <c r="B1580" t="s">
-        <v>3880</v>
+        <v>3886</v>
       </c>
       <c r="C1580" t="s">
         <v>3875</v>
@@ -61096,15 +61165,15 @@
         <v>1353</v>
       </c>
       <c r="M1580" t="s">
-        <v>3881</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="1581" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1581">
-        <v>1658</v>
+        <v>1661</v>
       </c>
       <c r="B1581" t="s">
-        <v>3882</v>
+        <v>3888</v>
       </c>
       <c r="C1581" t="s">
         <v>3875</v>
@@ -61119,15 +61188,15 @@
         <v>1353</v>
       </c>
       <c r="M1581" t="s">
-        <v>3883</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="1582" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1582">
-        <v>1659</v>
+        <v>1662</v>
       </c>
       <c r="B1582" t="s">
-        <v>3884</v>
+        <v>3889</v>
       </c>
       <c r="C1582" t="s">
         <v>3875</v>
@@ -61142,15 +61211,15 @@
         <v>1353</v>
       </c>
       <c r="M1582" t="s">
-        <v>3885</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="1583" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1583">
-        <v>1660</v>
+        <v>1663</v>
       </c>
       <c r="B1583" t="s">
-        <v>3886</v>
+        <v>3891</v>
       </c>
       <c r="C1583" t="s">
         <v>3875</v>
@@ -61165,15 +61234,15 @@
         <v>1353</v>
       </c>
       <c r="M1583" t="s">
-        <v>3887</v>
+        <v>3892</v>
       </c>
     </row>
     <row r="1584" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1584">
-        <v>1661</v>
+        <v>1664</v>
       </c>
       <c r="B1584" t="s">
-        <v>3888</v>
+        <v>3893</v>
       </c>
       <c r="C1584" t="s">
         <v>3875</v>
@@ -61188,15 +61257,15 @@
         <v>1353</v>
       </c>
       <c r="M1584" t="s">
-        <v>4495</v>
+        <v>3894</v>
       </c>
     </row>
     <row r="1585" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1585">
-        <v>1662</v>
+        <v>1665</v>
       </c>
       <c r="B1585" t="s">
-        <v>3889</v>
+        <v>3895</v>
       </c>
       <c r="C1585" t="s">
         <v>3875</v>
@@ -61211,15 +61280,15 @@
         <v>1353</v>
       </c>
       <c r="M1585" t="s">
-        <v>3890</v>
+        <v>3896</v>
       </c>
     </row>
     <row r="1586" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1586">
-        <v>1663</v>
+        <v>1666</v>
       </c>
       <c r="B1586" t="s">
-        <v>3891</v>
+        <v>3897</v>
       </c>
       <c r="C1586" t="s">
         <v>3875</v>
@@ -61234,15 +61303,15 @@
         <v>1353</v>
       </c>
       <c r="M1586" t="s">
-        <v>3892</v>
+        <v>3898</v>
       </c>
     </row>
     <row r="1587" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1587">
-        <v>1664</v>
+        <v>1667</v>
       </c>
       <c r="B1587" t="s">
-        <v>3893</v>
+        <v>3899</v>
       </c>
       <c r="C1587" t="s">
         <v>3875</v>
@@ -61257,15 +61326,15 @@
         <v>1353</v>
       </c>
       <c r="M1587" t="s">
-        <v>3894</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="1588" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1588">
-        <v>1665</v>
+        <v>1668</v>
       </c>
       <c r="B1588" t="s">
-        <v>3895</v>
+        <v>3900</v>
       </c>
       <c r="C1588" t="s">
         <v>3875</v>
@@ -61280,15 +61349,15 @@
         <v>1353</v>
       </c>
       <c r="M1588" t="s">
-        <v>3896</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="1589" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1589">
-        <v>1666</v>
+        <v>1669</v>
       </c>
       <c r="B1589" t="s">
-        <v>3897</v>
+        <v>3901</v>
       </c>
       <c r="C1589" t="s">
         <v>3875</v>
@@ -61303,15 +61372,15 @@
         <v>1353</v>
       </c>
       <c r="M1589" t="s">
-        <v>3898</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="1590" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1590">
-        <v>1667</v>
+        <v>1670</v>
       </c>
       <c r="B1590" t="s">
-        <v>3899</v>
+        <v>3903</v>
       </c>
       <c r="C1590" t="s">
         <v>3875</v>
@@ -61326,15 +61395,15 @@
         <v>1353</v>
       </c>
       <c r="M1590" t="s">
-        <v>4496</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="1591" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1591">
-        <v>1668</v>
+        <v>1671</v>
       </c>
       <c r="B1591" t="s">
-        <v>3900</v>
+        <v>3905</v>
       </c>
       <c r="C1591" t="s">
         <v>3875</v>
@@ -61349,15 +61418,15 @@
         <v>1353</v>
       </c>
       <c r="M1591" t="s">
-        <v>4497</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="1592" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1592">
-        <v>1669</v>
+        <v>1672</v>
       </c>
       <c r="B1592" t="s">
-        <v>3901</v>
+        <v>3907</v>
       </c>
       <c r="C1592" t="s">
         <v>3875</v>
@@ -61372,15 +61441,15 @@
         <v>1353</v>
       </c>
       <c r="M1592" t="s">
-        <v>3902</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="1593" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1593">
-        <v>1670</v>
+        <v>1673</v>
       </c>
       <c r="B1593" t="s">
-        <v>3903</v>
+        <v>3909</v>
       </c>
       <c r="C1593" t="s">
         <v>3875</v>
@@ -61395,15 +61464,15 @@
         <v>1353</v>
       </c>
       <c r="M1593" t="s">
-        <v>3904</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="1594" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1594">
-        <v>1671</v>
+        <v>1674</v>
       </c>
       <c r="B1594" t="s">
-        <v>3905</v>
+        <v>3911</v>
       </c>
       <c r="C1594" t="s">
         <v>3875</v>
@@ -61418,15 +61487,15 @@
         <v>1353</v>
       </c>
       <c r="M1594" t="s">
-        <v>3906</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="1595" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1595">
-        <v>1672</v>
+        <v>1675</v>
       </c>
       <c r="B1595" t="s">
-        <v>3907</v>
+        <v>3913</v>
       </c>
       <c r="C1595" t="s">
         <v>3875</v>
@@ -61441,15 +61510,15 @@
         <v>1353</v>
       </c>
       <c r="M1595" t="s">
-        <v>3908</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="1596" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1596">
-        <v>1673</v>
+        <v>1676</v>
       </c>
       <c r="B1596" t="s">
-        <v>3909</v>
+        <v>3914</v>
       </c>
       <c r="C1596" t="s">
         <v>3875</v>
@@ -61464,15 +61533,15 @@
         <v>1353</v>
       </c>
       <c r="M1596" t="s">
-        <v>3910</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="1597" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1597">
-        <v>1674</v>
+        <v>1677</v>
       </c>
       <c r="B1597" t="s">
-        <v>3911</v>
+        <v>3916</v>
       </c>
       <c r="C1597" t="s">
         <v>3875</v>
@@ -61487,15 +61556,15 @@
         <v>1353</v>
       </c>
       <c r="M1597" t="s">
-        <v>3912</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="1598" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1598">
-        <v>1675</v>
+        <v>1678</v>
       </c>
       <c r="B1598" t="s">
-        <v>3913</v>
+        <v>3918</v>
       </c>
       <c r="C1598" t="s">
         <v>3875</v>
@@ -61510,15 +61579,15 @@
         <v>1353</v>
       </c>
       <c r="M1598" t="s">
-        <v>4498</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="1599" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1599">
-        <v>1676</v>
+        <v>1679</v>
       </c>
       <c r="B1599" t="s">
-        <v>3914</v>
+        <v>3920</v>
       </c>
       <c r="C1599" t="s">
         <v>3875</v>
@@ -61533,15 +61602,15 @@
         <v>1353</v>
       </c>
       <c r="M1599" t="s">
-        <v>3915</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="1600" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1600">
-        <v>1677</v>
+        <v>1680</v>
       </c>
       <c r="B1600" t="s">
-        <v>3916</v>
+        <v>3921</v>
       </c>
       <c r="C1600" t="s">
         <v>3875</v>
@@ -61556,15 +61625,15 @@
         <v>1353</v>
       </c>
       <c r="M1600" t="s">
-        <v>3917</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="1601" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1601">
-        <v>1678</v>
+        <v>1681</v>
       </c>
       <c r="B1601" t="s">
-        <v>3918</v>
+        <v>3922</v>
       </c>
       <c r="C1601" t="s">
         <v>3875</v>
@@ -61579,15 +61648,15 @@
         <v>1353</v>
       </c>
       <c r="M1601" t="s">
-        <v>3919</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="1602" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1602">
-        <v>1679</v>
+        <v>1682</v>
       </c>
       <c r="B1602" t="s">
-        <v>3920</v>
+        <v>3923</v>
       </c>
       <c r="C1602" t="s">
         <v>3875</v>
@@ -61602,15 +61671,15 @@
         <v>1353</v>
       </c>
       <c r="M1602" t="s">
-        <v>4499</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="1603" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1603">
-        <v>1680</v>
+        <v>1683</v>
       </c>
       <c r="B1603" t="s">
-        <v>3921</v>
+        <v>3925</v>
       </c>
       <c r="C1603" t="s">
         <v>3875</v>
@@ -61625,15 +61694,15 @@
         <v>1353</v>
       </c>
       <c r="M1603" t="s">
-        <v>4500</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="1604" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1604">
-        <v>1681</v>
+        <v>1684</v>
       </c>
       <c r="B1604" t="s">
-        <v>3922</v>
+        <v>3927</v>
       </c>
       <c r="C1604" t="s">
         <v>3875</v>
@@ -61648,15 +61717,15 @@
         <v>1353</v>
       </c>
       <c r="M1604" t="s">
-        <v>4501</v>
+        <v>4502</v>
       </c>
     </row>
     <row r="1605" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1605">
-        <v>1682</v>
+        <v>1685</v>
       </c>
       <c r="B1605" t="s">
-        <v>3923</v>
+        <v>3928</v>
       </c>
       <c r="C1605" t="s">
         <v>3875</v>
@@ -61671,15 +61740,15 @@
         <v>1353</v>
       </c>
       <c r="M1605" t="s">
-        <v>3924</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="1606" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1606">
-        <v>1683</v>
+        <v>1686</v>
       </c>
       <c r="B1606" t="s">
-        <v>3925</v>
+        <v>3930</v>
       </c>
       <c r="C1606" t="s">
         <v>3875</v>
@@ -61694,15 +61763,15 @@
         <v>1353</v>
       </c>
       <c r="M1606" t="s">
-        <v>3926</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="1607" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1607">
-        <v>1684</v>
+        <v>1687</v>
       </c>
       <c r="B1607" t="s">
-        <v>3927</v>
+        <v>3931</v>
       </c>
       <c r="C1607" t="s">
         <v>3875</v>
@@ -61717,15 +61786,15 @@
         <v>1353</v>
       </c>
       <c r="M1607" t="s">
-        <v>4502</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="1608" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1608">
-        <v>1685</v>
+        <v>1688</v>
       </c>
       <c r="B1608" t="s">
-        <v>3928</v>
+        <v>3933</v>
       </c>
       <c r="C1608" t="s">
         <v>3875</v>
@@ -61740,15 +61809,15 @@
         <v>1353</v>
       </c>
       <c r="M1608" t="s">
-        <v>3929</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="1609" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1609">
-        <v>1686</v>
+        <v>1689</v>
       </c>
       <c r="B1609" t="s">
-        <v>3930</v>
+        <v>3935</v>
       </c>
       <c r="C1609" t="s">
         <v>3875</v>
@@ -61763,15 +61832,15 @@
         <v>1353</v>
       </c>
       <c r="M1609" t="s">
-        <v>4503</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="1610" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1610">
-        <v>1687</v>
+        <v>1690</v>
       </c>
       <c r="B1610" t="s">
-        <v>3931</v>
+        <v>3936</v>
       </c>
       <c r="C1610" t="s">
         <v>3875</v>
@@ -61786,15 +61855,15 @@
         <v>1353</v>
       </c>
       <c r="M1610" t="s">
-        <v>3932</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="1611" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1611">
-        <v>1688</v>
+        <v>1691</v>
       </c>
       <c r="B1611" t="s">
-        <v>3933</v>
+        <v>3937</v>
       </c>
       <c r="C1611" t="s">
         <v>3875</v>
@@ -61809,15 +61878,15 @@
         <v>1353</v>
       </c>
       <c r="M1611" t="s">
-        <v>3934</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="1612" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1612">
-        <v>1689</v>
+        <v>1692</v>
       </c>
       <c r="B1612" t="s">
-        <v>3935</v>
+        <v>3939</v>
       </c>
       <c r="C1612" t="s">
         <v>3875</v>
@@ -61832,15 +61901,15 @@
         <v>1353</v>
       </c>
       <c r="M1612" t="s">
-        <v>4504</v>
+        <v>4506</v>
       </c>
     </row>
     <row r="1613" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1613">
-        <v>1690</v>
+        <v>1693</v>
       </c>
       <c r="B1613" t="s">
-        <v>3936</v>
+        <v>3940</v>
       </c>
       <c r="C1613" t="s">
         <v>3875</v>
@@ -61855,15 +61924,15 @@
         <v>1353</v>
       </c>
       <c r="M1613" t="s">
-        <v>4505</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="1614" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1614">
-        <v>1691</v>
+        <v>1694</v>
       </c>
       <c r="B1614" t="s">
-        <v>3937</v>
+        <v>3941</v>
       </c>
       <c r="C1614" t="s">
         <v>3875</v>
@@ -61878,15 +61947,15 @@
         <v>1353</v>
       </c>
       <c r="M1614" t="s">
-        <v>3938</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="1615" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1615">
-        <v>1692</v>
+        <v>1695</v>
       </c>
       <c r="B1615" t="s">
-        <v>3939</v>
+        <v>3942</v>
       </c>
       <c r="C1615" t="s">
         <v>3875</v>
@@ -61901,15 +61970,15 @@
         <v>1353</v>
       </c>
       <c r="M1615" t="s">
-        <v>4506</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="1616" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1616">
-        <v>1693</v>
+        <v>1696</v>
       </c>
       <c r="B1616" t="s">
-        <v>3940</v>
+        <v>3943</v>
       </c>
       <c r="C1616" t="s">
         <v>3875</v>
@@ -61924,15 +61993,15 @@
         <v>1353</v>
       </c>
       <c r="M1616" t="s">
-        <v>4507</v>
+        <v>4510</v>
       </c>
     </row>
     <row r="1617" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1617">
-        <v>1694</v>
+        <v>1697</v>
       </c>
       <c r="B1617" t="s">
-        <v>3941</v>
+        <v>3944</v>
       </c>
       <c r="C1617" t="s">
         <v>3875</v>
@@ -61947,15 +62016,15 @@
         <v>1353</v>
       </c>
       <c r="M1617" t="s">
-        <v>4508</v>
+        <v>4511</v>
       </c>
     </row>
     <row r="1618" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1618">
-        <v>1695</v>
+        <v>1698</v>
       </c>
       <c r="B1618" t="s">
-        <v>3942</v>
+        <v>3945</v>
       </c>
       <c r="C1618" t="s">
         <v>3875</v>
@@ -61970,15 +62039,15 @@
         <v>1353</v>
       </c>
       <c r="M1618" t="s">
-        <v>4509</v>
+        <v>4512</v>
       </c>
     </row>
     <row r="1619" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1619">
-        <v>1696</v>
+        <v>1699</v>
       </c>
       <c r="B1619" t="s">
-        <v>3943</v>
+        <v>3946</v>
       </c>
       <c r="C1619" t="s">
         <v>3875</v>
@@ -61993,15 +62062,15 @@
         <v>1353</v>
       </c>
       <c r="M1619" t="s">
-        <v>4510</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="1620" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1620">
-        <v>1697</v>
+        <v>1700</v>
       </c>
       <c r="B1620" t="s">
-        <v>3944</v>
+        <v>3948</v>
       </c>
       <c r="C1620" t="s">
         <v>3875</v>
@@ -62016,15 +62085,15 @@
         <v>1353</v>
       </c>
       <c r="M1620" t="s">
-        <v>4511</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="1621" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1621">
-        <v>1698</v>
+        <v>1701</v>
       </c>
       <c r="B1621" t="s">
-        <v>3945</v>
+        <v>3950</v>
       </c>
       <c r="C1621" t="s">
         <v>3875</v>
@@ -62039,15 +62108,15 @@
         <v>1353</v>
       </c>
       <c r="M1621" t="s">
-        <v>4512</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="1622" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1622">
-        <v>1699</v>
+        <v>1702</v>
       </c>
       <c r="B1622" t="s">
-        <v>3946</v>
+        <v>3952</v>
       </c>
       <c r="C1622" t="s">
         <v>3875</v>
@@ -62062,15 +62131,15 @@
         <v>1353</v>
       </c>
       <c r="M1622" t="s">
-        <v>3947</v>
+        <v>4513</v>
       </c>
     </row>
     <row r="1623" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1623">
-        <v>1700</v>
+        <v>1703</v>
       </c>
       <c r="B1623" t="s">
-        <v>3948</v>
+        <v>3953</v>
       </c>
       <c r="C1623" t="s">
         <v>3875</v>
@@ -62085,15 +62154,15 @@
         <v>1353</v>
       </c>
       <c r="M1623" t="s">
-        <v>3949</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="1624" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1624">
-        <v>1701</v>
+        <v>1704</v>
       </c>
       <c r="B1624" t="s">
-        <v>3950</v>
+        <v>3955</v>
       </c>
       <c r="C1624" t="s">
         <v>3875</v>
@@ -62108,15 +62177,15 @@
         <v>1353</v>
       </c>
       <c r="M1624" t="s">
-        <v>3951</v>
+        <v>3956</v>
       </c>
     </row>
     <row r="1625" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1625">
-        <v>1702</v>
+        <v>1705</v>
       </c>
       <c r="B1625" t="s">
-        <v>3952</v>
+        <v>3957</v>
       </c>
       <c r="C1625" t="s">
         <v>3875</v>
@@ -62131,15 +62200,15 @@
         <v>1353</v>
       </c>
       <c r="M1625" t="s">
-        <v>4513</v>
+        <v>4514</v>
       </c>
     </row>
     <row r="1626" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1626">
-        <v>1703</v>
+        <v>1706</v>
       </c>
       <c r="B1626" t="s">
-        <v>3953</v>
+        <v>3958</v>
       </c>
       <c r="C1626" t="s">
         <v>3875</v>
@@ -62154,15 +62223,15 @@
         <v>1353</v>
       </c>
       <c r="M1626" t="s">
-        <v>3954</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="1627" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1627">
-        <v>1704</v>
+        <v>1707</v>
       </c>
       <c r="B1627" t="s">
-        <v>3955</v>
+        <v>3960</v>
       </c>
       <c r="C1627" t="s">
         <v>3875</v>
@@ -62177,15 +62246,15 @@
         <v>1353</v>
       </c>
       <c r="M1627" t="s">
-        <v>3956</v>
+        <v>4515</v>
       </c>
     </row>
     <row r="1628" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1628">
-        <v>1705</v>
+        <v>1708</v>
       </c>
       <c r="B1628" t="s">
-        <v>3957</v>
+        <v>3961</v>
       </c>
       <c r="C1628" t="s">
         <v>3875</v>
@@ -62200,15 +62269,15 @@
         <v>1353</v>
       </c>
       <c r="M1628" t="s">
-        <v>4514</v>
+        <v>4516</v>
       </c>
     </row>
     <row r="1629" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1629">
-        <v>1706</v>
+        <v>1709</v>
       </c>
       <c r="B1629" t="s">
-        <v>3958</v>
+        <v>3962</v>
       </c>
       <c r="C1629" t="s">
         <v>3875</v>
@@ -62223,15 +62292,15 @@
         <v>1353</v>
       </c>
       <c r="M1629" t="s">
-        <v>3959</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="1630" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1630">
-        <v>1707</v>
+        <v>1710</v>
       </c>
       <c r="B1630" t="s">
-        <v>3960</v>
+        <v>3963</v>
       </c>
       <c r="C1630" t="s">
         <v>3875</v>
@@ -62246,15 +62315,15 @@
         <v>1353</v>
       </c>
       <c r="M1630" t="s">
-        <v>4515</v>
+        <v>4518</v>
       </c>
     </row>
     <row r="1631" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1631">
-        <v>1708</v>
+        <v>1711</v>
       </c>
       <c r="B1631" t="s">
-        <v>3961</v>
+        <v>3964</v>
       </c>
       <c r="C1631" t="s">
         <v>3875</v>
@@ -62269,15 +62338,15 @@
         <v>1353</v>
       </c>
       <c r="M1631" t="s">
-        <v>4516</v>
+        <v>4519</v>
       </c>
     </row>
     <row r="1632" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1632">
-        <v>1709</v>
+        <v>1712</v>
       </c>
       <c r="B1632" t="s">
-        <v>3962</v>
+        <v>3965</v>
       </c>
       <c r="C1632" t="s">
         <v>3875</v>
@@ -62292,15 +62361,15 @@
         <v>1353</v>
       </c>
       <c r="M1632" t="s">
-        <v>4517</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="1633" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1633">
-        <v>1710</v>
+        <v>1713</v>
       </c>
       <c r="B1633" t="s">
-        <v>3963</v>
+        <v>3966</v>
       </c>
       <c r="C1633" t="s">
         <v>3875</v>
@@ -62315,15 +62384,15 @@
         <v>1353</v>
       </c>
       <c r="M1633" t="s">
-        <v>4518</v>
+        <v>3967</v>
       </c>
     </row>
     <row r="1634" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1634">
-        <v>1711</v>
+        <v>1714</v>
       </c>
       <c r="B1634" t="s">
-        <v>3964</v>
+        <v>3968</v>
       </c>
       <c r="C1634" t="s">
         <v>3875</v>
@@ -62338,15 +62407,15 @@
         <v>1353</v>
       </c>
       <c r="M1634" t="s">
-        <v>4519</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="1635" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1635">
-        <v>1712</v>
+        <v>1715</v>
       </c>
       <c r="B1635" t="s">
-        <v>3965</v>
+        <v>3969</v>
       </c>
       <c r="C1635" t="s">
         <v>3875</v>
@@ -62361,15 +62430,15 @@
         <v>1353</v>
       </c>
       <c r="M1635" t="s">
-        <v>4520</v>
+        <v>4522</v>
       </c>
     </row>
     <row r="1636" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1636">
-        <v>1713</v>
+        <v>1716</v>
       </c>
       <c r="B1636" t="s">
-        <v>3966</v>
+        <v>3970</v>
       </c>
       <c r="C1636" t="s">
         <v>3875</v>
@@ -62384,15 +62453,15 @@
         <v>1353</v>
       </c>
       <c r="M1636" t="s">
-        <v>3967</v>
+        <v>3971</v>
       </c>
     </row>
     <row r="1637" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1637">
-        <v>1714</v>
+        <v>1717</v>
       </c>
       <c r="B1637" t="s">
-        <v>3968</v>
+        <v>3972</v>
       </c>
       <c r="C1637" t="s">
         <v>3875</v>
@@ -62407,15 +62476,15 @@
         <v>1353</v>
       </c>
       <c r="M1637" t="s">
-        <v>4521</v>
+        <v>3973</v>
       </c>
     </row>
     <row r="1638" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1638">
-        <v>1715</v>
+        <v>1718</v>
       </c>
       <c r="B1638" t="s">
-        <v>3969</v>
+        <v>3974</v>
       </c>
       <c r="C1638" t="s">
         <v>3875</v>
@@ -62430,15 +62499,15 @@
         <v>1353</v>
       </c>
       <c r="M1638" t="s">
-        <v>4522</v>
+        <v>4523</v>
       </c>
     </row>
     <row r="1639" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1639">
-        <v>1716</v>
+        <v>1719</v>
       </c>
       <c r="B1639" t="s">
-        <v>3970</v>
+        <v>3975</v>
       </c>
       <c r="C1639" t="s">
         <v>3875</v>
@@ -62453,15 +62522,15 @@
         <v>1353</v>
       </c>
       <c r="M1639" t="s">
-        <v>3971</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="1640" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1640">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="B1640" t="s">
-        <v>3972</v>
+        <v>3977</v>
       </c>
       <c r="C1640" t="s">
         <v>3875</v>
@@ -62476,15 +62545,15 @@
         <v>1353</v>
       </c>
       <c r="M1640" t="s">
-        <v>3973</v>
+        <v>4524</v>
       </c>
     </row>
     <row r="1641" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1641">
-        <v>1718</v>
+        <v>1721</v>
       </c>
       <c r="B1641" t="s">
-        <v>3974</v>
+        <v>3978</v>
       </c>
       <c r="C1641" t="s">
         <v>3875</v>
@@ -62499,15 +62568,15 @@
         <v>1353</v>
       </c>
       <c r="M1641" t="s">
-        <v>4523</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="1642" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1642">
-        <v>1719</v>
+        <v>1722</v>
       </c>
       <c r="B1642" t="s">
-        <v>3975</v>
+        <v>3979</v>
       </c>
       <c r="C1642" t="s">
         <v>3875</v>
@@ -62522,15 +62591,15 @@
         <v>1353</v>
       </c>
       <c r="M1642" t="s">
-        <v>3976</v>
+        <v>4526</v>
       </c>
     </row>
     <row r="1643" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1643">
-        <v>1720</v>
+        <v>1723</v>
       </c>
       <c r="B1643" t="s">
-        <v>3977</v>
+        <v>3980</v>
       </c>
       <c r="C1643" t="s">
         <v>3875</v>
@@ -62545,15 +62614,15 @@
         <v>1353</v>
       </c>
       <c r="M1643" t="s">
-        <v>4524</v>
+        <v>4527</v>
       </c>
     </row>
     <row r="1644" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1644">
-        <v>1721</v>
+        <v>1724</v>
       </c>
       <c r="B1644" t="s">
-        <v>3978</v>
+        <v>3981</v>
       </c>
       <c r="C1644" t="s">
         <v>3875</v>
@@ -62568,15 +62637,15 @@
         <v>1353</v>
       </c>
       <c r="M1644" t="s">
-        <v>4525</v>
+        <v>4528</v>
       </c>
     </row>
     <row r="1645" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1645">
-        <v>1722</v>
+        <v>1725</v>
       </c>
       <c r="B1645" t="s">
-        <v>3979</v>
+        <v>3982</v>
       </c>
       <c r="C1645" t="s">
         <v>3875</v>
@@ -62591,15 +62660,15 @@
         <v>1353</v>
       </c>
       <c r="M1645" t="s">
-        <v>4526</v>
+        <v>3983</v>
       </c>
     </row>
     <row r="1646" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1646">
-        <v>1723</v>
+        <v>1726</v>
       </c>
       <c r="B1646" t="s">
-        <v>3980</v>
+        <v>3984</v>
       </c>
       <c r="C1646" t="s">
         <v>3875</v>
@@ -62614,15 +62683,15 @@
         <v>1353</v>
       </c>
       <c r="M1646" t="s">
-        <v>4527</v>
+        <v>4529</v>
       </c>
     </row>
     <row r="1647" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1647">
-        <v>1724</v>
+        <v>1727</v>
       </c>
       <c r="B1647" t="s">
-        <v>3981</v>
+        <v>3985</v>
       </c>
       <c r="C1647" t="s">
         <v>3875</v>
@@ -62637,15 +62706,15 @@
         <v>1353</v>
       </c>
       <c r="M1647" t="s">
-        <v>4528</v>
+        <v>3986</v>
       </c>
     </row>
     <row r="1648" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1648">
-        <v>1725</v>
+        <v>1728</v>
       </c>
       <c r="B1648" t="s">
-        <v>3982</v>
+        <v>3987</v>
       </c>
       <c r="C1648" t="s">
         <v>3875</v>
@@ -62660,15 +62729,15 @@
         <v>1353</v>
       </c>
       <c r="M1648" t="s">
-        <v>3983</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="1649" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1649">
-        <v>1726</v>
+        <v>1729</v>
       </c>
       <c r="B1649" t="s">
-        <v>3984</v>
+        <v>3988</v>
       </c>
       <c r="C1649" t="s">
         <v>3875</v>
@@ -62683,15 +62752,15 @@
         <v>1353</v>
       </c>
       <c r="M1649" t="s">
-        <v>4529</v>
+        <v>3989</v>
       </c>
     </row>
     <row r="1650" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1650">
-        <v>1727</v>
+        <v>1730</v>
       </c>
       <c r="B1650" t="s">
-        <v>3985</v>
+        <v>3990</v>
       </c>
       <c r="C1650" t="s">
         <v>3875</v>
@@ -62706,15 +62775,15 @@
         <v>1353</v>
       </c>
       <c r="M1650" t="s">
-        <v>3986</v>
+        <v>3991</v>
       </c>
     </row>
     <row r="1651" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1651">
-        <v>1728</v>
+        <v>1731</v>
       </c>
       <c r="B1651" t="s">
-        <v>3987</v>
+        <v>3992</v>
       </c>
       <c r="C1651" t="s">
         <v>3875</v>
@@ -62729,15 +62798,15 @@
         <v>1353</v>
       </c>
       <c r="M1651" t="s">
-        <v>4530</v>
+        <v>4531</v>
       </c>
     </row>
     <row r="1652" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1652">
-        <v>1729</v>
+        <v>1732</v>
       </c>
       <c r="B1652" t="s">
-        <v>3988</v>
+        <v>3993</v>
       </c>
       <c r="C1652" t="s">
         <v>3875</v>
@@ -62752,15 +62821,15 @@
         <v>1353</v>
       </c>
       <c r="M1652" t="s">
-        <v>3989</v>
+        <v>4532</v>
       </c>
     </row>
     <row r="1653" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1653">
-        <v>1730</v>
+        <v>1733</v>
       </c>
       <c r="B1653" t="s">
-        <v>3990</v>
+        <v>3994</v>
       </c>
       <c r="C1653" t="s">
         <v>3875</v>
@@ -62775,15 +62844,15 @@
         <v>1353</v>
       </c>
       <c r="M1653" t="s">
-        <v>3991</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="1654" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1654">
-        <v>1731</v>
+        <v>1734</v>
       </c>
       <c r="B1654" t="s">
-        <v>3992</v>
+        <v>3996</v>
       </c>
       <c r="C1654" t="s">
         <v>3875</v>
@@ -62798,15 +62867,15 @@
         <v>1353</v>
       </c>
       <c r="M1654" t="s">
-        <v>4531</v>
+        <v>3997</v>
       </c>
     </row>
     <row r="1655" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1655">
-        <v>1732</v>
+        <v>1735</v>
       </c>
       <c r="B1655" t="s">
-        <v>3993</v>
+        <v>3998</v>
       </c>
       <c r="C1655" t="s">
         <v>3875</v>
@@ -62821,15 +62890,15 @@
         <v>1353</v>
       </c>
       <c r="M1655" t="s">
-        <v>4532</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="1656" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1656">
-        <v>1733</v>
+        <v>1736</v>
       </c>
       <c r="B1656" t="s">
-        <v>3994</v>
+        <v>3999</v>
       </c>
       <c r="C1656" t="s">
         <v>3875</v>
@@ -62844,15 +62913,15 @@
         <v>1353</v>
       </c>
       <c r="M1656" t="s">
-        <v>3995</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="1657" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1657">
-        <v>1734</v>
+        <v>1737</v>
       </c>
       <c r="B1657" t="s">
-        <v>3996</v>
+        <v>4001</v>
       </c>
       <c r="C1657" t="s">
         <v>3875</v>
@@ -62867,15 +62936,15 @@
         <v>1353</v>
       </c>
       <c r="M1657" t="s">
-        <v>3997</v>
+        <v>4534</v>
       </c>
     </row>
     <row r="1658" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1658">
-        <v>1735</v>
+        <v>1738</v>
       </c>
       <c r="B1658" t="s">
-        <v>3998</v>
+        <v>4002</v>
       </c>
       <c r="C1658" t="s">
         <v>3875</v>
@@ -62890,15 +62959,15 @@
         <v>1353</v>
       </c>
       <c r="M1658" t="s">
-        <v>4533</v>
+        <v>4535</v>
       </c>
     </row>
     <row r="1659" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1659">
-        <v>1736</v>
+        <v>1739</v>
       </c>
       <c r="B1659" t="s">
-        <v>3999</v>
+        <v>4003</v>
       </c>
       <c r="C1659" t="s">
         <v>3875</v>
@@ -62913,15 +62982,15 @@
         <v>1353</v>
       </c>
       <c r="M1659" t="s">
-        <v>4000</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="1660" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1660">
-        <v>1737</v>
+        <v>1740</v>
       </c>
       <c r="B1660" t="s">
-        <v>4001</v>
+        <v>4004</v>
       </c>
       <c r="C1660" t="s">
         <v>3875</v>
@@ -62936,15 +63005,15 @@
         <v>1353</v>
       </c>
       <c r="M1660" t="s">
-        <v>4534</v>
+        <v>4537</v>
       </c>
     </row>
     <row r="1661" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1661">
-        <v>1738</v>
+        <v>1741</v>
       </c>
       <c r="B1661" t="s">
-        <v>4002</v>
+        <v>4005</v>
       </c>
       <c r="C1661" t="s">
         <v>3875</v>
@@ -62959,15 +63028,15 @@
         <v>1353</v>
       </c>
       <c r="M1661" t="s">
-        <v>4535</v>
+        <v>4538</v>
       </c>
     </row>
     <row r="1662" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1662">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="B1662" t="s">
-        <v>4003</v>
+        <v>4006</v>
       </c>
       <c r="C1662" t="s">
         <v>3875</v>
@@ -62982,15 +63051,15 @@
         <v>1353</v>
       </c>
       <c r="M1662" t="s">
-        <v>4536</v>
+        <v>4539</v>
       </c>
     </row>
     <row r="1663" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1663">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="B1663" t="s">
-        <v>4004</v>
+        <v>4007</v>
       </c>
       <c r="C1663" t="s">
         <v>3875</v>
@@ -63005,15 +63074,15 @@
         <v>1353</v>
       </c>
       <c r="M1663" t="s">
-        <v>4537</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="1664" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1664">
-        <v>1741</v>
+        <v>1744</v>
       </c>
       <c r="B1664" t="s">
-        <v>4005</v>
+        <v>4009</v>
       </c>
       <c r="C1664" t="s">
         <v>3875</v>
@@ -63028,15 +63097,15 @@
         <v>1353</v>
       </c>
       <c r="M1664" t="s">
-        <v>4538</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="1665" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1665">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="B1665" t="s">
-        <v>4006</v>
+        <v>4010</v>
       </c>
       <c r="C1665" t="s">
         <v>3875</v>
@@ -63051,15 +63120,15 @@
         <v>1353</v>
       </c>
       <c r="M1665" t="s">
-        <v>4539</v>
+        <v>4541</v>
       </c>
     </row>
     <row r="1666" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1666">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="B1666" t="s">
-        <v>4007</v>
+        <v>4011</v>
       </c>
       <c r="C1666" t="s">
         <v>3875</v>
@@ -63074,15 +63143,15 @@
         <v>1353</v>
       </c>
       <c r="M1666" t="s">
-        <v>4008</v>
+        <v>4012</v>
       </c>
     </row>
     <row r="1667" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1667">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="B1667" t="s">
-        <v>4009</v>
+        <v>4013</v>
       </c>
       <c r="C1667" t="s">
         <v>3875</v>
@@ -63097,15 +63166,15 @@
         <v>1353</v>
       </c>
       <c r="M1667" t="s">
-        <v>4540</v>
+        <v>4542</v>
       </c>
     </row>
     <row r="1668" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1668">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B1668" t="s">
-        <v>4010</v>
+        <v>4014</v>
       </c>
       <c r="C1668" t="s">
         <v>3875</v>
@@ -63120,15 +63189,15 @@
         <v>1353</v>
       </c>
       <c r="M1668" t="s">
-        <v>4541</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="1669" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1669">
-        <v>1746</v>
+        <v>1749</v>
       </c>
       <c r="B1669" t="s">
-        <v>4011</v>
+        <v>4016</v>
       </c>
       <c r="C1669" t="s">
         <v>3875</v>
@@ -63143,15 +63212,15 @@
         <v>1353</v>
       </c>
       <c r="M1669" t="s">
-        <v>4012</v>
+        <v>4017</v>
       </c>
     </row>
     <row r="1670" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1670">
-        <v>1747</v>
+        <v>1750</v>
       </c>
       <c r="B1670" t="s">
-        <v>4013</v>
+        <v>4018</v>
       </c>
       <c r="C1670" t="s">
         <v>3875</v>
@@ -63166,15 +63235,15 @@
         <v>1353</v>
       </c>
       <c r="M1670" t="s">
-        <v>4542</v>
+        <v>4543</v>
       </c>
     </row>
     <row r="1671" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1671">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="B1671" t="s">
-        <v>4014</v>
+        <v>4019</v>
       </c>
       <c r="C1671" t="s">
         <v>3875</v>
@@ -63189,15 +63258,15 @@
         <v>1353</v>
       </c>
       <c r="M1671" t="s">
-        <v>4015</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="1672" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1672">
-        <v>1749</v>
+        <v>1752</v>
       </c>
       <c r="B1672" t="s">
-        <v>4016</v>
+        <v>4021</v>
       </c>
       <c r="C1672" t="s">
         <v>3875</v>
@@ -63212,15 +63281,15 @@
         <v>1353</v>
       </c>
       <c r="M1672" t="s">
-        <v>4017</v>
+        <v>4544</v>
       </c>
     </row>
     <row r="1673" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1673">
-        <v>1750</v>
+        <v>1753</v>
       </c>
       <c r="B1673" t="s">
-        <v>4018</v>
+        <v>4022</v>
       </c>
       <c r="C1673" t="s">
         <v>3875</v>
@@ -63235,15 +63304,15 @@
         <v>1353</v>
       </c>
       <c r="M1673" t="s">
-        <v>4543</v>
+        <v>4545</v>
       </c>
     </row>
     <row r="1674" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1674">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="B1674" t="s">
-        <v>4019</v>
+        <v>4023</v>
       </c>
       <c r="C1674" t="s">
         <v>3875</v>
@@ -63258,15 +63327,15 @@
         <v>1353</v>
       </c>
       <c r="M1674" t="s">
-        <v>4020</v>
+        <v>4546</v>
       </c>
     </row>
     <row r="1675" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1675">
-        <v>1752</v>
+        <v>1755</v>
       </c>
       <c r="B1675" t="s">
-        <v>4021</v>
+        <v>4024</v>
       </c>
       <c r="C1675" t="s">
         <v>3875</v>
@@ -63281,15 +63350,15 @@
         <v>1353</v>
       </c>
       <c r="M1675" t="s">
-        <v>4544</v>
+        <v>4547</v>
       </c>
     </row>
     <row r="1676" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1676">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="B1676" t="s">
-        <v>4022</v>
+        <v>4025</v>
       </c>
       <c r="C1676" t="s">
         <v>3875</v>
@@ -63304,15 +63373,15 @@
         <v>1353</v>
       </c>
       <c r="M1676" t="s">
-        <v>4545</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="1677" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1677">
-        <v>1754</v>
+        <v>1757</v>
       </c>
       <c r="B1677" t="s">
-        <v>4023</v>
+        <v>4026</v>
       </c>
       <c r="C1677" t="s">
         <v>3875</v>
@@ -63327,15 +63396,15 @@
         <v>1353</v>
       </c>
       <c r="M1677" t="s">
-        <v>4546</v>
+        <v>4027</v>
       </c>
     </row>
     <row r="1678" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1678">
-        <v>1755</v>
+        <v>1758</v>
       </c>
       <c r="B1678" t="s">
-        <v>4024</v>
+        <v>4028</v>
       </c>
       <c r="C1678" t="s">
         <v>3875</v>
@@ -63350,15 +63419,15 @@
         <v>1353</v>
       </c>
       <c r="M1678" t="s">
-        <v>4547</v>
+        <v>4549</v>
       </c>
     </row>
     <row r="1679" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1679">
-        <v>1756</v>
+        <v>1759</v>
       </c>
       <c r="B1679" t="s">
-        <v>4025</v>
+        <v>4029</v>
       </c>
       <c r="C1679" t="s">
         <v>3875</v>
@@ -63373,15 +63442,15 @@
         <v>1353</v>
       </c>
       <c r="M1679" t="s">
-        <v>4548</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="1680" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1680">
-        <v>1757</v>
+        <v>1760</v>
       </c>
       <c r="B1680" t="s">
-        <v>4026</v>
+        <v>4030</v>
       </c>
       <c r="C1680" t="s">
         <v>3875</v>
@@ -63396,15 +63465,15 @@
         <v>1353</v>
       </c>
       <c r="M1680" t="s">
-        <v>4027</v>
+        <v>4031</v>
       </c>
     </row>
     <row r="1681" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1681">
-        <v>1758</v>
+        <v>1761</v>
       </c>
       <c r="B1681" t="s">
-        <v>4028</v>
+        <v>4032</v>
       </c>
       <c r="C1681" t="s">
         <v>3875</v>
@@ -63419,15 +63488,15 @@
         <v>1353</v>
       </c>
       <c r="M1681" t="s">
-        <v>4549</v>
+        <v>4033</v>
       </c>
     </row>
     <row r="1682" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1682">
-        <v>1759</v>
+        <v>1762</v>
       </c>
       <c r="B1682" t="s">
-        <v>4029</v>
+        <v>4034</v>
       </c>
       <c r="C1682" t="s">
         <v>3875</v>
@@ -63442,15 +63511,15 @@
         <v>1353</v>
       </c>
       <c r="M1682" t="s">
-        <v>4550</v>
+        <v>4035</v>
       </c>
     </row>
     <row r="1683" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1683">
-        <v>1760</v>
+        <v>1763</v>
       </c>
       <c r="B1683" t="s">
-        <v>4030</v>
+        <v>4036</v>
       </c>
       <c r="C1683" t="s">
         <v>3875</v>
@@ -63465,15 +63534,15 @@
         <v>1353</v>
       </c>
       <c r="M1683" t="s">
-        <v>4031</v>
+        <v>4037</v>
       </c>
     </row>
     <row r="1684" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1684">
-        <v>1761</v>
+        <v>1764</v>
       </c>
       <c r="B1684" t="s">
-        <v>4032</v>
+        <v>4038</v>
       </c>
       <c r="C1684" t="s">
         <v>3875</v>
@@ -63488,15 +63557,15 @@
         <v>1353</v>
       </c>
       <c r="M1684" t="s">
-        <v>4033</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="1685" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1685">
-        <v>1762</v>
+        <v>1765</v>
       </c>
       <c r="B1685" t="s">
-        <v>4034</v>
+        <v>4039</v>
       </c>
       <c r="C1685" t="s">
         <v>3875</v>
@@ -63511,15 +63580,15 @@
         <v>1353</v>
       </c>
       <c r="M1685" t="s">
-        <v>4035</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="1686" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1686">
-        <v>1763</v>
+        <v>1766</v>
       </c>
       <c r="B1686" t="s">
-        <v>4036</v>
+        <v>4041</v>
       </c>
       <c r="C1686" t="s">
         <v>3875</v>
@@ -63534,15 +63603,15 @@
         <v>1353</v>
       </c>
       <c r="M1686" t="s">
-        <v>4037</v>
+        <v>4042</v>
       </c>
     </row>
     <row r="1687" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1687">
-        <v>1764</v>
+        <v>1767</v>
       </c>
       <c r="B1687" t="s">
-        <v>4038</v>
+        <v>4043</v>
       </c>
       <c r="C1687" t="s">
         <v>3875</v>
@@ -63557,15 +63626,15 @@
         <v>1353</v>
       </c>
       <c r="M1687" t="s">
-        <v>4551</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="1688" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1688">
-        <v>1765</v>
+        <v>1768</v>
       </c>
       <c r="B1688" t="s">
-        <v>4039</v>
+        <v>4044</v>
       </c>
       <c r="C1688" t="s">
         <v>3875</v>
@@ -63580,15 +63649,15 @@
         <v>1353</v>
       </c>
       <c r="M1688" t="s">
-        <v>4040</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="1689" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1689">
-        <v>1766</v>
+        <v>1769</v>
       </c>
       <c r="B1689" t="s">
-        <v>4041</v>
+        <v>4046</v>
       </c>
       <c r="C1689" t="s">
         <v>3875</v>
@@ -63603,15 +63672,15 @@
         <v>1353</v>
       </c>
       <c r="M1689" t="s">
-        <v>4042</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="1690" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1690">
-        <v>1767</v>
+        <v>1770</v>
       </c>
       <c r="B1690" t="s">
-        <v>4043</v>
+        <v>4047</v>
       </c>
       <c r="C1690" t="s">
         <v>3875</v>
@@ -63626,15 +63695,15 @@
         <v>1353</v>
       </c>
       <c r="M1690" t="s">
-        <v>4552</v>
+        <v>4048</v>
       </c>
     </row>
     <row r="1691" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1691">
-        <v>1768</v>
+        <v>1771</v>
       </c>
       <c r="B1691" t="s">
-        <v>4044</v>
+        <v>4049</v>
       </c>
       <c r="C1691" t="s">
         <v>3875</v>
@@ -63649,15 +63718,15 @@
         <v>1353</v>
       </c>
       <c r="M1691" t="s">
-        <v>4045</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="1692" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1692">
-        <v>1769</v>
+        <v>1772</v>
       </c>
       <c r="B1692" t="s">
-        <v>4046</v>
+        <v>4051</v>
       </c>
       <c r="C1692" t="s">
         <v>3875</v>
@@ -63672,15 +63741,15 @@
         <v>1353</v>
       </c>
       <c r="M1692" t="s">
-        <v>4553</v>
+        <v>4052</v>
       </c>
     </row>
     <row r="1693" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1693">
-        <v>1770</v>
+        <v>1773</v>
       </c>
       <c r="B1693" t="s">
-        <v>4047</v>
+        <v>4053</v>
       </c>
       <c r="C1693" t="s">
         <v>3875</v>
@@ -63695,15 +63764,15 @@
         <v>1353</v>
       </c>
       <c r="M1693" t="s">
-        <v>4048</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="1694" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1694">
-        <v>1771</v>
+        <v>1774</v>
       </c>
       <c r="B1694" t="s">
-        <v>4049</v>
+        <v>4054</v>
       </c>
       <c r="C1694" t="s">
         <v>3875</v>
@@ -63718,15 +63787,15 @@
         <v>1353</v>
       </c>
       <c r="M1694" t="s">
-        <v>4050</v>
+        <v>4555</v>
       </c>
     </row>
     <row r="1695" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1695">
-        <v>1772</v>
+        <v>1775</v>
       </c>
       <c r="B1695" t="s">
-        <v>4051</v>
+        <v>4055</v>
       </c>
       <c r="C1695" t="s">
         <v>3875</v>
@@ -63741,15 +63810,15 @@
         <v>1353</v>
       </c>
       <c r="M1695" t="s">
-        <v>4052</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="1696" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1696">
-        <v>1773</v>
+        <v>1776</v>
       </c>
       <c r="B1696" t="s">
-        <v>4053</v>
+        <v>4056</v>
       </c>
       <c r="C1696" t="s">
         <v>3875</v>
@@ -63764,15 +63833,15 @@
         <v>1353</v>
       </c>
       <c r="M1696" t="s">
-        <v>4554</v>
+        <v>4557</v>
       </c>
     </row>
     <row r="1697" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1697">
-        <v>1774</v>
+        <v>1777</v>
       </c>
       <c r="B1697" t="s">
-        <v>4054</v>
+        <v>4057</v>
       </c>
       <c r="C1697" t="s">
         <v>3875</v>
@@ -63787,15 +63856,15 @@
         <v>1353</v>
       </c>
       <c r="M1697" t="s">
-        <v>4555</v>
+        <v>4558</v>
       </c>
     </row>
     <row r="1698" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1698">
-        <v>1775</v>
+        <v>1778</v>
       </c>
       <c r="B1698" t="s">
-        <v>4055</v>
+        <v>4058</v>
       </c>
       <c r="C1698" t="s">
         <v>3875</v>
@@ -63810,15 +63879,15 @@
         <v>1353</v>
       </c>
       <c r="M1698" t="s">
-        <v>4556</v>
+        <v>4059</v>
       </c>
     </row>
     <row r="1699" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1699">
-        <v>1776</v>
+        <v>1779</v>
       </c>
       <c r="B1699" t="s">
-        <v>4056</v>
+        <v>4060</v>
       </c>
       <c r="C1699" t="s">
         <v>3875</v>
@@ -63833,15 +63902,15 @@
         <v>1353</v>
       </c>
       <c r="M1699" t="s">
-        <v>4557</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="1700" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1700">
-        <v>1777</v>
+        <v>1780</v>
       </c>
       <c r="B1700" t="s">
-        <v>4057</v>
+        <v>4061</v>
       </c>
       <c r="C1700" t="s">
         <v>3875</v>
@@ -63856,80 +63925,11 @@
         <v>1353</v>
       </c>
       <c r="M1700" t="s">
-        <v>4558</v>
-      </c>
-    </row>
-    <row r="1701" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1701">
-        <v>1778</v>
-      </c>
-      <c r="B1701" t="s">
-        <v>4058</v>
-      </c>
-      <c r="C1701" t="s">
-        <v>3875</v>
-      </c>
-      <c r="D1701">
-        <v>68000</v>
-      </c>
-      <c r="E1701" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1701" t="s">
-        <v>1353</v>
-      </c>
-      <c r="M1701" t="s">
-        <v>4059</v>
-      </c>
-    </row>
-    <row r="1702" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1702">
-        <v>1779</v>
-      </c>
-      <c r="B1702" t="s">
-        <v>4060</v>
-      </c>
-      <c r="C1702" t="s">
-        <v>3875</v>
-      </c>
-      <c r="D1702">
-        <v>68000</v>
-      </c>
-      <c r="E1702" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1702" t="s">
-        <v>1353</v>
-      </c>
-      <c r="M1702" t="s">
-        <v>4559</v>
-      </c>
-    </row>
-    <row r="1703" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1703">
-        <v>1780</v>
-      </c>
-      <c r="B1703" t="s">
-        <v>4061</v>
-      </c>
-      <c r="C1703" t="s">
-        <v>3875</v>
-      </c>
-      <c r="D1703">
-        <v>68000</v>
-      </c>
-      <c r="E1703" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1703" t="s">
-        <v>1353</v>
-      </c>
-      <c r="M1703" t="s">
         <v>4062</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1703"/>
+  <autoFilter ref="A1:M1700"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/0.36/compatibility.xlsx
+++ b/0.36/compatibility.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Playable (untested)" sheetId="4" r:id="rId1"/>
@@ -17,8 +17,8 @@
     <sheet name="GAME_NOT_WORKING FLAG" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ALL!$A$1:$M$1686</definedName>
-    <definedName name="LIST" localSheetId="1">ALL!$B$1:$M$1686</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ALL!$A$1:$M$1685</definedName>
+    <definedName name="LIST" localSheetId="1">ALL!$B$1:$M$1685</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12448" uniqueCount="4567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12449" uniqueCount="4567">
   <si>
     <t>romname</t>
   </si>
@@ -14081,10 +14081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P356"/>
+  <dimension ref="A1:P357"/>
   <sheetViews>
-    <sheetView topLeftCell="A340" workbookViewId="0">
-      <selection activeCell="A357" sqref="A357"/>
+    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
+      <selection activeCell="N357" sqref="N357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22180,7 +22180,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>353</v>
       </c>
@@ -22206,7 +22206,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>354</v>
       </c>
@@ -22232,7 +22232,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>355</v>
       </c>
@@ -22258,7 +22258,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>356</v>
       </c>
@@ -22282,6 +22282,38 @@
       </c>
       <c r="M356" t="s">
         <v>2455</v>
+      </c>
+    </row>
+    <row r="357" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>357</v>
+      </c>
+      <c r="B357" t="s">
+        <v>3754</v>
+      </c>
+      <c r="C357" t="s">
+        <v>3755</v>
+      </c>
+      <c r="D357" t="s">
+        <v>14</v>
+      </c>
+      <c r="E357" t="s">
+        <v>14</v>
+      </c>
+      <c r="F357" t="s">
+        <v>14</v>
+      </c>
+      <c r="H357" t="s">
+        <v>336</v>
+      </c>
+      <c r="I357" t="s">
+        <v>1492</v>
+      </c>
+      <c r="M357" t="s">
+        <v>3756</v>
+      </c>
+      <c r="N357" t="s">
+        <v>4566</v>
       </c>
     </row>
   </sheetData>
@@ -22292,10 +22324,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1686"/>
+  <dimension ref="A1:M1685"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1406" workbookViewId="0">
-      <selection activeCell="F980" sqref="F980"/>
+    <sheetView topLeftCell="A1513" workbookViewId="0">
+      <selection activeCell="A1528" sqref="A1528:XFD1528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -60300,39 +60332,33 @@
     </row>
     <row r="1528" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1528">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="B1528" t="s">
-        <v>3754</v>
+        <v>3757</v>
       </c>
       <c r="C1528" t="s">
-        <v>3755</v>
+        <v>3758</v>
       </c>
       <c r="D1528" t="s">
         <v>14</v>
       </c>
       <c r="E1528" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1528" t="s">
-        <v>14</v>
+        <v>725</v>
       </c>
       <c r="H1528" t="s">
-        <v>336</v>
-      </c>
-      <c r="I1528" t="s">
-        <v>1492</v>
+        <v>166</v>
       </c>
       <c r="M1528" t="s">
-        <v>3756</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="1529" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1529">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="B1529" t="s">
-        <v>3757</v>
+        <v>3759</v>
       </c>
       <c r="C1529" t="s">
         <v>3758</v>
@@ -60347,15 +60373,15 @@
         <v>166</v>
       </c>
       <c r="M1529" t="s">
-        <v>4490</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="1530" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1530">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="B1530" t="s">
-        <v>3759</v>
+        <v>3761</v>
       </c>
       <c r="C1530" t="s">
         <v>3758</v>
@@ -60370,15 +60396,15 @@
         <v>166</v>
       </c>
       <c r="M1530" t="s">
-        <v>3760</v>
+        <v>3762</v>
       </c>
     </row>
     <row r="1531" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1531">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="B1531" t="s">
-        <v>3761</v>
+        <v>3763</v>
       </c>
       <c r="C1531" t="s">
         <v>3758</v>
@@ -60393,15 +60419,15 @@
         <v>166</v>
       </c>
       <c r="M1531" t="s">
-        <v>3762</v>
+        <v>3764</v>
       </c>
     </row>
     <row r="1532" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1532">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="B1532" t="s">
-        <v>3763</v>
+        <v>3765</v>
       </c>
       <c r="C1532" t="s">
         <v>3758</v>
@@ -60416,61 +60442,58 @@
         <v>166</v>
       </c>
       <c r="M1532" t="s">
-        <v>3764</v>
+        <v>3766</v>
       </c>
     </row>
     <row r="1533" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1533">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="B1533" t="s">
-        <v>3765</v>
+        <v>3774</v>
       </c>
       <c r="C1533" t="s">
-        <v>3758</v>
+        <v>3775</v>
       </c>
       <c r="D1533" t="s">
         <v>14</v>
       </c>
       <c r="E1533" t="s">
-        <v>725</v>
+        <v>154</v>
       </c>
       <c r="H1533" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M1533" t="s">
-        <v>3766</v>
+        <v>3776</v>
       </c>
     </row>
     <row r="1534" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1534">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="B1534" t="s">
-        <v>3774</v>
+        <v>3777</v>
       </c>
       <c r="C1534" t="s">
-        <v>3775</v>
+        <v>3778</v>
       </c>
       <c r="D1534" t="s">
         <v>14</v>
-      </c>
-      <c r="E1534" t="s">
-        <v>154</v>
       </c>
       <c r="H1534" t="s">
         <v>172</v>
       </c>
       <c r="M1534" t="s">
-        <v>3776</v>
+        <v>3779</v>
       </c>
     </row>
     <row r="1535" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1535">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="B1535" t="s">
-        <v>3777</v>
+        <v>3780</v>
       </c>
       <c r="C1535" t="s">
         <v>3778</v>
@@ -60482,35 +60505,38 @@
         <v>172</v>
       </c>
       <c r="M1535" t="s">
-        <v>3779</v>
+        <v>3781</v>
       </c>
     </row>
     <row r="1536" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1536">
-        <v>1619</v>
+        <v>1624</v>
       </c>
       <c r="B1536" t="s">
-        <v>3780</v>
+        <v>3791</v>
       </c>
       <c r="C1536" t="s">
-        <v>3778</v>
+        <v>3792</v>
       </c>
       <c r="D1536" t="s">
-        <v>14</v>
+        <v>405</v>
+      </c>
+      <c r="E1536" t="s">
+        <v>1184</v>
       </c>
       <c r="H1536" t="s">
-        <v>172</v>
+        <v>71</v>
       </c>
       <c r="M1536" t="s">
-        <v>3781</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="1537" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1537">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="B1537" t="s">
-        <v>3791</v>
+        <v>3794</v>
       </c>
       <c r="C1537" t="s">
         <v>3792</v>
@@ -60525,18 +60551,18 @@
         <v>71</v>
       </c>
       <c r="M1537" t="s">
-        <v>3793</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="1538" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1538">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="B1538" t="s">
-        <v>3794</v>
+        <v>3799</v>
       </c>
       <c r="C1538" t="s">
-        <v>3792</v>
+        <v>3800</v>
       </c>
       <c r="D1538" t="s">
         <v>405</v>
@@ -60544,65 +60570,59 @@
       <c r="E1538" t="s">
         <v>1184</v>
       </c>
+      <c r="F1538" t="s">
+        <v>3801</v>
+      </c>
       <c r="H1538" t="s">
         <v>71</v>
       </c>
       <c r="M1538" t="s">
-        <v>3795</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="1539" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1539">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="B1539" t="s">
-        <v>3799</v>
+        <v>3803</v>
       </c>
       <c r="C1539" t="s">
-        <v>3800</v>
+        <v>3804</v>
       </c>
       <c r="D1539" t="s">
-        <v>405</v>
-      </c>
-      <c r="E1539" t="s">
-        <v>1184</v>
-      </c>
-      <c r="F1539" t="s">
-        <v>3801</v>
+        <v>473</v>
       </c>
       <c r="H1539" t="s">
-        <v>71</v>
+        <v>2936</v>
       </c>
       <c r="M1539" t="s">
-        <v>3802</v>
+        <v>3805</v>
       </c>
     </row>
     <row r="1540" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1540">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="B1540" t="s">
-        <v>3803</v>
+        <v>3806</v>
       </c>
       <c r="C1540" t="s">
-        <v>3804</v>
+        <v>3807</v>
       </c>
       <c r="D1540" t="s">
         <v>473</v>
       </c>
-      <c r="H1540" t="s">
-        <v>2936</v>
-      </c>
       <c r="M1540" t="s">
-        <v>3805</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="1541" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1541">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B1541" t="s">
-        <v>3806</v>
+        <v>3809</v>
       </c>
       <c r="C1541" t="s">
         <v>3807</v>
@@ -60611,101 +60631,116 @@
         <v>473</v>
       </c>
       <c r="M1541" t="s">
-        <v>3808</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="1542" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1542">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B1542" t="s">
-        <v>3809</v>
+        <v>3811</v>
       </c>
       <c r="C1542" t="s">
-        <v>3807</v>
-      </c>
-      <c r="D1542" t="s">
-        <v>473</v>
+        <v>3812</v>
+      </c>
+      <c r="D1542">
+        <v>8080</v>
       </c>
       <c r="M1542" t="s">
-        <v>3810</v>
+        <v>3813</v>
       </c>
     </row>
     <row r="1543" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1543">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="B1543" t="s">
-        <v>3811</v>
+        <v>3814</v>
       </c>
       <c r="C1543" t="s">
-        <v>3812</v>
-      </c>
-      <c r="D1543">
-        <v>8080</v>
+        <v>3815</v>
+      </c>
+      <c r="D1543" t="s">
+        <v>3436</v>
+      </c>
+      <c r="E1543" t="s">
+        <v>3436</v>
+      </c>
+      <c r="F1543" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G1543" t="s">
+        <v>1184</v>
+      </c>
+      <c r="H1543" t="s">
+        <v>333</v>
+      </c>
+      <c r="I1543" t="s">
+        <v>551</v>
       </c>
       <c r="M1543" t="s">
-        <v>3813</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="1544" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1544">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="B1544" t="s">
-        <v>3814</v>
+        <v>3817</v>
       </c>
       <c r="C1544" t="s">
-        <v>3815</v>
+        <v>3818</v>
       </c>
       <c r="D1544" t="s">
-        <v>3436</v>
-      </c>
-      <c r="E1544" t="s">
-        <v>3436</v>
-      </c>
-      <c r="F1544" t="s">
-        <v>1184</v>
-      </c>
-      <c r="G1544" t="s">
-        <v>1184</v>
+        <v>14</v>
       </c>
       <c r="H1544" t="s">
-        <v>333</v>
-      </c>
-      <c r="I1544" t="s">
-        <v>551</v>
+        <v>172</v>
       </c>
       <c r="M1544" t="s">
-        <v>3816</v>
+        <v>3819</v>
       </c>
     </row>
     <row r="1545" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1545">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="B1545" t="s">
-        <v>3817</v>
+        <v>3820</v>
       </c>
       <c r="C1545" t="s">
-        <v>3818</v>
+        <v>3821</v>
       </c>
       <c r="D1545" t="s">
         <v>14</v>
       </c>
+      <c r="E1545" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1545" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1545" t="s">
+        <v>154</v>
+      </c>
       <c r="H1545" t="s">
-        <v>172</v>
+        <v>71</v>
+      </c>
+      <c r="I1545" t="s">
+        <v>166</v>
       </c>
       <c r="M1545" t="s">
-        <v>3819</v>
+        <v>3822</v>
       </c>
     </row>
     <row r="1546" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1546">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="B1546" t="s">
-        <v>3820</v>
+        <v>3823</v>
       </c>
       <c r="C1546" t="s">
         <v>3821</v>
@@ -60729,15 +60764,15 @@
         <v>166</v>
       </c>
       <c r="M1546" t="s">
-        <v>3822</v>
+        <v>3824</v>
       </c>
     </row>
     <row r="1547" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1547">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="B1547" t="s">
-        <v>3823</v>
+        <v>3825</v>
       </c>
       <c r="C1547" t="s">
         <v>3821</v>
@@ -60761,15 +60796,15 @@
         <v>166</v>
       </c>
       <c r="M1547" t="s">
-        <v>3824</v>
+        <v>3826</v>
       </c>
     </row>
     <row r="1548" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1548">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="B1548" t="s">
-        <v>3825</v>
+        <v>3827</v>
       </c>
       <c r="C1548" t="s">
         <v>3821</v>
@@ -60793,110 +60828,101 @@
         <v>166</v>
       </c>
       <c r="M1548" t="s">
-        <v>3826</v>
+        <v>3828</v>
       </c>
     </row>
     <row r="1549" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1549">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="B1549" t="s">
-        <v>3827</v>
+        <v>3829</v>
       </c>
       <c r="C1549" t="s">
-        <v>3821</v>
-      </c>
-      <c r="D1549" t="s">
-        <v>14</v>
+        <v>3830</v>
+      </c>
+      <c r="D1549">
+        <v>68000</v>
       </c>
       <c r="E1549" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1549" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1549" t="s">
         <v>154</v>
       </c>
       <c r="H1549" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1549" t="s">
-        <v>166</v>
+        <v>1492</v>
       </c>
       <c r="M1549" t="s">
-        <v>3828</v>
+        <v>3831</v>
       </c>
     </row>
     <row r="1550" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1550">
-        <v>1637</v>
+        <v>1645</v>
       </c>
       <c r="B1550" t="s">
-        <v>3829</v>
+        <v>3848</v>
       </c>
       <c r="C1550" t="s">
-        <v>3830</v>
+        <v>3849</v>
       </c>
       <c r="D1550">
-        <v>68000</v>
-      </c>
-      <c r="E1550" t="s">
-        <v>154</v>
+        <v>8080</v>
       </c>
       <c r="H1550" t="s">
-        <v>1492</v>
+        <v>406</v>
       </c>
       <c r="M1550" t="s">
-        <v>3831</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="1551" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1551">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="B1551" t="s">
-        <v>3848</v>
+        <v>3851</v>
       </c>
       <c r="C1551" t="s">
-        <v>3849</v>
-      </c>
-      <c r="D1551">
-        <v>8080</v>
+        <v>3852</v>
+      </c>
+      <c r="D1551" t="s">
+        <v>1105</v>
       </c>
       <c r="H1551" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
       <c r="M1551" t="s">
-        <v>3850</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="1552" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1552">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="B1552" t="s">
-        <v>3851</v>
+        <v>3854</v>
       </c>
       <c r="C1552" t="s">
-        <v>3852</v>
+        <v>3855</v>
       </c>
       <c r="D1552" t="s">
-        <v>1105</v>
+        <v>14</v>
+      </c>
+      <c r="E1552" t="s">
+        <v>154</v>
       </c>
       <c r="H1552" t="s">
         <v>336</v>
       </c>
       <c r="M1552" t="s">
-        <v>3853</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="1553" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1553">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="B1553" t="s">
-        <v>3854</v>
+        <v>3857</v>
       </c>
       <c r="C1553" t="s">
         <v>3855</v>
@@ -60911,141 +60937,141 @@
         <v>336</v>
       </c>
       <c r="M1553" t="s">
-        <v>3856</v>
+        <v>3858</v>
       </c>
     </row>
     <row r="1554" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1554">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="B1554" t="s">
-        <v>3857</v>
+        <v>3859</v>
       </c>
       <c r="C1554" t="s">
-        <v>3855</v>
+        <v>3860</v>
       </c>
       <c r="D1554" t="s">
-        <v>14</v>
+        <v>3861</v>
       </c>
       <c r="E1554" t="s">
-        <v>154</v>
+        <v>725</v>
       </c>
       <c r="H1554" t="s">
-        <v>336</v>
+        <v>2070</v>
       </c>
       <c r="M1554" t="s">
-        <v>3858</v>
+        <v>3862</v>
       </c>
     </row>
     <row r="1555" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1555">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="B1555" t="s">
-        <v>3859</v>
+        <v>3863</v>
       </c>
       <c r="C1555" t="s">
-        <v>3860</v>
-      </c>
-      <c r="D1555" t="s">
-        <v>3861</v>
-      </c>
-      <c r="E1555" t="s">
-        <v>725</v>
+        <v>3864</v>
+      </c>
+      <c r="D1555">
+        <v>68000</v>
       </c>
       <c r="H1555" t="s">
-        <v>2070</v>
+        <v>2375</v>
       </c>
       <c r="M1555" t="s">
-        <v>3862</v>
+        <v>3865</v>
       </c>
     </row>
     <row r="1556" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1556">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="B1556" t="s">
-        <v>3863</v>
+        <v>3866</v>
       </c>
       <c r="C1556" t="s">
-        <v>3864</v>
+        <v>3867</v>
       </c>
       <c r="D1556">
         <v>68000</v>
       </c>
+      <c r="E1556" t="s">
+        <v>154</v>
+      </c>
       <c r="H1556" t="s">
-        <v>2375</v>
+        <v>1236</v>
       </c>
       <c r="M1556" t="s">
-        <v>3865</v>
+        <v>3868</v>
       </c>
     </row>
     <row r="1557" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1557">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="B1557" t="s">
-        <v>3866</v>
+        <v>3869</v>
       </c>
       <c r="C1557" t="s">
-        <v>3867</v>
-      </c>
-      <c r="D1557">
-        <v>68000</v>
-      </c>
-      <c r="E1557" t="s">
-        <v>154</v>
+        <v>3870</v>
+      </c>
+      <c r="D1557" t="s">
+        <v>405</v>
       </c>
       <c r="H1557" t="s">
-        <v>1236</v>
+        <v>71</v>
       </c>
       <c r="M1557" t="s">
-        <v>3868</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="1558" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1558">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="B1558" t="s">
-        <v>3869</v>
+        <v>3872</v>
       </c>
       <c r="C1558" t="s">
-        <v>3870</v>
+        <v>3873</v>
       </c>
       <c r="D1558" t="s">
-        <v>405</v>
-      </c>
-      <c r="H1558" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="M1558" t="s">
-        <v>3871</v>
+        <v>4493</v>
       </c>
     </row>
     <row r="1559" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1559">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="B1559" t="s">
-        <v>3872</v>
+        <v>3874</v>
       </c>
       <c r="C1559" t="s">
-        <v>3873</v>
-      </c>
-      <c r="D1559" t="s">
-        <v>14</v>
+        <v>3875</v>
+      </c>
+      <c r="D1559">
+        <v>68000</v>
+      </c>
+      <c r="E1559" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1559" t="s">
+        <v>1353</v>
       </c>
       <c r="M1559" t="s">
-        <v>4493</v>
+        <v>3876</v>
       </c>
     </row>
     <row r="1560" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1560">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="B1560" t="s">
-        <v>3874</v>
+        <v>3877</v>
       </c>
       <c r="C1560" t="s">
         <v>3875</v>
@@ -61060,15 +61086,15 @@
         <v>1353</v>
       </c>
       <c r="M1560" t="s">
-        <v>3876</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="1561" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1561">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="B1561" t="s">
-        <v>3877</v>
+        <v>3878</v>
       </c>
       <c r="C1561" t="s">
         <v>3875</v>
@@ -61083,15 +61109,15 @@
         <v>1353</v>
       </c>
       <c r="M1561" t="s">
-        <v>4494</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="1562" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1562">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="B1562" t="s">
-        <v>3878</v>
+        <v>3880</v>
       </c>
       <c r="C1562" t="s">
         <v>3875</v>
@@ -61106,15 +61132,15 @@
         <v>1353</v>
       </c>
       <c r="M1562" t="s">
-        <v>3879</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="1563" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1563">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="B1563" t="s">
-        <v>3880</v>
+        <v>3882</v>
       </c>
       <c r="C1563" t="s">
         <v>3875</v>
@@ -61129,15 +61155,15 @@
         <v>1353</v>
       </c>
       <c r="M1563" t="s">
-        <v>3881</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="1564" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1564">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="B1564" t="s">
-        <v>3882</v>
+        <v>3884</v>
       </c>
       <c r="C1564" t="s">
         <v>3875</v>
@@ -61152,15 +61178,15 @@
         <v>1353</v>
       </c>
       <c r="M1564" t="s">
-        <v>3883</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="1565" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1565">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="B1565" t="s">
-        <v>3884</v>
+        <v>3886</v>
       </c>
       <c r="C1565" t="s">
         <v>3875</v>
@@ -61175,15 +61201,15 @@
         <v>1353</v>
       </c>
       <c r="M1565" t="s">
-        <v>3885</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="1566" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1566">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="B1566" t="s">
-        <v>3886</v>
+        <v>3888</v>
       </c>
       <c r="C1566" t="s">
         <v>3875</v>
@@ -61198,15 +61224,15 @@
         <v>1353</v>
       </c>
       <c r="M1566" t="s">
-        <v>3887</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="1567" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1567">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="B1567" t="s">
-        <v>3888</v>
+        <v>3889</v>
       </c>
       <c r="C1567" t="s">
         <v>3875</v>
@@ -61221,15 +61247,15 @@
         <v>1353</v>
       </c>
       <c r="M1567" t="s">
-        <v>4495</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="1568" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1568">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="B1568" t="s">
-        <v>3889</v>
+        <v>3891</v>
       </c>
       <c r="C1568" t="s">
         <v>3875</v>
@@ -61244,15 +61270,15 @@
         <v>1353</v>
       </c>
       <c r="M1568" t="s">
-        <v>3890</v>
+        <v>3892</v>
       </c>
     </row>
     <row r="1569" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1569">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B1569" t="s">
-        <v>3891</v>
+        <v>3893</v>
       </c>
       <c r="C1569" t="s">
         <v>3875</v>
@@ -61267,15 +61293,15 @@
         <v>1353</v>
       </c>
       <c r="M1569" t="s">
-        <v>3892</v>
+        <v>3894</v>
       </c>
     </row>
     <row r="1570" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1570">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="B1570" t="s">
-        <v>3893</v>
+        <v>3895</v>
       </c>
       <c r="C1570" t="s">
         <v>3875</v>
@@ -61290,15 +61316,15 @@
         <v>1353</v>
       </c>
       <c r="M1570" t="s">
-        <v>3894</v>
+        <v>3896</v>
       </c>
     </row>
     <row r="1571" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1571">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="B1571" t="s">
-        <v>3895</v>
+        <v>3897</v>
       </c>
       <c r="C1571" t="s">
         <v>3875</v>
@@ -61313,15 +61339,15 @@
         <v>1353</v>
       </c>
       <c r="M1571" t="s">
-        <v>3896</v>
+        <v>3898</v>
       </c>
     </row>
     <row r="1572" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1572">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="B1572" t="s">
-        <v>3897</v>
+        <v>3899</v>
       </c>
       <c r="C1572" t="s">
         <v>3875</v>
@@ -61336,15 +61362,15 @@
         <v>1353</v>
       </c>
       <c r="M1572" t="s">
-        <v>3898</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="1573" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1573">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="B1573" t="s">
-        <v>3899</v>
+        <v>3900</v>
       </c>
       <c r="C1573" t="s">
         <v>3875</v>
@@ -61359,15 +61385,15 @@
         <v>1353</v>
       </c>
       <c r="M1573" t="s">
-        <v>4496</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="1574" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1574">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="B1574" t="s">
-        <v>3900</v>
+        <v>3901</v>
       </c>
       <c r="C1574" t="s">
         <v>3875</v>
@@ -61382,15 +61408,15 @@
         <v>1353</v>
       </c>
       <c r="M1574" t="s">
-        <v>4497</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="1575" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1575">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="B1575" t="s">
-        <v>3901</v>
+        <v>3903</v>
       </c>
       <c r="C1575" t="s">
         <v>3875</v>
@@ -61405,15 +61431,15 @@
         <v>1353</v>
       </c>
       <c r="M1575" t="s">
-        <v>3902</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="1576" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1576">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="B1576" t="s">
-        <v>3903</v>
+        <v>3905</v>
       </c>
       <c r="C1576" t="s">
         <v>3875</v>
@@ -61428,15 +61454,15 @@
         <v>1353</v>
       </c>
       <c r="M1576" t="s">
-        <v>3904</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="1577" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1577">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="B1577" t="s">
-        <v>3905</v>
+        <v>3907</v>
       </c>
       <c r="C1577" t="s">
         <v>3875</v>
@@ -61451,15 +61477,15 @@
         <v>1353</v>
       </c>
       <c r="M1577" t="s">
-        <v>3906</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="1578" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1578">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="B1578" t="s">
-        <v>3907</v>
+        <v>3909</v>
       </c>
       <c r="C1578" t="s">
         <v>3875</v>
@@ -61474,15 +61500,15 @@
         <v>1353</v>
       </c>
       <c r="M1578" t="s">
-        <v>3908</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="1579" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1579">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="B1579" t="s">
-        <v>3909</v>
+        <v>3911</v>
       </c>
       <c r="C1579" t="s">
         <v>3875</v>
@@ -61497,15 +61523,15 @@
         <v>1353</v>
       </c>
       <c r="M1579" t="s">
-        <v>3910</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="1580" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1580">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="B1580" t="s">
-        <v>3911</v>
+        <v>3913</v>
       </c>
       <c r="C1580" t="s">
         <v>3875</v>
@@ -61520,15 +61546,15 @@
         <v>1353</v>
       </c>
       <c r="M1580" t="s">
-        <v>3912</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="1581" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1581">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="B1581" t="s">
-        <v>3913</v>
+        <v>3914</v>
       </c>
       <c r="C1581" t="s">
         <v>3875</v>
@@ -61543,15 +61569,15 @@
         <v>1353</v>
       </c>
       <c r="M1581" t="s">
-        <v>4498</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="1582" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1582">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="B1582" t="s">
-        <v>3914</v>
+        <v>3916</v>
       </c>
       <c r="C1582" t="s">
         <v>3875</v>
@@ -61566,15 +61592,15 @@
         <v>1353</v>
       </c>
       <c r="M1582" t="s">
-        <v>3915</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="1583" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1583">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="B1583" t="s">
-        <v>3916</v>
+        <v>3918</v>
       </c>
       <c r="C1583" t="s">
         <v>3875</v>
@@ -61589,15 +61615,15 @@
         <v>1353</v>
       </c>
       <c r="M1583" t="s">
-        <v>3917</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="1584" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1584">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="B1584" t="s">
-        <v>3918</v>
+        <v>3920</v>
       </c>
       <c r="C1584" t="s">
         <v>3875</v>
@@ -61612,15 +61638,15 @@
         <v>1353</v>
       </c>
       <c r="M1584" t="s">
-        <v>3919</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="1585" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1585">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="B1585" t="s">
-        <v>3920</v>
+        <v>3921</v>
       </c>
       <c r="C1585" t="s">
         <v>3875</v>
@@ -61635,15 +61661,15 @@
         <v>1353</v>
       </c>
       <c r="M1585" t="s">
-        <v>4499</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="1586" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1586">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="B1586" t="s">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="C1586" t="s">
         <v>3875</v>
@@ -61658,15 +61684,15 @@
         <v>1353</v>
       </c>
       <c r="M1586" t="s">
-        <v>4500</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="1587" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1587">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="B1587" t="s">
-        <v>3922</v>
+        <v>3923</v>
       </c>
       <c r="C1587" t="s">
         <v>3875</v>
@@ -61681,15 +61707,15 @@
         <v>1353</v>
       </c>
       <c r="M1587" t="s">
-        <v>4501</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="1588" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1588">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="B1588" t="s">
-        <v>3923</v>
+        <v>3925</v>
       </c>
       <c r="C1588" t="s">
         <v>3875</v>
@@ -61704,15 +61730,15 @@
         <v>1353</v>
       </c>
       <c r="M1588" t="s">
-        <v>3924</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="1589" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1589">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="B1589" t="s">
-        <v>3925</v>
+        <v>3927</v>
       </c>
       <c r="C1589" t="s">
         <v>3875</v>
@@ -61727,15 +61753,15 @@
         <v>1353</v>
       </c>
       <c r="M1589" t="s">
-        <v>3926</v>
+        <v>4502</v>
       </c>
     </row>
     <row r="1590" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1590">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B1590" t="s">
-        <v>3927</v>
+        <v>3928</v>
       </c>
       <c r="C1590" t="s">
         <v>3875</v>
@@ -61750,15 +61776,15 @@
         <v>1353</v>
       </c>
       <c r="M1590" t="s">
-        <v>4502</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="1591" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1591">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="B1591" t="s">
-        <v>3928</v>
+        <v>3930</v>
       </c>
       <c r="C1591" t="s">
         <v>3875</v>
@@ -61773,15 +61799,15 @@
         <v>1353</v>
       </c>
       <c r="M1591" t="s">
-        <v>3929</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="1592" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1592">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="B1592" t="s">
-        <v>3930</v>
+        <v>3931</v>
       </c>
       <c r="C1592" t="s">
         <v>3875</v>
@@ -61796,15 +61822,15 @@
         <v>1353</v>
       </c>
       <c r="M1592" t="s">
-        <v>4503</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="1593" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1593">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B1593" t="s">
-        <v>3931</v>
+        <v>3933</v>
       </c>
       <c r="C1593" t="s">
         <v>3875</v>
@@ -61819,15 +61845,15 @@
         <v>1353</v>
       </c>
       <c r="M1593" t="s">
-        <v>3932</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="1594" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1594">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="B1594" t="s">
-        <v>3933</v>
+        <v>3935</v>
       </c>
       <c r="C1594" t="s">
         <v>3875</v>
@@ -61842,15 +61868,15 @@
         <v>1353</v>
       </c>
       <c r="M1594" t="s">
-        <v>3934</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="1595" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1595">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="B1595" t="s">
-        <v>3935</v>
+        <v>3936</v>
       </c>
       <c r="C1595" t="s">
         <v>3875</v>
@@ -61865,15 +61891,15 @@
         <v>1353</v>
       </c>
       <c r="M1595" t="s">
-        <v>4504</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="1596" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1596">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="B1596" t="s">
-        <v>3936</v>
+        <v>3937</v>
       </c>
       <c r="C1596" t="s">
         <v>3875</v>
@@ -61888,15 +61914,15 @@
         <v>1353</v>
       </c>
       <c r="M1596" t="s">
-        <v>4505</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="1597" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1597">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="B1597" t="s">
-        <v>3937</v>
+        <v>3939</v>
       </c>
       <c r="C1597" t="s">
         <v>3875</v>
@@ -61911,15 +61937,15 @@
         <v>1353</v>
       </c>
       <c r="M1597" t="s">
-        <v>3938</v>
+        <v>4506</v>
       </c>
     </row>
     <row r="1598" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1598">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="B1598" t="s">
-        <v>3939</v>
+        <v>3940</v>
       </c>
       <c r="C1598" t="s">
         <v>3875</v>
@@ -61934,15 +61960,15 @@
         <v>1353</v>
       </c>
       <c r="M1598" t="s">
-        <v>4506</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="1599" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1599">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="B1599" t="s">
-        <v>3940</v>
+        <v>3941</v>
       </c>
       <c r="C1599" t="s">
         <v>3875</v>
@@ -61957,15 +61983,15 @@
         <v>1353</v>
       </c>
       <c r="M1599" t="s">
-        <v>4507</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="1600" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1600">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="B1600" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="C1600" t="s">
         <v>3875</v>
@@ -61980,15 +62006,15 @@
         <v>1353</v>
       </c>
       <c r="M1600" t="s">
-        <v>4508</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="1601" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1601">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="B1601" t="s">
-        <v>3942</v>
+        <v>3943</v>
       </c>
       <c r="C1601" t="s">
         <v>3875</v>
@@ -62003,15 +62029,15 @@
         <v>1353</v>
       </c>
       <c r="M1601" t="s">
-        <v>4509</v>
+        <v>4510</v>
       </c>
     </row>
     <row r="1602" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1602">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="B1602" t="s">
-        <v>3943</v>
+        <v>3944</v>
       </c>
       <c r="C1602" t="s">
         <v>3875</v>
@@ -62026,15 +62052,15 @@
         <v>1353</v>
       </c>
       <c r="M1602" t="s">
-        <v>4510</v>
+        <v>4511</v>
       </c>
     </row>
     <row r="1603" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1603">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="B1603" t="s">
-        <v>3944</v>
+        <v>3945</v>
       </c>
       <c r="C1603" t="s">
         <v>3875</v>
@@ -62049,15 +62075,15 @@
         <v>1353</v>
       </c>
       <c r="M1603" t="s">
-        <v>4511</v>
+        <v>4512</v>
       </c>
     </row>
     <row r="1604" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1604">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="B1604" t="s">
-        <v>3945</v>
+        <v>3946</v>
       </c>
       <c r="C1604" t="s">
         <v>3875</v>
@@ -62072,15 +62098,15 @@
         <v>1353</v>
       </c>
       <c r="M1604" t="s">
-        <v>4512</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="1605" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1605">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="B1605" t="s">
-        <v>3946</v>
+        <v>3948</v>
       </c>
       <c r="C1605" t="s">
         <v>3875</v>
@@ -62095,15 +62121,15 @@
         <v>1353</v>
       </c>
       <c r="M1605" t="s">
-        <v>3947</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="1606" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1606">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="B1606" t="s">
-        <v>3948</v>
+        <v>3950</v>
       </c>
       <c r="C1606" t="s">
         <v>3875</v>
@@ -62118,15 +62144,15 @@
         <v>1353</v>
       </c>
       <c r="M1606" t="s">
-        <v>3949</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="1607" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1607">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="B1607" t="s">
-        <v>3950</v>
+        <v>3952</v>
       </c>
       <c r="C1607" t="s">
         <v>3875</v>
@@ -62141,15 +62167,15 @@
         <v>1353</v>
       </c>
       <c r="M1607" t="s">
-        <v>3951</v>
+        <v>4513</v>
       </c>
     </row>
     <row r="1608" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1608">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="B1608" t="s">
-        <v>3952</v>
+        <v>3953</v>
       </c>
       <c r="C1608" t="s">
         <v>3875</v>
@@ -62164,15 +62190,15 @@
         <v>1353</v>
       </c>
       <c r="M1608" t="s">
-        <v>4513</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="1609" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1609">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="B1609" t="s">
-        <v>3953</v>
+        <v>3955</v>
       </c>
       <c r="C1609" t="s">
         <v>3875</v>
@@ -62187,15 +62213,15 @@
         <v>1353</v>
       </c>
       <c r="M1609" t="s">
-        <v>3954</v>
+        <v>3956</v>
       </c>
     </row>
     <row r="1610" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1610">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="B1610" t="s">
-        <v>3955</v>
+        <v>3957</v>
       </c>
       <c r="C1610" t="s">
         <v>3875</v>
@@ -62210,15 +62236,15 @@
         <v>1353</v>
       </c>
       <c r="M1610" t="s">
-        <v>3956</v>
+        <v>4514</v>
       </c>
     </row>
     <row r="1611" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1611">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="B1611" t="s">
-        <v>3957</v>
+        <v>3958</v>
       </c>
       <c r="C1611" t="s">
         <v>3875</v>
@@ -62233,15 +62259,15 @@
         <v>1353</v>
       </c>
       <c r="M1611" t="s">
-        <v>4514</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="1612" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1612">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="B1612" t="s">
-        <v>3958</v>
+        <v>3960</v>
       </c>
       <c r="C1612" t="s">
         <v>3875</v>
@@ -62256,15 +62282,15 @@
         <v>1353</v>
       </c>
       <c r="M1612" t="s">
-        <v>3959</v>
+        <v>4515</v>
       </c>
     </row>
     <row r="1613" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1613">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="B1613" t="s">
-        <v>3960</v>
+        <v>3961</v>
       </c>
       <c r="C1613" t="s">
         <v>3875</v>
@@ -62279,15 +62305,15 @@
         <v>1353</v>
       </c>
       <c r="M1613" t="s">
-        <v>4515</v>
+        <v>4516</v>
       </c>
     </row>
     <row r="1614" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1614">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="B1614" t="s">
-        <v>3961</v>
+        <v>3962</v>
       </c>
       <c r="C1614" t="s">
         <v>3875</v>
@@ -62302,15 +62328,15 @@
         <v>1353</v>
       </c>
       <c r="M1614" t="s">
-        <v>4516</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="1615" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1615">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="B1615" t="s">
-        <v>3962</v>
+        <v>3963</v>
       </c>
       <c r="C1615" t="s">
         <v>3875</v>
@@ -62325,15 +62351,15 @@
         <v>1353</v>
       </c>
       <c r="M1615" t="s">
-        <v>4517</v>
+        <v>4518</v>
       </c>
     </row>
     <row r="1616" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1616">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="B1616" t="s">
-        <v>3963</v>
+        <v>3964</v>
       </c>
       <c r="C1616" t="s">
         <v>3875</v>
@@ -62348,15 +62374,15 @@
         <v>1353</v>
       </c>
       <c r="M1616" t="s">
-        <v>4518</v>
+        <v>4519</v>
       </c>
     </row>
     <row r="1617" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1617">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="B1617" t="s">
-        <v>3964</v>
+        <v>3965</v>
       </c>
       <c r="C1617" t="s">
         <v>3875</v>
@@ -62371,15 +62397,15 @@
         <v>1353</v>
       </c>
       <c r="M1617" t="s">
-        <v>4519</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="1618" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1618">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="B1618" t="s">
-        <v>3965</v>
+        <v>3966</v>
       </c>
       <c r="C1618" t="s">
         <v>3875</v>
@@ -62394,15 +62420,15 @@
         <v>1353</v>
       </c>
       <c r="M1618" t="s">
-        <v>4520</v>
+        <v>3967</v>
       </c>
     </row>
     <row r="1619" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1619">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="B1619" t="s">
-        <v>3966</v>
+        <v>3968</v>
       </c>
       <c r="C1619" t="s">
         <v>3875</v>
@@ -62417,15 +62443,15 @@
         <v>1353</v>
       </c>
       <c r="M1619" t="s">
-        <v>3967</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="1620" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1620">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="B1620" t="s">
-        <v>3968</v>
+        <v>3969</v>
       </c>
       <c r="C1620" t="s">
         <v>3875</v>
@@ -62440,15 +62466,15 @@
         <v>1353</v>
       </c>
       <c r="M1620" t="s">
-        <v>4521</v>
+        <v>4522</v>
       </c>
     </row>
     <row r="1621" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1621">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="B1621" t="s">
-        <v>3969</v>
+        <v>3970</v>
       </c>
       <c r="C1621" t="s">
         <v>3875</v>
@@ -62463,15 +62489,15 @@
         <v>1353</v>
       </c>
       <c r="M1621" t="s">
-        <v>4522</v>
+        <v>3971</v>
       </c>
     </row>
     <row r="1622" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1622">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="B1622" t="s">
-        <v>3970</v>
+        <v>3972</v>
       </c>
       <c r="C1622" t="s">
         <v>3875</v>
@@ -62486,15 +62512,15 @@
         <v>1353</v>
       </c>
       <c r="M1622" t="s">
-        <v>3971</v>
+        <v>3973</v>
       </c>
     </row>
     <row r="1623" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1623">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="B1623" t="s">
-        <v>3972</v>
+        <v>3974</v>
       </c>
       <c r="C1623" t="s">
         <v>3875</v>
@@ -62509,15 +62535,15 @@
         <v>1353</v>
       </c>
       <c r="M1623" t="s">
-        <v>3973</v>
+        <v>4523</v>
       </c>
     </row>
     <row r="1624" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1624">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="B1624" t="s">
-        <v>3974</v>
+        <v>3975</v>
       </c>
       <c r="C1624" t="s">
         <v>3875</v>
@@ -62532,15 +62558,15 @@
         <v>1353</v>
       </c>
       <c r="M1624" t="s">
-        <v>4523</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="1625" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1625">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="B1625" t="s">
-        <v>3975</v>
+        <v>3977</v>
       </c>
       <c r="C1625" t="s">
         <v>3875</v>
@@ -62555,15 +62581,15 @@
         <v>1353</v>
       </c>
       <c r="M1625" t="s">
-        <v>3976</v>
+        <v>4524</v>
       </c>
     </row>
     <row r="1626" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1626">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="B1626" t="s">
-        <v>3977</v>
+        <v>3978</v>
       </c>
       <c r="C1626" t="s">
         <v>3875</v>
@@ -62578,15 +62604,15 @@
         <v>1353</v>
       </c>
       <c r="M1626" t="s">
-        <v>4524</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="1627" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1627">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="B1627" t="s">
-        <v>3978</v>
+        <v>3979</v>
       </c>
       <c r="C1627" t="s">
         <v>3875</v>
@@ -62601,15 +62627,15 @@
         <v>1353</v>
       </c>
       <c r="M1627" t="s">
-        <v>4525</v>
+        <v>4526</v>
       </c>
     </row>
     <row r="1628" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1628">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="B1628" t="s">
-        <v>3979</v>
+        <v>3980</v>
       </c>
       <c r="C1628" t="s">
         <v>3875</v>
@@ -62624,15 +62650,15 @@
         <v>1353</v>
       </c>
       <c r="M1628" t="s">
-        <v>4526</v>
+        <v>4527</v>
       </c>
     </row>
     <row r="1629" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1629">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="B1629" t="s">
-        <v>3980</v>
+        <v>3981</v>
       </c>
       <c r="C1629" t="s">
         <v>3875</v>
@@ -62647,15 +62673,15 @@
         <v>1353</v>
       </c>
       <c r="M1629" t="s">
-        <v>4527</v>
+        <v>4528</v>
       </c>
     </row>
     <row r="1630" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1630">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="B1630" t="s">
-        <v>3981</v>
+        <v>3982</v>
       </c>
       <c r="C1630" t="s">
         <v>3875</v>
@@ -62670,15 +62696,15 @@
         <v>1353</v>
       </c>
       <c r="M1630" t="s">
-        <v>4528</v>
+        <v>3983</v>
       </c>
     </row>
     <row r="1631" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1631">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B1631" t="s">
-        <v>3982</v>
+        <v>3984</v>
       </c>
       <c r="C1631" t="s">
         <v>3875</v>
@@ -62693,15 +62719,15 @@
         <v>1353</v>
       </c>
       <c r="M1631" t="s">
-        <v>3983</v>
+        <v>4529</v>
       </c>
     </row>
     <row r="1632" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1632">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B1632" t="s">
-        <v>3984</v>
+        <v>3985</v>
       </c>
       <c r="C1632" t="s">
         <v>3875</v>
@@ -62716,15 +62742,15 @@
         <v>1353</v>
       </c>
       <c r="M1632" t="s">
-        <v>4529</v>
+        <v>3986</v>
       </c>
     </row>
     <row r="1633" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1633">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="B1633" t="s">
-        <v>3985</v>
+        <v>3987</v>
       </c>
       <c r="C1633" t="s">
         <v>3875</v>
@@ -62739,15 +62765,15 @@
         <v>1353</v>
       </c>
       <c r="M1633" t="s">
-        <v>3986</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="1634" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1634">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="B1634" t="s">
-        <v>3987</v>
+        <v>3988</v>
       </c>
       <c r="C1634" t="s">
         <v>3875</v>
@@ -62762,15 +62788,15 @@
         <v>1353</v>
       </c>
       <c r="M1634" t="s">
-        <v>4530</v>
+        <v>3989</v>
       </c>
     </row>
     <row r="1635" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1635">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="B1635" t="s">
-        <v>3988</v>
+        <v>3990</v>
       </c>
       <c r="C1635" t="s">
         <v>3875</v>
@@ -62785,15 +62811,15 @@
         <v>1353</v>
       </c>
       <c r="M1635" t="s">
-        <v>3989</v>
+        <v>3991</v>
       </c>
     </row>
     <row r="1636" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1636">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="B1636" t="s">
-        <v>3990</v>
+        <v>3992</v>
       </c>
       <c r="C1636" t="s">
         <v>3875</v>
@@ -62808,15 +62834,15 @@
         <v>1353</v>
       </c>
       <c r="M1636" t="s">
-        <v>3991</v>
+        <v>4531</v>
       </c>
     </row>
     <row r="1637" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1637">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="B1637" t="s">
-        <v>3992</v>
+        <v>3993</v>
       </c>
       <c r="C1637" t="s">
         <v>3875</v>
@@ -62831,15 +62857,15 @@
         <v>1353</v>
       </c>
       <c r="M1637" t="s">
-        <v>4531</v>
+        <v>4532</v>
       </c>
     </row>
     <row r="1638" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1638">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="B1638" t="s">
-        <v>3993</v>
+        <v>3994</v>
       </c>
       <c r="C1638" t="s">
         <v>3875</v>
@@ -62854,15 +62880,15 @@
         <v>1353</v>
       </c>
       <c r="M1638" t="s">
-        <v>4532</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="1639" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1639">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="B1639" t="s">
-        <v>3994</v>
+        <v>3996</v>
       </c>
       <c r="C1639" t="s">
         <v>3875</v>
@@ -62877,15 +62903,15 @@
         <v>1353</v>
       </c>
       <c r="M1639" t="s">
-        <v>3995</v>
+        <v>3997</v>
       </c>
     </row>
     <row r="1640" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1640">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="B1640" t="s">
-        <v>3996</v>
+        <v>3998</v>
       </c>
       <c r="C1640" t="s">
         <v>3875</v>
@@ -62900,15 +62926,15 @@
         <v>1353</v>
       </c>
       <c r="M1640" t="s">
-        <v>3997</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="1641" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1641">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="B1641" t="s">
-        <v>3998</v>
+        <v>3999</v>
       </c>
       <c r="C1641" t="s">
         <v>3875</v>
@@ -62923,15 +62949,15 @@
         <v>1353</v>
       </c>
       <c r="M1641" t="s">
-        <v>4533</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="1642" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1642">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="B1642" t="s">
-        <v>3999</v>
+        <v>4001</v>
       </c>
       <c r="C1642" t="s">
         <v>3875</v>
@@ -62946,15 +62972,15 @@
         <v>1353</v>
       </c>
       <c r="M1642" t="s">
-        <v>4000</v>
+        <v>4534</v>
       </c>
     </row>
     <row r="1643" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1643">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B1643" t="s">
-        <v>4001</v>
+        <v>4002</v>
       </c>
       <c r="C1643" t="s">
         <v>3875</v>
@@ -62969,15 +62995,15 @@
         <v>1353</v>
       </c>
       <c r="M1643" t="s">
-        <v>4534</v>
+        <v>4535</v>
       </c>
     </row>
     <row r="1644" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1644">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="B1644" t="s">
-        <v>4002</v>
+        <v>4003</v>
       </c>
       <c r="C1644" t="s">
         <v>3875</v>
@@ -62992,15 +63018,15 @@
         <v>1353</v>
       </c>
       <c r="M1644" t="s">
-        <v>4535</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="1645" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1645">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="B1645" t="s">
-        <v>4003</v>
+        <v>4004</v>
       </c>
       <c r="C1645" t="s">
         <v>3875</v>
@@ -63015,15 +63041,15 @@
         <v>1353</v>
       </c>
       <c r="M1645" t="s">
-        <v>4536</v>
+        <v>4537</v>
       </c>
     </row>
     <row r="1646" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1646">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="B1646" t="s">
-        <v>4004</v>
+        <v>4005</v>
       </c>
       <c r="C1646" t="s">
         <v>3875</v>
@@ -63038,15 +63064,15 @@
         <v>1353</v>
       </c>
       <c r="M1646" t="s">
-        <v>4537</v>
+        <v>4538</v>
       </c>
     </row>
     <row r="1647" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1647">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="B1647" t="s">
-        <v>4005</v>
+        <v>4006</v>
       </c>
       <c r="C1647" t="s">
         <v>3875</v>
@@ -63061,15 +63087,15 @@
         <v>1353</v>
       </c>
       <c r="M1647" t="s">
-        <v>4538</v>
+        <v>4539</v>
       </c>
     </row>
     <row r="1648" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1648">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="B1648" t="s">
-        <v>4006</v>
+        <v>4007</v>
       </c>
       <c r="C1648" t="s">
         <v>3875</v>
@@ -63084,15 +63110,15 @@
         <v>1353</v>
       </c>
       <c r="M1648" t="s">
-        <v>4539</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="1649" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1649">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="B1649" t="s">
-        <v>4007</v>
+        <v>4009</v>
       </c>
       <c r="C1649" t="s">
         <v>3875</v>
@@ -63107,15 +63133,15 @@
         <v>1353</v>
       </c>
       <c r="M1649" t="s">
-        <v>4008</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="1650" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1650">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="B1650" t="s">
-        <v>4009</v>
+        <v>4010</v>
       </c>
       <c r="C1650" t="s">
         <v>3875</v>
@@ -63130,15 +63156,15 @@
         <v>1353</v>
       </c>
       <c r="M1650" t="s">
-        <v>4540</v>
+        <v>4541</v>
       </c>
     </row>
     <row r="1651" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1651">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="B1651" t="s">
-        <v>4010</v>
+        <v>4011</v>
       </c>
       <c r="C1651" t="s">
         <v>3875</v>
@@ -63153,15 +63179,15 @@
         <v>1353</v>
       </c>
       <c r="M1651" t="s">
-        <v>4541</v>
+        <v>4012</v>
       </c>
     </row>
     <row r="1652" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1652">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="B1652" t="s">
-        <v>4011</v>
+        <v>4013</v>
       </c>
       <c r="C1652" t="s">
         <v>3875</v>
@@ -63176,15 +63202,15 @@
         <v>1353</v>
       </c>
       <c r="M1652" t="s">
-        <v>4012</v>
+        <v>4542</v>
       </c>
     </row>
     <row r="1653" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1653">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="B1653" t="s">
-        <v>4013</v>
+        <v>4014</v>
       </c>
       <c r="C1653" t="s">
         <v>3875</v>
@@ -63199,15 +63225,15 @@
         <v>1353</v>
       </c>
       <c r="M1653" t="s">
-        <v>4542</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="1654" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1654">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="B1654" t="s">
-        <v>4014</v>
+        <v>4016</v>
       </c>
       <c r="C1654" t="s">
         <v>3875</v>
@@ -63222,15 +63248,15 @@
         <v>1353</v>
       </c>
       <c r="M1654" t="s">
-        <v>4015</v>
+        <v>4017</v>
       </c>
     </row>
     <row r="1655" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1655">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="B1655" t="s">
-        <v>4016</v>
+        <v>4018</v>
       </c>
       <c r="C1655" t="s">
         <v>3875</v>
@@ -63245,15 +63271,15 @@
         <v>1353</v>
       </c>
       <c r="M1655" t="s">
-        <v>4017</v>
+        <v>4543</v>
       </c>
     </row>
     <row r="1656" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1656">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="B1656" t="s">
-        <v>4018</v>
+        <v>4019</v>
       </c>
       <c r="C1656" t="s">
         <v>3875</v>
@@ -63268,15 +63294,15 @@
         <v>1353</v>
       </c>
       <c r="M1656" t="s">
-        <v>4543</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="1657" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1657">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B1657" t="s">
-        <v>4019</v>
+        <v>4021</v>
       </c>
       <c r="C1657" t="s">
         <v>3875</v>
@@ -63291,15 +63317,15 @@
         <v>1353</v>
       </c>
       <c r="M1657" t="s">
-        <v>4020</v>
+        <v>4544</v>
       </c>
     </row>
     <row r="1658" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1658">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="B1658" t="s">
-        <v>4021</v>
+        <v>4022</v>
       </c>
       <c r="C1658" t="s">
         <v>3875</v>
@@ -63314,15 +63340,15 @@
         <v>1353</v>
       </c>
       <c r="M1658" t="s">
-        <v>4544</v>
+        <v>4545</v>
       </c>
     </row>
     <row r="1659" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1659">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="B1659" t="s">
-        <v>4022</v>
+        <v>4023</v>
       </c>
       <c r="C1659" t="s">
         <v>3875</v>
@@ -63337,15 +63363,15 @@
         <v>1353</v>
       </c>
       <c r="M1659" t="s">
-        <v>4545</v>
+        <v>4546</v>
       </c>
     </row>
     <row r="1660" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1660">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="B1660" t="s">
-        <v>4023</v>
+        <v>4024</v>
       </c>
       <c r="C1660" t="s">
         <v>3875</v>
@@ -63360,15 +63386,15 @@
         <v>1353</v>
       </c>
       <c r="M1660" t="s">
-        <v>4546</v>
+        <v>4547</v>
       </c>
     </row>
     <row r="1661" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1661">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B1661" t="s">
-        <v>4024</v>
+        <v>4025</v>
       </c>
       <c r="C1661" t="s">
         <v>3875</v>
@@ -63383,15 +63409,15 @@
         <v>1353</v>
       </c>
       <c r="M1661" t="s">
-        <v>4547</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="1662" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1662">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="B1662" t="s">
-        <v>4025</v>
+        <v>4026</v>
       </c>
       <c r="C1662" t="s">
         <v>3875</v>
@@ -63406,15 +63432,15 @@
         <v>1353</v>
       </c>
       <c r="M1662" t="s">
-        <v>4548</v>
+        <v>4027</v>
       </c>
     </row>
     <row r="1663" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1663">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="B1663" t="s">
-        <v>4026</v>
+        <v>4028</v>
       </c>
       <c r="C1663" t="s">
         <v>3875</v>
@@ -63429,15 +63455,15 @@
         <v>1353</v>
       </c>
       <c r="M1663" t="s">
-        <v>4027</v>
+        <v>4549</v>
       </c>
     </row>
     <row r="1664" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1664">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="B1664" t="s">
-        <v>4028</v>
+        <v>4029</v>
       </c>
       <c r="C1664" t="s">
         <v>3875</v>
@@ -63452,15 +63478,15 @@
         <v>1353</v>
       </c>
       <c r="M1664" t="s">
-        <v>4549</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="1665" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1665">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="B1665" t="s">
-        <v>4029</v>
+        <v>4030</v>
       </c>
       <c r="C1665" t="s">
         <v>3875</v>
@@ -63475,15 +63501,15 @@
         <v>1353</v>
       </c>
       <c r="M1665" t="s">
-        <v>4550</v>
+        <v>4031</v>
       </c>
     </row>
     <row r="1666" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1666">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="B1666" t="s">
-        <v>4030</v>
+        <v>4032</v>
       </c>
       <c r="C1666" t="s">
         <v>3875</v>
@@ -63498,15 +63524,15 @@
         <v>1353</v>
       </c>
       <c r="M1666" t="s">
-        <v>4031</v>
+        <v>4033</v>
       </c>
     </row>
     <row r="1667" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1667">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B1667" t="s">
-        <v>4032</v>
+        <v>4034</v>
       </c>
       <c r="C1667" t="s">
         <v>3875</v>
@@ -63521,15 +63547,15 @@
         <v>1353</v>
       </c>
       <c r="M1667" t="s">
-        <v>4033</v>
+        <v>4035</v>
       </c>
     </row>
     <row r="1668" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1668">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="B1668" t="s">
-        <v>4034</v>
+        <v>4036</v>
       </c>
       <c r="C1668" t="s">
         <v>3875</v>
@@ -63544,15 +63570,15 @@
         <v>1353</v>
       </c>
       <c r="M1668" t="s">
-        <v>4035</v>
+        <v>4037</v>
       </c>
     </row>
     <row r="1669" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1669">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="B1669" t="s">
-        <v>4036</v>
+        <v>4038</v>
       </c>
       <c r="C1669" t="s">
         <v>3875</v>
@@ -63567,15 +63593,15 @@
         <v>1353</v>
       </c>
       <c r="M1669" t="s">
-        <v>4037</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="1670" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1670">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="B1670" t="s">
-        <v>4038</v>
+        <v>4039</v>
       </c>
       <c r="C1670" t="s">
         <v>3875</v>
@@ -63590,15 +63616,15 @@
         <v>1353</v>
       </c>
       <c r="M1670" t="s">
-        <v>4551</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="1671" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1671">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="B1671" t="s">
-        <v>4039</v>
+        <v>4041</v>
       </c>
       <c r="C1671" t="s">
         <v>3875</v>
@@ -63613,15 +63639,15 @@
         <v>1353</v>
       </c>
       <c r="M1671" t="s">
-        <v>4040</v>
+        <v>4042</v>
       </c>
     </row>
     <row r="1672" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1672">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="B1672" t="s">
-        <v>4041</v>
+        <v>4043</v>
       </c>
       <c r="C1672" t="s">
         <v>3875</v>
@@ -63636,15 +63662,15 @@
         <v>1353</v>
       </c>
       <c r="M1672" t="s">
-        <v>4042</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="1673" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1673">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="B1673" t="s">
-        <v>4043</v>
+        <v>4044</v>
       </c>
       <c r="C1673" t="s">
         <v>3875</v>
@@ -63659,15 +63685,15 @@
         <v>1353</v>
       </c>
       <c r="M1673" t="s">
-        <v>4552</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="1674" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1674">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="B1674" t="s">
-        <v>4044</v>
+        <v>4046</v>
       </c>
       <c r="C1674" t="s">
         <v>3875</v>
@@ -63682,15 +63708,15 @@
         <v>1353</v>
       </c>
       <c r="M1674" t="s">
-        <v>4045</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="1675" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1675">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="B1675" t="s">
-        <v>4046</v>
+        <v>4047</v>
       </c>
       <c r="C1675" t="s">
         <v>3875</v>
@@ -63705,15 +63731,15 @@
         <v>1353</v>
       </c>
       <c r="M1675" t="s">
-        <v>4553</v>
+        <v>4048</v>
       </c>
     </row>
     <row r="1676" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1676">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="B1676" t="s">
-        <v>4047</v>
+        <v>4049</v>
       </c>
       <c r="C1676" t="s">
         <v>3875</v>
@@ -63728,15 +63754,15 @@
         <v>1353</v>
       </c>
       <c r="M1676" t="s">
-        <v>4048</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="1677" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1677">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="B1677" t="s">
-        <v>4049</v>
+        <v>4051</v>
       </c>
       <c r="C1677" t="s">
         <v>3875</v>
@@ -63751,15 +63777,15 @@
         <v>1353</v>
       </c>
       <c r="M1677" t="s">
-        <v>4050</v>
+        <v>4052</v>
       </c>
     </row>
     <row r="1678" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1678">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="B1678" t="s">
-        <v>4051</v>
+        <v>4053</v>
       </c>
       <c r="C1678" t="s">
         <v>3875</v>
@@ -63774,15 +63800,15 @@
         <v>1353</v>
       </c>
       <c r="M1678" t="s">
-        <v>4052</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="1679" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1679">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="B1679" t="s">
-        <v>4053</v>
+        <v>4054</v>
       </c>
       <c r="C1679" t="s">
         <v>3875</v>
@@ -63797,15 +63823,15 @@
         <v>1353</v>
       </c>
       <c r="M1679" t="s">
-        <v>4554</v>
+        <v>4555</v>
       </c>
     </row>
     <row r="1680" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1680">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="B1680" t="s">
-        <v>4054</v>
+        <v>4055</v>
       </c>
       <c r="C1680" t="s">
         <v>3875</v>
@@ -63820,15 +63846,15 @@
         <v>1353</v>
       </c>
       <c r="M1680" t="s">
-        <v>4555</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="1681" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1681">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="B1681" t="s">
-        <v>4055</v>
+        <v>4056</v>
       </c>
       <c r="C1681" t="s">
         <v>3875</v>
@@ -63843,15 +63869,15 @@
         <v>1353</v>
       </c>
       <c r="M1681" t="s">
-        <v>4556</v>
+        <v>4557</v>
       </c>
     </row>
     <row r="1682" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1682">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="B1682" t="s">
-        <v>4056</v>
+        <v>4057</v>
       </c>
       <c r="C1682" t="s">
         <v>3875</v>
@@ -63866,15 +63892,15 @@
         <v>1353</v>
       </c>
       <c r="M1682" t="s">
-        <v>4557</v>
+        <v>4558</v>
       </c>
     </row>
     <row r="1683" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1683">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="B1683" t="s">
-        <v>4057</v>
+        <v>4058</v>
       </c>
       <c r="C1683" t="s">
         <v>3875</v>
@@ -63889,15 +63915,15 @@
         <v>1353</v>
       </c>
       <c r="M1683" t="s">
-        <v>4558</v>
+        <v>4059</v>
       </c>
     </row>
     <row r="1684" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1684">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="B1684" t="s">
-        <v>4058</v>
+        <v>4060</v>
       </c>
       <c r="C1684" t="s">
         <v>3875</v>
@@ -63912,15 +63938,15 @@
         <v>1353</v>
       </c>
       <c r="M1684" t="s">
-        <v>4059</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="1685" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1685">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="B1685" t="s">
-        <v>4060</v>
+        <v>4061</v>
       </c>
       <c r="C1685" t="s">
         <v>3875</v>
@@ -63935,34 +63961,11 @@
         <v>1353</v>
       </c>
       <c r="M1685" t="s">
-        <v>4559</v>
-      </c>
-    </row>
-    <row r="1686" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1686">
-        <v>1780</v>
-      </c>
-      <c r="B1686" t="s">
-        <v>4061</v>
-      </c>
-      <c r="C1686" t="s">
-        <v>3875</v>
-      </c>
-      <c r="D1686">
-        <v>68000</v>
-      </c>
-      <c r="E1686" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1686" t="s">
-        <v>1353</v>
-      </c>
-      <c r="M1686" t="s">
         <v>4062</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1686"/>
+  <autoFilter ref="A1:M1685"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/0.36/compatibility.xlsx
+++ b/0.36/compatibility.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Playable (untested)" sheetId="4" r:id="rId1"/>
@@ -17,8 +17,8 @@
     <sheet name="GAME_NOT_WORKING FLAG" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ALL!$A$1:$M$1685</definedName>
-    <definedName name="LIST" localSheetId="1">ALL!$B$1:$M$1685</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ALL!$A$1:$M$1681</definedName>
+    <definedName name="LIST" localSheetId="1">ALL!$B$1:$M$1681</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -14081,10 +14081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P357"/>
+  <dimension ref="A1:P361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
-      <selection activeCell="N357" sqref="N357"/>
+    <sheetView topLeftCell="A334" workbookViewId="0">
+      <selection activeCell="A355" sqref="A355:A361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22316,6 +22316,113 @@
         <v>4566</v>
       </c>
     </row>
+    <row r="358" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>358</v>
+      </c>
+      <c r="B358" t="s">
+        <v>3420</v>
+      </c>
+      <c r="C358" t="s">
+        <v>3421</v>
+      </c>
+      <c r="D358" t="s">
+        <v>14</v>
+      </c>
+      <c r="H358" t="s">
+        <v>1279</v>
+      </c>
+      <c r="M358" t="s">
+        <v>3422</v>
+      </c>
+    </row>
+    <row r="359" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>359</v>
+      </c>
+      <c r="B359" t="s">
+        <v>3423</v>
+      </c>
+      <c r="C359" t="s">
+        <v>3421</v>
+      </c>
+      <c r="D359" t="s">
+        <v>14</v>
+      </c>
+      <c r="E359" t="s">
+        <v>154</v>
+      </c>
+      <c r="H359" t="s">
+        <v>1279</v>
+      </c>
+      <c r="I359" t="s">
+        <v>406</v>
+      </c>
+      <c r="J359" t="s">
+        <v>93</v>
+      </c>
+      <c r="M359" t="s">
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="360" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>360</v>
+      </c>
+      <c r="B360" t="s">
+        <v>3425</v>
+      </c>
+      <c r="C360" t="s">
+        <v>3421</v>
+      </c>
+      <c r="D360" t="s">
+        <v>14</v>
+      </c>
+      <c r="E360" t="s">
+        <v>154</v>
+      </c>
+      <c r="H360" t="s">
+        <v>1279</v>
+      </c>
+      <c r="I360" t="s">
+        <v>406</v>
+      </c>
+      <c r="J360" t="s">
+        <v>93</v>
+      </c>
+      <c r="M360" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="361" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>361</v>
+      </c>
+      <c r="B361" t="s">
+        <v>3427</v>
+      </c>
+      <c r="C361" t="s">
+        <v>3421</v>
+      </c>
+      <c r="D361" t="s">
+        <v>14</v>
+      </c>
+      <c r="E361" t="s">
+        <v>154</v>
+      </c>
+      <c r="H361" t="s">
+        <v>1279</v>
+      </c>
+      <c r="I361" t="s">
+        <v>406</v>
+      </c>
+      <c r="J361" t="s">
+        <v>93</v>
+      </c>
+      <c r="M361" t="s">
+        <v>3428</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -22324,10 +22431,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1685"/>
+  <dimension ref="A1:M1681"/>
   <sheetViews>
-    <sheetView topLeftCell="A1513" workbookViewId="0">
-      <selection activeCell="A1528" sqref="A1528:XFD1528"/>
+    <sheetView tabSelected="1" topLeftCell="A1388" workbookViewId="0">
+      <selection activeCell="M1399" sqref="M1399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -57190,33 +57297,36 @@
     </row>
     <row r="1403" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1403">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="B1403" t="s">
-        <v>3420</v>
+        <v>3429</v>
       </c>
       <c r="C1403" t="s">
-        <v>3421</v>
+        <v>3430</v>
       </c>
       <c r="D1403" t="s">
         <v>14</v>
+      </c>
+      <c r="E1403" t="s">
+        <v>154</v>
       </c>
       <c r="H1403" t="s">
         <v>1279</v>
       </c>
       <c r="M1403" t="s">
-        <v>3422</v>
+        <v>3431</v>
       </c>
     </row>
     <row r="1404" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1404">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="B1404" t="s">
-        <v>3423</v>
+        <v>3432</v>
       </c>
       <c r="C1404" t="s">
-        <v>3421</v>
+        <v>3430</v>
       </c>
       <c r="D1404" t="s">
         <v>14</v>
@@ -57227,126 +57337,147 @@
       <c r="H1404" t="s">
         <v>1279</v>
       </c>
-      <c r="I1404" t="s">
-        <v>406</v>
-      </c>
-      <c r="J1404" t="s">
-        <v>93</v>
-      </c>
       <c r="M1404" t="s">
-        <v>3424</v>
+        <v>3433</v>
       </c>
     </row>
     <row r="1405" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1405">
-        <v>1485</v>
+        <v>1489</v>
       </c>
       <c r="B1405" t="s">
-        <v>3425</v>
+        <v>3434</v>
       </c>
       <c r="C1405" t="s">
-        <v>3421</v>
+        <v>3435</v>
       </c>
       <c r="D1405" t="s">
-        <v>14</v>
+        <v>3436</v>
       </c>
       <c r="E1405" t="s">
-        <v>154</v>
+        <v>967</v>
+      </c>
+      <c r="F1405" t="s">
+        <v>967</v>
       </c>
       <c r="H1405" t="s">
-        <v>1279</v>
+        <v>93</v>
       </c>
       <c r="I1405" t="s">
-        <v>406</v>
+        <v>551</v>
       </c>
       <c r="J1405" t="s">
-        <v>93</v>
+        <v>333</v>
+      </c>
+      <c r="K1405" t="s">
+        <v>997</v>
       </c>
       <c r="M1405" t="s">
-        <v>3426</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="1406" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1406">
-        <v>1486</v>
+        <v>1490</v>
       </c>
       <c r="B1406" t="s">
-        <v>3427</v>
+        <v>3438</v>
       </c>
       <c r="C1406" t="s">
-        <v>3421</v>
+        <v>3435</v>
       </c>
       <c r="D1406" t="s">
-        <v>14</v>
+        <v>3436</v>
       </c>
       <c r="E1406" t="s">
-        <v>154</v>
+        <v>967</v>
       </c>
       <c r="H1406" t="s">
-        <v>1279</v>
+        <v>93</v>
       </c>
       <c r="I1406" t="s">
-        <v>406</v>
+        <v>551</v>
       </c>
       <c r="J1406" t="s">
-        <v>93</v>
+        <v>166</v>
+      </c>
+      <c r="K1406" t="s">
+        <v>997</v>
       </c>
       <c r="M1406" t="s">
-        <v>3428</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="1407" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1407">
-        <v>1487</v>
+        <v>1491</v>
       </c>
       <c r="B1407" t="s">
-        <v>3429</v>
+        <v>3440</v>
       </c>
       <c r="C1407" t="s">
-        <v>3430</v>
+        <v>3435</v>
       </c>
       <c r="D1407" t="s">
-        <v>14</v>
+        <v>3436</v>
       </c>
       <c r="E1407" t="s">
-        <v>154</v>
+        <v>967</v>
       </c>
       <c r="H1407" t="s">
-        <v>1279</v>
+        <v>93</v>
+      </c>
+      <c r="I1407" t="s">
+        <v>551</v>
+      </c>
+      <c r="J1407" t="s">
+        <v>166</v>
+      </c>
+      <c r="K1407" t="s">
+        <v>997</v>
       </c>
       <c r="M1407" t="s">
-        <v>3431</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="1408" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1408">
-        <v>1488</v>
+        <v>1492</v>
       </c>
       <c r="B1408" t="s">
-        <v>3432</v>
+        <v>3442</v>
       </c>
       <c r="C1408" t="s">
-        <v>3430</v>
+        <v>3435</v>
       </c>
       <c r="D1408" t="s">
-        <v>14</v>
+        <v>3436</v>
       </c>
       <c r="E1408" t="s">
-        <v>154</v>
+        <v>967</v>
       </c>
       <c r="H1408" t="s">
-        <v>1279</v>
+        <v>93</v>
+      </c>
+      <c r="I1408" t="s">
+        <v>551</v>
+      </c>
+      <c r="J1408" t="s">
+        <v>166</v>
+      </c>
+      <c r="K1408" t="s">
+        <v>997</v>
       </c>
       <c r="M1408" t="s">
-        <v>3433</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="1409" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1409">
-        <v>1489</v>
+        <v>1493</v>
       </c>
       <c r="B1409" t="s">
-        <v>3434</v>
+        <v>3443</v>
       </c>
       <c r="C1409" t="s">
         <v>3435</v>
@@ -57357,9 +57488,6 @@
       <c r="E1409" t="s">
         <v>967</v>
       </c>
-      <c r="F1409" t="s">
-        <v>967</v>
-      </c>
       <c r="H1409" t="s">
         <v>93</v>
       </c>
@@ -57367,21 +57495,21 @@
         <v>551</v>
       </c>
       <c r="J1409" t="s">
-        <v>333</v>
+        <v>166</v>
       </c>
       <c r="K1409" t="s">
         <v>997</v>
       </c>
       <c r="M1409" t="s">
-        <v>3437</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="1410" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1410">
-        <v>1490</v>
+        <v>1494</v>
       </c>
       <c r="B1410" t="s">
-        <v>3438</v>
+        <v>3445</v>
       </c>
       <c r="C1410" t="s">
         <v>3435</v>
@@ -57405,15 +57533,15 @@
         <v>997</v>
       </c>
       <c r="M1410" t="s">
-        <v>3439</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="1411" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1411">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="B1411" t="s">
-        <v>3440</v>
+        <v>3447</v>
       </c>
       <c r="C1411" t="s">
         <v>3435</v>
@@ -57437,15 +57565,15 @@
         <v>997</v>
       </c>
       <c r="M1411" t="s">
-        <v>3441</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="1412" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1412">
-        <v>1492</v>
+        <v>1496</v>
       </c>
       <c r="B1412" t="s">
-        <v>3442</v>
+        <v>3449</v>
       </c>
       <c r="C1412" t="s">
         <v>3435</v>
@@ -57469,15 +57597,15 @@
         <v>997</v>
       </c>
       <c r="M1412" t="s">
-        <v>4459</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="1413" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1413">
-        <v>1493</v>
+        <v>1497</v>
       </c>
       <c r="B1413" t="s">
-        <v>3443</v>
+        <v>3451</v>
       </c>
       <c r="C1413" t="s">
         <v>3435</v>
@@ -57501,15 +57629,15 @@
         <v>997</v>
       </c>
       <c r="M1413" t="s">
-        <v>3444</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="1414" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1414">
-        <v>1494</v>
+        <v>1498</v>
       </c>
       <c r="B1414" t="s">
-        <v>3445</v>
+        <v>3452</v>
       </c>
       <c r="C1414" t="s">
         <v>3435</v>
@@ -57533,15 +57661,15 @@
         <v>997</v>
       </c>
       <c r="M1414" t="s">
-        <v>3446</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="1415" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1415">
-        <v>1495</v>
+        <v>1499</v>
       </c>
       <c r="B1415" t="s">
-        <v>3447</v>
+        <v>3453</v>
       </c>
       <c r="C1415" t="s">
         <v>3435</v>
@@ -57565,15 +57693,15 @@
         <v>997</v>
       </c>
       <c r="M1415" t="s">
-        <v>3448</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="1416" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1416">
-        <v>1496</v>
+        <v>1500</v>
       </c>
       <c r="B1416" t="s">
-        <v>3449</v>
+        <v>3454</v>
       </c>
       <c r="C1416" t="s">
         <v>3435</v>
@@ -57594,18 +57722,18 @@
         <v>166</v>
       </c>
       <c r="K1416" t="s">
-        <v>997</v>
+        <v>1492</v>
       </c>
       <c r="M1416" t="s">
-        <v>3450</v>
+        <v>4463</v>
       </c>
     </row>
     <row r="1417" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1417">
-        <v>1497</v>
+        <v>1501</v>
       </c>
       <c r="B1417" t="s">
-        <v>3451</v>
+        <v>3455</v>
       </c>
       <c r="C1417" t="s">
         <v>3435</v>
@@ -57626,18 +57754,18 @@
         <v>166</v>
       </c>
       <c r="K1417" t="s">
-        <v>997</v>
+        <v>1492</v>
       </c>
       <c r="M1417" t="s">
-        <v>4460</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1418" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1418">
-        <v>1498</v>
+        <v>1502</v>
       </c>
       <c r="B1418" t="s">
-        <v>3452</v>
+        <v>3456</v>
       </c>
       <c r="C1418" t="s">
         <v>3435</v>
@@ -57658,18 +57786,18 @@
         <v>166</v>
       </c>
       <c r="K1418" t="s">
-        <v>997</v>
+        <v>1492</v>
       </c>
       <c r="M1418" t="s">
-        <v>4461</v>
+        <v>4465</v>
       </c>
     </row>
     <row r="1419" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1419">
-        <v>1499</v>
+        <v>1503</v>
       </c>
       <c r="B1419" t="s">
-        <v>3453</v>
+        <v>3457</v>
       </c>
       <c r="C1419" t="s">
         <v>3435</v>
@@ -57690,18 +57818,18 @@
         <v>166</v>
       </c>
       <c r="K1419" t="s">
-        <v>997</v>
+        <v>1492</v>
       </c>
       <c r="M1419" t="s">
-        <v>4462</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="1420" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1420">
-        <v>1500</v>
+        <v>1504</v>
       </c>
       <c r="B1420" t="s">
-        <v>3454</v>
+        <v>3458</v>
       </c>
       <c r="C1420" t="s">
         <v>3435</v>
@@ -57725,15 +57853,15 @@
         <v>1492</v>
       </c>
       <c r="M1420" t="s">
-        <v>4463</v>
+        <v>4467</v>
       </c>
     </row>
     <row r="1421" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1421">
-        <v>1501</v>
+        <v>1505</v>
       </c>
       <c r="B1421" t="s">
-        <v>3455</v>
+        <v>3459</v>
       </c>
       <c r="C1421" t="s">
         <v>3435</v>
@@ -57757,15 +57885,15 @@
         <v>1492</v>
       </c>
       <c r="M1421" t="s">
-        <v>4464</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="1422" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1422">
-        <v>1502</v>
+        <v>1506</v>
       </c>
       <c r="B1422" t="s">
-        <v>3456</v>
+        <v>3460</v>
       </c>
       <c r="C1422" t="s">
         <v>3435</v>
@@ -57789,15 +57917,15 @@
         <v>1492</v>
       </c>
       <c r="M1422" t="s">
-        <v>4465</v>
+        <v>4469</v>
       </c>
     </row>
     <row r="1423" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1423">
-        <v>1503</v>
+        <v>1507</v>
       </c>
       <c r="B1423" t="s">
-        <v>3457</v>
+        <v>3461</v>
       </c>
       <c r="C1423" t="s">
         <v>3435</v>
@@ -57821,15 +57949,15 @@
         <v>1492</v>
       </c>
       <c r="M1423" t="s">
-        <v>4466</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="1424" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1424">
-        <v>1504</v>
+        <v>1508</v>
       </c>
       <c r="B1424" t="s">
-        <v>3458</v>
+        <v>3462</v>
       </c>
       <c r="C1424" t="s">
         <v>3435</v>
@@ -57837,31 +57965,16 @@
       <c r="D1424" t="s">
         <v>3436</v>
       </c>
-      <c r="E1424" t="s">
-        <v>967</v>
-      </c>
-      <c r="H1424" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1424" t="s">
-        <v>551</v>
-      </c>
-      <c r="J1424" t="s">
-        <v>166</v>
-      </c>
-      <c r="K1424" t="s">
-        <v>1492</v>
-      </c>
       <c r="M1424" t="s">
-        <v>4467</v>
+        <v>4471</v>
       </c>
     </row>
     <row r="1425" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1425">
-        <v>1505</v>
+        <v>1509</v>
       </c>
       <c r="B1425" t="s">
-        <v>3459</v>
+        <v>3463</v>
       </c>
       <c r="C1425" t="s">
         <v>3435</v>
@@ -57869,31 +57982,16 @@
       <c r="D1425" t="s">
         <v>3436</v>
       </c>
-      <c r="E1425" t="s">
-        <v>967</v>
-      </c>
-      <c r="H1425" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1425" t="s">
-        <v>551</v>
-      </c>
-      <c r="J1425" t="s">
-        <v>166</v>
-      </c>
-      <c r="K1425" t="s">
-        <v>1492</v>
-      </c>
       <c r="M1425" t="s">
-        <v>4468</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="1426" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1426">
-        <v>1506</v>
+        <v>1510</v>
       </c>
       <c r="B1426" t="s">
-        <v>3460</v>
+        <v>3464</v>
       </c>
       <c r="C1426" t="s">
         <v>3435</v>
@@ -57901,31 +57999,16 @@
       <c r="D1426" t="s">
         <v>3436</v>
       </c>
-      <c r="E1426" t="s">
-        <v>967</v>
-      </c>
-      <c r="H1426" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1426" t="s">
-        <v>551</v>
-      </c>
-      <c r="J1426" t="s">
-        <v>166</v>
-      </c>
-      <c r="K1426" t="s">
-        <v>1492</v>
-      </c>
       <c r="M1426" t="s">
-        <v>4469</v>
+        <v>4473</v>
       </c>
     </row>
     <row r="1427" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1427">
-        <v>1507</v>
+        <v>1511</v>
       </c>
       <c r="B1427" t="s">
-        <v>3461</v>
+        <v>3465</v>
       </c>
       <c r="C1427" t="s">
         <v>3435</v>
@@ -57949,15 +58032,15 @@
         <v>1492</v>
       </c>
       <c r="M1427" t="s">
-        <v>4470</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="1428" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1428">
-        <v>1508</v>
+        <v>1512</v>
       </c>
       <c r="B1428" t="s">
-        <v>3462</v>
+        <v>3466</v>
       </c>
       <c r="C1428" t="s">
         <v>3435</v>
@@ -57965,16 +58048,31 @@
       <c r="D1428" t="s">
         <v>3436</v>
       </c>
+      <c r="E1428" t="s">
+        <v>967</v>
+      </c>
+      <c r="H1428" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1428" t="s">
+        <v>551</v>
+      </c>
+      <c r="J1428" t="s">
+        <v>166</v>
+      </c>
+      <c r="K1428" t="s">
+        <v>1492</v>
+      </c>
       <c r="M1428" t="s">
-        <v>4471</v>
+        <v>4475</v>
       </c>
     </row>
     <row r="1429" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1429">
-        <v>1509</v>
+        <v>1513</v>
       </c>
       <c r="B1429" t="s">
-        <v>3463</v>
+        <v>3467</v>
       </c>
       <c r="C1429" t="s">
         <v>3435</v>
@@ -57982,129 +58080,111 @@
       <c r="D1429" t="s">
         <v>3436</v>
       </c>
+      <c r="E1429" t="s">
+        <v>967</v>
+      </c>
+      <c r="H1429" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1429" t="s">
+        <v>551</v>
+      </c>
+      <c r="J1429" t="s">
+        <v>166</v>
+      </c>
+      <c r="K1429" t="s">
+        <v>1492</v>
+      </c>
       <c r="M1429" t="s">
-        <v>4472</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="1430" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1430">
-        <v>1510</v>
+        <v>1514</v>
       </c>
       <c r="B1430" t="s">
-        <v>3464</v>
+        <v>3484</v>
       </c>
       <c r="C1430" t="s">
-        <v>3435</v>
+        <v>3485</v>
       </c>
       <c r="D1430" t="s">
-        <v>3436</v>
+        <v>3486</v>
+      </c>
+      <c r="H1430" t="s">
+        <v>406</v>
       </c>
       <c r="M1430" t="s">
-        <v>4473</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="1431" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1431">
-        <v>1511</v>
+        <v>1515</v>
       </c>
       <c r="B1431" t="s">
-        <v>3465</v>
+        <v>3488</v>
       </c>
       <c r="C1431" t="s">
-        <v>3435</v>
+        <v>3485</v>
       </c>
       <c r="D1431" t="s">
-        <v>3436</v>
-      </c>
-      <c r="E1431" t="s">
-        <v>967</v>
+        <v>3486</v>
       </c>
       <c r="H1431" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1431" t="s">
-        <v>551</v>
-      </c>
-      <c r="J1431" t="s">
-        <v>166</v>
-      </c>
-      <c r="K1431" t="s">
-        <v>1492</v>
+        <v>406</v>
       </c>
       <c r="M1431" t="s">
-        <v>4474</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="1432" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1432">
-        <v>1512</v>
+        <v>1516</v>
       </c>
       <c r="B1432" t="s">
-        <v>3466</v>
+        <v>3490</v>
       </c>
       <c r="C1432" t="s">
-        <v>3435</v>
+        <v>3485</v>
       </c>
       <c r="D1432" t="s">
-        <v>3436</v>
-      </c>
-      <c r="E1432" t="s">
-        <v>967</v>
+        <v>3486</v>
       </c>
       <c r="H1432" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1432" t="s">
-        <v>551</v>
-      </c>
-      <c r="J1432" t="s">
-        <v>166</v>
-      </c>
-      <c r="K1432" t="s">
-        <v>1492</v>
+        <v>406</v>
       </c>
       <c r="M1432" t="s">
-        <v>4475</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="1433" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1433">
-        <v>1513</v>
+        <v>1517</v>
       </c>
       <c r="B1433" t="s">
-        <v>3467</v>
+        <v>3492</v>
       </c>
       <c r="C1433" t="s">
-        <v>3435</v>
+        <v>3485</v>
       </c>
       <c r="D1433" t="s">
-        <v>3436</v>
-      </c>
-      <c r="E1433" t="s">
-        <v>967</v>
+        <v>3486</v>
       </c>
       <c r="H1433" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1433" t="s">
-        <v>551</v>
-      </c>
-      <c r="J1433" t="s">
-        <v>166</v>
-      </c>
-      <c r="K1433" t="s">
-        <v>1492</v>
+        <v>406</v>
       </c>
       <c r="M1433" t="s">
-        <v>4476</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="1434" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1434">
-        <v>1514</v>
+        <v>1518</v>
       </c>
       <c r="B1434" t="s">
-        <v>3484</v>
+        <v>3494</v>
       </c>
       <c r="C1434" t="s">
         <v>3485</v>
@@ -58116,15 +58196,15 @@
         <v>406</v>
       </c>
       <c r="M1434" t="s">
-        <v>3487</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="1435" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1435">
-        <v>1515</v>
+        <v>1519</v>
       </c>
       <c r="B1435" t="s">
-        <v>3488</v>
+        <v>3496</v>
       </c>
       <c r="C1435" t="s">
         <v>3485</v>
@@ -58136,15 +58216,15 @@
         <v>406</v>
       </c>
       <c r="M1435" t="s">
-        <v>3489</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="1436" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1436">
-        <v>1516</v>
+        <v>1520</v>
       </c>
       <c r="B1436" t="s">
-        <v>3490</v>
+        <v>3498</v>
       </c>
       <c r="C1436" t="s">
         <v>3485</v>
@@ -58156,15 +58236,15 @@
         <v>406</v>
       </c>
       <c r="M1436" t="s">
-        <v>3491</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="1437" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1437">
-        <v>1517</v>
+        <v>1521</v>
       </c>
       <c r="B1437" t="s">
-        <v>3492</v>
+        <v>3500</v>
       </c>
       <c r="C1437" t="s">
         <v>3485</v>
@@ -58176,15 +58256,15 @@
         <v>406</v>
       </c>
       <c r="M1437" t="s">
-        <v>3493</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="1438" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1438">
-        <v>1518</v>
+        <v>1522</v>
       </c>
       <c r="B1438" t="s">
-        <v>3494</v>
+        <v>3502</v>
       </c>
       <c r="C1438" t="s">
         <v>3485</v>
@@ -58196,15 +58276,15 @@
         <v>406</v>
       </c>
       <c r="M1438" t="s">
-        <v>3495</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="1439" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1439">
-        <v>1519</v>
+        <v>1523</v>
       </c>
       <c r="B1439" t="s">
-        <v>3496</v>
+        <v>3504</v>
       </c>
       <c r="C1439" t="s">
         <v>3485</v>
@@ -58216,15 +58296,15 @@
         <v>406</v>
       </c>
       <c r="M1439" t="s">
-        <v>3497</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="1440" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1440">
-        <v>1520</v>
+        <v>1524</v>
       </c>
       <c r="B1440" t="s">
-        <v>3498</v>
+        <v>3506</v>
       </c>
       <c r="C1440" t="s">
         <v>3485</v>
@@ -58236,15 +58316,15 @@
         <v>406</v>
       </c>
       <c r="M1440" t="s">
-        <v>3499</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="1441" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1441">
-        <v>1521</v>
+        <v>1525</v>
       </c>
       <c r="B1441" t="s">
-        <v>3500</v>
+        <v>3508</v>
       </c>
       <c r="C1441" t="s">
         <v>3485</v>
@@ -58256,15 +58336,15 @@
         <v>406</v>
       </c>
       <c r="M1441" t="s">
-        <v>3501</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="1442" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1442">
-        <v>1522</v>
+        <v>1526</v>
       </c>
       <c r="B1442" t="s">
-        <v>3502</v>
+        <v>3510</v>
       </c>
       <c r="C1442" t="s">
         <v>3485</v>
@@ -58276,15 +58356,15 @@
         <v>406</v>
       </c>
       <c r="M1442" t="s">
-        <v>3503</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="1443" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1443">
-        <v>1523</v>
+        <v>1527</v>
       </c>
       <c r="B1443" t="s">
-        <v>3504</v>
+        <v>3512</v>
       </c>
       <c r="C1443" t="s">
         <v>3485</v>
@@ -58296,15 +58376,15 @@
         <v>406</v>
       </c>
       <c r="M1443" t="s">
-        <v>3505</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="1444" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1444">
-        <v>1524</v>
+        <v>1528</v>
       </c>
       <c r="B1444" t="s">
-        <v>3506</v>
+        <v>3514</v>
       </c>
       <c r="C1444" t="s">
         <v>3485</v>
@@ -58316,147 +58396,159 @@
         <v>406</v>
       </c>
       <c r="M1444" t="s">
-        <v>3507</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="1445" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1445">
-        <v>1525</v>
+        <v>1529</v>
       </c>
       <c r="B1445" t="s">
-        <v>3508</v>
+        <v>3516</v>
       </c>
       <c r="C1445" t="s">
-        <v>3485</v>
-      </c>
-      <c r="D1445" t="s">
-        <v>3486</v>
+        <v>3517</v>
+      </c>
+      <c r="D1445">
+        <v>68000</v>
+      </c>
+      <c r="E1445" t="s">
+        <v>14</v>
       </c>
       <c r="H1445" t="s">
-        <v>406</v>
+        <v>172</v>
+      </c>
+      <c r="I1445" t="s">
+        <v>93</v>
       </c>
       <c r="M1445" t="s">
-        <v>3509</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="1446" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1446">
-        <v>1526</v>
+        <v>1530</v>
       </c>
       <c r="B1446" t="s">
-        <v>3510</v>
+        <v>3519</v>
       </c>
       <c r="C1446" t="s">
-        <v>3485</v>
-      </c>
-      <c r="D1446" t="s">
-        <v>3486</v>
+        <v>3517</v>
+      </c>
+      <c r="D1446">
+        <v>68000</v>
+      </c>
+      <c r="E1446" t="s">
+        <v>14</v>
       </c>
       <c r="H1446" t="s">
-        <v>406</v>
+        <v>172</v>
+      </c>
+      <c r="I1446" t="s">
+        <v>93</v>
       </c>
       <c r="M1446" t="s">
-        <v>3511</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="1447" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1447">
-        <v>1527</v>
+        <v>1531</v>
       </c>
       <c r="B1447" t="s">
-        <v>3512</v>
+        <v>3521</v>
       </c>
       <c r="C1447" t="s">
-        <v>3485</v>
+        <v>3522</v>
       </c>
       <c r="D1447" t="s">
-        <v>3486</v>
+        <v>14</v>
+      </c>
+      <c r="E1447" t="s">
+        <v>154</v>
       </c>
       <c r="H1447" t="s">
-        <v>406</v>
+        <v>172</v>
       </c>
       <c r="M1447" t="s">
-        <v>3513</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="1448" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1448">
-        <v>1528</v>
+        <v>1532</v>
       </c>
       <c r="B1448" t="s">
-        <v>3514</v>
+        <v>3524</v>
       </c>
       <c r="C1448" t="s">
-        <v>3485</v>
+        <v>3522</v>
       </c>
       <c r="D1448" t="s">
-        <v>3486</v>
+        <v>14</v>
+      </c>
+      <c r="E1448" t="s">
+        <v>154</v>
       </c>
       <c r="H1448" t="s">
-        <v>406</v>
+        <v>172</v>
       </c>
       <c r="M1448" t="s">
-        <v>3515</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="1449" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1449">
-        <v>1529</v>
+        <v>1533</v>
       </c>
       <c r="B1449" t="s">
-        <v>3516</v>
+        <v>3526</v>
       </c>
       <c r="C1449" t="s">
-        <v>3517</v>
-      </c>
-      <c r="D1449">
-        <v>68000</v>
+        <v>3522</v>
+      </c>
+      <c r="D1449" t="s">
+        <v>14</v>
       </c>
       <c r="E1449" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="H1449" t="s">
         <v>172</v>
       </c>
-      <c r="I1449" t="s">
-        <v>93</v>
-      </c>
       <c r="M1449" t="s">
-        <v>3518</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="1450" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1450">
-        <v>1530</v>
+        <v>1534</v>
       </c>
       <c r="B1450" t="s">
-        <v>3519</v>
+        <v>3528</v>
       </c>
       <c r="C1450" t="s">
-        <v>3517</v>
-      </c>
-      <c r="D1450">
-        <v>68000</v>
+        <v>3522</v>
+      </c>
+      <c r="D1450" t="s">
+        <v>14</v>
       </c>
       <c r="E1450" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="H1450" t="s">
         <v>172</v>
       </c>
-      <c r="I1450" t="s">
-        <v>93</v>
-      </c>
       <c r="M1450" t="s">
-        <v>3520</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="1451" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1451">
-        <v>1531</v>
+        <v>1535</v>
       </c>
       <c r="B1451" t="s">
-        <v>3521</v>
+        <v>3530</v>
       </c>
       <c r="C1451" t="s">
         <v>3522</v>
@@ -58471,15 +58563,15 @@
         <v>172</v>
       </c>
       <c r="M1451" t="s">
-        <v>3523</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="1452" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1452">
-        <v>1532</v>
+        <v>1536</v>
       </c>
       <c r="B1452" t="s">
-        <v>3524</v>
+        <v>3532</v>
       </c>
       <c r="C1452" t="s">
         <v>3522</v>
@@ -58494,15 +58586,15 @@
         <v>172</v>
       </c>
       <c r="M1452" t="s">
-        <v>3525</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="1453" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1453">
-        <v>1533</v>
+        <v>1537</v>
       </c>
       <c r="B1453" t="s">
-        <v>3526</v>
+        <v>3534</v>
       </c>
       <c r="C1453" t="s">
         <v>3522</v>
@@ -58517,15 +58609,15 @@
         <v>172</v>
       </c>
       <c r="M1453" t="s">
-        <v>3527</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="1454" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1454">
-        <v>1534</v>
+        <v>1538</v>
       </c>
       <c r="B1454" t="s">
-        <v>3528</v>
+        <v>3536</v>
       </c>
       <c r="C1454" t="s">
         <v>3522</v>
@@ -58540,15 +58632,15 @@
         <v>172</v>
       </c>
       <c r="M1454" t="s">
-        <v>3529</v>
+        <v>3537</v>
       </c>
     </row>
     <row r="1455" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1455">
-        <v>1535</v>
+        <v>1539</v>
       </c>
       <c r="B1455" t="s">
-        <v>3530</v>
+        <v>3538</v>
       </c>
       <c r="C1455" t="s">
         <v>3522</v>
@@ -58563,110 +58655,128 @@
         <v>172</v>
       </c>
       <c r="M1455" t="s">
-        <v>3531</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="1456" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1456">
-        <v>1536</v>
+        <v>1543</v>
       </c>
       <c r="B1456" t="s">
-        <v>3532</v>
+        <v>3571</v>
       </c>
       <c r="C1456" t="s">
-        <v>3522</v>
+        <v>3572</v>
       </c>
       <c r="D1456" t="s">
-        <v>14</v>
+        <v>1105</v>
       </c>
       <c r="E1456" t="s">
-        <v>154</v>
+        <v>1105</v>
       </c>
       <c r="H1456" t="s">
-        <v>172</v>
+        <v>349</v>
+      </c>
+      <c r="I1456" t="s">
+        <v>1492</v>
       </c>
       <c r="M1456" t="s">
-        <v>3533</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="1457" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1457">
-        <v>1537</v>
+        <v>1544</v>
       </c>
       <c r="B1457" t="s">
-        <v>3534</v>
+        <v>3574</v>
       </c>
       <c r="C1457" t="s">
-        <v>3522</v>
+        <v>3572</v>
       </c>
       <c r="D1457" t="s">
-        <v>14</v>
+        <v>1105</v>
       </c>
       <c r="E1457" t="s">
-        <v>154</v>
+        <v>1105</v>
       </c>
       <c r="H1457" t="s">
-        <v>172</v>
+        <v>349</v>
+      </c>
+      <c r="I1457" t="s">
+        <v>1492</v>
       </c>
       <c r="M1457" t="s">
-        <v>3535</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="1458" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1458">
-        <v>1538</v>
+        <v>1545</v>
       </c>
       <c r="B1458" t="s">
-        <v>3536</v>
+        <v>3576</v>
       </c>
       <c r="C1458" t="s">
-        <v>3522</v>
+        <v>3577</v>
       </c>
       <c r="D1458" t="s">
-        <v>14</v>
+        <v>1105</v>
       </c>
       <c r="E1458" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F1458" t="s">
         <v>154</v>
       </c>
       <c r="H1458" t="s">
-        <v>172</v>
+        <v>349</v>
+      </c>
+      <c r="I1458" t="s">
+        <v>1492</v>
       </c>
       <c r="M1458" t="s">
-        <v>3537</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="1459" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1459">
-        <v>1539</v>
+        <v>1546</v>
       </c>
       <c r="B1459" t="s">
-        <v>3538</v>
+        <v>3579</v>
       </c>
       <c r="C1459" t="s">
-        <v>3522</v>
+        <v>3577</v>
       </c>
       <c r="D1459" t="s">
-        <v>14</v>
+        <v>1105</v>
       </c>
       <c r="E1459" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F1459" t="s">
         <v>154</v>
       </c>
       <c r="H1459" t="s">
-        <v>172</v>
+        <v>349</v>
+      </c>
+      <c r="I1459" t="s">
+        <v>1492</v>
       </c>
       <c r="M1459" t="s">
-        <v>3539</v>
+        <v>4482</v>
       </c>
     </row>
     <row r="1460" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1460">
-        <v>1543</v>
+        <v>1547</v>
       </c>
       <c r="B1460" t="s">
-        <v>3571</v>
+        <v>3580</v>
       </c>
       <c r="C1460" t="s">
-        <v>3572</v>
+        <v>3577</v>
       </c>
       <c r="D1460" t="s">
         <v>1105</v>
@@ -58674,6 +58784,9 @@
       <c r="E1460" t="s">
         <v>1105</v>
       </c>
+      <c r="F1460" t="s">
+        <v>154</v>
+      </c>
       <c r="H1460" t="s">
         <v>349</v>
       </c>
@@ -58681,24 +58794,24 @@
         <v>1492</v>
       </c>
       <c r="M1460" t="s">
-        <v>3573</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="1461" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1461">
-        <v>1544</v>
+        <v>1548</v>
       </c>
       <c r="B1461" t="s">
-        <v>3574</v>
+        <v>3582</v>
       </c>
       <c r="C1461" t="s">
-        <v>3572</v>
-      </c>
-      <c r="D1461" t="s">
-        <v>1105</v>
+        <v>3583</v>
+      </c>
+      <c r="D1461">
+        <v>68000</v>
       </c>
       <c r="E1461" t="s">
-        <v>1105</v>
+        <v>154</v>
       </c>
       <c r="H1461" t="s">
         <v>349</v>
@@ -58707,105 +58820,84 @@
         <v>1492</v>
       </c>
       <c r="M1461" t="s">
-        <v>3575</v>
+        <v>3584</v>
       </c>
     </row>
     <row r="1462" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1462">
-        <v>1545</v>
+        <v>1549</v>
       </c>
       <c r="B1462" t="s">
-        <v>3576</v>
+        <v>3585</v>
       </c>
       <c r="C1462" t="s">
-        <v>3577</v>
-      </c>
-      <c r="D1462" t="s">
-        <v>1105</v>
+        <v>3586</v>
+      </c>
+      <c r="D1462">
+        <v>68000</v>
       </c>
       <c r="E1462" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F1462" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1462" t="s">
-        <v>349</v>
-      </c>
-      <c r="I1462" t="s">
-        <v>1492</v>
+        <v>154</v>
       </c>
       <c r="M1462" t="s">
-        <v>3578</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="1463" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1463">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="B1463" t="s">
-        <v>3579</v>
+        <v>3588</v>
       </c>
       <c r="C1463" t="s">
-        <v>3577</v>
-      </c>
-      <c r="D1463" t="s">
-        <v>1105</v>
+        <v>3586</v>
+      </c>
+      <c r="D1463">
+        <v>68000</v>
       </c>
       <c r="E1463" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F1463" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1463" t="s">
-        <v>349</v>
-      </c>
-      <c r="I1463" t="s">
-        <v>1492</v>
+        <v>154</v>
       </c>
       <c r="M1463" t="s">
-        <v>4482</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="1464" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1464">
-        <v>1547</v>
+        <v>1551</v>
       </c>
       <c r="B1464" t="s">
-        <v>3580</v>
+        <v>3590</v>
       </c>
       <c r="C1464" t="s">
-        <v>3577</v>
-      </c>
-      <c r="D1464" t="s">
-        <v>1105</v>
+        <v>3586</v>
+      </c>
+      <c r="D1464">
+        <v>68000</v>
       </c>
       <c r="E1464" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F1464" t="s">
         <v>154</v>
       </c>
       <c r="H1464" t="s">
-        <v>349</v>
+        <v>551</v>
       </c>
       <c r="I1464" t="s">
-        <v>1492</v>
+        <v>3358</v>
       </c>
       <c r="M1464" t="s">
-        <v>3581</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="1465" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1465">
-        <v>1548</v>
+        <v>1552</v>
       </c>
       <c r="B1465" t="s">
-        <v>3582</v>
+        <v>3592</v>
       </c>
       <c r="C1465" t="s">
-        <v>3583</v>
+        <v>3593</v>
       </c>
       <c r="D1465">
         <v>68000</v>
@@ -58817,21 +58909,21 @@
         <v>349</v>
       </c>
       <c r="I1465" t="s">
-        <v>1492</v>
+        <v>1275</v>
       </c>
       <c r="M1465" t="s">
-        <v>3584</v>
+        <v>3594</v>
       </c>
     </row>
     <row r="1466" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1466">
-        <v>1549</v>
+        <v>1553</v>
       </c>
       <c r="B1466" t="s">
-        <v>3585</v>
+        <v>3595</v>
       </c>
       <c r="C1466" t="s">
-        <v>3586</v>
+        <v>3593</v>
       </c>
       <c r="D1466">
         <v>68000</v>
@@ -58839,19 +58931,25 @@
       <c r="E1466" t="s">
         <v>154</v>
       </c>
+      <c r="H1466" t="s">
+        <v>349</v>
+      </c>
+      <c r="I1466" t="s">
+        <v>1275</v>
+      </c>
       <c r="M1466" t="s">
-        <v>3587</v>
+        <v>3596</v>
       </c>
     </row>
     <row r="1467" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1467">
-        <v>1550</v>
+        <v>1554</v>
       </c>
       <c r="B1467" t="s">
-        <v>3588</v>
+        <v>3597</v>
       </c>
       <c r="C1467" t="s">
-        <v>3586</v>
+        <v>3593</v>
       </c>
       <c r="D1467">
         <v>68000</v>
@@ -58859,19 +58957,25 @@
       <c r="E1467" t="s">
         <v>154</v>
       </c>
+      <c r="H1467" t="s">
+        <v>349</v>
+      </c>
+      <c r="I1467" t="s">
+        <v>1275</v>
+      </c>
       <c r="M1467" t="s">
-        <v>3589</v>
+        <v>3598</v>
       </c>
     </row>
     <row r="1468" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1468">
-        <v>1551</v>
+        <v>1555</v>
       </c>
       <c r="B1468" t="s">
-        <v>3590</v>
+        <v>3599</v>
       </c>
       <c r="C1468" t="s">
-        <v>3586</v>
+        <v>3593</v>
       </c>
       <c r="D1468">
         <v>68000</v>
@@ -58880,21 +58984,21 @@
         <v>154</v>
       </c>
       <c r="H1468" t="s">
-        <v>551</v>
+        <v>349</v>
       </c>
       <c r="I1468" t="s">
-        <v>3358</v>
+        <v>1275</v>
       </c>
       <c r="M1468" t="s">
-        <v>3591</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="1469" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1469">
-        <v>1552</v>
+        <v>1556</v>
       </c>
       <c r="B1469" t="s">
-        <v>3592</v>
+        <v>3601</v>
       </c>
       <c r="C1469" t="s">
         <v>3593</v>
@@ -58912,18 +59016,18 @@
         <v>1275</v>
       </c>
       <c r="M1469" t="s">
-        <v>3594</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="1470" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1470">
-        <v>1553</v>
+        <v>1557</v>
       </c>
       <c r="B1470" t="s">
-        <v>3595</v>
+        <v>3603</v>
       </c>
       <c r="C1470" t="s">
-        <v>3593</v>
+        <v>3604</v>
       </c>
       <c r="D1470">
         <v>68000</v>
@@ -58935,21 +59039,21 @@
         <v>349</v>
       </c>
       <c r="I1470" t="s">
-        <v>1275</v>
+        <v>1492</v>
       </c>
       <c r="M1470" t="s">
-        <v>3596</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1471" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1471">
-        <v>1554</v>
+        <v>1558</v>
       </c>
       <c r="B1471" t="s">
-        <v>3597</v>
+        <v>3606</v>
       </c>
       <c r="C1471" t="s">
-        <v>3593</v>
+        <v>3604</v>
       </c>
       <c r="D1471">
         <v>68000</v>
@@ -58961,185 +59065,173 @@
         <v>349</v>
       </c>
       <c r="I1471" t="s">
-        <v>1275</v>
+        <v>1492</v>
       </c>
       <c r="M1471" t="s">
-        <v>3598</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="1472" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1472">
-        <v>1555</v>
+        <v>1559</v>
       </c>
       <c r="B1472" t="s">
-        <v>3599</v>
+        <v>3608</v>
       </c>
       <c r="C1472" t="s">
-        <v>3593</v>
-      </c>
-      <c r="D1472">
-        <v>68000</v>
-      </c>
-      <c r="E1472" t="s">
-        <v>154</v>
+        <v>3609</v>
+      </c>
+      <c r="D1472" t="s">
+        <v>14</v>
       </c>
       <c r="H1472" t="s">
-        <v>349</v>
-      </c>
-      <c r="I1472" t="s">
-        <v>1275</v>
+        <v>172</v>
       </c>
       <c r="M1472" t="s">
-        <v>3600</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="1473" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1473">
-        <v>1556</v>
+        <v>1560</v>
       </c>
       <c r="B1473" t="s">
-        <v>3601</v>
+        <v>3611</v>
       </c>
       <c r="C1473" t="s">
-        <v>3593</v>
-      </c>
-      <c r="D1473">
-        <v>68000</v>
-      </c>
-      <c r="E1473" t="s">
-        <v>154</v>
+        <v>3609</v>
+      </c>
+      <c r="D1473" t="s">
+        <v>14</v>
       </c>
       <c r="H1473" t="s">
-        <v>349</v>
-      </c>
-      <c r="I1473" t="s">
-        <v>1275</v>
+        <v>172</v>
       </c>
       <c r="M1473" t="s">
-        <v>3602</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="1474" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1474">
-        <v>1557</v>
+        <v>1561</v>
       </c>
       <c r="B1474" t="s">
-        <v>3603</v>
+        <v>3613</v>
       </c>
       <c r="C1474" t="s">
-        <v>3604</v>
-      </c>
-      <c r="D1474">
-        <v>68000</v>
-      </c>
-      <c r="E1474" t="s">
-        <v>154</v>
+        <v>3609</v>
+      </c>
+      <c r="D1474" t="s">
+        <v>14</v>
       </c>
       <c r="H1474" t="s">
-        <v>349</v>
-      </c>
-      <c r="I1474" t="s">
-        <v>1492</v>
+        <v>172</v>
       </c>
       <c r="M1474" t="s">
-        <v>3605</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="1475" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1475">
-        <v>1558</v>
+        <v>1562</v>
       </c>
       <c r="B1475" t="s">
-        <v>3606</v>
+        <v>3615</v>
       </c>
       <c r="C1475" t="s">
-        <v>3604</v>
-      </c>
-      <c r="D1475">
-        <v>68000</v>
+        <v>3616</v>
+      </c>
+      <c r="D1475" t="s">
+        <v>473</v>
       </c>
       <c r="E1475" t="s">
-        <v>154</v>
+        <v>967</v>
       </c>
       <c r="H1475" t="s">
-        <v>349</v>
-      </c>
-      <c r="I1475" t="s">
-        <v>1492</v>
+        <v>172</v>
       </c>
       <c r="M1475" t="s">
-        <v>3607</v>
+        <v>3617</v>
       </c>
     </row>
     <row r="1476" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1476">
-        <v>1559</v>
+        <v>1563</v>
       </c>
       <c r="B1476" t="s">
-        <v>3608</v>
+        <v>3618</v>
       </c>
       <c r="C1476" t="s">
-        <v>3609</v>
+        <v>3616</v>
       </c>
       <c r="D1476" t="s">
-        <v>14</v>
+        <v>473</v>
+      </c>
+      <c r="E1476" t="s">
+        <v>967</v>
       </c>
       <c r="H1476" t="s">
         <v>172</v>
       </c>
       <c r="M1476" t="s">
-        <v>3610</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="1477" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1477">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="B1477" t="s">
-        <v>3611</v>
+        <v>3620</v>
       </c>
       <c r="C1477" t="s">
-        <v>3609</v>
+        <v>3621</v>
       </c>
       <c r="D1477" t="s">
-        <v>14</v>
+        <v>473</v>
+      </c>
+      <c r="E1477" t="s">
+        <v>967</v>
       </c>
       <c r="H1477" t="s">
-        <v>172</v>
+        <v>1279</v>
       </c>
       <c r="M1477" t="s">
-        <v>3612</v>
+        <v>3622</v>
       </c>
     </row>
     <row r="1478" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1478">
-        <v>1561</v>
+        <v>1565</v>
       </c>
       <c r="B1478" t="s">
-        <v>3613</v>
+        <v>3623</v>
       </c>
       <c r="C1478" t="s">
-        <v>3609</v>
+        <v>3621</v>
       </c>
       <c r="D1478" t="s">
-        <v>14</v>
+        <v>473</v>
+      </c>
+      <c r="E1478" t="s">
+        <v>967</v>
       </c>
       <c r="H1478" t="s">
-        <v>172</v>
+        <v>1279</v>
       </c>
       <c r="M1478" t="s">
-        <v>3614</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="1479" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1479">
-        <v>1562</v>
+        <v>1566</v>
       </c>
       <c r="B1479" t="s">
-        <v>3615</v>
+        <v>3625</v>
       </c>
       <c r="C1479" t="s">
-        <v>3616</v>
+        <v>3621</v>
       </c>
       <c r="D1479" t="s">
         <v>473</v>
@@ -59148,219 +59240,231 @@
         <v>967</v>
       </c>
       <c r="H1479" t="s">
-        <v>172</v>
+        <v>1279</v>
       </c>
       <c r="M1479" t="s">
-        <v>3617</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="1480" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1480">
-        <v>1563</v>
+        <v>1567</v>
       </c>
       <c r="B1480" t="s">
-        <v>3618</v>
+        <v>3627</v>
       </c>
       <c r="C1480" t="s">
-        <v>3616</v>
+        <v>3628</v>
       </c>
       <c r="D1480" t="s">
-        <v>473</v>
+        <v>405</v>
       </c>
       <c r="E1480" t="s">
-        <v>967</v>
+        <v>14</v>
       </c>
       <c r="H1480" t="s">
         <v>172</v>
       </c>
       <c r="M1480" t="s">
-        <v>3619</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="1481" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1481">
-        <v>1564</v>
+        <v>1568</v>
       </c>
       <c r="B1481" t="s">
-        <v>3620</v>
+        <v>3630</v>
       </c>
       <c r="C1481" t="s">
-        <v>3621</v>
+        <v>3628</v>
       </c>
       <c r="D1481" t="s">
-        <v>473</v>
+        <v>405</v>
       </c>
       <c r="E1481" t="s">
-        <v>967</v>
+        <v>14</v>
       </c>
       <c r="H1481" t="s">
-        <v>1279</v>
+        <v>172</v>
       </c>
       <c r="M1481" t="s">
-        <v>3622</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="1482" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1482">
-        <v>1565</v>
+        <v>1569</v>
       </c>
       <c r="B1482" t="s">
-        <v>3623</v>
+        <v>3632</v>
       </c>
       <c r="C1482" t="s">
-        <v>3621</v>
+        <v>3633</v>
       </c>
       <c r="D1482" t="s">
-        <v>473</v>
+        <v>14</v>
       </c>
       <c r="E1482" t="s">
-        <v>967</v>
+        <v>154</v>
       </c>
       <c r="H1482" t="s">
         <v>1279</v>
       </c>
       <c r="M1482" t="s">
-        <v>3624</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="1483" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1483">
-        <v>1566</v>
+        <v>1570</v>
       </c>
       <c r="B1483" t="s">
-        <v>3625</v>
+        <v>3635</v>
       </c>
       <c r="C1483" t="s">
-        <v>3621</v>
-      </c>
-      <c r="D1483" t="s">
-        <v>473</v>
+        <v>3636</v>
+      </c>
+      <c r="D1483">
+        <v>68000</v>
       </c>
       <c r="E1483" t="s">
         <v>967</v>
       </c>
       <c r="H1483" t="s">
-        <v>1279</v>
+        <v>71</v>
+      </c>
+      <c r="I1483" t="s">
+        <v>3268</v>
       </c>
       <c r="M1483" t="s">
-        <v>3626</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="1484" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1484">
-        <v>1567</v>
+        <v>1571</v>
       </c>
       <c r="B1484" t="s">
-        <v>3627</v>
+        <v>3638</v>
       </c>
       <c r="C1484" t="s">
-        <v>3628</v>
-      </c>
-      <c r="D1484" t="s">
-        <v>405</v>
-      </c>
-      <c r="E1484" t="s">
-        <v>14</v>
+        <v>3639</v>
+      </c>
+      <c r="D1484">
+        <v>68000</v>
+      </c>
+      <c r="E1484">
+        <v>68000</v>
+      </c>
+      <c r="F1484">
+        <v>68000</v>
+      </c>
+      <c r="G1484" t="s">
+        <v>973</v>
       </c>
       <c r="H1484" t="s">
-        <v>172</v>
+        <v>551</v>
+      </c>
+      <c r="I1484" t="s">
+        <v>2375</v>
       </c>
       <c r="M1484" t="s">
-        <v>3629</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="1485" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1485">
-        <v>1568</v>
+        <v>1572</v>
       </c>
       <c r="B1485" t="s">
-        <v>3630</v>
+        <v>3641</v>
       </c>
       <c r="C1485" t="s">
-        <v>3628</v>
-      </c>
-      <c r="D1485" t="s">
-        <v>405</v>
-      </c>
-      <c r="E1485" t="s">
-        <v>14</v>
+        <v>3639</v>
+      </c>
+      <c r="D1485">
+        <v>68000</v>
+      </c>
+      <c r="E1485">
+        <v>68000</v>
+      </c>
+      <c r="F1485">
+        <v>68000</v>
+      </c>
+      <c r="G1485" t="s">
+        <v>973</v>
       </c>
       <c r="H1485" t="s">
-        <v>172</v>
+        <v>551</v>
+      </c>
+      <c r="I1485" t="s">
+        <v>2375</v>
       </c>
       <c r="M1485" t="s">
-        <v>3631</v>
+        <v>3642</v>
       </c>
     </row>
     <row r="1486" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1486">
-        <v>1569</v>
+        <v>1573</v>
       </c>
       <c r="B1486" t="s">
-        <v>3632</v>
+        <v>3643</v>
       </c>
       <c r="C1486" t="s">
-        <v>3633</v>
-      </c>
-      <c r="D1486" t="s">
-        <v>14</v>
+        <v>3644</v>
+      </c>
+      <c r="D1486">
+        <v>68000</v>
       </c>
       <c r="E1486" t="s">
         <v>154</v>
       </c>
       <c r="H1486" t="s">
-        <v>1279</v>
+        <v>336</v>
       </c>
       <c r="M1486" t="s">
-        <v>3634</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="1487" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1487">
-        <v>1570</v>
+        <v>1574</v>
       </c>
       <c r="B1487" t="s">
-        <v>3635</v>
+        <v>3646</v>
       </c>
       <c r="C1487" t="s">
-        <v>3636</v>
+        <v>3644</v>
       </c>
       <c r="D1487">
         <v>68000</v>
       </c>
       <c r="E1487" t="s">
-        <v>967</v>
+        <v>154</v>
       </c>
       <c r="H1487" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1487" t="s">
-        <v>3268</v>
+        <v>336</v>
       </c>
       <c r="M1487" t="s">
-        <v>3637</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="1488" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1488">
-        <v>1571</v>
+        <v>1575</v>
       </c>
       <c r="B1488" t="s">
-        <v>3638</v>
+        <v>3648</v>
       </c>
       <c r="C1488" t="s">
-        <v>3639</v>
+        <v>3644</v>
       </c>
       <c r="D1488">
         <v>68000</v>
       </c>
-      <c r="E1488">
-        <v>68000</v>
-      </c>
-      <c r="F1488">
-        <v>68000</v>
-      </c>
-      <c r="G1488" t="s">
+      <c r="E1488" t="s">
         <v>973</v>
       </c>
       <c r="H1488" t="s">
@@ -59370,29 +59474,23 @@
         <v>2375</v>
       </c>
       <c r="M1488" t="s">
-        <v>3640</v>
+        <v>4483</v>
       </c>
     </row>
     <row r="1489" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1489">
-        <v>1572</v>
+        <v>1576</v>
       </c>
       <c r="B1489" t="s">
-        <v>3641</v>
+        <v>3649</v>
       </c>
       <c r="C1489" t="s">
-        <v>3639</v>
+        <v>3644</v>
       </c>
       <c r="D1489">
         <v>68000</v>
       </c>
-      <c r="E1489">
-        <v>68000</v>
-      </c>
-      <c r="F1489">
-        <v>68000</v>
-      </c>
-      <c r="G1489" t="s">
+      <c r="E1489" t="s">
         <v>973</v>
       </c>
       <c r="H1489" t="s">
@@ -59402,15 +59500,15 @@
         <v>2375</v>
       </c>
       <c r="M1489" t="s">
-        <v>3642</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="1490" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1490">
-        <v>1573</v>
+        <v>1577</v>
       </c>
       <c r="B1490" t="s">
-        <v>3643</v>
+        <v>3650</v>
       </c>
       <c r="C1490" t="s">
         <v>3644</v>
@@ -59419,21 +59517,24 @@
         <v>68000</v>
       </c>
       <c r="E1490" t="s">
-        <v>154</v>
+        <v>973</v>
       </c>
       <c r="H1490" t="s">
-        <v>336</v>
+        <v>551</v>
+      </c>
+      <c r="I1490" t="s">
+        <v>2375</v>
       </c>
       <c r="M1490" t="s">
-        <v>3645</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1491" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1491">
-        <v>1574</v>
+        <v>1578</v>
       </c>
       <c r="B1491" t="s">
-        <v>3646</v>
+        <v>3652</v>
       </c>
       <c r="C1491" t="s">
         <v>3644</v>
@@ -59442,21 +59543,24 @@
         <v>68000</v>
       </c>
       <c r="E1491" t="s">
-        <v>154</v>
+        <v>973</v>
       </c>
       <c r="H1491" t="s">
-        <v>336</v>
+        <v>551</v>
+      </c>
+      <c r="I1491" t="s">
+        <v>2375</v>
       </c>
       <c r="M1491" t="s">
-        <v>3647</v>
+        <v>3653</v>
       </c>
     </row>
     <row r="1492" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1492">
-        <v>1575</v>
+        <v>1579</v>
       </c>
       <c r="B1492" t="s">
-        <v>3648</v>
+        <v>3654</v>
       </c>
       <c r="C1492" t="s">
         <v>3644</v>
@@ -59474,15 +59578,15 @@
         <v>2375</v>
       </c>
       <c r="M1492" t="s">
-        <v>4483</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="1493" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1493">
-        <v>1576</v>
+        <v>1580</v>
       </c>
       <c r="B1493" t="s">
-        <v>3649</v>
+        <v>3656</v>
       </c>
       <c r="C1493" t="s">
         <v>3644</v>
@@ -59500,15 +59604,15 @@
         <v>2375</v>
       </c>
       <c r="M1493" t="s">
-        <v>4484</v>
+        <v>3657</v>
       </c>
     </row>
     <row r="1494" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1494">
-        <v>1577</v>
+        <v>1581</v>
       </c>
       <c r="B1494" t="s">
-        <v>3650</v>
+        <v>3658</v>
       </c>
       <c r="C1494" t="s">
         <v>3644</v>
@@ -59526,15 +59630,15 @@
         <v>2375</v>
       </c>
       <c r="M1494" t="s">
-        <v>3651</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="1495" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1495">
-        <v>1578</v>
+        <v>1582</v>
       </c>
       <c r="B1495" t="s">
-        <v>3652</v>
+        <v>3660</v>
       </c>
       <c r="C1495" t="s">
         <v>3644</v>
@@ -59552,15 +59656,15 @@
         <v>2375</v>
       </c>
       <c r="M1495" t="s">
-        <v>3653</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="1496" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1496">
-        <v>1579</v>
+        <v>1583</v>
       </c>
       <c r="B1496" t="s">
-        <v>3654</v>
+        <v>3662</v>
       </c>
       <c r="C1496" t="s">
         <v>3644</v>
@@ -59578,15 +59682,15 @@
         <v>2375</v>
       </c>
       <c r="M1496" t="s">
-        <v>3655</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="1497" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1497">
-        <v>1580</v>
+        <v>1584</v>
       </c>
       <c r="B1497" t="s">
-        <v>3656</v>
+        <v>3664</v>
       </c>
       <c r="C1497" t="s">
         <v>3644</v>
@@ -59604,15 +59708,15 @@
         <v>2375</v>
       </c>
       <c r="M1497" t="s">
-        <v>3657</v>
+        <v>3665</v>
       </c>
     </row>
     <row r="1498" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1498">
-        <v>1581</v>
+        <v>1585</v>
       </c>
       <c r="B1498" t="s">
-        <v>3658</v>
+        <v>3666</v>
       </c>
       <c r="C1498" t="s">
         <v>3644</v>
@@ -59630,15 +59734,15 @@
         <v>2375</v>
       </c>
       <c r="M1498" t="s">
-        <v>3659</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="1499" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1499">
-        <v>1582</v>
+        <v>1586</v>
       </c>
       <c r="B1499" t="s">
-        <v>3660</v>
+        <v>3668</v>
       </c>
       <c r="C1499" t="s">
         <v>3644</v>
@@ -59656,15 +59760,15 @@
         <v>2375</v>
       </c>
       <c r="M1499" t="s">
-        <v>3661</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="1500" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1500">
-        <v>1583</v>
+        <v>1587</v>
       </c>
       <c r="B1500" t="s">
-        <v>3662</v>
+        <v>3670</v>
       </c>
       <c r="C1500" t="s">
         <v>3644</v>
@@ -59682,15 +59786,15 @@
         <v>2375</v>
       </c>
       <c r="M1500" t="s">
-        <v>3663</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="1501" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1501">
-        <v>1584</v>
+        <v>1588</v>
       </c>
       <c r="B1501" t="s">
-        <v>3664</v>
+        <v>3671</v>
       </c>
       <c r="C1501" t="s">
         <v>3644</v>
@@ -59708,15 +59812,15 @@
         <v>2375</v>
       </c>
       <c r="M1501" t="s">
-        <v>3665</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="1502" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1502">
-        <v>1585</v>
+        <v>1589</v>
       </c>
       <c r="B1502" t="s">
-        <v>3666</v>
+        <v>3672</v>
       </c>
       <c r="C1502" t="s">
         <v>3644</v>
@@ -59734,15 +59838,15 @@
         <v>2375</v>
       </c>
       <c r="M1502" t="s">
-        <v>3667</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="1503" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1503">
-        <v>1586</v>
+        <v>1590</v>
       </c>
       <c r="B1503" t="s">
-        <v>3668</v>
+        <v>3674</v>
       </c>
       <c r="C1503" t="s">
         <v>3644</v>
@@ -59760,15 +59864,15 @@
         <v>2375</v>
       </c>
       <c r="M1503" t="s">
-        <v>3669</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="1504" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1504">
-        <v>1587</v>
+        <v>1591</v>
       </c>
       <c r="B1504" t="s">
-        <v>3670</v>
+        <v>3676</v>
       </c>
       <c r="C1504" t="s">
         <v>3644</v>
@@ -59786,15 +59890,15 @@
         <v>2375</v>
       </c>
       <c r="M1504" t="s">
-        <v>4485</v>
+        <v>3677</v>
       </c>
     </row>
     <row r="1505" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1505">
-        <v>1588</v>
+        <v>1592</v>
       </c>
       <c r="B1505" t="s">
-        <v>3671</v>
+        <v>3678</v>
       </c>
       <c r="C1505" t="s">
         <v>3644</v>
@@ -59812,15 +59916,15 @@
         <v>2375</v>
       </c>
       <c r="M1505" t="s">
-        <v>4486</v>
+        <v>3679</v>
       </c>
     </row>
     <row r="1506" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1506">
-        <v>1589</v>
+        <v>1593</v>
       </c>
       <c r="B1506" t="s">
-        <v>3672</v>
+        <v>3680</v>
       </c>
       <c r="C1506" t="s">
         <v>3644</v>
@@ -59838,15 +59942,15 @@
         <v>2375</v>
       </c>
       <c r="M1506" t="s">
-        <v>3673</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="1507" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1507">
-        <v>1590</v>
+        <v>1594</v>
       </c>
       <c r="B1507" t="s">
-        <v>3674</v>
+        <v>3682</v>
       </c>
       <c r="C1507" t="s">
         <v>3644</v>
@@ -59864,15 +59968,15 @@
         <v>2375</v>
       </c>
       <c r="M1507" t="s">
-        <v>3675</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="1508" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1508">
-        <v>1591</v>
+        <v>1595</v>
       </c>
       <c r="B1508" t="s">
-        <v>3676</v>
+        <v>3684</v>
       </c>
       <c r="C1508" t="s">
         <v>3644</v>
@@ -59880,25 +59984,19 @@
       <c r="D1508">
         <v>68000</v>
       </c>
-      <c r="E1508" t="s">
-        <v>973</v>
-      </c>
       <c r="H1508" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1508" t="s">
-        <v>2375</v>
+        <v>1492</v>
       </c>
       <c r="M1508" t="s">
-        <v>3677</v>
+        <v>3685</v>
       </c>
     </row>
     <row r="1509" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1509">
-        <v>1592</v>
+        <v>1596</v>
       </c>
       <c r="B1509" t="s">
-        <v>3678</v>
+        <v>3686</v>
       </c>
       <c r="C1509" t="s">
         <v>3644</v>
@@ -59916,113 +60014,107 @@
         <v>2375</v>
       </c>
       <c r="M1509" t="s">
-        <v>3679</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="1510" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1510">
-        <v>1593</v>
+        <v>1597</v>
       </c>
       <c r="B1510" t="s">
-        <v>3680</v>
+        <v>3688</v>
       </c>
       <c r="C1510" t="s">
-        <v>3644</v>
+        <v>3689</v>
       </c>
       <c r="D1510">
         <v>68000</v>
       </c>
       <c r="E1510" t="s">
-        <v>973</v>
+        <v>154</v>
       </c>
       <c r="H1510" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1510" t="s">
-        <v>2375</v>
+        <v>1353</v>
       </c>
       <c r="M1510" t="s">
-        <v>3681</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="1511" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1511">
-        <v>1594</v>
+        <v>1598</v>
       </c>
       <c r="B1511" t="s">
-        <v>3682</v>
+        <v>3691</v>
       </c>
       <c r="C1511" t="s">
-        <v>3644</v>
+        <v>3689</v>
       </c>
       <c r="D1511">
         <v>68000</v>
       </c>
       <c r="E1511" t="s">
-        <v>973</v>
+        <v>154</v>
       </c>
       <c r="H1511" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1511" t="s">
-        <v>2375</v>
+        <v>1353</v>
       </c>
       <c r="M1511" t="s">
-        <v>3683</v>
+        <v>3692</v>
       </c>
     </row>
     <row r="1512" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1512">
-        <v>1595</v>
+        <v>1599</v>
       </c>
       <c r="B1512" t="s">
-        <v>3684</v>
+        <v>3693</v>
       </c>
       <c r="C1512" t="s">
-        <v>3644</v>
+        <v>3689</v>
       </c>
       <c r="D1512">
         <v>68000</v>
       </c>
+      <c r="E1512" t="s">
+        <v>154</v>
+      </c>
       <c r="H1512" t="s">
-        <v>1492</v>
+        <v>1353</v>
       </c>
       <c r="M1512" t="s">
-        <v>3685</v>
+        <v>3694</v>
       </c>
     </row>
     <row r="1513" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1513">
-        <v>1596</v>
+        <v>1600</v>
       </c>
       <c r="B1513" t="s">
-        <v>3686</v>
+        <v>3695</v>
       </c>
       <c r="C1513" t="s">
-        <v>3644</v>
+        <v>3689</v>
       </c>
       <c r="D1513">
         <v>68000</v>
       </c>
       <c r="E1513" t="s">
-        <v>973</v>
+        <v>154</v>
       </c>
       <c r="H1513" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1513" t="s">
-        <v>2375</v>
+        <v>1353</v>
       </c>
       <c r="M1513" t="s">
-        <v>3687</v>
+        <v>3696</v>
       </c>
     </row>
     <row r="1514" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1514">
-        <v>1597</v>
+        <v>1601</v>
       </c>
       <c r="B1514" t="s">
-        <v>3688</v>
+        <v>3697</v>
       </c>
       <c r="C1514" t="s">
         <v>3689</v>
@@ -60037,15 +60129,15 @@
         <v>1353</v>
       </c>
       <c r="M1514" t="s">
-        <v>3690</v>
+        <v>4487</v>
       </c>
     </row>
     <row r="1515" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1515">
-        <v>1598</v>
+        <v>1602</v>
       </c>
       <c r="B1515" t="s">
-        <v>3691</v>
+        <v>3698</v>
       </c>
       <c r="C1515" t="s">
         <v>3689</v>
@@ -60060,282 +60152,282 @@
         <v>1353</v>
       </c>
       <c r="M1515" t="s">
-        <v>3692</v>
+        <v>4488</v>
       </c>
     </row>
     <row r="1516" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1516">
-        <v>1599</v>
+        <v>1603</v>
       </c>
       <c r="B1516" t="s">
-        <v>3693</v>
+        <v>3735</v>
       </c>
       <c r="C1516" t="s">
-        <v>3689</v>
-      </c>
-      <c r="D1516">
-        <v>68000</v>
+        <v>3736</v>
+      </c>
+      <c r="D1516" t="s">
+        <v>14</v>
       </c>
       <c r="E1516" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="H1516" t="s">
-        <v>1353</v>
+        <v>71</v>
       </c>
       <c r="M1516" t="s">
-        <v>3694</v>
+        <v>3737</v>
       </c>
     </row>
     <row r="1517" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1517">
-        <v>1600</v>
+        <v>1604</v>
       </c>
       <c r="B1517" t="s">
-        <v>3695</v>
+        <v>3738</v>
       </c>
       <c r="C1517" t="s">
-        <v>3689</v>
-      </c>
-      <c r="D1517">
-        <v>68000</v>
+        <v>3736</v>
+      </c>
+      <c r="D1517" t="s">
+        <v>14</v>
       </c>
       <c r="E1517" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="H1517" t="s">
-        <v>1353</v>
+        <v>71</v>
       </c>
       <c r="M1517" t="s">
-        <v>3696</v>
+        <v>3739</v>
       </c>
     </row>
     <row r="1518" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1518">
-        <v>1601</v>
+        <v>1605</v>
       </c>
       <c r="B1518" t="s">
-        <v>3697</v>
+        <v>3740</v>
       </c>
       <c r="C1518" t="s">
-        <v>3689</v>
+        <v>3741</v>
       </c>
       <c r="D1518">
         <v>68000</v>
       </c>
       <c r="E1518" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="H1518" t="s">
-        <v>1353</v>
+        <v>349</v>
       </c>
       <c r="M1518" t="s">
-        <v>4487</v>
+        <v>3742</v>
       </c>
     </row>
     <row r="1519" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1519">
-        <v>1602</v>
+        <v>1606</v>
       </c>
       <c r="B1519" t="s">
-        <v>3698</v>
+        <v>3743</v>
       </c>
       <c r="C1519" t="s">
-        <v>3689</v>
+        <v>3744</v>
       </c>
       <c r="D1519">
         <v>68000</v>
       </c>
-      <c r="E1519" t="s">
-        <v>154</v>
-      </c>
       <c r="H1519" t="s">
-        <v>1353</v>
+        <v>172</v>
+      </c>
+      <c r="I1519" t="s">
+        <v>1492</v>
       </c>
       <c r="M1519" t="s">
-        <v>4488</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="1520" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1520">
-        <v>1603</v>
+        <v>1607</v>
       </c>
       <c r="B1520" t="s">
-        <v>3735</v>
+        <v>3746</v>
       </c>
       <c r="C1520" t="s">
-        <v>3736</v>
-      </c>
-      <c r="D1520" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1520" t="s">
-        <v>14</v>
+        <v>3744</v>
+      </c>
+      <c r="D1520">
+        <v>68000</v>
       </c>
       <c r="H1520" t="s">
-        <v>71</v>
+        <v>172</v>
+      </c>
+      <c r="I1520" t="s">
+        <v>1492</v>
       </c>
       <c r="M1520" t="s">
-        <v>3737</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="1521" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1521">
-        <v>1604</v>
+        <v>1608</v>
       </c>
       <c r="B1521" t="s">
-        <v>3738</v>
+        <v>3748</v>
       </c>
       <c r="C1521" t="s">
-        <v>3736</v>
-      </c>
-      <c r="D1521" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1521" t="s">
-        <v>14</v>
+        <v>3744</v>
+      </c>
+      <c r="D1521">
+        <v>68000</v>
       </c>
       <c r="H1521" t="s">
-        <v>71</v>
+        <v>2375</v>
       </c>
       <c r="M1521" t="s">
-        <v>3739</v>
+        <v>3749</v>
       </c>
     </row>
     <row r="1522" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1522">
-        <v>1605</v>
+        <v>1609</v>
       </c>
       <c r="B1522" t="s">
-        <v>3740</v>
+        <v>3750</v>
       </c>
       <c r="C1522" t="s">
-        <v>3741</v>
+        <v>3744</v>
       </c>
       <c r="D1522">
         <v>68000</v>
       </c>
-      <c r="E1522" t="s">
-        <v>14</v>
-      </c>
       <c r="H1522" t="s">
-        <v>349</v>
+        <v>2375</v>
       </c>
       <c r="M1522" t="s">
-        <v>3742</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="1523" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1523">
-        <v>1606</v>
+        <v>1610</v>
       </c>
       <c r="B1523" t="s">
-        <v>3743</v>
+        <v>3751</v>
       </c>
       <c r="C1523" t="s">
-        <v>3744</v>
+        <v>3752</v>
       </c>
       <c r="D1523">
         <v>68000</v>
       </c>
       <c r="H1523" t="s">
-        <v>172</v>
-      </c>
-      <c r="I1523" t="s">
         <v>1492</v>
       </c>
       <c r="M1523" t="s">
-        <v>3745</v>
+        <v>3753</v>
       </c>
     </row>
     <row r="1524" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1524">
-        <v>1607</v>
+        <v>1612</v>
       </c>
       <c r="B1524" t="s">
-        <v>3746</v>
+        <v>3757</v>
       </c>
       <c r="C1524" t="s">
-        <v>3744</v>
-      </c>
-      <c r="D1524">
-        <v>68000</v>
+        <v>3758</v>
+      </c>
+      <c r="D1524" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1524" t="s">
+        <v>725</v>
       </c>
       <c r="H1524" t="s">
-        <v>172</v>
-      </c>
-      <c r="I1524" t="s">
-        <v>1492</v>
+        <v>166</v>
       </c>
       <c r="M1524" t="s">
-        <v>3747</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="1525" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1525">
-        <v>1608</v>
+        <v>1613</v>
       </c>
       <c r="B1525" t="s">
-        <v>3748</v>
+        <v>3759</v>
       </c>
       <c r="C1525" t="s">
-        <v>3744</v>
-      </c>
-      <c r="D1525">
-        <v>68000</v>
+        <v>3758</v>
+      </c>
+      <c r="D1525" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1525" t="s">
+        <v>725</v>
       </c>
       <c r="H1525" t="s">
-        <v>2375</v>
+        <v>166</v>
       </c>
       <c r="M1525" t="s">
-        <v>3749</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="1526" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1526">
-        <v>1609</v>
+        <v>1614</v>
       </c>
       <c r="B1526" t="s">
-        <v>3750</v>
+        <v>3761</v>
       </c>
       <c r="C1526" t="s">
-        <v>3744</v>
-      </c>
-      <c r="D1526">
-        <v>68000</v>
+        <v>3758</v>
+      </c>
+      <c r="D1526" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1526" t="s">
+        <v>725</v>
       </c>
       <c r="H1526" t="s">
-        <v>2375</v>
+        <v>166</v>
       </c>
       <c r="M1526" t="s">
-        <v>4489</v>
+        <v>3762</v>
       </c>
     </row>
     <row r="1527" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1527">
-        <v>1610</v>
+        <v>1615</v>
       </c>
       <c r="B1527" t="s">
-        <v>3751</v>
+        <v>3763</v>
       </c>
       <c r="C1527" t="s">
-        <v>3752</v>
-      </c>
-      <c r="D1527">
-        <v>68000</v>
+        <v>3758</v>
+      </c>
+      <c r="D1527" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1527" t="s">
+        <v>725</v>
       </c>
       <c r="H1527" t="s">
-        <v>1492</v>
+        <v>166</v>
       </c>
       <c r="M1527" t="s">
-        <v>3753</v>
+        <v>3764</v>
       </c>
     </row>
     <row r="1528" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1528">
-        <v>1612</v>
+        <v>1616</v>
       </c>
       <c r="B1528" t="s">
-        <v>3757</v>
+        <v>3765</v>
       </c>
       <c r="C1528" t="s">
         <v>3758</v>
@@ -60350,648 +60442,639 @@
         <v>166</v>
       </c>
       <c r="M1528" t="s">
-        <v>4490</v>
+        <v>3766</v>
       </c>
     </row>
     <row r="1529" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1529">
-        <v>1613</v>
+        <v>1617</v>
       </c>
       <c r="B1529" t="s">
-        <v>3759</v>
+        <v>3774</v>
       </c>
       <c r="C1529" t="s">
-        <v>3758</v>
+        <v>3775</v>
       </c>
       <c r="D1529" t="s">
         <v>14</v>
       </c>
       <c r="E1529" t="s">
-        <v>725</v>
+        <v>154</v>
       </c>
       <c r="H1529" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M1529" t="s">
-        <v>3760</v>
+        <v>3776</v>
       </c>
     </row>
     <row r="1530" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1530">
-        <v>1614</v>
+        <v>1618</v>
       </c>
       <c r="B1530" t="s">
-        <v>3761</v>
+        <v>3777</v>
       </c>
       <c r="C1530" t="s">
-        <v>3758</v>
+        <v>3778</v>
       </c>
       <c r="D1530" t="s">
         <v>14</v>
       </c>
-      <c r="E1530" t="s">
-        <v>725</v>
-      </c>
       <c r="H1530" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M1530" t="s">
-        <v>3762</v>
+        <v>3779</v>
       </c>
     </row>
     <row r="1531" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1531">
-        <v>1615</v>
+        <v>1619</v>
       </c>
       <c r="B1531" t="s">
-        <v>3763</v>
+        <v>3780</v>
       </c>
       <c r="C1531" t="s">
-        <v>3758</v>
+        <v>3778</v>
       </c>
       <c r="D1531" t="s">
         <v>14</v>
       </c>
-      <c r="E1531" t="s">
-        <v>725</v>
-      </c>
       <c r="H1531" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M1531" t="s">
-        <v>3764</v>
+        <v>3781</v>
       </c>
     </row>
     <row r="1532" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1532">
-        <v>1616</v>
+        <v>1624</v>
       </c>
       <c r="B1532" t="s">
-        <v>3765</v>
+        <v>3791</v>
       </c>
       <c r="C1532" t="s">
-        <v>3758</v>
+        <v>3792</v>
       </c>
       <c r="D1532" t="s">
-        <v>14</v>
+        <v>405</v>
       </c>
       <c r="E1532" t="s">
-        <v>725</v>
+        <v>1184</v>
       </c>
       <c r="H1532" t="s">
-        <v>166</v>
+        <v>71</v>
       </c>
       <c r="M1532" t="s">
-        <v>3766</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="1533" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1533">
-        <v>1617</v>
+        <v>1625</v>
       </c>
       <c r="B1533" t="s">
-        <v>3774</v>
+        <v>3794</v>
       </c>
       <c r="C1533" t="s">
-        <v>3775</v>
+        <v>3792</v>
       </c>
       <c r="D1533" t="s">
-        <v>14</v>
+        <v>405</v>
       </c>
       <c r="E1533" t="s">
-        <v>154</v>
+        <v>1184</v>
       </c>
       <c r="H1533" t="s">
-        <v>172</v>
+        <v>71</v>
       </c>
       <c r="M1533" t="s">
-        <v>3776</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="1534" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1534">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="B1534" t="s">
-        <v>3777</v>
+        <v>3799</v>
       </c>
       <c r="C1534" t="s">
-        <v>3778</v>
+        <v>3800</v>
       </c>
       <c r="D1534" t="s">
-        <v>14</v>
+        <v>405</v>
+      </c>
+      <c r="E1534" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F1534" t="s">
+        <v>3801</v>
       </c>
       <c r="H1534" t="s">
-        <v>172</v>
+        <v>71</v>
       </c>
       <c r="M1534" t="s">
-        <v>3779</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="1535" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1535">
-        <v>1619</v>
+        <v>1627</v>
       </c>
       <c r="B1535" t="s">
-        <v>3780</v>
+        <v>3803</v>
       </c>
       <c r="C1535" t="s">
-        <v>3778</v>
+        <v>3804</v>
       </c>
       <c r="D1535" t="s">
-        <v>14</v>
+        <v>473</v>
       </c>
       <c r="H1535" t="s">
-        <v>172</v>
+        <v>2936</v>
       </c>
       <c r="M1535" t="s">
-        <v>3781</v>
+        <v>3805</v>
       </c>
     </row>
     <row r="1536" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1536">
-        <v>1624</v>
+        <v>1628</v>
       </c>
       <c r="B1536" t="s">
-        <v>3791</v>
+        <v>3806</v>
       </c>
       <c r="C1536" t="s">
-        <v>3792</v>
+        <v>3807</v>
       </c>
       <c r="D1536" t="s">
-        <v>405</v>
-      </c>
-      <c r="E1536" t="s">
-        <v>1184</v>
-      </c>
-      <c r="H1536" t="s">
-        <v>71</v>
+        <v>473</v>
       </c>
       <c r="M1536" t="s">
-        <v>3793</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="1537" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1537">
-        <v>1625</v>
+        <v>1629</v>
       </c>
       <c r="B1537" t="s">
-        <v>3794</v>
+        <v>3809</v>
       </c>
       <c r="C1537" t="s">
-        <v>3792</v>
+        <v>3807</v>
       </c>
       <c r="D1537" t="s">
-        <v>405</v>
-      </c>
-      <c r="E1537" t="s">
-        <v>1184</v>
-      </c>
-      <c r="H1537" t="s">
-        <v>71</v>
+        <v>473</v>
       </c>
       <c r="M1537" t="s">
-        <v>3795</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="1538" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1538">
-        <v>1626</v>
+        <v>1630</v>
       </c>
       <c r="B1538" t="s">
-        <v>3799</v>
+        <v>3811</v>
       </c>
       <c r="C1538" t="s">
-        <v>3800</v>
-      </c>
-      <c r="D1538" t="s">
-        <v>405</v>
-      </c>
-      <c r="E1538" t="s">
-        <v>1184</v>
-      </c>
-      <c r="F1538" t="s">
-        <v>3801</v>
-      </c>
-      <c r="H1538" t="s">
-        <v>71</v>
+        <v>3812</v>
+      </c>
+      <c r="D1538">
+        <v>8080</v>
       </c>
       <c r="M1538" t="s">
-        <v>3802</v>
+        <v>3813</v>
       </c>
     </row>
     <row r="1539" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1539">
-        <v>1627</v>
+        <v>1631</v>
       </c>
       <c r="B1539" t="s">
-        <v>3803</v>
+        <v>3814</v>
       </c>
       <c r="C1539" t="s">
-        <v>3804</v>
+        <v>3815</v>
       </c>
       <c r="D1539" t="s">
-        <v>473</v>
+        <v>3436</v>
+      </c>
+      <c r="E1539" t="s">
+        <v>3436</v>
+      </c>
+      <c r="F1539" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G1539" t="s">
+        <v>1184</v>
       </c>
       <c r="H1539" t="s">
-        <v>2936</v>
+        <v>333</v>
+      </c>
+      <c r="I1539" t="s">
+        <v>551</v>
       </c>
       <c r="M1539" t="s">
-        <v>3805</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="1540" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1540">
-        <v>1628</v>
+        <v>1632</v>
       </c>
       <c r="B1540" t="s">
-        <v>3806</v>
+        <v>3817</v>
       </c>
       <c r="C1540" t="s">
-        <v>3807</v>
+        <v>3818</v>
       </c>
       <c r="D1540" t="s">
-        <v>473</v>
+        <v>14</v>
+      </c>
+      <c r="H1540" t="s">
+        <v>172</v>
       </c>
       <c r="M1540" t="s">
-        <v>3808</v>
+        <v>3819</v>
       </c>
     </row>
     <row r="1541" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1541">
-        <v>1629</v>
+        <v>1633</v>
       </c>
       <c r="B1541" t="s">
-        <v>3809</v>
+        <v>3820</v>
       </c>
       <c r="C1541" t="s">
-        <v>3807</v>
+        <v>3821</v>
       </c>
       <c r="D1541" t="s">
-        <v>473</v>
+        <v>14</v>
+      </c>
+      <c r="E1541" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1541" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1541" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1541" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1541" t="s">
+        <v>166</v>
       </c>
       <c r="M1541" t="s">
-        <v>3810</v>
+        <v>3822</v>
       </c>
     </row>
     <row r="1542" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1542">
-        <v>1630</v>
+        <v>1634</v>
       </c>
       <c r="B1542" t="s">
-        <v>3811</v>
+        <v>3823</v>
       </c>
       <c r="C1542" t="s">
-        <v>3812</v>
-      </c>
-      <c r="D1542">
-        <v>8080</v>
+        <v>3821</v>
+      </c>
+      <c r="D1542" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1542" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1542" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1542" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1542" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1542" t="s">
+        <v>166</v>
       </c>
       <c r="M1542" t="s">
-        <v>3813</v>
+        <v>3824</v>
       </c>
     </row>
     <row r="1543" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1543">
-        <v>1631</v>
+        <v>1635</v>
       </c>
       <c r="B1543" t="s">
-        <v>3814</v>
+        <v>3825</v>
       </c>
       <c r="C1543" t="s">
-        <v>3815</v>
+        <v>3821</v>
       </c>
       <c r="D1543" t="s">
-        <v>3436</v>
+        <v>14</v>
       </c>
       <c r="E1543" t="s">
-        <v>3436</v>
+        <v>14</v>
       </c>
       <c r="F1543" t="s">
-        <v>1184</v>
+        <v>14</v>
       </c>
       <c r="G1543" t="s">
-        <v>1184</v>
+        <v>154</v>
       </c>
       <c r="H1543" t="s">
-        <v>333</v>
+        <v>71</v>
       </c>
       <c r="I1543" t="s">
-        <v>551</v>
+        <v>166</v>
       </c>
       <c r="M1543" t="s">
-        <v>3816</v>
+        <v>3826</v>
       </c>
     </row>
     <row r="1544" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1544">
-        <v>1632</v>
+        <v>1636</v>
       </c>
       <c r="B1544" t="s">
-        <v>3817</v>
+        <v>3827</v>
       </c>
       <c r="C1544" t="s">
-        <v>3818</v>
+        <v>3821</v>
       </c>
       <c r="D1544" t="s">
         <v>14</v>
       </c>
+      <c r="E1544" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1544" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1544" t="s">
+        <v>154</v>
+      </c>
       <c r="H1544" t="s">
-        <v>172</v>
+        <v>71</v>
+      </c>
+      <c r="I1544" t="s">
+        <v>166</v>
       </c>
       <c r="M1544" t="s">
-        <v>3819</v>
+        <v>3828</v>
       </c>
     </row>
     <row r="1545" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1545">
-        <v>1633</v>
+        <v>1637</v>
       </c>
       <c r="B1545" t="s">
-        <v>3820</v>
+        <v>3829</v>
       </c>
       <c r="C1545" t="s">
-        <v>3821</v>
-      </c>
-      <c r="D1545" t="s">
-        <v>14</v>
+        <v>3830</v>
+      </c>
+      <c r="D1545">
+        <v>68000</v>
       </c>
       <c r="E1545" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1545" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1545" t="s">
         <v>154</v>
       </c>
       <c r="H1545" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1545" t="s">
-        <v>166</v>
+        <v>1492</v>
       </c>
       <c r="M1545" t="s">
-        <v>3822</v>
+        <v>3831</v>
       </c>
     </row>
     <row r="1546" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1546">
-        <v>1634</v>
+        <v>1645</v>
       </c>
       <c r="B1546" t="s">
-        <v>3823</v>
+        <v>3848</v>
       </c>
       <c r="C1546" t="s">
-        <v>3821</v>
-      </c>
-      <c r="D1546" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1546" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1546" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1546" t="s">
-        <v>154</v>
+        <v>3849</v>
+      </c>
+      <c r="D1546">
+        <v>8080</v>
       </c>
       <c r="H1546" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1546" t="s">
-        <v>166</v>
+        <v>406</v>
       </c>
       <c r="M1546" t="s">
-        <v>3824</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="1547" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1547">
-        <v>1635</v>
+        <v>1646</v>
       </c>
       <c r="B1547" t="s">
-        <v>3825</v>
+        <v>3851</v>
       </c>
       <c r="C1547" t="s">
-        <v>3821</v>
+        <v>3852</v>
       </c>
       <c r="D1547" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1547" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1547" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1547" t="s">
-        <v>154</v>
+        <v>1105</v>
       </c>
       <c r="H1547" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1547" t="s">
-        <v>166</v>
+        <v>336</v>
       </c>
       <c r="M1547" t="s">
-        <v>3826</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="1548" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1548">
-        <v>1636</v>
+        <v>1647</v>
       </c>
       <c r="B1548" t="s">
-        <v>3827</v>
+        <v>3854</v>
       </c>
       <c r="C1548" t="s">
-        <v>3821</v>
+        <v>3855</v>
       </c>
       <c r="D1548" t="s">
         <v>14</v>
       </c>
       <c r="E1548" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1548" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1548" t="s">
         <v>154</v>
       </c>
       <c r="H1548" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1548" t="s">
-        <v>166</v>
+        <v>336</v>
       </c>
       <c r="M1548" t="s">
-        <v>3828</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="1549" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1549">
-        <v>1637</v>
+        <v>1648</v>
       </c>
       <c r="B1549" t="s">
-        <v>3829</v>
+        <v>3857</v>
       </c>
       <c r="C1549" t="s">
-        <v>3830</v>
-      </c>
-      <c r="D1549">
-        <v>68000</v>
+        <v>3855</v>
+      </c>
+      <c r="D1549" t="s">
+        <v>14</v>
       </c>
       <c r="E1549" t="s">
         <v>154</v>
       </c>
       <c r="H1549" t="s">
-        <v>1492</v>
+        <v>336</v>
       </c>
       <c r="M1549" t="s">
-        <v>3831</v>
+        <v>3858</v>
       </c>
     </row>
     <row r="1550" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1550">
-        <v>1645</v>
+        <v>1649</v>
       </c>
       <c r="B1550" t="s">
-        <v>3848</v>
+        <v>3859</v>
       </c>
       <c r="C1550" t="s">
-        <v>3849</v>
-      </c>
-      <c r="D1550">
-        <v>8080</v>
+        <v>3860</v>
+      </c>
+      <c r="D1550" t="s">
+        <v>3861</v>
+      </c>
+      <c r="E1550" t="s">
+        <v>725</v>
       </c>
       <c r="H1550" t="s">
-        <v>406</v>
+        <v>2070</v>
       </c>
       <c r="M1550" t="s">
-        <v>3850</v>
+        <v>3862</v>
       </c>
     </row>
     <row r="1551" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1551">
-        <v>1646</v>
+        <v>1650</v>
       </c>
       <c r="B1551" t="s">
-        <v>3851</v>
+        <v>3863</v>
       </c>
       <c r="C1551" t="s">
-        <v>3852</v>
-      </c>
-      <c r="D1551" t="s">
-        <v>1105</v>
+        <v>3864</v>
+      </c>
+      <c r="D1551">
+        <v>68000</v>
       </c>
       <c r="H1551" t="s">
-        <v>336</v>
+        <v>2375</v>
       </c>
       <c r="M1551" t="s">
-        <v>3853</v>
+        <v>3865</v>
       </c>
     </row>
     <row r="1552" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1552">
-        <v>1647</v>
+        <v>1651</v>
       </c>
       <c r="B1552" t="s">
-        <v>3854</v>
+        <v>3866</v>
       </c>
       <c r="C1552" t="s">
-        <v>3855</v>
-      </c>
-      <c r="D1552" t="s">
-        <v>14</v>
+        <v>3867</v>
+      </c>
+      <c r="D1552">
+        <v>68000</v>
       </c>
       <c r="E1552" t="s">
         <v>154</v>
       </c>
       <c r="H1552" t="s">
-        <v>336</v>
+        <v>1236</v>
       </c>
       <c r="M1552" t="s">
-        <v>3856</v>
+        <v>3868</v>
       </c>
     </row>
     <row r="1553" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1553">
-        <v>1648</v>
+        <v>1652</v>
       </c>
       <c r="B1553" t="s">
-        <v>3857</v>
+        <v>3869</v>
       </c>
       <c r="C1553" t="s">
-        <v>3855</v>
+        <v>3870</v>
       </c>
       <c r="D1553" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1553" t="s">
-        <v>154</v>
+        <v>405</v>
       </c>
       <c r="H1553" t="s">
-        <v>336</v>
+        <v>71</v>
       </c>
       <c r="M1553" t="s">
-        <v>3858</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="1554" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1554">
-        <v>1649</v>
+        <v>1653</v>
       </c>
       <c r="B1554" t="s">
-        <v>3859</v>
+        <v>3872</v>
       </c>
       <c r="C1554" t="s">
-        <v>3860</v>
+        <v>3873</v>
       </c>
       <c r="D1554" t="s">
-        <v>3861</v>
-      </c>
-      <c r="E1554" t="s">
-        <v>725</v>
-      </c>
-      <c r="H1554" t="s">
-        <v>2070</v>
+        <v>14</v>
       </c>
       <c r="M1554" t="s">
-        <v>3862</v>
+        <v>4493</v>
       </c>
     </row>
     <row r="1555" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1555">
-        <v>1650</v>
+        <v>1654</v>
       </c>
       <c r="B1555" t="s">
-        <v>3863</v>
+        <v>3874</v>
       </c>
       <c r="C1555" t="s">
-        <v>3864</v>
+        <v>3875</v>
       </c>
       <c r="D1555">
         <v>68000</v>
       </c>
+      <c r="E1555" t="s">
+        <v>154</v>
+      </c>
       <c r="H1555" t="s">
-        <v>2375</v>
+        <v>1353</v>
       </c>
       <c r="M1555" t="s">
-        <v>3865</v>
+        <v>3876</v>
       </c>
     </row>
     <row r="1556" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1556">
-        <v>1651</v>
+        <v>1655</v>
       </c>
       <c r="B1556" t="s">
-        <v>3866</v>
+        <v>3877</v>
       </c>
       <c r="C1556" t="s">
-        <v>3867</v>
+        <v>3875</v>
       </c>
       <c r="D1556">
         <v>68000</v>
@@ -61000,55 +61083,64 @@
         <v>154</v>
       </c>
       <c r="H1556" t="s">
-        <v>1236</v>
+        <v>1353</v>
       </c>
       <c r="M1556" t="s">
-        <v>3868</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="1557" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1557">
-        <v>1652</v>
+        <v>1656</v>
       </c>
       <c r="B1557" t="s">
-        <v>3869</v>
+        <v>3878</v>
       </c>
       <c r="C1557" t="s">
-        <v>3870</v>
-      </c>
-      <c r="D1557" t="s">
-        <v>405</v>
+        <v>3875</v>
+      </c>
+      <c r="D1557">
+        <v>68000</v>
+      </c>
+      <c r="E1557" t="s">
+        <v>154</v>
       </c>
       <c r="H1557" t="s">
-        <v>71</v>
+        <v>1353</v>
       </c>
       <c r="M1557" t="s">
-        <v>3871</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="1558" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1558">
-        <v>1653</v>
+        <v>1657</v>
       </c>
       <c r="B1558" t="s">
-        <v>3872</v>
+        <v>3880</v>
       </c>
       <c r="C1558" t="s">
-        <v>3873</v>
-      </c>
-      <c r="D1558" t="s">
-        <v>14</v>
+        <v>3875</v>
+      </c>
+      <c r="D1558">
+        <v>68000</v>
+      </c>
+      <c r="E1558" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1558" t="s">
+        <v>1353</v>
       </c>
       <c r="M1558" t="s">
-        <v>4493</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="1559" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1559">
-        <v>1654</v>
+        <v>1658</v>
       </c>
       <c r="B1559" t="s">
-        <v>3874</v>
+        <v>3882</v>
       </c>
       <c r="C1559" t="s">
         <v>3875</v>
@@ -61063,15 +61155,15 @@
         <v>1353</v>
       </c>
       <c r="M1559" t="s">
-        <v>3876</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="1560" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1560">
-        <v>1655</v>
+        <v>1659</v>
       </c>
       <c r="B1560" t="s">
-        <v>3877</v>
+        <v>3884</v>
       </c>
       <c r="C1560" t="s">
         <v>3875</v>
@@ -61086,15 +61178,15 @@
         <v>1353</v>
       </c>
       <c r="M1560" t="s">
-        <v>4494</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="1561" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1561">
-        <v>1656</v>
+        <v>1660</v>
       </c>
       <c r="B1561" t="s">
-        <v>3878</v>
+        <v>3886</v>
       </c>
       <c r="C1561" t="s">
         <v>3875</v>
@@ -61109,15 +61201,15 @@
         <v>1353</v>
       </c>
       <c r="M1561" t="s">
-        <v>3879</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="1562" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1562">
-        <v>1657</v>
+        <v>1661</v>
       </c>
       <c r="B1562" t="s">
-        <v>3880</v>
+        <v>3888</v>
       </c>
       <c r="C1562" t="s">
         <v>3875</v>
@@ -61132,15 +61224,15 @@
         <v>1353</v>
       </c>
       <c r="M1562" t="s">
-        <v>3881</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="1563" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1563">
-        <v>1658</v>
+        <v>1662</v>
       </c>
       <c r="B1563" t="s">
-        <v>3882</v>
+        <v>3889</v>
       </c>
       <c r="C1563" t="s">
         <v>3875</v>
@@ -61155,15 +61247,15 @@
         <v>1353</v>
       </c>
       <c r="M1563" t="s">
-        <v>3883</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="1564" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1564">
-        <v>1659</v>
+        <v>1663</v>
       </c>
       <c r="B1564" t="s">
-        <v>3884</v>
+        <v>3891</v>
       </c>
       <c r="C1564" t="s">
         <v>3875</v>
@@ -61178,15 +61270,15 @@
         <v>1353</v>
       </c>
       <c r="M1564" t="s">
-        <v>3885</v>
+        <v>3892</v>
       </c>
     </row>
     <row r="1565" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1565">
-        <v>1660</v>
+        <v>1664</v>
       </c>
       <c r="B1565" t="s">
-        <v>3886</v>
+        <v>3893</v>
       </c>
       <c r="C1565" t="s">
         <v>3875</v>
@@ -61201,15 +61293,15 @@
         <v>1353</v>
       </c>
       <c r="M1565" t="s">
-        <v>3887</v>
+        <v>3894</v>
       </c>
     </row>
     <row r="1566" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1566">
-        <v>1661</v>
+        <v>1665</v>
       </c>
       <c r="B1566" t="s">
-        <v>3888</v>
+        <v>3895</v>
       </c>
       <c r="C1566" t="s">
         <v>3875</v>
@@ -61224,15 +61316,15 @@
         <v>1353</v>
       </c>
       <c r="M1566" t="s">
-        <v>4495</v>
+        <v>3896</v>
       </c>
     </row>
     <row r="1567" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1567">
-        <v>1662</v>
+        <v>1666</v>
       </c>
       <c r="B1567" t="s">
-        <v>3889</v>
+        <v>3897</v>
       </c>
       <c r="C1567" t="s">
         <v>3875</v>
@@ -61247,15 +61339,15 @@
         <v>1353</v>
       </c>
       <c r="M1567" t="s">
-        <v>3890</v>
+        <v>3898</v>
       </c>
     </row>
     <row r="1568" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1568">
-        <v>1663</v>
+        <v>1667</v>
       </c>
       <c r="B1568" t="s">
-        <v>3891</v>
+        <v>3899</v>
       </c>
       <c r="C1568" t="s">
         <v>3875</v>
@@ -61270,15 +61362,15 @@
         <v>1353</v>
       </c>
       <c r="M1568" t="s">
-        <v>3892</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="1569" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1569">
-        <v>1664</v>
+        <v>1668</v>
       </c>
       <c r="B1569" t="s">
-        <v>3893</v>
+        <v>3900</v>
       </c>
       <c r="C1569" t="s">
         <v>3875</v>
@@ -61293,15 +61385,15 @@
         <v>1353</v>
       </c>
       <c r="M1569" t="s">
-        <v>3894</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="1570" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1570">
-        <v>1665</v>
+        <v>1669</v>
       </c>
       <c r="B1570" t="s">
-        <v>3895</v>
+        <v>3901</v>
       </c>
       <c r="C1570" t="s">
         <v>3875</v>
@@ -61316,15 +61408,15 @@
         <v>1353</v>
       </c>
       <c r="M1570" t="s">
-        <v>3896</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="1571" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1571">
-        <v>1666</v>
+        <v>1670</v>
       </c>
       <c r="B1571" t="s">
-        <v>3897</v>
+        <v>3903</v>
       </c>
       <c r="C1571" t="s">
         <v>3875</v>
@@ -61339,15 +61431,15 @@
         <v>1353</v>
       </c>
       <c r="M1571" t="s">
-        <v>3898</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="1572" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1572">
-        <v>1667</v>
+        <v>1671</v>
       </c>
       <c r="B1572" t="s">
-        <v>3899</v>
+        <v>3905</v>
       </c>
       <c r="C1572" t="s">
         <v>3875</v>
@@ -61362,15 +61454,15 @@
         <v>1353</v>
       </c>
       <c r="M1572" t="s">
-        <v>4496</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="1573" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1573">
-        <v>1668</v>
+        <v>1672</v>
       </c>
       <c r="B1573" t="s">
-        <v>3900</v>
+        <v>3907</v>
       </c>
       <c r="C1573" t="s">
         <v>3875</v>
@@ -61385,15 +61477,15 @@
         <v>1353</v>
       </c>
       <c r="M1573" t="s">
-        <v>4497</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="1574" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1574">
-        <v>1669</v>
+        <v>1673</v>
       </c>
       <c r="B1574" t="s">
-        <v>3901</v>
+        <v>3909</v>
       </c>
       <c r="C1574" t="s">
         <v>3875</v>
@@ -61408,15 +61500,15 @@
         <v>1353</v>
       </c>
       <c r="M1574" t="s">
-        <v>3902</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="1575" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1575">
-        <v>1670</v>
+        <v>1674</v>
       </c>
       <c r="B1575" t="s">
-        <v>3903</v>
+        <v>3911</v>
       </c>
       <c r="C1575" t="s">
         <v>3875</v>
@@ -61431,15 +61523,15 @@
         <v>1353</v>
       </c>
       <c r="M1575" t="s">
-        <v>3904</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="1576" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1576">
-        <v>1671</v>
+        <v>1675</v>
       </c>
       <c r="B1576" t="s">
-        <v>3905</v>
+        <v>3913</v>
       </c>
       <c r="C1576" t="s">
         <v>3875</v>
@@ -61454,15 +61546,15 @@
         <v>1353</v>
       </c>
       <c r="M1576" t="s">
-        <v>3906</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="1577" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1577">
-        <v>1672</v>
+        <v>1676</v>
       </c>
       <c r="B1577" t="s">
-        <v>3907</v>
+        <v>3914</v>
       </c>
       <c r="C1577" t="s">
         <v>3875</v>
@@ -61477,15 +61569,15 @@
         <v>1353</v>
       </c>
       <c r="M1577" t="s">
-        <v>3908</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="1578" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1578">
-        <v>1673</v>
+        <v>1677</v>
       </c>
       <c r="B1578" t="s">
-        <v>3909</v>
+        <v>3916</v>
       </c>
       <c r="C1578" t="s">
         <v>3875</v>
@@ -61500,15 +61592,15 @@
         <v>1353</v>
       </c>
       <c r="M1578" t="s">
-        <v>3910</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="1579" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1579">
-        <v>1674</v>
+        <v>1678</v>
       </c>
       <c r="B1579" t="s">
-        <v>3911</v>
+        <v>3918</v>
       </c>
       <c r="C1579" t="s">
         <v>3875</v>
@@ -61523,15 +61615,15 @@
         <v>1353</v>
       </c>
       <c r="M1579" t="s">
-        <v>3912</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="1580" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1580">
-        <v>1675</v>
+        <v>1679</v>
       </c>
       <c r="B1580" t="s">
-        <v>3913</v>
+        <v>3920</v>
       </c>
       <c r="C1580" t="s">
         <v>3875</v>
@@ -61546,15 +61638,15 @@
         <v>1353</v>
       </c>
       <c r="M1580" t="s">
-        <v>4498</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="1581" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1581">
-        <v>1676</v>
+        <v>1680</v>
       </c>
       <c r="B1581" t="s">
-        <v>3914</v>
+        <v>3921</v>
       </c>
       <c r="C1581" t="s">
         <v>3875</v>
@@ -61569,15 +61661,15 @@
         <v>1353</v>
       </c>
       <c r="M1581" t="s">
-        <v>3915</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="1582" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1582">
-        <v>1677</v>
+        <v>1681</v>
       </c>
       <c r="B1582" t="s">
-        <v>3916</v>
+        <v>3922</v>
       </c>
       <c r="C1582" t="s">
         <v>3875</v>
@@ -61592,15 +61684,15 @@
         <v>1353</v>
       </c>
       <c r="M1582" t="s">
-        <v>3917</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="1583" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1583">
-        <v>1678</v>
+        <v>1682</v>
       </c>
       <c r="B1583" t="s">
-        <v>3918</v>
+        <v>3923</v>
       </c>
       <c r="C1583" t="s">
         <v>3875</v>
@@ -61615,15 +61707,15 @@
         <v>1353</v>
       </c>
       <c r="M1583" t="s">
-        <v>3919</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="1584" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1584">
-        <v>1679</v>
+        <v>1683</v>
       </c>
       <c r="B1584" t="s">
-        <v>3920</v>
+        <v>3925</v>
       </c>
       <c r="C1584" t="s">
         <v>3875</v>
@@ -61638,15 +61730,15 @@
         <v>1353</v>
       </c>
       <c r="M1584" t="s">
-        <v>4499</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="1585" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1585">
-        <v>1680</v>
+        <v>1684</v>
       </c>
       <c r="B1585" t="s">
-        <v>3921</v>
+        <v>3927</v>
       </c>
       <c r="C1585" t="s">
         <v>3875</v>
@@ -61661,15 +61753,15 @@
         <v>1353</v>
       </c>
       <c r="M1585" t="s">
-        <v>4500</v>
+        <v>4502</v>
       </c>
     </row>
     <row r="1586" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1586">
-        <v>1681</v>
+        <v>1685</v>
       </c>
       <c r="B1586" t="s">
-        <v>3922</v>
+        <v>3928</v>
       </c>
       <c r="C1586" t="s">
         <v>3875</v>
@@ -61684,15 +61776,15 @@
         <v>1353</v>
       </c>
       <c r="M1586" t="s">
-        <v>4501</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="1587" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1587">
-        <v>1682</v>
+        <v>1686</v>
       </c>
       <c r="B1587" t="s">
-        <v>3923</v>
+        <v>3930</v>
       </c>
       <c r="C1587" t="s">
         <v>3875</v>
@@ -61707,15 +61799,15 @@
         <v>1353</v>
       </c>
       <c r="M1587" t="s">
-        <v>3924</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="1588" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1588">
-        <v>1683</v>
+        <v>1687</v>
       </c>
       <c r="B1588" t="s">
-        <v>3925</v>
+        <v>3931</v>
       </c>
       <c r="C1588" t="s">
         <v>3875</v>
@@ -61730,15 +61822,15 @@
         <v>1353</v>
       </c>
       <c r="M1588" t="s">
-        <v>3926</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="1589" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1589">
-        <v>1684</v>
+        <v>1688</v>
       </c>
       <c r="B1589" t="s">
-        <v>3927</v>
+        <v>3933</v>
       </c>
       <c r="C1589" t="s">
         <v>3875</v>
@@ -61753,15 +61845,15 @@
         <v>1353</v>
       </c>
       <c r="M1589" t="s">
-        <v>4502</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="1590" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1590">
-        <v>1685</v>
+        <v>1689</v>
       </c>
       <c r="B1590" t="s">
-        <v>3928</v>
+        <v>3935</v>
       </c>
       <c r="C1590" t="s">
         <v>3875</v>
@@ -61776,15 +61868,15 @@
         <v>1353</v>
       </c>
       <c r="M1590" t="s">
-        <v>3929</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="1591" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1591">
-        <v>1686</v>
+        <v>1690</v>
       </c>
       <c r="B1591" t="s">
-        <v>3930</v>
+        <v>3936</v>
       </c>
       <c r="C1591" t="s">
         <v>3875</v>
@@ -61799,15 +61891,15 @@
         <v>1353</v>
       </c>
       <c r="M1591" t="s">
-        <v>4503</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="1592" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1592">
-        <v>1687</v>
+        <v>1691</v>
       </c>
       <c r="B1592" t="s">
-        <v>3931</v>
+        <v>3937</v>
       </c>
       <c r="C1592" t="s">
         <v>3875</v>
@@ -61822,15 +61914,15 @@
         <v>1353</v>
       </c>
       <c r="M1592" t="s">
-        <v>3932</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="1593" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1593">
-        <v>1688</v>
+        <v>1692</v>
       </c>
       <c r="B1593" t="s">
-        <v>3933</v>
+        <v>3939</v>
       </c>
       <c r="C1593" t="s">
         <v>3875</v>
@@ -61845,15 +61937,15 @@
         <v>1353</v>
       </c>
       <c r="M1593" t="s">
-        <v>3934</v>
+        <v>4506</v>
       </c>
     </row>
     <row r="1594" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1594">
-        <v>1689</v>
+        <v>1693</v>
       </c>
       <c r="B1594" t="s">
-        <v>3935</v>
+        <v>3940</v>
       </c>
       <c r="C1594" t="s">
         <v>3875</v>
@@ -61868,15 +61960,15 @@
         <v>1353</v>
       </c>
       <c r="M1594" t="s">
-        <v>4504</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="1595" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1595">
-        <v>1690</v>
+        <v>1694</v>
       </c>
       <c r="B1595" t="s">
-        <v>3936</v>
+        <v>3941</v>
       </c>
       <c r="C1595" t="s">
         <v>3875</v>
@@ -61891,15 +61983,15 @@
         <v>1353</v>
       </c>
       <c r="M1595" t="s">
-        <v>4505</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="1596" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1596">
-        <v>1691</v>
+        <v>1695</v>
       </c>
       <c r="B1596" t="s">
-        <v>3937</v>
+        <v>3942</v>
       </c>
       <c r="C1596" t="s">
         <v>3875</v>
@@ -61914,15 +62006,15 @@
         <v>1353</v>
       </c>
       <c r="M1596" t="s">
-        <v>3938</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="1597" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1597">
-        <v>1692</v>
+        <v>1696</v>
       </c>
       <c r="B1597" t="s">
-        <v>3939</v>
+        <v>3943</v>
       </c>
       <c r="C1597" t="s">
         <v>3875</v>
@@ -61937,15 +62029,15 @@
         <v>1353</v>
       </c>
       <c r="M1597" t="s">
-        <v>4506</v>
+        <v>4510</v>
       </c>
     </row>
     <row r="1598" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1598">
-        <v>1693</v>
+        <v>1697</v>
       </c>
       <c r="B1598" t="s">
-        <v>3940</v>
+        <v>3944</v>
       </c>
       <c r="C1598" t="s">
         <v>3875</v>
@@ -61960,15 +62052,15 @@
         <v>1353</v>
       </c>
       <c r="M1598" t="s">
-        <v>4507</v>
+        <v>4511</v>
       </c>
     </row>
     <row r="1599" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1599">
-        <v>1694</v>
+        <v>1698</v>
       </c>
       <c r="B1599" t="s">
-        <v>3941</v>
+        <v>3945</v>
       </c>
       <c r="C1599" t="s">
         <v>3875</v>
@@ -61983,15 +62075,15 @@
         <v>1353</v>
       </c>
       <c r="M1599" t="s">
-        <v>4508</v>
+        <v>4512</v>
       </c>
     </row>
     <row r="1600" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1600">
-        <v>1695</v>
+        <v>1699</v>
       </c>
       <c r="B1600" t="s">
-        <v>3942</v>
+        <v>3946</v>
       </c>
       <c r="C1600" t="s">
         <v>3875</v>
@@ -62006,15 +62098,15 @@
         <v>1353</v>
       </c>
       <c r="M1600" t="s">
-        <v>4509</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="1601" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1601">
-        <v>1696</v>
+        <v>1700</v>
       </c>
       <c r="B1601" t="s">
-        <v>3943</v>
+        <v>3948</v>
       </c>
       <c r="C1601" t="s">
         <v>3875</v>
@@ -62029,15 +62121,15 @@
         <v>1353</v>
       </c>
       <c r="M1601" t="s">
-        <v>4510</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="1602" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1602">
-        <v>1697</v>
+        <v>1701</v>
       </c>
       <c r="B1602" t="s">
-        <v>3944</v>
+        <v>3950</v>
       </c>
       <c r="C1602" t="s">
         <v>3875</v>
@@ -62052,15 +62144,15 @@
         <v>1353</v>
       </c>
       <c r="M1602" t="s">
-        <v>4511</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="1603" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1603">
-        <v>1698</v>
+        <v>1702</v>
       </c>
       <c r="B1603" t="s">
-        <v>3945</v>
+        <v>3952</v>
       </c>
       <c r="C1603" t="s">
         <v>3875</v>
@@ -62075,15 +62167,15 @@
         <v>1353</v>
       </c>
       <c r="M1603" t="s">
-        <v>4512</v>
+        <v>4513</v>
       </c>
     </row>
     <row r="1604" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1604">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="B1604" t="s">
-        <v>3946</v>
+        <v>3953</v>
       </c>
       <c r="C1604" t="s">
         <v>3875</v>
@@ -62098,15 +62190,15 @@
         <v>1353</v>
       </c>
       <c r="M1604" t="s">
-        <v>3947</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="1605" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1605">
-        <v>1700</v>
+        <v>1704</v>
       </c>
       <c r="B1605" t="s">
-        <v>3948</v>
+        <v>3955</v>
       </c>
       <c r="C1605" t="s">
         <v>3875</v>
@@ -62121,15 +62213,15 @@
         <v>1353</v>
       </c>
       <c r="M1605" t="s">
-        <v>3949</v>
+        <v>3956</v>
       </c>
     </row>
     <row r="1606" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1606">
-        <v>1701</v>
+        <v>1705</v>
       </c>
       <c r="B1606" t="s">
-        <v>3950</v>
+        <v>3957</v>
       </c>
       <c r="C1606" t="s">
         <v>3875</v>
@@ -62144,15 +62236,15 @@
         <v>1353</v>
       </c>
       <c r="M1606" t="s">
-        <v>3951</v>
+        <v>4514</v>
       </c>
     </row>
     <row r="1607" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1607">
-        <v>1702</v>
+        <v>1706</v>
       </c>
       <c r="B1607" t="s">
-        <v>3952</v>
+        <v>3958</v>
       </c>
       <c r="C1607" t="s">
         <v>3875</v>
@@ -62167,15 +62259,15 @@
         <v>1353</v>
       </c>
       <c r="M1607" t="s">
-        <v>4513</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="1608" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1608">
-        <v>1703</v>
+        <v>1707</v>
       </c>
       <c r="B1608" t="s">
-        <v>3953</v>
+        <v>3960</v>
       </c>
       <c r="C1608" t="s">
         <v>3875</v>
@@ -62190,15 +62282,15 @@
         <v>1353</v>
       </c>
       <c r="M1608" t="s">
-        <v>3954</v>
+        <v>4515</v>
       </c>
     </row>
     <row r="1609" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1609">
-        <v>1704</v>
+        <v>1708</v>
       </c>
       <c r="B1609" t="s">
-        <v>3955</v>
+        <v>3961</v>
       </c>
       <c r="C1609" t="s">
         <v>3875</v>
@@ -62213,15 +62305,15 @@
         <v>1353</v>
       </c>
       <c r="M1609" t="s">
-        <v>3956</v>
+        <v>4516</v>
       </c>
     </row>
     <row r="1610" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1610">
-        <v>1705</v>
+        <v>1709</v>
       </c>
       <c r="B1610" t="s">
-        <v>3957</v>
+        <v>3962</v>
       </c>
       <c r="C1610" t="s">
         <v>3875</v>
@@ -62236,15 +62328,15 @@
         <v>1353</v>
       </c>
       <c r="M1610" t="s">
-        <v>4514</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="1611" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1611">
-        <v>1706</v>
+        <v>1710</v>
       </c>
       <c r="B1611" t="s">
-        <v>3958</v>
+        <v>3963</v>
       </c>
       <c r="C1611" t="s">
         <v>3875</v>
@@ -62259,15 +62351,15 @@
         <v>1353</v>
       </c>
       <c r="M1611" t="s">
-        <v>3959</v>
+        <v>4518</v>
       </c>
     </row>
     <row r="1612" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1612">
-        <v>1707</v>
+        <v>1711</v>
       </c>
       <c r="B1612" t="s">
-        <v>3960</v>
+        <v>3964</v>
       </c>
       <c r="C1612" t="s">
         <v>3875</v>
@@ -62282,15 +62374,15 @@
         <v>1353</v>
       </c>
       <c r="M1612" t="s">
-        <v>4515</v>
+        <v>4519</v>
       </c>
     </row>
     <row r="1613" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1613">
-        <v>1708</v>
+        <v>1712</v>
       </c>
       <c r="B1613" t="s">
-        <v>3961</v>
+        <v>3965</v>
       </c>
       <c r="C1613" t="s">
         <v>3875</v>
@@ -62305,15 +62397,15 @@
         <v>1353</v>
       </c>
       <c r="M1613" t="s">
-        <v>4516</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="1614" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1614">
-        <v>1709</v>
+        <v>1713</v>
       </c>
       <c r="B1614" t="s">
-        <v>3962</v>
+        <v>3966</v>
       </c>
       <c r="C1614" t="s">
         <v>3875</v>
@@ -62328,15 +62420,15 @@
         <v>1353</v>
       </c>
       <c r="M1614" t="s">
-        <v>4517</v>
+        <v>3967</v>
       </c>
     </row>
     <row r="1615" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1615">
-        <v>1710</v>
+        <v>1714</v>
       </c>
       <c r="B1615" t="s">
-        <v>3963</v>
+        <v>3968</v>
       </c>
       <c r="C1615" t="s">
         <v>3875</v>
@@ -62351,15 +62443,15 @@
         <v>1353</v>
       </c>
       <c r="M1615" t="s">
-        <v>4518</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="1616" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1616">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="B1616" t="s">
-        <v>3964</v>
+        <v>3969</v>
       </c>
       <c r="C1616" t="s">
         <v>3875</v>
@@ -62374,15 +62466,15 @@
         <v>1353</v>
       </c>
       <c r="M1616" t="s">
-        <v>4519</v>
+        <v>4522</v>
       </c>
     </row>
     <row r="1617" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1617">
-        <v>1712</v>
+        <v>1716</v>
       </c>
       <c r="B1617" t="s">
-        <v>3965</v>
+        <v>3970</v>
       </c>
       <c r="C1617" t="s">
         <v>3875</v>
@@ -62397,15 +62489,15 @@
         <v>1353</v>
       </c>
       <c r="M1617" t="s">
-        <v>4520</v>
+        <v>3971</v>
       </c>
     </row>
     <row r="1618" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1618">
-        <v>1713</v>
+        <v>1717</v>
       </c>
       <c r="B1618" t="s">
-        <v>3966</v>
+        <v>3972</v>
       </c>
       <c r="C1618" t="s">
         <v>3875</v>
@@ -62420,15 +62512,15 @@
         <v>1353</v>
       </c>
       <c r="M1618" t="s">
-        <v>3967</v>
+        <v>3973</v>
       </c>
     </row>
     <row r="1619" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1619">
-        <v>1714</v>
+        <v>1718</v>
       </c>
       <c r="B1619" t="s">
-        <v>3968</v>
+        <v>3974</v>
       </c>
       <c r="C1619" t="s">
         <v>3875</v>
@@ -62443,15 +62535,15 @@
         <v>1353</v>
       </c>
       <c r="M1619" t="s">
-        <v>4521</v>
+        <v>4523</v>
       </c>
     </row>
     <row r="1620" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1620">
-        <v>1715</v>
+        <v>1719</v>
       </c>
       <c r="B1620" t="s">
-        <v>3969</v>
+        <v>3975</v>
       </c>
       <c r="C1620" t="s">
         <v>3875</v>
@@ -62466,15 +62558,15 @@
         <v>1353</v>
       </c>
       <c r="M1620" t="s">
-        <v>4522</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="1621" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1621">
-        <v>1716</v>
+        <v>1720</v>
       </c>
       <c r="B1621" t="s">
-        <v>3970</v>
+        <v>3977</v>
       </c>
       <c r="C1621" t="s">
         <v>3875</v>
@@ -62489,15 +62581,15 @@
         <v>1353</v>
       </c>
       <c r="M1621" t="s">
-        <v>3971</v>
+        <v>4524</v>
       </c>
     </row>
     <row r="1622" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1622">
-        <v>1717</v>
+        <v>1721</v>
       </c>
       <c r="B1622" t="s">
-        <v>3972</v>
+        <v>3978</v>
       </c>
       <c r="C1622" t="s">
         <v>3875</v>
@@ -62512,15 +62604,15 @@
         <v>1353</v>
       </c>
       <c r="M1622" t="s">
-        <v>3973</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="1623" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1623">
-        <v>1718</v>
+        <v>1722</v>
       </c>
       <c r="B1623" t="s">
-        <v>3974</v>
+        <v>3979</v>
       </c>
       <c r="C1623" t="s">
         <v>3875</v>
@@ -62535,15 +62627,15 @@
         <v>1353</v>
       </c>
       <c r="M1623" t="s">
-        <v>4523</v>
+        <v>4526</v>
       </c>
     </row>
     <row r="1624" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1624">
-        <v>1719</v>
+        <v>1723</v>
       </c>
       <c r="B1624" t="s">
-        <v>3975</v>
+        <v>3980</v>
       </c>
       <c r="C1624" t="s">
         <v>3875</v>
@@ -62558,15 +62650,15 @@
         <v>1353</v>
       </c>
       <c r="M1624" t="s">
-        <v>3976</v>
+        <v>4527</v>
       </c>
     </row>
     <row r="1625" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1625">
-        <v>1720</v>
+        <v>1724</v>
       </c>
       <c r="B1625" t="s">
-        <v>3977</v>
+        <v>3981</v>
       </c>
       <c r="C1625" t="s">
         <v>3875</v>
@@ -62581,15 +62673,15 @@
         <v>1353</v>
       </c>
       <c r="M1625" t="s">
-        <v>4524</v>
+        <v>4528</v>
       </c>
     </row>
     <row r="1626" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1626">
-        <v>1721</v>
+        <v>1725</v>
       </c>
       <c r="B1626" t="s">
-        <v>3978</v>
+        <v>3982</v>
       </c>
       <c r="C1626" t="s">
         <v>3875</v>
@@ -62604,15 +62696,15 @@
         <v>1353</v>
       </c>
       <c r="M1626" t="s">
-        <v>4525</v>
+        <v>3983</v>
       </c>
     </row>
     <row r="1627" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1627">
-        <v>1722</v>
+        <v>1726</v>
       </c>
       <c r="B1627" t="s">
-        <v>3979</v>
+        <v>3984</v>
       </c>
       <c r="C1627" t="s">
         <v>3875</v>
@@ -62627,15 +62719,15 @@
         <v>1353</v>
       </c>
       <c r="M1627" t="s">
-        <v>4526</v>
+        <v>4529</v>
       </c>
     </row>
     <row r="1628" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1628">
-        <v>1723</v>
+        <v>1727</v>
       </c>
       <c r="B1628" t="s">
-        <v>3980</v>
+        <v>3985</v>
       </c>
       <c r="C1628" t="s">
         <v>3875</v>
@@ -62650,15 +62742,15 @@
         <v>1353</v>
       </c>
       <c r="M1628" t="s">
-        <v>4527</v>
+        <v>3986</v>
       </c>
     </row>
     <row r="1629" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1629">
-        <v>1724</v>
+        <v>1728</v>
       </c>
       <c r="B1629" t="s">
-        <v>3981</v>
+        <v>3987</v>
       </c>
       <c r="C1629" t="s">
         <v>3875</v>
@@ -62673,15 +62765,15 @@
         <v>1353</v>
       </c>
       <c r="M1629" t="s">
-        <v>4528</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="1630" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1630">
-        <v>1725</v>
+        <v>1729</v>
       </c>
       <c r="B1630" t="s">
-        <v>3982</v>
+        <v>3988</v>
       </c>
       <c r="C1630" t="s">
         <v>3875</v>
@@ -62696,15 +62788,15 @@
         <v>1353</v>
       </c>
       <c r="M1630" t="s">
-        <v>3983</v>
+        <v>3989</v>
       </c>
     </row>
     <row r="1631" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1631">
-        <v>1726</v>
+        <v>1730</v>
       </c>
       <c r="B1631" t="s">
-        <v>3984</v>
+        <v>3990</v>
       </c>
       <c r="C1631" t="s">
         <v>3875</v>
@@ -62719,15 +62811,15 @@
         <v>1353</v>
       </c>
       <c r="M1631" t="s">
-        <v>4529</v>
+        <v>3991</v>
       </c>
     </row>
     <row r="1632" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1632">
-        <v>1727</v>
+        <v>1731</v>
       </c>
       <c r="B1632" t="s">
-        <v>3985</v>
+        <v>3992</v>
       </c>
       <c r="C1632" t="s">
         <v>3875</v>
@@ -62742,15 +62834,15 @@
         <v>1353</v>
       </c>
       <c r="M1632" t="s">
-        <v>3986</v>
+        <v>4531</v>
       </c>
     </row>
     <row r="1633" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1633">
-        <v>1728</v>
+        <v>1732</v>
       </c>
       <c r="B1633" t="s">
-        <v>3987</v>
+        <v>3993</v>
       </c>
       <c r="C1633" t="s">
         <v>3875</v>
@@ -62765,15 +62857,15 @@
         <v>1353</v>
       </c>
       <c r="M1633" t="s">
-        <v>4530</v>
+        <v>4532</v>
       </c>
     </row>
     <row r="1634" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1634">
-        <v>1729</v>
+        <v>1733</v>
       </c>
       <c r="B1634" t="s">
-        <v>3988</v>
+        <v>3994</v>
       </c>
       <c r="C1634" t="s">
         <v>3875</v>
@@ -62788,15 +62880,15 @@
         <v>1353</v>
       </c>
       <c r="M1634" t="s">
-        <v>3989</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="1635" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1635">
-        <v>1730</v>
+        <v>1734</v>
       </c>
       <c r="B1635" t="s">
-        <v>3990</v>
+        <v>3996</v>
       </c>
       <c r="C1635" t="s">
         <v>3875</v>
@@ -62811,15 +62903,15 @@
         <v>1353</v>
       </c>
       <c r="M1635" t="s">
-        <v>3991</v>
+        <v>3997</v>
       </c>
     </row>
     <row r="1636" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1636">
-        <v>1731</v>
+        <v>1735</v>
       </c>
       <c r="B1636" t="s">
-        <v>3992</v>
+        <v>3998</v>
       </c>
       <c r="C1636" t="s">
         <v>3875</v>
@@ -62834,15 +62926,15 @@
         <v>1353</v>
       </c>
       <c r="M1636" t="s">
-        <v>4531</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="1637" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1637">
-        <v>1732</v>
+        <v>1736</v>
       </c>
       <c r="B1637" t="s">
-        <v>3993</v>
+        <v>3999</v>
       </c>
       <c r="C1637" t="s">
         <v>3875</v>
@@ -62857,15 +62949,15 @@
         <v>1353</v>
       </c>
       <c r="M1637" t="s">
-        <v>4532</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="1638" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1638">
-        <v>1733</v>
+        <v>1737</v>
       </c>
       <c r="B1638" t="s">
-        <v>3994</v>
+        <v>4001</v>
       </c>
       <c r="C1638" t="s">
         <v>3875</v>
@@ -62880,15 +62972,15 @@
         <v>1353</v>
       </c>
       <c r="M1638" t="s">
-        <v>3995</v>
+        <v>4534</v>
       </c>
     </row>
     <row r="1639" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1639">
-        <v>1734</v>
+        <v>1738</v>
       </c>
       <c r="B1639" t="s">
-        <v>3996</v>
+        <v>4002</v>
       </c>
       <c r="C1639" t="s">
         <v>3875</v>
@@ -62903,15 +62995,15 @@
         <v>1353</v>
       </c>
       <c r="M1639" t="s">
-        <v>3997</v>
+        <v>4535</v>
       </c>
     </row>
     <row r="1640" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1640">
-        <v>1735</v>
+        <v>1739</v>
       </c>
       <c r="B1640" t="s">
-        <v>3998</v>
+        <v>4003</v>
       </c>
       <c r="C1640" t="s">
         <v>3875</v>
@@ -62926,15 +63018,15 @@
         <v>1353</v>
       </c>
       <c r="M1640" t="s">
-        <v>4533</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="1641" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1641">
-        <v>1736</v>
+        <v>1740</v>
       </c>
       <c r="B1641" t="s">
-        <v>3999</v>
+        <v>4004</v>
       </c>
       <c r="C1641" t="s">
         <v>3875</v>
@@ -62949,15 +63041,15 @@
         <v>1353</v>
       </c>
       <c r="M1641" t="s">
-        <v>4000</v>
+        <v>4537</v>
       </c>
     </row>
     <row r="1642" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1642">
-        <v>1737</v>
+        <v>1741</v>
       </c>
       <c r="B1642" t="s">
-        <v>4001</v>
+        <v>4005</v>
       </c>
       <c r="C1642" t="s">
         <v>3875</v>
@@ -62972,15 +63064,15 @@
         <v>1353</v>
       </c>
       <c r="M1642" t="s">
-        <v>4534</v>
+        <v>4538</v>
       </c>
     </row>
     <row r="1643" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1643">
-        <v>1738</v>
+        <v>1742</v>
       </c>
       <c r="B1643" t="s">
-        <v>4002</v>
+        <v>4006</v>
       </c>
       <c r="C1643" t="s">
         <v>3875</v>
@@ -62995,15 +63087,15 @@
         <v>1353</v>
       </c>
       <c r="M1643" t="s">
-        <v>4535</v>
+        <v>4539</v>
       </c>
     </row>
     <row r="1644" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1644">
-        <v>1739</v>
+        <v>1743</v>
       </c>
       <c r="B1644" t="s">
-        <v>4003</v>
+        <v>4007</v>
       </c>
       <c r="C1644" t="s">
         <v>3875</v>
@@ -63018,15 +63110,15 @@
         <v>1353</v>
       </c>
       <c r="M1644" t="s">
-        <v>4536</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="1645" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1645">
-        <v>1740</v>
+        <v>1744</v>
       </c>
       <c r="B1645" t="s">
-        <v>4004</v>
+        <v>4009</v>
       </c>
       <c r="C1645" t="s">
         <v>3875</v>
@@ -63041,15 +63133,15 @@
         <v>1353</v>
       </c>
       <c r="M1645" t="s">
-        <v>4537</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="1646" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1646">
-        <v>1741</v>
+        <v>1745</v>
       </c>
       <c r="B1646" t="s">
-        <v>4005</v>
+        <v>4010</v>
       </c>
       <c r="C1646" t="s">
         <v>3875</v>
@@ -63064,15 +63156,15 @@
         <v>1353</v>
       </c>
       <c r="M1646" t="s">
-        <v>4538</v>
+        <v>4541</v>
       </c>
     </row>
     <row r="1647" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1647">
-        <v>1742</v>
+        <v>1746</v>
       </c>
       <c r="B1647" t="s">
-        <v>4006</v>
+        <v>4011</v>
       </c>
       <c r="C1647" t="s">
         <v>3875</v>
@@ -63087,15 +63179,15 @@
         <v>1353</v>
       </c>
       <c r="M1647" t="s">
-        <v>4539</v>
+        <v>4012</v>
       </c>
     </row>
     <row r="1648" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1648">
-        <v>1743</v>
+        <v>1747</v>
       </c>
       <c r="B1648" t="s">
-        <v>4007</v>
+        <v>4013</v>
       </c>
       <c r="C1648" t="s">
         <v>3875</v>
@@ -63110,15 +63202,15 @@
         <v>1353</v>
       </c>
       <c r="M1648" t="s">
-        <v>4008</v>
+        <v>4542</v>
       </c>
     </row>
     <row r="1649" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1649">
-        <v>1744</v>
+        <v>1748</v>
       </c>
       <c r="B1649" t="s">
-        <v>4009</v>
+        <v>4014</v>
       </c>
       <c r="C1649" t="s">
         <v>3875</v>
@@ -63133,15 +63225,15 @@
         <v>1353</v>
       </c>
       <c r="M1649" t="s">
-        <v>4540</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="1650" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1650">
-        <v>1745</v>
+        <v>1749</v>
       </c>
       <c r="B1650" t="s">
-        <v>4010</v>
+        <v>4016</v>
       </c>
       <c r="C1650" t="s">
         <v>3875</v>
@@ -63156,15 +63248,15 @@
         <v>1353</v>
       </c>
       <c r="M1650" t="s">
-        <v>4541</v>
+        <v>4017</v>
       </c>
     </row>
     <row r="1651" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1651">
-        <v>1746</v>
+        <v>1750</v>
       </c>
       <c r="B1651" t="s">
-        <v>4011</v>
+        <v>4018</v>
       </c>
       <c r="C1651" t="s">
         <v>3875</v>
@@ -63179,15 +63271,15 @@
         <v>1353</v>
       </c>
       <c r="M1651" t="s">
-        <v>4012</v>
+        <v>4543</v>
       </c>
     </row>
     <row r="1652" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1652">
-        <v>1747</v>
+        <v>1751</v>
       </c>
       <c r="B1652" t="s">
-        <v>4013</v>
+        <v>4019</v>
       </c>
       <c r="C1652" t="s">
         <v>3875</v>
@@ -63202,15 +63294,15 @@
         <v>1353</v>
       </c>
       <c r="M1652" t="s">
-        <v>4542</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="1653" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1653">
-        <v>1748</v>
+        <v>1752</v>
       </c>
       <c r="B1653" t="s">
-        <v>4014</v>
+        <v>4021</v>
       </c>
       <c r="C1653" t="s">
         <v>3875</v>
@@ -63225,15 +63317,15 @@
         <v>1353</v>
       </c>
       <c r="M1653" t="s">
-        <v>4015</v>
+        <v>4544</v>
       </c>
     </row>
     <row r="1654" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1654">
-        <v>1749</v>
+        <v>1753</v>
       </c>
       <c r="B1654" t="s">
-        <v>4016</v>
+        <v>4022</v>
       </c>
       <c r="C1654" t="s">
         <v>3875</v>
@@ -63248,15 +63340,15 @@
         <v>1353</v>
       </c>
       <c r="M1654" t="s">
-        <v>4017</v>
+        <v>4545</v>
       </c>
     </row>
     <row r="1655" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1655">
-        <v>1750</v>
+        <v>1754</v>
       </c>
       <c r="B1655" t="s">
-        <v>4018</v>
+        <v>4023</v>
       </c>
       <c r="C1655" t="s">
         <v>3875</v>
@@ -63271,15 +63363,15 @@
         <v>1353</v>
       </c>
       <c r="M1655" t="s">
-        <v>4543</v>
+        <v>4546</v>
       </c>
     </row>
     <row r="1656" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1656">
-        <v>1751</v>
+        <v>1755</v>
       </c>
       <c r="B1656" t="s">
-        <v>4019</v>
+        <v>4024</v>
       </c>
       <c r="C1656" t="s">
         <v>3875</v>
@@ -63294,15 +63386,15 @@
         <v>1353</v>
       </c>
       <c r="M1656" t="s">
-        <v>4020</v>
+        <v>4547</v>
       </c>
     </row>
     <row r="1657" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1657">
-        <v>1752</v>
+        <v>1756</v>
       </c>
       <c r="B1657" t="s">
-        <v>4021</v>
+        <v>4025</v>
       </c>
       <c r="C1657" t="s">
         <v>3875</v>
@@ -63317,15 +63409,15 @@
         <v>1353</v>
       </c>
       <c r="M1657" t="s">
-        <v>4544</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="1658" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1658">
-        <v>1753</v>
+        <v>1757</v>
       </c>
       <c r="B1658" t="s">
-        <v>4022</v>
+        <v>4026</v>
       </c>
       <c r="C1658" t="s">
         <v>3875</v>
@@ -63340,15 +63432,15 @@
         <v>1353</v>
       </c>
       <c r="M1658" t="s">
-        <v>4545</v>
+        <v>4027</v>
       </c>
     </row>
     <row r="1659" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1659">
-        <v>1754</v>
+        <v>1758</v>
       </c>
       <c r="B1659" t="s">
-        <v>4023</v>
+        <v>4028</v>
       </c>
       <c r="C1659" t="s">
         <v>3875</v>
@@ -63363,15 +63455,15 @@
         <v>1353</v>
       </c>
       <c r="M1659" t="s">
-        <v>4546</v>
+        <v>4549</v>
       </c>
     </row>
     <row r="1660" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1660">
-        <v>1755</v>
+        <v>1759</v>
       </c>
       <c r="B1660" t="s">
-        <v>4024</v>
+        <v>4029</v>
       </c>
       <c r="C1660" t="s">
         <v>3875</v>
@@ -63386,15 +63478,15 @@
         <v>1353</v>
       </c>
       <c r="M1660" t="s">
-        <v>4547</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="1661" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1661">
-        <v>1756</v>
+        <v>1760</v>
       </c>
       <c r="B1661" t="s">
-        <v>4025</v>
+        <v>4030</v>
       </c>
       <c r="C1661" t="s">
         <v>3875</v>
@@ -63409,15 +63501,15 @@
         <v>1353</v>
       </c>
       <c r="M1661" t="s">
-        <v>4548</v>
+        <v>4031</v>
       </c>
     </row>
     <row r="1662" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1662">
-        <v>1757</v>
+        <v>1761</v>
       </c>
       <c r="B1662" t="s">
-        <v>4026</v>
+        <v>4032</v>
       </c>
       <c r="C1662" t="s">
         <v>3875</v>
@@ -63432,15 +63524,15 @@
         <v>1353</v>
       </c>
       <c r="M1662" t="s">
-        <v>4027</v>
+        <v>4033</v>
       </c>
     </row>
     <row r="1663" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1663">
-        <v>1758</v>
+        <v>1762</v>
       </c>
       <c r="B1663" t="s">
-        <v>4028</v>
+        <v>4034</v>
       </c>
       <c r="C1663" t="s">
         <v>3875</v>
@@ -63455,15 +63547,15 @@
         <v>1353</v>
       </c>
       <c r="M1663" t="s">
-        <v>4549</v>
+        <v>4035</v>
       </c>
     </row>
     <row r="1664" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1664">
-        <v>1759</v>
+        <v>1763</v>
       </c>
       <c r="B1664" t="s">
-        <v>4029</v>
+        <v>4036</v>
       </c>
       <c r="C1664" t="s">
         <v>3875</v>
@@ -63478,15 +63570,15 @@
         <v>1353</v>
       </c>
       <c r="M1664" t="s">
-        <v>4550</v>
+        <v>4037</v>
       </c>
     </row>
     <row r="1665" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1665">
-        <v>1760</v>
+        <v>1764</v>
       </c>
       <c r="B1665" t="s">
-        <v>4030</v>
+        <v>4038</v>
       </c>
       <c r="C1665" t="s">
         <v>3875</v>
@@ -63501,15 +63593,15 @@
         <v>1353</v>
       </c>
       <c r="M1665" t="s">
-        <v>4031</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="1666" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1666">
-        <v>1761</v>
+        <v>1765</v>
       </c>
       <c r="B1666" t="s">
-        <v>4032</v>
+        <v>4039</v>
       </c>
       <c r="C1666" t="s">
         <v>3875</v>
@@ -63524,15 +63616,15 @@
         <v>1353</v>
       </c>
       <c r="M1666" t="s">
-        <v>4033</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="1667" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1667">
-        <v>1762</v>
+        <v>1766</v>
       </c>
       <c r="B1667" t="s">
-        <v>4034</v>
+        <v>4041</v>
       </c>
       <c r="C1667" t="s">
         <v>3875</v>
@@ -63547,15 +63639,15 @@
         <v>1353</v>
       </c>
       <c r="M1667" t="s">
-        <v>4035</v>
+        <v>4042</v>
       </c>
     </row>
     <row r="1668" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1668">
-        <v>1763</v>
+        <v>1767</v>
       </c>
       <c r="B1668" t="s">
-        <v>4036</v>
+        <v>4043</v>
       </c>
       <c r="C1668" t="s">
         <v>3875</v>
@@ -63570,15 +63662,15 @@
         <v>1353</v>
       </c>
       <c r="M1668" t="s">
-        <v>4037</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="1669" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1669">
-        <v>1764</v>
+        <v>1768</v>
       </c>
       <c r="B1669" t="s">
-        <v>4038</v>
+        <v>4044</v>
       </c>
       <c r="C1669" t="s">
         <v>3875</v>
@@ -63593,15 +63685,15 @@
         <v>1353</v>
       </c>
       <c r="M1669" t="s">
-        <v>4551</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="1670" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1670">
-        <v>1765</v>
+        <v>1769</v>
       </c>
       <c r="B1670" t="s">
-        <v>4039</v>
+        <v>4046</v>
       </c>
       <c r="C1670" t="s">
         <v>3875</v>
@@ -63616,15 +63708,15 @@
         <v>1353</v>
       </c>
       <c r="M1670" t="s">
-        <v>4040</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="1671" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1671">
-        <v>1766</v>
+        <v>1770</v>
       </c>
       <c r="B1671" t="s">
-        <v>4041</v>
+        <v>4047</v>
       </c>
       <c r="C1671" t="s">
         <v>3875</v>
@@ -63639,15 +63731,15 @@
         <v>1353</v>
       </c>
       <c r="M1671" t="s">
-        <v>4042</v>
+        <v>4048</v>
       </c>
     </row>
     <row r="1672" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1672">
-        <v>1767</v>
+        <v>1771</v>
       </c>
       <c r="B1672" t="s">
-        <v>4043</v>
+        <v>4049</v>
       </c>
       <c r="C1672" t="s">
         <v>3875</v>
@@ -63662,15 +63754,15 @@
         <v>1353</v>
       </c>
       <c r="M1672" t="s">
-        <v>4552</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="1673" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1673">
-        <v>1768</v>
+        <v>1772</v>
       </c>
       <c r="B1673" t="s">
-        <v>4044</v>
+        <v>4051</v>
       </c>
       <c r="C1673" t="s">
         <v>3875</v>
@@ -63685,15 +63777,15 @@
         <v>1353</v>
       </c>
       <c r="M1673" t="s">
-        <v>4045</v>
+        <v>4052</v>
       </c>
     </row>
     <row r="1674" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1674">
-        <v>1769</v>
+        <v>1773</v>
       </c>
       <c r="B1674" t="s">
-        <v>4046</v>
+        <v>4053</v>
       </c>
       <c r="C1674" t="s">
         <v>3875</v>
@@ -63708,15 +63800,15 @@
         <v>1353</v>
       </c>
       <c r="M1674" t="s">
-        <v>4553</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="1675" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1675">
-        <v>1770</v>
+        <v>1774</v>
       </c>
       <c r="B1675" t="s">
-        <v>4047</v>
+        <v>4054</v>
       </c>
       <c r="C1675" t="s">
         <v>3875</v>
@@ -63731,15 +63823,15 @@
         <v>1353</v>
       </c>
       <c r="M1675" t="s">
-        <v>4048</v>
+        <v>4555</v>
       </c>
     </row>
     <row r="1676" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1676">
-        <v>1771</v>
+        <v>1775</v>
       </c>
       <c r="B1676" t="s">
-        <v>4049</v>
+        <v>4055</v>
       </c>
       <c r="C1676" t="s">
         <v>3875</v>
@@ -63754,15 +63846,15 @@
         <v>1353</v>
       </c>
       <c r="M1676" t="s">
-        <v>4050</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="1677" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1677">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="B1677" t="s">
-        <v>4051</v>
+        <v>4056</v>
       </c>
       <c r="C1677" t="s">
         <v>3875</v>
@@ -63777,15 +63869,15 @@
         <v>1353</v>
       </c>
       <c r="M1677" t="s">
-        <v>4052</v>
+        <v>4557</v>
       </c>
     </row>
     <row r="1678" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1678">
-        <v>1773</v>
+        <v>1777</v>
       </c>
       <c r="B1678" t="s">
-        <v>4053</v>
+        <v>4057</v>
       </c>
       <c r="C1678" t="s">
         <v>3875</v>
@@ -63800,15 +63892,15 @@
         <v>1353</v>
       </c>
       <c r="M1678" t="s">
-        <v>4554</v>
+        <v>4558</v>
       </c>
     </row>
     <row r="1679" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1679">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="B1679" t="s">
-        <v>4054</v>
+        <v>4058</v>
       </c>
       <c r="C1679" t="s">
         <v>3875</v>
@@ -63823,15 +63915,15 @@
         <v>1353</v>
       </c>
       <c r="M1679" t="s">
-        <v>4555</v>
+        <v>4059</v>
       </c>
     </row>
     <row r="1680" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1680">
-        <v>1775</v>
+        <v>1779</v>
       </c>
       <c r="B1680" t="s">
-        <v>4055</v>
+        <v>4060</v>
       </c>
       <c r="C1680" t="s">
         <v>3875</v>
@@ -63846,15 +63938,15 @@
         <v>1353</v>
       </c>
       <c r="M1680" t="s">
-        <v>4556</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="1681" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1681">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="B1681" t="s">
-        <v>4056</v>
+        <v>4061</v>
       </c>
       <c r="C1681" t="s">
         <v>3875</v>
@@ -63869,103 +63961,11 @@
         <v>1353</v>
       </c>
       <c r="M1681" t="s">
-        <v>4557</v>
-      </c>
-    </row>
-    <row r="1682" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1682">
-        <v>1777</v>
-      </c>
-      <c r="B1682" t="s">
-        <v>4057</v>
-      </c>
-      <c r="C1682" t="s">
-        <v>3875</v>
-      </c>
-      <c r="D1682">
-        <v>68000</v>
-      </c>
-      <c r="E1682" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1682" t="s">
-        <v>1353</v>
-      </c>
-      <c r="M1682" t="s">
-        <v>4558</v>
-      </c>
-    </row>
-    <row r="1683" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1683">
-        <v>1778</v>
-      </c>
-      <c r="B1683" t="s">
-        <v>4058</v>
-      </c>
-      <c r="C1683" t="s">
-        <v>3875</v>
-      </c>
-      <c r="D1683">
-        <v>68000</v>
-      </c>
-      <c r="E1683" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1683" t="s">
-        <v>1353</v>
-      </c>
-      <c r="M1683" t="s">
-        <v>4059</v>
-      </c>
-    </row>
-    <row r="1684" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1684">
-        <v>1779</v>
-      </c>
-      <c r="B1684" t="s">
-        <v>4060</v>
-      </c>
-      <c r="C1684" t="s">
-        <v>3875</v>
-      </c>
-      <c r="D1684">
-        <v>68000</v>
-      </c>
-      <c r="E1684" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1684" t="s">
-        <v>1353</v>
-      </c>
-      <c r="M1684" t="s">
-        <v>4559</v>
-      </c>
-    </row>
-    <row r="1685" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1685">
-        <v>1780</v>
-      </c>
-      <c r="B1685" t="s">
-        <v>4061</v>
-      </c>
-      <c r="C1685" t="s">
-        <v>3875</v>
-      </c>
-      <c r="D1685">
-        <v>68000</v>
-      </c>
-      <c r="E1685" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1685" t="s">
-        <v>1353</v>
-      </c>
-      <c r="M1685" t="s">
         <v>4062</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1685"/>
+  <autoFilter ref="A1:M1681"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/0.36/compatibility.xlsx
+++ b/0.36/compatibility.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Playable (untested)" sheetId="4" r:id="rId1"/>
@@ -17,8 +17,8 @@
     <sheet name="GAME_NOT_WORKING FLAG" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ALL!$A$1:$M$1641</definedName>
-    <definedName name="LIST" localSheetId="1">ALL!$B$1:$M$1641</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ALL!$A$1:$M$1639</definedName>
+    <definedName name="LIST" localSheetId="1">ALL!$B$1:$M$1639</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -14081,10 +14081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P400"/>
+  <dimension ref="A1:P402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A284" workbookViewId="0">
-      <selection activeCell="A401" sqref="A401"/>
+    <sheetView topLeftCell="A391" workbookViewId="0">
+      <selection activeCell="A399" sqref="A399:A402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23419,6 +23419,52 @@
         <v>3276</v>
       </c>
     </row>
+    <row r="401" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A401">
+        <v>401</v>
+      </c>
+      <c r="B401" t="s">
+        <v>3429</v>
+      </c>
+      <c r="C401" t="s">
+        <v>3430</v>
+      </c>
+      <c r="D401" t="s">
+        <v>14</v>
+      </c>
+      <c r="E401" t="s">
+        <v>154</v>
+      </c>
+      <c r="H401" t="s">
+        <v>1279</v>
+      </c>
+      <c r="M401" t="s">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="402" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A402">
+        <v>402</v>
+      </c>
+      <c r="B402" t="s">
+        <v>3432</v>
+      </c>
+      <c r="C402" t="s">
+        <v>3430</v>
+      </c>
+      <c r="D402" t="s">
+        <v>14</v>
+      </c>
+      <c r="E402" t="s">
+        <v>154</v>
+      </c>
+      <c r="H402" t="s">
+        <v>1279</v>
+      </c>
+      <c r="M402" t="s">
+        <v>3433</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23427,10 +23473,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1641"/>
+  <dimension ref="A1:M1639"/>
   <sheetViews>
-    <sheetView topLeftCell="A1615" workbookViewId="0">
-      <selection activeCell="G1299" sqref="G1299"/>
+    <sheetView tabSelected="1" topLeftCell="A1282" workbookViewId="0">
+      <selection activeCell="F1288" sqref="F1288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -57271,56 +57317,77 @@
     </row>
     <row r="1363" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1363">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="B1363" t="s">
-        <v>3429</v>
+        <v>3434</v>
       </c>
       <c r="C1363" t="s">
-        <v>3430</v>
+        <v>3435</v>
       </c>
       <c r="D1363" t="s">
-        <v>14</v>
+        <v>3436</v>
       </c>
       <c r="E1363" t="s">
-        <v>154</v>
+        <v>967</v>
+      </c>
+      <c r="F1363" t="s">
+        <v>967</v>
       </c>
       <c r="H1363" t="s">
-        <v>1279</v>
+        <v>93</v>
+      </c>
+      <c r="I1363" t="s">
+        <v>551</v>
+      </c>
+      <c r="J1363" t="s">
+        <v>333</v>
+      </c>
+      <c r="K1363" t="s">
+        <v>997</v>
       </c>
       <c r="M1363" t="s">
-        <v>3431</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="1364" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1364">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="B1364" t="s">
-        <v>3432</v>
+        <v>3438</v>
       </c>
       <c r="C1364" t="s">
-        <v>3430</v>
+        <v>3435</v>
       </c>
       <c r="D1364" t="s">
-        <v>14</v>
+        <v>3436</v>
       </c>
       <c r="E1364" t="s">
-        <v>154</v>
+        <v>967</v>
       </c>
       <c r="H1364" t="s">
-        <v>1279</v>
+        <v>93</v>
+      </c>
+      <c r="I1364" t="s">
+        <v>551</v>
+      </c>
+      <c r="J1364" t="s">
+        <v>166</v>
+      </c>
+      <c r="K1364" t="s">
+        <v>997</v>
       </c>
       <c r="M1364" t="s">
-        <v>3433</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="1365" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1365">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="B1365" t="s">
-        <v>3434</v>
+        <v>3440</v>
       </c>
       <c r="C1365" t="s">
         <v>3435</v>
@@ -57331,9 +57398,6 @@
       <c r="E1365" t="s">
         <v>967</v>
       </c>
-      <c r="F1365" t="s">
-        <v>967</v>
-      </c>
       <c r="H1365" t="s">
         <v>93</v>
       </c>
@@ -57341,21 +57405,21 @@
         <v>551</v>
       </c>
       <c r="J1365" t="s">
-        <v>333</v>
+        <v>166</v>
       </c>
       <c r="K1365" t="s">
         <v>997</v>
       </c>
       <c r="M1365" t="s">
-        <v>3437</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="1366" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1366">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="B1366" t="s">
-        <v>3438</v>
+        <v>3442</v>
       </c>
       <c r="C1366" t="s">
         <v>3435</v>
@@ -57379,15 +57443,15 @@
         <v>997</v>
       </c>
       <c r="M1366" t="s">
-        <v>3439</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="1367" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1367">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="B1367" t="s">
-        <v>3440</v>
+        <v>3443</v>
       </c>
       <c r="C1367" t="s">
         <v>3435</v>
@@ -57411,15 +57475,15 @@
         <v>997</v>
       </c>
       <c r="M1367" t="s">
-        <v>3441</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="1368" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1368">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="B1368" t="s">
-        <v>3442</v>
+        <v>3445</v>
       </c>
       <c r="C1368" t="s">
         <v>3435</v>
@@ -57443,15 +57507,15 @@
         <v>997</v>
       </c>
       <c r="M1368" t="s">
-        <v>4459</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="1369" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1369">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="B1369" t="s">
-        <v>3443</v>
+        <v>3447</v>
       </c>
       <c r="C1369" t="s">
         <v>3435</v>
@@ -57475,15 +57539,15 @@
         <v>997</v>
       </c>
       <c r="M1369" t="s">
-        <v>3444</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="1370" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1370">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="B1370" t="s">
-        <v>3445</v>
+        <v>3449</v>
       </c>
       <c r="C1370" t="s">
         <v>3435</v>
@@ -57507,15 +57571,15 @@
         <v>997</v>
       </c>
       <c r="M1370" t="s">
-        <v>3446</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="1371" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1371">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="B1371" t="s">
-        <v>3447</v>
+        <v>3451</v>
       </c>
       <c r="C1371" t="s">
         <v>3435</v>
@@ -57539,15 +57603,15 @@
         <v>997</v>
       </c>
       <c r="M1371" t="s">
-        <v>3448</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="1372" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1372">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="B1372" t="s">
-        <v>3449</v>
+        <v>3452</v>
       </c>
       <c r="C1372" t="s">
         <v>3435</v>
@@ -57571,15 +57635,15 @@
         <v>997</v>
       </c>
       <c r="M1372" t="s">
-        <v>3450</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="1373" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1373">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="B1373" t="s">
-        <v>3451</v>
+        <v>3453</v>
       </c>
       <c r="C1373" t="s">
         <v>3435</v>
@@ -57603,15 +57667,15 @@
         <v>997</v>
       </c>
       <c r="M1373" t="s">
-        <v>4460</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="1374" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1374">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="B1374" t="s">
-        <v>3452</v>
+        <v>3454</v>
       </c>
       <c r="C1374" t="s">
         <v>3435</v>
@@ -57632,18 +57696,18 @@
         <v>166</v>
       </c>
       <c r="K1374" t="s">
-        <v>997</v>
+        <v>1492</v>
       </c>
       <c r="M1374" t="s">
-        <v>4461</v>
+        <v>4463</v>
       </c>
     </row>
     <row r="1375" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1375">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="B1375" t="s">
-        <v>3453</v>
+        <v>3455</v>
       </c>
       <c r="C1375" t="s">
         <v>3435</v>
@@ -57664,18 +57728,18 @@
         <v>166</v>
       </c>
       <c r="K1375" t="s">
-        <v>997</v>
+        <v>1492</v>
       </c>
       <c r="M1375" t="s">
-        <v>4462</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1376" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1376">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="B1376" t="s">
-        <v>3454</v>
+        <v>3456</v>
       </c>
       <c r="C1376" t="s">
         <v>3435</v>
@@ -57699,15 +57763,15 @@
         <v>1492</v>
       </c>
       <c r="M1376" t="s">
-        <v>4463</v>
+        <v>4465</v>
       </c>
     </row>
     <row r="1377" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1377">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="B1377" t="s">
-        <v>3455</v>
+        <v>3457</v>
       </c>
       <c r="C1377" t="s">
         <v>3435</v>
@@ -57731,15 +57795,15 @@
         <v>1492</v>
       </c>
       <c r="M1377" t="s">
-        <v>4464</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="1378" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1378">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="B1378" t="s">
-        <v>3456</v>
+        <v>3458</v>
       </c>
       <c r="C1378" t="s">
         <v>3435</v>
@@ -57763,15 +57827,15 @@
         <v>1492</v>
       </c>
       <c r="M1378" t="s">
-        <v>4465</v>
+        <v>4467</v>
       </c>
     </row>
     <row r="1379" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1379">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="B1379" t="s">
-        <v>3457</v>
+        <v>3459</v>
       </c>
       <c r="C1379" t="s">
         <v>3435</v>
@@ -57795,15 +57859,15 @@
         <v>1492</v>
       </c>
       <c r="M1379" t="s">
-        <v>4466</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="1380" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1380">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="B1380" t="s">
-        <v>3458</v>
+        <v>3460</v>
       </c>
       <c r="C1380" t="s">
         <v>3435</v>
@@ -57827,15 +57891,15 @@
         <v>1492</v>
       </c>
       <c r="M1380" t="s">
-        <v>4467</v>
+        <v>4469</v>
       </c>
     </row>
     <row r="1381" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1381">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="B1381" t="s">
-        <v>3459</v>
+        <v>3461</v>
       </c>
       <c r="C1381" t="s">
         <v>3435</v>
@@ -57859,15 +57923,15 @@
         <v>1492</v>
       </c>
       <c r="M1381" t="s">
-        <v>4468</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="1382" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1382">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="B1382" t="s">
-        <v>3460</v>
+        <v>3462</v>
       </c>
       <c r="C1382" t="s">
         <v>3435</v>
@@ -57875,31 +57939,16 @@
       <c r="D1382" t="s">
         <v>3436</v>
       </c>
-      <c r="E1382" t="s">
-        <v>967</v>
-      </c>
-      <c r="H1382" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1382" t="s">
-        <v>551</v>
-      </c>
-      <c r="J1382" t="s">
-        <v>166</v>
-      </c>
-      <c r="K1382" t="s">
-        <v>1492</v>
-      </c>
       <c r="M1382" t="s">
-        <v>4469</v>
+        <v>4471</v>
       </c>
     </row>
     <row r="1383" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1383">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="B1383" t="s">
-        <v>3461</v>
+        <v>3463</v>
       </c>
       <c r="C1383" t="s">
         <v>3435</v>
@@ -57907,31 +57956,16 @@
       <c r="D1383" t="s">
         <v>3436</v>
       </c>
-      <c r="E1383" t="s">
-        <v>967</v>
-      </c>
-      <c r="H1383" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1383" t="s">
-        <v>551</v>
-      </c>
-      <c r="J1383" t="s">
-        <v>166</v>
-      </c>
-      <c r="K1383" t="s">
-        <v>1492</v>
-      </c>
       <c r="M1383" t="s">
-        <v>4470</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="1384" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1384">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="B1384" t="s">
-        <v>3462</v>
+        <v>3464</v>
       </c>
       <c r="C1384" t="s">
         <v>3435</v>
@@ -57940,15 +57974,15 @@
         <v>3436</v>
       </c>
       <c r="M1384" t="s">
-        <v>4471</v>
+        <v>4473</v>
       </c>
     </row>
     <row r="1385" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1385">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="B1385" t="s">
-        <v>3463</v>
+        <v>3465</v>
       </c>
       <c r="C1385" t="s">
         <v>3435</v>
@@ -57956,16 +57990,31 @@
       <c r="D1385" t="s">
         <v>3436</v>
       </c>
+      <c r="E1385" t="s">
+        <v>967</v>
+      </c>
+      <c r="H1385" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1385" t="s">
+        <v>551</v>
+      </c>
+      <c r="J1385" t="s">
+        <v>166</v>
+      </c>
+      <c r="K1385" t="s">
+        <v>1492</v>
+      </c>
       <c r="M1385" t="s">
-        <v>4472</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="1386" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1386">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="B1386" t="s">
-        <v>3464</v>
+        <v>3466</v>
       </c>
       <c r="C1386" t="s">
         <v>3435</v>
@@ -57973,16 +58022,31 @@
       <c r="D1386" t="s">
         <v>3436</v>
       </c>
+      <c r="E1386" t="s">
+        <v>967</v>
+      </c>
+      <c r="H1386" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1386" t="s">
+        <v>551</v>
+      </c>
+      <c r="J1386" t="s">
+        <v>166</v>
+      </c>
+      <c r="K1386" t="s">
+        <v>1492</v>
+      </c>
       <c r="M1386" t="s">
-        <v>4473</v>
+        <v>4475</v>
       </c>
     </row>
     <row r="1387" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1387">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="B1387" t="s">
-        <v>3465</v>
+        <v>3467</v>
       </c>
       <c r="C1387" t="s">
         <v>3435</v>
@@ -58006,79 +58070,55 @@
         <v>1492</v>
       </c>
       <c r="M1387" t="s">
-        <v>4474</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="1388" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1388">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="B1388" t="s">
-        <v>3466</v>
+        <v>3484</v>
       </c>
       <c r="C1388" t="s">
-        <v>3435</v>
+        <v>3485</v>
       </c>
       <c r="D1388" t="s">
-        <v>3436</v>
-      </c>
-      <c r="E1388" t="s">
-        <v>967</v>
+        <v>3486</v>
       </c>
       <c r="H1388" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1388" t="s">
-        <v>551</v>
-      </c>
-      <c r="J1388" t="s">
-        <v>166</v>
-      </c>
-      <c r="K1388" t="s">
-        <v>1492</v>
+        <v>406</v>
       </c>
       <c r="M1388" t="s">
-        <v>4475</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="1389" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1389">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="B1389" t="s">
-        <v>3467</v>
+        <v>3488</v>
       </c>
       <c r="C1389" t="s">
-        <v>3435</v>
+        <v>3485</v>
       </c>
       <c r="D1389" t="s">
-        <v>3436</v>
-      </c>
-      <c r="E1389" t="s">
-        <v>967</v>
+        <v>3486</v>
       </c>
       <c r="H1389" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1389" t="s">
-        <v>551</v>
-      </c>
-      <c r="J1389" t="s">
-        <v>166</v>
-      </c>
-      <c r="K1389" t="s">
-        <v>1492</v>
+        <v>406</v>
       </c>
       <c r="M1389" t="s">
-        <v>4476</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="1390" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1390">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="B1390" t="s">
-        <v>3484</v>
+        <v>3490</v>
       </c>
       <c r="C1390" t="s">
         <v>3485</v>
@@ -58090,15 +58130,15 @@
         <v>406</v>
       </c>
       <c r="M1390" t="s">
-        <v>3487</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="1391" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1391">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="B1391" t="s">
-        <v>3488</v>
+        <v>3492</v>
       </c>
       <c r="C1391" t="s">
         <v>3485</v>
@@ -58110,15 +58150,15 @@
         <v>406</v>
       </c>
       <c r="M1391" t="s">
-        <v>3489</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="1392" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1392">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="B1392" t="s">
-        <v>3490</v>
+        <v>3494</v>
       </c>
       <c r="C1392" t="s">
         <v>3485</v>
@@ -58130,15 +58170,15 @@
         <v>406</v>
       </c>
       <c r="M1392" t="s">
-        <v>3491</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="1393" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1393">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="B1393" t="s">
-        <v>3492</v>
+        <v>3496</v>
       </c>
       <c r="C1393" t="s">
         <v>3485</v>
@@ -58150,15 +58190,15 @@
         <v>406</v>
       </c>
       <c r="M1393" t="s">
-        <v>3493</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="1394" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1394">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="B1394" t="s">
-        <v>3494</v>
+        <v>3498</v>
       </c>
       <c r="C1394" t="s">
         <v>3485</v>
@@ -58170,15 +58210,15 @@
         <v>406</v>
       </c>
       <c r="M1394" t="s">
-        <v>3495</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="1395" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1395">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="B1395" t="s">
-        <v>3496</v>
+        <v>3500</v>
       </c>
       <c r="C1395" t="s">
         <v>3485</v>
@@ -58190,15 +58230,15 @@
         <v>406</v>
       </c>
       <c r="M1395" t="s">
-        <v>3497</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="1396" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1396">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="B1396" t="s">
-        <v>3498</v>
+        <v>3502</v>
       </c>
       <c r="C1396" t="s">
         <v>3485</v>
@@ -58210,15 +58250,15 @@
         <v>406</v>
       </c>
       <c r="M1396" t="s">
-        <v>3499</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="1397" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1397">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="B1397" t="s">
-        <v>3500</v>
+        <v>3504</v>
       </c>
       <c r="C1397" t="s">
         <v>3485</v>
@@ -58230,15 +58270,15 @@
         <v>406</v>
       </c>
       <c r="M1397" t="s">
-        <v>3501</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="1398" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1398">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="B1398" t="s">
-        <v>3502</v>
+        <v>3506</v>
       </c>
       <c r="C1398" t="s">
         <v>3485</v>
@@ -58250,15 +58290,15 @@
         <v>406</v>
       </c>
       <c r="M1398" t="s">
-        <v>3503</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="1399" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1399">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B1399" t="s">
-        <v>3504</v>
+        <v>3508</v>
       </c>
       <c r="C1399" t="s">
         <v>3485</v>
@@ -58270,15 +58310,15 @@
         <v>406</v>
       </c>
       <c r="M1399" t="s">
-        <v>3505</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="1400" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1400">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="B1400" t="s">
-        <v>3506</v>
+        <v>3510</v>
       </c>
       <c r="C1400" t="s">
         <v>3485</v>
@@ -58290,15 +58330,15 @@
         <v>406</v>
       </c>
       <c r="M1400" t="s">
-        <v>3507</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="1401" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1401">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="B1401" t="s">
-        <v>3508</v>
+        <v>3512</v>
       </c>
       <c r="C1401" t="s">
         <v>3485</v>
@@ -58310,15 +58350,15 @@
         <v>406</v>
       </c>
       <c r="M1401" t="s">
-        <v>3509</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="1402" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1402">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="B1402" t="s">
-        <v>3510</v>
+        <v>3514</v>
       </c>
       <c r="C1402" t="s">
         <v>3485</v>
@@ -58330,107 +58370,113 @@
         <v>406</v>
       </c>
       <c r="M1402" t="s">
-        <v>3511</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="1403" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1403">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="B1403" t="s">
-        <v>3512</v>
+        <v>3516</v>
       </c>
       <c r="C1403" t="s">
-        <v>3485</v>
-      </c>
-      <c r="D1403" t="s">
-        <v>3486</v>
+        <v>3517</v>
+      </c>
+      <c r="D1403">
+        <v>68000</v>
+      </c>
+      <c r="E1403" t="s">
+        <v>14</v>
       </c>
       <c r="H1403" t="s">
-        <v>406</v>
+        <v>172</v>
+      </c>
+      <c r="I1403" t="s">
+        <v>93</v>
       </c>
       <c r="M1403" t="s">
-        <v>3513</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="1404" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1404">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="B1404" t="s">
-        <v>3514</v>
+        <v>3519</v>
       </c>
       <c r="C1404" t="s">
-        <v>3485</v>
-      </c>
-      <c r="D1404" t="s">
-        <v>3486</v>
+        <v>3517</v>
+      </c>
+      <c r="D1404">
+        <v>68000</v>
+      </c>
+      <c r="E1404" t="s">
+        <v>14</v>
       </c>
       <c r="H1404" t="s">
-        <v>406</v>
+        <v>172</v>
+      </c>
+      <c r="I1404" t="s">
+        <v>93</v>
       </c>
       <c r="M1404" t="s">
-        <v>3515</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="1405" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1405">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="B1405" t="s">
-        <v>3516</v>
+        <v>3521</v>
       </c>
       <c r="C1405" t="s">
-        <v>3517</v>
-      </c>
-      <c r="D1405">
-        <v>68000</v>
+        <v>3522</v>
+      </c>
+      <c r="D1405" t="s">
+        <v>14</v>
       </c>
       <c r="E1405" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="H1405" t="s">
         <v>172</v>
       </c>
-      <c r="I1405" t="s">
-        <v>93</v>
-      </c>
       <c r="M1405" t="s">
-        <v>3518</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="1406" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1406">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="B1406" t="s">
-        <v>3519</v>
+        <v>3524</v>
       </c>
       <c r="C1406" t="s">
-        <v>3517</v>
-      </c>
-      <c r="D1406">
-        <v>68000</v>
+        <v>3522</v>
+      </c>
+      <c r="D1406" t="s">
+        <v>14</v>
       </c>
       <c r="E1406" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="H1406" t="s">
         <v>172</v>
       </c>
-      <c r="I1406" t="s">
-        <v>93</v>
-      </c>
       <c r="M1406" t="s">
-        <v>3520</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="1407" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1407">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="B1407" t="s">
-        <v>3521</v>
+        <v>3526</v>
       </c>
       <c r="C1407" t="s">
         <v>3522</v>
@@ -58445,15 +58491,15 @@
         <v>172</v>
       </c>
       <c r="M1407" t="s">
-        <v>3523</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="1408" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1408">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="B1408" t="s">
-        <v>3524</v>
+        <v>3528</v>
       </c>
       <c r="C1408" t="s">
         <v>3522</v>
@@ -58468,15 +58514,15 @@
         <v>172</v>
       </c>
       <c r="M1408" t="s">
-        <v>3525</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="1409" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1409">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="B1409" t="s">
-        <v>3526</v>
+        <v>3530</v>
       </c>
       <c r="C1409" t="s">
         <v>3522</v>
@@ -58491,15 +58537,15 @@
         <v>172</v>
       </c>
       <c r="M1409" t="s">
-        <v>3527</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="1410" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1410">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="B1410" t="s">
-        <v>3528</v>
+        <v>3532</v>
       </c>
       <c r="C1410" t="s">
         <v>3522</v>
@@ -58514,15 +58560,15 @@
         <v>172</v>
       </c>
       <c r="M1410" t="s">
-        <v>3529</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="1411" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1411">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="B1411" t="s">
-        <v>3530</v>
+        <v>3534</v>
       </c>
       <c r="C1411" t="s">
         <v>3522</v>
@@ -58537,15 +58583,15 @@
         <v>172</v>
       </c>
       <c r="M1411" t="s">
-        <v>3531</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="1412" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1412">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="B1412" t="s">
-        <v>3532</v>
+        <v>3536</v>
       </c>
       <c r="C1412" t="s">
         <v>3522</v>
@@ -58560,15 +58606,15 @@
         <v>172</v>
       </c>
       <c r="M1412" t="s">
-        <v>3533</v>
+        <v>3537</v>
       </c>
     </row>
     <row r="1413" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1413">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="B1413" t="s">
-        <v>3534</v>
+        <v>3538</v>
       </c>
       <c r="C1413" t="s">
         <v>3522</v>
@@ -58583,64 +58629,70 @@
         <v>172</v>
       </c>
       <c r="M1413" t="s">
-        <v>3535</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="1414" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1414">
-        <v>1538</v>
+        <v>1543</v>
       </c>
       <c r="B1414" t="s">
-        <v>3536</v>
+        <v>3571</v>
       </c>
       <c r="C1414" t="s">
-        <v>3522</v>
+        <v>3572</v>
       </c>
       <c r="D1414" t="s">
-        <v>14</v>
+        <v>1105</v>
       </c>
       <c r="E1414" t="s">
-        <v>154</v>
+        <v>1105</v>
       </c>
       <c r="H1414" t="s">
-        <v>172</v>
+        <v>349</v>
+      </c>
+      <c r="I1414" t="s">
+        <v>1492</v>
       </c>
       <c r="M1414" t="s">
-        <v>3537</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="1415" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1415">
-        <v>1539</v>
+        <v>1544</v>
       </c>
       <c r="B1415" t="s">
-        <v>3538</v>
+        <v>3574</v>
       </c>
       <c r="C1415" t="s">
-        <v>3522</v>
+        <v>3572</v>
       </c>
       <c r="D1415" t="s">
-        <v>14</v>
+        <v>1105</v>
       </c>
       <c r="E1415" t="s">
-        <v>154</v>
+        <v>1105</v>
       </c>
       <c r="H1415" t="s">
-        <v>172</v>
+        <v>349</v>
+      </c>
+      <c r="I1415" t="s">
+        <v>1492</v>
       </c>
       <c r="M1415" t="s">
-        <v>3539</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="1416" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1416">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="B1416" t="s">
-        <v>3571</v>
+        <v>3576</v>
       </c>
       <c r="C1416" t="s">
-        <v>3572</v>
+        <v>3577</v>
       </c>
       <c r="D1416" t="s">
         <v>1105</v>
@@ -58648,6 +58700,9 @@
       <c r="E1416" t="s">
         <v>1105</v>
       </c>
+      <c r="F1416" t="s">
+        <v>154</v>
+      </c>
       <c r="H1416" t="s">
         <v>349</v>
       </c>
@@ -58655,18 +58710,18 @@
         <v>1492</v>
       </c>
       <c r="M1416" t="s">
-        <v>3573</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="1417" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1417">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="B1417" t="s">
-        <v>3574</v>
+        <v>3579</v>
       </c>
       <c r="C1417" t="s">
-        <v>3572</v>
+        <v>3577</v>
       </c>
       <c r="D1417" t="s">
         <v>1105</v>
@@ -58674,6 +58729,9 @@
       <c r="E1417" t="s">
         <v>1105</v>
       </c>
+      <c r="F1417" t="s">
+        <v>154</v>
+      </c>
       <c r="H1417" t="s">
         <v>349</v>
       </c>
@@ -58681,15 +58739,15 @@
         <v>1492</v>
       </c>
       <c r="M1417" t="s">
-        <v>3575</v>
+        <v>4482</v>
       </c>
     </row>
     <row r="1418" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1418">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="B1418" t="s">
-        <v>3576</v>
+        <v>3580</v>
       </c>
       <c r="C1418" t="s">
         <v>3577</v>
@@ -58710,26 +58768,23 @@
         <v>1492</v>
       </c>
       <c r="M1418" t="s">
-        <v>3578</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="1419" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1419">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="B1419" t="s">
-        <v>3579</v>
+        <v>3582</v>
       </c>
       <c r="C1419" t="s">
-        <v>3577</v>
-      </c>
-      <c r="D1419" t="s">
-        <v>1105</v>
+        <v>3583</v>
+      </c>
+      <c r="D1419">
+        <v>68000</v>
       </c>
       <c r="E1419" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F1419" t="s">
         <v>154</v>
       </c>
       <c r="H1419" t="s">
@@ -58739,47 +58794,38 @@
         <v>1492</v>
       </c>
       <c r="M1419" t="s">
-        <v>4482</v>
+        <v>3584</v>
       </c>
     </row>
     <row r="1420" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1420">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="B1420" t="s">
-        <v>3580</v>
+        <v>3585</v>
       </c>
       <c r="C1420" t="s">
-        <v>3577</v>
-      </c>
-      <c r="D1420" t="s">
-        <v>1105</v>
+        <v>3586</v>
+      </c>
+      <c r="D1420">
+        <v>68000</v>
       </c>
       <c r="E1420" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F1420" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1420" t="s">
-        <v>349</v>
-      </c>
-      <c r="I1420" t="s">
-        <v>1492</v>
+        <v>154</v>
       </c>
       <c r="M1420" t="s">
-        <v>3581</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="1421" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1421">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="B1421" t="s">
-        <v>3582</v>
+        <v>3588</v>
       </c>
       <c r="C1421" t="s">
-        <v>3583</v>
+        <v>3586</v>
       </c>
       <c r="D1421">
         <v>68000</v>
@@ -58787,22 +58833,16 @@
       <c r="E1421" t="s">
         <v>154</v>
       </c>
-      <c r="H1421" t="s">
-        <v>349</v>
-      </c>
-      <c r="I1421" t="s">
-        <v>1492</v>
-      </c>
       <c r="M1421" t="s">
-        <v>3584</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="1422" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1422">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="B1422" t="s">
-        <v>3585</v>
+        <v>3590</v>
       </c>
       <c r="C1422" t="s">
         <v>3586</v>
@@ -58813,19 +58853,25 @@
       <c r="E1422" t="s">
         <v>154</v>
       </c>
+      <c r="H1422" t="s">
+        <v>551</v>
+      </c>
+      <c r="I1422" t="s">
+        <v>3358</v>
+      </c>
       <c r="M1422" t="s">
-        <v>3587</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="1423" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1423">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="B1423" t="s">
-        <v>3588</v>
+        <v>3592</v>
       </c>
       <c r="C1423" t="s">
-        <v>3586</v>
+        <v>3593</v>
       </c>
       <c r="D1423">
         <v>68000</v>
@@ -58833,19 +58879,25 @@
       <c r="E1423" t="s">
         <v>154</v>
       </c>
+      <c r="H1423" t="s">
+        <v>349</v>
+      </c>
+      <c r="I1423" t="s">
+        <v>1275</v>
+      </c>
       <c r="M1423" t="s">
-        <v>3589</v>
+        <v>3594</v>
       </c>
     </row>
     <row r="1424" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1424">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="B1424" t="s">
-        <v>3590</v>
+        <v>3595</v>
       </c>
       <c r="C1424" t="s">
-        <v>3586</v>
+        <v>3593</v>
       </c>
       <c r="D1424">
         <v>68000</v>
@@ -58854,21 +58906,21 @@
         <v>154</v>
       </c>
       <c r="H1424" t="s">
-        <v>551</v>
+        <v>349</v>
       </c>
       <c r="I1424" t="s">
-        <v>3358</v>
+        <v>1275</v>
       </c>
       <c r="M1424" t="s">
-        <v>3591</v>
+        <v>3596</v>
       </c>
     </row>
     <row r="1425" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1425">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="B1425" t="s">
-        <v>3592</v>
+        <v>3597</v>
       </c>
       <c r="C1425" t="s">
         <v>3593</v>
@@ -58886,15 +58938,15 @@
         <v>1275</v>
       </c>
       <c r="M1425" t="s">
-        <v>3594</v>
+        <v>3598</v>
       </c>
     </row>
     <row r="1426" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1426">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="B1426" t="s">
-        <v>3595</v>
+        <v>3599</v>
       </c>
       <c r="C1426" t="s">
         <v>3593</v>
@@ -58912,15 +58964,15 @@
         <v>1275</v>
       </c>
       <c r="M1426" t="s">
-        <v>3596</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="1427" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1427">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="B1427" t="s">
-        <v>3597</v>
+        <v>3601</v>
       </c>
       <c r="C1427" t="s">
         <v>3593</v>
@@ -58938,18 +58990,18 @@
         <v>1275</v>
       </c>
       <c r="M1427" t="s">
-        <v>3598</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="1428" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1428">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="B1428" t="s">
-        <v>3599</v>
+        <v>3603</v>
       </c>
       <c r="C1428" t="s">
-        <v>3593</v>
+        <v>3604</v>
       </c>
       <c r="D1428">
         <v>68000</v>
@@ -58961,21 +59013,21 @@
         <v>349</v>
       </c>
       <c r="I1428" t="s">
-        <v>1275</v>
+        <v>1492</v>
       </c>
       <c r="M1428" t="s">
-        <v>3600</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1429" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1429">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="B1429" t="s">
-        <v>3601</v>
+        <v>3606</v>
       </c>
       <c r="C1429" t="s">
-        <v>3593</v>
+        <v>3604</v>
       </c>
       <c r="D1429">
         <v>68000</v>
@@ -58987,70 +59039,58 @@
         <v>349</v>
       </c>
       <c r="I1429" t="s">
-        <v>1275</v>
+        <v>1492</v>
       </c>
       <c r="M1429" t="s">
-        <v>3602</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="1430" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1430">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="B1430" t="s">
-        <v>3603</v>
+        <v>3608</v>
       </c>
       <c r="C1430" t="s">
-        <v>3604</v>
-      </c>
-      <c r="D1430">
-        <v>68000</v>
-      </c>
-      <c r="E1430" t="s">
-        <v>154</v>
+        <v>3609</v>
+      </c>
+      <c r="D1430" t="s">
+        <v>14</v>
       </c>
       <c r="H1430" t="s">
-        <v>349</v>
-      </c>
-      <c r="I1430" t="s">
-        <v>1492</v>
+        <v>172</v>
       </c>
       <c r="M1430" t="s">
-        <v>3605</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="1431" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1431">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="B1431" t="s">
-        <v>3606</v>
+        <v>3611</v>
       </c>
       <c r="C1431" t="s">
-        <v>3604</v>
-      </c>
-      <c r="D1431">
-        <v>68000</v>
-      </c>
-      <c r="E1431" t="s">
-        <v>154</v>
+        <v>3609</v>
+      </c>
+      <c r="D1431" t="s">
+        <v>14</v>
       </c>
       <c r="H1431" t="s">
-        <v>349</v>
-      </c>
-      <c r="I1431" t="s">
-        <v>1492</v>
+        <v>172</v>
       </c>
       <c r="M1431" t="s">
-        <v>3607</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="1432" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1432">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="B1432" t="s">
-        <v>3608</v>
+        <v>3613</v>
       </c>
       <c r="C1432" t="s">
         <v>3609</v>
@@ -59062,58 +59102,64 @@
         <v>172</v>
       </c>
       <c r="M1432" t="s">
-        <v>3610</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="1433" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1433">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="B1433" t="s">
-        <v>3611</v>
+        <v>3615</v>
       </c>
       <c r="C1433" t="s">
-        <v>3609</v>
+        <v>3616</v>
       </c>
       <c r="D1433" t="s">
-        <v>14</v>
+        <v>473</v>
+      </c>
+      <c r="E1433" t="s">
+        <v>967</v>
       </c>
       <c r="H1433" t="s">
         <v>172</v>
       </c>
       <c r="M1433" t="s">
-        <v>3612</v>
+        <v>3617</v>
       </c>
     </row>
     <row r="1434" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1434">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="B1434" t="s">
-        <v>3613</v>
+        <v>3618</v>
       </c>
       <c r="C1434" t="s">
-        <v>3609</v>
+        <v>3616</v>
       </c>
       <c r="D1434" t="s">
-        <v>14</v>
+        <v>473</v>
+      </c>
+      <c r="E1434" t="s">
+        <v>967</v>
       </c>
       <c r="H1434" t="s">
         <v>172</v>
       </c>
       <c r="M1434" t="s">
-        <v>3614</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="1435" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1435">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="B1435" t="s">
-        <v>3615</v>
+        <v>3620</v>
       </c>
       <c r="C1435" t="s">
-        <v>3616</v>
+        <v>3621</v>
       </c>
       <c r="D1435" t="s">
         <v>473</v>
@@ -59122,21 +59168,21 @@
         <v>967</v>
       </c>
       <c r="H1435" t="s">
-        <v>172</v>
+        <v>1279</v>
       </c>
       <c r="M1435" t="s">
-        <v>3617</v>
+        <v>3622</v>
       </c>
     </row>
     <row r="1436" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1436">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="B1436" t="s">
-        <v>3618</v>
+        <v>3623</v>
       </c>
       <c r="C1436" t="s">
-        <v>3616</v>
+        <v>3621</v>
       </c>
       <c r="D1436" t="s">
         <v>473</v>
@@ -59145,18 +59191,18 @@
         <v>967</v>
       </c>
       <c r="H1436" t="s">
-        <v>172</v>
+        <v>1279</v>
       </c>
       <c r="M1436" t="s">
-        <v>3619</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="1437" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1437">
-        <v>1564</v>
+        <v>1566</v>
       </c>
       <c r="B1437" t="s">
-        <v>3620</v>
+        <v>3625</v>
       </c>
       <c r="C1437" t="s">
         <v>3621</v>
@@ -59171,220 +59217,220 @@
         <v>1279</v>
       </c>
       <c r="M1437" t="s">
-        <v>3622</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="1438" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1438">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="B1438" t="s">
-        <v>3623</v>
+        <v>3627</v>
       </c>
       <c r="C1438" t="s">
-        <v>3621</v>
+        <v>3628</v>
       </c>
       <c r="D1438" t="s">
-        <v>473</v>
+        <v>405</v>
       </c>
       <c r="E1438" t="s">
-        <v>967</v>
+        <v>14</v>
       </c>
       <c r="H1438" t="s">
-        <v>1279</v>
+        <v>172</v>
       </c>
       <c r="M1438" t="s">
-        <v>3624</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="1439" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1439">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="B1439" t="s">
-        <v>3625</v>
+        <v>3630</v>
       </c>
       <c r="C1439" t="s">
-        <v>3621</v>
+        <v>3628</v>
       </c>
       <c r="D1439" t="s">
-        <v>473</v>
+        <v>405</v>
       </c>
       <c r="E1439" t="s">
-        <v>967</v>
+        <v>14</v>
       </c>
       <c r="H1439" t="s">
-        <v>1279</v>
+        <v>172</v>
       </c>
       <c r="M1439" t="s">
-        <v>3626</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="1440" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1440">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="B1440" t="s">
-        <v>3627</v>
+        <v>3632</v>
       </c>
       <c r="C1440" t="s">
-        <v>3628</v>
+        <v>3633</v>
       </c>
       <c r="D1440" t="s">
-        <v>405</v>
+        <v>14</v>
       </c>
       <c r="E1440" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="H1440" t="s">
-        <v>172</v>
+        <v>1279</v>
       </c>
       <c r="M1440" t="s">
-        <v>3629</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="1441" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1441">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="B1441" t="s">
-        <v>3630</v>
+        <v>3635</v>
       </c>
       <c r="C1441" t="s">
-        <v>3628</v>
-      </c>
-      <c r="D1441" t="s">
-        <v>405</v>
+        <v>3636</v>
+      </c>
+      <c r="D1441">
+        <v>68000</v>
       </c>
       <c r="E1441" t="s">
-        <v>14</v>
+        <v>967</v>
       </c>
       <c r="H1441" t="s">
-        <v>172</v>
+        <v>71</v>
+      </c>
+      <c r="I1441" t="s">
+        <v>3268</v>
       </c>
       <c r="M1441" t="s">
-        <v>3631</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="1442" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1442">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="B1442" t="s">
-        <v>3632</v>
+        <v>3638</v>
       </c>
       <c r="C1442" t="s">
-        <v>3633</v>
-      </c>
-      <c r="D1442" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1442" t="s">
-        <v>154</v>
+        <v>3639</v>
+      </c>
+      <c r="D1442">
+        <v>68000</v>
+      </c>
+      <c r="E1442">
+        <v>68000</v>
+      </c>
+      <c r="F1442">
+        <v>68000</v>
+      </c>
+      <c r="G1442" t="s">
+        <v>973</v>
       </c>
       <c r="H1442" t="s">
-        <v>1279</v>
+        <v>551</v>
+      </c>
+      <c r="I1442" t="s">
+        <v>2375</v>
       </c>
       <c r="M1442" t="s">
-        <v>3634</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="1443" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1443">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="B1443" t="s">
-        <v>3635</v>
+        <v>3641</v>
       </c>
       <c r="C1443" t="s">
-        <v>3636</v>
+        <v>3639</v>
       </c>
       <c r="D1443">
         <v>68000</v>
       </c>
-      <c r="E1443" t="s">
-        <v>967</v>
+      <c r="E1443">
+        <v>68000</v>
+      </c>
+      <c r="F1443">
+        <v>68000</v>
+      </c>
+      <c r="G1443" t="s">
+        <v>973</v>
       </c>
       <c r="H1443" t="s">
-        <v>71</v>
+        <v>551</v>
       </c>
       <c r="I1443" t="s">
-        <v>3268</v>
+        <v>2375</v>
       </c>
       <c r="M1443" t="s">
-        <v>3637</v>
+        <v>3642</v>
       </c>
     </row>
     <row r="1444" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1444">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="B1444" t="s">
-        <v>3638</v>
+        <v>3643</v>
       </c>
       <c r="C1444" t="s">
-        <v>3639</v>
+        <v>3644</v>
       </c>
       <c r="D1444">
         <v>68000</v>
       </c>
-      <c r="E1444">
-        <v>68000</v>
-      </c>
-      <c r="F1444">
-        <v>68000</v>
-      </c>
-      <c r="G1444" t="s">
-        <v>973</v>
+      <c r="E1444" t="s">
+        <v>154</v>
       </c>
       <c r="H1444" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1444" t="s">
-        <v>2375</v>
+        <v>336</v>
       </c>
       <c r="M1444" t="s">
-        <v>3640</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="1445" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1445">
-        <v>1572</v>
+        <v>1574</v>
       </c>
       <c r="B1445" t="s">
-        <v>3641</v>
+        <v>3646</v>
       </c>
       <c r="C1445" t="s">
-        <v>3639</v>
+        <v>3644</v>
       </c>
       <c r="D1445">
         <v>68000</v>
       </c>
-      <c r="E1445">
-        <v>68000</v>
-      </c>
-      <c r="F1445">
-        <v>68000</v>
-      </c>
-      <c r="G1445" t="s">
-        <v>973</v>
+      <c r="E1445" t="s">
+        <v>154</v>
       </c>
       <c r="H1445" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1445" t="s">
-        <v>2375</v>
+        <v>336</v>
       </c>
       <c r="M1445" t="s">
-        <v>3642</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="1446" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1446">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="B1446" t="s">
-        <v>3643</v>
+        <v>3648</v>
       </c>
       <c r="C1446" t="s">
         <v>3644</v>
@@ -59393,21 +59439,24 @@
         <v>68000</v>
       </c>
       <c r="E1446" t="s">
-        <v>154</v>
+        <v>973</v>
       </c>
       <c r="H1446" t="s">
-        <v>336</v>
+        <v>551</v>
+      </c>
+      <c r="I1446" t="s">
+        <v>2375</v>
       </c>
       <c r="M1446" t="s">
-        <v>3645</v>
+        <v>4483</v>
       </c>
     </row>
     <row r="1447" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1447">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="B1447" t="s">
-        <v>3646</v>
+        <v>3649</v>
       </c>
       <c r="C1447" t="s">
         <v>3644</v>
@@ -59416,21 +59465,24 @@
         <v>68000</v>
       </c>
       <c r="E1447" t="s">
-        <v>154</v>
+        <v>973</v>
       </c>
       <c r="H1447" t="s">
-        <v>336</v>
+        <v>551</v>
+      </c>
+      <c r="I1447" t="s">
+        <v>2375</v>
       </c>
       <c r="M1447" t="s">
-        <v>3647</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="1448" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1448">
-        <v>1575</v>
+        <v>1577</v>
       </c>
       <c r="B1448" t="s">
-        <v>3648</v>
+        <v>3650</v>
       </c>
       <c r="C1448" t="s">
         <v>3644</v>
@@ -59448,15 +59500,15 @@
         <v>2375</v>
       </c>
       <c r="M1448" t="s">
-        <v>4483</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1449" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1449">
-        <v>1576</v>
+        <v>1578</v>
       </c>
       <c r="B1449" t="s">
-        <v>3649</v>
+        <v>3652</v>
       </c>
       <c r="C1449" t="s">
         <v>3644</v>
@@ -59474,15 +59526,15 @@
         <v>2375</v>
       </c>
       <c r="M1449" t="s">
-        <v>4484</v>
+        <v>3653</v>
       </c>
     </row>
     <row r="1450" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1450">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="B1450" t="s">
-        <v>3650</v>
+        <v>3654</v>
       </c>
       <c r="C1450" t="s">
         <v>3644</v>
@@ -59500,15 +59552,15 @@
         <v>2375</v>
       </c>
       <c r="M1450" t="s">
-        <v>3651</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="1451" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1451">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="B1451" t="s">
-        <v>3652</v>
+        <v>3656</v>
       </c>
       <c r="C1451" t="s">
         <v>3644</v>
@@ -59526,15 +59578,15 @@
         <v>2375</v>
       </c>
       <c r="M1451" t="s">
-        <v>3653</v>
+        <v>3657</v>
       </c>
     </row>
     <row r="1452" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1452">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="B1452" t="s">
-        <v>3654</v>
+        <v>3658</v>
       </c>
       <c r="C1452" t="s">
         <v>3644</v>
@@ -59552,15 +59604,15 @@
         <v>2375</v>
       </c>
       <c r="M1452" t="s">
-        <v>3655</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="1453" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1453">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="B1453" t="s">
-        <v>3656</v>
+        <v>3660</v>
       </c>
       <c r="C1453" t="s">
         <v>3644</v>
@@ -59578,15 +59630,15 @@
         <v>2375</v>
       </c>
       <c r="M1453" t="s">
-        <v>3657</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="1454" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1454">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="B1454" t="s">
-        <v>3658</v>
+        <v>3662</v>
       </c>
       <c r="C1454" t="s">
         <v>3644</v>
@@ -59604,15 +59656,15 @@
         <v>2375</v>
       </c>
       <c r="M1454" t="s">
-        <v>3659</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="1455" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1455">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="B1455" t="s">
-        <v>3660</v>
+        <v>3664</v>
       </c>
       <c r="C1455" t="s">
         <v>3644</v>
@@ -59630,15 +59682,15 @@
         <v>2375</v>
       </c>
       <c r="M1455" t="s">
-        <v>3661</v>
+        <v>3665</v>
       </c>
     </row>
     <row r="1456" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1456">
-        <v>1583</v>
+        <v>1585</v>
       </c>
       <c r="B1456" t="s">
-        <v>3662</v>
+        <v>3666</v>
       </c>
       <c r="C1456" t="s">
         <v>3644</v>
@@ -59656,15 +59708,15 @@
         <v>2375</v>
       </c>
       <c r="M1456" t="s">
-        <v>3663</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="1457" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1457">
-        <v>1584</v>
+        <v>1586</v>
       </c>
       <c r="B1457" t="s">
-        <v>3664</v>
+        <v>3668</v>
       </c>
       <c r="C1457" t="s">
         <v>3644</v>
@@ -59682,15 +59734,15 @@
         <v>2375</v>
       </c>
       <c r="M1457" t="s">
-        <v>3665</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="1458" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1458">
-        <v>1585</v>
+        <v>1587</v>
       </c>
       <c r="B1458" t="s">
-        <v>3666</v>
+        <v>3670</v>
       </c>
       <c r="C1458" t="s">
         <v>3644</v>
@@ -59708,15 +59760,15 @@
         <v>2375</v>
       </c>
       <c r="M1458" t="s">
-        <v>3667</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="1459" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1459">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="B1459" t="s">
-        <v>3668</v>
+        <v>3671</v>
       </c>
       <c r="C1459" t="s">
         <v>3644</v>
@@ -59734,15 +59786,15 @@
         <v>2375</v>
       </c>
       <c r="M1459" t="s">
-        <v>3669</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="1460" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1460">
-        <v>1587</v>
+        <v>1589</v>
       </c>
       <c r="B1460" t="s">
-        <v>3670</v>
+        <v>3672</v>
       </c>
       <c r="C1460" t="s">
         <v>3644</v>
@@ -59760,15 +59812,15 @@
         <v>2375</v>
       </c>
       <c r="M1460" t="s">
-        <v>4485</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="1461" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1461">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="B1461" t="s">
-        <v>3671</v>
+        <v>3674</v>
       </c>
       <c r="C1461" t="s">
         <v>3644</v>
@@ -59786,15 +59838,15 @@
         <v>2375</v>
       </c>
       <c r="M1461" t="s">
-        <v>4486</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="1462" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1462">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c r="B1462" t="s">
-        <v>3672</v>
+        <v>3676</v>
       </c>
       <c r="C1462" t="s">
         <v>3644</v>
@@ -59812,15 +59864,15 @@
         <v>2375</v>
       </c>
       <c r="M1462" t="s">
-        <v>3673</v>
+        <v>3677</v>
       </c>
     </row>
     <row r="1463" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1463">
-        <v>1590</v>
+        <v>1592</v>
       </c>
       <c r="B1463" t="s">
-        <v>3674</v>
+        <v>3678</v>
       </c>
       <c r="C1463" t="s">
         <v>3644</v>
@@ -59838,15 +59890,15 @@
         <v>2375</v>
       </c>
       <c r="M1463" t="s">
-        <v>3675</v>
+        <v>3679</v>
       </c>
     </row>
     <row r="1464" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1464">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="B1464" t="s">
-        <v>3676</v>
+        <v>3680</v>
       </c>
       <c r="C1464" t="s">
         <v>3644</v>
@@ -59864,15 +59916,15 @@
         <v>2375</v>
       </c>
       <c r="M1464" t="s">
-        <v>3677</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="1465" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1465">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="B1465" t="s">
-        <v>3678</v>
+        <v>3682</v>
       </c>
       <c r="C1465" t="s">
         <v>3644</v>
@@ -59890,15 +59942,15 @@
         <v>2375</v>
       </c>
       <c r="M1465" t="s">
-        <v>3679</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="1466" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1466">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="B1466" t="s">
-        <v>3680</v>
+        <v>3684</v>
       </c>
       <c r="C1466" t="s">
         <v>3644</v>
@@ -59906,25 +59958,19 @@
       <c r="D1466">
         <v>68000</v>
       </c>
-      <c r="E1466" t="s">
-        <v>973</v>
-      </c>
       <c r="H1466" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1466" t="s">
-        <v>2375</v>
+        <v>1492</v>
       </c>
       <c r="M1466" t="s">
-        <v>3681</v>
+        <v>3685</v>
       </c>
     </row>
     <row r="1467" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1467">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="B1467" t="s">
-        <v>3682</v>
+        <v>3686</v>
       </c>
       <c r="C1467" t="s">
         <v>3644</v>
@@ -59942,61 +59988,61 @@
         <v>2375</v>
       </c>
       <c r="M1467" t="s">
-        <v>3683</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="1468" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1468">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="B1468" t="s">
-        <v>3684</v>
+        <v>3688</v>
       </c>
       <c r="C1468" t="s">
-        <v>3644</v>
+        <v>3689</v>
       </c>
       <c r="D1468">
         <v>68000</v>
       </c>
+      <c r="E1468" t="s">
+        <v>154</v>
+      </c>
       <c r="H1468" t="s">
-        <v>1492</v>
+        <v>1353</v>
       </c>
       <c r="M1468" t="s">
-        <v>3685</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="1469" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1469">
-        <v>1596</v>
+        <v>1598</v>
       </c>
       <c r="B1469" t="s">
-        <v>3686</v>
+        <v>3691</v>
       </c>
       <c r="C1469" t="s">
-        <v>3644</v>
+        <v>3689</v>
       </c>
       <c r="D1469">
         <v>68000</v>
       </c>
       <c r="E1469" t="s">
-        <v>973</v>
+        <v>154</v>
       </c>
       <c r="H1469" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1469" t="s">
-        <v>2375</v>
+        <v>1353</v>
       </c>
       <c r="M1469" t="s">
-        <v>3687</v>
+        <v>3692</v>
       </c>
     </row>
     <row r="1470" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1470">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="B1470" t="s">
-        <v>3688</v>
+        <v>3693</v>
       </c>
       <c r="C1470" t="s">
         <v>3689</v>
@@ -60011,15 +60057,15 @@
         <v>1353</v>
       </c>
       <c r="M1470" t="s">
-        <v>3690</v>
+        <v>3694</v>
       </c>
     </row>
     <row r="1471" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1471">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="B1471" t="s">
-        <v>3691</v>
+        <v>3695</v>
       </c>
       <c r="C1471" t="s">
         <v>3689</v>
@@ -60034,15 +60080,15 @@
         <v>1353</v>
       </c>
       <c r="M1471" t="s">
-        <v>3692</v>
+        <v>3696</v>
       </c>
     </row>
     <row r="1472" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1472">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="B1472" t="s">
-        <v>3693</v>
+        <v>3697</v>
       </c>
       <c r="C1472" t="s">
         <v>3689</v>
@@ -60057,15 +60103,15 @@
         <v>1353</v>
       </c>
       <c r="M1472" t="s">
-        <v>3694</v>
+        <v>4487</v>
       </c>
     </row>
     <row r="1473" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1473">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="B1473" t="s">
-        <v>3695</v>
+        <v>3698</v>
       </c>
       <c r="C1473" t="s">
         <v>3689</v>
@@ -60080,130 +60126,130 @@
         <v>1353</v>
       </c>
       <c r="M1473" t="s">
-        <v>3696</v>
+        <v>4488</v>
       </c>
     </row>
     <row r="1474" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1474">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="B1474" t="s">
-        <v>3697</v>
+        <v>3735</v>
       </c>
       <c r="C1474" t="s">
-        <v>3689</v>
-      </c>
-      <c r="D1474">
-        <v>68000</v>
+        <v>3736</v>
+      </c>
+      <c r="D1474" t="s">
+        <v>14</v>
       </c>
       <c r="E1474" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="H1474" t="s">
-        <v>1353</v>
+        <v>71</v>
       </c>
       <c r="M1474" t="s">
-        <v>4487</v>
+        <v>3737</v>
       </c>
     </row>
     <row r="1475" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1475">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="B1475" t="s">
-        <v>3698</v>
+        <v>3738</v>
       </c>
       <c r="C1475" t="s">
-        <v>3689</v>
-      </c>
-      <c r="D1475">
-        <v>68000</v>
+        <v>3736</v>
+      </c>
+      <c r="D1475" t="s">
+        <v>14</v>
       </c>
       <c r="E1475" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="H1475" t="s">
-        <v>1353</v>
+        <v>71</v>
       </c>
       <c r="M1475" t="s">
-        <v>4488</v>
+        <v>3739</v>
       </c>
     </row>
     <row r="1476" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1476">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="B1476" t="s">
-        <v>3735</v>
+        <v>3740</v>
       </c>
       <c r="C1476" t="s">
-        <v>3736</v>
-      </c>
-      <c r="D1476" t="s">
-        <v>14</v>
+        <v>3741</v>
+      </c>
+      <c r="D1476">
+        <v>68000</v>
       </c>
       <c r="E1476" t="s">
         <v>14</v>
       </c>
       <c r="H1476" t="s">
-        <v>71</v>
+        <v>349</v>
       </c>
       <c r="M1476" t="s">
-        <v>3737</v>
+        <v>3742</v>
       </c>
     </row>
     <row r="1477" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1477">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="B1477" t="s">
-        <v>3738</v>
+        <v>3743</v>
       </c>
       <c r="C1477" t="s">
-        <v>3736</v>
-      </c>
-      <c r="D1477" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1477" t="s">
-        <v>14</v>
+        <v>3744</v>
+      </c>
+      <c r="D1477">
+        <v>68000</v>
       </c>
       <c r="H1477" t="s">
-        <v>71</v>
+        <v>172</v>
+      </c>
+      <c r="I1477" t="s">
+        <v>1492</v>
       </c>
       <c r="M1477" t="s">
-        <v>3739</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="1478" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1478">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="B1478" t="s">
-        <v>3740</v>
+        <v>3746</v>
       </c>
       <c r="C1478" t="s">
-        <v>3741</v>
+        <v>3744</v>
       </c>
       <c r="D1478">
         <v>68000</v>
       </c>
-      <c r="E1478" t="s">
-        <v>14</v>
-      </c>
       <c r="H1478" t="s">
-        <v>349</v>
+        <v>172</v>
+      </c>
+      <c r="I1478" t="s">
+        <v>1492</v>
       </c>
       <c r="M1478" t="s">
-        <v>3742</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="1479" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1479">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="B1479" t="s">
-        <v>3743</v>
+        <v>3748</v>
       </c>
       <c r="C1479" t="s">
         <v>3744</v>
@@ -60212,21 +60258,18 @@
         <v>68000</v>
       </c>
       <c r="H1479" t="s">
-        <v>172</v>
-      </c>
-      <c r="I1479" t="s">
-        <v>1492</v>
+        <v>2375</v>
       </c>
       <c r="M1479" t="s">
-        <v>3745</v>
+        <v>3749</v>
       </c>
     </row>
     <row r="1480" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1480">
-        <v>1607</v>
+        <v>1609</v>
       </c>
       <c r="B1480" t="s">
-        <v>3746</v>
+        <v>3750</v>
       </c>
       <c r="C1480" t="s">
         <v>3744</v>
@@ -60235,81 +60278,84 @@
         <v>68000</v>
       </c>
       <c r="H1480" t="s">
-        <v>172</v>
-      </c>
-      <c r="I1480" t="s">
-        <v>1492</v>
+        <v>2375</v>
       </c>
       <c r="M1480" t="s">
-        <v>3747</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="1481" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1481">
-        <v>1608</v>
+        <v>1610</v>
       </c>
       <c r="B1481" t="s">
-        <v>3748</v>
+        <v>3751</v>
       </c>
       <c r="C1481" t="s">
-        <v>3744</v>
+        <v>3752</v>
       </c>
       <c r="D1481">
         <v>68000</v>
       </c>
       <c r="H1481" t="s">
-        <v>2375</v>
+        <v>1492</v>
       </c>
       <c r="M1481" t="s">
-        <v>3749</v>
+        <v>3753</v>
       </c>
     </row>
     <row r="1482" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1482">
-        <v>1609</v>
+        <v>1612</v>
       </c>
       <c r="B1482" t="s">
-        <v>3750</v>
+        <v>3757</v>
       </c>
       <c r="C1482" t="s">
-        <v>3744</v>
-      </c>
-      <c r="D1482">
-        <v>68000</v>
+        <v>3758</v>
+      </c>
+      <c r="D1482" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1482" t="s">
+        <v>725</v>
       </c>
       <c r="H1482" t="s">
-        <v>2375</v>
+        <v>166</v>
       </c>
       <c r="M1482" t="s">
-        <v>4489</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="1483" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1483">
-        <v>1610</v>
+        <v>1613</v>
       </c>
       <c r="B1483" t="s">
-        <v>3751</v>
+        <v>3759</v>
       </c>
       <c r="C1483" t="s">
-        <v>3752</v>
-      </c>
-      <c r="D1483">
-        <v>68000</v>
+        <v>3758</v>
+      </c>
+      <c r="D1483" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1483" t="s">
+        <v>725</v>
       </c>
       <c r="H1483" t="s">
-        <v>1492</v>
+        <v>166</v>
       </c>
       <c r="M1483" t="s">
-        <v>3753</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="1484" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1484">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="B1484" t="s">
-        <v>3757</v>
+        <v>3761</v>
       </c>
       <c r="C1484" t="s">
         <v>3758</v>
@@ -60324,15 +60370,15 @@
         <v>166</v>
       </c>
       <c r="M1484" t="s">
-        <v>4490</v>
+        <v>3762</v>
       </c>
     </row>
     <row r="1485" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1485">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="B1485" t="s">
-        <v>3759</v>
+        <v>3763</v>
       </c>
       <c r="C1485" t="s">
         <v>3758</v>
@@ -60347,15 +60393,15 @@
         <v>166</v>
       </c>
       <c r="M1485" t="s">
-        <v>3760</v>
+        <v>3764</v>
       </c>
     </row>
     <row r="1486" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1486">
-        <v>1614</v>
+        <v>1616</v>
       </c>
       <c r="B1486" t="s">
-        <v>3761</v>
+        <v>3765</v>
       </c>
       <c r="C1486" t="s">
         <v>3758</v>
@@ -60370,127 +60416,127 @@
         <v>166</v>
       </c>
       <c r="M1486" t="s">
-        <v>3762</v>
+        <v>3766</v>
       </c>
     </row>
     <row r="1487" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1487">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="B1487" t="s">
-        <v>3763</v>
+        <v>3774</v>
       </c>
       <c r="C1487" t="s">
-        <v>3758</v>
+        <v>3775</v>
       </c>
       <c r="D1487" t="s">
         <v>14</v>
       </c>
       <c r="E1487" t="s">
-        <v>725</v>
+        <v>154</v>
       </c>
       <c r="H1487" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M1487" t="s">
-        <v>3764</v>
+        <v>3776</v>
       </c>
     </row>
     <row r="1488" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1488">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="B1488" t="s">
-        <v>3765</v>
+        <v>3777</v>
       </c>
       <c r="C1488" t="s">
-        <v>3758</v>
+        <v>3778</v>
       </c>
       <c r="D1488" t="s">
         <v>14</v>
       </c>
-      <c r="E1488" t="s">
-        <v>725</v>
-      </c>
       <c r="H1488" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M1488" t="s">
-        <v>3766</v>
+        <v>3779</v>
       </c>
     </row>
     <row r="1489" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1489">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="B1489" t="s">
-        <v>3774</v>
+        <v>3780</v>
       </c>
       <c r="C1489" t="s">
-        <v>3775</v>
+        <v>3778</v>
       </c>
       <c r="D1489" t="s">
         <v>14</v>
-      </c>
-      <c r="E1489" t="s">
-        <v>154</v>
       </c>
       <c r="H1489" t="s">
         <v>172</v>
       </c>
       <c r="M1489" t="s">
-        <v>3776</v>
+        <v>3781</v>
       </c>
     </row>
     <row r="1490" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1490">
-        <v>1618</v>
+        <v>1624</v>
       </c>
       <c r="B1490" t="s">
-        <v>3777</v>
+        <v>3791</v>
       </c>
       <c r="C1490" t="s">
-        <v>3778</v>
+        <v>3792</v>
       </c>
       <c r="D1490" t="s">
-        <v>14</v>
+        <v>405</v>
+      </c>
+      <c r="E1490" t="s">
+        <v>1184</v>
       </c>
       <c r="H1490" t="s">
-        <v>172</v>
+        <v>71</v>
       </c>
       <c r="M1490" t="s">
-        <v>3779</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="1491" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1491">
-        <v>1619</v>
+        <v>1625</v>
       </c>
       <c r="B1491" t="s">
-        <v>3780</v>
+        <v>3794</v>
       </c>
       <c r="C1491" t="s">
-        <v>3778</v>
+        <v>3792</v>
       </c>
       <c r="D1491" t="s">
-        <v>14</v>
+        <v>405</v>
+      </c>
+      <c r="E1491" t="s">
+        <v>1184</v>
       </c>
       <c r="H1491" t="s">
-        <v>172</v>
+        <v>71</v>
       </c>
       <c r="M1491" t="s">
-        <v>3781</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="1492" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1492">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="B1492" t="s">
-        <v>3791</v>
+        <v>3799</v>
       </c>
       <c r="C1492" t="s">
-        <v>3792</v>
+        <v>3800</v>
       </c>
       <c r="D1492" t="s">
         <v>405</v>
@@ -60498,191 +60544,209 @@
       <c r="E1492" t="s">
         <v>1184</v>
       </c>
+      <c r="F1492" t="s">
+        <v>3801</v>
+      </c>
       <c r="H1492" t="s">
         <v>71</v>
       </c>
       <c r="M1492" t="s">
-        <v>3793</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="1493" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1493">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="B1493" t="s">
-        <v>3794</v>
+        <v>3803</v>
       </c>
       <c r="C1493" t="s">
-        <v>3792</v>
+        <v>3804</v>
       </c>
       <c r="D1493" t="s">
-        <v>405</v>
-      </c>
-      <c r="E1493" t="s">
-        <v>1184</v>
+        <v>473</v>
       </c>
       <c r="H1493" t="s">
-        <v>71</v>
+        <v>2936</v>
       </c>
       <c r="M1493" t="s">
-        <v>3795</v>
+        <v>3805</v>
       </c>
     </row>
     <row r="1494" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1494">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="B1494" t="s">
-        <v>3799</v>
+        <v>3806</v>
       </c>
       <c r="C1494" t="s">
-        <v>3800</v>
+        <v>3807</v>
       </c>
       <c r="D1494" t="s">
-        <v>405</v>
-      </c>
-      <c r="E1494" t="s">
-        <v>1184</v>
-      </c>
-      <c r="F1494" t="s">
-        <v>3801</v>
-      </c>
-      <c r="H1494" t="s">
-        <v>71</v>
+        <v>473</v>
       </c>
       <c r="M1494" t="s">
-        <v>3802</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="1495" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1495">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="B1495" t="s">
-        <v>3803</v>
+        <v>3809</v>
       </c>
       <c r="C1495" t="s">
-        <v>3804</v>
+        <v>3807</v>
       </c>
       <c r="D1495" t="s">
         <v>473</v>
       </c>
-      <c r="H1495" t="s">
-        <v>2936</v>
-      </c>
       <c r="M1495" t="s">
-        <v>3805</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="1496" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1496">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="B1496" t="s">
-        <v>3806</v>
+        <v>3811</v>
       </c>
       <c r="C1496" t="s">
-        <v>3807</v>
-      </c>
-      <c r="D1496" t="s">
-        <v>473</v>
+        <v>3812</v>
+      </c>
+      <c r="D1496">
+        <v>8080</v>
       </c>
       <c r="M1496" t="s">
-        <v>3808</v>
+        <v>3813</v>
       </c>
     </row>
     <row r="1497" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1497">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="B1497" t="s">
-        <v>3809</v>
+        <v>3814</v>
       </c>
       <c r="C1497" t="s">
-        <v>3807</v>
+        <v>3815</v>
       </c>
       <c r="D1497" t="s">
-        <v>473</v>
+        <v>3436</v>
+      </c>
+      <c r="E1497" t="s">
+        <v>3436</v>
+      </c>
+      <c r="F1497" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G1497" t="s">
+        <v>1184</v>
+      </c>
+      <c r="H1497" t="s">
+        <v>333</v>
+      </c>
+      <c r="I1497" t="s">
+        <v>551</v>
       </c>
       <c r="M1497" t="s">
-        <v>3810</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="1498" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1498">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="B1498" t="s">
-        <v>3811</v>
+        <v>3817</v>
       </c>
       <c r="C1498" t="s">
-        <v>3812</v>
-      </c>
-      <c r="D1498">
-        <v>8080</v>
+        <v>3818</v>
+      </c>
+      <c r="D1498" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1498" t="s">
+        <v>172</v>
       </c>
       <c r="M1498" t="s">
-        <v>3813</v>
+        <v>3819</v>
       </c>
     </row>
     <row r="1499" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1499">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c r="B1499" t="s">
-        <v>3814</v>
+        <v>3820</v>
       </c>
       <c r="C1499" t="s">
-        <v>3815</v>
+        <v>3821</v>
       </c>
       <c r="D1499" t="s">
-        <v>3436</v>
+        <v>14</v>
       </c>
       <c r="E1499" t="s">
-        <v>3436</v>
+        <v>14</v>
       </c>
       <c r="F1499" t="s">
-        <v>1184</v>
+        <v>14</v>
       </c>
       <c r="G1499" t="s">
-        <v>1184</v>
+        <v>154</v>
       </c>
       <c r="H1499" t="s">
-        <v>333</v>
+        <v>71</v>
       </c>
       <c r="I1499" t="s">
-        <v>551</v>
+        <v>166</v>
       </c>
       <c r="M1499" t="s">
-        <v>3816</v>
+        <v>3822</v>
       </c>
     </row>
     <row r="1500" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1500">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="B1500" t="s">
-        <v>3817</v>
+        <v>3823</v>
       </c>
       <c r="C1500" t="s">
-        <v>3818</v>
+        <v>3821</v>
       </c>
       <c r="D1500" t="s">
         <v>14</v>
       </c>
+      <c r="E1500" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1500" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1500" t="s">
+        <v>154</v>
+      </c>
       <c r="H1500" t="s">
-        <v>172</v>
+        <v>71</v>
+      </c>
+      <c r="I1500" t="s">
+        <v>166</v>
       </c>
       <c r="M1500" t="s">
-        <v>3819</v>
+        <v>3824</v>
       </c>
     </row>
     <row r="1501" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1501">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="B1501" t="s">
-        <v>3820</v>
+        <v>3825</v>
       </c>
       <c r="C1501" t="s">
         <v>3821</v>
@@ -60706,15 +60770,15 @@
         <v>166</v>
       </c>
       <c r="M1501" t="s">
-        <v>3822</v>
+        <v>3826</v>
       </c>
     </row>
     <row r="1502" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1502">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="B1502" t="s">
-        <v>3823</v>
+        <v>3827</v>
       </c>
       <c r="C1502" t="s">
         <v>3821</v>
@@ -60738,291 +60802,273 @@
         <v>166</v>
       </c>
       <c r="M1502" t="s">
-        <v>3824</v>
+        <v>3828</v>
       </c>
     </row>
     <row r="1503" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1503">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="B1503" t="s">
-        <v>3825</v>
+        <v>3829</v>
       </c>
       <c r="C1503" t="s">
-        <v>3821</v>
-      </c>
-      <c r="D1503" t="s">
-        <v>14</v>
+        <v>3830</v>
+      </c>
+      <c r="D1503">
+        <v>68000</v>
       </c>
       <c r="E1503" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1503" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1503" t="s">
         <v>154</v>
       </c>
       <c r="H1503" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1503" t="s">
-        <v>166</v>
+        <v>1492</v>
       </c>
       <c r="M1503" t="s">
-        <v>3826</v>
+        <v>3831</v>
       </c>
     </row>
     <row r="1504" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1504">
-        <v>1636</v>
+        <v>1645</v>
       </c>
       <c r="B1504" t="s">
-        <v>3827</v>
+        <v>3848</v>
       </c>
       <c r="C1504" t="s">
-        <v>3821</v>
-      </c>
-      <c r="D1504" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1504" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1504" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1504" t="s">
-        <v>154</v>
+        <v>3849</v>
+      </c>
+      <c r="D1504">
+        <v>8080</v>
       </c>
       <c r="H1504" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1504" t="s">
-        <v>166</v>
+        <v>406</v>
       </c>
       <c r="M1504" t="s">
-        <v>3828</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="1505" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1505">
-        <v>1637</v>
+        <v>1646</v>
       </c>
       <c r="B1505" t="s">
-        <v>3829</v>
+        <v>3851</v>
       </c>
       <c r="C1505" t="s">
-        <v>3830</v>
-      </c>
-      <c r="D1505">
-        <v>68000</v>
-      </c>
-      <c r="E1505" t="s">
-        <v>154</v>
+        <v>3852</v>
+      </c>
+      <c r="D1505" t="s">
+        <v>1105</v>
       </c>
       <c r="H1505" t="s">
-        <v>1492</v>
+        <v>336</v>
       </c>
       <c r="M1505" t="s">
-        <v>3831</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="1506" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1506">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="B1506" t="s">
-        <v>3848</v>
+        <v>3854</v>
       </c>
       <c r="C1506" t="s">
-        <v>3849</v>
-      </c>
-      <c r="D1506">
-        <v>8080</v>
+        <v>3855</v>
+      </c>
+      <c r="D1506" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1506" t="s">
+        <v>154</v>
       </c>
       <c r="H1506" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
       <c r="M1506" t="s">
-        <v>3850</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="1507" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1507">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="B1507" t="s">
-        <v>3851</v>
+        <v>3857</v>
       </c>
       <c r="C1507" t="s">
-        <v>3852</v>
+        <v>3855</v>
       </c>
       <c r="D1507" t="s">
-        <v>1105</v>
+        <v>14</v>
+      </c>
+      <c r="E1507" t="s">
+        <v>154</v>
       </c>
       <c r="H1507" t="s">
         <v>336</v>
       </c>
       <c r="M1507" t="s">
-        <v>3853</v>
+        <v>3858</v>
       </c>
     </row>
     <row r="1508" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1508">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="B1508" t="s">
-        <v>3854</v>
+        <v>3859</v>
       </c>
       <c r="C1508" t="s">
-        <v>3855</v>
+        <v>3860</v>
       </c>
       <c r="D1508" t="s">
-        <v>14</v>
+        <v>3861</v>
       </c>
       <c r="E1508" t="s">
-        <v>154</v>
+        <v>725</v>
       </c>
       <c r="H1508" t="s">
-        <v>336</v>
+        <v>2070</v>
       </c>
       <c r="M1508" t="s">
-        <v>3856</v>
+        <v>3862</v>
       </c>
     </row>
     <row r="1509" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1509">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="B1509" t="s">
-        <v>3857</v>
+        <v>3863</v>
       </c>
       <c r="C1509" t="s">
-        <v>3855</v>
-      </c>
-      <c r="D1509" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1509" t="s">
-        <v>154</v>
+        <v>3864</v>
+      </c>
+      <c r="D1509">
+        <v>68000</v>
       </c>
       <c r="H1509" t="s">
-        <v>336</v>
+        <v>2375</v>
       </c>
       <c r="M1509" t="s">
-        <v>3858</v>
+        <v>3865</v>
       </c>
     </row>
     <row r="1510" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1510">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="B1510" t="s">
-        <v>3859</v>
+        <v>3866</v>
       </c>
       <c r="C1510" t="s">
-        <v>3860</v>
-      </c>
-      <c r="D1510" t="s">
-        <v>3861</v>
+        <v>3867</v>
+      </c>
+      <c r="D1510">
+        <v>68000</v>
       </c>
       <c r="E1510" t="s">
-        <v>725</v>
+        <v>154</v>
       </c>
       <c r="H1510" t="s">
-        <v>2070</v>
+        <v>1236</v>
       </c>
       <c r="M1510" t="s">
-        <v>3862</v>
+        <v>3868</v>
       </c>
     </row>
     <row r="1511" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1511">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="B1511" t="s">
-        <v>3863</v>
+        <v>3869</v>
       </c>
       <c r="C1511" t="s">
-        <v>3864</v>
-      </c>
-      <c r="D1511">
-        <v>68000</v>
+        <v>3870</v>
+      </c>
+      <c r="D1511" t="s">
+        <v>405</v>
       </c>
       <c r="H1511" t="s">
-        <v>2375</v>
+        <v>71</v>
       </c>
       <c r="M1511" t="s">
-        <v>3865</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="1512" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1512">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="B1512" t="s">
-        <v>3866</v>
+        <v>3872</v>
       </c>
       <c r="C1512" t="s">
-        <v>3867</v>
-      </c>
-      <c r="D1512">
-        <v>68000</v>
-      </c>
-      <c r="E1512" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1512" t="s">
-        <v>1236</v>
+        <v>3873</v>
+      </c>
+      <c r="D1512" t="s">
+        <v>14</v>
       </c>
       <c r="M1512" t="s">
-        <v>3868</v>
+        <v>4493</v>
       </c>
     </row>
     <row r="1513" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1513">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="B1513" t="s">
-        <v>3869</v>
+        <v>3874</v>
       </c>
       <c r="C1513" t="s">
-        <v>3870</v>
-      </c>
-      <c r="D1513" t="s">
-        <v>405</v>
+        <v>3875</v>
+      </c>
+      <c r="D1513">
+        <v>68000</v>
+      </c>
+      <c r="E1513" t="s">
+        <v>154</v>
       </c>
       <c r="H1513" t="s">
-        <v>71</v>
+        <v>1353</v>
       </c>
       <c r="M1513" t="s">
-        <v>3871</v>
+        <v>3876</v>
       </c>
     </row>
     <row r="1514" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1514">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="B1514" t="s">
-        <v>3872</v>
+        <v>3877</v>
       </c>
       <c r="C1514" t="s">
-        <v>3873</v>
-      </c>
-      <c r="D1514" t="s">
-        <v>14</v>
+        <v>3875</v>
+      </c>
+      <c r="D1514">
+        <v>68000</v>
+      </c>
+      <c r="E1514" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1514" t="s">
+        <v>1353</v>
       </c>
       <c r="M1514" t="s">
-        <v>4493</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="1515" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1515">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="B1515" t="s">
-        <v>3874</v>
+        <v>3878</v>
       </c>
       <c r="C1515" t="s">
         <v>3875</v>
@@ -61037,15 +61083,15 @@
         <v>1353</v>
       </c>
       <c r="M1515" t="s">
-        <v>3876</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="1516" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1516">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="B1516" t="s">
-        <v>3877</v>
+        <v>3880</v>
       </c>
       <c r="C1516" t="s">
         <v>3875</v>
@@ -61060,15 +61106,15 @@
         <v>1353</v>
       </c>
       <c r="M1516" t="s">
-        <v>4494</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="1517" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1517">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="B1517" t="s">
-        <v>3878</v>
+        <v>3882</v>
       </c>
       <c r="C1517" t="s">
         <v>3875</v>
@@ -61083,15 +61129,15 @@
         <v>1353</v>
       </c>
       <c r="M1517" t="s">
-        <v>3879</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="1518" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1518">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="B1518" t="s">
-        <v>3880</v>
+        <v>3884</v>
       </c>
       <c r="C1518" t="s">
         <v>3875</v>
@@ -61106,15 +61152,15 @@
         <v>1353</v>
       </c>
       <c r="M1518" t="s">
-        <v>3881</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="1519" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1519">
-        <v>1658</v>
+        <v>1660</v>
       </c>
       <c r="B1519" t="s">
-        <v>3882</v>
+        <v>3886</v>
       </c>
       <c r="C1519" t="s">
         <v>3875</v>
@@ -61129,15 +61175,15 @@
         <v>1353</v>
       </c>
       <c r="M1519" t="s">
-        <v>3883</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="1520" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1520">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="B1520" t="s">
-        <v>3884</v>
+        <v>3888</v>
       </c>
       <c r="C1520" t="s">
         <v>3875</v>
@@ -61152,15 +61198,15 @@
         <v>1353</v>
       </c>
       <c r="M1520" t="s">
-        <v>3885</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="1521" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1521">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="B1521" t="s">
-        <v>3886</v>
+        <v>3889</v>
       </c>
       <c r="C1521" t="s">
         <v>3875</v>
@@ -61175,15 +61221,15 @@
         <v>1353</v>
       </c>
       <c r="M1521" t="s">
-        <v>3887</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="1522" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1522">
-        <v>1661</v>
+        <v>1663</v>
       </c>
       <c r="B1522" t="s">
-        <v>3888</v>
+        <v>3891</v>
       </c>
       <c r="C1522" t="s">
         <v>3875</v>
@@ -61198,15 +61244,15 @@
         <v>1353</v>
       </c>
       <c r="M1522" t="s">
-        <v>4495</v>
+        <v>3892</v>
       </c>
     </row>
     <row r="1523" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1523">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="B1523" t="s">
-        <v>3889</v>
+        <v>3893</v>
       </c>
       <c r="C1523" t="s">
         <v>3875</v>
@@ -61221,15 +61267,15 @@
         <v>1353</v>
       </c>
       <c r="M1523" t="s">
-        <v>3890</v>
+        <v>3894</v>
       </c>
     </row>
     <row r="1524" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1524">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="B1524" t="s">
-        <v>3891</v>
+        <v>3895</v>
       </c>
       <c r="C1524" t="s">
         <v>3875</v>
@@ -61244,15 +61290,15 @@
         <v>1353</v>
       </c>
       <c r="M1524" t="s">
-        <v>3892</v>
+        <v>3896</v>
       </c>
     </row>
     <row r="1525" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1525">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="B1525" t="s">
-        <v>3893</v>
+        <v>3897</v>
       </c>
       <c r="C1525" t="s">
         <v>3875</v>
@@ -61267,15 +61313,15 @@
         <v>1353</v>
       </c>
       <c r="M1525" t="s">
-        <v>3894</v>
+        <v>3898</v>
       </c>
     </row>
     <row r="1526" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1526">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="B1526" t="s">
-        <v>3895</v>
+        <v>3899</v>
       </c>
       <c r="C1526" t="s">
         <v>3875</v>
@@ -61290,15 +61336,15 @@
         <v>1353</v>
       </c>
       <c r="M1526" t="s">
-        <v>3896</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="1527" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1527">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="B1527" t="s">
-        <v>3897</v>
+        <v>3900</v>
       </c>
       <c r="C1527" t="s">
         <v>3875</v>
@@ -61313,15 +61359,15 @@
         <v>1353</v>
       </c>
       <c r="M1527" t="s">
-        <v>3898</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="1528" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1528">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="B1528" t="s">
-        <v>3899</v>
+        <v>3901</v>
       </c>
       <c r="C1528" t="s">
         <v>3875</v>
@@ -61336,15 +61382,15 @@
         <v>1353</v>
       </c>
       <c r="M1528" t="s">
-        <v>4496</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="1529" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1529">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="B1529" t="s">
-        <v>3900</v>
+        <v>3903</v>
       </c>
       <c r="C1529" t="s">
         <v>3875</v>
@@ -61359,15 +61405,15 @@
         <v>1353</v>
       </c>
       <c r="M1529" t="s">
-        <v>4497</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="1530" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1530">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="B1530" t="s">
-        <v>3901</v>
+        <v>3905</v>
       </c>
       <c r="C1530" t="s">
         <v>3875</v>
@@ -61382,15 +61428,15 @@
         <v>1353</v>
       </c>
       <c r="M1530" t="s">
-        <v>3902</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="1531" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1531">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="B1531" t="s">
-        <v>3903</v>
+        <v>3907</v>
       </c>
       <c r="C1531" t="s">
         <v>3875</v>
@@ -61405,15 +61451,15 @@
         <v>1353</v>
       </c>
       <c r="M1531" t="s">
-        <v>3904</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="1532" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1532">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="B1532" t="s">
-        <v>3905</v>
+        <v>3909</v>
       </c>
       <c r="C1532" t="s">
         <v>3875</v>
@@ -61428,15 +61474,15 @@
         <v>1353</v>
       </c>
       <c r="M1532" t="s">
-        <v>3906</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="1533" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1533">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="B1533" t="s">
-        <v>3907</v>
+        <v>3911</v>
       </c>
       <c r="C1533" t="s">
         <v>3875</v>
@@ -61451,15 +61497,15 @@
         <v>1353</v>
       </c>
       <c r="M1533" t="s">
-        <v>3908</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="1534" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1534">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="B1534" t="s">
-        <v>3909</v>
+        <v>3913</v>
       </c>
       <c r="C1534" t="s">
         <v>3875</v>
@@ -61474,15 +61520,15 @@
         <v>1353</v>
       </c>
       <c r="M1534" t="s">
-        <v>3910</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="1535" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1535">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="B1535" t="s">
-        <v>3911</v>
+        <v>3914</v>
       </c>
       <c r="C1535" t="s">
         <v>3875</v>
@@ -61497,15 +61543,15 @@
         <v>1353</v>
       </c>
       <c r="M1535" t="s">
-        <v>3912</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="1536" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1536">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="B1536" t="s">
-        <v>3913</v>
+        <v>3916</v>
       </c>
       <c r="C1536" t="s">
         <v>3875</v>
@@ -61520,15 +61566,15 @@
         <v>1353</v>
       </c>
       <c r="M1536" t="s">
-        <v>4498</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="1537" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1537">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="B1537" t="s">
-        <v>3914</v>
+        <v>3918</v>
       </c>
       <c r="C1537" t="s">
         <v>3875</v>
@@ -61543,15 +61589,15 @@
         <v>1353</v>
       </c>
       <c r="M1537" t="s">
-        <v>3915</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="1538" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1538">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B1538" t="s">
-        <v>3916</v>
+        <v>3920</v>
       </c>
       <c r="C1538" t="s">
         <v>3875</v>
@@ -61566,15 +61612,15 @@
         <v>1353</v>
       </c>
       <c r="M1538" t="s">
-        <v>3917</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="1539" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1539">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="B1539" t="s">
-        <v>3918</v>
+        <v>3921</v>
       </c>
       <c r="C1539" t="s">
         <v>3875</v>
@@ -61589,15 +61635,15 @@
         <v>1353</v>
       </c>
       <c r="M1539" t="s">
-        <v>3919</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="1540" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1540">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="B1540" t="s">
-        <v>3920</v>
+        <v>3922</v>
       </c>
       <c r="C1540" t="s">
         <v>3875</v>
@@ -61612,15 +61658,15 @@
         <v>1353</v>
       </c>
       <c r="M1540" t="s">
-        <v>4499</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="1541" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1541">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="B1541" t="s">
-        <v>3921</v>
+        <v>3923</v>
       </c>
       <c r="C1541" t="s">
         <v>3875</v>
@@ -61635,15 +61681,15 @@
         <v>1353</v>
       </c>
       <c r="M1541" t="s">
-        <v>4500</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="1542" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1542">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="B1542" t="s">
-        <v>3922</v>
+        <v>3925</v>
       </c>
       <c r="C1542" t="s">
         <v>3875</v>
@@ -61658,15 +61704,15 @@
         <v>1353</v>
       </c>
       <c r="M1542" t="s">
-        <v>4501</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="1543" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1543">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="B1543" t="s">
-        <v>3923</v>
+        <v>3927</v>
       </c>
       <c r="C1543" t="s">
         <v>3875</v>
@@ -61681,15 +61727,15 @@
         <v>1353</v>
       </c>
       <c r="M1543" t="s">
-        <v>3924</v>
+        <v>4502</v>
       </c>
     </row>
     <row r="1544" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1544">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="B1544" t="s">
-        <v>3925</v>
+        <v>3928</v>
       </c>
       <c r="C1544" t="s">
         <v>3875</v>
@@ -61704,15 +61750,15 @@
         <v>1353</v>
       </c>
       <c r="M1544" t="s">
-        <v>3926</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="1545" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1545">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="B1545" t="s">
-        <v>3927</v>
+        <v>3930</v>
       </c>
       <c r="C1545" t="s">
         <v>3875</v>
@@ -61727,15 +61773,15 @@
         <v>1353</v>
       </c>
       <c r="M1545" t="s">
-        <v>4502</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="1546" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1546">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="B1546" t="s">
-        <v>3928</v>
+        <v>3931</v>
       </c>
       <c r="C1546" t="s">
         <v>3875</v>
@@ -61750,15 +61796,15 @@
         <v>1353</v>
       </c>
       <c r="M1546" t="s">
-        <v>3929</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="1547" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1547">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="B1547" t="s">
-        <v>3930</v>
+        <v>3933</v>
       </c>
       <c r="C1547" t="s">
         <v>3875</v>
@@ -61773,15 +61819,15 @@
         <v>1353</v>
       </c>
       <c r="M1547" t="s">
-        <v>4503</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="1548" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1548">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="B1548" t="s">
-        <v>3931</v>
+        <v>3935</v>
       </c>
       <c r="C1548" t="s">
         <v>3875</v>
@@ -61796,15 +61842,15 @@
         <v>1353</v>
       </c>
       <c r="M1548" t="s">
-        <v>3932</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="1549" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1549">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="B1549" t="s">
-        <v>3933</v>
+        <v>3936</v>
       </c>
       <c r="C1549" t="s">
         <v>3875</v>
@@ -61819,15 +61865,15 @@
         <v>1353</v>
       </c>
       <c r="M1549" t="s">
-        <v>3934</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="1550" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1550">
-        <v>1689</v>
+        <v>1691</v>
       </c>
       <c r="B1550" t="s">
-        <v>3935</v>
+        <v>3937</v>
       </c>
       <c r="C1550" t="s">
         <v>3875</v>
@@ -61842,15 +61888,15 @@
         <v>1353</v>
       </c>
       <c r="M1550" t="s">
-        <v>4504</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="1551" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1551">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="B1551" t="s">
-        <v>3936</v>
+        <v>3939</v>
       </c>
       <c r="C1551" t="s">
         <v>3875</v>
@@ -61865,15 +61911,15 @@
         <v>1353</v>
       </c>
       <c r="M1551" t="s">
-        <v>4505</v>
+        <v>4506</v>
       </c>
     </row>
     <row r="1552" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1552">
-        <v>1691</v>
+        <v>1693</v>
       </c>
       <c r="B1552" t="s">
-        <v>3937</v>
+        <v>3940</v>
       </c>
       <c r="C1552" t="s">
         <v>3875</v>
@@ -61888,15 +61934,15 @@
         <v>1353</v>
       </c>
       <c r="M1552" t="s">
-        <v>3938</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="1553" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1553">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="B1553" t="s">
-        <v>3939</v>
+        <v>3941</v>
       </c>
       <c r="C1553" t="s">
         <v>3875</v>
@@ -61911,15 +61957,15 @@
         <v>1353</v>
       </c>
       <c r="M1553" t="s">
-        <v>4506</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="1554" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1554">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="B1554" t="s">
-        <v>3940</v>
+        <v>3942</v>
       </c>
       <c r="C1554" t="s">
         <v>3875</v>
@@ -61934,15 +61980,15 @@
         <v>1353</v>
       </c>
       <c r="M1554" t="s">
-        <v>4507</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="1555" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1555">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="B1555" t="s">
-        <v>3941</v>
+        <v>3943</v>
       </c>
       <c r="C1555" t="s">
         <v>3875</v>
@@ -61957,15 +62003,15 @@
         <v>1353</v>
       </c>
       <c r="M1555" t="s">
-        <v>4508</v>
+        <v>4510</v>
       </c>
     </row>
     <row r="1556" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1556">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="B1556" t="s">
-        <v>3942</v>
+        <v>3944</v>
       </c>
       <c r="C1556" t="s">
         <v>3875</v>
@@ -61980,15 +62026,15 @@
         <v>1353</v>
       </c>
       <c r="M1556" t="s">
-        <v>4509</v>
+        <v>4511</v>
       </c>
     </row>
     <row r="1557" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1557">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="B1557" t="s">
-        <v>3943</v>
+        <v>3945</v>
       </c>
       <c r="C1557" t="s">
         <v>3875</v>
@@ -62003,15 +62049,15 @@
         <v>1353</v>
       </c>
       <c r="M1557" t="s">
-        <v>4510</v>
+        <v>4512</v>
       </c>
     </row>
     <row r="1558" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1558">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="B1558" t="s">
-        <v>3944</v>
+        <v>3946</v>
       </c>
       <c r="C1558" t="s">
         <v>3875</v>
@@ -62026,15 +62072,15 @@
         <v>1353</v>
       </c>
       <c r="M1558" t="s">
-        <v>4511</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="1559" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1559">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="B1559" t="s">
-        <v>3945</v>
+        <v>3948</v>
       </c>
       <c r="C1559" t="s">
         <v>3875</v>
@@ -62049,15 +62095,15 @@
         <v>1353</v>
       </c>
       <c r="M1559" t="s">
-        <v>4512</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="1560" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1560">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c r="B1560" t="s">
-        <v>3946</v>
+        <v>3950</v>
       </c>
       <c r="C1560" t="s">
         <v>3875</v>
@@ -62072,15 +62118,15 @@
         <v>1353</v>
       </c>
       <c r="M1560" t="s">
-        <v>3947</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="1561" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1561">
-        <v>1700</v>
+        <v>1702</v>
       </c>
       <c r="B1561" t="s">
-        <v>3948</v>
+        <v>3952</v>
       </c>
       <c r="C1561" t="s">
         <v>3875</v>
@@ -62095,15 +62141,15 @@
         <v>1353</v>
       </c>
       <c r="M1561" t="s">
-        <v>3949</v>
+        <v>4513</v>
       </c>
     </row>
     <row r="1562" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1562">
-        <v>1701</v>
+        <v>1703</v>
       </c>
       <c r="B1562" t="s">
-        <v>3950</v>
+        <v>3953</v>
       </c>
       <c r="C1562" t="s">
         <v>3875</v>
@@ -62118,15 +62164,15 @@
         <v>1353</v>
       </c>
       <c r="M1562" t="s">
-        <v>3951</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="1563" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1563">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="B1563" t="s">
-        <v>3952</v>
+        <v>3955</v>
       </c>
       <c r="C1563" t="s">
         <v>3875</v>
@@ -62141,15 +62187,15 @@
         <v>1353</v>
       </c>
       <c r="M1563" t="s">
-        <v>4513</v>
+        <v>3956</v>
       </c>
     </row>
     <row r="1564" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1564">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="B1564" t="s">
-        <v>3953</v>
+        <v>3957</v>
       </c>
       <c r="C1564" t="s">
         <v>3875</v>
@@ -62164,15 +62210,15 @@
         <v>1353</v>
       </c>
       <c r="M1564" t="s">
-        <v>3954</v>
+        <v>4514</v>
       </c>
     </row>
     <row r="1565" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1565">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="B1565" t="s">
-        <v>3955</v>
+        <v>3958</v>
       </c>
       <c r="C1565" t="s">
         <v>3875</v>
@@ -62187,15 +62233,15 @@
         <v>1353</v>
       </c>
       <c r="M1565" t="s">
-        <v>3956</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="1566" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1566">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="B1566" t="s">
-        <v>3957</v>
+        <v>3960</v>
       </c>
       <c r="C1566" t="s">
         <v>3875</v>
@@ -62210,15 +62256,15 @@
         <v>1353</v>
       </c>
       <c r="M1566" t="s">
-        <v>4514</v>
+        <v>4515</v>
       </c>
     </row>
     <row r="1567" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1567">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="B1567" t="s">
-        <v>3958</v>
+        <v>3961</v>
       </c>
       <c r="C1567" t="s">
         <v>3875</v>
@@ -62233,15 +62279,15 @@
         <v>1353</v>
       </c>
       <c r="M1567" t="s">
-        <v>3959</v>
+        <v>4516</v>
       </c>
     </row>
     <row r="1568" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1568">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="B1568" t="s">
-        <v>3960</v>
+        <v>3962</v>
       </c>
       <c r="C1568" t="s">
         <v>3875</v>
@@ -62256,15 +62302,15 @@
         <v>1353</v>
       </c>
       <c r="M1568" t="s">
-        <v>4515</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="1569" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1569">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="B1569" t="s">
-        <v>3961</v>
+        <v>3963</v>
       </c>
       <c r="C1569" t="s">
         <v>3875</v>
@@ -62279,15 +62325,15 @@
         <v>1353</v>
       </c>
       <c r="M1569" t="s">
-        <v>4516</v>
+        <v>4518</v>
       </c>
     </row>
     <row r="1570" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1570">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="B1570" t="s">
-        <v>3962</v>
+        <v>3964</v>
       </c>
       <c r="C1570" t="s">
         <v>3875</v>
@@ -62302,15 +62348,15 @@
         <v>1353</v>
       </c>
       <c r="M1570" t="s">
-        <v>4517</v>
+        <v>4519</v>
       </c>
     </row>
     <row r="1571" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1571">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="B1571" t="s">
-        <v>3963</v>
+        <v>3965</v>
       </c>
       <c r="C1571" t="s">
         <v>3875</v>
@@ -62325,15 +62371,15 @@
         <v>1353</v>
       </c>
       <c r="M1571" t="s">
-        <v>4518</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="1572" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1572">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="B1572" t="s">
-        <v>3964</v>
+        <v>3966</v>
       </c>
       <c r="C1572" t="s">
         <v>3875</v>
@@ -62348,15 +62394,15 @@
         <v>1353</v>
       </c>
       <c r="M1572" t="s">
-        <v>4519</v>
+        <v>3967</v>
       </c>
     </row>
     <row r="1573" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1573">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="B1573" t="s">
-        <v>3965</v>
+        <v>3968</v>
       </c>
       <c r="C1573" t="s">
         <v>3875</v>
@@ -62371,15 +62417,15 @@
         <v>1353</v>
       </c>
       <c r="M1573" t="s">
-        <v>4520</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="1574" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1574">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="B1574" t="s">
-        <v>3966</v>
+        <v>3969</v>
       </c>
       <c r="C1574" t="s">
         <v>3875</v>
@@ -62394,15 +62440,15 @@
         <v>1353</v>
       </c>
       <c r="M1574" t="s">
-        <v>3967</v>
+        <v>4522</v>
       </c>
     </row>
     <row r="1575" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1575">
-        <v>1714</v>
+        <v>1716</v>
       </c>
       <c r="B1575" t="s">
-        <v>3968</v>
+        <v>3970</v>
       </c>
       <c r="C1575" t="s">
         <v>3875</v>
@@ -62417,15 +62463,15 @@
         <v>1353</v>
       </c>
       <c r="M1575" t="s">
-        <v>4521</v>
+        <v>3971</v>
       </c>
     </row>
     <row r="1576" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1576">
-        <v>1715</v>
+        <v>1717</v>
       </c>
       <c r="B1576" t="s">
-        <v>3969</v>
+        <v>3972</v>
       </c>
       <c r="C1576" t="s">
         <v>3875</v>
@@ -62440,15 +62486,15 @@
         <v>1353</v>
       </c>
       <c r="M1576" t="s">
-        <v>4522</v>
+        <v>3973</v>
       </c>
     </row>
     <row r="1577" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1577">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="B1577" t="s">
-        <v>3970</v>
+        <v>3974</v>
       </c>
       <c r="C1577" t="s">
         <v>3875</v>
@@ -62463,15 +62509,15 @@
         <v>1353</v>
       </c>
       <c r="M1577" t="s">
-        <v>3971</v>
+        <v>4523</v>
       </c>
     </row>
     <row r="1578" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1578">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="B1578" t="s">
-        <v>3972</v>
+        <v>3975</v>
       </c>
       <c r="C1578" t="s">
         <v>3875</v>
@@ -62486,15 +62532,15 @@
         <v>1353</v>
       </c>
       <c r="M1578" t="s">
-        <v>3973</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="1579" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1579">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="B1579" t="s">
-        <v>3974</v>
+        <v>3977</v>
       </c>
       <c r="C1579" t="s">
         <v>3875</v>
@@ -62509,15 +62555,15 @@
         <v>1353</v>
       </c>
       <c r="M1579" t="s">
-        <v>4523</v>
+        <v>4524</v>
       </c>
     </row>
     <row r="1580" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1580">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="B1580" t="s">
-        <v>3975</v>
+        <v>3978</v>
       </c>
       <c r="C1580" t="s">
         <v>3875</v>
@@ -62532,15 +62578,15 @@
         <v>1353</v>
       </c>
       <c r="M1580" t="s">
-        <v>3976</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="1581" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1581">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="B1581" t="s">
-        <v>3977</v>
+        <v>3979</v>
       </c>
       <c r="C1581" t="s">
         <v>3875</v>
@@ -62555,15 +62601,15 @@
         <v>1353</v>
       </c>
       <c r="M1581" t="s">
-        <v>4524</v>
+        <v>4526</v>
       </c>
     </row>
     <row r="1582" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1582">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="B1582" t="s">
-        <v>3978</v>
+        <v>3980</v>
       </c>
       <c r="C1582" t="s">
         <v>3875</v>
@@ -62578,15 +62624,15 @@
         <v>1353</v>
       </c>
       <c r="M1582" t="s">
-        <v>4525</v>
+        <v>4527</v>
       </c>
     </row>
     <row r="1583" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1583">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="B1583" t="s">
-        <v>3979</v>
+        <v>3981</v>
       </c>
       <c r="C1583" t="s">
         <v>3875</v>
@@ -62601,15 +62647,15 @@
         <v>1353</v>
       </c>
       <c r="M1583" t="s">
-        <v>4526</v>
+        <v>4528</v>
       </c>
     </row>
     <row r="1584" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1584">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="B1584" t="s">
-        <v>3980</v>
+        <v>3982</v>
       </c>
       <c r="C1584" t="s">
         <v>3875</v>
@@ -62624,15 +62670,15 @@
         <v>1353</v>
       </c>
       <c r="M1584" t="s">
-        <v>4527</v>
+        <v>3983</v>
       </c>
     </row>
     <row r="1585" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1585">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="B1585" t="s">
-        <v>3981</v>
+        <v>3984</v>
       </c>
       <c r="C1585" t="s">
         <v>3875</v>
@@ -62647,15 +62693,15 @@
         <v>1353</v>
       </c>
       <c r="M1585" t="s">
-        <v>4528</v>
+        <v>4529</v>
       </c>
     </row>
     <row r="1586" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1586">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="B1586" t="s">
-        <v>3982</v>
+        <v>3985</v>
       </c>
       <c r="C1586" t="s">
         <v>3875</v>
@@ -62670,15 +62716,15 @@
         <v>1353</v>
       </c>
       <c r="M1586" t="s">
-        <v>3983</v>
+        <v>3986</v>
       </c>
     </row>
     <row r="1587" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1587">
-        <v>1726</v>
+        <v>1728</v>
       </c>
       <c r="B1587" t="s">
-        <v>3984</v>
+        <v>3987</v>
       </c>
       <c r="C1587" t="s">
         <v>3875</v>
@@ -62693,15 +62739,15 @@
         <v>1353</v>
       </c>
       <c r="M1587" t="s">
-        <v>4529</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="1588" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1588">
-        <v>1727</v>
+        <v>1729</v>
       </c>
       <c r="B1588" t="s">
-        <v>3985</v>
+        <v>3988</v>
       </c>
       <c r="C1588" t="s">
         <v>3875</v>
@@ -62716,15 +62762,15 @@
         <v>1353</v>
       </c>
       <c r="M1588" t="s">
-        <v>3986</v>
+        <v>3989</v>
       </c>
     </row>
     <row r="1589" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1589">
-        <v>1728</v>
+        <v>1730</v>
       </c>
       <c r="B1589" t="s">
-        <v>3987</v>
+        <v>3990</v>
       </c>
       <c r="C1589" t="s">
         <v>3875</v>
@@ -62739,15 +62785,15 @@
         <v>1353</v>
       </c>
       <c r="M1589" t="s">
-        <v>4530</v>
+        <v>3991</v>
       </c>
     </row>
     <row r="1590" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1590">
-        <v>1729</v>
+        <v>1731</v>
       </c>
       <c r="B1590" t="s">
-        <v>3988</v>
+        <v>3992</v>
       </c>
       <c r="C1590" t="s">
         <v>3875</v>
@@ -62762,15 +62808,15 @@
         <v>1353</v>
       </c>
       <c r="M1590" t="s">
-        <v>3989</v>
+        <v>4531</v>
       </c>
     </row>
     <row r="1591" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1591">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c r="B1591" t="s">
-        <v>3990</v>
+        <v>3993</v>
       </c>
       <c r="C1591" t="s">
         <v>3875</v>
@@ -62785,15 +62831,15 @@
         <v>1353</v>
       </c>
       <c r="M1591" t="s">
-        <v>3991</v>
+        <v>4532</v>
       </c>
     </row>
     <row r="1592" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1592">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="B1592" t="s">
-        <v>3992</v>
+        <v>3994</v>
       </c>
       <c r="C1592" t="s">
         <v>3875</v>
@@ -62808,15 +62854,15 @@
         <v>1353</v>
       </c>
       <c r="M1592" t="s">
-        <v>4531</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="1593" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1593">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="B1593" t="s">
-        <v>3993</v>
+        <v>3996</v>
       </c>
       <c r="C1593" t="s">
         <v>3875</v>
@@ -62831,15 +62877,15 @@
         <v>1353</v>
       </c>
       <c r="M1593" t="s">
-        <v>4532</v>
+        <v>3997</v>
       </c>
     </row>
     <row r="1594" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1594">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="B1594" t="s">
-        <v>3994</v>
+        <v>3998</v>
       </c>
       <c r="C1594" t="s">
         <v>3875</v>
@@ -62854,15 +62900,15 @@
         <v>1353</v>
       </c>
       <c r="M1594" t="s">
-        <v>3995</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="1595" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1595">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="B1595" t="s">
-        <v>3996</v>
+        <v>3999</v>
       </c>
       <c r="C1595" t="s">
         <v>3875</v>
@@ -62877,15 +62923,15 @@
         <v>1353</v>
       </c>
       <c r="M1595" t="s">
-        <v>3997</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="1596" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1596">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="B1596" t="s">
-        <v>3998</v>
+        <v>4001</v>
       </c>
       <c r="C1596" t="s">
         <v>3875</v>
@@ -62900,15 +62946,15 @@
         <v>1353</v>
       </c>
       <c r="M1596" t="s">
-        <v>4533</v>
+        <v>4534</v>
       </c>
     </row>
     <row r="1597" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1597">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c r="B1597" t="s">
-        <v>3999</v>
+        <v>4002</v>
       </c>
       <c r="C1597" t="s">
         <v>3875</v>
@@ -62923,15 +62969,15 @@
         <v>1353</v>
       </c>
       <c r="M1597" t="s">
-        <v>4000</v>
+        <v>4535</v>
       </c>
     </row>
     <row r="1598" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1598">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="B1598" t="s">
-        <v>4001</v>
+        <v>4003</v>
       </c>
       <c r="C1598" t="s">
         <v>3875</v>
@@ -62946,15 +62992,15 @@
         <v>1353</v>
       </c>
       <c r="M1598" t="s">
-        <v>4534</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="1599" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1599">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c r="B1599" t="s">
-        <v>4002</v>
+        <v>4004</v>
       </c>
       <c r="C1599" t="s">
         <v>3875</v>
@@ -62969,15 +63015,15 @@
         <v>1353</v>
       </c>
       <c r="M1599" t="s">
-        <v>4535</v>
+        <v>4537</v>
       </c>
     </row>
     <row r="1600" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1600">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="B1600" t="s">
-        <v>4003</v>
+        <v>4005</v>
       </c>
       <c r="C1600" t="s">
         <v>3875</v>
@@ -62992,15 +63038,15 @@
         <v>1353</v>
       </c>
       <c r="M1600" t="s">
-        <v>4536</v>
+        <v>4538</v>
       </c>
     </row>
     <row r="1601" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1601">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="B1601" t="s">
-        <v>4004</v>
+        <v>4006</v>
       </c>
       <c r="C1601" t="s">
         <v>3875</v>
@@ -63015,15 +63061,15 @@
         <v>1353</v>
       </c>
       <c r="M1601" t="s">
-        <v>4537</v>
+        <v>4539</v>
       </c>
     </row>
     <row r="1602" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1602">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="B1602" t="s">
-        <v>4005</v>
+        <v>4007</v>
       </c>
       <c r="C1602" t="s">
         <v>3875</v>
@@ -63038,15 +63084,15 @@
         <v>1353</v>
       </c>
       <c r="M1602" t="s">
-        <v>4538</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="1603" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1603">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="B1603" t="s">
-        <v>4006</v>
+        <v>4009</v>
       </c>
       <c r="C1603" t="s">
         <v>3875</v>
@@ -63061,15 +63107,15 @@
         <v>1353</v>
       </c>
       <c r="M1603" t="s">
-        <v>4539</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="1604" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1604">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="B1604" t="s">
-        <v>4007</v>
+        <v>4010</v>
       </c>
       <c r="C1604" t="s">
         <v>3875</v>
@@ -63084,15 +63130,15 @@
         <v>1353</v>
       </c>
       <c r="M1604" t="s">
-        <v>4008</v>
+        <v>4541</v>
       </c>
     </row>
     <row r="1605" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1605">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="B1605" t="s">
-        <v>4009</v>
+        <v>4011</v>
       </c>
       <c r="C1605" t="s">
         <v>3875</v>
@@ -63107,15 +63153,15 @@
         <v>1353</v>
       </c>
       <c r="M1605" t="s">
-        <v>4540</v>
+        <v>4012</v>
       </c>
     </row>
     <row r="1606" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1606">
-        <v>1745</v>
+        <v>1747</v>
       </c>
       <c r="B1606" t="s">
-        <v>4010</v>
+        <v>4013</v>
       </c>
       <c r="C1606" t="s">
         <v>3875</v>
@@ -63130,15 +63176,15 @@
         <v>1353</v>
       </c>
       <c r="M1606" t="s">
-        <v>4541</v>
+        <v>4542</v>
       </c>
     </row>
     <row r="1607" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1607">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="B1607" t="s">
-        <v>4011</v>
+        <v>4014</v>
       </c>
       <c r="C1607" t="s">
         <v>3875</v>
@@ -63153,15 +63199,15 @@
         <v>1353</v>
       </c>
       <c r="M1607" t="s">
-        <v>4012</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="1608" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1608">
-        <v>1747</v>
+        <v>1749</v>
       </c>
       <c r="B1608" t="s">
-        <v>4013</v>
+        <v>4016</v>
       </c>
       <c r="C1608" t="s">
         <v>3875</v>
@@ -63176,15 +63222,15 @@
         <v>1353</v>
       </c>
       <c r="M1608" t="s">
-        <v>4542</v>
+        <v>4017</v>
       </c>
     </row>
     <row r="1609" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1609">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="B1609" t="s">
-        <v>4014</v>
+        <v>4018</v>
       </c>
       <c r="C1609" t="s">
         <v>3875</v>
@@ -63199,15 +63245,15 @@
         <v>1353</v>
       </c>
       <c r="M1609" t="s">
-        <v>4015</v>
+        <v>4543</v>
       </c>
     </row>
     <row r="1610" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1610">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="B1610" t="s">
-        <v>4016</v>
+        <v>4019</v>
       </c>
       <c r="C1610" t="s">
         <v>3875</v>
@@ -63222,15 +63268,15 @@
         <v>1353</v>
       </c>
       <c r="M1610" t="s">
-        <v>4017</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="1611" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1611">
-        <v>1750</v>
+        <v>1752</v>
       </c>
       <c r="B1611" t="s">
-        <v>4018</v>
+        <v>4021</v>
       </c>
       <c r="C1611" t="s">
         <v>3875</v>
@@ -63245,15 +63291,15 @@
         <v>1353</v>
       </c>
       <c r="M1611" t="s">
-        <v>4543</v>
+        <v>4544</v>
       </c>
     </row>
     <row r="1612" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1612">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="B1612" t="s">
-        <v>4019</v>
+        <v>4022</v>
       </c>
       <c r="C1612" t="s">
         <v>3875</v>
@@ -63268,15 +63314,15 @@
         <v>1353</v>
       </c>
       <c r="M1612" t="s">
-        <v>4020</v>
+        <v>4545</v>
       </c>
     </row>
     <row r="1613" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1613">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="B1613" t="s">
-        <v>4021</v>
+        <v>4023</v>
       </c>
       <c r="C1613" t="s">
         <v>3875</v>
@@ -63291,15 +63337,15 @@
         <v>1353</v>
       </c>
       <c r="M1613" t="s">
-        <v>4544</v>
+        <v>4546</v>
       </c>
     </row>
     <row r="1614" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1614">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="B1614" t="s">
-        <v>4022</v>
+        <v>4024</v>
       </c>
       <c r="C1614" t="s">
         <v>3875</v>
@@ -63314,15 +63360,15 @@
         <v>1353</v>
       </c>
       <c r="M1614" t="s">
-        <v>4545</v>
+        <v>4547</v>
       </c>
     </row>
     <row r="1615" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1615">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="B1615" t="s">
-        <v>4023</v>
+        <v>4025</v>
       </c>
       <c r="C1615" t="s">
         <v>3875</v>
@@ -63337,15 +63383,15 @@
         <v>1353</v>
       </c>
       <c r="M1615" t="s">
-        <v>4546</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="1616" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1616">
-        <v>1755</v>
+        <v>1757</v>
       </c>
       <c r="B1616" t="s">
-        <v>4024</v>
+        <v>4026</v>
       </c>
       <c r="C1616" t="s">
         <v>3875</v>
@@ -63360,15 +63406,15 @@
         <v>1353</v>
       </c>
       <c r="M1616" t="s">
-        <v>4547</v>
+        <v>4027</v>
       </c>
     </row>
     <row r="1617" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1617">
-        <v>1756</v>
+        <v>1758</v>
       </c>
       <c r="B1617" t="s">
-        <v>4025</v>
+        <v>4028</v>
       </c>
       <c r="C1617" t="s">
         <v>3875</v>
@@ -63383,15 +63429,15 @@
         <v>1353</v>
       </c>
       <c r="M1617" t="s">
-        <v>4548</v>
+        <v>4549</v>
       </c>
     </row>
     <row r="1618" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1618">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="B1618" t="s">
-        <v>4026</v>
+        <v>4029</v>
       </c>
       <c r="C1618" t="s">
         <v>3875</v>
@@ -63406,15 +63452,15 @@
         <v>1353</v>
       </c>
       <c r="M1618" t="s">
-        <v>4027</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="1619" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1619">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="B1619" t="s">
-        <v>4028</v>
+        <v>4030</v>
       </c>
       <c r="C1619" t="s">
         <v>3875</v>
@@ -63429,15 +63475,15 @@
         <v>1353</v>
       </c>
       <c r="M1619" t="s">
-        <v>4549</v>
+        <v>4031</v>
       </c>
     </row>
     <row r="1620" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1620">
-        <v>1759</v>
+        <v>1761</v>
       </c>
       <c r="B1620" t="s">
-        <v>4029</v>
+        <v>4032</v>
       </c>
       <c r="C1620" t="s">
         <v>3875</v>
@@ -63452,15 +63498,15 @@
         <v>1353</v>
       </c>
       <c r="M1620" t="s">
-        <v>4550</v>
+        <v>4033</v>
       </c>
     </row>
     <row r="1621" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1621">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c r="B1621" t="s">
-        <v>4030</v>
+        <v>4034</v>
       </c>
       <c r="C1621" t="s">
         <v>3875</v>
@@ -63475,15 +63521,15 @@
         <v>1353</v>
       </c>
       <c r="M1621" t="s">
-        <v>4031</v>
+        <v>4035</v>
       </c>
     </row>
     <row r="1622" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1622">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="B1622" t="s">
-        <v>4032</v>
+        <v>4036</v>
       </c>
       <c r="C1622" t="s">
         <v>3875</v>
@@ -63498,15 +63544,15 @@
         <v>1353</v>
       </c>
       <c r="M1622" t="s">
-        <v>4033</v>
+        <v>4037</v>
       </c>
     </row>
     <row r="1623" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1623">
-        <v>1762</v>
+        <v>1764</v>
       </c>
       <c r="B1623" t="s">
-        <v>4034</v>
+        <v>4038</v>
       </c>
       <c r="C1623" t="s">
         <v>3875</v>
@@ -63521,15 +63567,15 @@
         <v>1353</v>
       </c>
       <c r="M1623" t="s">
-        <v>4035</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="1624" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1624">
-        <v>1763</v>
+        <v>1765</v>
       </c>
       <c r="B1624" t="s">
-        <v>4036</v>
+        <v>4039</v>
       </c>
       <c r="C1624" t="s">
         <v>3875</v>
@@ -63544,15 +63590,15 @@
         <v>1353</v>
       </c>
       <c r="M1624" t="s">
-        <v>4037</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="1625" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1625">
-        <v>1764</v>
+        <v>1766</v>
       </c>
       <c r="B1625" t="s">
-        <v>4038</v>
+        <v>4041</v>
       </c>
       <c r="C1625" t="s">
         <v>3875</v>
@@ -63567,15 +63613,15 @@
         <v>1353</v>
       </c>
       <c r="M1625" t="s">
-        <v>4551</v>
+        <v>4042</v>
       </c>
     </row>
     <row r="1626" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1626">
-        <v>1765</v>
+        <v>1767</v>
       </c>
       <c r="B1626" t="s">
-        <v>4039</v>
+        <v>4043</v>
       </c>
       <c r="C1626" t="s">
         <v>3875</v>
@@ -63590,15 +63636,15 @@
         <v>1353</v>
       </c>
       <c r="M1626" t="s">
-        <v>4040</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="1627" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1627">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="B1627" t="s">
-        <v>4041</v>
+        <v>4044</v>
       </c>
       <c r="C1627" t="s">
         <v>3875</v>
@@ -63613,15 +63659,15 @@
         <v>1353</v>
       </c>
       <c r="M1627" t="s">
-        <v>4042</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="1628" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1628">
-        <v>1767</v>
+        <v>1769</v>
       </c>
       <c r="B1628" t="s">
-        <v>4043</v>
+        <v>4046</v>
       </c>
       <c r="C1628" t="s">
         <v>3875</v>
@@ -63636,15 +63682,15 @@
         <v>1353</v>
       </c>
       <c r="M1628" t="s">
-        <v>4552</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="1629" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1629">
-        <v>1768</v>
+        <v>1770</v>
       </c>
       <c r="B1629" t="s">
-        <v>4044</v>
+        <v>4047</v>
       </c>
       <c r="C1629" t="s">
         <v>3875</v>
@@ -63659,15 +63705,15 @@
         <v>1353</v>
       </c>
       <c r="M1629" t="s">
-        <v>4045</v>
+        <v>4048</v>
       </c>
     </row>
     <row r="1630" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1630">
-        <v>1769</v>
+        <v>1771</v>
       </c>
       <c r="B1630" t="s">
-        <v>4046</v>
+        <v>4049</v>
       </c>
       <c r="C1630" t="s">
         <v>3875</v>
@@ -63682,15 +63728,15 @@
         <v>1353</v>
       </c>
       <c r="M1630" t="s">
-        <v>4553</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="1631" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1631">
-        <v>1770</v>
+        <v>1772</v>
       </c>
       <c r="B1631" t="s">
-        <v>4047</v>
+        <v>4051</v>
       </c>
       <c r="C1631" t="s">
         <v>3875</v>
@@ -63705,15 +63751,15 @@
         <v>1353</v>
       </c>
       <c r="M1631" t="s">
-        <v>4048</v>
+        <v>4052</v>
       </c>
     </row>
     <row r="1632" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1632">
-        <v>1771</v>
+        <v>1773</v>
       </c>
       <c r="B1632" t="s">
-        <v>4049</v>
+        <v>4053</v>
       </c>
       <c r="C1632" t="s">
         <v>3875</v>
@@ -63728,15 +63774,15 @@
         <v>1353</v>
       </c>
       <c r="M1632" t="s">
-        <v>4050</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="1633" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1633">
-        <v>1772</v>
+        <v>1774</v>
       </c>
       <c r="B1633" t="s">
-        <v>4051</v>
+        <v>4054</v>
       </c>
       <c r="C1633" t="s">
         <v>3875</v>
@@ -63751,15 +63797,15 @@
         <v>1353</v>
       </c>
       <c r="M1633" t="s">
-        <v>4052</v>
+        <v>4555</v>
       </c>
     </row>
     <row r="1634" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1634">
-        <v>1773</v>
+        <v>1775</v>
       </c>
       <c r="B1634" t="s">
-        <v>4053</v>
+        <v>4055</v>
       </c>
       <c r="C1634" t="s">
         <v>3875</v>
@@ -63774,15 +63820,15 @@
         <v>1353</v>
       </c>
       <c r="M1634" t="s">
-        <v>4554</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="1635" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1635">
-        <v>1774</v>
+        <v>1776</v>
       </c>
       <c r="B1635" t="s">
-        <v>4054</v>
+        <v>4056</v>
       </c>
       <c r="C1635" t="s">
         <v>3875</v>
@@ -63797,15 +63843,15 @@
         <v>1353</v>
       </c>
       <c r="M1635" t="s">
-        <v>4555</v>
+        <v>4557</v>
       </c>
     </row>
     <row r="1636" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1636">
-        <v>1775</v>
+        <v>1777</v>
       </c>
       <c r="B1636" t="s">
-        <v>4055</v>
+        <v>4057</v>
       </c>
       <c r="C1636" t="s">
         <v>3875</v>
@@ -63820,15 +63866,15 @@
         <v>1353</v>
       </c>
       <c r="M1636" t="s">
-        <v>4556</v>
+        <v>4558</v>
       </c>
     </row>
     <row r="1637" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1637">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="B1637" t="s">
-        <v>4056</v>
+        <v>4058</v>
       </c>
       <c r="C1637" t="s">
         <v>3875</v>
@@ -63843,15 +63889,15 @@
         <v>1353</v>
       </c>
       <c r="M1637" t="s">
-        <v>4557</v>
+        <v>4059</v>
       </c>
     </row>
     <row r="1638" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1638">
-        <v>1777</v>
+        <v>1779</v>
       </c>
       <c r="B1638" t="s">
-        <v>4057</v>
+        <v>4060</v>
       </c>
       <c r="C1638" t="s">
         <v>3875</v>
@@ -63866,15 +63912,15 @@
         <v>1353</v>
       </c>
       <c r="M1638" t="s">
-        <v>4558</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="1639" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1639">
-        <v>1778</v>
+        <v>1780</v>
       </c>
       <c r="B1639" t="s">
-        <v>4058</v>
+        <v>4061</v>
       </c>
       <c r="C1639" t="s">
         <v>3875</v>
@@ -63889,57 +63935,11 @@
         <v>1353</v>
       </c>
       <c r="M1639" t="s">
-        <v>4059</v>
-      </c>
-    </row>
-    <row r="1640" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1640">
-        <v>1779</v>
-      </c>
-      <c r="B1640" t="s">
-        <v>4060</v>
-      </c>
-      <c r="C1640" t="s">
-        <v>3875</v>
-      </c>
-      <c r="D1640">
-        <v>68000</v>
-      </c>
-      <c r="E1640" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1640" t="s">
-        <v>1353</v>
-      </c>
-      <c r="M1640" t="s">
-        <v>4559</v>
-      </c>
-    </row>
-    <row r="1641" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1641">
-        <v>1780</v>
-      </c>
-      <c r="B1641" t="s">
-        <v>4061</v>
-      </c>
-      <c r="C1641" t="s">
-        <v>3875</v>
-      </c>
-      <c r="D1641">
-        <v>68000</v>
-      </c>
-      <c r="E1641" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1641" t="s">
-        <v>1353</v>
-      </c>
-      <c r="M1641" t="s">
         <v>4062</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1641"/>
+  <autoFilter ref="A1:M1639"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/0.36/compatibility.xlsx
+++ b/0.36/compatibility.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Playable (untested)" sheetId="4" r:id="rId1"/>
@@ -17,8 +17,8 @@
     <sheet name="GAME_NOT_WORKING FLAG" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ALL!$A$1:$M$1633</definedName>
-    <definedName name="LIST" localSheetId="1">ALL!$B$1:$M$1633</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ALL!$A$1:$M$1628</definedName>
+    <definedName name="LIST" localSheetId="1">ALL!$B$1:$M$1628</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -14084,10 +14084,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P408"/>
+  <dimension ref="A1:P413"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A393" workbookViewId="0">
-      <selection activeCell="O422" sqref="O422"/>
+    <sheetView topLeftCell="A393" workbookViewId="0">
+      <selection activeCell="A414" sqref="A414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23639,6 +23639,121 @@
         <v>4567</v>
       </c>
     </row>
+    <row r="409" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A409">
+        <v>409</v>
+      </c>
+      <c r="B409" t="s">
+        <v>3757</v>
+      </c>
+      <c r="C409" t="s">
+        <v>3758</v>
+      </c>
+      <c r="D409" t="s">
+        <v>14</v>
+      </c>
+      <c r="E409" t="s">
+        <v>725</v>
+      </c>
+      <c r="H409" t="s">
+        <v>166</v>
+      </c>
+      <c r="M409" t="s">
+        <v>4490</v>
+      </c>
+    </row>
+    <row r="410" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A410">
+        <v>410</v>
+      </c>
+      <c r="B410" t="s">
+        <v>3759</v>
+      </c>
+      <c r="C410" t="s">
+        <v>3758</v>
+      </c>
+      <c r="D410" t="s">
+        <v>14</v>
+      </c>
+      <c r="E410" t="s">
+        <v>725</v>
+      </c>
+      <c r="H410" t="s">
+        <v>166</v>
+      </c>
+      <c r="M410" t="s">
+        <v>3760</v>
+      </c>
+    </row>
+    <row r="411" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A411">
+        <v>411</v>
+      </c>
+      <c r="B411" t="s">
+        <v>3761</v>
+      </c>
+      <c r="C411" t="s">
+        <v>3758</v>
+      </c>
+      <c r="D411" t="s">
+        <v>14</v>
+      </c>
+      <c r="E411" t="s">
+        <v>725</v>
+      </c>
+      <c r="H411" t="s">
+        <v>166</v>
+      </c>
+      <c r="M411" t="s">
+        <v>3762</v>
+      </c>
+    </row>
+    <row r="412" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A412">
+        <v>412</v>
+      </c>
+      <c r="B412" t="s">
+        <v>3763</v>
+      </c>
+      <c r="C412" t="s">
+        <v>3758</v>
+      </c>
+      <c r="D412" t="s">
+        <v>14</v>
+      </c>
+      <c r="E412" t="s">
+        <v>725</v>
+      </c>
+      <c r="H412" t="s">
+        <v>166</v>
+      </c>
+      <c r="M412" t="s">
+        <v>3764</v>
+      </c>
+    </row>
+    <row r="413" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A413">
+        <v>413</v>
+      </c>
+      <c r="B413" t="s">
+        <v>3765</v>
+      </c>
+      <c r="C413" t="s">
+        <v>3758</v>
+      </c>
+      <c r="D413" t="s">
+        <v>14</v>
+      </c>
+      <c r="E413" t="s">
+        <v>725</v>
+      </c>
+      <c r="H413" t="s">
+        <v>166</v>
+      </c>
+      <c r="M413" t="s">
+        <v>3766</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23647,10 +23762,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1633"/>
+  <dimension ref="A1:M1628"/>
   <sheetViews>
-    <sheetView topLeftCell="A1613" workbookViewId="0">
-      <selection activeCell="A962" sqref="A962:XFD964"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E695" sqref="E695"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -60318,666 +60433,657 @@
     </row>
     <row r="1476" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1476">
-        <v>1612</v>
+        <v>1617</v>
       </c>
       <c r="B1476" t="s">
-        <v>3757</v>
+        <v>3774</v>
       </c>
       <c r="C1476" t="s">
-        <v>3758</v>
+        <v>3775</v>
       </c>
       <c r="D1476" t="s">
         <v>14</v>
       </c>
       <c r="E1476" t="s">
-        <v>725</v>
+        <v>154</v>
       </c>
       <c r="H1476" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M1476" t="s">
-        <v>4490</v>
+        <v>3776</v>
       </c>
     </row>
     <row r="1477" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1477">
-        <v>1613</v>
+        <v>1618</v>
       </c>
       <c r="B1477" t="s">
-        <v>3759</v>
+        <v>3777</v>
       </c>
       <c r="C1477" t="s">
-        <v>3758</v>
+        <v>3778</v>
       </c>
       <c r="D1477" t="s">
         <v>14</v>
       </c>
-      <c r="E1477" t="s">
-        <v>725</v>
-      </c>
       <c r="H1477" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M1477" t="s">
-        <v>3760</v>
+        <v>3779</v>
       </c>
     </row>
     <row r="1478" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1478">
-        <v>1614</v>
+        <v>1619</v>
       </c>
       <c r="B1478" t="s">
-        <v>3761</v>
+        <v>3780</v>
       </c>
       <c r="C1478" t="s">
-        <v>3758</v>
+        <v>3778</v>
       </c>
       <c r="D1478" t="s">
         <v>14</v>
       </c>
-      <c r="E1478" t="s">
-        <v>725</v>
-      </c>
       <c r="H1478" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M1478" t="s">
-        <v>3762</v>
+        <v>3781</v>
       </c>
     </row>
     <row r="1479" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1479">
-        <v>1615</v>
+        <v>1624</v>
       </c>
       <c r="B1479" t="s">
-        <v>3763</v>
+        <v>3791</v>
       </c>
       <c r="C1479" t="s">
-        <v>3758</v>
+        <v>3792</v>
       </c>
       <c r="D1479" t="s">
-        <v>14</v>
+        <v>405</v>
       </c>
       <c r="E1479" t="s">
-        <v>725</v>
+        <v>1184</v>
       </c>
       <c r="H1479" t="s">
-        <v>166</v>
+        <v>71</v>
       </c>
       <c r="M1479" t="s">
-        <v>3764</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="1480" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1480">
-        <v>1616</v>
+        <v>1625</v>
       </c>
       <c r="B1480" t="s">
-        <v>3765</v>
+        <v>3794</v>
       </c>
       <c r="C1480" t="s">
-        <v>3758</v>
+        <v>3792</v>
       </c>
       <c r="D1480" t="s">
-        <v>14</v>
+        <v>405</v>
       </c>
       <c r="E1480" t="s">
-        <v>725</v>
+        <v>1184</v>
       </c>
       <c r="H1480" t="s">
-        <v>166</v>
+        <v>71</v>
       </c>
       <c r="M1480" t="s">
-        <v>3766</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="1481" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1481">
-        <v>1617</v>
+        <v>1626</v>
       </c>
       <c r="B1481" t="s">
-        <v>3774</v>
+        <v>3799</v>
       </c>
       <c r="C1481" t="s">
-        <v>3775</v>
+        <v>3800</v>
       </c>
       <c r="D1481" t="s">
-        <v>14</v>
+        <v>405</v>
       </c>
       <c r="E1481" t="s">
-        <v>154</v>
+        <v>1184</v>
+      </c>
+      <c r="F1481" t="s">
+        <v>3801</v>
       </c>
       <c r="H1481" t="s">
-        <v>172</v>
+        <v>71</v>
       </c>
       <c r="M1481" t="s">
-        <v>3776</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="1482" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1482">
-        <v>1618</v>
+        <v>1627</v>
       </c>
       <c r="B1482" t="s">
-        <v>3777</v>
+        <v>3803</v>
       </c>
       <c r="C1482" t="s">
-        <v>3778</v>
+        <v>3804</v>
       </c>
       <c r="D1482" t="s">
-        <v>14</v>
+        <v>473</v>
       </c>
       <c r="H1482" t="s">
-        <v>172</v>
+        <v>2936</v>
       </c>
       <c r="M1482" t="s">
-        <v>3779</v>
+        <v>3805</v>
       </c>
     </row>
     <row r="1483" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1483">
-        <v>1619</v>
+        <v>1628</v>
       </c>
       <c r="B1483" t="s">
-        <v>3780</v>
+        <v>3806</v>
       </c>
       <c r="C1483" t="s">
-        <v>3778</v>
+        <v>3807</v>
       </c>
       <c r="D1483" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1483" t="s">
-        <v>172</v>
+        <v>473</v>
       </c>
       <c r="M1483" t="s">
-        <v>3781</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="1484" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1484">
-        <v>1624</v>
+        <v>1629</v>
       </c>
       <c r="B1484" t="s">
-        <v>3791</v>
+        <v>3809</v>
       </c>
       <c r="C1484" t="s">
-        <v>3792</v>
+        <v>3807</v>
       </c>
       <c r="D1484" t="s">
-        <v>405</v>
-      </c>
-      <c r="E1484" t="s">
-        <v>1184</v>
-      </c>
-      <c r="H1484" t="s">
-        <v>71</v>
+        <v>473</v>
       </c>
       <c r="M1484" t="s">
-        <v>3793</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="1485" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1485">
-        <v>1625</v>
+        <v>1630</v>
       </c>
       <c r="B1485" t="s">
-        <v>3794</v>
+        <v>3811</v>
       </c>
       <c r="C1485" t="s">
-        <v>3792</v>
-      </c>
-      <c r="D1485" t="s">
-        <v>405</v>
-      </c>
-      <c r="E1485" t="s">
-        <v>1184</v>
-      </c>
-      <c r="H1485" t="s">
-        <v>71</v>
+        <v>3812</v>
+      </c>
+      <c r="D1485">
+        <v>8080</v>
       </c>
       <c r="M1485" t="s">
-        <v>3795</v>
+        <v>3813</v>
       </c>
     </row>
     <row r="1486" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1486">
-        <v>1626</v>
+        <v>1631</v>
       </c>
       <c r="B1486" t="s">
-        <v>3799</v>
+        <v>3814</v>
       </c>
       <c r="C1486" t="s">
-        <v>3800</v>
+        <v>3815</v>
       </c>
       <c r="D1486" t="s">
-        <v>405</v>
+        <v>3436</v>
       </c>
       <c r="E1486" t="s">
+        <v>3436</v>
+      </c>
+      <c r="F1486" t="s">
         <v>1184</v>
       </c>
-      <c r="F1486" t="s">
-        <v>3801</v>
+      <c r="G1486" t="s">
+        <v>1184</v>
       </c>
       <c r="H1486" t="s">
-        <v>71</v>
+        <v>333</v>
+      </c>
+      <c r="I1486" t="s">
+        <v>551</v>
       </c>
       <c r="M1486" t="s">
-        <v>3802</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="1487" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1487">
-        <v>1627</v>
+        <v>1632</v>
       </c>
       <c r="B1487" t="s">
-        <v>3803</v>
+        <v>3817</v>
       </c>
       <c r="C1487" t="s">
-        <v>3804</v>
+        <v>3818</v>
       </c>
       <c r="D1487" t="s">
-        <v>473</v>
+        <v>14</v>
       </c>
       <c r="H1487" t="s">
-        <v>2936</v>
+        <v>172</v>
       </c>
       <c r="M1487" t="s">
-        <v>3805</v>
+        <v>3819</v>
       </c>
     </row>
     <row r="1488" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1488">
-        <v>1628</v>
+        <v>1633</v>
       </c>
       <c r="B1488" t="s">
-        <v>3806</v>
+        <v>3820</v>
       </c>
       <c r="C1488" t="s">
-        <v>3807</v>
+        <v>3821</v>
       </c>
       <c r="D1488" t="s">
-        <v>473</v>
+        <v>14</v>
+      </c>
+      <c r="E1488" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1488" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1488" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1488" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1488" t="s">
+        <v>166</v>
       </c>
       <c r="M1488" t="s">
-        <v>3808</v>
+        <v>3822</v>
       </c>
     </row>
     <row r="1489" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1489">
-        <v>1629</v>
+        <v>1634</v>
       </c>
       <c r="B1489" t="s">
-        <v>3809</v>
+        <v>3823</v>
       </c>
       <c r="C1489" t="s">
-        <v>3807</v>
+        <v>3821</v>
       </c>
       <c r="D1489" t="s">
-        <v>473</v>
+        <v>14</v>
+      </c>
+      <c r="E1489" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1489" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1489" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1489" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1489" t="s">
+        <v>166</v>
       </c>
       <c r="M1489" t="s">
-        <v>3810</v>
+        <v>3824</v>
       </c>
     </row>
     <row r="1490" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1490">
-        <v>1630</v>
+        <v>1635</v>
       </c>
       <c r="B1490" t="s">
-        <v>3811</v>
+        <v>3825</v>
       </c>
       <c r="C1490" t="s">
-        <v>3812</v>
-      </c>
-      <c r="D1490">
-        <v>8080</v>
+        <v>3821</v>
+      </c>
+      <c r="D1490" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1490" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1490" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1490" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1490" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1490" t="s">
+        <v>166</v>
       </c>
       <c r="M1490" t="s">
-        <v>3813</v>
+        <v>3826</v>
       </c>
     </row>
     <row r="1491" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1491">
-        <v>1631</v>
+        <v>1636</v>
       </c>
       <c r="B1491" t="s">
-        <v>3814</v>
+        <v>3827</v>
       </c>
       <c r="C1491" t="s">
-        <v>3815</v>
+        <v>3821</v>
       </c>
       <c r="D1491" t="s">
-        <v>3436</v>
+        <v>14</v>
       </c>
       <c r="E1491" t="s">
-        <v>3436</v>
+        <v>14</v>
       </c>
       <c r="F1491" t="s">
-        <v>1184</v>
+        <v>14</v>
       </c>
       <c r="G1491" t="s">
-        <v>1184</v>
+        <v>154</v>
       </c>
       <c r="H1491" t="s">
-        <v>333</v>
+        <v>71</v>
       </c>
       <c r="I1491" t="s">
-        <v>551</v>
+        <v>166</v>
       </c>
       <c r="M1491" t="s">
-        <v>3816</v>
+        <v>3828</v>
       </c>
     </row>
     <row r="1492" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1492">
-        <v>1632</v>
+        <v>1637</v>
       </c>
       <c r="B1492" t="s">
-        <v>3817</v>
+        <v>3829</v>
       </c>
       <c r="C1492" t="s">
-        <v>3818</v>
-      </c>
-      <c r="D1492" t="s">
-        <v>14</v>
+        <v>3830</v>
+      </c>
+      <c r="D1492">
+        <v>68000</v>
+      </c>
+      <c r="E1492" t="s">
+        <v>154</v>
       </c>
       <c r="H1492" t="s">
-        <v>172</v>
+        <v>1492</v>
       </c>
       <c r="M1492" t="s">
-        <v>3819</v>
+        <v>3831</v>
       </c>
     </row>
     <row r="1493" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1493">
-        <v>1633</v>
+        <v>1645</v>
       </c>
       <c r="B1493" t="s">
-        <v>3820</v>
+        <v>3848</v>
       </c>
       <c r="C1493" t="s">
-        <v>3821</v>
-      </c>
-      <c r="D1493" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1493" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1493" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1493" t="s">
-        <v>154</v>
+        <v>3849</v>
+      </c>
+      <c r="D1493">
+        <v>8080</v>
       </c>
       <c r="H1493" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1493" t="s">
-        <v>166</v>
+        <v>406</v>
       </c>
       <c r="M1493" t="s">
-        <v>3822</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="1494" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1494">
-        <v>1634</v>
+        <v>1646</v>
       </c>
       <c r="B1494" t="s">
-        <v>3823</v>
+        <v>3851</v>
       </c>
       <c r="C1494" t="s">
-        <v>3821</v>
+        <v>3852</v>
       </c>
       <c r="D1494" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1494" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1494" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1494" t="s">
-        <v>154</v>
+        <v>1105</v>
       </c>
       <c r="H1494" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1494" t="s">
-        <v>166</v>
+        <v>336</v>
       </c>
       <c r="M1494" t="s">
-        <v>3824</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="1495" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1495">
-        <v>1635</v>
+        <v>1647</v>
       </c>
       <c r="B1495" t="s">
-        <v>3825</v>
+        <v>3854</v>
       </c>
       <c r="C1495" t="s">
-        <v>3821</v>
+        <v>3855</v>
       </c>
       <c r="D1495" t="s">
         <v>14</v>
       </c>
       <c r="E1495" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1495" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1495" t="s">
         <v>154</v>
       </c>
       <c r="H1495" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1495" t="s">
-        <v>166</v>
+        <v>336</v>
       </c>
       <c r="M1495" t="s">
-        <v>3826</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="1496" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1496">
-        <v>1636</v>
+        <v>1648</v>
       </c>
       <c r="B1496" t="s">
-        <v>3827</v>
+        <v>3857</v>
       </c>
       <c r="C1496" t="s">
-        <v>3821</v>
+        <v>3855</v>
       </c>
       <c r="D1496" t="s">
         <v>14</v>
       </c>
       <c r="E1496" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1496" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1496" t="s">
         <v>154</v>
       </c>
       <c r="H1496" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1496" t="s">
-        <v>166</v>
+        <v>336</v>
       </c>
       <c r="M1496" t="s">
-        <v>3828</v>
+        <v>3858</v>
       </c>
     </row>
     <row r="1497" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1497">
-        <v>1637</v>
+        <v>1649</v>
       </c>
       <c r="B1497" t="s">
-        <v>3829</v>
+        <v>3859</v>
       </c>
       <c r="C1497" t="s">
-        <v>3830</v>
-      </c>
-      <c r="D1497">
-        <v>68000</v>
+        <v>3860</v>
+      </c>
+      <c r="D1497" t="s">
+        <v>3861</v>
       </c>
       <c r="E1497" t="s">
-        <v>154</v>
+        <v>725</v>
       </c>
       <c r="H1497" t="s">
-        <v>1492</v>
+        <v>2070</v>
       </c>
       <c r="M1497" t="s">
-        <v>3831</v>
+        <v>3862</v>
       </c>
     </row>
     <row r="1498" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1498">
-        <v>1645</v>
+        <v>1650</v>
       </c>
       <c r="B1498" t="s">
-        <v>3848</v>
+        <v>3863</v>
       </c>
       <c r="C1498" t="s">
-        <v>3849</v>
+        <v>3864</v>
       </c>
       <c r="D1498">
-        <v>8080</v>
+        <v>68000</v>
       </c>
       <c r="H1498" t="s">
-        <v>406</v>
+        <v>2375</v>
       </c>
       <c r="M1498" t="s">
-        <v>3850</v>
+        <v>3865</v>
       </c>
     </row>
     <row r="1499" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1499">
-        <v>1646</v>
+        <v>1651</v>
       </c>
       <c r="B1499" t="s">
-        <v>3851</v>
+        <v>3866</v>
       </c>
       <c r="C1499" t="s">
-        <v>3852</v>
-      </c>
-      <c r="D1499" t="s">
-        <v>1105</v>
+        <v>3867</v>
+      </c>
+      <c r="D1499">
+        <v>68000</v>
+      </c>
+      <c r="E1499" t="s">
+        <v>154</v>
       </c>
       <c r="H1499" t="s">
-        <v>336</v>
+        <v>1236</v>
       </c>
       <c r="M1499" t="s">
-        <v>3853</v>
+        <v>3868</v>
       </c>
     </row>
     <row r="1500" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1500">
-        <v>1647</v>
+        <v>1652</v>
       </c>
       <c r="B1500" t="s">
-        <v>3854</v>
+        <v>3869</v>
       </c>
       <c r="C1500" t="s">
-        <v>3855</v>
+        <v>3870</v>
       </c>
       <c r="D1500" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1500" t="s">
-        <v>154</v>
+        <v>405</v>
       </c>
       <c r="H1500" t="s">
-        <v>336</v>
+        <v>71</v>
       </c>
       <c r="M1500" t="s">
-        <v>3856</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="1501" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1501">
-        <v>1648</v>
+        <v>1653</v>
       </c>
       <c r="B1501" t="s">
-        <v>3857</v>
+        <v>3872</v>
       </c>
       <c r="C1501" t="s">
-        <v>3855</v>
+        <v>3873</v>
       </c>
       <c r="D1501" t="s">
         <v>14</v>
       </c>
-      <c r="E1501" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1501" t="s">
-        <v>336</v>
-      </c>
       <c r="M1501" t="s">
-        <v>3858</v>
+        <v>4493</v>
       </c>
     </row>
     <row r="1502" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1502">
-        <v>1649</v>
+        <v>1654</v>
       </c>
       <c r="B1502" t="s">
-        <v>3859</v>
+        <v>3874</v>
       </c>
       <c r="C1502" t="s">
-        <v>3860</v>
-      </c>
-      <c r="D1502" t="s">
-        <v>3861</v>
+        <v>3875</v>
+      </c>
+      <c r="D1502">
+        <v>68000</v>
       </c>
       <c r="E1502" t="s">
-        <v>725</v>
+        <v>154</v>
       </c>
       <c r="H1502" t="s">
-        <v>2070</v>
+        <v>1353</v>
       </c>
       <c r="M1502" t="s">
-        <v>3862</v>
+        <v>3876</v>
       </c>
     </row>
     <row r="1503" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1503">
-        <v>1650</v>
+        <v>1655</v>
       </c>
       <c r="B1503" t="s">
-        <v>3863</v>
+        <v>3877</v>
       </c>
       <c r="C1503" t="s">
-        <v>3864</v>
+        <v>3875</v>
       </c>
       <c r="D1503">
         <v>68000</v>
       </c>
+      <c r="E1503" t="s">
+        <v>154</v>
+      </c>
       <c r="H1503" t="s">
-        <v>2375</v>
+        <v>1353</v>
       </c>
       <c r="M1503" t="s">
-        <v>3865</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="1504" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1504">
-        <v>1651</v>
+        <v>1656</v>
       </c>
       <c r="B1504" t="s">
-        <v>3866</v>
+        <v>3878</v>
       </c>
       <c r="C1504" t="s">
-        <v>3867</v>
+        <v>3875</v>
       </c>
       <c r="D1504">
         <v>68000</v>
@@ -60986,55 +61092,64 @@
         <v>154</v>
       </c>
       <c r="H1504" t="s">
-        <v>1236</v>
+        <v>1353</v>
       </c>
       <c r="M1504" t="s">
-        <v>3868</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="1505" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1505">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="B1505" t="s">
-        <v>3869</v>
+        <v>3880</v>
       </c>
       <c r="C1505" t="s">
-        <v>3870</v>
-      </c>
-      <c r="D1505" t="s">
-        <v>405</v>
+        <v>3875</v>
+      </c>
+      <c r="D1505">
+        <v>68000</v>
+      </c>
+      <c r="E1505" t="s">
+        <v>154</v>
       </c>
       <c r="H1505" t="s">
-        <v>71</v>
+        <v>1353</v>
       </c>
       <c r="M1505" t="s">
-        <v>3871</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="1506" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1506">
-        <v>1653</v>
+        <v>1658</v>
       </c>
       <c r="B1506" t="s">
-        <v>3872</v>
+        <v>3882</v>
       </c>
       <c r="C1506" t="s">
-        <v>3873</v>
-      </c>
-      <c r="D1506" t="s">
-        <v>14</v>
+        <v>3875</v>
+      </c>
+      <c r="D1506">
+        <v>68000</v>
+      </c>
+      <c r="E1506" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1506" t="s">
+        <v>1353</v>
       </c>
       <c r="M1506" t="s">
-        <v>4493</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="1507" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1507">
-        <v>1654</v>
+        <v>1659</v>
       </c>
       <c r="B1507" t="s">
-        <v>3874</v>
+        <v>3884</v>
       </c>
       <c r="C1507" t="s">
         <v>3875</v>
@@ -61049,15 +61164,15 @@
         <v>1353</v>
       </c>
       <c r="M1507" t="s">
-        <v>3876</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="1508" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1508">
-        <v>1655</v>
+        <v>1660</v>
       </c>
       <c r="B1508" t="s">
-        <v>3877</v>
+        <v>3886</v>
       </c>
       <c r="C1508" t="s">
         <v>3875</v>
@@ -61072,15 +61187,15 @@
         <v>1353</v>
       </c>
       <c r="M1508" t="s">
-        <v>4494</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="1509" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1509">
-        <v>1656</v>
+        <v>1661</v>
       </c>
       <c r="B1509" t="s">
-        <v>3878</v>
+        <v>3888</v>
       </c>
       <c r="C1509" t="s">
         <v>3875</v>
@@ -61095,15 +61210,15 @@
         <v>1353</v>
       </c>
       <c r="M1509" t="s">
-        <v>3879</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="1510" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1510">
-        <v>1657</v>
+        <v>1662</v>
       </c>
       <c r="B1510" t="s">
-        <v>3880</v>
+        <v>3889</v>
       </c>
       <c r="C1510" t="s">
         <v>3875</v>
@@ -61118,15 +61233,15 @@
         <v>1353</v>
       </c>
       <c r="M1510" t="s">
-        <v>3881</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="1511" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1511">
-        <v>1658</v>
+        <v>1663</v>
       </c>
       <c r="B1511" t="s">
-        <v>3882</v>
+        <v>3891</v>
       </c>
       <c r="C1511" t="s">
         <v>3875</v>
@@ -61141,15 +61256,15 @@
         <v>1353</v>
       </c>
       <c r="M1511" t="s">
-        <v>3883</v>
+        <v>3892</v>
       </c>
     </row>
     <row r="1512" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1512">
-        <v>1659</v>
+        <v>1664</v>
       </c>
       <c r="B1512" t="s">
-        <v>3884</v>
+        <v>3893</v>
       </c>
       <c r="C1512" t="s">
         <v>3875</v>
@@ -61164,15 +61279,15 @@
         <v>1353</v>
       </c>
       <c r="M1512" t="s">
-        <v>3885</v>
+        <v>3894</v>
       </c>
     </row>
     <row r="1513" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1513">
-        <v>1660</v>
+        <v>1665</v>
       </c>
       <c r="B1513" t="s">
-        <v>3886</v>
+        <v>3895</v>
       </c>
       <c r="C1513" t="s">
         <v>3875</v>
@@ -61187,15 +61302,15 @@
         <v>1353</v>
       </c>
       <c r="M1513" t="s">
-        <v>3887</v>
+        <v>3896</v>
       </c>
     </row>
     <row r="1514" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1514">
-        <v>1661</v>
+        <v>1666</v>
       </c>
       <c r="B1514" t="s">
-        <v>3888</v>
+        <v>3897</v>
       </c>
       <c r="C1514" t="s">
         <v>3875</v>
@@ -61210,15 +61325,15 @@
         <v>1353</v>
       </c>
       <c r="M1514" t="s">
-        <v>4495</v>
+        <v>3898</v>
       </c>
     </row>
     <row r="1515" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1515">
-        <v>1662</v>
+        <v>1667</v>
       </c>
       <c r="B1515" t="s">
-        <v>3889</v>
+        <v>3899</v>
       </c>
       <c r="C1515" t="s">
         <v>3875</v>
@@ -61233,15 +61348,15 @@
         <v>1353</v>
       </c>
       <c r="M1515" t="s">
-        <v>3890</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="1516" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1516">
-        <v>1663</v>
+        <v>1668</v>
       </c>
       <c r="B1516" t="s">
-        <v>3891</v>
+        <v>3900</v>
       </c>
       <c r="C1516" t="s">
         <v>3875</v>
@@ -61256,15 +61371,15 @@
         <v>1353</v>
       </c>
       <c r="M1516" t="s">
-        <v>3892</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="1517" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1517">
-        <v>1664</v>
+        <v>1669</v>
       </c>
       <c r="B1517" t="s">
-        <v>3893</v>
+        <v>3901</v>
       </c>
       <c r="C1517" t="s">
         <v>3875</v>
@@ -61279,15 +61394,15 @@
         <v>1353</v>
       </c>
       <c r="M1517" t="s">
-        <v>3894</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="1518" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1518">
-        <v>1665</v>
+        <v>1670</v>
       </c>
       <c r="B1518" t="s">
-        <v>3895</v>
+        <v>3903</v>
       </c>
       <c r="C1518" t="s">
         <v>3875</v>
@@ -61302,15 +61417,15 @@
         <v>1353</v>
       </c>
       <c r="M1518" t="s">
-        <v>3896</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="1519" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1519">
-        <v>1666</v>
+        <v>1671</v>
       </c>
       <c r="B1519" t="s">
-        <v>3897</v>
+        <v>3905</v>
       </c>
       <c r="C1519" t="s">
         <v>3875</v>
@@ -61325,15 +61440,15 @@
         <v>1353</v>
       </c>
       <c r="M1519" t="s">
-        <v>3898</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="1520" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1520">
-        <v>1667</v>
+        <v>1672</v>
       </c>
       <c r="B1520" t="s">
-        <v>3899</v>
+        <v>3907</v>
       </c>
       <c r="C1520" t="s">
         <v>3875</v>
@@ -61348,15 +61463,15 @@
         <v>1353</v>
       </c>
       <c r="M1520" t="s">
-        <v>4496</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="1521" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1521">
-        <v>1668</v>
+        <v>1673</v>
       </c>
       <c r="B1521" t="s">
-        <v>3900</v>
+        <v>3909</v>
       </c>
       <c r="C1521" t="s">
         <v>3875</v>
@@ -61371,15 +61486,15 @@
         <v>1353</v>
       </c>
       <c r="M1521" t="s">
-        <v>4497</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="1522" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1522">
-        <v>1669</v>
+        <v>1674</v>
       </c>
       <c r="B1522" t="s">
-        <v>3901</v>
+        <v>3911</v>
       </c>
       <c r="C1522" t="s">
         <v>3875</v>
@@ -61394,15 +61509,15 @@
         <v>1353</v>
       </c>
       <c r="M1522" t="s">
-        <v>3902</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="1523" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1523">
-        <v>1670</v>
+        <v>1675</v>
       </c>
       <c r="B1523" t="s">
-        <v>3903</v>
+        <v>3913</v>
       </c>
       <c r="C1523" t="s">
         <v>3875</v>
@@ -61417,15 +61532,15 @@
         <v>1353</v>
       </c>
       <c r="M1523" t="s">
-        <v>3904</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="1524" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1524">
-        <v>1671</v>
+        <v>1676</v>
       </c>
       <c r="B1524" t="s">
-        <v>3905</v>
+        <v>3914</v>
       </c>
       <c r="C1524" t="s">
         <v>3875</v>
@@ -61440,15 +61555,15 @@
         <v>1353</v>
       </c>
       <c r="M1524" t="s">
-        <v>3906</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="1525" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1525">
-        <v>1672</v>
+        <v>1677</v>
       </c>
       <c r="B1525" t="s">
-        <v>3907</v>
+        <v>3916</v>
       </c>
       <c r="C1525" t="s">
         <v>3875</v>
@@ -61463,15 +61578,15 @@
         <v>1353</v>
       </c>
       <c r="M1525" t="s">
-        <v>3908</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="1526" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1526">
-        <v>1673</v>
+        <v>1678</v>
       </c>
       <c r="B1526" t="s">
-        <v>3909</v>
+        <v>3918</v>
       </c>
       <c r="C1526" t="s">
         <v>3875</v>
@@ -61486,15 +61601,15 @@
         <v>1353</v>
       </c>
       <c r="M1526" t="s">
-        <v>3910</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="1527" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1527">
-        <v>1674</v>
+        <v>1679</v>
       </c>
       <c r="B1527" t="s">
-        <v>3911</v>
+        <v>3920</v>
       </c>
       <c r="C1527" t="s">
         <v>3875</v>
@@ -61509,15 +61624,15 @@
         <v>1353</v>
       </c>
       <c r="M1527" t="s">
-        <v>3912</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="1528" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1528">
-        <v>1675</v>
+        <v>1680</v>
       </c>
       <c r="B1528" t="s">
-        <v>3913</v>
+        <v>3921</v>
       </c>
       <c r="C1528" t="s">
         <v>3875</v>
@@ -61532,15 +61647,15 @@
         <v>1353</v>
       </c>
       <c r="M1528" t="s">
-        <v>4498</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="1529" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1529">
-        <v>1676</v>
+        <v>1681</v>
       </c>
       <c r="B1529" t="s">
-        <v>3914</v>
+        <v>3922</v>
       </c>
       <c r="C1529" t="s">
         <v>3875</v>
@@ -61555,15 +61670,15 @@
         <v>1353</v>
       </c>
       <c r="M1529" t="s">
-        <v>3915</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="1530" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1530">
-        <v>1677</v>
+        <v>1682</v>
       </c>
       <c r="B1530" t="s">
-        <v>3916</v>
+        <v>3923</v>
       </c>
       <c r="C1530" t="s">
         <v>3875</v>
@@ -61578,15 +61693,15 @@
         <v>1353</v>
       </c>
       <c r="M1530" t="s">
-        <v>3917</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="1531" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1531">
-        <v>1678</v>
+        <v>1683</v>
       </c>
       <c r="B1531" t="s">
-        <v>3918</v>
+        <v>3925</v>
       </c>
       <c r="C1531" t="s">
         <v>3875</v>
@@ -61601,15 +61716,15 @@
         <v>1353</v>
       </c>
       <c r="M1531" t="s">
-        <v>3919</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="1532" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1532">
-        <v>1679</v>
+        <v>1684</v>
       </c>
       <c r="B1532" t="s">
-        <v>3920</v>
+        <v>3927</v>
       </c>
       <c r="C1532" t="s">
         <v>3875</v>
@@ -61624,15 +61739,15 @@
         <v>1353</v>
       </c>
       <c r="M1532" t="s">
-        <v>4499</v>
+        <v>4502</v>
       </c>
     </row>
     <row r="1533" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1533">
-        <v>1680</v>
+        <v>1685</v>
       </c>
       <c r="B1533" t="s">
-        <v>3921</v>
+        <v>3928</v>
       </c>
       <c r="C1533" t="s">
         <v>3875</v>
@@ -61647,15 +61762,15 @@
         <v>1353</v>
       </c>
       <c r="M1533" t="s">
-        <v>4500</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="1534" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1534">
-        <v>1681</v>
+        <v>1686</v>
       </c>
       <c r="B1534" t="s">
-        <v>3922</v>
+        <v>3930</v>
       </c>
       <c r="C1534" t="s">
         <v>3875</v>
@@ -61670,15 +61785,15 @@
         <v>1353</v>
       </c>
       <c r="M1534" t="s">
-        <v>4501</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="1535" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1535">
-        <v>1682</v>
+        <v>1687</v>
       </c>
       <c r="B1535" t="s">
-        <v>3923</v>
+        <v>3931</v>
       </c>
       <c r="C1535" t="s">
         <v>3875</v>
@@ -61693,15 +61808,15 @@
         <v>1353</v>
       </c>
       <c r="M1535" t="s">
-        <v>3924</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="1536" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1536">
-        <v>1683</v>
+        <v>1688</v>
       </c>
       <c r="B1536" t="s">
-        <v>3925</v>
+        <v>3933</v>
       </c>
       <c r="C1536" t="s">
         <v>3875</v>
@@ -61716,15 +61831,15 @@
         <v>1353</v>
       </c>
       <c r="M1536" t="s">
-        <v>3926</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="1537" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1537">
-        <v>1684</v>
+        <v>1689</v>
       </c>
       <c r="B1537" t="s">
-        <v>3927</v>
+        <v>3935</v>
       </c>
       <c r="C1537" t="s">
         <v>3875</v>
@@ -61739,15 +61854,15 @@
         <v>1353</v>
       </c>
       <c r="M1537" t="s">
-        <v>4502</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="1538" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1538">
-        <v>1685</v>
+        <v>1690</v>
       </c>
       <c r="B1538" t="s">
-        <v>3928</v>
+        <v>3936</v>
       </c>
       <c r="C1538" t="s">
         <v>3875</v>
@@ -61762,15 +61877,15 @@
         <v>1353</v>
       </c>
       <c r="M1538" t="s">
-        <v>3929</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="1539" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1539">
-        <v>1686</v>
+        <v>1691</v>
       </c>
       <c r="B1539" t="s">
-        <v>3930</v>
+        <v>3937</v>
       </c>
       <c r="C1539" t="s">
         <v>3875</v>
@@ -61785,15 +61900,15 @@
         <v>1353</v>
       </c>
       <c r="M1539" t="s">
-        <v>4503</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="1540" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1540">
-        <v>1687</v>
+        <v>1692</v>
       </c>
       <c r="B1540" t="s">
-        <v>3931</v>
+        <v>3939</v>
       </c>
       <c r="C1540" t="s">
         <v>3875</v>
@@ -61808,15 +61923,15 @@
         <v>1353</v>
       </c>
       <c r="M1540" t="s">
-        <v>3932</v>
+        <v>4506</v>
       </c>
     </row>
     <row r="1541" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1541">
-        <v>1688</v>
+        <v>1693</v>
       </c>
       <c r="B1541" t="s">
-        <v>3933</v>
+        <v>3940</v>
       </c>
       <c r="C1541" t="s">
         <v>3875</v>
@@ -61831,15 +61946,15 @@
         <v>1353</v>
       </c>
       <c r="M1541" t="s">
-        <v>3934</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="1542" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1542">
-        <v>1689</v>
+        <v>1694</v>
       </c>
       <c r="B1542" t="s">
-        <v>3935</v>
+        <v>3941</v>
       </c>
       <c r="C1542" t="s">
         <v>3875</v>
@@ -61854,15 +61969,15 @@
         <v>1353</v>
       </c>
       <c r="M1542" t="s">
-        <v>4504</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="1543" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1543">
-        <v>1690</v>
+        <v>1695</v>
       </c>
       <c r="B1543" t="s">
-        <v>3936</v>
+        <v>3942</v>
       </c>
       <c r="C1543" t="s">
         <v>3875</v>
@@ -61877,15 +61992,15 @@
         <v>1353</v>
       </c>
       <c r="M1543" t="s">
-        <v>4505</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="1544" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1544">
-        <v>1691</v>
+        <v>1696</v>
       </c>
       <c r="B1544" t="s">
-        <v>3937</v>
+        <v>3943</v>
       </c>
       <c r="C1544" t="s">
         <v>3875</v>
@@ -61900,15 +62015,15 @@
         <v>1353</v>
       </c>
       <c r="M1544" t="s">
-        <v>3938</v>
+        <v>4510</v>
       </c>
     </row>
     <row r="1545" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1545">
-        <v>1692</v>
+        <v>1697</v>
       </c>
       <c r="B1545" t="s">
-        <v>3939</v>
+        <v>3944</v>
       </c>
       <c r="C1545" t="s">
         <v>3875</v>
@@ -61923,15 +62038,15 @@
         <v>1353</v>
       </c>
       <c r="M1545" t="s">
-        <v>4506</v>
+        <v>4511</v>
       </c>
     </row>
     <row r="1546" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1546">
-        <v>1693</v>
+        <v>1698</v>
       </c>
       <c r="B1546" t="s">
-        <v>3940</v>
+        <v>3945</v>
       </c>
       <c r="C1546" t="s">
         <v>3875</v>
@@ -61946,15 +62061,15 @@
         <v>1353</v>
       </c>
       <c r="M1546" t="s">
-        <v>4507</v>
+        <v>4512</v>
       </c>
     </row>
     <row r="1547" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1547">
-        <v>1694</v>
+        <v>1699</v>
       </c>
       <c r="B1547" t="s">
-        <v>3941</v>
+        <v>3946</v>
       </c>
       <c r="C1547" t="s">
         <v>3875</v>
@@ -61969,15 +62084,15 @@
         <v>1353</v>
       </c>
       <c r="M1547" t="s">
-        <v>4508</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="1548" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1548">
-        <v>1695</v>
+        <v>1700</v>
       </c>
       <c r="B1548" t="s">
-        <v>3942</v>
+        <v>3948</v>
       </c>
       <c r="C1548" t="s">
         <v>3875</v>
@@ -61992,15 +62107,15 @@
         <v>1353</v>
       </c>
       <c r="M1548" t="s">
-        <v>4509</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="1549" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1549">
-        <v>1696</v>
+        <v>1701</v>
       </c>
       <c r="B1549" t="s">
-        <v>3943</v>
+        <v>3950</v>
       </c>
       <c r="C1549" t="s">
         <v>3875</v>
@@ -62015,15 +62130,15 @@
         <v>1353</v>
       </c>
       <c r="M1549" t="s">
-        <v>4510</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="1550" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1550">
-        <v>1697</v>
+        <v>1702</v>
       </c>
       <c r="B1550" t="s">
-        <v>3944</v>
+        <v>3952</v>
       </c>
       <c r="C1550" t="s">
         <v>3875</v>
@@ -62038,15 +62153,15 @@
         <v>1353</v>
       </c>
       <c r="M1550" t="s">
-        <v>4511</v>
+        <v>4513</v>
       </c>
     </row>
     <row r="1551" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1551">
-        <v>1698</v>
+        <v>1703</v>
       </c>
       <c r="B1551" t="s">
-        <v>3945</v>
+        <v>3953</v>
       </c>
       <c r="C1551" t="s">
         <v>3875</v>
@@ -62061,15 +62176,15 @@
         <v>1353</v>
       </c>
       <c r="M1551" t="s">
-        <v>4512</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="1552" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1552">
-        <v>1699</v>
+        <v>1704</v>
       </c>
       <c r="B1552" t="s">
-        <v>3946</v>
+        <v>3955</v>
       </c>
       <c r="C1552" t="s">
         <v>3875</v>
@@ -62084,15 +62199,15 @@
         <v>1353</v>
       </c>
       <c r="M1552" t="s">
-        <v>3947</v>
+        <v>3956</v>
       </c>
     </row>
     <row r="1553" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1553">
-        <v>1700</v>
+        <v>1705</v>
       </c>
       <c r="B1553" t="s">
-        <v>3948</v>
+        <v>3957</v>
       </c>
       <c r="C1553" t="s">
         <v>3875</v>
@@ -62107,15 +62222,15 @@
         <v>1353</v>
       </c>
       <c r="M1553" t="s">
-        <v>3949</v>
+        <v>4514</v>
       </c>
     </row>
     <row r="1554" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1554">
-        <v>1701</v>
+        <v>1706</v>
       </c>
       <c r="B1554" t="s">
-        <v>3950</v>
+        <v>3958</v>
       </c>
       <c r="C1554" t="s">
         <v>3875</v>
@@ -62130,15 +62245,15 @@
         <v>1353</v>
       </c>
       <c r="M1554" t="s">
-        <v>3951</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="1555" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1555">
-        <v>1702</v>
+        <v>1707</v>
       </c>
       <c r="B1555" t="s">
-        <v>3952</v>
+        <v>3960</v>
       </c>
       <c r="C1555" t="s">
         <v>3875</v>
@@ -62153,15 +62268,15 @@
         <v>1353</v>
       </c>
       <c r="M1555" t="s">
-        <v>4513</v>
+        <v>4515</v>
       </c>
     </row>
     <row r="1556" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1556">
-        <v>1703</v>
+        <v>1708</v>
       </c>
       <c r="B1556" t="s">
-        <v>3953</v>
+        <v>3961</v>
       </c>
       <c r="C1556" t="s">
         <v>3875</v>
@@ -62176,15 +62291,15 @@
         <v>1353</v>
       </c>
       <c r="M1556" t="s">
-        <v>3954</v>
+        <v>4516</v>
       </c>
     </row>
     <row r="1557" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1557">
-        <v>1704</v>
+        <v>1709</v>
       </c>
       <c r="B1557" t="s">
-        <v>3955</v>
+        <v>3962</v>
       </c>
       <c r="C1557" t="s">
         <v>3875</v>
@@ -62199,15 +62314,15 @@
         <v>1353</v>
       </c>
       <c r="M1557" t="s">
-        <v>3956</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="1558" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1558">
-        <v>1705</v>
+        <v>1710</v>
       </c>
       <c r="B1558" t="s">
-        <v>3957</v>
+        <v>3963</v>
       </c>
       <c r="C1558" t="s">
         <v>3875</v>
@@ -62222,15 +62337,15 @@
         <v>1353</v>
       </c>
       <c r="M1558" t="s">
-        <v>4514</v>
+        <v>4518</v>
       </c>
     </row>
     <row r="1559" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1559">
-        <v>1706</v>
+        <v>1711</v>
       </c>
       <c r="B1559" t="s">
-        <v>3958</v>
+        <v>3964</v>
       </c>
       <c r="C1559" t="s">
         <v>3875</v>
@@ -62245,15 +62360,15 @@
         <v>1353</v>
       </c>
       <c r="M1559" t="s">
-        <v>3959</v>
+        <v>4519</v>
       </c>
     </row>
     <row r="1560" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1560">
-        <v>1707</v>
+        <v>1712</v>
       </c>
       <c r="B1560" t="s">
-        <v>3960</v>
+        <v>3965</v>
       </c>
       <c r="C1560" t="s">
         <v>3875</v>
@@ -62268,15 +62383,15 @@
         <v>1353</v>
       </c>
       <c r="M1560" t="s">
-        <v>4515</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="1561" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1561">
-        <v>1708</v>
+        <v>1713</v>
       </c>
       <c r="B1561" t="s">
-        <v>3961</v>
+        <v>3966</v>
       </c>
       <c r="C1561" t="s">
         <v>3875</v>
@@ -62291,15 +62406,15 @@
         <v>1353</v>
       </c>
       <c r="M1561" t="s">
-        <v>4516</v>
+        <v>3967</v>
       </c>
     </row>
     <row r="1562" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1562">
-        <v>1709</v>
+        <v>1714</v>
       </c>
       <c r="B1562" t="s">
-        <v>3962</v>
+        <v>3968</v>
       </c>
       <c r="C1562" t="s">
         <v>3875</v>
@@ -62314,15 +62429,15 @@
         <v>1353</v>
       </c>
       <c r="M1562" t="s">
-        <v>4517</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="1563" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1563">
-        <v>1710</v>
+        <v>1715</v>
       </c>
       <c r="B1563" t="s">
-        <v>3963</v>
+        <v>3969</v>
       </c>
       <c r="C1563" t="s">
         <v>3875</v>
@@ -62337,15 +62452,15 @@
         <v>1353</v>
       </c>
       <c r="M1563" t="s">
-        <v>4518</v>
+        <v>4522</v>
       </c>
     </row>
     <row r="1564" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1564">
-        <v>1711</v>
+        <v>1716</v>
       </c>
       <c r="B1564" t="s">
-        <v>3964</v>
+        <v>3970</v>
       </c>
       <c r="C1564" t="s">
         <v>3875</v>
@@ -62360,15 +62475,15 @@
         <v>1353</v>
       </c>
       <c r="M1564" t="s">
-        <v>4519</v>
+        <v>3971</v>
       </c>
     </row>
     <row r="1565" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1565">
-        <v>1712</v>
+        <v>1717</v>
       </c>
       <c r="B1565" t="s">
-        <v>3965</v>
+        <v>3972</v>
       </c>
       <c r="C1565" t="s">
         <v>3875</v>
@@ -62383,15 +62498,15 @@
         <v>1353</v>
       </c>
       <c r="M1565" t="s">
-        <v>4520</v>
+        <v>3973</v>
       </c>
     </row>
     <row r="1566" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1566">
-        <v>1713</v>
+        <v>1718</v>
       </c>
       <c r="B1566" t="s">
-        <v>3966</v>
+        <v>3974</v>
       </c>
       <c r="C1566" t="s">
         <v>3875</v>
@@ -62406,15 +62521,15 @@
         <v>1353</v>
       </c>
       <c r="M1566" t="s">
-        <v>3967</v>
+        <v>4523</v>
       </c>
     </row>
     <row r="1567" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1567">
-        <v>1714</v>
+        <v>1719</v>
       </c>
       <c r="B1567" t="s">
-        <v>3968</v>
+        <v>3975</v>
       </c>
       <c r="C1567" t="s">
         <v>3875</v>
@@ -62429,15 +62544,15 @@
         <v>1353</v>
       </c>
       <c r="M1567" t="s">
-        <v>4521</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="1568" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1568">
-        <v>1715</v>
+        <v>1720</v>
       </c>
       <c r="B1568" t="s">
-        <v>3969</v>
+        <v>3977</v>
       </c>
       <c r="C1568" t="s">
         <v>3875</v>
@@ -62452,15 +62567,15 @@
         <v>1353</v>
       </c>
       <c r="M1568" t="s">
-        <v>4522</v>
+        <v>4524</v>
       </c>
     </row>
     <row r="1569" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1569">
-        <v>1716</v>
+        <v>1721</v>
       </c>
       <c r="B1569" t="s">
-        <v>3970</v>
+        <v>3978</v>
       </c>
       <c r="C1569" t="s">
         <v>3875</v>
@@ -62475,15 +62590,15 @@
         <v>1353</v>
       </c>
       <c r="M1569" t="s">
-        <v>3971</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="1570" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1570">
-        <v>1717</v>
+        <v>1722</v>
       </c>
       <c r="B1570" t="s">
-        <v>3972</v>
+        <v>3979</v>
       </c>
       <c r="C1570" t="s">
         <v>3875</v>
@@ -62498,15 +62613,15 @@
         <v>1353</v>
       </c>
       <c r="M1570" t="s">
-        <v>3973</v>
+        <v>4526</v>
       </c>
     </row>
     <row r="1571" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1571">
-        <v>1718</v>
+        <v>1723</v>
       </c>
       <c r="B1571" t="s">
-        <v>3974</v>
+        <v>3980</v>
       </c>
       <c r="C1571" t="s">
         <v>3875</v>
@@ -62521,15 +62636,15 @@
         <v>1353</v>
       </c>
       <c r="M1571" t="s">
-        <v>4523</v>
+        <v>4527</v>
       </c>
     </row>
     <row r="1572" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1572">
-        <v>1719</v>
+        <v>1724</v>
       </c>
       <c r="B1572" t="s">
-        <v>3975</v>
+        <v>3981</v>
       </c>
       <c r="C1572" t="s">
         <v>3875</v>
@@ -62544,15 +62659,15 @@
         <v>1353</v>
       </c>
       <c r="M1572" t="s">
-        <v>3976</v>
+        <v>4528</v>
       </c>
     </row>
     <row r="1573" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1573">
-        <v>1720</v>
+        <v>1725</v>
       </c>
       <c r="B1573" t="s">
-        <v>3977</v>
+        <v>3982</v>
       </c>
       <c r="C1573" t="s">
         <v>3875</v>
@@ -62567,15 +62682,15 @@
         <v>1353</v>
       </c>
       <c r="M1573" t="s">
-        <v>4524</v>
+        <v>3983</v>
       </c>
     </row>
     <row r="1574" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1574">
-        <v>1721</v>
+        <v>1726</v>
       </c>
       <c r="B1574" t="s">
-        <v>3978</v>
+        <v>3984</v>
       </c>
       <c r="C1574" t="s">
         <v>3875</v>
@@ -62590,15 +62705,15 @@
         <v>1353</v>
       </c>
       <c r="M1574" t="s">
-        <v>4525</v>
+        <v>4529</v>
       </c>
     </row>
     <row r="1575" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1575">
-        <v>1722</v>
+        <v>1727</v>
       </c>
       <c r="B1575" t="s">
-        <v>3979</v>
+        <v>3985</v>
       </c>
       <c r="C1575" t="s">
         <v>3875</v>
@@ -62613,15 +62728,15 @@
         <v>1353</v>
       </c>
       <c r="M1575" t="s">
-        <v>4526</v>
+        <v>3986</v>
       </c>
     </row>
     <row r="1576" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1576">
-        <v>1723</v>
+        <v>1728</v>
       </c>
       <c r="B1576" t="s">
-        <v>3980</v>
+        <v>3987</v>
       </c>
       <c r="C1576" t="s">
         <v>3875</v>
@@ -62636,15 +62751,15 @@
         <v>1353</v>
       </c>
       <c r="M1576" t="s">
-        <v>4527</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="1577" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1577">
-        <v>1724</v>
+        <v>1729</v>
       </c>
       <c r="B1577" t="s">
-        <v>3981</v>
+        <v>3988</v>
       </c>
       <c r="C1577" t="s">
         <v>3875</v>
@@ -62659,15 +62774,15 @@
         <v>1353</v>
       </c>
       <c r="M1577" t="s">
-        <v>4528</v>
+        <v>3989</v>
       </c>
     </row>
     <row r="1578" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1578">
-        <v>1725</v>
+        <v>1730</v>
       </c>
       <c r="B1578" t="s">
-        <v>3982</v>
+        <v>3990</v>
       </c>
       <c r="C1578" t="s">
         <v>3875</v>
@@ -62682,15 +62797,15 @@
         <v>1353</v>
       </c>
       <c r="M1578" t="s">
-        <v>3983</v>
+        <v>3991</v>
       </c>
     </row>
     <row r="1579" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1579">
-        <v>1726</v>
+        <v>1731</v>
       </c>
       <c r="B1579" t="s">
-        <v>3984</v>
+        <v>3992</v>
       </c>
       <c r="C1579" t="s">
         <v>3875</v>
@@ -62705,15 +62820,15 @@
         <v>1353</v>
       </c>
       <c r="M1579" t="s">
-        <v>4529</v>
+        <v>4531</v>
       </c>
     </row>
     <row r="1580" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1580">
-        <v>1727</v>
+        <v>1732</v>
       </c>
       <c r="B1580" t="s">
-        <v>3985</v>
+        <v>3993</v>
       </c>
       <c r="C1580" t="s">
         <v>3875</v>
@@ -62728,15 +62843,15 @@
         <v>1353</v>
       </c>
       <c r="M1580" t="s">
-        <v>3986</v>
+        <v>4532</v>
       </c>
     </row>
     <row r="1581" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1581">
-        <v>1728</v>
+        <v>1733</v>
       </c>
       <c r="B1581" t="s">
-        <v>3987</v>
+        <v>3994</v>
       </c>
       <c r="C1581" t="s">
         <v>3875</v>
@@ -62751,15 +62866,15 @@
         <v>1353</v>
       </c>
       <c r="M1581" t="s">
-        <v>4530</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="1582" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1582">
-        <v>1729</v>
+        <v>1734</v>
       </c>
       <c r="B1582" t="s">
-        <v>3988</v>
+        <v>3996</v>
       </c>
       <c r="C1582" t="s">
         <v>3875</v>
@@ -62774,15 +62889,15 @@
         <v>1353</v>
       </c>
       <c r="M1582" t="s">
-        <v>3989</v>
+        <v>3997</v>
       </c>
     </row>
     <row r="1583" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1583">
-        <v>1730</v>
+        <v>1735</v>
       </c>
       <c r="B1583" t="s">
-        <v>3990</v>
+        <v>3998</v>
       </c>
       <c r="C1583" t="s">
         <v>3875</v>
@@ -62797,15 +62912,15 @@
         <v>1353</v>
       </c>
       <c r="M1583" t="s">
-        <v>3991</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="1584" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1584">
-        <v>1731</v>
+        <v>1736</v>
       </c>
       <c r="B1584" t="s">
-        <v>3992</v>
+        <v>3999</v>
       </c>
       <c r="C1584" t="s">
         <v>3875</v>
@@ -62820,15 +62935,15 @@
         <v>1353</v>
       </c>
       <c r="M1584" t="s">
-        <v>4531</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="1585" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1585">
-        <v>1732</v>
+        <v>1737</v>
       </c>
       <c r="B1585" t="s">
-        <v>3993</v>
+        <v>4001</v>
       </c>
       <c r="C1585" t="s">
         <v>3875</v>
@@ -62843,15 +62958,15 @@
         <v>1353</v>
       </c>
       <c r="M1585" t="s">
-        <v>4532</v>
+        <v>4534</v>
       </c>
     </row>
     <row r="1586" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1586">
-        <v>1733</v>
+        <v>1738</v>
       </c>
       <c r="B1586" t="s">
-        <v>3994</v>
+        <v>4002</v>
       </c>
       <c r="C1586" t="s">
         <v>3875</v>
@@ -62866,15 +62981,15 @@
         <v>1353</v>
       </c>
       <c r="M1586" t="s">
-        <v>3995</v>
+        <v>4535</v>
       </c>
     </row>
     <row r="1587" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1587">
-        <v>1734</v>
+        <v>1739</v>
       </c>
       <c r="B1587" t="s">
-        <v>3996</v>
+        <v>4003</v>
       </c>
       <c r="C1587" t="s">
         <v>3875</v>
@@ -62889,15 +63004,15 @@
         <v>1353</v>
       </c>
       <c r="M1587" t="s">
-        <v>3997</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="1588" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1588">
-        <v>1735</v>
+        <v>1740</v>
       </c>
       <c r="B1588" t="s">
-        <v>3998</v>
+        <v>4004</v>
       </c>
       <c r="C1588" t="s">
         <v>3875</v>
@@ -62912,15 +63027,15 @@
         <v>1353</v>
       </c>
       <c r="M1588" t="s">
-        <v>4533</v>
+        <v>4537</v>
       </c>
     </row>
     <row r="1589" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1589">
-        <v>1736</v>
+        <v>1741</v>
       </c>
       <c r="B1589" t="s">
-        <v>3999</v>
+        <v>4005</v>
       </c>
       <c r="C1589" t="s">
         <v>3875</v>
@@ -62935,15 +63050,15 @@
         <v>1353</v>
       </c>
       <c r="M1589" t="s">
-        <v>4000</v>
+        <v>4538</v>
       </c>
     </row>
     <row r="1590" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1590">
-        <v>1737</v>
+        <v>1742</v>
       </c>
       <c r="B1590" t="s">
-        <v>4001</v>
+        <v>4006</v>
       </c>
       <c r="C1590" t="s">
         <v>3875</v>
@@ -62958,15 +63073,15 @@
         <v>1353</v>
       </c>
       <c r="M1590" t="s">
-        <v>4534</v>
+        <v>4539</v>
       </c>
     </row>
     <row r="1591" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1591">
-        <v>1738</v>
+        <v>1743</v>
       </c>
       <c r="B1591" t="s">
-        <v>4002</v>
+        <v>4007</v>
       </c>
       <c r="C1591" t="s">
         <v>3875</v>
@@ -62981,15 +63096,15 @@
         <v>1353</v>
       </c>
       <c r="M1591" t="s">
-        <v>4535</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="1592" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1592">
-        <v>1739</v>
+        <v>1744</v>
       </c>
       <c r="B1592" t="s">
-        <v>4003</v>
+        <v>4009</v>
       </c>
       <c r="C1592" t="s">
         <v>3875</v>
@@ -63004,15 +63119,15 @@
         <v>1353</v>
       </c>
       <c r="M1592" t="s">
-        <v>4536</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="1593" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1593">
-        <v>1740</v>
+        <v>1745</v>
       </c>
       <c r="B1593" t="s">
-        <v>4004</v>
+        <v>4010</v>
       </c>
       <c r="C1593" t="s">
         <v>3875</v>
@@ -63027,15 +63142,15 @@
         <v>1353</v>
       </c>
       <c r="M1593" t="s">
-        <v>4537</v>
+        <v>4541</v>
       </c>
     </row>
     <row r="1594" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1594">
-        <v>1741</v>
+        <v>1746</v>
       </c>
       <c r="B1594" t="s">
-        <v>4005</v>
+        <v>4011</v>
       </c>
       <c r="C1594" t="s">
         <v>3875</v>
@@ -63050,15 +63165,15 @@
         <v>1353</v>
       </c>
       <c r="M1594" t="s">
-        <v>4538</v>
+        <v>4012</v>
       </c>
     </row>
     <row r="1595" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1595">
-        <v>1742</v>
+        <v>1747</v>
       </c>
       <c r="B1595" t="s">
-        <v>4006</v>
+        <v>4013</v>
       </c>
       <c r="C1595" t="s">
         <v>3875</v>
@@ -63073,15 +63188,15 @@
         <v>1353</v>
       </c>
       <c r="M1595" t="s">
-        <v>4539</v>
+        <v>4542</v>
       </c>
     </row>
     <row r="1596" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1596">
-        <v>1743</v>
+        <v>1748</v>
       </c>
       <c r="B1596" t="s">
-        <v>4007</v>
+        <v>4014</v>
       </c>
       <c r="C1596" t="s">
         <v>3875</v>
@@ -63096,15 +63211,15 @@
         <v>1353</v>
       </c>
       <c r="M1596" t="s">
-        <v>4008</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="1597" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1597">
-        <v>1744</v>
+        <v>1749</v>
       </c>
       <c r="B1597" t="s">
-        <v>4009</v>
+        <v>4016</v>
       </c>
       <c r="C1597" t="s">
         <v>3875</v>
@@ -63119,15 +63234,15 @@
         <v>1353</v>
       </c>
       <c r="M1597" t="s">
-        <v>4540</v>
+        <v>4017</v>
       </c>
     </row>
     <row r="1598" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1598">
-        <v>1745</v>
+        <v>1750</v>
       </c>
       <c r="B1598" t="s">
-        <v>4010</v>
+        <v>4018</v>
       </c>
       <c r="C1598" t="s">
         <v>3875</v>
@@ -63142,15 +63257,15 @@
         <v>1353</v>
       </c>
       <c r="M1598" t="s">
-        <v>4541</v>
+        <v>4543</v>
       </c>
     </row>
     <row r="1599" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1599">
-        <v>1746</v>
+        <v>1751</v>
       </c>
       <c r="B1599" t="s">
-        <v>4011</v>
+        <v>4019</v>
       </c>
       <c r="C1599" t="s">
         <v>3875</v>
@@ -63165,15 +63280,15 @@
         <v>1353</v>
       </c>
       <c r="M1599" t="s">
-        <v>4012</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="1600" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1600">
-        <v>1747</v>
+        <v>1752</v>
       </c>
       <c r="B1600" t="s">
-        <v>4013</v>
+        <v>4021</v>
       </c>
       <c r="C1600" t="s">
         <v>3875</v>
@@ -63188,15 +63303,15 @@
         <v>1353</v>
       </c>
       <c r="M1600" t="s">
-        <v>4542</v>
+        <v>4544</v>
       </c>
     </row>
     <row r="1601" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1601">
-        <v>1748</v>
+        <v>1753</v>
       </c>
       <c r="B1601" t="s">
-        <v>4014</v>
+        <v>4022</v>
       </c>
       <c r="C1601" t="s">
         <v>3875</v>
@@ -63211,15 +63326,15 @@
         <v>1353</v>
       </c>
       <c r="M1601" t="s">
-        <v>4015</v>
+        <v>4545</v>
       </c>
     </row>
     <row r="1602" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1602">
-        <v>1749</v>
+        <v>1754</v>
       </c>
       <c r="B1602" t="s">
-        <v>4016</v>
+        <v>4023</v>
       </c>
       <c r="C1602" t="s">
         <v>3875</v>
@@ -63234,15 +63349,15 @@
         <v>1353</v>
       </c>
       <c r="M1602" t="s">
-        <v>4017</v>
+        <v>4546</v>
       </c>
     </row>
     <row r="1603" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1603">
-        <v>1750</v>
+        <v>1755</v>
       </c>
       <c r="B1603" t="s">
-        <v>4018</v>
+        <v>4024</v>
       </c>
       <c r="C1603" t="s">
         <v>3875</v>
@@ -63257,15 +63372,15 @@
         <v>1353</v>
       </c>
       <c r="M1603" t="s">
-        <v>4543</v>
+        <v>4547</v>
       </c>
     </row>
     <row r="1604" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1604">
-        <v>1751</v>
+        <v>1756</v>
       </c>
       <c r="B1604" t="s">
-        <v>4019</v>
+        <v>4025</v>
       </c>
       <c r="C1604" t="s">
         <v>3875</v>
@@ -63280,15 +63395,15 @@
         <v>1353</v>
       </c>
       <c r="M1604" t="s">
-        <v>4020</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="1605" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1605">
-        <v>1752</v>
+        <v>1757</v>
       </c>
       <c r="B1605" t="s">
-        <v>4021</v>
+        <v>4026</v>
       </c>
       <c r="C1605" t="s">
         <v>3875</v>
@@ -63303,15 +63418,15 @@
         <v>1353</v>
       </c>
       <c r="M1605" t="s">
-        <v>4544</v>
+        <v>4027</v>
       </c>
     </row>
     <row r="1606" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1606">
-        <v>1753</v>
+        <v>1758</v>
       </c>
       <c r="B1606" t="s">
-        <v>4022</v>
+        <v>4028</v>
       </c>
       <c r="C1606" t="s">
         <v>3875</v>
@@ -63326,15 +63441,15 @@
         <v>1353</v>
       </c>
       <c r="M1606" t="s">
-        <v>4545</v>
+        <v>4549</v>
       </c>
     </row>
     <row r="1607" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1607">
-        <v>1754</v>
+        <v>1759</v>
       </c>
       <c r="B1607" t="s">
-        <v>4023</v>
+        <v>4029</v>
       </c>
       <c r="C1607" t="s">
         <v>3875</v>
@@ -63349,15 +63464,15 @@
         <v>1353</v>
       </c>
       <c r="M1607" t="s">
-        <v>4546</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="1608" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1608">
-        <v>1755</v>
+        <v>1760</v>
       </c>
       <c r="B1608" t="s">
-        <v>4024</v>
+        <v>4030</v>
       </c>
       <c r="C1608" t="s">
         <v>3875</v>
@@ -63372,15 +63487,15 @@
         <v>1353</v>
       </c>
       <c r="M1608" t="s">
-        <v>4547</v>
+        <v>4031</v>
       </c>
     </row>
     <row r="1609" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1609">
-        <v>1756</v>
+        <v>1761</v>
       </c>
       <c r="B1609" t="s">
-        <v>4025</v>
+        <v>4032</v>
       </c>
       <c r="C1609" t="s">
         <v>3875</v>
@@ -63395,15 +63510,15 @@
         <v>1353</v>
       </c>
       <c r="M1609" t="s">
-        <v>4548</v>
+        <v>4033</v>
       </c>
     </row>
     <row r="1610" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1610">
-        <v>1757</v>
+        <v>1762</v>
       </c>
       <c r="B1610" t="s">
-        <v>4026</v>
+        <v>4034</v>
       </c>
       <c r="C1610" t="s">
         <v>3875</v>
@@ -63418,15 +63533,15 @@
         <v>1353</v>
       </c>
       <c r="M1610" t="s">
-        <v>4027</v>
+        <v>4035</v>
       </c>
     </row>
     <row r="1611" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1611">
-        <v>1758</v>
+        <v>1763</v>
       </c>
       <c r="B1611" t="s">
-        <v>4028</v>
+        <v>4036</v>
       </c>
       <c r="C1611" t="s">
         <v>3875</v>
@@ -63441,15 +63556,15 @@
         <v>1353</v>
       </c>
       <c r="M1611" t="s">
-        <v>4549</v>
+        <v>4037</v>
       </c>
     </row>
     <row r="1612" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1612">
-        <v>1759</v>
+        <v>1764</v>
       </c>
       <c r="B1612" t="s">
-        <v>4029</v>
+        <v>4038</v>
       </c>
       <c r="C1612" t="s">
         <v>3875</v>
@@ -63464,15 +63579,15 @@
         <v>1353</v>
       </c>
       <c r="M1612" t="s">
-        <v>4550</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="1613" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1613">
-        <v>1760</v>
+        <v>1765</v>
       </c>
       <c r="B1613" t="s">
-        <v>4030</v>
+        <v>4039</v>
       </c>
       <c r="C1613" t="s">
         <v>3875</v>
@@ -63487,15 +63602,15 @@
         <v>1353</v>
       </c>
       <c r="M1613" t="s">
-        <v>4031</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="1614" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1614">
-        <v>1761</v>
+        <v>1766</v>
       </c>
       <c r="B1614" t="s">
-        <v>4032</v>
+        <v>4041</v>
       </c>
       <c r="C1614" t="s">
         <v>3875</v>
@@ -63510,15 +63625,15 @@
         <v>1353</v>
       </c>
       <c r="M1614" t="s">
-        <v>4033</v>
+        <v>4042</v>
       </c>
     </row>
     <row r="1615" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1615">
-        <v>1762</v>
+        <v>1767</v>
       </c>
       <c r="B1615" t="s">
-        <v>4034</v>
+        <v>4043</v>
       </c>
       <c r="C1615" t="s">
         <v>3875</v>
@@ -63533,15 +63648,15 @@
         <v>1353</v>
       </c>
       <c r="M1615" t="s">
-        <v>4035</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="1616" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1616">
-        <v>1763</v>
+        <v>1768</v>
       </c>
       <c r="B1616" t="s">
-        <v>4036</v>
+        <v>4044</v>
       </c>
       <c r="C1616" t="s">
         <v>3875</v>
@@ -63556,15 +63671,15 @@
         <v>1353</v>
       </c>
       <c r="M1616" t="s">
-        <v>4037</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="1617" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1617">
-        <v>1764</v>
+        <v>1769</v>
       </c>
       <c r="B1617" t="s">
-        <v>4038</v>
+        <v>4046</v>
       </c>
       <c r="C1617" t="s">
         <v>3875</v>
@@ -63579,15 +63694,15 @@
         <v>1353</v>
       </c>
       <c r="M1617" t="s">
-        <v>4551</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="1618" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1618">
-        <v>1765</v>
+        <v>1770</v>
       </c>
       <c r="B1618" t="s">
-        <v>4039</v>
+        <v>4047</v>
       </c>
       <c r="C1618" t="s">
         <v>3875</v>
@@ -63602,15 +63717,15 @@
         <v>1353</v>
       </c>
       <c r="M1618" t="s">
-        <v>4040</v>
+        <v>4048</v>
       </c>
     </row>
     <row r="1619" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1619">
-        <v>1766</v>
+        <v>1771</v>
       </c>
       <c r="B1619" t="s">
-        <v>4041</v>
+        <v>4049</v>
       </c>
       <c r="C1619" t="s">
         <v>3875</v>
@@ -63625,15 +63740,15 @@
         <v>1353</v>
       </c>
       <c r="M1619" t="s">
-        <v>4042</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="1620" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1620">
-        <v>1767</v>
+        <v>1772</v>
       </c>
       <c r="B1620" t="s">
-        <v>4043</v>
+        <v>4051</v>
       </c>
       <c r="C1620" t="s">
         <v>3875</v>
@@ -63648,15 +63763,15 @@
         <v>1353</v>
       </c>
       <c r="M1620" t="s">
-        <v>4552</v>
+        <v>4052</v>
       </c>
     </row>
     <row r="1621" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1621">
-        <v>1768</v>
+        <v>1773</v>
       </c>
       <c r="B1621" t="s">
-        <v>4044</v>
+        <v>4053</v>
       </c>
       <c r="C1621" t="s">
         <v>3875</v>
@@ -63671,15 +63786,15 @@
         <v>1353</v>
       </c>
       <c r="M1621" t="s">
-        <v>4045</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="1622" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1622">
-        <v>1769</v>
+        <v>1774</v>
       </c>
       <c r="B1622" t="s">
-        <v>4046</v>
+        <v>4054</v>
       </c>
       <c r="C1622" t="s">
         <v>3875</v>
@@ -63694,15 +63809,15 @@
         <v>1353</v>
       </c>
       <c r="M1622" t="s">
-        <v>4553</v>
+        <v>4555</v>
       </c>
     </row>
     <row r="1623" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1623">
-        <v>1770</v>
+        <v>1775</v>
       </c>
       <c r="B1623" t="s">
-        <v>4047</v>
+        <v>4055</v>
       </c>
       <c r="C1623" t="s">
         <v>3875</v>
@@ -63717,15 +63832,15 @@
         <v>1353</v>
       </c>
       <c r="M1623" t="s">
-        <v>4048</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="1624" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1624">
-        <v>1771</v>
+        <v>1776</v>
       </c>
       <c r="B1624" t="s">
-        <v>4049</v>
+        <v>4056</v>
       </c>
       <c r="C1624" t="s">
         <v>3875</v>
@@ -63740,15 +63855,15 @@
         <v>1353</v>
       </c>
       <c r="M1624" t="s">
-        <v>4050</v>
+        <v>4557</v>
       </c>
     </row>
     <row r="1625" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1625">
-        <v>1772</v>
+        <v>1777</v>
       </c>
       <c r="B1625" t="s">
-        <v>4051</v>
+        <v>4057</v>
       </c>
       <c r="C1625" t="s">
         <v>3875</v>
@@ -63763,15 +63878,15 @@
         <v>1353</v>
       </c>
       <c r="M1625" t="s">
-        <v>4052</v>
+        <v>4558</v>
       </c>
     </row>
     <row r="1626" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1626">
-        <v>1773</v>
+        <v>1778</v>
       </c>
       <c r="B1626" t="s">
-        <v>4053</v>
+        <v>4058</v>
       </c>
       <c r="C1626" t="s">
         <v>3875</v>
@@ -63786,15 +63901,15 @@
         <v>1353</v>
       </c>
       <c r="M1626" t="s">
-        <v>4554</v>
+        <v>4059</v>
       </c>
     </row>
     <row r="1627" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1627">
-        <v>1774</v>
+        <v>1779</v>
       </c>
       <c r="B1627" t="s">
-        <v>4054</v>
+        <v>4060</v>
       </c>
       <c r="C1627" t="s">
         <v>3875</v>
@@ -63809,15 +63924,15 @@
         <v>1353</v>
       </c>
       <c r="M1627" t="s">
-        <v>4555</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="1628" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1628">
-        <v>1775</v>
+        <v>1780</v>
       </c>
       <c r="B1628" t="s">
-        <v>4055</v>
+        <v>4061</v>
       </c>
       <c r="C1628" t="s">
         <v>3875</v>
@@ -63832,126 +63947,11 @@
         <v>1353</v>
       </c>
       <c r="M1628" t="s">
-        <v>4556</v>
-      </c>
-    </row>
-    <row r="1629" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1629">
-        <v>1776</v>
-      </c>
-      <c r="B1629" t="s">
-        <v>4056</v>
-      </c>
-      <c r="C1629" t="s">
-        <v>3875</v>
-      </c>
-      <c r="D1629">
-        <v>68000</v>
-      </c>
-      <c r="E1629" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1629" t="s">
-        <v>1353</v>
-      </c>
-      <c r="M1629" t="s">
-        <v>4557</v>
-      </c>
-    </row>
-    <row r="1630" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1630">
-        <v>1777</v>
-      </c>
-      <c r="B1630" t="s">
-        <v>4057</v>
-      </c>
-      <c r="C1630" t="s">
-        <v>3875</v>
-      </c>
-      <c r="D1630">
-        <v>68000</v>
-      </c>
-      <c r="E1630" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1630" t="s">
-        <v>1353</v>
-      </c>
-      <c r="M1630" t="s">
-        <v>4558</v>
-      </c>
-    </row>
-    <row r="1631" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1631">
-        <v>1778</v>
-      </c>
-      <c r="B1631" t="s">
-        <v>4058</v>
-      </c>
-      <c r="C1631" t="s">
-        <v>3875</v>
-      </c>
-      <c r="D1631">
-        <v>68000</v>
-      </c>
-      <c r="E1631" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1631" t="s">
-        <v>1353</v>
-      </c>
-      <c r="M1631" t="s">
-        <v>4059</v>
-      </c>
-    </row>
-    <row r="1632" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1632">
-        <v>1779</v>
-      </c>
-      <c r="B1632" t="s">
-        <v>4060</v>
-      </c>
-      <c r="C1632" t="s">
-        <v>3875</v>
-      </c>
-      <c r="D1632">
-        <v>68000</v>
-      </c>
-      <c r="E1632" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1632" t="s">
-        <v>1353</v>
-      </c>
-      <c r="M1632" t="s">
-        <v>4559</v>
-      </c>
-    </row>
-    <row r="1633" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1633">
-        <v>1780</v>
-      </c>
-      <c r="B1633" t="s">
-        <v>4061</v>
-      </c>
-      <c r="C1633" t="s">
-        <v>3875</v>
-      </c>
-      <c r="D1633">
-        <v>68000</v>
-      </c>
-      <c r="E1633" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1633" t="s">
-        <v>1353</v>
-      </c>
-      <c r="M1633" t="s">
         <v>4062</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1633"/>
+  <autoFilter ref="A1:M1628"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/0.36/compatibility.xlsx
+++ b/0.36/compatibility.xlsx
@@ -17,8 +17,8 @@
     <sheet name="GAME_NOT_WORKING FLAG" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ALL!$A$1:$M$1628</definedName>
-    <definedName name="LIST" localSheetId="1">ALL!$B$1:$M$1628</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ALL!$A$1:$M$1625</definedName>
+    <definedName name="LIST" localSheetId="1">ALL!$B$1:$M$1625</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -14084,10 +14084,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P413"/>
+  <dimension ref="A1:P416"/>
   <sheetViews>
     <sheetView topLeftCell="A393" workbookViewId="0">
-      <selection activeCell="A414" sqref="A414"/>
+      <selection activeCell="A411" sqref="A411:A416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23754,6 +23754,93 @@
         <v>3766</v>
       </c>
     </row>
+    <row r="414" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A414">
+        <v>414</v>
+      </c>
+      <c r="B414" t="s">
+        <v>3216</v>
+      </c>
+      <c r="C414" t="s">
+        <v>3217</v>
+      </c>
+      <c r="D414" t="s">
+        <v>14</v>
+      </c>
+      <c r="E414" t="s">
+        <v>14</v>
+      </c>
+      <c r="F414" t="s">
+        <v>154</v>
+      </c>
+      <c r="H414" t="s">
+        <v>172</v>
+      </c>
+      <c r="I414" t="s">
+        <v>15</v>
+      </c>
+      <c r="M414" t="s">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="415" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A415">
+        <v>415</v>
+      </c>
+      <c r="B415" t="s">
+        <v>3219</v>
+      </c>
+      <c r="C415" t="s">
+        <v>3217</v>
+      </c>
+      <c r="D415" t="s">
+        <v>14</v>
+      </c>
+      <c r="E415" t="s">
+        <v>14</v>
+      </c>
+      <c r="F415" t="s">
+        <v>154</v>
+      </c>
+      <c r="H415" t="s">
+        <v>172</v>
+      </c>
+      <c r="I415" t="s">
+        <v>15</v>
+      </c>
+      <c r="M415" t="s">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="416" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A416">
+        <v>416</v>
+      </c>
+      <c r="B416" t="s">
+        <v>3221</v>
+      </c>
+      <c r="C416" t="s">
+        <v>3217</v>
+      </c>
+      <c r="D416" t="s">
+        <v>14</v>
+      </c>
+      <c r="E416" t="s">
+        <v>14</v>
+      </c>
+      <c r="F416" t="s">
+        <v>154</v>
+      </c>
+      <c r="H416" t="s">
+        <v>172</v>
+      </c>
+      <c r="I416" t="s">
+        <v>15</v>
+      </c>
+      <c r="M416" t="s">
+        <v>3222</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23762,10 +23849,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1628"/>
+  <dimension ref="A1:M1625"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E695" sqref="E695"/>
+    <sheetView tabSelected="1" topLeftCell="A1277" workbookViewId="0">
+      <selection activeCell="A1292" sqref="A1292:XFD1294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -55757,97 +55844,88 @@
     </row>
     <row r="1292" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1292">
-        <v>1388</v>
+        <v>1418</v>
       </c>
       <c r="B1292" t="s">
-        <v>3216</v>
+        <v>3277</v>
       </c>
       <c r="C1292" t="s">
-        <v>3217</v>
-      </c>
-      <c r="D1292" t="s">
-        <v>14</v>
+        <v>3278</v>
+      </c>
+      <c r="D1292">
+        <v>68000</v>
       </c>
       <c r="E1292" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1292" t="s">
         <v>154</v>
       </c>
       <c r="H1292" t="s">
-        <v>172</v>
+        <v>349</v>
       </c>
       <c r="I1292" t="s">
-        <v>15</v>
+        <v>2082</v>
       </c>
       <c r="M1292" t="s">
-        <v>3218</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="1293" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1293">
-        <v>1389</v>
+        <v>1419</v>
       </c>
       <c r="B1293" t="s">
-        <v>3219</v>
+        <v>3280</v>
       </c>
       <c r="C1293" t="s">
-        <v>3217</v>
-      </c>
-      <c r="D1293" t="s">
-        <v>14</v>
+        <v>3278</v>
+      </c>
+      <c r="D1293">
+        <v>68000</v>
       </c>
       <c r="E1293" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1293" t="s">
         <v>154</v>
       </c>
       <c r="H1293" t="s">
-        <v>172</v>
+        <v>349</v>
       </c>
       <c r="I1293" t="s">
-        <v>15</v>
+        <v>2082</v>
       </c>
       <c r="M1293" t="s">
-        <v>3220</v>
+        <v>4441</v>
       </c>
     </row>
     <row r="1294" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1294">
-        <v>1390</v>
+        <v>1420</v>
       </c>
       <c r="B1294" t="s">
-        <v>3221</v>
+        <v>3281</v>
       </c>
       <c r="C1294" t="s">
-        <v>3217</v>
-      </c>
-      <c r="D1294" t="s">
-        <v>14</v>
+        <v>3278</v>
+      </c>
+      <c r="D1294">
+        <v>68000</v>
       </c>
       <c r="E1294" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1294" t="s">
         <v>154</v>
       </c>
       <c r="H1294" t="s">
-        <v>172</v>
+        <v>349</v>
       </c>
       <c r="I1294" t="s">
-        <v>15</v>
+        <v>2082</v>
       </c>
       <c r="M1294" t="s">
-        <v>3222</v>
+        <v>4442</v>
       </c>
     </row>
     <row r="1295" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1295">
-        <v>1418</v>
+        <v>1421</v>
       </c>
       <c r="B1295" t="s">
-        <v>3277</v>
+        <v>3282</v>
       </c>
       <c r="C1295" t="s">
         <v>3278</v>
@@ -55865,15 +55943,15 @@
         <v>2082</v>
       </c>
       <c r="M1295" t="s">
-        <v>3279</v>
+        <v>4443</v>
       </c>
     </row>
     <row r="1296" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1296">
-        <v>1419</v>
+        <v>1422</v>
       </c>
       <c r="B1296" t="s">
-        <v>3280</v>
+        <v>3283</v>
       </c>
       <c r="C1296" t="s">
         <v>3278</v>
@@ -55891,15 +55969,15 @@
         <v>2082</v>
       </c>
       <c r="M1296" t="s">
-        <v>4441</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="1297" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1297">
-        <v>1420</v>
+        <v>1423</v>
       </c>
       <c r="B1297" t="s">
-        <v>3281</v>
+        <v>3284</v>
       </c>
       <c r="C1297" t="s">
         <v>3278</v>
@@ -55917,15 +55995,15 @@
         <v>2082</v>
       </c>
       <c r="M1297" t="s">
-        <v>4442</v>
+        <v>4445</v>
       </c>
     </row>
     <row r="1298" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1298">
-        <v>1421</v>
+        <v>1424</v>
       </c>
       <c r="B1298" t="s">
-        <v>3282</v>
+        <v>3285</v>
       </c>
       <c r="C1298" t="s">
         <v>3278</v>
@@ -55943,15 +56021,15 @@
         <v>2082</v>
       </c>
       <c r="M1298" t="s">
-        <v>4443</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="1299" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1299">
-        <v>1422</v>
+        <v>1425</v>
       </c>
       <c r="B1299" t="s">
-        <v>3283</v>
+        <v>3286</v>
       </c>
       <c r="C1299" t="s">
         <v>3278</v>
@@ -55969,18 +56047,18 @@
         <v>2082</v>
       </c>
       <c r="M1299" t="s">
-        <v>4444</v>
+        <v>4447</v>
       </c>
     </row>
     <row r="1300" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1300">
-        <v>1423</v>
+        <v>1426</v>
       </c>
       <c r="B1300" t="s">
-        <v>3284</v>
+        <v>3287</v>
       </c>
       <c r="C1300" t="s">
-        <v>3278</v>
+        <v>3288</v>
       </c>
       <c r="D1300">
         <v>68000</v>
@@ -55995,18 +56073,18 @@
         <v>2082</v>
       </c>
       <c r="M1300" t="s">
-        <v>4445</v>
+        <v>4448</v>
       </c>
     </row>
     <row r="1301" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1301">
-        <v>1424</v>
+        <v>1427</v>
       </c>
       <c r="B1301" t="s">
-        <v>3285</v>
+        <v>3289</v>
       </c>
       <c r="C1301" t="s">
-        <v>3278</v>
+        <v>3288</v>
       </c>
       <c r="D1301">
         <v>68000</v>
@@ -56021,18 +56099,18 @@
         <v>2082</v>
       </c>
       <c r="M1301" t="s">
-        <v>4446</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="1302" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1302">
-        <v>1425</v>
+        <v>1428</v>
       </c>
       <c r="B1302" t="s">
-        <v>3286</v>
+        <v>3290</v>
       </c>
       <c r="C1302" t="s">
-        <v>3278</v>
+        <v>3288</v>
       </c>
       <c r="D1302">
         <v>68000</v>
@@ -56047,18 +56125,18 @@
         <v>2082</v>
       </c>
       <c r="M1302" t="s">
-        <v>4447</v>
+        <v>3291</v>
       </c>
     </row>
     <row r="1303" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1303">
-        <v>1426</v>
+        <v>1429</v>
       </c>
       <c r="B1303" t="s">
-        <v>3287</v>
+        <v>3292</v>
       </c>
       <c r="C1303" t="s">
-        <v>3288</v>
+        <v>3293</v>
       </c>
       <c r="D1303">
         <v>68000</v>
@@ -56067,24 +56145,27 @@
         <v>154</v>
       </c>
       <c r="H1303" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="I1303" t="s">
-        <v>2082</v>
+        <v>1823</v>
+      </c>
+      <c r="J1303" t="s">
+        <v>166</v>
       </c>
       <c r="M1303" t="s">
-        <v>4448</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="1304" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1304">
-        <v>1427</v>
+        <v>1430</v>
       </c>
       <c r="B1304" t="s">
-        <v>3289</v>
+        <v>3295</v>
       </c>
       <c r="C1304" t="s">
-        <v>3288</v>
+        <v>3293</v>
       </c>
       <c r="D1304">
         <v>68000</v>
@@ -56093,24 +56174,27 @@
         <v>154</v>
       </c>
       <c r="H1304" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="I1304" t="s">
-        <v>2082</v>
+        <v>1823</v>
+      </c>
+      <c r="J1304" t="s">
+        <v>166</v>
       </c>
       <c r="M1304" t="s">
-        <v>4449</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="1305" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1305">
-        <v>1428</v>
+        <v>1431</v>
       </c>
       <c r="B1305" t="s">
-        <v>3290</v>
+        <v>3297</v>
       </c>
       <c r="C1305" t="s">
-        <v>3288</v>
+        <v>3293</v>
       </c>
       <c r="D1305">
         <v>68000</v>
@@ -56119,21 +56203,24 @@
         <v>154</v>
       </c>
       <c r="H1305" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="I1305" t="s">
-        <v>2082</v>
+        <v>1823</v>
+      </c>
+      <c r="J1305" t="s">
+        <v>166</v>
       </c>
       <c r="M1305" t="s">
-        <v>3291</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="1306" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1306">
-        <v>1429</v>
+        <v>1432</v>
       </c>
       <c r="B1306" t="s">
-        <v>3292</v>
+        <v>3299</v>
       </c>
       <c r="C1306" t="s">
         <v>3293</v>
@@ -56154,15 +56241,15 @@
         <v>166</v>
       </c>
       <c r="M1306" t="s">
-        <v>3294</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="1307" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1307">
-        <v>1430</v>
+        <v>1433</v>
       </c>
       <c r="B1307" t="s">
-        <v>3295</v>
+        <v>3301</v>
       </c>
       <c r="C1307" t="s">
         <v>3293</v>
@@ -56183,15 +56270,15 @@
         <v>166</v>
       </c>
       <c r="M1307" t="s">
-        <v>3296</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="1308" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1308">
-        <v>1431</v>
+        <v>1434</v>
       </c>
       <c r="B1308" t="s">
-        <v>3297</v>
+        <v>3303</v>
       </c>
       <c r="C1308" t="s">
         <v>3293</v>
@@ -56212,15 +56299,15 @@
         <v>166</v>
       </c>
       <c r="M1308" t="s">
-        <v>3298</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="1309" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1309">
-        <v>1432</v>
+        <v>1435</v>
       </c>
       <c r="B1309" t="s">
-        <v>3299</v>
+        <v>3305</v>
       </c>
       <c r="C1309" t="s">
         <v>3293</v>
@@ -56241,15 +56328,15 @@
         <v>166</v>
       </c>
       <c r="M1309" t="s">
-        <v>3300</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="1310" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1310">
-        <v>1433</v>
+        <v>1436</v>
       </c>
       <c r="B1310" t="s">
-        <v>3301</v>
+        <v>3307</v>
       </c>
       <c r="C1310" t="s">
         <v>3293</v>
@@ -56270,15 +56357,15 @@
         <v>166</v>
       </c>
       <c r="M1310" t="s">
-        <v>3302</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="1311" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1311">
-        <v>1434</v>
+        <v>1437</v>
       </c>
       <c r="B1311" t="s">
-        <v>3303</v>
+        <v>3309</v>
       </c>
       <c r="C1311" t="s">
         <v>3293</v>
@@ -56299,197 +56386,176 @@
         <v>166</v>
       </c>
       <c r="M1311" t="s">
-        <v>3304</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="1312" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1312">
-        <v>1435</v>
+        <v>1438</v>
       </c>
       <c r="B1312" t="s">
-        <v>3305</v>
+        <v>3311</v>
       </c>
       <c r="C1312" t="s">
-        <v>3293</v>
-      </c>
-      <c r="D1312">
-        <v>68000</v>
-      </c>
-      <c r="E1312" t="s">
-        <v>154</v>
+        <v>3312</v>
+      </c>
+      <c r="D1312" t="s">
+        <v>405</v>
       </c>
       <c r="H1312" t="s">
-        <v>336</v>
-      </c>
-      <c r="I1312" t="s">
-        <v>1823</v>
-      </c>
-      <c r="J1312" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M1312" t="s">
-        <v>3306</v>
+        <v>3313</v>
       </c>
     </row>
     <row r="1313" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1313">
-        <v>1436</v>
+        <v>1439</v>
       </c>
       <c r="B1313" t="s">
-        <v>3307</v>
+        <v>3314</v>
       </c>
       <c r="C1313" t="s">
-        <v>3293</v>
-      </c>
-      <c r="D1313">
-        <v>68000</v>
-      </c>
-      <c r="E1313" t="s">
-        <v>154</v>
+        <v>3312</v>
+      </c>
+      <c r="D1313" t="s">
+        <v>405</v>
       </c>
       <c r="H1313" t="s">
-        <v>336</v>
-      </c>
-      <c r="I1313" t="s">
-        <v>1823</v>
-      </c>
-      <c r="J1313" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M1313" t="s">
-        <v>3308</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="1314" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1314">
-        <v>1437</v>
+        <v>1440</v>
       </c>
       <c r="B1314" t="s">
-        <v>3309</v>
+        <v>3316</v>
       </c>
       <c r="C1314" t="s">
-        <v>3293</v>
-      </c>
-      <c r="D1314">
-        <v>68000</v>
+        <v>3317</v>
+      </c>
+      <c r="D1314" t="s">
+        <v>405</v>
       </c>
       <c r="E1314" t="s">
-        <v>154</v>
+        <v>1184</v>
       </c>
       <c r="H1314" t="s">
-        <v>336</v>
+        <v>172</v>
       </c>
       <c r="I1314" t="s">
-        <v>1823</v>
-      </c>
-      <c r="J1314" t="s">
         <v>166</v>
       </c>
       <c r="M1314" t="s">
-        <v>3310</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1315" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1315">
-        <v>1438</v>
+        <v>1441</v>
       </c>
       <c r="B1315" t="s">
-        <v>3311</v>
+        <v>3319</v>
       </c>
       <c r="C1315" t="s">
-        <v>3312</v>
+        <v>3317</v>
       </c>
       <c r="D1315" t="s">
         <v>405</v>
       </c>
+      <c r="E1315" t="s">
+        <v>1184</v>
+      </c>
       <c r="H1315" t="s">
         <v>172</v>
       </c>
+      <c r="I1315" t="s">
+        <v>166</v>
+      </c>
       <c r="M1315" t="s">
-        <v>3313</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="1316" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1316">
-        <v>1439</v>
+        <v>1442</v>
       </c>
       <c r="B1316" t="s">
-        <v>3314</v>
+        <v>3321</v>
       </c>
       <c r="C1316" t="s">
-        <v>3312</v>
+        <v>3322</v>
       </c>
       <c r="D1316" t="s">
         <v>405</v>
       </c>
+      <c r="E1316" t="s">
+        <v>1184</v>
+      </c>
       <c r="H1316" t="s">
         <v>172</v>
       </c>
+      <c r="I1316" t="s">
+        <v>166</v>
+      </c>
       <c r="M1316" t="s">
-        <v>3315</v>
+        <v>3323</v>
       </c>
     </row>
     <row r="1317" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1317">
-        <v>1440</v>
+        <v>1443</v>
       </c>
       <c r="B1317" t="s">
-        <v>3316</v>
+        <v>3324</v>
       </c>
       <c r="C1317" t="s">
-        <v>3317</v>
+        <v>3325</v>
       </c>
       <c r="D1317" t="s">
         <v>405</v>
       </c>
-      <c r="E1317" t="s">
-        <v>1184</v>
-      </c>
       <c r="H1317" t="s">
         <v>172</v>
       </c>
-      <c r="I1317" t="s">
-        <v>166</v>
-      </c>
       <c r="M1317" t="s">
-        <v>3318</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="1318" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1318">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="B1318" t="s">
-        <v>3319</v>
+        <v>3327</v>
       </c>
       <c r="C1318" t="s">
-        <v>3317</v>
+        <v>3328</v>
       </c>
       <c r="D1318" t="s">
         <v>405</v>
       </c>
-      <c r="E1318" t="s">
-        <v>1184</v>
-      </c>
       <c r="H1318" t="s">
         <v>172</v>
       </c>
-      <c r="I1318" t="s">
-        <v>166</v>
-      </c>
       <c r="M1318" t="s">
-        <v>3320</v>
+        <v>3329</v>
       </c>
     </row>
     <row r="1319" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1319">
-        <v>1442</v>
+        <v>1445</v>
       </c>
       <c r="B1319" t="s">
-        <v>3321</v>
+        <v>3330</v>
       </c>
       <c r="C1319" t="s">
-        <v>3322</v>
+        <v>3331</v>
       </c>
       <c r="D1319" t="s">
         <v>405</v>
@@ -56504,55 +56570,70 @@
         <v>166</v>
       </c>
       <c r="M1319" t="s">
-        <v>3323</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="1320" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1320">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="B1320" t="s">
-        <v>3324</v>
+        <v>3333</v>
       </c>
       <c r="C1320" t="s">
-        <v>3325</v>
+        <v>3331</v>
       </c>
       <c r="D1320" t="s">
         <v>405</v>
       </c>
+      <c r="E1320" t="s">
+        <v>1184</v>
+      </c>
       <c r="H1320" t="s">
         <v>172</v>
       </c>
+      <c r="I1320" t="s">
+        <v>166</v>
+      </c>
       <c r="M1320" t="s">
-        <v>3326</v>
+        <v>3334</v>
       </c>
     </row>
     <row r="1321" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1321">
-        <v>1444</v>
+        <v>1447</v>
       </c>
       <c r="B1321" t="s">
-        <v>3327</v>
+        <v>3335</v>
       </c>
       <c r="C1321" t="s">
-        <v>3328</v>
+        <v>3331</v>
       </c>
       <c r="D1321" t="s">
         <v>405</v>
       </c>
+      <c r="E1321" t="s">
+        <v>967</v>
+      </c>
+      <c r="F1321" t="s">
+        <v>1220</v>
+      </c>
       <c r="H1321" t="s">
-        <v>172</v>
+        <v>332</v>
+      </c>
+      <c r="I1321" t="s">
+        <v>166</v>
       </c>
       <c r="M1321" t="s">
-        <v>3329</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="1322" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1322">
-        <v>1445</v>
+        <v>1448</v>
       </c>
       <c r="B1322" t="s">
-        <v>3330</v>
+        <v>3337</v>
       </c>
       <c r="C1322" t="s">
         <v>3331</v>
@@ -56561,53 +56642,56 @@
         <v>405</v>
       </c>
       <c r="E1322" t="s">
-        <v>1184</v>
+        <v>967</v>
+      </c>
+      <c r="F1322" t="s">
+        <v>1220</v>
       </c>
       <c r="H1322" t="s">
-        <v>172</v>
+        <v>332</v>
       </c>
       <c r="I1322" t="s">
         <v>166</v>
       </c>
       <c r="M1322" t="s">
-        <v>3332</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="1323" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1323">
-        <v>1446</v>
+        <v>1449</v>
       </c>
       <c r="B1323" t="s">
-        <v>3333</v>
+        <v>3339</v>
       </c>
       <c r="C1323" t="s">
-        <v>3331</v>
+        <v>3340</v>
       </c>
       <c r="D1323" t="s">
         <v>405</v>
       </c>
       <c r="E1323" t="s">
-        <v>1184</v>
+        <v>967</v>
       </c>
       <c r="H1323" t="s">
-        <v>172</v>
+        <v>332</v>
       </c>
       <c r="I1323" t="s">
-        <v>166</v>
+        <v>1320</v>
       </c>
       <c r="M1323" t="s">
-        <v>3334</v>
+        <v>3341</v>
       </c>
     </row>
     <row r="1324" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1324">
-        <v>1447</v>
+        <v>1450</v>
       </c>
       <c r="B1324" t="s">
-        <v>3335</v>
+        <v>3342</v>
       </c>
       <c r="C1324" t="s">
-        <v>3331</v>
+        <v>3340</v>
       </c>
       <c r="D1324" t="s">
         <v>405</v>
@@ -56615,28 +56699,25 @@
       <c r="E1324" t="s">
         <v>967</v>
       </c>
-      <c r="F1324" t="s">
-        <v>1220</v>
-      </c>
       <c r="H1324" t="s">
         <v>332</v>
       </c>
       <c r="I1324" t="s">
-        <v>166</v>
+        <v>1320</v>
       </c>
       <c r="M1324" t="s">
-        <v>3336</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="1325" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1325">
-        <v>1448</v>
+        <v>1451</v>
       </c>
       <c r="B1325" t="s">
-        <v>3337</v>
+        <v>3343</v>
       </c>
       <c r="C1325" t="s">
-        <v>3331</v>
+        <v>3340</v>
       </c>
       <c r="D1325" t="s">
         <v>405</v>
@@ -56644,106 +56725,103 @@
       <c r="E1325" t="s">
         <v>967</v>
       </c>
-      <c r="F1325" t="s">
-        <v>1220</v>
-      </c>
       <c r="H1325" t="s">
         <v>332</v>
       </c>
       <c r="I1325" t="s">
-        <v>166</v>
+        <v>1320</v>
       </c>
       <c r="M1325" t="s">
-        <v>3338</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="1326" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1326">
-        <v>1449</v>
+        <v>1452</v>
       </c>
       <c r="B1326" t="s">
-        <v>3339</v>
+        <v>3344</v>
       </c>
       <c r="C1326" t="s">
-        <v>3340</v>
+        <v>3345</v>
       </c>
       <c r="D1326" t="s">
-        <v>405</v>
+        <v>473</v>
       </c>
       <c r="E1326" t="s">
+        <v>473</v>
+      </c>
+      <c r="F1326" t="s">
         <v>967</v>
       </c>
       <c r="H1326" t="s">
-        <v>332</v>
-      </c>
-      <c r="I1326" t="s">
-        <v>1320</v>
+        <v>1279</v>
       </c>
       <c r="M1326" t="s">
-        <v>3341</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="1327" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1327">
-        <v>1450</v>
+        <v>1453</v>
       </c>
       <c r="B1327" t="s">
-        <v>3342</v>
+        <v>3347</v>
       </c>
       <c r="C1327" t="s">
-        <v>3340</v>
+        <v>3345</v>
       </c>
       <c r="D1327" t="s">
-        <v>405</v>
+        <v>473</v>
       </c>
       <c r="E1327" t="s">
+        <v>473</v>
+      </c>
+      <c r="F1327" t="s">
         <v>967</v>
       </c>
       <c r="H1327" t="s">
-        <v>332</v>
-      </c>
-      <c r="I1327" t="s">
-        <v>1320</v>
+        <v>1279</v>
       </c>
       <c r="M1327" t="s">
-        <v>4450</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="1328" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1328">
-        <v>1451</v>
+        <v>1454</v>
       </c>
       <c r="B1328" t="s">
-        <v>3343</v>
+        <v>3349</v>
       </c>
       <c r="C1328" t="s">
-        <v>3340</v>
+        <v>3345</v>
       </c>
       <c r="D1328" t="s">
-        <v>405</v>
+        <v>473</v>
       </c>
       <c r="E1328" t="s">
+        <v>473</v>
+      </c>
+      <c r="F1328" t="s">
         <v>967</v>
       </c>
       <c r="H1328" t="s">
-        <v>332</v>
-      </c>
-      <c r="I1328" t="s">
-        <v>1320</v>
+        <v>1279</v>
       </c>
       <c r="M1328" t="s">
-        <v>4451</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="1329" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1329">
-        <v>1452</v>
+        <v>1455</v>
       </c>
       <c r="B1329" t="s">
-        <v>3344</v>
+        <v>3351</v>
       </c>
       <c r="C1329" t="s">
-        <v>3345</v>
+        <v>3352</v>
       </c>
       <c r="D1329" t="s">
         <v>473</v>
@@ -56751,25 +56829,22 @@
       <c r="E1329" t="s">
         <v>473</v>
       </c>
-      <c r="F1329" t="s">
-        <v>967</v>
-      </c>
       <c r="H1329" t="s">
-        <v>1279</v>
+        <v>332</v>
       </c>
       <c r="M1329" t="s">
-        <v>3346</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="1330" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1330">
-        <v>1453</v>
+        <v>1456</v>
       </c>
       <c r="B1330" t="s">
-        <v>3347</v>
+        <v>3353</v>
       </c>
       <c r="C1330" t="s">
-        <v>3345</v>
+        <v>3352</v>
       </c>
       <c r="D1330" t="s">
         <v>473</v>
@@ -56777,25 +56852,22 @@
       <c r="E1330" t="s">
         <v>473</v>
       </c>
-      <c r="F1330" t="s">
-        <v>967</v>
-      </c>
       <c r="H1330" t="s">
-        <v>1279</v>
+        <v>332</v>
       </c>
       <c r="M1330" t="s">
-        <v>3348</v>
+        <v>4453</v>
       </c>
     </row>
     <row r="1331" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1331">
-        <v>1454</v>
+        <v>1457</v>
       </c>
       <c r="B1331" t="s">
-        <v>3349</v>
+        <v>3354</v>
       </c>
       <c r="C1331" t="s">
-        <v>3345</v>
+        <v>3352</v>
       </c>
       <c r="D1331" t="s">
         <v>473</v>
@@ -56803,160 +56875,166 @@
       <c r="E1331" t="s">
         <v>473</v>
       </c>
-      <c r="F1331" t="s">
-        <v>967</v>
-      </c>
       <c r="H1331" t="s">
-        <v>1279</v>
+        <v>332</v>
       </c>
       <c r="M1331" t="s">
-        <v>3350</v>
+        <v>4454</v>
       </c>
     </row>
     <row r="1332" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1332">
-        <v>1455</v>
+        <v>1458</v>
       </c>
       <c r="B1332" t="s">
-        <v>3351</v>
+        <v>3355</v>
       </c>
       <c r="C1332" t="s">
-        <v>3352</v>
+        <v>3356</v>
       </c>
       <c r="D1332" t="s">
-        <v>473</v>
+        <v>2316</v>
       </c>
       <c r="E1332" t="s">
-        <v>473</v>
+        <v>531</v>
+      </c>
+      <c r="F1332" t="s">
+        <v>3357</v>
       </c>
       <c r="H1332" t="s">
-        <v>332</v>
+        <v>551</v>
+      </c>
+      <c r="I1332" t="s">
+        <v>3358</v>
       </c>
       <c r="M1332" t="s">
-        <v>4452</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="1333" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1333">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="B1333" t="s">
-        <v>3353</v>
+        <v>3360</v>
       </c>
       <c r="C1333" t="s">
-        <v>3352</v>
+        <v>3356</v>
       </c>
       <c r="D1333" t="s">
-        <v>473</v>
+        <v>2316</v>
       </c>
       <c r="E1333" t="s">
-        <v>473</v>
+        <v>2316</v>
+      </c>
+      <c r="F1333" t="s">
+        <v>3357</v>
       </c>
       <c r="H1333" t="s">
-        <v>332</v>
+        <v>551</v>
+      </c>
+      <c r="I1333" t="s">
+        <v>3358</v>
       </c>
       <c r="M1333" t="s">
-        <v>4453</v>
+        <v>3361</v>
       </c>
     </row>
     <row r="1334" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1334">
-        <v>1457</v>
+        <v>1460</v>
       </c>
       <c r="B1334" t="s">
-        <v>3354</v>
+        <v>3362</v>
       </c>
       <c r="C1334" t="s">
-        <v>3352</v>
+        <v>3356</v>
       </c>
       <c r="D1334" t="s">
-        <v>473</v>
+        <v>2316</v>
       </c>
       <c r="E1334" t="s">
-        <v>473</v>
+        <v>14</v>
+      </c>
+      <c r="F1334" t="s">
+        <v>154</v>
       </c>
       <c r="H1334" t="s">
-        <v>332</v>
+        <v>551</v>
+      </c>
+      <c r="I1334" t="s">
+        <v>1492</v>
       </c>
       <c r="M1334" t="s">
-        <v>4454</v>
+        <v>4455</v>
       </c>
     </row>
     <row r="1335" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1335">
-        <v>1458</v>
+        <v>1461</v>
       </c>
       <c r="B1335" t="s">
-        <v>3355</v>
+        <v>3363</v>
       </c>
       <c r="C1335" t="s">
-        <v>3356</v>
-      </c>
-      <c r="D1335" t="s">
-        <v>2316</v>
+        <v>3364</v>
+      </c>
+      <c r="D1335">
+        <v>68000</v>
       </c>
       <c r="E1335" t="s">
-        <v>531</v>
-      </c>
-      <c r="F1335" t="s">
-        <v>3357</v>
+        <v>154</v>
       </c>
       <c r="H1335" t="s">
         <v>551</v>
       </c>
       <c r="I1335" t="s">
-        <v>3358</v>
+        <v>1492</v>
       </c>
       <c r="M1335" t="s">
-        <v>3359</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="1336" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1336">
-        <v>1459</v>
+        <v>1462</v>
       </c>
       <c r="B1336" t="s">
-        <v>3360</v>
+        <v>3366</v>
       </c>
       <c r="C1336" t="s">
-        <v>3356</v>
-      </c>
-      <c r="D1336" t="s">
-        <v>2316</v>
+        <v>3364</v>
+      </c>
+      <c r="D1336">
+        <v>68000</v>
       </c>
       <c r="E1336" t="s">
-        <v>2316</v>
-      </c>
-      <c r="F1336" t="s">
-        <v>3357</v>
+        <v>154</v>
       </c>
       <c r="H1336" t="s">
         <v>551</v>
       </c>
       <c r="I1336" t="s">
-        <v>3358</v>
+        <v>1492</v>
       </c>
       <c r="M1336" t="s">
-        <v>3361</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="1337" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1337">
-        <v>1460</v>
+        <v>1463</v>
       </c>
       <c r="B1337" t="s">
-        <v>3362</v>
+        <v>3367</v>
       </c>
       <c r="C1337" t="s">
-        <v>3356</v>
-      </c>
-      <c r="D1337" t="s">
-        <v>2316</v>
+        <v>3368</v>
+      </c>
+      <c r="D1337">
+        <v>68000</v>
       </c>
       <c r="E1337" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1337" t="s">
         <v>154</v>
       </c>
       <c r="H1337" t="s">
@@ -56966,18 +57044,18 @@
         <v>1492</v>
       </c>
       <c r="M1337" t="s">
-        <v>4455</v>
+        <v>3369</v>
       </c>
     </row>
     <row r="1338" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1338">
-        <v>1461</v>
+        <v>1464</v>
       </c>
       <c r="B1338" t="s">
-        <v>3363</v>
+        <v>3370</v>
       </c>
       <c r="C1338" t="s">
-        <v>3364</v>
+        <v>3368</v>
       </c>
       <c r="D1338">
         <v>68000</v>
@@ -56992,15 +57070,15 @@
         <v>1492</v>
       </c>
       <c r="M1338" t="s">
-        <v>3365</v>
+        <v>3371</v>
       </c>
     </row>
     <row r="1339" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1339">
-        <v>1462</v>
+        <v>1465</v>
       </c>
       <c r="B1339" t="s">
-        <v>3366</v>
+        <v>3372</v>
       </c>
       <c r="C1339" t="s">
         <v>3364</v>
@@ -57018,18 +57096,18 @@
         <v>1492</v>
       </c>
       <c r="M1339" t="s">
-        <v>4456</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="1340" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1340">
-        <v>1463</v>
+        <v>1466</v>
       </c>
       <c r="B1340" t="s">
-        <v>3367</v>
+        <v>3373</v>
       </c>
       <c r="C1340" t="s">
-        <v>3368</v>
+        <v>3364</v>
       </c>
       <c r="D1340">
         <v>68000</v>
@@ -57044,93 +57122,84 @@
         <v>1492</v>
       </c>
       <c r="M1340" t="s">
-        <v>3369</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="1341" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1341">
-        <v>1464</v>
+        <v>1470</v>
       </c>
       <c r="B1341" t="s">
-        <v>3370</v>
+        <v>3381</v>
       </c>
       <c r="C1341" t="s">
-        <v>3368</v>
-      </c>
-      <c r="D1341">
-        <v>68000</v>
+        <v>3382</v>
+      </c>
+      <c r="D1341" t="s">
+        <v>405</v>
       </c>
       <c r="E1341" t="s">
-        <v>154</v>
+        <v>1184</v>
       </c>
       <c r="H1341" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1341" t="s">
-        <v>1492</v>
+        <v>71</v>
       </c>
       <c r="M1341" t="s">
-        <v>3371</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="1342" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1342">
-        <v>1465</v>
+        <v>1471</v>
       </c>
       <c r="B1342" t="s">
-        <v>3372</v>
+        <v>3384</v>
       </c>
       <c r="C1342" t="s">
-        <v>3364</v>
-      </c>
-      <c r="D1342">
-        <v>68000</v>
+        <v>3382</v>
+      </c>
+      <c r="D1342" t="s">
+        <v>405</v>
       </c>
       <c r="E1342" t="s">
-        <v>154</v>
+        <v>1184</v>
       </c>
       <c r="H1342" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1342" t="s">
-        <v>1492</v>
+        <v>71</v>
       </c>
       <c r="M1342" t="s">
-        <v>4457</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="1343" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1343">
-        <v>1466</v>
+        <v>1472</v>
       </c>
       <c r="B1343" t="s">
-        <v>3373</v>
+        <v>3386</v>
       </c>
       <c r="C1343" t="s">
-        <v>3364</v>
-      </c>
-      <c r="D1343">
-        <v>68000</v>
+        <v>3382</v>
+      </c>
+      <c r="D1343" t="s">
+        <v>405</v>
       </c>
       <c r="E1343" t="s">
-        <v>154</v>
+        <v>1184</v>
       </c>
       <c r="H1343" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1343" t="s">
-        <v>1492</v>
+        <v>71</v>
       </c>
       <c r="M1343" t="s">
-        <v>4458</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="1344" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1344">
-        <v>1470</v>
+        <v>1473</v>
       </c>
       <c r="B1344" t="s">
-        <v>3381</v>
+        <v>3388</v>
       </c>
       <c r="C1344" t="s">
         <v>3382</v>
@@ -57145,84 +57214,90 @@
         <v>71</v>
       </c>
       <c r="M1344" t="s">
-        <v>3383</v>
+        <v>3389</v>
       </c>
     </row>
     <row r="1345" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1345">
-        <v>1471</v>
+        <v>1474</v>
       </c>
       <c r="B1345" t="s">
-        <v>3384</v>
+        <v>3390</v>
       </c>
       <c r="C1345" t="s">
-        <v>3382</v>
+        <v>3391</v>
       </c>
       <c r="D1345" t="s">
-        <v>405</v>
+        <v>14</v>
       </c>
       <c r="E1345" t="s">
-        <v>1184</v>
+        <v>14</v>
       </c>
       <c r="H1345" t="s">
         <v>71</v>
       </c>
       <c r="M1345" t="s">
-        <v>3385</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="1346" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1346">
-        <v>1472</v>
+        <v>1475</v>
       </c>
       <c r="B1346" t="s">
-        <v>3386</v>
+        <v>3393</v>
       </c>
       <c r="C1346" t="s">
-        <v>3382</v>
+        <v>3391</v>
       </c>
       <c r="D1346" t="s">
-        <v>405</v>
+        <v>14</v>
       </c>
       <c r="E1346" t="s">
-        <v>1184</v>
+        <v>14</v>
       </c>
       <c r="H1346" t="s">
         <v>71</v>
       </c>
       <c r="M1346" t="s">
-        <v>3387</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="1347" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1347">
-        <v>1473</v>
+        <v>1476</v>
       </c>
       <c r="B1347" t="s">
-        <v>3388</v>
+        <v>3395</v>
       </c>
       <c r="C1347" t="s">
-        <v>3382</v>
+        <v>3391</v>
       </c>
       <c r="D1347" t="s">
-        <v>405</v>
+        <v>14</v>
       </c>
       <c r="E1347" t="s">
-        <v>1184</v>
+        <v>14</v>
       </c>
       <c r="H1347" t="s">
         <v>71</v>
       </c>
+      <c r="I1347" t="s">
+        <v>840</v>
+      </c>
+      <c r="J1347" t="s">
+        <v>166</v>
+      </c>
       <c r="M1347" t="s">
-        <v>3389</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="1348" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1348">
-        <v>1474</v>
+        <v>1477</v>
       </c>
       <c r="B1348" t="s">
-        <v>3390</v>
+        <v>3397</v>
       </c>
       <c r="C1348" t="s">
         <v>3391</v>
@@ -57236,16 +57311,22 @@
       <c r="H1348" t="s">
         <v>71</v>
       </c>
+      <c r="I1348" t="s">
+        <v>840</v>
+      </c>
+      <c r="J1348" t="s">
+        <v>166</v>
+      </c>
       <c r="M1348" t="s">
-        <v>3392</v>
+        <v>3398</v>
       </c>
     </row>
     <row r="1349" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1349">
-        <v>1475</v>
+        <v>1478</v>
       </c>
       <c r="B1349" t="s">
-        <v>3393</v>
+        <v>3399</v>
       </c>
       <c r="C1349" t="s">
         <v>3391</v>
@@ -57259,103 +57340,91 @@
       <c r="H1349" t="s">
         <v>71</v>
       </c>
+      <c r="I1349" t="s">
+        <v>840</v>
+      </c>
+      <c r="J1349" t="s">
+        <v>166</v>
+      </c>
       <c r="M1349" t="s">
-        <v>3394</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="1350" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1350">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="B1350" t="s">
-        <v>3395</v>
+        <v>3401</v>
       </c>
       <c r="C1350" t="s">
-        <v>3391</v>
+        <v>3402</v>
       </c>
       <c r="D1350" t="s">
         <v>14</v>
       </c>
       <c r="E1350" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1350" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1350" t="s">
-        <v>840</v>
-      </c>
-      <c r="J1350" t="s">
-        <v>166</v>
+        <v>962</v>
+      </c>
+      <c r="F1350" t="s">
+        <v>962</v>
       </c>
       <c r="M1350" t="s">
-        <v>3396</v>
+        <v>3403</v>
       </c>
     </row>
     <row r="1351" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1351">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="B1351" t="s">
-        <v>3397</v>
+        <v>3404</v>
       </c>
       <c r="C1351" t="s">
-        <v>3391</v>
+        <v>3402</v>
       </c>
       <c r="D1351" t="s">
         <v>14</v>
       </c>
       <c r="E1351" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1351" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1351" t="s">
-        <v>840</v>
-      </c>
-      <c r="J1351" t="s">
-        <v>166</v>
+        <v>962</v>
+      </c>
+      <c r="F1351" t="s">
+        <v>962</v>
       </c>
       <c r="M1351" t="s">
-        <v>3398</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="1352" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1352">
-        <v>1478</v>
+        <v>1481</v>
       </c>
       <c r="B1352" t="s">
-        <v>3399</v>
+        <v>3406</v>
       </c>
       <c r="C1352" t="s">
-        <v>3391</v>
+        <v>3402</v>
       </c>
       <c r="D1352" t="s">
         <v>14</v>
       </c>
       <c r="E1352" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1352" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1352" t="s">
-        <v>840</v>
-      </c>
-      <c r="J1352" t="s">
-        <v>166</v>
+        <v>962</v>
+      </c>
+      <c r="F1352" t="s">
+        <v>962</v>
       </c>
       <c r="M1352" t="s">
-        <v>3400</v>
+        <v>3407</v>
       </c>
     </row>
     <row r="1353" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1353">
-        <v>1479</v>
+        <v>1482</v>
       </c>
       <c r="B1353" t="s">
-        <v>3401</v>
+        <v>3408</v>
       </c>
       <c r="C1353" t="s">
         <v>3402</v>
@@ -57370,84 +57439,114 @@
         <v>962</v>
       </c>
       <c r="M1353" t="s">
-        <v>3403</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="1354" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1354">
-        <v>1480</v>
+        <v>1489</v>
       </c>
       <c r="B1354" t="s">
-        <v>3404</v>
+        <v>3434</v>
       </c>
       <c r="C1354" t="s">
-        <v>3402</v>
+        <v>3435</v>
       </c>
       <c r="D1354" t="s">
-        <v>14</v>
+        <v>3436</v>
       </c>
       <c r="E1354" t="s">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="F1354" t="s">
-        <v>962</v>
+        <v>967</v>
+      </c>
+      <c r="H1354" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1354" t="s">
+        <v>551</v>
+      </c>
+      <c r="J1354" t="s">
+        <v>333</v>
+      </c>
+      <c r="K1354" t="s">
+        <v>997</v>
       </c>
       <c r="M1354" t="s">
-        <v>3405</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="1355" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1355">
-        <v>1481</v>
+        <v>1490</v>
       </c>
       <c r="B1355" t="s">
-        <v>3406</v>
+        <v>3438</v>
       </c>
       <c r="C1355" t="s">
-        <v>3402</v>
+        <v>3435</v>
       </c>
       <c r="D1355" t="s">
-        <v>14</v>
+        <v>3436</v>
       </c>
       <c r="E1355" t="s">
-        <v>962</v>
-      </c>
-      <c r="F1355" t="s">
-        <v>962</v>
+        <v>967</v>
+      </c>
+      <c r="H1355" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1355" t="s">
+        <v>551</v>
+      </c>
+      <c r="J1355" t="s">
+        <v>166</v>
+      </c>
+      <c r="K1355" t="s">
+        <v>997</v>
       </c>
       <c r="M1355" t="s">
-        <v>3407</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="1356" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1356">
-        <v>1482</v>
+        <v>1491</v>
       </c>
       <c r="B1356" t="s">
-        <v>3408</v>
+        <v>3440</v>
       </c>
       <c r="C1356" t="s">
-        <v>3402</v>
+        <v>3435</v>
       </c>
       <c r="D1356" t="s">
-        <v>14</v>
+        <v>3436</v>
       </c>
       <c r="E1356" t="s">
-        <v>962</v>
-      </c>
-      <c r="F1356" t="s">
-        <v>962</v>
+        <v>967</v>
+      </c>
+      <c r="H1356" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1356" t="s">
+        <v>551</v>
+      </c>
+      <c r="J1356" t="s">
+        <v>166</v>
+      </c>
+      <c r="K1356" t="s">
+        <v>997</v>
       </c>
       <c r="M1356" t="s">
-        <v>3409</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="1357" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1357">
-        <v>1489</v>
+        <v>1492</v>
       </c>
       <c r="B1357" t="s">
-        <v>3434</v>
+        <v>3442</v>
       </c>
       <c r="C1357" t="s">
         <v>3435</v>
@@ -57458,9 +57557,6 @@
       <c r="E1357" t="s">
         <v>967</v>
       </c>
-      <c r="F1357" t="s">
-        <v>967</v>
-      </c>
       <c r="H1357" t="s">
         <v>93</v>
       </c>
@@ -57468,21 +57564,21 @@
         <v>551</v>
       </c>
       <c r="J1357" t="s">
-        <v>333</v>
+        <v>166</v>
       </c>
       <c r="K1357" t="s">
         <v>997</v>
       </c>
       <c r="M1357" t="s">
-        <v>3437</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="1358" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1358">
-        <v>1490</v>
+        <v>1493</v>
       </c>
       <c r="B1358" t="s">
-        <v>3438</v>
+        <v>3443</v>
       </c>
       <c r="C1358" t="s">
         <v>3435</v>
@@ -57506,15 +57602,15 @@
         <v>997</v>
       </c>
       <c r="M1358" t="s">
-        <v>3439</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="1359" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1359">
-        <v>1491</v>
+        <v>1494</v>
       </c>
       <c r="B1359" t="s">
-        <v>3440</v>
+        <v>3445</v>
       </c>
       <c r="C1359" t="s">
         <v>3435</v>
@@ -57538,15 +57634,15 @@
         <v>997</v>
       </c>
       <c r="M1359" t="s">
-        <v>3441</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="1360" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1360">
-        <v>1492</v>
+        <v>1495</v>
       </c>
       <c r="B1360" t="s">
-        <v>3442</v>
+        <v>3447</v>
       </c>
       <c r="C1360" t="s">
         <v>3435</v>
@@ -57570,15 +57666,15 @@
         <v>997</v>
       </c>
       <c r="M1360" t="s">
-        <v>4459</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="1361" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1361">
-        <v>1493</v>
+        <v>1496</v>
       </c>
       <c r="B1361" t="s">
-        <v>3443</v>
+        <v>3449</v>
       </c>
       <c r="C1361" t="s">
         <v>3435</v>
@@ -57602,15 +57698,15 @@
         <v>997</v>
       </c>
       <c r="M1361" t="s">
-        <v>3444</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="1362" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1362">
-        <v>1494</v>
+        <v>1497</v>
       </c>
       <c r="B1362" t="s">
-        <v>3445</v>
+        <v>3451</v>
       </c>
       <c r="C1362" t="s">
         <v>3435</v>
@@ -57634,15 +57730,15 @@
         <v>997</v>
       </c>
       <c r="M1362" t="s">
-        <v>3446</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="1363" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1363">
-        <v>1495</v>
+        <v>1498</v>
       </c>
       <c r="B1363" t="s">
-        <v>3447</v>
+        <v>3452</v>
       </c>
       <c r="C1363" t="s">
         <v>3435</v>
@@ -57666,15 +57762,15 @@
         <v>997</v>
       </c>
       <c r="M1363" t="s">
-        <v>3448</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="1364" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1364">
-        <v>1496</v>
+        <v>1499</v>
       </c>
       <c r="B1364" t="s">
-        <v>3449</v>
+        <v>3453</v>
       </c>
       <c r="C1364" t="s">
         <v>3435</v>
@@ -57698,15 +57794,15 @@
         <v>997</v>
       </c>
       <c r="M1364" t="s">
-        <v>3450</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="1365" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1365">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="B1365" t="s">
-        <v>3451</v>
+        <v>3454</v>
       </c>
       <c r="C1365" t="s">
         <v>3435</v>
@@ -57727,18 +57823,18 @@
         <v>166</v>
       </c>
       <c r="K1365" t="s">
-        <v>997</v>
+        <v>1492</v>
       </c>
       <c r="M1365" t="s">
-        <v>4460</v>
+        <v>4463</v>
       </c>
     </row>
     <row r="1366" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1366">
-        <v>1498</v>
+        <v>1501</v>
       </c>
       <c r="B1366" t="s">
-        <v>3452</v>
+        <v>3455</v>
       </c>
       <c r="C1366" t="s">
         <v>3435</v>
@@ -57759,18 +57855,18 @@
         <v>166</v>
       </c>
       <c r="K1366" t="s">
-        <v>997</v>
+        <v>1492</v>
       </c>
       <c r="M1366" t="s">
-        <v>4461</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1367" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1367">
-        <v>1499</v>
+        <v>1502</v>
       </c>
       <c r="B1367" t="s">
-        <v>3453</v>
+        <v>3456</v>
       </c>
       <c r="C1367" t="s">
         <v>3435</v>
@@ -57791,18 +57887,18 @@
         <v>166</v>
       </c>
       <c r="K1367" t="s">
-        <v>997</v>
+        <v>1492</v>
       </c>
       <c r="M1367" t="s">
-        <v>4462</v>
+        <v>4465</v>
       </c>
     </row>
     <row r="1368" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1368">
-        <v>1500</v>
+        <v>1503</v>
       </c>
       <c r="B1368" t="s">
-        <v>3454</v>
+        <v>3457</v>
       </c>
       <c r="C1368" t="s">
         <v>3435</v>
@@ -57826,15 +57922,15 @@
         <v>1492</v>
       </c>
       <c r="M1368" t="s">
-        <v>4463</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="1369" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1369">
-        <v>1501</v>
+        <v>1504</v>
       </c>
       <c r="B1369" t="s">
-        <v>3455</v>
+        <v>3458</v>
       </c>
       <c r="C1369" t="s">
         <v>3435</v>
@@ -57858,15 +57954,15 @@
         <v>1492</v>
       </c>
       <c r="M1369" t="s">
-        <v>4464</v>
+        <v>4467</v>
       </c>
     </row>
     <row r="1370" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1370">
-        <v>1502</v>
+        <v>1505</v>
       </c>
       <c r="B1370" t="s">
-        <v>3456</v>
+        <v>3459</v>
       </c>
       <c r="C1370" t="s">
         <v>3435</v>
@@ -57890,15 +57986,15 @@
         <v>1492</v>
       </c>
       <c r="M1370" t="s">
-        <v>4465</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="1371" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1371">
-        <v>1503</v>
+        <v>1506</v>
       </c>
       <c r="B1371" t="s">
-        <v>3457</v>
+        <v>3460</v>
       </c>
       <c r="C1371" t="s">
         <v>3435</v>
@@ -57922,15 +58018,15 @@
         <v>1492</v>
       </c>
       <c r="M1371" t="s">
-        <v>4466</v>
+        <v>4469</v>
       </c>
     </row>
     <row r="1372" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1372">
-        <v>1504</v>
+        <v>1507</v>
       </c>
       <c r="B1372" t="s">
-        <v>3458</v>
+        <v>3461</v>
       </c>
       <c r="C1372" t="s">
         <v>3435</v>
@@ -57954,15 +58050,15 @@
         <v>1492</v>
       </c>
       <c r="M1372" t="s">
-        <v>4467</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="1373" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1373">
-        <v>1505</v>
+        <v>1508</v>
       </c>
       <c r="B1373" t="s">
-        <v>3459</v>
+        <v>3462</v>
       </c>
       <c r="C1373" t="s">
         <v>3435</v>
@@ -57970,31 +58066,16 @@
       <c r="D1373" t="s">
         <v>3436</v>
       </c>
-      <c r="E1373" t="s">
-        <v>967</v>
-      </c>
-      <c r="H1373" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1373" t="s">
-        <v>551</v>
-      </c>
-      <c r="J1373" t="s">
-        <v>166</v>
-      </c>
-      <c r="K1373" t="s">
-        <v>1492</v>
-      </c>
       <c r="M1373" t="s">
-        <v>4468</v>
+        <v>4471</v>
       </c>
     </row>
     <row r="1374" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1374">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="B1374" t="s">
-        <v>3460</v>
+        <v>3463</v>
       </c>
       <c r="C1374" t="s">
         <v>3435</v>
@@ -58002,31 +58083,16 @@
       <c r="D1374" t="s">
         <v>3436</v>
       </c>
-      <c r="E1374" t="s">
-        <v>967</v>
-      </c>
-      <c r="H1374" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1374" t="s">
-        <v>551</v>
-      </c>
-      <c r="J1374" t="s">
-        <v>166</v>
-      </c>
-      <c r="K1374" t="s">
-        <v>1492</v>
-      </c>
       <c r="M1374" t="s">
-        <v>4469</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="1375" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1375">
-        <v>1507</v>
+        <v>1510</v>
       </c>
       <c r="B1375" t="s">
-        <v>3461</v>
+        <v>3464</v>
       </c>
       <c r="C1375" t="s">
         <v>3435</v>
@@ -58034,31 +58100,16 @@
       <c r="D1375" t="s">
         <v>3436</v>
       </c>
-      <c r="E1375" t="s">
-        <v>967</v>
-      </c>
-      <c r="H1375" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1375" t="s">
-        <v>551</v>
-      </c>
-      <c r="J1375" t="s">
-        <v>166</v>
-      </c>
-      <c r="K1375" t="s">
-        <v>1492</v>
-      </c>
       <c r="M1375" t="s">
-        <v>4470</v>
+        <v>4473</v>
       </c>
     </row>
     <row r="1376" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1376">
-        <v>1508</v>
+        <v>1511</v>
       </c>
       <c r="B1376" t="s">
-        <v>3462</v>
+        <v>3465</v>
       </c>
       <c r="C1376" t="s">
         <v>3435</v>
@@ -58066,16 +58117,31 @@
       <c r="D1376" t="s">
         <v>3436</v>
       </c>
+      <c r="E1376" t="s">
+        <v>967</v>
+      </c>
+      <c r="H1376" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1376" t="s">
+        <v>551</v>
+      </c>
+      <c r="J1376" t="s">
+        <v>166</v>
+      </c>
+      <c r="K1376" t="s">
+        <v>1492</v>
+      </c>
       <c r="M1376" t="s">
-        <v>4471</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="1377" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1377">
-        <v>1509</v>
+        <v>1512</v>
       </c>
       <c r="B1377" t="s">
-        <v>3463</v>
+        <v>3466</v>
       </c>
       <c r="C1377" t="s">
         <v>3435</v>
@@ -58083,16 +58149,31 @@
       <c r="D1377" t="s">
         <v>3436</v>
       </c>
+      <c r="E1377" t="s">
+        <v>967</v>
+      </c>
+      <c r="H1377" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1377" t="s">
+        <v>551</v>
+      </c>
+      <c r="J1377" t="s">
+        <v>166</v>
+      </c>
+      <c r="K1377" t="s">
+        <v>1492</v>
+      </c>
       <c r="M1377" t="s">
-        <v>4472</v>
+        <v>4475</v>
       </c>
     </row>
     <row r="1378" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1378">
-        <v>1510</v>
+        <v>1513</v>
       </c>
       <c r="B1378" t="s">
-        <v>3464</v>
+        <v>3467</v>
       </c>
       <c r="C1378" t="s">
         <v>3435</v>
@@ -58100,112 +58181,91 @@
       <c r="D1378" t="s">
         <v>3436</v>
       </c>
+      <c r="E1378" t="s">
+        <v>967</v>
+      </c>
+      <c r="H1378" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1378" t="s">
+        <v>551</v>
+      </c>
+      <c r="J1378" t="s">
+        <v>166</v>
+      </c>
+      <c r="K1378" t="s">
+        <v>1492</v>
+      </c>
       <c r="M1378" t="s">
-        <v>4473</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="1379" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1379">
-        <v>1511</v>
+        <v>1514</v>
       </c>
       <c r="B1379" t="s">
-        <v>3465</v>
+        <v>3484</v>
       </c>
       <c r="C1379" t="s">
-        <v>3435</v>
+        <v>3485</v>
       </c>
       <c r="D1379" t="s">
-        <v>3436</v>
-      </c>
-      <c r="E1379" t="s">
-        <v>967</v>
+        <v>3486</v>
       </c>
       <c r="H1379" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1379" t="s">
-        <v>551</v>
-      </c>
-      <c r="J1379" t="s">
-        <v>166</v>
-      </c>
-      <c r="K1379" t="s">
-        <v>1492</v>
+        <v>406</v>
       </c>
       <c r="M1379" t="s">
-        <v>4474</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="1380" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1380">
-        <v>1512</v>
+        <v>1515</v>
       </c>
       <c r="B1380" t="s">
-        <v>3466</v>
+        <v>3488</v>
       </c>
       <c r="C1380" t="s">
-        <v>3435</v>
+        <v>3485</v>
       </c>
       <c r="D1380" t="s">
-        <v>3436</v>
-      </c>
-      <c r="E1380" t="s">
-        <v>967</v>
+        <v>3486</v>
       </c>
       <c r="H1380" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1380" t="s">
-        <v>551</v>
-      </c>
-      <c r="J1380" t="s">
-        <v>166</v>
-      </c>
-      <c r="K1380" t="s">
-        <v>1492</v>
+        <v>406</v>
       </c>
       <c r="M1380" t="s">
-        <v>4475</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="1381" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1381">
-        <v>1513</v>
+        <v>1516</v>
       </c>
       <c r="B1381" t="s">
-        <v>3467</v>
+        <v>3490</v>
       </c>
       <c r="C1381" t="s">
-        <v>3435</v>
+        <v>3485</v>
       </c>
       <c r="D1381" t="s">
-        <v>3436</v>
-      </c>
-      <c r="E1381" t="s">
-        <v>967</v>
+        <v>3486</v>
       </c>
       <c r="H1381" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1381" t="s">
-        <v>551</v>
-      </c>
-      <c r="J1381" t="s">
-        <v>166</v>
-      </c>
-      <c r="K1381" t="s">
-        <v>1492</v>
+        <v>406</v>
       </c>
       <c r="M1381" t="s">
-        <v>4476</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="1382" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1382">
-        <v>1514</v>
+        <v>1517</v>
       </c>
       <c r="B1382" t="s">
-        <v>3484</v>
+        <v>3492</v>
       </c>
       <c r="C1382" t="s">
         <v>3485</v>
@@ -58217,15 +58277,15 @@
         <v>406</v>
       </c>
       <c r="M1382" t="s">
-        <v>3487</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="1383" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1383">
-        <v>1515</v>
+        <v>1518</v>
       </c>
       <c r="B1383" t="s">
-        <v>3488</v>
+        <v>3494</v>
       </c>
       <c r="C1383" t="s">
         <v>3485</v>
@@ -58237,15 +58297,15 @@
         <v>406</v>
       </c>
       <c r="M1383" t="s">
-        <v>3489</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="1384" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1384">
-        <v>1516</v>
+        <v>1519</v>
       </c>
       <c r="B1384" t="s">
-        <v>3490</v>
+        <v>3496</v>
       </c>
       <c r="C1384" t="s">
         <v>3485</v>
@@ -58257,15 +58317,15 @@
         <v>406</v>
       </c>
       <c r="M1384" t="s">
-        <v>3491</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="1385" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1385">
-        <v>1517</v>
+        <v>1520</v>
       </c>
       <c r="B1385" t="s">
-        <v>3492</v>
+        <v>3498</v>
       </c>
       <c r="C1385" t="s">
         <v>3485</v>
@@ -58277,15 +58337,15 @@
         <v>406</v>
       </c>
       <c r="M1385" t="s">
-        <v>3493</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="1386" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1386">
-        <v>1518</v>
+        <v>1521</v>
       </c>
       <c r="B1386" t="s">
-        <v>3494</v>
+        <v>3500</v>
       </c>
       <c r="C1386" t="s">
         <v>3485</v>
@@ -58297,15 +58357,15 @@
         <v>406</v>
       </c>
       <c r="M1386" t="s">
-        <v>3495</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="1387" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1387">
-        <v>1519</v>
+        <v>1522</v>
       </c>
       <c r="B1387" t="s">
-        <v>3496</v>
+        <v>3502</v>
       </c>
       <c r="C1387" t="s">
         <v>3485</v>
@@ -58317,15 +58377,15 @@
         <v>406</v>
       </c>
       <c r="M1387" t="s">
-        <v>3497</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="1388" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1388">
-        <v>1520</v>
+        <v>1523</v>
       </c>
       <c r="B1388" t="s">
-        <v>3498</v>
+        <v>3504</v>
       </c>
       <c r="C1388" t="s">
         <v>3485</v>
@@ -58337,15 +58397,15 @@
         <v>406</v>
       </c>
       <c r="M1388" t="s">
-        <v>3499</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="1389" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1389">
-        <v>1521</v>
+        <v>1524</v>
       </c>
       <c r="B1389" t="s">
-        <v>3500</v>
+        <v>3506</v>
       </c>
       <c r="C1389" t="s">
         <v>3485</v>
@@ -58357,15 +58417,15 @@
         <v>406</v>
       </c>
       <c r="M1389" t="s">
-        <v>3501</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="1390" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1390">
-        <v>1522</v>
+        <v>1525</v>
       </c>
       <c r="B1390" t="s">
-        <v>3502</v>
+        <v>3508</v>
       </c>
       <c r="C1390" t="s">
         <v>3485</v>
@@ -58377,15 +58437,15 @@
         <v>406</v>
       </c>
       <c r="M1390" t="s">
-        <v>3503</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="1391" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1391">
-        <v>1523</v>
+        <v>1526</v>
       </c>
       <c r="B1391" t="s">
-        <v>3504</v>
+        <v>3510</v>
       </c>
       <c r="C1391" t="s">
         <v>3485</v>
@@ -58397,15 +58457,15 @@
         <v>406</v>
       </c>
       <c r="M1391" t="s">
-        <v>3505</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="1392" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1392">
-        <v>1524</v>
+        <v>1527</v>
       </c>
       <c r="B1392" t="s">
-        <v>3506</v>
+        <v>3512</v>
       </c>
       <c r="C1392" t="s">
         <v>3485</v>
@@ -58417,15 +58477,15 @@
         <v>406</v>
       </c>
       <c r="M1392" t="s">
-        <v>3507</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="1393" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1393">
-        <v>1525</v>
+        <v>1528</v>
       </c>
       <c r="B1393" t="s">
-        <v>3508</v>
+        <v>3514</v>
       </c>
       <c r="C1393" t="s">
         <v>3485</v>
@@ -58437,127 +58497,136 @@
         <v>406</v>
       </c>
       <c r="M1393" t="s">
-        <v>3509</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="1394" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1394">
-        <v>1526</v>
+        <v>1529</v>
       </c>
       <c r="B1394" t="s">
-        <v>3510</v>
+        <v>3516</v>
       </c>
       <c r="C1394" t="s">
-        <v>3485</v>
-      </c>
-      <c r="D1394" t="s">
-        <v>3486</v>
+        <v>3517</v>
+      </c>
+      <c r="D1394">
+        <v>68000</v>
+      </c>
+      <c r="E1394" t="s">
+        <v>14</v>
       </c>
       <c r="H1394" t="s">
-        <v>406</v>
+        <v>172</v>
+      </c>
+      <c r="I1394" t="s">
+        <v>93</v>
       </c>
       <c r="M1394" t="s">
-        <v>3511</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="1395" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1395">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="B1395" t="s">
-        <v>3512</v>
+        <v>3519</v>
       </c>
       <c r="C1395" t="s">
-        <v>3485</v>
-      </c>
-      <c r="D1395" t="s">
-        <v>3486</v>
+        <v>3517</v>
+      </c>
+      <c r="D1395">
+        <v>68000</v>
+      </c>
+      <c r="E1395" t="s">
+        <v>14</v>
       </c>
       <c r="H1395" t="s">
-        <v>406</v>
+        <v>172</v>
+      </c>
+      <c r="I1395" t="s">
+        <v>93</v>
       </c>
       <c r="M1395" t="s">
-        <v>3513</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="1396" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1396">
-        <v>1528</v>
+        <v>1531</v>
       </c>
       <c r="B1396" t="s">
-        <v>3514</v>
+        <v>3521</v>
       </c>
       <c r="C1396" t="s">
-        <v>3485</v>
+        <v>3522</v>
       </c>
       <c r="D1396" t="s">
-        <v>3486</v>
+        <v>14</v>
+      </c>
+      <c r="E1396" t="s">
+        <v>154</v>
       </c>
       <c r="H1396" t="s">
-        <v>406</v>
+        <v>172</v>
       </c>
       <c r="M1396" t="s">
-        <v>3515</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="1397" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1397">
-        <v>1529</v>
+        <v>1532</v>
       </c>
       <c r="B1397" t="s">
-        <v>3516</v>
+        <v>3524</v>
       </c>
       <c r="C1397" t="s">
-        <v>3517</v>
-      </c>
-      <c r="D1397">
-        <v>68000</v>
+        <v>3522</v>
+      </c>
+      <c r="D1397" t="s">
+        <v>14</v>
       </c>
       <c r="E1397" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="H1397" t="s">
         <v>172</v>
       </c>
-      <c r="I1397" t="s">
-        <v>93</v>
-      </c>
       <c r="M1397" t="s">
-        <v>3518</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="1398" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1398">
-        <v>1530</v>
+        <v>1533</v>
       </c>
       <c r="B1398" t="s">
-        <v>3519</v>
+        <v>3526</v>
       </c>
       <c r="C1398" t="s">
-        <v>3517</v>
-      </c>
-      <c r="D1398">
-        <v>68000</v>
+        <v>3522</v>
+      </c>
+      <c r="D1398" t="s">
+        <v>14</v>
       </c>
       <c r="E1398" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="H1398" t="s">
         <v>172</v>
       </c>
-      <c r="I1398" t="s">
-        <v>93</v>
-      </c>
       <c r="M1398" t="s">
-        <v>3520</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="1399" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1399">
-        <v>1531</v>
+        <v>1534</v>
       </c>
       <c r="B1399" t="s">
-        <v>3521</v>
+        <v>3528</v>
       </c>
       <c r="C1399" t="s">
         <v>3522</v>
@@ -58572,15 +58641,15 @@
         <v>172</v>
       </c>
       <c r="M1399" t="s">
-        <v>3523</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="1400" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1400">
-        <v>1532</v>
+        <v>1535</v>
       </c>
       <c r="B1400" t="s">
-        <v>3524</v>
+        <v>3530</v>
       </c>
       <c r="C1400" t="s">
         <v>3522</v>
@@ -58595,15 +58664,15 @@
         <v>172</v>
       </c>
       <c r="M1400" t="s">
-        <v>3525</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="1401" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1401">
-        <v>1533</v>
+        <v>1536</v>
       </c>
       <c r="B1401" t="s">
-        <v>3526</v>
+        <v>3532</v>
       </c>
       <c r="C1401" t="s">
         <v>3522</v>
@@ -58618,15 +58687,15 @@
         <v>172</v>
       </c>
       <c r="M1401" t="s">
-        <v>3527</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="1402" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1402">
-        <v>1534</v>
+        <v>1537</v>
       </c>
       <c r="B1402" t="s">
-        <v>3528</v>
+        <v>3534</v>
       </c>
       <c r="C1402" t="s">
         <v>3522</v>
@@ -58641,15 +58710,15 @@
         <v>172</v>
       </c>
       <c r="M1402" t="s">
-        <v>3529</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="1403" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1403">
-        <v>1535</v>
+        <v>1538</v>
       </c>
       <c r="B1403" t="s">
-        <v>3530</v>
+        <v>3536</v>
       </c>
       <c r="C1403" t="s">
         <v>3522</v>
@@ -58664,15 +58733,15 @@
         <v>172</v>
       </c>
       <c r="M1403" t="s">
-        <v>3531</v>
+        <v>3537</v>
       </c>
     </row>
     <row r="1404" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1404">
-        <v>1536</v>
+        <v>1539</v>
       </c>
       <c r="B1404" t="s">
-        <v>3532</v>
+        <v>3538</v>
       </c>
       <c r="C1404" t="s">
         <v>3522</v>
@@ -58687,87 +58756,99 @@
         <v>172</v>
       </c>
       <c r="M1404" t="s">
-        <v>3533</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="1405" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1405">
-        <v>1537</v>
+        <v>1543</v>
       </c>
       <c r="B1405" t="s">
-        <v>3534</v>
+        <v>3571</v>
       </c>
       <c r="C1405" t="s">
-        <v>3522</v>
+        <v>3572</v>
       </c>
       <c r="D1405" t="s">
-        <v>14</v>
+        <v>1105</v>
       </c>
       <c r="E1405" t="s">
-        <v>154</v>
+        <v>1105</v>
       </c>
       <c r="H1405" t="s">
-        <v>172</v>
+        <v>349</v>
+      </c>
+      <c r="I1405" t="s">
+        <v>1492</v>
       </c>
       <c r="M1405" t="s">
-        <v>3535</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="1406" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1406">
-        <v>1538</v>
+        <v>1544</v>
       </c>
       <c r="B1406" t="s">
-        <v>3536</v>
+        <v>3574</v>
       </c>
       <c r="C1406" t="s">
-        <v>3522</v>
+        <v>3572</v>
       </c>
       <c r="D1406" t="s">
-        <v>14</v>
+        <v>1105</v>
       </c>
       <c r="E1406" t="s">
-        <v>154</v>
+        <v>1105</v>
       </c>
       <c r="H1406" t="s">
-        <v>172</v>
+        <v>349</v>
+      </c>
+      <c r="I1406" t="s">
+        <v>1492</v>
       </c>
       <c r="M1406" t="s">
-        <v>3537</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="1407" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1407">
-        <v>1539</v>
+        <v>1545</v>
       </c>
       <c r="B1407" t="s">
-        <v>3538</v>
+        <v>3576</v>
       </c>
       <c r="C1407" t="s">
-        <v>3522</v>
+        <v>3577</v>
       </c>
       <c r="D1407" t="s">
-        <v>14</v>
+        <v>1105</v>
       </c>
       <c r="E1407" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F1407" t="s">
         <v>154</v>
       </c>
       <c r="H1407" t="s">
-        <v>172</v>
+        <v>349</v>
+      </c>
+      <c r="I1407" t="s">
+        <v>1492</v>
       </c>
       <c r="M1407" t="s">
-        <v>3539</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="1408" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1408">
-        <v>1543</v>
+        <v>1546</v>
       </c>
       <c r="B1408" t="s">
-        <v>3571</v>
+        <v>3579</v>
       </c>
       <c r="C1408" t="s">
-        <v>3572</v>
+        <v>3577</v>
       </c>
       <c r="D1408" t="s">
         <v>1105</v>
@@ -58775,6 +58856,9 @@
       <c r="E1408" t="s">
         <v>1105</v>
       </c>
+      <c r="F1408" t="s">
+        <v>154</v>
+      </c>
       <c r="H1408" t="s">
         <v>349</v>
       </c>
@@ -58782,18 +58866,18 @@
         <v>1492</v>
       </c>
       <c r="M1408" t="s">
-        <v>3573</v>
+        <v>4482</v>
       </c>
     </row>
     <row r="1409" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1409">
-        <v>1544</v>
+        <v>1547</v>
       </c>
       <c r="B1409" t="s">
-        <v>3574</v>
+        <v>3580</v>
       </c>
       <c r="C1409" t="s">
-        <v>3572</v>
+        <v>3577</v>
       </c>
       <c r="D1409" t="s">
         <v>1105</v>
@@ -58801,6 +58885,9 @@
       <c r="E1409" t="s">
         <v>1105</v>
       </c>
+      <c r="F1409" t="s">
+        <v>154</v>
+      </c>
       <c r="H1409" t="s">
         <v>349</v>
       </c>
@@ -58808,26 +58895,23 @@
         <v>1492</v>
       </c>
       <c r="M1409" t="s">
-        <v>3575</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="1410" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1410">
-        <v>1545</v>
+        <v>1548</v>
       </c>
       <c r="B1410" t="s">
-        <v>3576</v>
+        <v>3582</v>
       </c>
       <c r="C1410" t="s">
-        <v>3577</v>
-      </c>
-      <c r="D1410" t="s">
-        <v>1105</v>
+        <v>3583</v>
+      </c>
+      <c r="D1410">
+        <v>68000</v>
       </c>
       <c r="E1410" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F1410" t="s">
         <v>154</v>
       </c>
       <c r="H1410" t="s">
@@ -58837,76 +58921,58 @@
         <v>1492</v>
       </c>
       <c r="M1410" t="s">
-        <v>3578</v>
+        <v>3584</v>
       </c>
     </row>
     <row r="1411" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1411">
-        <v>1546</v>
+        <v>1549</v>
       </c>
       <c r="B1411" t="s">
-        <v>3579</v>
+        <v>3585</v>
       </c>
       <c r="C1411" t="s">
-        <v>3577</v>
-      </c>
-      <c r="D1411" t="s">
-        <v>1105</v>
+        <v>3586</v>
+      </c>
+      <c r="D1411">
+        <v>68000</v>
       </c>
       <c r="E1411" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F1411" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1411" t="s">
-        <v>349</v>
-      </c>
-      <c r="I1411" t="s">
-        <v>1492</v>
+        <v>154</v>
       </c>
       <c r="M1411" t="s">
-        <v>4482</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="1412" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1412">
-        <v>1547</v>
+        <v>1550</v>
       </c>
       <c r="B1412" t="s">
-        <v>3580</v>
+        <v>3588</v>
       </c>
       <c r="C1412" t="s">
-        <v>3577</v>
-      </c>
-      <c r="D1412" t="s">
-        <v>1105</v>
+        <v>3586</v>
+      </c>
+      <c r="D1412">
+        <v>68000</v>
       </c>
       <c r="E1412" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F1412" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1412" t="s">
-        <v>349</v>
-      </c>
-      <c r="I1412" t="s">
-        <v>1492</v>
+        <v>154</v>
       </c>
       <c r="M1412" t="s">
-        <v>3581</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="1413" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1413">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="B1413" t="s">
-        <v>3582</v>
+        <v>3590</v>
       </c>
       <c r="C1413" t="s">
-        <v>3583</v>
+        <v>3586</v>
       </c>
       <c r="D1413">
         <v>68000</v>
@@ -58915,24 +58981,24 @@
         <v>154</v>
       </c>
       <c r="H1413" t="s">
-        <v>349</v>
+        <v>551</v>
       </c>
       <c r="I1413" t="s">
-        <v>1492</v>
+        <v>3358</v>
       </c>
       <c r="M1413" t="s">
-        <v>3584</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="1414" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1414">
-        <v>1549</v>
+        <v>1552</v>
       </c>
       <c r="B1414" t="s">
-        <v>3585</v>
+        <v>3592</v>
       </c>
       <c r="C1414" t="s">
-        <v>3586</v>
+        <v>3593</v>
       </c>
       <c r="D1414">
         <v>68000</v>
@@ -58940,19 +59006,25 @@
       <c r="E1414" t="s">
         <v>154</v>
       </c>
+      <c r="H1414" t="s">
+        <v>349</v>
+      </c>
+      <c r="I1414" t="s">
+        <v>1275</v>
+      </c>
       <c r="M1414" t="s">
-        <v>3587</v>
+        <v>3594</v>
       </c>
     </row>
     <row r="1415" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1415">
-        <v>1550</v>
+        <v>1553</v>
       </c>
       <c r="B1415" t="s">
-        <v>3588</v>
+        <v>3595</v>
       </c>
       <c r="C1415" t="s">
-        <v>3586</v>
+        <v>3593</v>
       </c>
       <c r="D1415">
         <v>68000</v>
@@ -58960,19 +59032,25 @@
       <c r="E1415" t="s">
         <v>154</v>
       </c>
+      <c r="H1415" t="s">
+        <v>349</v>
+      </c>
+      <c r="I1415" t="s">
+        <v>1275</v>
+      </c>
       <c r="M1415" t="s">
-        <v>3589</v>
+        <v>3596</v>
       </c>
     </row>
     <row r="1416" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1416">
-        <v>1551</v>
+        <v>1554</v>
       </c>
       <c r="B1416" t="s">
-        <v>3590</v>
+        <v>3597</v>
       </c>
       <c r="C1416" t="s">
-        <v>3586</v>
+        <v>3593</v>
       </c>
       <c r="D1416">
         <v>68000</v>
@@ -58981,21 +59059,21 @@
         <v>154</v>
       </c>
       <c r="H1416" t="s">
-        <v>551</v>
+        <v>349</v>
       </c>
       <c r="I1416" t="s">
-        <v>3358</v>
+        <v>1275</v>
       </c>
       <c r="M1416" t="s">
-        <v>3591</v>
+        <v>3598</v>
       </c>
     </row>
     <row r="1417" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1417">
-        <v>1552</v>
+        <v>1555</v>
       </c>
       <c r="B1417" t="s">
-        <v>3592</v>
+        <v>3599</v>
       </c>
       <c r="C1417" t="s">
         <v>3593</v>
@@ -59013,15 +59091,15 @@
         <v>1275</v>
       </c>
       <c r="M1417" t="s">
-        <v>3594</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="1418" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1418">
-        <v>1553</v>
+        <v>1556</v>
       </c>
       <c r="B1418" t="s">
-        <v>3595</v>
+        <v>3601</v>
       </c>
       <c r="C1418" t="s">
         <v>3593</v>
@@ -59039,18 +59117,18 @@
         <v>1275</v>
       </c>
       <c r="M1418" t="s">
-        <v>3596</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="1419" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1419">
-        <v>1554</v>
+        <v>1557</v>
       </c>
       <c r="B1419" t="s">
-        <v>3597</v>
+        <v>3603</v>
       </c>
       <c r="C1419" t="s">
-        <v>3593</v>
+        <v>3604</v>
       </c>
       <c r="D1419">
         <v>68000</v>
@@ -59062,21 +59140,21 @@
         <v>349</v>
       </c>
       <c r="I1419" t="s">
-        <v>1275</v>
+        <v>1492</v>
       </c>
       <c r="M1419" t="s">
-        <v>3598</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1420" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1420">
-        <v>1555</v>
+        <v>1558</v>
       </c>
       <c r="B1420" t="s">
-        <v>3599</v>
+        <v>3606</v>
       </c>
       <c r="C1420" t="s">
-        <v>3593</v>
+        <v>3604</v>
       </c>
       <c r="D1420">
         <v>68000</v>
@@ -59088,159 +59166,150 @@
         <v>349</v>
       </c>
       <c r="I1420" t="s">
-        <v>1275</v>
+        <v>1492</v>
       </c>
       <c r="M1420" t="s">
-        <v>3600</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="1421" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1421">
-        <v>1556</v>
+        <v>1559</v>
       </c>
       <c r="B1421" t="s">
-        <v>3601</v>
+        <v>3608</v>
       </c>
       <c r="C1421" t="s">
-        <v>3593</v>
-      </c>
-      <c r="D1421">
-        <v>68000</v>
-      </c>
-      <c r="E1421" t="s">
-        <v>154</v>
+        <v>3609</v>
+      </c>
+      <c r="D1421" t="s">
+        <v>14</v>
       </c>
       <c r="H1421" t="s">
-        <v>349</v>
-      </c>
-      <c r="I1421" t="s">
-        <v>1275</v>
+        <v>172</v>
       </c>
       <c r="M1421" t="s">
-        <v>3602</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="1422" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1422">
-        <v>1557</v>
+        <v>1560</v>
       </c>
       <c r="B1422" t="s">
-        <v>3603</v>
+        <v>3611</v>
       </c>
       <c r="C1422" t="s">
-        <v>3604</v>
-      </c>
-      <c r="D1422">
-        <v>68000</v>
-      </c>
-      <c r="E1422" t="s">
-        <v>154</v>
+        <v>3609</v>
+      </c>
+      <c r="D1422" t="s">
+        <v>14</v>
       </c>
       <c r="H1422" t="s">
-        <v>349</v>
-      </c>
-      <c r="I1422" t="s">
-        <v>1492</v>
+        <v>172</v>
       </c>
       <c r="M1422" t="s">
-        <v>3605</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="1423" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1423">
-        <v>1558</v>
+        <v>1561</v>
       </c>
       <c r="B1423" t="s">
-        <v>3606</v>
+        <v>3613</v>
       </c>
       <c r="C1423" t="s">
-        <v>3604</v>
-      </c>
-      <c r="D1423">
-        <v>68000</v>
-      </c>
-      <c r="E1423" t="s">
-        <v>154</v>
+        <v>3609</v>
+      </c>
+      <c r="D1423" t="s">
+        <v>14</v>
       </c>
       <c r="H1423" t="s">
-        <v>349</v>
-      </c>
-      <c r="I1423" t="s">
-        <v>1492</v>
+        <v>172</v>
       </c>
       <c r="M1423" t="s">
-        <v>3607</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="1424" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1424">
-        <v>1559</v>
+        <v>1562</v>
       </c>
       <c r="B1424" t="s">
-        <v>3608</v>
+        <v>3615</v>
       </c>
       <c r="C1424" t="s">
-        <v>3609</v>
+        <v>3616</v>
       </c>
       <c r="D1424" t="s">
-        <v>14</v>
+        <v>473</v>
+      </c>
+      <c r="E1424" t="s">
+        <v>967</v>
       </c>
       <c r="H1424" t="s">
         <v>172</v>
       </c>
       <c r="M1424" t="s">
-        <v>3610</v>
+        <v>3617</v>
       </c>
     </row>
     <row r="1425" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1425">
-        <v>1560</v>
+        <v>1563</v>
       </c>
       <c r="B1425" t="s">
-        <v>3611</v>
+        <v>3618</v>
       </c>
       <c r="C1425" t="s">
-        <v>3609</v>
+        <v>3616</v>
       </c>
       <c r="D1425" t="s">
-        <v>14</v>
+        <v>473</v>
+      </c>
+      <c r="E1425" t="s">
+        <v>967</v>
       </c>
       <c r="H1425" t="s">
         <v>172</v>
       </c>
       <c r="M1425" t="s">
-        <v>3612</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="1426" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1426">
-        <v>1561</v>
+        <v>1564</v>
       </c>
       <c r="B1426" t="s">
-        <v>3613</v>
+        <v>3620</v>
       </c>
       <c r="C1426" t="s">
-        <v>3609</v>
+        <v>3621</v>
       </c>
       <c r="D1426" t="s">
-        <v>14</v>
+        <v>473</v>
+      </c>
+      <c r="E1426" t="s">
+        <v>967</v>
       </c>
       <c r="H1426" t="s">
-        <v>172</v>
+        <v>1279</v>
       </c>
       <c r="M1426" t="s">
-        <v>3614</v>
+        <v>3622</v>
       </c>
     </row>
     <row r="1427" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1427">
-        <v>1562</v>
+        <v>1565</v>
       </c>
       <c r="B1427" t="s">
-        <v>3615</v>
+        <v>3623</v>
       </c>
       <c r="C1427" t="s">
-        <v>3616</v>
+        <v>3621</v>
       </c>
       <c r="D1427" t="s">
         <v>473</v>
@@ -59249,21 +59318,21 @@
         <v>967</v>
       </c>
       <c r="H1427" t="s">
-        <v>172</v>
+        <v>1279</v>
       </c>
       <c r="M1427" t="s">
-        <v>3617</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="1428" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1428">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="B1428" t="s">
-        <v>3618</v>
+        <v>3625</v>
       </c>
       <c r="C1428" t="s">
-        <v>3616</v>
+        <v>3621</v>
       </c>
       <c r="D1428" t="s">
         <v>473</v>
@@ -59272,228 +59341,231 @@
         <v>967</v>
       </c>
       <c r="H1428" t="s">
-        <v>172</v>
+        <v>1279</v>
       </c>
       <c r="M1428" t="s">
-        <v>3619</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="1429" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1429">
-        <v>1564</v>
+        <v>1567</v>
       </c>
       <c r="B1429" t="s">
-        <v>3620</v>
+        <v>3627</v>
       </c>
       <c r="C1429" t="s">
-        <v>3621</v>
+        <v>3628</v>
       </c>
       <c r="D1429" t="s">
-        <v>473</v>
+        <v>405</v>
       </c>
       <c r="E1429" t="s">
-        <v>967</v>
+        <v>14</v>
       </c>
       <c r="H1429" t="s">
-        <v>1279</v>
+        <v>172</v>
       </c>
       <c r="M1429" t="s">
-        <v>3622</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="1430" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1430">
-        <v>1565</v>
+        <v>1568</v>
       </c>
       <c r="B1430" t="s">
-        <v>3623</v>
+        <v>3630</v>
       </c>
       <c r="C1430" t="s">
-        <v>3621</v>
+        <v>3628</v>
       </c>
       <c r="D1430" t="s">
-        <v>473</v>
+        <v>405</v>
       </c>
       <c r="E1430" t="s">
-        <v>967</v>
+        <v>14</v>
       </c>
       <c r="H1430" t="s">
-        <v>1279</v>
+        <v>172</v>
       </c>
       <c r="M1430" t="s">
-        <v>3624</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="1431" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1431">
-        <v>1566</v>
+        <v>1569</v>
       </c>
       <c r="B1431" t="s">
-        <v>3625</v>
+        <v>3632</v>
       </c>
       <c r="C1431" t="s">
-        <v>3621</v>
+        <v>3633</v>
       </c>
       <c r="D1431" t="s">
-        <v>473</v>
+        <v>14</v>
       </c>
       <c r="E1431" t="s">
-        <v>967</v>
+        <v>154</v>
       </c>
       <c r="H1431" t="s">
         <v>1279</v>
       </c>
       <c r="M1431" t="s">
-        <v>3626</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="1432" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1432">
-        <v>1567</v>
+        <v>1570</v>
       </c>
       <c r="B1432" t="s">
-        <v>3627</v>
+        <v>3635</v>
       </c>
       <c r="C1432" t="s">
-        <v>3628</v>
-      </c>
-      <c r="D1432" t="s">
-        <v>405</v>
+        <v>3636</v>
+      </c>
+      <c r="D1432">
+        <v>68000</v>
       </c>
       <c r="E1432" t="s">
-        <v>14</v>
+        <v>967</v>
       </c>
       <c r="H1432" t="s">
-        <v>172</v>
+        <v>71</v>
+      </c>
+      <c r="I1432" t="s">
+        <v>3268</v>
       </c>
       <c r="M1432" t="s">
-        <v>3629</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="1433" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1433">
-        <v>1568</v>
+        <v>1571</v>
       </c>
       <c r="B1433" t="s">
-        <v>3630</v>
+        <v>3638</v>
       </c>
       <c r="C1433" t="s">
-        <v>3628</v>
-      </c>
-      <c r="D1433" t="s">
-        <v>405</v>
-      </c>
-      <c r="E1433" t="s">
-        <v>14</v>
+        <v>3639</v>
+      </c>
+      <c r="D1433">
+        <v>68000</v>
+      </c>
+      <c r="E1433">
+        <v>68000</v>
+      </c>
+      <c r="F1433">
+        <v>68000</v>
+      </c>
+      <c r="G1433" t="s">
+        <v>973</v>
       </c>
       <c r="H1433" t="s">
-        <v>172</v>
+        <v>551</v>
+      </c>
+      <c r="I1433" t="s">
+        <v>2375</v>
       </c>
       <c r="M1433" t="s">
-        <v>3631</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="1434" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1434">
-        <v>1569</v>
+        <v>1572</v>
       </c>
       <c r="B1434" t="s">
-        <v>3632</v>
+        <v>3641</v>
       </c>
       <c r="C1434" t="s">
-        <v>3633</v>
-      </c>
-      <c r="D1434" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1434" t="s">
-        <v>154</v>
+        <v>3639</v>
+      </c>
+      <c r="D1434">
+        <v>68000</v>
+      </c>
+      <c r="E1434">
+        <v>68000</v>
+      </c>
+      <c r="F1434">
+        <v>68000</v>
+      </c>
+      <c r="G1434" t="s">
+        <v>973</v>
       </c>
       <c r="H1434" t="s">
-        <v>1279</v>
+        <v>551</v>
+      </c>
+      <c r="I1434" t="s">
+        <v>2375</v>
       </c>
       <c r="M1434" t="s">
-        <v>3634</v>
+        <v>3642</v>
       </c>
     </row>
     <row r="1435" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1435">
-        <v>1570</v>
+        <v>1573</v>
       </c>
       <c r="B1435" t="s">
-        <v>3635</v>
+        <v>3643</v>
       </c>
       <c r="C1435" t="s">
-        <v>3636</v>
+        <v>3644</v>
       </c>
       <c r="D1435">
         <v>68000</v>
       </c>
       <c r="E1435" t="s">
-        <v>967</v>
+        <v>154</v>
       </c>
       <c r="H1435" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1435" t="s">
-        <v>3268</v>
+        <v>336</v>
       </c>
       <c r="M1435" t="s">
-        <v>3637</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="1436" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1436">
-        <v>1571</v>
+        <v>1574</v>
       </c>
       <c r="B1436" t="s">
-        <v>3638</v>
+        <v>3646</v>
       </c>
       <c r="C1436" t="s">
-        <v>3639</v>
+        <v>3644</v>
       </c>
       <c r="D1436">
         <v>68000</v>
       </c>
-      <c r="E1436">
-        <v>68000</v>
-      </c>
-      <c r="F1436">
-        <v>68000</v>
-      </c>
-      <c r="G1436" t="s">
-        <v>973</v>
+      <c r="E1436" t="s">
+        <v>154</v>
       </c>
       <c r="H1436" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1436" t="s">
-        <v>2375</v>
+        <v>336</v>
       </c>
       <c r="M1436" t="s">
-        <v>3640</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="1437" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1437">
-        <v>1572</v>
+        <v>1575</v>
       </c>
       <c r="B1437" t="s">
-        <v>3641</v>
+        <v>3648</v>
       </c>
       <c r="C1437" t="s">
-        <v>3639</v>
+        <v>3644</v>
       </c>
       <c r="D1437">
         <v>68000</v>
       </c>
-      <c r="E1437">
-        <v>68000</v>
-      </c>
-      <c r="F1437">
-        <v>68000</v>
-      </c>
-      <c r="G1437" t="s">
+      <c r="E1437" t="s">
         <v>973</v>
       </c>
       <c r="H1437" t="s">
@@ -59503,15 +59575,15 @@
         <v>2375</v>
       </c>
       <c r="M1437" t="s">
-        <v>3642</v>
+        <v>4483</v>
       </c>
     </row>
     <row r="1438" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1438">
-        <v>1573</v>
+        <v>1576</v>
       </c>
       <c r="B1438" t="s">
-        <v>3643</v>
+        <v>3649</v>
       </c>
       <c r="C1438" t="s">
         <v>3644</v>
@@ -59520,21 +59592,24 @@
         <v>68000</v>
       </c>
       <c r="E1438" t="s">
-        <v>154</v>
+        <v>973</v>
       </c>
       <c r="H1438" t="s">
-        <v>336</v>
+        <v>551</v>
+      </c>
+      <c r="I1438" t="s">
+        <v>2375</v>
       </c>
       <c r="M1438" t="s">
-        <v>3645</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="1439" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1439">
-        <v>1574</v>
+        <v>1577</v>
       </c>
       <c r="B1439" t="s">
-        <v>3646</v>
+        <v>3650</v>
       </c>
       <c r="C1439" t="s">
         <v>3644</v>
@@ -59543,21 +59618,24 @@
         <v>68000</v>
       </c>
       <c r="E1439" t="s">
-        <v>154</v>
+        <v>973</v>
       </c>
       <c r="H1439" t="s">
-        <v>336</v>
+        <v>551</v>
+      </c>
+      <c r="I1439" t="s">
+        <v>2375</v>
       </c>
       <c r="M1439" t="s">
-        <v>3647</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1440" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1440">
-        <v>1575</v>
+        <v>1578</v>
       </c>
       <c r="B1440" t="s">
-        <v>3648</v>
+        <v>3652</v>
       </c>
       <c r="C1440" t="s">
         <v>3644</v>
@@ -59575,15 +59653,15 @@
         <v>2375</v>
       </c>
       <c r="M1440" t="s">
-        <v>4483</v>
+        <v>3653</v>
       </c>
     </row>
     <row r="1441" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1441">
-        <v>1576</v>
+        <v>1579</v>
       </c>
       <c r="B1441" t="s">
-        <v>3649</v>
+        <v>3654</v>
       </c>
       <c r="C1441" t="s">
         <v>3644</v>
@@ -59601,15 +59679,15 @@
         <v>2375</v>
       </c>
       <c r="M1441" t="s">
-        <v>4484</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="1442" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1442">
-        <v>1577</v>
+        <v>1580</v>
       </c>
       <c r="B1442" t="s">
-        <v>3650</v>
+        <v>3656</v>
       </c>
       <c r="C1442" t="s">
         <v>3644</v>
@@ -59627,15 +59705,15 @@
         <v>2375</v>
       </c>
       <c r="M1442" t="s">
-        <v>3651</v>
+        <v>3657</v>
       </c>
     </row>
     <row r="1443" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1443">
-        <v>1578</v>
+        <v>1581</v>
       </c>
       <c r="B1443" t="s">
-        <v>3652</v>
+        <v>3658</v>
       </c>
       <c r="C1443" t="s">
         <v>3644</v>
@@ -59653,15 +59731,15 @@
         <v>2375</v>
       </c>
       <c r="M1443" t="s">
-        <v>3653</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="1444" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1444">
-        <v>1579</v>
+        <v>1582</v>
       </c>
       <c r="B1444" t="s">
-        <v>3654</v>
+        <v>3660</v>
       </c>
       <c r="C1444" t="s">
         <v>3644</v>
@@ -59679,15 +59757,15 @@
         <v>2375</v>
       </c>
       <c r="M1444" t="s">
-        <v>3655</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="1445" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1445">
-        <v>1580</v>
+        <v>1583</v>
       </c>
       <c r="B1445" t="s">
-        <v>3656</v>
+        <v>3662</v>
       </c>
       <c r="C1445" t="s">
         <v>3644</v>
@@ -59705,15 +59783,15 @@
         <v>2375</v>
       </c>
       <c r="M1445" t="s">
-        <v>3657</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="1446" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1446">
-        <v>1581</v>
+        <v>1584</v>
       </c>
       <c r="B1446" t="s">
-        <v>3658</v>
+        <v>3664</v>
       </c>
       <c r="C1446" t="s">
         <v>3644</v>
@@ -59731,15 +59809,15 @@
         <v>2375</v>
       </c>
       <c r="M1446" t="s">
-        <v>3659</v>
+        <v>3665</v>
       </c>
     </row>
     <row r="1447" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1447">
-        <v>1582</v>
+        <v>1585</v>
       </c>
       <c r="B1447" t="s">
-        <v>3660</v>
+        <v>3666</v>
       </c>
       <c r="C1447" t="s">
         <v>3644</v>
@@ -59757,15 +59835,15 @@
         <v>2375</v>
       </c>
       <c r="M1447" t="s">
-        <v>3661</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="1448" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1448">
-        <v>1583</v>
+        <v>1586</v>
       </c>
       <c r="B1448" t="s">
-        <v>3662</v>
+        <v>3668</v>
       </c>
       <c r="C1448" t="s">
         <v>3644</v>
@@ -59783,15 +59861,15 @@
         <v>2375</v>
       </c>
       <c r="M1448" t="s">
-        <v>3663</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="1449" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1449">
-        <v>1584</v>
+        <v>1587</v>
       </c>
       <c r="B1449" t="s">
-        <v>3664</v>
+        <v>3670</v>
       </c>
       <c r="C1449" t="s">
         <v>3644</v>
@@ -59809,15 +59887,15 @@
         <v>2375</v>
       </c>
       <c r="M1449" t="s">
-        <v>3665</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="1450" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1450">
-        <v>1585</v>
+        <v>1588</v>
       </c>
       <c r="B1450" t="s">
-        <v>3666</v>
+        <v>3671</v>
       </c>
       <c r="C1450" t="s">
         <v>3644</v>
@@ -59835,15 +59913,15 @@
         <v>2375</v>
       </c>
       <c r="M1450" t="s">
-        <v>3667</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="1451" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1451">
-        <v>1586</v>
+        <v>1589</v>
       </c>
       <c r="B1451" t="s">
-        <v>3668</v>
+        <v>3672</v>
       </c>
       <c r="C1451" t="s">
         <v>3644</v>
@@ -59861,15 +59939,15 @@
         <v>2375</v>
       </c>
       <c r="M1451" t="s">
-        <v>3669</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="1452" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1452">
-        <v>1587</v>
+        <v>1590</v>
       </c>
       <c r="B1452" t="s">
-        <v>3670</v>
+        <v>3674</v>
       </c>
       <c r="C1452" t="s">
         <v>3644</v>
@@ -59887,15 +59965,15 @@
         <v>2375</v>
       </c>
       <c r="M1452" t="s">
-        <v>4485</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="1453" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1453">
-        <v>1588</v>
+        <v>1591</v>
       </c>
       <c r="B1453" t="s">
-        <v>3671</v>
+        <v>3676</v>
       </c>
       <c r="C1453" t="s">
         <v>3644</v>
@@ -59913,15 +59991,15 @@
         <v>2375</v>
       </c>
       <c r="M1453" t="s">
-        <v>4486</v>
+        <v>3677</v>
       </c>
     </row>
     <row r="1454" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1454">
-        <v>1589</v>
+        <v>1592</v>
       </c>
       <c r="B1454" t="s">
-        <v>3672</v>
+        <v>3678</v>
       </c>
       <c r="C1454" t="s">
         <v>3644</v>
@@ -59939,15 +60017,15 @@
         <v>2375</v>
       </c>
       <c r="M1454" t="s">
-        <v>3673</v>
+        <v>3679</v>
       </c>
     </row>
     <row r="1455" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1455">
-        <v>1590</v>
+        <v>1593</v>
       </c>
       <c r="B1455" t="s">
-        <v>3674</v>
+        <v>3680</v>
       </c>
       <c r="C1455" t="s">
         <v>3644</v>
@@ -59965,15 +60043,15 @@
         <v>2375</v>
       </c>
       <c r="M1455" t="s">
-        <v>3675</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="1456" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1456">
-        <v>1591</v>
+        <v>1594</v>
       </c>
       <c r="B1456" t="s">
-        <v>3676</v>
+        <v>3682</v>
       </c>
       <c r="C1456" t="s">
         <v>3644</v>
@@ -59991,15 +60069,15 @@
         <v>2375</v>
       </c>
       <c r="M1456" t="s">
-        <v>3677</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="1457" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1457">
-        <v>1592</v>
+        <v>1595</v>
       </c>
       <c r="B1457" t="s">
-        <v>3678</v>
+        <v>3684</v>
       </c>
       <c r="C1457" t="s">
         <v>3644</v>
@@ -60007,25 +60085,19 @@
       <c r="D1457">
         <v>68000</v>
       </c>
-      <c r="E1457" t="s">
-        <v>973</v>
-      </c>
       <c r="H1457" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1457" t="s">
-        <v>2375</v>
+        <v>1492</v>
       </c>
       <c r="M1457" t="s">
-        <v>3679</v>
+        <v>3685</v>
       </c>
     </row>
     <row r="1458" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1458">
-        <v>1593</v>
+        <v>1596</v>
       </c>
       <c r="B1458" t="s">
-        <v>3680</v>
+        <v>3686</v>
       </c>
       <c r="C1458" t="s">
         <v>3644</v>
@@ -60043,87 +60115,84 @@
         <v>2375</v>
       </c>
       <c r="M1458" t="s">
-        <v>3681</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="1459" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1459">
-        <v>1594</v>
+        <v>1597</v>
       </c>
       <c r="B1459" t="s">
-        <v>3682</v>
+        <v>3688</v>
       </c>
       <c r="C1459" t="s">
-        <v>3644</v>
+        <v>3689</v>
       </c>
       <c r="D1459">
         <v>68000</v>
       </c>
       <c r="E1459" t="s">
-        <v>973</v>
+        <v>154</v>
       </c>
       <c r="H1459" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1459" t="s">
-        <v>2375</v>
+        <v>1353</v>
       </c>
       <c r="M1459" t="s">
-        <v>3683</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="1460" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1460">
-        <v>1595</v>
+        <v>1598</v>
       </c>
       <c r="B1460" t="s">
-        <v>3684</v>
+        <v>3691</v>
       </c>
       <c r="C1460" t="s">
-        <v>3644</v>
+        <v>3689</v>
       </c>
       <c r="D1460">
         <v>68000</v>
       </c>
+      <c r="E1460" t="s">
+        <v>154</v>
+      </c>
       <c r="H1460" t="s">
-        <v>1492</v>
+        <v>1353</v>
       </c>
       <c r="M1460" t="s">
-        <v>3685</v>
+        <v>3692</v>
       </c>
     </row>
     <row r="1461" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1461">
-        <v>1596</v>
+        <v>1599</v>
       </c>
       <c r="B1461" t="s">
-        <v>3686</v>
+        <v>3693</v>
       </c>
       <c r="C1461" t="s">
-        <v>3644</v>
+        <v>3689</v>
       </c>
       <c r="D1461">
         <v>68000</v>
       </c>
       <c r="E1461" t="s">
-        <v>973</v>
+        <v>154</v>
       </c>
       <c r="H1461" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1461" t="s">
-        <v>2375</v>
+        <v>1353</v>
       </c>
       <c r="M1461" t="s">
-        <v>3687</v>
+        <v>3694</v>
       </c>
     </row>
     <row r="1462" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1462">
-        <v>1597</v>
+        <v>1600</v>
       </c>
       <c r="B1462" t="s">
-        <v>3688</v>
+        <v>3695</v>
       </c>
       <c r="C1462" t="s">
         <v>3689</v>
@@ -60138,15 +60207,15 @@
         <v>1353</v>
       </c>
       <c r="M1462" t="s">
-        <v>3690</v>
+        <v>3696</v>
       </c>
     </row>
     <row r="1463" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1463">
-        <v>1598</v>
+        <v>1601</v>
       </c>
       <c r="B1463" t="s">
-        <v>3691</v>
+        <v>3697</v>
       </c>
       <c r="C1463" t="s">
         <v>3689</v>
@@ -60161,15 +60230,15 @@
         <v>1353</v>
       </c>
       <c r="M1463" t="s">
-        <v>3692</v>
+        <v>4487</v>
       </c>
     </row>
     <row r="1464" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1464">
-        <v>1599</v>
+        <v>1602</v>
       </c>
       <c r="B1464" t="s">
-        <v>3693</v>
+        <v>3698</v>
       </c>
       <c r="C1464" t="s">
         <v>3689</v>
@@ -60184,153 +60253,150 @@
         <v>1353</v>
       </c>
       <c r="M1464" t="s">
-        <v>3694</v>
+        <v>4488</v>
       </c>
     </row>
     <row r="1465" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1465">
-        <v>1600</v>
+        <v>1603</v>
       </c>
       <c r="B1465" t="s">
-        <v>3695</v>
+        <v>3735</v>
       </c>
       <c r="C1465" t="s">
-        <v>3689</v>
-      </c>
-      <c r="D1465">
-        <v>68000</v>
+        <v>3736</v>
+      </c>
+      <c r="D1465" t="s">
+        <v>14</v>
       </c>
       <c r="E1465" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="H1465" t="s">
-        <v>1353</v>
+        <v>71</v>
       </c>
       <c r="M1465" t="s">
-        <v>3696</v>
+        <v>3737</v>
       </c>
     </row>
     <row r="1466" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1466">
-        <v>1601</v>
+        <v>1604</v>
       </c>
       <c r="B1466" t="s">
-        <v>3697</v>
+        <v>3738</v>
       </c>
       <c r="C1466" t="s">
-        <v>3689</v>
-      </c>
-      <c r="D1466">
-        <v>68000</v>
+        <v>3736</v>
+      </c>
+      <c r="D1466" t="s">
+        <v>14</v>
       </c>
       <c r="E1466" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="H1466" t="s">
-        <v>1353</v>
+        <v>71</v>
       </c>
       <c r="M1466" t="s">
-        <v>4487</v>
+        <v>3739</v>
       </c>
     </row>
     <row r="1467" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1467">
-        <v>1602</v>
+        <v>1605</v>
       </c>
       <c r="B1467" t="s">
-        <v>3698</v>
+        <v>3740</v>
       </c>
       <c r="C1467" t="s">
-        <v>3689</v>
+        <v>3741</v>
       </c>
       <c r="D1467">
         <v>68000</v>
       </c>
       <c r="E1467" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="H1467" t="s">
-        <v>1353</v>
+        <v>349</v>
       </c>
       <c r="M1467" t="s">
-        <v>4488</v>
+        <v>3742</v>
       </c>
     </row>
     <row r="1468" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1468">
-        <v>1603</v>
+        <v>1606</v>
       </c>
       <c r="B1468" t="s">
-        <v>3735</v>
+        <v>3743</v>
       </c>
       <c r="C1468" t="s">
-        <v>3736</v>
-      </c>
-      <c r="D1468" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1468" t="s">
-        <v>14</v>
+        <v>3744</v>
+      </c>
+      <c r="D1468">
+        <v>68000</v>
       </c>
       <c r="H1468" t="s">
-        <v>71</v>
+        <v>172</v>
+      </c>
+      <c r="I1468" t="s">
+        <v>1492</v>
       </c>
       <c r="M1468" t="s">
-        <v>3737</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="1469" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1469">
-        <v>1604</v>
+        <v>1607</v>
       </c>
       <c r="B1469" t="s">
-        <v>3738</v>
+        <v>3746</v>
       </c>
       <c r="C1469" t="s">
-        <v>3736</v>
-      </c>
-      <c r="D1469" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1469" t="s">
-        <v>14</v>
+        <v>3744</v>
+      </c>
+      <c r="D1469">
+        <v>68000</v>
       </c>
       <c r="H1469" t="s">
-        <v>71</v>
+        <v>172</v>
+      </c>
+      <c r="I1469" t="s">
+        <v>1492</v>
       </c>
       <c r="M1469" t="s">
-        <v>3739</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="1470" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1470">
-        <v>1605</v>
+        <v>1608</v>
       </c>
       <c r="B1470" t="s">
-        <v>3740</v>
+        <v>3748</v>
       </c>
       <c r="C1470" t="s">
-        <v>3741</v>
+        <v>3744</v>
       </c>
       <c r="D1470">
         <v>68000</v>
       </c>
-      <c r="E1470" t="s">
-        <v>14</v>
-      </c>
       <c r="H1470" t="s">
-        <v>349</v>
+        <v>2375</v>
       </c>
       <c r="M1470" t="s">
-        <v>3742</v>
+        <v>3749</v>
       </c>
     </row>
     <row r="1471" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1471">
-        <v>1606</v>
+        <v>1609</v>
       </c>
       <c r="B1471" t="s">
-        <v>3743</v>
+        <v>3750</v>
       </c>
       <c r="C1471" t="s">
         <v>3744</v>
@@ -60339,362 +60405,392 @@
         <v>68000</v>
       </c>
       <c r="H1471" t="s">
-        <v>172</v>
-      </c>
-      <c r="I1471" t="s">
-        <v>1492</v>
+        <v>2375</v>
       </c>
       <c r="M1471" t="s">
-        <v>3745</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="1472" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1472">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="B1472" t="s">
-        <v>3746</v>
+        <v>3751</v>
       </c>
       <c r="C1472" t="s">
-        <v>3744</v>
+        <v>3752</v>
       </c>
       <c r="D1472">
         <v>68000</v>
       </c>
       <c r="H1472" t="s">
-        <v>172</v>
-      </c>
-      <c r="I1472" t="s">
         <v>1492</v>
       </c>
       <c r="M1472" t="s">
-        <v>3747</v>
+        <v>3753</v>
       </c>
     </row>
     <row r="1473" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1473">
-        <v>1608</v>
+        <v>1617</v>
       </c>
       <c r="B1473" t="s">
-        <v>3748</v>
+        <v>3774</v>
       </c>
       <c r="C1473" t="s">
-        <v>3744</v>
-      </c>
-      <c r="D1473">
-        <v>68000</v>
+        <v>3775</v>
+      </c>
+      <c r="D1473" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1473" t="s">
+        <v>154</v>
       </c>
       <c r="H1473" t="s">
-        <v>2375</v>
+        <v>172</v>
       </c>
       <c r="M1473" t="s">
-        <v>3749</v>
+        <v>3776</v>
       </c>
     </row>
     <row r="1474" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1474">
-        <v>1609</v>
+        <v>1618</v>
       </c>
       <c r="B1474" t="s">
-        <v>3750</v>
+        <v>3777</v>
       </c>
       <c r="C1474" t="s">
-        <v>3744</v>
-      </c>
-      <c r="D1474">
-        <v>68000</v>
+        <v>3778</v>
+      </c>
+      <c r="D1474" t="s">
+        <v>14</v>
       </c>
       <c r="H1474" t="s">
-        <v>2375</v>
+        <v>172</v>
       </c>
       <c r="M1474" t="s">
-        <v>4489</v>
+        <v>3779</v>
       </c>
     </row>
     <row r="1475" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1475">
-        <v>1610</v>
+        <v>1619</v>
       </c>
       <c r="B1475" t="s">
-        <v>3751</v>
+        <v>3780</v>
       </c>
       <c r="C1475" t="s">
-        <v>3752</v>
-      </c>
-      <c r="D1475">
-        <v>68000</v>
+        <v>3778</v>
+      </c>
+      <c r="D1475" t="s">
+        <v>14</v>
       </c>
       <c r="H1475" t="s">
-        <v>1492</v>
+        <v>172</v>
       </c>
       <c r="M1475" t="s">
-        <v>3753</v>
+        <v>3781</v>
       </c>
     </row>
     <row r="1476" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1476">
-        <v>1617</v>
+        <v>1624</v>
       </c>
       <c r="B1476" t="s">
-        <v>3774</v>
+        <v>3791</v>
       </c>
       <c r="C1476" t="s">
-        <v>3775</v>
+        <v>3792</v>
       </c>
       <c r="D1476" t="s">
-        <v>14</v>
+        <v>405</v>
       </c>
       <c r="E1476" t="s">
-        <v>154</v>
+        <v>1184</v>
       </c>
       <c r="H1476" t="s">
-        <v>172</v>
+        <v>71</v>
       </c>
       <c r="M1476" t="s">
-        <v>3776</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="1477" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1477">
-        <v>1618</v>
+        <v>1625</v>
       </c>
       <c r="B1477" t="s">
-        <v>3777</v>
+        <v>3794</v>
       </c>
       <c r="C1477" t="s">
-        <v>3778</v>
+        <v>3792</v>
       </c>
       <c r="D1477" t="s">
-        <v>14</v>
+        <v>405</v>
+      </c>
+      <c r="E1477" t="s">
+        <v>1184</v>
       </c>
       <c r="H1477" t="s">
-        <v>172</v>
+        <v>71</v>
       </c>
       <c r="M1477" t="s">
-        <v>3779</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="1478" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1478">
-        <v>1619</v>
+        <v>1626</v>
       </c>
       <c r="B1478" t="s">
-        <v>3780</v>
+        <v>3799</v>
       </c>
       <c r="C1478" t="s">
-        <v>3778</v>
+        <v>3800</v>
       </c>
       <c r="D1478" t="s">
-        <v>14</v>
+        <v>405</v>
+      </c>
+      <c r="E1478" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F1478" t="s">
+        <v>3801</v>
       </c>
       <c r="H1478" t="s">
-        <v>172</v>
+        <v>71</v>
       </c>
       <c r="M1478" t="s">
-        <v>3781</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="1479" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1479">
-        <v>1624</v>
+        <v>1627</v>
       </c>
       <c r="B1479" t="s">
-        <v>3791</v>
+        <v>3803</v>
       </c>
       <c r="C1479" t="s">
-        <v>3792</v>
+        <v>3804</v>
       </c>
       <c r="D1479" t="s">
-        <v>405</v>
-      </c>
-      <c r="E1479" t="s">
-        <v>1184</v>
+        <v>473</v>
       </c>
       <c r="H1479" t="s">
-        <v>71</v>
+        <v>2936</v>
       </c>
       <c r="M1479" t="s">
-        <v>3793</v>
+        <v>3805</v>
       </c>
     </row>
     <row r="1480" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1480">
-        <v>1625</v>
+        <v>1628</v>
       </c>
       <c r="B1480" t="s">
-        <v>3794</v>
+        <v>3806</v>
       </c>
       <c r="C1480" t="s">
-        <v>3792</v>
+        <v>3807</v>
       </c>
       <c r="D1480" t="s">
-        <v>405</v>
-      </c>
-      <c r="E1480" t="s">
-        <v>1184</v>
-      </c>
-      <c r="H1480" t="s">
-        <v>71</v>
+        <v>473</v>
       </c>
       <c r="M1480" t="s">
-        <v>3795</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="1481" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1481">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="B1481" t="s">
-        <v>3799</v>
+        <v>3809</v>
       </c>
       <c r="C1481" t="s">
-        <v>3800</v>
+        <v>3807</v>
       </c>
       <c r="D1481" t="s">
-        <v>405</v>
-      </c>
-      <c r="E1481" t="s">
-        <v>1184</v>
-      </c>
-      <c r="F1481" t="s">
-        <v>3801</v>
-      </c>
-      <c r="H1481" t="s">
-        <v>71</v>
+        <v>473</v>
       </c>
       <c r="M1481" t="s">
-        <v>3802</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="1482" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1482">
-        <v>1627</v>
+        <v>1630</v>
       </c>
       <c r="B1482" t="s">
-        <v>3803</v>
+        <v>3811</v>
       </c>
       <c r="C1482" t="s">
-        <v>3804</v>
-      </c>
-      <c r="D1482" t="s">
-        <v>473</v>
-      </c>
-      <c r="H1482" t="s">
-        <v>2936</v>
+        <v>3812</v>
+      </c>
+      <c r="D1482">
+        <v>8080</v>
       </c>
       <c r="M1482" t="s">
-        <v>3805</v>
+        <v>3813</v>
       </c>
     </row>
     <row r="1483" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1483">
-        <v>1628</v>
+        <v>1631</v>
       </c>
       <c r="B1483" t="s">
-        <v>3806</v>
+        <v>3814</v>
       </c>
       <c r="C1483" t="s">
-        <v>3807</v>
+        <v>3815</v>
       </c>
       <c r="D1483" t="s">
-        <v>473</v>
+        <v>3436</v>
+      </c>
+      <c r="E1483" t="s">
+        <v>3436</v>
+      </c>
+      <c r="F1483" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G1483" t="s">
+        <v>1184</v>
+      </c>
+      <c r="H1483" t="s">
+        <v>333</v>
+      </c>
+      <c r="I1483" t="s">
+        <v>551</v>
       </c>
       <c r="M1483" t="s">
-        <v>3808</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="1484" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1484">
-        <v>1629</v>
+        <v>1632</v>
       </c>
       <c r="B1484" t="s">
-        <v>3809</v>
+        <v>3817</v>
       </c>
       <c r="C1484" t="s">
-        <v>3807</v>
+        <v>3818</v>
       </c>
       <c r="D1484" t="s">
-        <v>473</v>
+        <v>14</v>
+      </c>
+      <c r="H1484" t="s">
+        <v>172</v>
       </c>
       <c r="M1484" t="s">
-        <v>3810</v>
+        <v>3819</v>
       </c>
     </row>
     <row r="1485" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1485">
-        <v>1630</v>
+        <v>1633</v>
       </c>
       <c r="B1485" t="s">
-        <v>3811</v>
+        <v>3820</v>
       </c>
       <c r="C1485" t="s">
-        <v>3812</v>
-      </c>
-      <c r="D1485">
-        <v>8080</v>
+        <v>3821</v>
+      </c>
+      <c r="D1485" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1485" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1485" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1485" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1485" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1485" t="s">
+        <v>166</v>
       </c>
       <c r="M1485" t="s">
-        <v>3813</v>
+        <v>3822</v>
       </c>
     </row>
     <row r="1486" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1486">
-        <v>1631</v>
+        <v>1634</v>
       </c>
       <c r="B1486" t="s">
-        <v>3814</v>
+        <v>3823</v>
       </c>
       <c r="C1486" t="s">
-        <v>3815</v>
+        <v>3821</v>
       </c>
       <c r="D1486" t="s">
-        <v>3436</v>
+        <v>14</v>
       </c>
       <c r="E1486" t="s">
-        <v>3436</v>
+        <v>14</v>
       </c>
       <c r="F1486" t="s">
-        <v>1184</v>
+        <v>14</v>
       </c>
       <c r="G1486" t="s">
-        <v>1184</v>
+        <v>154</v>
       </c>
       <c r="H1486" t="s">
-        <v>333</v>
+        <v>71</v>
       </c>
       <c r="I1486" t="s">
-        <v>551</v>
+        <v>166</v>
       </c>
       <c r="M1486" t="s">
-        <v>3816</v>
+        <v>3824</v>
       </c>
     </row>
     <row r="1487" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1487">
-        <v>1632</v>
+        <v>1635</v>
       </c>
       <c r="B1487" t="s">
-        <v>3817</v>
+        <v>3825</v>
       </c>
       <c r="C1487" t="s">
-        <v>3818</v>
+        <v>3821</v>
       </c>
       <c r="D1487" t="s">
         <v>14</v>
       </c>
+      <c r="E1487" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1487" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1487" t="s">
+        <v>154</v>
+      </c>
       <c r="H1487" t="s">
-        <v>172</v>
+        <v>71</v>
+      </c>
+      <c r="I1487" t="s">
+        <v>166</v>
       </c>
       <c r="M1487" t="s">
-        <v>3819</v>
+        <v>3826</v>
       </c>
     </row>
     <row r="1488" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1488">
-        <v>1633</v>
+        <v>1636</v>
       </c>
       <c r="B1488" t="s">
-        <v>3820</v>
+        <v>3827</v>
       </c>
       <c r="C1488" t="s">
         <v>3821</v>
@@ -60718,266 +60814,230 @@
         <v>166</v>
       </c>
       <c r="M1488" t="s">
-        <v>3822</v>
+        <v>3828</v>
       </c>
     </row>
     <row r="1489" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1489">
-        <v>1634</v>
+        <v>1637</v>
       </c>
       <c r="B1489" t="s">
-        <v>3823</v>
+        <v>3829</v>
       </c>
       <c r="C1489" t="s">
-        <v>3821</v>
-      </c>
-      <c r="D1489" t="s">
-        <v>14</v>
+        <v>3830</v>
+      </c>
+      <c r="D1489">
+        <v>68000</v>
       </c>
       <c r="E1489" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1489" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1489" t="s">
         <v>154</v>
       </c>
       <c r="H1489" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1489" t="s">
-        <v>166</v>
+        <v>1492</v>
       </c>
       <c r="M1489" t="s">
-        <v>3824</v>
+        <v>3831</v>
       </c>
     </row>
     <row r="1490" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1490">
-        <v>1635</v>
+        <v>1645</v>
       </c>
       <c r="B1490" t="s">
-        <v>3825</v>
+        <v>3848</v>
       </c>
       <c r="C1490" t="s">
-        <v>3821</v>
-      </c>
-      <c r="D1490" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1490" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1490" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1490" t="s">
-        <v>154</v>
+        <v>3849</v>
+      </c>
+      <c r="D1490">
+        <v>8080</v>
       </c>
       <c r="H1490" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1490" t="s">
-        <v>166</v>
+        <v>406</v>
       </c>
       <c r="M1490" t="s">
-        <v>3826</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="1491" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1491">
-        <v>1636</v>
+        <v>1646</v>
       </c>
       <c r="B1491" t="s">
-        <v>3827</v>
+        <v>3851</v>
       </c>
       <c r="C1491" t="s">
-        <v>3821</v>
+        <v>3852</v>
       </c>
       <c r="D1491" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1491" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1491" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1491" t="s">
-        <v>154</v>
+        <v>1105</v>
       </c>
       <c r="H1491" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1491" t="s">
-        <v>166</v>
+        <v>336</v>
       </c>
       <c r="M1491" t="s">
-        <v>3828</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="1492" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1492">
-        <v>1637</v>
+        <v>1647</v>
       </c>
       <c r="B1492" t="s">
-        <v>3829</v>
+        <v>3854</v>
       </c>
       <c r="C1492" t="s">
-        <v>3830</v>
-      </c>
-      <c r="D1492">
-        <v>68000</v>
+        <v>3855</v>
+      </c>
+      <c r="D1492" t="s">
+        <v>14</v>
       </c>
       <c r="E1492" t="s">
         <v>154</v>
       </c>
       <c r="H1492" t="s">
-        <v>1492</v>
+        <v>336</v>
       </c>
       <c r="M1492" t="s">
-        <v>3831</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="1493" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1493">
-        <v>1645</v>
+        <v>1648</v>
       </c>
       <c r="B1493" t="s">
-        <v>3848</v>
+        <v>3857</v>
       </c>
       <c r="C1493" t="s">
-        <v>3849</v>
-      </c>
-      <c r="D1493">
-        <v>8080</v>
+        <v>3855</v>
+      </c>
+      <c r="D1493" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1493" t="s">
+        <v>154</v>
       </c>
       <c r="H1493" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
       <c r="M1493" t="s">
-        <v>3850</v>
+        <v>3858</v>
       </c>
     </row>
     <row r="1494" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1494">
-        <v>1646</v>
+        <v>1649</v>
       </c>
       <c r="B1494" t="s">
-        <v>3851</v>
+        <v>3859</v>
       </c>
       <c r="C1494" t="s">
-        <v>3852</v>
+        <v>3860</v>
       </c>
       <c r="D1494" t="s">
-        <v>1105</v>
+        <v>3861</v>
+      </c>
+      <c r="E1494" t="s">
+        <v>725</v>
       </c>
       <c r="H1494" t="s">
-        <v>336</v>
+        <v>2070</v>
       </c>
       <c r="M1494" t="s">
-        <v>3853</v>
+        <v>3862</v>
       </c>
     </row>
     <row r="1495" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1495">
-        <v>1647</v>
+        <v>1650</v>
       </c>
       <c r="B1495" t="s">
-        <v>3854</v>
+        <v>3863</v>
       </c>
       <c r="C1495" t="s">
-        <v>3855</v>
-      </c>
-      <c r="D1495" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1495" t="s">
-        <v>154</v>
+        <v>3864</v>
+      </c>
+      <c r="D1495">
+        <v>68000</v>
       </c>
       <c r="H1495" t="s">
-        <v>336</v>
+        <v>2375</v>
       </c>
       <c r="M1495" t="s">
-        <v>3856</v>
+        <v>3865</v>
       </c>
     </row>
     <row r="1496" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1496">
-        <v>1648</v>
+        <v>1651</v>
       </c>
       <c r="B1496" t="s">
-        <v>3857</v>
+        <v>3866</v>
       </c>
       <c r="C1496" t="s">
-        <v>3855</v>
-      </c>
-      <c r="D1496" t="s">
-        <v>14</v>
+        <v>3867</v>
+      </c>
+      <c r="D1496">
+        <v>68000</v>
       </c>
       <c r="E1496" t="s">
         <v>154</v>
       </c>
       <c r="H1496" t="s">
-        <v>336</v>
+        <v>1236</v>
       </c>
       <c r="M1496" t="s">
-        <v>3858</v>
+        <v>3868</v>
       </c>
     </row>
     <row r="1497" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1497">
-        <v>1649</v>
+        <v>1652</v>
       </c>
       <c r="B1497" t="s">
-        <v>3859</v>
+        <v>3869</v>
       </c>
       <c r="C1497" t="s">
-        <v>3860</v>
+        <v>3870</v>
       </c>
       <c r="D1497" t="s">
-        <v>3861</v>
-      </c>
-      <c r="E1497" t="s">
-        <v>725</v>
+        <v>405</v>
       </c>
       <c r="H1497" t="s">
-        <v>2070</v>
+        <v>71</v>
       </c>
       <c r="M1497" t="s">
-        <v>3862</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="1498" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1498">
-        <v>1650</v>
+        <v>1653</v>
       </c>
       <c r="B1498" t="s">
-        <v>3863</v>
+        <v>3872</v>
       </c>
       <c r="C1498" t="s">
-        <v>3864</v>
-      </c>
-      <c r="D1498">
-        <v>68000</v>
-      </c>
-      <c r="H1498" t="s">
-        <v>2375</v>
+        <v>3873</v>
+      </c>
+      <c r="D1498" t="s">
+        <v>14</v>
       </c>
       <c r="M1498" t="s">
-        <v>3865</v>
+        <v>4493</v>
       </c>
     </row>
     <row r="1499" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1499">
-        <v>1651</v>
+        <v>1654</v>
       </c>
       <c r="B1499" t="s">
-        <v>3866</v>
+        <v>3874</v>
       </c>
       <c r="C1499" t="s">
-        <v>3867</v>
+        <v>3875</v>
       </c>
       <c r="D1499">
         <v>68000</v>
@@ -60986,55 +61046,64 @@
         <v>154</v>
       </c>
       <c r="H1499" t="s">
-        <v>1236</v>
+        <v>1353</v>
       </c>
       <c r="M1499" t="s">
-        <v>3868</v>
+        <v>3876</v>
       </c>
     </row>
     <row r="1500" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1500">
-        <v>1652</v>
+        <v>1655</v>
       </c>
       <c r="B1500" t="s">
-        <v>3869</v>
+        <v>3877</v>
       </c>
       <c r="C1500" t="s">
-        <v>3870</v>
-      </c>
-      <c r="D1500" t="s">
-        <v>405</v>
+        <v>3875</v>
+      </c>
+      <c r="D1500">
+        <v>68000</v>
+      </c>
+      <c r="E1500" t="s">
+        <v>154</v>
       </c>
       <c r="H1500" t="s">
-        <v>71</v>
+        <v>1353</v>
       </c>
       <c r="M1500" t="s">
-        <v>3871</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="1501" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1501">
-        <v>1653</v>
+        <v>1656</v>
       </c>
       <c r="B1501" t="s">
-        <v>3872</v>
+        <v>3878</v>
       </c>
       <c r="C1501" t="s">
-        <v>3873</v>
-      </c>
-      <c r="D1501" t="s">
-        <v>14</v>
+        <v>3875</v>
+      </c>
+      <c r="D1501">
+        <v>68000</v>
+      </c>
+      <c r="E1501" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1501" t="s">
+        <v>1353</v>
       </c>
       <c r="M1501" t="s">
-        <v>4493</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="1502" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1502">
-        <v>1654</v>
+        <v>1657</v>
       </c>
       <c r="B1502" t="s">
-        <v>3874</v>
+        <v>3880</v>
       </c>
       <c r="C1502" t="s">
         <v>3875</v>
@@ -61049,15 +61118,15 @@
         <v>1353</v>
       </c>
       <c r="M1502" t="s">
-        <v>3876</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="1503" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1503">
-        <v>1655</v>
+        <v>1658</v>
       </c>
       <c r="B1503" t="s">
-        <v>3877</v>
+        <v>3882</v>
       </c>
       <c r="C1503" t="s">
         <v>3875</v>
@@ -61072,15 +61141,15 @@
         <v>1353</v>
       </c>
       <c r="M1503" t="s">
-        <v>4494</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="1504" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1504">
-        <v>1656</v>
+        <v>1659</v>
       </c>
       <c r="B1504" t="s">
-        <v>3878</v>
+        <v>3884</v>
       </c>
       <c r="C1504" t="s">
         <v>3875</v>
@@ -61095,15 +61164,15 @@
         <v>1353</v>
       </c>
       <c r="M1504" t="s">
-        <v>3879</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="1505" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1505">
-        <v>1657</v>
+        <v>1660</v>
       </c>
       <c r="B1505" t="s">
-        <v>3880</v>
+        <v>3886</v>
       </c>
       <c r="C1505" t="s">
         <v>3875</v>
@@ -61118,15 +61187,15 @@
         <v>1353</v>
       </c>
       <c r="M1505" t="s">
-        <v>3881</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="1506" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1506">
-        <v>1658</v>
+        <v>1661</v>
       </c>
       <c r="B1506" t="s">
-        <v>3882</v>
+        <v>3888</v>
       </c>
       <c r="C1506" t="s">
         <v>3875</v>
@@ -61141,15 +61210,15 @@
         <v>1353</v>
       </c>
       <c r="M1506" t="s">
-        <v>3883</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="1507" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1507">
-        <v>1659</v>
+        <v>1662</v>
       </c>
       <c r="B1507" t="s">
-        <v>3884</v>
+        <v>3889</v>
       </c>
       <c r="C1507" t="s">
         <v>3875</v>
@@ -61164,15 +61233,15 @@
         <v>1353</v>
       </c>
       <c r="M1507" t="s">
-        <v>3885</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="1508" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1508">
-        <v>1660</v>
+        <v>1663</v>
       </c>
       <c r="B1508" t="s">
-        <v>3886</v>
+        <v>3891</v>
       </c>
       <c r="C1508" t="s">
         <v>3875</v>
@@ -61187,15 +61256,15 @@
         <v>1353</v>
       </c>
       <c r="M1508" t="s">
-        <v>3887</v>
+        <v>3892</v>
       </c>
     </row>
     <row r="1509" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1509">
-        <v>1661</v>
+        <v>1664</v>
       </c>
       <c r="B1509" t="s">
-        <v>3888</v>
+        <v>3893</v>
       </c>
       <c r="C1509" t="s">
         <v>3875</v>
@@ -61210,15 +61279,15 @@
         <v>1353</v>
       </c>
       <c r="M1509" t="s">
-        <v>4495</v>
+        <v>3894</v>
       </c>
     </row>
     <row r="1510" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1510">
-        <v>1662</v>
+        <v>1665</v>
       </c>
       <c r="B1510" t="s">
-        <v>3889</v>
+        <v>3895</v>
       </c>
       <c r="C1510" t="s">
         <v>3875</v>
@@ -61233,15 +61302,15 @@
         <v>1353</v>
       </c>
       <c r="M1510" t="s">
-        <v>3890</v>
+        <v>3896</v>
       </c>
     </row>
     <row r="1511" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1511">
-        <v>1663</v>
+        <v>1666</v>
       </c>
       <c r="B1511" t="s">
-        <v>3891</v>
+        <v>3897</v>
       </c>
       <c r="C1511" t="s">
         <v>3875</v>
@@ -61256,15 +61325,15 @@
         <v>1353</v>
       </c>
       <c r="M1511" t="s">
-        <v>3892</v>
+        <v>3898</v>
       </c>
     </row>
     <row r="1512" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1512">
-        <v>1664</v>
+        <v>1667</v>
       </c>
       <c r="B1512" t="s">
-        <v>3893</v>
+        <v>3899</v>
       </c>
       <c r="C1512" t="s">
         <v>3875</v>
@@ -61279,15 +61348,15 @@
         <v>1353</v>
       </c>
       <c r="M1512" t="s">
-        <v>3894</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="1513" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1513">
-        <v>1665</v>
+        <v>1668</v>
       </c>
       <c r="B1513" t="s">
-        <v>3895</v>
+        <v>3900</v>
       </c>
       <c r="C1513" t="s">
         <v>3875</v>
@@ -61302,15 +61371,15 @@
         <v>1353</v>
       </c>
       <c r="M1513" t="s">
-        <v>3896</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="1514" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1514">
-        <v>1666</v>
+        <v>1669</v>
       </c>
       <c r="B1514" t="s">
-        <v>3897</v>
+        <v>3901</v>
       </c>
       <c r="C1514" t="s">
         <v>3875</v>
@@ -61325,15 +61394,15 @@
         <v>1353</v>
       </c>
       <c r="M1514" t="s">
-        <v>3898</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="1515" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1515">
-        <v>1667</v>
+        <v>1670</v>
       </c>
       <c r="B1515" t="s">
-        <v>3899</v>
+        <v>3903</v>
       </c>
       <c r="C1515" t="s">
         <v>3875</v>
@@ -61348,15 +61417,15 @@
         <v>1353</v>
       </c>
       <c r="M1515" t="s">
-        <v>4496</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="1516" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1516">
-        <v>1668</v>
+        <v>1671</v>
       </c>
       <c r="B1516" t="s">
-        <v>3900</v>
+        <v>3905</v>
       </c>
       <c r="C1516" t="s">
         <v>3875</v>
@@ -61371,15 +61440,15 @@
         <v>1353</v>
       </c>
       <c r="M1516" t="s">
-        <v>4497</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="1517" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1517">
-        <v>1669</v>
+        <v>1672</v>
       </c>
       <c r="B1517" t="s">
-        <v>3901</v>
+        <v>3907</v>
       </c>
       <c r="C1517" t="s">
         <v>3875</v>
@@ -61394,15 +61463,15 @@
         <v>1353</v>
       </c>
       <c r="M1517" t="s">
-        <v>3902</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="1518" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1518">
-        <v>1670</v>
+        <v>1673</v>
       </c>
       <c r="B1518" t="s">
-        <v>3903</v>
+        <v>3909</v>
       </c>
       <c r="C1518" t="s">
         <v>3875</v>
@@ -61417,15 +61486,15 @@
         <v>1353</v>
       </c>
       <c r="M1518" t="s">
-        <v>3904</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="1519" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1519">
-        <v>1671</v>
+        <v>1674</v>
       </c>
       <c r="B1519" t="s">
-        <v>3905</v>
+        <v>3911</v>
       </c>
       <c r="C1519" t="s">
         <v>3875</v>
@@ -61440,15 +61509,15 @@
         <v>1353</v>
       </c>
       <c r="M1519" t="s">
-        <v>3906</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="1520" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1520">
-        <v>1672</v>
+        <v>1675</v>
       </c>
       <c r="B1520" t="s">
-        <v>3907</v>
+        <v>3913</v>
       </c>
       <c r="C1520" t="s">
         <v>3875</v>
@@ -61463,15 +61532,15 @@
         <v>1353</v>
       </c>
       <c r="M1520" t="s">
-        <v>3908</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="1521" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1521">
-        <v>1673</v>
+        <v>1676</v>
       </c>
       <c r="B1521" t="s">
-        <v>3909</v>
+        <v>3914</v>
       </c>
       <c r="C1521" t="s">
         <v>3875</v>
@@ -61486,15 +61555,15 @@
         <v>1353</v>
       </c>
       <c r="M1521" t="s">
-        <v>3910</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="1522" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1522">
-        <v>1674</v>
+        <v>1677</v>
       </c>
       <c r="B1522" t="s">
-        <v>3911</v>
+        <v>3916</v>
       </c>
       <c r="C1522" t="s">
         <v>3875</v>
@@ -61509,15 +61578,15 @@
         <v>1353</v>
       </c>
       <c r="M1522" t="s">
-        <v>3912</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="1523" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1523">
-        <v>1675</v>
+        <v>1678</v>
       </c>
       <c r="B1523" t="s">
-        <v>3913</v>
+        <v>3918</v>
       </c>
       <c r="C1523" t="s">
         <v>3875</v>
@@ -61532,15 +61601,15 @@
         <v>1353</v>
       </c>
       <c r="M1523" t="s">
-        <v>4498</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="1524" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1524">
-        <v>1676</v>
+        <v>1679</v>
       </c>
       <c r="B1524" t="s">
-        <v>3914</v>
+        <v>3920</v>
       </c>
       <c r="C1524" t="s">
         <v>3875</v>
@@ -61555,15 +61624,15 @@
         <v>1353</v>
       </c>
       <c r="M1524" t="s">
-        <v>3915</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="1525" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1525">
-        <v>1677</v>
+        <v>1680</v>
       </c>
       <c r="B1525" t="s">
-        <v>3916</v>
+        <v>3921</v>
       </c>
       <c r="C1525" t="s">
         <v>3875</v>
@@ -61578,15 +61647,15 @@
         <v>1353</v>
       </c>
       <c r="M1525" t="s">
-        <v>3917</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="1526" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1526">
-        <v>1678</v>
+        <v>1681</v>
       </c>
       <c r="B1526" t="s">
-        <v>3918</v>
+        <v>3922</v>
       </c>
       <c r="C1526" t="s">
         <v>3875</v>
@@ -61601,15 +61670,15 @@
         <v>1353</v>
       </c>
       <c r="M1526" t="s">
-        <v>3919</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="1527" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1527">
-        <v>1679</v>
+        <v>1682</v>
       </c>
       <c r="B1527" t="s">
-        <v>3920</v>
+        <v>3923</v>
       </c>
       <c r="C1527" t="s">
         <v>3875</v>
@@ -61624,15 +61693,15 @@
         <v>1353</v>
       </c>
       <c r="M1527" t="s">
-        <v>4499</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="1528" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1528">
-        <v>1680</v>
+        <v>1683</v>
       </c>
       <c r="B1528" t="s">
-        <v>3921</v>
+        <v>3925</v>
       </c>
       <c r="C1528" t="s">
         <v>3875</v>
@@ -61647,15 +61716,15 @@
         <v>1353</v>
       </c>
       <c r="M1528" t="s">
-        <v>4500</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="1529" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1529">
-        <v>1681</v>
+        <v>1684</v>
       </c>
       <c r="B1529" t="s">
-        <v>3922</v>
+        <v>3927</v>
       </c>
       <c r="C1529" t="s">
         <v>3875</v>
@@ -61670,15 +61739,15 @@
         <v>1353</v>
       </c>
       <c r="M1529" t="s">
-        <v>4501</v>
+        <v>4502</v>
       </c>
     </row>
     <row r="1530" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1530">
-        <v>1682</v>
+        <v>1685</v>
       </c>
       <c r="B1530" t="s">
-        <v>3923</v>
+        <v>3928</v>
       </c>
       <c r="C1530" t="s">
         <v>3875</v>
@@ -61693,15 +61762,15 @@
         <v>1353</v>
       </c>
       <c r="M1530" t="s">
-        <v>3924</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="1531" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1531">
-        <v>1683</v>
+        <v>1686</v>
       </c>
       <c r="B1531" t="s">
-        <v>3925</v>
+        <v>3930</v>
       </c>
       <c r="C1531" t="s">
         <v>3875</v>
@@ -61716,15 +61785,15 @@
         <v>1353</v>
       </c>
       <c r="M1531" t="s">
-        <v>3926</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="1532" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1532">
-        <v>1684</v>
+        <v>1687</v>
       </c>
       <c r="B1532" t="s">
-        <v>3927</v>
+        <v>3931</v>
       </c>
       <c r="C1532" t="s">
         <v>3875</v>
@@ -61739,15 +61808,15 @@
         <v>1353</v>
       </c>
       <c r="M1532" t="s">
-        <v>4502</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="1533" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1533">
-        <v>1685</v>
+        <v>1688</v>
       </c>
       <c r="B1533" t="s">
-        <v>3928</v>
+        <v>3933</v>
       </c>
       <c r="C1533" t="s">
         <v>3875</v>
@@ -61762,15 +61831,15 @@
         <v>1353</v>
       </c>
       <c r="M1533" t="s">
-        <v>3929</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="1534" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1534">
-        <v>1686</v>
+        <v>1689</v>
       </c>
       <c r="B1534" t="s">
-        <v>3930</v>
+        <v>3935</v>
       </c>
       <c r="C1534" t="s">
         <v>3875</v>
@@ -61785,15 +61854,15 @@
         <v>1353</v>
       </c>
       <c r="M1534" t="s">
-        <v>4503</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="1535" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1535">
-        <v>1687</v>
+        <v>1690</v>
       </c>
       <c r="B1535" t="s">
-        <v>3931</v>
+        <v>3936</v>
       </c>
       <c r="C1535" t="s">
         <v>3875</v>
@@ -61808,15 +61877,15 @@
         <v>1353</v>
       </c>
       <c r="M1535" t="s">
-        <v>3932</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="1536" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1536">
-        <v>1688</v>
+        <v>1691</v>
       </c>
       <c r="B1536" t="s">
-        <v>3933</v>
+        <v>3937</v>
       </c>
       <c r="C1536" t="s">
         <v>3875</v>
@@ -61831,15 +61900,15 @@
         <v>1353</v>
       </c>
       <c r="M1536" t="s">
-        <v>3934</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="1537" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1537">
-        <v>1689</v>
+        <v>1692</v>
       </c>
       <c r="B1537" t="s">
-        <v>3935</v>
+        <v>3939</v>
       </c>
       <c r="C1537" t="s">
         <v>3875</v>
@@ -61854,15 +61923,15 @@
         <v>1353</v>
       </c>
       <c r="M1537" t="s">
-        <v>4504</v>
+        <v>4506</v>
       </c>
     </row>
     <row r="1538" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1538">
-        <v>1690</v>
+        <v>1693</v>
       </c>
       <c r="B1538" t="s">
-        <v>3936</v>
+        <v>3940</v>
       </c>
       <c r="C1538" t="s">
         <v>3875</v>
@@ -61877,15 +61946,15 @@
         <v>1353</v>
       </c>
       <c r="M1538" t="s">
-        <v>4505</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="1539" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1539">
-        <v>1691</v>
+        <v>1694</v>
       </c>
       <c r="B1539" t="s">
-        <v>3937</v>
+        <v>3941</v>
       </c>
       <c r="C1539" t="s">
         <v>3875</v>
@@ -61900,15 +61969,15 @@
         <v>1353</v>
       </c>
       <c r="M1539" t="s">
-        <v>3938</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="1540" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1540">
-        <v>1692</v>
+        <v>1695</v>
       </c>
       <c r="B1540" t="s">
-        <v>3939</v>
+        <v>3942</v>
       </c>
       <c r="C1540" t="s">
         <v>3875</v>
@@ -61923,15 +61992,15 @@
         <v>1353</v>
       </c>
       <c r="M1540" t="s">
-        <v>4506</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="1541" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1541">
-        <v>1693</v>
+        <v>1696</v>
       </c>
       <c r="B1541" t="s">
-        <v>3940</v>
+        <v>3943</v>
       </c>
       <c r="C1541" t="s">
         <v>3875</v>
@@ -61946,15 +62015,15 @@
         <v>1353</v>
       </c>
       <c r="M1541" t="s">
-        <v>4507</v>
+        <v>4510</v>
       </c>
     </row>
     <row r="1542" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1542">
-        <v>1694</v>
+        <v>1697</v>
       </c>
       <c r="B1542" t="s">
-        <v>3941</v>
+        <v>3944</v>
       </c>
       <c r="C1542" t="s">
         <v>3875</v>
@@ -61969,15 +62038,15 @@
         <v>1353</v>
       </c>
       <c r="M1542" t="s">
-        <v>4508</v>
+        <v>4511</v>
       </c>
     </row>
     <row r="1543" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1543">
-        <v>1695</v>
+        <v>1698</v>
       </c>
       <c r="B1543" t="s">
-        <v>3942</v>
+        <v>3945</v>
       </c>
       <c r="C1543" t="s">
         <v>3875</v>
@@ -61992,15 +62061,15 @@
         <v>1353</v>
       </c>
       <c r="M1543" t="s">
-        <v>4509</v>
+        <v>4512</v>
       </c>
     </row>
     <row r="1544" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1544">
-        <v>1696</v>
+        <v>1699</v>
       </c>
       <c r="B1544" t="s">
-        <v>3943</v>
+        <v>3946</v>
       </c>
       <c r="C1544" t="s">
         <v>3875</v>
@@ -62015,15 +62084,15 @@
         <v>1353</v>
       </c>
       <c r="M1544" t="s">
-        <v>4510</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="1545" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1545">
-        <v>1697</v>
+        <v>1700</v>
       </c>
       <c r="B1545" t="s">
-        <v>3944</v>
+        <v>3948</v>
       </c>
       <c r="C1545" t="s">
         <v>3875</v>
@@ -62038,15 +62107,15 @@
         <v>1353</v>
       </c>
       <c r="M1545" t="s">
-        <v>4511</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="1546" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1546">
-        <v>1698</v>
+        <v>1701</v>
       </c>
       <c r="B1546" t="s">
-        <v>3945</v>
+        <v>3950</v>
       </c>
       <c r="C1546" t="s">
         <v>3875</v>
@@ -62061,15 +62130,15 @@
         <v>1353</v>
       </c>
       <c r="M1546" t="s">
-        <v>4512</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="1547" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1547">
-        <v>1699</v>
+        <v>1702</v>
       </c>
       <c r="B1547" t="s">
-        <v>3946</v>
+        <v>3952</v>
       </c>
       <c r="C1547" t="s">
         <v>3875</v>
@@ -62084,15 +62153,15 @@
         <v>1353</v>
       </c>
       <c r="M1547" t="s">
-        <v>3947</v>
+        <v>4513</v>
       </c>
     </row>
     <row r="1548" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1548">
-        <v>1700</v>
+        <v>1703</v>
       </c>
       <c r="B1548" t="s">
-        <v>3948</v>
+        <v>3953</v>
       </c>
       <c r="C1548" t="s">
         <v>3875</v>
@@ -62107,15 +62176,15 @@
         <v>1353</v>
       </c>
       <c r="M1548" t="s">
-        <v>3949</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="1549" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1549">
-        <v>1701</v>
+        <v>1704</v>
       </c>
       <c r="B1549" t="s">
-        <v>3950</v>
+        <v>3955</v>
       </c>
       <c r="C1549" t="s">
         <v>3875</v>
@@ -62130,15 +62199,15 @@
         <v>1353</v>
       </c>
       <c r="M1549" t="s">
-        <v>3951</v>
+        <v>3956</v>
       </c>
     </row>
     <row r="1550" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1550">
-        <v>1702</v>
+        <v>1705</v>
       </c>
       <c r="B1550" t="s">
-        <v>3952</v>
+        <v>3957</v>
       </c>
       <c r="C1550" t="s">
         <v>3875</v>
@@ -62153,15 +62222,15 @@
         <v>1353</v>
       </c>
       <c r="M1550" t="s">
-        <v>4513</v>
+        <v>4514</v>
       </c>
     </row>
     <row r="1551" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1551">
-        <v>1703</v>
+        <v>1706</v>
       </c>
       <c r="B1551" t="s">
-        <v>3953</v>
+        <v>3958</v>
       </c>
       <c r="C1551" t="s">
         <v>3875</v>
@@ -62176,15 +62245,15 @@
         <v>1353</v>
       </c>
       <c r="M1551" t="s">
-        <v>3954</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="1552" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1552">
-        <v>1704</v>
+        <v>1707</v>
       </c>
       <c r="B1552" t="s">
-        <v>3955</v>
+        <v>3960</v>
       </c>
       <c r="C1552" t="s">
         <v>3875</v>
@@ -62199,15 +62268,15 @@
         <v>1353</v>
       </c>
       <c r="M1552" t="s">
-        <v>3956</v>
+        <v>4515</v>
       </c>
     </row>
     <row r="1553" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1553">
-        <v>1705</v>
+        <v>1708</v>
       </c>
       <c r="B1553" t="s">
-        <v>3957</v>
+        <v>3961</v>
       </c>
       <c r="C1553" t="s">
         <v>3875</v>
@@ -62222,15 +62291,15 @@
         <v>1353</v>
       </c>
       <c r="M1553" t="s">
-        <v>4514</v>
+        <v>4516</v>
       </c>
     </row>
     <row r="1554" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1554">
-        <v>1706</v>
+        <v>1709</v>
       </c>
       <c r="B1554" t="s">
-        <v>3958</v>
+        <v>3962</v>
       </c>
       <c r="C1554" t="s">
         <v>3875</v>
@@ -62245,15 +62314,15 @@
         <v>1353</v>
       </c>
       <c r="M1554" t="s">
-        <v>3959</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="1555" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1555">
-        <v>1707</v>
+        <v>1710</v>
       </c>
       <c r="B1555" t="s">
-        <v>3960</v>
+        <v>3963</v>
       </c>
       <c r="C1555" t="s">
         <v>3875</v>
@@ -62268,15 +62337,15 @@
         <v>1353</v>
       </c>
       <c r="M1555" t="s">
-        <v>4515</v>
+        <v>4518</v>
       </c>
     </row>
     <row r="1556" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1556">
-        <v>1708</v>
+        <v>1711</v>
       </c>
       <c r="B1556" t="s">
-        <v>3961</v>
+        <v>3964</v>
       </c>
       <c r="C1556" t="s">
         <v>3875</v>
@@ -62291,15 +62360,15 @@
         <v>1353</v>
       </c>
       <c r="M1556" t="s">
-        <v>4516</v>
+        <v>4519</v>
       </c>
     </row>
     <row r="1557" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1557">
-        <v>1709</v>
+        <v>1712</v>
       </c>
       <c r="B1557" t="s">
-        <v>3962</v>
+        <v>3965</v>
       </c>
       <c r="C1557" t="s">
         <v>3875</v>
@@ -62314,15 +62383,15 @@
         <v>1353</v>
       </c>
       <c r="M1557" t="s">
-        <v>4517</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="1558" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1558">
-        <v>1710</v>
+        <v>1713</v>
       </c>
       <c r="B1558" t="s">
-        <v>3963</v>
+        <v>3966</v>
       </c>
       <c r="C1558" t="s">
         <v>3875</v>
@@ -62337,15 +62406,15 @@
         <v>1353</v>
       </c>
       <c r="M1558" t="s">
-        <v>4518</v>
+        <v>3967</v>
       </c>
     </row>
     <row r="1559" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1559">
-        <v>1711</v>
+        <v>1714</v>
       </c>
       <c r="B1559" t="s">
-        <v>3964</v>
+        <v>3968</v>
       </c>
       <c r="C1559" t="s">
         <v>3875</v>
@@ -62360,15 +62429,15 @@
         <v>1353</v>
       </c>
       <c r="M1559" t="s">
-        <v>4519</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="1560" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1560">
-        <v>1712</v>
+        <v>1715</v>
       </c>
       <c r="B1560" t="s">
-        <v>3965</v>
+        <v>3969</v>
       </c>
       <c r="C1560" t="s">
         <v>3875</v>
@@ -62383,15 +62452,15 @@
         <v>1353</v>
       </c>
       <c r="M1560" t="s">
-        <v>4520</v>
+        <v>4522</v>
       </c>
     </row>
     <row r="1561" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1561">
-        <v>1713</v>
+        <v>1716</v>
       </c>
       <c r="B1561" t="s">
-        <v>3966</v>
+        <v>3970</v>
       </c>
       <c r="C1561" t="s">
         <v>3875</v>
@@ -62406,15 +62475,15 @@
         <v>1353</v>
       </c>
       <c r="M1561" t="s">
-        <v>3967</v>
+        <v>3971</v>
       </c>
     </row>
     <row r="1562" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1562">
-        <v>1714</v>
+        <v>1717</v>
       </c>
       <c r="B1562" t="s">
-        <v>3968</v>
+        <v>3972</v>
       </c>
       <c r="C1562" t="s">
         <v>3875</v>
@@ -62429,15 +62498,15 @@
         <v>1353</v>
       </c>
       <c r="M1562" t="s">
-        <v>4521</v>
+        <v>3973</v>
       </c>
     </row>
     <row r="1563" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1563">
-        <v>1715</v>
+        <v>1718</v>
       </c>
       <c r="B1563" t="s">
-        <v>3969</v>
+        <v>3974</v>
       </c>
       <c r="C1563" t="s">
         <v>3875</v>
@@ -62452,15 +62521,15 @@
         <v>1353</v>
       </c>
       <c r="M1563" t="s">
-        <v>4522</v>
+        <v>4523</v>
       </c>
     </row>
     <row r="1564" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1564">
-        <v>1716</v>
+        <v>1719</v>
       </c>
       <c r="B1564" t="s">
-        <v>3970</v>
+        <v>3975</v>
       </c>
       <c r="C1564" t="s">
         <v>3875</v>
@@ -62475,15 +62544,15 @@
         <v>1353</v>
       </c>
       <c r="M1564" t="s">
-        <v>3971</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="1565" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1565">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="B1565" t="s">
-        <v>3972</v>
+        <v>3977</v>
       </c>
       <c r="C1565" t="s">
         <v>3875</v>
@@ -62498,15 +62567,15 @@
         <v>1353</v>
       </c>
       <c r="M1565" t="s">
-        <v>3973</v>
+        <v>4524</v>
       </c>
     </row>
     <row r="1566" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1566">
-        <v>1718</v>
+        <v>1721</v>
       </c>
       <c r="B1566" t="s">
-        <v>3974</v>
+        <v>3978</v>
       </c>
       <c r="C1566" t="s">
         <v>3875</v>
@@ -62521,15 +62590,15 @@
         <v>1353</v>
       </c>
       <c r="M1566" t="s">
-        <v>4523</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="1567" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1567">
-        <v>1719</v>
+        <v>1722</v>
       </c>
       <c r="B1567" t="s">
-        <v>3975</v>
+        <v>3979</v>
       </c>
       <c r="C1567" t="s">
         <v>3875</v>
@@ -62544,15 +62613,15 @@
         <v>1353</v>
       </c>
       <c r="M1567" t="s">
-        <v>3976</v>
+        <v>4526</v>
       </c>
     </row>
     <row r="1568" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1568">
-        <v>1720</v>
+        <v>1723</v>
       </c>
       <c r="B1568" t="s">
-        <v>3977</v>
+        <v>3980</v>
       </c>
       <c r="C1568" t="s">
         <v>3875</v>
@@ -62567,15 +62636,15 @@
         <v>1353</v>
       </c>
       <c r="M1568" t="s">
-        <v>4524</v>
+        <v>4527</v>
       </c>
     </row>
     <row r="1569" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1569">
-        <v>1721</v>
+        <v>1724</v>
       </c>
       <c r="B1569" t="s">
-        <v>3978</v>
+        <v>3981</v>
       </c>
       <c r="C1569" t="s">
         <v>3875</v>
@@ -62590,15 +62659,15 @@
         <v>1353</v>
       </c>
       <c r="M1569" t="s">
-        <v>4525</v>
+        <v>4528</v>
       </c>
     </row>
     <row r="1570" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1570">
-        <v>1722</v>
+        <v>1725</v>
       </c>
       <c r="B1570" t="s">
-        <v>3979</v>
+        <v>3982</v>
       </c>
       <c r="C1570" t="s">
         <v>3875</v>
@@ -62613,15 +62682,15 @@
         <v>1353</v>
       </c>
       <c r="M1570" t="s">
-        <v>4526</v>
+        <v>3983</v>
       </c>
     </row>
     <row r="1571" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1571">
-        <v>1723</v>
+        <v>1726</v>
       </c>
       <c r="B1571" t="s">
-        <v>3980</v>
+        <v>3984</v>
       </c>
       <c r="C1571" t="s">
         <v>3875</v>
@@ -62636,15 +62705,15 @@
         <v>1353</v>
       </c>
       <c r="M1571" t="s">
-        <v>4527</v>
+        <v>4529</v>
       </c>
     </row>
     <row r="1572" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1572">
-        <v>1724</v>
+        <v>1727</v>
       </c>
       <c r="B1572" t="s">
-        <v>3981</v>
+        <v>3985</v>
       </c>
       <c r="C1572" t="s">
         <v>3875</v>
@@ -62659,15 +62728,15 @@
         <v>1353</v>
       </c>
       <c r="M1572" t="s">
-        <v>4528</v>
+        <v>3986</v>
       </c>
     </row>
     <row r="1573" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1573">
-        <v>1725</v>
+        <v>1728</v>
       </c>
       <c r="B1573" t="s">
-        <v>3982</v>
+        <v>3987</v>
       </c>
       <c r="C1573" t="s">
         <v>3875</v>
@@ -62682,15 +62751,15 @@
         <v>1353</v>
       </c>
       <c r="M1573" t="s">
-        <v>3983</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="1574" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1574">
-        <v>1726</v>
+        <v>1729</v>
       </c>
       <c r="B1574" t="s">
-        <v>3984</v>
+        <v>3988</v>
       </c>
       <c r="C1574" t="s">
         <v>3875</v>
@@ -62705,15 +62774,15 @@
         <v>1353</v>
       </c>
       <c r="M1574" t="s">
-        <v>4529</v>
+        <v>3989</v>
       </c>
     </row>
     <row r="1575" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1575">
-        <v>1727</v>
+        <v>1730</v>
       </c>
       <c r="B1575" t="s">
-        <v>3985</v>
+        <v>3990</v>
       </c>
       <c r="C1575" t="s">
         <v>3875</v>
@@ -62728,15 +62797,15 @@
         <v>1353</v>
       </c>
       <c r="M1575" t="s">
-        <v>3986</v>
+        <v>3991</v>
       </c>
     </row>
     <row r="1576" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1576">
-        <v>1728</v>
+        <v>1731</v>
       </c>
       <c r="B1576" t="s">
-        <v>3987</v>
+        <v>3992</v>
       </c>
       <c r="C1576" t="s">
         <v>3875</v>
@@ -62751,15 +62820,15 @@
         <v>1353</v>
       </c>
       <c r="M1576" t="s">
-        <v>4530</v>
+        <v>4531</v>
       </c>
     </row>
     <row r="1577" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1577">
-        <v>1729</v>
+        <v>1732</v>
       </c>
       <c r="B1577" t="s">
-        <v>3988</v>
+        <v>3993</v>
       </c>
       <c r="C1577" t="s">
         <v>3875</v>
@@ -62774,15 +62843,15 @@
         <v>1353</v>
       </c>
       <c r="M1577" t="s">
-        <v>3989</v>
+        <v>4532</v>
       </c>
     </row>
     <row r="1578" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1578">
-        <v>1730</v>
+        <v>1733</v>
       </c>
       <c r="B1578" t="s">
-        <v>3990</v>
+        <v>3994</v>
       </c>
       <c r="C1578" t="s">
         <v>3875</v>
@@ -62797,15 +62866,15 @@
         <v>1353</v>
       </c>
       <c r="M1578" t="s">
-        <v>3991</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="1579" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1579">
-        <v>1731</v>
+        <v>1734</v>
       </c>
       <c r="B1579" t="s">
-        <v>3992</v>
+        <v>3996</v>
       </c>
       <c r="C1579" t="s">
         <v>3875</v>
@@ -62820,15 +62889,15 @@
         <v>1353</v>
       </c>
       <c r="M1579" t="s">
-        <v>4531</v>
+        <v>3997</v>
       </c>
     </row>
     <row r="1580" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1580">
-        <v>1732</v>
+        <v>1735</v>
       </c>
       <c r="B1580" t="s">
-        <v>3993</v>
+        <v>3998</v>
       </c>
       <c r="C1580" t="s">
         <v>3875</v>
@@ -62843,15 +62912,15 @@
         <v>1353</v>
       </c>
       <c r="M1580" t="s">
-        <v>4532</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="1581" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1581">
-        <v>1733</v>
+        <v>1736</v>
       </c>
       <c r="B1581" t="s">
-        <v>3994</v>
+        <v>3999</v>
       </c>
       <c r="C1581" t="s">
         <v>3875</v>
@@ -62866,15 +62935,15 @@
         <v>1353</v>
       </c>
       <c r="M1581" t="s">
-        <v>3995</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="1582" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1582">
-        <v>1734</v>
+        <v>1737</v>
       </c>
       <c r="B1582" t="s">
-        <v>3996</v>
+        <v>4001</v>
       </c>
       <c r="C1582" t="s">
         <v>3875</v>
@@ -62889,15 +62958,15 @@
         <v>1353</v>
       </c>
       <c r="M1582" t="s">
-        <v>3997</v>
+        <v>4534</v>
       </c>
     </row>
     <row r="1583" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1583">
-        <v>1735</v>
+        <v>1738</v>
       </c>
       <c r="B1583" t="s">
-        <v>3998</v>
+        <v>4002</v>
       </c>
       <c r="C1583" t="s">
         <v>3875</v>
@@ -62912,15 +62981,15 @@
         <v>1353</v>
       </c>
       <c r="M1583" t="s">
-        <v>4533</v>
+        <v>4535</v>
       </c>
     </row>
     <row r="1584" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1584">
-        <v>1736</v>
+        <v>1739</v>
       </c>
       <c r="B1584" t="s">
-        <v>3999</v>
+        <v>4003</v>
       </c>
       <c r="C1584" t="s">
         <v>3875</v>
@@ -62935,15 +63004,15 @@
         <v>1353</v>
       </c>
       <c r="M1584" t="s">
-        <v>4000</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="1585" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1585">
-        <v>1737</v>
+        <v>1740</v>
       </c>
       <c r="B1585" t="s">
-        <v>4001</v>
+        <v>4004</v>
       </c>
       <c r="C1585" t="s">
         <v>3875</v>
@@ -62958,15 +63027,15 @@
         <v>1353</v>
       </c>
       <c r="M1585" t="s">
-        <v>4534</v>
+        <v>4537</v>
       </c>
     </row>
     <row r="1586" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1586">
-        <v>1738</v>
+        <v>1741</v>
       </c>
       <c r="B1586" t="s">
-        <v>4002</v>
+        <v>4005</v>
       </c>
       <c r="C1586" t="s">
         <v>3875</v>
@@ -62981,15 +63050,15 @@
         <v>1353</v>
       </c>
       <c r="M1586" t="s">
-        <v>4535</v>
+        <v>4538</v>
       </c>
     </row>
     <row r="1587" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1587">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="B1587" t="s">
-        <v>4003</v>
+        <v>4006</v>
       </c>
       <c r="C1587" t="s">
         <v>3875</v>
@@ -63004,15 +63073,15 @@
         <v>1353</v>
       </c>
       <c r="M1587" t="s">
-        <v>4536</v>
+        <v>4539</v>
       </c>
     </row>
     <row r="1588" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1588">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="B1588" t="s">
-        <v>4004</v>
+        <v>4007</v>
       </c>
       <c r="C1588" t="s">
         <v>3875</v>
@@ -63027,15 +63096,15 @@
         <v>1353</v>
       </c>
       <c r="M1588" t="s">
-        <v>4537</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="1589" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1589">
-        <v>1741</v>
+        <v>1744</v>
       </c>
       <c r="B1589" t="s">
-        <v>4005</v>
+        <v>4009</v>
       </c>
       <c r="C1589" t="s">
         <v>3875</v>
@@ -63050,15 +63119,15 @@
         <v>1353</v>
       </c>
       <c r="M1589" t="s">
-        <v>4538</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="1590" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1590">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="B1590" t="s">
-        <v>4006</v>
+        <v>4010</v>
       </c>
       <c r="C1590" t="s">
         <v>3875</v>
@@ -63073,15 +63142,15 @@
         <v>1353</v>
       </c>
       <c r="M1590" t="s">
-        <v>4539</v>
+        <v>4541</v>
       </c>
     </row>
     <row r="1591" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1591">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="B1591" t="s">
-        <v>4007</v>
+        <v>4011</v>
       </c>
       <c r="C1591" t="s">
         <v>3875</v>
@@ -63096,15 +63165,15 @@
         <v>1353</v>
       </c>
       <c r="M1591" t="s">
-        <v>4008</v>
+        <v>4012</v>
       </c>
     </row>
     <row r="1592" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1592">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="B1592" t="s">
-        <v>4009</v>
+        <v>4013</v>
       </c>
       <c r="C1592" t="s">
         <v>3875</v>
@@ -63119,15 +63188,15 @@
         <v>1353</v>
       </c>
       <c r="M1592" t="s">
-        <v>4540</v>
+        <v>4542</v>
       </c>
     </row>
     <row r="1593" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1593">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B1593" t="s">
-        <v>4010</v>
+        <v>4014</v>
       </c>
       <c r="C1593" t="s">
         <v>3875</v>
@@ -63142,15 +63211,15 @@
         <v>1353</v>
       </c>
       <c r="M1593" t="s">
-        <v>4541</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="1594" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1594">
-        <v>1746</v>
+        <v>1749</v>
       </c>
       <c r="B1594" t="s">
-        <v>4011</v>
+        <v>4016</v>
       </c>
       <c r="C1594" t="s">
         <v>3875</v>
@@ -63165,15 +63234,15 @@
         <v>1353</v>
       </c>
       <c r="M1594" t="s">
-        <v>4012</v>
+        <v>4017</v>
       </c>
     </row>
     <row r="1595" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1595">
-        <v>1747</v>
+        <v>1750</v>
       </c>
       <c r="B1595" t="s">
-        <v>4013</v>
+        <v>4018</v>
       </c>
       <c r="C1595" t="s">
         <v>3875</v>
@@ -63188,15 +63257,15 @@
         <v>1353</v>
       </c>
       <c r="M1595" t="s">
-        <v>4542</v>
+        <v>4543</v>
       </c>
     </row>
     <row r="1596" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1596">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="B1596" t="s">
-        <v>4014</v>
+        <v>4019</v>
       </c>
       <c r="C1596" t="s">
         <v>3875</v>
@@ -63211,15 +63280,15 @@
         <v>1353</v>
       </c>
       <c r="M1596" t="s">
-        <v>4015</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="1597" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1597">
-        <v>1749</v>
+        <v>1752</v>
       </c>
       <c r="B1597" t="s">
-        <v>4016</v>
+        <v>4021</v>
       </c>
       <c r="C1597" t="s">
         <v>3875</v>
@@ -63234,15 +63303,15 @@
         <v>1353</v>
       </c>
       <c r="M1597" t="s">
-        <v>4017</v>
+        <v>4544</v>
       </c>
     </row>
     <row r="1598" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1598">
-        <v>1750</v>
+        <v>1753</v>
       </c>
       <c r="B1598" t="s">
-        <v>4018</v>
+        <v>4022</v>
       </c>
       <c r="C1598" t="s">
         <v>3875</v>
@@ -63257,15 +63326,15 @@
         <v>1353</v>
       </c>
       <c r="M1598" t="s">
-        <v>4543</v>
+        <v>4545</v>
       </c>
     </row>
     <row r="1599" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1599">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="B1599" t="s">
-        <v>4019</v>
+        <v>4023</v>
       </c>
       <c r="C1599" t="s">
         <v>3875</v>
@@ -63280,15 +63349,15 @@
         <v>1353</v>
       </c>
       <c r="M1599" t="s">
-        <v>4020</v>
+        <v>4546</v>
       </c>
     </row>
     <row r="1600" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1600">
-        <v>1752</v>
+        <v>1755</v>
       </c>
       <c r="B1600" t="s">
-        <v>4021</v>
+        <v>4024</v>
       </c>
       <c r="C1600" t="s">
         <v>3875</v>
@@ -63303,15 +63372,15 @@
         <v>1353</v>
       </c>
       <c r="M1600" t="s">
-        <v>4544</v>
+        <v>4547</v>
       </c>
     </row>
     <row r="1601" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1601">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="B1601" t="s">
-        <v>4022</v>
+        <v>4025</v>
       </c>
       <c r="C1601" t="s">
         <v>3875</v>
@@ -63326,15 +63395,15 @@
         <v>1353</v>
       </c>
       <c r="M1601" t="s">
-        <v>4545</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="1602" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1602">
-        <v>1754</v>
+        <v>1757</v>
       </c>
       <c r="B1602" t="s">
-        <v>4023</v>
+        <v>4026</v>
       </c>
       <c r="C1602" t="s">
         <v>3875</v>
@@ -63349,15 +63418,15 @@
         <v>1353</v>
       </c>
       <c r="M1602" t="s">
-        <v>4546</v>
+        <v>4027</v>
       </c>
     </row>
     <row r="1603" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1603">
-        <v>1755</v>
+        <v>1758</v>
       </c>
       <c r="B1603" t="s">
-        <v>4024</v>
+        <v>4028</v>
       </c>
       <c r="C1603" t="s">
         <v>3875</v>
@@ -63372,15 +63441,15 @@
         <v>1353</v>
       </c>
       <c r="M1603" t="s">
-        <v>4547</v>
+        <v>4549</v>
       </c>
     </row>
     <row r="1604" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1604">
-        <v>1756</v>
+        <v>1759</v>
       </c>
       <c r="B1604" t="s">
-        <v>4025</v>
+        <v>4029</v>
       </c>
       <c r="C1604" t="s">
         <v>3875</v>
@@ -63395,15 +63464,15 @@
         <v>1353</v>
       </c>
       <c r="M1604" t="s">
-        <v>4548</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="1605" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1605">
-        <v>1757</v>
+        <v>1760</v>
       </c>
       <c r="B1605" t="s">
-        <v>4026</v>
+        <v>4030</v>
       </c>
       <c r="C1605" t="s">
         <v>3875</v>
@@ -63418,15 +63487,15 @@
         <v>1353</v>
       </c>
       <c r="M1605" t="s">
-        <v>4027</v>
+        <v>4031</v>
       </c>
     </row>
     <row r="1606" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1606">
-        <v>1758</v>
+        <v>1761</v>
       </c>
       <c r="B1606" t="s">
-        <v>4028</v>
+        <v>4032</v>
       </c>
       <c r="C1606" t="s">
         <v>3875</v>
@@ -63441,15 +63510,15 @@
         <v>1353</v>
       </c>
       <c r="M1606" t="s">
-        <v>4549</v>
+        <v>4033</v>
       </c>
     </row>
     <row r="1607" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1607">
-        <v>1759</v>
+        <v>1762</v>
       </c>
       <c r="B1607" t="s">
-        <v>4029</v>
+        <v>4034</v>
       </c>
       <c r="C1607" t="s">
         <v>3875</v>
@@ -63464,15 +63533,15 @@
         <v>1353</v>
       </c>
       <c r="M1607" t="s">
-        <v>4550</v>
+        <v>4035</v>
       </c>
     </row>
     <row r="1608" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1608">
-        <v>1760</v>
+        <v>1763</v>
       </c>
       <c r="B1608" t="s">
-        <v>4030</v>
+        <v>4036</v>
       </c>
       <c r="C1608" t="s">
         <v>3875</v>
@@ -63487,15 +63556,15 @@
         <v>1353</v>
       </c>
       <c r="M1608" t="s">
-        <v>4031</v>
+        <v>4037</v>
       </c>
     </row>
     <row r="1609" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1609">
-        <v>1761</v>
+        <v>1764</v>
       </c>
       <c r="B1609" t="s">
-        <v>4032</v>
+        <v>4038</v>
       </c>
       <c r="C1609" t="s">
         <v>3875</v>
@@ -63510,15 +63579,15 @@
         <v>1353</v>
       </c>
       <c r="M1609" t="s">
-        <v>4033</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="1610" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1610">
-        <v>1762</v>
+        <v>1765</v>
       </c>
       <c r="B1610" t="s">
-        <v>4034</v>
+        <v>4039</v>
       </c>
       <c r="C1610" t="s">
         <v>3875</v>
@@ -63533,15 +63602,15 @@
         <v>1353</v>
       </c>
       <c r="M1610" t="s">
-        <v>4035</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="1611" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1611">
-        <v>1763</v>
+        <v>1766</v>
       </c>
       <c r="B1611" t="s">
-        <v>4036</v>
+        <v>4041</v>
       </c>
       <c r="C1611" t="s">
         <v>3875</v>
@@ -63556,15 +63625,15 @@
         <v>1353</v>
       </c>
       <c r="M1611" t="s">
-        <v>4037</v>
+        <v>4042</v>
       </c>
     </row>
     <row r="1612" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1612">
-        <v>1764</v>
+        <v>1767</v>
       </c>
       <c r="B1612" t="s">
-        <v>4038</v>
+        <v>4043</v>
       </c>
       <c r="C1612" t="s">
         <v>3875</v>
@@ -63579,15 +63648,15 @@
         <v>1353</v>
       </c>
       <c r="M1612" t="s">
-        <v>4551</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="1613" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1613">
-        <v>1765</v>
+        <v>1768</v>
       </c>
       <c r="B1613" t="s">
-        <v>4039</v>
+        <v>4044</v>
       </c>
       <c r="C1613" t="s">
         <v>3875</v>
@@ -63602,15 +63671,15 @@
         <v>1353</v>
       </c>
       <c r="M1613" t="s">
-        <v>4040</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="1614" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1614">
-        <v>1766</v>
+        <v>1769</v>
       </c>
       <c r="B1614" t="s">
-        <v>4041</v>
+        <v>4046</v>
       </c>
       <c r="C1614" t="s">
         <v>3875</v>
@@ -63625,15 +63694,15 @@
         <v>1353</v>
       </c>
       <c r="M1614" t="s">
-        <v>4042</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="1615" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1615">
-        <v>1767</v>
+        <v>1770</v>
       </c>
       <c r="B1615" t="s">
-        <v>4043</v>
+        <v>4047</v>
       </c>
       <c r="C1615" t="s">
         <v>3875</v>
@@ -63648,15 +63717,15 @@
         <v>1353</v>
       </c>
       <c r="M1615" t="s">
-        <v>4552</v>
+        <v>4048</v>
       </c>
     </row>
     <row r="1616" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1616">
-        <v>1768</v>
+        <v>1771</v>
       </c>
       <c r="B1616" t="s">
-        <v>4044</v>
+        <v>4049</v>
       </c>
       <c r="C1616" t="s">
         <v>3875</v>
@@ -63671,15 +63740,15 @@
         <v>1353</v>
       </c>
       <c r="M1616" t="s">
-        <v>4045</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="1617" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1617">
-        <v>1769</v>
+        <v>1772</v>
       </c>
       <c r="B1617" t="s">
-        <v>4046</v>
+        <v>4051</v>
       </c>
       <c r="C1617" t="s">
         <v>3875</v>
@@ -63694,15 +63763,15 @@
         <v>1353</v>
       </c>
       <c r="M1617" t="s">
-        <v>4553</v>
+        <v>4052</v>
       </c>
     </row>
     <row r="1618" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1618">
-        <v>1770</v>
+        <v>1773</v>
       </c>
       <c r="B1618" t="s">
-        <v>4047</v>
+        <v>4053</v>
       </c>
       <c r="C1618" t="s">
         <v>3875</v>
@@ -63717,15 +63786,15 @@
         <v>1353</v>
       </c>
       <c r="M1618" t="s">
-        <v>4048</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="1619" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1619">
-        <v>1771</v>
+        <v>1774</v>
       </c>
       <c r="B1619" t="s">
-        <v>4049</v>
+        <v>4054</v>
       </c>
       <c r="C1619" t="s">
         <v>3875</v>
@@ -63740,15 +63809,15 @@
         <v>1353</v>
       </c>
       <c r="M1619" t="s">
-        <v>4050</v>
+        <v>4555</v>
       </c>
     </row>
     <row r="1620" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1620">
-        <v>1772</v>
+        <v>1775</v>
       </c>
       <c r="B1620" t="s">
-        <v>4051</v>
+        <v>4055</v>
       </c>
       <c r="C1620" t="s">
         <v>3875</v>
@@ -63763,15 +63832,15 @@
         <v>1353</v>
       </c>
       <c r="M1620" t="s">
-        <v>4052</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="1621" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1621">
-        <v>1773</v>
+        <v>1776</v>
       </c>
       <c r="B1621" t="s">
-        <v>4053</v>
+        <v>4056</v>
       </c>
       <c r="C1621" t="s">
         <v>3875</v>
@@ -63786,15 +63855,15 @@
         <v>1353</v>
       </c>
       <c r="M1621" t="s">
-        <v>4554</v>
+        <v>4557</v>
       </c>
     </row>
     <row r="1622" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1622">
-        <v>1774</v>
+        <v>1777</v>
       </c>
       <c r="B1622" t="s">
-        <v>4054</v>
+        <v>4057</v>
       </c>
       <c r="C1622" t="s">
         <v>3875</v>
@@ -63809,15 +63878,15 @@
         <v>1353</v>
       </c>
       <c r="M1622" t="s">
-        <v>4555</v>
+        <v>4558</v>
       </c>
     </row>
     <row r="1623" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1623">
-        <v>1775</v>
+        <v>1778</v>
       </c>
       <c r="B1623" t="s">
-        <v>4055</v>
+        <v>4058</v>
       </c>
       <c r="C1623" t="s">
         <v>3875</v>
@@ -63832,15 +63901,15 @@
         <v>1353</v>
       </c>
       <c r="M1623" t="s">
-        <v>4556</v>
+        <v>4059</v>
       </c>
     </row>
     <row r="1624" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1624">
-        <v>1776</v>
+        <v>1779</v>
       </c>
       <c r="B1624" t="s">
-        <v>4056</v>
+        <v>4060</v>
       </c>
       <c r="C1624" t="s">
         <v>3875</v>
@@ -63855,15 +63924,15 @@
         <v>1353</v>
       </c>
       <c r="M1624" t="s">
-        <v>4557</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="1625" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1625">
-        <v>1777</v>
+        <v>1780</v>
       </c>
       <c r="B1625" t="s">
-        <v>4057</v>
+        <v>4061</v>
       </c>
       <c r="C1625" t="s">
         <v>3875</v>
@@ -63878,80 +63947,11 @@
         <v>1353</v>
       </c>
       <c r="M1625" t="s">
-        <v>4558</v>
-      </c>
-    </row>
-    <row r="1626" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1626">
-        <v>1778</v>
-      </c>
-      <c r="B1626" t="s">
-        <v>4058</v>
-      </c>
-      <c r="C1626" t="s">
-        <v>3875</v>
-      </c>
-      <c r="D1626">
-        <v>68000</v>
-      </c>
-      <c r="E1626" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1626" t="s">
-        <v>1353</v>
-      </c>
-      <c r="M1626" t="s">
-        <v>4059</v>
-      </c>
-    </row>
-    <row r="1627" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1627">
-        <v>1779</v>
-      </c>
-      <c r="B1627" t="s">
-        <v>4060</v>
-      </c>
-      <c r="C1627" t="s">
-        <v>3875</v>
-      </c>
-      <c r="D1627">
-        <v>68000</v>
-      </c>
-      <c r="E1627" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1627" t="s">
-        <v>1353</v>
-      </c>
-      <c r="M1627" t="s">
-        <v>4559</v>
-      </c>
-    </row>
-    <row r="1628" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1628">
-        <v>1780</v>
-      </c>
-      <c r="B1628" t="s">
-        <v>4061</v>
-      </c>
-      <c r="C1628" t="s">
-        <v>3875</v>
-      </c>
-      <c r="D1628">
-        <v>68000</v>
-      </c>
-      <c r="E1628" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1628" t="s">
-        <v>1353</v>
-      </c>
-      <c r="M1628" t="s">
         <v>4062</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1628"/>
+  <autoFilter ref="A1:M1625"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/0.36/compatibility.xlsx
+++ b/0.36/compatibility.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Playable(tested)" sheetId="6" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12459" uniqueCount="4570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12468" uniqueCount="4571">
   <si>
     <t>romname</t>
   </si>
@@ -13768,6 +13768,9 @@
   </si>
   <si>
     <t>konamiic</t>
+  </si>
+  <si>
+    <t>eeprom machine</t>
   </si>
 </sst>
 </file>
@@ -14091,10 +14094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14103,9 +14106,10 @@
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -14134,7 +14138,7 @@
         <v>4568</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -14163,7 +14167,7 @@
         <v>4568</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -14195,7 +14199,7 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -14227,7 +14231,7 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -14259,7 +14263,7 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -14288,7 +14292,7 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -14315,6 +14319,111 @@
       </c>
       <c r="N7" t="s">
         <v>4569</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2730</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2652</v>
+      </c>
+      <c r="E8" t="s">
+        <v>154</v>
+      </c>
+      <c r="H8" t="s">
+        <v>551</v>
+      </c>
+      <c r="I8">
+        <v>53260</v>
+      </c>
+      <c r="M8" t="s">
+        <v>2731</v>
+      </c>
+      <c r="N8" t="s">
+        <v>4569</v>
+      </c>
+      <c r="O8" t="s">
+        <v>4567</v>
+      </c>
+      <c r="P8" t="s">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2732</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2730</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2652</v>
+      </c>
+      <c r="E9" t="s">
+        <v>154</v>
+      </c>
+      <c r="H9" t="s">
+        <v>551</v>
+      </c>
+      <c r="I9">
+        <v>53260</v>
+      </c>
+      <c r="M9" t="s">
+        <v>2733</v>
+      </c>
+      <c r="N9" t="s">
+        <v>4569</v>
+      </c>
+      <c r="O9" t="s">
+        <v>4567</v>
+      </c>
+      <c r="P9" t="s">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2734</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2730</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2652</v>
+      </c>
+      <c r="E10" t="s">
+        <v>154</v>
+      </c>
+      <c r="H10" t="s">
+        <v>551</v>
+      </c>
+      <c r="I10">
+        <v>53260</v>
+      </c>
+      <c r="M10" t="s">
+        <v>4378</v>
+      </c>
+      <c r="N10" t="s">
+        <v>4569</v>
+      </c>
+      <c r="O10" t="s">
+        <v>4567</v>
+      </c>
+      <c r="P10" t="s">
+        <v>4570</v>
       </c>
     </row>
   </sheetData>
@@ -26960,8 +27069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1499"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A885" workbookViewId="0">
-      <selection activeCell="F904" sqref="F904"/>
+    <sheetView topLeftCell="A921" workbookViewId="0">
+      <selection activeCell="A944" sqref="A944:XFD946"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -50360,84 +50469,6 @@
       </c>
       <c r="M943" t="s">
         <v>2728</v>
-      </c>
-    </row>
-    <row r="944" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A944">
-        <v>1029</v>
-      </c>
-      <c r="B944" t="s">
-        <v>2729</v>
-      </c>
-      <c r="C944" t="s">
-        <v>2730</v>
-      </c>
-      <c r="D944" t="s">
-        <v>2652</v>
-      </c>
-      <c r="E944" t="s">
-        <v>154</v>
-      </c>
-      <c r="H944" t="s">
-        <v>551</v>
-      </c>
-      <c r="I944">
-        <v>53260</v>
-      </c>
-      <c r="M944" t="s">
-        <v>2731</v>
-      </c>
-    </row>
-    <row r="945" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A945">
-        <v>1030</v>
-      </c>
-      <c r="B945" t="s">
-        <v>2732</v>
-      </c>
-      <c r="C945" t="s">
-        <v>2730</v>
-      </c>
-      <c r="D945" t="s">
-        <v>2652</v>
-      </c>
-      <c r="E945" t="s">
-        <v>154</v>
-      </c>
-      <c r="H945" t="s">
-        <v>551</v>
-      </c>
-      <c r="I945">
-        <v>53260</v>
-      </c>
-      <c r="M945" t="s">
-        <v>2733</v>
-      </c>
-    </row>
-    <row r="946" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A946">
-        <v>1031</v>
-      </c>
-      <c r="B946" t="s">
-        <v>2734</v>
-      </c>
-      <c r="C946" t="s">
-        <v>2730</v>
-      </c>
-      <c r="D946" t="s">
-        <v>2652</v>
-      </c>
-      <c r="E946" t="s">
-        <v>154</v>
-      </c>
-      <c r="H946" t="s">
-        <v>551</v>
-      </c>
-      <c r="I946">
-        <v>53260</v>
-      </c>
-      <c r="M946" t="s">
-        <v>4378</v>
       </c>
     </row>
     <row r="947" spans="1:13" x14ac:dyDescent="0.3">

--- a/0.36/compatibility.xlsx
+++ b/0.36/compatibility.xlsx
@@ -19,8 +19,8 @@
     <sheet name="GAME_NOT_WORKING FLAG" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ALL!$A$1:$M$1374</definedName>
-    <definedName name="LIST" localSheetId="2">ALL!$B$1:$M$1374</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ALL!$A$1:$M$1373</definedName>
+    <definedName name="LIST" localSheetId="2">ALL!$B$1:$M$1373</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12574" uniqueCount="4575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12578" uniqueCount="4575">
   <si>
     <t>romname</t>
   </si>
@@ -14107,10 +14107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A19"/>
+      <selection activeCell="A17" sqref="A17:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14705,6 +14705,26 @@
         <v>2478</v>
       </c>
     </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3327</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3328</v>
+      </c>
+      <c r="D20" t="s">
+        <v>405</v>
+      </c>
+      <c r="H20" t="s">
+        <v>172</v>
+      </c>
+      <c r="M20" t="s">
+        <v>3329</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14715,8 +14735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P631"/>
   <sheetViews>
-    <sheetView topLeftCell="A604" workbookViewId="0">
-      <selection activeCell="A633" sqref="A633"/>
+    <sheetView topLeftCell="A605" workbookViewId="0">
+      <selection activeCell="I615" sqref="I615"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29794,7 +29814,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="625" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A625">
         <v>625</v>
       </c>
@@ -29814,7 +29834,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="626" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A626">
         <v>626</v>
       </c>
@@ -29834,7 +29854,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="627" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A627">
         <v>627</v>
       </c>
@@ -29854,7 +29874,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="628" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A628">
         <v>628</v>
       </c>
@@ -29879,8 +29899,11 @@
       <c r="M628" t="s">
         <v>1096</v>
       </c>
-    </row>
-    <row r="629" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O628" t="s">
+        <v>4567</v>
+      </c>
+    </row>
+    <row r="629" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A629">
         <v>629</v>
       </c>
@@ -29905,8 +29928,11 @@
       <c r="M629" t="s">
         <v>1098</v>
       </c>
-    </row>
-    <row r="630" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O629" t="s">
+        <v>4567</v>
+      </c>
+    </row>
+    <row r="630" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A630">
         <v>630</v>
       </c>
@@ -29931,8 +29957,11 @@
       <c r="M630" t="s">
         <v>1100</v>
       </c>
-    </row>
-    <row r="631" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O630" t="s">
+        <v>4567</v>
+      </c>
+    </row>
+    <row r="631" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A631">
         <v>631</v>
       </c>
@@ -29956,6 +29985,9 @@
       </c>
       <c r="M631" t="s">
         <v>1102</v>
+      </c>
+      <c r="O631" t="s">
+        <v>4567</v>
       </c>
     </row>
   </sheetData>
@@ -29966,10 +29998,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1374"/>
+  <dimension ref="A1:M1373"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F286" sqref="F286"/>
+    <sheetView tabSelected="1" topLeftCell="A1065" workbookViewId="0">
+      <selection activeCell="A1080" sqref="A1080:XFD1080"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -56842,30 +56874,36 @@
     </row>
     <row r="1080" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1080">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="B1080" t="s">
-        <v>3327</v>
+        <v>3330</v>
       </c>
       <c r="C1080" t="s">
-        <v>3328</v>
+        <v>3331</v>
       </c>
       <c r="D1080" t="s">
         <v>405</v>
       </c>
+      <c r="E1080" t="s">
+        <v>1184</v>
+      </c>
       <c r="H1080" t="s">
         <v>172</v>
       </c>
+      <c r="I1080" t="s">
+        <v>166</v>
+      </c>
       <c r="M1080" t="s">
-        <v>3329</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="1081" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1081">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="B1081" t="s">
-        <v>3330</v>
+        <v>3333</v>
       </c>
       <c r="C1081" t="s">
         <v>3331</v>
@@ -56883,15 +56921,15 @@
         <v>166</v>
       </c>
       <c r="M1081" t="s">
-        <v>3332</v>
+        <v>3334</v>
       </c>
     </row>
     <row r="1082" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1082">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="B1082" t="s">
-        <v>3333</v>
+        <v>3335</v>
       </c>
       <c r="C1082" t="s">
         <v>3331</v>
@@ -56900,24 +56938,27 @@
         <v>405</v>
       </c>
       <c r="E1082" t="s">
-        <v>1184</v>
+        <v>967</v>
+      </c>
+      <c r="F1082" t="s">
+        <v>1220</v>
       </c>
       <c r="H1082" t="s">
-        <v>172</v>
+        <v>332</v>
       </c>
       <c r="I1082" t="s">
         <v>166</v>
       </c>
       <c r="M1082" t="s">
-        <v>3334</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="1083" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1083">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="B1083" t="s">
-        <v>3335</v>
+        <v>3337</v>
       </c>
       <c r="C1083" t="s">
         <v>3331</v>
@@ -56938,18 +56979,18 @@
         <v>166</v>
       </c>
       <c r="M1083" t="s">
-        <v>3336</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="1084" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1084">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="B1084" t="s">
-        <v>3337</v>
+        <v>3339</v>
       </c>
       <c r="C1084" t="s">
-        <v>3331</v>
+        <v>3340</v>
       </c>
       <c r="D1084" t="s">
         <v>405</v>
@@ -56957,25 +56998,22 @@
       <c r="E1084" t="s">
         <v>967</v>
       </c>
-      <c r="F1084" t="s">
-        <v>1220</v>
-      </c>
       <c r="H1084" t="s">
         <v>332</v>
       </c>
       <c r="I1084" t="s">
-        <v>166</v>
+        <v>1320</v>
       </c>
       <c r="M1084" t="s">
-        <v>3338</v>
+        <v>3341</v>
       </c>
     </row>
     <row r="1085" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1085">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="B1085" t="s">
-        <v>3339</v>
+        <v>3342</v>
       </c>
       <c r="C1085" t="s">
         <v>3340</v>
@@ -56993,15 +57031,15 @@
         <v>1320</v>
       </c>
       <c r="M1085" t="s">
-        <v>3341</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="1086" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1086">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="B1086" t="s">
-        <v>3342</v>
+        <v>3343</v>
       </c>
       <c r="C1086" t="s">
         <v>3340</v>
@@ -57019,41 +57057,44 @@
         <v>1320</v>
       </c>
       <c r="M1086" t="s">
-        <v>4450</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="1087" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1087">
-        <v>1294</v>
+        <v>1301</v>
       </c>
       <c r="B1087" t="s">
-        <v>3343</v>
+        <v>3355</v>
       </c>
       <c r="C1087" t="s">
-        <v>3340</v>
+        <v>3356</v>
       </c>
       <c r="D1087" t="s">
-        <v>405</v>
+        <v>2316</v>
       </c>
       <c r="E1087" t="s">
-        <v>967</v>
+        <v>531</v>
+      </c>
+      <c r="F1087" t="s">
+        <v>3357</v>
       </c>
       <c r="H1087" t="s">
-        <v>332</v>
+        <v>551</v>
       </c>
       <c r="I1087" t="s">
-        <v>1320</v>
+        <v>3358</v>
       </c>
       <c r="M1087" t="s">
-        <v>4451</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="1088" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1088">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="B1088" t="s">
-        <v>3355</v>
+        <v>3360</v>
       </c>
       <c r="C1088" t="s">
         <v>3356</v>
@@ -57062,7 +57103,7 @@
         <v>2316</v>
       </c>
       <c r="E1088" t="s">
-        <v>531</v>
+        <v>2316</v>
       </c>
       <c r="F1088" t="s">
         <v>3357</v>
@@ -57074,15 +57115,15 @@
         <v>3358</v>
       </c>
       <c r="M1088" t="s">
-        <v>3359</v>
+        <v>3361</v>
       </c>
     </row>
     <row r="1089" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1089">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="B1089" t="s">
-        <v>3360</v>
+        <v>3362</v>
       </c>
       <c r="C1089" t="s">
         <v>3356</v>
@@ -57091,38 +57132,35 @@
         <v>2316</v>
       </c>
       <c r="E1089" t="s">
-        <v>2316</v>
+        <v>14</v>
       </c>
       <c r="F1089" t="s">
-        <v>3357</v>
+        <v>154</v>
       </c>
       <c r="H1089" t="s">
         <v>551</v>
       </c>
       <c r="I1089" t="s">
-        <v>3358</v>
+        <v>1492</v>
       </c>
       <c r="M1089" t="s">
-        <v>3361</v>
+        <v>4455</v>
       </c>
     </row>
     <row r="1090" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1090">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="B1090" t="s">
-        <v>3362</v>
+        <v>3363</v>
       </c>
       <c r="C1090" t="s">
-        <v>3356</v>
-      </c>
-      <c r="D1090" t="s">
-        <v>2316</v>
+        <v>3364</v>
+      </c>
+      <c r="D1090">
+        <v>68000</v>
       </c>
       <c r="E1090" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1090" t="s">
         <v>154</v>
       </c>
       <c r="H1090" t="s">
@@ -57132,15 +57170,15 @@
         <v>1492</v>
       </c>
       <c r="M1090" t="s">
-        <v>4455</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="1091" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1091">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="B1091" t="s">
-        <v>3363</v>
+        <v>3366</v>
       </c>
       <c r="C1091" t="s">
         <v>3364</v>
@@ -57158,18 +57196,18 @@
         <v>1492</v>
       </c>
       <c r="M1091" t="s">
-        <v>3365</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="1092" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1092">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="B1092" t="s">
-        <v>3366</v>
+        <v>3367</v>
       </c>
       <c r="C1092" t="s">
-        <v>3364</v>
+        <v>3368</v>
       </c>
       <c r="D1092">
         <v>68000</v>
@@ -57184,15 +57222,15 @@
         <v>1492</v>
       </c>
       <c r="M1092" t="s">
-        <v>4456</v>
+        <v>3369</v>
       </c>
     </row>
     <row r="1093" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1093">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="B1093" t="s">
-        <v>3367</v>
+        <v>3370</v>
       </c>
       <c r="C1093" t="s">
         <v>3368</v>
@@ -57210,18 +57248,18 @@
         <v>1492</v>
       </c>
       <c r="M1093" t="s">
-        <v>3369</v>
+        <v>3371</v>
       </c>
     </row>
     <row r="1094" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1094">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="B1094" t="s">
-        <v>3370</v>
+        <v>3372</v>
       </c>
       <c r="C1094" t="s">
-        <v>3368</v>
+        <v>3364</v>
       </c>
       <c r="D1094">
         <v>68000</v>
@@ -57236,15 +57274,15 @@
         <v>1492</v>
       </c>
       <c r="M1094" t="s">
-        <v>3371</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="1095" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1095">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="B1095" t="s">
-        <v>3372</v>
+        <v>3373</v>
       </c>
       <c r="C1095" t="s">
         <v>3364</v>
@@ -57262,41 +57300,38 @@
         <v>1492</v>
       </c>
       <c r="M1095" t="s">
-        <v>4457</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="1096" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1096">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="B1096" t="s">
-        <v>3373</v>
+        <v>3381</v>
       </c>
       <c r="C1096" t="s">
-        <v>3364</v>
-      </c>
-      <c r="D1096">
-        <v>68000</v>
+        <v>3382</v>
+      </c>
+      <c r="D1096" t="s">
+        <v>405</v>
       </c>
       <c r="E1096" t="s">
-        <v>154</v>
+        <v>1184</v>
       </c>
       <c r="H1096" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1096" t="s">
-        <v>1492</v>
+        <v>71</v>
       </c>
       <c r="M1096" t="s">
-        <v>4458</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="1097" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1097">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="B1097" t="s">
-        <v>3381</v>
+        <v>3384</v>
       </c>
       <c r="C1097" t="s">
         <v>3382</v>
@@ -57311,15 +57346,15 @@
         <v>71</v>
       </c>
       <c r="M1097" t="s">
-        <v>3383</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="1098" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1098">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="B1098" t="s">
-        <v>3384</v>
+        <v>3386</v>
       </c>
       <c r="C1098" t="s">
         <v>3382</v>
@@ -57334,15 +57369,15 @@
         <v>71</v>
       </c>
       <c r="M1098" t="s">
-        <v>3385</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="1099" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1099">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="B1099" t="s">
-        <v>3386</v>
+        <v>3388</v>
       </c>
       <c r="C1099" t="s">
         <v>3382</v>
@@ -57357,38 +57392,38 @@
         <v>71</v>
       </c>
       <c r="M1099" t="s">
-        <v>3387</v>
+        <v>3389</v>
       </c>
     </row>
     <row r="1100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1100">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="B1100" t="s">
-        <v>3388</v>
+        <v>3390</v>
       </c>
       <c r="C1100" t="s">
-        <v>3382</v>
+        <v>3391</v>
       </c>
       <c r="D1100" t="s">
-        <v>405</v>
+        <v>14</v>
       </c>
       <c r="E1100" t="s">
-        <v>1184</v>
+        <v>14</v>
       </c>
       <c r="H1100" t="s">
         <v>71</v>
       </c>
       <c r="M1100" t="s">
-        <v>3389</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="1101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1101">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="B1101" t="s">
-        <v>3390</v>
+        <v>3393</v>
       </c>
       <c r="C1101" t="s">
         <v>3391</v>
@@ -57403,15 +57438,15 @@
         <v>71</v>
       </c>
       <c r="M1101" t="s">
-        <v>3392</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="1102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1102">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B1102" t="s">
-        <v>3393</v>
+        <v>3395</v>
       </c>
       <c r="C1102" t="s">
         <v>3391</v>
@@ -57425,16 +57460,22 @@
       <c r="H1102" t="s">
         <v>71</v>
       </c>
+      <c r="I1102" t="s">
+        <v>840</v>
+      </c>
+      <c r="J1102" t="s">
+        <v>166</v>
+      </c>
       <c r="M1102" t="s">
-        <v>3394</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="1103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1103">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="B1103" t="s">
-        <v>3395</v>
+        <v>3397</v>
       </c>
       <c r="C1103" t="s">
         <v>3391</v>
@@ -57455,15 +57496,15 @@
         <v>166</v>
       </c>
       <c r="M1103" t="s">
-        <v>3396</v>
+        <v>3398</v>
       </c>
     </row>
     <row r="1104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1104">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B1104" t="s">
-        <v>3397</v>
+        <v>3399</v>
       </c>
       <c r="C1104" t="s">
         <v>3391</v>
@@ -57484,44 +57525,38 @@
         <v>166</v>
       </c>
       <c r="M1104" t="s">
-        <v>3398</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="1105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1105">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="B1105" t="s">
-        <v>3399</v>
+        <v>3401</v>
       </c>
       <c r="C1105" t="s">
-        <v>3391</v>
+        <v>3402</v>
       </c>
       <c r="D1105" t="s">
         <v>14</v>
       </c>
       <c r="E1105" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1105" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1105" t="s">
-        <v>840</v>
-      </c>
-      <c r="J1105" t="s">
-        <v>166</v>
+        <v>962</v>
+      </c>
+      <c r="F1105" t="s">
+        <v>962</v>
       </c>
       <c r="M1105" t="s">
-        <v>3400</v>
+        <v>3403</v>
       </c>
     </row>
     <row r="1106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1106">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="B1106" t="s">
-        <v>3401</v>
+        <v>3404</v>
       </c>
       <c r="C1106" t="s">
         <v>3402</v>
@@ -57536,15 +57571,15 @@
         <v>962</v>
       </c>
       <c r="M1106" t="s">
-        <v>3403</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="1107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1107">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="B1107" t="s">
-        <v>3404</v>
+        <v>3406</v>
       </c>
       <c r="C1107" t="s">
         <v>3402</v>
@@ -57559,15 +57594,15 @@
         <v>962</v>
       </c>
       <c r="M1107" t="s">
-        <v>3405</v>
+        <v>3407</v>
       </c>
     </row>
     <row r="1108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1108">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="B1108" t="s">
-        <v>3406</v>
+        <v>3408</v>
       </c>
       <c r="C1108" t="s">
         <v>3402</v>
@@ -57582,38 +57617,50 @@
         <v>962</v>
       </c>
       <c r="M1108" t="s">
-        <v>3407</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="1109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1109">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="B1109" t="s">
-        <v>3408</v>
+        <v>3434</v>
       </c>
       <c r="C1109" t="s">
-        <v>3402</v>
+        <v>3435</v>
       </c>
       <c r="D1109" t="s">
-        <v>14</v>
+        <v>3436</v>
       </c>
       <c r="E1109" t="s">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="F1109" t="s">
-        <v>962</v>
+        <v>967</v>
+      </c>
+      <c r="H1109" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1109" t="s">
+        <v>551</v>
+      </c>
+      <c r="J1109" t="s">
+        <v>333</v>
+      </c>
+      <c r="K1109" t="s">
+        <v>997</v>
       </c>
       <c r="M1109" t="s">
-        <v>3409</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="1110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1110">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B1110" t="s">
-        <v>3434</v>
+        <v>3438</v>
       </c>
       <c r="C1110" t="s">
         <v>3435</v>
@@ -57624,9 +57671,6 @@
       <c r="E1110" t="s">
         <v>967</v>
       </c>
-      <c r="F1110" t="s">
-        <v>967</v>
-      </c>
       <c r="H1110" t="s">
         <v>93</v>
       </c>
@@ -57634,21 +57678,21 @@
         <v>551</v>
       </c>
       <c r="J1110" t="s">
-        <v>333</v>
+        <v>166</v>
       </c>
       <c r="K1110" t="s">
         <v>997</v>
       </c>
       <c r="M1110" t="s">
-        <v>3437</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="1111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1111">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="B1111" t="s">
-        <v>3438</v>
+        <v>3440</v>
       </c>
       <c r="C1111" t="s">
         <v>3435</v>
@@ -57672,15 +57716,15 @@
         <v>997</v>
       </c>
       <c r="M1111" t="s">
-        <v>3439</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="1112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1112">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="B1112" t="s">
-        <v>3440</v>
+        <v>3442</v>
       </c>
       <c r="C1112" t="s">
         <v>3435</v>
@@ -57704,15 +57748,15 @@
         <v>997</v>
       </c>
       <c r="M1112" t="s">
-        <v>3441</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="1113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1113">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="B1113" t="s">
-        <v>3442</v>
+        <v>3443</v>
       </c>
       <c r="C1113" t="s">
         <v>3435</v>
@@ -57736,15 +57780,15 @@
         <v>997</v>
       </c>
       <c r="M1113" t="s">
-        <v>4459</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="1114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1114">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B1114" t="s">
-        <v>3443</v>
+        <v>3445</v>
       </c>
       <c r="C1114" t="s">
         <v>3435</v>
@@ -57768,15 +57812,15 @@
         <v>997</v>
       </c>
       <c r="M1114" t="s">
-        <v>3444</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="1115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1115">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="B1115" t="s">
-        <v>3445</v>
+        <v>3447</v>
       </c>
       <c r="C1115" t="s">
         <v>3435</v>
@@ -57800,15 +57844,15 @@
         <v>997</v>
       </c>
       <c r="M1115" t="s">
-        <v>3446</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="1116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1116">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="B1116" t="s">
-        <v>3447</v>
+        <v>3449</v>
       </c>
       <c r="C1116" t="s">
         <v>3435</v>
@@ -57832,15 +57876,15 @@
         <v>997</v>
       </c>
       <c r="M1116" t="s">
-        <v>3448</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="1117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1117">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="B1117" t="s">
-        <v>3449</v>
+        <v>3451</v>
       </c>
       <c r="C1117" t="s">
         <v>3435</v>
@@ -57864,15 +57908,15 @@
         <v>997</v>
       </c>
       <c r="M1117" t="s">
-        <v>3450</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="1118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1118">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="B1118" t="s">
-        <v>3451</v>
+        <v>3452</v>
       </c>
       <c r="C1118" t="s">
         <v>3435</v>
@@ -57896,15 +57940,15 @@
         <v>997</v>
       </c>
       <c r="M1118" t="s">
-        <v>4460</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="1119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1119">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="B1119" t="s">
-        <v>3452</v>
+        <v>3453</v>
       </c>
       <c r="C1119" t="s">
         <v>3435</v>
@@ -57928,15 +57972,15 @@
         <v>997</v>
       </c>
       <c r="M1119" t="s">
-        <v>4461</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="1120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1120">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="B1120" t="s">
-        <v>3453</v>
+        <v>3454</v>
       </c>
       <c r="C1120" t="s">
         <v>3435</v>
@@ -57957,18 +58001,18 @@
         <v>166</v>
       </c>
       <c r="K1120" t="s">
-        <v>997</v>
+        <v>1492</v>
       </c>
       <c r="M1120" t="s">
-        <v>4462</v>
+        <v>4463</v>
       </c>
     </row>
     <row r="1121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1121">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="B1121" t="s">
-        <v>3454</v>
+        <v>3455</v>
       </c>
       <c r="C1121" t="s">
         <v>3435</v>
@@ -57992,15 +58036,15 @@
         <v>1492</v>
       </c>
       <c r="M1121" t="s">
-        <v>4463</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1122">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="B1122" t="s">
-        <v>3455</v>
+        <v>3456</v>
       </c>
       <c r="C1122" t="s">
         <v>3435</v>
@@ -58024,15 +58068,15 @@
         <v>1492</v>
       </c>
       <c r="M1122" t="s">
-        <v>4464</v>
+        <v>4465</v>
       </c>
     </row>
     <row r="1123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1123">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="B1123" t="s">
-        <v>3456</v>
+        <v>3457</v>
       </c>
       <c r="C1123" t="s">
         <v>3435</v>
@@ -58056,15 +58100,15 @@
         <v>1492</v>
       </c>
       <c r="M1123" t="s">
-        <v>4465</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="1124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1124">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="B1124" t="s">
-        <v>3457</v>
+        <v>3458</v>
       </c>
       <c r="C1124" t="s">
         <v>3435</v>
@@ -58088,15 +58132,15 @@
         <v>1492</v>
       </c>
       <c r="M1124" t="s">
-        <v>4466</v>
+        <v>4467</v>
       </c>
     </row>
     <row r="1125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1125">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="B1125" t="s">
-        <v>3458</v>
+        <v>3459</v>
       </c>
       <c r="C1125" t="s">
         <v>3435</v>
@@ -58120,15 +58164,15 @@
         <v>1492</v>
       </c>
       <c r="M1125" t="s">
-        <v>4467</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="1126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1126">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="B1126" t="s">
-        <v>3459</v>
+        <v>3460</v>
       </c>
       <c r="C1126" t="s">
         <v>3435</v>
@@ -58152,15 +58196,15 @@
         <v>1492</v>
       </c>
       <c r="M1126" t="s">
-        <v>4468</v>
+        <v>4469</v>
       </c>
     </row>
     <row r="1127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1127">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="B1127" t="s">
-        <v>3460</v>
+        <v>3461</v>
       </c>
       <c r="C1127" t="s">
         <v>3435</v>
@@ -58184,15 +58228,15 @@
         <v>1492</v>
       </c>
       <c r="M1127" t="s">
-        <v>4469</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="1128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1128">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="B1128" t="s">
-        <v>3461</v>
+        <v>3462</v>
       </c>
       <c r="C1128" t="s">
         <v>3435</v>
@@ -58200,31 +58244,16 @@
       <c r="D1128" t="s">
         <v>3436</v>
       </c>
-      <c r="E1128" t="s">
-        <v>967</v>
-      </c>
-      <c r="H1128" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1128" t="s">
-        <v>551</v>
-      </c>
-      <c r="J1128" t="s">
-        <v>166</v>
-      </c>
-      <c r="K1128" t="s">
-        <v>1492</v>
-      </c>
       <c r="M1128" t="s">
-        <v>4470</v>
+        <v>4471</v>
       </c>
     </row>
     <row r="1129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1129">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="B1129" t="s">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="C1129" t="s">
         <v>3435</v>
@@ -58233,15 +58262,15 @@
         <v>3436</v>
       </c>
       <c r="M1129" t="s">
-        <v>4471</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="1130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1130">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="B1130" t="s">
-        <v>3463</v>
+        <v>3464</v>
       </c>
       <c r="C1130" t="s">
         <v>3435</v>
@@ -58250,15 +58279,15 @@
         <v>3436</v>
       </c>
       <c r="M1130" t="s">
-        <v>4472</v>
+        <v>4473</v>
       </c>
     </row>
     <row r="1131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1131">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="B1131" t="s">
-        <v>3464</v>
+        <v>3465</v>
       </c>
       <c r="C1131" t="s">
         <v>3435</v>
@@ -58266,16 +58295,31 @@
       <c r="D1131" t="s">
         <v>3436</v>
       </c>
+      <c r="E1131" t="s">
+        <v>967</v>
+      </c>
+      <c r="H1131" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1131" t="s">
+        <v>551</v>
+      </c>
+      <c r="J1131" t="s">
+        <v>166</v>
+      </c>
+      <c r="K1131" t="s">
+        <v>1492</v>
+      </c>
       <c r="M1131" t="s">
-        <v>4473</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="1132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1132">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="B1132" t="s">
-        <v>3465</v>
+        <v>3466</v>
       </c>
       <c r="C1132" t="s">
         <v>3435</v>
@@ -58299,15 +58343,15 @@
         <v>1492</v>
       </c>
       <c r="M1132" t="s">
-        <v>4474</v>
+        <v>4475</v>
       </c>
     </row>
     <row r="1133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1133">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="B1133" t="s">
-        <v>3466</v>
+        <v>3467</v>
       </c>
       <c r="C1133" t="s">
         <v>3435</v>
@@ -58331,47 +58375,35 @@
         <v>1492</v>
       </c>
       <c r="M1133" t="s">
-        <v>4475</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="1134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1134">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="B1134" t="s">
-        <v>3467</v>
+        <v>3484</v>
       </c>
       <c r="C1134" t="s">
-        <v>3435</v>
+        <v>3485</v>
       </c>
       <c r="D1134" t="s">
-        <v>3436</v>
-      </c>
-      <c r="E1134" t="s">
-        <v>967</v>
+        <v>3486</v>
       </c>
       <c r="H1134" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1134" t="s">
-        <v>551</v>
-      </c>
-      <c r="J1134" t="s">
-        <v>166</v>
-      </c>
-      <c r="K1134" t="s">
-        <v>1492</v>
+        <v>406</v>
       </c>
       <c r="M1134" t="s">
-        <v>4476</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="1135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1135">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="B1135" t="s">
-        <v>3484</v>
+        <v>3488</v>
       </c>
       <c r="C1135" t="s">
         <v>3485</v>
@@ -58383,15 +58415,15 @@
         <v>406</v>
       </c>
       <c r="M1135" t="s">
-        <v>3487</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="1136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1136">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="B1136" t="s">
-        <v>3488</v>
+        <v>3490</v>
       </c>
       <c r="C1136" t="s">
         <v>3485</v>
@@ -58403,15 +58435,15 @@
         <v>406</v>
       </c>
       <c r="M1136" t="s">
-        <v>3489</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="1137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1137">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B1137" t="s">
-        <v>3490</v>
+        <v>3492</v>
       </c>
       <c r="C1137" t="s">
         <v>3485</v>
@@ -58423,15 +58455,15 @@
         <v>406</v>
       </c>
       <c r="M1137" t="s">
-        <v>3491</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="1138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1138">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="B1138" t="s">
-        <v>3492</v>
+        <v>3494</v>
       </c>
       <c r="C1138" t="s">
         <v>3485</v>
@@ -58443,15 +58475,15 @@
         <v>406</v>
       </c>
       <c r="M1138" t="s">
-        <v>3493</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="1139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1139">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B1139" t="s">
-        <v>3494</v>
+        <v>3496</v>
       </c>
       <c r="C1139" t="s">
         <v>3485</v>
@@ -58463,15 +58495,15 @@
         <v>406</v>
       </c>
       <c r="M1139" t="s">
-        <v>3495</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="1140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1140">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="B1140" t="s">
-        <v>3496</v>
+        <v>3498</v>
       </c>
       <c r="C1140" t="s">
         <v>3485</v>
@@ -58483,15 +58515,15 @@
         <v>406</v>
       </c>
       <c r="M1140" t="s">
-        <v>3497</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="1141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1141">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="B1141" t="s">
-        <v>3498</v>
+        <v>3500</v>
       </c>
       <c r="C1141" t="s">
         <v>3485</v>
@@ -58503,15 +58535,15 @@
         <v>406</v>
       </c>
       <c r="M1141" t="s">
-        <v>3499</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="1142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1142">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="B1142" t="s">
-        <v>3500</v>
+        <v>3502</v>
       </c>
       <c r="C1142" t="s">
         <v>3485</v>
@@ -58523,15 +58555,15 @@
         <v>406</v>
       </c>
       <c r="M1142" t="s">
-        <v>3501</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="1143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1143">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="B1143" t="s">
-        <v>3502</v>
+        <v>3504</v>
       </c>
       <c r="C1143" t="s">
         <v>3485</v>
@@ -58543,15 +58575,15 @@
         <v>406</v>
       </c>
       <c r="M1143" t="s">
-        <v>3503</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="1144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1144">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="B1144" t="s">
-        <v>3504</v>
+        <v>3506</v>
       </c>
       <c r="C1144" t="s">
         <v>3485</v>
@@ -58563,15 +58595,15 @@
         <v>406</v>
       </c>
       <c r="M1144" t="s">
-        <v>3505</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="1145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1145">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B1145" t="s">
-        <v>3506</v>
+        <v>3508</v>
       </c>
       <c r="C1145" t="s">
         <v>3485</v>
@@ -58583,15 +58615,15 @@
         <v>406</v>
       </c>
       <c r="M1145" t="s">
-        <v>3507</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="1146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1146">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="B1146" t="s">
-        <v>3508</v>
+        <v>3510</v>
       </c>
       <c r="C1146" t="s">
         <v>3485</v>
@@ -58603,15 +58635,15 @@
         <v>406</v>
       </c>
       <c r="M1146" t="s">
-        <v>3509</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="1147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1147">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="B1147" t="s">
-        <v>3510</v>
+        <v>3512</v>
       </c>
       <c r="C1147" t="s">
         <v>3485</v>
@@ -58623,15 +58655,15 @@
         <v>406</v>
       </c>
       <c r="M1147" t="s">
-        <v>3511</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="1148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1148">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="B1148" t="s">
-        <v>3512</v>
+        <v>3514</v>
       </c>
       <c r="C1148" t="s">
         <v>3485</v>
@@ -58643,35 +58675,41 @@
         <v>406</v>
       </c>
       <c r="M1148" t="s">
-        <v>3513</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="1149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1149">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="B1149" t="s">
-        <v>3514</v>
+        <v>3516</v>
       </c>
       <c r="C1149" t="s">
-        <v>3485</v>
-      </c>
-      <c r="D1149" t="s">
-        <v>3486</v>
+        <v>3517</v>
+      </c>
+      <c r="D1149">
+        <v>68000</v>
+      </c>
+      <c r="E1149" t="s">
+        <v>14</v>
       </c>
       <c r="H1149" t="s">
-        <v>406</v>
+        <v>172</v>
+      </c>
+      <c r="I1149" t="s">
+        <v>93</v>
       </c>
       <c r="M1149" t="s">
-        <v>3515</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="1150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1150">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="B1150" t="s">
-        <v>3516</v>
+        <v>3519</v>
       </c>
       <c r="C1150" t="s">
         <v>3517</v>
@@ -58689,41 +58727,38 @@
         <v>93</v>
       </c>
       <c r="M1150" t="s">
-        <v>3518</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="1151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1151">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="B1151" t="s">
-        <v>3519</v>
+        <v>3521</v>
       </c>
       <c r="C1151" t="s">
-        <v>3517</v>
-      </c>
-      <c r="D1151">
-        <v>68000</v>
+        <v>3522</v>
+      </c>
+      <c r="D1151" t="s">
+        <v>14</v>
       </c>
       <c r="E1151" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="H1151" t="s">
         <v>172</v>
       </c>
-      <c r="I1151" t="s">
-        <v>93</v>
-      </c>
       <c r="M1151" t="s">
-        <v>3520</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="1152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1152">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="B1152" t="s">
-        <v>3521</v>
+        <v>3524</v>
       </c>
       <c r="C1152" t="s">
         <v>3522</v>
@@ -58738,15 +58773,15 @@
         <v>172</v>
       </c>
       <c r="M1152" t="s">
-        <v>3523</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="1153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1153">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="B1153" t="s">
-        <v>3524</v>
+        <v>3526</v>
       </c>
       <c r="C1153" t="s">
         <v>3522</v>
@@ -58761,15 +58796,15 @@
         <v>172</v>
       </c>
       <c r="M1153" t="s">
-        <v>3525</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="1154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1154">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="B1154" t="s">
-        <v>3526</v>
+        <v>3528</v>
       </c>
       <c r="C1154" t="s">
         <v>3522</v>
@@ -58784,15 +58819,15 @@
         <v>172</v>
       </c>
       <c r="M1154" t="s">
-        <v>3527</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="1155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1155">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="B1155" t="s">
-        <v>3528</v>
+        <v>3530</v>
       </c>
       <c r="C1155" t="s">
         <v>3522</v>
@@ -58807,15 +58842,15 @@
         <v>172</v>
       </c>
       <c r="M1155" t="s">
-        <v>3529</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="1156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1156">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="B1156" t="s">
-        <v>3530</v>
+        <v>3532</v>
       </c>
       <c r="C1156" t="s">
         <v>3522</v>
@@ -58830,15 +58865,15 @@
         <v>172</v>
       </c>
       <c r="M1156" t="s">
-        <v>3531</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="1157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1157">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="B1157" t="s">
-        <v>3532</v>
+        <v>3534</v>
       </c>
       <c r="C1157" t="s">
         <v>3522</v>
@@ -58853,15 +58888,15 @@
         <v>172</v>
       </c>
       <c r="M1157" t="s">
-        <v>3533</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="1158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1158">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="B1158" t="s">
-        <v>3534</v>
+        <v>3536</v>
       </c>
       <c r="C1158" t="s">
         <v>3522</v>
@@ -58876,15 +58911,15 @@
         <v>172</v>
       </c>
       <c r="M1158" t="s">
-        <v>3535</v>
+        <v>3537</v>
       </c>
     </row>
     <row r="1159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1159">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="B1159" t="s">
-        <v>3536</v>
+        <v>3538</v>
       </c>
       <c r="C1159" t="s">
         <v>3522</v>
@@ -58899,38 +58934,41 @@
         <v>172</v>
       </c>
       <c r="M1159" t="s">
-        <v>3537</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="1160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1160">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="B1160" t="s">
-        <v>3538</v>
+        <v>3571</v>
       </c>
       <c r="C1160" t="s">
-        <v>3522</v>
+        <v>3572</v>
       </c>
       <c r="D1160" t="s">
-        <v>14</v>
+        <v>1105</v>
       </c>
       <c r="E1160" t="s">
-        <v>154</v>
+        <v>1105</v>
       </c>
       <c r="H1160" t="s">
-        <v>172</v>
+        <v>349</v>
+      </c>
+      <c r="I1160" t="s">
+        <v>1492</v>
       </c>
       <c r="M1160" t="s">
-        <v>3539</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="1161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1161">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="B1161" t="s">
-        <v>3571</v>
+        <v>3574</v>
       </c>
       <c r="C1161" t="s">
         <v>3572</v>
@@ -58948,18 +58986,18 @@
         <v>1492</v>
       </c>
       <c r="M1161" t="s">
-        <v>3573</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="1162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1162">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="B1162" t="s">
-        <v>3574</v>
+        <v>3576</v>
       </c>
       <c r="C1162" t="s">
-        <v>3572</v>
+        <v>3577</v>
       </c>
       <c r="D1162" t="s">
         <v>1105</v>
@@ -58967,6 +59005,9 @@
       <c r="E1162" t="s">
         <v>1105</v>
       </c>
+      <c r="F1162" t="s">
+        <v>154</v>
+      </c>
       <c r="H1162" t="s">
         <v>349</v>
       </c>
@@ -58974,15 +59015,15 @@
         <v>1492</v>
       </c>
       <c r="M1162" t="s">
-        <v>3575</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="1163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1163">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="B1163" t="s">
-        <v>3576</v>
+        <v>3579</v>
       </c>
       <c r="C1163" t="s">
         <v>3577</v>
@@ -59003,15 +59044,15 @@
         <v>1492</v>
       </c>
       <c r="M1163" t="s">
-        <v>3578</v>
+        <v>4482</v>
       </c>
     </row>
     <row r="1164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1164">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="B1164" t="s">
-        <v>3579</v>
+        <v>3580</v>
       </c>
       <c r="C1164" t="s">
         <v>3577</v>
@@ -59032,26 +59073,23 @@
         <v>1492</v>
       </c>
       <c r="M1164" t="s">
-        <v>4482</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="1165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1165">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="B1165" t="s">
-        <v>3580</v>
+        <v>3582</v>
       </c>
       <c r="C1165" t="s">
-        <v>3577</v>
-      </c>
-      <c r="D1165" t="s">
-        <v>1105</v>
+        <v>3583</v>
+      </c>
+      <c r="D1165">
+        <v>68000</v>
       </c>
       <c r="E1165" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F1165" t="s">
         <v>154</v>
       </c>
       <c r="H1165" t="s">
@@ -59061,18 +59099,18 @@
         <v>1492</v>
       </c>
       <c r="M1165" t="s">
-        <v>3581</v>
+        <v>3584</v>
       </c>
     </row>
     <row r="1166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1166">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="B1166" t="s">
-        <v>3582</v>
+        <v>3585</v>
       </c>
       <c r="C1166" t="s">
-        <v>3583</v>
+        <v>3586</v>
       </c>
       <c r="D1166">
         <v>68000</v>
@@ -59080,22 +59118,16 @@
       <c r="E1166" t="s">
         <v>154</v>
       </c>
-      <c r="H1166" t="s">
-        <v>349</v>
-      </c>
-      <c r="I1166" t="s">
-        <v>1492</v>
-      </c>
       <c r="M1166" t="s">
-        <v>3584</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="1167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1167">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="B1167" t="s">
-        <v>3585</v>
+        <v>3588</v>
       </c>
       <c r="C1167" t="s">
         <v>3586</v>
@@ -59107,15 +59139,15 @@
         <v>154</v>
       </c>
       <c r="M1167" t="s">
-        <v>3587</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="1168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1168">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="B1168" t="s">
-        <v>3588</v>
+        <v>3590</v>
       </c>
       <c r="C1168" t="s">
         <v>3586</v>
@@ -59126,19 +59158,25 @@
       <c r="E1168" t="s">
         <v>154</v>
       </c>
+      <c r="H1168" t="s">
+        <v>551</v>
+      </c>
+      <c r="I1168" t="s">
+        <v>3358</v>
+      </c>
       <c r="M1168" t="s">
-        <v>3589</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="1169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1169">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="B1169" t="s">
-        <v>3590</v>
+        <v>3592</v>
       </c>
       <c r="C1169" t="s">
-        <v>3586</v>
+        <v>3593</v>
       </c>
       <c r="D1169">
         <v>68000</v>
@@ -59147,21 +59185,21 @@
         <v>154</v>
       </c>
       <c r="H1169" t="s">
-        <v>551</v>
+        <v>349</v>
       </c>
       <c r="I1169" t="s">
-        <v>3358</v>
+        <v>1275</v>
       </c>
       <c r="M1169" t="s">
-        <v>3591</v>
+        <v>3594</v>
       </c>
     </row>
     <row r="1170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1170">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="B1170" t="s">
-        <v>3592</v>
+        <v>3595</v>
       </c>
       <c r="C1170" t="s">
         <v>3593</v>
@@ -59179,15 +59217,15 @@
         <v>1275</v>
       </c>
       <c r="M1170" t="s">
-        <v>3594</v>
+        <v>3596</v>
       </c>
     </row>
     <row r="1171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1171">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="B1171" t="s">
-        <v>3595</v>
+        <v>3597</v>
       </c>
       <c r="C1171" t="s">
         <v>3593</v>
@@ -59205,15 +59243,15 @@
         <v>1275</v>
       </c>
       <c r="M1171" t="s">
-        <v>3596</v>
+        <v>3598</v>
       </c>
     </row>
     <row r="1172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1172">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="B1172" t="s">
-        <v>3597</v>
+        <v>3599</v>
       </c>
       <c r="C1172" t="s">
         <v>3593</v>
@@ -59231,15 +59269,15 @@
         <v>1275</v>
       </c>
       <c r="M1172" t="s">
-        <v>3598</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="1173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1173">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="B1173" t="s">
-        <v>3599</v>
+        <v>3601</v>
       </c>
       <c r="C1173" t="s">
         <v>3593</v>
@@ -59257,18 +59295,18 @@
         <v>1275</v>
       </c>
       <c r="M1173" t="s">
-        <v>3600</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="1174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1174">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="B1174" t="s">
-        <v>3601</v>
+        <v>3603</v>
       </c>
       <c r="C1174" t="s">
-        <v>3593</v>
+        <v>3604</v>
       </c>
       <c r="D1174">
         <v>68000</v>
@@ -59280,18 +59318,18 @@
         <v>349</v>
       </c>
       <c r="I1174" t="s">
-        <v>1275</v>
+        <v>1492</v>
       </c>
       <c r="M1174" t="s">
-        <v>3602</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1175">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="B1175" t="s">
-        <v>3603</v>
+        <v>3606</v>
       </c>
       <c r="C1175" t="s">
         <v>3604</v>
@@ -59309,41 +59347,35 @@
         <v>1492</v>
       </c>
       <c r="M1175" t="s">
-        <v>3605</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="1176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1176">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="B1176" t="s">
-        <v>3606</v>
+        <v>3608</v>
       </c>
       <c r="C1176" t="s">
-        <v>3604</v>
-      </c>
-      <c r="D1176">
-        <v>68000</v>
-      </c>
-      <c r="E1176" t="s">
-        <v>154</v>
+        <v>3609</v>
+      </c>
+      <c r="D1176" t="s">
+        <v>14</v>
       </c>
       <c r="H1176" t="s">
-        <v>349</v>
-      </c>
-      <c r="I1176" t="s">
-        <v>1492</v>
+        <v>172</v>
       </c>
       <c r="M1176" t="s">
-        <v>3607</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="1177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1177">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="B1177" t="s">
-        <v>3608</v>
+        <v>3611</v>
       </c>
       <c r="C1177" t="s">
         <v>3609</v>
@@ -59355,15 +59387,15 @@
         <v>172</v>
       </c>
       <c r="M1177" t="s">
-        <v>3610</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="1178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1178">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="B1178" t="s">
-        <v>3611</v>
+        <v>3613</v>
       </c>
       <c r="C1178" t="s">
         <v>3609</v>
@@ -59375,35 +59407,38 @@
         <v>172</v>
       </c>
       <c r="M1178" t="s">
-        <v>3612</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="1179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1179">
-        <v>1392</v>
+        <v>1398</v>
       </c>
       <c r="B1179" t="s">
-        <v>3613</v>
+        <v>3627</v>
       </c>
       <c r="C1179" t="s">
-        <v>3609</v>
+        <v>3628</v>
       </c>
       <c r="D1179" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1179" t="s">
         <v>14</v>
       </c>
       <c r="H1179" t="s">
         <v>172</v>
       </c>
       <c r="M1179" t="s">
-        <v>3614</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="1180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1180">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="B1180" t="s">
-        <v>3627</v>
+        <v>3630</v>
       </c>
       <c r="C1180" t="s">
         <v>3628</v>
@@ -59418,87 +59453,96 @@
         <v>172</v>
       </c>
       <c r="M1180" t="s">
-        <v>3629</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="1181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1181">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="B1181" t="s">
-        <v>3630</v>
+        <v>3632</v>
       </c>
       <c r="C1181" t="s">
-        <v>3628</v>
+        <v>3633</v>
       </c>
       <c r="D1181" t="s">
-        <v>405</v>
+        <v>14</v>
       </c>
       <c r="E1181" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="H1181" t="s">
-        <v>172</v>
+        <v>1279</v>
       </c>
       <c r="M1181" t="s">
-        <v>3631</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="1182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1182">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="B1182" t="s">
-        <v>3632</v>
+        <v>3635</v>
       </c>
       <c r="C1182" t="s">
-        <v>3633</v>
-      </c>
-      <c r="D1182" t="s">
-        <v>14</v>
+        <v>3636</v>
+      </c>
+      <c r="D1182">
+        <v>68000</v>
       </c>
       <c r="E1182" t="s">
-        <v>154</v>
+        <v>967</v>
       </c>
       <c r="H1182" t="s">
-        <v>1279</v>
+        <v>71</v>
+      </c>
+      <c r="I1182" t="s">
+        <v>3268</v>
       </c>
       <c r="M1182" t="s">
-        <v>3634</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="1183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1183">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="B1183" t="s">
-        <v>3635</v>
+        <v>3638</v>
       </c>
       <c r="C1183" t="s">
-        <v>3636</v>
+        <v>3639</v>
       </c>
       <c r="D1183">
         <v>68000</v>
       </c>
-      <c r="E1183" t="s">
-        <v>967</v>
+      <c r="E1183">
+        <v>68000</v>
+      </c>
+      <c r="F1183">
+        <v>68000</v>
+      </c>
+      <c r="G1183" t="s">
+        <v>973</v>
       </c>
       <c r="H1183" t="s">
-        <v>71</v>
+        <v>551</v>
       </c>
       <c r="I1183" t="s">
-        <v>3268</v>
+        <v>2375</v>
       </c>
       <c r="M1183" t="s">
-        <v>3637</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="1184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1184">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="B1184" t="s">
-        <v>3638</v>
+        <v>3641</v>
       </c>
       <c r="C1184" t="s">
         <v>3639</v>
@@ -59522,47 +59566,38 @@
         <v>2375</v>
       </c>
       <c r="M1184" t="s">
-        <v>3640</v>
+        <v>3642</v>
       </c>
     </row>
     <row r="1185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1185">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="B1185" t="s">
-        <v>3641</v>
+        <v>3643</v>
       </c>
       <c r="C1185" t="s">
-        <v>3639</v>
+        <v>3644</v>
       </c>
       <c r="D1185">
         <v>68000</v>
       </c>
-      <c r="E1185">
-        <v>68000</v>
-      </c>
-      <c r="F1185">
-        <v>68000</v>
-      </c>
-      <c r="G1185" t="s">
-        <v>973</v>
+      <c r="E1185" t="s">
+        <v>154</v>
       </c>
       <c r="H1185" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1185" t="s">
-        <v>2375</v>
+        <v>336</v>
       </c>
       <c r="M1185" t="s">
-        <v>3642</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="1186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1186">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="B1186" t="s">
-        <v>3643</v>
+        <v>3646</v>
       </c>
       <c r="C1186" t="s">
         <v>3644</v>
@@ -59577,15 +59612,15 @@
         <v>336</v>
       </c>
       <c r="M1186" t="s">
-        <v>3645</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="1187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1187">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="B1187" t="s">
-        <v>3646</v>
+        <v>3648</v>
       </c>
       <c r="C1187" t="s">
         <v>3644</v>
@@ -59594,21 +59629,24 @@
         <v>68000</v>
       </c>
       <c r="E1187" t="s">
-        <v>154</v>
+        <v>973</v>
       </c>
       <c r="H1187" t="s">
-        <v>336</v>
+        <v>551</v>
+      </c>
+      <c r="I1187" t="s">
+        <v>2375</v>
       </c>
       <c r="M1187" t="s">
-        <v>3647</v>
+        <v>4483</v>
       </c>
     </row>
     <row r="1188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1188">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B1188" t="s">
-        <v>3648</v>
+        <v>3649</v>
       </c>
       <c r="C1188" t="s">
         <v>3644</v>
@@ -59626,15 +59664,15 @@
         <v>2375</v>
       </c>
       <c r="M1188" t="s">
-        <v>4483</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="1189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1189">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="B1189" t="s">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="C1189" t="s">
         <v>3644</v>
@@ -59652,15 +59690,15 @@
         <v>2375</v>
       </c>
       <c r="M1189" t="s">
-        <v>4484</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1190">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="B1190" t="s">
-        <v>3650</v>
+        <v>3652</v>
       </c>
       <c r="C1190" t="s">
         <v>3644</v>
@@ -59678,15 +59716,15 @@
         <v>2375</v>
       </c>
       <c r="M1190" t="s">
-        <v>3651</v>
+        <v>3653</v>
       </c>
     </row>
     <row r="1191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1191">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B1191" t="s">
-        <v>3652</v>
+        <v>3654</v>
       </c>
       <c r="C1191" t="s">
         <v>3644</v>
@@ -59704,15 +59742,15 @@
         <v>2375</v>
       </c>
       <c r="M1191" t="s">
-        <v>3653</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="1192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1192">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="B1192" t="s">
-        <v>3654</v>
+        <v>3656</v>
       </c>
       <c r="C1192" t="s">
         <v>3644</v>
@@ -59730,15 +59768,15 @@
         <v>2375</v>
       </c>
       <c r="M1192" t="s">
-        <v>3655</v>
+        <v>3657</v>
       </c>
     </row>
     <row r="1193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1193">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="B1193" t="s">
-        <v>3656</v>
+        <v>3658</v>
       </c>
       <c r="C1193" t="s">
         <v>3644</v>
@@ -59756,15 +59794,15 @@
         <v>2375</v>
       </c>
       <c r="M1193" t="s">
-        <v>3657</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="1194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1194">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="B1194" t="s">
-        <v>3658</v>
+        <v>3660</v>
       </c>
       <c r="C1194" t="s">
         <v>3644</v>
@@ -59782,15 +59820,15 @@
         <v>2375</v>
       </c>
       <c r="M1194" t="s">
-        <v>3659</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="1195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1195">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="B1195" t="s">
-        <v>3660</v>
+        <v>3662</v>
       </c>
       <c r="C1195" t="s">
         <v>3644</v>
@@ -59808,15 +59846,15 @@
         <v>2375</v>
       </c>
       <c r="M1195" t="s">
-        <v>3661</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="1196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1196">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="B1196" t="s">
-        <v>3662</v>
+        <v>3664</v>
       </c>
       <c r="C1196" t="s">
         <v>3644</v>
@@ -59834,15 +59872,15 @@
         <v>2375</v>
       </c>
       <c r="M1196" t="s">
-        <v>3663</v>
+        <v>3665</v>
       </c>
     </row>
     <row r="1197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1197">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="B1197" t="s">
-        <v>3664</v>
+        <v>3666</v>
       </c>
       <c r="C1197" t="s">
         <v>3644</v>
@@ -59860,15 +59898,15 @@
         <v>2375</v>
       </c>
       <c r="M1197" t="s">
-        <v>3665</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="1198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1198">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B1198" t="s">
-        <v>3666</v>
+        <v>3668</v>
       </c>
       <c r="C1198" t="s">
         <v>3644</v>
@@ -59886,15 +59924,15 @@
         <v>2375</v>
       </c>
       <c r="M1198" t="s">
-        <v>3667</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="1199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1199">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="B1199" t="s">
-        <v>3668</v>
+        <v>3670</v>
       </c>
       <c r="C1199" t="s">
         <v>3644</v>
@@ -59912,15 +59950,15 @@
         <v>2375</v>
       </c>
       <c r="M1199" t="s">
-        <v>3669</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="1200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1200">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="B1200" t="s">
-        <v>3670</v>
+        <v>3671</v>
       </c>
       <c r="C1200" t="s">
         <v>3644</v>
@@ -59938,15 +59976,15 @@
         <v>2375</v>
       </c>
       <c r="M1200" t="s">
-        <v>4485</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="1201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1201">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="B1201" t="s">
-        <v>3671</v>
+        <v>3672</v>
       </c>
       <c r="C1201" t="s">
         <v>3644</v>
@@ -59964,15 +60002,15 @@
         <v>2375</v>
       </c>
       <c r="M1201" t="s">
-        <v>4486</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="1202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1202">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="B1202" t="s">
-        <v>3672</v>
+        <v>3674</v>
       </c>
       <c r="C1202" t="s">
         <v>3644</v>
@@ -59990,15 +60028,15 @@
         <v>2375</v>
       </c>
       <c r="M1202" t="s">
-        <v>3673</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="1203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1203">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="B1203" t="s">
-        <v>3674</v>
+        <v>3676</v>
       </c>
       <c r="C1203" t="s">
         <v>3644</v>
@@ -60016,15 +60054,15 @@
         <v>2375</v>
       </c>
       <c r="M1203" t="s">
-        <v>3675</v>
+        <v>3677</v>
       </c>
     </row>
     <row r="1204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1204">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="B1204" t="s">
-        <v>3676</v>
+        <v>3678</v>
       </c>
       <c r="C1204" t="s">
         <v>3644</v>
@@ -60042,15 +60080,15 @@
         <v>2375</v>
       </c>
       <c r="M1204" t="s">
-        <v>3677</v>
+        <v>3679</v>
       </c>
     </row>
     <row r="1205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1205">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="B1205" t="s">
-        <v>3678</v>
+        <v>3680</v>
       </c>
       <c r="C1205" t="s">
         <v>3644</v>
@@ -60068,15 +60106,15 @@
         <v>2375</v>
       </c>
       <c r="M1205" t="s">
-        <v>3679</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="1206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1206">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="B1206" t="s">
-        <v>3680</v>
+        <v>3682</v>
       </c>
       <c r="C1206" t="s">
         <v>3644</v>
@@ -60094,15 +60132,15 @@
         <v>2375</v>
       </c>
       <c r="M1206" t="s">
-        <v>3681</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="1207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1207">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="B1207" t="s">
-        <v>3682</v>
+        <v>3684</v>
       </c>
       <c r="C1207" t="s">
         <v>3644</v>
@@ -60110,25 +60148,19 @@
       <c r="D1207">
         <v>68000</v>
       </c>
-      <c r="E1207" t="s">
-        <v>973</v>
-      </c>
       <c r="H1207" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1207" t="s">
-        <v>2375</v>
+        <v>1492</v>
       </c>
       <c r="M1207" t="s">
-        <v>3683</v>
+        <v>3685</v>
       </c>
     </row>
     <row r="1208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1208">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="B1208" t="s">
-        <v>3684</v>
+        <v>3686</v>
       </c>
       <c r="C1208" t="s">
         <v>3644</v>
@@ -60136,45 +60168,48 @@
       <c r="D1208">
         <v>68000</v>
       </c>
+      <c r="E1208" t="s">
+        <v>973</v>
+      </c>
       <c r="H1208" t="s">
-        <v>1492</v>
+        <v>551</v>
+      </c>
+      <c r="I1208" t="s">
+        <v>2375</v>
       </c>
       <c r="M1208" t="s">
-        <v>3685</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="1209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1209">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="B1209" t="s">
-        <v>3686</v>
+        <v>3688</v>
       </c>
       <c r="C1209" t="s">
-        <v>3644</v>
+        <v>3689</v>
       </c>
       <c r="D1209">
         <v>68000</v>
       </c>
       <c r="E1209" t="s">
-        <v>973</v>
+        <v>154</v>
       </c>
       <c r="H1209" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1209" t="s">
-        <v>2375</v>
+        <v>1353</v>
       </c>
       <c r="M1209" t="s">
-        <v>3687</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="1210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1210">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="B1210" t="s">
-        <v>3688</v>
+        <v>3691</v>
       </c>
       <c r="C1210" t="s">
         <v>3689</v>
@@ -60189,15 +60224,15 @@
         <v>1353</v>
       </c>
       <c r="M1210" t="s">
-        <v>3690</v>
+        <v>3692</v>
       </c>
     </row>
     <row r="1211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1211">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="B1211" t="s">
-        <v>3691</v>
+        <v>3693</v>
       </c>
       <c r="C1211" t="s">
         <v>3689</v>
@@ -60212,15 +60247,15 @@
         <v>1353</v>
       </c>
       <c r="M1211" t="s">
-        <v>3692</v>
+        <v>3694</v>
       </c>
     </row>
     <row r="1212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1212">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="B1212" t="s">
-        <v>3693</v>
+        <v>3695</v>
       </c>
       <c r="C1212" t="s">
         <v>3689</v>
@@ -60235,15 +60270,15 @@
         <v>1353</v>
       </c>
       <c r="M1212" t="s">
-        <v>3694</v>
+        <v>3696</v>
       </c>
     </row>
     <row r="1213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1213">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="B1213" t="s">
-        <v>3695</v>
+        <v>3697</v>
       </c>
       <c r="C1213" t="s">
         <v>3689</v>
@@ -60258,15 +60293,15 @@
         <v>1353</v>
       </c>
       <c r="M1213" t="s">
-        <v>3696</v>
+        <v>4487</v>
       </c>
     </row>
     <row r="1214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1214">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="B1214" t="s">
-        <v>3697</v>
+        <v>3698</v>
       </c>
       <c r="C1214" t="s">
         <v>3689</v>
@@ -60281,38 +60316,38 @@
         <v>1353</v>
       </c>
       <c r="M1214" t="s">
-        <v>4487</v>
+        <v>4488</v>
       </c>
     </row>
     <row r="1215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1215">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="B1215" t="s">
-        <v>3698</v>
+        <v>3735</v>
       </c>
       <c r="C1215" t="s">
-        <v>3689</v>
-      </c>
-      <c r="D1215">
-        <v>68000</v>
+        <v>3736</v>
+      </c>
+      <c r="D1215" t="s">
+        <v>14</v>
       </c>
       <c r="E1215" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="H1215" t="s">
-        <v>1353</v>
+        <v>71</v>
       </c>
       <c r="M1215" t="s">
-        <v>4488</v>
+        <v>3737</v>
       </c>
     </row>
     <row r="1216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1216">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="B1216" t="s">
-        <v>3735</v>
+        <v>3738</v>
       </c>
       <c r="C1216" t="s">
         <v>3736</v>
@@ -60327,61 +60362,61 @@
         <v>71</v>
       </c>
       <c r="M1216" t="s">
-        <v>3737</v>
+        <v>3739</v>
       </c>
     </row>
     <row r="1217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1217">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="B1217" t="s">
-        <v>3738</v>
+        <v>3740</v>
       </c>
       <c r="C1217" t="s">
-        <v>3736</v>
-      </c>
-      <c r="D1217" t="s">
-        <v>14</v>
+        <v>3741</v>
+      </c>
+      <c r="D1217">
+        <v>68000</v>
       </c>
       <c r="E1217" t="s">
         <v>14</v>
       </c>
       <c r="H1217" t="s">
-        <v>71</v>
+        <v>349</v>
       </c>
       <c r="M1217" t="s">
-        <v>3739</v>
+        <v>3742</v>
       </c>
     </row>
     <row r="1218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1218">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="B1218" t="s">
-        <v>3740</v>
+        <v>3743</v>
       </c>
       <c r="C1218" t="s">
-        <v>3741</v>
+        <v>3744</v>
       </c>
       <c r="D1218">
         <v>68000</v>
       </c>
-      <c r="E1218" t="s">
-        <v>14</v>
-      </c>
       <c r="H1218" t="s">
-        <v>349</v>
+        <v>172</v>
+      </c>
+      <c r="I1218" t="s">
+        <v>1492</v>
       </c>
       <c r="M1218" t="s">
-        <v>3742</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="1219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1219">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="B1219" t="s">
-        <v>3743</v>
+        <v>3746</v>
       </c>
       <c r="C1219" t="s">
         <v>3744</v>
@@ -60396,15 +60431,15 @@
         <v>1492</v>
       </c>
       <c r="M1219" t="s">
-        <v>3745</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="1220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1220">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="B1220" t="s">
-        <v>3746</v>
+        <v>3748</v>
       </c>
       <c r="C1220" t="s">
         <v>3744</v>
@@ -60413,21 +60448,18 @@
         <v>68000</v>
       </c>
       <c r="H1220" t="s">
-        <v>172</v>
-      </c>
-      <c r="I1220" t="s">
-        <v>1492</v>
+        <v>2375</v>
       </c>
       <c r="M1220" t="s">
-        <v>3747</v>
+        <v>3749</v>
       </c>
     </row>
     <row r="1221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1221">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="B1221" t="s">
-        <v>3748</v>
+        <v>3750</v>
       </c>
       <c r="C1221" t="s">
         <v>3744</v>
@@ -60439,78 +60471,78 @@
         <v>2375</v>
       </c>
       <c r="M1221" t="s">
-        <v>3749</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="1222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1222">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="B1222" t="s">
-        <v>3750</v>
+        <v>3751</v>
       </c>
       <c r="C1222" t="s">
-        <v>3744</v>
+        <v>3752</v>
       </c>
       <c r="D1222">
         <v>68000</v>
       </c>
       <c r="H1222" t="s">
-        <v>2375</v>
+        <v>1492</v>
       </c>
       <c r="M1222" t="s">
-        <v>4489</v>
+        <v>3753</v>
       </c>
     </row>
     <row r="1223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1223">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="B1223" t="s">
-        <v>3751</v>
+        <v>3774</v>
       </c>
       <c r="C1223" t="s">
-        <v>3752</v>
-      </c>
-      <c r="D1223">
-        <v>68000</v>
+        <v>3775</v>
+      </c>
+      <c r="D1223" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1223" t="s">
+        <v>154</v>
       </c>
       <c r="H1223" t="s">
-        <v>1492</v>
+        <v>172</v>
       </c>
       <c r="M1223" t="s">
-        <v>3753</v>
+        <v>3776</v>
       </c>
     </row>
     <row r="1224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1224">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="B1224" t="s">
-        <v>3774</v>
+        <v>3777</v>
       </c>
       <c r="C1224" t="s">
-        <v>3775</v>
+        <v>3778</v>
       </c>
       <c r="D1224" t="s">
         <v>14</v>
-      </c>
-      <c r="E1224" t="s">
-        <v>154</v>
       </c>
       <c r="H1224" t="s">
         <v>172</v>
       </c>
       <c r="M1224" t="s">
-        <v>3776</v>
+        <v>3779</v>
       </c>
     </row>
     <row r="1225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1225">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="B1225" t="s">
-        <v>3777</v>
+        <v>3780</v>
       </c>
       <c r="C1225" t="s">
         <v>3778</v>
@@ -60522,35 +60554,38 @@
         <v>172</v>
       </c>
       <c r="M1225" t="s">
-        <v>3779</v>
+        <v>3781</v>
       </c>
     </row>
     <row r="1226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1226">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="B1226" t="s">
-        <v>3780</v>
+        <v>3791</v>
       </c>
       <c r="C1226" t="s">
-        <v>3778</v>
+        <v>3792</v>
       </c>
       <c r="D1226" t="s">
-        <v>14</v>
+        <v>405</v>
+      </c>
+      <c r="E1226" t="s">
+        <v>1184</v>
       </c>
       <c r="H1226" t="s">
-        <v>172</v>
+        <v>71</v>
       </c>
       <c r="M1226" t="s">
-        <v>3781</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="1227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1227">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="B1227" t="s">
-        <v>3791</v>
+        <v>3794</v>
       </c>
       <c r="C1227" t="s">
         <v>3792</v>
@@ -60565,18 +60600,18 @@
         <v>71</v>
       </c>
       <c r="M1227" t="s">
-        <v>3793</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="1228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1228">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="B1228" t="s">
-        <v>3794</v>
+        <v>3799</v>
       </c>
       <c r="C1228" t="s">
-        <v>3792</v>
+        <v>3800</v>
       </c>
       <c r="D1228" t="s">
         <v>405</v>
@@ -60584,65 +60619,59 @@
       <c r="E1228" t="s">
         <v>1184</v>
       </c>
+      <c r="F1228" t="s">
+        <v>3801</v>
+      </c>
       <c r="H1228" t="s">
         <v>71</v>
       </c>
       <c r="M1228" t="s">
-        <v>3795</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="1229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1229">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="B1229" t="s">
-        <v>3799</v>
+        <v>3803</v>
       </c>
       <c r="C1229" t="s">
-        <v>3800</v>
+        <v>3804</v>
       </c>
       <c r="D1229" t="s">
-        <v>405</v>
-      </c>
-      <c r="E1229" t="s">
-        <v>1184</v>
-      </c>
-      <c r="F1229" t="s">
-        <v>3801</v>
+        <v>473</v>
       </c>
       <c r="H1229" t="s">
-        <v>71</v>
+        <v>2936</v>
       </c>
       <c r="M1229" t="s">
-        <v>3802</v>
+        <v>3805</v>
       </c>
     </row>
     <row r="1230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1230">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="B1230" t="s">
-        <v>3803</v>
+        <v>3806</v>
       </c>
       <c r="C1230" t="s">
-        <v>3804</v>
+        <v>3807</v>
       </c>
       <c r="D1230" t="s">
         <v>473</v>
       </c>
-      <c r="H1230" t="s">
-        <v>2936</v>
-      </c>
       <c r="M1230" t="s">
-        <v>3805</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="1231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1231">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="B1231" t="s">
-        <v>3806</v>
+        <v>3809</v>
       </c>
       <c r="C1231" t="s">
         <v>3807</v>
@@ -60651,101 +60680,116 @@
         <v>473</v>
       </c>
       <c r="M1231" t="s">
-        <v>3808</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="1232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1232">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="B1232" t="s">
-        <v>3809</v>
+        <v>3811</v>
       </c>
       <c r="C1232" t="s">
-        <v>3807</v>
-      </c>
-      <c r="D1232" t="s">
-        <v>473</v>
+        <v>3812</v>
+      </c>
+      <c r="D1232">
+        <v>8080</v>
       </c>
       <c r="M1232" t="s">
-        <v>3810</v>
+        <v>3813</v>
       </c>
     </row>
     <row r="1233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1233">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="B1233" t="s">
-        <v>3811</v>
+        <v>3814</v>
       </c>
       <c r="C1233" t="s">
-        <v>3812</v>
-      </c>
-      <c r="D1233">
-        <v>8080</v>
+        <v>3815</v>
+      </c>
+      <c r="D1233" t="s">
+        <v>3436</v>
+      </c>
+      <c r="E1233" t="s">
+        <v>3436</v>
+      </c>
+      <c r="F1233" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G1233" t="s">
+        <v>1184</v>
+      </c>
+      <c r="H1233" t="s">
+        <v>333</v>
+      </c>
+      <c r="I1233" t="s">
+        <v>551</v>
       </c>
       <c r="M1233" t="s">
-        <v>3813</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="1234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1234">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="B1234" t="s">
-        <v>3814</v>
+        <v>3817</v>
       </c>
       <c r="C1234" t="s">
-        <v>3815</v>
+        <v>3818</v>
       </c>
       <c r="D1234" t="s">
-        <v>3436</v>
-      </c>
-      <c r="E1234" t="s">
-        <v>3436</v>
-      </c>
-      <c r="F1234" t="s">
-        <v>1184</v>
-      </c>
-      <c r="G1234" t="s">
-        <v>1184</v>
+        <v>14</v>
       </c>
       <c r="H1234" t="s">
-        <v>333</v>
-      </c>
-      <c r="I1234" t="s">
-        <v>551</v>
+        <v>172</v>
       </c>
       <c r="M1234" t="s">
-        <v>3816</v>
+        <v>3819</v>
       </c>
     </row>
     <row r="1235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1235">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="B1235" t="s">
-        <v>3817</v>
+        <v>3820</v>
       </c>
       <c r="C1235" t="s">
-        <v>3818</v>
+        <v>3821</v>
       </c>
       <c r="D1235" t="s">
         <v>14</v>
       </c>
+      <c r="E1235" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1235" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1235" t="s">
+        <v>154</v>
+      </c>
       <c r="H1235" t="s">
-        <v>172</v>
+        <v>71</v>
+      </c>
+      <c r="I1235" t="s">
+        <v>166</v>
       </c>
       <c r="M1235" t="s">
-        <v>3819</v>
+        <v>3822</v>
       </c>
     </row>
     <row r="1236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1236">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="B1236" t="s">
-        <v>3820</v>
+        <v>3823</v>
       </c>
       <c r="C1236" t="s">
         <v>3821</v>
@@ -60769,15 +60813,15 @@
         <v>166</v>
       </c>
       <c r="M1236" t="s">
-        <v>3822</v>
+        <v>3824</v>
       </c>
     </row>
     <row r="1237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1237">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="B1237" t="s">
-        <v>3823</v>
+        <v>3825</v>
       </c>
       <c r="C1237" t="s">
         <v>3821</v>
@@ -60801,15 +60845,15 @@
         <v>166</v>
       </c>
       <c r="M1237" t="s">
-        <v>3824</v>
+        <v>3826</v>
       </c>
     </row>
     <row r="1238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1238">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="B1238" t="s">
-        <v>3825</v>
+        <v>3827</v>
       </c>
       <c r="C1238" t="s">
         <v>3821</v>
@@ -60833,213 +60877,204 @@
         <v>166</v>
       </c>
       <c r="M1238" t="s">
-        <v>3826</v>
+        <v>3828</v>
       </c>
     </row>
     <row r="1239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1239">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="B1239" t="s">
-        <v>3827</v>
+        <v>3829</v>
       </c>
       <c r="C1239" t="s">
-        <v>3821</v>
-      </c>
-      <c r="D1239" t="s">
-        <v>14</v>
+        <v>3830</v>
+      </c>
+      <c r="D1239">
+        <v>68000</v>
       </c>
       <c r="E1239" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1239" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1239" t="s">
         <v>154</v>
       </c>
       <c r="H1239" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1239" t="s">
-        <v>166</v>
+        <v>1492</v>
       </c>
       <c r="M1239" t="s">
-        <v>3828</v>
+        <v>3831</v>
       </c>
     </row>
     <row r="1240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1240">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="B1240" t="s">
-        <v>3829</v>
+        <v>3848</v>
       </c>
       <c r="C1240" t="s">
-        <v>3830</v>
+        <v>3849</v>
       </c>
       <c r="D1240">
-        <v>68000</v>
-      </c>
-      <c r="E1240" t="s">
-        <v>154</v>
+        <v>8080</v>
       </c>
       <c r="H1240" t="s">
-        <v>1492</v>
+        <v>406</v>
       </c>
       <c r="M1240" t="s">
-        <v>3831</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="1241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1241">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="B1241" t="s">
-        <v>3848</v>
+        <v>3851</v>
       </c>
       <c r="C1241" t="s">
-        <v>3849</v>
-      </c>
-      <c r="D1241">
-        <v>8080</v>
+        <v>3852</v>
+      </c>
+      <c r="D1241" t="s">
+        <v>1105</v>
       </c>
       <c r="H1241" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
       <c r="M1241" t="s">
-        <v>3850</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="1242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1242">
-        <v>1460</v>
+        <v>1463</v>
       </c>
       <c r="B1242" t="s">
-        <v>3851</v>
+        <v>3859</v>
       </c>
       <c r="C1242" t="s">
-        <v>3852</v>
+        <v>3860</v>
       </c>
       <c r="D1242" t="s">
-        <v>1105</v>
+        <v>3861</v>
+      </c>
+      <c r="E1242" t="s">
+        <v>725</v>
       </c>
       <c r="H1242" t="s">
-        <v>336</v>
+        <v>2070</v>
       </c>
       <c r="M1242" t="s">
-        <v>3853</v>
+        <v>3862</v>
       </c>
     </row>
     <row r="1243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1243">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B1243" t="s">
-        <v>3859</v>
+        <v>3863</v>
       </c>
       <c r="C1243" t="s">
-        <v>3860</v>
-      </c>
-      <c r="D1243" t="s">
-        <v>3861</v>
-      </c>
-      <c r="E1243" t="s">
-        <v>725</v>
+        <v>3864</v>
+      </c>
+      <c r="D1243">
+        <v>68000</v>
       </c>
       <c r="H1243" t="s">
-        <v>2070</v>
+        <v>2375</v>
       </c>
       <c r="M1243" t="s">
-        <v>3862</v>
+        <v>3865</v>
       </c>
     </row>
     <row r="1244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1244">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="B1244" t="s">
-        <v>3863</v>
+        <v>3866</v>
       </c>
       <c r="C1244" t="s">
-        <v>3864</v>
+        <v>3867</v>
       </c>
       <c r="D1244">
         <v>68000</v>
       </c>
+      <c r="E1244" t="s">
+        <v>154</v>
+      </c>
       <c r="H1244" t="s">
-        <v>2375</v>
+        <v>1236</v>
       </c>
       <c r="M1244" t="s">
-        <v>3865</v>
+        <v>3868</v>
       </c>
     </row>
     <row r="1245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1245">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="B1245" t="s">
-        <v>3866</v>
+        <v>3869</v>
       </c>
       <c r="C1245" t="s">
-        <v>3867</v>
-      </c>
-      <c r="D1245">
-        <v>68000</v>
-      </c>
-      <c r="E1245" t="s">
-        <v>154</v>
+        <v>3870</v>
+      </c>
+      <c r="D1245" t="s">
+        <v>405</v>
       </c>
       <c r="H1245" t="s">
-        <v>1236</v>
+        <v>71</v>
       </c>
       <c r="M1245" t="s">
-        <v>3868</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="1246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1246">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="B1246" t="s">
-        <v>3869</v>
+        <v>3872</v>
       </c>
       <c r="C1246" t="s">
-        <v>3870</v>
+        <v>3873</v>
       </c>
       <c r="D1246" t="s">
-        <v>405</v>
-      </c>
-      <c r="H1246" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="M1246" t="s">
-        <v>3871</v>
+        <v>4493</v>
       </c>
     </row>
     <row r="1247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1247">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="B1247" t="s">
-        <v>3872</v>
+        <v>3874</v>
       </c>
       <c r="C1247" t="s">
-        <v>3873</v>
-      </c>
-      <c r="D1247" t="s">
-        <v>14</v>
+        <v>3875</v>
+      </c>
+      <c r="D1247">
+        <v>68000</v>
+      </c>
+      <c r="E1247" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1247" t="s">
+        <v>1353</v>
       </c>
       <c r="M1247" t="s">
-        <v>4493</v>
+        <v>3876</v>
       </c>
     </row>
     <row r="1248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1248">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="B1248" t="s">
-        <v>3874</v>
+        <v>3877</v>
       </c>
       <c r="C1248" t="s">
         <v>3875</v>
@@ -61054,15 +61089,15 @@
         <v>1353</v>
       </c>
       <c r="M1248" t="s">
-        <v>3876</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="1249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1249">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="B1249" t="s">
-        <v>3877</v>
+        <v>3878</v>
       </c>
       <c r="C1249" t="s">
         <v>3875</v>
@@ -61077,15 +61112,15 @@
         <v>1353</v>
       </c>
       <c r="M1249" t="s">
-        <v>4494</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="1250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1250">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="B1250" t="s">
-        <v>3878</v>
+        <v>3880</v>
       </c>
       <c r="C1250" t="s">
         <v>3875</v>
@@ -61100,15 +61135,15 @@
         <v>1353</v>
       </c>
       <c r="M1250" t="s">
-        <v>3879</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="1251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1251">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="B1251" t="s">
-        <v>3880</v>
+        <v>3882</v>
       </c>
       <c r="C1251" t="s">
         <v>3875</v>
@@ -61123,15 +61158,15 @@
         <v>1353</v>
       </c>
       <c r="M1251" t="s">
-        <v>3881</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="1252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1252">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="B1252" t="s">
-        <v>3882</v>
+        <v>3884</v>
       </c>
       <c r="C1252" t="s">
         <v>3875</v>
@@ -61146,15 +61181,15 @@
         <v>1353</v>
       </c>
       <c r="M1252" t="s">
-        <v>3883</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="1253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1253">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="B1253" t="s">
-        <v>3884</v>
+        <v>3886</v>
       </c>
       <c r="C1253" t="s">
         <v>3875</v>
@@ -61169,15 +61204,15 @@
         <v>1353</v>
       </c>
       <c r="M1253" t="s">
-        <v>3885</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="1254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1254">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="B1254" t="s">
-        <v>3886</v>
+        <v>3888</v>
       </c>
       <c r="C1254" t="s">
         <v>3875</v>
@@ -61192,15 +61227,15 @@
         <v>1353</v>
       </c>
       <c r="M1254" t="s">
-        <v>3887</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="1255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1255">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B1255" t="s">
-        <v>3888</v>
+        <v>3889</v>
       </c>
       <c r="C1255" t="s">
         <v>3875</v>
@@ -61215,15 +61250,15 @@
         <v>1353</v>
       </c>
       <c r="M1255" t="s">
-        <v>4495</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="1256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1256">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="B1256" t="s">
-        <v>3889</v>
+        <v>3891</v>
       </c>
       <c r="C1256" t="s">
         <v>3875</v>
@@ -61238,15 +61273,15 @@
         <v>1353</v>
       </c>
       <c r="M1256" t="s">
-        <v>3890</v>
+        <v>3892</v>
       </c>
     </row>
     <row r="1257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1257">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="B1257" t="s">
-        <v>3891</v>
+        <v>3893</v>
       </c>
       <c r="C1257" t="s">
         <v>3875</v>
@@ -61261,15 +61296,15 @@
         <v>1353</v>
       </c>
       <c r="M1257" t="s">
-        <v>3892</v>
+        <v>3894</v>
       </c>
     </row>
     <row r="1258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1258">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="B1258" t="s">
-        <v>3893</v>
+        <v>3895</v>
       </c>
       <c r="C1258" t="s">
         <v>3875</v>
@@ -61284,15 +61319,15 @@
         <v>1353</v>
       </c>
       <c r="M1258" t="s">
-        <v>3894</v>
+        <v>3896</v>
       </c>
     </row>
     <row r="1259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1259">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="B1259" t="s">
-        <v>3895</v>
+        <v>3897</v>
       </c>
       <c r="C1259" t="s">
         <v>3875</v>
@@ -61307,15 +61342,15 @@
         <v>1353</v>
       </c>
       <c r="M1259" t="s">
-        <v>3896</v>
+        <v>3898</v>
       </c>
     </row>
     <row r="1260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1260">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="B1260" t="s">
-        <v>3897</v>
+        <v>3899</v>
       </c>
       <c r="C1260" t="s">
         <v>3875</v>
@@ -61330,15 +61365,15 @@
         <v>1353</v>
       </c>
       <c r="M1260" t="s">
-        <v>3898</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="1261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1261">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="B1261" t="s">
-        <v>3899</v>
+        <v>3900</v>
       </c>
       <c r="C1261" t="s">
         <v>3875</v>
@@ -61353,15 +61388,15 @@
         <v>1353</v>
       </c>
       <c r="M1261" t="s">
-        <v>4496</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="1262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1262">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="B1262" t="s">
-        <v>3900</v>
+        <v>3901</v>
       </c>
       <c r="C1262" t="s">
         <v>3875</v>
@@ -61376,15 +61411,15 @@
         <v>1353</v>
       </c>
       <c r="M1262" t="s">
-        <v>4497</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="1263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1263">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="B1263" t="s">
-        <v>3901</v>
+        <v>3903</v>
       </c>
       <c r="C1263" t="s">
         <v>3875</v>
@@ -61399,15 +61434,15 @@
         <v>1353</v>
       </c>
       <c r="M1263" t="s">
-        <v>3902</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="1264" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1264">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="B1264" t="s">
-        <v>3903</v>
+        <v>3905</v>
       </c>
       <c r="C1264" t="s">
         <v>3875</v>
@@ -61422,15 +61457,15 @@
         <v>1353</v>
       </c>
       <c r="M1264" t="s">
-        <v>3904</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="1265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1265">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="B1265" t="s">
-        <v>3905</v>
+        <v>3907</v>
       </c>
       <c r="C1265" t="s">
         <v>3875</v>
@@ -61445,15 +61480,15 @@
         <v>1353</v>
       </c>
       <c r="M1265" t="s">
-        <v>3906</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="1266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1266">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="B1266" t="s">
-        <v>3907</v>
+        <v>3909</v>
       </c>
       <c r="C1266" t="s">
         <v>3875</v>
@@ -61468,15 +61503,15 @@
         <v>1353</v>
       </c>
       <c r="M1266" t="s">
-        <v>3908</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="1267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1267">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="B1267" t="s">
-        <v>3909</v>
+        <v>3911</v>
       </c>
       <c r="C1267" t="s">
         <v>3875</v>
@@ -61491,15 +61526,15 @@
         <v>1353</v>
       </c>
       <c r="M1267" t="s">
-        <v>3910</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="1268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1268">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="B1268" t="s">
-        <v>3911</v>
+        <v>3913</v>
       </c>
       <c r="C1268" t="s">
         <v>3875</v>
@@ -61514,15 +61549,15 @@
         <v>1353</v>
       </c>
       <c r="M1268" t="s">
-        <v>3912</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="1269" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1269">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="B1269" t="s">
-        <v>3913</v>
+        <v>3914</v>
       </c>
       <c r="C1269" t="s">
         <v>3875</v>
@@ -61537,15 +61572,15 @@
         <v>1353</v>
       </c>
       <c r="M1269" t="s">
-        <v>4498</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="1270" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1270">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="B1270" t="s">
-        <v>3914</v>
+        <v>3916</v>
       </c>
       <c r="C1270" t="s">
         <v>3875</v>
@@ -61560,15 +61595,15 @@
         <v>1353</v>
       </c>
       <c r="M1270" t="s">
-        <v>3915</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="1271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1271">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="B1271" t="s">
-        <v>3916</v>
+        <v>3918</v>
       </c>
       <c r="C1271" t="s">
         <v>3875</v>
@@ -61583,15 +61618,15 @@
         <v>1353</v>
       </c>
       <c r="M1271" t="s">
-        <v>3917</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="1272" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1272">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="B1272" t="s">
-        <v>3918</v>
+        <v>3920</v>
       </c>
       <c r="C1272" t="s">
         <v>3875</v>
@@ -61606,15 +61641,15 @@
         <v>1353</v>
       </c>
       <c r="M1272" t="s">
-        <v>3919</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="1273" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1273">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="B1273" t="s">
-        <v>3920</v>
+        <v>3921</v>
       </c>
       <c r="C1273" t="s">
         <v>3875</v>
@@ -61629,15 +61664,15 @@
         <v>1353</v>
       </c>
       <c r="M1273" t="s">
-        <v>4499</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="1274" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1274">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="B1274" t="s">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="C1274" t="s">
         <v>3875</v>
@@ -61652,15 +61687,15 @@
         <v>1353</v>
       </c>
       <c r="M1274" t="s">
-        <v>4500</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="1275" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1275">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="B1275" t="s">
-        <v>3922</v>
+        <v>3923</v>
       </c>
       <c r="C1275" t="s">
         <v>3875</v>
@@ -61675,15 +61710,15 @@
         <v>1353</v>
       </c>
       <c r="M1275" t="s">
-        <v>4501</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="1276" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1276">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="B1276" t="s">
-        <v>3923</v>
+        <v>3925</v>
       </c>
       <c r="C1276" t="s">
         <v>3875</v>
@@ -61698,15 +61733,15 @@
         <v>1353</v>
       </c>
       <c r="M1276" t="s">
-        <v>3924</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="1277" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1277">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="B1277" t="s">
-        <v>3925</v>
+        <v>3927</v>
       </c>
       <c r="C1277" t="s">
         <v>3875</v>
@@ -61721,15 +61756,15 @@
         <v>1353</v>
       </c>
       <c r="M1277" t="s">
-        <v>3926</v>
+        <v>4502</v>
       </c>
     </row>
     <row r="1278" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1278">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="B1278" t="s">
-        <v>3927</v>
+        <v>3928</v>
       </c>
       <c r="C1278" t="s">
         <v>3875</v>
@@ -61744,15 +61779,15 @@
         <v>1353</v>
       </c>
       <c r="M1278" t="s">
-        <v>4502</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="1279" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1279">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="B1279" t="s">
-        <v>3928</v>
+        <v>3930</v>
       </c>
       <c r="C1279" t="s">
         <v>3875</v>
@@ -61767,15 +61802,15 @@
         <v>1353</v>
       </c>
       <c r="M1279" t="s">
-        <v>3929</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="1280" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1280">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="B1280" t="s">
-        <v>3930</v>
+        <v>3931</v>
       </c>
       <c r="C1280" t="s">
         <v>3875</v>
@@ -61790,15 +61825,15 @@
         <v>1353</v>
       </c>
       <c r="M1280" t="s">
-        <v>4503</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="1281" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1281">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="B1281" t="s">
-        <v>3931</v>
+        <v>3933</v>
       </c>
       <c r="C1281" t="s">
         <v>3875</v>
@@ -61813,15 +61848,15 @@
         <v>1353</v>
       </c>
       <c r="M1281" t="s">
-        <v>3932</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="1282" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1282">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="B1282" t="s">
-        <v>3933</v>
+        <v>3935</v>
       </c>
       <c r="C1282" t="s">
         <v>3875</v>
@@ -61836,15 +61871,15 @@
         <v>1353</v>
       </c>
       <c r="M1282" t="s">
-        <v>3934</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="1283" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1283">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="B1283" t="s">
-        <v>3935</v>
+        <v>3936</v>
       </c>
       <c r="C1283" t="s">
         <v>3875</v>
@@ -61859,15 +61894,15 @@
         <v>1353</v>
       </c>
       <c r="M1283" t="s">
-        <v>4504</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="1284" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1284">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="B1284" t="s">
-        <v>3936</v>
+        <v>3937</v>
       </c>
       <c r="C1284" t="s">
         <v>3875</v>
@@ -61882,15 +61917,15 @@
         <v>1353</v>
       </c>
       <c r="M1284" t="s">
-        <v>4505</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="1285" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1285">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="B1285" t="s">
-        <v>3937</v>
+        <v>3939</v>
       </c>
       <c r="C1285" t="s">
         <v>3875</v>
@@ -61905,15 +61940,15 @@
         <v>1353</v>
       </c>
       <c r="M1285" t="s">
-        <v>3938</v>
+        <v>4506</v>
       </c>
     </row>
     <row r="1286" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1286">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="B1286" t="s">
-        <v>3939</v>
+        <v>3940</v>
       </c>
       <c r="C1286" t="s">
         <v>3875</v>
@@ -61928,15 +61963,15 @@
         <v>1353</v>
       </c>
       <c r="M1286" t="s">
-        <v>4506</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="1287" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1287">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="B1287" t="s">
-        <v>3940</v>
+        <v>3941</v>
       </c>
       <c r="C1287" t="s">
         <v>3875</v>
@@ -61951,15 +61986,15 @@
         <v>1353</v>
       </c>
       <c r="M1287" t="s">
-        <v>4507</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="1288" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1288">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="B1288" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="C1288" t="s">
         <v>3875</v>
@@ -61974,15 +62009,15 @@
         <v>1353</v>
       </c>
       <c r="M1288" t="s">
-        <v>4508</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="1289" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1289">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="B1289" t="s">
-        <v>3942</v>
+        <v>3943</v>
       </c>
       <c r="C1289" t="s">
         <v>3875</v>
@@ -61997,15 +62032,15 @@
         <v>1353</v>
       </c>
       <c r="M1289" t="s">
-        <v>4509</v>
+        <v>4510</v>
       </c>
     </row>
     <row r="1290" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1290">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="B1290" t="s">
-        <v>3943</v>
+        <v>3944</v>
       </c>
       <c r="C1290" t="s">
         <v>3875</v>
@@ -62020,15 +62055,15 @@
         <v>1353</v>
       </c>
       <c r="M1290" t="s">
-        <v>4510</v>
+        <v>4511</v>
       </c>
     </row>
     <row r="1291" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1291">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="B1291" t="s">
-        <v>3944</v>
+        <v>3945</v>
       </c>
       <c r="C1291" t="s">
         <v>3875</v>
@@ -62043,15 +62078,15 @@
         <v>1353</v>
       </c>
       <c r="M1291" t="s">
-        <v>4511</v>
+        <v>4512</v>
       </c>
     </row>
     <row r="1292" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1292">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="B1292" t="s">
-        <v>3945</v>
+        <v>3946</v>
       </c>
       <c r="C1292" t="s">
         <v>3875</v>
@@ -62066,15 +62101,15 @@
         <v>1353</v>
       </c>
       <c r="M1292" t="s">
-        <v>4512</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="1293" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1293">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="B1293" t="s">
-        <v>3946</v>
+        <v>3948</v>
       </c>
       <c r="C1293" t="s">
         <v>3875</v>
@@ -62089,15 +62124,15 @@
         <v>1353</v>
       </c>
       <c r="M1293" t="s">
-        <v>3947</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="1294" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1294">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="B1294" t="s">
-        <v>3948</v>
+        <v>3950</v>
       </c>
       <c r="C1294" t="s">
         <v>3875</v>
@@ -62112,15 +62147,15 @@
         <v>1353</v>
       </c>
       <c r="M1294" t="s">
-        <v>3949</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="1295" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1295">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="B1295" t="s">
-        <v>3950</v>
+        <v>3952</v>
       </c>
       <c r="C1295" t="s">
         <v>3875</v>
@@ -62135,15 +62170,15 @@
         <v>1353</v>
       </c>
       <c r="M1295" t="s">
-        <v>3951</v>
+        <v>4513</v>
       </c>
     </row>
     <row r="1296" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1296">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="B1296" t="s">
-        <v>3952</v>
+        <v>3953</v>
       </c>
       <c r="C1296" t="s">
         <v>3875</v>
@@ -62158,15 +62193,15 @@
         <v>1353</v>
       </c>
       <c r="M1296" t="s">
-        <v>4513</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="1297" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1297">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="B1297" t="s">
-        <v>3953</v>
+        <v>3955</v>
       </c>
       <c r="C1297" t="s">
         <v>3875</v>
@@ -62181,15 +62216,15 @@
         <v>1353</v>
       </c>
       <c r="M1297" t="s">
-        <v>3954</v>
+        <v>3956</v>
       </c>
     </row>
     <row r="1298" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1298">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="B1298" t="s">
-        <v>3955</v>
+        <v>3957</v>
       </c>
       <c r="C1298" t="s">
         <v>3875</v>
@@ -62204,15 +62239,15 @@
         <v>1353</v>
       </c>
       <c r="M1298" t="s">
-        <v>3956</v>
+        <v>4514</v>
       </c>
     </row>
     <row r="1299" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1299">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="B1299" t="s">
-        <v>3957</v>
+        <v>3958</v>
       </c>
       <c r="C1299" t="s">
         <v>3875</v>
@@ -62227,15 +62262,15 @@
         <v>1353</v>
       </c>
       <c r="M1299" t="s">
-        <v>4514</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="1300" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1300">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="B1300" t="s">
-        <v>3958</v>
+        <v>3960</v>
       </c>
       <c r="C1300" t="s">
         <v>3875</v>
@@ -62250,15 +62285,15 @@
         <v>1353</v>
       </c>
       <c r="M1300" t="s">
-        <v>3959</v>
+        <v>4515</v>
       </c>
     </row>
     <row r="1301" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1301">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="B1301" t="s">
-        <v>3960</v>
+        <v>3961</v>
       </c>
       <c r="C1301" t="s">
         <v>3875</v>
@@ -62273,15 +62308,15 @@
         <v>1353</v>
       </c>
       <c r="M1301" t="s">
-        <v>4515</v>
+        <v>4516</v>
       </c>
     </row>
     <row r="1302" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1302">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="B1302" t="s">
-        <v>3961</v>
+        <v>3962</v>
       </c>
       <c r="C1302" t="s">
         <v>3875</v>
@@ -62296,15 +62331,15 @@
         <v>1353</v>
       </c>
       <c r="M1302" t="s">
-        <v>4516</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="1303" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1303">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B1303" t="s">
-        <v>3962</v>
+        <v>3963</v>
       </c>
       <c r="C1303" t="s">
         <v>3875</v>
@@ -62319,15 +62354,15 @@
         <v>1353</v>
       </c>
       <c r="M1303" t="s">
-        <v>4517</v>
+        <v>4518</v>
       </c>
     </row>
     <row r="1304" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1304">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="B1304" t="s">
-        <v>3963</v>
+        <v>3964</v>
       </c>
       <c r="C1304" t="s">
         <v>3875</v>
@@ -62342,15 +62377,15 @@
         <v>1353</v>
       </c>
       <c r="M1304" t="s">
-        <v>4518</v>
+        <v>4519</v>
       </c>
     </row>
     <row r="1305" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1305">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B1305" t="s">
-        <v>3964</v>
+        <v>3965</v>
       </c>
       <c r="C1305" t="s">
         <v>3875</v>
@@ -62365,15 +62400,15 @@
         <v>1353</v>
       </c>
       <c r="M1305" t="s">
-        <v>4519</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="1306" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1306">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="B1306" t="s">
-        <v>3965</v>
+        <v>3966</v>
       </c>
       <c r="C1306" t="s">
         <v>3875</v>
@@ -62388,15 +62423,15 @@
         <v>1353</v>
       </c>
       <c r="M1306" t="s">
-        <v>4520</v>
+        <v>3967</v>
       </c>
     </row>
     <row r="1307" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1307">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="B1307" t="s">
-        <v>3966</v>
+        <v>3968</v>
       </c>
       <c r="C1307" t="s">
         <v>3875</v>
@@ -62411,15 +62446,15 @@
         <v>1353</v>
       </c>
       <c r="M1307" t="s">
-        <v>3967</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="1308" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1308">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="B1308" t="s">
-        <v>3968</v>
+        <v>3969</v>
       </c>
       <c r="C1308" t="s">
         <v>3875</v>
@@ -62434,15 +62469,15 @@
         <v>1353</v>
       </c>
       <c r="M1308" t="s">
-        <v>4521</v>
+        <v>4522</v>
       </c>
     </row>
     <row r="1309" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1309">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="B1309" t="s">
-        <v>3969</v>
+        <v>3970</v>
       </c>
       <c r="C1309" t="s">
         <v>3875</v>
@@ -62457,15 +62492,15 @@
         <v>1353</v>
       </c>
       <c r="M1309" t="s">
-        <v>4522</v>
+        <v>3971</v>
       </c>
     </row>
     <row r="1310" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1310">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="B1310" t="s">
-        <v>3970</v>
+        <v>3972</v>
       </c>
       <c r="C1310" t="s">
         <v>3875</v>
@@ -62480,15 +62515,15 @@
         <v>1353</v>
       </c>
       <c r="M1310" t="s">
-        <v>3971</v>
+        <v>3973</v>
       </c>
     </row>
     <row r="1311" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1311">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="B1311" t="s">
-        <v>3972</v>
+        <v>3974</v>
       </c>
       <c r="C1311" t="s">
         <v>3875</v>
@@ -62503,15 +62538,15 @@
         <v>1353</v>
       </c>
       <c r="M1311" t="s">
-        <v>3973</v>
+        <v>4523</v>
       </c>
     </row>
     <row r="1312" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1312">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="B1312" t="s">
-        <v>3974</v>
+        <v>3975</v>
       </c>
       <c r="C1312" t="s">
         <v>3875</v>
@@ -62526,15 +62561,15 @@
         <v>1353</v>
       </c>
       <c r="M1312" t="s">
-        <v>4523</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="1313" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1313">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="B1313" t="s">
-        <v>3975</v>
+        <v>3977</v>
       </c>
       <c r="C1313" t="s">
         <v>3875</v>
@@ -62549,15 +62584,15 @@
         <v>1353</v>
       </c>
       <c r="M1313" t="s">
-        <v>3976</v>
+        <v>4524</v>
       </c>
     </row>
     <row r="1314" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1314">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="B1314" t="s">
-        <v>3977</v>
+        <v>3978</v>
       </c>
       <c r="C1314" t="s">
         <v>3875</v>
@@ -62572,15 +62607,15 @@
         <v>1353</v>
       </c>
       <c r="M1314" t="s">
-        <v>4524</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="1315" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1315">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="B1315" t="s">
-        <v>3978</v>
+        <v>3979</v>
       </c>
       <c r="C1315" t="s">
         <v>3875</v>
@@ -62595,15 +62630,15 @@
         <v>1353</v>
       </c>
       <c r="M1315" t="s">
-        <v>4525</v>
+        <v>4526</v>
       </c>
     </row>
     <row r="1316" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1316">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="B1316" t="s">
-        <v>3979</v>
+        <v>3980</v>
       </c>
       <c r="C1316" t="s">
         <v>3875</v>
@@ -62618,15 +62653,15 @@
         <v>1353</v>
       </c>
       <c r="M1316" t="s">
-        <v>4526</v>
+        <v>4527</v>
       </c>
     </row>
     <row r="1317" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1317">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="B1317" t="s">
-        <v>3980</v>
+        <v>3981</v>
       </c>
       <c r="C1317" t="s">
         <v>3875</v>
@@ -62641,15 +62676,15 @@
         <v>1353</v>
       </c>
       <c r="M1317" t="s">
-        <v>4527</v>
+        <v>4528</v>
       </c>
     </row>
     <row r="1318" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1318">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="B1318" t="s">
-        <v>3981</v>
+        <v>3982</v>
       </c>
       <c r="C1318" t="s">
         <v>3875</v>
@@ -62664,15 +62699,15 @@
         <v>1353</v>
       </c>
       <c r="M1318" t="s">
-        <v>4528</v>
+        <v>3983</v>
       </c>
     </row>
     <row r="1319" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1319">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="B1319" t="s">
-        <v>3982</v>
+        <v>3984</v>
       </c>
       <c r="C1319" t="s">
         <v>3875</v>
@@ -62687,15 +62722,15 @@
         <v>1353</v>
       </c>
       <c r="M1319" t="s">
-        <v>3983</v>
+        <v>4529</v>
       </c>
     </row>
     <row r="1320" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1320">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="B1320" t="s">
-        <v>3984</v>
+        <v>3985</v>
       </c>
       <c r="C1320" t="s">
         <v>3875</v>
@@ -62710,15 +62745,15 @@
         <v>1353</v>
       </c>
       <c r="M1320" t="s">
-        <v>4529</v>
+        <v>3986</v>
       </c>
     </row>
     <row r="1321" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1321">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="B1321" t="s">
-        <v>3985</v>
+        <v>3987</v>
       </c>
       <c r="C1321" t="s">
         <v>3875</v>
@@ -62733,15 +62768,15 @@
         <v>1353</v>
       </c>
       <c r="M1321" t="s">
-        <v>3986</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="1322" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1322">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="B1322" t="s">
-        <v>3987</v>
+        <v>3988</v>
       </c>
       <c r="C1322" t="s">
         <v>3875</v>
@@ -62756,15 +62791,15 @@
         <v>1353</v>
       </c>
       <c r="M1322" t="s">
-        <v>4530</v>
+        <v>3989</v>
       </c>
     </row>
     <row r="1323" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1323">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="B1323" t="s">
-        <v>3988</v>
+        <v>3990</v>
       </c>
       <c r="C1323" t="s">
         <v>3875</v>
@@ -62779,15 +62814,15 @@
         <v>1353</v>
       </c>
       <c r="M1323" t="s">
-        <v>3989</v>
+        <v>3991</v>
       </c>
     </row>
     <row r="1324" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1324">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="B1324" t="s">
-        <v>3990</v>
+        <v>3992</v>
       </c>
       <c r="C1324" t="s">
         <v>3875</v>
@@ -62802,15 +62837,15 @@
         <v>1353</v>
       </c>
       <c r="M1324" t="s">
-        <v>3991</v>
+        <v>4531</v>
       </c>
     </row>
     <row r="1325" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1325">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="B1325" t="s">
-        <v>3992</v>
+        <v>3993</v>
       </c>
       <c r="C1325" t="s">
         <v>3875</v>
@@ -62825,15 +62860,15 @@
         <v>1353</v>
       </c>
       <c r="M1325" t="s">
-        <v>4531</v>
+        <v>4532</v>
       </c>
     </row>
     <row r="1326" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1326">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="B1326" t="s">
-        <v>3993</v>
+        <v>3994</v>
       </c>
       <c r="C1326" t="s">
         <v>3875</v>
@@ -62848,15 +62883,15 @@
         <v>1353</v>
       </c>
       <c r="M1326" t="s">
-        <v>4532</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="1327" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1327">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="B1327" t="s">
-        <v>3994</v>
+        <v>3996</v>
       </c>
       <c r="C1327" t="s">
         <v>3875</v>
@@ -62871,15 +62906,15 @@
         <v>1353</v>
       </c>
       <c r="M1327" t="s">
-        <v>3995</v>
+        <v>3997</v>
       </c>
     </row>
     <row r="1328" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1328">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="B1328" t="s">
-        <v>3996</v>
+        <v>3998</v>
       </c>
       <c r="C1328" t="s">
         <v>3875</v>
@@ -62894,15 +62929,15 @@
         <v>1353</v>
       </c>
       <c r="M1328" t="s">
-        <v>3997</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="1329" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1329">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="B1329" t="s">
-        <v>3998</v>
+        <v>3999</v>
       </c>
       <c r="C1329" t="s">
         <v>3875</v>
@@ -62917,15 +62952,15 @@
         <v>1353</v>
       </c>
       <c r="M1329" t="s">
-        <v>4533</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="1330" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1330">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="B1330" t="s">
-        <v>3999</v>
+        <v>4001</v>
       </c>
       <c r="C1330" t="s">
         <v>3875</v>
@@ -62940,15 +62975,15 @@
         <v>1353</v>
       </c>
       <c r="M1330" t="s">
-        <v>4000</v>
+        <v>4534</v>
       </c>
     </row>
     <row r="1331" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1331">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="B1331" t="s">
-        <v>4001</v>
+        <v>4002</v>
       </c>
       <c r="C1331" t="s">
         <v>3875</v>
@@ -62963,15 +62998,15 @@
         <v>1353</v>
       </c>
       <c r="M1331" t="s">
-        <v>4534</v>
+        <v>4535</v>
       </c>
     </row>
     <row r="1332" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1332">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="B1332" t="s">
-        <v>4002</v>
+        <v>4003</v>
       </c>
       <c r="C1332" t="s">
         <v>3875</v>
@@ -62986,15 +63021,15 @@
         <v>1353</v>
       </c>
       <c r="M1332" t="s">
-        <v>4535</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="1333" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1333">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="B1333" t="s">
-        <v>4003</v>
+        <v>4004</v>
       </c>
       <c r="C1333" t="s">
         <v>3875</v>
@@ -63009,15 +63044,15 @@
         <v>1353</v>
       </c>
       <c r="M1333" t="s">
-        <v>4536</v>
+        <v>4537</v>
       </c>
     </row>
     <row r="1334" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1334">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="B1334" t="s">
-        <v>4004</v>
+        <v>4005</v>
       </c>
       <c r="C1334" t="s">
         <v>3875</v>
@@ -63032,15 +63067,15 @@
         <v>1353</v>
       </c>
       <c r="M1334" t="s">
-        <v>4537</v>
+        <v>4538</v>
       </c>
     </row>
     <row r="1335" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1335">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="B1335" t="s">
-        <v>4005</v>
+        <v>4006</v>
       </c>
       <c r="C1335" t="s">
         <v>3875</v>
@@ -63055,15 +63090,15 @@
         <v>1353</v>
       </c>
       <c r="M1335" t="s">
-        <v>4538</v>
+        <v>4539</v>
       </c>
     </row>
     <row r="1336" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1336">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="B1336" t="s">
-        <v>4006</v>
+        <v>4007</v>
       </c>
       <c r="C1336" t="s">
         <v>3875</v>
@@ -63078,15 +63113,15 @@
         <v>1353</v>
       </c>
       <c r="M1336" t="s">
-        <v>4539</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="1337" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1337">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="B1337" t="s">
-        <v>4007</v>
+        <v>4009</v>
       </c>
       <c r="C1337" t="s">
         <v>3875</v>
@@ -63101,15 +63136,15 @@
         <v>1353</v>
       </c>
       <c r="M1337" t="s">
-        <v>4008</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="1338" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1338">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="B1338" t="s">
-        <v>4009</v>
+        <v>4010</v>
       </c>
       <c r="C1338" t="s">
         <v>3875</v>
@@ -63124,15 +63159,15 @@
         <v>1353</v>
       </c>
       <c r="M1338" t="s">
-        <v>4540</v>
+        <v>4541</v>
       </c>
     </row>
     <row r="1339" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1339">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="B1339" t="s">
-        <v>4010</v>
+        <v>4011</v>
       </c>
       <c r="C1339" t="s">
         <v>3875</v>
@@ -63147,15 +63182,15 @@
         <v>1353</v>
       </c>
       <c r="M1339" t="s">
-        <v>4541</v>
+        <v>4012</v>
       </c>
     </row>
     <row r="1340" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1340">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="B1340" t="s">
-        <v>4011</v>
+        <v>4013</v>
       </c>
       <c r="C1340" t="s">
         <v>3875</v>
@@ -63170,15 +63205,15 @@
         <v>1353</v>
       </c>
       <c r="M1340" t="s">
-        <v>4012</v>
+        <v>4542</v>
       </c>
     </row>
     <row r="1341" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1341">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="B1341" t="s">
-        <v>4013</v>
+        <v>4014</v>
       </c>
       <c r="C1341" t="s">
         <v>3875</v>
@@ -63193,15 +63228,15 @@
         <v>1353</v>
       </c>
       <c r="M1341" t="s">
-        <v>4542</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="1342" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1342">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="B1342" t="s">
-        <v>4014</v>
+        <v>4016</v>
       </c>
       <c r="C1342" t="s">
         <v>3875</v>
@@ -63216,15 +63251,15 @@
         <v>1353</v>
       </c>
       <c r="M1342" t="s">
-        <v>4015</v>
+        <v>4017</v>
       </c>
     </row>
     <row r="1343" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1343">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="B1343" t="s">
-        <v>4016</v>
+        <v>4018</v>
       </c>
       <c r="C1343" t="s">
         <v>3875</v>
@@ -63239,15 +63274,15 @@
         <v>1353</v>
       </c>
       <c r="M1343" t="s">
-        <v>4017</v>
+        <v>4543</v>
       </c>
     </row>
     <row r="1344" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1344">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="B1344" t="s">
-        <v>4018</v>
+        <v>4019</v>
       </c>
       <c r="C1344" t="s">
         <v>3875</v>
@@ -63262,15 +63297,15 @@
         <v>1353</v>
       </c>
       <c r="M1344" t="s">
-        <v>4543</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="1345" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1345">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="B1345" t="s">
-        <v>4019</v>
+        <v>4021</v>
       </c>
       <c r="C1345" t="s">
         <v>3875</v>
@@ -63285,15 +63320,15 @@
         <v>1353</v>
       </c>
       <c r="M1345" t="s">
-        <v>4020</v>
+        <v>4544</v>
       </c>
     </row>
     <row r="1346" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1346">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="B1346" t="s">
-        <v>4021</v>
+        <v>4022</v>
       </c>
       <c r="C1346" t="s">
         <v>3875</v>
@@ -63308,15 +63343,15 @@
         <v>1353</v>
       </c>
       <c r="M1346" t="s">
-        <v>4544</v>
+        <v>4545</v>
       </c>
     </row>
     <row r="1347" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1347">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="B1347" t="s">
-        <v>4022</v>
+        <v>4023</v>
       </c>
       <c r="C1347" t="s">
         <v>3875</v>
@@ -63331,15 +63366,15 @@
         <v>1353</v>
       </c>
       <c r="M1347" t="s">
-        <v>4545</v>
+        <v>4546</v>
       </c>
     </row>
     <row r="1348" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1348">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="B1348" t="s">
-        <v>4023</v>
+        <v>4024</v>
       </c>
       <c r="C1348" t="s">
         <v>3875</v>
@@ -63354,15 +63389,15 @@
         <v>1353</v>
       </c>
       <c r="M1348" t="s">
-        <v>4546</v>
+        <v>4547</v>
       </c>
     </row>
     <row r="1349" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1349">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B1349" t="s">
-        <v>4024</v>
+        <v>4025</v>
       </c>
       <c r="C1349" t="s">
         <v>3875</v>
@@ -63377,15 +63412,15 @@
         <v>1353</v>
       </c>
       <c r="M1349" t="s">
-        <v>4547</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="1350" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1350">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="B1350" t="s">
-        <v>4025</v>
+        <v>4026</v>
       </c>
       <c r="C1350" t="s">
         <v>3875</v>
@@ -63400,15 +63435,15 @@
         <v>1353</v>
       </c>
       <c r="M1350" t="s">
-        <v>4548</v>
+        <v>4027</v>
       </c>
     </row>
     <row r="1351" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1351">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="B1351" t="s">
-        <v>4026</v>
+        <v>4028</v>
       </c>
       <c r="C1351" t="s">
         <v>3875</v>
@@ -63423,15 +63458,15 @@
         <v>1353</v>
       </c>
       <c r="M1351" t="s">
-        <v>4027</v>
+        <v>4549</v>
       </c>
     </row>
     <row r="1352" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1352">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="B1352" t="s">
-        <v>4028</v>
+        <v>4029</v>
       </c>
       <c r="C1352" t="s">
         <v>3875</v>
@@ -63446,15 +63481,15 @@
         <v>1353</v>
       </c>
       <c r="M1352" t="s">
-        <v>4549</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="1353" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1353">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="B1353" t="s">
-        <v>4029</v>
+        <v>4030</v>
       </c>
       <c r="C1353" t="s">
         <v>3875</v>
@@ -63469,15 +63504,15 @@
         <v>1353</v>
       </c>
       <c r="M1353" t="s">
-        <v>4550</v>
+        <v>4031</v>
       </c>
     </row>
     <row r="1354" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1354">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="B1354" t="s">
-        <v>4030</v>
+        <v>4032</v>
       </c>
       <c r="C1354" t="s">
         <v>3875</v>
@@ -63492,15 +63527,15 @@
         <v>1353</v>
       </c>
       <c r="M1354" t="s">
-        <v>4031</v>
+        <v>4033</v>
       </c>
     </row>
     <row r="1355" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1355">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="B1355" t="s">
-        <v>4032</v>
+        <v>4034</v>
       </c>
       <c r="C1355" t="s">
         <v>3875</v>
@@ -63515,15 +63550,15 @@
         <v>1353</v>
       </c>
       <c r="M1355" t="s">
-        <v>4033</v>
+        <v>4035</v>
       </c>
     </row>
     <row r="1356" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1356">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="B1356" t="s">
-        <v>4034</v>
+        <v>4036</v>
       </c>
       <c r="C1356" t="s">
         <v>3875</v>
@@ -63538,15 +63573,15 @@
         <v>1353</v>
       </c>
       <c r="M1356" t="s">
-        <v>4035</v>
+        <v>4037</v>
       </c>
     </row>
     <row r="1357" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1357">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B1357" t="s">
-        <v>4036</v>
+        <v>4038</v>
       </c>
       <c r="C1357" t="s">
         <v>3875</v>
@@ -63561,15 +63596,15 @@
         <v>1353</v>
       </c>
       <c r="M1357" t="s">
-        <v>4037</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="1358" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1358">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="B1358" t="s">
-        <v>4038</v>
+        <v>4039</v>
       </c>
       <c r="C1358" t="s">
         <v>3875</v>
@@ -63584,15 +63619,15 @@
         <v>1353</v>
       </c>
       <c r="M1358" t="s">
-        <v>4551</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="1359" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1359">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="B1359" t="s">
-        <v>4039</v>
+        <v>4041</v>
       </c>
       <c r="C1359" t="s">
         <v>3875</v>
@@ -63607,15 +63642,15 @@
         <v>1353</v>
       </c>
       <c r="M1359" t="s">
-        <v>4040</v>
+        <v>4042</v>
       </c>
     </row>
     <row r="1360" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1360">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="B1360" t="s">
-        <v>4041</v>
+        <v>4043</v>
       </c>
       <c r="C1360" t="s">
         <v>3875</v>
@@ -63630,15 +63665,15 @@
         <v>1353</v>
       </c>
       <c r="M1360" t="s">
-        <v>4042</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="1361" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1361">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="B1361" t="s">
-        <v>4043</v>
+        <v>4044</v>
       </c>
       <c r="C1361" t="s">
         <v>3875</v>
@@ -63653,15 +63688,15 @@
         <v>1353</v>
       </c>
       <c r="M1361" t="s">
-        <v>4552</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="1362" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1362">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="B1362" t="s">
-        <v>4044</v>
+        <v>4046</v>
       </c>
       <c r="C1362" t="s">
         <v>3875</v>
@@ -63676,15 +63711,15 @@
         <v>1353</v>
       </c>
       <c r="M1362" t="s">
-        <v>4045</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="1363" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1363">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="B1363" t="s">
-        <v>4046</v>
+        <v>4047</v>
       </c>
       <c r="C1363" t="s">
         <v>3875</v>
@@ -63699,15 +63734,15 @@
         <v>1353</v>
       </c>
       <c r="M1363" t="s">
-        <v>4553</v>
+        <v>4048</v>
       </c>
     </row>
     <row r="1364" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1364">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="B1364" t="s">
-        <v>4047</v>
+        <v>4049</v>
       </c>
       <c r="C1364" t="s">
         <v>3875</v>
@@ -63722,15 +63757,15 @@
         <v>1353</v>
       </c>
       <c r="M1364" t="s">
-        <v>4048</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="1365" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1365">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="B1365" t="s">
-        <v>4049</v>
+        <v>4051</v>
       </c>
       <c r="C1365" t="s">
         <v>3875</v>
@@ -63745,15 +63780,15 @@
         <v>1353</v>
       </c>
       <c r="M1365" t="s">
-        <v>4050</v>
+        <v>4052</v>
       </c>
     </row>
     <row r="1366" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1366">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="B1366" t="s">
-        <v>4051</v>
+        <v>4053</v>
       </c>
       <c r="C1366" t="s">
         <v>3875</v>
@@ -63768,15 +63803,15 @@
         <v>1353</v>
       </c>
       <c r="M1366" t="s">
-        <v>4052</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="1367" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1367">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="B1367" t="s">
-        <v>4053</v>
+        <v>4054</v>
       </c>
       <c r="C1367" t="s">
         <v>3875</v>
@@ -63791,15 +63826,15 @@
         <v>1353</v>
       </c>
       <c r="M1367" t="s">
-        <v>4554</v>
+        <v>4555</v>
       </c>
     </row>
     <row r="1368" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1368">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="B1368" t="s">
-        <v>4054</v>
+        <v>4055</v>
       </c>
       <c r="C1368" t="s">
         <v>3875</v>
@@ -63814,15 +63849,15 @@
         <v>1353</v>
       </c>
       <c r="M1368" t="s">
-        <v>4555</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="1369" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1369">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="B1369" t="s">
-        <v>4055</v>
+        <v>4056</v>
       </c>
       <c r="C1369" t="s">
         <v>3875</v>
@@ -63837,15 +63872,15 @@
         <v>1353</v>
       </c>
       <c r="M1369" t="s">
-        <v>4556</v>
+        <v>4557</v>
       </c>
     </row>
     <row r="1370" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1370">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="B1370" t="s">
-        <v>4056</v>
+        <v>4057</v>
       </c>
       <c r="C1370" t="s">
         <v>3875</v>
@@ -63860,15 +63895,15 @@
         <v>1353</v>
       </c>
       <c r="M1370" t="s">
-        <v>4557</v>
+        <v>4558</v>
       </c>
     </row>
     <row r="1371" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1371">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="B1371" t="s">
-        <v>4057</v>
+        <v>4058</v>
       </c>
       <c r="C1371" t="s">
         <v>3875</v>
@@ -63883,15 +63918,15 @@
         <v>1353</v>
       </c>
       <c r="M1371" t="s">
-        <v>4558</v>
+        <v>4059</v>
       </c>
     </row>
     <row r="1372" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1372">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="B1372" t="s">
-        <v>4058</v>
+        <v>4060</v>
       </c>
       <c r="C1372" t="s">
         <v>3875</v>
@@ -63906,15 +63941,15 @@
         <v>1353</v>
       </c>
       <c r="M1372" t="s">
-        <v>4059</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="1373" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1373">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="B1373" t="s">
-        <v>4060</v>
+        <v>4061</v>
       </c>
       <c r="C1373" t="s">
         <v>3875</v>
@@ -63929,34 +63964,11 @@
         <v>1353</v>
       </c>
       <c r="M1373" t="s">
-        <v>4559</v>
-      </c>
-    </row>
-    <row r="1374" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1374">
-        <v>1594</v>
-      </c>
-      <c r="B1374" t="s">
-        <v>4061</v>
-      </c>
-      <c r="C1374" t="s">
-        <v>3875</v>
-      </c>
-      <c r="D1374">
-        <v>68000</v>
-      </c>
-      <c r="E1374" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1374" t="s">
-        <v>1353</v>
-      </c>
-      <c r="M1374" t="s">
         <v>4062</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1374"/>
+  <autoFilter ref="A1:M1373"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/0.36/compatibility.xlsx
+++ b/0.36/compatibility.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Playable(tested)" sheetId="6" r:id="rId1"/>
@@ -14107,10 +14107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14723,6 +14723,26 @@
       </c>
       <c r="M20" t="s">
         <v>3329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3324</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3325</v>
+      </c>
+      <c r="D21" t="s">
+        <v>405</v>
+      </c>
+      <c r="H21" t="s">
+        <v>172</v>
+      </c>
+      <c r="M21" t="s">
+        <v>3326</v>
       </c>
     </row>
   </sheetData>
@@ -30000,8 +30020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1065" workbookViewId="0">
-      <selection activeCell="A1080" sqref="A1080:XFD1080"/>
+    <sheetView topLeftCell="A1065" workbookViewId="0">
+      <selection activeCell="A1079" sqref="A1079:XFD1079"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -56850,26 +56870,6 @@
       </c>
       <c r="M1078" t="s">
         <v>3323</v>
-      </c>
-    </row>
-    <row r="1079" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1079">
-        <v>1286</v>
-      </c>
-      <c r="B1079" t="s">
-        <v>3324</v>
-      </c>
-      <c r="C1079" t="s">
-        <v>3325</v>
-      </c>
-      <c r="D1079" t="s">
-        <v>405</v>
-      </c>
-      <c r="H1079" t="s">
-        <v>172</v>
-      </c>
-      <c r="M1079" t="s">
-        <v>3326</v>
       </c>
     </row>
     <row r="1080" spans="1:13" x14ac:dyDescent="0.3">

--- a/0.36/compatibility.xlsx
+++ b/0.36/compatibility.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Playable(tested)" sheetId="6" r:id="rId1"/>
@@ -14753,10 +14753,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P654"/>
+  <dimension ref="A1:P660"/>
   <sheetViews>
-    <sheetView topLeftCell="A634" workbookViewId="0">
-      <selection activeCell="A648" sqref="A648:A654"/>
+    <sheetView tabSelected="1" topLeftCell="A634" workbookViewId="0">
+      <selection activeCell="A655" sqref="A655:A660"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30548,6 +30548,135 @@
         <v>318</v>
       </c>
     </row>
+    <row r="655" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A655">
+        <v>655</v>
+      </c>
+      <c r="B655" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C655" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D655" t="s">
+        <v>14</v>
+      </c>
+      <c r="E655" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H655" t="s">
+        <v>71</v>
+      </c>
+      <c r="M655" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="656" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A656">
+        <v>656</v>
+      </c>
+      <c r="B656" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C656" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D656" t="s">
+        <v>14</v>
+      </c>
+      <c r="E656" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H656" t="s">
+        <v>71</v>
+      </c>
+      <c r="M656" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="657" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A657">
+        <v>657</v>
+      </c>
+      <c r="B657" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C657" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D657" t="s">
+        <v>14</v>
+      </c>
+      <c r="E657" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H657" t="s">
+        <v>71</v>
+      </c>
+      <c r="M657" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="658" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A658">
+        <v>658</v>
+      </c>
+      <c r="B658" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C658" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D658" t="s">
+        <v>14</v>
+      </c>
+      <c r="H658" t="s">
+        <v>71</v>
+      </c>
+      <c r="M658" t="s">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="659" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A659">
+        <v>659</v>
+      </c>
+      <c r="B659" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C659" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D659" t="s">
+        <v>14</v>
+      </c>
+      <c r="H659" t="s">
+        <v>71</v>
+      </c>
+      <c r="M659" t="s">
+        <v>4191</v>
+      </c>
+    </row>
+    <row r="660" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A660">
+        <v>660</v>
+      </c>
+      <c r="B660" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C660" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D660" t="s">
+        <v>14</v>
+      </c>
+      <c r="H660" t="s">
+        <v>71</v>
+      </c>
+      <c r="M660" t="s">
+        <v>4192</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -30558,8 +30687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1014" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD7"/>
+    <sheetView topLeftCell="A356" workbookViewId="0">
+      <selection activeCell="A371" sqref="A371:XFD377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39798,158 +39927,6 @@
       </c>
       <c r="M370" t="s">
         <v>1334</v>
-      </c>
-    </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A371">
-        <v>418</v>
-      </c>
-      <c r="B371" t="s">
-        <v>1335</v>
-      </c>
-      <c r="C371" t="s">
-        <v>1336</v>
-      </c>
-      <c r="D371" t="s">
-        <v>14</v>
-      </c>
-      <c r="E371" t="s">
-        <v>1220</v>
-      </c>
-      <c r="H371" t="s">
-        <v>71</v>
-      </c>
-      <c r="M371" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A372">
-        <v>419</v>
-      </c>
-      <c r="B372" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C372" t="s">
-        <v>1336</v>
-      </c>
-      <c r="D372" t="s">
-        <v>14</v>
-      </c>
-      <c r="E372" t="s">
-        <v>1220</v>
-      </c>
-      <c r="H372" t="s">
-        <v>71</v>
-      </c>
-      <c r="M372" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A373">
-        <v>420</v>
-      </c>
-      <c r="B373" t="s">
-        <v>1340</v>
-      </c>
-      <c r="C373" t="s">
-        <v>1336</v>
-      </c>
-      <c r="D373" t="s">
-        <v>14</v>
-      </c>
-      <c r="E373" t="s">
-        <v>1220</v>
-      </c>
-      <c r="H373" t="s">
-        <v>71</v>
-      </c>
-      <c r="M373" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A374">
-        <v>421</v>
-      </c>
-      <c r="B374" t="s">
-        <v>1342</v>
-      </c>
-      <c r="C374" t="s">
-        <v>1336</v>
-      </c>
-      <c r="D374" t="s">
-        <v>14</v>
-      </c>
-      <c r="E374" t="s">
-        <v>1220</v>
-      </c>
-      <c r="H374" t="s">
-        <v>71</v>
-      </c>
-      <c r="M374" t="s">
-        <v>4189</v>
-      </c>
-    </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A375">
-        <v>422</v>
-      </c>
-      <c r="B375" t="s">
-        <v>1343</v>
-      </c>
-      <c r="C375" t="s">
-        <v>1336</v>
-      </c>
-      <c r="D375" t="s">
-        <v>14</v>
-      </c>
-      <c r="H375" t="s">
-        <v>71</v>
-      </c>
-      <c r="M375" t="s">
-        <v>4190</v>
-      </c>
-    </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A376">
-        <v>423</v>
-      </c>
-      <c r="B376" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C376" t="s">
-        <v>1336</v>
-      </c>
-      <c r="D376" t="s">
-        <v>14</v>
-      </c>
-      <c r="H376" t="s">
-        <v>71</v>
-      </c>
-      <c r="M376" t="s">
-        <v>4191</v>
-      </c>
-    </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A377">
-        <v>424</v>
-      </c>
-      <c r="B377" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C377" t="s">
-        <v>1336</v>
-      </c>
-      <c r="D377" t="s">
-        <v>14</v>
-      </c>
-      <c r="H377" t="s">
-        <v>71</v>
-      </c>
-      <c r="M377" t="s">
-        <v>4192</v>
       </c>
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.3">
@@ -64029,10 +64006,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A24"/>
+      <selection activeCell="A23" sqref="A23:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -64623,6 +64600,29 @@
         <v>2052</v>
       </c>
     </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H25" t="s">
+        <v>71</v>
+      </c>
+      <c r="M25" t="s">
+        <v>4189</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/0.36/compatibility.xlsx
+++ b/0.36/compatibility.xlsx
@@ -19,8 +19,8 @@
     <sheet name="GAME_NOT_WORKING FLAG" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ALL!$A$1:$M$1339</definedName>
-    <definedName name="LIST" localSheetId="2">ALL!$B$1:$M$1339</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ALL!$A$1:$M$1334</definedName>
+    <definedName name="LIST" localSheetId="2">ALL!$B$1:$M$1334</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -14753,10 +14753,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P663"/>
+  <dimension ref="A1:P668"/>
   <sheetViews>
     <sheetView topLeftCell="A643" workbookViewId="0">
-      <selection activeCell="A657" sqref="A657:A663"/>
+      <selection activeCell="A660" sqref="A660:A668"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30737,6 +30737,106 @@
         <v>3036</v>
       </c>
     </row>
+    <row r="664" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A664">
+        <v>664</v>
+      </c>
+      <c r="B664" t="s">
+        <v>3099</v>
+      </c>
+      <c r="C664" t="s">
+        <v>3100</v>
+      </c>
+      <c r="D664" t="s">
+        <v>405</v>
+      </c>
+      <c r="H664" t="s">
+        <v>2906</v>
+      </c>
+      <c r="M664" t="s">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="665" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A665">
+        <v>665</v>
+      </c>
+      <c r="B665" t="s">
+        <v>3102</v>
+      </c>
+      <c r="C665" t="s">
+        <v>3100</v>
+      </c>
+      <c r="D665" t="s">
+        <v>405</v>
+      </c>
+      <c r="H665" t="s">
+        <v>2906</v>
+      </c>
+      <c r="M665" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="666" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A666">
+        <v>666</v>
+      </c>
+      <c r="B666" t="s">
+        <v>3104</v>
+      </c>
+      <c r="C666" t="s">
+        <v>3100</v>
+      </c>
+      <c r="D666" t="s">
+        <v>405</v>
+      </c>
+      <c r="H666" t="s">
+        <v>2906</v>
+      </c>
+      <c r="M666" t="s">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="667" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A667">
+        <v>667</v>
+      </c>
+      <c r="B667" t="s">
+        <v>3106</v>
+      </c>
+      <c r="C667" t="s">
+        <v>3100</v>
+      </c>
+      <c r="D667" t="s">
+        <v>405</v>
+      </c>
+      <c r="H667" t="s">
+        <v>2906</v>
+      </c>
+      <c r="M667" t="s">
+        <v>3107</v>
+      </c>
+    </row>
+    <row r="668" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A668">
+        <v>668</v>
+      </c>
+      <c r="B668" t="s">
+        <v>3108</v>
+      </c>
+      <c r="C668" t="s">
+        <v>3100</v>
+      </c>
+      <c r="D668" t="s">
+        <v>405</v>
+      </c>
+      <c r="H668" t="s">
+        <v>2906</v>
+      </c>
+      <c r="M668" t="s">
+        <v>3109</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -30745,10 +30845,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1339"/>
+  <dimension ref="A1:M1334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A922" workbookViewId="0">
-      <selection activeCell="A937" sqref="A937:XFD939"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A967" sqref="A967:XFD971"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -54947,194 +55047,200 @@
     </row>
     <row r="967" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A967">
-        <v>1207</v>
+        <v>1212</v>
       </c>
       <c r="B967" t="s">
-        <v>3099</v>
+        <v>3110</v>
       </c>
       <c r="C967" t="s">
-        <v>3100</v>
-      </c>
-      <c r="D967" t="s">
+        <v>3111</v>
+      </c>
+      <c r="D967">
+        <v>68010</v>
+      </c>
+      <c r="E967" t="s">
         <v>405</v>
       </c>
       <c r="H967" t="s">
-        <v>2906</v>
+        <v>551</v>
+      </c>
+      <c r="I967" t="s">
+        <v>2900</v>
       </c>
       <c r="M967" t="s">
-        <v>3101</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="968" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A968">
-        <v>1208</v>
+        <v>1213</v>
       </c>
       <c r="B968" t="s">
-        <v>3102</v>
+        <v>3113</v>
       </c>
       <c r="C968" t="s">
-        <v>3100</v>
-      </c>
-      <c r="D968" t="s">
+        <v>3111</v>
+      </c>
+      <c r="D968">
+        <v>68010</v>
+      </c>
+      <c r="E968" t="s">
         <v>405</v>
       </c>
       <c r="H968" t="s">
-        <v>2906</v>
+        <v>551</v>
+      </c>
+      <c r="I968" t="s">
+        <v>2900</v>
       </c>
       <c r="M968" t="s">
-        <v>3103</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="969" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A969">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B969" t="s">
-        <v>3104</v>
+        <v>3115</v>
       </c>
       <c r="C969" t="s">
-        <v>3100</v>
-      </c>
-      <c r="D969" t="s">
+        <v>3111</v>
+      </c>
+      <c r="D969">
+        <v>68010</v>
+      </c>
+      <c r="E969" t="s">
         <v>405</v>
       </c>
       <c r="H969" t="s">
-        <v>2906</v>
+        <v>551</v>
+      </c>
+      <c r="I969" t="s">
+        <v>2900</v>
       </c>
       <c r="M969" t="s">
-        <v>3105</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="970" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A970">
-        <v>1210</v>
+        <v>1215</v>
       </c>
       <c r="B970" t="s">
-        <v>3106</v>
+        <v>3117</v>
       </c>
       <c r="C970" t="s">
-        <v>3100</v>
-      </c>
-      <c r="D970" t="s">
+        <v>3118</v>
+      </c>
+      <c r="D970">
+        <v>68010</v>
+      </c>
+      <c r="E970" t="s">
         <v>405</v>
       </c>
       <c r="H970" t="s">
-        <v>2906</v>
+        <v>551</v>
+      </c>
+      <c r="I970" t="s">
+        <v>2900</v>
       </c>
       <c r="M970" t="s">
-        <v>3107</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="971" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A971">
-        <v>1211</v>
+        <v>1216</v>
       </c>
       <c r="B971" t="s">
-        <v>3108</v>
+        <v>3120</v>
       </c>
       <c r="C971" t="s">
-        <v>3100</v>
-      </c>
-      <c r="D971" t="s">
-        <v>405</v>
+        <v>3121</v>
+      </c>
+      <c r="D971">
+        <v>68000</v>
       </c>
       <c r="H971" t="s">
-        <v>2906</v>
+        <v>1492</v>
       </c>
       <c r="M971" t="s">
-        <v>3109</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="972" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A972">
-        <v>1212</v>
+        <v>1217</v>
       </c>
       <c r="B972" t="s">
-        <v>3110</v>
+        <v>3123</v>
       </c>
       <c r="C972" t="s">
-        <v>3111</v>
+        <v>3121</v>
       </c>
       <c r="D972">
-        <v>68010</v>
-      </c>
-      <c r="E972" t="s">
-        <v>405</v>
+        <v>68000</v>
       </c>
       <c r="H972" t="s">
-        <v>551</v>
-      </c>
-      <c r="I972" t="s">
-        <v>2900</v>
+        <v>1492</v>
       </c>
       <c r="M972" t="s">
-        <v>3112</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="973" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A973">
-        <v>1213</v>
+        <v>1218</v>
       </c>
       <c r="B973" t="s">
-        <v>3113</v>
+        <v>3125</v>
       </c>
       <c r="C973" t="s">
-        <v>3111</v>
+        <v>3121</v>
       </c>
       <c r="D973">
-        <v>68010</v>
-      </c>
-      <c r="E973" t="s">
-        <v>405</v>
+        <v>68000</v>
       </c>
       <c r="H973" t="s">
-        <v>551</v>
-      </c>
-      <c r="I973" t="s">
-        <v>2900</v>
+        <v>1492</v>
       </c>
       <c r="M973" t="s">
-        <v>3114</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="974" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A974">
-        <v>1214</v>
+        <v>1219</v>
       </c>
       <c r="B974" t="s">
-        <v>3115</v>
+        <v>3127</v>
       </c>
       <c r="C974" t="s">
-        <v>3111</v>
+        <v>3121</v>
       </c>
       <c r="D974">
-        <v>68010</v>
-      </c>
-      <c r="E974" t="s">
-        <v>405</v>
+        <v>68000</v>
       </c>
       <c r="H974" t="s">
-        <v>551</v>
-      </c>
-      <c r="I974" t="s">
-        <v>2900</v>
+        <v>1492</v>
       </c>
       <c r="M974" t="s">
-        <v>3116</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="975" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A975">
-        <v>1215</v>
+        <v>1220</v>
       </c>
       <c r="B975" t="s">
-        <v>3117</v>
+        <v>3129</v>
       </c>
       <c r="C975" t="s">
-        <v>3118</v>
+        <v>3130</v>
       </c>
       <c r="D975">
-        <v>68010</v>
+        <v>68000</v>
       </c>
       <c r="E975" t="s">
         <v>405</v>
@@ -55142,102 +55248,123 @@
       <c r="H975" t="s">
         <v>551</v>
       </c>
-      <c r="I975" t="s">
-        <v>2900</v>
-      </c>
       <c r="M975" t="s">
-        <v>3119</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="976" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A976">
-        <v>1216</v>
+        <v>1221</v>
       </c>
       <c r="B976" t="s">
-        <v>3120</v>
+        <v>3132</v>
       </c>
       <c r="C976" t="s">
-        <v>3121</v>
+        <v>3130</v>
       </c>
       <c r="D976">
         <v>68000</v>
       </c>
+      <c r="E976" t="s">
+        <v>405</v>
+      </c>
       <c r="H976" t="s">
-        <v>1492</v>
+        <v>551</v>
       </c>
       <c r="M976" t="s">
-        <v>3122</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="977" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A977">
-        <v>1217</v>
+        <v>1222</v>
       </c>
       <c r="B977" t="s">
-        <v>3123</v>
+        <v>3134</v>
       </c>
       <c r="C977" t="s">
-        <v>3121</v>
+        <v>3135</v>
       </c>
       <c r="D977">
         <v>68000</v>
       </c>
+      <c r="E977" t="s">
+        <v>405</v>
+      </c>
       <c r="H977" t="s">
-        <v>1492</v>
+        <v>551</v>
       </c>
       <c r="M977" t="s">
-        <v>3124</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="978" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A978">
-        <v>1218</v>
+        <v>1223</v>
       </c>
       <c r="B978" t="s">
-        <v>3125</v>
+        <v>3137</v>
       </c>
       <c r="C978" t="s">
-        <v>3121</v>
+        <v>3138</v>
       </c>
       <c r="D978">
         <v>68000</v>
       </c>
+      <c r="E978">
+        <v>68000</v>
+      </c>
+      <c r="F978" t="s">
+        <v>405</v>
+      </c>
       <c r="H978" t="s">
-        <v>1492</v>
+        <v>551</v>
+      </c>
+      <c r="I978" t="s">
+        <v>963</v>
       </c>
       <c r="M978" t="s">
-        <v>3126</v>
+        <v>4424</v>
       </c>
     </row>
     <row r="979" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A979">
-        <v>1219</v>
+        <v>1224</v>
       </c>
       <c r="B979" t="s">
-        <v>3127</v>
+        <v>3139</v>
       </c>
       <c r="C979" t="s">
-        <v>3121</v>
+        <v>3138</v>
       </c>
       <c r="D979">
         <v>68000</v>
       </c>
+      <c r="E979">
+        <v>68000</v>
+      </c>
+      <c r="F979" t="s">
+        <v>405</v>
+      </c>
       <c r="H979" t="s">
-        <v>1492</v>
+        <v>551</v>
+      </c>
+      <c r="I979" t="s">
+        <v>963</v>
       </c>
       <c r="M979" t="s">
-        <v>3128</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="980" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A980">
-        <v>1220</v>
+        <v>1225</v>
       </c>
       <c r="B980" t="s">
-        <v>3129</v>
+        <v>3140</v>
       </c>
       <c r="C980" t="s">
-        <v>3130</v>
+        <v>3141</v>
       </c>
       <c r="D980">
         <v>68000</v>
@@ -55248,19 +55375,22 @@
       <c r="H980" t="s">
         <v>551</v>
       </c>
+      <c r="I980" t="s">
+        <v>1492</v>
+      </c>
       <c r="M980" t="s">
-        <v>3131</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="981" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A981">
-        <v>1221</v>
+        <v>1226</v>
       </c>
       <c r="B981" t="s">
-        <v>3132</v>
+        <v>3142</v>
       </c>
       <c r="C981" t="s">
-        <v>3130</v>
+        <v>3141</v>
       </c>
       <c r="D981">
         <v>68000</v>
@@ -55271,19 +55401,22 @@
       <c r="H981" t="s">
         <v>551</v>
       </c>
+      <c r="I981" t="s">
+        <v>1492</v>
+      </c>
       <c r="M981" t="s">
-        <v>3133</v>
+        <v>4427</v>
       </c>
     </row>
     <row r="982" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A982">
-        <v>1222</v>
+        <v>1227</v>
       </c>
       <c r="B982" t="s">
-        <v>3134</v>
+        <v>3143</v>
       </c>
       <c r="C982" t="s">
-        <v>3135</v>
+        <v>3144</v>
       </c>
       <c r="D982">
         <v>68000</v>
@@ -55295,76 +55428,76 @@
         <v>551</v>
       </c>
       <c r="M982" t="s">
-        <v>3136</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="983" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A983">
-        <v>1223</v>
+        <v>1228</v>
       </c>
       <c r="B983" t="s">
-        <v>3137</v>
+        <v>3146</v>
       </c>
       <c r="C983" t="s">
-        <v>3138</v>
+        <v>3147</v>
       </c>
       <c r="D983">
         <v>68000</v>
       </c>
-      <c r="E983">
-        <v>68000</v>
-      </c>
-      <c r="F983" t="s">
+      <c r="E983" t="s">
         <v>405</v>
+      </c>
+      <c r="F983">
+        <v>68000</v>
       </c>
       <c r="H983" t="s">
         <v>551</v>
       </c>
       <c r="I983" t="s">
-        <v>963</v>
+        <v>93</v>
       </c>
       <c r="M983" t="s">
-        <v>4424</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="984" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A984">
-        <v>1224</v>
+        <v>1229</v>
       </c>
       <c r="B984" t="s">
-        <v>3139</v>
+        <v>3149</v>
       </c>
       <c r="C984" t="s">
-        <v>3138</v>
+        <v>3147</v>
       </c>
       <c r="D984">
         <v>68000</v>
       </c>
-      <c r="E984">
-        <v>68000</v>
-      </c>
-      <c r="F984" t="s">
+      <c r="E984" t="s">
         <v>405</v>
+      </c>
+      <c r="F984">
+        <v>68000</v>
       </c>
       <c r="H984" t="s">
         <v>551</v>
       </c>
       <c r="I984" t="s">
-        <v>963</v>
+        <v>93</v>
       </c>
       <c r="M984" t="s">
-        <v>4425</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="985" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A985">
-        <v>1225</v>
+        <v>1230</v>
       </c>
       <c r="B985" t="s">
-        <v>3140</v>
+        <v>3150</v>
       </c>
       <c r="C985" t="s">
-        <v>3141</v>
+        <v>3147</v>
       </c>
       <c r="D985">
         <v>68000</v>
@@ -55379,260 +55512,260 @@
         <v>1492</v>
       </c>
       <c r="M985" t="s">
-        <v>4426</v>
+        <v>4429</v>
       </c>
     </row>
     <row r="986" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A986">
-        <v>1226</v>
+        <v>1231</v>
       </c>
       <c r="B986" t="s">
-        <v>3142</v>
+        <v>3151</v>
       </c>
       <c r="C986" t="s">
-        <v>3141</v>
+        <v>3152</v>
       </c>
       <c r="D986">
         <v>68000</v>
       </c>
-      <c r="E986" t="s">
-        <v>405</v>
-      </c>
       <c r="H986" t="s">
-        <v>551</v>
+        <v>1492</v>
       </c>
       <c r="I986" t="s">
-        <v>1492</v>
+        <v>1823</v>
       </c>
       <c r="M986" t="s">
-        <v>4427</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="987" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A987">
-        <v>1227</v>
+        <v>1232</v>
       </c>
       <c r="B987" t="s">
-        <v>3143</v>
+        <v>3153</v>
       </c>
       <c r="C987" t="s">
-        <v>3144</v>
+        <v>3152</v>
       </c>
       <c r="D987">
         <v>68000</v>
       </c>
-      <c r="E987" t="s">
-        <v>405</v>
-      </c>
       <c r="H987" t="s">
-        <v>551</v>
+        <v>1492</v>
+      </c>
+      <c r="I987" t="s">
+        <v>1823</v>
       </c>
       <c r="M987" t="s">
-        <v>3145</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="988" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A988">
-        <v>1228</v>
+        <v>1233</v>
       </c>
       <c r="B988" t="s">
-        <v>3146</v>
+        <v>3154</v>
       </c>
       <c r="C988" t="s">
-        <v>3147</v>
+        <v>3152</v>
       </c>
       <c r="D988">
         <v>68000</v>
       </c>
-      <c r="E988" t="s">
-        <v>405</v>
-      </c>
-      <c r="F988">
-        <v>68000</v>
-      </c>
       <c r="H988" t="s">
-        <v>551</v>
+        <v>1492</v>
       </c>
       <c r="I988" t="s">
-        <v>93</v>
+        <v>1823</v>
       </c>
       <c r="M988" t="s">
-        <v>3148</v>
+        <v>4432</v>
       </c>
     </row>
     <row r="989" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A989">
-        <v>1229</v>
+        <v>1234</v>
       </c>
       <c r="B989" t="s">
-        <v>3149</v>
+        <v>3155</v>
       </c>
       <c r="C989" t="s">
-        <v>3147</v>
+        <v>3156</v>
       </c>
       <c r="D989">
         <v>68000</v>
       </c>
-      <c r="E989" t="s">
-        <v>405</v>
-      </c>
-      <c r="F989">
-        <v>68000</v>
-      </c>
       <c r="H989" t="s">
-        <v>551</v>
-      </c>
-      <c r="I989" t="s">
-        <v>93</v>
+        <v>1492</v>
       </c>
       <c r="M989" t="s">
-        <v>4428</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="990" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A990">
-        <v>1230</v>
+        <v>1235</v>
       </c>
       <c r="B990" t="s">
-        <v>3150</v>
+        <v>3158</v>
       </c>
       <c r="C990" t="s">
-        <v>3147</v>
+        <v>3156</v>
       </c>
       <c r="D990">
         <v>68000</v>
       </c>
-      <c r="E990" t="s">
-        <v>405</v>
-      </c>
       <c r="H990" t="s">
-        <v>551</v>
-      </c>
-      <c r="I990" t="s">
         <v>1492</v>
       </c>
       <c r="M990" t="s">
-        <v>4429</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="991" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A991">
-        <v>1231</v>
+        <v>1236</v>
       </c>
       <c r="B991" t="s">
-        <v>3151</v>
+        <v>3160</v>
       </c>
       <c r="C991" t="s">
-        <v>3152</v>
+        <v>3161</v>
       </c>
       <c r="D991">
         <v>68000</v>
       </c>
+      <c r="E991" t="s">
+        <v>405</v>
+      </c>
       <c r="H991" t="s">
+        <v>551</v>
+      </c>
+      <c r="I991" t="s">
         <v>1492</v>
       </c>
-      <c r="I991" t="s">
-        <v>1823</v>
-      </c>
       <c r="M991" t="s">
-        <v>4430</v>
+        <v>3162</v>
       </c>
     </row>
     <row r="992" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A992">
-        <v>1232</v>
+        <v>1237</v>
       </c>
       <c r="B992" t="s">
-        <v>3153</v>
+        <v>3163</v>
       </c>
       <c r="C992" t="s">
-        <v>3152</v>
+        <v>3161</v>
       </c>
       <c r="D992">
         <v>68000</v>
       </c>
+      <c r="E992" t="s">
+        <v>405</v>
+      </c>
       <c r="H992" t="s">
+        <v>551</v>
+      </c>
+      <c r="I992" t="s">
         <v>1492</v>
       </c>
-      <c r="I992" t="s">
-        <v>1823</v>
-      </c>
       <c r="M992" t="s">
-        <v>4431</v>
+        <v>3164</v>
       </c>
     </row>
     <row r="993" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A993">
-        <v>1233</v>
+        <v>1238</v>
       </c>
       <c r="B993" t="s">
-        <v>3154</v>
+        <v>3165</v>
       </c>
       <c r="C993" t="s">
-        <v>3152</v>
+        <v>3161</v>
       </c>
       <c r="D993">
         <v>68000</v>
       </c>
+      <c r="E993" t="s">
+        <v>405</v>
+      </c>
       <c r="H993" t="s">
+        <v>551</v>
+      </c>
+      <c r="I993" t="s">
         <v>1492</v>
       </c>
-      <c r="I993" t="s">
-        <v>1823</v>
-      </c>
       <c r="M993" t="s">
-        <v>4432</v>
+        <v>3166</v>
       </c>
     </row>
     <row r="994" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A994">
-        <v>1234</v>
+        <v>1239</v>
       </c>
       <c r="B994" t="s">
-        <v>3155</v>
+        <v>3167</v>
       </c>
       <c r="C994" t="s">
-        <v>3156</v>
+        <v>3161</v>
       </c>
       <c r="D994">
         <v>68000</v>
       </c>
+      <c r="E994" t="s">
+        <v>405</v>
+      </c>
       <c r="H994" t="s">
+        <v>551</v>
+      </c>
+      <c r="I994" t="s">
         <v>1492</v>
       </c>
       <c r="M994" t="s">
-        <v>3157</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="995" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A995">
-        <v>1235</v>
+        <v>1240</v>
       </c>
       <c r="B995" t="s">
-        <v>3158</v>
+        <v>3169</v>
       </c>
       <c r="C995" t="s">
-        <v>3156</v>
+        <v>3170</v>
       </c>
       <c r="D995">
         <v>68000</v>
       </c>
+      <c r="E995">
+        <v>68000</v>
+      </c>
+      <c r="F995" t="s">
+        <v>405</v>
+      </c>
       <c r="H995" t="s">
+        <v>551</v>
+      </c>
+      <c r="I995" t="s">
         <v>1492</v>
       </c>
       <c r="M995" t="s">
-        <v>3159</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="996" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A996">
-        <v>1236</v>
+        <v>1241</v>
       </c>
       <c r="B996" t="s">
-        <v>3160</v>
+        <v>3172</v>
       </c>
       <c r="C996" t="s">
-        <v>3161</v>
+        <v>3173</v>
       </c>
       <c r="D996">
         <v>68000</v>
@@ -55647,70 +55780,64 @@
         <v>1492</v>
       </c>
       <c r="M996" t="s">
-        <v>3162</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="997" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A997">
-        <v>1237</v>
+        <v>1242</v>
       </c>
       <c r="B997" t="s">
-        <v>3163</v>
+        <v>3175</v>
       </c>
       <c r="C997" t="s">
-        <v>3161</v>
+        <v>3176</v>
       </c>
       <c r="D997">
         <v>68000</v>
       </c>
-      <c r="E997" t="s">
-        <v>405</v>
-      </c>
       <c r="H997" t="s">
-        <v>551</v>
+        <v>1492</v>
       </c>
       <c r="I997" t="s">
-        <v>1492</v>
+        <v>1823</v>
       </c>
       <c r="M997" t="s">
-        <v>3164</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="998" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A998">
-        <v>1238</v>
+        <v>1243</v>
       </c>
       <c r="B998" t="s">
-        <v>3165</v>
+        <v>3178</v>
       </c>
       <c r="C998" t="s">
-        <v>3161</v>
+        <v>3176</v>
       </c>
       <c r="D998">
         <v>68000</v>
       </c>
-      <c r="E998" t="s">
-        <v>405</v>
-      </c>
       <c r="H998" t="s">
-        <v>551</v>
+        <v>1492</v>
       </c>
       <c r="I998" t="s">
-        <v>1492</v>
+        <v>1823</v>
       </c>
       <c r="M998" t="s">
-        <v>3166</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="999" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A999">
-        <v>1239</v>
+        <v>1244</v>
       </c>
       <c r="B999" t="s">
-        <v>3167</v>
+        <v>3180</v>
       </c>
       <c r="C999" t="s">
-        <v>3161</v>
+        <v>3181</v>
       </c>
       <c r="D999">
         <v>68000</v>
@@ -55721,77 +55848,62 @@
       <c r="H999" t="s">
         <v>551</v>
       </c>
-      <c r="I999" t="s">
-        <v>1492</v>
-      </c>
       <c r="M999" t="s">
-        <v>3168</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1000" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1000">
-        <v>1240</v>
+        <v>1245</v>
       </c>
       <c r="B1000" t="s">
-        <v>3169</v>
+        <v>3182</v>
       </c>
       <c r="C1000" t="s">
-        <v>3170</v>
+        <v>3181</v>
       </c>
       <c r="D1000">
         <v>68000</v>
       </c>
-      <c r="E1000">
-        <v>68000</v>
-      </c>
-      <c r="F1000" t="s">
+      <c r="E1000" t="s">
         <v>405</v>
       </c>
       <c r="H1000" t="s">
         <v>551</v>
       </c>
-      <c r="I1000" t="s">
-        <v>1492</v>
-      </c>
       <c r="M1000" t="s">
-        <v>3171</v>
+        <v>4434</v>
       </c>
     </row>
     <row r="1001" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1001">
-        <v>1241</v>
+        <v>1246</v>
       </c>
       <c r="B1001" t="s">
-        <v>3172</v>
+        <v>3183</v>
       </c>
       <c r="C1001" t="s">
-        <v>3173</v>
+        <v>3184</v>
       </c>
       <c r="D1001">
         <v>68000</v>
       </c>
-      <c r="E1001" t="s">
-        <v>405</v>
-      </c>
       <c r="H1001" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1001" t="s">
         <v>1492</v>
       </c>
       <c r="M1001" t="s">
-        <v>3174</v>
+        <v>4435</v>
       </c>
     </row>
     <row r="1002" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1002">
-        <v>1242</v>
+        <v>1247</v>
       </c>
       <c r="B1002" t="s">
-        <v>3175</v>
+        <v>3185</v>
       </c>
       <c r="C1002" t="s">
-        <v>3176</v>
+        <v>3184</v>
       </c>
       <c r="D1002">
         <v>68000</v>
@@ -55799,128 +55911,113 @@
       <c r="H1002" t="s">
         <v>1492</v>
       </c>
-      <c r="I1002" t="s">
-        <v>1823</v>
-      </c>
       <c r="M1002" t="s">
-        <v>3177</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="1003" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1003">
-        <v>1243</v>
+        <v>1248</v>
       </c>
       <c r="B1003" t="s">
-        <v>3178</v>
+        <v>3187</v>
       </c>
       <c r="C1003" t="s">
-        <v>3176</v>
-      </c>
-      <c r="D1003">
-        <v>68000</v>
-      </c>
-      <c r="H1003" t="s">
-        <v>1492</v>
-      </c>
-      <c r="I1003" t="s">
-        <v>1823</v>
+        <v>3188</v>
+      </c>
+      <c r="D1003" t="s">
+        <v>405</v>
       </c>
       <c r="M1003" t="s">
-        <v>3179</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="1004" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1004">
-        <v>1244</v>
+        <v>1249</v>
       </c>
       <c r="B1004" t="s">
-        <v>3180</v>
+        <v>3190</v>
       </c>
       <c r="C1004" t="s">
-        <v>3181</v>
-      </c>
-      <c r="D1004">
-        <v>68000</v>
-      </c>
-      <c r="E1004" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1004" t="s">
         <v>405</v>
       </c>
       <c r="H1004" t="s">
-        <v>551</v>
+        <v>93</v>
       </c>
       <c r="M1004" t="s">
-        <v>4433</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="1005" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1005">
-        <v>1245</v>
+        <v>1250</v>
       </c>
       <c r="B1005" t="s">
-        <v>3182</v>
+        <v>3192</v>
       </c>
       <c r="C1005" t="s">
-        <v>3181</v>
-      </c>
-      <c r="D1005">
-        <v>68000</v>
-      </c>
-      <c r="E1005" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D1005" t="s">
         <v>405</v>
       </c>
       <c r="H1005" t="s">
-        <v>551</v>
+        <v>93</v>
       </c>
       <c r="M1005" t="s">
-        <v>4434</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="1006" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1006">
-        <v>1246</v>
+        <v>1251</v>
       </c>
       <c r="B1006" t="s">
-        <v>3183</v>
+        <v>3194</v>
       </c>
       <c r="C1006" t="s">
-        <v>3184</v>
-      </c>
-      <c r="D1006">
-        <v>68000</v>
+        <v>3188</v>
+      </c>
+      <c r="D1006" t="s">
+        <v>405</v>
       </c>
       <c r="H1006" t="s">
-        <v>1492</v>
+        <v>93</v>
       </c>
       <c r="M1006" t="s">
-        <v>4435</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="1007" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1007">
-        <v>1247</v>
+        <v>1252</v>
       </c>
       <c r="B1007" t="s">
-        <v>3185</v>
+        <v>3196</v>
       </c>
       <c r="C1007" t="s">
-        <v>3184</v>
-      </c>
-      <c r="D1007">
-        <v>68000</v>
+        <v>3188</v>
+      </c>
+      <c r="D1007" t="s">
+        <v>405</v>
       </c>
       <c r="H1007" t="s">
-        <v>1492</v>
+        <v>93</v>
       </c>
       <c r="M1007" t="s">
-        <v>3186</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="1008" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1008">
-        <v>1248</v>
+        <v>1253</v>
       </c>
       <c r="B1008" t="s">
-        <v>3187</v>
+        <v>3198</v>
       </c>
       <c r="C1008" t="s">
         <v>3188</v>
@@ -55928,16 +56025,19 @@
       <c r="D1008" t="s">
         <v>405</v>
       </c>
+      <c r="H1008" t="s">
+        <v>93</v>
+      </c>
       <c r="M1008" t="s">
-        <v>3189</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="1009" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1009">
-        <v>1249</v>
+        <v>1254</v>
       </c>
       <c r="B1009" t="s">
-        <v>3190</v>
+        <v>3200</v>
       </c>
       <c r="C1009" t="s">
         <v>3188</v>
@@ -55949,15 +56049,15 @@
         <v>93</v>
       </c>
       <c r="M1009" t="s">
-        <v>3191</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="1010" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1010">
-        <v>1250</v>
+        <v>1255</v>
       </c>
       <c r="B1010" t="s">
-        <v>3192</v>
+        <v>3202</v>
       </c>
       <c r="C1010" t="s">
         <v>3188</v>
@@ -55969,15 +56069,15 @@
         <v>93</v>
       </c>
       <c r="M1010" t="s">
-        <v>3193</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="1011" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1011">
-        <v>1251</v>
+        <v>1256</v>
       </c>
       <c r="B1011" t="s">
-        <v>3194</v>
+        <v>3204</v>
       </c>
       <c r="C1011" t="s">
         <v>3188</v>
@@ -55989,15 +56089,15 @@
         <v>93</v>
       </c>
       <c r="M1011" t="s">
-        <v>3195</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="1012" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1012">
-        <v>1252</v>
+        <v>1257</v>
       </c>
       <c r="B1012" t="s">
-        <v>3196</v>
+        <v>3206</v>
       </c>
       <c r="C1012" t="s">
         <v>3188</v>
@@ -56009,187 +56109,217 @@
         <v>93</v>
       </c>
       <c r="M1012" t="s">
-        <v>3197</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="1013" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1013">
-        <v>1253</v>
+        <v>1258</v>
       </c>
       <c r="B1013" t="s">
-        <v>3198</v>
+        <v>3208</v>
       </c>
       <c r="C1013" t="s">
-        <v>3188</v>
+        <v>3209</v>
       </c>
       <c r="D1013" t="s">
         <v>405</v>
       </c>
+      <c r="E1013" t="s">
+        <v>405</v>
+      </c>
+      <c r="F1013" t="s">
+        <v>1184</v>
+      </c>
       <c r="H1013" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="M1013" t="s">
-        <v>3199</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="1014" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1014">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="B1014" t="s">
-        <v>3200</v>
+        <v>3211</v>
       </c>
       <c r="C1014" t="s">
-        <v>3188</v>
+        <v>3212</v>
       </c>
       <c r="D1014" t="s">
-        <v>405</v>
+        <v>14</v>
+      </c>
+      <c r="E1014" t="s">
+        <v>154</v>
       </c>
       <c r="H1014" t="s">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="M1014" t="s">
-        <v>3201</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="1015" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1015">
-        <v>1255</v>
+        <v>1260</v>
       </c>
       <c r="B1015" t="s">
-        <v>3202</v>
+        <v>3214</v>
       </c>
       <c r="C1015" t="s">
-        <v>3188</v>
+        <v>3212</v>
       </c>
       <c r="D1015" t="s">
-        <v>405</v>
+        <v>14</v>
+      </c>
+      <c r="E1015" t="s">
+        <v>154</v>
       </c>
       <c r="H1015" t="s">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="M1015" t="s">
-        <v>3203</v>
+        <v>3215</v>
       </c>
     </row>
     <row r="1016" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1016">
-        <v>1256</v>
+        <v>1261</v>
       </c>
       <c r="B1016" t="s">
-        <v>3204</v>
+        <v>3277</v>
       </c>
       <c r="C1016" t="s">
-        <v>3188</v>
-      </c>
-      <c r="D1016" t="s">
-        <v>405</v>
+        <v>3278</v>
+      </c>
+      <c r="D1016">
+        <v>68000</v>
+      </c>
+      <c r="E1016" t="s">
+        <v>154</v>
       </c>
       <c r="H1016" t="s">
-        <v>93</v>
+        <v>349</v>
+      </c>
+      <c r="I1016" t="s">
+        <v>2082</v>
       </c>
       <c r="M1016" t="s">
-        <v>3205</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="1017" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1017">
-        <v>1257</v>
+        <v>1262</v>
       </c>
       <c r="B1017" t="s">
-        <v>3206</v>
+        <v>3280</v>
       </c>
       <c r="C1017" t="s">
-        <v>3188</v>
-      </c>
-      <c r="D1017" t="s">
-        <v>405</v>
+        <v>3278</v>
+      </c>
+      <c r="D1017">
+        <v>68000</v>
+      </c>
+      <c r="E1017" t="s">
+        <v>154</v>
       </c>
       <c r="H1017" t="s">
-        <v>93</v>
+        <v>349</v>
+      </c>
+      <c r="I1017" t="s">
+        <v>2082</v>
       </c>
       <c r="M1017" t="s">
-        <v>3207</v>
+        <v>4441</v>
       </c>
     </row>
     <row r="1018" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1018">
-        <v>1258</v>
+        <v>1263</v>
       </c>
       <c r="B1018" t="s">
-        <v>3208</v>
+        <v>3281</v>
       </c>
       <c r="C1018" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D1018" t="s">
-        <v>405</v>
+        <v>3278</v>
+      </c>
+      <c r="D1018">
+        <v>68000</v>
       </c>
       <c r="E1018" t="s">
-        <v>405</v>
-      </c>
-      <c r="F1018" t="s">
-        <v>1184</v>
+        <v>154</v>
       </c>
       <c r="H1018" t="s">
-        <v>71</v>
+        <v>349</v>
+      </c>
+      <c r="I1018" t="s">
+        <v>2082</v>
       </c>
       <c r="M1018" t="s">
-        <v>3210</v>
+        <v>4442</v>
       </c>
     </row>
     <row r="1019" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1019">
-        <v>1259</v>
+        <v>1264</v>
       </c>
       <c r="B1019" t="s">
-        <v>3211</v>
+        <v>3282</v>
       </c>
       <c r="C1019" t="s">
-        <v>3212</v>
-      </c>
-      <c r="D1019" t="s">
-        <v>14</v>
+        <v>3278</v>
+      </c>
+      <c r="D1019">
+        <v>68000</v>
       </c>
       <c r="E1019" t="s">
         <v>154</v>
       </c>
       <c r="H1019" t="s">
-        <v>172</v>
+        <v>349</v>
+      </c>
+      <c r="I1019" t="s">
+        <v>2082</v>
       </c>
       <c r="M1019" t="s">
-        <v>3213</v>
+        <v>4443</v>
       </c>
     </row>
     <row r="1020" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1020">
-        <v>1260</v>
+        <v>1265</v>
       </c>
       <c r="B1020" t="s">
-        <v>3214</v>
+        <v>3283</v>
       </c>
       <c r="C1020" t="s">
-        <v>3212</v>
-      </c>
-      <c r="D1020" t="s">
-        <v>14</v>
+        <v>3278</v>
+      </c>
+      <c r="D1020">
+        <v>68000</v>
       </c>
       <c r="E1020" t="s">
         <v>154</v>
       </c>
       <c r="H1020" t="s">
-        <v>172</v>
+        <v>349</v>
+      </c>
+      <c r="I1020" t="s">
+        <v>2082</v>
       </c>
       <c r="M1020" t="s">
-        <v>3215</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="1021" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1021">
-        <v>1261</v>
+        <v>1266</v>
       </c>
       <c r="B1021" t="s">
-        <v>3277</v>
+        <v>3284</v>
       </c>
       <c r="C1021" t="s">
         <v>3278</v>
@@ -56207,15 +56337,15 @@
         <v>2082</v>
       </c>
       <c r="M1021" t="s">
-        <v>3279</v>
+        <v>4445</v>
       </c>
     </row>
     <row r="1022" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1022">
-        <v>1262</v>
+        <v>1267</v>
       </c>
       <c r="B1022" t="s">
-        <v>3280</v>
+        <v>3285</v>
       </c>
       <c r="C1022" t="s">
         <v>3278</v>
@@ -56233,15 +56363,15 @@
         <v>2082</v>
       </c>
       <c r="M1022" t="s">
-        <v>4441</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="1023" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1023">
-        <v>1263</v>
+        <v>1268</v>
       </c>
       <c r="B1023" t="s">
-        <v>3281</v>
+        <v>3286</v>
       </c>
       <c r="C1023" t="s">
         <v>3278</v>
@@ -56259,18 +56389,18 @@
         <v>2082</v>
       </c>
       <c r="M1023" t="s">
-        <v>4442</v>
+        <v>4447</v>
       </c>
     </row>
     <row r="1024" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1024">
-        <v>1264</v>
+        <v>1269</v>
       </c>
       <c r="B1024" t="s">
-        <v>3282</v>
+        <v>3287</v>
       </c>
       <c r="C1024" t="s">
-        <v>3278</v>
+        <v>3288</v>
       </c>
       <c r="D1024">
         <v>68000</v>
@@ -56285,18 +56415,18 @@
         <v>2082</v>
       </c>
       <c r="M1024" t="s">
-        <v>4443</v>
+        <v>4448</v>
       </c>
     </row>
     <row r="1025" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1025">
-        <v>1265</v>
+        <v>1270</v>
       </c>
       <c r="B1025" t="s">
-        <v>3283</v>
+        <v>3289</v>
       </c>
       <c r="C1025" t="s">
-        <v>3278</v>
+        <v>3288</v>
       </c>
       <c r="D1025">
         <v>68000</v>
@@ -56311,18 +56441,18 @@
         <v>2082</v>
       </c>
       <c r="M1025" t="s">
-        <v>4444</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="1026" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1026">
-        <v>1266</v>
+        <v>1271</v>
       </c>
       <c r="B1026" t="s">
-        <v>3284</v>
+        <v>3290</v>
       </c>
       <c r="C1026" t="s">
-        <v>3278</v>
+        <v>3288</v>
       </c>
       <c r="D1026">
         <v>68000</v>
@@ -56337,18 +56467,18 @@
         <v>2082</v>
       </c>
       <c r="M1026" t="s">
-        <v>4445</v>
+        <v>3291</v>
       </c>
     </row>
     <row r="1027" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1027">
-        <v>1267</v>
+        <v>1272</v>
       </c>
       <c r="B1027" t="s">
-        <v>3285</v>
+        <v>3292</v>
       </c>
       <c r="C1027" t="s">
-        <v>3278</v>
+        <v>3293</v>
       </c>
       <c r="D1027">
         <v>68000</v>
@@ -56357,24 +56487,27 @@
         <v>154</v>
       </c>
       <c r="H1027" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="I1027" t="s">
-        <v>2082</v>
+        <v>1823</v>
+      </c>
+      <c r="J1027" t="s">
+        <v>166</v>
       </c>
       <c r="M1027" t="s">
-        <v>4446</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="1028" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1028">
-        <v>1268</v>
+        <v>1273</v>
       </c>
       <c r="B1028" t="s">
-        <v>3286</v>
+        <v>3295</v>
       </c>
       <c r="C1028" t="s">
-        <v>3278</v>
+        <v>3293</v>
       </c>
       <c r="D1028">
         <v>68000</v>
@@ -56383,24 +56516,27 @@
         <v>154</v>
       </c>
       <c r="H1028" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="I1028" t="s">
-        <v>2082</v>
+        <v>1823</v>
+      </c>
+      <c r="J1028" t="s">
+        <v>166</v>
       </c>
       <c r="M1028" t="s">
-        <v>4447</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="1029" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1029">
-        <v>1269</v>
+        <v>1274</v>
       </c>
       <c r="B1029" t="s">
-        <v>3287</v>
+        <v>3297</v>
       </c>
       <c r="C1029" t="s">
-        <v>3288</v>
+        <v>3293</v>
       </c>
       <c r="D1029">
         <v>68000</v>
@@ -56409,24 +56545,27 @@
         <v>154</v>
       </c>
       <c r="H1029" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="I1029" t="s">
-        <v>2082</v>
+        <v>1823</v>
+      </c>
+      <c r="J1029" t="s">
+        <v>166</v>
       </c>
       <c r="M1029" t="s">
-        <v>4448</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="1030" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1030">
-        <v>1270</v>
+        <v>1275</v>
       </c>
       <c r="B1030" t="s">
-        <v>3289</v>
+        <v>3299</v>
       </c>
       <c r="C1030" t="s">
-        <v>3288</v>
+        <v>3293</v>
       </c>
       <c r="D1030">
         <v>68000</v>
@@ -56435,24 +56574,27 @@
         <v>154</v>
       </c>
       <c r="H1030" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="I1030" t="s">
-        <v>2082</v>
+        <v>1823</v>
+      </c>
+      <c r="J1030" t="s">
+        <v>166</v>
       </c>
       <c r="M1030" t="s">
-        <v>4449</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="1031" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1031">
-        <v>1271</v>
+        <v>1276</v>
       </c>
       <c r="B1031" t="s">
-        <v>3290</v>
+        <v>3301</v>
       </c>
       <c r="C1031" t="s">
-        <v>3288</v>
+        <v>3293</v>
       </c>
       <c r="D1031">
         <v>68000</v>
@@ -56461,21 +56603,24 @@
         <v>154</v>
       </c>
       <c r="H1031" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="I1031" t="s">
-        <v>2082</v>
+        <v>1823</v>
+      </c>
+      <c r="J1031" t="s">
+        <v>166</v>
       </c>
       <c r="M1031" t="s">
-        <v>3291</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="1032" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1032">
-        <v>1272</v>
+        <v>1277</v>
       </c>
       <c r="B1032" t="s">
-        <v>3292</v>
+        <v>3303</v>
       </c>
       <c r="C1032" t="s">
         <v>3293</v>
@@ -56496,15 +56641,15 @@
         <v>166</v>
       </c>
       <c r="M1032" t="s">
-        <v>3294</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="1033" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1033">
-        <v>1273</v>
+        <v>1278</v>
       </c>
       <c r="B1033" t="s">
-        <v>3295</v>
+        <v>3305</v>
       </c>
       <c r="C1033" t="s">
         <v>3293</v>
@@ -56525,15 +56670,15 @@
         <v>166</v>
       </c>
       <c r="M1033" t="s">
-        <v>3296</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="1034" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1034">
-        <v>1274</v>
+        <v>1279</v>
       </c>
       <c r="B1034" t="s">
-        <v>3297</v>
+        <v>3307</v>
       </c>
       <c r="C1034" t="s">
         <v>3293</v>
@@ -56554,15 +56699,15 @@
         <v>166</v>
       </c>
       <c r="M1034" t="s">
-        <v>3298</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="1035" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1035">
-        <v>1275</v>
+        <v>1280</v>
       </c>
       <c r="B1035" t="s">
-        <v>3299</v>
+        <v>3309</v>
       </c>
       <c r="C1035" t="s">
         <v>3293</v>
@@ -56583,535 +56728,520 @@
         <v>166</v>
       </c>
       <c r="M1035" t="s">
-        <v>3300</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="1036" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1036">
-        <v>1276</v>
+        <v>1281</v>
       </c>
       <c r="B1036" t="s">
-        <v>3301</v>
+        <v>3311</v>
       </c>
       <c r="C1036" t="s">
-        <v>3293</v>
-      </c>
-      <c r="D1036">
-        <v>68000</v>
-      </c>
-      <c r="E1036" t="s">
-        <v>154</v>
+        <v>3312</v>
+      </c>
+      <c r="D1036" t="s">
+        <v>405</v>
       </c>
       <c r="H1036" t="s">
-        <v>336</v>
-      </c>
-      <c r="I1036" t="s">
-        <v>1823</v>
-      </c>
-      <c r="J1036" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M1036" t="s">
-        <v>3302</v>
+        <v>3313</v>
       </c>
     </row>
     <row r="1037" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1037">
-        <v>1277</v>
+        <v>1282</v>
       </c>
       <c r="B1037" t="s">
-        <v>3303</v>
+        <v>3314</v>
       </c>
       <c r="C1037" t="s">
-        <v>3293</v>
-      </c>
-      <c r="D1037">
-        <v>68000</v>
-      </c>
-      <c r="E1037" t="s">
-        <v>154</v>
+        <v>3312</v>
+      </c>
+      <c r="D1037" t="s">
+        <v>405</v>
       </c>
       <c r="H1037" t="s">
-        <v>336</v>
-      </c>
-      <c r="I1037" t="s">
-        <v>1823</v>
-      </c>
-      <c r="J1037" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M1037" t="s">
-        <v>3304</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="1038" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1038">
-        <v>1278</v>
+        <v>1283</v>
       </c>
       <c r="B1038" t="s">
-        <v>3305</v>
+        <v>3316</v>
       </c>
       <c r="C1038" t="s">
-        <v>3293</v>
-      </c>
-      <c r="D1038">
-        <v>68000</v>
+        <v>3317</v>
+      </c>
+      <c r="D1038" t="s">
+        <v>405</v>
       </c>
       <c r="E1038" t="s">
-        <v>154</v>
+        <v>1184</v>
       </c>
       <c r="H1038" t="s">
-        <v>336</v>
+        <v>172</v>
       </c>
       <c r="I1038" t="s">
-        <v>1823</v>
-      </c>
-      <c r="J1038" t="s">
         <v>166</v>
       </c>
       <c r="M1038" t="s">
-        <v>3306</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1039" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1039">
-        <v>1279</v>
+        <v>1284</v>
       </c>
       <c r="B1039" t="s">
-        <v>3307</v>
+        <v>3319</v>
       </c>
       <c r="C1039" t="s">
-        <v>3293</v>
-      </c>
-      <c r="D1039">
-        <v>68000</v>
+        <v>3317</v>
+      </c>
+      <c r="D1039" t="s">
+        <v>405</v>
       </c>
       <c r="E1039" t="s">
-        <v>154</v>
+        <v>1184</v>
       </c>
       <c r="H1039" t="s">
-        <v>336</v>
+        <v>172</v>
       </c>
       <c r="I1039" t="s">
-        <v>1823</v>
-      </c>
-      <c r="J1039" t="s">
         <v>166</v>
       </c>
       <c r="M1039" t="s">
-        <v>3308</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="1040" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1040">
-        <v>1280</v>
+        <v>1285</v>
       </c>
       <c r="B1040" t="s">
-        <v>3309</v>
+        <v>3321</v>
       </c>
       <c r="C1040" t="s">
-        <v>3293</v>
-      </c>
-      <c r="D1040">
-        <v>68000</v>
+        <v>3322</v>
+      </c>
+      <c r="D1040" t="s">
+        <v>405</v>
       </c>
       <c r="E1040" t="s">
-        <v>154</v>
+        <v>1184</v>
       </c>
       <c r="H1040" t="s">
-        <v>336</v>
+        <v>172</v>
       </c>
       <c r="I1040" t="s">
-        <v>1823</v>
-      </c>
-      <c r="J1040" t="s">
         <v>166</v>
       </c>
       <c r="M1040" t="s">
-        <v>3310</v>
+        <v>3323</v>
       </c>
     </row>
     <row r="1041" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1041">
-        <v>1281</v>
+        <v>1288</v>
       </c>
       <c r="B1041" t="s">
-        <v>3311</v>
+        <v>3330</v>
       </c>
       <c r="C1041" t="s">
-        <v>3312</v>
+        <v>3331</v>
       </c>
       <c r="D1041" t="s">
         <v>405</v>
       </c>
+      <c r="E1041" t="s">
+        <v>1184</v>
+      </c>
       <c r="H1041" t="s">
         <v>172</v>
       </c>
+      <c r="I1041" t="s">
+        <v>166</v>
+      </c>
       <c r="M1041" t="s">
-        <v>3313</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="1042" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1042">
-        <v>1282</v>
+        <v>1289</v>
       </c>
       <c r="B1042" t="s">
-        <v>3314</v>
+        <v>3333</v>
       </c>
       <c r="C1042" t="s">
-        <v>3312</v>
+        <v>3331</v>
       </c>
       <c r="D1042" t="s">
         <v>405</v>
       </c>
+      <c r="E1042" t="s">
+        <v>1184</v>
+      </c>
       <c r="H1042" t="s">
         <v>172</v>
       </c>
+      <c r="I1042" t="s">
+        <v>166</v>
+      </c>
       <c r="M1042" t="s">
-        <v>3315</v>
+        <v>3334</v>
       </c>
     </row>
     <row r="1043" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1043">
-        <v>1283</v>
+        <v>1290</v>
       </c>
       <c r="B1043" t="s">
-        <v>3316</v>
+        <v>3335</v>
       </c>
       <c r="C1043" t="s">
-        <v>3317</v>
+        <v>3331</v>
       </c>
       <c r="D1043" t="s">
         <v>405</v>
       </c>
       <c r="E1043" t="s">
-        <v>1184</v>
+        <v>967</v>
+      </c>
+      <c r="F1043" t="s">
+        <v>1220</v>
       </c>
       <c r="H1043" t="s">
-        <v>172</v>
+        <v>332</v>
       </c>
       <c r="I1043" t="s">
         <v>166</v>
       </c>
       <c r="M1043" t="s">
-        <v>3318</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="1044" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1044">
-        <v>1284</v>
+        <v>1291</v>
       </c>
       <c r="B1044" t="s">
-        <v>3319</v>
+        <v>3337</v>
       </c>
       <c r="C1044" t="s">
-        <v>3317</v>
+        <v>3331</v>
       </c>
       <c r="D1044" t="s">
         <v>405</v>
       </c>
       <c r="E1044" t="s">
-        <v>1184</v>
+        <v>967</v>
+      </c>
+      <c r="F1044" t="s">
+        <v>1220</v>
       </c>
       <c r="H1044" t="s">
-        <v>172</v>
+        <v>332</v>
       </c>
       <c r="I1044" t="s">
         <v>166</v>
       </c>
       <c r="M1044" t="s">
-        <v>3320</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="1045" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1045">
-        <v>1285</v>
+        <v>1292</v>
       </c>
       <c r="B1045" t="s">
-        <v>3321</v>
+        <v>3339</v>
       </c>
       <c r="C1045" t="s">
-        <v>3322</v>
+        <v>3340</v>
       </c>
       <c r="D1045" t="s">
         <v>405</v>
       </c>
       <c r="E1045" t="s">
-        <v>1184</v>
+        <v>967</v>
       </c>
       <c r="H1045" t="s">
-        <v>172</v>
+        <v>332</v>
       </c>
       <c r="I1045" t="s">
-        <v>166</v>
+        <v>1320</v>
       </c>
       <c r="M1045" t="s">
-        <v>3323</v>
+        <v>3341</v>
       </c>
     </row>
     <row r="1046" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1046">
-        <v>1288</v>
+        <v>1293</v>
       </c>
       <c r="B1046" t="s">
-        <v>3330</v>
+        <v>3342</v>
       </c>
       <c r="C1046" t="s">
-        <v>3331</v>
+        <v>3340</v>
       </c>
       <c r="D1046" t="s">
         <v>405</v>
       </c>
       <c r="E1046" t="s">
-        <v>1184</v>
+        <v>967</v>
       </c>
       <c r="H1046" t="s">
-        <v>172</v>
+        <v>332</v>
       </c>
       <c r="I1046" t="s">
-        <v>166</v>
+        <v>1320</v>
       </c>
       <c r="M1046" t="s">
-        <v>3332</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="1047" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1047">
-        <v>1289</v>
+        <v>1294</v>
       </c>
       <c r="B1047" t="s">
-        <v>3333</v>
+        <v>3343</v>
       </c>
       <c r="C1047" t="s">
-        <v>3331</v>
+        <v>3340</v>
       </c>
       <c r="D1047" t="s">
         <v>405</v>
       </c>
       <c r="E1047" t="s">
-        <v>1184</v>
+        <v>967</v>
       </c>
       <c r="H1047" t="s">
-        <v>172</v>
+        <v>332</v>
       </c>
       <c r="I1047" t="s">
-        <v>166</v>
+        <v>1320</v>
       </c>
       <c r="M1047" t="s">
-        <v>3334</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="1048" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1048">
-        <v>1290</v>
+        <v>1301</v>
       </c>
       <c r="B1048" t="s">
-        <v>3335</v>
+        <v>3355</v>
       </c>
       <c r="C1048" t="s">
-        <v>3331</v>
+        <v>3356</v>
       </c>
       <c r="D1048" t="s">
-        <v>405</v>
+        <v>2316</v>
       </c>
       <c r="E1048" t="s">
-        <v>967</v>
+        <v>531</v>
       </c>
       <c r="F1048" t="s">
-        <v>1220</v>
+        <v>3357</v>
       </c>
       <c r="H1048" t="s">
-        <v>332</v>
+        <v>551</v>
       </c>
       <c r="I1048" t="s">
-        <v>166</v>
+        <v>3358</v>
       </c>
       <c r="M1048" t="s">
-        <v>3336</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="1049" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1049">
-        <v>1291</v>
+        <v>1302</v>
       </c>
       <c r="B1049" t="s">
-        <v>3337</v>
+        <v>3360</v>
       </c>
       <c r="C1049" t="s">
-        <v>3331</v>
+        <v>3356</v>
       </c>
       <c r="D1049" t="s">
-        <v>405</v>
+        <v>2316</v>
       </c>
       <c r="E1049" t="s">
-        <v>967</v>
+        <v>2316</v>
       </c>
       <c r="F1049" t="s">
-        <v>1220</v>
+        <v>3357</v>
       </c>
       <c r="H1049" t="s">
-        <v>332</v>
+        <v>551</v>
       </c>
       <c r="I1049" t="s">
-        <v>166</v>
+        <v>3358</v>
       </c>
       <c r="M1049" t="s">
-        <v>3338</v>
+        <v>3361</v>
       </c>
     </row>
     <row r="1050" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1050">
-        <v>1292</v>
+        <v>1303</v>
       </c>
       <c r="B1050" t="s">
-        <v>3339</v>
+        <v>3362</v>
       </c>
       <c r="C1050" t="s">
-        <v>3340</v>
+        <v>3356</v>
       </c>
       <c r="D1050" t="s">
-        <v>405</v>
+        <v>2316</v>
       </c>
       <c r="E1050" t="s">
-        <v>967</v>
+        <v>14</v>
+      </c>
+      <c r="F1050" t="s">
+        <v>154</v>
       </c>
       <c r="H1050" t="s">
-        <v>332</v>
+        <v>551</v>
       </c>
       <c r="I1050" t="s">
-        <v>1320</v>
+        <v>1492</v>
       </c>
       <c r="M1050" t="s">
-        <v>3341</v>
+        <v>4455</v>
       </c>
     </row>
     <row r="1051" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1051">
-        <v>1293</v>
+        <v>1304</v>
       </c>
       <c r="B1051" t="s">
-        <v>3342</v>
+        <v>3363</v>
       </c>
       <c r="C1051" t="s">
-        <v>3340</v>
-      </c>
-      <c r="D1051" t="s">
-        <v>405</v>
+        <v>3364</v>
+      </c>
+      <c r="D1051">
+        <v>68000</v>
       </c>
       <c r="E1051" t="s">
-        <v>967</v>
+        <v>154</v>
       </c>
       <c r="H1051" t="s">
-        <v>332</v>
+        <v>551</v>
       </c>
       <c r="I1051" t="s">
-        <v>1320</v>
+        <v>1492</v>
       </c>
       <c r="M1051" t="s">
-        <v>4450</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="1052" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1052">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="B1052" t="s">
-        <v>3343</v>
+        <v>3366</v>
       </c>
       <c r="C1052" t="s">
-        <v>3340</v>
-      </c>
-      <c r="D1052" t="s">
-        <v>405</v>
+        <v>3364</v>
+      </c>
+      <c r="D1052">
+        <v>68000</v>
       </c>
       <c r="E1052" t="s">
-        <v>967</v>
+        <v>154</v>
       </c>
       <c r="H1052" t="s">
-        <v>332</v>
+        <v>551</v>
       </c>
       <c r="I1052" t="s">
-        <v>1320</v>
+        <v>1492</v>
       </c>
       <c r="M1052" t="s">
-        <v>4451</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="1053" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1053">
-        <v>1301</v>
+        <v>1306</v>
       </c>
       <c r="B1053" t="s">
-        <v>3355</v>
+        <v>3367</v>
       </c>
       <c r="C1053" t="s">
-        <v>3356</v>
-      </c>
-      <c r="D1053" t="s">
-        <v>2316</v>
+        <v>3368</v>
+      </c>
+      <c r="D1053">
+        <v>68000</v>
       </c>
       <c r="E1053" t="s">
-        <v>531</v>
-      </c>
-      <c r="F1053" t="s">
-        <v>3357</v>
+        <v>154</v>
       </c>
       <c r="H1053" t="s">
         <v>551</v>
       </c>
       <c r="I1053" t="s">
-        <v>3358</v>
+        <v>1492</v>
       </c>
       <c r="M1053" t="s">
-        <v>3359</v>
+        <v>3369</v>
       </c>
     </row>
     <row r="1054" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1054">
-        <v>1302</v>
+        <v>1307</v>
       </c>
       <c r="B1054" t="s">
-        <v>3360</v>
+        <v>3370</v>
       </c>
       <c r="C1054" t="s">
-        <v>3356</v>
-      </c>
-      <c r="D1054" t="s">
-        <v>2316</v>
+        <v>3368</v>
+      </c>
+      <c r="D1054">
+        <v>68000</v>
       </c>
       <c r="E1054" t="s">
-        <v>2316</v>
-      </c>
-      <c r="F1054" t="s">
-        <v>3357</v>
+        <v>154</v>
       </c>
       <c r="H1054" t="s">
         <v>551</v>
       </c>
       <c r="I1054" t="s">
-        <v>3358</v>
+        <v>1492</v>
       </c>
       <c r="M1054" t="s">
-        <v>3361</v>
+        <v>3371</v>
       </c>
     </row>
     <row r="1055" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1055">
-        <v>1303</v>
+        <v>1308</v>
       </c>
       <c r="B1055" t="s">
-        <v>3362</v>
+        <v>3372</v>
       </c>
       <c r="C1055" t="s">
-        <v>3356</v>
-      </c>
-      <c r="D1055" t="s">
-        <v>2316</v>
+        <v>3364</v>
+      </c>
+      <c r="D1055">
+        <v>68000</v>
       </c>
       <c r="E1055" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1055" t="s">
         <v>154</v>
       </c>
       <c r="H1055" t="s">
@@ -57121,15 +57251,15 @@
         <v>1492</v>
       </c>
       <c r="M1055" t="s">
-        <v>4455</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="1056" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1056">
-        <v>1304</v>
+        <v>1309</v>
       </c>
       <c r="B1056" t="s">
-        <v>3363</v>
+        <v>3373</v>
       </c>
       <c r="C1056" t="s">
         <v>3364</v>
@@ -57147,462 +57277,495 @@
         <v>1492</v>
       </c>
       <c r="M1056" t="s">
-        <v>3365</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="1057" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1057">
-        <v>1305</v>
+        <v>1310</v>
       </c>
       <c r="B1057" t="s">
-        <v>3366</v>
+        <v>3381</v>
       </c>
       <c r="C1057" t="s">
-        <v>3364</v>
-      </c>
-      <c r="D1057">
-        <v>68000</v>
+        <v>3382</v>
+      </c>
+      <c r="D1057" t="s">
+        <v>405</v>
       </c>
       <c r="E1057" t="s">
-        <v>154</v>
+        <v>1184</v>
       </c>
       <c r="H1057" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1057" t="s">
-        <v>1492</v>
+        <v>71</v>
       </c>
       <c r="M1057" t="s">
-        <v>4456</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="1058" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1058">
-        <v>1306</v>
+        <v>1311</v>
       </c>
       <c r="B1058" t="s">
-        <v>3367</v>
+        <v>3384</v>
       </c>
       <c r="C1058" t="s">
-        <v>3368</v>
-      </c>
-      <c r="D1058">
-        <v>68000</v>
+        <v>3382</v>
+      </c>
+      <c r="D1058" t="s">
+        <v>405</v>
       </c>
       <c r="E1058" t="s">
-        <v>154</v>
+        <v>1184</v>
       </c>
       <c r="H1058" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1058" t="s">
-        <v>1492</v>
+        <v>71</v>
       </c>
       <c r="M1058" t="s">
-        <v>3369</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="1059" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1059">
-        <v>1307</v>
+        <v>1312</v>
       </c>
       <c r="B1059" t="s">
-        <v>3370</v>
+        <v>3386</v>
       </c>
       <c r="C1059" t="s">
-        <v>3368</v>
-      </c>
-      <c r="D1059">
-        <v>68000</v>
+        <v>3382</v>
+      </c>
+      <c r="D1059" t="s">
+        <v>405</v>
       </c>
       <c r="E1059" t="s">
-        <v>154</v>
+        <v>1184</v>
       </c>
       <c r="H1059" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1059" t="s">
-        <v>1492</v>
+        <v>71</v>
       </c>
       <c r="M1059" t="s">
-        <v>3371</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="1060" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1060">
-        <v>1308</v>
+        <v>1313</v>
       </c>
       <c r="B1060" t="s">
-        <v>3372</v>
+        <v>3388</v>
       </c>
       <c r="C1060" t="s">
-        <v>3364</v>
-      </c>
-      <c r="D1060">
-        <v>68000</v>
+        <v>3382</v>
+      </c>
+      <c r="D1060" t="s">
+        <v>405</v>
       </c>
       <c r="E1060" t="s">
-        <v>154</v>
+        <v>1184</v>
       </c>
       <c r="H1060" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1060" t="s">
-        <v>1492</v>
+        <v>71</v>
       </c>
       <c r="M1060" t="s">
-        <v>4457</v>
+        <v>3389</v>
       </c>
     </row>
     <row r="1061" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1061">
-        <v>1309</v>
+        <v>1314</v>
       </c>
       <c r="B1061" t="s">
-        <v>3373</v>
+        <v>3390</v>
       </c>
       <c r="C1061" t="s">
-        <v>3364</v>
-      </c>
-      <c r="D1061">
-        <v>68000</v>
+        <v>3391</v>
+      </c>
+      <c r="D1061" t="s">
+        <v>14</v>
       </c>
       <c r="E1061" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="H1061" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1061" t="s">
-        <v>1492</v>
+        <v>71</v>
       </c>
       <c r="M1061" t="s">
-        <v>4458</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="1062" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1062">
-        <v>1310</v>
+        <v>1315</v>
       </c>
       <c r="B1062" t="s">
-        <v>3381</v>
+        <v>3393</v>
       </c>
       <c r="C1062" t="s">
-        <v>3382</v>
+        <v>3391</v>
       </c>
       <c r="D1062" t="s">
-        <v>405</v>
+        <v>14</v>
       </c>
       <c r="E1062" t="s">
-        <v>1184</v>
+        <v>14</v>
       </c>
       <c r="H1062" t="s">
         <v>71</v>
       </c>
       <c r="M1062" t="s">
-        <v>3383</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="1063" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1063">
-        <v>1311</v>
+        <v>1316</v>
       </c>
       <c r="B1063" t="s">
-        <v>3384</v>
+        <v>3395</v>
       </c>
       <c r="C1063" t="s">
-        <v>3382</v>
+        <v>3391</v>
       </c>
       <c r="D1063" t="s">
-        <v>405</v>
+        <v>14</v>
       </c>
       <c r="E1063" t="s">
-        <v>1184</v>
+        <v>14</v>
       </c>
       <c r="H1063" t="s">
         <v>71</v>
       </c>
+      <c r="I1063" t="s">
+        <v>840</v>
+      </c>
+      <c r="J1063" t="s">
+        <v>166</v>
+      </c>
       <c r="M1063" t="s">
-        <v>3385</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="1064" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1064">
-        <v>1312</v>
+        <v>1317</v>
       </c>
       <c r="B1064" t="s">
-        <v>3386</v>
+        <v>3397</v>
       </c>
       <c r="C1064" t="s">
-        <v>3382</v>
+        <v>3391</v>
       </c>
       <c r="D1064" t="s">
-        <v>405</v>
+        <v>14</v>
       </c>
       <c r="E1064" t="s">
-        <v>1184</v>
+        <v>14</v>
       </c>
       <c r="H1064" t="s">
         <v>71</v>
       </c>
+      <c r="I1064" t="s">
+        <v>840</v>
+      </c>
+      <c r="J1064" t="s">
+        <v>166</v>
+      </c>
       <c r="M1064" t="s">
-        <v>3387</v>
+        <v>3398</v>
       </c>
     </row>
     <row r="1065" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1065">
-        <v>1313</v>
+        <v>1318</v>
       </c>
       <c r="B1065" t="s">
-        <v>3388</v>
+        <v>3399</v>
       </c>
       <c r="C1065" t="s">
-        <v>3382</v>
+        <v>3391</v>
       </c>
       <c r="D1065" t="s">
-        <v>405</v>
+        <v>14</v>
       </c>
       <c r="E1065" t="s">
-        <v>1184</v>
+        <v>14</v>
       </c>
       <c r="H1065" t="s">
         <v>71</v>
       </c>
+      <c r="I1065" t="s">
+        <v>840</v>
+      </c>
+      <c r="J1065" t="s">
+        <v>166</v>
+      </c>
       <c r="M1065" t="s">
-        <v>3389</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="1066" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1066">
-        <v>1314</v>
+        <v>1319</v>
       </c>
       <c r="B1066" t="s">
-        <v>3390</v>
+        <v>3401</v>
       </c>
       <c r="C1066" t="s">
-        <v>3391</v>
+        <v>3402</v>
       </c>
       <c r="D1066" t="s">
         <v>14</v>
       </c>
       <c r="E1066" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1066" t="s">
-        <v>71</v>
+        <v>962</v>
+      </c>
+      <c r="F1066" t="s">
+        <v>962</v>
       </c>
       <c r="M1066" t="s">
-        <v>3392</v>
+        <v>3403</v>
       </c>
     </row>
     <row r="1067" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1067">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="B1067" t="s">
-        <v>3393</v>
+        <v>3404</v>
       </c>
       <c r="C1067" t="s">
-        <v>3391</v>
+        <v>3402</v>
       </c>
       <c r="D1067" t="s">
         <v>14</v>
       </c>
       <c r="E1067" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1067" t="s">
-        <v>71</v>
+        <v>962</v>
+      </c>
+      <c r="F1067" t="s">
+        <v>962</v>
       </c>
       <c r="M1067" t="s">
-        <v>3394</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="1068" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1068">
-        <v>1316</v>
+        <v>1321</v>
       </c>
       <c r="B1068" t="s">
-        <v>3395</v>
+        <v>3406</v>
       </c>
       <c r="C1068" t="s">
-        <v>3391</v>
+        <v>3402</v>
       </c>
       <c r="D1068" t="s">
         <v>14</v>
       </c>
       <c r="E1068" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1068" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1068" t="s">
-        <v>840</v>
-      </c>
-      <c r="J1068" t="s">
-        <v>166</v>
+        <v>962</v>
+      </c>
+      <c r="F1068" t="s">
+        <v>962</v>
       </c>
       <c r="M1068" t="s">
-        <v>3396</v>
+        <v>3407</v>
       </c>
     </row>
     <row r="1069" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1069">
-        <v>1317</v>
+        <v>1322</v>
       </c>
       <c r="B1069" t="s">
-        <v>3397</v>
+        <v>3408</v>
       </c>
       <c r="C1069" t="s">
-        <v>3391</v>
+        <v>3402</v>
       </c>
       <c r="D1069" t="s">
         <v>14</v>
       </c>
       <c r="E1069" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1069" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1069" t="s">
-        <v>840</v>
-      </c>
-      <c r="J1069" t="s">
-        <v>166</v>
+        <v>962</v>
+      </c>
+      <c r="F1069" t="s">
+        <v>962</v>
       </c>
       <c r="M1069" t="s">
-        <v>3398</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="1070" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1070">
-        <v>1318</v>
+        <v>1323</v>
       </c>
       <c r="B1070" t="s">
-        <v>3399</v>
+        <v>3434</v>
       </c>
       <c r="C1070" t="s">
-        <v>3391</v>
+        <v>3435</v>
       </c>
       <c r="D1070" t="s">
-        <v>14</v>
+        <v>3436</v>
       </c>
       <c r="E1070" t="s">
-        <v>14</v>
+        <v>967</v>
+      </c>
+      <c r="F1070" t="s">
+        <v>967</v>
       </c>
       <c r="H1070" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="I1070" t="s">
-        <v>840</v>
+        <v>551</v>
       </c>
       <c r="J1070" t="s">
-        <v>166</v>
+        <v>333</v>
+      </c>
+      <c r="K1070" t="s">
+        <v>997</v>
       </c>
       <c r="M1070" t="s">
-        <v>3400</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="1071" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1071">
-        <v>1319</v>
+        <v>1324</v>
       </c>
       <c r="B1071" t="s">
-        <v>3401</v>
+        <v>3438</v>
       </c>
       <c r="C1071" t="s">
-        <v>3402</v>
+        <v>3435</v>
       </c>
       <c r="D1071" t="s">
-        <v>14</v>
+        <v>3436</v>
       </c>
       <c r="E1071" t="s">
-        <v>962</v>
-      </c>
-      <c r="F1071" t="s">
-        <v>962</v>
+        <v>967</v>
+      </c>
+      <c r="H1071" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1071" t="s">
+        <v>551</v>
+      </c>
+      <c r="J1071" t="s">
+        <v>166</v>
+      </c>
+      <c r="K1071" t="s">
+        <v>997</v>
       </c>
       <c r="M1071" t="s">
-        <v>3403</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="1072" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1072">
-        <v>1320</v>
+        <v>1325</v>
       </c>
       <c r="B1072" t="s">
-        <v>3404</v>
+        <v>3440</v>
       </c>
       <c r="C1072" t="s">
-        <v>3402</v>
+        <v>3435</v>
       </c>
       <c r="D1072" t="s">
-        <v>14</v>
+        <v>3436</v>
       </c>
       <c r="E1072" t="s">
-        <v>962</v>
-      </c>
-      <c r="F1072" t="s">
-        <v>962</v>
+        <v>967</v>
+      </c>
+      <c r="H1072" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1072" t="s">
+        <v>551</v>
+      </c>
+      <c r="J1072" t="s">
+        <v>166</v>
+      </c>
+      <c r="K1072" t="s">
+        <v>997</v>
       </c>
       <c r="M1072" t="s">
-        <v>3405</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="1073" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1073">
-        <v>1321</v>
+        <v>1326</v>
       </c>
       <c r="B1073" t="s">
-        <v>3406</v>
+        <v>3442</v>
       </c>
       <c r="C1073" t="s">
-        <v>3402</v>
+        <v>3435</v>
       </c>
       <c r="D1073" t="s">
-        <v>14</v>
+        <v>3436</v>
       </c>
       <c r="E1073" t="s">
-        <v>962</v>
-      </c>
-      <c r="F1073" t="s">
-        <v>962</v>
+        <v>967</v>
+      </c>
+      <c r="H1073" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1073" t="s">
+        <v>551</v>
+      </c>
+      <c r="J1073" t="s">
+        <v>166</v>
+      </c>
+      <c r="K1073" t="s">
+        <v>997</v>
       </c>
       <c r="M1073" t="s">
-        <v>3407</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="1074" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1074">
-        <v>1322</v>
+        <v>1327</v>
       </c>
       <c r="B1074" t="s">
-        <v>3408</v>
+        <v>3443</v>
       </c>
       <c r="C1074" t="s">
-        <v>3402</v>
+        <v>3435</v>
       </c>
       <c r="D1074" t="s">
-        <v>14</v>
+        <v>3436</v>
       </c>
       <c r="E1074" t="s">
-        <v>962</v>
-      </c>
-      <c r="F1074" t="s">
-        <v>962</v>
+        <v>967</v>
+      </c>
+      <c r="H1074" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1074" t="s">
+        <v>551</v>
+      </c>
+      <c r="J1074" t="s">
+        <v>166</v>
+      </c>
+      <c r="K1074" t="s">
+        <v>997</v>
       </c>
       <c r="M1074" t="s">
-        <v>3409</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="1075" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1075">
-        <v>1323</v>
+        <v>1328</v>
       </c>
       <c r="B1075" t="s">
-        <v>3434</v>
+        <v>3445</v>
       </c>
       <c r="C1075" t="s">
         <v>3435</v>
@@ -57613,9 +57776,6 @@
       <c r="E1075" t="s">
         <v>967</v>
       </c>
-      <c r="F1075" t="s">
-        <v>967</v>
-      </c>
       <c r="H1075" t="s">
         <v>93</v>
       </c>
@@ -57623,21 +57783,21 @@
         <v>551</v>
       </c>
       <c r="J1075" t="s">
-        <v>333</v>
+        <v>166</v>
       </c>
       <c r="K1075" t="s">
         <v>997</v>
       </c>
       <c r="M1075" t="s">
-        <v>3437</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="1076" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1076">
-        <v>1324</v>
+        <v>1329</v>
       </c>
       <c r="B1076" t="s">
-        <v>3438</v>
+        <v>3447</v>
       </c>
       <c r="C1076" t="s">
         <v>3435</v>
@@ -57661,15 +57821,15 @@
         <v>997</v>
       </c>
       <c r="M1076" t="s">
-        <v>3439</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="1077" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1077">
-        <v>1325</v>
+        <v>1330</v>
       </c>
       <c r="B1077" t="s">
-        <v>3440</v>
+        <v>3449</v>
       </c>
       <c r="C1077" t="s">
         <v>3435</v>
@@ -57693,15 +57853,15 @@
         <v>997</v>
       </c>
       <c r="M1077" t="s">
-        <v>3441</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="1078" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1078">
-        <v>1326</v>
+        <v>1331</v>
       </c>
       <c r="B1078" t="s">
-        <v>3442</v>
+        <v>3451</v>
       </c>
       <c r="C1078" t="s">
         <v>3435</v>
@@ -57725,15 +57885,15 @@
         <v>997</v>
       </c>
       <c r="M1078" t="s">
-        <v>4459</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="1079" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1079">
-        <v>1327</v>
+        <v>1332</v>
       </c>
       <c r="B1079" t="s">
-        <v>3443</v>
+        <v>3452</v>
       </c>
       <c r="C1079" t="s">
         <v>3435</v>
@@ -57757,15 +57917,15 @@
         <v>997</v>
       </c>
       <c r="M1079" t="s">
-        <v>3444</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="1080" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1080">
-        <v>1328</v>
+        <v>1333</v>
       </c>
       <c r="B1080" t="s">
-        <v>3445</v>
+        <v>3453</v>
       </c>
       <c r="C1080" t="s">
         <v>3435</v>
@@ -57789,15 +57949,15 @@
         <v>997</v>
       </c>
       <c r="M1080" t="s">
-        <v>3446</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="1081" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1081">
-        <v>1329</v>
+        <v>1334</v>
       </c>
       <c r="B1081" t="s">
-        <v>3447</v>
+        <v>3454</v>
       </c>
       <c r="C1081" t="s">
         <v>3435</v>
@@ -57818,18 +57978,18 @@
         <v>166</v>
       </c>
       <c r="K1081" t="s">
-        <v>997</v>
+        <v>1492</v>
       </c>
       <c r="M1081" t="s">
-        <v>3448</v>
+        <v>4463</v>
       </c>
     </row>
     <row r="1082" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1082">
-        <v>1330</v>
+        <v>1335</v>
       </c>
       <c r="B1082" t="s">
-        <v>3449</v>
+        <v>3455</v>
       </c>
       <c r="C1082" t="s">
         <v>3435</v>
@@ -57850,18 +58010,18 @@
         <v>166</v>
       </c>
       <c r="K1082" t="s">
-        <v>997</v>
+        <v>1492</v>
       </c>
       <c r="M1082" t="s">
-        <v>3450</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1083" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1083">
-        <v>1331</v>
+        <v>1336</v>
       </c>
       <c r="B1083" t="s">
-        <v>3451</v>
+        <v>3456</v>
       </c>
       <c r="C1083" t="s">
         <v>3435</v>
@@ -57882,18 +58042,18 @@
         <v>166</v>
       </c>
       <c r="K1083" t="s">
-        <v>997</v>
+        <v>1492</v>
       </c>
       <c r="M1083" t="s">
-        <v>4460</v>
+        <v>4465</v>
       </c>
     </row>
     <row r="1084" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1084">
-        <v>1332</v>
+        <v>1337</v>
       </c>
       <c r="B1084" t="s">
-        <v>3452</v>
+        <v>3457</v>
       </c>
       <c r="C1084" t="s">
         <v>3435</v>
@@ -57914,18 +58074,18 @@
         <v>166</v>
       </c>
       <c r="K1084" t="s">
-        <v>997</v>
+        <v>1492</v>
       </c>
       <c r="M1084" t="s">
-        <v>4461</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="1085" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1085">
-        <v>1333</v>
+        <v>1338</v>
       </c>
       <c r="B1085" t="s">
-        <v>3453</v>
+        <v>3458</v>
       </c>
       <c r="C1085" t="s">
         <v>3435</v>
@@ -57946,18 +58106,18 @@
         <v>166</v>
       </c>
       <c r="K1085" t="s">
-        <v>997</v>
+        <v>1492</v>
       </c>
       <c r="M1085" t="s">
-        <v>4462</v>
+        <v>4467</v>
       </c>
     </row>
     <row r="1086" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1086">
-        <v>1334</v>
+        <v>1339</v>
       </c>
       <c r="B1086" t="s">
-        <v>3454</v>
+        <v>3459</v>
       </c>
       <c r="C1086" t="s">
         <v>3435</v>
@@ -57981,15 +58141,15 @@
         <v>1492</v>
       </c>
       <c r="M1086" t="s">
-        <v>4463</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="1087" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1087">
-        <v>1335</v>
+        <v>1340</v>
       </c>
       <c r="B1087" t="s">
-        <v>3455</v>
+        <v>3460</v>
       </c>
       <c r="C1087" t="s">
         <v>3435</v>
@@ -58013,15 +58173,15 @@
         <v>1492</v>
       </c>
       <c r="M1087" t="s">
-        <v>4464</v>
+        <v>4469</v>
       </c>
     </row>
     <row r="1088" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1088">
-        <v>1336</v>
+        <v>1341</v>
       </c>
       <c r="B1088" t="s">
-        <v>3456</v>
+        <v>3461</v>
       </c>
       <c r="C1088" t="s">
         <v>3435</v>
@@ -58045,15 +58205,15 @@
         <v>1492</v>
       </c>
       <c r="M1088" t="s">
-        <v>4465</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="1089" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1089">
-        <v>1337</v>
+        <v>1342</v>
       </c>
       <c r="B1089" t="s">
-        <v>3457</v>
+        <v>3462</v>
       </c>
       <c r="C1089" t="s">
         <v>3435</v>
@@ -58061,31 +58221,16 @@
       <c r="D1089" t="s">
         <v>3436</v>
       </c>
-      <c r="E1089" t="s">
-        <v>967</v>
-      </c>
-      <c r="H1089" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1089" t="s">
-        <v>551</v>
-      </c>
-      <c r="J1089" t="s">
-        <v>166</v>
-      </c>
-      <c r="K1089" t="s">
-        <v>1492</v>
-      </c>
       <c r="M1089" t="s">
-        <v>4466</v>
+        <v>4471</v>
       </c>
     </row>
     <row r="1090" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1090">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="B1090" t="s">
-        <v>3458</v>
+        <v>3463</v>
       </c>
       <c r="C1090" t="s">
         <v>3435</v>
@@ -58093,31 +58238,16 @@
       <c r="D1090" t="s">
         <v>3436</v>
       </c>
-      <c r="E1090" t="s">
-        <v>967</v>
-      </c>
-      <c r="H1090" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1090" t="s">
-        <v>551</v>
-      </c>
-      <c r="J1090" t="s">
-        <v>166</v>
-      </c>
-      <c r="K1090" t="s">
-        <v>1492</v>
-      </c>
       <c r="M1090" t="s">
-        <v>4467</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="1091" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1091">
-        <v>1339</v>
+        <v>1344</v>
       </c>
       <c r="B1091" t="s">
-        <v>3459</v>
+        <v>3464</v>
       </c>
       <c r="C1091" t="s">
         <v>3435</v>
@@ -58125,31 +58255,16 @@
       <c r="D1091" t="s">
         <v>3436</v>
       </c>
-      <c r="E1091" t="s">
-        <v>967</v>
-      </c>
-      <c r="H1091" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1091" t="s">
-        <v>551</v>
-      </c>
-      <c r="J1091" t="s">
-        <v>166</v>
-      </c>
-      <c r="K1091" t="s">
-        <v>1492</v>
-      </c>
       <c r="M1091" t="s">
-        <v>4468</v>
+        <v>4473</v>
       </c>
     </row>
     <row r="1092" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1092">
-        <v>1340</v>
+        <v>1345</v>
       </c>
       <c r="B1092" t="s">
-        <v>3460</v>
+        <v>3465</v>
       </c>
       <c r="C1092" t="s">
         <v>3435</v>
@@ -58173,15 +58288,15 @@
         <v>1492</v>
       </c>
       <c r="M1092" t="s">
-        <v>4469</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="1093" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1093">
-        <v>1341</v>
+        <v>1346</v>
       </c>
       <c r="B1093" t="s">
-        <v>3461</v>
+        <v>3466</v>
       </c>
       <c r="C1093" t="s">
         <v>3435</v>
@@ -58205,15 +58320,15 @@
         <v>1492</v>
       </c>
       <c r="M1093" t="s">
-        <v>4470</v>
+        <v>4475</v>
       </c>
     </row>
     <row r="1094" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1094">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="B1094" t="s">
-        <v>3462</v>
+        <v>3467</v>
       </c>
       <c r="C1094" t="s">
         <v>3435</v>
@@ -58221,146 +58336,131 @@
       <c r="D1094" t="s">
         <v>3436</v>
       </c>
+      <c r="E1094" t="s">
+        <v>967</v>
+      </c>
+      <c r="H1094" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1094" t="s">
+        <v>551</v>
+      </c>
+      <c r="J1094" t="s">
+        <v>166</v>
+      </c>
+      <c r="K1094" t="s">
+        <v>1492</v>
+      </c>
       <c r="M1094" t="s">
-        <v>4471</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="1095" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1095">
-        <v>1343</v>
+        <v>1348</v>
       </c>
       <c r="B1095" t="s">
-        <v>3463</v>
+        <v>3484</v>
       </c>
       <c r="C1095" t="s">
-        <v>3435</v>
+        <v>3485</v>
       </c>
       <c r="D1095" t="s">
-        <v>3436</v>
+        <v>3486</v>
+      </c>
+      <c r="H1095" t="s">
+        <v>406</v>
       </c>
       <c r="M1095" t="s">
-        <v>4472</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="1096" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1096">
-        <v>1344</v>
+        <v>1349</v>
       </c>
       <c r="B1096" t="s">
-        <v>3464</v>
+        <v>3488</v>
       </c>
       <c r="C1096" t="s">
-        <v>3435</v>
+        <v>3485</v>
       </c>
       <c r="D1096" t="s">
-        <v>3436</v>
+        <v>3486</v>
+      </c>
+      <c r="H1096" t="s">
+        <v>406</v>
       </c>
       <c r="M1096" t="s">
-        <v>4473</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="1097" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1097">
-        <v>1345</v>
+        <v>1350</v>
       </c>
       <c r="B1097" t="s">
-        <v>3465</v>
+        <v>3490</v>
       </c>
       <c r="C1097" t="s">
-        <v>3435</v>
+        <v>3485</v>
       </c>
       <c r="D1097" t="s">
-        <v>3436</v>
-      </c>
-      <c r="E1097" t="s">
-        <v>967</v>
+        <v>3486</v>
       </c>
       <c r="H1097" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1097" t="s">
-        <v>551</v>
-      </c>
-      <c r="J1097" t="s">
-        <v>166</v>
-      </c>
-      <c r="K1097" t="s">
-        <v>1492</v>
+        <v>406</v>
       </c>
       <c r="M1097" t="s">
-        <v>4474</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="1098" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1098">
-        <v>1346</v>
+        <v>1351</v>
       </c>
       <c r="B1098" t="s">
-        <v>3466</v>
+        <v>3492</v>
       </c>
       <c r="C1098" t="s">
-        <v>3435</v>
+        <v>3485</v>
       </c>
       <c r="D1098" t="s">
-        <v>3436</v>
-      </c>
-      <c r="E1098" t="s">
-        <v>967</v>
+        <v>3486</v>
       </c>
       <c r="H1098" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1098" t="s">
-        <v>551</v>
-      </c>
-      <c r="J1098" t="s">
-        <v>166</v>
-      </c>
-      <c r="K1098" t="s">
-        <v>1492</v>
+        <v>406</v>
       </c>
       <c r="M1098" t="s">
-        <v>4475</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="1099" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1099">
-        <v>1347</v>
+        <v>1352</v>
       </c>
       <c r="B1099" t="s">
-        <v>3467</v>
+        <v>3494</v>
       </c>
       <c r="C1099" t="s">
-        <v>3435</v>
+        <v>3485</v>
       </c>
       <c r="D1099" t="s">
-        <v>3436</v>
-      </c>
-      <c r="E1099" t="s">
-        <v>967</v>
+        <v>3486</v>
       </c>
       <c r="H1099" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1099" t="s">
-        <v>551</v>
-      </c>
-      <c r="J1099" t="s">
-        <v>166</v>
-      </c>
-      <c r="K1099" t="s">
-        <v>1492</v>
+        <v>406</v>
       </c>
       <c r="M1099" t="s">
-        <v>4476</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="1100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1100">
-        <v>1348</v>
+        <v>1353</v>
       </c>
       <c r="B1100" t="s">
-        <v>3484</v>
+        <v>3496</v>
       </c>
       <c r="C1100" t="s">
         <v>3485</v>
@@ -58372,15 +58472,15 @@
         <v>406</v>
       </c>
       <c r="M1100" t="s">
-        <v>3487</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="1101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1101">
-        <v>1349</v>
+        <v>1354</v>
       </c>
       <c r="B1101" t="s">
-        <v>3488</v>
+        <v>3498</v>
       </c>
       <c r="C1101" t="s">
         <v>3485</v>
@@ -58392,15 +58492,15 @@
         <v>406</v>
       </c>
       <c r="M1101" t="s">
-        <v>3489</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="1102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1102">
-        <v>1350</v>
+        <v>1355</v>
       </c>
       <c r="B1102" t="s">
-        <v>3490</v>
+        <v>3500</v>
       </c>
       <c r="C1102" t="s">
         <v>3485</v>
@@ -58412,15 +58512,15 @@
         <v>406</v>
       </c>
       <c r="M1102" t="s">
-        <v>3491</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="1103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1103">
-        <v>1351</v>
+        <v>1356</v>
       </c>
       <c r="B1103" t="s">
-        <v>3492</v>
+        <v>3502</v>
       </c>
       <c r="C1103" t="s">
         <v>3485</v>
@@ -58432,15 +58532,15 @@
         <v>406</v>
       </c>
       <c r="M1103" t="s">
-        <v>3493</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="1104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1104">
-        <v>1352</v>
+        <v>1357</v>
       </c>
       <c r="B1104" t="s">
-        <v>3494</v>
+        <v>3504</v>
       </c>
       <c r="C1104" t="s">
         <v>3485</v>
@@ -58452,15 +58552,15 @@
         <v>406</v>
       </c>
       <c r="M1104" t="s">
-        <v>3495</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="1105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1105">
-        <v>1353</v>
+        <v>1358</v>
       </c>
       <c r="B1105" t="s">
-        <v>3496</v>
+        <v>3506</v>
       </c>
       <c r="C1105" t="s">
         <v>3485</v>
@@ -58472,15 +58572,15 @@
         <v>406</v>
       </c>
       <c r="M1105" t="s">
-        <v>3497</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="1106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1106">
-        <v>1354</v>
+        <v>1359</v>
       </c>
       <c r="B1106" t="s">
-        <v>3498</v>
+        <v>3508</v>
       </c>
       <c r="C1106" t="s">
         <v>3485</v>
@@ -58492,15 +58592,15 @@
         <v>406</v>
       </c>
       <c r="M1106" t="s">
-        <v>3499</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="1107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1107">
-        <v>1355</v>
+        <v>1360</v>
       </c>
       <c r="B1107" t="s">
-        <v>3500</v>
+        <v>3510</v>
       </c>
       <c r="C1107" t="s">
         <v>3485</v>
@@ -58512,15 +58612,15 @@
         <v>406</v>
       </c>
       <c r="M1107" t="s">
-        <v>3501</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="1108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1108">
-        <v>1356</v>
+        <v>1361</v>
       </c>
       <c r="B1108" t="s">
-        <v>3502</v>
+        <v>3512</v>
       </c>
       <c r="C1108" t="s">
         <v>3485</v>
@@ -58532,15 +58632,15 @@
         <v>406</v>
       </c>
       <c r="M1108" t="s">
-        <v>3503</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="1109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1109">
-        <v>1357</v>
+        <v>1362</v>
       </c>
       <c r="B1109" t="s">
-        <v>3504</v>
+        <v>3514</v>
       </c>
       <c r="C1109" t="s">
         <v>3485</v>
@@ -58552,167 +58652,182 @@
         <v>406</v>
       </c>
       <c r="M1109" t="s">
-        <v>3505</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="1110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1110">
-        <v>1358</v>
+        <v>1363</v>
       </c>
       <c r="B1110" t="s">
-        <v>3506</v>
+        <v>3516</v>
       </c>
       <c r="C1110" t="s">
-        <v>3485</v>
-      </c>
-      <c r="D1110" t="s">
-        <v>3486</v>
+        <v>3517</v>
+      </c>
+      <c r="D1110">
+        <v>68000</v>
+      </c>
+      <c r="E1110" t="s">
+        <v>14</v>
       </c>
       <c r="H1110" t="s">
-        <v>406</v>
+        <v>172</v>
+      </c>
+      <c r="I1110" t="s">
+        <v>93</v>
       </c>
       <c r="M1110" t="s">
-        <v>3507</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="1111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1111">
-        <v>1359</v>
+        <v>1364</v>
       </c>
       <c r="B1111" t="s">
-        <v>3508</v>
+        <v>3519</v>
       </c>
       <c r="C1111" t="s">
-        <v>3485</v>
-      </c>
-      <c r="D1111" t="s">
-        <v>3486</v>
+        <v>3517</v>
+      </c>
+      <c r="D1111">
+        <v>68000</v>
+      </c>
+      <c r="E1111" t="s">
+        <v>14</v>
       </c>
       <c r="H1111" t="s">
-        <v>406</v>
+        <v>172</v>
+      </c>
+      <c r="I1111" t="s">
+        <v>93</v>
       </c>
       <c r="M1111" t="s">
-        <v>3509</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="1112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1112">
-        <v>1360</v>
+        <v>1365</v>
       </c>
       <c r="B1112" t="s">
-        <v>3510</v>
+        <v>3521</v>
       </c>
       <c r="C1112" t="s">
-        <v>3485</v>
+        <v>3522</v>
       </c>
       <c r="D1112" t="s">
-        <v>3486</v>
+        <v>14</v>
+      </c>
+      <c r="E1112" t="s">
+        <v>154</v>
       </c>
       <c r="H1112" t="s">
-        <v>406</v>
+        <v>172</v>
       </c>
       <c r="M1112" t="s">
-        <v>3511</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="1113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1113">
-        <v>1361</v>
+        <v>1366</v>
       </c>
       <c r="B1113" t="s">
-        <v>3512</v>
+        <v>3524</v>
       </c>
       <c r="C1113" t="s">
-        <v>3485</v>
+        <v>3522</v>
       </c>
       <c r="D1113" t="s">
-        <v>3486</v>
+        <v>14</v>
+      </c>
+      <c r="E1113" t="s">
+        <v>154</v>
       </c>
       <c r="H1113" t="s">
-        <v>406</v>
+        <v>172</v>
       </c>
       <c r="M1113" t="s">
-        <v>3513</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="1114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1114">
-        <v>1362</v>
+        <v>1367</v>
       </c>
       <c r="B1114" t="s">
-        <v>3514</v>
+        <v>3526</v>
       </c>
       <c r="C1114" t="s">
-        <v>3485</v>
+        <v>3522</v>
       </c>
       <c r="D1114" t="s">
-        <v>3486</v>
+        <v>14</v>
+      </c>
+      <c r="E1114" t="s">
+        <v>154</v>
       </c>
       <c r="H1114" t="s">
-        <v>406</v>
+        <v>172</v>
       </c>
       <c r="M1114" t="s">
-        <v>3515</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="1115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1115">
-        <v>1363</v>
+        <v>1368</v>
       </c>
       <c r="B1115" t="s">
-        <v>3516</v>
+        <v>3528</v>
       </c>
       <c r="C1115" t="s">
-        <v>3517</v>
-      </c>
-      <c r="D1115">
-        <v>68000</v>
+        <v>3522</v>
+      </c>
+      <c r="D1115" t="s">
+        <v>14</v>
       </c>
       <c r="E1115" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="H1115" t="s">
         <v>172</v>
       </c>
-      <c r="I1115" t="s">
-        <v>93</v>
-      </c>
       <c r="M1115" t="s">
-        <v>3518</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="1116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1116">
-        <v>1364</v>
+        <v>1369</v>
       </c>
       <c r="B1116" t="s">
-        <v>3519</v>
+        <v>3530</v>
       </c>
       <c r="C1116" t="s">
-        <v>3517</v>
-      </c>
-      <c r="D1116">
-        <v>68000</v>
+        <v>3522</v>
+      </c>
+      <c r="D1116" t="s">
+        <v>14</v>
       </c>
       <c r="E1116" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="H1116" t="s">
         <v>172</v>
       </c>
-      <c r="I1116" t="s">
-        <v>93</v>
-      </c>
       <c r="M1116" t="s">
-        <v>3520</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="1117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1117">
-        <v>1365</v>
+        <v>1370</v>
       </c>
       <c r="B1117" t="s">
-        <v>3521</v>
+        <v>3532</v>
       </c>
       <c r="C1117" t="s">
         <v>3522</v>
@@ -58727,15 +58842,15 @@
         <v>172</v>
       </c>
       <c r="M1117" t="s">
-        <v>3523</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="1118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1118">
-        <v>1366</v>
+        <v>1371</v>
       </c>
       <c r="B1118" t="s">
-        <v>3524</v>
+        <v>3534</v>
       </c>
       <c r="C1118" t="s">
         <v>3522</v>
@@ -58750,15 +58865,15 @@
         <v>172</v>
       </c>
       <c r="M1118" t="s">
-        <v>3525</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="1119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1119">
-        <v>1367</v>
+        <v>1372</v>
       </c>
       <c r="B1119" t="s">
-        <v>3526</v>
+        <v>3536</v>
       </c>
       <c r="C1119" t="s">
         <v>3522</v>
@@ -58773,15 +58888,15 @@
         <v>172</v>
       </c>
       <c r="M1119" t="s">
-        <v>3527</v>
+        <v>3537</v>
       </c>
     </row>
     <row r="1120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1120">
-        <v>1368</v>
+        <v>1373</v>
       </c>
       <c r="B1120" t="s">
-        <v>3528</v>
+        <v>3538</v>
       </c>
       <c r="C1120" t="s">
         <v>3522</v>
@@ -58796,139 +58911,163 @@
         <v>172</v>
       </c>
       <c r="M1120" t="s">
-        <v>3529</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="1121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1121">
-        <v>1369</v>
+        <v>1374</v>
       </c>
       <c r="B1121" t="s">
-        <v>3530</v>
+        <v>3571</v>
       </c>
       <c r="C1121" t="s">
-        <v>3522</v>
+        <v>3572</v>
       </c>
       <c r="D1121" t="s">
-        <v>14</v>
+        <v>1105</v>
       </c>
       <c r="E1121" t="s">
-        <v>154</v>
+        <v>1105</v>
       </c>
       <c r="H1121" t="s">
-        <v>172</v>
+        <v>349</v>
+      </c>
+      <c r="I1121" t="s">
+        <v>1492</v>
       </c>
       <c r="M1121" t="s">
-        <v>3531</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="1122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1122">
-        <v>1370</v>
+        <v>1375</v>
       </c>
       <c r="B1122" t="s">
-        <v>3532</v>
+        <v>3574</v>
       </c>
       <c r="C1122" t="s">
-        <v>3522</v>
+        <v>3572</v>
       </c>
       <c r="D1122" t="s">
-        <v>14</v>
+        <v>1105</v>
       </c>
       <c r="E1122" t="s">
-        <v>154</v>
+        <v>1105</v>
       </c>
       <c r="H1122" t="s">
-        <v>172</v>
+        <v>349</v>
+      </c>
+      <c r="I1122" t="s">
+        <v>1492</v>
       </c>
       <c r="M1122" t="s">
-        <v>3533</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="1123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1123">
-        <v>1371</v>
+        <v>1376</v>
       </c>
       <c r="B1123" t="s">
-        <v>3534</v>
+        <v>3576</v>
       </c>
       <c r="C1123" t="s">
-        <v>3522</v>
+        <v>3577</v>
       </c>
       <c r="D1123" t="s">
-        <v>14</v>
+        <v>1105</v>
       </c>
       <c r="E1123" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F1123" t="s">
         <v>154</v>
       </c>
       <c r="H1123" t="s">
-        <v>172</v>
+        <v>349</v>
+      </c>
+      <c r="I1123" t="s">
+        <v>1492</v>
       </c>
       <c r="M1123" t="s">
-        <v>3535</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="1124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1124">
-        <v>1372</v>
+        <v>1377</v>
       </c>
       <c r="B1124" t="s">
-        <v>3536</v>
+        <v>3579</v>
       </c>
       <c r="C1124" t="s">
-        <v>3522</v>
+        <v>3577</v>
       </c>
       <c r="D1124" t="s">
-        <v>14</v>
+        <v>1105</v>
       </c>
       <c r="E1124" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F1124" t="s">
         <v>154</v>
       </c>
       <c r="H1124" t="s">
-        <v>172</v>
+        <v>349</v>
+      </c>
+      <c r="I1124" t="s">
+        <v>1492</v>
       </c>
       <c r="M1124" t="s">
-        <v>3537</v>
+        <v>4482</v>
       </c>
     </row>
     <row r="1125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1125">
-        <v>1373</v>
+        <v>1378</v>
       </c>
       <c r="B1125" t="s">
-        <v>3538</v>
+        <v>3580</v>
       </c>
       <c r="C1125" t="s">
-        <v>3522</v>
+        <v>3577</v>
       </c>
       <c r="D1125" t="s">
-        <v>14</v>
+        <v>1105</v>
       </c>
       <c r="E1125" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F1125" t="s">
         <v>154</v>
       </c>
       <c r="H1125" t="s">
-        <v>172</v>
+        <v>349</v>
+      </c>
+      <c r="I1125" t="s">
+        <v>1492</v>
       </c>
       <c r="M1125" t="s">
-        <v>3539</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="1126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1126">
-        <v>1374</v>
+        <v>1379</v>
       </c>
       <c r="B1126" t="s">
-        <v>3571</v>
+        <v>3582</v>
       </c>
       <c r="C1126" t="s">
-        <v>3572</v>
-      </c>
-      <c r="D1126" t="s">
-        <v>1105</v>
+        <v>3583</v>
+      </c>
+      <c r="D1126">
+        <v>68000</v>
       </c>
       <c r="E1126" t="s">
-        <v>1105</v>
+        <v>154</v>
       </c>
       <c r="H1126" t="s">
         <v>349</v>
@@ -58937,131 +59076,110 @@
         <v>1492</v>
       </c>
       <c r="M1126" t="s">
-        <v>3573</v>
+        <v>3584</v>
       </c>
     </row>
     <row r="1127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1127">
-        <v>1375</v>
+        <v>1380</v>
       </c>
       <c r="B1127" t="s">
-        <v>3574</v>
+        <v>3585</v>
       </c>
       <c r="C1127" t="s">
-        <v>3572</v>
-      </c>
-      <c r="D1127" t="s">
-        <v>1105</v>
+        <v>3586</v>
+      </c>
+      <c r="D1127">
+        <v>68000</v>
       </c>
       <c r="E1127" t="s">
-        <v>1105</v>
-      </c>
-      <c r="H1127" t="s">
-        <v>349</v>
-      </c>
-      <c r="I1127" t="s">
-        <v>1492</v>
+        <v>154</v>
       </c>
       <c r="M1127" t="s">
-        <v>3575</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="1128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1128">
-        <v>1376</v>
+        <v>1381</v>
       </c>
       <c r="B1128" t="s">
-        <v>3576</v>
+        <v>3588</v>
       </c>
       <c r="C1128" t="s">
-        <v>3577</v>
-      </c>
-      <c r="D1128" t="s">
-        <v>1105</v>
+        <v>3586</v>
+      </c>
+      <c r="D1128">
+        <v>68000</v>
       </c>
       <c r="E1128" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F1128" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1128" t="s">
-        <v>349</v>
-      </c>
-      <c r="I1128" t="s">
-        <v>1492</v>
+        <v>154</v>
       </c>
       <c r="M1128" t="s">
-        <v>3578</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="1129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1129">
-        <v>1377</v>
+        <v>1382</v>
       </c>
       <c r="B1129" t="s">
-        <v>3579</v>
+        <v>3590</v>
       </c>
       <c r="C1129" t="s">
-        <v>3577</v>
-      </c>
-      <c r="D1129" t="s">
-        <v>1105</v>
+        <v>3586</v>
+      </c>
+      <c r="D1129">
+        <v>68000</v>
       </c>
       <c r="E1129" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F1129" t="s">
         <v>154</v>
       </c>
       <c r="H1129" t="s">
-        <v>349</v>
+        <v>551</v>
       </c>
       <c r="I1129" t="s">
-        <v>1492</v>
+        <v>3358</v>
       </c>
       <c r="M1129" t="s">
-        <v>4482</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="1130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1130">
-        <v>1378</v>
+        <v>1383</v>
       </c>
       <c r="B1130" t="s">
-        <v>3580</v>
+        <v>3592</v>
       </c>
       <c r="C1130" t="s">
-        <v>3577</v>
-      </c>
-      <c r="D1130" t="s">
-        <v>1105</v>
+        <v>3593</v>
+      </c>
+      <c r="D1130">
+        <v>68000</v>
       </c>
       <c r="E1130" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F1130" t="s">
         <v>154</v>
       </c>
       <c r="H1130" t="s">
         <v>349</v>
       </c>
       <c r="I1130" t="s">
-        <v>1492</v>
+        <v>1275</v>
       </c>
       <c r="M1130" t="s">
-        <v>3581</v>
+        <v>3594</v>
       </c>
     </row>
     <row r="1131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1131">
-        <v>1379</v>
+        <v>1384</v>
       </c>
       <c r="B1131" t="s">
-        <v>3582</v>
+        <v>3595</v>
       </c>
       <c r="C1131" t="s">
-        <v>3583</v>
+        <v>3593</v>
       </c>
       <c r="D1131">
         <v>68000</v>
@@ -59073,21 +59191,21 @@
         <v>349</v>
       </c>
       <c r="I1131" t="s">
-        <v>1492</v>
+        <v>1275</v>
       </c>
       <c r="M1131" t="s">
-        <v>3584</v>
+        <v>3596</v>
       </c>
     </row>
     <row r="1132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1132">
-        <v>1380</v>
+        <v>1385</v>
       </c>
       <c r="B1132" t="s">
-        <v>3585</v>
+        <v>3597</v>
       </c>
       <c r="C1132" t="s">
-        <v>3586</v>
+        <v>3593</v>
       </c>
       <c r="D1132">
         <v>68000</v>
@@ -59095,19 +59213,25 @@
       <c r="E1132" t="s">
         <v>154</v>
       </c>
+      <c r="H1132" t="s">
+        <v>349</v>
+      </c>
+      <c r="I1132" t="s">
+        <v>1275</v>
+      </c>
       <c r="M1132" t="s">
-        <v>3587</v>
+        <v>3598</v>
       </c>
     </row>
     <row r="1133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1133">
-        <v>1381</v>
+        <v>1386</v>
       </c>
       <c r="B1133" t="s">
-        <v>3588</v>
+        <v>3599</v>
       </c>
       <c r="C1133" t="s">
-        <v>3586</v>
+        <v>3593</v>
       </c>
       <c r="D1133">
         <v>68000</v>
@@ -59115,19 +59239,25 @@
       <c r="E1133" t="s">
         <v>154</v>
       </c>
+      <c r="H1133" t="s">
+        <v>349</v>
+      </c>
+      <c r="I1133" t="s">
+        <v>1275</v>
+      </c>
       <c r="M1133" t="s">
-        <v>3589</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="1134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1134">
-        <v>1382</v>
+        <v>1387</v>
       </c>
       <c r="B1134" t="s">
-        <v>3590</v>
+        <v>3601</v>
       </c>
       <c r="C1134" t="s">
-        <v>3586</v>
+        <v>3593</v>
       </c>
       <c r="D1134">
         <v>68000</v>
@@ -59136,24 +59266,24 @@
         <v>154</v>
       </c>
       <c r="H1134" t="s">
-        <v>551</v>
+        <v>349</v>
       </c>
       <c r="I1134" t="s">
-        <v>3358</v>
+        <v>1275</v>
       </c>
       <c r="M1134" t="s">
-        <v>3591</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="1135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1135">
-        <v>1383</v>
+        <v>1388</v>
       </c>
       <c r="B1135" t="s">
-        <v>3592</v>
+        <v>3603</v>
       </c>
       <c r="C1135" t="s">
-        <v>3593</v>
+        <v>3604</v>
       </c>
       <c r="D1135">
         <v>68000</v>
@@ -59165,21 +59295,21 @@
         <v>349</v>
       </c>
       <c r="I1135" t="s">
-        <v>1275</v>
+        <v>1492</v>
       </c>
       <c r="M1135" t="s">
-        <v>3594</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1136">
-        <v>1384</v>
+        <v>1389</v>
       </c>
       <c r="B1136" t="s">
-        <v>3595</v>
+        <v>3606</v>
       </c>
       <c r="C1136" t="s">
-        <v>3593</v>
+        <v>3604</v>
       </c>
       <c r="D1136">
         <v>68000</v>
@@ -59191,317 +59321,317 @@
         <v>349</v>
       </c>
       <c r="I1136" t="s">
-        <v>1275</v>
+        <v>1492</v>
       </c>
       <c r="M1136" t="s">
-        <v>3596</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="1137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1137">
-        <v>1385</v>
+        <v>1390</v>
       </c>
       <c r="B1137" t="s">
-        <v>3597</v>
+        <v>3608</v>
       </c>
       <c r="C1137" t="s">
-        <v>3593</v>
-      </c>
-      <c r="D1137">
-        <v>68000</v>
-      </c>
-      <c r="E1137" t="s">
-        <v>154</v>
+        <v>3609</v>
+      </c>
+      <c r="D1137" t="s">
+        <v>14</v>
       </c>
       <c r="H1137" t="s">
-        <v>349</v>
-      </c>
-      <c r="I1137" t="s">
-        <v>1275</v>
+        <v>172</v>
       </c>
       <c r="M1137" t="s">
-        <v>3598</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="1138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1138">
-        <v>1386</v>
+        <v>1391</v>
       </c>
       <c r="B1138" t="s">
-        <v>3599</v>
+        <v>3611</v>
       </c>
       <c r="C1138" t="s">
-        <v>3593</v>
-      </c>
-      <c r="D1138">
-        <v>68000</v>
-      </c>
-      <c r="E1138" t="s">
-        <v>154</v>
+        <v>3609</v>
+      </c>
+      <c r="D1138" t="s">
+        <v>14</v>
       </c>
       <c r="H1138" t="s">
-        <v>349</v>
-      </c>
-      <c r="I1138" t="s">
-        <v>1275</v>
+        <v>172</v>
       </c>
       <c r="M1138" t="s">
-        <v>3600</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="1139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1139">
-        <v>1387</v>
+        <v>1392</v>
       </c>
       <c r="B1139" t="s">
-        <v>3601</v>
+        <v>3613</v>
       </c>
       <c r="C1139" t="s">
-        <v>3593</v>
-      </c>
-      <c r="D1139">
-        <v>68000</v>
-      </c>
-      <c r="E1139" t="s">
-        <v>154</v>
+        <v>3609</v>
+      </c>
+      <c r="D1139" t="s">
+        <v>14</v>
       </c>
       <c r="H1139" t="s">
-        <v>349</v>
-      </c>
-      <c r="I1139" t="s">
-        <v>1275</v>
+        <v>172</v>
       </c>
       <c r="M1139" t="s">
-        <v>3602</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="1140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1140">
-        <v>1388</v>
+        <v>1398</v>
       </c>
       <c r="B1140" t="s">
-        <v>3603</v>
+        <v>3627</v>
       </c>
       <c r="C1140" t="s">
-        <v>3604</v>
-      </c>
-      <c r="D1140">
-        <v>68000</v>
+        <v>3628</v>
+      </c>
+      <c r="D1140" t="s">
+        <v>405</v>
       </c>
       <c r="E1140" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="H1140" t="s">
-        <v>349</v>
-      </c>
-      <c r="I1140" t="s">
-        <v>1492</v>
+        <v>172</v>
       </c>
       <c r="M1140" t="s">
-        <v>3605</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="1141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1141">
-        <v>1389</v>
+        <v>1399</v>
       </c>
       <c r="B1141" t="s">
-        <v>3606</v>
+        <v>3630</v>
       </c>
       <c r="C1141" t="s">
-        <v>3604</v>
-      </c>
-      <c r="D1141">
-        <v>68000</v>
+        <v>3628</v>
+      </c>
+      <c r="D1141" t="s">
+        <v>405</v>
       </c>
       <c r="E1141" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="H1141" t="s">
-        <v>349</v>
-      </c>
-      <c r="I1141" t="s">
-        <v>1492</v>
+        <v>172</v>
       </c>
       <c r="M1141" t="s">
-        <v>3607</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="1142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1142">
-        <v>1390</v>
+        <v>1400</v>
       </c>
       <c r="B1142" t="s">
-        <v>3608</v>
+        <v>3632</v>
       </c>
       <c r="C1142" t="s">
-        <v>3609</v>
+        <v>3633</v>
       </c>
       <c r="D1142" t="s">
         <v>14</v>
       </c>
+      <c r="E1142" t="s">
+        <v>154</v>
+      </c>
       <c r="H1142" t="s">
-        <v>172</v>
+        <v>1279</v>
       </c>
       <c r="M1142" t="s">
-        <v>3610</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="1143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1143">
-        <v>1391</v>
+        <v>1401</v>
       </c>
       <c r="B1143" t="s">
-        <v>3611</v>
+        <v>3635</v>
       </c>
       <c r="C1143" t="s">
-        <v>3609</v>
-      </c>
-      <c r="D1143" t="s">
-        <v>14</v>
+        <v>3636</v>
+      </c>
+      <c r="D1143">
+        <v>68000</v>
+      </c>
+      <c r="E1143" t="s">
+        <v>967</v>
       </c>
       <c r="H1143" t="s">
-        <v>172</v>
+        <v>71</v>
+      </c>
+      <c r="I1143" t="s">
+        <v>3268</v>
       </c>
       <c r="M1143" t="s">
-        <v>3612</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="1144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1144">
-        <v>1392</v>
+        <v>1402</v>
       </c>
       <c r="B1144" t="s">
-        <v>3613</v>
+        <v>3638</v>
       </c>
       <c r="C1144" t="s">
-        <v>3609</v>
-      </c>
-      <c r="D1144" t="s">
-        <v>14</v>
+        <v>3639</v>
+      </c>
+      <c r="D1144">
+        <v>68000</v>
+      </c>
+      <c r="E1144">
+        <v>68000</v>
+      </c>
+      <c r="F1144">
+        <v>68000</v>
+      </c>
+      <c r="G1144" t="s">
+        <v>973</v>
       </c>
       <c r="H1144" t="s">
-        <v>172</v>
+        <v>551</v>
+      </c>
+      <c r="I1144" t="s">
+        <v>2375</v>
       </c>
       <c r="M1144" t="s">
-        <v>3614</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="1145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1145">
-        <v>1398</v>
+        <v>1403</v>
       </c>
       <c r="B1145" t="s">
-        <v>3627</v>
+        <v>3641</v>
       </c>
       <c r="C1145" t="s">
-        <v>3628</v>
-      </c>
-      <c r="D1145" t="s">
-        <v>405</v>
-      </c>
-      <c r="E1145" t="s">
-        <v>14</v>
+        <v>3639</v>
+      </c>
+      <c r="D1145">
+        <v>68000</v>
+      </c>
+      <c r="E1145">
+        <v>68000</v>
+      </c>
+      <c r="F1145">
+        <v>68000</v>
+      </c>
+      <c r="G1145" t="s">
+        <v>973</v>
       </c>
       <c r="H1145" t="s">
-        <v>172</v>
+        <v>551</v>
+      </c>
+      <c r="I1145" t="s">
+        <v>2375</v>
       </c>
       <c r="M1145" t="s">
-        <v>3629</v>
+        <v>3642</v>
       </c>
     </row>
     <row r="1146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1146">
-        <v>1399</v>
+        <v>1404</v>
       </c>
       <c r="B1146" t="s">
-        <v>3630</v>
+        <v>3643</v>
       </c>
       <c r="C1146" t="s">
-        <v>3628</v>
-      </c>
-      <c r="D1146" t="s">
-        <v>405</v>
+        <v>3644</v>
+      </c>
+      <c r="D1146">
+        <v>68000</v>
       </c>
       <c r="E1146" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="H1146" t="s">
-        <v>172</v>
+        <v>336</v>
       </c>
       <c r="M1146" t="s">
-        <v>3631</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="1147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1147">
-        <v>1400</v>
+        <v>1405</v>
       </c>
       <c r="B1147" t="s">
-        <v>3632</v>
+        <v>3646</v>
       </c>
       <c r="C1147" t="s">
-        <v>3633</v>
-      </c>
-      <c r="D1147" t="s">
-        <v>14</v>
+        <v>3644</v>
+      </c>
+      <c r="D1147">
+        <v>68000</v>
       </c>
       <c r="E1147" t="s">
         <v>154</v>
       </c>
       <c r="H1147" t="s">
-        <v>1279</v>
+        <v>336</v>
       </c>
       <c r="M1147" t="s">
-        <v>3634</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="1148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1148">
-        <v>1401</v>
+        <v>1406</v>
       </c>
       <c r="B1148" t="s">
-        <v>3635</v>
+        <v>3648</v>
       </c>
       <c r="C1148" t="s">
-        <v>3636</v>
+        <v>3644</v>
       </c>
       <c r="D1148">
         <v>68000</v>
       </c>
       <c r="E1148" t="s">
-        <v>967</v>
+        <v>973</v>
       </c>
       <c r="H1148" t="s">
-        <v>71</v>
+        <v>551</v>
       </c>
       <c r="I1148" t="s">
-        <v>3268</v>
+        <v>2375</v>
       </c>
       <c r="M1148" t="s">
-        <v>3637</v>
+        <v>4483</v>
       </c>
     </row>
     <row r="1149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1149">
-        <v>1402</v>
+        <v>1407</v>
       </c>
       <c r="B1149" t="s">
-        <v>3638</v>
+        <v>3649</v>
       </c>
       <c r="C1149" t="s">
-        <v>3639</v>
+        <v>3644</v>
       </c>
       <c r="D1149">
         <v>68000</v>
       </c>
-      <c r="E1149">
-        <v>68000</v>
-      </c>
-      <c r="F1149">
-        <v>68000</v>
-      </c>
-      <c r="G1149" t="s">
+      <c r="E1149" t="s">
         <v>973</v>
       </c>
       <c r="H1149" t="s">
@@ -59511,29 +59641,23 @@
         <v>2375</v>
       </c>
       <c r="M1149" t="s">
-        <v>3640</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="1150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1150">
-        <v>1403</v>
+        <v>1408</v>
       </c>
       <c r="B1150" t="s">
-        <v>3641</v>
+        <v>3650</v>
       </c>
       <c r="C1150" t="s">
-        <v>3639</v>
+        <v>3644</v>
       </c>
       <c r="D1150">
         <v>68000</v>
       </c>
-      <c r="E1150">
-        <v>68000</v>
-      </c>
-      <c r="F1150">
-        <v>68000</v>
-      </c>
-      <c r="G1150" t="s">
+      <c r="E1150" t="s">
         <v>973</v>
       </c>
       <c r="H1150" t="s">
@@ -59543,15 +59667,15 @@
         <v>2375</v>
       </c>
       <c r="M1150" t="s">
-        <v>3642</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1151">
-        <v>1404</v>
+        <v>1409</v>
       </c>
       <c r="B1151" t="s">
-        <v>3643</v>
+        <v>3652</v>
       </c>
       <c r="C1151" t="s">
         <v>3644</v>
@@ -59560,21 +59684,24 @@
         <v>68000</v>
       </c>
       <c r="E1151" t="s">
-        <v>154</v>
+        <v>973</v>
       </c>
       <c r="H1151" t="s">
-        <v>336</v>
+        <v>551</v>
+      </c>
+      <c r="I1151" t="s">
+        <v>2375</v>
       </c>
       <c r="M1151" t="s">
-        <v>3645</v>
+        <v>3653</v>
       </c>
     </row>
     <row r="1152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1152">
-        <v>1405</v>
+        <v>1410</v>
       </c>
       <c r="B1152" t="s">
-        <v>3646</v>
+        <v>3654</v>
       </c>
       <c r="C1152" t="s">
         <v>3644</v>
@@ -59583,21 +59710,24 @@
         <v>68000</v>
       </c>
       <c r="E1152" t="s">
-        <v>154</v>
+        <v>973</v>
       </c>
       <c r="H1152" t="s">
-        <v>336</v>
+        <v>551</v>
+      </c>
+      <c r="I1152" t="s">
+        <v>2375</v>
       </c>
       <c r="M1152" t="s">
-        <v>3647</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="1153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1153">
-        <v>1406</v>
+        <v>1411</v>
       </c>
       <c r="B1153" t="s">
-        <v>3648</v>
+        <v>3656</v>
       </c>
       <c r="C1153" t="s">
         <v>3644</v>
@@ -59615,15 +59745,15 @@
         <v>2375</v>
       </c>
       <c r="M1153" t="s">
-        <v>4483</v>
+        <v>3657</v>
       </c>
     </row>
     <row r="1154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1154">
-        <v>1407</v>
+        <v>1412</v>
       </c>
       <c r="B1154" t="s">
-        <v>3649</v>
+        <v>3658</v>
       </c>
       <c r="C1154" t="s">
         <v>3644</v>
@@ -59641,15 +59771,15 @@
         <v>2375</v>
       </c>
       <c r="M1154" t="s">
-        <v>4484</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="1155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1155">
-        <v>1408</v>
+        <v>1413</v>
       </c>
       <c r="B1155" t="s">
-        <v>3650</v>
+        <v>3660</v>
       </c>
       <c r="C1155" t="s">
         <v>3644</v>
@@ -59667,15 +59797,15 @@
         <v>2375</v>
       </c>
       <c r="M1155" t="s">
-        <v>3651</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="1156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1156">
-        <v>1409</v>
+        <v>1414</v>
       </c>
       <c r="B1156" t="s">
-        <v>3652</v>
+        <v>3662</v>
       </c>
       <c r="C1156" t="s">
         <v>3644</v>
@@ -59693,15 +59823,15 @@
         <v>2375</v>
       </c>
       <c r="M1156" t="s">
-        <v>3653</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="1157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1157">
-        <v>1410</v>
+        <v>1415</v>
       </c>
       <c r="B1157" t="s">
-        <v>3654</v>
+        <v>3664</v>
       </c>
       <c r="C1157" t="s">
         <v>3644</v>
@@ -59719,15 +59849,15 @@
         <v>2375</v>
       </c>
       <c r="M1157" t="s">
-        <v>3655</v>
+        <v>3665</v>
       </c>
     </row>
     <row r="1158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1158">
-        <v>1411</v>
+        <v>1416</v>
       </c>
       <c r="B1158" t="s">
-        <v>3656</v>
+        <v>3666</v>
       </c>
       <c r="C1158" t="s">
         <v>3644</v>
@@ -59745,15 +59875,15 @@
         <v>2375</v>
       </c>
       <c r="M1158" t="s">
-        <v>3657</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="1159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1159">
-        <v>1412</v>
+        <v>1417</v>
       </c>
       <c r="B1159" t="s">
-        <v>3658</v>
+        <v>3668</v>
       </c>
       <c r="C1159" t="s">
         <v>3644</v>
@@ -59771,15 +59901,15 @@
         <v>2375</v>
       </c>
       <c r="M1159" t="s">
-        <v>3659</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="1160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1160">
-        <v>1413</v>
+        <v>1418</v>
       </c>
       <c r="B1160" t="s">
-        <v>3660</v>
+        <v>3670</v>
       </c>
       <c r="C1160" t="s">
         <v>3644</v>
@@ -59797,15 +59927,15 @@
         <v>2375</v>
       </c>
       <c r="M1160" t="s">
-        <v>3661</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="1161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1161">
-        <v>1414</v>
+        <v>1419</v>
       </c>
       <c r="B1161" t="s">
-        <v>3662</v>
+        <v>3671</v>
       </c>
       <c r="C1161" t="s">
         <v>3644</v>
@@ -59823,15 +59953,15 @@
         <v>2375</v>
       </c>
       <c r="M1161" t="s">
-        <v>3663</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="1162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1162">
-        <v>1415</v>
+        <v>1420</v>
       </c>
       <c r="B1162" t="s">
-        <v>3664</v>
+        <v>3672</v>
       </c>
       <c r="C1162" t="s">
         <v>3644</v>
@@ -59849,15 +59979,15 @@
         <v>2375</v>
       </c>
       <c r="M1162" t="s">
-        <v>3665</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="1163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1163">
-        <v>1416</v>
+        <v>1421</v>
       </c>
       <c r="B1163" t="s">
-        <v>3666</v>
+        <v>3674</v>
       </c>
       <c r="C1163" t="s">
         <v>3644</v>
@@ -59875,15 +60005,15 @@
         <v>2375</v>
       </c>
       <c r="M1163" t="s">
-        <v>3667</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="1164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1164">
-        <v>1417</v>
+        <v>1422</v>
       </c>
       <c r="B1164" t="s">
-        <v>3668</v>
+        <v>3676</v>
       </c>
       <c r="C1164" t="s">
         <v>3644</v>
@@ -59901,15 +60031,15 @@
         <v>2375</v>
       </c>
       <c r="M1164" t="s">
-        <v>3669</v>
+        <v>3677</v>
       </c>
     </row>
     <row r="1165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1165">
-        <v>1418</v>
+        <v>1423</v>
       </c>
       <c r="B1165" t="s">
-        <v>3670</v>
+        <v>3678</v>
       </c>
       <c r="C1165" t="s">
         <v>3644</v>
@@ -59927,15 +60057,15 @@
         <v>2375</v>
       </c>
       <c r="M1165" t="s">
-        <v>4485</v>
+        <v>3679</v>
       </c>
     </row>
     <row r="1166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1166">
-        <v>1419</v>
+        <v>1424</v>
       </c>
       <c r="B1166" t="s">
-        <v>3671</v>
+        <v>3680</v>
       </c>
       <c r="C1166" t="s">
         <v>3644</v>
@@ -59953,15 +60083,15 @@
         <v>2375</v>
       </c>
       <c r="M1166" t="s">
-        <v>4486</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="1167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1167">
-        <v>1420</v>
+        <v>1425</v>
       </c>
       <c r="B1167" t="s">
-        <v>3672</v>
+        <v>3682</v>
       </c>
       <c r="C1167" t="s">
         <v>3644</v>
@@ -59979,15 +60109,15 @@
         <v>2375</v>
       </c>
       <c r="M1167" t="s">
-        <v>3673</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="1168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1168">
-        <v>1421</v>
+        <v>1426</v>
       </c>
       <c r="B1168" t="s">
-        <v>3674</v>
+        <v>3684</v>
       </c>
       <c r="C1168" t="s">
         <v>3644</v>
@@ -59995,25 +60125,19 @@
       <c r="D1168">
         <v>68000</v>
       </c>
-      <c r="E1168" t="s">
-        <v>973</v>
-      </c>
       <c r="H1168" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1168" t="s">
-        <v>2375</v>
+        <v>1492</v>
       </c>
       <c r="M1168" t="s">
-        <v>3675</v>
+        <v>3685</v>
       </c>
     </row>
     <row r="1169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1169">
-        <v>1422</v>
+        <v>1427</v>
       </c>
       <c r="B1169" t="s">
-        <v>3676</v>
+        <v>3686</v>
       </c>
       <c r="C1169" t="s">
         <v>3644</v>
@@ -60031,139 +60155,130 @@
         <v>2375</v>
       </c>
       <c r="M1169" t="s">
-        <v>3677</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="1170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1170">
-        <v>1423</v>
+        <v>1428</v>
       </c>
       <c r="B1170" t="s">
-        <v>3678</v>
+        <v>3688</v>
       </c>
       <c r="C1170" t="s">
-        <v>3644</v>
+        <v>3689</v>
       </c>
       <c r="D1170">
         <v>68000</v>
       </c>
       <c r="E1170" t="s">
-        <v>973</v>
+        <v>154</v>
       </c>
       <c r="H1170" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1170" t="s">
-        <v>2375</v>
+        <v>1353</v>
       </c>
       <c r="M1170" t="s">
-        <v>3679</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="1171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1171">
-        <v>1424</v>
+        <v>1429</v>
       </c>
       <c r="B1171" t="s">
-        <v>3680</v>
+        <v>3691</v>
       </c>
       <c r="C1171" t="s">
-        <v>3644</v>
+        <v>3689</v>
       </c>
       <c r="D1171">
         <v>68000</v>
       </c>
       <c r="E1171" t="s">
-        <v>973</v>
+        <v>154</v>
       </c>
       <c r="H1171" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1171" t="s">
-        <v>2375</v>
+        <v>1353</v>
       </c>
       <c r="M1171" t="s">
-        <v>3681</v>
+        <v>3692</v>
       </c>
     </row>
     <row r="1172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1172">
-        <v>1425</v>
+        <v>1430</v>
       </c>
       <c r="B1172" t="s">
-        <v>3682</v>
+        <v>3693</v>
       </c>
       <c r="C1172" t="s">
-        <v>3644</v>
+        <v>3689</v>
       </c>
       <c r="D1172">
         <v>68000</v>
       </c>
       <c r="E1172" t="s">
-        <v>973</v>
+        <v>154</v>
       </c>
       <c r="H1172" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1172" t="s">
-        <v>2375</v>
+        <v>1353</v>
       </c>
       <c r="M1172" t="s">
-        <v>3683</v>
+        <v>3694</v>
       </c>
     </row>
     <row r="1173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1173">
-        <v>1426</v>
+        <v>1431</v>
       </c>
       <c r="B1173" t="s">
-        <v>3684</v>
+        <v>3695</v>
       </c>
       <c r="C1173" t="s">
-        <v>3644</v>
+        <v>3689</v>
       </c>
       <c r="D1173">
         <v>68000</v>
       </c>
+      <c r="E1173" t="s">
+        <v>154</v>
+      </c>
       <c r="H1173" t="s">
-        <v>1492</v>
+        <v>1353</v>
       </c>
       <c r="M1173" t="s">
-        <v>3685</v>
+        <v>3696</v>
       </c>
     </row>
     <row r="1174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1174">
-        <v>1427</v>
+        <v>1432</v>
       </c>
       <c r="B1174" t="s">
-        <v>3686</v>
+        <v>3697</v>
       </c>
       <c r="C1174" t="s">
-        <v>3644</v>
+        <v>3689</v>
       </c>
       <c r="D1174">
         <v>68000</v>
       </c>
       <c r="E1174" t="s">
-        <v>973</v>
+        <v>154</v>
       </c>
       <c r="H1174" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1174" t="s">
-        <v>2375</v>
+        <v>1353</v>
       </c>
       <c r="M1174" t="s">
-        <v>3687</v>
+        <v>4487</v>
       </c>
     </row>
     <row r="1175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1175">
-        <v>1428</v>
+        <v>1433</v>
       </c>
       <c r="B1175" t="s">
-        <v>3688</v>
+        <v>3698</v>
       </c>
       <c r="C1175" t="s">
         <v>3689</v>
@@ -60178,694 +60293,685 @@
         <v>1353</v>
       </c>
       <c r="M1175" t="s">
-        <v>3690</v>
+        <v>4488</v>
       </c>
     </row>
     <row r="1176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1176">
-        <v>1429</v>
+        <v>1434</v>
       </c>
       <c r="B1176" t="s">
-        <v>3691</v>
+        <v>3735</v>
       </c>
       <c r="C1176" t="s">
-        <v>3689</v>
-      </c>
-      <c r="D1176">
-        <v>68000</v>
+        <v>3736</v>
+      </c>
+      <c r="D1176" t="s">
+        <v>14</v>
       </c>
       <c r="E1176" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="H1176" t="s">
-        <v>1353</v>
+        <v>71</v>
       </c>
       <c r="M1176" t="s">
-        <v>3692</v>
+        <v>3737</v>
       </c>
     </row>
     <row r="1177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1177">
-        <v>1430</v>
+        <v>1435</v>
       </c>
       <c r="B1177" t="s">
-        <v>3693</v>
+        <v>3738</v>
       </c>
       <c r="C1177" t="s">
-        <v>3689</v>
-      </c>
-      <c r="D1177">
-        <v>68000</v>
+        <v>3736</v>
+      </c>
+      <c r="D1177" t="s">
+        <v>14</v>
       </c>
       <c r="E1177" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="H1177" t="s">
-        <v>1353</v>
+        <v>71</v>
       </c>
       <c r="M1177" t="s">
-        <v>3694</v>
+        <v>3739</v>
       </c>
     </row>
     <row r="1178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1178">
-        <v>1431</v>
+        <v>1436</v>
       </c>
       <c r="B1178" t="s">
-        <v>3695</v>
+        <v>3740</v>
       </c>
       <c r="C1178" t="s">
-        <v>3689</v>
+        <v>3741</v>
       </c>
       <c r="D1178">
         <v>68000</v>
       </c>
       <c r="E1178" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="H1178" t="s">
-        <v>1353</v>
+        <v>349</v>
       </c>
       <c r="M1178" t="s">
-        <v>3696</v>
+        <v>3742</v>
       </c>
     </row>
     <row r="1179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1179">
-        <v>1432</v>
+        <v>1437</v>
       </c>
       <c r="B1179" t="s">
-        <v>3697</v>
+        <v>3743</v>
       </c>
       <c r="C1179" t="s">
-        <v>3689</v>
+        <v>3744</v>
       </c>
       <c r="D1179">
         <v>68000</v>
       </c>
-      <c r="E1179" t="s">
-        <v>154</v>
-      </c>
       <c r="H1179" t="s">
-        <v>1353</v>
+        <v>172</v>
+      </c>
+      <c r="I1179" t="s">
+        <v>1492</v>
       </c>
       <c r="M1179" t="s">
-        <v>4487</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="1180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1180">
-        <v>1433</v>
+        <v>1438</v>
       </c>
       <c r="B1180" t="s">
-        <v>3698</v>
+        <v>3746</v>
       </c>
       <c r="C1180" t="s">
-        <v>3689</v>
+        <v>3744</v>
       </c>
       <c r="D1180">
         <v>68000</v>
       </c>
-      <c r="E1180" t="s">
-        <v>154</v>
-      </c>
       <c r="H1180" t="s">
-        <v>1353</v>
+        <v>172</v>
+      </c>
+      <c r="I1180" t="s">
+        <v>1492</v>
       </c>
       <c r="M1180" t="s">
-        <v>4488</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="1181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1181">
-        <v>1434</v>
+        <v>1439</v>
       </c>
       <c r="B1181" t="s">
-        <v>3735</v>
+        <v>3748</v>
       </c>
       <c r="C1181" t="s">
-        <v>3736</v>
-      </c>
-      <c r="D1181" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1181" t="s">
-        <v>14</v>
+        <v>3744</v>
+      </c>
+      <c r="D1181">
+        <v>68000</v>
       </c>
       <c r="H1181" t="s">
-        <v>71</v>
+        <v>2375</v>
       </c>
       <c r="M1181" t="s">
-        <v>3737</v>
+        <v>3749</v>
       </c>
     </row>
     <row r="1182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1182">
-        <v>1435</v>
+        <v>1440</v>
       </c>
       <c r="B1182" t="s">
-        <v>3738</v>
+        <v>3750</v>
       </c>
       <c r="C1182" t="s">
-        <v>3736</v>
-      </c>
-      <c r="D1182" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1182" t="s">
-        <v>14</v>
+        <v>3744</v>
+      </c>
+      <c r="D1182">
+        <v>68000</v>
       </c>
       <c r="H1182" t="s">
-        <v>71</v>
+        <v>2375</v>
       </c>
       <c r="M1182" t="s">
-        <v>3739</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="1183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1183">
-        <v>1436</v>
+        <v>1441</v>
       </c>
       <c r="B1183" t="s">
-        <v>3740</v>
+        <v>3751</v>
       </c>
       <c r="C1183" t="s">
-        <v>3741</v>
+        <v>3752</v>
       </c>
       <c r="D1183">
         <v>68000</v>
       </c>
-      <c r="E1183" t="s">
-        <v>14</v>
-      </c>
       <c r="H1183" t="s">
-        <v>349</v>
+        <v>1492</v>
       </c>
       <c r="M1183" t="s">
-        <v>3742</v>
+        <v>3753</v>
       </c>
     </row>
     <row r="1184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1184">
-        <v>1437</v>
+        <v>1442</v>
       </c>
       <c r="B1184" t="s">
-        <v>3743</v>
+        <v>3774</v>
       </c>
       <c r="C1184" t="s">
-        <v>3744</v>
-      </c>
-      <c r="D1184">
-        <v>68000</v>
+        <v>3775</v>
+      </c>
+      <c r="D1184" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1184" t="s">
+        <v>154</v>
       </c>
       <c r="H1184" t="s">
         <v>172</v>
       </c>
-      <c r="I1184" t="s">
-        <v>1492</v>
-      </c>
       <c r="M1184" t="s">
-        <v>3745</v>
+        <v>3776</v>
       </c>
     </row>
     <row r="1185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1185">
-        <v>1438</v>
+        <v>1443</v>
       </c>
       <c r="B1185" t="s">
-        <v>3746</v>
+        <v>3777</v>
       </c>
       <c r="C1185" t="s">
-        <v>3744</v>
-      </c>
-      <c r="D1185">
-        <v>68000</v>
+        <v>3778</v>
+      </c>
+      <c r="D1185" t="s">
+        <v>14</v>
       </c>
       <c r="H1185" t="s">
         <v>172</v>
       </c>
-      <c r="I1185" t="s">
-        <v>1492</v>
-      </c>
       <c r="M1185" t="s">
-        <v>3747</v>
+        <v>3779</v>
       </c>
     </row>
     <row r="1186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1186">
-        <v>1439</v>
+        <v>1444</v>
       </c>
       <c r="B1186" t="s">
-        <v>3748</v>
+        <v>3780</v>
       </c>
       <c r="C1186" t="s">
-        <v>3744</v>
-      </c>
-      <c r="D1186">
-        <v>68000</v>
+        <v>3778</v>
+      </c>
+      <c r="D1186" t="s">
+        <v>14</v>
       </c>
       <c r="H1186" t="s">
-        <v>2375</v>
+        <v>172</v>
       </c>
       <c r="M1186" t="s">
-        <v>3749</v>
+        <v>3781</v>
       </c>
     </row>
     <row r="1187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1187">
-        <v>1440</v>
+        <v>1445</v>
       </c>
       <c r="B1187" t="s">
-        <v>3750</v>
+        <v>3791</v>
       </c>
       <c r="C1187" t="s">
-        <v>3744</v>
-      </c>
-      <c r="D1187">
-        <v>68000</v>
+        <v>3792</v>
+      </c>
+      <c r="D1187" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1187" t="s">
+        <v>1184</v>
       </c>
       <c r="H1187" t="s">
-        <v>2375</v>
+        <v>71</v>
       </c>
       <c r="M1187" t="s">
-        <v>4489</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="1188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1188">
-        <v>1441</v>
+        <v>1446</v>
       </c>
       <c r="B1188" t="s">
-        <v>3751</v>
+        <v>3794</v>
       </c>
       <c r="C1188" t="s">
-        <v>3752</v>
-      </c>
-      <c r="D1188">
-        <v>68000</v>
+        <v>3792</v>
+      </c>
+      <c r="D1188" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1188" t="s">
+        <v>1184</v>
       </c>
       <c r="H1188" t="s">
-        <v>1492</v>
+        <v>71</v>
       </c>
       <c r="M1188" t="s">
-        <v>3753</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="1189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1189">
-        <v>1442</v>
+        <v>1447</v>
       </c>
       <c r="B1189" t="s">
-        <v>3774</v>
+        <v>3799</v>
       </c>
       <c r="C1189" t="s">
-        <v>3775</v>
+        <v>3800</v>
       </c>
       <c r="D1189" t="s">
-        <v>14</v>
+        <v>405</v>
       </c>
       <c r="E1189" t="s">
-        <v>154</v>
+        <v>1184</v>
+      </c>
+      <c r="F1189" t="s">
+        <v>3801</v>
       </c>
       <c r="H1189" t="s">
-        <v>172</v>
+        <v>71</v>
       </c>
       <c r="M1189" t="s">
-        <v>3776</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="1190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1190">
-        <v>1443</v>
+        <v>1448</v>
       </c>
       <c r="B1190" t="s">
-        <v>3777</v>
+        <v>3803</v>
       </c>
       <c r="C1190" t="s">
-        <v>3778</v>
+        <v>3804</v>
       </c>
       <c r="D1190" t="s">
-        <v>14</v>
+        <v>473</v>
       </c>
       <c r="H1190" t="s">
-        <v>172</v>
+        <v>2936</v>
       </c>
       <c r="M1190" t="s">
-        <v>3779</v>
+        <v>3805</v>
       </c>
     </row>
     <row r="1191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1191">
-        <v>1444</v>
+        <v>1449</v>
       </c>
       <c r="B1191" t="s">
-        <v>3780</v>
+        <v>3806</v>
       </c>
       <c r="C1191" t="s">
-        <v>3778</v>
+        <v>3807</v>
       </c>
       <c r="D1191" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1191" t="s">
-        <v>172</v>
+        <v>473</v>
       </c>
       <c r="M1191" t="s">
-        <v>3781</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="1192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1192">
-        <v>1445</v>
+        <v>1450</v>
       </c>
       <c r="B1192" t="s">
-        <v>3791</v>
+        <v>3809</v>
       </c>
       <c r="C1192" t="s">
-        <v>3792</v>
+        <v>3807</v>
       </c>
       <c r="D1192" t="s">
-        <v>405</v>
-      </c>
-      <c r="E1192" t="s">
-        <v>1184</v>
-      </c>
-      <c r="H1192" t="s">
-        <v>71</v>
+        <v>473</v>
       </c>
       <c r="M1192" t="s">
-        <v>3793</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="1193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1193">
-        <v>1446</v>
+        <v>1451</v>
       </c>
       <c r="B1193" t="s">
-        <v>3794</v>
+        <v>3811</v>
       </c>
       <c r="C1193" t="s">
-        <v>3792</v>
-      </c>
-      <c r="D1193" t="s">
-        <v>405</v>
-      </c>
-      <c r="E1193" t="s">
-        <v>1184</v>
-      </c>
-      <c r="H1193" t="s">
-        <v>71</v>
+        <v>3812</v>
+      </c>
+      <c r="D1193">
+        <v>8080</v>
       </c>
       <c r="M1193" t="s">
-        <v>3795</v>
+        <v>3813</v>
       </c>
     </row>
     <row r="1194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1194">
-        <v>1447</v>
+        <v>1452</v>
       </c>
       <c r="B1194" t="s">
-        <v>3799</v>
+        <v>3814</v>
       </c>
       <c r="C1194" t="s">
-        <v>3800</v>
+        <v>3815</v>
       </c>
       <c r="D1194" t="s">
-        <v>405</v>
+        <v>3436</v>
       </c>
       <c r="E1194" t="s">
+        <v>3436</v>
+      </c>
+      <c r="F1194" t="s">
         <v>1184</v>
       </c>
-      <c r="F1194" t="s">
-        <v>3801</v>
+      <c r="G1194" t="s">
+        <v>1184</v>
       </c>
       <c r="H1194" t="s">
-        <v>71</v>
+        <v>333</v>
+      </c>
+      <c r="I1194" t="s">
+        <v>551</v>
       </c>
       <c r="M1194" t="s">
-        <v>3802</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="1195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1195">
-        <v>1448</v>
+        <v>1453</v>
       </c>
       <c r="B1195" t="s">
-        <v>3803</v>
+        <v>3817</v>
       </c>
       <c r="C1195" t="s">
-        <v>3804</v>
+        <v>3818</v>
       </c>
       <c r="D1195" t="s">
-        <v>473</v>
+        <v>14</v>
       </c>
       <c r="H1195" t="s">
-        <v>2936</v>
+        <v>172</v>
       </c>
       <c r="M1195" t="s">
-        <v>3805</v>
+        <v>3819</v>
       </c>
     </row>
     <row r="1196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1196">
-        <v>1449</v>
+        <v>1454</v>
       </c>
       <c r="B1196" t="s">
-        <v>3806</v>
+        <v>3820</v>
       </c>
       <c r="C1196" t="s">
-        <v>3807</v>
+        <v>3821</v>
       </c>
       <c r="D1196" t="s">
-        <v>473</v>
+        <v>14</v>
+      </c>
+      <c r="E1196" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1196" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1196" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1196" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1196" t="s">
+        <v>166</v>
       </c>
       <c r="M1196" t="s">
-        <v>3808</v>
+        <v>3822</v>
       </c>
     </row>
     <row r="1197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1197">
-        <v>1450</v>
+        <v>1455</v>
       </c>
       <c r="B1197" t="s">
-        <v>3809</v>
+        <v>3823</v>
       </c>
       <c r="C1197" t="s">
-        <v>3807</v>
+        <v>3821</v>
       </c>
       <c r="D1197" t="s">
-        <v>473</v>
+        <v>14</v>
+      </c>
+      <c r="E1197" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1197" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1197" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1197" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1197" t="s">
+        <v>166</v>
       </c>
       <c r="M1197" t="s">
-        <v>3810</v>
+        <v>3824</v>
       </c>
     </row>
     <row r="1198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1198">
-        <v>1451</v>
+        <v>1456</v>
       </c>
       <c r="B1198" t="s">
-        <v>3811</v>
+        <v>3825</v>
       </c>
       <c r="C1198" t="s">
-        <v>3812</v>
-      </c>
-      <c r="D1198">
-        <v>8080</v>
+        <v>3821</v>
+      </c>
+      <c r="D1198" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1198" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1198" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1198" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1198" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1198" t="s">
+        <v>166</v>
       </c>
       <c r="M1198" t="s">
-        <v>3813</v>
+        <v>3826</v>
       </c>
     </row>
     <row r="1199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1199">
-        <v>1452</v>
+        <v>1457</v>
       </c>
       <c r="B1199" t="s">
-        <v>3814</v>
+        <v>3827</v>
       </c>
       <c r="C1199" t="s">
-        <v>3815</v>
+        <v>3821</v>
       </c>
       <c r="D1199" t="s">
-        <v>3436</v>
+        <v>14</v>
       </c>
       <c r="E1199" t="s">
-        <v>3436</v>
+        <v>14</v>
       </c>
       <c r="F1199" t="s">
-        <v>1184</v>
+        <v>14</v>
       </c>
       <c r="G1199" t="s">
-        <v>1184</v>
+        <v>154</v>
       </c>
       <c r="H1199" t="s">
-        <v>333</v>
+        <v>71</v>
       </c>
       <c r="I1199" t="s">
-        <v>551</v>
+        <v>166</v>
       </c>
       <c r="M1199" t="s">
-        <v>3816</v>
+        <v>3828</v>
       </c>
     </row>
     <row r="1200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1200">
-        <v>1453</v>
+        <v>1458</v>
       </c>
       <c r="B1200" t="s">
-        <v>3817</v>
+        <v>3829</v>
       </c>
       <c r="C1200" t="s">
-        <v>3818</v>
-      </c>
-      <c r="D1200" t="s">
-        <v>14</v>
+        <v>3830</v>
+      </c>
+      <c r="D1200">
+        <v>68000</v>
+      </c>
+      <c r="E1200" t="s">
+        <v>154</v>
       </c>
       <c r="H1200" t="s">
-        <v>172</v>
+        <v>1492</v>
       </c>
       <c r="M1200" t="s">
-        <v>3819</v>
+        <v>3831</v>
       </c>
     </row>
     <row r="1201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1201">
-        <v>1454</v>
+        <v>1459</v>
       </c>
       <c r="B1201" t="s">
-        <v>3820</v>
+        <v>3848</v>
       </c>
       <c r="C1201" t="s">
-        <v>3821</v>
-      </c>
-      <c r="D1201" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1201" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1201" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1201" t="s">
-        <v>154</v>
+        <v>3849</v>
+      </c>
+      <c r="D1201">
+        <v>8080</v>
       </c>
       <c r="H1201" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1201" t="s">
-        <v>166</v>
+        <v>406</v>
       </c>
       <c r="M1201" t="s">
-        <v>3822</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="1202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1202">
-        <v>1455</v>
+        <v>1460</v>
       </c>
       <c r="B1202" t="s">
-        <v>3823</v>
+        <v>3851</v>
       </c>
       <c r="C1202" t="s">
-        <v>3821</v>
+        <v>3852</v>
       </c>
       <c r="D1202" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1202" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1202" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1202" t="s">
-        <v>154</v>
+        <v>1105</v>
       </c>
       <c r="H1202" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1202" t="s">
-        <v>166</v>
+        <v>336</v>
       </c>
       <c r="M1202" t="s">
-        <v>3824</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="1203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1203">
-        <v>1456</v>
+        <v>1463</v>
       </c>
       <c r="B1203" t="s">
-        <v>3825</v>
+        <v>3859</v>
       </c>
       <c r="C1203" t="s">
-        <v>3821</v>
+        <v>3860</v>
       </c>
       <c r="D1203" t="s">
-        <v>14</v>
+        <v>3861</v>
       </c>
       <c r="E1203" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1203" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1203" t="s">
-        <v>154</v>
+        <v>725</v>
       </c>
       <c r="H1203" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1203" t="s">
-        <v>166</v>
+        <v>2070</v>
       </c>
       <c r="M1203" t="s">
-        <v>3826</v>
+        <v>3862</v>
       </c>
     </row>
     <row r="1204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1204">
-        <v>1457</v>
+        <v>1464</v>
       </c>
       <c r="B1204" t="s">
-        <v>3827</v>
+        <v>3863</v>
       </c>
       <c r="C1204" t="s">
-        <v>3821</v>
-      </c>
-      <c r="D1204" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1204" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1204" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1204" t="s">
-        <v>154</v>
+        <v>3864</v>
+      </c>
+      <c r="D1204">
+        <v>68000</v>
       </c>
       <c r="H1204" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1204" t="s">
-        <v>166</v>
+        <v>2375</v>
       </c>
       <c r="M1204" t="s">
-        <v>3828</v>
+        <v>3865</v>
       </c>
     </row>
     <row r="1205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1205">
-        <v>1458</v>
+        <v>1465</v>
       </c>
       <c r="B1205" t="s">
-        <v>3829</v>
+        <v>3866</v>
       </c>
       <c r="C1205" t="s">
-        <v>3830</v>
+        <v>3867</v>
       </c>
       <c r="D1205">
         <v>68000</v>
@@ -60874,104 +60980,104 @@
         <v>154</v>
       </c>
       <c r="H1205" t="s">
-        <v>1492</v>
+        <v>1236</v>
       </c>
       <c r="M1205" t="s">
-        <v>3831</v>
+        <v>3868</v>
       </c>
     </row>
     <row r="1206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1206">
-        <v>1459</v>
+        <v>1466</v>
       </c>
       <c r="B1206" t="s">
-        <v>3848</v>
+        <v>3869</v>
       </c>
       <c r="C1206" t="s">
-        <v>3849</v>
-      </c>
-      <c r="D1206">
-        <v>8080</v>
+        <v>3870</v>
+      </c>
+      <c r="D1206" t="s">
+        <v>405</v>
       </c>
       <c r="H1206" t="s">
-        <v>406</v>
+        <v>71</v>
       </c>
       <c r="M1206" t="s">
-        <v>3850</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="1207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1207">
-        <v>1460</v>
+        <v>1467</v>
       </c>
       <c r="B1207" t="s">
-        <v>3851</v>
+        <v>3872</v>
       </c>
       <c r="C1207" t="s">
-        <v>3852</v>
+        <v>3873</v>
       </c>
       <c r="D1207" t="s">
-        <v>1105</v>
-      </c>
-      <c r="H1207" t="s">
-        <v>336</v>
+        <v>14</v>
       </c>
       <c r="M1207" t="s">
-        <v>3853</v>
+        <v>4493</v>
       </c>
     </row>
     <row r="1208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1208">
-        <v>1463</v>
+        <v>1468</v>
       </c>
       <c r="B1208" t="s">
-        <v>3859</v>
+        <v>3874</v>
       </c>
       <c r="C1208" t="s">
-        <v>3860</v>
-      </c>
-      <c r="D1208" t="s">
-        <v>3861</v>
+        <v>3875</v>
+      </c>
+      <c r="D1208">
+        <v>68000</v>
       </c>
       <c r="E1208" t="s">
-        <v>725</v>
+        <v>154</v>
       </c>
       <c r="H1208" t="s">
-        <v>2070</v>
+        <v>1353</v>
       </c>
       <c r="M1208" t="s">
-        <v>3862</v>
+        <v>3876</v>
       </c>
     </row>
     <row r="1209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1209">
-        <v>1464</v>
+        <v>1469</v>
       </c>
       <c r="B1209" t="s">
-        <v>3863</v>
+        <v>3877</v>
       </c>
       <c r="C1209" t="s">
-        <v>3864</v>
+        <v>3875</v>
       </c>
       <c r="D1209">
         <v>68000</v>
       </c>
+      <c r="E1209" t="s">
+        <v>154</v>
+      </c>
       <c r="H1209" t="s">
-        <v>2375</v>
+        <v>1353</v>
       </c>
       <c r="M1209" t="s">
-        <v>3865</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="1210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1210">
-        <v>1465</v>
+        <v>1470</v>
       </c>
       <c r="B1210" t="s">
-        <v>3866</v>
+        <v>3878</v>
       </c>
       <c r="C1210" t="s">
-        <v>3867</v>
+        <v>3875</v>
       </c>
       <c r="D1210">
         <v>68000</v>
@@ -60980,55 +61086,64 @@
         <v>154</v>
       </c>
       <c r="H1210" t="s">
-        <v>1236</v>
+        <v>1353</v>
       </c>
       <c r="M1210" t="s">
-        <v>3868</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="1211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1211">
-        <v>1466</v>
+        <v>1471</v>
       </c>
       <c r="B1211" t="s">
-        <v>3869</v>
+        <v>3880</v>
       </c>
       <c r="C1211" t="s">
-        <v>3870</v>
-      </c>
-      <c r="D1211" t="s">
-        <v>405</v>
+        <v>3875</v>
+      </c>
+      <c r="D1211">
+        <v>68000</v>
+      </c>
+      <c r="E1211" t="s">
+        <v>154</v>
       </c>
       <c r="H1211" t="s">
-        <v>71</v>
+        <v>1353</v>
       </c>
       <c r="M1211" t="s">
-        <v>3871</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="1212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1212">
-        <v>1467</v>
+        <v>1472</v>
       </c>
       <c r="B1212" t="s">
-        <v>3872</v>
+        <v>3882</v>
       </c>
       <c r="C1212" t="s">
-        <v>3873</v>
-      </c>
-      <c r="D1212" t="s">
-        <v>14</v>
+        <v>3875</v>
+      </c>
+      <c r="D1212">
+        <v>68000</v>
+      </c>
+      <c r="E1212" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1212" t="s">
+        <v>1353</v>
       </c>
       <c r="M1212" t="s">
-        <v>4493</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="1213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1213">
-        <v>1468</v>
+        <v>1473</v>
       </c>
       <c r="B1213" t="s">
-        <v>3874</v>
+        <v>3884</v>
       </c>
       <c r="C1213" t="s">
         <v>3875</v>
@@ -61043,15 +61158,15 @@
         <v>1353</v>
       </c>
       <c r="M1213" t="s">
-        <v>3876</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="1214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1214">
-        <v>1469</v>
+        <v>1474</v>
       </c>
       <c r="B1214" t="s">
-        <v>3877</v>
+        <v>3886</v>
       </c>
       <c r="C1214" t="s">
         <v>3875</v>
@@ -61066,15 +61181,15 @@
         <v>1353</v>
       </c>
       <c r="M1214" t="s">
-        <v>4494</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="1215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1215">
-        <v>1470</v>
+        <v>1475</v>
       </c>
       <c r="B1215" t="s">
-        <v>3878</v>
+        <v>3888</v>
       </c>
       <c r="C1215" t="s">
         <v>3875</v>
@@ -61089,15 +61204,15 @@
         <v>1353</v>
       </c>
       <c r="M1215" t="s">
-        <v>3879</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="1216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1216">
-        <v>1471</v>
+        <v>1476</v>
       </c>
       <c r="B1216" t="s">
-        <v>3880</v>
+        <v>3889</v>
       </c>
       <c r="C1216" t="s">
         <v>3875</v>
@@ -61112,15 +61227,15 @@
         <v>1353</v>
       </c>
       <c r="M1216" t="s">
-        <v>3881</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="1217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1217">
-        <v>1472</v>
+        <v>1477</v>
       </c>
       <c r="B1217" t="s">
-        <v>3882</v>
+        <v>3891</v>
       </c>
       <c r="C1217" t="s">
         <v>3875</v>
@@ -61135,15 +61250,15 @@
         <v>1353</v>
       </c>
       <c r="M1217" t="s">
-        <v>3883</v>
+        <v>3892</v>
       </c>
     </row>
     <row r="1218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1218">
-        <v>1473</v>
+        <v>1478</v>
       </c>
       <c r="B1218" t="s">
-        <v>3884</v>
+        <v>3893</v>
       </c>
       <c r="C1218" t="s">
         <v>3875</v>
@@ -61158,15 +61273,15 @@
         <v>1353</v>
       </c>
       <c r="M1218" t="s">
-        <v>3885</v>
+        <v>3894</v>
       </c>
     </row>
     <row r="1219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1219">
-        <v>1474</v>
+        <v>1479</v>
       </c>
       <c r="B1219" t="s">
-        <v>3886</v>
+        <v>3895</v>
       </c>
       <c r="C1219" t="s">
         <v>3875</v>
@@ -61181,15 +61296,15 @@
         <v>1353</v>
       </c>
       <c r="M1219" t="s">
-        <v>3887</v>
+        <v>3896</v>
       </c>
     </row>
     <row r="1220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1220">
-        <v>1475</v>
+        <v>1480</v>
       </c>
       <c r="B1220" t="s">
-        <v>3888</v>
+        <v>3897</v>
       </c>
       <c r="C1220" t="s">
         <v>3875</v>
@@ -61204,15 +61319,15 @@
         <v>1353</v>
       </c>
       <c r="M1220" t="s">
-        <v>4495</v>
+        <v>3898</v>
       </c>
     </row>
     <row r="1221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1221">
-        <v>1476</v>
+        <v>1481</v>
       </c>
       <c r="B1221" t="s">
-        <v>3889</v>
+        <v>3899</v>
       </c>
       <c r="C1221" t="s">
         <v>3875</v>
@@ -61227,15 +61342,15 @@
         <v>1353</v>
       </c>
       <c r="M1221" t="s">
-        <v>3890</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="1222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1222">
-        <v>1477</v>
+        <v>1482</v>
       </c>
       <c r="B1222" t="s">
-        <v>3891</v>
+        <v>3900</v>
       </c>
       <c r="C1222" t="s">
         <v>3875</v>
@@ -61250,15 +61365,15 @@
         <v>1353</v>
       </c>
       <c r="M1222" t="s">
-        <v>3892</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="1223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1223">
-        <v>1478</v>
+        <v>1483</v>
       </c>
       <c r="B1223" t="s">
-        <v>3893</v>
+        <v>3901</v>
       </c>
       <c r="C1223" t="s">
         <v>3875</v>
@@ -61273,15 +61388,15 @@
         <v>1353</v>
       </c>
       <c r="M1223" t="s">
-        <v>3894</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="1224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1224">
-        <v>1479</v>
+        <v>1484</v>
       </c>
       <c r="B1224" t="s">
-        <v>3895</v>
+        <v>3903</v>
       </c>
       <c r="C1224" t="s">
         <v>3875</v>
@@ -61296,15 +61411,15 @@
         <v>1353</v>
       </c>
       <c r="M1224" t="s">
-        <v>3896</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="1225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1225">
-        <v>1480</v>
+        <v>1485</v>
       </c>
       <c r="B1225" t="s">
-        <v>3897</v>
+        <v>3905</v>
       </c>
       <c r="C1225" t="s">
         <v>3875</v>
@@ -61319,15 +61434,15 @@
         <v>1353</v>
       </c>
       <c r="M1225" t="s">
-        <v>3898</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="1226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1226">
-        <v>1481</v>
+        <v>1486</v>
       </c>
       <c r="B1226" t="s">
-        <v>3899</v>
+        <v>3907</v>
       </c>
       <c r="C1226" t="s">
         <v>3875</v>
@@ -61342,15 +61457,15 @@
         <v>1353</v>
       </c>
       <c r="M1226" t="s">
-        <v>4496</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="1227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1227">
-        <v>1482</v>
+        <v>1487</v>
       </c>
       <c r="B1227" t="s">
-        <v>3900</v>
+        <v>3909</v>
       </c>
       <c r="C1227" t="s">
         <v>3875</v>
@@ -61365,15 +61480,15 @@
         <v>1353</v>
       </c>
       <c r="M1227" t="s">
-        <v>4497</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="1228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1228">
-        <v>1483</v>
+        <v>1488</v>
       </c>
       <c r="B1228" t="s">
-        <v>3901</v>
+        <v>3911</v>
       </c>
       <c r="C1228" t="s">
         <v>3875</v>
@@ -61388,15 +61503,15 @@
         <v>1353</v>
       </c>
       <c r="M1228" t="s">
-        <v>3902</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="1229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1229">
-        <v>1484</v>
+        <v>1489</v>
       </c>
       <c r="B1229" t="s">
-        <v>3903</v>
+        <v>3913</v>
       </c>
       <c r="C1229" t="s">
         <v>3875</v>
@@ -61411,15 +61526,15 @@
         <v>1353</v>
       </c>
       <c r="M1229" t="s">
-        <v>3904</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="1230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1230">
-        <v>1485</v>
+        <v>1490</v>
       </c>
       <c r="B1230" t="s">
-        <v>3905</v>
+        <v>3914</v>
       </c>
       <c r="C1230" t="s">
         <v>3875</v>
@@ -61434,15 +61549,15 @@
         <v>1353</v>
       </c>
       <c r="M1230" t="s">
-        <v>3906</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="1231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1231">
-        <v>1486</v>
+        <v>1491</v>
       </c>
       <c r="B1231" t="s">
-        <v>3907</v>
+        <v>3916</v>
       </c>
       <c r="C1231" t="s">
         <v>3875</v>
@@ -61457,15 +61572,15 @@
         <v>1353</v>
       </c>
       <c r="M1231" t="s">
-        <v>3908</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="1232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1232">
-        <v>1487</v>
+        <v>1492</v>
       </c>
       <c r="B1232" t="s">
-        <v>3909</v>
+        <v>3918</v>
       </c>
       <c r="C1232" t="s">
         <v>3875</v>
@@ -61480,15 +61595,15 @@
         <v>1353</v>
       </c>
       <c r="M1232" t="s">
-        <v>3910</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="1233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1233">
-        <v>1488</v>
+        <v>1493</v>
       </c>
       <c r="B1233" t="s">
-        <v>3911</v>
+        <v>3920</v>
       </c>
       <c r="C1233" t="s">
         <v>3875</v>
@@ -61503,15 +61618,15 @@
         <v>1353</v>
       </c>
       <c r="M1233" t="s">
-        <v>3912</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="1234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1234">
-        <v>1489</v>
+        <v>1494</v>
       </c>
       <c r="B1234" t="s">
-        <v>3913</v>
+        <v>3921</v>
       </c>
       <c r="C1234" t="s">
         <v>3875</v>
@@ -61526,15 +61641,15 @@
         <v>1353</v>
       </c>
       <c r="M1234" t="s">
-        <v>4498</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="1235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1235">
-        <v>1490</v>
+        <v>1495</v>
       </c>
       <c r="B1235" t="s">
-        <v>3914</v>
+        <v>3922</v>
       </c>
       <c r="C1235" t="s">
         <v>3875</v>
@@ -61549,15 +61664,15 @@
         <v>1353</v>
       </c>
       <c r="M1235" t="s">
-        <v>3915</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="1236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1236">
-        <v>1491</v>
+        <v>1496</v>
       </c>
       <c r="B1236" t="s">
-        <v>3916</v>
+        <v>3923</v>
       </c>
       <c r="C1236" t="s">
         <v>3875</v>
@@ -61572,15 +61687,15 @@
         <v>1353</v>
       </c>
       <c r="M1236" t="s">
-        <v>3917</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="1237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1237">
-        <v>1492</v>
+        <v>1497</v>
       </c>
       <c r="B1237" t="s">
-        <v>3918</v>
+        <v>3925</v>
       </c>
       <c r="C1237" t="s">
         <v>3875</v>
@@ -61595,15 +61710,15 @@
         <v>1353</v>
       </c>
       <c r="M1237" t="s">
-        <v>3919</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="1238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1238">
-        <v>1493</v>
+        <v>1498</v>
       </c>
       <c r="B1238" t="s">
-        <v>3920</v>
+        <v>3927</v>
       </c>
       <c r="C1238" t="s">
         <v>3875</v>
@@ -61618,15 +61733,15 @@
         <v>1353</v>
       </c>
       <c r="M1238" t="s">
-        <v>4499</v>
+        <v>4502</v>
       </c>
     </row>
     <row r="1239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1239">
-        <v>1494</v>
+        <v>1499</v>
       </c>
       <c r="B1239" t="s">
-        <v>3921</v>
+        <v>3928</v>
       </c>
       <c r="C1239" t="s">
         <v>3875</v>
@@ -61641,15 +61756,15 @@
         <v>1353</v>
       </c>
       <c r="M1239" t="s">
-        <v>4500</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="1240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1240">
-        <v>1495</v>
+        <v>1500</v>
       </c>
       <c r="B1240" t="s">
-        <v>3922</v>
+        <v>3930</v>
       </c>
       <c r="C1240" t="s">
         <v>3875</v>
@@ -61664,15 +61779,15 @@
         <v>1353</v>
       </c>
       <c r="M1240" t="s">
-        <v>4501</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="1241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1241">
-        <v>1496</v>
+        <v>1501</v>
       </c>
       <c r="B1241" t="s">
-        <v>3923</v>
+        <v>3931</v>
       </c>
       <c r="C1241" t="s">
         <v>3875</v>
@@ -61687,15 +61802,15 @@
         <v>1353</v>
       </c>
       <c r="M1241" t="s">
-        <v>3924</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="1242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1242">
-        <v>1497</v>
+        <v>1502</v>
       </c>
       <c r="B1242" t="s">
-        <v>3925</v>
+        <v>3933</v>
       </c>
       <c r="C1242" t="s">
         <v>3875</v>
@@ -61710,15 +61825,15 @@
         <v>1353</v>
       </c>
       <c r="M1242" t="s">
-        <v>3926</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="1243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1243">
-        <v>1498</v>
+        <v>1503</v>
       </c>
       <c r="B1243" t="s">
-        <v>3927</v>
+        <v>3935</v>
       </c>
       <c r="C1243" t="s">
         <v>3875</v>
@@ -61733,15 +61848,15 @@
         <v>1353</v>
       </c>
       <c r="M1243" t="s">
-        <v>4502</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="1244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1244">
-        <v>1499</v>
+        <v>1504</v>
       </c>
       <c r="B1244" t="s">
-        <v>3928</v>
+        <v>3936</v>
       </c>
       <c r="C1244" t="s">
         <v>3875</v>
@@ -61756,15 +61871,15 @@
         <v>1353</v>
       </c>
       <c r="M1244" t="s">
-        <v>3929</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="1245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1245">
-        <v>1500</v>
+        <v>1505</v>
       </c>
       <c r="B1245" t="s">
-        <v>3930</v>
+        <v>3937</v>
       </c>
       <c r="C1245" t="s">
         <v>3875</v>
@@ -61779,15 +61894,15 @@
         <v>1353</v>
       </c>
       <c r="M1245" t="s">
-        <v>4503</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="1246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1246">
-        <v>1501</v>
+        <v>1506</v>
       </c>
       <c r="B1246" t="s">
-        <v>3931</v>
+        <v>3939</v>
       </c>
       <c r="C1246" t="s">
         <v>3875</v>
@@ -61802,15 +61917,15 @@
         <v>1353</v>
       </c>
       <c r="M1246" t="s">
-        <v>3932</v>
+        <v>4506</v>
       </c>
     </row>
     <row r="1247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1247">
-        <v>1502</v>
+        <v>1507</v>
       </c>
       <c r="B1247" t="s">
-        <v>3933</v>
+        <v>3940</v>
       </c>
       <c r="C1247" t="s">
         <v>3875</v>
@@ -61825,15 +61940,15 @@
         <v>1353</v>
       </c>
       <c r="M1247" t="s">
-        <v>3934</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="1248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1248">
-        <v>1503</v>
+        <v>1508</v>
       </c>
       <c r="B1248" t="s">
-        <v>3935</v>
+        <v>3941</v>
       </c>
       <c r="C1248" t="s">
         <v>3875</v>
@@ -61848,15 +61963,15 @@
         <v>1353</v>
       </c>
       <c r="M1248" t="s">
-        <v>4504</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="1249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1249">
-        <v>1504</v>
+        <v>1509</v>
       </c>
       <c r="B1249" t="s">
-        <v>3936</v>
+        <v>3942</v>
       </c>
       <c r="C1249" t="s">
         <v>3875</v>
@@ -61871,15 +61986,15 @@
         <v>1353</v>
       </c>
       <c r="M1249" t="s">
-        <v>4505</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="1250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1250">
-        <v>1505</v>
+        <v>1510</v>
       </c>
       <c r="B1250" t="s">
-        <v>3937</v>
+        <v>3943</v>
       </c>
       <c r="C1250" t="s">
         <v>3875</v>
@@ -61894,15 +62009,15 @@
         <v>1353</v>
       </c>
       <c r="M1250" t="s">
-        <v>3938</v>
+        <v>4510</v>
       </c>
     </row>
     <row r="1251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1251">
-        <v>1506</v>
+        <v>1511</v>
       </c>
       <c r="B1251" t="s">
-        <v>3939</v>
+        <v>3944</v>
       </c>
       <c r="C1251" t="s">
         <v>3875</v>
@@ -61917,15 +62032,15 @@
         <v>1353</v>
       </c>
       <c r="M1251" t="s">
-        <v>4506</v>
+        <v>4511</v>
       </c>
     </row>
     <row r="1252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1252">
-        <v>1507</v>
+        <v>1512</v>
       </c>
       <c r="B1252" t="s">
-        <v>3940</v>
+        <v>3945</v>
       </c>
       <c r="C1252" t="s">
         <v>3875</v>
@@ -61940,15 +62055,15 @@
         <v>1353</v>
       </c>
       <c r="M1252" t="s">
-        <v>4507</v>
+        <v>4512</v>
       </c>
     </row>
     <row r="1253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1253">
-        <v>1508</v>
+        <v>1513</v>
       </c>
       <c r="B1253" t="s">
-        <v>3941</v>
+        <v>3946</v>
       </c>
       <c r="C1253" t="s">
         <v>3875</v>
@@ -61963,15 +62078,15 @@
         <v>1353</v>
       </c>
       <c r="M1253" t="s">
-        <v>4508</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="1254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1254">
-        <v>1509</v>
+        <v>1514</v>
       </c>
       <c r="B1254" t="s">
-        <v>3942</v>
+        <v>3948</v>
       </c>
       <c r="C1254" t="s">
         <v>3875</v>
@@ -61986,15 +62101,15 @@
         <v>1353</v>
       </c>
       <c r="M1254" t="s">
-        <v>4509</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="1255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1255">
-        <v>1510</v>
+        <v>1515</v>
       </c>
       <c r="B1255" t="s">
-        <v>3943</v>
+        <v>3950</v>
       </c>
       <c r="C1255" t="s">
         <v>3875</v>
@@ -62009,15 +62124,15 @@
         <v>1353</v>
       </c>
       <c r="M1255" t="s">
-        <v>4510</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="1256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1256">
-        <v>1511</v>
+        <v>1516</v>
       </c>
       <c r="B1256" t="s">
-        <v>3944</v>
+        <v>3952</v>
       </c>
       <c r="C1256" t="s">
         <v>3875</v>
@@ -62032,15 +62147,15 @@
         <v>1353</v>
       </c>
       <c r="M1256" t="s">
-        <v>4511</v>
+        <v>4513</v>
       </c>
     </row>
     <row r="1257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1257">
-        <v>1512</v>
+        <v>1517</v>
       </c>
       <c r="B1257" t="s">
-        <v>3945</v>
+        <v>3953</v>
       </c>
       <c r="C1257" t="s">
         <v>3875</v>
@@ -62055,15 +62170,15 @@
         <v>1353</v>
       </c>
       <c r="M1257" t="s">
-        <v>4512</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="1258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1258">
-        <v>1513</v>
+        <v>1518</v>
       </c>
       <c r="B1258" t="s">
-        <v>3946</v>
+        <v>3955</v>
       </c>
       <c r="C1258" t="s">
         <v>3875</v>
@@ -62078,15 +62193,15 @@
         <v>1353</v>
       </c>
       <c r="M1258" t="s">
-        <v>3947</v>
+        <v>3956</v>
       </c>
     </row>
     <row r="1259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1259">
-        <v>1514</v>
+        <v>1519</v>
       </c>
       <c r="B1259" t="s">
-        <v>3948</v>
+        <v>3957</v>
       </c>
       <c r="C1259" t="s">
         <v>3875</v>
@@ -62101,15 +62216,15 @@
         <v>1353</v>
       </c>
       <c r="M1259" t="s">
-        <v>3949</v>
+        <v>4514</v>
       </c>
     </row>
     <row r="1260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1260">
-        <v>1515</v>
+        <v>1520</v>
       </c>
       <c r="B1260" t="s">
-        <v>3950</v>
+        <v>3958</v>
       </c>
       <c r="C1260" t="s">
         <v>3875</v>
@@ -62124,15 +62239,15 @@
         <v>1353</v>
       </c>
       <c r="M1260" t="s">
-        <v>3951</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="1261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1261">
-        <v>1516</v>
+        <v>1521</v>
       </c>
       <c r="B1261" t="s">
-        <v>3952</v>
+        <v>3960</v>
       </c>
       <c r="C1261" t="s">
         <v>3875</v>
@@ -62147,15 +62262,15 @@
         <v>1353</v>
       </c>
       <c r="M1261" t="s">
-        <v>4513</v>
+        <v>4515</v>
       </c>
     </row>
     <row r="1262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1262">
-        <v>1517</v>
+        <v>1522</v>
       </c>
       <c r="B1262" t="s">
-        <v>3953</v>
+        <v>3961</v>
       </c>
       <c r="C1262" t="s">
         <v>3875</v>
@@ -62170,15 +62285,15 @@
         <v>1353</v>
       </c>
       <c r="M1262" t="s">
-        <v>3954</v>
+        <v>4516</v>
       </c>
     </row>
     <row r="1263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1263">
-        <v>1518</v>
+        <v>1523</v>
       </c>
       <c r="B1263" t="s">
-        <v>3955</v>
+        <v>3962</v>
       </c>
       <c r="C1263" t="s">
         <v>3875</v>
@@ -62193,15 +62308,15 @@
         <v>1353</v>
       </c>
       <c r="M1263" t="s">
-        <v>3956</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="1264" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1264">
-        <v>1519</v>
+        <v>1524</v>
       </c>
       <c r="B1264" t="s">
-        <v>3957</v>
+        <v>3963</v>
       </c>
       <c r="C1264" t="s">
         <v>3875</v>
@@ -62216,15 +62331,15 @@
         <v>1353</v>
       </c>
       <c r="M1264" t="s">
-        <v>4514</v>
+        <v>4518</v>
       </c>
     </row>
     <row r="1265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1265">
-        <v>1520</v>
+        <v>1525</v>
       </c>
       <c r="B1265" t="s">
-        <v>3958</v>
+        <v>3964</v>
       </c>
       <c r="C1265" t="s">
         <v>3875</v>
@@ -62239,15 +62354,15 @@
         <v>1353</v>
       </c>
       <c r="M1265" t="s">
-        <v>3959</v>
+        <v>4519</v>
       </c>
     </row>
     <row r="1266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1266">
-        <v>1521</v>
+        <v>1526</v>
       </c>
       <c r="B1266" t="s">
-        <v>3960</v>
+        <v>3965</v>
       </c>
       <c r="C1266" t="s">
         <v>3875</v>
@@ -62262,15 +62377,15 @@
         <v>1353</v>
       </c>
       <c r="M1266" t="s">
-        <v>4515</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="1267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1267">
-        <v>1522</v>
+        <v>1527</v>
       </c>
       <c r="B1267" t="s">
-        <v>3961</v>
+        <v>3966</v>
       </c>
       <c r="C1267" t="s">
         <v>3875</v>
@@ -62285,15 +62400,15 @@
         <v>1353</v>
       </c>
       <c r="M1267" t="s">
-        <v>4516</v>
+        <v>3967</v>
       </c>
     </row>
     <row r="1268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1268">
-        <v>1523</v>
+        <v>1528</v>
       </c>
       <c r="B1268" t="s">
-        <v>3962</v>
+        <v>3968</v>
       </c>
       <c r="C1268" t="s">
         <v>3875</v>
@@ -62308,15 +62423,15 @@
         <v>1353</v>
       </c>
       <c r="M1268" t="s">
-        <v>4517</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="1269" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1269">
-        <v>1524</v>
+        <v>1529</v>
       </c>
       <c r="B1269" t="s">
-        <v>3963</v>
+        <v>3969</v>
       </c>
       <c r="C1269" t="s">
         <v>3875</v>
@@ -62331,15 +62446,15 @@
         <v>1353</v>
       </c>
       <c r="M1269" t="s">
-        <v>4518</v>
+        <v>4522</v>
       </c>
     </row>
     <row r="1270" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1270">
-        <v>1525</v>
+        <v>1530</v>
       </c>
       <c r="B1270" t="s">
-        <v>3964</v>
+        <v>3970</v>
       </c>
       <c r="C1270" t="s">
         <v>3875</v>
@@ -62354,15 +62469,15 @@
         <v>1353</v>
       </c>
       <c r="M1270" t="s">
-        <v>4519</v>
+        <v>3971</v>
       </c>
     </row>
     <row r="1271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1271">
-        <v>1526</v>
+        <v>1531</v>
       </c>
       <c r="B1271" t="s">
-        <v>3965</v>
+        <v>3972</v>
       </c>
       <c r="C1271" t="s">
         <v>3875</v>
@@ -62377,15 +62492,15 @@
         <v>1353</v>
       </c>
       <c r="M1271" t="s">
-        <v>4520</v>
+        <v>3973</v>
       </c>
     </row>
     <row r="1272" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1272">
-        <v>1527</v>
+        <v>1532</v>
       </c>
       <c r="B1272" t="s">
-        <v>3966</v>
+        <v>3974</v>
       </c>
       <c r="C1272" t="s">
         <v>3875</v>
@@ -62400,15 +62515,15 @@
         <v>1353</v>
       </c>
       <c r="M1272" t="s">
-        <v>3967</v>
+        <v>4523</v>
       </c>
     </row>
     <row r="1273" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1273">
-        <v>1528</v>
+        <v>1533</v>
       </c>
       <c r="B1273" t="s">
-        <v>3968</v>
+        <v>3975</v>
       </c>
       <c r="C1273" t="s">
         <v>3875</v>
@@ -62423,15 +62538,15 @@
         <v>1353</v>
       </c>
       <c r="M1273" t="s">
-        <v>4521</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="1274" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1274">
-        <v>1529</v>
+        <v>1534</v>
       </c>
       <c r="B1274" t="s">
-        <v>3969</v>
+        <v>3977</v>
       </c>
       <c r="C1274" t="s">
         <v>3875</v>
@@ -62446,15 +62561,15 @@
         <v>1353</v>
       </c>
       <c r="M1274" t="s">
-        <v>4522</v>
+        <v>4524</v>
       </c>
     </row>
     <row r="1275" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1275">
-        <v>1530</v>
+        <v>1535</v>
       </c>
       <c r="B1275" t="s">
-        <v>3970</v>
+        <v>3978</v>
       </c>
       <c r="C1275" t="s">
         <v>3875</v>
@@ -62469,15 +62584,15 @@
         <v>1353</v>
       </c>
       <c r="M1275" t="s">
-        <v>3971</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="1276" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1276">
-        <v>1531</v>
+        <v>1536</v>
       </c>
       <c r="B1276" t="s">
-        <v>3972</v>
+        <v>3979</v>
       </c>
       <c r="C1276" t="s">
         <v>3875</v>
@@ -62492,15 +62607,15 @@
         <v>1353</v>
       </c>
       <c r="M1276" t="s">
-        <v>3973</v>
+        <v>4526</v>
       </c>
     </row>
     <row r="1277" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1277">
-        <v>1532</v>
+        <v>1537</v>
       </c>
       <c r="B1277" t="s">
-        <v>3974</v>
+        <v>3980</v>
       </c>
       <c r="C1277" t="s">
         <v>3875</v>
@@ -62515,15 +62630,15 @@
         <v>1353</v>
       </c>
       <c r="M1277" t="s">
-        <v>4523</v>
+        <v>4527</v>
       </c>
     </row>
     <row r="1278" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1278">
-        <v>1533</v>
+        <v>1538</v>
       </c>
       <c r="B1278" t="s">
-        <v>3975</v>
+        <v>3981</v>
       </c>
       <c r="C1278" t="s">
         <v>3875</v>
@@ -62538,15 +62653,15 @@
         <v>1353</v>
       </c>
       <c r="M1278" t="s">
-        <v>3976</v>
+        <v>4528</v>
       </c>
     </row>
     <row r="1279" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1279">
-        <v>1534</v>
+        <v>1539</v>
       </c>
       <c r="B1279" t="s">
-        <v>3977</v>
+        <v>3982</v>
       </c>
       <c r="C1279" t="s">
         <v>3875</v>
@@ -62561,15 +62676,15 @@
         <v>1353</v>
       </c>
       <c r="M1279" t="s">
-        <v>4524</v>
+        <v>3983</v>
       </c>
     </row>
     <row r="1280" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1280">
-        <v>1535</v>
+        <v>1540</v>
       </c>
       <c r="B1280" t="s">
-        <v>3978</v>
+        <v>3984</v>
       </c>
       <c r="C1280" t="s">
         <v>3875</v>
@@ -62584,15 +62699,15 @@
         <v>1353</v>
       </c>
       <c r="M1280" t="s">
-        <v>4525</v>
+        <v>4529</v>
       </c>
     </row>
     <row r="1281" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1281">
-        <v>1536</v>
+        <v>1541</v>
       </c>
       <c r="B1281" t="s">
-        <v>3979</v>
+        <v>3985</v>
       </c>
       <c r="C1281" t="s">
         <v>3875</v>
@@ -62607,15 +62722,15 @@
         <v>1353</v>
       </c>
       <c r="M1281" t="s">
-        <v>4526</v>
+        <v>3986</v>
       </c>
     </row>
     <row r="1282" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1282">
-        <v>1537</v>
+        <v>1542</v>
       </c>
       <c r="B1282" t="s">
-        <v>3980</v>
+        <v>3987</v>
       </c>
       <c r="C1282" t="s">
         <v>3875</v>
@@ -62630,15 +62745,15 @@
         <v>1353</v>
       </c>
       <c r="M1282" t="s">
-        <v>4527</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="1283" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1283">
-        <v>1538</v>
+        <v>1543</v>
       </c>
       <c r="B1283" t="s">
-        <v>3981</v>
+        <v>3988</v>
       </c>
       <c r="C1283" t="s">
         <v>3875</v>
@@ -62653,15 +62768,15 @@
         <v>1353</v>
       </c>
       <c r="M1283" t="s">
-        <v>4528</v>
+        <v>3989</v>
       </c>
     </row>
     <row r="1284" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1284">
-        <v>1539</v>
+        <v>1544</v>
       </c>
       <c r="B1284" t="s">
-        <v>3982</v>
+        <v>3990</v>
       </c>
       <c r="C1284" t="s">
         <v>3875</v>
@@ -62676,15 +62791,15 @@
         <v>1353</v>
       </c>
       <c r="M1284" t="s">
-        <v>3983</v>
+        <v>3991</v>
       </c>
     </row>
     <row r="1285" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1285">
-        <v>1540</v>
+        <v>1545</v>
       </c>
       <c r="B1285" t="s">
-        <v>3984</v>
+        <v>3992</v>
       </c>
       <c r="C1285" t="s">
         <v>3875</v>
@@ -62699,15 +62814,15 @@
         <v>1353</v>
       </c>
       <c r="M1285" t="s">
-        <v>4529</v>
+        <v>4531</v>
       </c>
     </row>
     <row r="1286" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1286">
-        <v>1541</v>
+        <v>1546</v>
       </c>
       <c r="B1286" t="s">
-        <v>3985</v>
+        <v>3993</v>
       </c>
       <c r="C1286" t="s">
         <v>3875</v>
@@ -62722,15 +62837,15 @@
         <v>1353</v>
       </c>
       <c r="M1286" t="s">
-        <v>3986</v>
+        <v>4532</v>
       </c>
     </row>
     <row r="1287" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1287">
-        <v>1542</v>
+        <v>1547</v>
       </c>
       <c r="B1287" t="s">
-        <v>3987</v>
+        <v>3994</v>
       </c>
       <c r="C1287" t="s">
         <v>3875</v>
@@ -62745,15 +62860,15 @@
         <v>1353</v>
       </c>
       <c r="M1287" t="s">
-        <v>4530</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="1288" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1288">
-        <v>1543</v>
+        <v>1548</v>
       </c>
       <c r="B1288" t="s">
-        <v>3988</v>
+        <v>3996</v>
       </c>
       <c r="C1288" t="s">
         <v>3875</v>
@@ -62768,15 +62883,15 @@
         <v>1353</v>
       </c>
       <c r="M1288" t="s">
-        <v>3989</v>
+        <v>3997</v>
       </c>
     </row>
     <row r="1289" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1289">
-        <v>1544</v>
+        <v>1549</v>
       </c>
       <c r="B1289" t="s">
-        <v>3990</v>
+        <v>3998</v>
       </c>
       <c r="C1289" t="s">
         <v>3875</v>
@@ -62791,15 +62906,15 @@
         <v>1353</v>
       </c>
       <c r="M1289" t="s">
-        <v>3991</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="1290" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1290">
-        <v>1545</v>
+        <v>1550</v>
       </c>
       <c r="B1290" t="s">
-        <v>3992</v>
+        <v>3999</v>
       </c>
       <c r="C1290" t="s">
         <v>3875</v>
@@ -62814,15 +62929,15 @@
         <v>1353</v>
       </c>
       <c r="M1290" t="s">
-        <v>4531</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="1291" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1291">
-        <v>1546</v>
+        <v>1551</v>
       </c>
       <c r="B1291" t="s">
-        <v>3993</v>
+        <v>4001</v>
       </c>
       <c r="C1291" t="s">
         <v>3875</v>
@@ -62837,15 +62952,15 @@
         <v>1353</v>
       </c>
       <c r="M1291" t="s">
-        <v>4532</v>
+        <v>4534</v>
       </c>
     </row>
     <row r="1292" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1292">
-        <v>1547</v>
+        <v>1552</v>
       </c>
       <c r="B1292" t="s">
-        <v>3994</v>
+        <v>4002</v>
       </c>
       <c r="C1292" t="s">
         <v>3875</v>
@@ -62860,15 +62975,15 @@
         <v>1353</v>
       </c>
       <c r="M1292" t="s">
-        <v>3995</v>
+        <v>4535</v>
       </c>
     </row>
     <row r="1293" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1293">
-        <v>1548</v>
+        <v>1553</v>
       </c>
       <c r="B1293" t="s">
-        <v>3996</v>
+        <v>4003</v>
       </c>
       <c r="C1293" t="s">
         <v>3875</v>
@@ -62883,15 +62998,15 @@
         <v>1353</v>
       </c>
       <c r="M1293" t="s">
-        <v>3997</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="1294" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1294">
-        <v>1549</v>
+        <v>1554</v>
       </c>
       <c r="B1294" t="s">
-        <v>3998</v>
+        <v>4004</v>
       </c>
       <c r="C1294" t="s">
         <v>3875</v>
@@ -62906,15 +63021,15 @@
         <v>1353</v>
       </c>
       <c r="M1294" t="s">
-        <v>4533</v>
+        <v>4537</v>
       </c>
     </row>
     <row r="1295" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1295">
-        <v>1550</v>
+        <v>1555</v>
       </c>
       <c r="B1295" t="s">
-        <v>3999</v>
+        <v>4005</v>
       </c>
       <c r="C1295" t="s">
         <v>3875</v>
@@ -62929,15 +63044,15 @@
         <v>1353</v>
       </c>
       <c r="M1295" t="s">
-        <v>4000</v>
+        <v>4538</v>
       </c>
     </row>
     <row r="1296" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1296">
-        <v>1551</v>
+        <v>1556</v>
       </c>
       <c r="B1296" t="s">
-        <v>4001</v>
+        <v>4006</v>
       </c>
       <c r="C1296" t="s">
         <v>3875</v>
@@ -62952,15 +63067,15 @@
         <v>1353</v>
       </c>
       <c r="M1296" t="s">
-        <v>4534</v>
+        <v>4539</v>
       </c>
     </row>
     <row r="1297" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1297">
-        <v>1552</v>
+        <v>1557</v>
       </c>
       <c r="B1297" t="s">
-        <v>4002</v>
+        <v>4007</v>
       </c>
       <c r="C1297" t="s">
         <v>3875</v>
@@ -62975,15 +63090,15 @@
         <v>1353</v>
       </c>
       <c r="M1297" t="s">
-        <v>4535</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="1298" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1298">
-        <v>1553</v>
+        <v>1558</v>
       </c>
       <c r="B1298" t="s">
-        <v>4003</v>
+        <v>4009</v>
       </c>
       <c r="C1298" t="s">
         <v>3875</v>
@@ -62998,15 +63113,15 @@
         <v>1353</v>
       </c>
       <c r="M1298" t="s">
-        <v>4536</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="1299" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1299">
-        <v>1554</v>
+        <v>1559</v>
       </c>
       <c r="B1299" t="s">
-        <v>4004</v>
+        <v>4010</v>
       </c>
       <c r="C1299" t="s">
         <v>3875</v>
@@ -63021,15 +63136,15 @@
         <v>1353</v>
       </c>
       <c r="M1299" t="s">
-        <v>4537</v>
+        <v>4541</v>
       </c>
     </row>
     <row r="1300" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1300">
-        <v>1555</v>
+        <v>1560</v>
       </c>
       <c r="B1300" t="s">
-        <v>4005</v>
+        <v>4011</v>
       </c>
       <c r="C1300" t="s">
         <v>3875</v>
@@ -63044,15 +63159,15 @@
         <v>1353</v>
       </c>
       <c r="M1300" t="s">
-        <v>4538</v>
+        <v>4012</v>
       </c>
     </row>
     <row r="1301" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1301">
-        <v>1556</v>
+        <v>1561</v>
       </c>
       <c r="B1301" t="s">
-        <v>4006</v>
+        <v>4013</v>
       </c>
       <c r="C1301" t="s">
         <v>3875</v>
@@ -63067,15 +63182,15 @@
         <v>1353</v>
       </c>
       <c r="M1301" t="s">
-        <v>4539</v>
+        <v>4542</v>
       </c>
     </row>
     <row r="1302" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1302">
-        <v>1557</v>
+        <v>1562</v>
       </c>
       <c r="B1302" t="s">
-        <v>4007</v>
+        <v>4014</v>
       </c>
       <c r="C1302" t="s">
         <v>3875</v>
@@ -63090,15 +63205,15 @@
         <v>1353</v>
       </c>
       <c r="M1302" t="s">
-        <v>4008</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="1303" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1303">
-        <v>1558</v>
+        <v>1563</v>
       </c>
       <c r="B1303" t="s">
-        <v>4009</v>
+        <v>4016</v>
       </c>
       <c r="C1303" t="s">
         <v>3875</v>
@@ -63113,15 +63228,15 @@
         <v>1353</v>
       </c>
       <c r="M1303" t="s">
-        <v>4540</v>
+        <v>4017</v>
       </c>
     </row>
     <row r="1304" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1304">
-        <v>1559</v>
+        <v>1564</v>
       </c>
       <c r="B1304" t="s">
-        <v>4010</v>
+        <v>4018</v>
       </c>
       <c r="C1304" t="s">
         <v>3875</v>
@@ -63136,15 +63251,15 @@
         <v>1353</v>
       </c>
       <c r="M1304" t="s">
-        <v>4541</v>
+        <v>4543</v>
       </c>
     </row>
     <row r="1305" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1305">
-        <v>1560</v>
+        <v>1565</v>
       </c>
       <c r="B1305" t="s">
-        <v>4011</v>
+        <v>4019</v>
       </c>
       <c r="C1305" t="s">
         <v>3875</v>
@@ -63159,15 +63274,15 @@
         <v>1353</v>
       </c>
       <c r="M1305" t="s">
-        <v>4012</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="1306" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1306">
-        <v>1561</v>
+        <v>1566</v>
       </c>
       <c r="B1306" t="s">
-        <v>4013</v>
+        <v>4021</v>
       </c>
       <c r="C1306" t="s">
         <v>3875</v>
@@ -63182,15 +63297,15 @@
         <v>1353</v>
       </c>
       <c r="M1306" t="s">
-        <v>4542</v>
+        <v>4544</v>
       </c>
     </row>
     <row r="1307" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1307">
-        <v>1562</v>
+        <v>1567</v>
       </c>
       <c r="B1307" t="s">
-        <v>4014</v>
+        <v>4022</v>
       </c>
       <c r="C1307" t="s">
         <v>3875</v>
@@ -63205,15 +63320,15 @@
         <v>1353</v>
       </c>
       <c r="M1307" t="s">
-        <v>4015</v>
+        <v>4545</v>
       </c>
     </row>
     <row r="1308" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1308">
-        <v>1563</v>
+        <v>1568</v>
       </c>
       <c r="B1308" t="s">
-        <v>4016</v>
+        <v>4023</v>
       </c>
       <c r="C1308" t="s">
         <v>3875</v>
@@ -63228,15 +63343,15 @@
         <v>1353</v>
       </c>
       <c r="M1308" t="s">
-        <v>4017</v>
+        <v>4546</v>
       </c>
     </row>
     <row r="1309" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1309">
-        <v>1564</v>
+        <v>1569</v>
       </c>
       <c r="B1309" t="s">
-        <v>4018</v>
+        <v>4024</v>
       </c>
       <c r="C1309" t="s">
         <v>3875</v>
@@ -63251,15 +63366,15 @@
         <v>1353</v>
       </c>
       <c r="M1309" t="s">
-        <v>4543</v>
+        <v>4547</v>
       </c>
     </row>
     <row r="1310" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1310">
-        <v>1565</v>
+        <v>1570</v>
       </c>
       <c r="B1310" t="s">
-        <v>4019</v>
+        <v>4025</v>
       </c>
       <c r="C1310" t="s">
         <v>3875</v>
@@ -63274,15 +63389,15 @@
         <v>1353</v>
       </c>
       <c r="M1310" t="s">
-        <v>4020</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="1311" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1311">
-        <v>1566</v>
+        <v>1571</v>
       </c>
       <c r="B1311" t="s">
-        <v>4021</v>
+        <v>4026</v>
       </c>
       <c r="C1311" t="s">
         <v>3875</v>
@@ -63297,15 +63412,15 @@
         <v>1353</v>
       </c>
       <c r="M1311" t="s">
-        <v>4544</v>
+        <v>4027</v>
       </c>
     </row>
     <row r="1312" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1312">
-        <v>1567</v>
+        <v>1572</v>
       </c>
       <c r="B1312" t="s">
-        <v>4022</v>
+        <v>4028</v>
       </c>
       <c r="C1312" t="s">
         <v>3875</v>
@@ -63320,15 +63435,15 @@
         <v>1353</v>
       </c>
       <c r="M1312" t="s">
-        <v>4545</v>
+        <v>4549</v>
       </c>
     </row>
     <row r="1313" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1313">
-        <v>1568</v>
+        <v>1573</v>
       </c>
       <c r="B1313" t="s">
-        <v>4023</v>
+        <v>4029</v>
       </c>
       <c r="C1313" t="s">
         <v>3875</v>
@@ -63343,15 +63458,15 @@
         <v>1353</v>
       </c>
       <c r="M1313" t="s">
-        <v>4546</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="1314" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1314">
-        <v>1569</v>
+        <v>1574</v>
       </c>
       <c r="B1314" t="s">
-        <v>4024</v>
+        <v>4030</v>
       </c>
       <c r="C1314" t="s">
         <v>3875</v>
@@ -63366,15 +63481,15 @@
         <v>1353</v>
       </c>
       <c r="M1314" t="s">
-        <v>4547</v>
+        <v>4031</v>
       </c>
     </row>
     <row r="1315" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1315">
-        <v>1570</v>
+        <v>1575</v>
       </c>
       <c r="B1315" t="s">
-        <v>4025</v>
+        <v>4032</v>
       </c>
       <c r="C1315" t="s">
         <v>3875</v>
@@ -63389,15 +63504,15 @@
         <v>1353</v>
       </c>
       <c r="M1315" t="s">
-        <v>4548</v>
+        <v>4033</v>
       </c>
     </row>
     <row r="1316" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1316">
-        <v>1571</v>
+        <v>1576</v>
       </c>
       <c r="B1316" t="s">
-        <v>4026</v>
+        <v>4034</v>
       </c>
       <c r="C1316" t="s">
         <v>3875</v>
@@ -63412,15 +63527,15 @@
         <v>1353</v>
       </c>
       <c r="M1316" t="s">
-        <v>4027</v>
+        <v>4035</v>
       </c>
     </row>
     <row r="1317" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1317">
-        <v>1572</v>
+        <v>1577</v>
       </c>
       <c r="B1317" t="s">
-        <v>4028</v>
+        <v>4036</v>
       </c>
       <c r="C1317" t="s">
         <v>3875</v>
@@ -63435,15 +63550,15 @@
         <v>1353</v>
       </c>
       <c r="M1317" t="s">
-        <v>4549</v>
+        <v>4037</v>
       </c>
     </row>
     <row r="1318" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1318">
-        <v>1573</v>
+        <v>1578</v>
       </c>
       <c r="B1318" t="s">
-        <v>4029</v>
+        <v>4038</v>
       </c>
       <c r="C1318" t="s">
         <v>3875</v>
@@ -63458,15 +63573,15 @@
         <v>1353</v>
       </c>
       <c r="M1318" t="s">
-        <v>4550</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="1319" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1319">
-        <v>1574</v>
+        <v>1579</v>
       </c>
       <c r="B1319" t="s">
-        <v>4030</v>
+        <v>4039</v>
       </c>
       <c r="C1319" t="s">
         <v>3875</v>
@@ -63481,15 +63596,15 @@
         <v>1353</v>
       </c>
       <c r="M1319" t="s">
-        <v>4031</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="1320" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1320">
-        <v>1575</v>
+        <v>1580</v>
       </c>
       <c r="B1320" t="s">
-        <v>4032</v>
+        <v>4041</v>
       </c>
       <c r="C1320" t="s">
         <v>3875</v>
@@ -63504,15 +63619,15 @@
         <v>1353</v>
       </c>
       <c r="M1320" t="s">
-        <v>4033</v>
+        <v>4042</v>
       </c>
     </row>
     <row r="1321" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1321">
-        <v>1576</v>
+        <v>1581</v>
       </c>
       <c r="B1321" t="s">
-        <v>4034</v>
+        <v>4043</v>
       </c>
       <c r="C1321" t="s">
         <v>3875</v>
@@ -63527,15 +63642,15 @@
         <v>1353</v>
       </c>
       <c r="M1321" t="s">
-        <v>4035</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="1322" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1322">
-        <v>1577</v>
+        <v>1582</v>
       </c>
       <c r="B1322" t="s">
-        <v>4036</v>
+        <v>4044</v>
       </c>
       <c r="C1322" t="s">
         <v>3875</v>
@@ -63550,15 +63665,15 @@
         <v>1353</v>
       </c>
       <c r="M1322" t="s">
-        <v>4037</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="1323" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1323">
-        <v>1578</v>
+        <v>1583</v>
       </c>
       <c r="B1323" t="s">
-        <v>4038</v>
+        <v>4046</v>
       </c>
       <c r="C1323" t="s">
         <v>3875</v>
@@ -63573,15 +63688,15 @@
         <v>1353</v>
       </c>
       <c r="M1323" t="s">
-        <v>4551</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="1324" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1324">
-        <v>1579</v>
+        <v>1584</v>
       </c>
       <c r="B1324" t="s">
-        <v>4039</v>
+        <v>4047</v>
       </c>
       <c r="C1324" t="s">
         <v>3875</v>
@@ -63596,15 +63711,15 @@
         <v>1353</v>
       </c>
       <c r="M1324" t="s">
-        <v>4040</v>
+        <v>4048</v>
       </c>
     </row>
     <row r="1325" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1325">
-        <v>1580</v>
+        <v>1585</v>
       </c>
       <c r="B1325" t="s">
-        <v>4041</v>
+        <v>4049</v>
       </c>
       <c r="C1325" t="s">
         <v>3875</v>
@@ -63619,15 +63734,15 @@
         <v>1353</v>
       </c>
       <c r="M1325" t="s">
-        <v>4042</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="1326" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1326">
-        <v>1581</v>
+        <v>1586</v>
       </c>
       <c r="B1326" t="s">
-        <v>4043</v>
+        <v>4051</v>
       </c>
       <c r="C1326" t="s">
         <v>3875</v>
@@ -63642,15 +63757,15 @@
         <v>1353</v>
       </c>
       <c r="M1326" t="s">
-        <v>4552</v>
+        <v>4052</v>
       </c>
     </row>
     <row r="1327" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1327">
-        <v>1582</v>
+        <v>1587</v>
       </c>
       <c r="B1327" t="s">
-        <v>4044</v>
+        <v>4053</v>
       </c>
       <c r="C1327" t="s">
         <v>3875</v>
@@ -63665,15 +63780,15 @@
         <v>1353</v>
       </c>
       <c r="M1327" t="s">
-        <v>4045</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="1328" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1328">
-        <v>1583</v>
+        <v>1588</v>
       </c>
       <c r="B1328" t="s">
-        <v>4046</v>
+        <v>4054</v>
       </c>
       <c r="C1328" t="s">
         <v>3875</v>
@@ -63688,15 +63803,15 @@
         <v>1353</v>
       </c>
       <c r="M1328" t="s">
-        <v>4553</v>
+        <v>4555</v>
       </c>
     </row>
     <row r="1329" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1329">
-        <v>1584</v>
+        <v>1589</v>
       </c>
       <c r="B1329" t="s">
-        <v>4047</v>
+        <v>4055</v>
       </c>
       <c r="C1329" t="s">
         <v>3875</v>
@@ -63711,15 +63826,15 @@
         <v>1353</v>
       </c>
       <c r="M1329" t="s">
-        <v>4048</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="1330" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1330">
-        <v>1585</v>
+        <v>1590</v>
       </c>
       <c r="B1330" t="s">
-        <v>4049</v>
+        <v>4056</v>
       </c>
       <c r="C1330" t="s">
         <v>3875</v>
@@ -63734,15 +63849,15 @@
         <v>1353</v>
       </c>
       <c r="M1330" t="s">
-        <v>4050</v>
+        <v>4557</v>
       </c>
     </row>
     <row r="1331" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1331">
-        <v>1586</v>
+        <v>1591</v>
       </c>
       <c r="B1331" t="s">
-        <v>4051</v>
+        <v>4057</v>
       </c>
       <c r="C1331" t="s">
         <v>3875</v>
@@ -63757,15 +63872,15 @@
         <v>1353</v>
       </c>
       <c r="M1331" t="s">
-        <v>4052</v>
+        <v>4558</v>
       </c>
     </row>
     <row r="1332" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1332">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="B1332" t="s">
-        <v>4053</v>
+        <v>4058</v>
       </c>
       <c r="C1332" t="s">
         <v>3875</v>
@@ -63780,15 +63895,15 @@
         <v>1353</v>
       </c>
       <c r="M1332" t="s">
-        <v>4554</v>
+        <v>4059</v>
       </c>
     </row>
     <row r="1333" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1333">
-        <v>1588</v>
+        <v>1593</v>
       </c>
       <c r="B1333" t="s">
-        <v>4054</v>
+        <v>4060</v>
       </c>
       <c r="C1333" t="s">
         <v>3875</v>
@@ -63803,15 +63918,15 @@
         <v>1353</v>
       </c>
       <c r="M1333" t="s">
-        <v>4555</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="1334" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1334">
-        <v>1589</v>
+        <v>1594</v>
       </c>
       <c r="B1334" t="s">
-        <v>4055</v>
+        <v>4061</v>
       </c>
       <c r="C1334" t="s">
         <v>3875</v>
@@ -63826,126 +63941,11 @@
         <v>1353</v>
       </c>
       <c r="M1334" t="s">
-        <v>4556</v>
-      </c>
-    </row>
-    <row r="1335" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1335">
-        <v>1590</v>
-      </c>
-      <c r="B1335" t="s">
-        <v>4056</v>
-      </c>
-      <c r="C1335" t="s">
-        <v>3875</v>
-      </c>
-      <c r="D1335">
-        <v>68000</v>
-      </c>
-      <c r="E1335" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1335" t="s">
-        <v>1353</v>
-      </c>
-      <c r="M1335" t="s">
-        <v>4557</v>
-      </c>
-    </row>
-    <row r="1336" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1336">
-        <v>1591</v>
-      </c>
-      <c r="B1336" t="s">
-        <v>4057</v>
-      </c>
-      <c r="C1336" t="s">
-        <v>3875</v>
-      </c>
-      <c r="D1336">
-        <v>68000</v>
-      </c>
-      <c r="E1336" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1336" t="s">
-        <v>1353</v>
-      </c>
-      <c r="M1336" t="s">
-        <v>4558</v>
-      </c>
-    </row>
-    <row r="1337" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1337">
-        <v>1592</v>
-      </c>
-      <c r="B1337" t="s">
-        <v>4058</v>
-      </c>
-      <c r="C1337" t="s">
-        <v>3875</v>
-      </c>
-      <c r="D1337">
-        <v>68000</v>
-      </c>
-      <c r="E1337" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1337" t="s">
-        <v>1353</v>
-      </c>
-      <c r="M1337" t="s">
-        <v>4059</v>
-      </c>
-    </row>
-    <row r="1338" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1338">
-        <v>1593</v>
-      </c>
-      <c r="B1338" t="s">
-        <v>4060</v>
-      </c>
-      <c r="C1338" t="s">
-        <v>3875</v>
-      </c>
-      <c r="D1338">
-        <v>68000</v>
-      </c>
-      <c r="E1338" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1338" t="s">
-        <v>1353</v>
-      </c>
-      <c r="M1338" t="s">
-        <v>4559</v>
-      </c>
-    </row>
-    <row r="1339" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1339">
-        <v>1594</v>
-      </c>
-      <c r="B1339" t="s">
-        <v>4061</v>
-      </c>
-      <c r="C1339" t="s">
-        <v>3875</v>
-      </c>
-      <c r="D1339">
-        <v>68000</v>
-      </c>
-      <c r="E1339" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1339" t="s">
-        <v>1353</v>
-      </c>
-      <c r="M1339" t="s">
         <v>4062</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1339"/>
+  <autoFilter ref="A1:M1334"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/0.36/compatibility.xlsx
+++ b/0.36/compatibility.xlsx
@@ -19,8 +19,8 @@
     <sheet name="GAME_NOT_WORKING FLAG" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ALL!$A$1:$M$1326</definedName>
-    <definedName name="LIST" localSheetId="2">ALL!$B$1:$M$1326</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ALL!$A$1:$M$1325</definedName>
+    <definedName name="LIST" localSheetId="2">ALL!$B$1:$M$1325</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -14753,10 +14753,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P673"/>
+  <dimension ref="A1:P674"/>
   <sheetViews>
     <sheetView topLeftCell="A654" workbookViewId="0">
-      <selection activeCell="A665" sqref="A665:A673"/>
+      <selection activeCell="A671" sqref="A671:A674"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30937,6 +30937,23 @@
         <v>4316</v>
       </c>
     </row>
+    <row r="674" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A674">
+        <v>674</v>
+      </c>
+      <c r="B674" t="s">
+        <v>2975</v>
+      </c>
+      <c r="C674" t="s">
+        <v>2976</v>
+      </c>
+      <c r="D674" t="s">
+        <v>405</v>
+      </c>
+      <c r="M674" t="s">
+        <v>2977</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -30945,10 +30962,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1326"/>
+  <dimension ref="A1:M1325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A649" workbookViewId="0">
-      <selection activeCell="G665" sqref="G665"/>
+    <sheetView tabSelected="1" topLeftCell="A897" workbookViewId="0">
+      <selection activeCell="A912" sqref="A912:XFD912"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -53834,64 +53851,67 @@
     </row>
     <row r="912" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A912">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="B912" t="s">
-        <v>2975</v>
+        <v>2978</v>
       </c>
       <c r="C912" t="s">
-        <v>2976</v>
+        <v>2979</v>
       </c>
       <c r="D912" t="s">
         <v>405</v>
       </c>
+      <c r="H912" t="s">
+        <v>333</v>
+      </c>
       <c r="M912" t="s">
-        <v>2977</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="913" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A913">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="B913" t="s">
-        <v>2978</v>
+        <v>2981</v>
       </c>
       <c r="C913" t="s">
-        <v>2979</v>
+        <v>2982</v>
       </c>
       <c r="D913" t="s">
         <v>405</v>
       </c>
-      <c r="H913" t="s">
-        <v>333</v>
-      </c>
       <c r="M913" t="s">
-        <v>2980</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="914" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A914">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="B914" t="s">
-        <v>2981</v>
+        <v>2984</v>
       </c>
       <c r="C914" t="s">
-        <v>2982</v>
+        <v>2985</v>
       </c>
       <c r="D914" t="s">
         <v>405</v>
       </c>
+      <c r="H914" t="s">
+        <v>2973</v>
+      </c>
       <c r="M914" t="s">
-        <v>2983</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="915" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A915">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="B915" t="s">
-        <v>2984</v>
+        <v>2986</v>
       </c>
       <c r="C915" t="s">
         <v>2985</v>
@@ -53903,15 +53923,15 @@
         <v>2973</v>
       </c>
       <c r="M915" t="s">
-        <v>4410</v>
+        <v>4411</v>
       </c>
     </row>
     <row r="916" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A916">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="B916" t="s">
-        <v>2986</v>
+        <v>2987</v>
       </c>
       <c r="C916" t="s">
         <v>2985</v>
@@ -53923,15 +53943,15 @@
         <v>2973</v>
       </c>
       <c r="M916" t="s">
-        <v>4411</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="917" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A917">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B917" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="C917" t="s">
         <v>2985</v>
@@ -53943,15 +53963,15 @@
         <v>2973</v>
       </c>
       <c r="M917" t="s">
-        <v>4412</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="918" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A918">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="B918" t="s">
-        <v>2988</v>
+        <v>2990</v>
       </c>
       <c r="C918" t="s">
         <v>2985</v>
@@ -53963,15 +53983,15 @@
         <v>2973</v>
       </c>
       <c r="M918" t="s">
-        <v>2989</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="919" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A919">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="B919" t="s">
-        <v>2990</v>
+        <v>2992</v>
       </c>
       <c r="C919" t="s">
         <v>2985</v>
@@ -53983,35 +54003,32 @@
         <v>2973</v>
       </c>
       <c r="M919" t="s">
-        <v>2991</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="920" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A920">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B920" t="s">
-        <v>2992</v>
+        <v>2994</v>
       </c>
       <c r="C920" t="s">
-        <v>2985</v>
+        <v>2995</v>
       </c>
       <c r="D920" t="s">
         <v>405</v>
       </c>
-      <c r="H920" t="s">
-        <v>2973</v>
-      </c>
       <c r="M920" t="s">
-        <v>2993</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="921" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A921">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B921" t="s">
-        <v>2994</v>
+        <v>2997</v>
       </c>
       <c r="C921" t="s">
         <v>2995</v>
@@ -54020,72 +54037,75 @@
         <v>405</v>
       </c>
       <c r="M921" t="s">
-        <v>2996</v>
+        <v>4413</v>
       </c>
     </row>
     <row r="922" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A922">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="B922" t="s">
-        <v>2997</v>
+        <v>2998</v>
       </c>
       <c r="C922" t="s">
-        <v>2995</v>
+        <v>2999</v>
       </c>
       <c r="D922" t="s">
-        <v>405</v>
+        <v>3000</v>
       </c>
       <c r="M922" t="s">
-        <v>4413</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="923" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A923">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B923" t="s">
-        <v>2998</v>
+        <v>3002</v>
       </c>
       <c r="C923" t="s">
-        <v>2999</v>
+        <v>3003</v>
       </c>
       <c r="D923" t="s">
-        <v>3000</v>
+        <v>405</v>
+      </c>
+      <c r="H923" t="s">
+        <v>2900</v>
       </c>
       <c r="M923" t="s">
-        <v>3001</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="924" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A924">
-        <v>1165</v>
+        <v>1170</v>
       </c>
       <c r="B924" t="s">
-        <v>3002</v>
+        <v>3012</v>
       </c>
       <c r="C924" t="s">
-        <v>3003</v>
+        <v>3013</v>
       </c>
       <c r="D924" t="s">
         <v>405</v>
       </c>
       <c r="H924" t="s">
-        <v>2900</v>
+        <v>2906</v>
       </c>
       <c r="M924" t="s">
-        <v>3004</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="925" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A925">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="B925" t="s">
-        <v>3012</v>
+        <v>3015</v>
       </c>
       <c r="C925" t="s">
-        <v>3013</v>
+        <v>3016</v>
       </c>
       <c r="D925" t="s">
         <v>405</v>
@@ -54094,35 +54114,35 @@
         <v>2906</v>
       </c>
       <c r="M925" t="s">
-        <v>3014</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="926" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A926">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="B926" t="s">
-        <v>3015</v>
+        <v>3025</v>
       </c>
       <c r="C926" t="s">
-        <v>3016</v>
+        <v>3026</v>
       </c>
       <c r="D926" t="s">
-        <v>405</v>
+        <v>14</v>
       </c>
       <c r="H926" t="s">
-        <v>2906</v>
+        <v>71</v>
       </c>
       <c r="M926" t="s">
-        <v>3017</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="927" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A927">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="B927" t="s">
-        <v>3025</v>
+        <v>3028</v>
       </c>
       <c r="C927" t="s">
         <v>3026</v>
@@ -54134,58 +54154,58 @@
         <v>71</v>
       </c>
       <c r="M927" t="s">
-        <v>3027</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="928" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A928">
-        <v>1173</v>
+        <v>1177</v>
       </c>
       <c r="B928" t="s">
-        <v>3028</v>
+        <v>3037</v>
       </c>
       <c r="C928" t="s">
-        <v>3026</v>
-      </c>
-      <c r="D928" t="s">
-        <v>14</v>
+        <v>3038</v>
+      </c>
+      <c r="D928">
+        <v>68000</v>
       </c>
       <c r="H928" t="s">
-        <v>71</v>
+        <v>3039</v>
       </c>
       <c r="M928" t="s">
-        <v>3029</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="929" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A929">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="B929" t="s">
-        <v>3037</v>
+        <v>3041</v>
       </c>
       <c r="C929" t="s">
-        <v>3038</v>
-      </c>
-      <c r="D929">
-        <v>68000</v>
+        <v>3042</v>
+      </c>
+      <c r="D929" t="s">
+        <v>405</v>
       </c>
       <c r="H929" t="s">
-        <v>3039</v>
+        <v>2906</v>
       </c>
       <c r="M929" t="s">
-        <v>3040</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="930" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A930">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="B930" t="s">
-        <v>3041</v>
+        <v>3044</v>
       </c>
       <c r="C930" t="s">
-        <v>3042</v>
+        <v>3045</v>
       </c>
       <c r="D930" t="s">
         <v>405</v>
@@ -54194,15 +54214,15 @@
         <v>2906</v>
       </c>
       <c r="M930" t="s">
-        <v>3043</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="931" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A931">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="B931" t="s">
-        <v>3044</v>
+        <v>3047</v>
       </c>
       <c r="C931" t="s">
         <v>3045</v>
@@ -54214,104 +54234,113 @@
         <v>2906</v>
       </c>
       <c r="M931" t="s">
-        <v>3046</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="932" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A932">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="B932" t="s">
-        <v>3047</v>
+        <v>3049</v>
       </c>
       <c r="C932" t="s">
-        <v>3045</v>
+        <v>3050</v>
       </c>
       <c r="D932" t="s">
         <v>405</v>
       </c>
+      <c r="E932" t="s">
+        <v>405</v>
+      </c>
       <c r="H932" t="s">
         <v>2906</v>
       </c>
       <c r="M932" t="s">
-        <v>3048</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="933" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A933">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B933" t="s">
-        <v>3049</v>
+        <v>3052</v>
       </c>
       <c r="C933" t="s">
-        <v>3050</v>
+        <v>3053</v>
       </c>
       <c r="D933" t="s">
         <v>405</v>
       </c>
-      <c r="E933" t="s">
-        <v>405</v>
-      </c>
       <c r="H933" t="s">
         <v>2906</v>
       </c>
       <c r="M933" t="s">
-        <v>3051</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="934" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A934">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="B934" t="s">
-        <v>3052</v>
+        <v>3055</v>
       </c>
       <c r="C934" t="s">
-        <v>3053</v>
+        <v>3056</v>
       </c>
       <c r="D934" t="s">
         <v>405</v>
       </c>
+      <c r="E934" t="s">
+        <v>405</v>
+      </c>
       <c r="H934" t="s">
-        <v>2906</v>
+        <v>2936</v>
+      </c>
+      <c r="I934" t="s">
+        <v>963</v>
       </c>
       <c r="M934" t="s">
-        <v>3054</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="935" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A935">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="B935" t="s">
-        <v>3055</v>
+        <v>3058</v>
       </c>
       <c r="C935" t="s">
-        <v>3056</v>
-      </c>
-      <c r="D935" t="s">
-        <v>405</v>
+        <v>3059</v>
+      </c>
+      <c r="D935">
+        <v>68010</v>
       </c>
       <c r="E935" t="s">
         <v>405</v>
       </c>
       <c r="H935" t="s">
-        <v>2936</v>
+        <v>551</v>
       </c>
       <c r="I935" t="s">
+        <v>2900</v>
+      </c>
+      <c r="J935" t="s">
         <v>963</v>
       </c>
       <c r="M935" t="s">
-        <v>3057</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="936" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A936">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B936" t="s">
-        <v>3058</v>
+        <v>3061</v>
       </c>
       <c r="C936" t="s">
         <v>3059</v>
@@ -54332,15 +54361,15 @@
         <v>963</v>
       </c>
       <c r="M936" t="s">
-        <v>3060</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="937" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A937">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="B937" t="s">
-        <v>3061</v>
+        <v>3063</v>
       </c>
       <c r="C937" t="s">
         <v>3059</v>
@@ -54361,15 +54390,15 @@
         <v>963</v>
       </c>
       <c r="M937" t="s">
-        <v>3062</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="938" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A938">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="B938" t="s">
-        <v>3063</v>
+        <v>3065</v>
       </c>
       <c r="C938" t="s">
         <v>3059</v>
@@ -54390,15 +54419,15 @@
         <v>963</v>
       </c>
       <c r="M938" t="s">
-        <v>3064</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="939" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A939">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="B939" t="s">
-        <v>3065</v>
+        <v>3067</v>
       </c>
       <c r="C939" t="s">
         <v>3059</v>
@@ -54419,15 +54448,15 @@
         <v>963</v>
       </c>
       <c r="M939" t="s">
-        <v>3066</v>
+        <v>4416</v>
       </c>
     </row>
     <row r="940" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A940">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="B940" t="s">
-        <v>3067</v>
+        <v>3068</v>
       </c>
       <c r="C940" t="s">
         <v>3059</v>
@@ -54448,15 +54477,15 @@
         <v>963</v>
       </c>
       <c r="M940" t="s">
-        <v>4416</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="941" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A941">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B941" t="s">
-        <v>3068</v>
+        <v>3069</v>
       </c>
       <c r="C941" t="s">
         <v>3059</v>
@@ -54477,15 +54506,15 @@
         <v>963</v>
       </c>
       <c r="M941" t="s">
-        <v>4417</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="942" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A942">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="B942" t="s">
-        <v>3069</v>
+        <v>3070</v>
       </c>
       <c r="C942" t="s">
         <v>3059</v>
@@ -54506,15 +54535,15 @@
         <v>963</v>
       </c>
       <c r="M942" t="s">
-        <v>4418</v>
+        <v>4419</v>
       </c>
     </row>
     <row r="943" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A943">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="B943" t="s">
-        <v>3070</v>
+        <v>3071</v>
       </c>
       <c r="C943" t="s">
         <v>3059</v>
@@ -54535,15 +54564,15 @@
         <v>963</v>
       </c>
       <c r="M943" t="s">
-        <v>4419</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="944" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A944">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B944" t="s">
-        <v>3071</v>
+        <v>3073</v>
       </c>
       <c r="C944" t="s">
         <v>3059</v>
@@ -54564,21 +54593,21 @@
         <v>963</v>
       </c>
       <c r="M944" t="s">
-        <v>3072</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="945" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A945">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B945" t="s">
-        <v>3073</v>
+        <v>3075</v>
       </c>
       <c r="C945" t="s">
-        <v>3059</v>
-      </c>
-      <c r="D945">
-        <v>68010</v>
+        <v>3076</v>
+      </c>
+      <c r="D945" t="s">
+        <v>3077</v>
       </c>
       <c r="E945" t="s">
         <v>405</v>
@@ -54587,21 +54616,21 @@
         <v>551</v>
       </c>
       <c r="I945" t="s">
-        <v>2900</v>
+        <v>2906</v>
       </c>
       <c r="J945" t="s">
         <v>963</v>
       </c>
       <c r="M945" t="s">
-        <v>3074</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="946" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A946">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="B946" t="s">
-        <v>3075</v>
+        <v>3079</v>
       </c>
       <c r="C946" t="s">
         <v>3076</v>
@@ -54618,19 +54647,16 @@
       <c r="I946" t="s">
         <v>2906</v>
       </c>
-      <c r="J946" t="s">
-        <v>963</v>
-      </c>
       <c r="M946" t="s">
-        <v>3078</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="947" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A947">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B947" t="s">
-        <v>3079</v>
+        <v>3081</v>
       </c>
       <c r="C947" t="s">
         <v>3076</v>
@@ -54648,15 +54674,15 @@
         <v>2906</v>
       </c>
       <c r="M947" t="s">
-        <v>3080</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="948" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A948">
-        <v>1196</v>
-      </c>
-      <c r="B948" t="s">
-        <v>3081</v>
+        <v>1197</v>
+      </c>
+      <c r="B948">
+        <v>720</v>
       </c>
       <c r="C948" t="s">
         <v>3076</v>
@@ -54673,16 +54699,19 @@
       <c r="I948" t="s">
         <v>2906</v>
       </c>
+      <c r="J948" t="s">
+        <v>963</v>
+      </c>
       <c r="M948" t="s">
-        <v>3082</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="949" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A949">
-        <v>1197</v>
-      </c>
-      <c r="B949">
-        <v>720</v>
+        <v>1198</v>
+      </c>
+      <c r="B949" t="s">
+        <v>3084</v>
       </c>
       <c r="C949" t="s">
         <v>3076</v>
@@ -54703,15 +54732,15 @@
         <v>963</v>
       </c>
       <c r="M949" t="s">
-        <v>3083</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="950" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A950">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B950" t="s">
-        <v>3084</v>
+        <v>3086</v>
       </c>
       <c r="C950" t="s">
         <v>3076</v>
@@ -54732,15 +54761,15 @@
         <v>963</v>
       </c>
       <c r="M950" t="s">
-        <v>3085</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="951" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A951">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="B951" t="s">
-        <v>3086</v>
+        <v>3087</v>
       </c>
       <c r="C951" t="s">
         <v>3076</v>
@@ -54761,21 +54790,21 @@
         <v>963</v>
       </c>
       <c r="M951" t="s">
-        <v>4420</v>
+        <v>4421</v>
       </c>
     </row>
     <row r="952" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A952">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="B952" t="s">
-        <v>3087</v>
+        <v>3088</v>
       </c>
       <c r="C952" t="s">
-        <v>3076</v>
-      </c>
-      <c r="D952" t="s">
-        <v>3077</v>
+        <v>3089</v>
+      </c>
+      <c r="D952">
+        <v>68010</v>
       </c>
       <c r="E952" t="s">
         <v>405</v>
@@ -54784,21 +54813,21 @@
         <v>551</v>
       </c>
       <c r="I952" t="s">
-        <v>2906</v>
+        <v>2900</v>
       </c>
       <c r="J952" t="s">
         <v>963</v>
       </c>
       <c r="M952" t="s">
-        <v>4421</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="953" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A953">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B953" t="s">
-        <v>3088</v>
+        <v>3091</v>
       </c>
       <c r="C953" t="s">
         <v>3089</v>
@@ -54819,15 +54848,15 @@
         <v>963</v>
       </c>
       <c r="M953" t="s">
-        <v>3090</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="954" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A954">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B954" t="s">
-        <v>3091</v>
+        <v>3092</v>
       </c>
       <c r="C954" t="s">
         <v>3089</v>
@@ -54848,15 +54877,15 @@
         <v>963</v>
       </c>
       <c r="M954" t="s">
-        <v>4422</v>
+        <v>4423</v>
       </c>
     </row>
     <row r="955" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A955">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B955" t="s">
-        <v>3092</v>
+        <v>3093</v>
       </c>
       <c r="C955" t="s">
         <v>3089</v>
@@ -54877,15 +54906,15 @@
         <v>963</v>
       </c>
       <c r="M955" t="s">
-        <v>4423</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="956" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A956">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="B956" t="s">
-        <v>3093</v>
+        <v>3095</v>
       </c>
       <c r="C956" t="s">
         <v>3089</v>
@@ -54906,15 +54935,15 @@
         <v>963</v>
       </c>
       <c r="M956" t="s">
-        <v>3094</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="957" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A957">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="B957" t="s">
-        <v>3095</v>
+        <v>3097</v>
       </c>
       <c r="C957" t="s">
         <v>3089</v>
@@ -54935,18 +54964,18 @@
         <v>963</v>
       </c>
       <c r="M957" t="s">
-        <v>3096</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="958" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A958">
-        <v>1206</v>
+        <v>1212</v>
       </c>
       <c r="B958" t="s">
-        <v>3097</v>
+        <v>3110</v>
       </c>
       <c r="C958" t="s">
-        <v>3089</v>
+        <v>3111</v>
       </c>
       <c r="D958">
         <v>68010</v>
@@ -54960,19 +54989,16 @@
       <c r="I958" t="s">
         <v>2900</v>
       </c>
-      <c r="J958" t="s">
-        <v>963</v>
-      </c>
       <c r="M958" t="s">
-        <v>3098</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="959" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A959">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="B959" t="s">
-        <v>3110</v>
+        <v>3113</v>
       </c>
       <c r="C959" t="s">
         <v>3111</v>
@@ -54990,15 +55016,15 @@
         <v>2900</v>
       </c>
       <c r="M959" t="s">
-        <v>3112</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="960" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A960">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B960" t="s">
-        <v>3113</v>
+        <v>3115</v>
       </c>
       <c r="C960" t="s">
         <v>3111</v>
@@ -55016,18 +55042,18 @@
         <v>2900</v>
       </c>
       <c r="M960" t="s">
-        <v>3114</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="961" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A961">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B961" t="s">
-        <v>3115</v>
+        <v>3117</v>
       </c>
       <c r="C961" t="s">
-        <v>3111</v>
+        <v>3118</v>
       </c>
       <c r="D961">
         <v>68010</v>
@@ -55042,41 +55068,35 @@
         <v>2900</v>
       </c>
       <c r="M961" t="s">
-        <v>3116</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="962" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A962">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B962" t="s">
-        <v>3117</v>
+        <v>3120</v>
       </c>
       <c r="C962" t="s">
-        <v>3118</v>
+        <v>3121</v>
       </c>
       <c r="D962">
-        <v>68010</v>
-      </c>
-      <c r="E962" t="s">
-        <v>405</v>
+        <v>68000</v>
       </c>
       <c r="H962" t="s">
-        <v>551</v>
-      </c>
-      <c r="I962" t="s">
-        <v>2900</v>
+        <v>1492</v>
       </c>
       <c r="M962" t="s">
-        <v>3119</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="963" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A963">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B963" t="s">
-        <v>3120</v>
+        <v>3123</v>
       </c>
       <c r="C963" t="s">
         <v>3121</v>
@@ -55088,15 +55108,15 @@
         <v>1492</v>
       </c>
       <c r="M963" t="s">
-        <v>3122</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="964" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A964">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B964" t="s">
-        <v>3123</v>
+        <v>3125</v>
       </c>
       <c r="C964" t="s">
         <v>3121</v>
@@ -55108,15 +55128,15 @@
         <v>1492</v>
       </c>
       <c r="M964" t="s">
-        <v>3124</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="965" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A965">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B965" t="s">
-        <v>3125</v>
+        <v>3127</v>
       </c>
       <c r="C965" t="s">
         <v>3121</v>
@@ -55128,35 +55148,38 @@
         <v>1492</v>
       </c>
       <c r="M965" t="s">
-        <v>3126</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="966" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A966">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="B966" t="s">
-        <v>3127</v>
+        <v>3129</v>
       </c>
       <c r="C966" t="s">
-        <v>3121</v>
+        <v>3130</v>
       </c>
       <c r="D966">
         <v>68000</v>
       </c>
+      <c r="E966" t="s">
+        <v>405</v>
+      </c>
       <c r="H966" t="s">
-        <v>1492</v>
+        <v>551</v>
       </c>
       <c r="M966" t="s">
-        <v>3128</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="967" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A967">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="B967" t="s">
-        <v>3129</v>
+        <v>3132</v>
       </c>
       <c r="C967" t="s">
         <v>3130</v>
@@ -55171,18 +55194,18 @@
         <v>551</v>
       </c>
       <c r="M967" t="s">
-        <v>3131</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="968" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A968">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="B968" t="s">
-        <v>3132</v>
+        <v>3134</v>
       </c>
       <c r="C968" t="s">
-        <v>3130</v>
+        <v>3135</v>
       </c>
       <c r="D968">
         <v>68000</v>
@@ -55194,38 +55217,44 @@
         <v>551</v>
       </c>
       <c r="M968" t="s">
-        <v>3133</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="969" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A969">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B969" t="s">
-        <v>3134</v>
+        <v>3137</v>
       </c>
       <c r="C969" t="s">
-        <v>3135</v>
+        <v>3138</v>
       </c>
       <c r="D969">
         <v>68000</v>
       </c>
-      <c r="E969" t="s">
+      <c r="E969">
+        <v>68000</v>
+      </c>
+      <c r="F969" t="s">
         <v>405</v>
       </c>
       <c r="H969" t="s">
         <v>551</v>
       </c>
+      <c r="I969" t="s">
+        <v>963</v>
+      </c>
       <c r="M969" t="s">
-        <v>3136</v>
+        <v>4424</v>
       </c>
     </row>
     <row r="970" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A970">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="B970" t="s">
-        <v>3137</v>
+        <v>3139</v>
       </c>
       <c r="C970" t="s">
         <v>3138</v>
@@ -55246,44 +55275,41 @@
         <v>963</v>
       </c>
       <c r="M970" t="s">
-        <v>4424</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="971" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A971">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B971" t="s">
-        <v>3139</v>
+        <v>3140</v>
       </c>
       <c r="C971" t="s">
-        <v>3138</v>
+        <v>3141</v>
       </c>
       <c r="D971">
         <v>68000</v>
       </c>
-      <c r="E971">
-        <v>68000</v>
-      </c>
-      <c r="F971" t="s">
+      <c r="E971" t="s">
         <v>405</v>
       </c>
       <c r="H971" t="s">
         <v>551</v>
       </c>
       <c r="I971" t="s">
-        <v>963</v>
+        <v>1492</v>
       </c>
       <c r="M971" t="s">
-        <v>4425</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="972" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A972">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B972" t="s">
-        <v>3140</v>
+        <v>3142</v>
       </c>
       <c r="C972" t="s">
         <v>3141</v>
@@ -55301,18 +55327,18 @@
         <v>1492</v>
       </c>
       <c r="M972" t="s">
-        <v>4426</v>
+        <v>4427</v>
       </c>
     </row>
     <row r="973" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A973">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B973" t="s">
-        <v>3142</v>
+        <v>3143</v>
       </c>
       <c r="C973" t="s">
-        <v>3141</v>
+        <v>3144</v>
       </c>
       <c r="D973">
         <v>68000</v>
@@ -55323,22 +55349,19 @@
       <c r="H973" t="s">
         <v>551</v>
       </c>
-      <c r="I973" t="s">
-        <v>1492</v>
-      </c>
       <c r="M973" t="s">
-        <v>4427</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="974" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A974">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B974" t="s">
-        <v>3143</v>
+        <v>3146</v>
       </c>
       <c r="C974" t="s">
-        <v>3144</v>
+        <v>3147</v>
       </c>
       <c r="D974">
         <v>68000</v>
@@ -55346,19 +55369,25 @@
       <c r="E974" t="s">
         <v>405</v>
       </c>
+      <c r="F974">
+        <v>68000</v>
+      </c>
       <c r="H974" t="s">
         <v>551</v>
       </c>
+      <c r="I974" t="s">
+        <v>93</v>
+      </c>
       <c r="M974" t="s">
-        <v>3145</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="975" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A975">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="B975" t="s">
-        <v>3146</v>
+        <v>3149</v>
       </c>
       <c r="C975" t="s">
         <v>3147</v>
@@ -55379,15 +55408,15 @@
         <v>93</v>
       </c>
       <c r="M975" t="s">
-        <v>3148</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="976" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A976">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B976" t="s">
-        <v>3149</v>
+        <v>3150</v>
       </c>
       <c r="C976" t="s">
         <v>3147</v>
@@ -55398,51 +55427,45 @@
       <c r="E976" t="s">
         <v>405</v>
       </c>
-      <c r="F976">
-        <v>68000</v>
-      </c>
       <c r="H976" t="s">
         <v>551</v>
       </c>
       <c r="I976" t="s">
-        <v>93</v>
+        <v>1492</v>
       </c>
       <c r="M976" t="s">
-        <v>4428</v>
+        <v>4429</v>
       </c>
     </row>
     <row r="977" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A977">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="B977" t="s">
-        <v>3150</v>
+        <v>3151</v>
       </c>
       <c r="C977" t="s">
-        <v>3147</v>
+        <v>3152</v>
       </c>
       <c r="D977">
         <v>68000</v>
       </c>
-      <c r="E977" t="s">
-        <v>405</v>
-      </c>
       <c r="H977" t="s">
-        <v>551</v>
+        <v>1492</v>
       </c>
       <c r="I977" t="s">
-        <v>1492</v>
+        <v>1823</v>
       </c>
       <c r="M977" t="s">
-        <v>4429</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="978" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A978">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="B978" t="s">
-        <v>3151</v>
+        <v>3153</v>
       </c>
       <c r="C978" t="s">
         <v>3152</v>
@@ -55457,15 +55480,15 @@
         <v>1823</v>
       </c>
       <c r="M978" t="s">
-        <v>4430</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="979" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A979">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="B979" t="s">
-        <v>3153</v>
+        <v>3154</v>
       </c>
       <c r="C979" t="s">
         <v>3152</v>
@@ -55480,18 +55503,18 @@
         <v>1823</v>
       </c>
       <c r="M979" t="s">
-        <v>4431</v>
+        <v>4432</v>
       </c>
     </row>
     <row r="980" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A980">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="B980" t="s">
-        <v>3154</v>
+        <v>3155</v>
       </c>
       <c r="C980" t="s">
-        <v>3152</v>
+        <v>3156</v>
       </c>
       <c r="D980">
         <v>68000</v>
@@ -55499,19 +55522,16 @@
       <c r="H980" t="s">
         <v>1492</v>
       </c>
-      <c r="I980" t="s">
-        <v>1823</v>
-      </c>
       <c r="M980" t="s">
-        <v>4432</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="981" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A981">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="B981" t="s">
-        <v>3155</v>
+        <v>3158</v>
       </c>
       <c r="C981" t="s">
         <v>3156</v>
@@ -55523,35 +55543,41 @@
         <v>1492</v>
       </c>
       <c r="M981" t="s">
-        <v>3157</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="982" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A982">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="B982" t="s">
-        <v>3158</v>
+        <v>3160</v>
       </c>
       <c r="C982" t="s">
-        <v>3156</v>
+        <v>3161</v>
       </c>
       <c r="D982">
         <v>68000</v>
       </c>
+      <c r="E982" t="s">
+        <v>405</v>
+      </c>
       <c r="H982" t="s">
+        <v>551</v>
+      </c>
+      <c r="I982" t="s">
         <v>1492</v>
       </c>
       <c r="M982" t="s">
-        <v>3159</v>
+        <v>3162</v>
       </c>
     </row>
     <row r="983" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A983">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="B983" t="s">
-        <v>3160</v>
+        <v>3163</v>
       </c>
       <c r="C983" t="s">
         <v>3161</v>
@@ -55569,15 +55595,15 @@
         <v>1492</v>
       </c>
       <c r="M983" t="s">
-        <v>3162</v>
+        <v>3164</v>
       </c>
     </row>
     <row r="984" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A984">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="B984" t="s">
-        <v>3163</v>
+        <v>3165</v>
       </c>
       <c r="C984" t="s">
         <v>3161</v>
@@ -55595,15 +55621,15 @@
         <v>1492</v>
       </c>
       <c r="M984" t="s">
-        <v>3164</v>
+        <v>3166</v>
       </c>
     </row>
     <row r="985" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A985">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="B985" t="s">
-        <v>3165</v>
+        <v>3167</v>
       </c>
       <c r="C985" t="s">
         <v>3161</v>
@@ -55621,23 +55647,26 @@
         <v>1492</v>
       </c>
       <c r="M985" t="s">
-        <v>3166</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="986" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A986">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="B986" t="s">
-        <v>3167</v>
+        <v>3169</v>
       </c>
       <c r="C986" t="s">
-        <v>3161</v>
+        <v>3170</v>
       </c>
       <c r="D986">
         <v>68000</v>
       </c>
-      <c r="E986" t="s">
+      <c r="E986">
+        <v>68000</v>
+      </c>
+      <c r="F986" t="s">
         <v>405</v>
       </c>
       <c r="H986" t="s">
@@ -55647,26 +55676,23 @@
         <v>1492</v>
       </c>
       <c r="M986" t="s">
-        <v>3168</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="987" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A987">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B987" t="s">
-        <v>3169</v>
+        <v>3172</v>
       </c>
       <c r="C987" t="s">
-        <v>3170</v>
+        <v>3173</v>
       </c>
       <c r="D987">
         <v>68000</v>
       </c>
-      <c r="E987">
-        <v>68000</v>
-      </c>
-      <c r="F987" t="s">
+      <c r="E987" t="s">
         <v>405</v>
       </c>
       <c r="H987" t="s">
@@ -55676,41 +55702,38 @@
         <v>1492</v>
       </c>
       <c r="M987" t="s">
-        <v>3171</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="988" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A988">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="B988" t="s">
-        <v>3172</v>
+        <v>3175</v>
       </c>
       <c r="C988" t="s">
-        <v>3173</v>
+        <v>3176</v>
       </c>
       <c r="D988">
         <v>68000</v>
       </c>
-      <c r="E988" t="s">
-        <v>405</v>
-      </c>
       <c r="H988" t="s">
-        <v>551</v>
+        <v>1492</v>
       </c>
       <c r="I988" t="s">
-        <v>1492</v>
+        <v>1823</v>
       </c>
       <c r="M988" t="s">
-        <v>3174</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="989" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A989">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="B989" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
       <c r="C989" t="s">
         <v>3176</v>
@@ -55725,38 +55748,38 @@
         <v>1823</v>
       </c>
       <c r="M989" t="s">
-        <v>3177</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="990" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A990">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="B990" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
       <c r="C990" t="s">
-        <v>3176</v>
+        <v>3181</v>
       </c>
       <c r="D990">
         <v>68000</v>
       </c>
+      <c r="E990" t="s">
+        <v>405</v>
+      </c>
       <c r="H990" t="s">
-        <v>1492</v>
-      </c>
-      <c r="I990" t="s">
-        <v>1823</v>
+        <v>551</v>
       </c>
       <c r="M990" t="s">
-        <v>3179</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="991" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A991">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="B991" t="s">
-        <v>3180</v>
+        <v>3182</v>
       </c>
       <c r="C991" t="s">
         <v>3181</v>
@@ -55771,38 +55794,35 @@
         <v>551</v>
       </c>
       <c r="M991" t="s">
-        <v>4433</v>
+        <v>4434</v>
       </c>
     </row>
     <row r="992" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A992">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="B992" t="s">
-        <v>3182</v>
+        <v>3183</v>
       </c>
       <c r="C992" t="s">
-        <v>3181</v>
+        <v>3184</v>
       </c>
       <c r="D992">
         <v>68000</v>
       </c>
-      <c r="E992" t="s">
-        <v>405</v>
-      </c>
       <c r="H992" t="s">
-        <v>551</v>
+        <v>1492</v>
       </c>
       <c r="M992" t="s">
-        <v>4434</v>
+        <v>4435</v>
       </c>
     </row>
     <row r="993" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A993">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="B993" t="s">
-        <v>3183</v>
+        <v>3185</v>
       </c>
       <c r="C993" t="s">
         <v>3184</v>
@@ -55814,35 +55834,32 @@
         <v>1492</v>
       </c>
       <c r="M993" t="s">
-        <v>4435</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="994" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A994">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="B994" t="s">
-        <v>3185</v>
+        <v>3187</v>
       </c>
       <c r="C994" t="s">
-        <v>3184</v>
-      </c>
-      <c r="D994">
-        <v>68000</v>
-      </c>
-      <c r="H994" t="s">
-        <v>1492</v>
+        <v>3188</v>
+      </c>
+      <c r="D994" t="s">
+        <v>405</v>
       </c>
       <c r="M994" t="s">
-        <v>3186</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="995" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A995">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="B995" t="s">
-        <v>3187</v>
+        <v>3190</v>
       </c>
       <c r="C995" t="s">
         <v>3188</v>
@@ -55850,16 +55867,19 @@
       <c r="D995" t="s">
         <v>405</v>
       </c>
+      <c r="H995" t="s">
+        <v>93</v>
+      </c>
       <c r="M995" t="s">
-        <v>3189</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="996" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A996">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="B996" t="s">
-        <v>3190</v>
+        <v>3192</v>
       </c>
       <c r="C996" t="s">
         <v>3188</v>
@@ -55871,15 +55891,15 @@
         <v>93</v>
       </c>
       <c r="M996" t="s">
-        <v>3191</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="997" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A997">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="B997" t="s">
-        <v>3192</v>
+        <v>3194</v>
       </c>
       <c r="C997" t="s">
         <v>3188</v>
@@ -55891,15 +55911,15 @@
         <v>93</v>
       </c>
       <c r="M997" t="s">
-        <v>3193</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="998" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A998">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="B998" t="s">
-        <v>3194</v>
+        <v>3196</v>
       </c>
       <c r="C998" t="s">
         <v>3188</v>
@@ -55911,15 +55931,15 @@
         <v>93</v>
       </c>
       <c r="M998" t="s">
-        <v>3195</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="999" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A999">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="B999" t="s">
-        <v>3196</v>
+        <v>3198</v>
       </c>
       <c r="C999" t="s">
         <v>3188</v>
@@ -55931,15 +55951,15 @@
         <v>93</v>
       </c>
       <c r="M999" t="s">
-        <v>3197</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="1000" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1000">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B1000" t="s">
-        <v>3198</v>
+        <v>3200</v>
       </c>
       <c r="C1000" t="s">
         <v>3188</v>
@@ -55951,15 +55971,15 @@
         <v>93</v>
       </c>
       <c r="M1000" t="s">
-        <v>3199</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="1001" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1001">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="B1001" t="s">
-        <v>3200</v>
+        <v>3202</v>
       </c>
       <c r="C1001" t="s">
         <v>3188</v>
@@ -55971,15 +55991,15 @@
         <v>93</v>
       </c>
       <c r="M1001" t="s">
-        <v>3201</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="1002" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1002">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B1002" t="s">
-        <v>3202</v>
+        <v>3204</v>
       </c>
       <c r="C1002" t="s">
         <v>3188</v>
@@ -55991,15 +56011,15 @@
         <v>93</v>
       </c>
       <c r="M1002" t="s">
-        <v>3203</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="1003" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1003">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="B1003" t="s">
-        <v>3204</v>
+        <v>3206</v>
       </c>
       <c r="C1003" t="s">
         <v>3188</v>
@@ -56011,61 +56031,64 @@
         <v>93</v>
       </c>
       <c r="M1003" t="s">
-        <v>3205</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="1004" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1004">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="B1004" t="s">
-        <v>3206</v>
+        <v>3208</v>
       </c>
       <c r="C1004" t="s">
-        <v>3188</v>
+        <v>3209</v>
       </c>
       <c r="D1004" t="s">
         <v>405</v>
       </c>
+      <c r="E1004" t="s">
+        <v>405</v>
+      </c>
+      <c r="F1004" t="s">
+        <v>1184</v>
+      </c>
       <c r="H1004" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="M1004" t="s">
-        <v>3207</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="1005" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1005">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="B1005" t="s">
-        <v>3208</v>
+        <v>3211</v>
       </c>
       <c r="C1005" t="s">
-        <v>3209</v>
+        <v>3212</v>
       </c>
       <c r="D1005" t="s">
-        <v>405</v>
+        <v>14</v>
       </c>
       <c r="E1005" t="s">
-        <v>405</v>
-      </c>
-      <c r="F1005" t="s">
-        <v>1184</v>
+        <v>154</v>
       </c>
       <c r="H1005" t="s">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c r="M1005" t="s">
-        <v>3210</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="1006" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1006">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="B1006" t="s">
-        <v>3211</v>
+        <v>3214</v>
       </c>
       <c r="C1006" t="s">
         <v>3212</v>
@@ -56080,38 +56103,41 @@
         <v>172</v>
       </c>
       <c r="M1006" t="s">
-        <v>3213</v>
+        <v>3215</v>
       </c>
     </row>
     <row r="1007" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1007">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="B1007" t="s">
-        <v>3214</v>
+        <v>3277</v>
       </c>
       <c r="C1007" t="s">
-        <v>3212</v>
-      </c>
-      <c r="D1007" t="s">
-        <v>14</v>
+        <v>3278</v>
+      </c>
+      <c r="D1007">
+        <v>68000</v>
       </c>
       <c r="E1007" t="s">
         <v>154</v>
       </c>
       <c r="H1007" t="s">
-        <v>172</v>
+        <v>349</v>
+      </c>
+      <c r="I1007" t="s">
+        <v>2082</v>
       </c>
       <c r="M1007" t="s">
-        <v>3215</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="1008" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1008">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="B1008" t="s">
-        <v>3277</v>
+        <v>3280</v>
       </c>
       <c r="C1008" t="s">
         <v>3278</v>
@@ -56129,15 +56155,15 @@
         <v>2082</v>
       </c>
       <c r="M1008" t="s">
-        <v>3279</v>
+        <v>4441</v>
       </c>
     </row>
     <row r="1009" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1009">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="B1009" t="s">
-        <v>3280</v>
+        <v>3281</v>
       </c>
       <c r="C1009" t="s">
         <v>3278</v>
@@ -56155,15 +56181,15 @@
         <v>2082</v>
       </c>
       <c r="M1009" t="s">
-        <v>4441</v>
+        <v>4442</v>
       </c>
     </row>
     <row r="1010" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1010">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="B1010" t="s">
-        <v>3281</v>
+        <v>3282</v>
       </c>
       <c r="C1010" t="s">
         <v>3278</v>
@@ -56181,15 +56207,15 @@
         <v>2082</v>
       </c>
       <c r="M1010" t="s">
-        <v>4442</v>
+        <v>4443</v>
       </c>
     </row>
     <row r="1011" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1011">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="B1011" t="s">
-        <v>3282</v>
+        <v>3283</v>
       </c>
       <c r="C1011" t="s">
         <v>3278</v>
@@ -56207,15 +56233,15 @@
         <v>2082</v>
       </c>
       <c r="M1011" t="s">
-        <v>4443</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="1012" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1012">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="B1012" t="s">
-        <v>3283</v>
+        <v>3284</v>
       </c>
       <c r="C1012" t="s">
         <v>3278</v>
@@ -56233,15 +56259,15 @@
         <v>2082</v>
       </c>
       <c r="M1012" t="s">
-        <v>4444</v>
+        <v>4445</v>
       </c>
     </row>
     <row r="1013" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1013">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="B1013" t="s">
-        <v>3284</v>
+        <v>3285</v>
       </c>
       <c r="C1013" t="s">
         <v>3278</v>
@@ -56259,15 +56285,15 @@
         <v>2082</v>
       </c>
       <c r="M1013" t="s">
-        <v>4445</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="1014" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1014">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="B1014" t="s">
-        <v>3285</v>
+        <v>3286</v>
       </c>
       <c r="C1014" t="s">
         <v>3278</v>
@@ -56285,18 +56311,18 @@
         <v>2082</v>
       </c>
       <c r="M1014" t="s">
-        <v>4446</v>
+        <v>4447</v>
       </c>
     </row>
     <row r="1015" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1015">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="B1015" t="s">
-        <v>3286</v>
+        <v>3287</v>
       </c>
       <c r="C1015" t="s">
-        <v>3278</v>
+        <v>3288</v>
       </c>
       <c r="D1015">
         <v>68000</v>
@@ -56311,15 +56337,15 @@
         <v>2082</v>
       </c>
       <c r="M1015" t="s">
-        <v>4447</v>
+        <v>4448</v>
       </c>
     </row>
     <row r="1016" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1016">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="B1016" t="s">
-        <v>3287</v>
+        <v>3289</v>
       </c>
       <c r="C1016" t="s">
         <v>3288</v>
@@ -56337,15 +56363,15 @@
         <v>2082</v>
       </c>
       <c r="M1016" t="s">
-        <v>4448</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="1017" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1017">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="B1017" t="s">
-        <v>3289</v>
+        <v>3290</v>
       </c>
       <c r="C1017" t="s">
         <v>3288</v>
@@ -56363,18 +56389,18 @@
         <v>2082</v>
       </c>
       <c r="M1017" t="s">
-        <v>4449</v>
+        <v>3291</v>
       </c>
     </row>
     <row r="1018" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1018">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="B1018" t="s">
-        <v>3290</v>
+        <v>3292</v>
       </c>
       <c r="C1018" t="s">
-        <v>3288</v>
+        <v>3293</v>
       </c>
       <c r="D1018">
         <v>68000</v>
@@ -56383,21 +56409,24 @@
         <v>154</v>
       </c>
       <c r="H1018" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="I1018" t="s">
-        <v>2082</v>
+        <v>1823</v>
+      </c>
+      <c r="J1018" t="s">
+        <v>166</v>
       </c>
       <c r="M1018" t="s">
-        <v>3291</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="1019" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1019">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="B1019" t="s">
-        <v>3292</v>
+        <v>3295</v>
       </c>
       <c r="C1019" t="s">
         <v>3293</v>
@@ -56418,15 +56447,15 @@
         <v>166</v>
       </c>
       <c r="M1019" t="s">
-        <v>3294</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="1020" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1020">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="B1020" t="s">
-        <v>3295</v>
+        <v>3297</v>
       </c>
       <c r="C1020" t="s">
         <v>3293</v>
@@ -56447,15 +56476,15 @@
         <v>166</v>
       </c>
       <c r="M1020" t="s">
-        <v>3296</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="1021" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1021">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B1021" t="s">
-        <v>3297</v>
+        <v>3299</v>
       </c>
       <c r="C1021" t="s">
         <v>3293</v>
@@ -56476,15 +56505,15 @@
         <v>166</v>
       </c>
       <c r="M1021" t="s">
-        <v>3298</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="1022" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1022">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="B1022" t="s">
-        <v>3299</v>
+        <v>3301</v>
       </c>
       <c r="C1022" t="s">
         <v>3293</v>
@@ -56505,15 +56534,15 @@
         <v>166</v>
       </c>
       <c r="M1022" t="s">
-        <v>3300</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="1023" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1023">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="B1023" t="s">
-        <v>3301</v>
+        <v>3303</v>
       </c>
       <c r="C1023" t="s">
         <v>3293</v>
@@ -56534,15 +56563,15 @@
         <v>166</v>
       </c>
       <c r="M1023" t="s">
-        <v>3302</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="1024" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1024">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="B1024" t="s">
-        <v>3303</v>
+        <v>3305</v>
       </c>
       <c r="C1024" t="s">
         <v>3293</v>
@@ -56563,15 +56592,15 @@
         <v>166</v>
       </c>
       <c r="M1024" t="s">
-        <v>3304</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="1025" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1025">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="B1025" t="s">
-        <v>3305</v>
+        <v>3307</v>
       </c>
       <c r="C1025" t="s">
         <v>3293</v>
@@ -56592,15 +56621,15 @@
         <v>166</v>
       </c>
       <c r="M1025" t="s">
-        <v>3306</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="1026" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1026">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="B1026" t="s">
-        <v>3307</v>
+        <v>3309</v>
       </c>
       <c r="C1026" t="s">
         <v>3293</v>
@@ -56621,44 +56650,35 @@
         <v>166</v>
       </c>
       <c r="M1026" t="s">
-        <v>3308</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="1027" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1027">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="B1027" t="s">
-        <v>3309</v>
+        <v>3311</v>
       </c>
       <c r="C1027" t="s">
-        <v>3293</v>
-      </c>
-      <c r="D1027">
-        <v>68000</v>
-      </c>
-      <c r="E1027" t="s">
-        <v>154</v>
+        <v>3312</v>
+      </c>
+      <c r="D1027" t="s">
+        <v>405</v>
       </c>
       <c r="H1027" t="s">
-        <v>336</v>
-      </c>
-      <c r="I1027" t="s">
-        <v>1823</v>
-      </c>
-      <c r="J1027" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M1027" t="s">
-        <v>3310</v>
+        <v>3313</v>
       </c>
     </row>
     <row r="1028" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1028">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="B1028" t="s">
-        <v>3311</v>
+        <v>3314</v>
       </c>
       <c r="C1028" t="s">
         <v>3312</v>
@@ -56670,35 +56690,41 @@
         <v>172</v>
       </c>
       <c r="M1028" t="s">
-        <v>3313</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="1029" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1029">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="B1029" t="s">
-        <v>3314</v>
+        <v>3316</v>
       </c>
       <c r="C1029" t="s">
-        <v>3312</v>
+        <v>3317</v>
       </c>
       <c r="D1029" t="s">
         <v>405</v>
       </c>
+      <c r="E1029" t="s">
+        <v>1184</v>
+      </c>
       <c r="H1029" t="s">
         <v>172</v>
       </c>
+      <c r="I1029" t="s">
+        <v>166</v>
+      </c>
       <c r="M1029" t="s">
-        <v>3315</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1030" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1030">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="B1030" t="s">
-        <v>3316</v>
+        <v>3319</v>
       </c>
       <c r="C1030" t="s">
         <v>3317</v>
@@ -56716,18 +56742,18 @@
         <v>166</v>
       </c>
       <c r="M1030" t="s">
-        <v>3318</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="1031" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1031">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B1031" t="s">
-        <v>3319</v>
+        <v>3321</v>
       </c>
       <c r="C1031" t="s">
-        <v>3317</v>
+        <v>3322</v>
       </c>
       <c r="D1031" t="s">
         <v>405</v>
@@ -56742,18 +56768,18 @@
         <v>166</v>
       </c>
       <c r="M1031" t="s">
-        <v>3320</v>
+        <v>3323</v>
       </c>
     </row>
     <row r="1032" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1032">
-        <v>1285</v>
+        <v>1288</v>
       </c>
       <c r="B1032" t="s">
-        <v>3321</v>
+        <v>3330</v>
       </c>
       <c r="C1032" t="s">
-        <v>3322</v>
+        <v>3331</v>
       </c>
       <c r="D1032" t="s">
         <v>405</v>
@@ -56768,15 +56794,15 @@
         <v>166</v>
       </c>
       <c r="M1032" t="s">
-        <v>3323</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="1033" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1033">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="B1033" t="s">
-        <v>3330</v>
+        <v>3333</v>
       </c>
       <c r="C1033" t="s">
         <v>3331</v>
@@ -56794,15 +56820,15 @@
         <v>166</v>
       </c>
       <c r="M1033" t="s">
-        <v>3332</v>
+        <v>3334</v>
       </c>
     </row>
     <row r="1034" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1034">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="B1034" t="s">
-        <v>3333</v>
+        <v>3335</v>
       </c>
       <c r="C1034" t="s">
         <v>3331</v>
@@ -56811,24 +56837,27 @@
         <v>405</v>
       </c>
       <c r="E1034" t="s">
-        <v>1184</v>
+        <v>967</v>
+      </c>
+      <c r="F1034" t="s">
+        <v>1220</v>
       </c>
       <c r="H1034" t="s">
-        <v>172</v>
+        <v>332</v>
       </c>
       <c r="I1034" t="s">
         <v>166</v>
       </c>
       <c r="M1034" t="s">
-        <v>3334</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="1035" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1035">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="B1035" t="s">
-        <v>3335</v>
+        <v>3337</v>
       </c>
       <c r="C1035" t="s">
         <v>3331</v>
@@ -56849,18 +56878,18 @@
         <v>166</v>
       </c>
       <c r="M1035" t="s">
-        <v>3336</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="1036" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1036">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="B1036" t="s">
-        <v>3337</v>
+        <v>3339</v>
       </c>
       <c r="C1036" t="s">
-        <v>3331</v>
+        <v>3340</v>
       </c>
       <c r="D1036" t="s">
         <v>405</v>
@@ -56868,25 +56897,22 @@
       <c r="E1036" t="s">
         <v>967</v>
       </c>
-      <c r="F1036" t="s">
-        <v>1220</v>
-      </c>
       <c r="H1036" t="s">
         <v>332</v>
       </c>
       <c r="I1036" t="s">
-        <v>166</v>
+        <v>1320</v>
       </c>
       <c r="M1036" t="s">
-        <v>3338</v>
+        <v>3341</v>
       </c>
     </row>
     <row r="1037" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1037">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="B1037" t="s">
-        <v>3339</v>
+        <v>3342</v>
       </c>
       <c r="C1037" t="s">
         <v>3340</v>
@@ -56904,15 +56930,15 @@
         <v>1320</v>
       </c>
       <c r="M1037" t="s">
-        <v>3341</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="1038" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1038">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="B1038" t="s">
-        <v>3342</v>
+        <v>3343</v>
       </c>
       <c r="C1038" t="s">
         <v>3340</v>
@@ -56930,41 +56956,44 @@
         <v>1320</v>
       </c>
       <c r="M1038" t="s">
-        <v>4450</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="1039" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1039">
-        <v>1294</v>
+        <v>1301</v>
       </c>
       <c r="B1039" t="s">
-        <v>3343</v>
+        <v>3355</v>
       </c>
       <c r="C1039" t="s">
-        <v>3340</v>
+        <v>3356</v>
       </c>
       <c r="D1039" t="s">
-        <v>405</v>
+        <v>2316</v>
       </c>
       <c r="E1039" t="s">
-        <v>967</v>
+        <v>531</v>
+      </c>
+      <c r="F1039" t="s">
+        <v>3357</v>
       </c>
       <c r="H1039" t="s">
-        <v>332</v>
+        <v>551</v>
       </c>
       <c r="I1039" t="s">
-        <v>1320</v>
+        <v>3358</v>
       </c>
       <c r="M1039" t="s">
-        <v>4451</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="1040" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1040">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="B1040" t="s">
-        <v>3355</v>
+        <v>3360</v>
       </c>
       <c r="C1040" t="s">
         <v>3356</v>
@@ -56973,7 +57002,7 @@
         <v>2316</v>
       </c>
       <c r="E1040" t="s">
-        <v>531</v>
+        <v>2316</v>
       </c>
       <c r="F1040" t="s">
         <v>3357</v>
@@ -56985,15 +57014,15 @@
         <v>3358</v>
       </c>
       <c r="M1040" t="s">
-        <v>3359</v>
+        <v>3361</v>
       </c>
     </row>
     <row r="1041" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1041">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="B1041" t="s">
-        <v>3360</v>
+        <v>3362</v>
       </c>
       <c r="C1041" t="s">
         <v>3356</v>
@@ -57002,38 +57031,35 @@
         <v>2316</v>
       </c>
       <c r="E1041" t="s">
-        <v>2316</v>
+        <v>14</v>
       </c>
       <c r="F1041" t="s">
-        <v>3357</v>
+        <v>154</v>
       </c>
       <c r="H1041" t="s">
         <v>551</v>
       </c>
       <c r="I1041" t="s">
-        <v>3358</v>
+        <v>1492</v>
       </c>
       <c r="M1041" t="s">
-        <v>3361</v>
+        <v>4455</v>
       </c>
     </row>
     <row r="1042" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1042">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="B1042" t="s">
-        <v>3362</v>
+        <v>3363</v>
       </c>
       <c r="C1042" t="s">
-        <v>3356</v>
-      </c>
-      <c r="D1042" t="s">
-        <v>2316</v>
+        <v>3364</v>
+      </c>
+      <c r="D1042">
+        <v>68000</v>
       </c>
       <c r="E1042" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1042" t="s">
         <v>154</v>
       </c>
       <c r="H1042" t="s">
@@ -57043,15 +57069,15 @@
         <v>1492</v>
       </c>
       <c r="M1042" t="s">
-        <v>4455</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="1043" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1043">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="B1043" t="s">
-        <v>3363</v>
+        <v>3366</v>
       </c>
       <c r="C1043" t="s">
         <v>3364</v>
@@ -57069,18 +57095,18 @@
         <v>1492</v>
       </c>
       <c r="M1043" t="s">
-        <v>3365</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="1044" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1044">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="B1044" t="s">
-        <v>3366</v>
+        <v>3367</v>
       </c>
       <c r="C1044" t="s">
-        <v>3364</v>
+        <v>3368</v>
       </c>
       <c r="D1044">
         <v>68000</v>
@@ -57095,15 +57121,15 @@
         <v>1492</v>
       </c>
       <c r="M1044" t="s">
-        <v>4456</v>
+        <v>3369</v>
       </c>
     </row>
     <row r="1045" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1045">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="B1045" t="s">
-        <v>3367</v>
+        <v>3370</v>
       </c>
       <c r="C1045" t="s">
         <v>3368</v>
@@ -57121,18 +57147,18 @@
         <v>1492</v>
       </c>
       <c r="M1045" t="s">
-        <v>3369</v>
+        <v>3371</v>
       </c>
     </row>
     <row r="1046" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1046">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="B1046" t="s">
-        <v>3370</v>
+        <v>3372</v>
       </c>
       <c r="C1046" t="s">
-        <v>3368</v>
+        <v>3364</v>
       </c>
       <c r="D1046">
         <v>68000</v>
@@ -57147,15 +57173,15 @@
         <v>1492</v>
       </c>
       <c r="M1046" t="s">
-        <v>3371</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="1047" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1047">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="B1047" t="s">
-        <v>3372</v>
+        <v>3373</v>
       </c>
       <c r="C1047" t="s">
         <v>3364</v>
@@ -57173,41 +57199,38 @@
         <v>1492</v>
       </c>
       <c r="M1047" t="s">
-        <v>4457</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="1048" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1048">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="B1048" t="s">
-        <v>3373</v>
+        <v>3381</v>
       </c>
       <c r="C1048" t="s">
-        <v>3364</v>
-      </c>
-      <c r="D1048">
-        <v>68000</v>
+        <v>3382</v>
+      </c>
+      <c r="D1048" t="s">
+        <v>405</v>
       </c>
       <c r="E1048" t="s">
-        <v>154</v>
+        <v>1184</v>
       </c>
       <c r="H1048" t="s">
-        <v>551</v>
-      </c>
-      <c r="I1048" t="s">
-        <v>1492</v>
+        <v>71</v>
       </c>
       <c r="M1048" t="s">
-        <v>4458</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="1049" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1049">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="B1049" t="s">
-        <v>3381</v>
+        <v>3384</v>
       </c>
       <c r="C1049" t="s">
         <v>3382</v>
@@ -57222,15 +57245,15 @@
         <v>71</v>
       </c>
       <c r="M1049" t="s">
-        <v>3383</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="1050" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1050">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="B1050" t="s">
-        <v>3384</v>
+        <v>3386</v>
       </c>
       <c r="C1050" t="s">
         <v>3382</v>
@@ -57245,15 +57268,15 @@
         <v>71</v>
       </c>
       <c r="M1050" t="s">
-        <v>3385</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="1051" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1051">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="B1051" t="s">
-        <v>3386</v>
+        <v>3388</v>
       </c>
       <c r="C1051" t="s">
         <v>3382</v>
@@ -57268,38 +57291,38 @@
         <v>71</v>
       </c>
       <c r="M1051" t="s">
-        <v>3387</v>
+        <v>3389</v>
       </c>
     </row>
     <row r="1052" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1052">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="B1052" t="s">
-        <v>3388</v>
+        <v>3390</v>
       </c>
       <c r="C1052" t="s">
-        <v>3382</v>
+        <v>3391</v>
       </c>
       <c r="D1052" t="s">
-        <v>405</v>
+        <v>14</v>
       </c>
       <c r="E1052" t="s">
-        <v>1184</v>
+        <v>14</v>
       </c>
       <c r="H1052" t="s">
         <v>71</v>
       </c>
       <c r="M1052" t="s">
-        <v>3389</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="1053" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1053">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="B1053" t="s">
-        <v>3390</v>
+        <v>3393</v>
       </c>
       <c r="C1053" t="s">
         <v>3391</v>
@@ -57314,15 +57337,15 @@
         <v>71</v>
       </c>
       <c r="M1053" t="s">
-        <v>3392</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="1054" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1054">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B1054" t="s">
-        <v>3393</v>
+        <v>3395</v>
       </c>
       <c r="C1054" t="s">
         <v>3391</v>
@@ -57336,16 +57359,22 @@
       <c r="H1054" t="s">
         <v>71</v>
       </c>
+      <c r="I1054" t="s">
+        <v>840</v>
+      </c>
+      <c r="J1054" t="s">
+        <v>166</v>
+      </c>
       <c r="M1054" t="s">
-        <v>3394</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="1055" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1055">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="B1055" t="s">
-        <v>3395</v>
+        <v>3397</v>
       </c>
       <c r="C1055" t="s">
         <v>3391</v>
@@ -57366,15 +57395,15 @@
         <v>166</v>
       </c>
       <c r="M1055" t="s">
-        <v>3396</v>
+        <v>3398</v>
       </c>
     </row>
     <row r="1056" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1056">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B1056" t="s">
-        <v>3397</v>
+        <v>3399</v>
       </c>
       <c r="C1056" t="s">
         <v>3391</v>
@@ -57395,44 +57424,38 @@
         <v>166</v>
       </c>
       <c r="M1056" t="s">
-        <v>3398</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="1057" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1057">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="B1057" t="s">
-        <v>3399</v>
+        <v>3401</v>
       </c>
       <c r="C1057" t="s">
-        <v>3391</v>
+        <v>3402</v>
       </c>
       <c r="D1057" t="s">
         <v>14</v>
       </c>
       <c r="E1057" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1057" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1057" t="s">
-        <v>840</v>
-      </c>
-      <c r="J1057" t="s">
-        <v>166</v>
+        <v>962</v>
+      </c>
+      <c r="F1057" t="s">
+        <v>962</v>
       </c>
       <c r="M1057" t="s">
-        <v>3400</v>
+        <v>3403</v>
       </c>
     </row>
     <row r="1058" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1058">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="B1058" t="s">
-        <v>3401</v>
+        <v>3404</v>
       </c>
       <c r="C1058" t="s">
         <v>3402</v>
@@ -57447,15 +57470,15 @@
         <v>962</v>
       </c>
       <c r="M1058" t="s">
-        <v>3403</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="1059" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1059">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="B1059" t="s">
-        <v>3404</v>
+        <v>3406</v>
       </c>
       <c r="C1059" t="s">
         <v>3402</v>
@@ -57470,15 +57493,15 @@
         <v>962</v>
       </c>
       <c r="M1059" t="s">
-        <v>3405</v>
+        <v>3407</v>
       </c>
     </row>
     <row r="1060" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1060">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="B1060" t="s">
-        <v>3406</v>
+        <v>3408</v>
       </c>
       <c r="C1060" t="s">
         <v>3402</v>
@@ -57493,38 +57516,50 @@
         <v>962</v>
       </c>
       <c r="M1060" t="s">
-        <v>3407</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="1061" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1061">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="B1061" t="s">
-        <v>3408</v>
+        <v>3434</v>
       </c>
       <c r="C1061" t="s">
-        <v>3402</v>
+        <v>3435</v>
       </c>
       <c r="D1061" t="s">
-        <v>14</v>
+        <v>3436</v>
       </c>
       <c r="E1061" t="s">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="F1061" t="s">
-        <v>962</v>
+        <v>967</v>
+      </c>
+      <c r="H1061" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1061" t="s">
+        <v>551</v>
+      </c>
+      <c r="J1061" t="s">
+        <v>333</v>
+      </c>
+      <c r="K1061" t="s">
+        <v>997</v>
       </c>
       <c r="M1061" t="s">
-        <v>3409</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="1062" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1062">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B1062" t="s">
-        <v>3434</v>
+        <v>3438</v>
       </c>
       <c r="C1062" t="s">
         <v>3435</v>
@@ -57535,9 +57570,6 @@
       <c r="E1062" t="s">
         <v>967</v>
       </c>
-      <c r="F1062" t="s">
-        <v>967</v>
-      </c>
       <c r="H1062" t="s">
         <v>93</v>
       </c>
@@ -57545,21 +57577,21 @@
         <v>551</v>
       </c>
       <c r="J1062" t="s">
-        <v>333</v>
+        <v>166</v>
       </c>
       <c r="K1062" t="s">
         <v>997</v>
       </c>
       <c r="M1062" t="s">
-        <v>3437</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="1063" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1063">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="B1063" t="s">
-        <v>3438</v>
+        <v>3440</v>
       </c>
       <c r="C1063" t="s">
         <v>3435</v>
@@ -57583,15 +57615,15 @@
         <v>997</v>
       </c>
       <c r="M1063" t="s">
-        <v>3439</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="1064" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1064">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="B1064" t="s">
-        <v>3440</v>
+        <v>3442</v>
       </c>
       <c r="C1064" t="s">
         <v>3435</v>
@@ -57615,15 +57647,15 @@
         <v>997</v>
       </c>
       <c r="M1064" t="s">
-        <v>3441</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="1065" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1065">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="B1065" t="s">
-        <v>3442</v>
+        <v>3443</v>
       </c>
       <c r="C1065" t="s">
         <v>3435</v>
@@ -57647,15 +57679,15 @@
         <v>997</v>
       </c>
       <c r="M1065" t="s">
-        <v>4459</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="1066" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1066">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B1066" t="s">
-        <v>3443</v>
+        <v>3445</v>
       </c>
       <c r="C1066" t="s">
         <v>3435</v>
@@ -57679,15 +57711,15 @@
         <v>997</v>
       </c>
       <c r="M1066" t="s">
-        <v>3444</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="1067" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1067">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="B1067" t="s">
-        <v>3445</v>
+        <v>3447</v>
       </c>
       <c r="C1067" t="s">
         <v>3435</v>
@@ -57711,15 +57743,15 @@
         <v>997</v>
       </c>
       <c r="M1067" t="s">
-        <v>3446</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="1068" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1068">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="B1068" t="s">
-        <v>3447</v>
+        <v>3449</v>
       </c>
       <c r="C1068" t="s">
         <v>3435</v>
@@ -57743,15 +57775,15 @@
         <v>997</v>
       </c>
       <c r="M1068" t="s">
-        <v>3448</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="1069" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1069">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="B1069" t="s">
-        <v>3449</v>
+        <v>3451</v>
       </c>
       <c r="C1069" t="s">
         <v>3435</v>
@@ -57775,15 +57807,15 @@
         <v>997</v>
       </c>
       <c r="M1069" t="s">
-        <v>3450</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="1070" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1070">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="B1070" t="s">
-        <v>3451</v>
+        <v>3452</v>
       </c>
       <c r="C1070" t="s">
         <v>3435</v>
@@ -57807,15 +57839,15 @@
         <v>997</v>
       </c>
       <c r="M1070" t="s">
-        <v>4460</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="1071" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1071">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="B1071" t="s">
-        <v>3452</v>
+        <v>3453</v>
       </c>
       <c r="C1071" t="s">
         <v>3435</v>
@@ -57839,15 +57871,15 @@
         <v>997</v>
       </c>
       <c r="M1071" t="s">
-        <v>4461</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="1072" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1072">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="B1072" t="s">
-        <v>3453</v>
+        <v>3454</v>
       </c>
       <c r="C1072" t="s">
         <v>3435</v>
@@ -57868,18 +57900,18 @@
         <v>166</v>
       </c>
       <c r="K1072" t="s">
-        <v>997</v>
+        <v>1492</v>
       </c>
       <c r="M1072" t="s">
-        <v>4462</v>
+        <v>4463</v>
       </c>
     </row>
     <row r="1073" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1073">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="B1073" t="s">
-        <v>3454</v>
+        <v>3455</v>
       </c>
       <c r="C1073" t="s">
         <v>3435</v>
@@ -57903,15 +57935,15 @@
         <v>1492</v>
       </c>
       <c r="M1073" t="s">
-        <v>4463</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1074" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1074">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="B1074" t="s">
-        <v>3455</v>
+        <v>3456</v>
       </c>
       <c r="C1074" t="s">
         <v>3435</v>
@@ -57935,15 +57967,15 @@
         <v>1492</v>
       </c>
       <c r="M1074" t="s">
-        <v>4464</v>
+        <v>4465</v>
       </c>
     </row>
     <row r="1075" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1075">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="B1075" t="s">
-        <v>3456</v>
+        <v>3457</v>
       </c>
       <c r="C1075" t="s">
         <v>3435</v>
@@ -57967,15 +57999,15 @@
         <v>1492</v>
       </c>
       <c r="M1075" t="s">
-        <v>4465</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="1076" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1076">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="B1076" t="s">
-        <v>3457</v>
+        <v>3458</v>
       </c>
       <c r="C1076" t="s">
         <v>3435</v>
@@ -57999,15 +58031,15 @@
         <v>1492</v>
       </c>
       <c r="M1076" t="s">
-        <v>4466</v>
+        <v>4467</v>
       </c>
     </row>
     <row r="1077" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1077">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="B1077" t="s">
-        <v>3458</v>
+        <v>3459</v>
       </c>
       <c r="C1077" t="s">
         <v>3435</v>
@@ -58031,15 +58063,15 @@
         <v>1492</v>
       </c>
       <c r="M1077" t="s">
-        <v>4467</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="1078" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1078">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="B1078" t="s">
-        <v>3459</v>
+        <v>3460</v>
       </c>
       <c r="C1078" t="s">
         <v>3435</v>
@@ -58063,15 +58095,15 @@
         <v>1492</v>
       </c>
       <c r="M1078" t="s">
-        <v>4468</v>
+        <v>4469</v>
       </c>
     </row>
     <row r="1079" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1079">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="B1079" t="s">
-        <v>3460</v>
+   